--- a/Tab_5a_Indikatoren.xlsx
+++ b/Tab_5a_Indikatoren.xlsx
@@ -2978,7 +2978,7 @@
       </c>
       <c r="G54" s="4" t="inlineStr">
         <is>
-          <t>Market share of products certified by publicly managed eco-labelling schemes (in future: market share of products and services bearing trustworthy and demanding eco- and social labels)</t>
+          <t>Market share of products certified by publicly managed eco-labelling schemes</t>
         </is>
       </c>
       <c r="H54" s="4" t="inlineStr">

--- a/Tab_5a_Indikatoren.xlsx
+++ b/Tab_5a_Indikatoren.xlsx
@@ -435,7 +435,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I76"/>
+  <dimension ref="A1:I77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -1422,12 +1422,12 @@
       </c>
       <c r="F21" s="4" t="inlineStr">
         <is>
-          <t>Frauen in Führungspositionen in der Wirtschaft</t>
+          <t>In Aufsichtsräten der börsennotierten und paritätisch mitbestimmten Unternehmen</t>
         </is>
       </c>
       <c r="G21" s="4" t="inlineStr">
         <is>
-          <t>Women in management positions in business</t>
+          <t>On supervisory boards of listed and fully co-determined companies</t>
         </is>
       </c>
       <c r="H21" s="4" t="inlineStr">
@@ -1469,12 +1469,12 @@
       </c>
       <c r="F22" s="4" t="inlineStr">
         <is>
-          <t>Frauen in Führungspositionen im öffentlichen Dienst des Bundes</t>
+          <t>Im öffentlichen Dienst des Bundes</t>
         </is>
       </c>
       <c r="G22" s="4" t="inlineStr">
         <is>
-          <t>Women in management positions in the federal civil service</t>
+          <t>In management positions in the federal civil service</t>
         </is>
       </c>
       <c r="H22" s="4" t="inlineStr">
@@ -1679,7 +1679,7 @@
     <row outlineLevel="0" r="27">
       <c r="A27" s="4" t="inlineStr">
         <is>
-          <t>Z06_B02_P01_Ib01_I01</t>
+          <t>Z06_B02_P01_Ib01_I00</t>
         </is>
       </c>
       <c r="B27" s="4" t="inlineStr">
@@ -1694,39 +1694,39 @@
       </c>
       <c r="D27" s="4" t="inlineStr">
         <is>
-          <t>a) Trinkwasserversorgung</t>
+          <t>Trinkwasser- und Sanitärversorgung</t>
         </is>
       </c>
       <c r="E27" s="4" t="inlineStr">
         <is>
-          <t>a) Access to drinking water</t>
+          <t>Access to drinking water and sanitation</t>
         </is>
       </c>
       <c r="F27" s="4" t="inlineStr">
         <is>
-          <t>Anzahl der Menschen, die einen neuen oder hochwertigeren Zugang zur Trinkwasserversorgung durch deutsche Unterstützung erhalten</t>
+          <t/>
         </is>
       </c>
       <c r="G27" s="4" t="inlineStr">
         <is>
-          <t>Number of people gaining first-time or upgraded access to drinking water owing to German support</t>
+          <t/>
         </is>
       </c>
       <c r="H27" s="4" t="inlineStr">
         <is>
-          <t>6 Millionen Menschen pro Jahr bis 2030</t>
+          <t/>
         </is>
       </c>
       <c r="I27" s="4" t="inlineStr">
         <is>
-          <t>6 million people per year by 2030</t>
+          <t/>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="28">
       <c r="A28" s="4" t="inlineStr">
         <is>
-          <t>Z06_B02_P01_Ib01_I02</t>
+          <t>Z06_B02_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B28" s="4" t="inlineStr">
@@ -1736,91 +1736,91 @@
       </c>
       <c r="C28" s="4" t="inlineStr">
         <is>
-          <t>6.2.b</t>
+          <t>6.2.a</t>
         </is>
       </c>
       <c r="D28" s="4" t="inlineStr">
         <is>
-          <t>b) Sanitärversorgung</t>
+          <t>a) Trinkwasserversorgung</t>
         </is>
       </c>
       <c r="E28" s="4" t="inlineStr">
         <is>
-          <t>b) Access to sanitation</t>
+          <t>a) Access to drinking water</t>
         </is>
       </c>
       <c r="F28" s="4" t="inlineStr">
         <is>
-          <t>Anzahl der Menschen, die einen neuen oder verbesserten Anschluss zur Sanitärversorgung durch deutsche Unterstützung erhalten</t>
+          <t>Anzahl der Menschen, die einen neuen oder hochwertigeren Zugang zur Trinkwasserversorgung durch deutsche Unterstützung erhalten</t>
         </is>
       </c>
       <c r="G28" s="4" t="inlineStr">
         <is>
-          <t>Number of people gaining first-time or improved access to sanitation owing to German support</t>
+          <t>Number of people gaining first-time or upgraded access to drinking water owing to German support</t>
         </is>
       </c>
       <c r="H28" s="4" t="inlineStr">
         <is>
-          <t>4 Millionen Menschen pro Jahr bis 2030</t>
+          <t>6 Millionen Menschen pro Jahr bis 2030</t>
         </is>
       </c>
       <c r="I28" s="4" t="inlineStr">
         <is>
-          <t>4 million people per year by 2030</t>
+          <t>6 million people per year by 2030</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="29">
       <c r="A29" s="4" t="inlineStr">
         <is>
-          <t>Z07_B01_P01_Ib01_I01</t>
+          <t>Z06_B02_P01_Ib01_I02</t>
         </is>
       </c>
       <c r="B29" s="4" t="inlineStr">
         <is>
-          <t>Z07_B01_P01_Ib01</t>
+          <t>Z06_B02_P01_Ib01</t>
         </is>
       </c>
       <c r="C29" s="4" t="inlineStr">
         <is>
-          <t>7.1.a</t>
+          <t>6.2.b</t>
         </is>
       </c>
       <c r="D29" s="4" t="inlineStr">
         <is>
-          <t>a) Endenergieproduktivität</t>
+          <t>b) Sanitärversorgung</t>
         </is>
       </c>
       <c r="E29" s="4" t="inlineStr">
         <is>
-          <t>a) Final energy productivity</t>
+          <t>b) Access to sanitation</t>
         </is>
       </c>
       <c r="F29" s="4" t="inlineStr">
         <is>
-          <t>Endenergieproduktivität</t>
+          <t>Anzahl der Menschen, die einen neuen oder verbesserten Anschluss zur Sanitärversorgung durch deutsche Unterstützung erhalten</t>
         </is>
       </c>
       <c r="G29" s="4" t="inlineStr">
         <is>
-          <t>Final energy productivity</t>
+          <t>Number of people gaining first-time or improved access to sanitation owing to German support</t>
         </is>
       </c>
       <c r="H29" s="4" t="inlineStr">
         <is>
-          <t>Steigerung um 2,1 % pro Jahr im Zeitraum von 2008 – 2050</t>
+          <t>4 Millionen Menschen pro Jahr bis 2030</t>
         </is>
       </c>
       <c r="I29" s="4" t="inlineStr">
         <is>
-          <t>Increase by 2.1% per year from 2008 to 2050</t>
+          <t>4 million people per year by 2030</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="30">
       <c r="A30" s="4" t="inlineStr">
         <is>
-          <t>Z07_B01_P01_Ib01_I02</t>
+          <t>Z07_B01_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B30" s="4" t="inlineStr">
@@ -1830,101 +1830,101 @@
       </c>
       <c r="C30" s="4" t="inlineStr">
         <is>
-          <t>7.1.b</t>
+          <t>7.1.a</t>
         </is>
       </c>
       <c r="D30" s="4" t="inlineStr">
         <is>
-          <t>b) Primärenergieverbrauch</t>
+          <t>a) Endenergieproduktivität</t>
         </is>
       </c>
       <c r="E30" s="4" t="inlineStr">
         <is>
-          <t>b) Primary energy consumption</t>
+          <t>a) Final energy productivity</t>
         </is>
       </c>
       <c r="F30" s="4" t="inlineStr">
         <is>
-          <t>Primärenergieverbrauch</t>
+          <t>Endenergieproduktivität</t>
         </is>
       </c>
       <c r="G30" s="4" t="inlineStr">
         <is>
-          <t>Primary energy consumption</t>
+          <t>Final energy productivity</t>
         </is>
       </c>
       <c r="H30" s="4" t="inlineStr">
         <is>
-          <t>Senkung um 20 % bis 2020, um 30 % bis 2030 und um 50 % bis 2050 jeweils gegenüber 2008</t>
+          <t>Steigerung um 2,1 % pro Jahr im Zeitraum von 2008 – 2050</t>
         </is>
       </c>
       <c r="I30" s="4" t="inlineStr">
         <is>
-          <t>Reduction by 20% by 2020, by 30% by 2030, and by 50% by 2050, all compared to 2008</t>
+          <t>Increase by 2.1% per year from 2008 to 2050</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="31">
       <c r="A31" s="4" t="inlineStr">
         <is>
-          <t>Z07_B02_P01_Ib01_I01</t>
+          <t>Z07_B01_P01_Ib01_I02</t>
         </is>
       </c>
       <c r="B31" s="4" t="inlineStr">
         <is>
-          <t>Z07_B02_P01_Ib01</t>
+          <t>Z07_B01_P01_Ib01</t>
         </is>
       </c>
       <c r="C31" s="4" t="inlineStr">
         <is>
-          <t>7.2.a</t>
+          <t>7.1.b</t>
         </is>
       </c>
       <c r="D31" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>b) Primärenergieverbrauch</t>
         </is>
       </c>
       <c r="E31" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>b) Primary energy consumption</t>
         </is>
       </c>
       <c r="F31" s="4" t="inlineStr">
         <is>
-          <t>Anteil erneuerbarer Energien am Brutto-Endenergieverbrauch</t>
+          <t>Primärenergieverbrauch</t>
         </is>
       </c>
       <c r="G31" s="4" t="inlineStr">
         <is>
-          <t>Share of renewable energies in gross final energy consumption</t>
+          <t>Primary energy consumption</t>
         </is>
       </c>
       <c r="H31" s="4" t="inlineStr">
         <is>
-          <t>Anstieg auf 18 % bis 2020, auf 30 % bis 2030, auf 45 % bis 2040 und auf 60 % bis 2050</t>
+          <t>Senkung um 20 % bis 2020, um 30 % bis 2030 und um 50 % bis 2050 jeweils gegenüber 2008</t>
         </is>
       </c>
       <c r="I31" s="4" t="inlineStr">
         <is>
-          <t>Increase to 18% by 2020 and to 30% by 2030, to 45% by 2040 and to 60% by 2050</t>
+          <t>Reduction by 20% by 2020, by 30% by 2030, and by 50% by 2050, all compared to 2008</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="32">
       <c r="A32" s="4" t="inlineStr">
         <is>
-          <t>Z07_B02_P01_Ib02_I01</t>
+          <t>Z07_B02_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B32" s="4" t="inlineStr">
         <is>
-          <t>Z07_B02_P01_Ib02</t>
+          <t>Z07_B02_P01_Ib01</t>
         </is>
       </c>
       <c r="C32" s="4" t="inlineStr">
         <is>
-          <t>7.2.b</t>
+          <t>7.2.a</t>
         </is>
       </c>
       <c r="D32" s="4" t="inlineStr">
@@ -1939,39 +1939,39 @@
       </c>
       <c r="F32" s="4" t="inlineStr">
         <is>
-          <t>Anteil des Stroms aus erneuerbaren Energiequellen am Bruttostromverbrauch</t>
+          <t>Anteil erneuerbarer Energien am Brutto-Endenergieverbrauch</t>
         </is>
       </c>
       <c r="G32" s="4" t="inlineStr">
         <is>
-          <t>Share of electricity from renewable energy sources in gross electricity consumption</t>
+          <t>Share of renewable energies in gross final energy consumption</t>
         </is>
       </c>
       <c r="H32" s="4" t="inlineStr">
         <is>
-          <t>Anstieg auf mindestens 35 % bis 2020, 65 % bis 2030 und Treibhausgasneutralität des in Deutschland erzeugten und verbrauchten Stroms bis 2050</t>
+          <t>Anstieg auf 18 % bis 2020, auf 30 % bis 2030, auf 45 % bis 2040 und auf 60 % bis 2050</t>
         </is>
       </c>
       <c r="I32" s="4" t="inlineStr">
         <is>
-          <t>Increase to at least 35% by 2020, 65% by 2030, and greenhouse gas neutrality of electricity generated and consumed in Germany by 2050</t>
+          <t>Increase to 18% by 2020 and to 30% by 2030, to 45% by 2040 and to 60% by 2050</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="33">
       <c r="A33" s="4" t="inlineStr">
         <is>
-          <t>Z08_B01_P01_Ib01_I01</t>
+          <t>Z07_B02_P01_Ib02_I01</t>
         </is>
       </c>
       <c r="B33" s="4" t="inlineStr">
         <is>
-          <t>Z08_B01_P01_Ib01</t>
+          <t>Z07_B02_P01_Ib02</t>
         </is>
       </c>
       <c r="C33" s="4" t="inlineStr">
         <is>
-          <t>8.1</t>
+          <t>7.2.b</t>
         </is>
       </c>
       <c r="D33" s="4" t="inlineStr">
@@ -1986,76 +1986,76 @@
       </c>
       <c r="F33" s="4" t="inlineStr">
         <is>
-          <t>Gesamtrohstoffproduktivität</t>
+          <t>Anteil des Stroms aus erneuerbaren Energiequellen am Bruttostromverbrauch</t>
         </is>
       </c>
       <c r="G33" s="4" t="inlineStr">
         <is>
-          <t>Raw material input productivity</t>
+          <t>Share of electricity from renewable energy sources in gross electricity consumption</t>
         </is>
       </c>
       <c r="H33" s="4" t="inlineStr">
         <is>
-          <t>Beibehaltung des Trends der Jahre 2000 – 2010 bis 2030</t>
+          <t>Anstieg auf mindestens 35 % bis 2020, 65 % bis 2030 und Treibhausgasneutralität des in Deutschland erzeugten und verbrauchten Stroms bis 2050</t>
         </is>
       </c>
       <c r="I33" s="4" t="inlineStr">
         <is>
-          <t>Trend of the years 2000–2010 to be maintained until 2030</t>
+          <t>Increase to at least 35% by 2020, 65% by 2030, and greenhouse gas neutrality of electricity generated and consumed in Germany by 2050</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="34">
       <c r="A34" s="4" t="inlineStr">
         <is>
-          <t>Z08_B02_P01_Ib01_I01</t>
+          <t>Z08_B01_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B34" s="4" t="inlineStr">
         <is>
-          <t>Z08_B02_P01_Ib01</t>
+          <t>Z08_B01_P01_Ib01</t>
         </is>
       </c>
       <c r="C34" s="4" t="inlineStr">
         <is>
-          <t>8.2.a</t>
+          <t>8.1</t>
         </is>
       </c>
       <c r="D34" s="4" t="inlineStr">
         <is>
-          <t>a) Staatsdefizit</t>
+          <t/>
         </is>
       </c>
       <c r="E34" s="4" t="inlineStr">
         <is>
-          <t>a) Government deficit</t>
+          <t/>
         </is>
       </c>
       <c r="F34" s="4" t="inlineStr">
         <is>
-          <t>Staatsdefizit</t>
+          <t>Gesamtrohstoffproduktivität</t>
         </is>
       </c>
       <c r="G34" s="4" t="inlineStr">
         <is>
-          <t>Government deficit</t>
+          <t>Raw material input productivity</t>
         </is>
       </c>
       <c r="H34" s="4" t="inlineStr">
         <is>
-          <t>Jährliches Staatsdefizit kleiner als 3 % des BIP, Beibehaltung bis 2030</t>
+          <t>Beibehaltung des Trends der Jahre 2000 – 2010 bis 2030</t>
         </is>
       </c>
       <c r="I34" s="4" t="inlineStr">
         <is>
-          <t>Annual government deficit less than 3% of GDP, to be maintained until 2030</t>
+          <t>Trend of the years 2000–2010 to be maintained until 2030</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="35">
       <c r="A35" s="4" t="inlineStr">
         <is>
-          <t>Z08_B02_P01_Ib01_I02</t>
+          <t>Z08_B02_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B35" s="4" t="inlineStr">
@@ -2065,101 +2065,101 @@
       </c>
       <c r="C35" s="4" t="inlineStr">
         <is>
-          <t>8.2.b</t>
+          <t>8.2.a</t>
         </is>
       </c>
       <c r="D35" s="4" t="inlineStr">
         <is>
-          <t>b) Strukturelles Defizit</t>
+          <t>a) Staatsdefizit</t>
         </is>
       </c>
       <c r="E35" s="4" t="inlineStr">
         <is>
-          <t>b) Structural deficit</t>
+          <t>a) Government deficit</t>
         </is>
       </c>
       <c r="F35" s="4" t="inlineStr">
         <is>
-          <t>Strukturelles Defizit</t>
+          <t>Staatsdefizit</t>
         </is>
       </c>
       <c r="G35" s="4" t="inlineStr">
         <is>
-          <t>Structural deficit</t>
+          <t>Government deficit</t>
         </is>
       </c>
       <c r="H35" s="4" t="inlineStr">
         <is>
-          <t>Strukturell ausgeglichener Staatshaushalt, gesamtstaatliches strukturelles Defizit von max. 0,5 % des BIP, Beibehaltung bis 2030</t>
+          <t>Jährliches Staatsdefizit kleiner als 3 % des BIP, Beibehaltung bis 2030</t>
         </is>
       </c>
       <c r="I35" s="4" t="inlineStr">
         <is>
-          <t>Structurally balanced government budget, general government structural deficit must not exceed 0.5% of GDP, to be maintained until 2030</t>
+          <t>Annual government deficit less than 3% of GDP, to be maintained until 2030</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="36">
       <c r="A36" s="4" t="inlineStr">
         <is>
-          <t>Z08_B02_P01_Ib02_I01</t>
+          <t>Z08_B02_P01_Ib01_I02</t>
         </is>
       </c>
       <c r="B36" s="4" t="inlineStr">
         <is>
-          <t>Z08_B02_P01_Ib02</t>
+          <t>Z08_B02_P01_Ib01</t>
         </is>
       </c>
       <c r="C36" s="4" t="inlineStr">
         <is>
-          <t>8.2.c</t>
+          <t>8.2.b</t>
         </is>
       </c>
       <c r="D36" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>b) Strukturelles Defizit</t>
         </is>
       </c>
       <c r="E36" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>b) Structural deficit</t>
         </is>
       </c>
       <c r="F36" s="4" t="inlineStr">
         <is>
-          <t>Schuldenstand</t>
+          <t>Strukturelles Defizit</t>
         </is>
       </c>
       <c r="G36" s="4" t="inlineStr">
         <is>
-          <t>Government debt</t>
+          <t>Structural deficit</t>
         </is>
       </c>
       <c r="H36" s="4" t="inlineStr">
         <is>
-          <t>Schuldenstandsquote max. 60 % des BIP, Beibehaltung bis 2030</t>
+          <t>Strukturell ausgeglichener Staatshaushalt, gesamtstaatliches strukturelles Defizit von max. 0,5 % des BIP, Beibehaltung bis 2030</t>
         </is>
       </c>
       <c r="I36" s="4" t="inlineStr">
         <is>
-          <t>Ratio of government debt to GDP must not exceed  60%, to be maintained until 2030</t>
+          <t>Structurally balanced government budget, general government structural deficit must not exceed 0.5% of GDP, to be maintained until 2030</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="37">
       <c r="A37" s="4" t="inlineStr">
         <is>
-          <t>Z08_B03_P01_Ib01_I01</t>
+          <t>Z08_B02_P01_Ib02_I01</t>
         </is>
       </c>
       <c r="B37" s="4" t="inlineStr">
         <is>
-          <t>Z08_B03_P01_Ib01</t>
+          <t>Z08_B02_P01_Ib02</t>
         </is>
       </c>
       <c r="C37" s="4" t="inlineStr">
         <is>
-          <t>8.3</t>
+          <t>8.2.c</t>
         </is>
       </c>
       <c r="D37" s="4" t="inlineStr">
@@ -2174,39 +2174,39 @@
       </c>
       <c r="F37" s="4" t="inlineStr">
         <is>
-          <t>Verhältnis der Bruttoanlageinvestitionen zum BIP</t>
+          <t>Schuldenstand</t>
         </is>
       </c>
       <c r="G37" s="4" t="inlineStr">
         <is>
-          <t>Gross fixed capital formation in relation to GDP</t>
+          <t>Government debt</t>
         </is>
       </c>
       <c r="H37" s="4" t="inlineStr">
         <is>
-          <t>Angemessene Entwicklung des Anteils, Beibehaltung bis 2030</t>
+          <t>Schuldenstandsquote max. 60 % des BIP, Beibehaltung bis 2030</t>
         </is>
       </c>
       <c r="I37" s="4" t="inlineStr">
         <is>
-          <t>Appropriate development of the ratio, to be maintained until 2030</t>
+          <t>Ratio of government debt to GDP must not exceed  60%, to be maintained until 2030</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="38">
       <c r="A38" s="4" t="inlineStr">
         <is>
-          <t>Z08_B04_P01_Ib01_I01</t>
+          <t>Z08_B03_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B38" s="4" t="inlineStr">
         <is>
-          <t>Z08_B04_P01_Ib01</t>
+          <t>Z08_B03_P01_Ib01</t>
         </is>
       </c>
       <c r="C38" s="4" t="inlineStr">
         <is>
-          <t>8.4</t>
+          <t>8.3</t>
         </is>
       </c>
       <c r="D38" s="4" t="inlineStr">
@@ -2221,76 +2221,76 @@
       </c>
       <c r="F38" s="4" t="inlineStr">
         <is>
-          <t>Bruttoinlandsprodukt je Einwohner</t>
+          <t>Verhältnis der Bruttoanlageinvestitionen zum BIP</t>
         </is>
       </c>
       <c r="G38" s="4" t="inlineStr">
         <is>
-          <t>Gross domestic product per capita</t>
+          <t>Gross fixed capital formation in relation to GDP</t>
         </is>
       </c>
       <c r="H38" s="4" t="inlineStr">
         <is>
-          <t>Stetiges und angemessenes Wirtschaftswachstum</t>
+          <t>Angemessene Entwicklung des Anteils, Beibehaltung bis 2030</t>
         </is>
       </c>
       <c r="I38" s="4" t="inlineStr">
         <is>
-          <t>Steady and appropriate economic growth</t>
+          <t>Appropriate development of the ratio, to be maintained until 2030</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="39">
       <c r="A39" s="4" t="inlineStr">
         <is>
-          <t>Z08_B05_P01_Ib01_I01</t>
+          <t>Z08_B04_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B39" s="4" t="inlineStr">
         <is>
-          <t>Z08_B05_P01_Ib01</t>
+          <t>Z08_B04_P01_Ib01</t>
         </is>
       </c>
       <c r="C39" s="4" t="inlineStr">
         <is>
-          <t>8.5.a</t>
+          <t>8.4</t>
         </is>
       </c>
       <c r="D39" s="4" t="inlineStr">
         <is>
-          <t>a) Insgesamt (20-64 Jahre)</t>
+          <t/>
         </is>
       </c>
       <c r="E39" s="4" t="inlineStr">
         <is>
-          <t>a) total (20 to 64- year-olds)</t>
+          <t/>
         </is>
       </c>
       <c r="F39" s="4" t="inlineStr">
         <is>
-          <t>Erwerbstätigenquote insgesamt (20 bis 64 Jahre)</t>
+          <t>Bruttoinlandsprodukt je Einwohner</t>
         </is>
       </c>
       <c r="G39" s="4" t="inlineStr">
         <is>
-          <t>Employment rate, total (20 to 64-year-olds)</t>
+          <t>Gross domestic product per capita</t>
         </is>
       </c>
       <c r="H39" s="4" t="inlineStr">
         <is>
-          <t>Erhöhung auf 78 % bis 2030</t>
+          <t>Stetiges und angemessenes Wirtschaftswachstum</t>
         </is>
       </c>
       <c r="I39" s="4" t="inlineStr">
         <is>
-          <t>Increase to 78% by 2030</t>
+          <t>Steady and appropriate economic growth</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="40">
       <c r="A40" s="4" t="inlineStr">
         <is>
-          <t>Z08_B05_P01_Ib01_I02</t>
+          <t>Z08_B05_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B40" s="4" t="inlineStr">
@@ -2300,101 +2300,101 @@
       </c>
       <c r="C40" s="4" t="inlineStr">
         <is>
-          <t>8.5.b</t>
+          <t>8.5.a</t>
         </is>
       </c>
       <c r="D40" s="4" t="inlineStr">
         <is>
-          <t>b) Ältere (60-64 Jahre)</t>
+          <t>a) Insgesamt (20-64 Jahre)</t>
         </is>
       </c>
       <c r="E40" s="4" t="inlineStr">
         <is>
-          <t>b) older people (60 to 64-year-olds)</t>
+          <t>a) total (20 to 64- year-olds)</t>
         </is>
       </c>
       <c r="F40" s="4" t="inlineStr">
         <is>
-          <t>Erwerbstätigenquote Ältere (60 bis 64 Jahre)</t>
+          <t>Erwerbstätigenquote insgesamt (20 bis 64 Jahre)</t>
         </is>
       </c>
       <c r="G40" s="4" t="inlineStr">
         <is>
-          <t>Employment rate, older people (60 to 64-year-olds)</t>
+          <t>Employment rate, total (20 to 64-year-olds)</t>
         </is>
       </c>
       <c r="H40" s="4" t="inlineStr">
         <is>
-          <t>Erhöhung auf 60 % bis 2030</t>
+          <t>Erhöhung auf 78 % bis 2030</t>
         </is>
       </c>
       <c r="I40" s="4" t="inlineStr">
         <is>
-          <t>Increase to 60% by 2030</t>
+          <t>Increase to 78% by 2030</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="41">
       <c r="A41" s="4" t="inlineStr">
         <is>
-          <t>Z08_B06_P01_Ib01_I01</t>
+          <t>Z08_B05_P01_Ib01_I02</t>
         </is>
       </c>
       <c r="B41" s="4" t="inlineStr">
         <is>
-          <t>Z08_B06_P01_Ib01</t>
+          <t>Z08_B05_P01_Ib01</t>
         </is>
       </c>
       <c r="C41" s="4" t="inlineStr">
         <is>
-          <t>8.6</t>
+          <t>8.5.b</t>
         </is>
       </c>
       <c r="D41" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>b) Ältere (60-64 Jahre)</t>
         </is>
       </c>
       <c r="E41" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>b) older people (60 to 64-year-olds)</t>
         </is>
       </c>
       <c r="F41" s="4" t="inlineStr">
         <is>
-          <t>Mitglieder des Textilbündnisses</t>
+          <t>Erwerbstätigenquote Ältere (60 bis 64 Jahre)</t>
         </is>
       </c>
       <c r="G41" s="4" t="inlineStr">
         <is>
-          <t>Members of the Textile Partnership</t>
+          <t>Employment rate, older people (60 to 64-year-olds)</t>
         </is>
       </c>
       <c r="H41" s="4" t="inlineStr">
         <is>
-          <t>Signifikante Steigerung bis 2030</t>
+          <t>Erhöhung auf 60 % bis 2030</t>
         </is>
       </c>
       <c r="I41" s="4" t="inlineStr">
         <is>
-          <t>Significantly increase by 2030</t>
+          <t>Increase to 60% by 2030</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="42">
       <c r="A42" s="4" t="inlineStr">
         <is>
-          <t>Z09_B01_P01_Ib01_I01</t>
+          <t>Z08_B06_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B42" s="4" t="inlineStr">
         <is>
-          <t>Z09_B01_P01_Ib01</t>
+          <t>Z08_B06_P01_Ib01</t>
         </is>
       </c>
       <c r="C42" s="4" t="inlineStr">
         <is>
-          <t>9.1.a</t>
+          <t>8.6</t>
         </is>
       </c>
       <c r="D42" s="4" t="inlineStr">
@@ -2409,39 +2409,39 @@
       </c>
       <c r="F42" s="4" t="inlineStr">
         <is>
-          <t>Private und öffentliche Ausgaben für Forschung und Entwicklung</t>
+          <t>Mitglieder des Textilbündnisses</t>
         </is>
       </c>
       <c r="G42" s="4" t="inlineStr">
         <is>
-          <t>Private and public expenditure on research and development</t>
+          <t>Members of the Textile Partnership</t>
         </is>
       </c>
       <c r="H42" s="4" t="inlineStr">
         <is>
-          <t>Jährlich mindestens 3,5 % des BIP bis 2025</t>
+          <t>Signifikante Steigerung bis 2030</t>
         </is>
       </c>
       <c r="I42" s="4" t="inlineStr">
         <is>
-          <t>At least 3.5% of GDP per year by 2025</t>
+          <t>Significantly increase by 2030</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="43">
       <c r="A43" s="4" t="inlineStr">
         <is>
-          <t>Z09_B01_P01_Ib02_I01</t>
+          <t>Z09_B01_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B43" s="4" t="inlineStr">
         <is>
-          <t>Z09_B01_P01_Ib02</t>
+          <t>Z09_B01_P01_Ib01</t>
         </is>
       </c>
       <c r="C43" s="4" t="inlineStr">
         <is>
-          <t>9.1.b</t>
+          <t>9.1.a</t>
         </is>
       </c>
       <c r="D43" s="4" t="inlineStr">
@@ -2456,39 +2456,39 @@
       </c>
       <c r="F43" s="4" t="inlineStr">
         <is>
-          <t>Breitbandausbau – Anteil der Haushalte mit Zugang zu Gigabit-Breitbandversorgung</t>
+          <t>Private und öffentliche Ausgaben für Forschung und Entwicklung</t>
         </is>
       </c>
       <c r="G43" s="4" t="inlineStr">
         <is>
-          <t>Roll-out of broadband – share of households with access to gigabit broadband services</t>
+          <t>Private and public expenditure on research and development</t>
         </is>
       </c>
       <c r="H43" s="4" t="inlineStr">
         <is>
-          <t>Flächendeckender Aufbau von Gigabitnetzen bis 2025</t>
+          <t>Jährlich mindestens 3,5 % des BIP bis 2025</t>
         </is>
       </c>
       <c r="I43" s="4" t="inlineStr">
         <is>
-          <t>Universal gigabit network Roll-out by 2025</t>
+          <t>At least 3.5% of GDP per year by 2025</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="44">
       <c r="A44" s="4" t="inlineStr">
         <is>
-          <t>Z10_B01_P01_Ib01_I01</t>
+          <t>Z09_B01_P01_Ib02_I01</t>
         </is>
       </c>
       <c r="B44" s="4" t="inlineStr">
         <is>
-          <t>Z10_B01_P01_Ib01</t>
+          <t>Z09_B01_P01_Ib02</t>
         </is>
       </c>
       <c r="C44" s="4" t="inlineStr">
         <is>
-          <t>10.1</t>
+          <t>9.1.b</t>
         </is>
       </c>
       <c r="D44" s="4" t="inlineStr">
@@ -2503,39 +2503,39 @@
       </c>
       <c r="F44" s="4" t="inlineStr">
         <is>
-          <t>Ausländische Schulabsolventinnen und Schulabsolventen</t>
+          <t>Breitbandausbau – Anteil der Haushalte mit Zugang zu Gigabit-Breitbandversorgung</t>
         </is>
       </c>
       <c r="G44" s="4" t="inlineStr">
         <is>
-          <t>Foreign school graduates</t>
+          <t>Roll-out of broadband – share of households with access to gigabit broadband services</t>
         </is>
       </c>
       <c r="H44" s="4" t="inlineStr">
         <is>
-          <t>Erhöhung des Anteils der ausländischen Schulabgänger mit mindestens Hauptschulabschluss und Angleichung an die Quote deutscher Schulabgänger bis 2030</t>
+          <t>Flächendeckender Aufbau von Gigabitnetzen bis 2025</t>
         </is>
       </c>
       <c r="I44" s="4" t="inlineStr">
         <is>
-          <t>Increase the proportion of foreign school leavers with a least a secondary general school certificate and bring into line with that of German school leavers by 2030</t>
+          <t>Universal gigabit network Roll-out by 2025</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="45">
       <c r="A45" s="4" t="inlineStr">
         <is>
-          <t>Z10_B02_P01_Ib01_I01</t>
+          <t>Z10_B01_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B45" s="4" t="inlineStr">
         <is>
-          <t>Z10_B02_P01_Ib01</t>
+          <t>Z10_B01_P01_Ib01</t>
         </is>
       </c>
       <c r="C45" s="4" t="inlineStr">
         <is>
-          <t>10.2</t>
+          <t>10.1</t>
         </is>
       </c>
       <c r="D45" s="4" t="inlineStr">
@@ -2550,39 +2550,39 @@
       </c>
       <c r="F45" s="4" t="inlineStr">
         <is>
-          <t>Gini-Koeffizient des Einkommens nach Sozialtransfers</t>
+          <t>Ausländische Schulabsolventinnen und Schulabsolventen</t>
         </is>
       </c>
       <c r="G45" s="4" t="inlineStr">
         <is>
-          <t>Gini coefficient of income after social transfers</t>
+          <t>Foreign school graduates</t>
         </is>
       </c>
       <c r="H45" s="4" t="inlineStr">
         <is>
-          <t>Gini-Koeffizient Einkommen nach Sozialtransfer bis 2030 unterhalb des EU-28-Wertes</t>
+          <t>Erhöhung des Anteils der ausländischen Schulabgänger mit mindestens Hauptschulabschluss und Angleichung an die Quote deutscher Schulabgänger bis 2030</t>
         </is>
       </c>
       <c r="I45" s="4" t="inlineStr">
         <is>
-          <t>Gini coefficient of income after social transfers to be below the EU28 figure by 2030</t>
+          <t>Increase the proportion of foreign school leavers with a least a secondary general school certificate and bring into line with that of German school leavers by 2030</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="46">
       <c r="A46" s="4" t="inlineStr">
         <is>
-          <t>Z11_B01_P01_Ib01_I01</t>
+          <t>Z10_B02_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B46" s="4" t="inlineStr">
         <is>
-          <t>Z11_B01_P01_Ib01</t>
+          <t>Z10_B02_P01_Ib01</t>
         </is>
       </c>
       <c r="C46" s="4" t="inlineStr">
         <is>
-          <t>11.1.a</t>
+          <t>10.2</t>
         </is>
       </c>
       <c r="D46" s="4" t="inlineStr">
@@ -2597,39 +2597,39 @@
       </c>
       <c r="F46" s="4" t="inlineStr">
         <is>
-          <t>Anstieg der Siedlungs- und Verkehrsfläche in ha pro Tag</t>
+          <t>Gini-Koeffizient des Einkommens nach Sozialtransfers</t>
         </is>
       </c>
       <c r="G46" s="4" t="inlineStr">
         <is>
-          <t>Expansion of settlement and transport area in ha per day</t>
+          <t>Gini coefficient of income after social transfers</t>
         </is>
       </c>
       <c r="H46" s="4" t="inlineStr">
         <is>
-          <t>Senkung auf durchschnittlich unter 30 ha pro Tag bis 2030</t>
+          <t>Gini-Koeffizient Einkommen nach Sozialtransfer bis 2030 unterhalb des EU-28-Wertes</t>
         </is>
       </c>
       <c r="I46" s="4" t="inlineStr">
         <is>
-          <t>Reduction to under 30 ha on average per day by 2030</t>
+          <t>Gini coefficient of income after social transfers to be below the EU28 figure by 2030</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="47">
       <c r="A47" s="4" t="inlineStr">
         <is>
-          <t>Z11_B01_P01_Ib02_I01</t>
+          <t>Z11_B01_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B47" s="4" t="inlineStr">
         <is>
-          <t>Z11_B01_P01_Ib02</t>
+          <t>Z11_B01_P01_Ib01</t>
         </is>
       </c>
       <c r="C47" s="4" t="inlineStr">
         <is>
-          <t>11.1.b</t>
+          <t>11.1.a</t>
         </is>
       </c>
       <c r="D47" s="4" t="inlineStr">
@@ -2644,39 +2644,39 @@
       </c>
       <c r="F47" s="4" t="inlineStr">
         <is>
-          <t>Freiraumverlust</t>
+          <t>Anstieg der Siedlungs- und Verkehrsfläche in ha pro Tag</t>
         </is>
       </c>
       <c r="G47" s="4" t="inlineStr">
         <is>
-          <t>Loss of open space area</t>
+          <t>Expansion of settlement and transport area in ha per day</t>
         </is>
       </c>
       <c r="H47" s="4" t="inlineStr">
         <is>
-          <t>Verringerung des einwohnerbezogenen Freiflächenverlustes</t>
+          <t>Senkung auf durchschnittlich unter 30 ha pro Tag bis 2030</t>
         </is>
       </c>
       <c r="I47" s="4" t="inlineStr">
         <is>
-          <t>Reduce the loss of per capita open space area</t>
+          <t>Reduction to under 30 ha on average per day by 2030</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="48">
       <c r="A48" s="4" t="inlineStr">
         <is>
-          <t>Z11_B01_P01_Ib03_I01</t>
+          <t>Z11_B01_P01_Ib02_I01</t>
         </is>
       </c>
       <c r="B48" s="4" t="inlineStr">
         <is>
-          <t>Z11_B01_P01_Ib03</t>
+          <t>Z11_B01_P01_Ib02</t>
         </is>
       </c>
       <c r="C48" s="4" t="inlineStr">
         <is>
-          <t>11.1.c</t>
+          <t>11.1.b</t>
         </is>
       </c>
       <c r="D48" s="4" t="inlineStr">
@@ -2691,39 +2691,39 @@
       </c>
       <c r="F48" s="4" t="inlineStr">
         <is>
-          <t>Siedlungsdichte</t>
+          <t>Freiraumverlust</t>
         </is>
       </c>
       <c r="G48" s="4" t="inlineStr">
         <is>
-          <t>Density of settlements</t>
+          <t>Loss of open space area</t>
         </is>
       </c>
       <c r="H48" s="4" t="inlineStr">
         <is>
-          <t>Keine Verringerung der Siedlungsdichte</t>
+          <t>Verringerung des einwohnerbezogenen Freiflächenverlustes</t>
         </is>
       </c>
       <c r="I48" s="4" t="inlineStr">
         <is>
-          <t>No reduction in density of settlements</t>
+          <t>Reduce the loss of per capita open space area</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="49">
       <c r="A49" s="4" t="inlineStr">
         <is>
-          <t>Z11_B02_P01_Ib01_I01</t>
+          <t>Z11_B01_P01_Ib03_I01</t>
         </is>
       </c>
       <c r="B49" s="4" t="inlineStr">
         <is>
-          <t>Z11_B02_P01_Ib01</t>
+          <t>Z11_B01_P01_Ib03</t>
         </is>
       </c>
       <c r="C49" s="4" t="inlineStr">
         <is>
-          <t>11.2.a</t>
+          <t>11.1.c</t>
         </is>
       </c>
       <c r="D49" s="4" t="inlineStr">
@@ -2738,39 +2738,39 @@
       </c>
       <c r="F49" s="4" t="inlineStr">
         <is>
-          <t>Endenergieverbrauch im Güterverkehr</t>
+          <t>Siedlungsdichte</t>
         </is>
       </c>
       <c r="G49" s="4" t="inlineStr">
         <is>
-          <t>Final energy consumption in goods transport</t>
+          <t>Density of settlements</t>
         </is>
       </c>
       <c r="H49" s="4" t="inlineStr">
         <is>
-          <t>Senkung um 15 bis 20 % bis 2030</t>
+          <t>Keine Verringerung der Siedlungsdichte</t>
         </is>
       </c>
       <c r="I49" s="4" t="inlineStr">
         <is>
-          <t>Reduction by 15–20% by 2030</t>
+          <t>No reduction in density of settlements</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="50">
       <c r="A50" s="4" t="inlineStr">
         <is>
-          <t>Z11_B02_P01_Ib02_I01</t>
+          <t>Z11_B02_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B50" s="4" t="inlineStr">
         <is>
-          <t>Z11_B02_P01_Ib02</t>
+          <t>Z11_B02_P01_Ib01</t>
         </is>
       </c>
       <c r="C50" s="4" t="inlineStr">
         <is>
-          <t>11.2.b</t>
+          <t>11.2.a</t>
         </is>
       </c>
       <c r="D50" s="4" t="inlineStr">
@@ -2785,12 +2785,12 @@
       </c>
       <c r="F50" s="4" t="inlineStr">
         <is>
-          <t>Endenergieverbrauch im Personenverkehr</t>
+          <t>Endenergieverbrauch im Güterverkehr</t>
         </is>
       </c>
       <c r="G50" s="4" t="inlineStr">
         <is>
-          <t>Final energy consumption in passenger transport</t>
+          <t>Final energy consumption in goods transport</t>
         </is>
       </c>
       <c r="H50" s="4" t="inlineStr">
@@ -2807,17 +2807,17 @@
     <row outlineLevel="0" r="51">
       <c r="A51" s="4" t="inlineStr">
         <is>
-          <t>Z11_B02_P01_Ib03_I01</t>
+          <t>Z11_B02_P01_Ib02_I01</t>
         </is>
       </c>
       <c r="B51" s="4" t="inlineStr">
         <is>
-          <t>Z11_B02_P01_Ib03</t>
+          <t>Z11_B02_P01_Ib02</t>
         </is>
       </c>
       <c r="C51" s="4" t="inlineStr">
         <is>
-          <t>11.2.c</t>
+          <t>11.2.b</t>
         </is>
       </c>
       <c r="D51" s="4" t="inlineStr">
@@ -2832,39 +2832,39 @@
       </c>
       <c r="F51" s="4" t="inlineStr">
         <is>
-          <t>Erreichbarkeit von Mittel- und Oberzentren mit öffentlichen Verkehrsmitteln</t>
+          <t>Endenergieverbrauch im Personenverkehr</t>
         </is>
       </c>
       <c r="G51" s="4" t="inlineStr">
         <is>
-          <t>Accessibility of medium-sized and large cities by public transport</t>
+          <t>Final energy consumption in passenger transport</t>
         </is>
       </c>
       <c r="H51" s="4" t="inlineStr">
         <is>
-          <t>Verringerung der durchschnittlichen Reisezeit mit öffentlichen Verkehrsmitteln</t>
+          <t>Senkung um 15 bis 20 % bis 2030</t>
         </is>
       </c>
       <c r="I51" s="4" t="inlineStr">
         <is>
-          <t>Reduction of average travel time by public transport</t>
+          <t>Reduction by 15–20% by 2030</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="52">
       <c r="A52" s="4" t="inlineStr">
         <is>
-          <t>Z11_B03_P01_Ib01_I01</t>
+          <t>Z11_B02_P01_Ib03_I01</t>
         </is>
       </c>
       <c r="B52" s="4" t="inlineStr">
         <is>
-          <t>Z11_B03_P01_Ib01</t>
+          <t>Z11_B02_P01_Ib03</t>
         </is>
       </c>
       <c r="C52" s="4" t="inlineStr">
         <is>
-          <t>11.3</t>
+          <t>11.2.c</t>
         </is>
       </c>
       <c r="D52" s="4" t="inlineStr">
@@ -2879,39 +2879,39 @@
       </c>
       <c r="F52" s="4" t="inlineStr">
         <is>
-          <t>Überlastung durch Wohnkosten</t>
+          <t>Erreichbarkeit von Mittel- und Oberzentren mit öffentlichen Verkehrsmitteln</t>
         </is>
       </c>
       <c r="G52" s="4" t="inlineStr">
         <is>
-          <t>Housing cost overload</t>
+          <t>Accessibility of medium-sized and large cities by public transport</t>
         </is>
       </c>
       <c r="H52" s="4" t="inlineStr">
         <is>
-          <t>Senkung des Anteils der überlasteten Personen an der Bevölkerung auf 13 % bis 2030</t>
+          <t>Verringerung der durchschnittlichen Reisezeit mit öffentlichen Verkehrsmitteln</t>
         </is>
       </c>
       <c r="I52" s="4" t="inlineStr">
         <is>
-          <t>Reduce the proportion of people who are overburdened to 13% by 2030</t>
+          <t>Reduction of average travel time by public transport</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="53">
       <c r="A53" s="4" t="inlineStr">
         <is>
-          <t>Z11_B04_P01_Ib01_I01</t>
+          <t>Z11_B03_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B53" s="4" t="inlineStr">
         <is>
-          <t>Z11_B04_P01_Ib01</t>
+          <t>Z11_B03_P01_Ib01</t>
         </is>
       </c>
       <c r="C53" s="4" t="inlineStr">
         <is>
-          <t>11.4</t>
+          <t>11.3</t>
         </is>
       </c>
       <c r="D53" s="4" t="inlineStr">
@@ -2926,39 +2926,39 @@
       </c>
       <c r="F53" s="4" t="inlineStr">
         <is>
-          <t>Zahl der Objekte in der Deutschen Digitalen Bibliothek</t>
+          <t>Überlastung durch Wohnkosten</t>
         </is>
       </c>
       <c r="G53" s="4" t="inlineStr">
         <is>
-          <t>Number of objects in the German Digital Library</t>
+          <t>Housing cost overload</t>
         </is>
       </c>
       <c r="H53" s="4" t="inlineStr">
         <is>
-          <t>Steigerung der Zahl der in der Deutschen Digitalen Bibliothek vernetzten Objekte auf 50 Millionen bis 2030</t>
+          <t>Senkung des Anteils der überlasteten Personen an der Bevölkerung auf 13 % bis 2030</t>
         </is>
       </c>
       <c r="I53" s="4" t="inlineStr">
         <is>
-          <t>Increase in the number of objects in the network of the German Digital Library to 50 million by 2030</t>
+          <t>Reduce the proportion of people who are overburdened to 13% by 2030</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="54">
       <c r="A54" s="4" t="inlineStr">
         <is>
-          <t>Z12_B01_P01_Ib01_I01</t>
+          <t>Z11_B04_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B54" s="4" t="inlineStr">
         <is>
-          <t>Z12_B01_P01_Ib01</t>
+          <t>Z11_B04_P01_Ib01</t>
         </is>
       </c>
       <c r="C54" s="4" t="inlineStr">
         <is>
-          <t>12.1.a</t>
+          <t>11.4</t>
         </is>
       </c>
       <c r="D54" s="4" t="inlineStr">
@@ -2973,76 +2973,76 @@
       </c>
       <c r="F54" s="4" t="inlineStr">
         <is>
-          <t>Marktanteil von Produkten mit staatlichen Umweltzeichen</t>
+          <t>Zahl der Objekte in der Deutschen Digitalen Bibliothek</t>
         </is>
       </c>
       <c r="G54" s="4" t="inlineStr">
         <is>
-          <t>Market share of products certified by publicly managed eco-labelling schemes</t>
+          <t>Number of objects in the German Digital Library</t>
         </is>
       </c>
       <c r="H54" s="4" t="inlineStr">
         <is>
-          <t>Steigerung des Marktanteils auf 34 % bis 2030</t>
+          <t>Steigerung der Zahl der in der Deutschen Digitalen Bibliothek vernetzten Objekte auf 50 Millionen bis 2030</t>
         </is>
       </c>
       <c r="I54" s="4" t="inlineStr">
         <is>
-          <t>Increase the market share to 34% by 2030</t>
+          <t>Increase in the number of objects in the network of the German Digital Library to 50 million by 2030</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="55">
       <c r="A55" s="4" t="inlineStr">
         <is>
-          <t>Z12_B01_P01_Ib02_I01</t>
+          <t>Z12_B01_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B55" s="4" t="inlineStr">
         <is>
-          <t>Z12_B01_P01_Ib02</t>
+          <t>Z12_B01_P01_Ib01</t>
         </is>
       </c>
       <c r="C55" s="4" t="inlineStr">
         <is>
-          <t>12.1.ba</t>
+          <t>12.1.a</t>
         </is>
       </c>
       <c r="D55" s="4" t="inlineStr">
         <is>
-          <t>a) Rohstoffeinsatz</t>
+          <t/>
         </is>
       </c>
       <c r="E55" s="4" t="inlineStr">
         <is>
-          <t>a) Use of raw materials</t>
+          <t/>
         </is>
       </c>
       <c r="F55" s="4" t="inlineStr">
         <is>
-          <t>Globale Umweltinanspruchnahme durch den Konsum privater Haushalte - Rohstoffeinsatz</t>
+          <t>Marktanteil von Produkten mit staatlichen Umweltzeichen</t>
         </is>
       </c>
       <c r="G55" s="4" t="inlineStr">
         <is>
-          <t>Global environmental impact by private household consumption – use of raw materials</t>
+          <t>Market share of products certified by publicly managed eco-labelling schemes</t>
         </is>
       </c>
       <c r="H55" s="4" t="inlineStr">
         <is>
-          <t>Kontinuierliche Reduzierung </t>
+          <t>Steigerung des Marktanteils auf 34 % bis 2030</t>
         </is>
       </c>
       <c r="I55" s="4" t="inlineStr">
         <is>
-          <t>Steady reduction</t>
+          <t>Increase the market share to 34% by 2030</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="56">
       <c r="A56" s="4" t="inlineStr">
         <is>
-          <t>Z12_B01_P01_Ib02_I02</t>
+          <t>Z12_B01_P01_Ib02_I01</t>
         </is>
       </c>
       <c r="B56" s="4" t="inlineStr">
@@ -3052,27 +3052,27 @@
       </c>
       <c r="C56" s="4" t="inlineStr">
         <is>
-          <t>12.1.bb</t>
+          <t>12.1.ba</t>
         </is>
       </c>
       <c r="D56" s="4" t="inlineStr">
         <is>
-          <t>b) Energieverbrauch</t>
+          <t>a) Rohstoffeinsatz</t>
         </is>
       </c>
       <c r="E56" s="4" t="inlineStr">
         <is>
-          <t>b) Energy consumption</t>
+          <t>a) Use of raw materials</t>
         </is>
       </c>
       <c r="F56" s="4" t="inlineStr">
         <is>
-          <t>Globale Umweltinanspruchnahme durch den Konsum privater Haushalte - Energieverbrauch</t>
+          <t>Globale Umweltinanspruchnahme durch den Konsum privater Haushalte - Rohstoffeinsatz</t>
         </is>
       </c>
       <c r="G56" s="4" t="inlineStr">
         <is>
-          <t>Global environmental impact by private household consumption – energy consumption</t>
+          <t>Global environmental impact by private household consumption – use of raw materials</t>
         </is>
       </c>
       <c r="H56" s="4" t="inlineStr">
@@ -3089,7 +3089,7 @@
     <row outlineLevel="0" r="57">
       <c r="A57" s="4" t="inlineStr">
         <is>
-          <t>Z12_B01_P01_Ib02_I03</t>
+          <t>Z12_B01_P01_Ib02_I02</t>
         </is>
       </c>
       <c r="B57" s="4" t="inlineStr">
@@ -3099,27 +3099,27 @@
       </c>
       <c r="C57" s="4" t="inlineStr">
         <is>
-          <t>12.1.bc</t>
+          <t>12.1.bb</t>
         </is>
       </c>
       <c r="D57" s="4" t="inlineStr">
         <is>
-          <t>c) CO2-Emissionen</t>
+          <t>b) Energieverbrauch</t>
         </is>
       </c>
       <c r="E57" s="4" t="inlineStr">
         <is>
-          <t>c) CO2 emissions</t>
+          <t>b) Energy consumption</t>
         </is>
       </c>
       <c r="F57" s="4" t="inlineStr">
         <is>
-          <t>Globale Umweltinanspruchnahme durch den Konsum privater Haushalte - CO2-Emissionen</t>
+          <t>Globale Umweltinanspruchnahme durch den Konsum privater Haushalte - Energieverbrauch</t>
         </is>
       </c>
       <c r="G57" s="4" t="inlineStr">
         <is>
-          <t>Global environmental impact by private household consumption – CO2 emissions</t>
+          <t>Global environmental impact by private household consumption – energy consumption</t>
         </is>
       </c>
       <c r="H57" s="4" t="inlineStr">
@@ -3136,101 +3136,101 @@
     <row outlineLevel="0" r="58">
       <c r="A58" s="4" t="inlineStr">
         <is>
-          <t>Z12_B02_P01_Ib01_I01</t>
+          <t>Z12_B01_P01_Ib02_I03</t>
         </is>
       </c>
       <c r="B58" s="4" t="inlineStr">
         <is>
-          <t>Z12_B02_P01_Ib01</t>
+          <t>Z12_B01_P01_Ib02</t>
         </is>
       </c>
       <c r="C58" s="4" t="inlineStr">
         <is>
-          <t>12.2</t>
+          <t>12.1.bc</t>
         </is>
       </c>
       <c r="D58" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>c) CO2-Emissionen</t>
         </is>
       </c>
       <c r="E58" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>c) CO2 emissions</t>
         </is>
       </c>
       <c r="F58" s="4" t="inlineStr">
         <is>
-          <t>Umweltmanagement EMAS</t>
+          <t>Globale Umweltinanspruchnahme durch den Konsum privater Haushalte - CO2-Emissionen</t>
         </is>
       </c>
       <c r="G58" s="4" t="inlineStr">
         <is>
-          <t>EMAS eco-management</t>
+          <t>Global environmental impact by private household consumption – CO2 emissions</t>
         </is>
       </c>
       <c r="H58" s="4" t="inlineStr">
         <is>
-          <t>5 000 Organisationsstandorte bis 2030</t>
+          <t>Kontinuierliche Reduzierung </t>
         </is>
       </c>
       <c r="I58" s="4" t="inlineStr">
         <is>
-          <t>5,000 locations of organisations by 2030</t>
+          <t>Steady reduction</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="59">
       <c r="A59" s="4" t="inlineStr">
         <is>
-          <t>Z12_B03_P01_Ib01_I01</t>
+          <t>Z12_B02_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B59" s="4" t="inlineStr">
         <is>
-          <t>Z12_B03_P01_Ib01</t>
+          <t>Z12_B02_P01_Ib01</t>
         </is>
       </c>
       <c r="C59" s="4" t="inlineStr">
         <is>
-          <t>12.3.a</t>
+          <t>12.2</t>
         </is>
       </c>
       <c r="D59" s="4" t="inlineStr">
         <is>
-          <t>a) Anteil Papier mit Blauem Engel am Gesamtpapierverbrauch der unmittelbaren Bundesverwaltung</t>
+          <t/>
         </is>
       </c>
       <c r="E59" s="4" t="inlineStr">
         <is>
-          <t>a) Paper bearing the Blue Angel label as a proportion of the total paper consumption of the direct federal administration</t>
+          <t/>
         </is>
       </c>
       <c r="F59" s="4" t="inlineStr">
         <is>
-          <t>Anteil des Papiers mit Blauem Engel am Gesamtpapierverbrauch der unmittelbaren Bundesverwaltung</t>
+          <t>Umweltmanagement EMAS</t>
         </is>
       </c>
       <c r="G59" s="4" t="inlineStr">
         <is>
-          <t>Paper bearing the Blue Angel label as a proportion of the total paper consumption of the direct federal administration</t>
+          <t>EMAS eco-management</t>
         </is>
       </c>
       <c r="H59" s="4" t="inlineStr">
         <is>
-          <t>Steigerung des Anteils auf 95 % bis 2020</t>
+          <t>5 000 Organisationsstandorte bis 2030</t>
         </is>
       </c>
       <c r="I59" s="4" t="inlineStr">
         <is>
-          <t>Increase the proportion to 95% by 2020</t>
+          <t>5,000 locations of organisations by 2030</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="60">
       <c r="A60" s="4" t="inlineStr">
         <is>
-          <t>Z12_B03_P01_Ib01_I02</t>
+          <t>Z12_B03_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B60" s="4" t="inlineStr">
@@ -3240,101 +3240,101 @@
       </c>
       <c r="C60" s="4" t="inlineStr">
         <is>
-          <t>12.3.b</t>
+          <t>12.3.a</t>
         </is>
       </c>
       <c r="D60" s="4" t="inlineStr">
         <is>
-          <t>b) CO2-Emissionen je Fahrleistungen der Kfz der öffentlichen Hand</t>
+          <t>a) Anteil Papier mit Blauem Engel am Gesamtpapierverbrauch der unmittelbaren Bundesverwaltung</t>
         </is>
       </c>
       <c r="E60" s="4" t="inlineStr">
         <is>
-          <t>b) CO2 emissions of commercially available vehicles in the public sector</t>
+          <t>a) Paper bearing the Blue Angel label as a proportion of the total paper consumption of the direct federal administration</t>
         </is>
       </c>
       <c r="F60" s="4" t="inlineStr">
         <is>
-          <t>CO2-Emissionen von handelsüblichen Kraftfahrzeugen der öffentlichen Hand</t>
+          <t>Anteil des Papiers mit Blauem Engel am Gesamtpapierverbrauch der unmittelbaren Bundesverwaltung</t>
         </is>
       </c>
       <c r="G60" s="4" t="inlineStr">
         <is>
-          <t>CO2 emissions of commercially available vehicles in the public sector</t>
+          <t>Paper bearing the Blue Angel label as a proportion of the total paper consumption of the direct federal administration</t>
         </is>
       </c>
       <c r="H60" s="4" t="inlineStr">
         <is>
-          <t>Signifikante Senkung</t>
+          <t>Steigerung des Anteils auf 95 % bis 2020</t>
         </is>
       </c>
       <c r="I60" s="4" t="inlineStr">
         <is>
-          <t>Significantly reduce</t>
+          <t>Increase the proportion to 95% by 2020</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="61">
       <c r="A61" s="4" t="inlineStr">
         <is>
-          <t>Z13_B01_P01_Ib01_I01</t>
+          <t>Z12_B03_P01_Ib01_I02</t>
         </is>
       </c>
       <c r="B61" s="4" t="inlineStr">
         <is>
-          <t>Z13_B01_P01_Ib01</t>
+          <t>Z12_B03_P01_Ib01</t>
         </is>
       </c>
       <c r="C61" s="4" t="inlineStr">
         <is>
-          <t>13.1.a</t>
+          <t>12.3.b</t>
         </is>
       </c>
       <c r="D61" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>b) CO2-Emissionen je Fahrleistungen der Kfz der öffentlichen Hand</t>
         </is>
       </c>
       <c r="E61" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>b) CO2 emissions of commercially available vehicles in the public sector</t>
         </is>
       </c>
       <c r="F61" s="4" t="inlineStr">
         <is>
-          <t>Treibhausgasemissionen</t>
+          <t>CO2-Emissionen von handelsüblichen Kraftfahrzeugen der öffentlichen Hand</t>
         </is>
       </c>
       <c r="G61" s="4" t="inlineStr">
         <is>
-          <t>Greenhouse gas emissions</t>
+          <t>CO2 emissions of commercially available vehicles in the public sector</t>
         </is>
       </c>
       <c r="H61" s="4" t="inlineStr">
         <is>
-          <t>Minderung um mindestens 40 % bis 2020, um mindestens 55 % bis 2030, jeweils gegenüber 1990; Erreichung von Treibhausgasneutralität bis 2050</t>
+          <t>Signifikante Senkung</t>
         </is>
       </c>
       <c r="I61" s="4" t="inlineStr">
         <is>
-          <t>Reduce by at least 40% by 2020 and by at least 55% by 2030, in each case compared to 1990; greenhouse gas neutrality to be achieved by 2050</t>
+          <t>Significantly reduce</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="62">
       <c r="A62" s="4" t="inlineStr">
         <is>
-          <t>Z13_B01_P02_Ib01_I01</t>
+          <t>Z13_B01_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B62" s="4" t="inlineStr">
         <is>
-          <t>Z13_B01_P02_Ib01</t>
+          <t>Z13_B01_P01_Ib01</t>
         </is>
       </c>
       <c r="C62" s="4" t="inlineStr">
         <is>
-          <t>13.1.b</t>
+          <t>13.1.a</t>
         </is>
       </c>
       <c r="D62" s="4" t="inlineStr">
@@ -3349,76 +3349,76 @@
       </c>
       <c r="F62" s="4" t="inlineStr">
         <is>
-          <t>Internationale Klimafinanzierung zur Reduktion von Treibhausgasen und zur Anpassung an den Klimawandel</t>
+          <t>Treibhausgasemissionen</t>
         </is>
       </c>
       <c r="G62" s="4" t="inlineStr">
         <is>
-          <t>International climate finance for the reduction of greenhouse gases and adaptation to climate change</t>
+          <t>Greenhouse gas emissions</t>
         </is>
       </c>
       <c r="H62" s="4" t="inlineStr">
         <is>
-          <t>Verdopplung der Finanzierung bis 2020 gegenüber 2014</t>
+          <t>Minderung um mindestens 40 % bis 2020, um mindestens 55 % bis 2030, jeweils gegenüber 1990; Erreichung von Treibhausgasneutralität bis 2050</t>
         </is>
       </c>
       <c r="I62" s="4" t="inlineStr">
         <is>
-          <t>Double finance by 2020 compared to 2014</t>
+          <t>Reduce by at least 40% by 2020 and by at least 55% by 2030, in each case compared to 1990; greenhouse gas neutrality to be achieved by 2050</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="63">
       <c r="A63" s="4" t="inlineStr">
         <is>
-          <t>Z14_B01_P01_Ib01_I01</t>
+          <t>Z13_B01_P02_Ib01_I01</t>
         </is>
       </c>
       <c r="B63" s="4" t="inlineStr">
         <is>
-          <t>Z14_B01_P01_Ib01</t>
+          <t>Z13_B01_P02_Ib01</t>
         </is>
       </c>
       <c r="C63" s="4" t="inlineStr">
         <is>
-          <t>14.1.aa</t>
+          <t>13.1.b</t>
         </is>
       </c>
       <c r="D63" s="4" t="inlineStr">
         <is>
-          <t>aa) Ostsee</t>
+          <t/>
         </is>
       </c>
       <c r="E63" s="4" t="inlineStr">
         <is>
-          <t>aa) Baltic</t>
+          <t/>
         </is>
       </c>
       <c r="F63" s="4" t="inlineStr">
         <is>
-          <t>Nährstoffeinträge in Küstengewässer und Meeresgewässer – Stickstoffeintrag über die Zuflüsse in die Ostsee</t>
+          <t>Internationale Klimafinanzierung zur Reduktion von Treibhausgasen und zur Anpassung an den Klimawandel</t>
         </is>
       </c>
       <c r="G63" s="4" t="inlineStr">
         <is>
-          <t>Nitrogen input in coastal and marine waters – nitrogen input via the inflows into the Baltic Sea</t>
+          <t>International climate finance for the reduction of greenhouse gases and adaptation to climate change</t>
         </is>
       </c>
       <c r="H63" s="4" t="inlineStr">
         <is>
-          <t>Einhaltung des guten Zustands nach Oberflächengewässerverordnung (Jahresmittelwerte für Gesamtstickstoff bei in die Ostsee mündenden Flüssen sollen 2,6 Milligramm pro Liter nicht überschreiten)</t>
+          <t>Verdopplung der Finanzierung bis 2020 gegenüber 2014</t>
         </is>
       </c>
       <c r="I63" s="4" t="inlineStr">
         <is>
-          <t>Adherence to good quality in accordance with the Ordinance on the Protection of Surface Waters (Oberflächengewässerver-ordnung) (annual averages for total nitro-gen in rivers flowing into the Baltic may not exceed 2.6 mg/l)</t>
+          <t>Double finance by 2020 compared to 2014</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="64">
       <c r="A64" s="4" t="inlineStr">
         <is>
-          <t>Z14_B01_P01_Ib01_I02</t>
+          <t>Z14_B01_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B64" s="4" t="inlineStr">
@@ -3428,101 +3428,101 @@
       </c>
       <c r="C64" s="4" t="inlineStr">
         <is>
-          <t>14.1.ab</t>
+          <t>14.1.aa</t>
         </is>
       </c>
       <c r="D64" s="4" t="inlineStr">
         <is>
-          <t>ab) Nordsee</t>
+          <t>aa) Ostsee</t>
         </is>
       </c>
       <c r="E64" s="4" t="inlineStr">
         <is>
-          <t>ab) North Sea</t>
+          <t>aa) Baltic</t>
         </is>
       </c>
       <c r="F64" s="4" t="inlineStr">
         <is>
-          <t>Nährstoffeinträge in Küstengewässer und Meeresgewässer – Stickstoffeintrag über die Zuflüsse in die Nordsee</t>
+          <t>Nährstoffeinträge in Küstengewässer und Meeresgewässer – Stickstoffeintrag über die Zuflüsse in die Ostsee</t>
         </is>
       </c>
       <c r="G64" s="4" t="inlineStr">
         <is>
-          <t>Nitrogen input in coastal and marine waters – nitrogen input via the inflows into the North Sea</t>
+          <t>Nitrogen input in coastal and marine waters – nitrogen input via the inflows into the Baltic Sea</t>
         </is>
       </c>
       <c r="H64" s="4" t="inlineStr">
         <is>
-          <t>Einhaltung des guten Zustands nach Oberflächengewässerverordnung (Jahresmittelwerte für Gesamtstickstoff bei in die Nordsee mündenden Flüssen sollen 2,8 Milligramm pro Liter nicht überschreiten)</t>
+          <t>Einhaltung des guten Zustands nach Oberflächengewässerverordnung (Jahresmittelwerte für Gesamtstickstoff bei in die Ostsee mündenden Flüssen sollen 2,6 Milligramm pro Liter nicht überschreiten)</t>
         </is>
       </c>
       <c r="I64" s="4" t="inlineStr">
         <is>
-          <t>Adherence to good quality in accordance with the Ordinance on the Protection of Surface Waters (annual averages for total nitrogen in rivers flowing into the North Sea may not exceed 2.8 mg/l)</t>
+          <t>Adherence to good quality in accordance with the Ordinance on the Protection of Surface Waters (Oberflächengewässerver-ordnung) (annual averages for total nitro-gen in rivers flowing into the Baltic may not exceed 2.6 mg/l)</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="65">
       <c r="A65" s="4" t="inlineStr">
         <is>
-          <t>Z14_B01_P01_Ib02_I01</t>
+          <t>Z14_B01_P01_Ib01_I02</t>
         </is>
       </c>
       <c r="B65" s="4" t="inlineStr">
         <is>
-          <t>Z14_B01_P01_Ib02</t>
+          <t>Z14_B01_P01_Ib01</t>
         </is>
       </c>
       <c r="C65" s="4" t="inlineStr">
         <is>
-          <t>14.1.b</t>
+          <t>14.1.ab</t>
         </is>
       </c>
       <c r="D65" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>ab) Nordsee</t>
         </is>
       </c>
       <c r="E65" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>ab) North Sea</t>
         </is>
       </c>
       <c r="F65" s="4" t="inlineStr">
         <is>
-          <t>Anteil der nachhaltig befischten Fischbestände in Nord- und Ostsee</t>
+          <t>Nährstoffeinträge in Küstengewässer und Meeresgewässer – Stickstoffeintrag über die Zuflüsse in die Nordsee</t>
         </is>
       </c>
       <c r="G65" s="4" t="inlineStr">
         <is>
-          <t>Share of sustainably fished fish populations in the North Sea and Baltic</t>
+          <t>Nitrogen input in coastal and marine waters – nitrogen input via the inflows into the North Sea</t>
         </is>
       </c>
       <c r="H65" s="4" t="inlineStr">
         <is>
-          <t>Alle wirtschaftlich genutzten Fischbestände sollen nach dem MSY-Ansatz nachhaltig bewirtschaftet werden bis 2020</t>
+          <t>Einhaltung des guten Zustands nach Oberflächengewässerverordnung (Jahresmittelwerte für Gesamtstickstoff bei in die Nordsee mündenden Flüssen sollen 2,8 Milligramm pro Liter nicht überschreiten)</t>
         </is>
       </c>
       <c r="I65" s="4" t="inlineStr">
         <is>
-          <t>All fish stocks used for commercial purpos-es to be sustainably managed in accordance with the Maximum Sustainable Yield (MSY) approach by 2020</t>
+          <t>Adherence to good quality in accordance with the Ordinance on the Protection of Surface Waters (annual averages for total nitrogen in rivers flowing into the North Sea may not exceed 2.8 mg/l)</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="66">
       <c r="A66" s="4" t="inlineStr">
         <is>
-          <t>Z15_B01_P01_Ib01_I01</t>
+          <t>Z14_B01_P01_Ib02_I01</t>
         </is>
       </c>
       <c r="B66" s="4" t="inlineStr">
         <is>
-          <t>Z15_B01_P01_Ib01</t>
+          <t>Z14_B01_P01_Ib02</t>
         </is>
       </c>
       <c r="C66" s="4" t="inlineStr">
         <is>
-          <t>15.1</t>
+          <t>14.1.b</t>
         </is>
       </c>
       <c r="D66" s="4" t="inlineStr">
@@ -3537,39 +3537,39 @@
       </c>
       <c r="F66" s="4" t="inlineStr">
         <is>
-          <t>Artenvielfalt und Landschaftsqualität</t>
+          <t>Anteil der nachhaltig befischten Fischbestände in Nord- und Ostsee</t>
         </is>
       </c>
       <c r="G66" s="4" t="inlineStr">
         <is>
-          <t>Biodiversity and landscape quality</t>
+          <t>Share of sustainably fished fish populations in the North Sea and Baltic</t>
         </is>
       </c>
       <c r="H66" s="4" t="inlineStr">
         <is>
-          <t>Erreichen des Indexwertes 100 bis 2030</t>
+          <t>Alle wirtschaftlich genutzten Fischbestände sollen nach dem MSY-Ansatz nachhaltig bewirtschaftet werden bis 2020</t>
         </is>
       </c>
       <c r="I66" s="4" t="inlineStr">
         <is>
-          <t>Reach the index value of 100 by 2030</t>
+          <t>All fish stocks used for commercial purpos-es to be sustainably managed in accordance with the Maximum Sustainable Yield (MSY) approach by 2020</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="67">
       <c r="A67" s="4" t="inlineStr">
         <is>
-          <t>Z15_B02_P01_Ib01_I01</t>
+          <t>Z15_B01_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B67" s="4" t="inlineStr">
         <is>
-          <t>Z15_B02_P01_Ib01</t>
+          <t>Z15_B01_P01_Ib01</t>
         </is>
       </c>
       <c r="C67" s="4" t="inlineStr">
         <is>
-          <t>15.2</t>
+          <t>15.1</t>
         </is>
       </c>
       <c r="D67" s="4" t="inlineStr">
@@ -3584,76 +3584,76 @@
       </c>
       <c r="F67" s="4" t="inlineStr">
         <is>
-          <t>Eutrophierung der Ökosysteme</t>
+          <t>Artenvielfalt und Landschaftsqualität</t>
         </is>
       </c>
       <c r="G67" s="4" t="inlineStr">
         <is>
-          <t>Eutrophication of ecosystems</t>
+          <t>Biodiversity and landscape quality</t>
         </is>
       </c>
       <c r="H67" s="4" t="inlineStr">
         <is>
-          <t>Verringerung um 35 % bis 2030 gegenüber 2005</t>
+          <t>Erreichen des Indexwertes 100 bis 2030</t>
         </is>
       </c>
       <c r="I67" s="4" t="inlineStr">
         <is>
-          <t>Reduction by 35% by 2030 compared to 2005</t>
+          <t>Reach the index value of 100 by 2030</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="68">
       <c r="A68" s="4" t="inlineStr">
         <is>
-          <t>Z15_B02_P02_Ib01_I01</t>
+          <t>Z15_B02_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B68" s="4" t="inlineStr">
         <is>
-          <t>Z15_B02_P02_Ib01</t>
+          <t>Z15_B02_P01_Ib01</t>
         </is>
       </c>
       <c r="C68" s="4" t="inlineStr">
         <is>
-          <t>15.3.a</t>
+          <t>15.2</t>
         </is>
       </c>
       <c r="D68" s="4" t="inlineStr">
         <is>
-          <t>a) REDD+-Regelwerk</t>
+          <t/>
         </is>
       </c>
       <c r="E68" s="4" t="inlineStr">
         <is>
-          <t>a) REDD+ rulebook</t>
+          <t/>
         </is>
       </c>
       <c r="F68" s="4" t="inlineStr">
         <is>
-          <t>Erhalt bzw. Wiederaufbau von Wäldern in Entwicklungsländern unter dem REDD+-Regelwerk</t>
+          <t>Eutrophierung der Ökosysteme</t>
         </is>
       </c>
       <c r="G68" s="4" t="inlineStr">
         <is>
-          <t>Preservation or restoration of forests in developing countries under the REDD+ rulebook</t>
+          <t>Eutrophication of ecosystems</t>
         </is>
       </c>
       <c r="H68" s="4" t="inlineStr">
         <is>
-          <t>Steigerung der Zahlungen bis 2030</t>
+          <t>Verringerung um 35 % bis 2030 gegenüber 2005</t>
         </is>
       </c>
       <c r="I68" s="4" t="inlineStr">
         <is>
-          <t>Increase payments by 2030</t>
+          <t>Reduction by 35% by 2030 compared to 2005</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="69">
       <c r="A69" s="4" t="inlineStr">
         <is>
-          <t>Z15_B02_P02_Ib01_I02</t>
+          <t>Z15_B02_P02_Ib01_I01</t>
         </is>
       </c>
       <c r="B69" s="4" t="inlineStr">
@@ -3663,27 +3663,27 @@
       </c>
       <c r="C69" s="4" t="inlineStr">
         <is>
-          <t>15.3.b</t>
+          <t>15.3.a</t>
         </is>
       </c>
       <c r="D69" s="4" t="inlineStr">
         <is>
-          <t>b) Internationaler Bodenschutz</t>
+          <t>a) REDD+-Regelwerk</t>
         </is>
       </c>
       <c r="E69" s="4" t="inlineStr">
         <is>
-          <t>b) Combat Desertification</t>
+          <t>a) REDD+ rulebook</t>
         </is>
       </c>
       <c r="F69" s="4" t="inlineStr">
         <is>
-          <t>Deutsche bilaterale Bruttoentwicklungsausgaben zur Umsetzung des Übereinkommens der VN zur Bekämpfung der Wüstenbildung</t>
+          <t>Erhalt bzw. Wiederaufbau von Wäldern in Entwicklungsländern unter dem REDD+-Regelwerk</t>
         </is>
       </c>
       <c r="G69" s="4" t="inlineStr">
         <is>
-          <t>German gross bilateral development expenditure for the implementation of the UN Convention to Combat Desertification</t>
+          <t>Preservation or restoration of forests in developing countries under the REDD+ rulebook</t>
         </is>
       </c>
       <c r="H69" s="4" t="inlineStr">
@@ -3693,71 +3693,71 @@
       </c>
       <c r="I69" s="4" t="inlineStr">
         <is>
-          <t>Payments to be increased by 2030</t>
+          <t>Increase payments by 2030</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="70">
       <c r="A70" s="4" t="inlineStr">
         <is>
-          <t>Z16_B01_P01_Ib01_I01</t>
+          <t>Z15_B02_P02_Ib01_I02</t>
         </is>
       </c>
       <c r="B70" s="4" t="inlineStr">
         <is>
-          <t>Z16_B01_P01_Ib01</t>
+          <t>Z15_B02_P02_Ib01</t>
         </is>
       </c>
       <c r="C70" s="4" t="inlineStr">
         <is>
-          <t>16.1</t>
+          <t>15.3.b</t>
         </is>
       </c>
       <c r="D70" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>b) Internationaler Bodenschutz</t>
         </is>
       </c>
       <c r="E70" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>b) Combat Desertification</t>
         </is>
       </c>
       <c r="F70" s="4" t="inlineStr">
         <is>
-          <t>Straftaten</t>
+          <t>Deutsche bilaterale Bruttoentwicklungsausgaben zur Umsetzung des Übereinkommens der VN zur Bekämpfung der Wüstenbildung</t>
         </is>
       </c>
       <c r="G70" s="4" t="inlineStr">
         <is>
-          <t>Criminal offences</t>
+          <t>German gross bilateral development expenditure for the implementation of the UN Convention to Combat Desertification</t>
         </is>
       </c>
       <c r="H70" s="4" t="inlineStr">
         <is>
-          <t>Rückgang der Zahl der erfassten Straftaten je 100 000 Einwohner/ -innen auf unter 6 500 bis 2030</t>
+          <t>Steigerung der Zahlungen bis 2030</t>
         </is>
       </c>
       <c r="I70" s="4" t="inlineStr">
         <is>
-          <t>Reduce the number of criminal offences re-corded per 100,000 inhabitants to less than 6,500 by 2030</t>
+          <t>Payments to be increased by 2030</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="71">
       <c r="A71" s="4" t="inlineStr">
         <is>
-          <t>Z16_B02_P01_Ib01_I01</t>
+          <t>Z16_B01_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B71" s="4" t="inlineStr">
         <is>
-          <t>Z16_B02_P01_Ib01</t>
+          <t>Z16_B01_P01_Ib01</t>
         </is>
       </c>
       <c r="C71" s="4" t="inlineStr">
         <is>
-          <t>16.2</t>
+          <t>16.1</t>
         </is>
       </c>
       <c r="D71" s="4" t="inlineStr">
@@ -3772,76 +3772,76 @@
       </c>
       <c r="F71" s="4" t="inlineStr">
         <is>
-          <t>Anzahl der in betroffenen Weltregionen durchgeführten Projekte zur Sicherung, Registrierung und Zerstörung von Kleinwaffen und leichten Waffen durch Deutschland</t>
+          <t>Straftaten</t>
         </is>
       </c>
       <c r="G71" s="4" t="inlineStr">
         <is>
-          <t>Number of projects to secure, register and destroy small arms and light weapons carried out by Germany in affected regions of the world</t>
+          <t>Criminal offences</t>
         </is>
       </c>
       <c r="H71" s="4" t="inlineStr">
         <is>
-          <t>Mindestens 15 Projekte pro Jahr bis 2030</t>
+          <t>Rückgang der Zahl der erfassten Straftaten je 100 000 Einwohner/ -innen auf unter 6 500 bis 2030</t>
         </is>
       </c>
       <c r="I71" s="4" t="inlineStr">
         <is>
-          <t>At least 15 projects per year by 2030</t>
+          <t>Reduce the number of criminal offences re-corded per 100,000 inhabitants to less than 6,500 by 2030</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="72">
       <c r="A72" s="4" t="inlineStr">
         <is>
-          <t>Z16_B03_P01_Ib01_I01</t>
+          <t>Z16_B02_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B72" s="4" t="inlineStr">
         <is>
-          <t>Z16_B03_P01_Ib01</t>
+          <t>Z16_B02_P01_Ib01</t>
         </is>
       </c>
       <c r="C72" s="4" t="inlineStr">
         <is>
-          <t>16.3.a</t>
+          <t>16.2</t>
         </is>
       </c>
       <c r="D72" s="4" t="inlineStr">
         <is>
-          <t>a) CPI Deutschland</t>
+          <t/>
         </is>
       </c>
       <c r="E72" s="4" t="inlineStr">
         <is>
-          <t>a) CPI Germany</t>
+          <t/>
         </is>
       </c>
       <c r="F72" s="4" t="inlineStr">
         <is>
-          <t>Corruption Perception Index in Deutschland</t>
+          <t>Anzahl der in betroffenen Weltregionen durchgeführten Projekte zur Sicherung, Registrierung und Zerstörung von Kleinwaffen und leichten Waffen durch Deutschland</t>
         </is>
       </c>
       <c r="G72" s="4" t="inlineStr">
         <is>
-          <t>Corruption Perceptions Index in Germany</t>
+          <t>Number of projects to secure, register and destroy small arms and light weapons carried out by Germany in affected regions of the world</t>
         </is>
       </c>
       <c r="H72" s="4" t="inlineStr">
         <is>
-          <t>Verbesserung gegenüber 2012 bis 2030</t>
+          <t>Mindestens 15 Projekte pro Jahr bis 2030</t>
         </is>
       </c>
       <c r="I72" s="4" t="inlineStr">
         <is>
-          <t>Improvement by 2030, compared to 2012</t>
+          <t>At least 15 projects per year by 2030</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="73">
       <c r="A73" s="4" t="inlineStr">
         <is>
-          <t>Z16_B03_P01_Ib01_I02</t>
+          <t>Z16_B03_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B73" s="4" t="inlineStr">
@@ -3851,27 +3851,27 @@
       </c>
       <c r="C73" s="4" t="inlineStr">
         <is>
-          <t>16.3.b</t>
+          <t>16.3.a</t>
         </is>
       </c>
       <c r="D73" s="4" t="inlineStr">
         <is>
-          <t>b) Partnerländer</t>
+          <t>a) CPI Deutschland</t>
         </is>
       </c>
       <c r="E73" s="4" t="inlineStr">
         <is>
-          <t>b) Partner countries</t>
+          <t>a) CPI Germany</t>
         </is>
       </c>
       <c r="F73" s="4" t="inlineStr">
         <is>
-          <t>Corruption Perception Index in den Partnerländern der deutschen Entwicklungszusammenarbeit</t>
+          <t>Corruption Perception Index in Deutschland</t>
         </is>
       </c>
       <c r="G73" s="4" t="inlineStr">
         <is>
-          <t>Corruption Perceptions Index in partner countries of German development cooperation</t>
+          <t>Corruption Perceptions Index in Germany</t>
         </is>
       </c>
       <c r="H73" s="4" t="inlineStr">
@@ -3888,64 +3888,64 @@
     <row outlineLevel="0" r="74">
       <c r="A74" s="4" t="inlineStr">
         <is>
-          <t>Z17_B01_P01_Ib01_I01</t>
+          <t>Z16_B03_P01_Ib01_I02</t>
         </is>
       </c>
       <c r="B74" s="4" t="inlineStr">
         <is>
-          <t>Z17_B01_P01_Ib01</t>
+          <t>Z16_B03_P01_Ib01</t>
         </is>
       </c>
       <c r="C74" s="4" t="inlineStr">
         <is>
-          <t>17.1</t>
+          <t>16.3.b</t>
         </is>
       </c>
       <c r="D74" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>b) Partnerländer</t>
         </is>
       </c>
       <c r="E74" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>b) Partner countries</t>
         </is>
       </c>
       <c r="F74" s="4" t="inlineStr">
         <is>
-          <t>Anteil öffentlicher Entwicklungsausgaben am Bruttonationaleinkommen</t>
+          <t>Corruption Perception Index in den Partnerländern der deutschen Entwicklungszusammenarbeit</t>
         </is>
       </c>
       <c r="G74" s="4" t="inlineStr">
         <is>
-          <t>Official development assistance as a proportion of gross national income</t>
+          <t>Corruption Perceptions Index in partner countries of German development cooperation</t>
         </is>
       </c>
       <c r="H74" s="4" t="inlineStr">
         <is>
-          <t>Steigerung des Anteils auf 0,7 % des  Bruttonationaleinkommens bis 2030</t>
+          <t>Verbesserung gegenüber 2012 bis 2030</t>
         </is>
       </c>
       <c r="I74" s="4" t="inlineStr">
         <is>
-          <t>Increase the proportion to 0.7% of gross national income by 2030</t>
+          <t>Improvement by 2030, compared to 2012</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="75">
       <c r="A75" s="4" t="inlineStr">
         <is>
-          <t>Z17_B02_P01_Ib01_I01</t>
+          <t>Z17_B01_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B75" s="4" t="inlineStr">
         <is>
-          <t>Z17_B02_P01_Ib01</t>
+          <t>Z17_B01_P01_Ib01</t>
         </is>
       </c>
       <c r="C75" s="4" t="inlineStr">
         <is>
-          <t>17.2</t>
+          <t>17.1</t>
         </is>
       </c>
       <c r="D75" s="4" t="inlineStr">
@@ -3960,67 +3960,114 @@
       </c>
       <c r="F75" s="4" t="inlineStr">
         <is>
-          <t>Anzahl der Studierenden und Forschenden aus Entwicklungsländern sowie LDCs pro Jahr</t>
+          <t>Anteil öffentlicher Entwicklungsausgaben am Bruttonationaleinkommen</t>
         </is>
       </c>
       <c r="G75" s="4" t="inlineStr">
         <is>
-          <t>Number of students and researchers from developing countries and LDCs per year</t>
+          <t>Official development assistance as a proportion of gross national income</t>
         </is>
       </c>
       <c r="H75" s="4" t="inlineStr">
         <is>
-          <t>Steigerung der Anzahl um 10 % von 2015 bis 2020, anschließend Verstetigung</t>
+          <t>Steigerung des Anteils auf 0,7 % des  Bruttonationaleinkommens bis 2030</t>
         </is>
       </c>
       <c r="I75" s="4" t="inlineStr">
         <is>
-          <t>Increase the number by 10% from 2015 to 2020, then stabilised</t>
+          <t>Increase the proportion to 0.7% of gross national income by 2030</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="76">
       <c r="A76" s="4" t="inlineStr">
         <is>
+          <t>Z17_B02_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="B76" s="4" t="inlineStr">
+        <is>
+          <t>Z17_B02_P01_Ib01</t>
+        </is>
+      </c>
+      <c r="C76" s="4" t="inlineStr">
+        <is>
+          <t>17.2</t>
+        </is>
+      </c>
+      <c r="D76" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E76" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F76" s="4" t="inlineStr">
+        <is>
+          <t>Anzahl der Studierenden und Forschenden aus Entwicklungsländern sowie LDCs pro Jahr</t>
+        </is>
+      </c>
+      <c r="G76" s="4" t="inlineStr">
+        <is>
+          <t>Number of students and researchers from developing countries and LDCs per year</t>
+        </is>
+      </c>
+      <c r="H76" s="4" t="inlineStr">
+        <is>
+          <t>Steigerung der Anzahl um 10 % von 2015 bis 2020, anschließend Verstetigung</t>
+        </is>
+      </c>
+      <c r="I76" s="4" t="inlineStr">
+        <is>
+          <t>Increase the number by 10% from 2015 to 2020, then stabilised</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="77">
+      <c r="A77" s="4" t="inlineStr">
+        <is>
           <t>Z17_B03_P01_Ib01_I01</t>
         </is>
       </c>
-      <c r="B76" s="4" t="inlineStr">
+      <c r="B77" s="4" t="inlineStr">
         <is>
           <t>Z17_B03_P01_Ib01</t>
         </is>
       </c>
-      <c r="C76" s="4" t="inlineStr">
+      <c r="C77" s="4" t="inlineStr">
         <is>
           <t>17.3</t>
         </is>
       </c>
-      <c r="D76" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E76" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F76" s="4" t="inlineStr">
+      <c r="D77" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E77" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F77" s="4" t="inlineStr">
         <is>
           <t>Einfuhren aus am wenigsten entwickelten Ländern</t>
         </is>
       </c>
-      <c r="G76" s="4" t="inlineStr">
+      <c r="G77" s="4" t="inlineStr">
         <is>
           <t>Imports from least developed countries</t>
         </is>
       </c>
-      <c r="H76" s="4" t="inlineStr">
+      <c r="H77" s="4" t="inlineStr">
         <is>
           <t>Steigerung des Anteils um 100 % bis 2030 gegenüber 2014</t>
         </is>
       </c>
-      <c r="I76" s="4" t="inlineStr">
+      <c r="I77" s="4" t="inlineStr">
         <is>
           <t>Increase the proportion by 100 % by 2030, compared to 2014</t>
         </is>

--- a/Tab_5a_Indikatoren.xlsx
+++ b/Tab_5a_Indikatoren.xlsx
@@ -435,7 +435,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I77"/>
+  <dimension ref="A1:K77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -452,6 +452,8 @@
     <col customWidth="true" min="7" max="7" width="20.5078125"/>
     <col customWidth="true" min="8" max="8" width="57.71484375"/>
     <col customWidth="true" min="9" max="9" width="46.2890625"/>
+    <col customWidth="true" min="10" max="10" width="13.8359375"/>
+    <col customWidth="true" min="11" max="11" width="13.8359375"/>
   </cols>
   <sheetData>
     <row outlineLevel="0" r="1">
@@ -500,6 +502,16 @@
           <t>Ziel En</t>
         </is>
       </c>
+      <c r="J1" s="2" t="inlineStr">
+        <is>
+          <t>Bezeichnung für Plattform De</t>
+        </is>
+      </c>
+      <c r="K1" s="2" t="inlineStr">
+        <is>
+          <t>Bezeichnung für Plattform En</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="2">
       <c r="A2" s="4" t="inlineStr">
@@ -547,6 +559,16 @@
           <t>Keep the proportion of persons who are materially deprived considerably below the EU-28 level by 2030</t>
         </is>
       </c>
+      <c r="J2" s="4" t="inlineStr">
+        <is>
+          <t>Materielle Deprivation</t>
+        </is>
+      </c>
+      <c r="K2" s="4" t="inlineStr">
+        <is>
+          <t>Material deprivation</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="3">
       <c r="A3" s="4" t="inlineStr">
@@ -594,6 +616,16 @@
           <t>Keep the proportion of persons who are severely materially deprived considerably below the EU-28 level by 2030</t>
         </is>
       </c>
+      <c r="J3" s="4" t="inlineStr">
+        <is>
+          <t>Erhebliche materielle Deprivation</t>
+        </is>
+      </c>
+      <c r="K3" s="4" t="inlineStr">
+        <is>
+          <t>Severe material deprivation</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="4">
       <c r="A4" s="4" t="inlineStr">
@@ -641,6 +673,16 @@
           <t>Reduction of the nitrogen surpluses of the overall balance for Germany to 70 kilo-grams per hectare of utilised agricultural area on an annual average between 2028 and 2032</t>
         </is>
       </c>
+      <c r="J4" s="4" t="inlineStr">
+        <is>
+          <t>Stickstoffüberschuss der Landwirtschaft</t>
+        </is>
+      </c>
+      <c r="K4" s="4" t="inlineStr">
+        <is>
+          <t>Nitrogen surplus in agriculture</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="5">
       <c r="A5" s="4" t="inlineStr">
@@ -688,6 +730,16 @@
           <t>Increase the proportion of organically farmed agricultural land to 20% by 2030</t>
         </is>
       </c>
+      <c r="J5" s="4" t="inlineStr">
+        <is>
+          <t>Ökologischer Landbau</t>
+        </is>
+      </c>
+      <c r="K5" s="4" t="inlineStr">
+        <is>
+          <t>Organic farming</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="6">
       <c r="A6" s="4" t="inlineStr">
@@ -735,6 +787,16 @@
           <t>Funds disbursed for the application of the guidelines and recommendations of the UN Committee on World Food Security (CFS) to be increased appropriately as a percentage of total spending on food security by 2030</t>
         </is>
       </c>
+      <c r="J6" s="4" t="inlineStr">
+        <is>
+          <t>Unterstützung guter Regierungsführung bei der Erreichung einer angemessenen Ernährung weltweit</t>
+        </is>
+      </c>
+      <c r="K6" s="4" t="inlineStr">
+        <is>
+          <t>Support for good governance in attaining appropriate nutrition world-wide</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="7">
       <c r="A7" s="4" t="inlineStr">
@@ -782,6 +844,16 @@
           <t>To be reduced to 100 deaths per 100,000 inhabitants (women) by 2030</t>
         </is>
       </c>
+      <c r="J7" s="4" t="inlineStr">
+        <is>
+          <t>Vorzeitige Sterblichkeit (Frauen)</t>
+        </is>
+      </c>
+      <c r="K7" s="4" t="inlineStr">
+        <is>
+          <t>Premature mortality (women)</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="8">
       <c r="A8" s="4" t="inlineStr">
@@ -829,6 +901,16 @@
           <t>To be reduced to 190 deaths per 100,000 inhabitants (men) by 2030</t>
         </is>
       </c>
+      <c r="J8" s="4" t="inlineStr">
+        <is>
+          <t>Vorzeitige Sterblichkeit (Männer)</t>
+        </is>
+      </c>
+      <c r="K8" s="4" t="inlineStr">
+        <is>
+          <t>Premature mortality (men)</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="9">
       <c r="A9" s="4" t="inlineStr">
@@ -876,6 +958,16 @@
           <t>Reduction to 7% by 2030</t>
         </is>
       </c>
+      <c r="J9" s="4" t="inlineStr">
+        <is>
+          <t>Raucherquote von Jugendlichen</t>
+        </is>
+      </c>
+      <c r="K9" s="4" t="inlineStr">
+        <is>
+          <t>Smoking rate among adolescents</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="10">
       <c r="A10" s="4" t="inlineStr">
@@ -923,6 +1015,16 @@
           <t>Reduction to 19% by 2030</t>
         </is>
       </c>
+      <c r="J10" s="4" t="inlineStr">
+        <is>
+          <t>Raucherquote von Erwachsenen</t>
+        </is>
+      </c>
+      <c r="K10" s="4" t="inlineStr">
+        <is>
+          <t>Smoking rate among adults</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="11">
       <c r="A11" s="4" t="inlineStr">
@@ -970,6 +1072,16 @@
           <t>Increase to be permanently halted</t>
         </is>
       </c>
+      <c r="J11" s="4" t="inlineStr">
+        <is>
+          <t>Adipositasquote von Kindern und Jugendlichen</t>
+        </is>
+      </c>
+      <c r="K11" s="4" t="inlineStr">
+        <is>
+          <t>Obesity rate among children and adolescents</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="12">
       <c r="A12" s="4" t="inlineStr">
@@ -1017,6 +1129,16 @@
           <t>Increase to be permanently halted</t>
         </is>
       </c>
+      <c r="J12" s="4" t="inlineStr">
+        <is>
+          <t>Adipositasquote von Erwachsenen</t>
+        </is>
+      </c>
+      <c r="K12" s="4" t="inlineStr">
+        <is>
+          <t>Obesity rate among adults</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="13">
       <c r="A13" s="4" t="inlineStr">
@@ -1064,6 +1186,16 @@
           <t>Reduction of emissions to 55% of 2005 level (unweighted average of the five pollutants) by 2030</t>
         </is>
       </c>
+      <c r="J13" s="4" t="inlineStr">
+        <is>
+          <t>Emissionen von Luftschadstoffen</t>
+        </is>
+      </c>
+      <c r="K13" s="4" t="inlineStr">
+        <is>
+          <t>Emissions of air pollutants</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="14">
       <c r="A14" s="4" t="inlineStr">
@@ -1111,6 +1243,16 @@
           <t>WHO particulate matter guideline value of 20 micrograms/cubic metre for PM10 to be adhered to as widely as possible by 2030</t>
         </is>
       </c>
+      <c r="J14" s="4" t="inlineStr">
+        <is>
+          <t>Anteil der Bevölkerung mit erhöhter PM10-Feinstaubexposition</t>
+        </is>
+      </c>
+      <c r="K14" s="4" t="inlineStr">
+        <is>
+          <t>Share of the population with excessive exposure to PM10</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="15">
       <c r="A15" s="4" t="inlineStr">
@@ -1158,6 +1300,16 @@
           <t>Expenditure to be increased by 2030</t>
         </is>
       </c>
+      <c r="J15" s="4" t="inlineStr">
+        <is>
+          <t>Beitrag Deutschlands zur globalen Pandemieprävention und -reaktion</t>
+        </is>
+      </c>
+      <c r="K15" s="4" t="inlineStr">
+        <is>
+          <t>Germany’s contribution to global pandemic prevention and response</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="16">
       <c r="A16" s="4" t="inlineStr">
@@ -1205,6 +1357,16 @@
           <t>Reduce the proportion to 9.5% by 2030</t>
         </is>
       </c>
+      <c r="J16" s="4" t="inlineStr">
+        <is>
+          <t>Frühe Schulabgängerinnen und Schulabgänger</t>
+        </is>
+      </c>
+      <c r="K16" s="4" t="inlineStr">
+        <is>
+          <t>Early school leavers</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="17">
       <c r="A17" s="4" t="inlineStr">
@@ -1252,6 +1414,16 @@
           <t>Increase the proportion to 55% by 2030</t>
         </is>
       </c>
+      <c r="J17" s="4" t="inlineStr">
+        <is>
+          <t>Akademisch Qualifizierte und beruflich Höherqualifizierte (30- bis 34-Jährige mit tertiärem oder post-sekundarem nichttertiärem Abschluss)</t>
+        </is>
+      </c>
+      <c r="K17" s="4" t="inlineStr">
+        <is>
+          <t>Persons with an academic or higher vocational qualification (30 to 34-year-olds with a tertiary or post-secondary non-tertiary level of education)</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="18">
       <c r="A18" s="4" t="inlineStr">
@@ -1299,6 +1471,16 @@
           <t>Increase to 35% by 2030</t>
         </is>
       </c>
+      <c r="J18" s="4" t="inlineStr">
+        <is>
+          <t>Ganztagsbetreuung für Kinder &lt;br&gt;0- bis 2-Jährige</t>
+        </is>
+      </c>
+      <c r="K18" s="4" t="inlineStr">
+        <is>
+          <t>All-day care provision for 0 to 2-year-old children</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="19">
       <c r="A19" s="4" t="inlineStr">
@@ -1346,6 +1528,16 @@
           <t>Increase to 60% by 2020 and to 70% by 2030</t>
         </is>
       </c>
+      <c r="J19" s="4" t="inlineStr">
+        <is>
+          <t>Ganztagsbetreuung für Kinder &lt;br&gt;3- bis 5-Jährige</t>
+        </is>
+      </c>
+      <c r="K19" s="4" t="inlineStr">
+        <is>
+          <t>All-day care provision for 3 to 5-year-old children</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="20">
       <c r="A20" s="4" t="inlineStr">
@@ -1393,6 +1585,16 @@
           <t>Reduce the gap to 10% by 2020, maintained until 2030</t>
         </is>
       </c>
+      <c r="J20" s="4" t="inlineStr">
+        <is>
+          <t>Verdienstabstand zwischen Frauen und Männern</t>
+        </is>
+      </c>
+      <c r="K20" s="4" t="inlineStr">
+        <is>
+          <t>Gender pay gap</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="21">
       <c r="A21" s="4" t="inlineStr">
@@ -1440,6 +1642,16 @@
           <t>30% women on supervisory boards of listed and fully co-determined companies by 2030</t>
         </is>
       </c>
+      <c r="J21" s="4" t="inlineStr">
+        <is>
+          <t>In Aufsichtsräten der börsennotierten und paritätisch mitbestimmten Unternehmen</t>
+        </is>
+      </c>
+      <c r="K21" s="4" t="inlineStr">
+        <is>
+          <t>On supervisory boards of listed and fully co-determined companies</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="22">
       <c r="A22" s="4" t="inlineStr">
@@ -1487,6 +1699,16 @@
           <t>Equal-opportunity participation of women and men in civil service management positions by 2025</t>
         </is>
       </c>
+      <c r="J22" s="4" t="inlineStr">
+        <is>
+          <t>Im öffentlichen Dienst des Bundes</t>
+        </is>
+      </c>
+      <c r="K22" s="4" t="inlineStr">
+        <is>
+          <t>In management positions in the federal civil service</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="23">
       <c r="A23" s="4" t="inlineStr">
@@ -1534,6 +1756,16 @@
           <t>65% by 2030</t>
         </is>
       </c>
+      <c r="J23" s="4" t="inlineStr">
+        <is>
+          <t>Väterbeteiligung beim Elterngeld</t>
+        </is>
+      </c>
+      <c r="K23" s="4" t="inlineStr">
+        <is>
+          <t>Proportion of fathers receiving parental allowance</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="24">
       <c r="A24" s="4" t="inlineStr">
@@ -1581,6 +1813,16 @@
           <t>To be increased gradually by a third by 2030 compared to 2015 as the base year</t>
         </is>
       </c>
+      <c r="J24" s="4" t="inlineStr">
+        <is>
+          <t>Berufliche Qualifizierung von Frauen und Mädchen durch deutsche entwicklungspolitische Zusammenarbeit</t>
+        </is>
+      </c>
+      <c r="K24" s="4" t="inlineStr">
+        <is>
+          <t>Vocational qualifications of women and girls through German development cooperation</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="25">
       <c r="A25" s="4" t="inlineStr">
@@ -1628,6 +1870,16 @@
           <t>Not exceeding benchmark values for specific types of water bodies at all monitoring points by 2030</t>
         </is>
       </c>
+      <c r="J25" s="4" t="inlineStr">
+        <is>
+          <t>Phosphor in Fließgewässern</t>
+        </is>
+      </c>
+      <c r="K25" s="4" t="inlineStr">
+        <is>
+          <t>Phosphorous in flowing waters</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="26">
       <c r="A26" s="4" t="inlineStr">
@@ -1675,6 +1927,16 @@
           <t>Compliance with the nitrate threshold value of 50 mg/l at all monitoring points by 2030</t>
         </is>
       </c>
+      <c r="J26" s="4" t="inlineStr">
+        <is>
+          <t>Nitrat im Grundwasser</t>
+        </is>
+      </c>
+      <c r="K26" s="4" t="inlineStr">
+        <is>
+          <t>Nitrate in groundwater</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="27">
       <c r="A27" s="4" t="inlineStr">
@@ -1722,6 +1984,16 @@
           <t/>
         </is>
       </c>
+      <c r="J27" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K27" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="28">
       <c r="A28" s="4" t="inlineStr">
@@ -1769,6 +2041,16 @@
           <t>6 million people per year by 2030</t>
         </is>
       </c>
+      <c r="J28" s="4" t="inlineStr">
+        <is>
+          <t>Anzahl der Menschen, die einen neuen oder hochwertigeren Zugang zur Trinkwasserversorgung durch deutsche Unterstützung erhalten</t>
+        </is>
+      </c>
+      <c r="K28" s="4" t="inlineStr">
+        <is>
+          <t>Number of people gaining first-time or upgraded access to drinking water owing to German support</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="29">
       <c r="A29" s="4" t="inlineStr">
@@ -1816,6 +2098,16 @@
           <t>4 million people per year by 2030</t>
         </is>
       </c>
+      <c r="J29" s="4" t="inlineStr">
+        <is>
+          <t>Anzahl der Menschen, die einen neuen oder verbesserten Anschluss zur Sanitärversorgung durch deutsche Unterstützung erhalten</t>
+        </is>
+      </c>
+      <c r="K29" s="4" t="inlineStr">
+        <is>
+          <t>Number of people gaining first-time or improved access to sanitation owing to German support</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="30">
       <c r="A30" s="4" t="inlineStr">
@@ -1863,6 +2155,16 @@
           <t>Increase by 2.1% per year from 2008 to 2050</t>
         </is>
       </c>
+      <c r="J30" s="4" t="inlineStr">
+        <is>
+          <t>Endenergieproduktivität</t>
+        </is>
+      </c>
+      <c r="K30" s="4" t="inlineStr">
+        <is>
+          <t>Final energy productivity</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="31">
       <c r="A31" s="4" t="inlineStr">
@@ -1910,6 +2212,16 @@
           <t>Reduction by 20% by 2020, by 30% by 2030, and by 50% by 2050, all compared to 2008</t>
         </is>
       </c>
+      <c r="J31" s="4" t="inlineStr">
+        <is>
+          <t>Primärenergieverbrauch</t>
+        </is>
+      </c>
+      <c r="K31" s="4" t="inlineStr">
+        <is>
+          <t>Primary energy consumption</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="32">
       <c r="A32" s="4" t="inlineStr">
@@ -1957,6 +2269,16 @@
           <t>Increase to 18% by 2020 and to 30% by 2030, to 45% by 2040 and to 60% by 2050</t>
         </is>
       </c>
+      <c r="J32" s="4" t="inlineStr">
+        <is>
+          <t>Anteil erneuerbarer Energien am Brutto-Endenergieverbrauch</t>
+        </is>
+      </c>
+      <c r="K32" s="4" t="inlineStr">
+        <is>
+          <t>Share of renewable energies in gross final energy consumption</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="33">
       <c r="A33" s="4" t="inlineStr">
@@ -2004,6 +2326,16 @@
           <t>Increase to at least 35% by 2020, 65% by 2030, and greenhouse gas neutrality of electricity generated and consumed in Germany by 2050</t>
         </is>
       </c>
+      <c r="J33" s="4" t="inlineStr">
+        <is>
+          <t>Anteil des Stroms aus erneuerbaren Energiequellen am Bruttostromverbrauch</t>
+        </is>
+      </c>
+      <c r="K33" s="4" t="inlineStr">
+        <is>
+          <t>Share of electricity from renewable energy sources in gross electricity consumption</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="34">
       <c r="A34" s="4" t="inlineStr">
@@ -2051,6 +2383,16 @@
           <t>Trend of the years 2000–2010 to be maintained until 2030</t>
         </is>
       </c>
+      <c r="J34" s="4" t="inlineStr">
+        <is>
+          <t>Gesamtrohstoffproduktivität</t>
+        </is>
+      </c>
+      <c r="K34" s="4" t="inlineStr">
+        <is>
+          <t>Raw material input productivity</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="35">
       <c r="A35" s="4" t="inlineStr">
@@ -2098,6 +2440,16 @@
           <t>Annual government deficit less than 3% of GDP, to be maintained until 2030</t>
         </is>
       </c>
+      <c r="J35" s="4" t="inlineStr">
+        <is>
+          <t>Staatsdefizit</t>
+        </is>
+      </c>
+      <c r="K35" s="4" t="inlineStr">
+        <is>
+          <t>Government deficit</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="36">
       <c r="A36" s="4" t="inlineStr">
@@ -2145,6 +2497,16 @@
           <t>Structurally balanced government budget, general government structural deficit must not exceed 0.5% of GDP, to be maintained until 2030</t>
         </is>
       </c>
+      <c r="J36" s="4" t="inlineStr">
+        <is>
+          <t>Strukturelles Defizit</t>
+        </is>
+      </c>
+      <c r="K36" s="4" t="inlineStr">
+        <is>
+          <t>Structural deficit</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="37">
       <c r="A37" s="4" t="inlineStr">
@@ -2192,6 +2554,16 @@
           <t>Ratio of government debt to GDP must not exceed  60%, to be maintained until 2030</t>
         </is>
       </c>
+      <c r="J37" s="4" t="inlineStr">
+        <is>
+          <t>Schuldenstand</t>
+        </is>
+      </c>
+      <c r="K37" s="4" t="inlineStr">
+        <is>
+          <t>Government debt</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="38">
       <c r="A38" s="4" t="inlineStr">
@@ -2239,6 +2611,16 @@
           <t>Appropriate development of the ratio, to be maintained until 2030</t>
         </is>
       </c>
+      <c r="J38" s="4" t="inlineStr">
+        <is>
+          <t>Verhältnis der Bruttoanlageinvestitionen zum BIP</t>
+        </is>
+      </c>
+      <c r="K38" s="4" t="inlineStr">
+        <is>
+          <t>Gross fixed capital formation in relation to GDP</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="39">
       <c r="A39" s="4" t="inlineStr">
@@ -2286,6 +2668,16 @@
           <t>Steady and appropriate economic growth</t>
         </is>
       </c>
+      <c r="J39" s="4" t="inlineStr">
+        <is>
+          <t>Bruttoinlandsprodukt je Einwohner</t>
+        </is>
+      </c>
+      <c r="K39" s="4" t="inlineStr">
+        <is>
+          <t>Gross domestic product per capita</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="40">
       <c r="A40" s="4" t="inlineStr">
@@ -2333,6 +2725,16 @@
           <t>Increase to 78% by 2030</t>
         </is>
       </c>
+      <c r="J40" s="4" t="inlineStr">
+        <is>
+          <t>Erwerbstätigenquote insgesamt (20 bis 64 Jahre)</t>
+        </is>
+      </c>
+      <c r="K40" s="4" t="inlineStr">
+        <is>
+          <t>Employment rate, total (20 to 64-year-olds)</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="41">
       <c r="A41" s="4" t="inlineStr">
@@ -2380,6 +2782,16 @@
           <t>Increase to 60% by 2030</t>
         </is>
       </c>
+      <c r="J41" s="4" t="inlineStr">
+        <is>
+          <t>Erwerbstätigenquote Ältere (60 bis 64 Jahre)</t>
+        </is>
+      </c>
+      <c r="K41" s="4" t="inlineStr">
+        <is>
+          <t>Employment rate, older people (60 to 64-year-olds)</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="42">
       <c r="A42" s="4" t="inlineStr">
@@ -2427,6 +2839,16 @@
           <t>Significantly increase by 2030</t>
         </is>
       </c>
+      <c r="J42" s="4" t="inlineStr">
+        <is>
+          <t>Mitglieder des Textilbündnisses</t>
+        </is>
+      </c>
+      <c r="K42" s="4" t="inlineStr">
+        <is>
+          <t>Members of the Textile Partnership</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="43">
       <c r="A43" s="4" t="inlineStr">
@@ -2474,6 +2896,16 @@
           <t>At least 3.5% of GDP per year by 2025</t>
         </is>
       </c>
+      <c r="J43" s="4" t="inlineStr">
+        <is>
+          <t>Private und öffentliche Ausgaben für Forschung und Entwicklung</t>
+        </is>
+      </c>
+      <c r="K43" s="4" t="inlineStr">
+        <is>
+          <t>Private and public expenditure on research and development</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="44">
       <c r="A44" s="4" t="inlineStr">
@@ -2521,6 +2953,16 @@
           <t>Universal gigabit network Roll-out by 2025</t>
         </is>
       </c>
+      <c r="J44" s="4" t="inlineStr">
+        <is>
+          <t>Breitbandausbau – Anteil der Haushalte mit Zugang zu Gigabit-Breitbandversorgung</t>
+        </is>
+      </c>
+      <c r="K44" s="4" t="inlineStr">
+        <is>
+          <t>Roll-out of broadband – share of households with access to gigabit broadband services</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="45">
       <c r="A45" s="4" t="inlineStr">
@@ -2568,6 +3010,16 @@
           <t>Increase the proportion of foreign school leavers with a least a secondary general school certificate and bring into line with that of German school leavers by 2030</t>
         </is>
       </c>
+      <c r="J45" s="4" t="inlineStr">
+        <is>
+          <t>Ausländische Schulabsolventinnen und Schulabsolventen</t>
+        </is>
+      </c>
+      <c r="K45" s="4" t="inlineStr">
+        <is>
+          <t>Foreign school graduates</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="46">
       <c r="A46" s="4" t="inlineStr">
@@ -2615,6 +3067,16 @@
           <t>Gini coefficient of income after social transfers to be below the EU28 figure by 2030</t>
         </is>
       </c>
+      <c r="J46" s="4" t="inlineStr">
+        <is>
+          <t>Gini-Koeffizient des Einkommens nach Sozialtransfers</t>
+        </is>
+      </c>
+      <c r="K46" s="4" t="inlineStr">
+        <is>
+          <t>Gini coefficient of income after social transfers</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="47">
       <c r="A47" s="4" t="inlineStr">
@@ -2662,6 +3124,16 @@
           <t>Reduction to under 30 ha on average per day by 2030</t>
         </is>
       </c>
+      <c r="J47" s="4" t="inlineStr">
+        <is>
+          <t>Anstieg der Siedlungs- und Verkehrsfläche in ha pro Tag</t>
+        </is>
+      </c>
+      <c r="K47" s="4" t="inlineStr">
+        <is>
+          <t>Expansion of settlement and transport area in ha per day</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="48">
       <c r="A48" s="4" t="inlineStr">
@@ -2709,6 +3181,16 @@
           <t>Reduce the loss of per capita open space area</t>
         </is>
       </c>
+      <c r="J48" s="4" t="inlineStr">
+        <is>
+          <t>Freiraumverlust</t>
+        </is>
+      </c>
+      <c r="K48" s="4" t="inlineStr">
+        <is>
+          <t>Loss of open space area</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="49">
       <c r="A49" s="4" t="inlineStr">
@@ -2756,6 +3238,16 @@
           <t>No reduction in density of settlements</t>
         </is>
       </c>
+      <c r="J49" s="4" t="inlineStr">
+        <is>
+          <t>Siedlungsdichte</t>
+        </is>
+      </c>
+      <c r="K49" s="4" t="inlineStr">
+        <is>
+          <t>Density of settlements</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="50">
       <c r="A50" s="4" t="inlineStr">
@@ -2803,6 +3295,16 @@
           <t>Reduction by 15–20% by 2030</t>
         </is>
       </c>
+      <c r="J50" s="4" t="inlineStr">
+        <is>
+          <t>Endenergieverbrauch im Güterverkehr</t>
+        </is>
+      </c>
+      <c r="K50" s="4" t="inlineStr">
+        <is>
+          <t>Final energy consumption in goods transport</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="51">
       <c r="A51" s="4" t="inlineStr">
@@ -2850,6 +3352,16 @@
           <t>Reduction by 15–20% by 2030</t>
         </is>
       </c>
+      <c r="J51" s="4" t="inlineStr">
+        <is>
+          <t>Endenergieverbrauch im Personenverkehr</t>
+        </is>
+      </c>
+      <c r="K51" s="4" t="inlineStr">
+        <is>
+          <t>Final energy consumption in passenger transport</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="52">
       <c r="A52" s="4" t="inlineStr">
@@ -2897,6 +3409,16 @@
           <t>Reduction of average travel time by public transport</t>
         </is>
       </c>
+      <c r="J52" s="4" t="inlineStr">
+        <is>
+          <t>Erreichbarkeit von Mittel- und Oberzentren mit öffentlichen Verkehrsmitteln</t>
+        </is>
+      </c>
+      <c r="K52" s="4" t="inlineStr">
+        <is>
+          <t>Accessibility of medium-sized and large cities by public transport</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="53">
       <c r="A53" s="4" t="inlineStr">
@@ -2944,6 +3466,16 @@
           <t>Reduce the proportion of people who are overburdened to 13% by 2030</t>
         </is>
       </c>
+      <c r="J53" s="4" t="inlineStr">
+        <is>
+          <t>Überlastung durch Wohnkosten</t>
+        </is>
+      </c>
+      <c r="K53" s="4" t="inlineStr">
+        <is>
+          <t>Housing cost overload</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="54">
       <c r="A54" s="4" t="inlineStr">
@@ -2991,6 +3523,16 @@
           <t>Increase in the number of objects in the network of the German Digital Library to 50 million by 2030</t>
         </is>
       </c>
+      <c r="J54" s="4" t="inlineStr">
+        <is>
+          <t>Zahl der Objekte in der Deutschen Digitalen Bibliothek</t>
+        </is>
+      </c>
+      <c r="K54" s="4" t="inlineStr">
+        <is>
+          <t>Number of objects in the German Digital Library</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="55">
       <c r="A55" s="4" t="inlineStr">
@@ -3038,6 +3580,16 @@
           <t>Increase the market share to 34% by 2030</t>
         </is>
       </c>
+      <c r="J55" s="4" t="inlineStr">
+        <is>
+          <t>Marktanteil von Produkten mit staatlichen Umweltzeichen</t>
+        </is>
+      </c>
+      <c r="K55" s="4" t="inlineStr">
+        <is>
+          <t>Market share of products certified by publicly managed eco-labelling schemes</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="56">
       <c r="A56" s="4" t="inlineStr">
@@ -3085,6 +3637,16 @@
           <t>Steady reduction</t>
         </is>
       </c>
+      <c r="J56" s="4" t="inlineStr">
+        <is>
+          <t>Rohstoffeinsatz</t>
+        </is>
+      </c>
+      <c r="K56" s="4" t="inlineStr">
+        <is>
+          <t>Use of raw materials</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="57">
       <c r="A57" s="4" t="inlineStr">
@@ -3132,6 +3694,16 @@
           <t>Steady reduction</t>
         </is>
       </c>
+      <c r="J57" s="4" t="inlineStr">
+        <is>
+          <t>Energieverbrauch</t>
+        </is>
+      </c>
+      <c r="K57" s="4" t="inlineStr">
+        <is>
+          <t>Energy consumption</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="58">
       <c r="A58" s="4" t="inlineStr">
@@ -3179,6 +3751,16 @@
           <t>Steady reduction</t>
         </is>
       </c>
+      <c r="J58" s="4" t="inlineStr">
+        <is>
+          <t>CO2-Emissionen</t>
+        </is>
+      </c>
+      <c r="K58" s="4" t="inlineStr">
+        <is>
+          <t>CO2 emissions</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="59">
       <c r="A59" s="4" t="inlineStr">
@@ -3226,6 +3808,16 @@
           <t>5,000 locations of organisations by 2030</t>
         </is>
       </c>
+      <c r="J59" s="4" t="inlineStr">
+        <is>
+          <t>Umweltmanagement EMAS</t>
+        </is>
+      </c>
+      <c r="K59" s="4" t="inlineStr">
+        <is>
+          <t>EMAS eco-management</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="60">
       <c r="A60" s="4" t="inlineStr">
@@ -3273,6 +3865,16 @@
           <t>Increase the proportion to 95% by 2020</t>
         </is>
       </c>
+      <c r="J60" s="4" t="inlineStr">
+        <is>
+          <t>Anteil des Papiers mit Blauem Engel am Gesamtpapierverbrauch der unmittelbaren Bundesverwaltung</t>
+        </is>
+      </c>
+      <c r="K60" s="4" t="inlineStr">
+        <is>
+          <t>Paper bearing the Blue Angel label as a proportion of the total paper consumption of the direct federal administration</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="61">
       <c r="A61" s="4" t="inlineStr">
@@ -3320,6 +3922,16 @@
           <t>Significantly reduce</t>
         </is>
       </c>
+      <c r="J61" s="4" t="inlineStr">
+        <is>
+          <t>CO2-Emissionen von handelsüblichen Kraftfahrzeugen der öffentlichen Hand</t>
+        </is>
+      </c>
+      <c r="K61" s="4" t="inlineStr">
+        <is>
+          <t>CO2 emissions of commercially available vehicles in the public sector</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="62">
       <c r="A62" s="4" t="inlineStr">
@@ -3367,6 +3979,16 @@
           <t>Reduce by at least 40% by 2020 and by at least 55% by 2030, in each case compared to 1990; greenhouse gas neutrality to be achieved by 2050</t>
         </is>
       </c>
+      <c r="J62" s="4" t="inlineStr">
+        <is>
+          <t>Treibhausgasemissionen</t>
+        </is>
+      </c>
+      <c r="K62" s="4" t="inlineStr">
+        <is>
+          <t>Greenhouse gas emissions</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="63">
       <c r="A63" s="4" t="inlineStr">
@@ -3414,6 +4036,16 @@
           <t>Double finance by 2020 compared to 2014</t>
         </is>
       </c>
+      <c r="J63" s="4" t="inlineStr">
+        <is>
+          <t>Internationale Klimafinanzierung zur Reduktion von Treibhausgasen und zur Anpassung an den Klimawandel</t>
+        </is>
+      </c>
+      <c r="K63" s="4" t="inlineStr">
+        <is>
+          <t>International climate finance for the reduction of greenhouse gases and adaptation to climate change</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="64">
       <c r="A64" s="4" t="inlineStr">
@@ -3461,6 +4093,16 @@
           <t>Adherence to good quality in accordance with the Ordinance on the Protection of Surface Waters (Oberflächengewässerver-ordnung) (annual averages for total nitro-gen in rivers flowing into the Baltic may not exceed 2.6 mg/l)</t>
         </is>
       </c>
+      <c r="J64" s="4" t="inlineStr">
+        <is>
+          <t>Nährstoffeinträge in Küstengewässer und Meeresgewässer – Stickstoffeintrag über die Zuflüsse in die Ostsee</t>
+        </is>
+      </c>
+      <c r="K64" s="4" t="inlineStr">
+        <is>
+          <t>Nitrogen input in coastal and marine waters – nitrogen input via the inflows into the Baltic Sea</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="65">
       <c r="A65" s="4" t="inlineStr">
@@ -3508,6 +4150,16 @@
           <t>Adherence to good quality in accordance with the Ordinance on the Protection of Surface Waters (annual averages for total nitrogen in rivers flowing into the North Sea may not exceed 2.8 mg/l)</t>
         </is>
       </c>
+      <c r="J65" s="4" t="inlineStr">
+        <is>
+          <t>Nährstoffeinträge in Küstengewässer und Meeresgewässer – Stickstoffeintrag über die Zuflüsse in die Nordsee</t>
+        </is>
+      </c>
+      <c r="K65" s="4" t="inlineStr">
+        <is>
+          <t>Nitrogen input in coastal and marine waters – nitrogen input via the inflows into the North Sea</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="66">
       <c r="A66" s="4" t="inlineStr">
@@ -3555,6 +4207,16 @@
           <t>All fish stocks used for commercial purpos-es to be sustainably managed in accordance with the Maximum Sustainable Yield (MSY) approach by 2020</t>
         </is>
       </c>
+      <c r="J66" s="4" t="inlineStr">
+        <is>
+          <t>Anteil der nachhaltig befischten Fischbestände in Nord- und Ostsee</t>
+        </is>
+      </c>
+      <c r="K66" s="4" t="inlineStr">
+        <is>
+          <t>Share of sustainably fished fish populations in the North Sea and Baltic</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="67">
       <c r="A67" s="4" t="inlineStr">
@@ -3602,6 +4264,16 @@
           <t>Reach the index value of 100 by 2030</t>
         </is>
       </c>
+      <c r="J67" s="4" t="inlineStr">
+        <is>
+          <t>Artenvielfalt und Landschaftsqualität</t>
+        </is>
+      </c>
+      <c r="K67" s="4" t="inlineStr">
+        <is>
+          <t>Biodiversity and landscape quality</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="68">
       <c r="A68" s="4" t="inlineStr">
@@ -3649,6 +4321,16 @@
           <t>Reduction by 35% by 2030 compared to 2005</t>
         </is>
       </c>
+      <c r="J68" s="4" t="inlineStr">
+        <is>
+          <t>Eutrophierung der Ökosysteme</t>
+        </is>
+      </c>
+      <c r="K68" s="4" t="inlineStr">
+        <is>
+          <t>Eutrophication of ecosystems</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="69">
       <c r="A69" s="4" t="inlineStr">
@@ -3696,6 +4378,16 @@
           <t>Increase payments by 2030</t>
         </is>
       </c>
+      <c r="J69" s="4" t="inlineStr">
+        <is>
+          <t>Erhalt bzw. Wiederaufbau von Wäldern in Entwicklungsländern unter dem REDD+-Regelwerk</t>
+        </is>
+      </c>
+      <c r="K69" s="4" t="inlineStr">
+        <is>
+          <t>Preservation or restoration of forests in developing countries under the REDD+ rulebook</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="70">
       <c r="A70" s="4" t="inlineStr">
@@ -3743,6 +4435,16 @@
           <t>Payments to be increased by 2030</t>
         </is>
       </c>
+      <c r="J70" s="4" t="inlineStr">
+        <is>
+          <t>Deutsche bilaterale Bruttoentwicklungsausgaben zur Umsetzung des Übereinkommens der VN zur Bekämpfung der Wüstenbildung</t>
+        </is>
+      </c>
+      <c r="K70" s="4" t="inlineStr">
+        <is>
+          <t>German gross bilateral development expenditure for the implementation of the UN Convention to Combat Desertification</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="71">
       <c r="A71" s="4" t="inlineStr">
@@ -3790,6 +4492,16 @@
           <t>Reduce the number of criminal offences re-corded per 100,000 inhabitants to less than 6,500 by 2030</t>
         </is>
       </c>
+      <c r="J71" s="4" t="inlineStr">
+        <is>
+          <t>Straftaten</t>
+        </is>
+      </c>
+      <c r="K71" s="4" t="inlineStr">
+        <is>
+          <t>Criminal offences</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="72">
       <c r="A72" s="4" t="inlineStr">
@@ -3837,6 +4549,16 @@
           <t>At least 15 projects per year by 2030</t>
         </is>
       </c>
+      <c r="J72" s="4" t="inlineStr">
+        <is>
+          <t>Anzahl der in betroffenen Weltregionen durchgeführten Projekte zur Sicherung, Registrierung und Zerstörung von Kleinwaffen und leichten Waffen durch Deutschland</t>
+        </is>
+      </c>
+      <c r="K72" s="4" t="inlineStr">
+        <is>
+          <t>Number of projects to secure, register and destroy small arms and light weapons carried out by Germany in affected regions of the world</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="73">
       <c r="A73" s="4" t="inlineStr">
@@ -3884,6 +4606,16 @@
           <t>Improvement by 2030, compared to 2012</t>
         </is>
       </c>
+      <c r="J73" s="4" t="inlineStr">
+        <is>
+          <t>Corruption Perception Index in Deutschland</t>
+        </is>
+      </c>
+      <c r="K73" s="4" t="inlineStr">
+        <is>
+          <t>Corruption Perceptions Index in Germany</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="74">
       <c r="A74" s="4" t="inlineStr">
@@ -3913,12 +4645,12 @@
       </c>
       <c r="F74" s="4" t="inlineStr">
         <is>
-          <t>Corruption Perception Index in den Partnerländern der deutschen Entwicklungszusammenarbeit</t>
+          <t>Anzahl der Partnerländer deutscher Entwicklungszusammenarbeit, deren Bewertung sich gegenüber 2012 verbessert hat</t>
         </is>
       </c>
       <c r="G74" s="4" t="inlineStr">
         <is>
-          <t>Corruption Perceptions Index in partner countries of German development cooperation</t>
+          <t>Number of partner countries involved in German development cooperation with improved CPI scores compared with 2012</t>
         </is>
       </c>
       <c r="H74" s="4" t="inlineStr">
@@ -3929,6 +4661,16 @@
       <c r="I74" s="4" t="inlineStr">
         <is>
           <t>Improvement by 2030, compared to 2012</t>
+        </is>
+      </c>
+      <c r="J74" s="4" t="inlineStr">
+        <is>
+          <t>Anzahl der Partnerländer deutscher Entwicklungszusammenarbeit, deren Bewertung sich gegenüber 2012 verbessert hat</t>
+        </is>
+      </c>
+      <c r="K74" s="4" t="inlineStr">
+        <is>
+          <t>Number of partner countries involved in German development cooperation with improved CPI scores compared with 2012</t>
         </is>
       </c>
     </row>
@@ -3978,6 +4720,16 @@
           <t>Increase the proportion to 0.7% of gross national income by 2030</t>
         </is>
       </c>
+      <c r="J75" s="4" t="inlineStr">
+        <is>
+          <t>Anteil öffentlicher Entwicklungsausgaben am Bruttonationaleinkommen</t>
+        </is>
+      </c>
+      <c r="K75" s="4" t="inlineStr">
+        <is>
+          <t>Official development assistance as a proportion of gross national income</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="76">
       <c r="A76" s="4" t="inlineStr">
@@ -4025,6 +4777,16 @@
           <t>Increase the number by 10% from 2015 to 2020, then stabilised</t>
         </is>
       </c>
+      <c r="J76" s="4" t="inlineStr">
+        <is>
+          <t>Anzahl der Studierenden und Forschenden aus Entwicklungsländern sowie LDCs pro Jahr</t>
+        </is>
+      </c>
+      <c r="K76" s="4" t="inlineStr">
+        <is>
+          <t>Number of students and researchers from developing countries and LDCs per year</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="77">
       <c r="A77" s="4" t="inlineStr">
@@ -4070,6 +4832,16 @@
       <c r="I77" s="4" t="inlineStr">
         <is>
           <t>Increase the proportion by 100 % by 2030, compared to 2014</t>
+        </is>
+      </c>
+      <c r="J77" s="4" t="inlineStr">
+        <is>
+          <t>Einfuhren aus am wenigsten entwickelten Ländern</t>
+        </is>
+      </c>
+      <c r="K77" s="4" t="inlineStr">
+        <is>
+          <t>Imports from least developed countries</t>
         </is>
       </c>
     </row>

--- a/Tab_5a_Indikatoren.xlsx
+++ b/Tab_5a_Indikatoren.xlsx
@@ -4095,12 +4095,12 @@
       </c>
       <c r="J64" s="4" t="inlineStr">
         <is>
-          <t>Nährstoffeinträge in Küstengewässer und Meeresgewässer – Stickstoffeintrag über die Zuflüsse in die Ostsee</t>
+          <t>Stickstoffeinträge in Küsten- und Meeresgewässer der Ostsee</t>
         </is>
       </c>
       <c r="K64" s="4" t="inlineStr">
         <is>
-          <t>Nitrogen input in coastal and marine waters – nitrogen input via the inflows into the Baltic Sea</t>
+          <t>Nitrogen input in coastal and marine waters of the Baltic Sea</t>
         </is>
       </c>
     </row>
@@ -4152,12 +4152,12 @@
       </c>
       <c r="J65" s="4" t="inlineStr">
         <is>
-          <t>Nährstoffeinträge in Küstengewässer und Meeresgewässer – Stickstoffeintrag über die Zuflüsse in die Nordsee</t>
+          <t>Stickstoffeinträge in Küstengewässer und Meeresgewässer der Nordsee</t>
         </is>
       </c>
       <c r="K65" s="4" t="inlineStr">
         <is>
-          <t>Nitrogen input in coastal and marine waters – nitrogen input via the inflows into the North Sea</t>
+          <t>Nitrogen input in coastal and marine waters of the North Sea</t>
         </is>
       </c>
     </row>

--- a/Tab_5a_Indikatoren.xlsx
+++ b/Tab_5a_Indikatoren.xlsx
@@ -435,7 +435,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K77"/>
+  <dimension ref="A1:O77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -446,14 +446,18 @@
     <col customWidth="true" min="1" max="1" width="21.82421875"/>
     <col customWidth="true" min="2" max="2" width="18.1640625"/>
     <col customWidth="true" min="3" max="3" width="13.8359375"/>
-    <col customWidth="true" min="4" max="4" width="23.14453125"/>
-    <col customWidth="true" min="5" max="5" width="18.1640625"/>
-    <col customWidth="true" min="6" max="6" width="36.9140625"/>
-    <col customWidth="true" min="7" max="7" width="20.5078125"/>
-    <col customWidth="true" min="8" max="8" width="57.71484375"/>
-    <col customWidth="true" min="9" max="9" width="46.2890625"/>
-    <col customWidth="true" min="10" max="10" width="13.8359375"/>
-    <col customWidth="true" min="11" max="11" width="13.8359375"/>
+    <col customWidth="true" min="4" max="4" width="13.8359375"/>
+    <col customWidth="true" min="5" max="5" width="13.8359375"/>
+    <col customWidth="true" min="6" max="6" width="23.14453125"/>
+    <col customWidth="true" min="7" max="7" width="18.1640625"/>
+    <col customWidth="true" min="8" max="8" width="36.9140625"/>
+    <col customWidth="true" min="9" max="9" width="20.5078125"/>
+    <col customWidth="true" min="10" max="10" width="57.71484375"/>
+    <col customWidth="true" min="11" max="11" width="46.2890625"/>
+    <col customWidth="true" min="12" max="12" width="13.8359375"/>
+    <col customWidth="true" min="13" max="13" width="13.8359375"/>
+    <col customWidth="true" min="14" max="14" width="59.47265625"/>
+    <col customWidth="true" min="15" max="15" width="52.29296875"/>
   </cols>
   <sheetData>
     <row outlineLevel="0" r="1">
@@ -474,40 +478,60 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>Indikator sehr kurz De</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>Indikator sehr kurz En</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
           <t>Indikator kurz De</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
         <is>
           <t>Indikator kurz En</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>Indikator De</t>
         </is>
       </c>
-      <c r="G1" s="2" t="inlineStr">
+      <c r="I1" s="2" t="inlineStr">
         <is>
           <t>Indikator En</t>
         </is>
       </c>
-      <c r="H1" s="2" t="inlineStr">
+      <c r="J1" s="2" t="inlineStr">
         <is>
           <t>Ziel De</t>
         </is>
       </c>
-      <c r="I1" s="2" t="inlineStr">
+      <c r="K1" s="2" t="inlineStr">
         <is>
           <t>Ziel En</t>
         </is>
       </c>
-      <c r="J1" s="2" t="inlineStr">
+      <c r="L1" s="2" t="inlineStr">
+        <is>
+          <t>Ziel kurz De</t>
+        </is>
+      </c>
+      <c r="M1" s="2" t="inlineStr">
+        <is>
+          <t>Ziel kurz En</t>
+        </is>
+      </c>
+      <c r="N1" s="2" t="inlineStr">
         <is>
           <t>Bezeichnung für Plattform De</t>
         </is>
       </c>
-      <c r="K1" s="2" t="inlineStr">
+      <c r="O1" s="2" t="inlineStr">
         <is>
           <t>Bezeichnung für Plattform En</t>
         </is>
@@ -531,40 +555,60 @@
       </c>
       <c r="D2" s="4" t="inlineStr">
         <is>
+          <t>a)</t>
+        </is>
+      </c>
+      <c r="E2" s="4" t="inlineStr">
+        <is>
+          <t>a)</t>
+        </is>
+      </c>
+      <c r="F2" s="4" t="inlineStr">
+        <is>
           <t>a) Materielle Deprivation</t>
         </is>
       </c>
-      <c r="E2" s="4" t="inlineStr">
+      <c r="G2" s="4" t="inlineStr">
         <is>
           <t>a) Material deprivation</t>
         </is>
       </c>
-      <c r="F2" s="4" t="inlineStr">
+      <c r="H2" s="4" t="inlineStr">
         <is>
           <t>Materielle Deprivation</t>
         </is>
       </c>
-      <c r="G2" s="4" t="inlineStr">
+      <c r="I2" s="4" t="inlineStr">
         <is>
           <t>Material deprivation</t>
         </is>
       </c>
-      <c r="H2" s="4" t="inlineStr">
-        <is>
-          <t>Anteil der Personen, die materiell depriviert sind, bis 2030 deutlich unter EU-28-Wert halten</t>
-        </is>
-      </c>
-      <c r="I2" s="4" t="inlineStr">
-        <is>
-          <t>Keep the proportion of persons who are materially deprived considerably below the EU-28 level by 2030</t>
-        </is>
-      </c>
       <c r="J2" s="4" t="inlineStr">
         <is>
+          <t>Anteil der Personen, die materiell depriviert sind, bis 2030 deutlich unter EU-Wert halten</t>
+        </is>
+      </c>
+      <c r="K2" s="4" t="inlineStr">
+        <is>
+          <t>Keep the proportion of persons who are materially deprived considerably below the EU-level by 2030</t>
+        </is>
+      </c>
+      <c r="L2" s="4" t="inlineStr">
+        <is>
+          <t>Anteil bis 2030 deutlich unter EU-Wert halten</t>
+        </is>
+      </c>
+      <c r="M2" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N2" s="4" t="inlineStr">
+        <is>
           <t>Materielle Deprivation</t>
         </is>
       </c>
-      <c r="K2" s="4" t="inlineStr">
+      <c r="O2" s="4" t="inlineStr">
         <is>
           <t>Material deprivation</t>
         </is>
@@ -588,40 +632,60 @@
       </c>
       <c r="D3" s="4" t="inlineStr">
         <is>
+          <t>b)</t>
+        </is>
+      </c>
+      <c r="E3" s="4" t="inlineStr">
+        <is>
+          <t>b)</t>
+        </is>
+      </c>
+      <c r="F3" s="4" t="inlineStr">
+        <is>
           <t>b) Erhebliche materielle Deprivation</t>
         </is>
       </c>
-      <c r="E3" s="4" t="inlineStr">
+      <c r="G3" s="4" t="inlineStr">
         <is>
           <t>b) Severe material deprivation</t>
         </is>
       </c>
-      <c r="F3" s="4" t="inlineStr">
+      <c r="H3" s="4" t="inlineStr">
         <is>
           <t>Erhebliche materielle Deprivation</t>
         </is>
       </c>
-      <c r="G3" s="4" t="inlineStr">
+      <c r="I3" s="4" t="inlineStr">
         <is>
           <t>Severe material deprivation</t>
         </is>
       </c>
-      <c r="H3" s="4" t="inlineStr">
-        <is>
-          <t>Anteil der Personen, die erheblich materiell depriviert sind, bis 2030 deutlich unter EU-28-Wert halten</t>
-        </is>
-      </c>
-      <c r="I3" s="4" t="inlineStr">
-        <is>
-          <t>Keep the proportion of persons who are severely materially deprived considerably below the EU-28 level by 2030</t>
-        </is>
-      </c>
       <c r="J3" s="4" t="inlineStr">
         <is>
+          <t>Anteil der Personen, die erheblich materiell depriviert sind, bis 2030 deutlich unter EU-Wert halten</t>
+        </is>
+      </c>
+      <c r="K3" s="4" t="inlineStr">
+        <is>
+          <t>Keep the proportion of persons who are severely materially deprived considerably below the EU level by 2030</t>
+        </is>
+      </c>
+      <c r="L3" s="4" t="inlineStr">
+        <is>
+          <t>Anteil bis 2030 deutlich unter EU-Wert halten</t>
+        </is>
+      </c>
+      <c r="M3" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N3" s="4" t="inlineStr">
+        <is>
           <t>Erhebliche materielle Deprivation</t>
         </is>
       </c>
-      <c r="K3" s="4" t="inlineStr">
+      <c r="O3" s="4" t="inlineStr">
         <is>
           <t>Severe material deprivation</t>
         </is>
@@ -655,30 +719,50 @@
       </c>
       <c r="F4" s="4" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G4" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H4" s="4" t="inlineStr">
+        <is>
           <t>Stickstoffüberschuss der Landwirtschaft</t>
         </is>
       </c>
-      <c r="G4" s="4" t="inlineStr">
+      <c r="I4" s="4" t="inlineStr">
         <is>
           <t>Nitrogen surplus in agriculture</t>
         </is>
       </c>
-      <c r="H4" s="4" t="inlineStr">
+      <c r="J4" s="4" t="inlineStr">
         <is>
           <t>Verringerung der Stickstoffüberschüsse der Gesamtbilanz für Deutschland auf 70 Kilogramm je Hektar landwirtschaftlich genutzter Fläche im Jahresmittel 2028-2032</t>
         </is>
       </c>
-      <c r="I4" s="4" t="inlineStr">
+      <c r="K4" s="4" t="inlineStr">
         <is>
           <t>Reduction of the nitrogen surpluses of the overall balance for Germany to 70 kilo-grams per hectare of utilised agricultural area on an annual average between 2028 and 2032</t>
         </is>
       </c>
-      <c r="J4" s="4" t="inlineStr">
+      <c r="L4" s="4" t="inlineStr">
+        <is>
+          <t>Verringerung der Stickstoffüberschüsse auf 70 kg/ha im Jahresmittel 2028-2032</t>
+        </is>
+      </c>
+      <c r="M4" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N4" s="4" t="inlineStr">
         <is>
           <t>Stickstoffüberschuss der Landwirtschaft</t>
         </is>
       </c>
-      <c r="K4" s="4" t="inlineStr">
+      <c r="O4" s="4" t="inlineStr">
         <is>
           <t>Nitrogen surplus in agriculture</t>
         </is>
@@ -712,30 +796,50 @@
       </c>
       <c r="F5" s="4" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G5" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H5" s="4" t="inlineStr">
+        <is>
           <t>Ökologischer Landbau</t>
         </is>
       </c>
-      <c r="G5" s="4" t="inlineStr">
+      <c r="I5" s="4" t="inlineStr">
         <is>
           <t>Organic farming</t>
         </is>
       </c>
-      <c r="H5" s="4" t="inlineStr">
+      <c r="J5" s="4" t="inlineStr">
         <is>
           <t>Erhöhung des Anteils des ökologischen Landbaus an der landwirtschaftlich genutzten Fläche auf 20 % bis 2030</t>
         </is>
       </c>
-      <c r="I5" s="4" t="inlineStr">
+      <c r="K5" s="4" t="inlineStr">
         <is>
           <t>Increase the proportion of organically farmed agricultural land to 20% by 2030</t>
         </is>
       </c>
-      <c r="J5" s="4" t="inlineStr">
+      <c r="L5" s="4" t="inlineStr">
+        <is>
+          <t>Erhöhung des Anteils von ökologischen Landbaus auf 20 % bis 2030</t>
+        </is>
+      </c>
+      <c r="M5" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N5" s="4" t="inlineStr">
         <is>
           <t>Ökologischer Landbau</t>
         </is>
       </c>
-      <c r="K5" s="4" t="inlineStr">
+      <c r="O5" s="4" t="inlineStr">
         <is>
           <t>Organic farming</t>
         </is>
@@ -769,30 +873,50 @@
       </c>
       <c r="F6" s="4" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G6" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H6" s="4" t="inlineStr">
+        <is>
           <t>Unterstützung guter Regierungsführung bei der Erreichung einer angemessenen Ernährung weltweit</t>
         </is>
       </c>
-      <c r="G6" s="4" t="inlineStr">
+      <c r="I6" s="4" t="inlineStr">
         <is>
           <t>Support for good governance in attaining appropriate nutrition world-wide</t>
         </is>
       </c>
-      <c r="H6" s="4" t="inlineStr">
+      <c r="J6" s="4" t="inlineStr">
         <is>
           <t>Angemessene Steigerung des Anteils der ausgezahlten Mittel für die Anwendung von Leitlinien und Empfehlungen des VN-Welternährungsausschusses (CFS) an den Gesamtausgaben für Ernährungssicherung in % bis 2030</t>
         </is>
       </c>
-      <c r="I6" s="4" t="inlineStr">
+      <c r="K6" s="4" t="inlineStr">
         <is>
           <t>Funds disbursed for the application of the guidelines and recommendations of the UN Committee on World Food Security (CFS) to be increased appropriately as a percentage of total spending on food security by 2030</t>
         </is>
       </c>
-      <c r="J6" s="4" t="inlineStr">
+      <c r="L6" s="4" t="inlineStr">
+        <is>
+          <t>Angemessene Steigerung des Anteils bis 2030</t>
+        </is>
+      </c>
+      <c r="M6" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N6" s="4" t="inlineStr">
         <is>
           <t>Unterstützung guter Regierungsführung bei der Erreichung einer angemessenen Ernährung weltweit</t>
         </is>
       </c>
-      <c r="K6" s="4" t="inlineStr">
+      <c r="O6" s="4" t="inlineStr">
         <is>
           <t>Support for good governance in attaining appropriate nutrition world-wide</t>
         </is>
@@ -816,40 +940,60 @@
       </c>
       <c r="D7" s="4" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E7" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F7" s="4" t="inlineStr">
+        <is>
           <t>a) Frauen</t>
         </is>
       </c>
-      <c r="E7" s="4" t="inlineStr">
+      <c r="G7" s="4" t="inlineStr">
         <is>
           <t>a) Women</t>
         </is>
       </c>
-      <c r="F7" s="4" t="inlineStr">
+      <c r="H7" s="4" t="inlineStr">
         <is>
           <t>Vorzeitige Sterblichkeit (Frauen)</t>
         </is>
       </c>
-      <c r="G7" s="4" t="inlineStr">
+      <c r="I7" s="4" t="inlineStr">
         <is>
           <t>Premature mortality (women)</t>
         </is>
       </c>
-      <c r="H7" s="4" t="inlineStr">
+      <c r="J7" s="4" t="inlineStr">
         <is>
           <t>Senkung auf 100 Todesfälle je 100 000 Einwohner (Frauen) bis 2030</t>
         </is>
       </c>
-      <c r="I7" s="4" t="inlineStr">
+      <c r="K7" s="4" t="inlineStr">
         <is>
           <t>To be reduced to 100 deaths per 100,000 inhabitants (women) by 2030</t>
         </is>
       </c>
-      <c r="J7" s="4" t="inlineStr">
+      <c r="L7" s="4" t="inlineStr">
+        <is>
+          <t>Senkung auf 100 Todesfälle je 100 000 Einwohner (Frauen) bis 2030</t>
+        </is>
+      </c>
+      <c r="M7" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N7" s="4" t="inlineStr">
         <is>
           <t>Vorzeitige Sterblichkeit (Frauen)</t>
         </is>
       </c>
-      <c r="K7" s="4" t="inlineStr">
+      <c r="O7" s="4" t="inlineStr">
         <is>
           <t>Premature mortality (women)</t>
         </is>
@@ -873,40 +1017,60 @@
       </c>
       <c r="D8" s="4" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E8" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F8" s="4" t="inlineStr">
+        <is>
           <t>b) Männer</t>
         </is>
       </c>
-      <c r="E8" s="4" t="inlineStr">
+      <c r="G8" s="4" t="inlineStr">
         <is>
           <t>b) Men</t>
         </is>
       </c>
-      <c r="F8" s="4" t="inlineStr">
+      <c r="H8" s="4" t="inlineStr">
         <is>
           <t>Vorzeitige Sterblichkeit (Männer)</t>
         </is>
       </c>
-      <c r="G8" s="4" t="inlineStr">
+      <c r="I8" s="4" t="inlineStr">
         <is>
           <t>Premature mortality (men)</t>
         </is>
       </c>
-      <c r="H8" s="4" t="inlineStr">
+      <c r="J8" s="4" t="inlineStr">
         <is>
           <t>Senkung auf 190 Todesfälle je 100 000 Einwohner (Männer) bis 2030</t>
         </is>
       </c>
-      <c r="I8" s="4" t="inlineStr">
+      <c r="K8" s="4" t="inlineStr">
         <is>
           <t>To be reduced to 190 deaths per 100,000 inhabitants (men) by 2030</t>
         </is>
       </c>
-      <c r="J8" s="4" t="inlineStr">
+      <c r="L8" s="4" t="inlineStr">
+        <is>
+          <t>Senkung auf 190 Todesfälle je 100 000 Einwohner (Männer) bis 2030</t>
+        </is>
+      </c>
+      <c r="M8" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N8" s="4" t="inlineStr">
         <is>
           <t>Vorzeitige Sterblichkeit (Männer)</t>
         </is>
       </c>
-      <c r="K8" s="4" t="inlineStr">
+      <c r="O8" s="4" t="inlineStr">
         <is>
           <t>Premature mortality (men)</t>
         </is>
@@ -930,40 +1094,60 @@
       </c>
       <c r="D9" s="4" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E9" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F9" s="4" t="inlineStr">
+        <is>
           <t>c) Jugendliche</t>
         </is>
       </c>
-      <c r="E9" s="4" t="inlineStr">
+      <c r="G9" s="4" t="inlineStr">
         <is>
           <t>c) Adolescents</t>
         </is>
       </c>
-      <c r="F9" s="4" t="inlineStr">
+      <c r="H9" s="4" t="inlineStr">
         <is>
           <t>Raucherquote von Jugendlichen</t>
         </is>
       </c>
-      <c r="G9" s="4" t="inlineStr">
+      <c r="I9" s="4" t="inlineStr">
         <is>
           <t>Smoking rate among adolescents</t>
         </is>
       </c>
-      <c r="H9" s="4" t="inlineStr">
+      <c r="J9" s="4" t="inlineStr">
         <is>
           <t>Senkung auf 7 % bis 2030</t>
         </is>
       </c>
-      <c r="I9" s="4" t="inlineStr">
+      <c r="K9" s="4" t="inlineStr">
         <is>
           <t>Reduction to 7% by 2030</t>
         </is>
       </c>
-      <c r="J9" s="4" t="inlineStr">
+      <c r="L9" s="4" t="inlineStr">
+        <is>
+          <t>Senkung auf 7 % bis 2030</t>
+        </is>
+      </c>
+      <c r="M9" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N9" s="4" t="inlineStr">
         <is>
           <t>Raucherquote von Jugendlichen</t>
         </is>
       </c>
-      <c r="K9" s="4" t="inlineStr">
+      <c r="O9" s="4" t="inlineStr">
         <is>
           <t>Smoking rate among adolescents</t>
         </is>
@@ -987,40 +1171,60 @@
       </c>
       <c r="D10" s="4" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E10" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F10" s="4" t="inlineStr">
+        <is>
           <t>d) Erwachsene</t>
         </is>
       </c>
-      <c r="E10" s="4" t="inlineStr">
+      <c r="G10" s="4" t="inlineStr">
         <is>
           <t>d) Adults</t>
         </is>
       </c>
-      <c r="F10" s="4" t="inlineStr">
+      <c r="H10" s="4" t="inlineStr">
         <is>
           <t>Raucherquote von Erwachsenen</t>
         </is>
       </c>
-      <c r="G10" s="4" t="inlineStr">
+      <c r="I10" s="4" t="inlineStr">
         <is>
           <t>Smoking rate among adults</t>
         </is>
       </c>
-      <c r="H10" s="4" t="inlineStr">
+      <c r="J10" s="4" t="inlineStr">
         <is>
           <t>Senkung auf 19 % bis 2030</t>
         </is>
       </c>
-      <c r="I10" s="4" t="inlineStr">
+      <c r="K10" s="4" t="inlineStr">
         <is>
           <t>Reduction to 19% by 2030</t>
         </is>
       </c>
-      <c r="J10" s="4" t="inlineStr">
+      <c r="L10" s="4" t="inlineStr">
+        <is>
+          <t>Senkung auf 19 % bis 2030</t>
+        </is>
+      </c>
+      <c r="M10" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N10" s="4" t="inlineStr">
         <is>
           <t>Raucherquote von Erwachsenen</t>
         </is>
       </c>
-      <c r="K10" s="4" t="inlineStr">
+      <c r="O10" s="4" t="inlineStr">
         <is>
           <t>Smoking rate among adults</t>
         </is>
@@ -1054,30 +1258,50 @@
       </c>
       <c r="F11" s="4" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G11" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H11" s="4" t="inlineStr">
+        <is>
           <t>Adipositasquote von Kindern und Jugendlichen</t>
         </is>
       </c>
-      <c r="G11" s="4" t="inlineStr">
+      <c r="I11" s="4" t="inlineStr">
         <is>
           <t>Obesity rate among children and adolescents</t>
         </is>
       </c>
-      <c r="H11" s="4" t="inlineStr">
+      <c r="J11" s="4" t="inlineStr">
         <is>
           <t>Anstieg dauerhaft stoppen</t>
         </is>
       </c>
-      <c r="I11" s="4" t="inlineStr">
+      <c r="K11" s="4" t="inlineStr">
         <is>
           <t>Increase to be permanently halted</t>
         </is>
       </c>
-      <c r="J11" s="4" t="inlineStr">
+      <c r="L11" s="4" t="inlineStr">
+        <is>
+          <t>Anstieg dauerhaft stoppen</t>
+        </is>
+      </c>
+      <c r="M11" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N11" s="4" t="inlineStr">
         <is>
           <t>Adipositasquote von Kindern und Jugendlichen</t>
         </is>
       </c>
-      <c r="K11" s="4" t="inlineStr">
+      <c r="O11" s="4" t="inlineStr">
         <is>
           <t>Obesity rate among children and adolescents</t>
         </is>
@@ -1111,30 +1335,50 @@
       </c>
       <c r="F12" s="4" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G12" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H12" s="4" t="inlineStr">
+        <is>
           <t>Adipositasquote von Erwachsenen</t>
         </is>
       </c>
-      <c r="G12" s="4" t="inlineStr">
+      <c r="I12" s="4" t="inlineStr">
         <is>
           <t>Obesity rate among adults</t>
         </is>
       </c>
-      <c r="H12" s="4" t="inlineStr">
+      <c r="J12" s="4" t="inlineStr">
         <is>
           <t>Anstieg dauerhaft stoppen</t>
         </is>
       </c>
-      <c r="I12" s="4" t="inlineStr">
+      <c r="K12" s="4" t="inlineStr">
         <is>
           <t>Increase to be permanently halted</t>
         </is>
       </c>
-      <c r="J12" s="4" t="inlineStr">
+      <c r="L12" s="4" t="inlineStr">
+        <is>
+          <t>Anstieg dauerhaft stoppen</t>
+        </is>
+      </c>
+      <c r="M12" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N12" s="4" t="inlineStr">
         <is>
           <t>Adipositasquote von Erwachsenen</t>
         </is>
       </c>
-      <c r="K12" s="4" t="inlineStr">
+      <c r="O12" s="4" t="inlineStr">
         <is>
           <t>Obesity rate among adults</t>
         </is>
@@ -1168,30 +1412,50 @@
       </c>
       <c r="F13" s="4" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G13" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H13" s="4" t="inlineStr">
+        <is>
           <t>Emissionen von Luftschadstoffen</t>
         </is>
       </c>
-      <c r="G13" s="4" t="inlineStr">
+      <c r="I13" s="4" t="inlineStr">
         <is>
           <t>Emissions of air pollutants</t>
         </is>
       </c>
-      <c r="H13" s="4" t="inlineStr">
+      <c r="J13" s="4" t="inlineStr">
         <is>
           <t>Reduktion der Emissionen des Jahres 2005 auf 55 % (ungewichtetes Mittel der fünf Schadstoffe) bis 2030</t>
         </is>
       </c>
-      <c r="I13" s="4" t="inlineStr">
+      <c r="K13" s="4" t="inlineStr">
         <is>
           <t>Reduction of emissions to 55% of 2005 level (unweighted average of the five pollutants) by 2030</t>
         </is>
       </c>
-      <c r="J13" s="4" t="inlineStr">
+      <c r="L13" s="4" t="inlineStr">
+        <is>
+          <t>Reduktion auf 55 % bis 2030</t>
+        </is>
+      </c>
+      <c r="M13" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N13" s="4" t="inlineStr">
         <is>
           <t>Emissionen von Luftschadstoffen</t>
         </is>
       </c>
-      <c r="K13" s="4" t="inlineStr">
+      <c r="O13" s="4" t="inlineStr">
         <is>
           <t>Emissions of air pollutants</t>
         </is>
@@ -1225,30 +1489,50 @@
       </c>
       <c r="F14" s="4" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G14" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H14" s="4" t="inlineStr">
+        <is>
           <t>Anteil der Bevölkerung mit erhöhter PM10-Feinstaubexposition</t>
         </is>
       </c>
-      <c r="G14" s="4" t="inlineStr">
+      <c r="I14" s="4" t="inlineStr">
         <is>
           <t>Share of the population with excessive exposure to PM10</t>
         </is>
       </c>
-      <c r="H14" s="4" t="inlineStr">
-        <is>
-          <t>Erreichung des Feinstaub- WHO-Richtwerts von 20 Mikrogramm/Kubikmeter für  PM10 im Jahresmittel möglichst flächendeckend bis 2030</t>
-        </is>
-      </c>
-      <c r="I14" s="4" t="inlineStr">
+      <c r="J14" s="4" t="inlineStr">
+        <is>
+          <t>Erreichung des Feinstaub- WHO-Richtwerts von 20 Mikrogramm/Kubikmeter für PM10 im Jahresmittel möglichst flächendeckend bis 2030</t>
+        </is>
+      </c>
+      <c r="K14" s="4" t="inlineStr">
         <is>
           <t>WHO particulate matter guideline value of 20 micrograms/cubic metre for PM10 to be adhered to as widely as possible by 2030</t>
         </is>
       </c>
-      <c r="J14" s="4" t="inlineStr">
+      <c r="L14" s="4" t="inlineStr">
+        <is>
+          <t>Erreichung des Feinstaub-Richtwerts von 20 µG/M³ bis 2030</t>
+        </is>
+      </c>
+      <c r="M14" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N14" s="4" t="inlineStr">
         <is>
           <t>Anteil der Bevölkerung mit erhöhter PM10-Feinstaubexposition</t>
         </is>
       </c>
-      <c r="K14" s="4" t="inlineStr">
+      <c r="O14" s="4" t="inlineStr">
         <is>
           <t>Share of the population with excessive exposure to PM10</t>
         </is>
@@ -1282,30 +1566,50 @@
       </c>
       <c r="F15" s="4" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G15" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H15" s="4" t="inlineStr">
+        <is>
           <t>Beitrag Deutschlands zur globalen Pandemieprävention und -reaktion</t>
         </is>
       </c>
-      <c r="G15" s="4" t="inlineStr">
+      <c r="I15" s="4" t="inlineStr">
         <is>
           <t>Germany’s contribution to global pandemic prevention and response</t>
         </is>
       </c>
-      <c r="H15" s="4" t="inlineStr">
+      <c r="J15" s="4" t="inlineStr">
         <is>
           <t>Steigerung der Ausgaben bis 2030</t>
         </is>
       </c>
-      <c r="I15" s="4" t="inlineStr">
+      <c r="K15" s="4" t="inlineStr">
         <is>
           <t>Expenditure to be increased by 2030</t>
         </is>
       </c>
-      <c r="J15" s="4" t="inlineStr">
+      <c r="L15" s="4" t="inlineStr">
+        <is>
+          <t>Steigerung der Ausgaben bis 2030</t>
+        </is>
+      </c>
+      <c r="M15" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N15" s="4" t="inlineStr">
         <is>
           <t>Beitrag Deutschlands zur globalen Pandemieprävention und -reaktion</t>
         </is>
       </c>
-      <c r="K15" s="4" t="inlineStr">
+      <c r="O15" s="4" t="inlineStr">
         <is>
           <t>Germany’s contribution to global pandemic prevention and response</t>
         </is>
@@ -1339,30 +1643,50 @@
       </c>
       <c r="F16" s="4" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G16" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H16" s="4" t="inlineStr">
+        <is>
           <t>Frühe Schulabgängerinnen und Schulabgänger</t>
         </is>
       </c>
-      <c r="G16" s="4" t="inlineStr">
+      <c r="I16" s="4" t="inlineStr">
         <is>
           <t>Early school leavers</t>
         </is>
       </c>
-      <c r="H16" s="4" t="inlineStr">
+      <c r="J16" s="4" t="inlineStr">
         <is>
           <t>Verringerung des Anteils auf 9,5 % bis 2030</t>
         </is>
       </c>
-      <c r="I16" s="4" t="inlineStr">
+      <c r="K16" s="4" t="inlineStr">
         <is>
           <t>Reduce the proportion to 9.5% by 2030</t>
         </is>
       </c>
-      <c r="J16" s="4" t="inlineStr">
+      <c r="L16" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M16" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N16" s="4" t="inlineStr">
         <is>
           <t>Frühe Schulabgängerinnen und Schulabgänger</t>
         </is>
       </c>
-      <c r="K16" s="4" t="inlineStr">
+      <c r="O16" s="4" t="inlineStr">
         <is>
           <t>Early school leavers</t>
         </is>
@@ -1396,30 +1720,50 @@
       </c>
       <c r="F17" s="4" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G17" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H17" s="4" t="inlineStr">
+        <is>
           <t>Akademisch Qualifizierte und beruflich Höherqualifizierte (30- bis 34-Jährige mit tertiärem oder post-sekundarem nichttertiärem Abschluss)</t>
         </is>
       </c>
-      <c r="G17" s="4" t="inlineStr">
+      <c r="I17" s="4" t="inlineStr">
         <is>
           <t>Persons with an academic or higher vocational qualification (30 to 34-year-olds with a tertiary or post-secondary non-tertiary level of education)</t>
         </is>
       </c>
-      <c r="H17" s="4" t="inlineStr">
+      <c r="J17" s="4" t="inlineStr">
         <is>
           <t>Steigerung des Anteils auf 55 % bis 2030</t>
         </is>
       </c>
-      <c r="I17" s="4" t="inlineStr">
+      <c r="K17" s="4" t="inlineStr">
         <is>
           <t>Increase the proportion to 55% by 2030</t>
         </is>
       </c>
-      <c r="J17" s="4" t="inlineStr">
+      <c r="L17" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M17" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N17" s="4" t="inlineStr">
         <is>
           <t>Akademisch Qualifizierte und beruflich Höherqualifizierte (30- bis 34-Jährige mit tertiärem oder post-sekundarem nichttertiärem Abschluss)</t>
         </is>
       </c>
-      <c r="K17" s="4" t="inlineStr">
+      <c r="O17" s="4" t="inlineStr">
         <is>
           <t>Persons with an academic or higher vocational qualification (30 to 34-year-olds with a tertiary or post-secondary non-tertiary level of education)</t>
         </is>
@@ -1443,40 +1787,60 @@
       </c>
       <c r="D18" s="4" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E18" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F18" s="4" t="inlineStr">
+        <is>
           <t>a) 0- bis 2-Jährige</t>
         </is>
       </c>
-      <c r="E18" s="4" t="inlineStr">
+      <c r="G18" s="4" t="inlineStr">
         <is>
           <t>a) 0 to 2-year-olds</t>
         </is>
       </c>
-      <c r="F18" s="4" t="inlineStr">
+      <c r="H18" s="4" t="inlineStr">
         <is>
           <t>Ganztagsbetreuung für Kinder &lt;br&gt;0- bis 2-Jährige</t>
         </is>
       </c>
-      <c r="G18" s="4" t="inlineStr">
+      <c r="I18" s="4" t="inlineStr">
         <is>
           <t>All-day care provision for 0 to 2-year-old children</t>
         </is>
       </c>
-      <c r="H18" s="4" t="inlineStr">
+      <c r="J18" s="4" t="inlineStr">
         <is>
           <t>Anstieg auf 35 % bis 2030</t>
         </is>
       </c>
-      <c r="I18" s="4" t="inlineStr">
+      <c r="K18" s="4" t="inlineStr">
         <is>
           <t>Increase to 35% by 2030</t>
         </is>
       </c>
-      <c r="J18" s="4" t="inlineStr">
+      <c r="L18" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M18" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N18" s="4" t="inlineStr">
         <is>
           <t>Ganztagsbetreuung für Kinder &lt;br&gt;0- bis 2-Jährige</t>
         </is>
       </c>
-      <c r="K18" s="4" t="inlineStr">
+      <c r="O18" s="4" t="inlineStr">
         <is>
           <t>All-day care provision for 0 to 2-year-old children</t>
         </is>
@@ -1500,40 +1864,60 @@
       </c>
       <c r="D19" s="4" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E19" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F19" s="4" t="inlineStr">
+        <is>
           <t>b) 3- bis 5-Jährige</t>
         </is>
       </c>
-      <c r="E19" s="4" t="inlineStr">
+      <c r="G19" s="4" t="inlineStr">
         <is>
           <t>b) 3 to 5-year-olds</t>
         </is>
       </c>
-      <c r="F19" s="4" t="inlineStr">
+      <c r="H19" s="4" t="inlineStr">
         <is>
           <t>Ganztagsbetreuung für Kinder &lt;br&gt;3- bis 5-Jährige</t>
         </is>
       </c>
-      <c r="G19" s="4" t="inlineStr">
+      <c r="I19" s="4" t="inlineStr">
         <is>
           <t>All-day care provision for 3 to 5-year-old children</t>
         </is>
       </c>
-      <c r="H19" s="4" t="inlineStr">
+      <c r="J19" s="4" t="inlineStr">
         <is>
           <t>Anstieg auf 60 % bis 2020 und auf 70 % bis 2030</t>
         </is>
       </c>
-      <c r="I19" s="4" t="inlineStr">
+      <c r="K19" s="4" t="inlineStr">
         <is>
           <t>Increase to 60% by 2020 and to 70% by 2030</t>
         </is>
       </c>
-      <c r="J19" s="4" t="inlineStr">
+      <c r="L19" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M19" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N19" s="4" t="inlineStr">
         <is>
           <t>Ganztagsbetreuung für Kinder &lt;br&gt;3- bis 5-Jährige</t>
         </is>
       </c>
-      <c r="K19" s="4" t="inlineStr">
+      <c r="O19" s="4" t="inlineStr">
         <is>
           <t>All-day care provision for 3 to 5-year-old children</t>
         </is>
@@ -1567,30 +1951,50 @@
       </c>
       <c r="F20" s="4" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G20" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H20" s="4" t="inlineStr">
+        <is>
           <t>Verdienstabstand zwischen Frauen und Männern</t>
         </is>
       </c>
-      <c r="G20" s="4" t="inlineStr">
+      <c r="I20" s="4" t="inlineStr">
         <is>
           <t>Gender pay gap</t>
         </is>
       </c>
-      <c r="H20" s="4" t="inlineStr">
+      <c r="J20" s="4" t="inlineStr">
         <is>
           <t>Verringerung des Abstandes auf 10 % bis 2020, Beibehaltung bis 2030</t>
         </is>
       </c>
-      <c r="I20" s="4" t="inlineStr">
+      <c r="K20" s="4" t="inlineStr">
         <is>
           <t>Reduce the gap to 10% by 2020, maintained until 2030</t>
         </is>
       </c>
-      <c r="J20" s="4" t="inlineStr">
+      <c r="L20" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M20" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N20" s="4" t="inlineStr">
         <is>
           <t>Verdienstabstand zwischen Frauen und Männern</t>
         </is>
       </c>
-      <c r="K20" s="4" t="inlineStr">
+      <c r="O20" s="4" t="inlineStr">
         <is>
           <t>Gender pay gap</t>
         </is>
@@ -1614,40 +2018,60 @@
       </c>
       <c r="D21" s="4" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E21" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F21" s="4" t="inlineStr">
+        <is>
           <t>b) Wirtschaft</t>
         </is>
       </c>
-      <c r="E21" s="4" t="inlineStr">
+      <c r="G21" s="4" t="inlineStr">
         <is>
           <t>b) Business</t>
         </is>
       </c>
-      <c r="F21" s="4" t="inlineStr">
+      <c r="H21" s="4" t="inlineStr">
         <is>
           <t>In Aufsichtsräten der börsennotierten und paritätisch mitbestimmten Unternehmen</t>
         </is>
       </c>
-      <c r="G21" s="4" t="inlineStr">
+      <c r="I21" s="4" t="inlineStr">
         <is>
           <t>On supervisory boards of listed and fully co-determined companies</t>
         </is>
       </c>
-      <c r="H21" s="4" t="inlineStr">
+      <c r="J21" s="4" t="inlineStr">
         <is>
           <t>30 % Frauen in Aufsichtsräten der börsennotierten und paritätisch mitbestimmten Unternehmen bis 2030</t>
         </is>
       </c>
-      <c r="I21" s="4" t="inlineStr">
+      <c r="K21" s="4" t="inlineStr">
         <is>
           <t>30% women on supervisory boards of listed and fully co-determined companies by 2030</t>
         </is>
       </c>
-      <c r="J21" s="4" t="inlineStr">
+      <c r="L21" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M21" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N21" s="4" t="inlineStr">
         <is>
           <t>In Aufsichtsräten der börsennotierten und paritätisch mitbestimmten Unternehmen</t>
         </is>
       </c>
-      <c r="K21" s="4" t="inlineStr">
+      <c r="O21" s="4" t="inlineStr">
         <is>
           <t>On supervisory boards of listed and fully co-determined companies</t>
         </is>
@@ -1671,40 +2095,60 @@
       </c>
       <c r="D22" s="4" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E22" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F22" s="4" t="inlineStr">
+        <is>
           <t>c) Öffentlicher Dienst des Bundes</t>
         </is>
       </c>
-      <c r="E22" s="4" t="inlineStr">
+      <c r="G22" s="4" t="inlineStr">
         <is>
           <t>c) Federal civil service</t>
         </is>
       </c>
-      <c r="F22" s="4" t="inlineStr">
+      <c r="H22" s="4" t="inlineStr">
         <is>
           <t>Im öffentlichen Dienst des Bundes</t>
         </is>
       </c>
-      <c r="G22" s="4" t="inlineStr">
+      <c r="I22" s="4" t="inlineStr">
         <is>
           <t>In management positions in the federal civil service</t>
         </is>
       </c>
-      <c r="H22" s="4" t="inlineStr">
+      <c r="J22" s="4" t="inlineStr">
         <is>
           <t>Gleichberechtigte Teilhabe von Frauen und Männern in Leitungsfunktionen des öffentlichen Dienstes bis 2025</t>
         </is>
       </c>
-      <c r="I22" s="4" t="inlineStr">
+      <c r="K22" s="4" t="inlineStr">
         <is>
           <t>Equal-opportunity participation of women and men in civil service management positions by 2025</t>
         </is>
       </c>
-      <c r="J22" s="4" t="inlineStr">
+      <c r="L22" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M22" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N22" s="4" t="inlineStr">
         <is>
           <t>Im öffentlichen Dienst des Bundes</t>
         </is>
       </c>
-      <c r="K22" s="4" t="inlineStr">
+      <c r="O22" s="4" t="inlineStr">
         <is>
           <t>In management positions in the federal civil service</t>
         </is>
@@ -1738,30 +2182,50 @@
       </c>
       <c r="F23" s="4" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G23" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H23" s="4" t="inlineStr">
+        <is>
           <t>Väterbeteiligung beim Elterngeld</t>
         </is>
       </c>
-      <c r="G23" s="4" t="inlineStr">
+      <c r="I23" s="4" t="inlineStr">
         <is>
           <t>Proportion of fathers receiving parental allowance</t>
         </is>
       </c>
-      <c r="H23" s="4" t="inlineStr">
+      <c r="J23" s="4" t="inlineStr">
         <is>
           <t>65 % bis 2030</t>
         </is>
       </c>
-      <c r="I23" s="4" t="inlineStr">
+      <c r="K23" s="4" t="inlineStr">
         <is>
           <t>65% by 2030</t>
         </is>
       </c>
-      <c r="J23" s="4" t="inlineStr">
+      <c r="L23" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M23" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N23" s="4" t="inlineStr">
         <is>
           <t>Väterbeteiligung beim Elterngeld</t>
         </is>
       </c>
-      <c r="K23" s="4" t="inlineStr">
+      <c r="O23" s="4" t="inlineStr">
         <is>
           <t>Proportion of fathers receiving parental allowance</t>
         </is>
@@ -1795,30 +2259,50 @@
       </c>
       <c r="F24" s="4" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G24" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H24" s="4" t="inlineStr">
+        <is>
           <t>Berufliche Qualifizierung von Frauen und Mädchen durch deutsche entwicklungspolitische Zusammenarbeit</t>
         </is>
       </c>
-      <c r="G24" s="4" t="inlineStr">
+      <c r="I24" s="4" t="inlineStr">
         <is>
           <t>Vocational qualifications of women and girls through German development cooperation</t>
         </is>
       </c>
-      <c r="H24" s="4" t="inlineStr">
+      <c r="J24" s="4" t="inlineStr">
         <is>
           <t>Sukzessive Steigerung bis 2030 um ein Drittel verglichen mit Basisjahr 2015</t>
         </is>
       </c>
-      <c r="I24" s="4" t="inlineStr">
+      <c r="K24" s="4" t="inlineStr">
         <is>
           <t>To be increased gradually by a third by 2030 compared to 2015 as the base year</t>
         </is>
       </c>
-      <c r="J24" s="4" t="inlineStr">
+      <c r="L24" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M24" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N24" s="4" t="inlineStr">
         <is>
           <t>Berufliche Qualifizierung von Frauen und Mädchen durch deutsche entwicklungspolitische Zusammenarbeit</t>
         </is>
       </c>
-      <c r="K24" s="4" t="inlineStr">
+      <c r="O24" s="4" t="inlineStr">
         <is>
           <t>Vocational qualifications of women and girls through German development cooperation</t>
         </is>
@@ -1852,30 +2336,50 @@
       </c>
       <c r="F25" s="4" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G25" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H25" s="4" t="inlineStr">
+        <is>
           <t>Phosphor in Fließgewässern</t>
         </is>
       </c>
-      <c r="G25" s="4" t="inlineStr">
+      <c r="I25" s="4" t="inlineStr">
         <is>
           <t>Phosphorous in flowing waters</t>
         </is>
       </c>
-      <c r="H25" s="4" t="inlineStr">
+      <c r="J25" s="4" t="inlineStr">
         <is>
           <t>Einhaltung oder Unterschreitung der gewässertypischen Orientierungswerte an allen Messstellen bis 2030</t>
         </is>
       </c>
-      <c r="I25" s="4" t="inlineStr">
+      <c r="K25" s="4" t="inlineStr">
         <is>
           <t>Not exceeding benchmark values for specific types of water bodies at all monitoring points by 2030</t>
         </is>
       </c>
-      <c r="J25" s="4" t="inlineStr">
+      <c r="L25" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M25" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N25" s="4" t="inlineStr">
         <is>
           <t>Phosphor in Fließgewässern</t>
         </is>
       </c>
-      <c r="K25" s="4" t="inlineStr">
+      <c r="O25" s="4" t="inlineStr">
         <is>
           <t>Phosphorous in flowing waters</t>
         </is>
@@ -1909,30 +2413,50 @@
       </c>
       <c r="F26" s="4" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G26" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H26" s="4" t="inlineStr">
+        <is>
           <t>Nitrat im Grundwasser</t>
         </is>
       </c>
-      <c r="G26" s="4" t="inlineStr">
+      <c r="I26" s="4" t="inlineStr">
         <is>
           <t>Nitrate in groundwater</t>
         </is>
       </c>
-      <c r="H26" s="4" t="inlineStr">
+      <c r="J26" s="4" t="inlineStr">
         <is>
           <t>Einhaltung des Nitrat Schwellenwertes von 50 Milligramm pro Liter an allen Messstellen bis 2030</t>
         </is>
       </c>
-      <c r="I26" s="4" t="inlineStr">
+      <c r="K26" s="4" t="inlineStr">
         <is>
           <t>Compliance with the nitrate threshold value of 50 mg/l at all monitoring points by 2030</t>
         </is>
       </c>
-      <c r="J26" s="4" t="inlineStr">
+      <c r="L26" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M26" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N26" s="4" t="inlineStr">
         <is>
           <t>Nitrat im Grundwasser</t>
         </is>
       </c>
-      <c r="K26" s="4" t="inlineStr">
+      <c r="O26" s="4" t="inlineStr">
         <is>
           <t>Nitrate in groundwater</t>
         </is>
@@ -1956,24 +2480,24 @@
       </c>
       <c r="D27" s="4" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E27" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F27" s="4" t="inlineStr">
+        <is>
           <t>Trinkwasser- und Sanitärversorgung</t>
         </is>
       </c>
-      <c r="E27" s="4" t="inlineStr">
+      <c r="G27" s="4" t="inlineStr">
         <is>
           <t>Access to drinking water and sanitation</t>
         </is>
       </c>
-      <c r="F27" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G27" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="H27" s="4" t="inlineStr">
         <is>
           <t/>
@@ -1990,6 +2514,26 @@
         </is>
       </c>
       <c r="K27" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L27" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M27" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N27" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O27" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -2013,40 +2557,60 @@
       </c>
       <c r="D28" s="4" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E28" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F28" s="4" t="inlineStr">
+        <is>
           <t>a) Trinkwasserversorgung</t>
         </is>
       </c>
-      <c r="E28" s="4" t="inlineStr">
+      <c r="G28" s="4" t="inlineStr">
         <is>
           <t>a) Access to drinking water</t>
         </is>
       </c>
-      <c r="F28" s="4" t="inlineStr">
+      <c r="H28" s="4" t="inlineStr">
         <is>
           <t>Anzahl der Menschen, die einen neuen oder hochwertigeren Zugang zur Trinkwasserversorgung durch deutsche Unterstützung erhalten</t>
         </is>
       </c>
-      <c r="G28" s="4" t="inlineStr">
+      <c r="I28" s="4" t="inlineStr">
         <is>
           <t>Number of people gaining first-time or upgraded access to drinking water owing to German support</t>
         </is>
       </c>
-      <c r="H28" s="4" t="inlineStr">
+      <c r="J28" s="4" t="inlineStr">
         <is>
           <t>6 Millionen Menschen pro Jahr bis 2030</t>
         </is>
       </c>
-      <c r="I28" s="4" t="inlineStr">
+      <c r="K28" s="4" t="inlineStr">
         <is>
           <t>6 million people per year by 2030</t>
         </is>
       </c>
-      <c r="J28" s="4" t="inlineStr">
+      <c r="L28" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M28" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N28" s="4" t="inlineStr">
         <is>
           <t>Anzahl der Menschen, die einen neuen oder hochwertigeren Zugang zur Trinkwasserversorgung durch deutsche Unterstützung erhalten</t>
         </is>
       </c>
-      <c r="K28" s="4" t="inlineStr">
+      <c r="O28" s="4" t="inlineStr">
         <is>
           <t>Number of people gaining first-time or upgraded access to drinking water owing to German support</t>
         </is>
@@ -2070,40 +2634,60 @@
       </c>
       <c r="D29" s="4" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E29" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F29" s="4" t="inlineStr">
+        <is>
           <t>b) Sanitärversorgung</t>
         </is>
       </c>
-      <c r="E29" s="4" t="inlineStr">
+      <c r="G29" s="4" t="inlineStr">
         <is>
           <t>b) Access to sanitation</t>
         </is>
       </c>
-      <c r="F29" s="4" t="inlineStr">
+      <c r="H29" s="4" t="inlineStr">
         <is>
           <t>Anzahl der Menschen, die einen neuen oder verbesserten Anschluss zur Sanitärversorgung durch deutsche Unterstützung erhalten</t>
         </is>
       </c>
-      <c r="G29" s="4" t="inlineStr">
+      <c r="I29" s="4" t="inlineStr">
         <is>
           <t>Number of people gaining first-time or improved access to sanitation owing to German support</t>
         </is>
       </c>
-      <c r="H29" s="4" t="inlineStr">
+      <c r="J29" s="4" t="inlineStr">
         <is>
           <t>4 Millionen Menschen pro Jahr bis 2030</t>
         </is>
       </c>
-      <c r="I29" s="4" t="inlineStr">
+      <c r="K29" s="4" t="inlineStr">
         <is>
           <t>4 million people per year by 2030</t>
         </is>
       </c>
-      <c r="J29" s="4" t="inlineStr">
+      <c r="L29" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M29" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N29" s="4" t="inlineStr">
         <is>
           <t>Anzahl der Menschen, die einen neuen oder verbesserten Anschluss zur Sanitärversorgung durch deutsche Unterstützung erhalten</t>
         </is>
       </c>
-      <c r="K29" s="4" t="inlineStr">
+      <c r="O29" s="4" t="inlineStr">
         <is>
           <t>Number of people gaining first-time or improved access to sanitation owing to German support</t>
         </is>
@@ -2127,40 +2711,60 @@
       </c>
       <c r="D30" s="4" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E30" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F30" s="4" t="inlineStr">
+        <is>
           <t>a) Endenergieproduktivität</t>
         </is>
       </c>
-      <c r="E30" s="4" t="inlineStr">
+      <c r="G30" s="4" t="inlineStr">
         <is>
           <t>a) Final energy productivity</t>
         </is>
       </c>
-      <c r="F30" s="4" t="inlineStr">
+      <c r="H30" s="4" t="inlineStr">
         <is>
           <t>Endenergieproduktivität</t>
         </is>
       </c>
-      <c r="G30" s="4" t="inlineStr">
+      <c r="I30" s="4" t="inlineStr">
         <is>
           <t>Final energy productivity</t>
         </is>
       </c>
-      <c r="H30" s="4" t="inlineStr">
+      <c r="J30" s="4" t="inlineStr">
         <is>
           <t>Steigerung um 2,1 % pro Jahr im Zeitraum von 2008 – 2050</t>
         </is>
       </c>
-      <c r="I30" s="4" t="inlineStr">
+      <c r="K30" s="4" t="inlineStr">
         <is>
           <t>Increase by 2.1% per year from 2008 to 2050</t>
         </is>
       </c>
-      <c r="J30" s="4" t="inlineStr">
+      <c r="L30" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M30" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N30" s="4" t="inlineStr">
         <is>
           <t>Endenergieproduktivität</t>
         </is>
       </c>
-      <c r="K30" s="4" t="inlineStr">
+      <c r="O30" s="4" t="inlineStr">
         <is>
           <t>Final energy productivity</t>
         </is>
@@ -2184,40 +2788,60 @@
       </c>
       <c r="D31" s="4" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E31" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F31" s="4" t="inlineStr">
+        <is>
           <t>b) Primärenergieverbrauch</t>
         </is>
       </c>
-      <c r="E31" s="4" t="inlineStr">
+      <c r="G31" s="4" t="inlineStr">
         <is>
           <t>b) Primary energy consumption</t>
         </is>
       </c>
-      <c r="F31" s="4" t="inlineStr">
+      <c r="H31" s="4" t="inlineStr">
         <is>
           <t>Primärenergieverbrauch</t>
         </is>
       </c>
-      <c r="G31" s="4" t="inlineStr">
+      <c r="I31" s="4" t="inlineStr">
         <is>
           <t>Primary energy consumption</t>
         </is>
       </c>
-      <c r="H31" s="4" t="inlineStr">
+      <c r="J31" s="4" t="inlineStr">
         <is>
           <t>Senkung um 20 % bis 2020, um 30 % bis 2030 und um 50 % bis 2050 jeweils gegenüber 2008</t>
         </is>
       </c>
-      <c r="I31" s="4" t="inlineStr">
+      <c r="K31" s="4" t="inlineStr">
         <is>
           <t>Reduction by 20% by 2020, by 30% by 2030, and by 50% by 2050, all compared to 2008</t>
         </is>
       </c>
-      <c r="J31" s="4" t="inlineStr">
+      <c r="L31" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M31" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N31" s="4" t="inlineStr">
         <is>
           <t>Primärenergieverbrauch</t>
         </is>
       </c>
-      <c r="K31" s="4" t="inlineStr">
+      <c r="O31" s="4" t="inlineStr">
         <is>
           <t>Primary energy consumption</t>
         </is>
@@ -2251,30 +2875,50 @@
       </c>
       <c r="F32" s="4" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G32" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H32" s="4" t="inlineStr">
+        <is>
           <t>Anteil erneuerbarer Energien am Brutto-Endenergieverbrauch</t>
         </is>
       </c>
-      <c r="G32" s="4" t="inlineStr">
+      <c r="I32" s="4" t="inlineStr">
         <is>
           <t>Share of renewable energies in gross final energy consumption</t>
         </is>
       </c>
-      <c r="H32" s="4" t="inlineStr">
+      <c r="J32" s="4" t="inlineStr">
         <is>
           <t>Anstieg auf 18 % bis 2020, auf 30 % bis 2030, auf 45 % bis 2040 und auf 60 % bis 2050</t>
         </is>
       </c>
-      <c r="I32" s="4" t="inlineStr">
+      <c r="K32" s="4" t="inlineStr">
         <is>
           <t>Increase to 18% by 2020 and to 30% by 2030, to 45% by 2040 and to 60% by 2050</t>
         </is>
       </c>
-      <c r="J32" s="4" t="inlineStr">
+      <c r="L32" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M32" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N32" s="4" t="inlineStr">
         <is>
           <t>Anteil erneuerbarer Energien am Brutto-Endenergieverbrauch</t>
         </is>
       </c>
-      <c r="K32" s="4" t="inlineStr">
+      <c r="O32" s="4" t="inlineStr">
         <is>
           <t>Share of renewable energies in gross final energy consumption</t>
         </is>
@@ -2308,30 +2952,50 @@
       </c>
       <c r="F33" s="4" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G33" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H33" s="4" t="inlineStr">
+        <is>
           <t>Anteil des Stroms aus erneuerbaren Energiequellen am Bruttostromverbrauch</t>
         </is>
       </c>
-      <c r="G33" s="4" t="inlineStr">
+      <c r="I33" s="4" t="inlineStr">
         <is>
           <t>Share of electricity from renewable energy sources in gross electricity consumption</t>
         </is>
       </c>
-      <c r="H33" s="4" t="inlineStr">
+      <c r="J33" s="4" t="inlineStr">
         <is>
           <t>Anstieg auf mindestens 35 % bis 2020, 65 % bis 2030 und Treibhausgasneutralität des in Deutschland erzeugten und verbrauchten Stroms bis 2050</t>
         </is>
       </c>
-      <c r="I33" s="4" t="inlineStr">
+      <c r="K33" s="4" t="inlineStr">
         <is>
           <t>Increase to at least 35% by 2020, 65% by 2030, and greenhouse gas neutrality of electricity generated and consumed in Germany by 2050</t>
         </is>
       </c>
-      <c r="J33" s="4" t="inlineStr">
+      <c r="L33" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M33" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N33" s="4" t="inlineStr">
         <is>
           <t>Anteil des Stroms aus erneuerbaren Energiequellen am Bruttostromverbrauch</t>
         </is>
       </c>
-      <c r="K33" s="4" t="inlineStr">
+      <c r="O33" s="4" t="inlineStr">
         <is>
           <t>Share of electricity from renewable energy sources in gross electricity consumption</t>
         </is>
@@ -2365,30 +3029,50 @@
       </c>
       <c r="F34" s="4" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G34" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H34" s="4" t="inlineStr">
+        <is>
           <t>Gesamtrohstoffproduktivität</t>
         </is>
       </c>
-      <c r="G34" s="4" t="inlineStr">
+      <c r="I34" s="4" t="inlineStr">
         <is>
           <t>Raw material input productivity</t>
         </is>
       </c>
-      <c r="H34" s="4" t="inlineStr">
+      <c r="J34" s="4" t="inlineStr">
         <is>
           <t>Beibehaltung des Trends der Jahre 2000 – 2010 bis 2030</t>
         </is>
       </c>
-      <c r="I34" s="4" t="inlineStr">
+      <c r="K34" s="4" t="inlineStr">
         <is>
           <t>Trend of the years 2000–2010 to be maintained until 2030</t>
         </is>
       </c>
-      <c r="J34" s="4" t="inlineStr">
+      <c r="L34" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M34" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N34" s="4" t="inlineStr">
         <is>
           <t>Gesamtrohstoffproduktivität</t>
         </is>
       </c>
-      <c r="K34" s="4" t="inlineStr">
+      <c r="O34" s="4" t="inlineStr">
         <is>
           <t>Raw material input productivity</t>
         </is>
@@ -2412,40 +3096,60 @@
       </c>
       <c r="D35" s="4" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E35" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F35" s="4" t="inlineStr">
+        <is>
           <t>a) Staatsdefizit</t>
         </is>
       </c>
-      <c r="E35" s="4" t="inlineStr">
+      <c r="G35" s="4" t="inlineStr">
         <is>
           <t>a) Government deficit</t>
         </is>
       </c>
-      <c r="F35" s="4" t="inlineStr">
+      <c r="H35" s="4" t="inlineStr">
         <is>
           <t>Staatsdefizit</t>
         </is>
       </c>
-      <c r="G35" s="4" t="inlineStr">
+      <c r="I35" s="4" t="inlineStr">
         <is>
           <t>Government deficit</t>
         </is>
       </c>
-      <c r="H35" s="4" t="inlineStr">
+      <c r="J35" s="4" t="inlineStr">
         <is>
           <t>Jährliches Staatsdefizit kleiner als 3 % des BIP, Beibehaltung bis 2030</t>
         </is>
       </c>
-      <c r="I35" s="4" t="inlineStr">
+      <c r="K35" s="4" t="inlineStr">
         <is>
           <t>Annual government deficit less than 3% of GDP, to be maintained until 2030</t>
         </is>
       </c>
-      <c r="J35" s="4" t="inlineStr">
+      <c r="L35" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M35" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N35" s="4" t="inlineStr">
         <is>
           <t>Staatsdefizit</t>
         </is>
       </c>
-      <c r="K35" s="4" t="inlineStr">
+      <c r="O35" s="4" t="inlineStr">
         <is>
           <t>Government deficit</t>
         </is>
@@ -2469,40 +3173,60 @@
       </c>
       <c r="D36" s="4" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E36" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F36" s="4" t="inlineStr">
+        <is>
           <t>b) Strukturelles Defizit</t>
         </is>
       </c>
-      <c r="E36" s="4" t="inlineStr">
+      <c r="G36" s="4" t="inlineStr">
         <is>
           <t>b) Structural deficit</t>
         </is>
       </c>
-      <c r="F36" s="4" t="inlineStr">
+      <c r="H36" s="4" t="inlineStr">
         <is>
           <t>Strukturelles Defizit</t>
         </is>
       </c>
-      <c r="G36" s="4" t="inlineStr">
+      <c r="I36" s="4" t="inlineStr">
         <is>
           <t>Structural deficit</t>
         </is>
       </c>
-      <c r="H36" s="4" t="inlineStr">
+      <c r="J36" s="4" t="inlineStr">
         <is>
           <t>Strukturell ausgeglichener Staatshaushalt, gesamtstaatliches strukturelles Defizit von max. 0,5 % des BIP, Beibehaltung bis 2030</t>
         </is>
       </c>
-      <c r="I36" s="4" t="inlineStr">
+      <c r="K36" s="4" t="inlineStr">
         <is>
           <t>Structurally balanced government budget, general government structural deficit must not exceed 0.5% of GDP, to be maintained until 2030</t>
         </is>
       </c>
-      <c r="J36" s="4" t="inlineStr">
+      <c r="L36" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M36" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N36" s="4" t="inlineStr">
         <is>
           <t>Strukturelles Defizit</t>
         </is>
       </c>
-      <c r="K36" s="4" t="inlineStr">
+      <c r="O36" s="4" t="inlineStr">
         <is>
           <t>Structural deficit</t>
         </is>
@@ -2536,30 +3260,50 @@
       </c>
       <c r="F37" s="4" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G37" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H37" s="4" t="inlineStr">
+        <is>
           <t>Schuldenstand</t>
         </is>
       </c>
-      <c r="G37" s="4" t="inlineStr">
+      <c r="I37" s="4" t="inlineStr">
         <is>
           <t>Government debt</t>
         </is>
       </c>
-      <c r="H37" s="4" t="inlineStr">
+      <c r="J37" s="4" t="inlineStr">
         <is>
           <t>Schuldenstandsquote max. 60 % des BIP, Beibehaltung bis 2030</t>
         </is>
       </c>
-      <c r="I37" s="4" t="inlineStr">
+      <c r="K37" s="4" t="inlineStr">
         <is>
           <t>Ratio of government debt to GDP must not exceed  60%, to be maintained until 2030</t>
         </is>
       </c>
-      <c r="J37" s="4" t="inlineStr">
+      <c r="L37" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M37" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N37" s="4" t="inlineStr">
         <is>
           <t>Schuldenstand</t>
         </is>
       </c>
-      <c r="K37" s="4" t="inlineStr">
+      <c r="O37" s="4" t="inlineStr">
         <is>
           <t>Government debt</t>
         </is>
@@ -2593,30 +3337,50 @@
       </c>
       <c r="F38" s="4" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G38" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H38" s="4" t="inlineStr">
+        <is>
           <t>Verhältnis der Bruttoanlageinvestitionen zum BIP</t>
         </is>
       </c>
-      <c r="G38" s="4" t="inlineStr">
+      <c r="I38" s="4" t="inlineStr">
         <is>
           <t>Gross fixed capital formation in relation to GDP</t>
         </is>
       </c>
-      <c r="H38" s="4" t="inlineStr">
+      <c r="J38" s="4" t="inlineStr">
         <is>
           <t>Angemessene Entwicklung des Anteils, Beibehaltung bis 2030</t>
         </is>
       </c>
-      <c r="I38" s="4" t="inlineStr">
+      <c r="K38" s="4" t="inlineStr">
         <is>
           <t>Appropriate development of the ratio, to be maintained until 2030</t>
         </is>
       </c>
-      <c r="J38" s="4" t="inlineStr">
+      <c r="L38" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M38" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N38" s="4" t="inlineStr">
         <is>
           <t>Verhältnis der Bruttoanlageinvestitionen zum BIP</t>
         </is>
       </c>
-      <c r="K38" s="4" t="inlineStr">
+      <c r="O38" s="4" t="inlineStr">
         <is>
           <t>Gross fixed capital formation in relation to GDP</t>
         </is>
@@ -2650,30 +3414,50 @@
       </c>
       <c r="F39" s="4" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G39" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H39" s="4" t="inlineStr">
+        <is>
           <t>Bruttoinlandsprodukt je Einwohner</t>
         </is>
       </c>
-      <c r="G39" s="4" t="inlineStr">
+      <c r="I39" s="4" t="inlineStr">
         <is>
           <t>Gross domestic product per capita</t>
         </is>
       </c>
-      <c r="H39" s="4" t="inlineStr">
+      <c r="J39" s="4" t="inlineStr">
         <is>
           <t>Stetiges und angemessenes Wirtschaftswachstum</t>
         </is>
       </c>
-      <c r="I39" s="4" t="inlineStr">
+      <c r="K39" s="4" t="inlineStr">
         <is>
           <t>Steady and appropriate economic growth</t>
         </is>
       </c>
-      <c r="J39" s="4" t="inlineStr">
+      <c r="L39" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M39" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N39" s="4" t="inlineStr">
         <is>
           <t>Bruttoinlandsprodukt je Einwohner</t>
         </is>
       </c>
-      <c r="K39" s="4" t="inlineStr">
+      <c r="O39" s="4" t="inlineStr">
         <is>
           <t>Gross domestic product per capita</t>
         </is>
@@ -2697,40 +3481,60 @@
       </c>
       <c r="D40" s="4" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E40" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F40" s="4" t="inlineStr">
+        <is>
           <t>a) Insgesamt (20-64 Jahre)</t>
         </is>
       </c>
-      <c r="E40" s="4" t="inlineStr">
+      <c r="G40" s="4" t="inlineStr">
         <is>
           <t>a) total (20 to 64- year-olds)</t>
         </is>
       </c>
-      <c r="F40" s="4" t="inlineStr">
+      <c r="H40" s="4" t="inlineStr">
         <is>
           <t>Erwerbstätigenquote insgesamt (20 bis 64 Jahre)</t>
         </is>
       </c>
-      <c r="G40" s="4" t="inlineStr">
+      <c r="I40" s="4" t="inlineStr">
         <is>
           <t>Employment rate, total (20 to 64-year-olds)</t>
         </is>
       </c>
-      <c r="H40" s="4" t="inlineStr">
+      <c r="J40" s="4" t="inlineStr">
         <is>
           <t>Erhöhung auf 78 % bis 2030</t>
         </is>
       </c>
-      <c r="I40" s="4" t="inlineStr">
+      <c r="K40" s="4" t="inlineStr">
         <is>
           <t>Increase to 78% by 2030</t>
         </is>
       </c>
-      <c r="J40" s="4" t="inlineStr">
+      <c r="L40" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M40" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N40" s="4" t="inlineStr">
         <is>
           <t>Erwerbstätigenquote insgesamt (20 bis 64 Jahre)</t>
         </is>
       </c>
-      <c r="K40" s="4" t="inlineStr">
+      <c r="O40" s="4" t="inlineStr">
         <is>
           <t>Employment rate, total (20 to 64-year-olds)</t>
         </is>
@@ -2754,40 +3558,60 @@
       </c>
       <c r="D41" s="4" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E41" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F41" s="4" t="inlineStr">
+        <is>
           <t>b) Ältere (60-64 Jahre)</t>
         </is>
       </c>
-      <c r="E41" s="4" t="inlineStr">
+      <c r="G41" s="4" t="inlineStr">
         <is>
           <t>b) older people (60 to 64-year-olds)</t>
         </is>
       </c>
-      <c r="F41" s="4" t="inlineStr">
+      <c r="H41" s="4" t="inlineStr">
         <is>
           <t>Erwerbstätigenquote Ältere (60 bis 64 Jahre)</t>
         </is>
       </c>
-      <c r="G41" s="4" t="inlineStr">
+      <c r="I41" s="4" t="inlineStr">
         <is>
           <t>Employment rate, older people (60 to 64-year-olds)</t>
         </is>
       </c>
-      <c r="H41" s="4" t="inlineStr">
+      <c r="J41" s="4" t="inlineStr">
         <is>
           <t>Erhöhung auf 60 % bis 2030</t>
         </is>
       </c>
-      <c r="I41" s="4" t="inlineStr">
+      <c r="K41" s="4" t="inlineStr">
         <is>
           <t>Increase to 60% by 2030</t>
         </is>
       </c>
-      <c r="J41" s="4" t="inlineStr">
+      <c r="L41" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M41" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N41" s="4" t="inlineStr">
         <is>
           <t>Erwerbstätigenquote Ältere (60 bis 64 Jahre)</t>
         </is>
       </c>
-      <c r="K41" s="4" t="inlineStr">
+      <c r="O41" s="4" t="inlineStr">
         <is>
           <t>Employment rate, older people (60 to 64-year-olds)</t>
         </is>
@@ -2821,30 +3645,50 @@
       </c>
       <c r="F42" s="4" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G42" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H42" s="4" t="inlineStr">
+        <is>
           <t>Mitglieder des Textilbündnisses</t>
         </is>
       </c>
-      <c r="G42" s="4" t="inlineStr">
+      <c r="I42" s="4" t="inlineStr">
         <is>
           <t>Members of the Textile Partnership</t>
         </is>
       </c>
-      <c r="H42" s="4" t="inlineStr">
+      <c r="J42" s="4" t="inlineStr">
         <is>
           <t>Signifikante Steigerung bis 2030</t>
         </is>
       </c>
-      <c r="I42" s="4" t="inlineStr">
+      <c r="K42" s="4" t="inlineStr">
         <is>
           <t>Significantly increase by 2030</t>
         </is>
       </c>
-      <c r="J42" s="4" t="inlineStr">
+      <c r="L42" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M42" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N42" s="4" t="inlineStr">
         <is>
           <t>Mitglieder des Textilbündnisses</t>
         </is>
       </c>
-      <c r="K42" s="4" t="inlineStr">
+      <c r="O42" s="4" t="inlineStr">
         <is>
           <t>Members of the Textile Partnership</t>
         </is>
@@ -2878,30 +3722,50 @@
       </c>
       <c r="F43" s="4" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G43" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H43" s="4" t="inlineStr">
+        <is>
           <t>Private und öffentliche Ausgaben für Forschung und Entwicklung</t>
         </is>
       </c>
-      <c r="G43" s="4" t="inlineStr">
+      <c r="I43" s="4" t="inlineStr">
         <is>
           <t>Private and public expenditure on research and development</t>
         </is>
       </c>
-      <c r="H43" s="4" t="inlineStr">
+      <c r="J43" s="4" t="inlineStr">
         <is>
           <t>Jährlich mindestens 3,5 % des BIP bis 2025</t>
         </is>
       </c>
-      <c r="I43" s="4" t="inlineStr">
+      <c r="K43" s="4" t="inlineStr">
         <is>
           <t>At least 3.5% of GDP per year by 2025</t>
         </is>
       </c>
-      <c r="J43" s="4" t="inlineStr">
+      <c r="L43" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M43" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N43" s="4" t="inlineStr">
         <is>
           <t>Private und öffentliche Ausgaben für Forschung und Entwicklung</t>
         </is>
       </c>
-      <c r="K43" s="4" t="inlineStr">
+      <c r="O43" s="4" t="inlineStr">
         <is>
           <t>Private and public expenditure on research and development</t>
         </is>
@@ -2935,30 +3799,50 @@
       </c>
       <c r="F44" s="4" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G44" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H44" s="4" t="inlineStr">
+        <is>
           <t>Breitbandausbau – Anteil der Haushalte mit Zugang zu Gigabit-Breitbandversorgung</t>
         </is>
       </c>
-      <c r="G44" s="4" t="inlineStr">
+      <c r="I44" s="4" t="inlineStr">
         <is>
           <t>Roll-out of broadband – share of households with access to gigabit broadband services</t>
         </is>
       </c>
-      <c r="H44" s="4" t="inlineStr">
+      <c r="J44" s="4" t="inlineStr">
         <is>
           <t>Flächendeckender Aufbau von Gigabitnetzen bis 2025</t>
         </is>
       </c>
-      <c r="I44" s="4" t="inlineStr">
+      <c r="K44" s="4" t="inlineStr">
         <is>
           <t>Universal gigabit network Roll-out by 2025</t>
         </is>
       </c>
-      <c r="J44" s="4" t="inlineStr">
+      <c r="L44" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M44" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N44" s="4" t="inlineStr">
         <is>
           <t>Breitbandausbau – Anteil der Haushalte mit Zugang zu Gigabit-Breitbandversorgung</t>
         </is>
       </c>
-      <c r="K44" s="4" t="inlineStr">
+      <c r="O44" s="4" t="inlineStr">
         <is>
           <t>Roll-out of broadband – share of households with access to gigabit broadband services</t>
         </is>
@@ -2992,30 +3876,50 @@
       </c>
       <c r="F45" s="4" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G45" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H45" s="4" t="inlineStr">
+        <is>
           <t>Ausländische Schulabsolventinnen und Schulabsolventen</t>
         </is>
       </c>
-      <c r="G45" s="4" t="inlineStr">
+      <c r="I45" s="4" t="inlineStr">
         <is>
           <t>Foreign school graduates</t>
         </is>
       </c>
-      <c r="H45" s="4" t="inlineStr">
+      <c r="J45" s="4" t="inlineStr">
         <is>
           <t>Erhöhung des Anteils der ausländischen Schulabgänger mit mindestens Hauptschulabschluss und Angleichung an die Quote deutscher Schulabgänger bis 2030</t>
         </is>
       </c>
-      <c r="I45" s="4" t="inlineStr">
+      <c r="K45" s="4" t="inlineStr">
         <is>
           <t>Increase the proportion of foreign school leavers with a least a secondary general school certificate and bring into line with that of German school leavers by 2030</t>
         </is>
       </c>
-      <c r="J45" s="4" t="inlineStr">
+      <c r="L45" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M45" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N45" s="4" t="inlineStr">
         <is>
           <t>Ausländische Schulabsolventinnen und Schulabsolventen</t>
         </is>
       </c>
-      <c r="K45" s="4" t="inlineStr">
+      <c r="O45" s="4" t="inlineStr">
         <is>
           <t>Foreign school graduates</t>
         </is>
@@ -3049,30 +3953,50 @@
       </c>
       <c r="F46" s="4" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G46" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H46" s="4" t="inlineStr">
+        <is>
           <t>Gini-Koeffizient des Einkommens nach Sozialtransfers</t>
         </is>
       </c>
-      <c r="G46" s="4" t="inlineStr">
+      <c r="I46" s="4" t="inlineStr">
         <is>
           <t>Gini coefficient of income after social transfers</t>
         </is>
       </c>
-      <c r="H46" s="4" t="inlineStr">
+      <c r="J46" s="4" t="inlineStr">
         <is>
           <t>Gini-Koeffizient Einkommen nach Sozialtransfer bis 2030 unterhalb des EU-28-Wertes</t>
         </is>
       </c>
-      <c r="I46" s="4" t="inlineStr">
+      <c r="K46" s="4" t="inlineStr">
         <is>
           <t>Gini coefficient of income after social transfers to be below the EU28 figure by 2030</t>
         </is>
       </c>
-      <c r="J46" s="4" t="inlineStr">
+      <c r="L46" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M46" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N46" s="4" t="inlineStr">
         <is>
           <t>Gini-Koeffizient des Einkommens nach Sozialtransfers</t>
         </is>
       </c>
-      <c r="K46" s="4" t="inlineStr">
+      <c r="O46" s="4" t="inlineStr">
         <is>
           <t>Gini coefficient of income after social transfers</t>
         </is>
@@ -3106,30 +4030,50 @@
       </c>
       <c r="F47" s="4" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G47" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H47" s="4" t="inlineStr">
+        <is>
           <t>Anstieg der Siedlungs- und Verkehrsfläche in ha pro Tag</t>
         </is>
       </c>
-      <c r="G47" s="4" t="inlineStr">
+      <c r="I47" s="4" t="inlineStr">
         <is>
           <t>Expansion of settlement and transport area in ha per day</t>
         </is>
       </c>
-      <c r="H47" s="4" t="inlineStr">
+      <c r="J47" s="4" t="inlineStr">
         <is>
           <t>Senkung auf durchschnittlich unter 30 ha pro Tag bis 2030</t>
         </is>
       </c>
-      <c r="I47" s="4" t="inlineStr">
+      <c r="K47" s="4" t="inlineStr">
         <is>
           <t>Reduction to under 30 ha on average per day by 2030</t>
         </is>
       </c>
-      <c r="J47" s="4" t="inlineStr">
+      <c r="L47" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M47" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N47" s="4" t="inlineStr">
         <is>
           <t>Anstieg der Siedlungs- und Verkehrsfläche in ha pro Tag</t>
         </is>
       </c>
-      <c r="K47" s="4" t="inlineStr">
+      <c r="O47" s="4" t="inlineStr">
         <is>
           <t>Expansion of settlement and transport area in ha per day</t>
         </is>
@@ -3163,30 +4107,50 @@
       </c>
       <c r="F48" s="4" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G48" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H48" s="4" t="inlineStr">
+        <is>
           <t>Freiraumverlust</t>
         </is>
       </c>
-      <c r="G48" s="4" t="inlineStr">
+      <c r="I48" s="4" t="inlineStr">
         <is>
           <t>Loss of open space area</t>
         </is>
       </c>
-      <c r="H48" s="4" t="inlineStr">
+      <c r="J48" s="4" t="inlineStr">
         <is>
           <t>Verringerung des einwohnerbezogenen Freiflächenverlustes</t>
         </is>
       </c>
-      <c r="I48" s="4" t="inlineStr">
+      <c r="K48" s="4" t="inlineStr">
         <is>
           <t>Reduce the loss of per capita open space area</t>
         </is>
       </c>
-      <c r="J48" s="4" t="inlineStr">
+      <c r="L48" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M48" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N48" s="4" t="inlineStr">
         <is>
           <t>Freiraumverlust</t>
         </is>
       </c>
-      <c r="K48" s="4" t="inlineStr">
+      <c r="O48" s="4" t="inlineStr">
         <is>
           <t>Loss of open space area</t>
         </is>
@@ -3220,30 +4184,50 @@
       </c>
       <c r="F49" s="4" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G49" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H49" s="4" t="inlineStr">
+        <is>
           <t>Siedlungsdichte</t>
         </is>
       </c>
-      <c r="G49" s="4" t="inlineStr">
+      <c r="I49" s="4" t="inlineStr">
         <is>
           <t>Density of settlements</t>
         </is>
       </c>
-      <c r="H49" s="4" t="inlineStr">
+      <c r="J49" s="4" t="inlineStr">
         <is>
           <t>Keine Verringerung der Siedlungsdichte</t>
         </is>
       </c>
-      <c r="I49" s="4" t="inlineStr">
+      <c r="K49" s="4" t="inlineStr">
         <is>
           <t>No reduction in density of settlements</t>
         </is>
       </c>
-      <c r="J49" s="4" t="inlineStr">
+      <c r="L49" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M49" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N49" s="4" t="inlineStr">
         <is>
           <t>Siedlungsdichte</t>
         </is>
       </c>
-      <c r="K49" s="4" t="inlineStr">
+      <c r="O49" s="4" t="inlineStr">
         <is>
           <t>Density of settlements</t>
         </is>
@@ -3277,30 +4261,50 @@
       </c>
       <c r="F50" s="4" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G50" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H50" s="4" t="inlineStr">
+        <is>
           <t>Endenergieverbrauch im Güterverkehr</t>
         </is>
       </c>
-      <c r="G50" s="4" t="inlineStr">
+      <c r="I50" s="4" t="inlineStr">
         <is>
           <t>Final energy consumption in goods transport</t>
         </is>
       </c>
-      <c r="H50" s="4" t="inlineStr">
+      <c r="J50" s="4" t="inlineStr">
         <is>
           <t>Senkung um 15 bis 20 % bis 2030</t>
         </is>
       </c>
-      <c r="I50" s="4" t="inlineStr">
+      <c r="K50" s="4" t="inlineStr">
         <is>
           <t>Reduction by 15–20% by 2030</t>
         </is>
       </c>
-      <c r="J50" s="4" t="inlineStr">
+      <c r="L50" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M50" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N50" s="4" t="inlineStr">
         <is>
           <t>Endenergieverbrauch im Güterverkehr</t>
         </is>
       </c>
-      <c r="K50" s="4" t="inlineStr">
+      <c r="O50" s="4" t="inlineStr">
         <is>
           <t>Final energy consumption in goods transport</t>
         </is>
@@ -3334,30 +4338,50 @@
       </c>
       <c r="F51" s="4" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G51" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H51" s="4" t="inlineStr">
+        <is>
           <t>Endenergieverbrauch im Personenverkehr</t>
         </is>
       </c>
-      <c r="G51" s="4" t="inlineStr">
+      <c r="I51" s="4" t="inlineStr">
         <is>
           <t>Final energy consumption in passenger transport</t>
         </is>
       </c>
-      <c r="H51" s="4" t="inlineStr">
+      <c r="J51" s="4" t="inlineStr">
         <is>
           <t>Senkung um 15 bis 20 % bis 2030</t>
         </is>
       </c>
-      <c r="I51" s="4" t="inlineStr">
+      <c r="K51" s="4" t="inlineStr">
         <is>
           <t>Reduction by 15–20% by 2030</t>
         </is>
       </c>
-      <c r="J51" s="4" t="inlineStr">
+      <c r="L51" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M51" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N51" s="4" t="inlineStr">
         <is>
           <t>Endenergieverbrauch im Personenverkehr</t>
         </is>
       </c>
-      <c r="K51" s="4" t="inlineStr">
+      <c r="O51" s="4" t="inlineStr">
         <is>
           <t>Final energy consumption in passenger transport</t>
         </is>
@@ -3391,30 +4415,50 @@
       </c>
       <c r="F52" s="4" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G52" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H52" s="4" t="inlineStr">
+        <is>
           <t>Erreichbarkeit von Mittel- und Oberzentren mit öffentlichen Verkehrsmitteln</t>
         </is>
       </c>
-      <c r="G52" s="4" t="inlineStr">
+      <c r="I52" s="4" t="inlineStr">
         <is>
           <t>Accessibility of medium-sized and large cities by public transport</t>
         </is>
       </c>
-      <c r="H52" s="4" t="inlineStr">
+      <c r="J52" s="4" t="inlineStr">
         <is>
           <t>Verringerung der durchschnittlichen Reisezeit mit öffentlichen Verkehrsmitteln</t>
         </is>
       </c>
-      <c r="I52" s="4" t="inlineStr">
+      <c r="K52" s="4" t="inlineStr">
         <is>
           <t>Reduction of average travel time by public transport</t>
         </is>
       </c>
-      <c r="J52" s="4" t="inlineStr">
+      <c r="L52" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M52" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N52" s="4" t="inlineStr">
         <is>
           <t>Erreichbarkeit von Mittel- und Oberzentren mit öffentlichen Verkehrsmitteln</t>
         </is>
       </c>
-      <c r="K52" s="4" t="inlineStr">
+      <c r="O52" s="4" t="inlineStr">
         <is>
           <t>Accessibility of medium-sized and large cities by public transport</t>
         </is>
@@ -3448,30 +4492,50 @@
       </c>
       <c r="F53" s="4" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G53" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H53" s="4" t="inlineStr">
+        <is>
           <t>Überlastung durch Wohnkosten</t>
         </is>
       </c>
-      <c r="G53" s="4" t="inlineStr">
+      <c r="I53" s="4" t="inlineStr">
         <is>
           <t>Housing cost overload</t>
         </is>
       </c>
-      <c r="H53" s="4" t="inlineStr">
+      <c r="J53" s="4" t="inlineStr">
         <is>
           <t>Senkung des Anteils der überlasteten Personen an der Bevölkerung auf 13 % bis 2030</t>
         </is>
       </c>
-      <c r="I53" s="4" t="inlineStr">
+      <c r="K53" s="4" t="inlineStr">
         <is>
           <t>Reduce the proportion of people who are overburdened to 13% by 2030</t>
         </is>
       </c>
-      <c r="J53" s="4" t="inlineStr">
+      <c r="L53" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M53" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N53" s="4" t="inlineStr">
         <is>
           <t>Überlastung durch Wohnkosten</t>
         </is>
       </c>
-      <c r="K53" s="4" t="inlineStr">
+      <c r="O53" s="4" t="inlineStr">
         <is>
           <t>Housing cost overload</t>
         </is>
@@ -3505,30 +4569,50 @@
       </c>
       <c r="F54" s="4" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G54" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H54" s="4" t="inlineStr">
+        <is>
           <t>Zahl der Objekte in der Deutschen Digitalen Bibliothek</t>
         </is>
       </c>
-      <c r="G54" s="4" t="inlineStr">
+      <c r="I54" s="4" t="inlineStr">
         <is>
           <t>Number of objects in the German Digital Library</t>
         </is>
       </c>
-      <c r="H54" s="4" t="inlineStr">
+      <c r="J54" s="4" t="inlineStr">
         <is>
           <t>Steigerung der Zahl der in der Deutschen Digitalen Bibliothek vernetzten Objekte auf 50 Millionen bis 2030</t>
         </is>
       </c>
-      <c r="I54" s="4" t="inlineStr">
+      <c r="K54" s="4" t="inlineStr">
         <is>
           <t>Increase in the number of objects in the network of the German Digital Library to 50 million by 2030</t>
         </is>
       </c>
-      <c r="J54" s="4" t="inlineStr">
+      <c r="L54" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M54" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N54" s="4" t="inlineStr">
         <is>
           <t>Zahl der Objekte in der Deutschen Digitalen Bibliothek</t>
         </is>
       </c>
-      <c r="K54" s="4" t="inlineStr">
+      <c r="O54" s="4" t="inlineStr">
         <is>
           <t>Number of objects in the German Digital Library</t>
         </is>
@@ -3562,30 +4646,50 @@
       </c>
       <c r="F55" s="4" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G55" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H55" s="4" t="inlineStr">
+        <is>
           <t>Marktanteil von Produkten mit staatlichen Umweltzeichen</t>
         </is>
       </c>
-      <c r="G55" s="4" t="inlineStr">
+      <c r="I55" s="4" t="inlineStr">
         <is>
           <t>Market share of products certified by publicly managed eco-labelling schemes</t>
         </is>
       </c>
-      <c r="H55" s="4" t="inlineStr">
+      <c r="J55" s="4" t="inlineStr">
         <is>
           <t>Steigerung des Marktanteils auf 34 % bis 2030</t>
         </is>
       </c>
-      <c r="I55" s="4" t="inlineStr">
+      <c r="K55" s="4" t="inlineStr">
         <is>
           <t>Increase the market share to 34% by 2030</t>
         </is>
       </c>
-      <c r="J55" s="4" t="inlineStr">
+      <c r="L55" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M55" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N55" s="4" t="inlineStr">
         <is>
           <t>Marktanteil von Produkten mit staatlichen Umweltzeichen</t>
         </is>
       </c>
-      <c r="K55" s="4" t="inlineStr">
+      <c r="O55" s="4" t="inlineStr">
         <is>
           <t>Market share of products certified by publicly managed eco-labelling schemes</t>
         </is>
@@ -3609,40 +4713,60 @@
       </c>
       <c r="D56" s="4" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E56" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F56" s="4" t="inlineStr">
+        <is>
           <t>a) Rohstoffeinsatz</t>
         </is>
       </c>
-      <c r="E56" s="4" t="inlineStr">
+      <c r="G56" s="4" t="inlineStr">
         <is>
           <t>a) Use of raw materials</t>
         </is>
       </c>
-      <c r="F56" s="4" t="inlineStr">
+      <c r="H56" s="4" t="inlineStr">
         <is>
           <t>Globale Umweltinanspruchnahme durch den Konsum privater Haushalte - Rohstoffeinsatz</t>
         </is>
       </c>
-      <c r="G56" s="4" t="inlineStr">
+      <c r="I56" s="4" t="inlineStr">
         <is>
           <t>Global environmental impact by private household consumption – use of raw materials</t>
         </is>
       </c>
-      <c r="H56" s="4" t="inlineStr">
+      <c r="J56" s="4" t="inlineStr">
         <is>
           <t>Kontinuierliche Reduzierung </t>
         </is>
       </c>
-      <c r="I56" s="4" t="inlineStr">
+      <c r="K56" s="4" t="inlineStr">
         <is>
           <t>Steady reduction</t>
         </is>
       </c>
-      <c r="J56" s="4" t="inlineStr">
+      <c r="L56" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M56" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N56" s="4" t="inlineStr">
         <is>
           <t>Rohstoffeinsatz</t>
         </is>
       </c>
-      <c r="K56" s="4" t="inlineStr">
+      <c r="O56" s="4" t="inlineStr">
         <is>
           <t>Use of raw materials</t>
         </is>
@@ -3666,40 +4790,60 @@
       </c>
       <c r="D57" s="4" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E57" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F57" s="4" t="inlineStr">
+        <is>
           <t>b) Energieverbrauch</t>
         </is>
       </c>
-      <c r="E57" s="4" t="inlineStr">
+      <c r="G57" s="4" t="inlineStr">
         <is>
           <t>b) Energy consumption</t>
         </is>
       </c>
-      <c r="F57" s="4" t="inlineStr">
+      <c r="H57" s="4" t="inlineStr">
         <is>
           <t>Globale Umweltinanspruchnahme durch den Konsum privater Haushalte - Energieverbrauch</t>
         </is>
       </c>
-      <c r="G57" s="4" t="inlineStr">
+      <c r="I57" s="4" t="inlineStr">
         <is>
           <t>Global environmental impact by private household consumption – energy consumption</t>
         </is>
       </c>
-      <c r="H57" s="4" t="inlineStr">
+      <c r="J57" s="4" t="inlineStr">
         <is>
           <t>Kontinuierliche Reduzierung </t>
         </is>
       </c>
-      <c r="I57" s="4" t="inlineStr">
+      <c r="K57" s="4" t="inlineStr">
         <is>
           <t>Steady reduction</t>
         </is>
       </c>
-      <c r="J57" s="4" t="inlineStr">
+      <c r="L57" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M57" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N57" s="4" t="inlineStr">
         <is>
           <t>Energieverbrauch</t>
         </is>
       </c>
-      <c r="K57" s="4" t="inlineStr">
+      <c r="O57" s="4" t="inlineStr">
         <is>
           <t>Energy consumption</t>
         </is>
@@ -3723,40 +4867,60 @@
       </c>
       <c r="D58" s="4" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E58" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F58" s="4" t="inlineStr">
+        <is>
           <t>c) CO2-Emissionen</t>
         </is>
       </c>
-      <c r="E58" s="4" t="inlineStr">
+      <c r="G58" s="4" t="inlineStr">
         <is>
           <t>c) CO2 emissions</t>
         </is>
       </c>
-      <c r="F58" s="4" t="inlineStr">
+      <c r="H58" s="4" t="inlineStr">
         <is>
           <t>Globale Umweltinanspruchnahme durch den Konsum privater Haushalte - CO2-Emissionen</t>
         </is>
       </c>
-      <c r="G58" s="4" t="inlineStr">
+      <c r="I58" s="4" t="inlineStr">
         <is>
           <t>Global environmental impact by private household consumption – CO2 emissions</t>
         </is>
       </c>
-      <c r="H58" s="4" t="inlineStr">
+      <c r="J58" s="4" t="inlineStr">
         <is>
           <t>Kontinuierliche Reduzierung </t>
         </is>
       </c>
-      <c r="I58" s="4" t="inlineStr">
+      <c r="K58" s="4" t="inlineStr">
         <is>
           <t>Steady reduction</t>
         </is>
       </c>
-      <c r="J58" s="4" t="inlineStr">
+      <c r="L58" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M58" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N58" s="4" t="inlineStr">
         <is>
           <t>CO2-Emissionen</t>
         </is>
       </c>
-      <c r="K58" s="4" t="inlineStr">
+      <c r="O58" s="4" t="inlineStr">
         <is>
           <t>CO2 emissions</t>
         </is>
@@ -3790,30 +4954,50 @@
       </c>
       <c r="F59" s="4" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G59" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H59" s="4" t="inlineStr">
+        <is>
           <t>Umweltmanagement EMAS</t>
         </is>
       </c>
-      <c r="G59" s="4" t="inlineStr">
+      <c r="I59" s="4" t="inlineStr">
         <is>
           <t>EMAS eco-management</t>
         </is>
       </c>
-      <c r="H59" s="4" t="inlineStr">
+      <c r="J59" s="4" t="inlineStr">
         <is>
           <t>5 000 Organisationsstandorte bis 2030</t>
         </is>
       </c>
-      <c r="I59" s="4" t="inlineStr">
+      <c r="K59" s="4" t="inlineStr">
         <is>
           <t>5,000 locations of organisations by 2030</t>
         </is>
       </c>
-      <c r="J59" s="4" t="inlineStr">
+      <c r="L59" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M59" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N59" s="4" t="inlineStr">
         <is>
           <t>Umweltmanagement EMAS</t>
         </is>
       </c>
-      <c r="K59" s="4" t="inlineStr">
+      <c r="O59" s="4" t="inlineStr">
         <is>
           <t>EMAS eco-management</t>
         </is>
@@ -3837,40 +5021,60 @@
       </c>
       <c r="D60" s="4" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E60" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F60" s="4" t="inlineStr">
+        <is>
           <t>a) Anteil Papier mit Blauem Engel am Gesamtpapierverbrauch der unmittelbaren Bundesverwaltung</t>
         </is>
       </c>
-      <c r="E60" s="4" t="inlineStr">
+      <c r="G60" s="4" t="inlineStr">
         <is>
           <t>a) Paper bearing the Blue Angel label as a proportion of the total paper consumption of the direct federal administration</t>
         </is>
       </c>
-      <c r="F60" s="4" t="inlineStr">
+      <c r="H60" s="4" t="inlineStr">
         <is>
           <t>Anteil des Papiers mit Blauem Engel am Gesamtpapierverbrauch der unmittelbaren Bundesverwaltung</t>
         </is>
       </c>
-      <c r="G60" s="4" t="inlineStr">
+      <c r="I60" s="4" t="inlineStr">
         <is>
           <t>Paper bearing the Blue Angel label as a proportion of the total paper consumption of the direct federal administration</t>
         </is>
       </c>
-      <c r="H60" s="4" t="inlineStr">
+      <c r="J60" s="4" t="inlineStr">
         <is>
           <t>Steigerung des Anteils auf 95 % bis 2020</t>
         </is>
       </c>
-      <c r="I60" s="4" t="inlineStr">
+      <c r="K60" s="4" t="inlineStr">
         <is>
           <t>Increase the proportion to 95% by 2020</t>
         </is>
       </c>
-      <c r="J60" s="4" t="inlineStr">
+      <c r="L60" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M60" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N60" s="4" t="inlineStr">
         <is>
           <t>Anteil des Papiers mit Blauem Engel am Gesamtpapierverbrauch der unmittelbaren Bundesverwaltung</t>
         </is>
       </c>
-      <c r="K60" s="4" t="inlineStr">
+      <c r="O60" s="4" t="inlineStr">
         <is>
           <t>Paper bearing the Blue Angel label as a proportion of the total paper consumption of the direct federal administration</t>
         </is>
@@ -3894,40 +5098,60 @@
       </c>
       <c r="D61" s="4" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E61" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F61" s="4" t="inlineStr">
+        <is>
           <t>b) CO2-Emissionen je Fahrleistungen der Kfz der öffentlichen Hand</t>
         </is>
       </c>
-      <c r="E61" s="4" t="inlineStr">
+      <c r="G61" s="4" t="inlineStr">
         <is>
           <t>b) CO2 emissions of commercially available vehicles in the public sector</t>
         </is>
       </c>
-      <c r="F61" s="4" t="inlineStr">
+      <c r="H61" s="4" t="inlineStr">
         <is>
           <t>CO2-Emissionen von handelsüblichen Kraftfahrzeugen der öffentlichen Hand</t>
         </is>
       </c>
-      <c r="G61" s="4" t="inlineStr">
+      <c r="I61" s="4" t="inlineStr">
         <is>
           <t>CO2 emissions of commercially available vehicles in the public sector</t>
         </is>
       </c>
-      <c r="H61" s="4" t="inlineStr">
+      <c r="J61" s="4" t="inlineStr">
         <is>
           <t>Signifikante Senkung</t>
         </is>
       </c>
-      <c r="I61" s="4" t="inlineStr">
+      <c r="K61" s="4" t="inlineStr">
         <is>
           <t>Significantly reduce</t>
         </is>
       </c>
-      <c r="J61" s="4" t="inlineStr">
+      <c r="L61" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M61" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N61" s="4" t="inlineStr">
         <is>
           <t>CO2-Emissionen von handelsüblichen Kraftfahrzeugen der öffentlichen Hand</t>
         </is>
       </c>
-      <c r="K61" s="4" t="inlineStr">
+      <c r="O61" s="4" t="inlineStr">
         <is>
           <t>CO2 emissions of commercially available vehicles in the public sector</t>
         </is>
@@ -3961,30 +5185,50 @@
       </c>
       <c r="F62" s="4" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G62" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H62" s="4" t="inlineStr">
+        <is>
           <t>Treibhausgasemissionen</t>
         </is>
       </c>
-      <c r="G62" s="4" t="inlineStr">
+      <c r="I62" s="4" t="inlineStr">
         <is>
           <t>Greenhouse gas emissions</t>
         </is>
       </c>
-      <c r="H62" s="4" t="inlineStr">
+      <c r="J62" s="4" t="inlineStr">
         <is>
           <t>Minderung um mindestens 40 % bis 2020, um mindestens 55 % bis 2030, jeweils gegenüber 1990; Erreichung von Treibhausgasneutralität bis 2050</t>
         </is>
       </c>
-      <c r="I62" s="4" t="inlineStr">
+      <c r="K62" s="4" t="inlineStr">
         <is>
           <t>Reduce by at least 40% by 2020 and by at least 55% by 2030, in each case compared to 1990; greenhouse gas neutrality to be achieved by 2050</t>
         </is>
       </c>
-      <c r="J62" s="4" t="inlineStr">
+      <c r="L62" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M62" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N62" s="4" t="inlineStr">
         <is>
           <t>Treibhausgasemissionen</t>
         </is>
       </c>
-      <c r="K62" s="4" t="inlineStr">
+      <c r="O62" s="4" t="inlineStr">
         <is>
           <t>Greenhouse gas emissions</t>
         </is>
@@ -4018,30 +5262,50 @@
       </c>
       <c r="F63" s="4" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G63" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H63" s="4" t="inlineStr">
+        <is>
           <t>Internationale Klimafinanzierung zur Reduktion von Treibhausgasen und zur Anpassung an den Klimawandel</t>
         </is>
       </c>
-      <c r="G63" s="4" t="inlineStr">
+      <c r="I63" s="4" t="inlineStr">
         <is>
           <t>International climate finance for the reduction of greenhouse gases and adaptation to climate change</t>
         </is>
       </c>
-      <c r="H63" s="4" t="inlineStr">
+      <c r="J63" s="4" t="inlineStr">
         <is>
           <t>Verdopplung der Finanzierung bis 2020 gegenüber 2014</t>
         </is>
       </c>
-      <c r="I63" s="4" t="inlineStr">
+      <c r="K63" s="4" t="inlineStr">
         <is>
           <t>Double finance by 2020 compared to 2014</t>
         </is>
       </c>
-      <c r="J63" s="4" t="inlineStr">
+      <c r="L63" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M63" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N63" s="4" t="inlineStr">
         <is>
           <t>Internationale Klimafinanzierung zur Reduktion von Treibhausgasen und zur Anpassung an den Klimawandel</t>
         </is>
       </c>
-      <c r="K63" s="4" t="inlineStr">
+      <c r="O63" s="4" t="inlineStr">
         <is>
           <t>International climate finance for the reduction of greenhouse gases and adaptation to climate change</t>
         </is>
@@ -4065,40 +5329,60 @@
       </c>
       <c r="D64" s="4" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E64" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F64" s="4" t="inlineStr">
+        <is>
           <t>aa) Ostsee</t>
         </is>
       </c>
-      <c r="E64" s="4" t="inlineStr">
+      <c r="G64" s="4" t="inlineStr">
         <is>
           <t>aa) Baltic</t>
         </is>
       </c>
-      <c r="F64" s="4" t="inlineStr">
+      <c r="H64" s="4" t="inlineStr">
         <is>
           <t>Nährstoffeinträge in Küstengewässer und Meeresgewässer – Stickstoffeintrag über die Zuflüsse in die Ostsee</t>
         </is>
       </c>
-      <c r="G64" s="4" t="inlineStr">
+      <c r="I64" s="4" t="inlineStr">
         <is>
           <t>Nitrogen input in coastal and marine waters – nitrogen input via the inflows into the Baltic Sea</t>
         </is>
       </c>
-      <c r="H64" s="4" t="inlineStr">
+      <c r="J64" s="4" t="inlineStr">
         <is>
           <t>Einhaltung des guten Zustands nach Oberflächengewässerverordnung (Jahresmittelwerte für Gesamtstickstoff bei in die Ostsee mündenden Flüssen sollen 2,6 Milligramm pro Liter nicht überschreiten)</t>
         </is>
       </c>
-      <c r="I64" s="4" t="inlineStr">
+      <c r="K64" s="4" t="inlineStr">
         <is>
           <t>Adherence to good quality in accordance with the Ordinance on the Protection of Surface Waters (Oberflächengewässerver-ordnung) (annual averages for total nitro-gen in rivers flowing into the Baltic may not exceed 2.6 mg/l)</t>
         </is>
       </c>
-      <c r="J64" s="4" t="inlineStr">
+      <c r="L64" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M64" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N64" s="4" t="inlineStr">
         <is>
           <t>Stickstoffeinträge in Küsten- und Meeresgewässer der Ostsee</t>
         </is>
       </c>
-      <c r="K64" s="4" t="inlineStr">
+      <c r="O64" s="4" t="inlineStr">
         <is>
           <t>Nitrogen input in coastal and marine waters of the Baltic Sea</t>
         </is>
@@ -4122,40 +5406,60 @@
       </c>
       <c r="D65" s="4" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E65" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F65" s="4" t="inlineStr">
+        <is>
           <t>ab) Nordsee</t>
         </is>
       </c>
-      <c r="E65" s="4" t="inlineStr">
+      <c r="G65" s="4" t="inlineStr">
         <is>
           <t>ab) North Sea</t>
         </is>
       </c>
-      <c r="F65" s="4" t="inlineStr">
+      <c r="H65" s="4" t="inlineStr">
         <is>
           <t>Nährstoffeinträge in Küstengewässer und Meeresgewässer – Stickstoffeintrag über die Zuflüsse in die Nordsee</t>
         </is>
       </c>
-      <c r="G65" s="4" t="inlineStr">
+      <c r="I65" s="4" t="inlineStr">
         <is>
           <t>Nitrogen input in coastal and marine waters – nitrogen input via the inflows into the North Sea</t>
         </is>
       </c>
-      <c r="H65" s="4" t="inlineStr">
+      <c r="J65" s="4" t="inlineStr">
         <is>
           <t>Einhaltung des guten Zustands nach Oberflächengewässerverordnung (Jahresmittelwerte für Gesamtstickstoff bei in die Nordsee mündenden Flüssen sollen 2,8 Milligramm pro Liter nicht überschreiten)</t>
         </is>
       </c>
-      <c r="I65" s="4" t="inlineStr">
+      <c r="K65" s="4" t="inlineStr">
         <is>
           <t>Adherence to good quality in accordance with the Ordinance on the Protection of Surface Waters (annual averages for total nitrogen in rivers flowing into the North Sea may not exceed 2.8 mg/l)</t>
         </is>
       </c>
-      <c r="J65" s="4" t="inlineStr">
+      <c r="L65" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M65" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N65" s="4" t="inlineStr">
         <is>
           <t>Stickstoffeinträge in Küstengewässer und Meeresgewässer der Nordsee</t>
         </is>
       </c>
-      <c r="K65" s="4" t="inlineStr">
+      <c r="O65" s="4" t="inlineStr">
         <is>
           <t>Nitrogen input in coastal and marine waters of the North Sea</t>
         </is>
@@ -4189,30 +5493,50 @@
       </c>
       <c r="F66" s="4" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G66" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H66" s="4" t="inlineStr">
+        <is>
           <t>Anteil der nachhaltig befischten Fischbestände in Nord- und Ostsee</t>
         </is>
       </c>
-      <c r="G66" s="4" t="inlineStr">
+      <c r="I66" s="4" t="inlineStr">
         <is>
           <t>Share of sustainably fished fish populations in the North Sea and Baltic</t>
         </is>
       </c>
-      <c r="H66" s="4" t="inlineStr">
+      <c r="J66" s="4" t="inlineStr">
         <is>
           <t>Alle wirtschaftlich genutzten Fischbestände sollen nach dem MSY-Ansatz nachhaltig bewirtschaftet werden bis 2020</t>
         </is>
       </c>
-      <c r="I66" s="4" t="inlineStr">
+      <c r="K66" s="4" t="inlineStr">
         <is>
           <t>All fish stocks used for commercial purpos-es to be sustainably managed in accordance with the Maximum Sustainable Yield (MSY) approach by 2020</t>
         </is>
       </c>
-      <c r="J66" s="4" t="inlineStr">
+      <c r="L66" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M66" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N66" s="4" t="inlineStr">
         <is>
           <t>Anteil der nachhaltig befischten Fischbestände in Nord- und Ostsee</t>
         </is>
       </c>
-      <c r="K66" s="4" t="inlineStr">
+      <c r="O66" s="4" t="inlineStr">
         <is>
           <t>Share of sustainably fished fish populations in the North Sea and Baltic</t>
         </is>
@@ -4246,30 +5570,50 @@
       </c>
       <c r="F67" s="4" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G67" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H67" s="4" t="inlineStr">
+        <is>
           <t>Artenvielfalt und Landschaftsqualität</t>
         </is>
       </c>
-      <c r="G67" s="4" t="inlineStr">
+      <c r="I67" s="4" t="inlineStr">
         <is>
           <t>Biodiversity and landscape quality</t>
         </is>
       </c>
-      <c r="H67" s="4" t="inlineStr">
+      <c r="J67" s="4" t="inlineStr">
         <is>
           <t>Erreichen des Indexwertes 100 bis 2030</t>
         </is>
       </c>
-      <c r="I67" s="4" t="inlineStr">
+      <c r="K67" s="4" t="inlineStr">
         <is>
           <t>Reach the index value of 100 by 2030</t>
         </is>
       </c>
-      <c r="J67" s="4" t="inlineStr">
+      <c r="L67" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M67" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N67" s="4" t="inlineStr">
         <is>
           <t>Artenvielfalt und Landschaftsqualität</t>
         </is>
       </c>
-      <c r="K67" s="4" t="inlineStr">
+      <c r="O67" s="4" t="inlineStr">
         <is>
           <t>Biodiversity and landscape quality</t>
         </is>
@@ -4303,30 +5647,50 @@
       </c>
       <c r="F68" s="4" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G68" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H68" s="4" t="inlineStr">
+        <is>
           <t>Eutrophierung der Ökosysteme</t>
         </is>
       </c>
-      <c r="G68" s="4" t="inlineStr">
+      <c r="I68" s="4" t="inlineStr">
         <is>
           <t>Eutrophication of ecosystems</t>
         </is>
       </c>
-      <c r="H68" s="4" t="inlineStr">
+      <c r="J68" s="4" t="inlineStr">
         <is>
           <t>Verringerung um 35 % bis 2030 gegenüber 2005</t>
         </is>
       </c>
-      <c r="I68" s="4" t="inlineStr">
+      <c r="K68" s="4" t="inlineStr">
         <is>
           <t>Reduction by 35% by 2030 compared to 2005</t>
         </is>
       </c>
-      <c r="J68" s="4" t="inlineStr">
+      <c r="L68" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M68" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N68" s="4" t="inlineStr">
         <is>
           <t>Eutrophierung der Ökosysteme</t>
         </is>
       </c>
-      <c r="K68" s="4" t="inlineStr">
+      <c r="O68" s="4" t="inlineStr">
         <is>
           <t>Eutrophication of ecosystems</t>
         </is>
@@ -4350,40 +5714,60 @@
       </c>
       <c r="D69" s="4" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E69" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F69" s="4" t="inlineStr">
+        <is>
           <t>a) REDD+-Regelwerk</t>
         </is>
       </c>
-      <c r="E69" s="4" t="inlineStr">
+      <c r="G69" s="4" t="inlineStr">
         <is>
           <t>a) REDD+ rulebook</t>
         </is>
       </c>
-      <c r="F69" s="4" t="inlineStr">
+      <c r="H69" s="4" t="inlineStr">
         <is>
           <t>Erhalt bzw. Wiederaufbau von Wäldern in Entwicklungsländern unter dem REDD+-Regelwerk</t>
         </is>
       </c>
-      <c r="G69" s="4" t="inlineStr">
+      <c r="I69" s="4" t="inlineStr">
         <is>
           <t>Preservation or restoration of forests in developing countries under the REDD+ rulebook</t>
         </is>
       </c>
-      <c r="H69" s="4" t="inlineStr">
+      <c r="J69" s="4" t="inlineStr">
         <is>
           <t>Steigerung der Zahlungen bis 2030</t>
         </is>
       </c>
-      <c r="I69" s="4" t="inlineStr">
+      <c r="K69" s="4" t="inlineStr">
         <is>
           <t>Increase payments by 2030</t>
         </is>
       </c>
-      <c r="J69" s="4" t="inlineStr">
+      <c r="L69" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M69" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N69" s="4" t="inlineStr">
         <is>
           <t>Erhalt bzw. Wiederaufbau von Wäldern in Entwicklungsländern unter dem REDD+-Regelwerk</t>
         </is>
       </c>
-      <c r="K69" s="4" t="inlineStr">
+      <c r="O69" s="4" t="inlineStr">
         <is>
           <t>Preservation or restoration of forests in developing countries under the REDD+ rulebook</t>
         </is>
@@ -4407,40 +5791,60 @@
       </c>
       <c r="D70" s="4" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E70" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F70" s="4" t="inlineStr">
+        <is>
           <t>b) Internationaler Bodenschutz</t>
         </is>
       </c>
-      <c r="E70" s="4" t="inlineStr">
+      <c r="G70" s="4" t="inlineStr">
         <is>
           <t>b) Combat Desertification</t>
         </is>
       </c>
-      <c r="F70" s="4" t="inlineStr">
+      <c r="H70" s="4" t="inlineStr">
         <is>
           <t>Deutsche bilaterale Bruttoentwicklungsausgaben zur Umsetzung des Übereinkommens der VN zur Bekämpfung der Wüstenbildung</t>
         </is>
       </c>
-      <c r="G70" s="4" t="inlineStr">
+      <c r="I70" s="4" t="inlineStr">
         <is>
           <t>German gross bilateral development expenditure for the implementation of the UN Convention to Combat Desertification</t>
         </is>
       </c>
-      <c r="H70" s="4" t="inlineStr">
+      <c r="J70" s="4" t="inlineStr">
         <is>
           <t>Steigerung der Zahlungen bis 2030</t>
         </is>
       </c>
-      <c r="I70" s="4" t="inlineStr">
+      <c r="K70" s="4" t="inlineStr">
         <is>
           <t>Payments to be increased by 2030</t>
         </is>
       </c>
-      <c r="J70" s="4" t="inlineStr">
+      <c r="L70" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M70" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N70" s="4" t="inlineStr">
         <is>
           <t>Deutsche bilaterale Bruttoentwicklungsausgaben zur Umsetzung des Übereinkommens der VN zur Bekämpfung der Wüstenbildung</t>
         </is>
       </c>
-      <c r="K70" s="4" t="inlineStr">
+      <c r="O70" s="4" t="inlineStr">
         <is>
           <t>German gross bilateral development expenditure for the implementation of the UN Convention to Combat Desertification</t>
         </is>
@@ -4474,30 +5878,50 @@
       </c>
       <c r="F71" s="4" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G71" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H71" s="4" t="inlineStr">
+        <is>
           <t>Straftaten</t>
         </is>
       </c>
-      <c r="G71" s="4" t="inlineStr">
+      <c r="I71" s="4" t="inlineStr">
         <is>
           <t>Criminal offences</t>
         </is>
       </c>
-      <c r="H71" s="4" t="inlineStr">
+      <c r="J71" s="4" t="inlineStr">
         <is>
           <t>Rückgang der Zahl der erfassten Straftaten je 100 000 Einwohner/ -innen auf unter 6 500 bis 2030</t>
         </is>
       </c>
-      <c r="I71" s="4" t="inlineStr">
+      <c r="K71" s="4" t="inlineStr">
         <is>
           <t>Reduce the number of criminal offences re-corded per 100,000 inhabitants to less than 6,500 by 2030</t>
         </is>
       </c>
-      <c r="J71" s="4" t="inlineStr">
+      <c r="L71" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M71" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N71" s="4" t="inlineStr">
         <is>
           <t>Straftaten</t>
         </is>
       </c>
-      <c r="K71" s="4" t="inlineStr">
+      <c r="O71" s="4" t="inlineStr">
         <is>
           <t>Criminal offences</t>
         </is>
@@ -4531,30 +5955,50 @@
       </c>
       <c r="F72" s="4" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G72" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H72" s="4" t="inlineStr">
+        <is>
           <t>Anzahl der in betroffenen Weltregionen durchgeführten Projekte zur Sicherung, Registrierung und Zerstörung von Kleinwaffen und leichten Waffen durch Deutschland</t>
         </is>
       </c>
-      <c r="G72" s="4" t="inlineStr">
+      <c r="I72" s="4" t="inlineStr">
         <is>
           <t>Number of projects to secure, register and destroy small arms and light weapons carried out by Germany in affected regions of the world</t>
         </is>
       </c>
-      <c r="H72" s="4" t="inlineStr">
+      <c r="J72" s="4" t="inlineStr">
         <is>
           <t>Mindestens 15 Projekte pro Jahr bis 2030</t>
         </is>
       </c>
-      <c r="I72" s="4" t="inlineStr">
+      <c r="K72" s="4" t="inlineStr">
         <is>
           <t>At least 15 projects per year by 2030</t>
         </is>
       </c>
-      <c r="J72" s="4" t="inlineStr">
+      <c r="L72" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M72" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N72" s="4" t="inlineStr">
         <is>
           <t>Anzahl der in betroffenen Weltregionen durchgeführten Projekte zur Sicherung, Registrierung und Zerstörung von Kleinwaffen und leichten Waffen durch Deutschland</t>
         </is>
       </c>
-      <c r="K72" s="4" t="inlineStr">
+      <c r="O72" s="4" t="inlineStr">
         <is>
           <t>Number of projects to secure, register and destroy small arms and light weapons carried out by Germany in affected regions of the world</t>
         </is>
@@ -4578,40 +6022,60 @@
       </c>
       <c r="D73" s="4" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E73" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F73" s="4" t="inlineStr">
+        <is>
           <t>a) CPI Deutschland</t>
         </is>
       </c>
-      <c r="E73" s="4" t="inlineStr">
+      <c r="G73" s="4" t="inlineStr">
         <is>
           <t>a) CPI Germany</t>
         </is>
       </c>
-      <c r="F73" s="4" t="inlineStr">
+      <c r="H73" s="4" t="inlineStr">
         <is>
           <t>Corruption Perception Index in Deutschland</t>
         </is>
       </c>
-      <c r="G73" s="4" t="inlineStr">
+      <c r="I73" s="4" t="inlineStr">
         <is>
           <t>Corruption Perceptions Index in Germany</t>
         </is>
       </c>
-      <c r="H73" s="4" t="inlineStr">
+      <c r="J73" s="4" t="inlineStr">
         <is>
           <t>Verbesserung gegenüber 2012 bis 2030</t>
         </is>
       </c>
-      <c r="I73" s="4" t="inlineStr">
+      <c r="K73" s="4" t="inlineStr">
         <is>
           <t>Improvement by 2030, compared to 2012</t>
         </is>
       </c>
-      <c r="J73" s="4" t="inlineStr">
+      <c r="L73" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M73" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N73" s="4" t="inlineStr">
         <is>
           <t>Corruption Perception Index in Deutschland</t>
         </is>
       </c>
-      <c r="K73" s="4" t="inlineStr">
+      <c r="O73" s="4" t="inlineStr">
         <is>
           <t>Corruption Perceptions Index in Germany</t>
         </is>
@@ -4635,40 +6099,60 @@
       </c>
       <c r="D74" s="4" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E74" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F74" s="4" t="inlineStr">
+        <is>
           <t>b) Partnerländer</t>
         </is>
       </c>
-      <c r="E74" s="4" t="inlineStr">
+      <c r="G74" s="4" t="inlineStr">
         <is>
           <t>b) Partner countries</t>
         </is>
       </c>
-      <c r="F74" s="4" t="inlineStr">
+      <c r="H74" s="4" t="inlineStr">
         <is>
           <t>Anzahl der Partnerländer deutscher Entwicklungszusammenarbeit, deren Bewertung sich gegenüber 2012 verbessert hat</t>
         </is>
       </c>
-      <c r="G74" s="4" t="inlineStr">
+      <c r="I74" s="4" t="inlineStr">
         <is>
           <t>Number of partner countries involved in German development cooperation with improved CPI scores compared with 2012</t>
         </is>
       </c>
-      <c r="H74" s="4" t="inlineStr">
+      <c r="J74" s="4" t="inlineStr">
         <is>
           <t>Verbesserung gegenüber 2012 bis 2030</t>
         </is>
       </c>
-      <c r="I74" s="4" t="inlineStr">
+      <c r="K74" s="4" t="inlineStr">
         <is>
           <t>Improvement by 2030, compared to 2012</t>
         </is>
       </c>
-      <c r="J74" s="4" t="inlineStr">
+      <c r="L74" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M74" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N74" s="4" t="inlineStr">
         <is>
           <t>Anzahl der Partnerländer deutscher Entwicklungszusammenarbeit, deren Bewertung sich gegenüber 2012 verbessert hat</t>
         </is>
       </c>
-      <c r="K74" s="4" t="inlineStr">
+      <c r="O74" s="4" t="inlineStr">
         <is>
           <t>Number of partner countries involved in German development cooperation with improved CPI scores compared with 2012</t>
         </is>
@@ -4702,30 +6186,50 @@
       </c>
       <c r="F75" s="4" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G75" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H75" s="4" t="inlineStr">
+        <is>
           <t>Anteil öffentlicher Entwicklungsausgaben am Bruttonationaleinkommen</t>
         </is>
       </c>
-      <c r="G75" s="4" t="inlineStr">
+      <c r="I75" s="4" t="inlineStr">
         <is>
           <t>Official development assistance as a proportion of gross national income</t>
         </is>
       </c>
-      <c r="H75" s="4" t="inlineStr">
+      <c r="J75" s="4" t="inlineStr">
         <is>
           <t>Steigerung des Anteils auf 0,7 % des  Bruttonationaleinkommens bis 2030</t>
         </is>
       </c>
-      <c r="I75" s="4" t="inlineStr">
+      <c r="K75" s="4" t="inlineStr">
         <is>
           <t>Increase the proportion to 0.7% of gross national income by 2030</t>
         </is>
       </c>
-      <c r="J75" s="4" t="inlineStr">
+      <c r="L75" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M75" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N75" s="4" t="inlineStr">
         <is>
           <t>Anteil öffentlicher Entwicklungsausgaben am Bruttonationaleinkommen</t>
         </is>
       </c>
-      <c r="K75" s="4" t="inlineStr">
+      <c r="O75" s="4" t="inlineStr">
         <is>
           <t>Official development assistance as a proportion of gross national income</t>
         </is>
@@ -4759,30 +6263,50 @@
       </c>
       <c r="F76" s="4" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G76" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H76" s="4" t="inlineStr">
+        <is>
           <t>Anzahl der Studierenden und Forschenden aus Entwicklungsländern sowie LDCs pro Jahr</t>
         </is>
       </c>
-      <c r="G76" s="4" t="inlineStr">
+      <c r="I76" s="4" t="inlineStr">
         <is>
           <t>Number of students and researchers from developing countries and LDCs per year</t>
         </is>
       </c>
-      <c r="H76" s="4" t="inlineStr">
+      <c r="J76" s="4" t="inlineStr">
         <is>
           <t>Steigerung der Anzahl um 10 % von 2015 bis 2020, anschließend Verstetigung</t>
         </is>
       </c>
-      <c r="I76" s="4" t="inlineStr">
+      <c r="K76" s="4" t="inlineStr">
         <is>
           <t>Increase the number by 10% from 2015 to 2020, then stabilised</t>
         </is>
       </c>
-      <c r="J76" s="4" t="inlineStr">
+      <c r="L76" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M76" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N76" s="4" t="inlineStr">
         <is>
           <t>Anzahl der Studierenden und Forschenden aus Entwicklungsländern sowie LDCs pro Jahr</t>
         </is>
       </c>
-      <c r="K76" s="4" t="inlineStr">
+      <c r="O76" s="4" t="inlineStr">
         <is>
           <t>Number of students and researchers from developing countries and LDCs per year</t>
         </is>
@@ -4816,30 +6340,50 @@
       </c>
       <c r="F77" s="4" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G77" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H77" s="4" t="inlineStr">
+        <is>
           <t>Einfuhren aus am wenigsten entwickelten Ländern</t>
         </is>
       </c>
-      <c r="G77" s="4" t="inlineStr">
+      <c r="I77" s="4" t="inlineStr">
         <is>
           <t>Imports from least developed countries</t>
         </is>
       </c>
-      <c r="H77" s="4" t="inlineStr">
+      <c r="J77" s="4" t="inlineStr">
         <is>
           <t>Steigerung des Anteils um 100 % bis 2030 gegenüber 2014</t>
         </is>
       </c>
-      <c r="I77" s="4" t="inlineStr">
+      <c r="K77" s="4" t="inlineStr">
         <is>
           <t>Increase the proportion by 100 % by 2030, compared to 2014</t>
         </is>
       </c>
-      <c r="J77" s="4" t="inlineStr">
+      <c r="L77" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M77" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N77" s="4" t="inlineStr">
         <is>
           <t>Einfuhren aus am wenigsten entwickelten Ländern</t>
         </is>
       </c>
-      <c r="K77" s="4" t="inlineStr">
+      <c r="O77" s="4" t="inlineStr">
         <is>
           <t>Imports from least developed countries</t>
         </is>

--- a/Tab_5a_Indikatoren.xlsx
+++ b/Tab_5a_Indikatoren.xlsx
@@ -452,10 +452,10 @@
     <col customWidth="true" min="7" max="7" width="18.1640625"/>
     <col customWidth="true" min="8" max="8" width="36.9140625"/>
     <col customWidth="true" min="9" max="9" width="20.5078125"/>
-    <col customWidth="true" min="10" max="10" width="57.71484375"/>
+    <col customWidth="true" min="10" max="10" width="52.5859375"/>
     <col customWidth="true" min="11" max="11" width="46.2890625"/>
-    <col customWidth="true" min="12" max="12" width="13.8359375"/>
-    <col customWidth="true" min="13" max="13" width="13.8359375"/>
+    <col customWidth="true" min="12" max="12" width="48.77734375"/>
+    <col customWidth="true" min="13" max="13" width="45.703125"/>
     <col customWidth="true" min="14" max="14" width="59.47265625"/>
     <col customWidth="true" min="15" max="15" width="52.29296875"/>
   </cols>
@@ -600,7 +600,7 @@
       </c>
       <c r="M2" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Keep the proportion considerably below the EU-level by 2030</t>
         </is>
       </c>
       <c r="N2" s="4" t="inlineStr">
@@ -677,7 +677,7 @@
       </c>
       <c r="M3" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Keep the proportion considerably below the EU-level by 2030</t>
         </is>
       </c>
       <c r="N3" s="4" t="inlineStr">
@@ -754,7 +754,7 @@
       </c>
       <c r="M4" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Reduction of the nitrogen surpluses to 70 kg/ha on an annual average between 2028 and 2032</t>
         </is>
       </c>
       <c r="N4" s="4" t="inlineStr">
@@ -826,12 +826,12 @@
       </c>
       <c r="L5" s="4" t="inlineStr">
         <is>
-          <t>Erhöhung des Anteils von ökologischen Landbaus auf 20 % bis 2030</t>
+          <t>Erhöhung des Anteils von ökologischeM Landbau auf 20 % bis 2030</t>
         </is>
       </c>
       <c r="M5" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Increase the proportion of organically farmed agricultural land to 20% by 2030</t>
         </is>
       </c>
       <c r="N5" s="4" t="inlineStr">
@@ -908,7 +908,7 @@
       </c>
       <c r="M6" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Funds disbursed for the application of the guidelines and recommendations of the UN Committee on World Food Security (CFS) to be increased appropriately by 2030</t>
         </is>
       </c>
       <c r="N6" s="4" t="inlineStr">
@@ -980,12 +980,12 @@
       </c>
       <c r="L7" s="4" t="inlineStr">
         <is>
-          <t>Senkung auf 100 Todesfälle je 100 000 Einwohner (Frauen) bis 2030</t>
+          <t>Senkung auf 100 Todesfälle je 100 000 Einwohnerinnen bis 2030</t>
         </is>
       </c>
       <c r="M7" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>To be reduced to 100 deaths per 100,000 inhabitants by 2030</t>
         </is>
       </c>
       <c r="N7" s="4" t="inlineStr">
@@ -1057,12 +1057,12 @@
       </c>
       <c r="L8" s="4" t="inlineStr">
         <is>
-          <t>Senkung auf 190 Todesfälle je 100 000 Einwohner (Männer) bis 2030</t>
+          <t>Senkung auf 190 Todesfälle je 100 000 Einwohner bis 2030</t>
         </is>
       </c>
       <c r="M8" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>To be reduced to 190 deaths per 100,000 inhabitants by 2030</t>
         </is>
       </c>
       <c r="N8" s="4" t="inlineStr">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="M9" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Reduction to 7% by 2030</t>
         </is>
       </c>
       <c r="N9" s="4" t="inlineStr">
@@ -1216,7 +1216,7 @@
       </c>
       <c r="M10" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Reduction to 19% by 2030</t>
         </is>
       </c>
       <c r="N10" s="4" t="inlineStr">
@@ -1293,7 +1293,7 @@
       </c>
       <c r="M11" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Increase to be permanently halted</t>
         </is>
       </c>
       <c r="N11" s="4" t="inlineStr">
@@ -1370,7 +1370,7 @@
       </c>
       <c r="M12" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Increase to be permanently halted</t>
         </is>
       </c>
       <c r="N12" s="4" t="inlineStr">
@@ -1447,7 +1447,7 @@
       </c>
       <c r="M13" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Reduction to 55% by 2030</t>
         </is>
       </c>
       <c r="N13" s="4" t="inlineStr">
@@ -1519,12 +1519,12 @@
       </c>
       <c r="L14" s="4" t="inlineStr">
         <is>
-          <t>Erreichung des Feinstaub-Richtwerts von 20 µG/M³ bis 2030</t>
+          <t>Erreichung des Feinstaub-Richtwerts von 20 µg/m³ bis 2030</t>
         </is>
       </c>
       <c r="M14" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Adherence to the particulate matter guideline value by 2030</t>
         </is>
       </c>
       <c r="N14" s="4" t="inlineStr">
@@ -1601,7 +1601,7 @@
       </c>
       <c r="M15" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Expenditure to be increased by 2030</t>
         </is>
       </c>
       <c r="N15" s="4" t="inlineStr">
@@ -1673,12 +1673,12 @@
       </c>
       <c r="L16" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Verringerung des Anteils auf 9,5 % bis 2030</t>
         </is>
       </c>
       <c r="M16" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Reduce the proportion to 9.5% by 2030</t>
         </is>
       </c>
       <c r="N16" s="4" t="inlineStr">
@@ -1750,12 +1750,12 @@
       </c>
       <c r="L17" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Steigerung des Anteils auf 55 % bis 2030</t>
         </is>
       </c>
       <c r="M17" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Increase the proportion to 55% by 2030</t>
         </is>
       </c>
       <c r="N17" s="4" t="inlineStr">
@@ -1827,12 +1827,12 @@
       </c>
       <c r="L18" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Anstieg auf 35 % bis 2030</t>
         </is>
       </c>
       <c r="M18" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Increase to 35% by 2030</t>
         </is>
       </c>
       <c r="N18" s="4" t="inlineStr">
@@ -1904,12 +1904,12 @@
       </c>
       <c r="L19" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Anstieg auf 60 % bis 2020 und auf 70 % bis 2030</t>
         </is>
       </c>
       <c r="M19" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Increase to 60% by 2020 and to 70% by 2030</t>
         </is>
       </c>
       <c r="N19" s="4" t="inlineStr">
@@ -1981,12 +1981,12 @@
       </c>
       <c r="L20" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Verringerung des Abstandes auf 10 % bis 2020, Beibehaltung bis 2030</t>
         </is>
       </c>
       <c r="M20" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Reduce the gap to 10% by 2020, maintained until 2030</t>
         </is>
       </c>
       <c r="N20" s="4" t="inlineStr">
@@ -2058,12 +2058,12 @@
       </c>
       <c r="L21" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>30 % Frauen in Aufsichtsräten bis 2030</t>
         </is>
       </c>
       <c r="M21" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>30% women on supervisory boards by 2030</t>
         </is>
       </c>
       <c r="N21" s="4" t="inlineStr">
@@ -2135,12 +2135,12 @@
       </c>
       <c r="L22" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Gleichberechtigte Teilhabe im öffentlichen Dienst bis 2025</t>
         </is>
       </c>
       <c r="M22" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Equal-opportunity participation in civil service by 2025</t>
         </is>
       </c>
       <c r="N22" s="4" t="inlineStr">
@@ -2212,12 +2212,12 @@
       </c>
       <c r="L23" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>65 % bis 2030</t>
         </is>
       </c>
       <c r="M23" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>65% by 2030</t>
         </is>
       </c>
       <c r="N23" s="4" t="inlineStr">
@@ -2289,12 +2289,12 @@
       </c>
       <c r="L24" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Steigerung um ein Drittel bis 2030</t>
         </is>
       </c>
       <c r="M24" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>To be increased by a third by 2030</t>
         </is>
       </c>
       <c r="N24" s="4" t="inlineStr">
@@ -2366,12 +2366,12 @@
       </c>
       <c r="L25" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Einhaltung der gewässertypischen Orientierungswerte bis 2030</t>
         </is>
       </c>
       <c r="M25" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Not exceeding benchmark values by 2030</t>
         </is>
       </c>
       <c r="N25" s="4" t="inlineStr">
@@ -2443,12 +2443,12 @@
       </c>
       <c r="L26" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Einhaltung des Schwellenwertes bis 2030</t>
         </is>
       </c>
       <c r="M26" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Compliance with the threshold value by 2030</t>
         </is>
       </c>
       <c r="N26" s="4" t="inlineStr">
@@ -2597,12 +2597,12 @@
       </c>
       <c r="L28" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>6 Millionen Menschen pro Jahr bis 2030</t>
         </is>
       </c>
       <c r="M28" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>6 million people per year by 2030</t>
         </is>
       </c>
       <c r="N28" s="4" t="inlineStr">
@@ -2674,12 +2674,12 @@
       </c>
       <c r="L29" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>4 Millionen Menschen pro Jahr bis 2030</t>
         </is>
       </c>
       <c r="M29" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>4 million people per year by 2030</t>
         </is>
       </c>
       <c r="N29" s="4" t="inlineStr">
@@ -2751,12 +2751,12 @@
       </c>
       <c r="L30" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Steigerung um 2,1 % pro Jahr</t>
         </is>
       </c>
       <c r="M30" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Increase by 2.1% per year</t>
         </is>
       </c>
       <c r="N30" s="4" t="inlineStr">
@@ -2828,12 +2828,12 @@
       </c>
       <c r="L31" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Senkung um 20 % bis 2020, um 30 % bis 2030 und um 50 % bis 2050</t>
         </is>
       </c>
       <c r="M31" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Reduction by 20% by 2020, by 30% by 2030, and by 50% by 2050</t>
         </is>
       </c>
       <c r="N31" s="4" t="inlineStr">
@@ -2905,12 +2905,12 @@
       </c>
       <c r="L32" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Anstieg auf 18 % bis 2020, auf 30 % bis 2030, auf 45 % bis 2040 und auf 60 % bis 2050</t>
         </is>
       </c>
       <c r="M32" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Increase to 18% by 2020 and to 30% by 2030, to 45% by 2040 and to 60% by 2050</t>
         </is>
       </c>
       <c r="N32" s="4" t="inlineStr">
@@ -2982,12 +2982,12 @@
       </c>
       <c r="L33" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Anstieg auf 35 % bis 2020, 65 % bis 2030 und Treibhausgasneutralität bis 2050</t>
         </is>
       </c>
       <c r="M33" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Increase to 35% by 2020, 65% by 2030, and greenhouse gas neutrality by 2050</t>
         </is>
       </c>
       <c r="N33" s="4" t="inlineStr">
@@ -3059,12 +3059,12 @@
       </c>
       <c r="L34" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Beibehaltung des Trends der Jahre 2000 – 2010 bis 2030</t>
         </is>
       </c>
       <c r="M34" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Trend of the years 2000–2010 to be maintained until 2030</t>
         </is>
       </c>
       <c r="N34" s="4" t="inlineStr">
@@ -3136,12 +3136,12 @@
       </c>
       <c r="L35" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Unter 3 % des BIP</t>
         </is>
       </c>
       <c r="M35" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Less than 3% of GDP</t>
         </is>
       </c>
       <c r="N35" s="4" t="inlineStr">
@@ -3213,12 +3213,12 @@
       </c>
       <c r="L36" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Unter 0,5 % des BIP</t>
         </is>
       </c>
       <c r="M36" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Less than 0.5% of GDP</t>
         </is>
       </c>
       <c r="N36" s="4" t="inlineStr">
@@ -3290,12 +3290,12 @@
       </c>
       <c r="L37" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Unter 60 % des BIP</t>
         </is>
       </c>
       <c r="M37" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Less than 60% of GDP</t>
         </is>
       </c>
       <c r="N37" s="4" t="inlineStr">
@@ -3367,12 +3367,12 @@
       </c>
       <c r="L38" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Angemessene Entwicklung bis 2030</t>
         </is>
       </c>
       <c r="M38" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Appropriate development by 2030</t>
         </is>
       </c>
       <c r="N38" s="4" t="inlineStr">
@@ -3444,12 +3444,12 @@
       </c>
       <c r="L39" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Stetiges und angemessenes Wirtschaftswachstum</t>
         </is>
       </c>
       <c r="M39" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Steady and appropriate economic growth</t>
         </is>
       </c>
       <c r="N39" s="4" t="inlineStr">
@@ -3521,12 +3521,12 @@
       </c>
       <c r="L40" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Erhöhung auf 78 % bis 2030</t>
         </is>
       </c>
       <c r="M40" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Increase to 78% by 2030</t>
         </is>
       </c>
       <c r="N40" s="4" t="inlineStr">
@@ -3598,12 +3598,12 @@
       </c>
       <c r="L41" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Erhöhung auf 60 % bis 2030</t>
         </is>
       </c>
       <c r="M41" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Increase to 60% by 2030</t>
         </is>
       </c>
       <c r="N41" s="4" t="inlineStr">
@@ -3675,12 +3675,12 @@
       </c>
       <c r="L42" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Signifikante Steigerung bis 2030</t>
         </is>
       </c>
       <c r="M42" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Significantly increase by 2030</t>
         </is>
       </c>
       <c r="N42" s="4" t="inlineStr">
@@ -3752,12 +3752,12 @@
       </c>
       <c r="L43" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Jährlich mindestens 3,5 % des BIP bis 2025</t>
         </is>
       </c>
       <c r="M43" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>At least 3.5% of GDP per year by 2025</t>
         </is>
       </c>
       <c r="N43" s="4" t="inlineStr">
@@ -3829,12 +3829,12 @@
       </c>
       <c r="L44" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Flächendeckend bis 2025</t>
         </is>
       </c>
       <c r="M44" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Full coverage by 2025</t>
         </is>
       </c>
       <c r="N44" s="4" t="inlineStr">
@@ -3906,12 +3906,12 @@
       </c>
       <c r="L45" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Erhöhung der Abschlussquote ausländischen Schulabgänger und Angleichung an die Quote deutscher Abgänger bis 2030</t>
         </is>
       </c>
       <c r="M45" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Increase the graduation rate of foreign school leavers and bring it into line with the rate of German school leavers by 2030</t>
         </is>
       </c>
       <c r="N45" s="4" t="inlineStr">
@@ -3973,22 +3973,22 @@
       </c>
       <c r="J46" s="4" t="inlineStr">
         <is>
-          <t>Gini-Koeffizient Einkommen nach Sozialtransfer bis 2030 unterhalb des EU-28-Wertes</t>
+          <t>Gini-Koeffizient Einkommen nach Sozialtransfer bis 2030 unterhalb des EU-Wertes</t>
         </is>
       </c>
       <c r="K46" s="4" t="inlineStr">
         <is>
-          <t>Gini coefficient of income after social transfers to be below the EU28 figure by 2030</t>
+          <t>Gini coefficient of income after social transfers to be below the EU figure by 2030</t>
         </is>
       </c>
       <c r="L46" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Bis 2030 unterhalb des EU-Wertes halten</t>
         </is>
       </c>
       <c r="M46" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>To be below the EU figure by 2030</t>
         </is>
       </c>
       <c r="N46" s="4" t="inlineStr">
@@ -4060,12 +4060,12 @@
       </c>
       <c r="L47" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Senkung auf 30 ha pro Tag bis 2030</t>
         </is>
       </c>
       <c r="M47" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Reduction to under 30 ha per day by 2030</t>
         </is>
       </c>
       <c r="N47" s="4" t="inlineStr">
@@ -4137,12 +4137,12 @@
       </c>
       <c r="L48" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Verringerung</t>
         </is>
       </c>
       <c r="M48" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Reduce the loss</t>
         </is>
       </c>
       <c r="N48" s="4" t="inlineStr">
@@ -4214,12 +4214,12 @@
       </c>
       <c r="L49" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Keine Verringerung</t>
         </is>
       </c>
       <c r="M49" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>No reduction</t>
         </is>
       </c>
       <c r="N49" s="4" t="inlineStr">
@@ -4291,12 +4291,12 @@
       </c>
       <c r="L50" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Senkung um 15 bis 20 % bis 2030</t>
         </is>
       </c>
       <c r="M50" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Reduction by 15–20% by 2030</t>
         </is>
       </c>
       <c r="N50" s="4" t="inlineStr">
@@ -4368,12 +4368,12 @@
       </c>
       <c r="L51" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Senkung um 15 bis 20 % bis 2030</t>
         </is>
       </c>
       <c r="M51" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Reduction by 15–20% by 2030</t>
         </is>
       </c>
       <c r="N51" s="4" t="inlineStr">
@@ -4445,12 +4445,12 @@
       </c>
       <c r="L52" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Verringerung der Reisezeit mit öffentlichen Verkehrsmitteln</t>
         </is>
       </c>
       <c r="M52" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Reduction of travel time by public transport</t>
         </is>
       </c>
       <c r="N52" s="4" t="inlineStr">
@@ -4522,12 +4522,12 @@
       </c>
       <c r="L53" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Senkung auf 13 % bis 2030</t>
         </is>
       </c>
       <c r="M53" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Reduce to 13% by 2030</t>
         </is>
       </c>
       <c r="N53" s="4" t="inlineStr">
@@ -4599,12 +4599,12 @@
       </c>
       <c r="L54" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Steigerung auf 50 Millionen bis 2030</t>
         </is>
       </c>
       <c r="M54" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Increase to 50 million by 2030</t>
         </is>
       </c>
       <c r="N54" s="4" t="inlineStr">
@@ -4676,12 +4676,12 @@
       </c>
       <c r="L55" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Steigerung auf 34 % bis 2030</t>
         </is>
       </c>
       <c r="M55" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Increase to 34% by 2030</t>
         </is>
       </c>
       <c r="N55" s="4" t="inlineStr">
@@ -4753,12 +4753,12 @@
       </c>
       <c r="L56" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Kontinuierliche Reduzierung </t>
         </is>
       </c>
       <c r="M56" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Steady reduction</t>
         </is>
       </c>
       <c r="N56" s="4" t="inlineStr">
@@ -4830,12 +4830,12 @@
       </c>
       <c r="L57" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Kontinuierliche Reduzierung </t>
         </is>
       </c>
       <c r="M57" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Steady reduction</t>
         </is>
       </c>
       <c r="N57" s="4" t="inlineStr">
@@ -4907,12 +4907,12 @@
       </c>
       <c r="L58" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Kontinuierliche Reduzierung </t>
         </is>
       </c>
       <c r="M58" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Steady reduction</t>
         </is>
       </c>
       <c r="N58" s="4" t="inlineStr">
@@ -4984,12 +4984,12 @@
       </c>
       <c r="L59" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>5 000 Standorte bis 2030</t>
         </is>
       </c>
       <c r="M59" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>5,000 locations by 2030</t>
         </is>
       </c>
       <c r="N59" s="4" t="inlineStr">
@@ -5061,12 +5061,12 @@
       </c>
       <c r="L60" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Steigerung auf 95 % bis 2020</t>
         </is>
       </c>
       <c r="M60" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Increase to 95% by 2020</t>
         </is>
       </c>
       <c r="N60" s="4" t="inlineStr">
@@ -5138,12 +5138,12 @@
       </c>
       <c r="L61" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Signifikante Senkung</t>
         </is>
       </c>
       <c r="M61" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Significantly reduce</t>
         </is>
       </c>
       <c r="N61" s="4" t="inlineStr">
@@ -5215,12 +5215,12 @@
       </c>
       <c r="L62" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Minderung um 40 % bis 2020, 55 % bis 2030 und Treibhausgasneutralität bis 2050</t>
         </is>
       </c>
       <c r="M62" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Reduce by 40% by 2020, 55% by 2030 and greenhouse gas neutrality by 2050</t>
         </is>
       </c>
       <c r="N62" s="4" t="inlineStr">
@@ -5292,12 +5292,12 @@
       </c>
       <c r="L63" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Verdopplung bis 2020</t>
         </is>
       </c>
       <c r="M63" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Double by 2020</t>
         </is>
       </c>
       <c r="N63" s="4" t="inlineStr">
@@ -5369,12 +5369,12 @@
       </c>
       <c r="L64" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Gesamtstickstoff in Zuflüssen unter 2,6 mg/l</t>
         </is>
       </c>
       <c r="M64" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Total nitrogen in the inflows below 2.6 mg/l</t>
         </is>
       </c>
       <c r="N64" s="4" t="inlineStr">
@@ -5446,12 +5446,12 @@
       </c>
       <c r="L65" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Gesamtstickstoff in Zuflüssen unter 2,8 mg/l</t>
         </is>
       </c>
       <c r="M65" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Total nitrogen in the inflows below 2.8 mg/l</t>
         </is>
       </c>
       <c r="N65" s="4" t="inlineStr">
@@ -5523,12 +5523,12 @@
       </c>
       <c r="L66" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Außschließlich nachhaltig bewirtschaftete Fischbestände bis 2020</t>
         </is>
       </c>
       <c r="M66" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Only sustainably managed fish stocks by 2020</t>
         </is>
       </c>
       <c r="N66" s="4" t="inlineStr">
@@ -5600,12 +5600,12 @@
       </c>
       <c r="L67" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Erreichen des Indexwertes 100 bis 2030</t>
         </is>
       </c>
       <c r="M67" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Reach the index value of 100 by 2030</t>
         </is>
       </c>
       <c r="N67" s="4" t="inlineStr">
@@ -5677,12 +5677,12 @@
       </c>
       <c r="L68" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Verringerung um 35 % bis 2030</t>
         </is>
       </c>
       <c r="M68" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Reduction by 35% by 2030</t>
         </is>
       </c>
       <c r="N68" s="4" t="inlineStr">
@@ -5754,12 +5754,12 @@
       </c>
       <c r="L69" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Steigerung der Zahlungen bis 2030</t>
         </is>
       </c>
       <c r="M69" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Increase payments by 2030</t>
         </is>
       </c>
       <c r="N69" s="4" t="inlineStr">
@@ -5831,12 +5831,12 @@
       </c>
       <c r="L70" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Steigerung der Zahlungen bis 2030</t>
         </is>
       </c>
       <c r="M70" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Payments to be increased by 2030</t>
         </is>
       </c>
       <c r="N70" s="4" t="inlineStr">
@@ -5908,12 +5908,12 @@
       </c>
       <c r="L71" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Rückgang von Straftaten auf unter 6 500 je 100 000 Einwohner/ -innen bis 2030</t>
         </is>
       </c>
       <c r="M71" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Reduce criminal offences  to less than 6,500 per 100,000 inhabitants by 2030</t>
         </is>
       </c>
       <c r="N71" s="4" t="inlineStr">
@@ -5985,12 +5985,12 @@
       </c>
       <c r="L72" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Mindestens 15 Projekte pro Jahr bis 2030</t>
         </is>
       </c>
       <c r="M72" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>At least 15 projects per year by 2030</t>
         </is>
       </c>
       <c r="N72" s="4" t="inlineStr">
@@ -6062,12 +6062,12 @@
       </c>
       <c r="L73" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Verbesserung bis 2030</t>
         </is>
       </c>
       <c r="M73" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Improvement by 2030</t>
         </is>
       </c>
       <c r="N73" s="4" t="inlineStr">
@@ -6139,12 +6139,12 @@
       </c>
       <c r="L74" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Verbesserung bis 2030</t>
         </is>
       </c>
       <c r="M74" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Improvement by 2030</t>
         </is>
       </c>
       <c r="N74" s="4" t="inlineStr">
@@ -6216,12 +6216,12 @@
       </c>
       <c r="L75" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Steigerung auf 0,7 % bis 2030</t>
         </is>
       </c>
       <c r="M75" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Increase to 0.7% by 2030</t>
         </is>
       </c>
       <c r="N75" s="4" t="inlineStr">
@@ -6293,12 +6293,12 @@
       </c>
       <c r="L76" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Steigerung um 10 % von 2015 bis 2020, anschließend Verstetigung</t>
         </is>
       </c>
       <c r="M76" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Increase by 10% from 2015 to 2020, then stabilised</t>
         </is>
       </c>
       <c r="N76" s="4" t="inlineStr">
@@ -6370,12 +6370,12 @@
       </c>
       <c r="L77" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Steigerung um 100 % bis 2030</t>
         </is>
       </c>
       <c r="M77" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Increase by 100 % by 2030</t>
         </is>
       </c>
       <c r="N77" s="4" t="inlineStr">

--- a/Tab_5a_Indikatoren.xlsx
+++ b/Tab_5a_Indikatoren.xlsx
@@ -435,7 +435,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O77"/>
+  <dimension ref="A1:M77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -446,18 +446,16 @@
     <col customWidth="true" min="1" max="1" width="21.82421875"/>
     <col customWidth="true" min="2" max="2" width="18.1640625"/>
     <col customWidth="true" min="3" max="3" width="13.8359375"/>
-    <col customWidth="true" min="4" max="4" width="13.8359375"/>
-    <col customWidth="true" min="5" max="5" width="13.8359375"/>
-    <col customWidth="true" min="6" max="6" width="23.14453125"/>
-    <col customWidth="true" min="7" max="7" width="18.1640625"/>
-    <col customWidth="true" min="8" max="8" width="36.9140625"/>
-    <col customWidth="true" min="9" max="9" width="20.5078125"/>
-    <col customWidth="true" min="10" max="10" width="52.5859375"/>
-    <col customWidth="true" min="11" max="11" width="46.2890625"/>
-    <col customWidth="true" min="12" max="12" width="48.77734375"/>
-    <col customWidth="true" min="13" max="13" width="45.703125"/>
-    <col customWidth="true" min="14" max="14" width="59.47265625"/>
-    <col customWidth="true" min="15" max="15" width="52.29296875"/>
+    <col customWidth="true" min="4" max="4" width="23.14453125"/>
+    <col customWidth="true" min="5" max="5" width="18.1640625"/>
+    <col customWidth="true" min="6" max="6" width="36.9140625"/>
+    <col customWidth="true" min="7" max="7" width="20.5078125"/>
+    <col customWidth="true" min="8" max="8" width="52.5859375"/>
+    <col customWidth="true" min="9" max="9" width="46.2890625"/>
+    <col customWidth="true" min="10" max="10" width="48.77734375"/>
+    <col customWidth="true" min="11" max="11" width="45.703125"/>
+    <col customWidth="true" min="12" max="12" width="59.47265625"/>
+    <col customWidth="true" min="13" max="13" width="52.29296875"/>
   </cols>
   <sheetData>
     <row outlineLevel="0" r="1">
@@ -478,60 +476,50 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>Indikator sehr kurz De</t>
+          <t>Indikator kurz De</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
         <is>
-          <t>Indikator sehr kurz En</t>
+          <t>Indikator kurz En</t>
         </is>
       </c>
       <c r="F1" s="2" t="inlineStr">
         <is>
-          <t>Indikator kurz De</t>
+          <t>Indikator De</t>
         </is>
       </c>
       <c r="G1" s="2" t="inlineStr">
         <is>
-          <t>Indikator kurz En</t>
+          <t>Indikator En</t>
         </is>
       </c>
       <c r="H1" s="2" t="inlineStr">
         <is>
-          <t>Indikator De</t>
+          <t>Ziel De</t>
         </is>
       </c>
       <c r="I1" s="2" t="inlineStr">
         <is>
-          <t>Indikator En</t>
+          <t>Ziel En</t>
         </is>
       </c>
       <c r="J1" s="2" t="inlineStr">
         <is>
-          <t>Ziel De</t>
+          <t>Ziel kurz De</t>
         </is>
       </c>
       <c r="K1" s="2" t="inlineStr">
         <is>
-          <t>Ziel En</t>
+          <t>Ziel kurz En</t>
         </is>
       </c>
       <c r="L1" s="2" t="inlineStr">
         <is>
-          <t>Ziel kurz De</t>
+          <t>Bezeichnung für Plattform De</t>
         </is>
       </c>
       <c r="M1" s="2" t="inlineStr">
-        <is>
-          <t>Ziel kurz En</t>
-        </is>
-      </c>
-      <c r="N1" s="2" t="inlineStr">
-        <is>
-          <t>Bezeichnung für Plattform De</t>
-        </is>
-      </c>
-      <c r="O1" s="2" t="inlineStr">
         <is>
           <t>Bezeichnung für Plattform En</t>
         </is>
@@ -555,60 +543,50 @@
       </c>
       <c r="D2" s="4" t="inlineStr">
         <is>
-          <t>a)</t>
+          <t>a) Materielle Deprivation</t>
         </is>
       </c>
       <c r="E2" s="4" t="inlineStr">
         <is>
-          <t>a)</t>
+          <t>a) Material deprivation</t>
         </is>
       </c>
       <c r="F2" s="4" t="inlineStr">
         <is>
-          <t>a) Materielle Deprivation</t>
+          <t>Materielle Deprivation</t>
         </is>
       </c>
       <c r="G2" s="4" t="inlineStr">
         <is>
-          <t>a) Material deprivation</t>
+          <t>Material deprivation</t>
         </is>
       </c>
       <c r="H2" s="4" t="inlineStr">
         <is>
+          <t>Anteil der Personen, die materiell depriviert sind, bis 2030 deutlich unter EU-Wert halten</t>
+        </is>
+      </c>
+      <c r="I2" s="4" t="inlineStr">
+        <is>
+          <t>Keep the proportion of persons who are materially deprived considerably below the EU-level by 2030</t>
+        </is>
+      </c>
+      <c r="J2" s="4" t="inlineStr">
+        <is>
+          <t>Anteil bis 2030 unter EU-Wert halten</t>
+        </is>
+      </c>
+      <c r="K2" s="4" t="inlineStr">
+        <is>
+          <t>Keep the proportion below the EU-level by 2030</t>
+        </is>
+      </c>
+      <c r="L2" s="4" t="inlineStr">
+        <is>
           <t>Materielle Deprivation</t>
         </is>
       </c>
-      <c r="I2" s="4" t="inlineStr">
-        <is>
-          <t>Material deprivation</t>
-        </is>
-      </c>
-      <c r="J2" s="4" t="inlineStr">
-        <is>
-          <t>Anteil der Personen, die materiell depriviert sind, bis 2030 deutlich unter EU-Wert halten</t>
-        </is>
-      </c>
-      <c r="K2" s="4" t="inlineStr">
-        <is>
-          <t>Keep the proportion of persons who are materially deprived considerably below the EU-level by 2030</t>
-        </is>
-      </c>
-      <c r="L2" s="4" t="inlineStr">
-        <is>
-          <t>Anteil bis 2030 deutlich unter EU-Wert halten</t>
-        </is>
-      </c>
       <c r="M2" s="4" t="inlineStr">
-        <is>
-          <t>Keep the proportion considerably below the EU-level by 2030</t>
-        </is>
-      </c>
-      <c r="N2" s="4" t="inlineStr">
-        <is>
-          <t>Materielle Deprivation</t>
-        </is>
-      </c>
-      <c r="O2" s="4" t="inlineStr">
         <is>
           <t>Material deprivation</t>
         </is>
@@ -632,60 +610,50 @@
       </c>
       <c r="D3" s="4" t="inlineStr">
         <is>
-          <t>b)</t>
+          <t>b) Erhebliche materielle Deprivation</t>
         </is>
       </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
-          <t>b)</t>
+          <t>b) Severe material deprivation</t>
         </is>
       </c>
       <c r="F3" s="4" t="inlineStr">
         <is>
-          <t>b) Erhebliche materielle Deprivation</t>
+          <t>Erhebliche materielle Deprivation</t>
         </is>
       </c>
       <c r="G3" s="4" t="inlineStr">
         <is>
-          <t>b) Severe material deprivation</t>
+          <t>Severe material deprivation</t>
         </is>
       </c>
       <c r="H3" s="4" t="inlineStr">
         <is>
+          <t>Anteil der Personen, die erheblich materiell depriviert sind, bis 2030 deutlich unter EU-Wert halten</t>
+        </is>
+      </c>
+      <c r="I3" s="4" t="inlineStr">
+        <is>
+          <t>Keep the proportion of persons who are severely materially deprived considerably below the EU level by 2030</t>
+        </is>
+      </c>
+      <c r="J3" s="4" t="inlineStr">
+        <is>
+          <t>Anteil bis 2030 unter EU-Wert halten</t>
+        </is>
+      </c>
+      <c r="K3" s="4" t="inlineStr">
+        <is>
+          <t>Keep the proportion below the EU-level by 2030</t>
+        </is>
+      </c>
+      <c r="L3" s="4" t="inlineStr">
+        <is>
           <t>Erhebliche materielle Deprivation</t>
         </is>
       </c>
-      <c r="I3" s="4" t="inlineStr">
-        <is>
-          <t>Severe material deprivation</t>
-        </is>
-      </c>
-      <c r="J3" s="4" t="inlineStr">
-        <is>
-          <t>Anteil der Personen, die erheblich materiell depriviert sind, bis 2030 deutlich unter EU-Wert halten</t>
-        </is>
-      </c>
-      <c r="K3" s="4" t="inlineStr">
-        <is>
-          <t>Keep the proportion of persons who are severely materially deprived considerably below the EU level by 2030</t>
-        </is>
-      </c>
-      <c r="L3" s="4" t="inlineStr">
-        <is>
-          <t>Anteil bis 2030 deutlich unter EU-Wert halten</t>
-        </is>
-      </c>
       <c r="M3" s="4" t="inlineStr">
-        <is>
-          <t>Keep the proportion considerably below the EU-level by 2030</t>
-        </is>
-      </c>
-      <c r="N3" s="4" t="inlineStr">
-        <is>
-          <t>Erhebliche materielle Deprivation</t>
-        </is>
-      </c>
-      <c r="O3" s="4" t="inlineStr">
         <is>
           <t>Severe material deprivation</t>
         </is>
@@ -719,50 +687,40 @@
       </c>
       <c r="F4" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Stickstoffüberschuss der Landwirtschaft</t>
         </is>
       </c>
       <c r="G4" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Nitrogen surplus in agriculture</t>
         </is>
       </c>
       <c r="H4" s="4" t="inlineStr">
         <is>
+          <t>Verringerung der Stickstoffüberschüsse der Gesamtbilanz für Deutschland auf 70 Kilogramm je Hektar landwirtschaftlich genutzter Fläche im Jahresmittel 2028-2032</t>
+        </is>
+      </c>
+      <c r="I4" s="4" t="inlineStr">
+        <is>
+          <t>Reduction of the nitrogen surpluses of the overall balance for Germany to 70 kilo-grams per hectare of utilised agricultural area on an annual average between 2028 and 2032</t>
+        </is>
+      </c>
+      <c r="J4" s="4" t="inlineStr">
+        <is>
+          <t>Verringerung der Stickstoffüberschüsse auf 70 kg/ha im Jahresmittel 2028-2032</t>
+        </is>
+      </c>
+      <c r="K4" s="4" t="inlineStr">
+        <is>
+          <t>Reduction of the nitrogen surpluses to 70 kg/ha on an annual average between 2028 and 2032</t>
+        </is>
+      </c>
+      <c r="L4" s="4" t="inlineStr">
+        <is>
           <t>Stickstoffüberschuss der Landwirtschaft</t>
         </is>
       </c>
-      <c r="I4" s="4" t="inlineStr">
-        <is>
-          <t>Nitrogen surplus in agriculture</t>
-        </is>
-      </c>
-      <c r="J4" s="4" t="inlineStr">
-        <is>
-          <t>Verringerung der Stickstoffüberschüsse der Gesamtbilanz für Deutschland auf 70 Kilogramm je Hektar landwirtschaftlich genutzter Fläche im Jahresmittel 2028-2032</t>
-        </is>
-      </c>
-      <c r="K4" s="4" t="inlineStr">
-        <is>
-          <t>Reduction of the nitrogen surpluses of the overall balance for Germany to 70 kilo-grams per hectare of utilised agricultural area on an annual average between 2028 and 2032</t>
-        </is>
-      </c>
-      <c r="L4" s="4" t="inlineStr">
-        <is>
-          <t>Verringerung der Stickstoffüberschüsse auf 70 kg/ha im Jahresmittel 2028-2032</t>
-        </is>
-      </c>
       <c r="M4" s="4" t="inlineStr">
-        <is>
-          <t>Reduction of the nitrogen surpluses to 70 kg/ha on an annual average between 2028 and 2032</t>
-        </is>
-      </c>
-      <c r="N4" s="4" t="inlineStr">
-        <is>
-          <t>Stickstoffüberschuss der Landwirtschaft</t>
-        </is>
-      </c>
-      <c r="O4" s="4" t="inlineStr">
         <is>
           <t>Nitrogen surplus in agriculture</t>
         </is>
@@ -796,50 +754,40 @@
       </c>
       <c r="F5" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Ökologischer Landbau</t>
         </is>
       </c>
       <c r="G5" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Organic farming</t>
         </is>
       </c>
       <c r="H5" s="4" t="inlineStr">
         <is>
+          <t>Erhöhung des Anteils des ökologischen Landbaus an der landwirtschaftlich genutzten Fläche auf 20 % bis 2030</t>
+        </is>
+      </c>
+      <c r="I5" s="4" t="inlineStr">
+        <is>
+          <t>Increase the proportion of organically farmed agricultural land to 20% by 2030</t>
+        </is>
+      </c>
+      <c r="J5" s="4" t="inlineStr">
+        <is>
+          <t>Erhöhung des Anteils von ökologischem Landbau auf 20 % bis 2030</t>
+        </is>
+      </c>
+      <c r="K5" s="4" t="inlineStr">
+        <is>
+          <t>Increase the proportion of organically farmed agricultural land to 20% by 2030</t>
+        </is>
+      </c>
+      <c r="L5" s="4" t="inlineStr">
+        <is>
           <t>Ökologischer Landbau</t>
         </is>
       </c>
-      <c r="I5" s="4" t="inlineStr">
-        <is>
-          <t>Organic farming</t>
-        </is>
-      </c>
-      <c r="J5" s="4" t="inlineStr">
-        <is>
-          <t>Erhöhung des Anteils des ökologischen Landbaus an der landwirtschaftlich genutzten Fläche auf 20 % bis 2030</t>
-        </is>
-      </c>
-      <c r="K5" s="4" t="inlineStr">
-        <is>
-          <t>Increase the proportion of organically farmed agricultural land to 20% by 2030</t>
-        </is>
-      </c>
-      <c r="L5" s="4" t="inlineStr">
-        <is>
-          <t>Erhöhung des Anteils von ökologischeM Landbau auf 20 % bis 2030</t>
-        </is>
-      </c>
       <c r="M5" s="4" t="inlineStr">
-        <is>
-          <t>Increase the proportion of organically farmed agricultural land to 20% by 2030</t>
-        </is>
-      </c>
-      <c r="N5" s="4" t="inlineStr">
-        <is>
-          <t>Ökologischer Landbau</t>
-        </is>
-      </c>
-      <c r="O5" s="4" t="inlineStr">
         <is>
           <t>Organic farming</t>
         </is>
@@ -873,50 +821,40 @@
       </c>
       <c r="F6" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Unterstützung guter Regierungsführung bei der Erreichung einer angemessenen Ernährung weltweit</t>
         </is>
       </c>
       <c r="G6" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Support for good governance in attaining appropriate nutrition world-wide</t>
         </is>
       </c>
       <c r="H6" s="4" t="inlineStr">
         <is>
+          <t>Angemessene Steigerung des Anteils der ausgezahlten Mittel für die Anwendung von Leitlinien und Empfehlungen des VN-Welternährungsausschusses (CFS) an den Gesamtausgaben für Ernährungssicherung in % bis 2030</t>
+        </is>
+      </c>
+      <c r="I6" s="4" t="inlineStr">
+        <is>
+          <t>Funds disbursed for the application of the guidelines and recommendations of the UN Committee on World Food Security (CFS) to be increased appropriately as a percentage of total spending on food security by 2030</t>
+        </is>
+      </c>
+      <c r="J6" s="4" t="inlineStr">
+        <is>
+          <t>Angemessene Steigerung des Anteils bis 2030</t>
+        </is>
+      </c>
+      <c r="K6" s="4" t="inlineStr">
+        <is>
+          <t>Funds disbursed for the application of the guidelines and recommendations of the UN Committee on World Food Security (CFS) to be increased appropriately by 2030</t>
+        </is>
+      </c>
+      <c r="L6" s="4" t="inlineStr">
+        <is>
           <t>Unterstützung guter Regierungsführung bei der Erreichung einer angemessenen Ernährung weltweit</t>
         </is>
       </c>
-      <c r="I6" s="4" t="inlineStr">
-        <is>
-          <t>Support for good governance in attaining appropriate nutrition world-wide</t>
-        </is>
-      </c>
-      <c r="J6" s="4" t="inlineStr">
-        <is>
-          <t>Angemessene Steigerung des Anteils der ausgezahlten Mittel für die Anwendung von Leitlinien und Empfehlungen des VN-Welternährungsausschusses (CFS) an den Gesamtausgaben für Ernährungssicherung in % bis 2030</t>
-        </is>
-      </c>
-      <c r="K6" s="4" t="inlineStr">
-        <is>
-          <t>Funds disbursed for the application of the guidelines and recommendations of the UN Committee on World Food Security (CFS) to be increased appropriately as a percentage of total spending on food security by 2030</t>
-        </is>
-      </c>
-      <c r="L6" s="4" t="inlineStr">
-        <is>
-          <t>Angemessene Steigerung des Anteils bis 2030</t>
-        </is>
-      </c>
       <c r="M6" s="4" t="inlineStr">
-        <is>
-          <t>Funds disbursed for the application of the guidelines and recommendations of the UN Committee on World Food Security (CFS) to be increased appropriately by 2030</t>
-        </is>
-      </c>
-      <c r="N6" s="4" t="inlineStr">
-        <is>
-          <t>Unterstützung guter Regierungsführung bei der Erreichung einer angemessenen Ernährung weltweit</t>
-        </is>
-      </c>
-      <c r="O6" s="4" t="inlineStr">
         <is>
           <t>Support for good governance in attaining appropriate nutrition world-wide</t>
         </is>
@@ -940,60 +878,50 @@
       </c>
       <c r="D7" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>a) Frauen</t>
         </is>
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>a) Women</t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr">
         <is>
-          <t>a) Frauen</t>
+          <t>Vorzeitige Sterblichkeit (Frauen)</t>
         </is>
       </c>
       <c r="G7" s="4" t="inlineStr">
         <is>
-          <t>a) Women</t>
+          <t>Premature mortality (women)</t>
         </is>
       </c>
       <c r="H7" s="4" t="inlineStr">
         <is>
+          <t>Senkung auf 100 Todesfälle je 100 000 Einwohner (Frauen) bis 2030</t>
+        </is>
+      </c>
+      <c r="I7" s="4" t="inlineStr">
+        <is>
+          <t>To be reduced to 100 deaths per 100,000 inhabitants (women) by 2030</t>
+        </is>
+      </c>
+      <c r="J7" s="4" t="inlineStr">
+        <is>
+          <t>Senkung auf 100 Todesfälle je 100 000 Einwohnerinnen bis 2030</t>
+        </is>
+      </c>
+      <c r="K7" s="4" t="inlineStr">
+        <is>
+          <t>To be reduced to 100 deaths per 100,000 inhabitants by 2030</t>
+        </is>
+      </c>
+      <c r="L7" s="4" t="inlineStr">
+        <is>
           <t>Vorzeitige Sterblichkeit (Frauen)</t>
         </is>
       </c>
-      <c r="I7" s="4" t="inlineStr">
-        <is>
-          <t>Premature mortality (women)</t>
-        </is>
-      </c>
-      <c r="J7" s="4" t="inlineStr">
-        <is>
-          <t>Senkung auf 100 Todesfälle je 100 000 Einwohner (Frauen) bis 2030</t>
-        </is>
-      </c>
-      <c r="K7" s="4" t="inlineStr">
-        <is>
-          <t>To be reduced to 100 deaths per 100,000 inhabitants (women) by 2030</t>
-        </is>
-      </c>
-      <c r="L7" s="4" t="inlineStr">
-        <is>
-          <t>Senkung auf 100 Todesfälle je 100 000 Einwohnerinnen bis 2030</t>
-        </is>
-      </c>
       <c r="M7" s="4" t="inlineStr">
-        <is>
-          <t>To be reduced to 100 deaths per 100,000 inhabitants by 2030</t>
-        </is>
-      </c>
-      <c r="N7" s="4" t="inlineStr">
-        <is>
-          <t>Vorzeitige Sterblichkeit (Frauen)</t>
-        </is>
-      </c>
-      <c r="O7" s="4" t="inlineStr">
         <is>
           <t>Premature mortality (women)</t>
         </is>
@@ -1017,60 +945,50 @@
       </c>
       <c r="D8" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>b) Männer</t>
         </is>
       </c>
       <c r="E8" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>b) Men</t>
         </is>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
-          <t>b) Männer</t>
+          <t>Vorzeitige Sterblichkeit (Männer)</t>
         </is>
       </c>
       <c r="G8" s="4" t="inlineStr">
         <is>
-          <t>b) Men</t>
+          <t>Premature mortality (men)</t>
         </is>
       </c>
       <c r="H8" s="4" t="inlineStr">
         <is>
+          <t>Senkung auf 190 Todesfälle je 100 000 Einwohner (Männer) bis 2030</t>
+        </is>
+      </c>
+      <c r="I8" s="4" t="inlineStr">
+        <is>
+          <t>To be reduced to 190 deaths per 100,000 inhabitants (men) by 2030</t>
+        </is>
+      </c>
+      <c r="J8" s="4" t="inlineStr">
+        <is>
+          <t>Senkung auf 190 Todesfälle je 100 000 Einwohner bis 2030</t>
+        </is>
+      </c>
+      <c r="K8" s="4" t="inlineStr">
+        <is>
+          <t>To be reduced to 190 deaths per 100,000 inhabitants by 2030</t>
+        </is>
+      </c>
+      <c r="L8" s="4" t="inlineStr">
+        <is>
           <t>Vorzeitige Sterblichkeit (Männer)</t>
         </is>
       </c>
-      <c r="I8" s="4" t="inlineStr">
-        <is>
-          <t>Premature mortality (men)</t>
-        </is>
-      </c>
-      <c r="J8" s="4" t="inlineStr">
-        <is>
-          <t>Senkung auf 190 Todesfälle je 100 000 Einwohner (Männer) bis 2030</t>
-        </is>
-      </c>
-      <c r="K8" s="4" t="inlineStr">
-        <is>
-          <t>To be reduced to 190 deaths per 100,000 inhabitants (men) by 2030</t>
-        </is>
-      </c>
-      <c r="L8" s="4" t="inlineStr">
-        <is>
-          <t>Senkung auf 190 Todesfälle je 100 000 Einwohner bis 2030</t>
-        </is>
-      </c>
       <c r="M8" s="4" t="inlineStr">
-        <is>
-          <t>To be reduced to 190 deaths per 100,000 inhabitants by 2030</t>
-        </is>
-      </c>
-      <c r="N8" s="4" t="inlineStr">
-        <is>
-          <t>Vorzeitige Sterblichkeit (Männer)</t>
-        </is>
-      </c>
-      <c r="O8" s="4" t="inlineStr">
         <is>
           <t>Premature mortality (men)</t>
         </is>
@@ -1094,60 +1012,50 @@
       </c>
       <c r="D9" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>c) Jugendliche</t>
         </is>
       </c>
       <c r="E9" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>c) Adolescents</t>
         </is>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
-          <t>c) Jugendliche</t>
+          <t>Raucherquote von Jugendlichen</t>
         </is>
       </c>
       <c r="G9" s="4" t="inlineStr">
         <is>
-          <t>c) Adolescents</t>
+          <t>Smoking rate among adolescents</t>
         </is>
       </c>
       <c r="H9" s="4" t="inlineStr">
         <is>
+          <t>Senkung auf 7 % bis 2030</t>
+        </is>
+      </c>
+      <c r="I9" s="4" t="inlineStr">
+        <is>
+          <t>Reduction to 7% by 2030</t>
+        </is>
+      </c>
+      <c r="J9" s="4" t="inlineStr">
+        <is>
+          <t>Senkung auf 7 % bis 2030</t>
+        </is>
+      </c>
+      <c r="K9" s="4" t="inlineStr">
+        <is>
+          <t>Reduction to 7% by 2030</t>
+        </is>
+      </c>
+      <c r="L9" s="4" t="inlineStr">
+        <is>
           <t>Raucherquote von Jugendlichen</t>
         </is>
       </c>
-      <c r="I9" s="4" t="inlineStr">
-        <is>
-          <t>Smoking rate among adolescents</t>
-        </is>
-      </c>
-      <c r="J9" s="4" t="inlineStr">
-        <is>
-          <t>Senkung auf 7 % bis 2030</t>
-        </is>
-      </c>
-      <c r="K9" s="4" t="inlineStr">
-        <is>
-          <t>Reduction to 7% by 2030</t>
-        </is>
-      </c>
-      <c r="L9" s="4" t="inlineStr">
-        <is>
-          <t>Senkung auf 7 % bis 2030</t>
-        </is>
-      </c>
       <c r="M9" s="4" t="inlineStr">
-        <is>
-          <t>Reduction to 7% by 2030</t>
-        </is>
-      </c>
-      <c r="N9" s="4" t="inlineStr">
-        <is>
-          <t>Raucherquote von Jugendlichen</t>
-        </is>
-      </c>
-      <c r="O9" s="4" t="inlineStr">
         <is>
           <t>Smoking rate among adolescents</t>
         </is>
@@ -1171,60 +1079,50 @@
       </c>
       <c r="D10" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>d) Erwachsene</t>
         </is>
       </c>
       <c r="E10" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>d) Adults</t>
         </is>
       </c>
       <c r="F10" s="4" t="inlineStr">
         <is>
-          <t>d) Erwachsene</t>
+          <t>Raucherquote von Erwachsenen</t>
         </is>
       </c>
       <c r="G10" s="4" t="inlineStr">
         <is>
-          <t>d) Adults</t>
+          <t>Smoking rate among adults</t>
         </is>
       </c>
       <c r="H10" s="4" t="inlineStr">
         <is>
+          <t>Senkung auf 19 % bis 2030</t>
+        </is>
+      </c>
+      <c r="I10" s="4" t="inlineStr">
+        <is>
+          <t>Reduction to 19% by 2030</t>
+        </is>
+      </c>
+      <c r="J10" s="4" t="inlineStr">
+        <is>
+          <t>Senkung auf 19 % bis 2030</t>
+        </is>
+      </c>
+      <c r="K10" s="4" t="inlineStr">
+        <is>
+          <t>Reduction to 19% by 2030</t>
+        </is>
+      </c>
+      <c r="L10" s="4" t="inlineStr">
+        <is>
           <t>Raucherquote von Erwachsenen</t>
         </is>
       </c>
-      <c r="I10" s="4" t="inlineStr">
-        <is>
-          <t>Smoking rate among adults</t>
-        </is>
-      </c>
-      <c r="J10" s="4" t="inlineStr">
-        <is>
-          <t>Senkung auf 19 % bis 2030</t>
-        </is>
-      </c>
-      <c r="K10" s="4" t="inlineStr">
-        <is>
-          <t>Reduction to 19% by 2030</t>
-        </is>
-      </c>
-      <c r="L10" s="4" t="inlineStr">
-        <is>
-          <t>Senkung auf 19 % bis 2030</t>
-        </is>
-      </c>
       <c r="M10" s="4" t="inlineStr">
-        <is>
-          <t>Reduction to 19% by 2030</t>
-        </is>
-      </c>
-      <c r="N10" s="4" t="inlineStr">
-        <is>
-          <t>Raucherquote von Erwachsenen</t>
-        </is>
-      </c>
-      <c r="O10" s="4" t="inlineStr">
         <is>
           <t>Smoking rate among adults</t>
         </is>
@@ -1258,50 +1156,40 @@
       </c>
       <c r="F11" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Adipositasquote von Kindern und Jugendlichen</t>
         </is>
       </c>
       <c r="G11" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Obesity rate among children and adolescents</t>
         </is>
       </c>
       <c r="H11" s="4" t="inlineStr">
         <is>
+          <t>Anstieg dauerhaft stoppen</t>
+        </is>
+      </c>
+      <c r="I11" s="4" t="inlineStr">
+        <is>
+          <t>Increase to be permanently halted</t>
+        </is>
+      </c>
+      <c r="J11" s="4" t="inlineStr">
+        <is>
+          <t>Anstieg dauerhaft stoppen</t>
+        </is>
+      </c>
+      <c r="K11" s="4" t="inlineStr">
+        <is>
+          <t>Increase to be permanently halted</t>
+        </is>
+      </c>
+      <c r="L11" s="4" t="inlineStr">
+        <is>
           <t>Adipositasquote von Kindern und Jugendlichen</t>
         </is>
       </c>
-      <c r="I11" s="4" t="inlineStr">
-        <is>
-          <t>Obesity rate among children and adolescents</t>
-        </is>
-      </c>
-      <c r="J11" s="4" t="inlineStr">
-        <is>
-          <t>Anstieg dauerhaft stoppen</t>
-        </is>
-      </c>
-      <c r="K11" s="4" t="inlineStr">
-        <is>
-          <t>Increase to be permanently halted</t>
-        </is>
-      </c>
-      <c r="L11" s="4" t="inlineStr">
-        <is>
-          <t>Anstieg dauerhaft stoppen</t>
-        </is>
-      </c>
       <c r="M11" s="4" t="inlineStr">
-        <is>
-          <t>Increase to be permanently halted</t>
-        </is>
-      </c>
-      <c r="N11" s="4" t="inlineStr">
-        <is>
-          <t>Adipositasquote von Kindern und Jugendlichen</t>
-        </is>
-      </c>
-      <c r="O11" s="4" t="inlineStr">
         <is>
           <t>Obesity rate among children and adolescents</t>
         </is>
@@ -1335,50 +1223,40 @@
       </c>
       <c r="F12" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Adipositasquote von Erwachsenen</t>
         </is>
       </c>
       <c r="G12" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Obesity rate among adults</t>
         </is>
       </c>
       <c r="H12" s="4" t="inlineStr">
         <is>
+          <t>Anstieg dauerhaft stoppen</t>
+        </is>
+      </c>
+      <c r="I12" s="4" t="inlineStr">
+        <is>
+          <t>Increase to be permanently halted</t>
+        </is>
+      </c>
+      <c r="J12" s="4" t="inlineStr">
+        <is>
+          <t>Anstieg dauerhaft stoppen</t>
+        </is>
+      </c>
+      <c r="K12" s="4" t="inlineStr">
+        <is>
+          <t>Increase to be permanently halted</t>
+        </is>
+      </c>
+      <c r="L12" s="4" t="inlineStr">
+        <is>
           <t>Adipositasquote von Erwachsenen</t>
         </is>
       </c>
-      <c r="I12" s="4" t="inlineStr">
-        <is>
-          <t>Obesity rate among adults</t>
-        </is>
-      </c>
-      <c r="J12" s="4" t="inlineStr">
-        <is>
-          <t>Anstieg dauerhaft stoppen</t>
-        </is>
-      </c>
-      <c r="K12" s="4" t="inlineStr">
-        <is>
-          <t>Increase to be permanently halted</t>
-        </is>
-      </c>
-      <c r="L12" s="4" t="inlineStr">
-        <is>
-          <t>Anstieg dauerhaft stoppen</t>
-        </is>
-      </c>
       <c r="M12" s="4" t="inlineStr">
-        <is>
-          <t>Increase to be permanently halted</t>
-        </is>
-      </c>
-      <c r="N12" s="4" t="inlineStr">
-        <is>
-          <t>Adipositasquote von Erwachsenen</t>
-        </is>
-      </c>
-      <c r="O12" s="4" t="inlineStr">
         <is>
           <t>Obesity rate among adults</t>
         </is>
@@ -1412,50 +1290,40 @@
       </c>
       <c r="F13" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Emissionen von Luftschadstoffen</t>
         </is>
       </c>
       <c r="G13" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Emissions of air pollutants</t>
         </is>
       </c>
       <c r="H13" s="4" t="inlineStr">
         <is>
+          <t>Reduktion der Emissionen des Jahres 2005 auf 55 % (ungewichtetes Mittel der fünf Schadstoffe) bis 2030</t>
+        </is>
+      </c>
+      <c r="I13" s="4" t="inlineStr">
+        <is>
+          <t>Reduction of emissions to 55% of 2005 level (unweighted average of the five pollutants) by 2030</t>
+        </is>
+      </c>
+      <c r="J13" s="4" t="inlineStr">
+        <is>
+          <t>Reduktion auf 55 % bis 2030</t>
+        </is>
+      </c>
+      <c r="K13" s="4" t="inlineStr">
+        <is>
+          <t>Reduction to 55% by 2030</t>
+        </is>
+      </c>
+      <c r="L13" s="4" t="inlineStr">
+        <is>
           <t>Emissionen von Luftschadstoffen</t>
         </is>
       </c>
-      <c r="I13" s="4" t="inlineStr">
-        <is>
-          <t>Emissions of air pollutants</t>
-        </is>
-      </c>
-      <c r="J13" s="4" t="inlineStr">
-        <is>
-          <t>Reduktion der Emissionen des Jahres 2005 auf 55 % (ungewichtetes Mittel der fünf Schadstoffe) bis 2030</t>
-        </is>
-      </c>
-      <c r="K13" s="4" t="inlineStr">
-        <is>
-          <t>Reduction of emissions to 55% of 2005 level (unweighted average of the five pollutants) by 2030</t>
-        </is>
-      </c>
-      <c r="L13" s="4" t="inlineStr">
-        <is>
-          <t>Reduktion auf 55 % bis 2030</t>
-        </is>
-      </c>
       <c r="M13" s="4" t="inlineStr">
-        <is>
-          <t>Reduction to 55% by 2030</t>
-        </is>
-      </c>
-      <c r="N13" s="4" t="inlineStr">
-        <is>
-          <t>Emissionen von Luftschadstoffen</t>
-        </is>
-      </c>
-      <c r="O13" s="4" t="inlineStr">
         <is>
           <t>Emissions of air pollutants</t>
         </is>
@@ -1489,50 +1357,40 @@
       </c>
       <c r="F14" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Anteil der Bevölkerung mit erhöhter PM10-Feinstaubexposition</t>
         </is>
       </c>
       <c r="G14" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Share of the population with excessive exposure to PM10</t>
         </is>
       </c>
       <c r="H14" s="4" t="inlineStr">
         <is>
+          <t>Erreichung des Feinstaub- WHO-Richtwerts von 20 Mikrogramm/Kubikmeter für PM10 im Jahresmittel möglichst flächendeckend bis 2030</t>
+        </is>
+      </c>
+      <c r="I14" s="4" t="inlineStr">
+        <is>
+          <t>WHO particulate matter guideline value of 20 micrograms/cubic metre for PM10 to be adhered to as widely as possible by 2030</t>
+        </is>
+      </c>
+      <c r="J14" s="4" t="inlineStr">
+        <is>
+          <t>Erreichung des Feinstaub-Richtwerts von 20 µg/m³ bis 2030</t>
+        </is>
+      </c>
+      <c r="K14" s="4" t="inlineStr">
+        <is>
+          <t>Adherence to the particulate matter guideline value by 2030</t>
+        </is>
+      </c>
+      <c r="L14" s="4" t="inlineStr">
+        <is>
           <t>Anteil der Bevölkerung mit erhöhter PM10-Feinstaubexposition</t>
         </is>
       </c>
-      <c r="I14" s="4" t="inlineStr">
-        <is>
-          <t>Share of the population with excessive exposure to PM10</t>
-        </is>
-      </c>
-      <c r="J14" s="4" t="inlineStr">
-        <is>
-          <t>Erreichung des Feinstaub- WHO-Richtwerts von 20 Mikrogramm/Kubikmeter für PM10 im Jahresmittel möglichst flächendeckend bis 2030</t>
-        </is>
-      </c>
-      <c r="K14" s="4" t="inlineStr">
-        <is>
-          <t>WHO particulate matter guideline value of 20 micrograms/cubic metre for PM10 to be adhered to as widely as possible by 2030</t>
-        </is>
-      </c>
-      <c r="L14" s="4" t="inlineStr">
-        <is>
-          <t>Erreichung des Feinstaub-Richtwerts von 20 µg/m³ bis 2030</t>
-        </is>
-      </c>
       <c r="M14" s="4" t="inlineStr">
-        <is>
-          <t>Adherence to the particulate matter guideline value by 2030</t>
-        </is>
-      </c>
-      <c r="N14" s="4" t="inlineStr">
-        <is>
-          <t>Anteil der Bevölkerung mit erhöhter PM10-Feinstaubexposition</t>
-        </is>
-      </c>
-      <c r="O14" s="4" t="inlineStr">
         <is>
           <t>Share of the population with excessive exposure to PM10</t>
         </is>
@@ -1566,50 +1424,40 @@
       </c>
       <c r="F15" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Beitrag Deutschlands zur globalen Pandemieprävention und -reaktion</t>
         </is>
       </c>
       <c r="G15" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Germany’s contribution to global pandemic prevention and response</t>
         </is>
       </c>
       <c r="H15" s="4" t="inlineStr">
         <is>
+          <t>Steigerung der Ausgaben bis 2030</t>
+        </is>
+      </c>
+      <c r="I15" s="4" t="inlineStr">
+        <is>
+          <t>Expenditure to be increased by 2030</t>
+        </is>
+      </c>
+      <c r="J15" s="4" t="inlineStr">
+        <is>
+          <t>Steigerung der Ausgaben bis 2030</t>
+        </is>
+      </c>
+      <c r="K15" s="4" t="inlineStr">
+        <is>
+          <t>Expenditure to be increased by 2030</t>
+        </is>
+      </c>
+      <c r="L15" s="4" t="inlineStr">
+        <is>
           <t>Beitrag Deutschlands zur globalen Pandemieprävention und -reaktion</t>
         </is>
       </c>
-      <c r="I15" s="4" t="inlineStr">
-        <is>
-          <t>Germany’s contribution to global pandemic prevention and response</t>
-        </is>
-      </c>
-      <c r="J15" s="4" t="inlineStr">
-        <is>
-          <t>Steigerung der Ausgaben bis 2030</t>
-        </is>
-      </c>
-      <c r="K15" s="4" t="inlineStr">
-        <is>
-          <t>Expenditure to be increased by 2030</t>
-        </is>
-      </c>
-      <c r="L15" s="4" t="inlineStr">
-        <is>
-          <t>Steigerung der Ausgaben bis 2030</t>
-        </is>
-      </c>
       <c r="M15" s="4" t="inlineStr">
-        <is>
-          <t>Expenditure to be increased by 2030</t>
-        </is>
-      </c>
-      <c r="N15" s="4" t="inlineStr">
-        <is>
-          <t>Beitrag Deutschlands zur globalen Pandemieprävention und -reaktion</t>
-        </is>
-      </c>
-      <c r="O15" s="4" t="inlineStr">
         <is>
           <t>Germany’s contribution to global pandemic prevention and response</t>
         </is>
@@ -1643,50 +1491,40 @@
       </c>
       <c r="F16" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Frühe Schulabgängerinnen und Schulabgänger</t>
         </is>
       </c>
       <c r="G16" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Early school leavers</t>
         </is>
       </c>
       <c r="H16" s="4" t="inlineStr">
         <is>
+          <t>Verringerung des Anteils auf 9,5 % bis 2030</t>
+        </is>
+      </c>
+      <c r="I16" s="4" t="inlineStr">
+        <is>
+          <t>Reduce the proportion to 9.5% by 2030</t>
+        </is>
+      </c>
+      <c r="J16" s="4" t="inlineStr">
+        <is>
+          <t>Verringerung des Anteils auf 9,5 % bis 2030</t>
+        </is>
+      </c>
+      <c r="K16" s="4" t="inlineStr">
+        <is>
+          <t>Reduce the proportion to 9.5% by 2030</t>
+        </is>
+      </c>
+      <c r="L16" s="4" t="inlineStr">
+        <is>
           <t>Frühe Schulabgängerinnen und Schulabgänger</t>
         </is>
       </c>
-      <c r="I16" s="4" t="inlineStr">
-        <is>
-          <t>Early school leavers</t>
-        </is>
-      </c>
-      <c r="J16" s="4" t="inlineStr">
-        <is>
-          <t>Verringerung des Anteils auf 9,5 % bis 2030</t>
-        </is>
-      </c>
-      <c r="K16" s="4" t="inlineStr">
-        <is>
-          <t>Reduce the proportion to 9.5% by 2030</t>
-        </is>
-      </c>
-      <c r="L16" s="4" t="inlineStr">
-        <is>
-          <t>Verringerung des Anteils auf 9,5 % bis 2030</t>
-        </is>
-      </c>
       <c r="M16" s="4" t="inlineStr">
-        <is>
-          <t>Reduce the proportion to 9.5% by 2030</t>
-        </is>
-      </c>
-      <c r="N16" s="4" t="inlineStr">
-        <is>
-          <t>Frühe Schulabgängerinnen und Schulabgänger</t>
-        </is>
-      </c>
-      <c r="O16" s="4" t="inlineStr">
         <is>
           <t>Early school leavers</t>
         </is>
@@ -1720,50 +1558,40 @@
       </c>
       <c r="F17" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Akademisch Qualifizierte und beruflich Höherqualifizierte (30- bis 34-Jährige mit tertiärem oder post-sekundarem nichttertiärem Abschluss)</t>
         </is>
       </c>
       <c r="G17" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Persons with an academic or higher vocational qualification (30 to 34-year-olds with a tertiary or post-secondary non-tertiary level of education)</t>
         </is>
       </c>
       <c r="H17" s="4" t="inlineStr">
         <is>
+          <t>Steigerung des Anteils auf 55 % bis 2030</t>
+        </is>
+      </c>
+      <c r="I17" s="4" t="inlineStr">
+        <is>
+          <t>Increase the proportion to 55% by 2030</t>
+        </is>
+      </c>
+      <c r="J17" s="4" t="inlineStr">
+        <is>
+          <t>Steigerung des Anteils auf 55 % bis 2030</t>
+        </is>
+      </c>
+      <c r="K17" s="4" t="inlineStr">
+        <is>
+          <t>Increase the proportion to 55% by 2030</t>
+        </is>
+      </c>
+      <c r="L17" s="4" t="inlineStr">
+        <is>
           <t>Akademisch Qualifizierte und beruflich Höherqualifizierte (30- bis 34-Jährige mit tertiärem oder post-sekundarem nichttertiärem Abschluss)</t>
         </is>
       </c>
-      <c r="I17" s="4" t="inlineStr">
-        <is>
-          <t>Persons with an academic or higher vocational qualification (30 to 34-year-olds with a tertiary or post-secondary non-tertiary level of education)</t>
-        </is>
-      </c>
-      <c r="J17" s="4" t="inlineStr">
-        <is>
-          <t>Steigerung des Anteils auf 55 % bis 2030</t>
-        </is>
-      </c>
-      <c r="K17" s="4" t="inlineStr">
-        <is>
-          <t>Increase the proportion to 55% by 2030</t>
-        </is>
-      </c>
-      <c r="L17" s="4" t="inlineStr">
-        <is>
-          <t>Steigerung des Anteils auf 55 % bis 2030</t>
-        </is>
-      </c>
       <c r="M17" s="4" t="inlineStr">
-        <is>
-          <t>Increase the proportion to 55% by 2030</t>
-        </is>
-      </c>
-      <c r="N17" s="4" t="inlineStr">
-        <is>
-          <t>Akademisch Qualifizierte und beruflich Höherqualifizierte (30- bis 34-Jährige mit tertiärem oder post-sekundarem nichttertiärem Abschluss)</t>
-        </is>
-      </c>
-      <c r="O17" s="4" t="inlineStr">
         <is>
           <t>Persons with an academic or higher vocational qualification (30 to 34-year-olds with a tertiary or post-secondary non-tertiary level of education)</t>
         </is>
@@ -1787,60 +1615,50 @@
       </c>
       <c r="D18" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>a) 0- bis 2-Jährige</t>
         </is>
       </c>
       <c r="E18" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>a) 0 to 2-year-olds</t>
         </is>
       </c>
       <c r="F18" s="4" t="inlineStr">
         <is>
-          <t>a) 0- bis 2-Jährige</t>
+          <t>Ganztagsbetreuung für Kinder &lt;br&gt;0- bis 2-Jährige</t>
         </is>
       </c>
       <c r="G18" s="4" t="inlineStr">
         <is>
-          <t>a) 0 to 2-year-olds</t>
+          <t>All-day care provision for 0 to 2-year-old children</t>
         </is>
       </c>
       <c r="H18" s="4" t="inlineStr">
         <is>
+          <t>Anstieg auf 35 % bis 2030</t>
+        </is>
+      </c>
+      <c r="I18" s="4" t="inlineStr">
+        <is>
+          <t>Increase to 35% by 2030</t>
+        </is>
+      </c>
+      <c r="J18" s="4" t="inlineStr">
+        <is>
+          <t>Anstieg auf 35 % bis 2030</t>
+        </is>
+      </c>
+      <c r="K18" s="4" t="inlineStr">
+        <is>
+          <t>Increase to 35% by 2030</t>
+        </is>
+      </c>
+      <c r="L18" s="4" t="inlineStr">
+        <is>
           <t>Ganztagsbetreuung für Kinder &lt;br&gt;0- bis 2-Jährige</t>
         </is>
       </c>
-      <c r="I18" s="4" t="inlineStr">
-        <is>
-          <t>All-day care provision for 0 to 2-year-old children</t>
-        </is>
-      </c>
-      <c r="J18" s="4" t="inlineStr">
-        <is>
-          <t>Anstieg auf 35 % bis 2030</t>
-        </is>
-      </c>
-      <c r="K18" s="4" t="inlineStr">
-        <is>
-          <t>Increase to 35% by 2030</t>
-        </is>
-      </c>
-      <c r="L18" s="4" t="inlineStr">
-        <is>
-          <t>Anstieg auf 35 % bis 2030</t>
-        </is>
-      </c>
       <c r="M18" s="4" t="inlineStr">
-        <is>
-          <t>Increase to 35% by 2030</t>
-        </is>
-      </c>
-      <c r="N18" s="4" t="inlineStr">
-        <is>
-          <t>Ganztagsbetreuung für Kinder &lt;br&gt;0- bis 2-Jährige</t>
-        </is>
-      </c>
-      <c r="O18" s="4" t="inlineStr">
         <is>
           <t>All-day care provision for 0 to 2-year-old children</t>
         </is>
@@ -1864,60 +1682,50 @@
       </c>
       <c r="D19" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>b) 3- bis 5-Jährige</t>
         </is>
       </c>
       <c r="E19" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>b) 3 to 5-year-olds</t>
         </is>
       </c>
       <c r="F19" s="4" t="inlineStr">
         <is>
-          <t>b) 3- bis 5-Jährige</t>
+          <t>Ganztagsbetreuung für Kinder &lt;br&gt;3- bis 5-Jährige</t>
         </is>
       </c>
       <c r="G19" s="4" t="inlineStr">
         <is>
-          <t>b) 3 to 5-year-olds</t>
+          <t>All-day care provision for 3 to 5-year-old children</t>
         </is>
       </c>
       <c r="H19" s="4" t="inlineStr">
         <is>
+          <t>Anstieg auf 60 % bis 2020 und auf 70 % bis 2030</t>
+        </is>
+      </c>
+      <c r="I19" s="4" t="inlineStr">
+        <is>
+          <t>Increase to 60% by 2020 and to 70% by 2030</t>
+        </is>
+      </c>
+      <c r="J19" s="4" t="inlineStr">
+        <is>
+          <t>Anstieg auf 60 % bis 2020 und auf 70 % bis 2030</t>
+        </is>
+      </c>
+      <c r="K19" s="4" t="inlineStr">
+        <is>
+          <t>Increase to 60% by 2020 and to 70% by 2030</t>
+        </is>
+      </c>
+      <c r="L19" s="4" t="inlineStr">
+        <is>
           <t>Ganztagsbetreuung für Kinder &lt;br&gt;3- bis 5-Jährige</t>
         </is>
       </c>
-      <c r="I19" s="4" t="inlineStr">
-        <is>
-          <t>All-day care provision for 3 to 5-year-old children</t>
-        </is>
-      </c>
-      <c r="J19" s="4" t="inlineStr">
-        <is>
-          <t>Anstieg auf 60 % bis 2020 und auf 70 % bis 2030</t>
-        </is>
-      </c>
-      <c r="K19" s="4" t="inlineStr">
-        <is>
-          <t>Increase to 60% by 2020 and to 70% by 2030</t>
-        </is>
-      </c>
-      <c r="L19" s="4" t="inlineStr">
-        <is>
-          <t>Anstieg auf 60 % bis 2020 und auf 70 % bis 2030</t>
-        </is>
-      </c>
       <c r="M19" s="4" t="inlineStr">
-        <is>
-          <t>Increase to 60% by 2020 and to 70% by 2030</t>
-        </is>
-      </c>
-      <c r="N19" s="4" t="inlineStr">
-        <is>
-          <t>Ganztagsbetreuung für Kinder &lt;br&gt;3- bis 5-Jährige</t>
-        </is>
-      </c>
-      <c r="O19" s="4" t="inlineStr">
         <is>
           <t>All-day care provision for 3 to 5-year-old children</t>
         </is>
@@ -1951,50 +1759,40 @@
       </c>
       <c r="F20" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Verdienstabstand zwischen Frauen und Männern</t>
         </is>
       </c>
       <c r="G20" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Gender pay gap</t>
         </is>
       </c>
       <c r="H20" s="4" t="inlineStr">
         <is>
+          <t>Verringerung des Abstandes auf 10 % bis 2020, Beibehaltung bis 2030</t>
+        </is>
+      </c>
+      <c r="I20" s="4" t="inlineStr">
+        <is>
+          <t>Reduce the gap to 10% by 2020, maintained until 2030</t>
+        </is>
+      </c>
+      <c r="J20" s="4" t="inlineStr">
+        <is>
+          <t>Verringerung des Abstandes auf 10 % bis 2020, Beibehaltung bis 2030</t>
+        </is>
+      </c>
+      <c r="K20" s="4" t="inlineStr">
+        <is>
+          <t>Reduce the gap to 10% by 2020, maintained until 2030</t>
+        </is>
+      </c>
+      <c r="L20" s="4" t="inlineStr">
+        <is>
           <t>Verdienstabstand zwischen Frauen und Männern</t>
         </is>
       </c>
-      <c r="I20" s="4" t="inlineStr">
-        <is>
-          <t>Gender pay gap</t>
-        </is>
-      </c>
-      <c r="J20" s="4" t="inlineStr">
-        <is>
-          <t>Verringerung des Abstandes auf 10 % bis 2020, Beibehaltung bis 2030</t>
-        </is>
-      </c>
-      <c r="K20" s="4" t="inlineStr">
-        <is>
-          <t>Reduce the gap to 10% by 2020, maintained until 2030</t>
-        </is>
-      </c>
-      <c r="L20" s="4" t="inlineStr">
-        <is>
-          <t>Verringerung des Abstandes auf 10 % bis 2020, Beibehaltung bis 2030</t>
-        </is>
-      </c>
       <c r="M20" s="4" t="inlineStr">
-        <is>
-          <t>Reduce the gap to 10% by 2020, maintained until 2030</t>
-        </is>
-      </c>
-      <c r="N20" s="4" t="inlineStr">
-        <is>
-          <t>Verdienstabstand zwischen Frauen und Männern</t>
-        </is>
-      </c>
-      <c r="O20" s="4" t="inlineStr">
         <is>
           <t>Gender pay gap</t>
         </is>
@@ -2018,60 +1816,50 @@
       </c>
       <c r="D21" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>b) Wirtschaft</t>
         </is>
       </c>
       <c r="E21" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>b) Business</t>
         </is>
       </c>
       <c r="F21" s="4" t="inlineStr">
         <is>
-          <t>b) Wirtschaft</t>
+          <t>In Aufsichtsräten der börsennotierten und paritätisch mitbestimmten Unternehmen</t>
         </is>
       </c>
       <c r="G21" s="4" t="inlineStr">
         <is>
-          <t>b) Business</t>
+          <t>On supervisory boards of listed and fully co-determined companies</t>
         </is>
       </c>
       <c r="H21" s="4" t="inlineStr">
         <is>
+          <t>30 % Frauen in Aufsichtsräten der börsennotierten und paritätisch mitbestimmten Unternehmen bis 2030</t>
+        </is>
+      </c>
+      <c r="I21" s="4" t="inlineStr">
+        <is>
+          <t>30% women on supervisory boards of listed and fully co-determined companies by 2030</t>
+        </is>
+      </c>
+      <c r="J21" s="4" t="inlineStr">
+        <is>
+          <t>30 % Frauen in Aufsichtsräten bis 2030</t>
+        </is>
+      </c>
+      <c r="K21" s="4" t="inlineStr">
+        <is>
+          <t>30% women on supervisory boards by 2030</t>
+        </is>
+      </c>
+      <c r="L21" s="4" t="inlineStr">
+        <is>
           <t>In Aufsichtsräten der börsennotierten und paritätisch mitbestimmten Unternehmen</t>
         </is>
       </c>
-      <c r="I21" s="4" t="inlineStr">
-        <is>
-          <t>On supervisory boards of listed and fully co-determined companies</t>
-        </is>
-      </c>
-      <c r="J21" s="4" t="inlineStr">
-        <is>
-          <t>30 % Frauen in Aufsichtsräten der börsennotierten und paritätisch mitbestimmten Unternehmen bis 2030</t>
-        </is>
-      </c>
-      <c r="K21" s="4" t="inlineStr">
-        <is>
-          <t>30% women on supervisory boards of listed and fully co-determined companies by 2030</t>
-        </is>
-      </c>
-      <c r="L21" s="4" t="inlineStr">
-        <is>
-          <t>30 % Frauen in Aufsichtsräten bis 2030</t>
-        </is>
-      </c>
       <c r="M21" s="4" t="inlineStr">
-        <is>
-          <t>30% women on supervisory boards by 2030</t>
-        </is>
-      </c>
-      <c r="N21" s="4" t="inlineStr">
-        <is>
-          <t>In Aufsichtsräten der börsennotierten und paritätisch mitbestimmten Unternehmen</t>
-        </is>
-      </c>
-      <c r="O21" s="4" t="inlineStr">
         <is>
           <t>On supervisory boards of listed and fully co-determined companies</t>
         </is>
@@ -2095,60 +1883,50 @@
       </c>
       <c r="D22" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>c) Öffentlicher Dienst des Bundes</t>
         </is>
       </c>
       <c r="E22" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>c) Federal civil service</t>
         </is>
       </c>
       <c r="F22" s="4" t="inlineStr">
         <is>
-          <t>c) Öffentlicher Dienst des Bundes</t>
+          <t>Im öffentlichen Dienst des Bundes</t>
         </is>
       </c>
       <c r="G22" s="4" t="inlineStr">
         <is>
-          <t>c) Federal civil service</t>
+          <t>In management positions in the federal civil service</t>
         </is>
       </c>
       <c r="H22" s="4" t="inlineStr">
         <is>
+          <t>Gleichberechtigte Teilhabe von Frauen und Männern in Leitungsfunktionen des öffentlichen Dienstes bis 2025</t>
+        </is>
+      </c>
+      <c r="I22" s="4" t="inlineStr">
+        <is>
+          <t>Equal-opportunity participation of women and men in civil service management positions by 2025</t>
+        </is>
+      </c>
+      <c r="J22" s="4" t="inlineStr">
+        <is>
+          <t>Gleichberechtigte Teilhabe im öffentlichen Dienst bis 2025</t>
+        </is>
+      </c>
+      <c r="K22" s="4" t="inlineStr">
+        <is>
+          <t>Equal-opportunity participation in civil service by 2025</t>
+        </is>
+      </c>
+      <c r="L22" s="4" t="inlineStr">
+        <is>
           <t>Im öffentlichen Dienst des Bundes</t>
         </is>
       </c>
-      <c r="I22" s="4" t="inlineStr">
-        <is>
-          <t>In management positions in the federal civil service</t>
-        </is>
-      </c>
-      <c r="J22" s="4" t="inlineStr">
-        <is>
-          <t>Gleichberechtigte Teilhabe von Frauen und Männern in Leitungsfunktionen des öffentlichen Dienstes bis 2025</t>
-        </is>
-      </c>
-      <c r="K22" s="4" t="inlineStr">
-        <is>
-          <t>Equal-opportunity participation of women and men in civil service management positions by 2025</t>
-        </is>
-      </c>
-      <c r="L22" s="4" t="inlineStr">
-        <is>
-          <t>Gleichberechtigte Teilhabe im öffentlichen Dienst bis 2025</t>
-        </is>
-      </c>
       <c r="M22" s="4" t="inlineStr">
-        <is>
-          <t>Equal-opportunity participation in civil service by 2025</t>
-        </is>
-      </c>
-      <c r="N22" s="4" t="inlineStr">
-        <is>
-          <t>Im öffentlichen Dienst des Bundes</t>
-        </is>
-      </c>
-      <c r="O22" s="4" t="inlineStr">
         <is>
           <t>In management positions in the federal civil service</t>
         </is>
@@ -2182,50 +1960,40 @@
       </c>
       <c r="F23" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Väterbeteiligung beim Elterngeld</t>
         </is>
       </c>
       <c r="G23" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Proportion of fathers receiving parental allowance</t>
         </is>
       </c>
       <c r="H23" s="4" t="inlineStr">
         <is>
+          <t>65 % bis 2030</t>
+        </is>
+      </c>
+      <c r="I23" s="4" t="inlineStr">
+        <is>
+          <t>65% by 2030</t>
+        </is>
+      </c>
+      <c r="J23" s="4" t="inlineStr">
+        <is>
+          <t>65 % bis 2030</t>
+        </is>
+      </c>
+      <c r="K23" s="4" t="inlineStr">
+        <is>
+          <t>65% by 2030</t>
+        </is>
+      </c>
+      <c r="L23" s="4" t="inlineStr">
+        <is>
           <t>Väterbeteiligung beim Elterngeld</t>
         </is>
       </c>
-      <c r="I23" s="4" t="inlineStr">
-        <is>
-          <t>Proportion of fathers receiving parental allowance</t>
-        </is>
-      </c>
-      <c r="J23" s="4" t="inlineStr">
-        <is>
-          <t>65 % bis 2030</t>
-        </is>
-      </c>
-      <c r="K23" s="4" t="inlineStr">
-        <is>
-          <t>65% by 2030</t>
-        </is>
-      </c>
-      <c r="L23" s="4" t="inlineStr">
-        <is>
-          <t>65 % bis 2030</t>
-        </is>
-      </c>
       <c r="M23" s="4" t="inlineStr">
-        <is>
-          <t>65% by 2030</t>
-        </is>
-      </c>
-      <c r="N23" s="4" t="inlineStr">
-        <is>
-          <t>Väterbeteiligung beim Elterngeld</t>
-        </is>
-      </c>
-      <c r="O23" s="4" t="inlineStr">
         <is>
           <t>Proportion of fathers receiving parental allowance</t>
         </is>
@@ -2259,50 +2027,40 @@
       </c>
       <c r="F24" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Berufliche Qualifizierung von Frauen und Mädchen durch deutsche entwicklungspolitische Zusammenarbeit</t>
         </is>
       </c>
       <c r="G24" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Vocational qualifications of women and girls through German development cooperation</t>
         </is>
       </c>
       <c r="H24" s="4" t="inlineStr">
         <is>
+          <t>Sukzessive Steigerung bis 2030 um ein Drittel verglichen mit Basisjahr 2015</t>
+        </is>
+      </c>
+      <c r="I24" s="4" t="inlineStr">
+        <is>
+          <t>To be increased gradually by a third by 2030 compared to 2015 as the base year</t>
+        </is>
+      </c>
+      <c r="J24" s="4" t="inlineStr">
+        <is>
+          <t>Steigerung um ein Drittel bis 2030</t>
+        </is>
+      </c>
+      <c r="K24" s="4" t="inlineStr">
+        <is>
+          <t>To be increased by a third by 2030</t>
+        </is>
+      </c>
+      <c r="L24" s="4" t="inlineStr">
+        <is>
           <t>Berufliche Qualifizierung von Frauen und Mädchen durch deutsche entwicklungspolitische Zusammenarbeit</t>
         </is>
       </c>
-      <c r="I24" s="4" t="inlineStr">
-        <is>
-          <t>Vocational qualifications of women and girls through German development cooperation</t>
-        </is>
-      </c>
-      <c r="J24" s="4" t="inlineStr">
-        <is>
-          <t>Sukzessive Steigerung bis 2030 um ein Drittel verglichen mit Basisjahr 2015</t>
-        </is>
-      </c>
-      <c r="K24" s="4" t="inlineStr">
-        <is>
-          <t>To be increased gradually by a third by 2030 compared to 2015 as the base year</t>
-        </is>
-      </c>
-      <c r="L24" s="4" t="inlineStr">
-        <is>
-          <t>Steigerung um ein Drittel bis 2030</t>
-        </is>
-      </c>
       <c r="M24" s="4" t="inlineStr">
-        <is>
-          <t>To be increased by a third by 2030</t>
-        </is>
-      </c>
-      <c r="N24" s="4" t="inlineStr">
-        <is>
-          <t>Berufliche Qualifizierung von Frauen und Mädchen durch deutsche entwicklungspolitische Zusammenarbeit</t>
-        </is>
-      </c>
-      <c r="O24" s="4" t="inlineStr">
         <is>
           <t>Vocational qualifications of women and girls through German development cooperation</t>
         </is>
@@ -2336,50 +2094,40 @@
       </c>
       <c r="F25" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Phosphor in Fließgewässern</t>
         </is>
       </c>
       <c r="G25" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Phosphorous in flowing waters</t>
         </is>
       </c>
       <c r="H25" s="4" t="inlineStr">
         <is>
+          <t>Einhaltung oder Unterschreitung der gewässertypischen Orientierungswerte an allen Messstellen bis 2030</t>
+        </is>
+      </c>
+      <c r="I25" s="4" t="inlineStr">
+        <is>
+          <t>Not exceeding benchmark values for specific types of water bodies at all monitoring points by 2030</t>
+        </is>
+      </c>
+      <c r="J25" s="4" t="inlineStr">
+        <is>
+          <t>Einhaltung der gewässertypischen Orientierungswerte bis 2030</t>
+        </is>
+      </c>
+      <c r="K25" s="4" t="inlineStr">
+        <is>
+          <t>Not exceeding benchmark values by 2030</t>
+        </is>
+      </c>
+      <c r="L25" s="4" t="inlineStr">
+        <is>
           <t>Phosphor in Fließgewässern</t>
         </is>
       </c>
-      <c r="I25" s="4" t="inlineStr">
-        <is>
-          <t>Phosphorous in flowing waters</t>
-        </is>
-      </c>
-      <c r="J25" s="4" t="inlineStr">
-        <is>
-          <t>Einhaltung oder Unterschreitung der gewässertypischen Orientierungswerte an allen Messstellen bis 2030</t>
-        </is>
-      </c>
-      <c r="K25" s="4" t="inlineStr">
-        <is>
-          <t>Not exceeding benchmark values for specific types of water bodies at all monitoring points by 2030</t>
-        </is>
-      </c>
-      <c r="L25" s="4" t="inlineStr">
-        <is>
-          <t>Einhaltung der gewässertypischen Orientierungswerte bis 2030</t>
-        </is>
-      </c>
       <c r="M25" s="4" t="inlineStr">
-        <is>
-          <t>Not exceeding benchmark values by 2030</t>
-        </is>
-      </c>
-      <c r="N25" s="4" t="inlineStr">
-        <is>
-          <t>Phosphor in Fließgewässern</t>
-        </is>
-      </c>
-      <c r="O25" s="4" t="inlineStr">
         <is>
           <t>Phosphorous in flowing waters</t>
         </is>
@@ -2413,50 +2161,40 @@
       </c>
       <c r="F26" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Nitrat im Grundwasser</t>
         </is>
       </c>
       <c r="G26" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Nitrate in groundwater</t>
         </is>
       </c>
       <c r="H26" s="4" t="inlineStr">
         <is>
+          <t>Einhaltung des Nitrat Schwellenwertes von 50 Milligramm pro Liter an allen Messstellen bis 2030</t>
+        </is>
+      </c>
+      <c r="I26" s="4" t="inlineStr">
+        <is>
+          <t>Compliance with the nitrate threshold value of 50 mg/l at all monitoring points by 2030</t>
+        </is>
+      </c>
+      <c r="J26" s="4" t="inlineStr">
+        <is>
+          <t>Einhaltung des Schwellenwertes bis 2030</t>
+        </is>
+      </c>
+      <c r="K26" s="4" t="inlineStr">
+        <is>
+          <t>Compliance with the threshold value by 2030</t>
+        </is>
+      </c>
+      <c r="L26" s="4" t="inlineStr">
+        <is>
           <t>Nitrat im Grundwasser</t>
         </is>
       </c>
-      <c r="I26" s="4" t="inlineStr">
-        <is>
-          <t>Nitrate in groundwater</t>
-        </is>
-      </c>
-      <c r="J26" s="4" t="inlineStr">
-        <is>
-          <t>Einhaltung des Nitrat Schwellenwertes von 50 Milligramm pro Liter an allen Messstellen bis 2030</t>
-        </is>
-      </c>
-      <c r="K26" s="4" t="inlineStr">
-        <is>
-          <t>Compliance with the nitrate threshold value of 50 mg/l at all monitoring points by 2030</t>
-        </is>
-      </c>
-      <c r="L26" s="4" t="inlineStr">
-        <is>
-          <t>Einhaltung des Schwellenwertes bis 2030</t>
-        </is>
-      </c>
       <c r="M26" s="4" t="inlineStr">
-        <is>
-          <t>Compliance with the threshold value by 2030</t>
-        </is>
-      </c>
-      <c r="N26" s="4" t="inlineStr">
-        <is>
-          <t>Nitrat im Grundwasser</t>
-        </is>
-      </c>
-      <c r="O26" s="4" t="inlineStr">
         <is>
           <t>Nitrate in groundwater</t>
         </is>
@@ -2480,22 +2218,22 @@
       </c>
       <c r="D27" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Trinkwasser- und Sanitärversorgung</t>
         </is>
       </c>
       <c r="E27" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Access to drinking water and sanitation</t>
         </is>
       </c>
       <c r="F27" s="4" t="inlineStr">
         <is>
-          <t>Trinkwasser- und Sanitärversorgung</t>
+          <t/>
         </is>
       </c>
       <c r="G27" s="4" t="inlineStr">
         <is>
-          <t>Access to drinking water and sanitation</t>
+          <t/>
         </is>
       </c>
       <c r="H27" s="4" t="inlineStr">
@@ -2524,16 +2262,6 @@
         </is>
       </c>
       <c r="M27" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="N27" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="O27" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -2557,60 +2285,50 @@
       </c>
       <c r="D28" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>a) Trinkwasserversorgung</t>
         </is>
       </c>
       <c r="E28" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>a) Access to drinking water</t>
         </is>
       </c>
       <c r="F28" s="4" t="inlineStr">
         <is>
-          <t>a) Trinkwasserversorgung</t>
+          <t>Anzahl der Menschen, die einen neuen oder hochwertigeren Zugang zur Trinkwasserversorgung durch deutsche Unterstützung erhalten</t>
         </is>
       </c>
       <c r="G28" s="4" t="inlineStr">
         <is>
-          <t>a) Access to drinking water</t>
+          <t>Number of people gaining first-time or upgraded access to drinking water owing to German support</t>
         </is>
       </c>
       <c r="H28" s="4" t="inlineStr">
         <is>
+          <t>6 Millionen Menschen pro Jahr bis 2030</t>
+        </is>
+      </c>
+      <c r="I28" s="4" t="inlineStr">
+        <is>
+          <t>6 million people per year by 2030</t>
+        </is>
+      </c>
+      <c r="J28" s="4" t="inlineStr">
+        <is>
+          <t>6 Millionen Menschen pro Jahr bis 2030</t>
+        </is>
+      </c>
+      <c r="K28" s="4" t="inlineStr">
+        <is>
+          <t>6 million people per year by 2030</t>
+        </is>
+      </c>
+      <c r="L28" s="4" t="inlineStr">
+        <is>
           <t>Anzahl der Menschen, die einen neuen oder hochwertigeren Zugang zur Trinkwasserversorgung durch deutsche Unterstützung erhalten</t>
         </is>
       </c>
-      <c r="I28" s="4" t="inlineStr">
-        <is>
-          <t>Number of people gaining first-time or upgraded access to drinking water owing to German support</t>
-        </is>
-      </c>
-      <c r="J28" s="4" t="inlineStr">
-        <is>
-          <t>6 Millionen Menschen pro Jahr bis 2030</t>
-        </is>
-      </c>
-      <c r="K28" s="4" t="inlineStr">
-        <is>
-          <t>6 million people per year by 2030</t>
-        </is>
-      </c>
-      <c r="L28" s="4" t="inlineStr">
-        <is>
-          <t>6 Millionen Menschen pro Jahr bis 2030</t>
-        </is>
-      </c>
       <c r="M28" s="4" t="inlineStr">
-        <is>
-          <t>6 million people per year by 2030</t>
-        </is>
-      </c>
-      <c r="N28" s="4" t="inlineStr">
-        <is>
-          <t>Anzahl der Menschen, die einen neuen oder hochwertigeren Zugang zur Trinkwasserversorgung durch deutsche Unterstützung erhalten</t>
-        </is>
-      </c>
-      <c r="O28" s="4" t="inlineStr">
         <is>
           <t>Number of people gaining first-time or upgraded access to drinking water owing to German support</t>
         </is>
@@ -2634,60 +2352,50 @@
       </c>
       <c r="D29" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>b) Sanitärversorgung</t>
         </is>
       </c>
       <c r="E29" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>b) Access to sanitation</t>
         </is>
       </c>
       <c r="F29" s="4" t="inlineStr">
         <is>
-          <t>b) Sanitärversorgung</t>
+          <t>Anzahl der Menschen, die einen neuen oder verbesserten Anschluss zur Sanitärversorgung durch deutsche Unterstützung erhalten</t>
         </is>
       </c>
       <c r="G29" s="4" t="inlineStr">
         <is>
-          <t>b) Access to sanitation</t>
+          <t>Number of people gaining first-time or improved access to sanitation owing to German support</t>
         </is>
       </c>
       <c r="H29" s="4" t="inlineStr">
         <is>
+          <t>4 Millionen Menschen pro Jahr bis 2030</t>
+        </is>
+      </c>
+      <c r="I29" s="4" t="inlineStr">
+        <is>
+          <t>4 million people per year by 2030</t>
+        </is>
+      </c>
+      <c r="J29" s="4" t="inlineStr">
+        <is>
+          <t>4 Millionen Menschen pro Jahr bis 2030</t>
+        </is>
+      </c>
+      <c r="K29" s="4" t="inlineStr">
+        <is>
+          <t>4 million people per year by 2030</t>
+        </is>
+      </c>
+      <c r="L29" s="4" t="inlineStr">
+        <is>
           <t>Anzahl der Menschen, die einen neuen oder verbesserten Anschluss zur Sanitärversorgung durch deutsche Unterstützung erhalten</t>
         </is>
       </c>
-      <c r="I29" s="4" t="inlineStr">
-        <is>
-          <t>Number of people gaining first-time or improved access to sanitation owing to German support</t>
-        </is>
-      </c>
-      <c r="J29" s="4" t="inlineStr">
-        <is>
-          <t>4 Millionen Menschen pro Jahr bis 2030</t>
-        </is>
-      </c>
-      <c r="K29" s="4" t="inlineStr">
-        <is>
-          <t>4 million people per year by 2030</t>
-        </is>
-      </c>
-      <c r="L29" s="4" t="inlineStr">
-        <is>
-          <t>4 Millionen Menschen pro Jahr bis 2030</t>
-        </is>
-      </c>
       <c r="M29" s="4" t="inlineStr">
-        <is>
-          <t>4 million people per year by 2030</t>
-        </is>
-      </c>
-      <c r="N29" s="4" t="inlineStr">
-        <is>
-          <t>Anzahl der Menschen, die einen neuen oder verbesserten Anschluss zur Sanitärversorgung durch deutsche Unterstützung erhalten</t>
-        </is>
-      </c>
-      <c r="O29" s="4" t="inlineStr">
         <is>
           <t>Number of people gaining first-time or improved access to sanitation owing to German support</t>
         </is>
@@ -2711,60 +2419,50 @@
       </c>
       <c r="D30" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>a) Endenergieproduktivität</t>
         </is>
       </c>
       <c r="E30" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>a) Final energy productivity</t>
         </is>
       </c>
       <c r="F30" s="4" t="inlineStr">
         <is>
-          <t>a) Endenergieproduktivität</t>
+          <t>Endenergieproduktivität</t>
         </is>
       </c>
       <c r="G30" s="4" t="inlineStr">
         <is>
-          <t>a) Final energy productivity</t>
+          <t>Final energy productivity</t>
         </is>
       </c>
       <c r="H30" s="4" t="inlineStr">
         <is>
+          <t>Steigerung um 2,1 % pro Jahr im Zeitraum von 2008 – 2050</t>
+        </is>
+      </c>
+      <c r="I30" s="4" t="inlineStr">
+        <is>
+          <t>Increase by 2.1% per year from 2008 to 2050</t>
+        </is>
+      </c>
+      <c r="J30" s="4" t="inlineStr">
+        <is>
+          <t>Steigerung um 2,1 % pro Jahr</t>
+        </is>
+      </c>
+      <c r="K30" s="4" t="inlineStr">
+        <is>
+          <t>Increase by 2.1% per year</t>
+        </is>
+      </c>
+      <c r="L30" s="4" t="inlineStr">
+        <is>
           <t>Endenergieproduktivität</t>
         </is>
       </c>
-      <c r="I30" s="4" t="inlineStr">
-        <is>
-          <t>Final energy productivity</t>
-        </is>
-      </c>
-      <c r="J30" s="4" t="inlineStr">
-        <is>
-          <t>Steigerung um 2,1 % pro Jahr im Zeitraum von 2008 – 2050</t>
-        </is>
-      </c>
-      <c r="K30" s="4" t="inlineStr">
-        <is>
-          <t>Increase by 2.1% per year from 2008 to 2050</t>
-        </is>
-      </c>
-      <c r="L30" s="4" t="inlineStr">
-        <is>
-          <t>Steigerung um 2,1 % pro Jahr</t>
-        </is>
-      </c>
       <c r="M30" s="4" t="inlineStr">
-        <is>
-          <t>Increase by 2.1% per year</t>
-        </is>
-      </c>
-      <c r="N30" s="4" t="inlineStr">
-        <is>
-          <t>Endenergieproduktivität</t>
-        </is>
-      </c>
-      <c r="O30" s="4" t="inlineStr">
         <is>
           <t>Final energy productivity</t>
         </is>
@@ -2788,60 +2486,50 @@
       </c>
       <c r="D31" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>b) Primärenergieverbrauch</t>
         </is>
       </c>
       <c r="E31" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>b) Primary energy consumption</t>
         </is>
       </c>
       <c r="F31" s="4" t="inlineStr">
         <is>
-          <t>b) Primärenergieverbrauch</t>
+          <t>Primärenergieverbrauch</t>
         </is>
       </c>
       <c r="G31" s="4" t="inlineStr">
         <is>
-          <t>b) Primary energy consumption</t>
+          <t>Primary energy consumption</t>
         </is>
       </c>
       <c r="H31" s="4" t="inlineStr">
         <is>
+          <t>Senkung um 20 % bis 2020, um 30 % bis 2030 und um 50 % bis 2050 jeweils gegenüber 2008</t>
+        </is>
+      </c>
+      <c r="I31" s="4" t="inlineStr">
+        <is>
+          <t>Reduction by 20% by 2020, by 30% by 2030, and by 50% by 2050, all compared to 2008</t>
+        </is>
+      </c>
+      <c r="J31" s="4" t="inlineStr">
+        <is>
+          <t>Senkung um 20 % bis 2020, um 30 % bis 2030 und um 50 % bis 2050</t>
+        </is>
+      </c>
+      <c r="K31" s="4" t="inlineStr">
+        <is>
+          <t>Reduction by 20% by 2020, by 30% by 2030, and by 50% by 2050</t>
+        </is>
+      </c>
+      <c r="L31" s="4" t="inlineStr">
+        <is>
           <t>Primärenergieverbrauch</t>
         </is>
       </c>
-      <c r="I31" s="4" t="inlineStr">
-        <is>
-          <t>Primary energy consumption</t>
-        </is>
-      </c>
-      <c r="J31" s="4" t="inlineStr">
-        <is>
-          <t>Senkung um 20 % bis 2020, um 30 % bis 2030 und um 50 % bis 2050 jeweils gegenüber 2008</t>
-        </is>
-      </c>
-      <c r="K31" s="4" t="inlineStr">
-        <is>
-          <t>Reduction by 20% by 2020, by 30% by 2030, and by 50% by 2050, all compared to 2008</t>
-        </is>
-      </c>
-      <c r="L31" s="4" t="inlineStr">
-        <is>
-          <t>Senkung um 20 % bis 2020, um 30 % bis 2030 und um 50 % bis 2050</t>
-        </is>
-      </c>
       <c r="M31" s="4" t="inlineStr">
-        <is>
-          <t>Reduction by 20% by 2020, by 30% by 2030, and by 50% by 2050</t>
-        </is>
-      </c>
-      <c r="N31" s="4" t="inlineStr">
-        <is>
-          <t>Primärenergieverbrauch</t>
-        </is>
-      </c>
-      <c r="O31" s="4" t="inlineStr">
         <is>
           <t>Primary energy consumption</t>
         </is>
@@ -2875,50 +2563,40 @@
       </c>
       <c r="F32" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Anteil erneuerbarer Energien am Brutto-Endenergieverbrauch</t>
         </is>
       </c>
       <c r="G32" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Share of renewable energies in gross final energy consumption</t>
         </is>
       </c>
       <c r="H32" s="4" t="inlineStr">
         <is>
+          <t>Anstieg auf 18 % bis 2020, auf 30 % bis 2030, auf 45 % bis 2040 und auf 60 % bis 2050</t>
+        </is>
+      </c>
+      <c r="I32" s="4" t="inlineStr">
+        <is>
+          <t>Increase to 18% by 2020 and to 30% by 2030, to 45% by 2040 and to 60% by 2050</t>
+        </is>
+      </c>
+      <c r="J32" s="4" t="inlineStr">
+        <is>
+          <t>Anstieg auf 18 % bis 2020, auf 30 % bis 2030, auf 45 % bis 2040 und auf 60 % bis 2050</t>
+        </is>
+      </c>
+      <c r="K32" s="4" t="inlineStr">
+        <is>
+          <t>Increase to 18% by 2020 and to 30% by 2030, to 45% by 2040 and to 60% by 2050</t>
+        </is>
+      </c>
+      <c r="L32" s="4" t="inlineStr">
+        <is>
           <t>Anteil erneuerbarer Energien am Brutto-Endenergieverbrauch</t>
         </is>
       </c>
-      <c r="I32" s="4" t="inlineStr">
-        <is>
-          <t>Share of renewable energies in gross final energy consumption</t>
-        </is>
-      </c>
-      <c r="J32" s="4" t="inlineStr">
-        <is>
-          <t>Anstieg auf 18 % bis 2020, auf 30 % bis 2030, auf 45 % bis 2040 und auf 60 % bis 2050</t>
-        </is>
-      </c>
-      <c r="K32" s="4" t="inlineStr">
-        <is>
-          <t>Increase to 18% by 2020 and to 30% by 2030, to 45% by 2040 and to 60% by 2050</t>
-        </is>
-      </c>
-      <c r="L32" s="4" t="inlineStr">
-        <is>
-          <t>Anstieg auf 18 % bis 2020, auf 30 % bis 2030, auf 45 % bis 2040 und auf 60 % bis 2050</t>
-        </is>
-      </c>
       <c r="M32" s="4" t="inlineStr">
-        <is>
-          <t>Increase to 18% by 2020 and to 30% by 2030, to 45% by 2040 and to 60% by 2050</t>
-        </is>
-      </c>
-      <c r="N32" s="4" t="inlineStr">
-        <is>
-          <t>Anteil erneuerbarer Energien am Brutto-Endenergieverbrauch</t>
-        </is>
-      </c>
-      <c r="O32" s="4" t="inlineStr">
         <is>
           <t>Share of renewable energies in gross final energy consumption</t>
         </is>
@@ -2952,50 +2630,40 @@
       </c>
       <c r="F33" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Anteil des Stroms aus erneuerbaren Energiequellen am Bruttostromverbrauch</t>
         </is>
       </c>
       <c r="G33" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Share of electricity from renewable energy sources in gross electricity consumption</t>
         </is>
       </c>
       <c r="H33" s="4" t="inlineStr">
         <is>
+          <t>Anstieg auf mindestens 35 % bis 2020, 65 % bis 2030 und Treibhausgasneutralität des in Deutschland erzeugten und verbrauchten Stroms bis 2050</t>
+        </is>
+      </c>
+      <c r="I33" s="4" t="inlineStr">
+        <is>
+          <t>Increase to at least 35% by 2020, 65% by 2030, and greenhouse gas neutrality of electricity generated and consumed in Germany by 2050</t>
+        </is>
+      </c>
+      <c r="J33" s="4" t="inlineStr">
+        <is>
+          <t>Anstieg auf 35 % bis 2020, 65 % bis 2030 und Treibhausgasneutralität bis 2050</t>
+        </is>
+      </c>
+      <c r="K33" s="4" t="inlineStr">
+        <is>
+          <t>Increase to 35% by 2020, 65% by 2030, and greenhouse gas neutrality by 2050</t>
+        </is>
+      </c>
+      <c r="L33" s="4" t="inlineStr">
+        <is>
           <t>Anteil des Stroms aus erneuerbaren Energiequellen am Bruttostromverbrauch</t>
         </is>
       </c>
-      <c r="I33" s="4" t="inlineStr">
-        <is>
-          <t>Share of electricity from renewable energy sources in gross electricity consumption</t>
-        </is>
-      </c>
-      <c r="J33" s="4" t="inlineStr">
-        <is>
-          <t>Anstieg auf mindestens 35 % bis 2020, 65 % bis 2030 und Treibhausgasneutralität des in Deutschland erzeugten und verbrauchten Stroms bis 2050</t>
-        </is>
-      </c>
-      <c r="K33" s="4" t="inlineStr">
-        <is>
-          <t>Increase to at least 35% by 2020, 65% by 2030, and greenhouse gas neutrality of electricity generated and consumed in Germany by 2050</t>
-        </is>
-      </c>
-      <c r="L33" s="4" t="inlineStr">
-        <is>
-          <t>Anstieg auf 35 % bis 2020, 65 % bis 2030 und Treibhausgasneutralität bis 2050</t>
-        </is>
-      </c>
       <c r="M33" s="4" t="inlineStr">
-        <is>
-          <t>Increase to 35% by 2020, 65% by 2030, and greenhouse gas neutrality by 2050</t>
-        </is>
-      </c>
-      <c r="N33" s="4" t="inlineStr">
-        <is>
-          <t>Anteil des Stroms aus erneuerbaren Energiequellen am Bruttostromverbrauch</t>
-        </is>
-      </c>
-      <c r="O33" s="4" t="inlineStr">
         <is>
           <t>Share of electricity from renewable energy sources in gross electricity consumption</t>
         </is>
@@ -3029,50 +2697,40 @@
       </c>
       <c r="F34" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Gesamtrohstoffproduktivität</t>
         </is>
       </c>
       <c r="G34" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Raw material input productivity</t>
         </is>
       </c>
       <c r="H34" s="4" t="inlineStr">
         <is>
+          <t>Beibehaltung des Trends der Jahre 2000 – 2010 bis 2030</t>
+        </is>
+      </c>
+      <c r="I34" s="4" t="inlineStr">
+        <is>
+          <t>Trend of the years 2000–2010 to be maintained until 2030</t>
+        </is>
+      </c>
+      <c r="J34" s="4" t="inlineStr">
+        <is>
+          <t>Beibehaltung des Trends der Jahre 2000 – 2010 bis 2030</t>
+        </is>
+      </c>
+      <c r="K34" s="4" t="inlineStr">
+        <is>
+          <t>Trend of the years 2000–2010 to be maintained until 2030</t>
+        </is>
+      </c>
+      <c r="L34" s="4" t="inlineStr">
+        <is>
           <t>Gesamtrohstoffproduktivität</t>
         </is>
       </c>
-      <c r="I34" s="4" t="inlineStr">
-        <is>
-          <t>Raw material input productivity</t>
-        </is>
-      </c>
-      <c r="J34" s="4" t="inlineStr">
-        <is>
-          <t>Beibehaltung des Trends der Jahre 2000 – 2010 bis 2030</t>
-        </is>
-      </c>
-      <c r="K34" s="4" t="inlineStr">
-        <is>
-          <t>Trend of the years 2000–2010 to be maintained until 2030</t>
-        </is>
-      </c>
-      <c r="L34" s="4" t="inlineStr">
-        <is>
-          <t>Beibehaltung des Trends der Jahre 2000 – 2010 bis 2030</t>
-        </is>
-      </c>
       <c r="M34" s="4" t="inlineStr">
-        <is>
-          <t>Trend of the years 2000–2010 to be maintained until 2030</t>
-        </is>
-      </c>
-      <c r="N34" s="4" t="inlineStr">
-        <is>
-          <t>Gesamtrohstoffproduktivität</t>
-        </is>
-      </c>
-      <c r="O34" s="4" t="inlineStr">
         <is>
           <t>Raw material input productivity</t>
         </is>
@@ -3096,60 +2754,50 @@
       </c>
       <c r="D35" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>a) Staatsdefizit</t>
         </is>
       </c>
       <c r="E35" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>a) Government deficit</t>
         </is>
       </c>
       <c r="F35" s="4" t="inlineStr">
         <is>
-          <t>a) Staatsdefizit</t>
+          <t>Staatsdefizit</t>
         </is>
       </c>
       <c r="G35" s="4" t="inlineStr">
         <is>
-          <t>a) Government deficit</t>
+          <t>Government deficit</t>
         </is>
       </c>
       <c r="H35" s="4" t="inlineStr">
         <is>
+          <t>Jährliches Staatsdefizit kleiner als 3 % des BIP, Beibehaltung bis 2030</t>
+        </is>
+      </c>
+      <c r="I35" s="4" t="inlineStr">
+        <is>
+          <t>Annual government deficit less than 3% of GDP, to be maintained until 2030</t>
+        </is>
+      </c>
+      <c r="J35" s="4" t="inlineStr">
+        <is>
+          <t>Unter 3 % des BIP</t>
+        </is>
+      </c>
+      <c r="K35" s="4" t="inlineStr">
+        <is>
+          <t>Less than 3% of GDP</t>
+        </is>
+      </c>
+      <c r="L35" s="4" t="inlineStr">
+        <is>
           <t>Staatsdefizit</t>
         </is>
       </c>
-      <c r="I35" s="4" t="inlineStr">
-        <is>
-          <t>Government deficit</t>
-        </is>
-      </c>
-      <c r="J35" s="4" t="inlineStr">
-        <is>
-          <t>Jährliches Staatsdefizit kleiner als 3 % des BIP, Beibehaltung bis 2030</t>
-        </is>
-      </c>
-      <c r="K35" s="4" t="inlineStr">
-        <is>
-          <t>Annual government deficit less than 3% of GDP, to be maintained until 2030</t>
-        </is>
-      </c>
-      <c r="L35" s="4" t="inlineStr">
-        <is>
-          <t>Unter 3 % des BIP</t>
-        </is>
-      </c>
       <c r="M35" s="4" t="inlineStr">
-        <is>
-          <t>Less than 3% of GDP</t>
-        </is>
-      </c>
-      <c r="N35" s="4" t="inlineStr">
-        <is>
-          <t>Staatsdefizit</t>
-        </is>
-      </c>
-      <c r="O35" s="4" t="inlineStr">
         <is>
           <t>Government deficit</t>
         </is>
@@ -3173,60 +2821,50 @@
       </c>
       <c r="D36" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>b) Strukturelles Defizit</t>
         </is>
       </c>
       <c r="E36" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>b) Structural deficit</t>
         </is>
       </c>
       <c r="F36" s="4" t="inlineStr">
         <is>
-          <t>b) Strukturelles Defizit</t>
+          <t>Strukturelles Defizit</t>
         </is>
       </c>
       <c r="G36" s="4" t="inlineStr">
         <is>
-          <t>b) Structural deficit</t>
+          <t>Structural deficit</t>
         </is>
       </c>
       <c r="H36" s="4" t="inlineStr">
         <is>
+          <t>Strukturell ausgeglichener Staatshaushalt, gesamtstaatliches strukturelles Defizit von max. 0,5 % des BIP, Beibehaltung bis 2030</t>
+        </is>
+      </c>
+      <c r="I36" s="4" t="inlineStr">
+        <is>
+          <t>Structurally balanced government budget, general government structural deficit must not exceed 0.5% of GDP, to be maintained until 2030</t>
+        </is>
+      </c>
+      <c r="J36" s="4" t="inlineStr">
+        <is>
+          <t>Unter 0,5 % des BIP</t>
+        </is>
+      </c>
+      <c r="K36" s="4" t="inlineStr">
+        <is>
+          <t>Less than 0.5% of GDP</t>
+        </is>
+      </c>
+      <c r="L36" s="4" t="inlineStr">
+        <is>
           <t>Strukturelles Defizit</t>
         </is>
       </c>
-      <c r="I36" s="4" t="inlineStr">
-        <is>
-          <t>Structural deficit</t>
-        </is>
-      </c>
-      <c r="J36" s="4" t="inlineStr">
-        <is>
-          <t>Strukturell ausgeglichener Staatshaushalt, gesamtstaatliches strukturelles Defizit von max. 0,5 % des BIP, Beibehaltung bis 2030</t>
-        </is>
-      </c>
-      <c r="K36" s="4" t="inlineStr">
-        <is>
-          <t>Structurally balanced government budget, general government structural deficit must not exceed 0.5% of GDP, to be maintained until 2030</t>
-        </is>
-      </c>
-      <c r="L36" s="4" t="inlineStr">
-        <is>
-          <t>Unter 0,5 % des BIP</t>
-        </is>
-      </c>
       <c r="M36" s="4" t="inlineStr">
-        <is>
-          <t>Less than 0.5% of GDP</t>
-        </is>
-      </c>
-      <c r="N36" s="4" t="inlineStr">
-        <is>
-          <t>Strukturelles Defizit</t>
-        </is>
-      </c>
-      <c r="O36" s="4" t="inlineStr">
         <is>
           <t>Structural deficit</t>
         </is>
@@ -3260,50 +2898,40 @@
       </c>
       <c r="F37" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Schuldenstand</t>
         </is>
       </c>
       <c r="G37" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Government debt</t>
         </is>
       </c>
       <c r="H37" s="4" t="inlineStr">
         <is>
+          <t>Schuldenstandsquote max. 60 % des BIP, Beibehaltung bis 2030</t>
+        </is>
+      </c>
+      <c r="I37" s="4" t="inlineStr">
+        <is>
+          <t>Ratio of government debt to GDP must not exceed  60%, to be maintained until 2030</t>
+        </is>
+      </c>
+      <c r="J37" s="4" t="inlineStr">
+        <is>
+          <t>Unter 60 % des BIP</t>
+        </is>
+      </c>
+      <c r="K37" s="4" t="inlineStr">
+        <is>
+          <t>Less than 60% of GDP</t>
+        </is>
+      </c>
+      <c r="L37" s="4" t="inlineStr">
+        <is>
           <t>Schuldenstand</t>
         </is>
       </c>
-      <c r="I37" s="4" t="inlineStr">
-        <is>
-          <t>Government debt</t>
-        </is>
-      </c>
-      <c r="J37" s="4" t="inlineStr">
-        <is>
-          <t>Schuldenstandsquote max. 60 % des BIP, Beibehaltung bis 2030</t>
-        </is>
-      </c>
-      <c r="K37" s="4" t="inlineStr">
-        <is>
-          <t>Ratio of government debt to GDP must not exceed  60%, to be maintained until 2030</t>
-        </is>
-      </c>
-      <c r="L37" s="4" t="inlineStr">
-        <is>
-          <t>Unter 60 % des BIP</t>
-        </is>
-      </c>
       <c r="M37" s="4" t="inlineStr">
-        <is>
-          <t>Less than 60% of GDP</t>
-        </is>
-      </c>
-      <c r="N37" s="4" t="inlineStr">
-        <is>
-          <t>Schuldenstand</t>
-        </is>
-      </c>
-      <c r="O37" s="4" t="inlineStr">
         <is>
           <t>Government debt</t>
         </is>
@@ -3337,50 +2965,40 @@
       </c>
       <c r="F38" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Verhältnis der Bruttoanlageinvestitionen zum BIP</t>
         </is>
       </c>
       <c r="G38" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Gross fixed capital formation in relation to GDP</t>
         </is>
       </c>
       <c r="H38" s="4" t="inlineStr">
         <is>
+          <t>Angemessene Entwicklung des Anteils, Beibehaltung bis 2030</t>
+        </is>
+      </c>
+      <c r="I38" s="4" t="inlineStr">
+        <is>
+          <t>Appropriate development of the ratio, to be maintained until 2030</t>
+        </is>
+      </c>
+      <c r="J38" s="4" t="inlineStr">
+        <is>
+          <t>Angemessene Entwicklung bis 2030</t>
+        </is>
+      </c>
+      <c r="K38" s="4" t="inlineStr">
+        <is>
+          <t>Appropriate development by 2030</t>
+        </is>
+      </c>
+      <c r="L38" s="4" t="inlineStr">
+        <is>
           <t>Verhältnis der Bruttoanlageinvestitionen zum BIP</t>
         </is>
       </c>
-      <c r="I38" s="4" t="inlineStr">
-        <is>
-          <t>Gross fixed capital formation in relation to GDP</t>
-        </is>
-      </c>
-      <c r="J38" s="4" t="inlineStr">
-        <is>
-          <t>Angemessene Entwicklung des Anteils, Beibehaltung bis 2030</t>
-        </is>
-      </c>
-      <c r="K38" s="4" t="inlineStr">
-        <is>
-          <t>Appropriate development of the ratio, to be maintained until 2030</t>
-        </is>
-      </c>
-      <c r="L38" s="4" t="inlineStr">
-        <is>
-          <t>Angemessene Entwicklung bis 2030</t>
-        </is>
-      </c>
       <c r="M38" s="4" t="inlineStr">
-        <is>
-          <t>Appropriate development by 2030</t>
-        </is>
-      </c>
-      <c r="N38" s="4" t="inlineStr">
-        <is>
-          <t>Verhältnis der Bruttoanlageinvestitionen zum BIP</t>
-        </is>
-      </c>
-      <c r="O38" s="4" t="inlineStr">
         <is>
           <t>Gross fixed capital formation in relation to GDP</t>
         </is>
@@ -3414,50 +3032,40 @@
       </c>
       <c r="F39" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Bruttoinlandsprodukt je Einwohner</t>
         </is>
       </c>
       <c r="G39" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Gross domestic product per capita</t>
         </is>
       </c>
       <c r="H39" s="4" t="inlineStr">
         <is>
+          <t>Stetiges und angemessenes Wirtschaftswachstum</t>
+        </is>
+      </c>
+      <c r="I39" s="4" t="inlineStr">
+        <is>
+          <t>Steady and appropriate economic growth</t>
+        </is>
+      </c>
+      <c r="J39" s="4" t="inlineStr">
+        <is>
+          <t>Stetiges und angemessenes Wirtschaftswachstum</t>
+        </is>
+      </c>
+      <c r="K39" s="4" t="inlineStr">
+        <is>
+          <t>Steady and appropriate economic growth</t>
+        </is>
+      </c>
+      <c r="L39" s="4" t="inlineStr">
+        <is>
           <t>Bruttoinlandsprodukt je Einwohner</t>
         </is>
       </c>
-      <c r="I39" s="4" t="inlineStr">
-        <is>
-          <t>Gross domestic product per capita</t>
-        </is>
-      </c>
-      <c r="J39" s="4" t="inlineStr">
-        <is>
-          <t>Stetiges und angemessenes Wirtschaftswachstum</t>
-        </is>
-      </c>
-      <c r="K39" s="4" t="inlineStr">
-        <is>
-          <t>Steady and appropriate economic growth</t>
-        </is>
-      </c>
-      <c r="L39" s="4" t="inlineStr">
-        <is>
-          <t>Stetiges und angemessenes Wirtschaftswachstum</t>
-        </is>
-      </c>
       <c r="M39" s="4" t="inlineStr">
-        <is>
-          <t>Steady and appropriate economic growth</t>
-        </is>
-      </c>
-      <c r="N39" s="4" t="inlineStr">
-        <is>
-          <t>Bruttoinlandsprodukt je Einwohner</t>
-        </is>
-      </c>
-      <c r="O39" s="4" t="inlineStr">
         <is>
           <t>Gross domestic product per capita</t>
         </is>
@@ -3481,60 +3089,50 @@
       </c>
       <c r="D40" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>a) Insgesamt (20-64 Jahre)</t>
         </is>
       </c>
       <c r="E40" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>a) total (20 to 64- year-olds)</t>
         </is>
       </c>
       <c r="F40" s="4" t="inlineStr">
         <is>
-          <t>a) Insgesamt (20-64 Jahre)</t>
+          <t>Erwerbstätigenquote insgesamt (20 bis 64 Jahre)</t>
         </is>
       </c>
       <c r="G40" s="4" t="inlineStr">
         <is>
-          <t>a) total (20 to 64- year-olds)</t>
+          <t>Employment rate, total (20 to 64-year-olds)</t>
         </is>
       </c>
       <c r="H40" s="4" t="inlineStr">
         <is>
+          <t>Erhöhung auf 78 % bis 2030</t>
+        </is>
+      </c>
+      <c r="I40" s="4" t="inlineStr">
+        <is>
+          <t>Increase to 78% by 2030</t>
+        </is>
+      </c>
+      <c r="J40" s="4" t="inlineStr">
+        <is>
+          <t>Erhöhung auf 78 % bis 2030</t>
+        </is>
+      </c>
+      <c r="K40" s="4" t="inlineStr">
+        <is>
+          <t>Increase to 78% by 2030</t>
+        </is>
+      </c>
+      <c r="L40" s="4" t="inlineStr">
+        <is>
           <t>Erwerbstätigenquote insgesamt (20 bis 64 Jahre)</t>
         </is>
       </c>
-      <c r="I40" s="4" t="inlineStr">
-        <is>
-          <t>Employment rate, total (20 to 64-year-olds)</t>
-        </is>
-      </c>
-      <c r="J40" s="4" t="inlineStr">
-        <is>
-          <t>Erhöhung auf 78 % bis 2030</t>
-        </is>
-      </c>
-      <c r="K40" s="4" t="inlineStr">
-        <is>
-          <t>Increase to 78% by 2030</t>
-        </is>
-      </c>
-      <c r="L40" s="4" t="inlineStr">
-        <is>
-          <t>Erhöhung auf 78 % bis 2030</t>
-        </is>
-      </c>
       <c r="M40" s="4" t="inlineStr">
-        <is>
-          <t>Increase to 78% by 2030</t>
-        </is>
-      </c>
-      <c r="N40" s="4" t="inlineStr">
-        <is>
-          <t>Erwerbstätigenquote insgesamt (20 bis 64 Jahre)</t>
-        </is>
-      </c>
-      <c r="O40" s="4" t="inlineStr">
         <is>
           <t>Employment rate, total (20 to 64-year-olds)</t>
         </is>
@@ -3558,60 +3156,50 @@
       </c>
       <c r="D41" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>b) Ältere (60-64 Jahre)</t>
         </is>
       </c>
       <c r="E41" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>b) older people (60 to 64-year-olds)</t>
         </is>
       </c>
       <c r="F41" s="4" t="inlineStr">
         <is>
-          <t>b) Ältere (60-64 Jahre)</t>
+          <t>Erwerbstätigenquote Ältere (60 bis 64 Jahre)</t>
         </is>
       </c>
       <c r="G41" s="4" t="inlineStr">
         <is>
-          <t>b) older people (60 to 64-year-olds)</t>
+          <t>Employment rate, older people (60 to 64-year-olds)</t>
         </is>
       </c>
       <c r="H41" s="4" t="inlineStr">
         <is>
+          <t>Erhöhung auf 60 % bis 2030</t>
+        </is>
+      </c>
+      <c r="I41" s="4" t="inlineStr">
+        <is>
+          <t>Increase to 60% by 2030</t>
+        </is>
+      </c>
+      <c r="J41" s="4" t="inlineStr">
+        <is>
+          <t>Erhöhung auf 60 % bis 2030</t>
+        </is>
+      </c>
+      <c r="K41" s="4" t="inlineStr">
+        <is>
+          <t>Increase to 60% by 2030</t>
+        </is>
+      </c>
+      <c r="L41" s="4" t="inlineStr">
+        <is>
           <t>Erwerbstätigenquote Ältere (60 bis 64 Jahre)</t>
         </is>
       </c>
-      <c r="I41" s="4" t="inlineStr">
-        <is>
-          <t>Employment rate, older people (60 to 64-year-olds)</t>
-        </is>
-      </c>
-      <c r="J41" s="4" t="inlineStr">
-        <is>
-          <t>Erhöhung auf 60 % bis 2030</t>
-        </is>
-      </c>
-      <c r="K41" s="4" t="inlineStr">
-        <is>
-          <t>Increase to 60% by 2030</t>
-        </is>
-      </c>
-      <c r="L41" s="4" t="inlineStr">
-        <is>
-          <t>Erhöhung auf 60 % bis 2030</t>
-        </is>
-      </c>
       <c r="M41" s="4" t="inlineStr">
-        <is>
-          <t>Increase to 60% by 2030</t>
-        </is>
-      </c>
-      <c r="N41" s="4" t="inlineStr">
-        <is>
-          <t>Erwerbstätigenquote Ältere (60 bis 64 Jahre)</t>
-        </is>
-      </c>
-      <c r="O41" s="4" t="inlineStr">
         <is>
           <t>Employment rate, older people (60 to 64-year-olds)</t>
         </is>
@@ -3645,50 +3233,40 @@
       </c>
       <c r="F42" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Mitglieder des Textilbündnisses</t>
         </is>
       </c>
       <c r="G42" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Members of the Textile Partnership</t>
         </is>
       </c>
       <c r="H42" s="4" t="inlineStr">
         <is>
+          <t>Signifikante Steigerung bis 2030</t>
+        </is>
+      </c>
+      <c r="I42" s="4" t="inlineStr">
+        <is>
+          <t>Significantly increase by 2030</t>
+        </is>
+      </c>
+      <c r="J42" s="4" t="inlineStr">
+        <is>
+          <t>Signifikante Steigerung bis 2030</t>
+        </is>
+      </c>
+      <c r="K42" s="4" t="inlineStr">
+        <is>
+          <t>Significantly increase by 2030</t>
+        </is>
+      </c>
+      <c r="L42" s="4" t="inlineStr">
+        <is>
           <t>Mitglieder des Textilbündnisses</t>
         </is>
       </c>
-      <c r="I42" s="4" t="inlineStr">
-        <is>
-          <t>Members of the Textile Partnership</t>
-        </is>
-      </c>
-      <c r="J42" s="4" t="inlineStr">
-        <is>
-          <t>Signifikante Steigerung bis 2030</t>
-        </is>
-      </c>
-      <c r="K42" s="4" t="inlineStr">
-        <is>
-          <t>Significantly increase by 2030</t>
-        </is>
-      </c>
-      <c r="L42" s="4" t="inlineStr">
-        <is>
-          <t>Signifikante Steigerung bis 2030</t>
-        </is>
-      </c>
       <c r="M42" s="4" t="inlineStr">
-        <is>
-          <t>Significantly increase by 2030</t>
-        </is>
-      </c>
-      <c r="N42" s="4" t="inlineStr">
-        <is>
-          <t>Mitglieder des Textilbündnisses</t>
-        </is>
-      </c>
-      <c r="O42" s="4" t="inlineStr">
         <is>
           <t>Members of the Textile Partnership</t>
         </is>
@@ -3722,50 +3300,40 @@
       </c>
       <c r="F43" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Private und öffentliche Ausgaben für Forschung und Entwicklung</t>
         </is>
       </c>
       <c r="G43" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Private and public expenditure on research and development</t>
         </is>
       </c>
       <c r="H43" s="4" t="inlineStr">
         <is>
+          <t>Jährlich mindestens 3,5 % des BIP bis 2025</t>
+        </is>
+      </c>
+      <c r="I43" s="4" t="inlineStr">
+        <is>
+          <t>At least 3.5% of GDP per year by 2025</t>
+        </is>
+      </c>
+      <c r="J43" s="4" t="inlineStr">
+        <is>
+          <t>Jährlich mindestens 3,5 % des BIP bis 2025</t>
+        </is>
+      </c>
+      <c r="K43" s="4" t="inlineStr">
+        <is>
+          <t>At least 3.5% of GDP per year by 2025</t>
+        </is>
+      </c>
+      <c r="L43" s="4" t="inlineStr">
+        <is>
           <t>Private und öffentliche Ausgaben für Forschung und Entwicklung</t>
         </is>
       </c>
-      <c r="I43" s="4" t="inlineStr">
-        <is>
-          <t>Private and public expenditure on research and development</t>
-        </is>
-      </c>
-      <c r="J43" s="4" t="inlineStr">
-        <is>
-          <t>Jährlich mindestens 3,5 % des BIP bis 2025</t>
-        </is>
-      </c>
-      <c r="K43" s="4" t="inlineStr">
-        <is>
-          <t>At least 3.5% of GDP per year by 2025</t>
-        </is>
-      </c>
-      <c r="L43" s="4" t="inlineStr">
-        <is>
-          <t>Jährlich mindestens 3,5 % des BIP bis 2025</t>
-        </is>
-      </c>
       <c r="M43" s="4" t="inlineStr">
-        <is>
-          <t>At least 3.5% of GDP per year by 2025</t>
-        </is>
-      </c>
-      <c r="N43" s="4" t="inlineStr">
-        <is>
-          <t>Private und öffentliche Ausgaben für Forschung und Entwicklung</t>
-        </is>
-      </c>
-      <c r="O43" s="4" t="inlineStr">
         <is>
           <t>Private and public expenditure on research and development</t>
         </is>
@@ -3799,50 +3367,40 @@
       </c>
       <c r="F44" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Breitbandausbau – Anteil der Haushalte mit Zugang zu Gigabit-Breitbandversorgung</t>
         </is>
       </c>
       <c r="G44" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Roll-out of broadband – share of households with access to gigabit broadband services</t>
         </is>
       </c>
       <c r="H44" s="4" t="inlineStr">
         <is>
+          <t>Flächendeckender Aufbau von Gigabitnetzen bis 2025</t>
+        </is>
+      </c>
+      <c r="I44" s="4" t="inlineStr">
+        <is>
+          <t>Universal gigabit network Roll-out by 2025</t>
+        </is>
+      </c>
+      <c r="J44" s="4" t="inlineStr">
+        <is>
+          <t>Flächendeckend bis 2025</t>
+        </is>
+      </c>
+      <c r="K44" s="4" t="inlineStr">
+        <is>
+          <t>Full coverage by 2025</t>
+        </is>
+      </c>
+      <c r="L44" s="4" t="inlineStr">
+        <is>
           <t>Breitbandausbau – Anteil der Haushalte mit Zugang zu Gigabit-Breitbandversorgung</t>
         </is>
       </c>
-      <c r="I44" s="4" t="inlineStr">
-        <is>
-          <t>Roll-out of broadband – share of households with access to gigabit broadband services</t>
-        </is>
-      </c>
-      <c r="J44" s="4" t="inlineStr">
-        <is>
-          <t>Flächendeckender Aufbau von Gigabitnetzen bis 2025</t>
-        </is>
-      </c>
-      <c r="K44" s="4" t="inlineStr">
-        <is>
-          <t>Universal gigabit network Roll-out by 2025</t>
-        </is>
-      </c>
-      <c r="L44" s="4" t="inlineStr">
-        <is>
-          <t>Flächendeckend bis 2025</t>
-        </is>
-      </c>
       <c r="M44" s="4" t="inlineStr">
-        <is>
-          <t>Full coverage by 2025</t>
-        </is>
-      </c>
-      <c r="N44" s="4" t="inlineStr">
-        <is>
-          <t>Breitbandausbau – Anteil der Haushalte mit Zugang zu Gigabit-Breitbandversorgung</t>
-        </is>
-      </c>
-      <c r="O44" s="4" t="inlineStr">
         <is>
           <t>Roll-out of broadband – share of households with access to gigabit broadband services</t>
         </is>
@@ -3876,50 +3434,40 @@
       </c>
       <c r="F45" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Ausländische Schulabsolventinnen und Schulabsolventen</t>
         </is>
       </c>
       <c r="G45" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Foreign school graduates</t>
         </is>
       </c>
       <c r="H45" s="4" t="inlineStr">
         <is>
+          <t>Erhöhung des Anteils der ausländischen Schulabgänger mit mindestens Hauptschulabschluss und Angleichung an die Quote deutscher Schulabgänger bis 2030</t>
+        </is>
+      </c>
+      <c r="I45" s="4" t="inlineStr">
+        <is>
+          <t>Increase the proportion of foreign school leavers with a least a secondary general school certificate and bring into line with that of German school leavers by 2030</t>
+        </is>
+      </c>
+      <c r="J45" s="4" t="inlineStr">
+        <is>
+          <t>Erhöhung der Abschlussquote ausländischer Schulabgänger und Angleichung an die Quote deutscher Abgänger bis 2030</t>
+        </is>
+      </c>
+      <c r="K45" s="4" t="inlineStr">
+        <is>
+          <t>Increase the graduation rate of foreign school leavers and bring it into line with the rate of German school leavers by 2030</t>
+        </is>
+      </c>
+      <c r="L45" s="4" t="inlineStr">
+        <is>
           <t>Ausländische Schulabsolventinnen und Schulabsolventen</t>
         </is>
       </c>
-      <c r="I45" s="4" t="inlineStr">
-        <is>
-          <t>Foreign school graduates</t>
-        </is>
-      </c>
-      <c r="J45" s="4" t="inlineStr">
-        <is>
-          <t>Erhöhung des Anteils der ausländischen Schulabgänger mit mindestens Hauptschulabschluss und Angleichung an die Quote deutscher Schulabgänger bis 2030</t>
-        </is>
-      </c>
-      <c r="K45" s="4" t="inlineStr">
-        <is>
-          <t>Increase the proportion of foreign school leavers with a least a secondary general school certificate and bring into line with that of German school leavers by 2030</t>
-        </is>
-      </c>
-      <c r="L45" s="4" t="inlineStr">
-        <is>
-          <t>Erhöhung der Abschlussquote ausländischen Schulabgänger und Angleichung an die Quote deutscher Abgänger bis 2030</t>
-        </is>
-      </c>
       <c r="M45" s="4" t="inlineStr">
-        <is>
-          <t>Increase the graduation rate of foreign school leavers and bring it into line with the rate of German school leavers by 2030</t>
-        </is>
-      </c>
-      <c r="N45" s="4" t="inlineStr">
-        <is>
-          <t>Ausländische Schulabsolventinnen und Schulabsolventen</t>
-        </is>
-      </c>
-      <c r="O45" s="4" t="inlineStr">
         <is>
           <t>Foreign school graduates</t>
         </is>
@@ -3953,50 +3501,40 @@
       </c>
       <c r="F46" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Gini-Koeffizient des Einkommens nach Sozialtransfers</t>
         </is>
       </c>
       <c r="G46" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Gini coefficient of income after social transfers</t>
         </is>
       </c>
       <c r="H46" s="4" t="inlineStr">
         <is>
+          <t>Gini-Koeffizient Einkommen nach Sozialtransfer bis 2030 unterhalb des EU-Wertes</t>
+        </is>
+      </c>
+      <c r="I46" s="4" t="inlineStr">
+        <is>
+          <t>Gini coefficient of income after social transfers to be below the EU figure by 2030</t>
+        </is>
+      </c>
+      <c r="J46" s="4" t="inlineStr">
+        <is>
+          <t>Bis 2030 unterhalb des EU-Wertes halten</t>
+        </is>
+      </c>
+      <c r="K46" s="4" t="inlineStr">
+        <is>
+          <t>To be below the EU figure by 2030</t>
+        </is>
+      </c>
+      <c r="L46" s="4" t="inlineStr">
+        <is>
           <t>Gini-Koeffizient des Einkommens nach Sozialtransfers</t>
         </is>
       </c>
-      <c r="I46" s="4" t="inlineStr">
-        <is>
-          <t>Gini coefficient of income after social transfers</t>
-        </is>
-      </c>
-      <c r="J46" s="4" t="inlineStr">
-        <is>
-          <t>Gini-Koeffizient Einkommen nach Sozialtransfer bis 2030 unterhalb des EU-Wertes</t>
-        </is>
-      </c>
-      <c r="K46" s="4" t="inlineStr">
-        <is>
-          <t>Gini coefficient of income after social transfers to be below the EU figure by 2030</t>
-        </is>
-      </c>
-      <c r="L46" s="4" t="inlineStr">
-        <is>
-          <t>Bis 2030 unterhalb des EU-Wertes halten</t>
-        </is>
-      </c>
       <c r="M46" s="4" t="inlineStr">
-        <is>
-          <t>To be below the EU figure by 2030</t>
-        </is>
-      </c>
-      <c r="N46" s="4" t="inlineStr">
-        <is>
-          <t>Gini-Koeffizient des Einkommens nach Sozialtransfers</t>
-        </is>
-      </c>
-      <c r="O46" s="4" t="inlineStr">
         <is>
           <t>Gini coefficient of income after social transfers</t>
         </is>
@@ -4030,50 +3568,40 @@
       </c>
       <c r="F47" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Anstieg der Siedlungs- und Verkehrsfläche in ha pro Tag</t>
         </is>
       </c>
       <c r="G47" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Expansion of settlement and transport area in ha per day</t>
         </is>
       </c>
       <c r="H47" s="4" t="inlineStr">
         <is>
+          <t>Senkung auf durchschnittlich unter 30 ha pro Tag bis 2030</t>
+        </is>
+      </c>
+      <c r="I47" s="4" t="inlineStr">
+        <is>
+          <t>Reduction to under 30 ha on average per day by 2030</t>
+        </is>
+      </c>
+      <c r="J47" s="4" t="inlineStr">
+        <is>
+          <t>Senkung auf 30 ha pro Tag bis 2030</t>
+        </is>
+      </c>
+      <c r="K47" s="4" t="inlineStr">
+        <is>
+          <t>Reduction to under 30 ha per day by 2030</t>
+        </is>
+      </c>
+      <c r="L47" s="4" t="inlineStr">
+        <is>
           <t>Anstieg der Siedlungs- und Verkehrsfläche in ha pro Tag</t>
         </is>
       </c>
-      <c r="I47" s="4" t="inlineStr">
-        <is>
-          <t>Expansion of settlement and transport area in ha per day</t>
-        </is>
-      </c>
-      <c r="J47" s="4" t="inlineStr">
-        <is>
-          <t>Senkung auf durchschnittlich unter 30 ha pro Tag bis 2030</t>
-        </is>
-      </c>
-      <c r="K47" s="4" t="inlineStr">
-        <is>
-          <t>Reduction to under 30 ha on average per day by 2030</t>
-        </is>
-      </c>
-      <c r="L47" s="4" t="inlineStr">
-        <is>
-          <t>Senkung auf 30 ha pro Tag bis 2030</t>
-        </is>
-      </c>
       <c r="M47" s="4" t="inlineStr">
-        <is>
-          <t>Reduction to under 30 ha per day by 2030</t>
-        </is>
-      </c>
-      <c r="N47" s="4" t="inlineStr">
-        <is>
-          <t>Anstieg der Siedlungs- und Verkehrsfläche in ha pro Tag</t>
-        </is>
-      </c>
-      <c r="O47" s="4" t="inlineStr">
         <is>
           <t>Expansion of settlement and transport area in ha per day</t>
         </is>
@@ -4107,50 +3635,40 @@
       </c>
       <c r="F48" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Freiraumverlust</t>
         </is>
       </c>
       <c r="G48" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Loss of open space area</t>
         </is>
       </c>
       <c r="H48" s="4" t="inlineStr">
         <is>
+          <t>Verringerung des einwohnerbezogenen Freiflächenverlustes</t>
+        </is>
+      </c>
+      <c r="I48" s="4" t="inlineStr">
+        <is>
+          <t>Reduce the loss of per capita open space area</t>
+        </is>
+      </c>
+      <c r="J48" s="4" t="inlineStr">
+        <is>
+          <t>Verringerung</t>
+        </is>
+      </c>
+      <c r="K48" s="4" t="inlineStr">
+        <is>
+          <t>Reduce the loss</t>
+        </is>
+      </c>
+      <c r="L48" s="4" t="inlineStr">
+        <is>
           <t>Freiraumverlust</t>
         </is>
       </c>
-      <c r="I48" s="4" t="inlineStr">
-        <is>
-          <t>Loss of open space area</t>
-        </is>
-      </c>
-      <c r="J48" s="4" t="inlineStr">
-        <is>
-          <t>Verringerung des einwohnerbezogenen Freiflächenverlustes</t>
-        </is>
-      </c>
-      <c r="K48" s="4" t="inlineStr">
-        <is>
-          <t>Reduce the loss of per capita open space area</t>
-        </is>
-      </c>
-      <c r="L48" s="4" t="inlineStr">
-        <is>
-          <t>Verringerung</t>
-        </is>
-      </c>
       <c r="M48" s="4" t="inlineStr">
-        <is>
-          <t>Reduce the loss</t>
-        </is>
-      </c>
-      <c r="N48" s="4" t="inlineStr">
-        <is>
-          <t>Freiraumverlust</t>
-        </is>
-      </c>
-      <c r="O48" s="4" t="inlineStr">
         <is>
           <t>Loss of open space area</t>
         </is>
@@ -4184,50 +3702,40 @@
       </c>
       <c r="F49" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Siedlungsdichte</t>
         </is>
       </c>
       <c r="G49" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Density of settlements</t>
         </is>
       </c>
       <c r="H49" s="4" t="inlineStr">
         <is>
+          <t>Keine Verringerung der Siedlungsdichte</t>
+        </is>
+      </c>
+      <c r="I49" s="4" t="inlineStr">
+        <is>
+          <t>No reduction in density of settlements</t>
+        </is>
+      </c>
+      <c r="J49" s="4" t="inlineStr">
+        <is>
+          <t>Keine Verringerung</t>
+        </is>
+      </c>
+      <c r="K49" s="4" t="inlineStr">
+        <is>
+          <t>No reduction</t>
+        </is>
+      </c>
+      <c r="L49" s="4" t="inlineStr">
+        <is>
           <t>Siedlungsdichte</t>
         </is>
       </c>
-      <c r="I49" s="4" t="inlineStr">
-        <is>
-          <t>Density of settlements</t>
-        </is>
-      </c>
-      <c r="J49" s="4" t="inlineStr">
-        <is>
-          <t>Keine Verringerung der Siedlungsdichte</t>
-        </is>
-      </c>
-      <c r="K49" s="4" t="inlineStr">
-        <is>
-          <t>No reduction in density of settlements</t>
-        </is>
-      </c>
-      <c r="L49" s="4" t="inlineStr">
-        <is>
-          <t>Keine Verringerung</t>
-        </is>
-      </c>
       <c r="M49" s="4" t="inlineStr">
-        <is>
-          <t>No reduction</t>
-        </is>
-      </c>
-      <c r="N49" s="4" t="inlineStr">
-        <is>
-          <t>Siedlungsdichte</t>
-        </is>
-      </c>
-      <c r="O49" s="4" t="inlineStr">
         <is>
           <t>Density of settlements</t>
         </is>
@@ -4261,50 +3769,40 @@
       </c>
       <c r="F50" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Endenergieverbrauch im Güterverkehr</t>
         </is>
       </c>
       <c r="G50" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Final energy consumption in goods transport</t>
         </is>
       </c>
       <c r="H50" s="4" t="inlineStr">
         <is>
+          <t>Senkung um 15 bis 20 % bis 2030</t>
+        </is>
+      </c>
+      <c r="I50" s="4" t="inlineStr">
+        <is>
+          <t>Reduction by 15–20% by 2030</t>
+        </is>
+      </c>
+      <c r="J50" s="4" t="inlineStr">
+        <is>
+          <t>Senkung um 15 bis 20 % bis 2030</t>
+        </is>
+      </c>
+      <c r="K50" s="4" t="inlineStr">
+        <is>
+          <t>Reduction by 15–20% by 2030</t>
+        </is>
+      </c>
+      <c r="L50" s="4" t="inlineStr">
+        <is>
           <t>Endenergieverbrauch im Güterverkehr</t>
         </is>
       </c>
-      <c r="I50" s="4" t="inlineStr">
-        <is>
-          <t>Final energy consumption in goods transport</t>
-        </is>
-      </c>
-      <c r="J50" s="4" t="inlineStr">
-        <is>
-          <t>Senkung um 15 bis 20 % bis 2030</t>
-        </is>
-      </c>
-      <c r="K50" s="4" t="inlineStr">
-        <is>
-          <t>Reduction by 15–20% by 2030</t>
-        </is>
-      </c>
-      <c r="L50" s="4" t="inlineStr">
-        <is>
-          <t>Senkung um 15 bis 20 % bis 2030</t>
-        </is>
-      </c>
       <c r="M50" s="4" t="inlineStr">
-        <is>
-          <t>Reduction by 15–20% by 2030</t>
-        </is>
-      </c>
-      <c r="N50" s="4" t="inlineStr">
-        <is>
-          <t>Endenergieverbrauch im Güterverkehr</t>
-        </is>
-      </c>
-      <c r="O50" s="4" t="inlineStr">
         <is>
           <t>Final energy consumption in goods transport</t>
         </is>
@@ -4338,50 +3836,40 @@
       </c>
       <c r="F51" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Endenergieverbrauch im Personenverkehr</t>
         </is>
       </c>
       <c r="G51" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Final energy consumption in passenger transport</t>
         </is>
       </c>
       <c r="H51" s="4" t="inlineStr">
         <is>
+          <t>Senkung um 15 bis 20 % bis 2030</t>
+        </is>
+      </c>
+      <c r="I51" s="4" t="inlineStr">
+        <is>
+          <t>Reduction by 15–20% by 2030</t>
+        </is>
+      </c>
+      <c r="J51" s="4" t="inlineStr">
+        <is>
+          <t>Senkung um 15 bis 20 % bis 2030</t>
+        </is>
+      </c>
+      <c r="K51" s="4" t="inlineStr">
+        <is>
+          <t>Reduction by 15–20% by 2030</t>
+        </is>
+      </c>
+      <c r="L51" s="4" t="inlineStr">
+        <is>
           <t>Endenergieverbrauch im Personenverkehr</t>
         </is>
       </c>
-      <c r="I51" s="4" t="inlineStr">
-        <is>
-          <t>Final energy consumption in passenger transport</t>
-        </is>
-      </c>
-      <c r="J51" s="4" t="inlineStr">
-        <is>
-          <t>Senkung um 15 bis 20 % bis 2030</t>
-        </is>
-      </c>
-      <c r="K51" s="4" t="inlineStr">
-        <is>
-          <t>Reduction by 15–20% by 2030</t>
-        </is>
-      </c>
-      <c r="L51" s="4" t="inlineStr">
-        <is>
-          <t>Senkung um 15 bis 20 % bis 2030</t>
-        </is>
-      </c>
       <c r="M51" s="4" t="inlineStr">
-        <is>
-          <t>Reduction by 15–20% by 2030</t>
-        </is>
-      </c>
-      <c r="N51" s="4" t="inlineStr">
-        <is>
-          <t>Endenergieverbrauch im Personenverkehr</t>
-        </is>
-      </c>
-      <c r="O51" s="4" t="inlineStr">
         <is>
           <t>Final energy consumption in passenger transport</t>
         </is>
@@ -4415,50 +3903,40 @@
       </c>
       <c r="F52" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Erreichbarkeit von Mittel- und Oberzentren mit öffentlichen Verkehrsmitteln</t>
         </is>
       </c>
       <c r="G52" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Accessibility of medium-sized and large cities by public transport</t>
         </is>
       </c>
       <c r="H52" s="4" t="inlineStr">
         <is>
+          <t>Verringerung der durchschnittlichen Reisezeit mit öffentlichen Verkehrsmitteln</t>
+        </is>
+      </c>
+      <c r="I52" s="4" t="inlineStr">
+        <is>
+          <t>Reduction of average travel time by public transport</t>
+        </is>
+      </c>
+      <c r="J52" s="4" t="inlineStr">
+        <is>
+          <t>Verringerung der Reisezeit mit öffentlichen Verkehrsmitteln</t>
+        </is>
+      </c>
+      <c r="K52" s="4" t="inlineStr">
+        <is>
+          <t>Reduction of travel time by public transport</t>
+        </is>
+      </c>
+      <c r="L52" s="4" t="inlineStr">
+        <is>
           <t>Erreichbarkeit von Mittel- und Oberzentren mit öffentlichen Verkehrsmitteln</t>
         </is>
       </c>
-      <c r="I52" s="4" t="inlineStr">
-        <is>
-          <t>Accessibility of medium-sized and large cities by public transport</t>
-        </is>
-      </c>
-      <c r="J52" s="4" t="inlineStr">
-        <is>
-          <t>Verringerung der durchschnittlichen Reisezeit mit öffentlichen Verkehrsmitteln</t>
-        </is>
-      </c>
-      <c r="K52" s="4" t="inlineStr">
-        <is>
-          <t>Reduction of average travel time by public transport</t>
-        </is>
-      </c>
-      <c r="L52" s="4" t="inlineStr">
-        <is>
-          <t>Verringerung der Reisezeit mit öffentlichen Verkehrsmitteln</t>
-        </is>
-      </c>
       <c r="M52" s="4" t="inlineStr">
-        <is>
-          <t>Reduction of travel time by public transport</t>
-        </is>
-      </c>
-      <c r="N52" s="4" t="inlineStr">
-        <is>
-          <t>Erreichbarkeit von Mittel- und Oberzentren mit öffentlichen Verkehrsmitteln</t>
-        </is>
-      </c>
-      <c r="O52" s="4" t="inlineStr">
         <is>
           <t>Accessibility of medium-sized and large cities by public transport</t>
         </is>
@@ -4492,50 +3970,40 @@
       </c>
       <c r="F53" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Überlastung durch Wohnkosten</t>
         </is>
       </c>
       <c r="G53" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Housing cost overload</t>
         </is>
       </c>
       <c r="H53" s="4" t="inlineStr">
         <is>
+          <t>Senkung des Anteils der überlasteten Personen an der Bevölkerung auf 13 % bis 2030</t>
+        </is>
+      </c>
+      <c r="I53" s="4" t="inlineStr">
+        <is>
+          <t>Reduce the proportion of people who are overburdened to 13% by 2030</t>
+        </is>
+      </c>
+      <c r="J53" s="4" t="inlineStr">
+        <is>
+          <t>Senkung auf 13 % bis 2030</t>
+        </is>
+      </c>
+      <c r="K53" s="4" t="inlineStr">
+        <is>
+          <t>Reduce to 13% by 2030</t>
+        </is>
+      </c>
+      <c r="L53" s="4" t="inlineStr">
+        <is>
           <t>Überlastung durch Wohnkosten</t>
         </is>
       </c>
-      <c r="I53" s="4" t="inlineStr">
-        <is>
-          <t>Housing cost overload</t>
-        </is>
-      </c>
-      <c r="J53" s="4" t="inlineStr">
-        <is>
-          <t>Senkung des Anteils der überlasteten Personen an der Bevölkerung auf 13 % bis 2030</t>
-        </is>
-      </c>
-      <c r="K53" s="4" t="inlineStr">
-        <is>
-          <t>Reduce the proportion of people who are overburdened to 13% by 2030</t>
-        </is>
-      </c>
-      <c r="L53" s="4" t="inlineStr">
-        <is>
-          <t>Senkung auf 13 % bis 2030</t>
-        </is>
-      </c>
       <c r="M53" s="4" t="inlineStr">
-        <is>
-          <t>Reduce to 13% by 2030</t>
-        </is>
-      </c>
-      <c r="N53" s="4" t="inlineStr">
-        <is>
-          <t>Überlastung durch Wohnkosten</t>
-        </is>
-      </c>
-      <c r="O53" s="4" t="inlineStr">
         <is>
           <t>Housing cost overload</t>
         </is>
@@ -4569,50 +4037,40 @@
       </c>
       <c r="F54" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Zahl der Objekte in der Deutschen Digitalen Bibliothek</t>
         </is>
       </c>
       <c r="G54" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Number of objects in the German Digital Library</t>
         </is>
       </c>
       <c r="H54" s="4" t="inlineStr">
         <is>
+          <t>Steigerung der Zahl der in der Deutschen Digitalen Bibliothek vernetzten Objekte auf 50 Millionen bis 2030</t>
+        </is>
+      </c>
+      <c r="I54" s="4" t="inlineStr">
+        <is>
+          <t>Increase in the number of objects in the network of the German Digital Library to 50 million by 2030</t>
+        </is>
+      </c>
+      <c r="J54" s="4" t="inlineStr">
+        <is>
+          <t>Steigerung auf 50 Millionen bis 2030</t>
+        </is>
+      </c>
+      <c r="K54" s="4" t="inlineStr">
+        <is>
+          <t>Increase to 50 million by 2030</t>
+        </is>
+      </c>
+      <c r="L54" s="4" t="inlineStr">
+        <is>
           <t>Zahl der Objekte in der Deutschen Digitalen Bibliothek</t>
         </is>
       </c>
-      <c r="I54" s="4" t="inlineStr">
-        <is>
-          <t>Number of objects in the German Digital Library</t>
-        </is>
-      </c>
-      <c r="J54" s="4" t="inlineStr">
-        <is>
-          <t>Steigerung der Zahl der in der Deutschen Digitalen Bibliothek vernetzten Objekte auf 50 Millionen bis 2030</t>
-        </is>
-      </c>
-      <c r="K54" s="4" t="inlineStr">
-        <is>
-          <t>Increase in the number of objects in the network of the German Digital Library to 50 million by 2030</t>
-        </is>
-      </c>
-      <c r="L54" s="4" t="inlineStr">
-        <is>
-          <t>Steigerung auf 50 Millionen bis 2030</t>
-        </is>
-      </c>
       <c r="M54" s="4" t="inlineStr">
-        <is>
-          <t>Increase to 50 million by 2030</t>
-        </is>
-      </c>
-      <c r="N54" s="4" t="inlineStr">
-        <is>
-          <t>Zahl der Objekte in der Deutschen Digitalen Bibliothek</t>
-        </is>
-      </c>
-      <c r="O54" s="4" t="inlineStr">
         <is>
           <t>Number of objects in the German Digital Library</t>
         </is>
@@ -4646,50 +4104,40 @@
       </c>
       <c r="F55" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Marktanteil von Produkten mit staatlichen Umweltzeichen</t>
         </is>
       </c>
       <c r="G55" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Market share of products certified by publicly managed eco-labelling schemes</t>
         </is>
       </c>
       <c r="H55" s="4" t="inlineStr">
         <is>
+          <t>Steigerung des Marktanteils auf 34 % bis 2030</t>
+        </is>
+      </c>
+      <c r="I55" s="4" t="inlineStr">
+        <is>
+          <t>Increase the market share to 34% by 2030</t>
+        </is>
+      </c>
+      <c r="J55" s="4" t="inlineStr">
+        <is>
+          <t>Steigerung auf 34 % bis 2030</t>
+        </is>
+      </c>
+      <c r="K55" s="4" t="inlineStr">
+        <is>
+          <t>Increase to 34% by 2030</t>
+        </is>
+      </c>
+      <c r="L55" s="4" t="inlineStr">
+        <is>
           <t>Marktanteil von Produkten mit staatlichen Umweltzeichen</t>
         </is>
       </c>
-      <c r="I55" s="4" t="inlineStr">
-        <is>
-          <t>Market share of products certified by publicly managed eco-labelling schemes</t>
-        </is>
-      </c>
-      <c r="J55" s="4" t="inlineStr">
-        <is>
-          <t>Steigerung des Marktanteils auf 34 % bis 2030</t>
-        </is>
-      </c>
-      <c r="K55" s="4" t="inlineStr">
-        <is>
-          <t>Increase the market share to 34% by 2030</t>
-        </is>
-      </c>
-      <c r="L55" s="4" t="inlineStr">
-        <is>
-          <t>Steigerung auf 34 % bis 2030</t>
-        </is>
-      </c>
       <c r="M55" s="4" t="inlineStr">
-        <is>
-          <t>Increase to 34% by 2030</t>
-        </is>
-      </c>
-      <c r="N55" s="4" t="inlineStr">
-        <is>
-          <t>Marktanteil von Produkten mit staatlichen Umweltzeichen</t>
-        </is>
-      </c>
-      <c r="O55" s="4" t="inlineStr">
         <is>
           <t>Market share of products certified by publicly managed eco-labelling schemes</t>
         </is>
@@ -4713,32 +4161,32 @@
       </c>
       <c r="D56" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>a) Rohstoffeinsatz</t>
         </is>
       </c>
       <c r="E56" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>a) Use of raw materials</t>
         </is>
       </c>
       <c r="F56" s="4" t="inlineStr">
         <is>
-          <t>a) Rohstoffeinsatz</t>
+          <t>Globale Umweltinanspruchnahme durch den Konsum privater Haushalte - Rohstoffeinsatz</t>
         </is>
       </c>
       <c r="G56" s="4" t="inlineStr">
         <is>
-          <t>a) Use of raw materials</t>
+          <t>Global environmental impact by private household consumption – use of raw materials</t>
         </is>
       </c>
       <c r="H56" s="4" t="inlineStr">
         <is>
-          <t>Globale Umweltinanspruchnahme durch den Konsum privater Haushalte - Rohstoffeinsatz</t>
+          <t>Kontinuierliche Reduzierung </t>
         </is>
       </c>
       <c r="I56" s="4" t="inlineStr">
         <is>
-          <t>Global environmental impact by private household consumption – use of raw materials</t>
+          <t>Steady reduction</t>
         </is>
       </c>
       <c r="J56" s="4" t="inlineStr">
@@ -4753,20 +4201,10 @@
       </c>
       <c r="L56" s="4" t="inlineStr">
         <is>
-          <t>Kontinuierliche Reduzierung </t>
+          <t>Rohstoffeinsatz</t>
         </is>
       </c>
       <c r="M56" s="4" t="inlineStr">
-        <is>
-          <t>Steady reduction</t>
-        </is>
-      </c>
-      <c r="N56" s="4" t="inlineStr">
-        <is>
-          <t>Rohstoffeinsatz</t>
-        </is>
-      </c>
-      <c r="O56" s="4" t="inlineStr">
         <is>
           <t>Use of raw materials</t>
         </is>
@@ -4790,32 +4228,32 @@
       </c>
       <c r="D57" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>b) Energieverbrauch</t>
         </is>
       </c>
       <c r="E57" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>b) Energy consumption</t>
         </is>
       </c>
       <c r="F57" s="4" t="inlineStr">
         <is>
-          <t>b) Energieverbrauch</t>
+          <t>Globale Umweltinanspruchnahme durch den Konsum privater Haushalte - Energieverbrauch</t>
         </is>
       </c>
       <c r="G57" s="4" t="inlineStr">
         <is>
-          <t>b) Energy consumption</t>
+          <t>Global environmental impact by private household consumption – energy consumption</t>
         </is>
       </c>
       <c r="H57" s="4" t="inlineStr">
         <is>
-          <t>Globale Umweltinanspruchnahme durch den Konsum privater Haushalte - Energieverbrauch</t>
+          <t>Kontinuierliche Reduzierung </t>
         </is>
       </c>
       <c r="I57" s="4" t="inlineStr">
         <is>
-          <t>Global environmental impact by private household consumption – energy consumption</t>
+          <t>Steady reduction</t>
         </is>
       </c>
       <c r="J57" s="4" t="inlineStr">
@@ -4830,20 +4268,10 @@
       </c>
       <c r="L57" s="4" t="inlineStr">
         <is>
-          <t>Kontinuierliche Reduzierung </t>
+          <t>Energieverbrauch</t>
         </is>
       </c>
       <c r="M57" s="4" t="inlineStr">
-        <is>
-          <t>Steady reduction</t>
-        </is>
-      </c>
-      <c r="N57" s="4" t="inlineStr">
-        <is>
-          <t>Energieverbrauch</t>
-        </is>
-      </c>
-      <c r="O57" s="4" t="inlineStr">
         <is>
           <t>Energy consumption</t>
         </is>
@@ -4867,32 +4295,32 @@
       </c>
       <c r="D58" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>c) CO2-Emissionen</t>
         </is>
       </c>
       <c r="E58" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>c) CO2 emissions</t>
         </is>
       </c>
       <c r="F58" s="4" t="inlineStr">
         <is>
-          <t>c) CO2-Emissionen</t>
+          <t>Globale Umweltinanspruchnahme durch den Konsum privater Haushalte - CO2-Emissionen</t>
         </is>
       </c>
       <c r="G58" s="4" t="inlineStr">
         <is>
-          <t>c) CO2 emissions</t>
+          <t>Global environmental impact by private household consumption – CO2 emissions</t>
         </is>
       </c>
       <c r="H58" s="4" t="inlineStr">
         <is>
-          <t>Globale Umweltinanspruchnahme durch den Konsum privater Haushalte - CO2-Emissionen</t>
+          <t>Kontinuierliche Reduzierung </t>
         </is>
       </c>
       <c r="I58" s="4" t="inlineStr">
         <is>
-          <t>Global environmental impact by private household consumption – CO2 emissions</t>
+          <t>Steady reduction</t>
         </is>
       </c>
       <c r="J58" s="4" t="inlineStr">
@@ -4907,20 +4335,10 @@
       </c>
       <c r="L58" s="4" t="inlineStr">
         <is>
-          <t>Kontinuierliche Reduzierung </t>
+          <t>CO2-Emissionen</t>
         </is>
       </c>
       <c r="M58" s="4" t="inlineStr">
-        <is>
-          <t>Steady reduction</t>
-        </is>
-      </c>
-      <c r="N58" s="4" t="inlineStr">
-        <is>
-          <t>CO2-Emissionen</t>
-        </is>
-      </c>
-      <c r="O58" s="4" t="inlineStr">
         <is>
           <t>CO2 emissions</t>
         </is>
@@ -4954,50 +4372,40 @@
       </c>
       <c r="F59" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Umweltmanagement EMAS</t>
         </is>
       </c>
       <c r="G59" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>EMAS eco-management</t>
         </is>
       </c>
       <c r="H59" s="4" t="inlineStr">
         <is>
+          <t>5 000 Organisationsstandorte bis 2030</t>
+        </is>
+      </c>
+      <c r="I59" s="4" t="inlineStr">
+        <is>
+          <t>5,000 locations of organisations by 2030</t>
+        </is>
+      </c>
+      <c r="J59" s="4" t="inlineStr">
+        <is>
+          <t>5 000 Standorte bis 2030</t>
+        </is>
+      </c>
+      <c r="K59" s="4" t="inlineStr">
+        <is>
+          <t>5,000 locations by 2030</t>
+        </is>
+      </c>
+      <c r="L59" s="4" t="inlineStr">
+        <is>
           <t>Umweltmanagement EMAS</t>
         </is>
       </c>
-      <c r="I59" s="4" t="inlineStr">
-        <is>
-          <t>EMAS eco-management</t>
-        </is>
-      </c>
-      <c r="J59" s="4" t="inlineStr">
-        <is>
-          <t>5 000 Organisationsstandorte bis 2030</t>
-        </is>
-      </c>
-      <c r="K59" s="4" t="inlineStr">
-        <is>
-          <t>5,000 locations of organisations by 2030</t>
-        </is>
-      </c>
-      <c r="L59" s="4" t="inlineStr">
-        <is>
-          <t>5 000 Standorte bis 2030</t>
-        </is>
-      </c>
       <c r="M59" s="4" t="inlineStr">
-        <is>
-          <t>5,000 locations by 2030</t>
-        </is>
-      </c>
-      <c r="N59" s="4" t="inlineStr">
-        <is>
-          <t>Umweltmanagement EMAS</t>
-        </is>
-      </c>
-      <c r="O59" s="4" t="inlineStr">
         <is>
           <t>EMAS eco-management</t>
         </is>
@@ -5021,60 +4429,50 @@
       </c>
       <c r="D60" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>a) Anteil Papier mit Blauem Engel am Gesamtpapierverbrauch der unmittelbaren Bundesverwaltung</t>
         </is>
       </c>
       <c r="E60" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>a) Paper bearing the Blue Angel label as a proportion of the total paper consumption of the direct federal administration</t>
         </is>
       </c>
       <c r="F60" s="4" t="inlineStr">
         <is>
-          <t>a) Anteil Papier mit Blauem Engel am Gesamtpapierverbrauch der unmittelbaren Bundesverwaltung</t>
+          <t>Anteil des Papiers mit Blauem Engel am Gesamtpapierverbrauch der unmittelbaren Bundesverwaltung</t>
         </is>
       </c>
       <c r="G60" s="4" t="inlineStr">
         <is>
-          <t>a) Paper bearing the Blue Angel label as a proportion of the total paper consumption of the direct federal administration</t>
+          <t>Paper bearing the Blue Angel label as a proportion of the total paper consumption of the direct federal administration</t>
         </is>
       </c>
       <c r="H60" s="4" t="inlineStr">
         <is>
+          <t>Steigerung des Anteils auf 95 % bis 2020</t>
+        </is>
+      </c>
+      <c r="I60" s="4" t="inlineStr">
+        <is>
+          <t>Increase the proportion to 95% by 2020</t>
+        </is>
+      </c>
+      <c r="J60" s="4" t="inlineStr">
+        <is>
+          <t>Steigerung auf 95 % bis 2020</t>
+        </is>
+      </c>
+      <c r="K60" s="4" t="inlineStr">
+        <is>
+          <t>Increase to 95% by 2020</t>
+        </is>
+      </c>
+      <c r="L60" s="4" t="inlineStr">
+        <is>
           <t>Anteil des Papiers mit Blauem Engel am Gesamtpapierverbrauch der unmittelbaren Bundesverwaltung</t>
         </is>
       </c>
-      <c r="I60" s="4" t="inlineStr">
-        <is>
-          <t>Paper bearing the Blue Angel label as a proportion of the total paper consumption of the direct federal administration</t>
-        </is>
-      </c>
-      <c r="J60" s="4" t="inlineStr">
-        <is>
-          <t>Steigerung des Anteils auf 95 % bis 2020</t>
-        </is>
-      </c>
-      <c r="K60" s="4" t="inlineStr">
-        <is>
-          <t>Increase the proportion to 95% by 2020</t>
-        </is>
-      </c>
-      <c r="L60" s="4" t="inlineStr">
-        <is>
-          <t>Steigerung auf 95 % bis 2020</t>
-        </is>
-      </c>
       <c r="M60" s="4" t="inlineStr">
-        <is>
-          <t>Increase to 95% by 2020</t>
-        </is>
-      </c>
-      <c r="N60" s="4" t="inlineStr">
-        <is>
-          <t>Anteil des Papiers mit Blauem Engel am Gesamtpapierverbrauch der unmittelbaren Bundesverwaltung</t>
-        </is>
-      </c>
-      <c r="O60" s="4" t="inlineStr">
         <is>
           <t>Paper bearing the Blue Angel label as a proportion of the total paper consumption of the direct federal administration</t>
         </is>
@@ -5098,60 +4496,50 @@
       </c>
       <c r="D61" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>b) CO2-Emissionen je Fahrleistungen der Kfz der öffentlichen Hand</t>
         </is>
       </c>
       <c r="E61" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>b) CO2 emissions of commercially available vehicles in the public sector</t>
         </is>
       </c>
       <c r="F61" s="4" t="inlineStr">
         <is>
-          <t>b) CO2-Emissionen je Fahrleistungen der Kfz der öffentlichen Hand</t>
+          <t>CO2-Emissionen von handelsüblichen Kraftfahrzeugen der öffentlichen Hand</t>
         </is>
       </c>
       <c r="G61" s="4" t="inlineStr">
         <is>
-          <t>b) CO2 emissions of commercially available vehicles in the public sector</t>
+          <t>CO2 emissions of commercially available vehicles in the public sector</t>
         </is>
       </c>
       <c r="H61" s="4" t="inlineStr">
         <is>
+          <t>Signifikante Senkung</t>
+        </is>
+      </c>
+      <c r="I61" s="4" t="inlineStr">
+        <is>
+          <t>Significantly reduce</t>
+        </is>
+      </c>
+      <c r="J61" s="4" t="inlineStr">
+        <is>
+          <t>Signifikante Senkung</t>
+        </is>
+      </c>
+      <c r="K61" s="4" t="inlineStr">
+        <is>
+          <t>Significantly reduce</t>
+        </is>
+      </c>
+      <c r="L61" s="4" t="inlineStr">
+        <is>
           <t>CO2-Emissionen von handelsüblichen Kraftfahrzeugen der öffentlichen Hand</t>
         </is>
       </c>
-      <c r="I61" s="4" t="inlineStr">
-        <is>
-          <t>CO2 emissions of commercially available vehicles in the public sector</t>
-        </is>
-      </c>
-      <c r="J61" s="4" t="inlineStr">
-        <is>
-          <t>Signifikante Senkung</t>
-        </is>
-      </c>
-      <c r="K61" s="4" t="inlineStr">
-        <is>
-          <t>Significantly reduce</t>
-        </is>
-      </c>
-      <c r="L61" s="4" t="inlineStr">
-        <is>
-          <t>Signifikante Senkung</t>
-        </is>
-      </c>
       <c r="M61" s="4" t="inlineStr">
-        <is>
-          <t>Significantly reduce</t>
-        </is>
-      </c>
-      <c r="N61" s="4" t="inlineStr">
-        <is>
-          <t>CO2-Emissionen von handelsüblichen Kraftfahrzeugen der öffentlichen Hand</t>
-        </is>
-      </c>
-      <c r="O61" s="4" t="inlineStr">
         <is>
           <t>CO2 emissions of commercially available vehicles in the public sector</t>
         </is>
@@ -5185,50 +4573,40 @@
       </c>
       <c r="F62" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Treibhausgasemissionen</t>
         </is>
       </c>
       <c r="G62" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Greenhouse gas emissions</t>
         </is>
       </c>
       <c r="H62" s="4" t="inlineStr">
         <is>
+          <t>Minderung um mindestens 40 % bis 2020, um mindestens 55 % bis 2030, jeweils gegenüber 1990; Erreichung von Treibhausgasneutralität bis 2050</t>
+        </is>
+      </c>
+      <c r="I62" s="4" t="inlineStr">
+        <is>
+          <t>Reduce by at least 40% by 2020 and by at least 55% by 2030, in each case compared to 1990; greenhouse gas neutrality to be achieved by 2050</t>
+        </is>
+      </c>
+      <c r="J62" s="4" t="inlineStr">
+        <is>
+          <t>Minderung um 40 % bis 2020, 55 % bis 2030 und Treibhausgasneutralität bis 2050</t>
+        </is>
+      </c>
+      <c r="K62" s="4" t="inlineStr">
+        <is>
+          <t>Reduce by 40% by 2020, 55% by 2030 and greenhouse gas neutrality by 2050</t>
+        </is>
+      </c>
+      <c r="L62" s="4" t="inlineStr">
+        <is>
           <t>Treibhausgasemissionen</t>
         </is>
       </c>
-      <c r="I62" s="4" t="inlineStr">
-        <is>
-          <t>Greenhouse gas emissions</t>
-        </is>
-      </c>
-      <c r="J62" s="4" t="inlineStr">
-        <is>
-          <t>Minderung um mindestens 40 % bis 2020, um mindestens 55 % bis 2030, jeweils gegenüber 1990; Erreichung von Treibhausgasneutralität bis 2050</t>
-        </is>
-      </c>
-      <c r="K62" s="4" t="inlineStr">
-        <is>
-          <t>Reduce by at least 40% by 2020 and by at least 55% by 2030, in each case compared to 1990; greenhouse gas neutrality to be achieved by 2050</t>
-        </is>
-      </c>
-      <c r="L62" s="4" t="inlineStr">
-        <is>
-          <t>Minderung um 40 % bis 2020, 55 % bis 2030 und Treibhausgasneutralität bis 2050</t>
-        </is>
-      </c>
       <c r="M62" s="4" t="inlineStr">
-        <is>
-          <t>Reduce by 40% by 2020, 55% by 2030 and greenhouse gas neutrality by 2050</t>
-        </is>
-      </c>
-      <c r="N62" s="4" t="inlineStr">
-        <is>
-          <t>Treibhausgasemissionen</t>
-        </is>
-      </c>
-      <c r="O62" s="4" t="inlineStr">
         <is>
           <t>Greenhouse gas emissions</t>
         </is>
@@ -5262,50 +4640,40 @@
       </c>
       <c r="F63" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Internationale Klimafinanzierung zur Reduktion von Treibhausgasen und zur Anpassung an den Klimawandel</t>
         </is>
       </c>
       <c r="G63" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>International climate finance for the reduction of greenhouse gases and adaptation to climate change</t>
         </is>
       </c>
       <c r="H63" s="4" t="inlineStr">
         <is>
+          <t>Verdopplung der Finanzierung bis 2020 gegenüber 2014</t>
+        </is>
+      </c>
+      <c r="I63" s="4" t="inlineStr">
+        <is>
+          <t>Double finance by 2020 compared to 2014</t>
+        </is>
+      </c>
+      <c r="J63" s="4" t="inlineStr">
+        <is>
+          <t>Verdopplung bis 2020</t>
+        </is>
+      </c>
+      <c r="K63" s="4" t="inlineStr">
+        <is>
+          <t>Double by 2020</t>
+        </is>
+      </c>
+      <c r="L63" s="4" t="inlineStr">
+        <is>
           <t>Internationale Klimafinanzierung zur Reduktion von Treibhausgasen und zur Anpassung an den Klimawandel</t>
         </is>
       </c>
-      <c r="I63" s="4" t="inlineStr">
-        <is>
-          <t>International climate finance for the reduction of greenhouse gases and adaptation to climate change</t>
-        </is>
-      </c>
-      <c r="J63" s="4" t="inlineStr">
-        <is>
-          <t>Verdopplung der Finanzierung bis 2020 gegenüber 2014</t>
-        </is>
-      </c>
-      <c r="K63" s="4" t="inlineStr">
-        <is>
-          <t>Double finance by 2020 compared to 2014</t>
-        </is>
-      </c>
-      <c r="L63" s="4" t="inlineStr">
-        <is>
-          <t>Verdopplung bis 2020</t>
-        </is>
-      </c>
       <c r="M63" s="4" t="inlineStr">
-        <is>
-          <t>Double by 2020</t>
-        </is>
-      </c>
-      <c r="N63" s="4" t="inlineStr">
-        <is>
-          <t>Internationale Klimafinanzierung zur Reduktion von Treibhausgasen und zur Anpassung an den Klimawandel</t>
-        </is>
-      </c>
-      <c r="O63" s="4" t="inlineStr">
         <is>
           <t>International climate finance for the reduction of greenhouse gases and adaptation to climate change</t>
         </is>
@@ -5329,60 +4697,50 @@
       </c>
       <c r="D64" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>aa) Ostsee</t>
         </is>
       </c>
       <c r="E64" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>aa) Baltic</t>
         </is>
       </c>
       <c r="F64" s="4" t="inlineStr">
         <is>
-          <t>aa) Ostsee</t>
+          <t>Nährstoffeinträge in Küstengewässer und Meeresgewässer – Stickstoffeintrag über die Zuflüsse in die Ostsee</t>
         </is>
       </c>
       <c r="G64" s="4" t="inlineStr">
         <is>
-          <t>aa) Baltic</t>
+          <t>Nitrogen input in coastal and marine waters – nitrogen input via the inflows into the Baltic Sea</t>
         </is>
       </c>
       <c r="H64" s="4" t="inlineStr">
         <is>
-          <t>Nährstoffeinträge in Küstengewässer und Meeresgewässer – Stickstoffeintrag über die Zuflüsse in die Ostsee</t>
+          <t>Einhaltung des guten Zustands nach Oberflächengewässerverordnung (Jahresmittelwerte für Gesamtstickstoff bei in die Ostsee mündenden Flüssen sollen 2,6 Milligramm pro Liter nicht überschreiten)</t>
         </is>
       </c>
       <c r="I64" s="4" t="inlineStr">
         <is>
-          <t>Nitrogen input in coastal and marine waters – nitrogen input via the inflows into the Baltic Sea</t>
+          <t>Adherence to good quality in accordance with the Ordinance on the Protection of Surface Waters (Oberflächengewässerver-ordnung) (annual averages for total nitro-gen in rivers flowing into the Baltic may not exceed 2.6 mg/l)</t>
         </is>
       </c>
       <c r="J64" s="4" t="inlineStr">
         <is>
-          <t>Einhaltung des guten Zustands nach Oberflächengewässerverordnung (Jahresmittelwerte für Gesamtstickstoff bei in die Ostsee mündenden Flüssen sollen 2,6 Milligramm pro Liter nicht überschreiten)</t>
+          <t>Gesamtstickstoff in Zuflüssen unter 2,6 mg/l</t>
         </is>
       </c>
       <c r="K64" s="4" t="inlineStr">
         <is>
-          <t>Adherence to good quality in accordance with the Ordinance on the Protection of Surface Waters (Oberflächengewässerver-ordnung) (annual averages for total nitro-gen in rivers flowing into the Baltic may not exceed 2.6 mg/l)</t>
+          <t>Total nitrogen in the inflows below 2.6 mg/l</t>
         </is>
       </c>
       <c r="L64" s="4" t="inlineStr">
         <is>
-          <t>Gesamtstickstoff in Zuflüssen unter 2,6 mg/l</t>
+          <t>Stickstoffeinträge in Küsten- und Meeresgewässer der Ostsee</t>
         </is>
       </c>
       <c r="M64" s="4" t="inlineStr">
-        <is>
-          <t>Total nitrogen in the inflows below 2.6 mg/l</t>
-        </is>
-      </c>
-      <c r="N64" s="4" t="inlineStr">
-        <is>
-          <t>Stickstoffeinträge in Küsten- und Meeresgewässer der Ostsee</t>
-        </is>
-      </c>
-      <c r="O64" s="4" t="inlineStr">
         <is>
           <t>Nitrogen input in coastal and marine waters of the Baltic Sea</t>
         </is>
@@ -5406,60 +4764,50 @@
       </c>
       <c r="D65" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>ab) Nordsee</t>
         </is>
       </c>
       <c r="E65" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>ab) North Sea</t>
         </is>
       </c>
       <c r="F65" s="4" t="inlineStr">
         <is>
-          <t>ab) Nordsee</t>
+          <t>Nährstoffeinträge in Küstengewässer und Meeresgewässer – Stickstoffeintrag über die Zuflüsse in die Nordsee</t>
         </is>
       </c>
       <c r="G65" s="4" t="inlineStr">
         <is>
-          <t>ab) North Sea</t>
+          <t>Nitrogen input in coastal and marine waters – nitrogen input via the inflows into the North Sea</t>
         </is>
       </c>
       <c r="H65" s="4" t="inlineStr">
         <is>
-          <t>Nährstoffeinträge in Küstengewässer und Meeresgewässer – Stickstoffeintrag über die Zuflüsse in die Nordsee</t>
+          <t>Einhaltung des guten Zustands nach Oberflächengewässerverordnung (Jahresmittelwerte für Gesamtstickstoff bei in die Nordsee mündenden Flüssen sollen 2,8 Milligramm pro Liter nicht überschreiten)</t>
         </is>
       </c>
       <c r="I65" s="4" t="inlineStr">
         <is>
-          <t>Nitrogen input in coastal and marine waters – nitrogen input via the inflows into the North Sea</t>
+          <t>Adherence to good quality in accordance with the Ordinance on the Protection of Surface Waters (annual averages for total nitrogen in rivers flowing into the North Sea may not exceed 2.8 mg/l)</t>
         </is>
       </c>
       <c r="J65" s="4" t="inlineStr">
         <is>
-          <t>Einhaltung des guten Zustands nach Oberflächengewässerverordnung (Jahresmittelwerte für Gesamtstickstoff bei in die Nordsee mündenden Flüssen sollen 2,8 Milligramm pro Liter nicht überschreiten)</t>
+          <t>Gesamtstickstoff in Zuflüssen unter 2,8 mg/l</t>
         </is>
       </c>
       <c r="K65" s="4" t="inlineStr">
         <is>
-          <t>Adherence to good quality in accordance with the Ordinance on the Protection of Surface Waters (annual averages for total nitrogen in rivers flowing into the North Sea may not exceed 2.8 mg/l)</t>
+          <t>Total nitrogen in the inflows below 2.8 mg/l</t>
         </is>
       </c>
       <c r="L65" s="4" t="inlineStr">
         <is>
-          <t>Gesamtstickstoff in Zuflüssen unter 2,8 mg/l</t>
+          <t>Stickstoffeinträge in Küstengewässer und Meeresgewässer der Nordsee</t>
         </is>
       </c>
       <c r="M65" s="4" t="inlineStr">
-        <is>
-          <t>Total nitrogen in the inflows below 2.8 mg/l</t>
-        </is>
-      </c>
-      <c r="N65" s="4" t="inlineStr">
-        <is>
-          <t>Stickstoffeinträge in Küstengewässer und Meeresgewässer der Nordsee</t>
-        </is>
-      </c>
-      <c r="O65" s="4" t="inlineStr">
         <is>
           <t>Nitrogen input in coastal and marine waters of the North Sea</t>
         </is>
@@ -5493,50 +4841,40 @@
       </c>
       <c r="F66" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Anteil der nachhaltig befischten Fischbestände in Nord- und Ostsee</t>
         </is>
       </c>
       <c r="G66" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Share of sustainably fished fish populations in the North Sea and Baltic</t>
         </is>
       </c>
       <c r="H66" s="4" t="inlineStr">
         <is>
+          <t>Alle wirtschaftlich genutzten Fischbestände sollen nach dem MSY-Ansatz nachhaltig bewirtschaftet werden bis 2020</t>
+        </is>
+      </c>
+      <c r="I66" s="4" t="inlineStr">
+        <is>
+          <t>All fish stocks used for commercial purpos-es to be sustainably managed in accordance with the Maximum Sustainable Yield (MSY) approach by 2020</t>
+        </is>
+      </c>
+      <c r="J66" s="4" t="inlineStr">
+        <is>
+          <t>Außschließlich nachhaltig bewirtschaftete Fischbestände bis 2020</t>
+        </is>
+      </c>
+      <c r="K66" s="4" t="inlineStr">
+        <is>
+          <t>Only sustainably managed fish stocks by 2020</t>
+        </is>
+      </c>
+      <c r="L66" s="4" t="inlineStr">
+        <is>
           <t>Anteil der nachhaltig befischten Fischbestände in Nord- und Ostsee</t>
         </is>
       </c>
-      <c r="I66" s="4" t="inlineStr">
-        <is>
-          <t>Share of sustainably fished fish populations in the North Sea and Baltic</t>
-        </is>
-      </c>
-      <c r="J66" s="4" t="inlineStr">
-        <is>
-          <t>Alle wirtschaftlich genutzten Fischbestände sollen nach dem MSY-Ansatz nachhaltig bewirtschaftet werden bis 2020</t>
-        </is>
-      </c>
-      <c r="K66" s="4" t="inlineStr">
-        <is>
-          <t>All fish stocks used for commercial purpos-es to be sustainably managed in accordance with the Maximum Sustainable Yield (MSY) approach by 2020</t>
-        </is>
-      </c>
-      <c r="L66" s="4" t="inlineStr">
-        <is>
-          <t>Außschließlich nachhaltig bewirtschaftete Fischbestände bis 2020</t>
-        </is>
-      </c>
       <c r="M66" s="4" t="inlineStr">
-        <is>
-          <t>Only sustainably managed fish stocks by 2020</t>
-        </is>
-      </c>
-      <c r="N66" s="4" t="inlineStr">
-        <is>
-          <t>Anteil der nachhaltig befischten Fischbestände in Nord- und Ostsee</t>
-        </is>
-      </c>
-      <c r="O66" s="4" t="inlineStr">
         <is>
           <t>Share of sustainably fished fish populations in the North Sea and Baltic</t>
         </is>
@@ -5570,50 +4908,40 @@
       </c>
       <c r="F67" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Artenvielfalt und Landschaftsqualität</t>
         </is>
       </c>
       <c r="G67" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Biodiversity and landscape quality</t>
         </is>
       </c>
       <c r="H67" s="4" t="inlineStr">
         <is>
+          <t>Erreichen des Indexwertes 100 bis 2030</t>
+        </is>
+      </c>
+      <c r="I67" s="4" t="inlineStr">
+        <is>
+          <t>Reach the index value of 100 by 2030</t>
+        </is>
+      </c>
+      <c r="J67" s="4" t="inlineStr">
+        <is>
+          <t>Erreichen des Indexwertes 100 bis 2030</t>
+        </is>
+      </c>
+      <c r="K67" s="4" t="inlineStr">
+        <is>
+          <t>Reach the index value of 100 by 2030</t>
+        </is>
+      </c>
+      <c r="L67" s="4" t="inlineStr">
+        <is>
           <t>Artenvielfalt und Landschaftsqualität</t>
         </is>
       </c>
-      <c r="I67" s="4" t="inlineStr">
-        <is>
-          <t>Biodiversity and landscape quality</t>
-        </is>
-      </c>
-      <c r="J67" s="4" t="inlineStr">
-        <is>
-          <t>Erreichen des Indexwertes 100 bis 2030</t>
-        </is>
-      </c>
-      <c r="K67" s="4" t="inlineStr">
-        <is>
-          <t>Reach the index value of 100 by 2030</t>
-        </is>
-      </c>
-      <c r="L67" s="4" t="inlineStr">
-        <is>
-          <t>Erreichen des Indexwertes 100 bis 2030</t>
-        </is>
-      </c>
       <c r="M67" s="4" t="inlineStr">
-        <is>
-          <t>Reach the index value of 100 by 2030</t>
-        </is>
-      </c>
-      <c r="N67" s="4" t="inlineStr">
-        <is>
-          <t>Artenvielfalt und Landschaftsqualität</t>
-        </is>
-      </c>
-      <c r="O67" s="4" t="inlineStr">
         <is>
           <t>Biodiversity and landscape quality</t>
         </is>
@@ -5647,50 +4975,40 @@
       </c>
       <c r="F68" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Eutrophierung der Ökosysteme</t>
         </is>
       </c>
       <c r="G68" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Eutrophication of ecosystems</t>
         </is>
       </c>
       <c r="H68" s="4" t="inlineStr">
         <is>
+          <t>Verringerung um 35 % bis 2030 gegenüber 2005</t>
+        </is>
+      </c>
+      <c r="I68" s="4" t="inlineStr">
+        <is>
+          <t>Reduction by 35% by 2030 compared to 2005</t>
+        </is>
+      </c>
+      <c r="J68" s="4" t="inlineStr">
+        <is>
+          <t>Verringerung um 35 % bis 2030</t>
+        </is>
+      </c>
+      <c r="K68" s="4" t="inlineStr">
+        <is>
+          <t>Reduction by 35% by 2030</t>
+        </is>
+      </c>
+      <c r="L68" s="4" t="inlineStr">
+        <is>
           <t>Eutrophierung der Ökosysteme</t>
         </is>
       </c>
-      <c r="I68" s="4" t="inlineStr">
-        <is>
-          <t>Eutrophication of ecosystems</t>
-        </is>
-      </c>
-      <c r="J68" s="4" t="inlineStr">
-        <is>
-          <t>Verringerung um 35 % bis 2030 gegenüber 2005</t>
-        </is>
-      </c>
-      <c r="K68" s="4" t="inlineStr">
-        <is>
-          <t>Reduction by 35% by 2030 compared to 2005</t>
-        </is>
-      </c>
-      <c r="L68" s="4" t="inlineStr">
-        <is>
-          <t>Verringerung um 35 % bis 2030</t>
-        </is>
-      </c>
       <c r="M68" s="4" t="inlineStr">
-        <is>
-          <t>Reduction by 35% by 2030</t>
-        </is>
-      </c>
-      <c r="N68" s="4" t="inlineStr">
-        <is>
-          <t>Eutrophierung der Ökosysteme</t>
-        </is>
-      </c>
-      <c r="O68" s="4" t="inlineStr">
         <is>
           <t>Eutrophication of ecosystems</t>
         </is>
@@ -5714,60 +5032,50 @@
       </c>
       <c r="D69" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>a) REDD+-Regelwerk</t>
         </is>
       </c>
       <c r="E69" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>a) REDD+ rulebook</t>
         </is>
       </c>
       <c r="F69" s="4" t="inlineStr">
         <is>
-          <t>a) REDD+-Regelwerk</t>
+          <t>Erhalt bzw. Wiederaufbau von Wäldern in Entwicklungsländern unter dem REDD+-Regelwerk</t>
         </is>
       </c>
       <c r="G69" s="4" t="inlineStr">
         <is>
-          <t>a) REDD+ rulebook</t>
+          <t>Preservation or restoration of forests in developing countries under the REDD+ rulebook</t>
         </is>
       </c>
       <c r="H69" s="4" t="inlineStr">
         <is>
+          <t>Steigerung der Zahlungen bis 2030</t>
+        </is>
+      </c>
+      <c r="I69" s="4" t="inlineStr">
+        <is>
+          <t>Increase payments by 2030</t>
+        </is>
+      </c>
+      <c r="J69" s="4" t="inlineStr">
+        <is>
+          <t>Steigerung der Zahlungen bis 2030</t>
+        </is>
+      </c>
+      <c r="K69" s="4" t="inlineStr">
+        <is>
+          <t>Increase payments by 2030</t>
+        </is>
+      </c>
+      <c r="L69" s="4" t="inlineStr">
+        <is>
           <t>Erhalt bzw. Wiederaufbau von Wäldern in Entwicklungsländern unter dem REDD+-Regelwerk</t>
         </is>
       </c>
-      <c r="I69" s="4" t="inlineStr">
-        <is>
-          <t>Preservation or restoration of forests in developing countries under the REDD+ rulebook</t>
-        </is>
-      </c>
-      <c r="J69" s="4" t="inlineStr">
-        <is>
-          <t>Steigerung der Zahlungen bis 2030</t>
-        </is>
-      </c>
-      <c r="K69" s="4" t="inlineStr">
-        <is>
-          <t>Increase payments by 2030</t>
-        </is>
-      </c>
-      <c r="L69" s="4" t="inlineStr">
-        <is>
-          <t>Steigerung der Zahlungen bis 2030</t>
-        </is>
-      </c>
       <c r="M69" s="4" t="inlineStr">
-        <is>
-          <t>Increase payments by 2030</t>
-        </is>
-      </c>
-      <c r="N69" s="4" t="inlineStr">
-        <is>
-          <t>Erhalt bzw. Wiederaufbau von Wäldern in Entwicklungsländern unter dem REDD+-Regelwerk</t>
-        </is>
-      </c>
-      <c r="O69" s="4" t="inlineStr">
         <is>
           <t>Preservation or restoration of forests in developing countries under the REDD+ rulebook</t>
         </is>
@@ -5791,60 +5099,50 @@
       </c>
       <c r="D70" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>b) Internationaler Bodenschutz</t>
         </is>
       </c>
       <c r="E70" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>b) Combat Desertification</t>
         </is>
       </c>
       <c r="F70" s="4" t="inlineStr">
         <is>
-          <t>b) Internationaler Bodenschutz</t>
+          <t>Deutsche bilaterale Bruttoentwicklungsausgaben zur Umsetzung des Übereinkommens der VN zur Bekämpfung der Wüstenbildung</t>
         </is>
       </c>
       <c r="G70" s="4" t="inlineStr">
         <is>
-          <t>b) Combat Desertification</t>
+          <t>German gross bilateral development expenditure for the implementation of the UN Convention to Combat Desertification</t>
         </is>
       </c>
       <c r="H70" s="4" t="inlineStr">
         <is>
+          <t>Steigerung der Zahlungen bis 2030</t>
+        </is>
+      </c>
+      <c r="I70" s="4" t="inlineStr">
+        <is>
+          <t>Payments to be increased by 2030</t>
+        </is>
+      </c>
+      <c r="J70" s="4" t="inlineStr">
+        <is>
+          <t>Steigerung der Zahlungen bis 2030</t>
+        </is>
+      </c>
+      <c r="K70" s="4" t="inlineStr">
+        <is>
+          <t>Payments to be increased by 2030</t>
+        </is>
+      </c>
+      <c r="L70" s="4" t="inlineStr">
+        <is>
           <t>Deutsche bilaterale Bruttoentwicklungsausgaben zur Umsetzung des Übereinkommens der VN zur Bekämpfung der Wüstenbildung</t>
         </is>
       </c>
-      <c r="I70" s="4" t="inlineStr">
-        <is>
-          <t>German gross bilateral development expenditure for the implementation of the UN Convention to Combat Desertification</t>
-        </is>
-      </c>
-      <c r="J70" s="4" t="inlineStr">
-        <is>
-          <t>Steigerung der Zahlungen bis 2030</t>
-        </is>
-      </c>
-      <c r="K70" s="4" t="inlineStr">
-        <is>
-          <t>Payments to be increased by 2030</t>
-        </is>
-      </c>
-      <c r="L70" s="4" t="inlineStr">
-        <is>
-          <t>Steigerung der Zahlungen bis 2030</t>
-        </is>
-      </c>
       <c r="M70" s="4" t="inlineStr">
-        <is>
-          <t>Payments to be increased by 2030</t>
-        </is>
-      </c>
-      <c r="N70" s="4" t="inlineStr">
-        <is>
-          <t>Deutsche bilaterale Bruttoentwicklungsausgaben zur Umsetzung des Übereinkommens der VN zur Bekämpfung der Wüstenbildung</t>
-        </is>
-      </c>
-      <c r="O70" s="4" t="inlineStr">
         <is>
           <t>German gross bilateral development expenditure for the implementation of the UN Convention to Combat Desertification</t>
         </is>
@@ -5878,50 +5176,40 @@
       </c>
       <c r="F71" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Straftaten</t>
         </is>
       </c>
       <c r="G71" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Criminal offences</t>
         </is>
       </c>
       <c r="H71" s="4" t="inlineStr">
         <is>
+          <t>Rückgang der Zahl der erfassten Straftaten je 100 000 Einwohner/ -innen auf unter 6 500 bis 2030</t>
+        </is>
+      </c>
+      <c r="I71" s="4" t="inlineStr">
+        <is>
+          <t>Reduce the number of criminal offences re-corded per 100,000 inhabitants to less than 6,500 by 2030</t>
+        </is>
+      </c>
+      <c r="J71" s="4" t="inlineStr">
+        <is>
+          <t>Rückgang von Straftaten auf unter 6 500 je 100 000 Einwohner/ -innen bis 2030</t>
+        </is>
+      </c>
+      <c r="K71" s="4" t="inlineStr">
+        <is>
+          <t>Reduce criminal offences  to less than 6,500 per 100,000 inhabitants by 2030</t>
+        </is>
+      </c>
+      <c r="L71" s="4" t="inlineStr">
+        <is>
           <t>Straftaten</t>
         </is>
       </c>
-      <c r="I71" s="4" t="inlineStr">
-        <is>
-          <t>Criminal offences</t>
-        </is>
-      </c>
-      <c r="J71" s="4" t="inlineStr">
-        <is>
-          <t>Rückgang der Zahl der erfassten Straftaten je 100 000 Einwohner/ -innen auf unter 6 500 bis 2030</t>
-        </is>
-      </c>
-      <c r="K71" s="4" t="inlineStr">
-        <is>
-          <t>Reduce the number of criminal offences re-corded per 100,000 inhabitants to less than 6,500 by 2030</t>
-        </is>
-      </c>
-      <c r="L71" s="4" t="inlineStr">
-        <is>
-          <t>Rückgang von Straftaten auf unter 6 500 je 100 000 Einwohner/ -innen bis 2030</t>
-        </is>
-      </c>
       <c r="M71" s="4" t="inlineStr">
-        <is>
-          <t>Reduce criminal offences  to less than 6,500 per 100,000 inhabitants by 2030</t>
-        </is>
-      </c>
-      <c r="N71" s="4" t="inlineStr">
-        <is>
-          <t>Straftaten</t>
-        </is>
-      </c>
-      <c r="O71" s="4" t="inlineStr">
         <is>
           <t>Criminal offences</t>
         </is>
@@ -5955,50 +5243,40 @@
       </c>
       <c r="F72" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Anzahl der in betroffenen Weltregionen durchgeführten Projekte zur Sicherung, Registrierung und Zerstörung von Kleinwaffen und leichten Waffen durch Deutschland</t>
         </is>
       </c>
       <c r="G72" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Number of projects to secure, register and destroy small arms and light weapons carried out by Germany in affected regions of the world</t>
         </is>
       </c>
       <c r="H72" s="4" t="inlineStr">
         <is>
+          <t>Mindestens 15 Projekte pro Jahr bis 2030</t>
+        </is>
+      </c>
+      <c r="I72" s="4" t="inlineStr">
+        <is>
+          <t>At least 15 projects per year by 2030</t>
+        </is>
+      </c>
+      <c r="J72" s="4" t="inlineStr">
+        <is>
+          <t>Mindestens 15 Projekte pro Jahr bis 2030</t>
+        </is>
+      </c>
+      <c r="K72" s="4" t="inlineStr">
+        <is>
+          <t>At least 15 projects per year by 2030</t>
+        </is>
+      </c>
+      <c r="L72" s="4" t="inlineStr">
+        <is>
           <t>Anzahl der in betroffenen Weltregionen durchgeführten Projekte zur Sicherung, Registrierung und Zerstörung von Kleinwaffen und leichten Waffen durch Deutschland</t>
         </is>
       </c>
-      <c r="I72" s="4" t="inlineStr">
-        <is>
-          <t>Number of projects to secure, register and destroy small arms and light weapons carried out by Germany in affected regions of the world</t>
-        </is>
-      </c>
-      <c r="J72" s="4" t="inlineStr">
-        <is>
-          <t>Mindestens 15 Projekte pro Jahr bis 2030</t>
-        </is>
-      </c>
-      <c r="K72" s="4" t="inlineStr">
-        <is>
-          <t>At least 15 projects per year by 2030</t>
-        </is>
-      </c>
-      <c r="L72" s="4" t="inlineStr">
-        <is>
-          <t>Mindestens 15 Projekte pro Jahr bis 2030</t>
-        </is>
-      </c>
       <c r="M72" s="4" t="inlineStr">
-        <is>
-          <t>At least 15 projects per year by 2030</t>
-        </is>
-      </c>
-      <c r="N72" s="4" t="inlineStr">
-        <is>
-          <t>Anzahl der in betroffenen Weltregionen durchgeführten Projekte zur Sicherung, Registrierung und Zerstörung von Kleinwaffen und leichten Waffen durch Deutschland</t>
-        </is>
-      </c>
-      <c r="O72" s="4" t="inlineStr">
         <is>
           <t>Number of projects to secure, register and destroy small arms and light weapons carried out by Germany in affected regions of the world</t>
         </is>
@@ -6022,60 +5300,50 @@
       </c>
       <c r="D73" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>a) CPI Deutschland</t>
         </is>
       </c>
       <c r="E73" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>a) CPI Germany</t>
         </is>
       </c>
       <c r="F73" s="4" t="inlineStr">
         <is>
-          <t>a) CPI Deutschland</t>
+          <t>Corruption Perception Index in Deutschland</t>
         </is>
       </c>
       <c r="G73" s="4" t="inlineStr">
         <is>
-          <t>a) CPI Germany</t>
+          <t>Corruption Perceptions Index in Germany</t>
         </is>
       </c>
       <c r="H73" s="4" t="inlineStr">
         <is>
+          <t>Verbesserung gegenüber 2012 bis 2030</t>
+        </is>
+      </c>
+      <c r="I73" s="4" t="inlineStr">
+        <is>
+          <t>Improvement by 2030, compared to 2012</t>
+        </is>
+      </c>
+      <c r="J73" s="4" t="inlineStr">
+        <is>
+          <t>Verbesserung bis 2030</t>
+        </is>
+      </c>
+      <c r="K73" s="4" t="inlineStr">
+        <is>
+          <t>Improvement by 2030</t>
+        </is>
+      </c>
+      <c r="L73" s="4" t="inlineStr">
+        <is>
           <t>Corruption Perception Index in Deutschland</t>
         </is>
       </c>
-      <c r="I73" s="4" t="inlineStr">
-        <is>
-          <t>Corruption Perceptions Index in Germany</t>
-        </is>
-      </c>
-      <c r="J73" s="4" t="inlineStr">
-        <is>
-          <t>Verbesserung gegenüber 2012 bis 2030</t>
-        </is>
-      </c>
-      <c r="K73" s="4" t="inlineStr">
-        <is>
-          <t>Improvement by 2030, compared to 2012</t>
-        </is>
-      </c>
-      <c r="L73" s="4" t="inlineStr">
-        <is>
-          <t>Verbesserung bis 2030</t>
-        </is>
-      </c>
       <c r="M73" s="4" t="inlineStr">
-        <is>
-          <t>Improvement by 2030</t>
-        </is>
-      </c>
-      <c r="N73" s="4" t="inlineStr">
-        <is>
-          <t>Corruption Perception Index in Deutschland</t>
-        </is>
-      </c>
-      <c r="O73" s="4" t="inlineStr">
         <is>
           <t>Corruption Perceptions Index in Germany</t>
         </is>
@@ -6099,60 +5367,50 @@
       </c>
       <c r="D74" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>b) Partnerländer</t>
         </is>
       </c>
       <c r="E74" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>b) Partner countries</t>
         </is>
       </c>
       <c r="F74" s="4" t="inlineStr">
         <is>
-          <t>b) Partnerländer</t>
+          <t>Anzahl der Partnerländer deutscher Entwicklungszusammenarbeit, deren Bewertung sich gegenüber 2012 verbessert hat</t>
         </is>
       </c>
       <c r="G74" s="4" t="inlineStr">
         <is>
-          <t>b) Partner countries</t>
+          <t>Number of partner countries involved in German development cooperation with improved CPI scores compared with 2012</t>
         </is>
       </c>
       <c r="H74" s="4" t="inlineStr">
         <is>
+          <t>Verbesserung gegenüber 2012 bis 2030</t>
+        </is>
+      </c>
+      <c r="I74" s="4" t="inlineStr">
+        <is>
+          <t>Improvement by 2030, compared to 2012</t>
+        </is>
+      </c>
+      <c r="J74" s="4" t="inlineStr">
+        <is>
+          <t>Verbesserung bis 2030</t>
+        </is>
+      </c>
+      <c r="K74" s="4" t="inlineStr">
+        <is>
+          <t>Improvement by 2030</t>
+        </is>
+      </c>
+      <c r="L74" s="4" t="inlineStr">
+        <is>
           <t>Anzahl der Partnerländer deutscher Entwicklungszusammenarbeit, deren Bewertung sich gegenüber 2012 verbessert hat</t>
         </is>
       </c>
-      <c r="I74" s="4" t="inlineStr">
-        <is>
-          <t>Number of partner countries involved in German development cooperation with improved CPI scores compared with 2012</t>
-        </is>
-      </c>
-      <c r="J74" s="4" t="inlineStr">
-        <is>
-          <t>Verbesserung gegenüber 2012 bis 2030</t>
-        </is>
-      </c>
-      <c r="K74" s="4" t="inlineStr">
-        <is>
-          <t>Improvement by 2030, compared to 2012</t>
-        </is>
-      </c>
-      <c r="L74" s="4" t="inlineStr">
-        <is>
-          <t>Verbesserung bis 2030</t>
-        </is>
-      </c>
       <c r="M74" s="4" t="inlineStr">
-        <is>
-          <t>Improvement by 2030</t>
-        </is>
-      </c>
-      <c r="N74" s="4" t="inlineStr">
-        <is>
-          <t>Anzahl der Partnerländer deutscher Entwicklungszusammenarbeit, deren Bewertung sich gegenüber 2012 verbessert hat</t>
-        </is>
-      </c>
-      <c r="O74" s="4" t="inlineStr">
         <is>
           <t>Number of partner countries involved in German development cooperation with improved CPI scores compared with 2012</t>
         </is>
@@ -6186,50 +5444,40 @@
       </c>
       <c r="F75" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Anteil öffentlicher Entwicklungsausgaben am Bruttonationaleinkommen</t>
         </is>
       </c>
       <c r="G75" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Official development assistance as a proportion of gross national income</t>
         </is>
       </c>
       <c r="H75" s="4" t="inlineStr">
         <is>
+          <t>Steigerung des Anteils auf 0,7 % des  Bruttonationaleinkommens bis 2030</t>
+        </is>
+      </c>
+      <c r="I75" s="4" t="inlineStr">
+        <is>
+          <t>Increase the proportion to 0.7% of gross national income by 2030</t>
+        </is>
+      </c>
+      <c r="J75" s="4" t="inlineStr">
+        <is>
+          <t>Steigerung auf 0,7 % bis 2030</t>
+        </is>
+      </c>
+      <c r="K75" s="4" t="inlineStr">
+        <is>
+          <t>Increase to 0.7% by 2030</t>
+        </is>
+      </c>
+      <c r="L75" s="4" t="inlineStr">
+        <is>
           <t>Anteil öffentlicher Entwicklungsausgaben am Bruttonationaleinkommen</t>
         </is>
       </c>
-      <c r="I75" s="4" t="inlineStr">
-        <is>
-          <t>Official development assistance as a proportion of gross national income</t>
-        </is>
-      </c>
-      <c r="J75" s="4" t="inlineStr">
-        <is>
-          <t>Steigerung des Anteils auf 0,7 % des  Bruttonationaleinkommens bis 2030</t>
-        </is>
-      </c>
-      <c r="K75" s="4" t="inlineStr">
-        <is>
-          <t>Increase the proportion to 0.7% of gross national income by 2030</t>
-        </is>
-      </c>
-      <c r="L75" s="4" t="inlineStr">
-        <is>
-          <t>Steigerung auf 0,7 % bis 2030</t>
-        </is>
-      </c>
       <c r="M75" s="4" t="inlineStr">
-        <is>
-          <t>Increase to 0.7% by 2030</t>
-        </is>
-      </c>
-      <c r="N75" s="4" t="inlineStr">
-        <is>
-          <t>Anteil öffentlicher Entwicklungsausgaben am Bruttonationaleinkommen</t>
-        </is>
-      </c>
-      <c r="O75" s="4" t="inlineStr">
         <is>
           <t>Official development assistance as a proportion of gross national income</t>
         </is>
@@ -6263,50 +5511,40 @@
       </c>
       <c r="F76" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Anzahl der Studierenden und Forschenden aus Entwicklungsländern sowie LDCs pro Jahr</t>
         </is>
       </c>
       <c r="G76" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Number of students and researchers from developing countries and LDCs per year</t>
         </is>
       </c>
       <c r="H76" s="4" t="inlineStr">
         <is>
+          <t>Steigerung der Anzahl um 10 % von 2015 bis 2020, anschließend Verstetigung</t>
+        </is>
+      </c>
+      <c r="I76" s="4" t="inlineStr">
+        <is>
+          <t>Increase the number by 10% from 2015 to 2020, then stabilised</t>
+        </is>
+      </c>
+      <c r="J76" s="4" t="inlineStr">
+        <is>
+          <t>Steigerung um 10 % von 2015 bis 2020, anschließend Verstetigung</t>
+        </is>
+      </c>
+      <c r="K76" s="4" t="inlineStr">
+        <is>
+          <t>Increase by 10% from 2015 to 2020, then stabilised</t>
+        </is>
+      </c>
+      <c r="L76" s="4" t="inlineStr">
+        <is>
           <t>Anzahl der Studierenden und Forschenden aus Entwicklungsländern sowie LDCs pro Jahr</t>
         </is>
       </c>
-      <c r="I76" s="4" t="inlineStr">
-        <is>
-          <t>Number of students and researchers from developing countries and LDCs per year</t>
-        </is>
-      </c>
-      <c r="J76" s="4" t="inlineStr">
-        <is>
-          <t>Steigerung der Anzahl um 10 % von 2015 bis 2020, anschließend Verstetigung</t>
-        </is>
-      </c>
-      <c r="K76" s="4" t="inlineStr">
-        <is>
-          <t>Increase the number by 10% from 2015 to 2020, then stabilised</t>
-        </is>
-      </c>
-      <c r="L76" s="4" t="inlineStr">
-        <is>
-          <t>Steigerung um 10 % von 2015 bis 2020, anschließend Verstetigung</t>
-        </is>
-      </c>
       <c r="M76" s="4" t="inlineStr">
-        <is>
-          <t>Increase by 10% from 2015 to 2020, then stabilised</t>
-        </is>
-      </c>
-      <c r="N76" s="4" t="inlineStr">
-        <is>
-          <t>Anzahl der Studierenden und Forschenden aus Entwicklungsländern sowie LDCs pro Jahr</t>
-        </is>
-      </c>
-      <c r="O76" s="4" t="inlineStr">
         <is>
           <t>Number of students and researchers from developing countries and LDCs per year</t>
         </is>
@@ -6340,50 +5578,40 @@
       </c>
       <c r="F77" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Einfuhren aus am wenigsten entwickelten Ländern</t>
         </is>
       </c>
       <c r="G77" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Imports from least developed countries</t>
         </is>
       </c>
       <c r="H77" s="4" t="inlineStr">
         <is>
+          <t>Steigerung des Anteils um 100 % bis 2030 gegenüber 2014</t>
+        </is>
+      </c>
+      <c r="I77" s="4" t="inlineStr">
+        <is>
+          <t>Increase the proportion by 100 % by 2030, compared to 2014</t>
+        </is>
+      </c>
+      <c r="J77" s="4" t="inlineStr">
+        <is>
+          <t>Steigerung um 100 % bis 2030</t>
+        </is>
+      </c>
+      <c r="K77" s="4" t="inlineStr">
+        <is>
+          <t>Increase by 100 % by 2030</t>
+        </is>
+      </c>
+      <c r="L77" s="4" t="inlineStr">
+        <is>
           <t>Einfuhren aus am wenigsten entwickelten Ländern</t>
         </is>
       </c>
-      <c r="I77" s="4" t="inlineStr">
-        <is>
-          <t>Imports from least developed countries</t>
-        </is>
-      </c>
-      <c r="J77" s="4" t="inlineStr">
-        <is>
-          <t>Steigerung des Anteils um 100 % bis 2030 gegenüber 2014</t>
-        </is>
-      </c>
-      <c r="K77" s="4" t="inlineStr">
-        <is>
-          <t>Increase the proportion by 100 % by 2030, compared to 2014</t>
-        </is>
-      </c>
-      <c r="L77" s="4" t="inlineStr">
-        <is>
-          <t>Steigerung um 100 % bis 2030</t>
-        </is>
-      </c>
       <c r="M77" s="4" t="inlineStr">
-        <is>
-          <t>Increase by 100 % by 2030</t>
-        </is>
-      </c>
-      <c r="N77" s="4" t="inlineStr">
-        <is>
-          <t>Einfuhren aus am wenigsten entwickelten Ländern</t>
-        </is>
-      </c>
-      <c r="O77" s="4" t="inlineStr">
         <is>
           <t>Imports from least developed countries</t>
         </is>

--- a/Tab_5a_Indikatoren.xlsx
+++ b/Tab_5a_Indikatoren.xlsx
@@ -2213,7 +2213,7 @@
       </c>
       <c r="C27" s="4" t="inlineStr">
         <is>
-          <t>6.2.a</t>
+          <t>6.2</t>
         </is>
       </c>
       <c r="D27" s="4" t="inlineStr">

--- a/Tab_5a_Indikatoren.xlsx
+++ b/Tab_5a_Indikatoren.xlsx
@@ -2228,12 +2228,12 @@
       </c>
       <c r="F27" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Anzahl der Menschen, die einen neuen oder hochwertigeren Zugang zur Trinkwasserversorgung oder Anschluss zur Sanitärversorgung durch deutsche Unterstützung erhalten</t>
         </is>
       </c>
       <c r="G27" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Number of people gaining first-time or upgraded access to drinking water or sanitation owing to German support</t>
         </is>
       </c>
       <c r="H27" s="4" t="inlineStr">
@@ -2258,12 +2258,12 @@
       </c>
       <c r="L27" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Anzahl der Menschen, die einen neuen oder hochwertigeren Zugang zur Trinkwasserversorgung oder Anschluss zur Sanitärversorgung durch deutsche Unterstützung erhalten</t>
         </is>
       </c>
       <c r="M27" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Number of people gaining first-time or upgraded access to drinking water or sanitation owing to German support</t>
         </is>
       </c>
     </row>

--- a/Tab_5a_Indikatoren.xlsx
+++ b/Tab_5a_Indikatoren.xlsx
@@ -447,7 +447,7 @@
     <col customWidth="true" min="2" max="2" width="18.1640625"/>
     <col customWidth="true" min="3" max="3" width="13.8359375"/>
     <col customWidth="true" min="4" max="4" width="23.14453125"/>
-    <col customWidth="true" min="5" max="5" width="18.1640625"/>
+    <col customWidth="true" min="5" max="5" width="42.91796875"/>
     <col customWidth="true" min="6" max="6" width="36.9140625"/>
     <col customWidth="true" min="7" max="7" width="20.5078125"/>
     <col customWidth="true" min="8" max="8" width="52.5859375"/>
@@ -677,12 +677,12 @@
       </c>
       <c r="D4" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Stickstoffüberschuss</t>
         </is>
       </c>
       <c r="E4" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Nitrogen surplus</t>
         </is>
       </c>
       <c r="F4" s="4" t="inlineStr">
@@ -707,12 +707,12 @@
       </c>
       <c r="J4" s="4" t="inlineStr">
         <is>
-          <t>Verringerung der Stickstoffüberschüsse auf 70 kg/ha im Jahresmittel 2028-2032</t>
+          <t>Verringerung auf 70 kg/ha im Jahresmittel 2028-2032</t>
         </is>
       </c>
       <c r="K4" s="4" t="inlineStr">
         <is>
-          <t>Reduction of the nitrogen surpluses to 70 kg/ha on an annual average between 2028 and 2032</t>
+          <t>Reduction to 70 kg/ha on an annual average between 2028 and 2032</t>
         </is>
       </c>
       <c r="L4" s="4" t="inlineStr">
@@ -744,12 +744,12 @@
       </c>
       <c r="D5" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Ökologischer Landbau</t>
         </is>
       </c>
       <c r="E5" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Organic farming</t>
         </is>
       </c>
       <c r="F5" s="4" t="inlineStr">
@@ -774,12 +774,12 @@
       </c>
       <c r="J5" s="4" t="inlineStr">
         <is>
-          <t>Erhöhung des Anteils von ökologischem Landbau auf 20 % bis 2030</t>
+          <t>Erhöhung des Anteils auf 20 % bis 2030</t>
         </is>
       </c>
       <c r="K5" s="4" t="inlineStr">
         <is>
-          <t>Increase the proportion of organically farmed agricultural land to 20% by 2030</t>
+          <t>Increase the proportion to 20% by 2030</t>
         </is>
       </c>
       <c r="L5" s="4" t="inlineStr">
@@ -811,12 +811,12 @@
       </c>
       <c r="D6" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Mittel für die Anwendung von Leitlinien und Empfehlungen des Welternährungsausschusses</t>
         </is>
       </c>
       <c r="E6" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Funds disbursed for the application of the guidelines and recommendations of the Committee on World Food Security</t>
         </is>
       </c>
       <c r="F6" s="4" t="inlineStr">
@@ -841,12 +841,12 @@
       </c>
       <c r="J6" s="4" t="inlineStr">
         <is>
-          <t>Angemessene Steigerung des Anteils bis 2030</t>
+          <t>Steigerung des Anteils bis 2030</t>
         </is>
       </c>
       <c r="K6" s="4" t="inlineStr">
         <is>
-          <t>Funds disbursed for the application of the guidelines and recommendations of the UN Committee on World Food Security (CFS) to be increased appropriately by 2030</t>
+          <t>Share to be increased by 2030</t>
         </is>
       </c>
       <c r="L6" s="4" t="inlineStr">
@@ -1146,12 +1146,12 @@
       </c>
       <c r="D11" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Adipositas</t>
         </is>
       </c>
       <c r="E11" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Obesity</t>
         </is>
       </c>
       <c r="F11" s="4" t="inlineStr">
@@ -1213,12 +1213,12 @@
       </c>
       <c r="D12" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Adipositas</t>
         </is>
       </c>
       <c r="E12" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Obesity</t>
         </is>
       </c>
       <c r="F12" s="4" t="inlineStr">
@@ -1280,12 +1280,12 @@
       </c>
       <c r="D13" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Luftschadstoffe</t>
         </is>
       </c>
       <c r="E13" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Air pollutants</t>
         </is>
       </c>
       <c r="F13" s="4" t="inlineStr">
@@ -1347,12 +1347,12 @@
       </c>
       <c r="D14" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Exposition von Feinstaub</t>
         </is>
       </c>
       <c r="E14" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Exposure to particulate matter</t>
         </is>
       </c>
       <c r="F14" s="4" t="inlineStr">
@@ -1377,12 +1377,12 @@
       </c>
       <c r="J14" s="4" t="inlineStr">
         <is>
-          <t>Erreichung des Feinstaub-Richtwerts von 20 µg/m³ bis 2030</t>
+          <t>Erreichung des Richtwerts von 20 µg/m³ bis 2030</t>
         </is>
       </c>
       <c r="K14" s="4" t="inlineStr">
         <is>
-          <t>Adherence to the particulate matter guideline value by 2030</t>
+          <t>Adherence to the guideline value by 2030</t>
         </is>
       </c>
       <c r="L14" s="4" t="inlineStr">
@@ -1414,12 +1414,12 @@
       </c>
       <c r="D15" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Pandemieprävention und -reaktion</t>
         </is>
       </c>
       <c r="E15" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Pandemic prevention and response</t>
         </is>
       </c>
       <c r="F15" s="4" t="inlineStr">
@@ -1481,12 +1481,12 @@
       </c>
       <c r="D16" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Frühe Schulabgänger/ -innen</t>
         </is>
       </c>
       <c r="E16" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Early school leavers</t>
         </is>
       </c>
       <c r="F16" s="4" t="inlineStr">
@@ -1548,12 +1548,12 @@
       </c>
       <c r="D17" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Berufliche Qualifizierung</t>
         </is>
       </c>
       <c r="E17" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Vocational qualification</t>
         </is>
       </c>
       <c r="F17" s="4" t="inlineStr">
@@ -1712,12 +1712,12 @@
       </c>
       <c r="J19" s="4" t="inlineStr">
         <is>
-          <t>Anstieg auf 60 % bis 2020 und auf 70 % bis 2030</t>
+          <t>Anstieg auf 60 % bis 2020</t>
         </is>
       </c>
       <c r="K19" s="4" t="inlineStr">
         <is>
-          <t>Increase to 60% by 2020 and to 70% by 2030</t>
+          <t>Increase to 60% by 2020</t>
         </is>
       </c>
       <c r="L19" s="4" t="inlineStr">
@@ -1749,12 +1749,12 @@
       </c>
       <c r="D20" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Gender Pay Gap</t>
         </is>
       </c>
       <c r="E20" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Gender Pay Gap</t>
         </is>
       </c>
       <c r="F20" s="4" t="inlineStr">
@@ -1779,12 +1779,12 @@
       </c>
       <c r="J20" s="4" t="inlineStr">
         <is>
-          <t>Verringerung des Abstandes auf 10 % bis 2020, Beibehaltung bis 2030</t>
+          <t>Verringerung auf 10 % bis 2020</t>
         </is>
       </c>
       <c r="K20" s="4" t="inlineStr">
         <is>
-          <t>Reduce the gap to 10% by 2020, maintained until 2030</t>
+          <t>Reduce to 10% by 2020</t>
         </is>
       </c>
       <c r="L20" s="4" t="inlineStr">
@@ -1913,12 +1913,12 @@
       </c>
       <c r="J22" s="4" t="inlineStr">
         <is>
-          <t>Gleichberechtigte Teilhabe im öffentlichen Dienst bis 2025</t>
+          <t>Gleichberechtigte Teilhabe bis 2025</t>
         </is>
       </c>
       <c r="K22" s="4" t="inlineStr">
         <is>
-          <t>Equal-opportunity participation in civil service by 2025</t>
+          <t>Equal-opportunity participation by 2025</t>
         </is>
       </c>
       <c r="L22" s="4" t="inlineStr">
@@ -1950,12 +1950,12 @@
       </c>
       <c r="D23" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Väter die Elterngeld beziehen</t>
         </is>
       </c>
       <c r="E23" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Fathers receiving parental allowance</t>
         </is>
       </c>
       <c r="F23" s="4" t="inlineStr">
@@ -2017,12 +2017,12 @@
       </c>
       <c r="D24" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Berufliche Qualifizierung von Frauen und Mädchen</t>
         </is>
       </c>
       <c r="E24" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Vocational qualifications of women and girls</t>
         </is>
       </c>
       <c r="F24" s="4" t="inlineStr">
@@ -2084,12 +2084,12 @@
       </c>
       <c r="D25" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Phosphor in Fließgewässern</t>
         </is>
       </c>
       <c r="E25" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Phosphorous in flowing waters</t>
         </is>
       </c>
       <c r="F25" s="4" t="inlineStr">
@@ -2114,7 +2114,7 @@
       </c>
       <c r="J25" s="4" t="inlineStr">
         <is>
-          <t>Einhaltung der gewässertypischen Orientierungswerte bis 2030</t>
+          <t>Einhaltung der Orientierungswerte bis 2030</t>
         </is>
       </c>
       <c r="K25" s="4" t="inlineStr">
@@ -2151,12 +2151,12 @@
       </c>
       <c r="D26" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Nitrat im Grundwasser</t>
         </is>
       </c>
       <c r="E26" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Nitrate in groundwater</t>
         </is>
       </c>
       <c r="F26" s="4" t="inlineStr">
@@ -2516,12 +2516,12 @@
       </c>
       <c r="J31" s="4" t="inlineStr">
         <is>
-          <t>Senkung um 20 % bis 2020, um 30 % bis 2030 und um 50 % bis 2050</t>
+          <t>Senkung um 20 % bis 2020</t>
         </is>
       </c>
       <c r="K31" s="4" t="inlineStr">
         <is>
-          <t>Reduction by 20% by 2020, by 30% by 2030, and by 50% by 2050</t>
+          <t>Reduction by 20% by 2020</t>
         </is>
       </c>
       <c r="L31" s="4" t="inlineStr">
@@ -2553,12 +2553,12 @@
       </c>
       <c r="D32" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Erneuerbarer Energien</t>
         </is>
       </c>
       <c r="E32" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Renewable energies</t>
         </is>
       </c>
       <c r="F32" s="4" t="inlineStr">
@@ -2583,12 +2583,12 @@
       </c>
       <c r="J32" s="4" t="inlineStr">
         <is>
-          <t>Anstieg auf 18 % bis 2020, auf 30 % bis 2030, auf 45 % bis 2040 und auf 60 % bis 2050</t>
+          <t>Anstieg auf 18 % bis 2020</t>
         </is>
       </c>
       <c r="K32" s="4" t="inlineStr">
         <is>
-          <t>Increase to 18% by 2020 and to 30% by 2030, to 45% by 2040 and to 60% by 2050</t>
+          <t>Increase to 18% by 2020</t>
         </is>
       </c>
       <c r="L32" s="4" t="inlineStr">
@@ -2620,12 +2620,12 @@
       </c>
       <c r="D33" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Stroms aus erneuerbaren Energiequellen</t>
         </is>
       </c>
       <c r="E33" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Electricity from renewable energy sources</t>
         </is>
       </c>
       <c r="F33" s="4" t="inlineStr">
@@ -2650,12 +2650,12 @@
       </c>
       <c r="J33" s="4" t="inlineStr">
         <is>
-          <t>Anstieg auf 35 % bis 2020, 65 % bis 2030 und Treibhausgasneutralität bis 2050</t>
+          <t>Anstieg auf 35 % bis 2020</t>
         </is>
       </c>
       <c r="K33" s="4" t="inlineStr">
         <is>
-          <t>Increase to 35% by 2020, 65% by 2030, and greenhouse gas neutrality by 2050</t>
+          <t>Increase to 35% by 2020</t>
         </is>
       </c>
       <c r="L33" s="4" t="inlineStr">
@@ -2687,12 +2687,12 @@
       </c>
       <c r="D34" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Rohstoffproduktivität</t>
         </is>
       </c>
       <c r="E34" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Raw material productivity</t>
         </is>
       </c>
       <c r="F34" s="4" t="inlineStr">
@@ -2888,12 +2888,12 @@
       </c>
       <c r="D37" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Schuldenstand</t>
         </is>
       </c>
       <c r="E37" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Government debt</t>
         </is>
       </c>
       <c r="F37" s="4" t="inlineStr">
@@ -2955,12 +2955,12 @@
       </c>
       <c r="D38" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Anlageinvestitionen</t>
         </is>
       </c>
       <c r="E38" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Gross fixed capital formation</t>
         </is>
       </c>
       <c r="F38" s="4" t="inlineStr">
@@ -3022,12 +3022,12 @@
       </c>
       <c r="D39" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Bruttoinlandsprodukt</t>
         </is>
       </c>
       <c r="E39" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Gross domestic product</t>
         </is>
       </c>
       <c r="F39" s="4" t="inlineStr">
@@ -3223,12 +3223,12 @@
       </c>
       <c r="D42" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Textilbündniss</t>
         </is>
       </c>
       <c r="E42" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Textile Partnership</t>
         </is>
       </c>
       <c r="F42" s="4" t="inlineStr">
@@ -3253,12 +3253,12 @@
       </c>
       <c r="J42" s="4" t="inlineStr">
         <is>
-          <t>Signifikante Steigerung bis 2030</t>
+          <t>Steigerung der Anzahl an Mitgliedern bis 2030</t>
         </is>
       </c>
       <c r="K42" s="4" t="inlineStr">
         <is>
-          <t>Significantly increase by 2030</t>
+          <t>Increase number of members by 2030</t>
         </is>
       </c>
       <c r="L42" s="4" t="inlineStr">
@@ -3290,12 +3290,12 @@
       </c>
       <c r="D43" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Ausgaben für Forschung und Entwicklung</t>
         </is>
       </c>
       <c r="E43" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Expenditure on research and development</t>
         </is>
       </c>
       <c r="F43" s="4" t="inlineStr">
@@ -3357,12 +3357,12 @@
       </c>
       <c r="D44" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Breitbandverfügbarkeit</t>
         </is>
       </c>
       <c r="E44" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Broadband availability</t>
         </is>
       </c>
       <c r="F44" s="4" t="inlineStr">
@@ -3424,12 +3424,12 @@
       </c>
       <c r="D45" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Abschlussquote</t>
         </is>
       </c>
       <c r="E45" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Graduation rate</t>
         </is>
       </c>
       <c r="F45" s="4" t="inlineStr">
@@ -3454,12 +3454,12 @@
       </c>
       <c r="J45" s="4" t="inlineStr">
         <is>
-          <t>Erhöhung der Abschlussquote ausländischer Schulabgänger und Angleichung an die Quote deutscher Abgänger bis 2030</t>
+          <t>Erhöhung bei ausländischen Schulabgänger/-innen und Angleichung an die Quote deutscher Abgänger/-innen bis 2030</t>
         </is>
       </c>
       <c r="K45" s="4" t="inlineStr">
         <is>
-          <t>Increase the graduation rate of foreign school leavers and bring it into line with the rate of German school leavers by 2030</t>
+          <t>Increase among foreign school leavers and bring it into line with the rate of German school leavers by 2030</t>
         </is>
       </c>
       <c r="L45" s="4" t="inlineStr">
@@ -3491,12 +3491,12 @@
       </c>
       <c r="D46" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Ungleichheit der Einkommensverteilung</t>
         </is>
       </c>
       <c r="E46" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Inequality in income distribution</t>
         </is>
       </c>
       <c r="F46" s="4" t="inlineStr">
@@ -3558,12 +3558,12 @@
       </c>
       <c r="D47" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Anstieg der Siedlungs- und Verkehrsfläche</t>
         </is>
       </c>
       <c r="E47" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Expansion of settlement and transport area</t>
         </is>
       </c>
       <c r="F47" s="4" t="inlineStr">
@@ -3625,12 +3625,12 @@
       </c>
       <c r="D48" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Freiraumverlust</t>
         </is>
       </c>
       <c r="E48" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Loss of open space area</t>
         </is>
       </c>
       <c r="F48" s="4" t="inlineStr">
@@ -3692,12 +3692,12 @@
       </c>
       <c r="D49" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Siedlungsdichte</t>
         </is>
       </c>
       <c r="E49" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Density of settlements</t>
         </is>
       </c>
       <c r="F49" s="4" t="inlineStr">
@@ -3759,12 +3759,12 @@
       </c>
       <c r="D50" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Energieverbrauch im Güterverkehr</t>
         </is>
       </c>
       <c r="E50" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Energy consumption in goods transport</t>
         </is>
       </c>
       <c r="F50" s="4" t="inlineStr">
@@ -3826,12 +3826,12 @@
       </c>
       <c r="D51" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Energieverbrauch im Personenverkehr</t>
         </is>
       </c>
       <c r="E51" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Energy consumption in passenger transport</t>
         </is>
       </c>
       <c r="F51" s="4" t="inlineStr">
@@ -3893,12 +3893,12 @@
       </c>
       <c r="D52" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Reisedauer mit öffentlichen Verkehrsmitteln</t>
         </is>
       </c>
       <c r="E52" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Average travel time by public transport</t>
         </is>
       </c>
       <c r="F52" s="4" t="inlineStr">
@@ -3923,12 +3923,12 @@
       </c>
       <c r="J52" s="4" t="inlineStr">
         <is>
-          <t>Verringerung der Reisezeit mit öffentlichen Verkehrsmitteln</t>
+          <t>Verringerung</t>
         </is>
       </c>
       <c r="K52" s="4" t="inlineStr">
         <is>
-          <t>Reduction of travel time by public transport</t>
+          <t>Reduction</t>
         </is>
       </c>
       <c r="L52" s="4" t="inlineStr">
@@ -3960,12 +3960,12 @@
       </c>
       <c r="D53" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Durch Wohnkosten überlastete Personen</t>
         </is>
       </c>
       <c r="E53" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Persons overburdened by housing costs</t>
         </is>
       </c>
       <c r="F53" s="4" t="inlineStr">
@@ -4027,12 +4027,12 @@
       </c>
       <c r="D54" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Objekte in der Deutschen Digitalen Bibliothek</t>
         </is>
       </c>
       <c r="E54" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Objects in the German Digital Library</t>
         </is>
       </c>
       <c r="F54" s="4" t="inlineStr">
@@ -4094,12 +4094,12 @@
       </c>
       <c r="D55" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Produkte mit Umweltzeichen</t>
         </is>
       </c>
       <c r="E55" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Products certified by eco-labelling schemes</t>
         </is>
       </c>
       <c r="F55" s="4" t="inlineStr">
@@ -4362,12 +4362,12 @@
       </c>
       <c r="D59" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Organisationen mit Umweltmanagementsystem</t>
         </is>
       </c>
       <c r="E59" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Organizations with eco-management</t>
         </is>
       </c>
       <c r="F59" s="4" t="inlineStr">
@@ -4429,12 +4429,12 @@
       </c>
       <c r="D60" s="4" t="inlineStr">
         <is>
-          <t>a) Anteil Papier mit Blauem Engel am Gesamtpapierverbrauch der unmittelbaren Bundesverwaltung</t>
+          <t>a) Anteil Papier mit Blauem Engel der Bundesverwaltung</t>
         </is>
       </c>
       <c r="E60" s="4" t="inlineStr">
         <is>
-          <t>a) Paper bearing the Blue Angel label as a proportion of the total paper consumption of the direct federal administration</t>
+          <t>a) Share of paper bearing the Blue Angel label of the federal administration</t>
         </is>
       </c>
       <c r="F60" s="4" t="inlineStr">
@@ -4496,12 +4496,12 @@
       </c>
       <c r="D61" s="4" t="inlineStr">
         <is>
-          <t>b) CO2-Emissionen je Fahrleistungen der Kfz der öffentlichen Hand</t>
+          <t>b) CO2-Emissionen der Kfz der öffentlichen Hand</t>
         </is>
       </c>
       <c r="E61" s="4" t="inlineStr">
         <is>
-          <t>b) CO2 emissions of commercially available vehicles in the public sector</t>
+          <t>b) CO2 emissions of vehicles in the public sector</t>
         </is>
       </c>
       <c r="F61" s="4" t="inlineStr">
@@ -4563,12 +4563,12 @@
       </c>
       <c r="D62" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Treibhausgasemissionen</t>
         </is>
       </c>
       <c r="E62" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Greenhouse gas emissions</t>
         </is>
       </c>
       <c r="F62" s="4" t="inlineStr">
@@ -4593,12 +4593,12 @@
       </c>
       <c r="J62" s="4" t="inlineStr">
         <is>
-          <t>Minderung um 40 % bis 2020, 55 % bis 2030 und Treibhausgasneutralität bis 2050</t>
+          <t>Minderung um 40 % bis 2020</t>
         </is>
       </c>
       <c r="K62" s="4" t="inlineStr">
         <is>
-          <t>Reduce by 40% by 2020, 55% by 2030 and greenhouse gas neutrality by 2050</t>
+          <t>Reduce by 40% by 2020</t>
         </is>
       </c>
       <c r="L62" s="4" t="inlineStr">
@@ -4630,12 +4630,12 @@
       </c>
       <c r="D63" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Zahlungen zur Klimafinanzierung</t>
         </is>
       </c>
       <c r="E63" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Climate finance payments</t>
         </is>
       </c>
       <c r="F63" s="4" t="inlineStr">
@@ -4831,12 +4831,12 @@
       </c>
       <c r="D66" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Bewirtschaftung von Fischbeständen</t>
         </is>
       </c>
       <c r="E66" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Fish stock management</t>
         </is>
       </c>
       <c r="F66" s="4" t="inlineStr">
@@ -4861,12 +4861,12 @@
       </c>
       <c r="J66" s="4" t="inlineStr">
         <is>
-          <t>Außschließlich nachhaltig bewirtschaftete Fischbestände bis 2020</t>
+          <t>Außschließlich nachhaltige Bewirtschaftung bis 2020</t>
         </is>
       </c>
       <c r="K66" s="4" t="inlineStr">
         <is>
-          <t>Only sustainably managed fish stocks by 2020</t>
+          <t>Exclusively sustainable management by 2020</t>
         </is>
       </c>
       <c r="L66" s="4" t="inlineStr">
@@ -4898,12 +4898,12 @@
       </c>
       <c r="D67" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Artenvielfalt und Landschaftsqualität</t>
         </is>
       </c>
       <c r="E67" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Biodiversity and landscape quality</t>
         </is>
       </c>
       <c r="F67" s="4" t="inlineStr">
@@ -4965,12 +4965,12 @@
       </c>
       <c r="D68" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Flächen mit erhöhtem Stickstoffeintrag</t>
         </is>
       </c>
       <c r="E68" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Land with elevated inputs of nitrogen</t>
         </is>
       </c>
       <c r="F68" s="4" t="inlineStr">
@@ -5166,12 +5166,12 @@
       </c>
       <c r="D71" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Anzahl an Straftaten</t>
         </is>
       </c>
       <c r="E71" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Number of criminal offences</t>
         </is>
       </c>
       <c r="F71" s="4" t="inlineStr">
@@ -5196,12 +5196,12 @@
       </c>
       <c r="J71" s="4" t="inlineStr">
         <is>
-          <t>Rückgang von Straftaten auf unter 6 500 je 100 000 Einwohner/ -innen bis 2030</t>
+          <t>Rückgang auf unter 6 500 je 100 000 Einwohner/ -innen bis 2030</t>
         </is>
       </c>
       <c r="K71" s="4" t="inlineStr">
         <is>
-          <t>Reduce criminal offences  to less than 6,500 per 100,000 inhabitants by 2030</t>
+          <t>Reduce to less than 6,500 per 100,000 inhabitants by 2030</t>
         </is>
       </c>
       <c r="L71" s="4" t="inlineStr">
@@ -5233,12 +5233,12 @@
       </c>
       <c r="D72" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Sicherung, Registrierung und Zerstörung von Waffen</t>
         </is>
       </c>
       <c r="E72" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Securing, registration and destruction of weapons</t>
         </is>
       </c>
       <c r="F72" s="4" t="inlineStr">
@@ -5434,12 +5434,12 @@
       </c>
       <c r="D75" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Entwicklungsausgaben</t>
         </is>
       </c>
       <c r="E75" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Development assistance</t>
         </is>
       </c>
       <c r="F75" s="4" t="inlineStr">
@@ -5501,12 +5501,12 @@
       </c>
       <c r="D76" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Studierende und Forschende aus Entwicklungs- und Schwellenländern</t>
         </is>
       </c>
       <c r="E76" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Students and researchers from developing and emerging countries</t>
         </is>
       </c>
       <c r="F76" s="4" t="inlineStr">
@@ -5568,12 +5568,12 @@
       </c>
       <c r="D77" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Einfuhren aus LDCs</t>
         </is>
       </c>
       <c r="E77" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Imports coming from LDCs</t>
         </is>
       </c>
       <c r="F77" s="4" t="inlineStr">

--- a/Tab_5a_Indikatoren.xlsx
+++ b/Tab_5a_Indikatoren.xlsx
@@ -5367,12 +5367,12 @@
       </c>
       <c r="D74" s="4" t="inlineStr">
         <is>
-          <t>b) Partnerländer</t>
+          <t>b)CPI  Partnerländer</t>
         </is>
       </c>
       <c r="E74" s="4" t="inlineStr">
         <is>
-          <t>b) Partner countries</t>
+          <t>b) CPI Partner countries</t>
         </is>
       </c>
       <c r="F74" s="4" t="inlineStr">

--- a/Tab_5a_Indikatoren.xlsx
+++ b/Tab_5a_Indikatoren.xlsx
@@ -5367,7 +5367,7 @@
       </c>
       <c r="D74" s="4" t="inlineStr">
         <is>
-          <t>b)CPI  Partnerländer</t>
+          <t>b) CPI  Partnerländer</t>
         </is>
       </c>
       <c r="E74" s="4" t="inlineStr">

--- a/Tab_5a_Indikatoren.xlsx
+++ b/Tab_5a_Indikatoren.xlsx
@@ -2203,7 +2203,7 @@
     <row outlineLevel="0" r="27">
       <c r="A27" s="4" t="inlineStr">
         <is>
-          <t>Z06_B02_P01_Ib01_I00</t>
+          <t>Z06_B02_P01_Ib01_I03</t>
         </is>
       </c>
       <c r="B27" s="4" t="inlineStr">

--- a/Tab_5a_Indikatoren.xlsx
+++ b/Tab_5a_Indikatoren.xlsx
@@ -2203,7 +2203,7 @@
     <row outlineLevel="0" r="27">
       <c r="A27" s="4" t="inlineStr">
         <is>
-          <t>Z06_B02_P01_Ib01_I03</t>
+          <t>Z06_B02_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B27" s="4" t="inlineStr">
@@ -2213,64 +2213,64 @@
       </c>
       <c r="C27" s="4" t="inlineStr">
         <is>
-          <t>6.2</t>
+          <t>6.2.a</t>
         </is>
       </c>
       <c r="D27" s="4" t="inlineStr">
         <is>
-          <t>Trinkwasser- und Sanitärversorgung</t>
+          <t>a) Trinkwasserversorgung</t>
         </is>
       </c>
       <c r="E27" s="4" t="inlineStr">
         <is>
-          <t>Access to drinking water and sanitation</t>
+          <t>a) Access to drinking water</t>
         </is>
       </c>
       <c r="F27" s="4" t="inlineStr">
         <is>
-          <t>Anzahl der Menschen, die einen neuen oder hochwertigeren Zugang zur Trinkwasserversorgung oder Anschluss zur Sanitärversorgung durch deutsche Unterstützung erhalten</t>
+          <t>Anzahl der Menschen, die einen neuen oder hochwertigeren Zugang zur Trinkwasserversorgung durch deutsche Unterstützung erhalten</t>
         </is>
       </c>
       <c r="G27" s="4" t="inlineStr">
         <is>
-          <t>Number of people gaining first-time or upgraded access to drinking water or sanitation owing to German support</t>
+          <t>Number of people gaining first-time or upgraded access to drinking water owing to German support</t>
         </is>
       </c>
       <c r="H27" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>6 Millionen Menschen pro Jahr bis 2030</t>
         </is>
       </c>
       <c r="I27" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>6 million people per year by 2030</t>
         </is>
       </c>
       <c r="J27" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>6 Millionen Menschen pro Jahr bis 2030</t>
         </is>
       </c>
       <c r="K27" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>6 million people per year by 2030</t>
         </is>
       </c>
       <c r="L27" s="4" t="inlineStr">
         <is>
-          <t>Anzahl der Menschen, die einen neuen oder hochwertigeren Zugang zur Trinkwasserversorgung oder Anschluss zur Sanitärversorgung durch deutsche Unterstützung erhalten</t>
+          <t>Anzahl der Menschen, die einen neuen oder hochwertigeren Zugang zur Trinkwasserversorgung durch deutsche Unterstützung erhalten</t>
         </is>
       </c>
       <c r="M27" s="4" t="inlineStr">
         <is>
-          <t>Number of people gaining first-time or upgraded access to drinking water or sanitation owing to German support</t>
+          <t>Number of people gaining first-time or upgraded access to drinking water owing to German support</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="28">
       <c r="A28" s="4" t="inlineStr">
         <is>
-          <t>Z06_B02_P01_Ib01_I01</t>
+          <t>Z06_B02_P01_Ib01_I02</t>
         </is>
       </c>
       <c r="B28" s="4" t="inlineStr">
@@ -2280,64 +2280,64 @@
       </c>
       <c r="C28" s="4" t="inlineStr">
         <is>
-          <t>6.2.a</t>
+          <t>6.2.b</t>
         </is>
       </c>
       <c r="D28" s="4" t="inlineStr">
         <is>
-          <t>a) Trinkwasserversorgung</t>
+          <t>b) Sanitärversorgung</t>
         </is>
       </c>
       <c r="E28" s="4" t="inlineStr">
         <is>
-          <t>a) Access to drinking water</t>
+          <t>b) Access to sanitation</t>
         </is>
       </c>
       <c r="F28" s="4" t="inlineStr">
         <is>
-          <t>Anzahl der Menschen, die einen neuen oder hochwertigeren Zugang zur Trinkwasserversorgung durch deutsche Unterstützung erhalten</t>
+          <t>Anzahl der Menschen, die einen neuen oder verbesserten Anschluss zur Sanitärversorgung durch deutsche Unterstützung erhalten</t>
         </is>
       </c>
       <c r="G28" s="4" t="inlineStr">
         <is>
-          <t>Number of people gaining first-time or upgraded access to drinking water owing to German support</t>
+          <t>Number of people gaining first-time or improved access to sanitation owing to German support</t>
         </is>
       </c>
       <c r="H28" s="4" t="inlineStr">
         <is>
-          <t>6 Millionen Menschen pro Jahr bis 2030</t>
+          <t>4 Millionen Menschen pro Jahr bis 2030</t>
         </is>
       </c>
       <c r="I28" s="4" t="inlineStr">
         <is>
-          <t>6 million people per year by 2030</t>
+          <t>4 million people per year by 2030</t>
         </is>
       </c>
       <c r="J28" s="4" t="inlineStr">
         <is>
-          <t>6 Millionen Menschen pro Jahr bis 2030</t>
+          <t>4 Millionen Menschen pro Jahr bis 2030</t>
         </is>
       </c>
       <c r="K28" s="4" t="inlineStr">
         <is>
-          <t>6 million people per year by 2030</t>
+          <t>4 million people per year by 2030</t>
         </is>
       </c>
       <c r="L28" s="4" t="inlineStr">
         <is>
-          <t>Anzahl der Menschen, die einen neuen oder hochwertigeren Zugang zur Trinkwasserversorgung durch deutsche Unterstützung erhalten</t>
+          <t>Anzahl der Menschen, die einen neuen oder verbesserten Anschluss zur Sanitärversorgung durch deutsche Unterstützung erhalten</t>
         </is>
       </c>
       <c r="M28" s="4" t="inlineStr">
         <is>
-          <t>Number of people gaining first-time or upgraded access to drinking water owing to German support</t>
+          <t>Number of people gaining first-time or improved access to sanitation owing to German support</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="29">
       <c r="A29" s="4" t="inlineStr">
         <is>
-          <t>Z06_B02_P01_Ib01_I02</t>
+          <t>Z06_B02_P01_Ib01_I03</t>
         </is>
       </c>
       <c r="B29" s="4" t="inlineStr">
@@ -2347,57 +2347,57 @@
       </c>
       <c r="C29" s="4" t="inlineStr">
         <is>
-          <t>6.2.b</t>
+          <t>6.2</t>
         </is>
       </c>
       <c r="D29" s="4" t="inlineStr">
         <is>
-          <t>b) Sanitärversorgung</t>
+          <t>Trinkwasser- und Sanitärversorgung</t>
         </is>
       </c>
       <c r="E29" s="4" t="inlineStr">
         <is>
-          <t>b) Access to sanitation</t>
+          <t>Access to drinking water and sanitation</t>
         </is>
       </c>
       <c r="F29" s="4" t="inlineStr">
         <is>
-          <t>Anzahl der Menschen, die einen neuen oder verbesserten Anschluss zur Sanitärversorgung durch deutsche Unterstützung erhalten</t>
+          <t>Anzahl der Menschen, die einen neuen oder hochwertigeren Zugang zur Trinkwasserversorgung oder Anschluss zur Sanitärversorgung durch deutsche Unterstützung erhalten</t>
         </is>
       </c>
       <c r="G29" s="4" t="inlineStr">
         <is>
-          <t>Number of people gaining first-time or improved access to sanitation owing to German support</t>
+          <t>Number of people gaining first-time or upgraded access to drinking water or sanitation owing to German support</t>
         </is>
       </c>
       <c r="H29" s="4" t="inlineStr">
         <is>
-          <t>4 Millionen Menschen pro Jahr bis 2030</t>
+          <t/>
         </is>
       </c>
       <c r="I29" s="4" t="inlineStr">
         <is>
-          <t>4 million people per year by 2030</t>
+          <t/>
         </is>
       </c>
       <c r="J29" s="4" t="inlineStr">
         <is>
-          <t>4 Millionen Menschen pro Jahr bis 2030</t>
+          <t/>
         </is>
       </c>
       <c r="K29" s="4" t="inlineStr">
         <is>
-          <t>4 million people per year by 2030</t>
+          <t/>
         </is>
       </c>
       <c r="L29" s="4" t="inlineStr">
         <is>
-          <t>Anzahl der Menschen, die einen neuen oder verbesserten Anschluss zur Sanitärversorgung durch deutsche Unterstützung erhalten</t>
+          <t>Anzahl der Menschen, die einen neuen oder hochwertigeren Zugang zur Trinkwasserversorgung oder Anschluss zur Sanitärversorgung durch deutsche Unterstützung erhalten</t>
         </is>
       </c>
       <c r="M29" s="4" t="inlineStr">
         <is>
-          <t>Number of people gaining first-time or improved access to sanitation owing to German support</t>
+          <t>Number of people gaining first-time or upgraded access to drinking water or sanitation owing to German support</t>
         </is>
       </c>
     </row>

--- a/Tab_5a_Indikatoren.xlsx
+++ b/Tab_5a_Indikatoren.xlsx
@@ -449,7 +449,7 @@
     <col customWidth="true" min="4" max="4" width="23.14453125"/>
     <col customWidth="true" min="5" max="5" width="42.91796875"/>
     <col customWidth="true" min="6" max="6" width="36.9140625"/>
-    <col customWidth="true" min="7" max="7" width="20.5078125"/>
+    <col customWidth="true" min="7" max="7" width="55.22265625"/>
     <col customWidth="true" min="8" max="8" width="52.5859375"/>
     <col customWidth="true" min="9" max="9" width="46.2890625"/>
     <col customWidth="true" min="10" max="10" width="48.77734375"/>
@@ -1769,12 +1769,12 @@
       </c>
       <c r="H20" s="4" t="inlineStr">
         <is>
-          <t>Verringerung des Abstandes auf 10 % bis 2020, Beibehaltung bis 2030</t>
+          <t>Verringerung des Abstandes auf 10 % bis 2020, anschließend Beibehaltung bis 2030</t>
         </is>
       </c>
       <c r="I20" s="4" t="inlineStr">
         <is>
-          <t>Reduce the gap to 10% by 2020, maintained until 2030</t>
+          <t>Reduce the gap to 10% by 2020, maintained until 2030 subsequently</t>
         </is>
       </c>
       <c r="J20" s="4" t="inlineStr">
@@ -2017,12 +2017,12 @@
       </c>
       <c r="D24" s="4" t="inlineStr">
         <is>
-          <t>Berufliche Qualifizierung von Frauen und Mädchen</t>
+          <t>Berufliche Qualifizierung von Frauen und Mädchen durch Entwicklungszusammenarbeit</t>
         </is>
       </c>
       <c r="E24" s="4" t="inlineStr">
         <is>
-          <t>Vocational qualifications of women and girls</t>
+          <t>Vocational qualifications of women and girls through development coopreation</t>
         </is>
       </c>
       <c r="F24" s="4" t="inlineStr">
@@ -2228,12 +2228,12 @@
       </c>
       <c r="F27" s="4" t="inlineStr">
         <is>
-          <t>Anzahl der Menschen, die einen neuen oder hochwertigeren Zugang zur Trinkwasserversorgung durch deutsche Unterstützung erhalten</t>
+          <t>Anzahl der Menschen, die einen neuen oder hochwertigeren Zugang zur Trinkwasserversorgung erhalten haben</t>
         </is>
       </c>
       <c r="G27" s="4" t="inlineStr">
         <is>
-          <t>Number of people gaining first-time or upgraded access to drinking water owing to German support</t>
+          <t>Number of people gaining first-time or upgraded access to drinking water</t>
         </is>
       </c>
       <c r="H27" s="4" t="inlineStr">
@@ -2295,12 +2295,12 @@
       </c>
       <c r="F28" s="4" t="inlineStr">
         <is>
-          <t>Anzahl der Menschen, die einen neuen oder verbesserten Anschluss zur Sanitärversorgung durch deutsche Unterstützung erhalten</t>
+          <t>Anzahl der Menschen, die einen neuen oder verbesserten Anschluss zur Sanitärversorgung erhalten haben</t>
         </is>
       </c>
       <c r="G28" s="4" t="inlineStr">
         <is>
-          <t>Number of people gaining first-time or improved access to sanitation owing to German support</t>
+          <t>Number of people gaining first-time or improved access to sanitation</t>
         </is>
       </c>
       <c r="H28" s="4" t="inlineStr">
@@ -2362,12 +2362,12 @@
       </c>
       <c r="F29" s="4" t="inlineStr">
         <is>
-          <t>Anzahl der Menschen, die einen neuen oder hochwertigeren Zugang zur Trinkwasserversorgung oder Anschluss zur Sanitärversorgung durch deutsche Unterstützung erhalten</t>
+          <t>Anzahl der Menschen, die einen neuen oder hochwertigeren Zugang zur Trinkwasserversorgung oder Anschluss zur Sanitärversorgung erhalten haben</t>
         </is>
       </c>
       <c r="G29" s="4" t="inlineStr">
         <is>
-          <t>Number of people gaining first-time or upgraded access to drinking water or sanitation owing to German support</t>
+          <t>Number of people gaining first-time or upgraded access to drinking water or sanitation</t>
         </is>
       </c>
       <c r="H29" s="4" t="inlineStr">

--- a/Tab_5a_Indikatoren.xlsx
+++ b/Tab_5a_Indikatoren.xlsx
@@ -449,7 +449,7 @@
     <col customWidth="true" min="4" max="4" width="23.14453125"/>
     <col customWidth="true" min="5" max="5" width="42.91796875"/>
     <col customWidth="true" min="6" max="6" width="36.9140625"/>
-    <col customWidth="true" min="7" max="7" width="55.22265625"/>
+    <col customWidth="true" min="7" max="7" width="20.5078125"/>
     <col customWidth="true" min="8" max="8" width="52.5859375"/>
     <col customWidth="true" min="9" max="9" width="46.2890625"/>
     <col customWidth="true" min="10" max="10" width="48.77734375"/>

--- a/Tab_5a_Indikatoren.xlsx
+++ b/Tab_5a_Indikatoren.xlsx
@@ -446,12 +446,12 @@
     <col customWidth="true" min="1" max="1" width="21.82421875"/>
     <col customWidth="true" min="2" max="2" width="18.1640625"/>
     <col customWidth="true" min="3" max="3" width="13.8359375"/>
-    <col customWidth="true" min="4" max="4" width="23.14453125"/>
-    <col customWidth="true" min="5" max="5" width="42.91796875"/>
-    <col customWidth="true" min="6" max="6" width="36.9140625"/>
+    <col customWidth="true" min="4" max="4" width="15.37890625"/>
+    <col customWidth="true" min="5" max="5" width="18.6015625"/>
+    <col customWidth="true" min="6" max="6" width="17.28515625"/>
     <col customWidth="true" min="7" max="7" width="20.5078125"/>
     <col customWidth="true" min="8" max="8" width="52.5859375"/>
-    <col customWidth="true" min="9" max="9" width="46.2890625"/>
+    <col customWidth="true" min="9" max="9" width="24.31640625"/>
     <col customWidth="true" min="10" max="10" width="48.77734375"/>
     <col customWidth="true" min="11" max="11" width="45.703125"/>
     <col customWidth="true" min="12" max="12" width="59.47265625"/>
@@ -764,22 +764,22 @@
       </c>
       <c r="H5" s="4" t="inlineStr">
         <is>
-          <t>Erhöhung des Anteils des ökologischen Landbaus an der landwirtschaftlich genutzten Fläche auf 20 % bis 2030</t>
+          <t>Erhöhung des Anteils des ökologischen Landbaus an der landwirtschaftlich genutzten Fläche auf 30 % bis 2030</t>
         </is>
       </c>
       <c r="I5" s="4" t="inlineStr">
         <is>
-          <t>Increase the proportion of organically farmed agricultural land to 20% by 2030</t>
+          <t>Increase the proportion of organically farmed agricultural land to 30% by 2030</t>
         </is>
       </c>
       <c r="J5" s="4" t="inlineStr">
         <is>
-          <t>Erhöhung des Anteils auf 20 % bis 2030</t>
+          <t>Erhöhung des Anteils auf 30 % bis 2030</t>
         </is>
       </c>
       <c r="K5" s="4" t="inlineStr">
         <is>
-          <t>Increase the proportion to 20% by 2030</t>
+          <t>Increase the proportion to 30% by 2030</t>
         </is>
       </c>
       <c r="L5" s="4" t="inlineStr">
@@ -1702,22 +1702,22 @@
       </c>
       <c r="H19" s="4" t="inlineStr">
         <is>
-          <t>Anstieg auf 60 % bis 2020 und auf 70 % bis 2030</t>
+          <t>Anstieg auf 70 % bis 2030</t>
         </is>
       </c>
       <c r="I19" s="4" t="inlineStr">
         <is>
-          <t>Increase to 60% by 2020 and to 70% by 2030</t>
+          <t>Increase to 70% by 2030</t>
         </is>
       </c>
       <c r="J19" s="4" t="inlineStr">
         <is>
-          <t>Anstieg auf 60 % bis 2020</t>
+          <t>Anstieg auf 70 % bis 2030</t>
         </is>
       </c>
       <c r="K19" s="4" t="inlineStr">
         <is>
-          <t>Increase to 60% by 2020</t>
+          <t>Increase to 70% by 2030</t>
         </is>
       </c>
       <c r="L19" s="4" t="inlineStr">
@@ -2640,22 +2640,22 @@
       </c>
       <c r="H33" s="4" t="inlineStr">
         <is>
-          <t>Anstieg auf mindestens 35 % bis 2020, 65 % bis 2030 und Treibhausgasneutralität des in Deutschland erzeugten und verbrauchten Stroms bis 2050</t>
+          <t>Anstieg auf mindestens 80 % bis 2030</t>
         </is>
       </c>
       <c r="I33" s="4" t="inlineStr">
         <is>
-          <t>Increase to at least 35% by 2020, 65% by 2030, and greenhouse gas neutrality of electricity generated and consumed in Germany by 2050</t>
+          <t>Increase to at least 80% by 2030</t>
         </is>
       </c>
       <c r="J33" s="4" t="inlineStr">
         <is>
-          <t>Anstieg auf 35 % bis 2020</t>
+          <t>Anstieg auf 80 % bis 2030</t>
         </is>
       </c>
       <c r="K33" s="4" t="inlineStr">
         <is>
-          <t>Increase to 35% by 2020</t>
+          <t>Increase to 80% by 2030</t>
         </is>
       </c>
       <c r="L33" s="4" t="inlineStr">
@@ -4583,22 +4583,22 @@
       </c>
       <c r="H62" s="4" t="inlineStr">
         <is>
-          <t>Minderung um mindestens 40 % bis 2020, um mindestens 55 % bis 2030, jeweils gegenüber 1990; Erreichung von Treibhausgasneutralität bis 2050</t>
+          <t>Minderung um mindestens 65 % bis 2030, um mindestens 88 % bis 2040; Erreichung der Treibhausgasneutralität bis 2045</t>
         </is>
       </c>
       <c r="I62" s="4" t="inlineStr">
         <is>
-          <t>Reduce by at least 40% by 2020 and by at least 55% by 2030, in each case compared to 1990; greenhouse gas neutrality to be achieved by 2050</t>
+          <t>Reduce by at least 65% by 2030 and by at least 88% by 2040; greenhouse gas neutrality to be achieved by 2045</t>
         </is>
       </c>
       <c r="J62" s="4" t="inlineStr">
         <is>
-          <t>Minderung um 40 % bis 2020</t>
+          <t>Minderung um 65 % bis 2030</t>
         </is>
       </c>
       <c r="K62" s="4" t="inlineStr">
         <is>
-          <t>Reduce by 40% by 2020</t>
+          <t>Reduce by 65% by 2030</t>
         </is>
       </c>
       <c r="L62" s="4" t="inlineStr">
@@ -4650,22 +4650,22 @@
       </c>
       <c r="H63" s="4" t="inlineStr">
         <is>
-          <t>Verdopplung der Finanzierung bis 2020 gegenüber 2014</t>
+          <t>Erhöhung der internationalen Klimafinanzierung auf mindestens 6 Mrd. Euro bis spätestens 2025.</t>
         </is>
       </c>
       <c r="I63" s="4" t="inlineStr">
         <is>
-          <t>Double finance by 2020 compared to 2014</t>
+          <t>Increase international climate finance to at least 6 billion euros by 2025 at the latest.</t>
         </is>
       </c>
       <c r="J63" s="4" t="inlineStr">
         <is>
-          <t>Verdopplung bis 2020</t>
+          <t>Erhöhung auf 6 Mrd. Euro bis 2025</t>
         </is>
       </c>
       <c r="K63" s="4" t="inlineStr">
         <is>
-          <t>Double by 2020</t>
+          <t>Increase to 6 Mrd. euro by 2025</t>
         </is>
       </c>
       <c r="L63" s="4" t="inlineStr">

--- a/Tab_5a_Indikatoren.xlsx
+++ b/Tab_5a_Indikatoren.xlsx
@@ -774,12 +774,12 @@
       </c>
       <c r="J5" s="4" t="inlineStr">
         <is>
-          <t>Erhöhung des Anteils auf 30 % bis 2030</t>
+          <t>Erhöhung auf 30 % bis 2030</t>
         </is>
       </c>
       <c r="K5" s="4" t="inlineStr">
         <is>
-          <t>Increase the proportion to 30% by 2030</t>
+          <t>Increase to 30% by 2030</t>
         </is>
       </c>
       <c r="L5" s="4" t="inlineStr">
@@ -4665,7 +4665,7 @@
       </c>
       <c r="K63" s="4" t="inlineStr">
         <is>
-          <t>Increase to 6 Mrd. euro by 2025</t>
+          <t>Increase to 6 bn euro by 2025</t>
         </is>
       </c>
       <c r="L63" s="4" t="inlineStr">

--- a/Tab_5a_Indikatoren.xlsx
+++ b/Tab_5a_Indikatoren.xlsx
@@ -1511,12 +1511,12 @@
       </c>
       <c r="J16" s="4" t="inlineStr">
         <is>
-          <t>Verringerung des Anteils auf 9,5 % bis 2030</t>
+          <t>Verringerung auf 9,5 % bis 2030</t>
         </is>
       </c>
       <c r="K16" s="4" t="inlineStr">
         <is>
-          <t>Reduce the proportion to 9.5% by 2030</t>
+          <t>Reduce to 9.5% by 2030</t>
         </is>
       </c>
       <c r="L16" s="4" t="inlineStr">
@@ -1578,12 +1578,12 @@
       </c>
       <c r="J17" s="4" t="inlineStr">
         <is>
-          <t>Steigerung des Anteils auf 55 % bis 2030</t>
+          <t>Steigerung auf 55 % bis 2030</t>
         </is>
       </c>
       <c r="K17" s="4" t="inlineStr">
         <is>
-          <t>Increase the proportion to 55% by 2030</t>
+          <t>Increase to 55% by 2030</t>
         </is>
       </c>
       <c r="L17" s="4" t="inlineStr">

--- a/Tab_5a_Indikatoren.xlsx
+++ b/Tab_5a_Indikatoren.xlsx
@@ -3454,7 +3454,7 @@
       </c>
       <c r="J45" s="4" t="inlineStr">
         <is>
-          <t>Erhöhung bei ausländischen Schulabgänger/-innen und Angleichung an die Quote deutscher Abgänger/-innen bis 2030</t>
+          <t>Erhöhung bei ausländischen Schüler/-innen &amp; Angleichung an die Quote deutscher Schüler/-innen bis 2030</t>
         </is>
       </c>
       <c r="K45" s="4" t="inlineStr">

--- a/Tab_5a_Indikatoren.xlsx
+++ b/Tab_5a_Indikatoren.xlsx
@@ -450,8 +450,8 @@
     <col customWidth="true" min="5" max="5" width="18.6015625"/>
     <col customWidth="true" min="6" max="6" width="17.28515625"/>
     <col customWidth="true" min="7" max="7" width="20.5078125"/>
-    <col customWidth="true" min="8" max="8" width="52.5859375"/>
-    <col customWidth="true" min="9" max="9" width="24.31640625"/>
+    <col customWidth="true" min="8" max="8" width="60.9375"/>
+    <col customWidth="true" min="9" max="9" width="43.359375"/>
     <col customWidth="true" min="10" max="10" width="48.77734375"/>
     <col customWidth="true" min="11" max="11" width="45.703125"/>
     <col customWidth="true" min="12" max="12" width="59.47265625"/>
@@ -563,12 +563,12 @@
       </c>
       <c r="H2" s="4" t="inlineStr">
         <is>
-          <t>Anteil der Personen, die materiell depriviert sind, bis 2030 deutlich unter EU-Wert halten</t>
+          <t>Anteil der Personen, die materiell depriviert sind, bis 2030 deutlich unter EU-27-Wert halten</t>
         </is>
       </c>
       <c r="I2" s="4" t="inlineStr">
         <is>
-          <t>Keep the proportion of persons who are materially deprived considerably below the EU-level by 2030</t>
+          <t>Keep the proportion of persons who are materially deprived considerably below the EU-27-level by 2030</t>
         </is>
       </c>
       <c r="J2" s="4" t="inlineStr">
@@ -630,12 +630,12 @@
       </c>
       <c r="H3" s="4" t="inlineStr">
         <is>
-          <t>Anteil der Personen, die erheblich materiell depriviert sind, bis 2030 deutlich unter EU-Wert halten</t>
+          <t>Anteil der Personen, die erheblich materiell depriviert sind, bis 2030 deutlich unter EU-27-Wert halten</t>
         </is>
       </c>
       <c r="I3" s="4" t="inlineStr">
         <is>
-          <t>Keep the proportion of persons who are severely materially deprived considerably below the EU level by 2030</t>
+          <t>Keep the proportion of persons who are severely materially deprived considerably below the EU-27-level by 2030</t>
         </is>
       </c>
       <c r="J3" s="4" t="inlineStr">
@@ -707,12 +707,12 @@
       </c>
       <c r="J4" s="4" t="inlineStr">
         <is>
-          <t>Verringerung auf 70 kg/ha im Jahresmittel 2028-2032</t>
+          <t>Verringerung auf 70 kg/ha bis 2030</t>
         </is>
       </c>
       <c r="K4" s="4" t="inlineStr">
         <is>
-          <t>Reduction to 70 kg/ha on an annual average between 2028 and 2032</t>
+          <t>Reduction to 70 kg/ha by 2030</t>
         </is>
       </c>
       <c r="L4" s="4" t="inlineStr">
@@ -3511,12 +3511,12 @@
       </c>
       <c r="H46" s="4" t="inlineStr">
         <is>
-          <t>Gini-Koeffizient Einkommen nach Sozialtransfer bis 2030 unterhalb des EU-Wertes</t>
+          <t>Gini-Koeffizient Einkommen nach Sozialtransfer bis 2030 unterhalb des EU-27-Wertes</t>
         </is>
       </c>
       <c r="I46" s="4" t="inlineStr">
         <is>
-          <t>Gini coefficient of income after social transfers to be below the EU figure by 2030</t>
+          <t>Gini coefficient of income after social transfers to be below the EU-27 figure by 2030</t>
         </is>
       </c>
       <c r="J46" s="4" t="inlineStr">

--- a/Tab_5a_Indikatoren.xlsx
+++ b/Tab_5a_Indikatoren.xlsx
@@ -3454,7 +3454,7 @@
       </c>
       <c r="J45" s="4" t="inlineStr">
         <is>
-          <t>Erhöhung bei ausländischen Schüler/-innen &amp; Angleichung an die Quote deutscher Schüler/-innen bis 2030</t>
+          <t>Erhöhung bei ausländischen Schüler/-innen und Angleichung an die Quote deutscher Schüler/-innen bis 2030</t>
         </is>
       </c>
       <c r="K45" s="4" t="inlineStr">

--- a/Tab_5a_Indikatoren.xlsx
+++ b/Tab_5a_Indikatoren.xlsx
@@ -5124,7 +5124,7 @@
       </c>
       <c r="I70" s="4" t="inlineStr">
         <is>
-          <t>Payments to be increased by 2030</t>
+          <t>Increase payments by 2030</t>
         </is>
       </c>
       <c r="J70" s="4" t="inlineStr">
@@ -5134,7 +5134,7 @@
       </c>
       <c r="K70" s="4" t="inlineStr">
         <is>
-          <t>Payments to be increased by 2030</t>
+          <t>Increase payments by 2030</t>
         </is>
       </c>
       <c r="L70" s="4" t="inlineStr">

--- a/Tab_5a_Indikatoren.xlsx
+++ b/Tab_5a_Indikatoren.xlsx
@@ -446,7 +446,7 @@
     <col customWidth="true" min="1" max="1" width="21.82421875"/>
     <col customWidth="true" min="2" max="2" width="18.1640625"/>
     <col customWidth="true" min="3" max="3" width="13.8359375"/>
-    <col customWidth="true" min="4" max="4" width="15.37890625"/>
+    <col customWidth="true" min="4" max="4" width="39.40234375"/>
     <col customWidth="true" min="5" max="5" width="18.6015625"/>
     <col customWidth="true" min="6" max="6" width="17.28515625"/>
     <col customWidth="true" min="7" max="7" width="20.5078125"/>
@@ -3387,12 +3387,12 @@
       </c>
       <c r="J44" s="4" t="inlineStr">
         <is>
-          <t>Flächendeckend bis 2025</t>
+          <t>Flächendeckender Aufbau bis 2025</t>
         </is>
       </c>
       <c r="K44" s="4" t="inlineStr">
         <is>
-          <t>Full coverage by 2025</t>
+          <t>Universal Roll-out by 2025</t>
         </is>
       </c>
       <c r="L44" s="4" t="inlineStr">
@@ -3491,12 +3491,12 @@
       </c>
       <c r="D46" s="4" t="inlineStr">
         <is>
-          <t>Ungleichheit der Einkommensverteilung</t>
+          <t>Gini-Koeffizient des Einkommens nach Sozialtransfer</t>
         </is>
       </c>
       <c r="E46" s="4" t="inlineStr">
         <is>
-          <t>Inequality in income distribution</t>
+          <t>Gini coefficient of income after social transfers</t>
         </is>
       </c>
       <c r="F46" s="4" t="inlineStr">
@@ -3521,12 +3521,12 @@
       </c>
       <c r="J46" s="4" t="inlineStr">
         <is>
-          <t>Bis 2030 unterhalb des EU-Wertes halten</t>
+          <t>Bis 2030 unterhalb des EU-27-Wertes halten</t>
         </is>
       </c>
       <c r="K46" s="4" t="inlineStr">
         <is>
-          <t>To be below the EU figure by 2030</t>
+          <t>To be below the EU-27 figure by 2030</t>
         </is>
       </c>
       <c r="L46" s="4" t="inlineStr">
@@ -3588,7 +3588,7 @@
       </c>
       <c r="J47" s="4" t="inlineStr">
         <is>
-          <t>Senkung auf 30 ha pro Tag bis 2030</t>
+          <t>Senkung auf unter 30 ha pro Tag bis 2030</t>
         </is>
       </c>
       <c r="K47" s="4" t="inlineStr">
@@ -3759,7 +3759,7 @@
       </c>
       <c r="D50" s="4" t="inlineStr">
         <is>
-          <t>Energieverbrauch im Güterverkehr</t>
+          <t>Endenergieverbrauch im Güterverkehr</t>
         </is>
       </c>
       <c r="E50" s="4" t="inlineStr">
@@ -3826,7 +3826,7 @@
       </c>
       <c r="D51" s="4" t="inlineStr">
         <is>
-          <t>Energieverbrauch im Personenverkehr</t>
+          <t>Endenergieverbrauch im Personenverkehr</t>
         </is>
       </c>
       <c r="E51" s="4" t="inlineStr">
@@ -4161,12 +4161,12 @@
       </c>
       <c r="D56" s="4" t="inlineStr">
         <is>
-          <t>a) Rohstoffeinsatz</t>
+          <t>ba) Rohstoffeinsatz</t>
         </is>
       </c>
       <c r="E56" s="4" t="inlineStr">
         <is>
-          <t>a) Use of raw materials</t>
+          <t>ba) Use of raw materials</t>
         </is>
       </c>
       <c r="F56" s="4" t="inlineStr">
@@ -4201,12 +4201,12 @@
       </c>
       <c r="L56" s="4" t="inlineStr">
         <is>
-          <t>Rohstoffeinsatz</t>
+          <t>Direkter und indirrekter Rohstoffeinsatz</t>
         </is>
       </c>
       <c r="M56" s="4" t="inlineStr">
         <is>
-          <t>Use of raw materials</t>
+          <t>Direct and indirect use of raw materials</t>
         </is>
       </c>
     </row>
@@ -4228,12 +4228,12 @@
       </c>
       <c r="D57" s="4" t="inlineStr">
         <is>
-          <t>b) Energieverbrauch</t>
+          <t>bb) Energieverbrauch</t>
         </is>
       </c>
       <c r="E57" s="4" t="inlineStr">
         <is>
-          <t>b) Energy consumption</t>
+          <t>bb) Energy consumption</t>
         </is>
       </c>
       <c r="F57" s="4" t="inlineStr">
@@ -4268,12 +4268,12 @@
       </c>
       <c r="L57" s="4" t="inlineStr">
         <is>
-          <t>Energieverbrauch</t>
+          <t>Direkter und indirrekter Energieverbrauch</t>
         </is>
       </c>
       <c r="M57" s="4" t="inlineStr">
         <is>
-          <t>Energy consumption</t>
+          <t>Direct and indirect energy consumption</t>
         </is>
       </c>
     </row>
@@ -4295,12 +4295,12 @@
       </c>
       <c r="D58" s="4" t="inlineStr">
         <is>
-          <t>c) CO2-Emissionen</t>
+          <t>bc) CO2-Emissionen</t>
         </is>
       </c>
       <c r="E58" s="4" t="inlineStr">
         <is>
-          <t>c) CO2 emissions</t>
+          <t>bc) CO2 emissions</t>
         </is>
       </c>
       <c r="F58" s="4" t="inlineStr">
@@ -4335,12 +4335,12 @@
       </c>
       <c r="L58" s="4" t="inlineStr">
         <is>
-          <t>CO2-Emissionen</t>
+          <t>Direkte und indirrekte CO2-Emissionen</t>
         </is>
       </c>
       <c r="M58" s="4" t="inlineStr">
         <is>
-          <t>CO2 emissions</t>
+          <t>Direct and indirect CO2 emissions</t>
         </is>
       </c>
     </row>
@@ -4702,7 +4702,7 @@
       </c>
       <c r="E64" s="4" t="inlineStr">
         <is>
-          <t>aa) Baltic</t>
+          <t>aa) Baltic Sea</t>
         </is>
       </c>
       <c r="F64" s="4" t="inlineStr">
@@ -4804,7 +4804,7 @@
       </c>
       <c r="L65" s="4" t="inlineStr">
         <is>
-          <t>Stickstoffeinträge in Küstengewässer und Meeresgewässer der Nordsee</t>
+          <t>Stickstoffeinträge in Küsten- und Meeresgewässer der Nordsee</t>
         </is>
       </c>
       <c r="M65" s="4" t="inlineStr">

--- a/Tab_5a_Indikatoren.xlsx
+++ b/Tab_5a_Indikatoren.xlsx
@@ -1779,12 +1779,12 @@
       </c>
       <c r="J20" s="4" t="inlineStr">
         <is>
-          <t>Verringerung auf 10 % bis 2020</t>
+          <t>Verringerung auf 10 % bis 2030</t>
         </is>
       </c>
       <c r="K20" s="4" t="inlineStr">
         <is>
-          <t>Reduce to 10% by 2020</t>
+          <t>Reduce to 10% by 2030</t>
         </is>
       </c>
       <c r="L20" s="4" t="inlineStr">

--- a/Tab_5a_Indikatoren.xlsx
+++ b/Tab_5a_Indikatoren.xlsx
@@ -447,7 +447,7 @@
     <col customWidth="true" min="2" max="2" width="18.1640625"/>
     <col customWidth="true" min="3" max="3" width="13.8359375"/>
     <col customWidth="true" min="4" max="4" width="39.40234375"/>
-    <col customWidth="true" min="5" max="5" width="18.6015625"/>
+    <col customWidth="true" min="5" max="5" width="33.8359375"/>
     <col customWidth="true" min="6" max="6" width="17.28515625"/>
     <col customWidth="true" min="7" max="7" width="20.5078125"/>
     <col customWidth="true" min="8" max="8" width="60.9375"/>
@@ -573,12 +573,12 @@
       </c>
       <c r="J2" s="4" t="inlineStr">
         <is>
-          <t>Anteil bis 2030 unter EU-Wert halten</t>
+          <t>Anteil bis 2030 unter EU-27-Wert halten</t>
         </is>
       </c>
       <c r="K2" s="4" t="inlineStr">
         <is>
-          <t>Keep the proportion below the EU-level by 2030</t>
+          <t>keep the proportion below the EU-27-level by 2030</t>
         </is>
       </c>
       <c r="L2" s="4" t="inlineStr">
@@ -640,12 +640,12 @@
       </c>
       <c r="J3" s="4" t="inlineStr">
         <is>
-          <t>Anteil bis 2030 unter EU-Wert halten</t>
+          <t>Anteil bis 2030 unter EU-27-Wert halten</t>
         </is>
       </c>
       <c r="K3" s="4" t="inlineStr">
         <is>
-          <t>Keep the proportion below the EU-level by 2030</t>
+          <t>keep the proportion below the EU-27-level by 2030</t>
         </is>
       </c>
       <c r="L3" s="4" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="K4" s="4" t="inlineStr">
         <is>
-          <t>Reduction to 70 kg/ha by 2030</t>
+          <t>reduction to 70 kg/ha by 2030</t>
         </is>
       </c>
       <c r="L4" s="4" t="inlineStr">
@@ -774,12 +774,12 @@
       </c>
       <c r="J5" s="4" t="inlineStr">
         <is>
-          <t>Erhöhung auf 30 % bis 2030</t>
+          <t>Erhöhung des Anteils der landwirtschaftlichen Fläche auf 30 % bis 2030</t>
         </is>
       </c>
       <c r="K5" s="4" t="inlineStr">
         <is>
-          <t>Increase to 30% by 2030</t>
+          <t>increase the proportion of organically farmed agricultural land to 30% by 2030</t>
         </is>
       </c>
       <c r="L5" s="4" t="inlineStr">
@@ -811,12 +811,12 @@
       </c>
       <c r="D6" s="4" t="inlineStr">
         <is>
-          <t>Mittel für die Anwendung von Leitlinien und Empfehlungen des Welternährungsausschusses</t>
+          <t>Ernährungssicherung</t>
         </is>
       </c>
       <c r="E6" s="4" t="inlineStr">
         <is>
-          <t>Funds disbursed for the application of the guidelines and recommendations of the Committee on World Food Security</t>
+          <t>Food Security</t>
         </is>
       </c>
       <c r="F6" s="4" t="inlineStr">
@@ -841,12 +841,12 @@
       </c>
       <c r="J6" s="4" t="inlineStr">
         <is>
-          <t>Steigerung des Anteils bis 2030</t>
+          <t>Steigerung des Anteils an den Gesamtausgaben bis 2030</t>
         </is>
       </c>
       <c r="K6" s="4" t="inlineStr">
         <is>
-          <t>Share to be increased by 2030</t>
+          <t>shareas of total spending to be increased by 2030</t>
         </is>
       </c>
       <c r="L6" s="4" t="inlineStr">
@@ -913,7 +913,7 @@
       </c>
       <c r="K7" s="4" t="inlineStr">
         <is>
-          <t>To be reduced to 100 deaths per 100,000 inhabitants by 2030</t>
+          <t>to be reduced to 100 deaths per 100,000 inhabitants by 2030</t>
         </is>
       </c>
       <c r="L7" s="4" t="inlineStr">
@@ -980,7 +980,7 @@
       </c>
       <c r="K8" s="4" t="inlineStr">
         <is>
-          <t>To be reduced to 190 deaths per 100,000 inhabitants by 2030</t>
+          <t>to be reduced to 190 deaths per 100,000 inhabitants by 2030</t>
         </is>
       </c>
       <c r="L8" s="4" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="K9" s="4" t="inlineStr">
         <is>
-          <t>Reduction to 7% by 2030</t>
+          <t>reduction to 7% by 2030</t>
         </is>
       </c>
       <c r="L9" s="4" t="inlineStr">
@@ -1114,7 +1114,7 @@
       </c>
       <c r="K10" s="4" t="inlineStr">
         <is>
-          <t>Reduction to 19% by 2030</t>
+          <t>reduction to 19% by 2030</t>
         </is>
       </c>
       <c r="L10" s="4" t="inlineStr">
@@ -1181,7 +1181,7 @@
       </c>
       <c r="K11" s="4" t="inlineStr">
         <is>
-          <t>Increase to be permanently halted</t>
+          <t>increase to be permanently halted</t>
         </is>
       </c>
       <c r="L11" s="4" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="K12" s="4" t="inlineStr">
         <is>
-          <t>Increase to be permanently halted</t>
+          <t>increase to be permanently halted</t>
         </is>
       </c>
       <c r="L12" s="4" t="inlineStr">
@@ -1315,7 +1315,7 @@
       </c>
       <c r="K13" s="4" t="inlineStr">
         <is>
-          <t>Reduction to 55% by 2030</t>
+          <t>reduction to 55% by 2030</t>
         </is>
       </c>
       <c r="L13" s="4" t="inlineStr">
@@ -1382,7 +1382,7 @@
       </c>
       <c r="K14" s="4" t="inlineStr">
         <is>
-          <t>Adherence to the guideline value by 2030</t>
+          <t>adherence to the guideline value by 2030</t>
         </is>
       </c>
       <c r="L14" s="4" t="inlineStr">
@@ -1449,7 +1449,7 @@
       </c>
       <c r="K15" s="4" t="inlineStr">
         <is>
-          <t>Expenditure to be increased by 2030</t>
+          <t>expenditure to be increased by 2030</t>
         </is>
       </c>
       <c r="L15" s="4" t="inlineStr">
@@ -1511,12 +1511,12 @@
       </c>
       <c r="J16" s="4" t="inlineStr">
         <is>
-          <t>Verringerung auf 9,5 % bis 2030</t>
+          <t>Verringerung des Anteils auf 9,5 % bis 2030</t>
         </is>
       </c>
       <c r="K16" s="4" t="inlineStr">
         <is>
-          <t>Reduce to 9.5% by 2030</t>
+          <t>reduce the proportion to 9.5% by 2030</t>
         </is>
       </c>
       <c r="L16" s="4" t="inlineStr">
@@ -1578,12 +1578,12 @@
       </c>
       <c r="J17" s="4" t="inlineStr">
         <is>
-          <t>Steigerung auf 55 % bis 2030</t>
+          <t>Steigerung des Anteils auf 55 % bis 2030</t>
         </is>
       </c>
       <c r="K17" s="4" t="inlineStr">
         <is>
-          <t>Increase to 55% by 2030</t>
+          <t>increase the proportion to 55% by 2030</t>
         </is>
       </c>
       <c r="L17" s="4" t="inlineStr">
@@ -1650,7 +1650,7 @@
       </c>
       <c r="K18" s="4" t="inlineStr">
         <is>
-          <t>Increase to 35% by 2030</t>
+          <t>increase to 35% by 2030</t>
         </is>
       </c>
       <c r="L18" s="4" t="inlineStr">
@@ -1717,7 +1717,7 @@
       </c>
       <c r="K19" s="4" t="inlineStr">
         <is>
-          <t>Increase to 70% by 2030</t>
+          <t>increase to 70% by 2030</t>
         </is>
       </c>
       <c r="L19" s="4" t="inlineStr">
@@ -1779,12 +1779,12 @@
       </c>
       <c r="J20" s="4" t="inlineStr">
         <is>
-          <t>Verringerung auf 10 % bis 2030</t>
+          <t>Beibehaltung von 10 % bis 2030</t>
         </is>
       </c>
       <c r="K20" s="4" t="inlineStr">
         <is>
-          <t>Reduce to 10% by 2030</t>
+          <t>maintaine 10% by 2030</t>
         </is>
       </c>
       <c r="L20" s="4" t="inlineStr">
@@ -1913,12 +1913,12 @@
       </c>
       <c r="J22" s="4" t="inlineStr">
         <is>
-          <t>Gleichberechtigte Teilhabe bis 2025</t>
+          <t>gleichberechtigte Teilhabe bis 2025</t>
         </is>
       </c>
       <c r="K22" s="4" t="inlineStr">
         <is>
-          <t>Equal-opportunity participation by 2025</t>
+          <t>equal-opportunity participation by 2025</t>
         </is>
       </c>
       <c r="L22" s="4" t="inlineStr">
@@ -1950,7 +1950,7 @@
       </c>
       <c r="D23" s="4" t="inlineStr">
         <is>
-          <t>Väter die Elterngeld beziehen</t>
+          <t>Väterbeteiligung beim Elterngeld</t>
         </is>
       </c>
       <c r="E23" s="4" t="inlineStr">
@@ -2052,7 +2052,7 @@
       </c>
       <c r="K24" s="4" t="inlineStr">
         <is>
-          <t>To be increased by a third by 2030</t>
+          <t>to be increased by a third by 2030</t>
         </is>
       </c>
       <c r="L24" s="4" t="inlineStr">
@@ -2114,12 +2114,12 @@
       </c>
       <c r="J25" s="4" t="inlineStr">
         <is>
-          <t>Einhaltung der Orientierungswerte bis 2030</t>
+          <t>Einhaltung oder Unterschreitung der Orientierungswerte bis 2030</t>
         </is>
       </c>
       <c r="K25" s="4" t="inlineStr">
         <is>
-          <t>Not exceeding benchmark values by 2030</t>
+          <t>not exceeding benchmark values by 2030</t>
         </is>
       </c>
       <c r="L25" s="4" t="inlineStr">
@@ -2181,12 +2181,12 @@
       </c>
       <c r="J26" s="4" t="inlineStr">
         <is>
-          <t>Einhaltung des Schwellenwertes bis 2030</t>
+          <t>Einhaltung des Schwellenwertes von 50 mg/l bis 2030</t>
         </is>
       </c>
       <c r="K26" s="4" t="inlineStr">
         <is>
-          <t>Compliance with the threshold value by 2030</t>
+          <t>compliance with the threshold value of 50 mg/l by 2030</t>
         </is>
       </c>
       <c r="L26" s="4" t="inlineStr">
@@ -2454,7 +2454,7 @@
       </c>
       <c r="K30" s="4" t="inlineStr">
         <is>
-          <t>Increase by 2.1% per year</t>
+          <t>increase by 2.1% per year</t>
         </is>
       </c>
       <c r="L30" s="4" t="inlineStr">
@@ -2516,12 +2516,12 @@
       </c>
       <c r="J31" s="4" t="inlineStr">
         <is>
-          <t>Senkung um 20 % bis 2020</t>
+          <t>Senkung um 30 % bis 2030</t>
         </is>
       </c>
       <c r="K31" s="4" t="inlineStr">
         <is>
-          <t>Reduction by 20% by 2020</t>
+          <t>reduction by 30% by 2030</t>
         </is>
       </c>
       <c r="L31" s="4" t="inlineStr">
@@ -2583,12 +2583,12 @@
       </c>
       <c r="J32" s="4" t="inlineStr">
         <is>
-          <t>Anstieg auf 18 % bis 2020</t>
+          <t>Anstieg auf 30 % bis 2030</t>
         </is>
       </c>
       <c r="K32" s="4" t="inlineStr">
         <is>
-          <t>Increase to 18% by 2020</t>
+          <t>increase to 30% by 2030</t>
         </is>
       </c>
       <c r="L32" s="4" t="inlineStr">
@@ -2620,7 +2620,7 @@
       </c>
       <c r="D33" s="4" t="inlineStr">
         <is>
-          <t>Stroms aus erneuerbaren Energiequellen</t>
+          <t>Strom aus erneuerbaren Energiequellen</t>
         </is>
       </c>
       <c r="E33" s="4" t="inlineStr">
@@ -2655,7 +2655,7 @@
       </c>
       <c r="K33" s="4" t="inlineStr">
         <is>
-          <t>Increase to 80% by 2030</t>
+          <t>increase to 80% by 2030</t>
         </is>
       </c>
       <c r="L33" s="4" t="inlineStr">
@@ -2687,12 +2687,12 @@
       </c>
       <c r="D34" s="4" t="inlineStr">
         <is>
-          <t>Rohstoffproduktivität</t>
+          <t>Gesamtrohstoffproduktivität</t>
         </is>
       </c>
       <c r="E34" s="4" t="inlineStr">
         <is>
-          <t>Raw material productivity</t>
+          <t>Raw material input productivity</t>
         </is>
       </c>
       <c r="F34" s="4" t="inlineStr">
@@ -2717,12 +2717,12 @@
       </c>
       <c r="J34" s="4" t="inlineStr">
         <is>
-          <t>Beibehaltung des Trends der Jahre 2000 – 2010 bis 2030</t>
+          <t>Beibehaltung des Trends der Jahre 2000 - 2010 bis 2030</t>
         </is>
       </c>
       <c r="K34" s="4" t="inlineStr">
         <is>
-          <t>Trend of the years 2000–2010 to be maintained until 2030</t>
+          <t>trend of the years 2000-2010 to be maintained until 2030</t>
         </is>
       </c>
       <c r="L34" s="4" t="inlineStr">
@@ -2784,12 +2784,12 @@
       </c>
       <c r="J35" s="4" t="inlineStr">
         <is>
-          <t>Unter 3 % des BIP</t>
+          <t>unter 3 % des BIP</t>
         </is>
       </c>
       <c r="K35" s="4" t="inlineStr">
         <is>
-          <t>Less than 3% of GDP</t>
+          <t>less than 3% of GDP</t>
         </is>
       </c>
       <c r="L35" s="4" t="inlineStr">
@@ -2851,12 +2851,12 @@
       </c>
       <c r="J36" s="4" t="inlineStr">
         <is>
-          <t>Unter 0,5 % des BIP</t>
+          <t>unter 0,5 % des BIP</t>
         </is>
       </c>
       <c r="K36" s="4" t="inlineStr">
         <is>
-          <t>Less than 0.5% of GDP</t>
+          <t>less than 0.5% of GDP</t>
         </is>
       </c>
       <c r="L36" s="4" t="inlineStr">
@@ -2888,24 +2888,24 @@
       </c>
       <c r="D37" s="4" t="inlineStr">
         <is>
+          <t>Schuldenstandsquote</t>
+        </is>
+      </c>
+      <c r="E37" s="4" t="inlineStr">
+        <is>
+          <t>Ratio of government debt</t>
+        </is>
+      </c>
+      <c r="F37" s="4" t="inlineStr">
+        <is>
           <t>Schuldenstand</t>
         </is>
       </c>
-      <c r="E37" s="4" t="inlineStr">
+      <c r="G37" s="4" t="inlineStr">
         <is>
           <t>Government debt</t>
         </is>
       </c>
-      <c r="F37" s="4" t="inlineStr">
-        <is>
-          <t>Schuldenstand</t>
-        </is>
-      </c>
-      <c r="G37" s="4" t="inlineStr">
-        <is>
-          <t>Government debt</t>
-        </is>
-      </c>
       <c r="H37" s="4" t="inlineStr">
         <is>
           <t>Schuldenstandsquote max. 60 % des BIP, Beibehaltung bis 2030</t>
@@ -2918,12 +2918,12 @@
       </c>
       <c r="J37" s="4" t="inlineStr">
         <is>
-          <t>Unter 60 % des BIP</t>
+          <t>max. 60 % des BIP</t>
         </is>
       </c>
       <c r="K37" s="4" t="inlineStr">
         <is>
-          <t>Less than 60% of GDP</t>
+          <t>max. 60% of GDP</t>
         </is>
       </c>
       <c r="L37" s="4" t="inlineStr">
@@ -2985,12 +2985,12 @@
       </c>
       <c r="J38" s="4" t="inlineStr">
         <is>
-          <t>Angemessene Entwicklung bis 2030</t>
+          <t>angemessene Entwicklung bis 2030</t>
         </is>
       </c>
       <c r="K38" s="4" t="inlineStr">
         <is>
-          <t>Appropriate development by 2030</t>
+          <t>appropriate development by 2030</t>
         </is>
       </c>
       <c r="L38" s="4" t="inlineStr">
@@ -3052,12 +3052,12 @@
       </c>
       <c r="J39" s="4" t="inlineStr">
         <is>
-          <t>Stetiges und angemessenes Wirtschaftswachstum</t>
+          <t>stetiges und angemessenes Wirtschaftswachstum</t>
         </is>
       </c>
       <c r="K39" s="4" t="inlineStr">
         <is>
-          <t>Steady and appropriate economic growth</t>
+          <t>steady and appropriate economic growth</t>
         </is>
       </c>
       <c r="L39" s="4" t="inlineStr">
@@ -3124,7 +3124,7 @@
       </c>
       <c r="K40" s="4" t="inlineStr">
         <is>
-          <t>Increase to 78% by 2030</t>
+          <t>increase to 78% by 2030</t>
         </is>
       </c>
       <c r="L40" s="4" t="inlineStr">
@@ -3191,7 +3191,7 @@
       </c>
       <c r="K41" s="4" t="inlineStr">
         <is>
-          <t>Increase to 60% by 2030</t>
+          <t>increase to 60% by 2030</t>
         </is>
       </c>
       <c r="L41" s="4" t="inlineStr">
@@ -3223,12 +3223,12 @@
       </c>
       <c r="D42" s="4" t="inlineStr">
         <is>
-          <t>Textilbündniss</t>
+          <t>Mitglieder des Textilbündnisses</t>
         </is>
       </c>
       <c r="E42" s="4" t="inlineStr">
         <is>
-          <t>Textile Partnership</t>
+          <t>Members of the Textile Partnership</t>
         </is>
       </c>
       <c r="F42" s="4" t="inlineStr">
@@ -3253,12 +3253,12 @@
       </c>
       <c r="J42" s="4" t="inlineStr">
         <is>
-          <t>Steigerung der Anzahl an Mitgliedern bis 2030</t>
+          <t>Steigerung der Anzahl bis 2030</t>
         </is>
       </c>
       <c r="K42" s="4" t="inlineStr">
         <is>
-          <t>Increase number of members by 2030</t>
+          <t>increase number by 2030</t>
         </is>
       </c>
       <c r="L42" s="4" t="inlineStr">
@@ -3320,12 +3320,12 @@
       </c>
       <c r="J43" s="4" t="inlineStr">
         <is>
-          <t>Jährlich mindestens 3,5 % des BIP bis 2025</t>
+          <t>jährlich mindestens 3,5 % des BIP bis 2025</t>
         </is>
       </c>
       <c r="K43" s="4" t="inlineStr">
         <is>
-          <t>At least 3.5% of GDP per year by 2025</t>
+          <t>at least 3.5% of GDP per year by 2025</t>
         </is>
       </c>
       <c r="L43" s="4" t="inlineStr">
@@ -3387,12 +3387,12 @@
       </c>
       <c r="J44" s="4" t="inlineStr">
         <is>
-          <t>Flächendeckender Aufbau bis 2025</t>
+          <t>flächendeckender Aufbau bis 2025</t>
         </is>
       </c>
       <c r="K44" s="4" t="inlineStr">
         <is>
-          <t>Universal Roll-out by 2025</t>
+          <t>universal Roll-out by 2025</t>
         </is>
       </c>
       <c r="L44" s="4" t="inlineStr">
@@ -3454,12 +3454,12 @@
       </c>
       <c r="J45" s="4" t="inlineStr">
         <is>
-          <t>Erhöhung bei ausländischen Schüler/-innen und Angleichung an die Quote deutscher Schüler/-innen bis 2030</t>
+          <t>Erhöhung bei ausländischen Schulabsolvierenden und Angleichung an die Quote deutscher -absolvierenden bis 2030</t>
         </is>
       </c>
       <c r="K45" s="4" t="inlineStr">
         <is>
-          <t>Increase among foreign school leavers and bring it into line with the rate of German school leavers by 2030</t>
+          <t>increase among foreign school leavers and bring it into line with the rate of German school leavers by 2030</t>
         </is>
       </c>
       <c r="L45" s="4" t="inlineStr">
@@ -3491,7 +3491,7 @@
       </c>
       <c r="D46" s="4" t="inlineStr">
         <is>
-          <t>Gini-Koeffizient des Einkommens nach Sozialtransfer</t>
+          <t>Gini-Koeffizient Einkommen nach Sozialtransfer</t>
         </is>
       </c>
       <c r="E46" s="4" t="inlineStr">
@@ -3521,12 +3521,12 @@
       </c>
       <c r="J46" s="4" t="inlineStr">
         <is>
-          <t>Bis 2030 unterhalb des EU-27-Wertes halten</t>
+          <t>bis 2030 unterhalb des EU-27-Wertes</t>
         </is>
       </c>
       <c r="K46" s="4" t="inlineStr">
         <is>
-          <t>To be below the EU-27 figure by 2030</t>
+          <t>to be below the EU-27 figure by 2030</t>
         </is>
       </c>
       <c r="L46" s="4" t="inlineStr">
@@ -3593,7 +3593,7 @@
       </c>
       <c r="K47" s="4" t="inlineStr">
         <is>
-          <t>Reduction to under 30 ha per day by 2030</t>
+          <t>reduction to under 30 ha per day by 2030</t>
         </is>
       </c>
       <c r="L47" s="4" t="inlineStr">
@@ -3660,7 +3660,7 @@
       </c>
       <c r="K48" s="4" t="inlineStr">
         <is>
-          <t>Reduce the loss</t>
+          <t>reduce the loss</t>
         </is>
       </c>
       <c r="L48" s="4" t="inlineStr">
@@ -3722,12 +3722,12 @@
       </c>
       <c r="J49" s="4" t="inlineStr">
         <is>
-          <t>Keine Verringerung</t>
+          <t>keine Verringerung</t>
         </is>
       </c>
       <c r="K49" s="4" t="inlineStr">
         <is>
-          <t>No reduction</t>
+          <t>no reduction</t>
         </is>
       </c>
       <c r="L49" s="4" t="inlineStr">
@@ -3794,7 +3794,7 @@
       </c>
       <c r="K50" s="4" t="inlineStr">
         <is>
-          <t>Reduction by 15–20% by 2030</t>
+          <t>reduction by 15-20% by 2030</t>
         </is>
       </c>
       <c r="L50" s="4" t="inlineStr">
@@ -3861,7 +3861,7 @@
       </c>
       <c r="K51" s="4" t="inlineStr">
         <is>
-          <t>Reduction by 15–20% by 2030</t>
+          <t>reduction by 15-20% by 2030</t>
         </is>
       </c>
       <c r="L51" s="4" t="inlineStr">
@@ -3893,7 +3893,7 @@
       </c>
       <c r="D52" s="4" t="inlineStr">
         <is>
-          <t>Reisedauer mit öffentlichen Verkehrsmitteln</t>
+          <t>Reisezeit mit öffentlichen Verkehrsmitteln</t>
         </is>
       </c>
       <c r="E52" s="4" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="K52" s="4" t="inlineStr">
         <is>
-          <t>Reduction</t>
+          <t>reduction</t>
         </is>
       </c>
       <c r="L52" s="4" t="inlineStr">
@@ -3995,7 +3995,7 @@
       </c>
       <c r="K53" s="4" t="inlineStr">
         <is>
-          <t>Reduce to 13% by 2030</t>
+          <t>reduce to 13% by 2030</t>
         </is>
       </c>
       <c r="L53" s="4" t="inlineStr">
@@ -4062,7 +4062,7 @@
       </c>
       <c r="K54" s="4" t="inlineStr">
         <is>
-          <t>Increase to 50 million by 2030</t>
+          <t>increase to 50 million by 2030</t>
         </is>
       </c>
       <c r="L54" s="4" t="inlineStr">
@@ -4124,12 +4124,12 @@
       </c>
       <c r="J55" s="4" t="inlineStr">
         <is>
-          <t>Steigerung auf 34 % bis 2030</t>
+          <t>Steigerung des Marktanteils auf 34 % bis 2030</t>
         </is>
       </c>
       <c r="K55" s="4" t="inlineStr">
         <is>
-          <t>Increase to 34% by 2030</t>
+          <t>increase the market share to 34% by 2030</t>
         </is>
       </c>
       <c r="L55" s="4" t="inlineStr">
@@ -4191,12 +4191,12 @@
       </c>
       <c r="J56" s="4" t="inlineStr">
         <is>
-          <t>Kontinuierliche Reduzierung </t>
+          <t>kontinuierliche Reduzierung</t>
         </is>
       </c>
       <c r="K56" s="4" t="inlineStr">
         <is>
-          <t>Steady reduction</t>
+          <t>steady reduction</t>
         </is>
       </c>
       <c r="L56" s="4" t="inlineStr">
@@ -4258,12 +4258,12 @@
       </c>
       <c r="J57" s="4" t="inlineStr">
         <is>
-          <t>Kontinuierliche Reduzierung </t>
+          <t>kontinuierliche Reduzierung</t>
         </is>
       </c>
       <c r="K57" s="4" t="inlineStr">
         <is>
-          <t>Steady reduction</t>
+          <t>steady reduction</t>
         </is>
       </c>
       <c r="L57" s="4" t="inlineStr">
@@ -4325,12 +4325,12 @@
       </c>
       <c r="J58" s="4" t="inlineStr">
         <is>
-          <t>Kontinuierliche Reduzierung </t>
+          <t>kontinuierliche Reduzierung</t>
         </is>
       </c>
       <c r="K58" s="4" t="inlineStr">
         <is>
-          <t>Steady reduction</t>
+          <t>steady reduction</t>
         </is>
       </c>
       <c r="L58" s="4" t="inlineStr">
@@ -4362,12 +4362,12 @@
       </c>
       <c r="D59" s="4" t="inlineStr">
         <is>
-          <t>Organisationen mit Umweltmanagementsystem</t>
+          <t>Umweltmanagement EMAS</t>
         </is>
       </c>
       <c r="E59" s="4" t="inlineStr">
         <is>
-          <t>Organizations with eco-management</t>
+          <t>EMAS eco-management</t>
         </is>
       </c>
       <c r="F59" s="4" t="inlineStr">
@@ -4392,12 +4392,12 @@
       </c>
       <c r="J59" s="4" t="inlineStr">
         <is>
-          <t>5 000 Standorte bis 2030</t>
+          <t>5 000 Organisationsstandorte bis 2030</t>
         </is>
       </c>
       <c r="K59" s="4" t="inlineStr">
         <is>
-          <t>5,000 locations by 2030</t>
+          <t>5,000 locations of organisations by 2030</t>
         </is>
       </c>
       <c r="L59" s="4" t="inlineStr">
@@ -4464,7 +4464,7 @@
       </c>
       <c r="K60" s="4" t="inlineStr">
         <is>
-          <t>Increase to 95% by 2020</t>
+          <t>increase to 95% by 2020</t>
         </is>
       </c>
       <c r="L60" s="4" t="inlineStr">
@@ -4526,12 +4526,12 @@
       </c>
       <c r="J61" s="4" t="inlineStr">
         <is>
-          <t>Signifikante Senkung</t>
+          <t>signifikante Senkung</t>
         </is>
       </c>
       <c r="K61" s="4" t="inlineStr">
         <is>
-          <t>Significantly reduce</t>
+          <t>significantly reduce</t>
         </is>
       </c>
       <c r="L61" s="4" t="inlineStr">
@@ -4598,7 +4598,7 @@
       </c>
       <c r="K62" s="4" t="inlineStr">
         <is>
-          <t>Reduce by 65% by 2030</t>
+          <t>reduce by 65% by 2030</t>
         </is>
       </c>
       <c r="L62" s="4" t="inlineStr">
@@ -4665,7 +4665,7 @@
       </c>
       <c r="K63" s="4" t="inlineStr">
         <is>
-          <t>Increase to 6 bn euro by 2025</t>
+          <t>increase to 6 bn euro by 2025</t>
         </is>
       </c>
       <c r="L63" s="4" t="inlineStr">
@@ -4732,7 +4732,7 @@
       </c>
       <c r="K64" s="4" t="inlineStr">
         <is>
-          <t>Total nitrogen in the inflows below 2.6 mg/l</t>
+          <t>total nitrogen in the inflows below 2.6 mg/l</t>
         </is>
       </c>
       <c r="L64" s="4" t="inlineStr">
@@ -4799,7 +4799,7 @@
       </c>
       <c r="K65" s="4" t="inlineStr">
         <is>
-          <t>Total nitrogen in the inflows below 2.8 mg/l</t>
+          <t>total nitrogen in the inflows below 2.8 mg/l</t>
         </is>
       </c>
       <c r="L65" s="4" t="inlineStr">
@@ -4861,12 +4861,12 @@
       </c>
       <c r="J66" s="4" t="inlineStr">
         <is>
-          <t>Außschließlich nachhaltige Bewirtschaftung bis 2020</t>
+          <t>nachhaltige Bewirtschaftung nach dem MSY-Ansatz bis 2020</t>
         </is>
       </c>
       <c r="K66" s="4" t="inlineStr">
         <is>
-          <t>Exclusively sustainable management by 2020</t>
+          <t>sustainable management in accordance with the MSY approachby 2020</t>
         </is>
       </c>
       <c r="L66" s="4" t="inlineStr">
@@ -4933,7 +4933,7 @@
       </c>
       <c r="K67" s="4" t="inlineStr">
         <is>
-          <t>Reach the index value of 100 by 2030</t>
+          <t>reach the index value of 100 by 2030</t>
         </is>
       </c>
       <c r="L67" s="4" t="inlineStr">
@@ -5000,7 +5000,7 @@
       </c>
       <c r="K68" s="4" t="inlineStr">
         <is>
-          <t>Reduction by 35% by 2030</t>
+          <t>reduction by 35% by 2030</t>
         </is>
       </c>
       <c r="L68" s="4" t="inlineStr">
@@ -5032,12 +5032,12 @@
       </c>
       <c r="D69" s="4" t="inlineStr">
         <is>
-          <t>a) REDD+-Regelwerk</t>
+          <t>a) Wälder unter REDD+-Regelwerk</t>
         </is>
       </c>
       <c r="E69" s="4" t="inlineStr">
         <is>
-          <t>a) REDD+ rulebook</t>
+          <t>a) Forests under REDD+ rulebook</t>
         </is>
       </c>
       <c r="F69" s="4" t="inlineStr">
@@ -5067,7 +5067,7 @@
       </c>
       <c r="K69" s="4" t="inlineStr">
         <is>
-          <t>Increase payments by 2030</t>
+          <t>increase payments by 2030</t>
         </is>
       </c>
       <c r="L69" s="4" t="inlineStr">
@@ -5134,7 +5134,7 @@
       </c>
       <c r="K70" s="4" t="inlineStr">
         <is>
-          <t>Increase payments by 2030</t>
+          <t>increase payments by 2030</t>
         </is>
       </c>
       <c r="L70" s="4" t="inlineStr">
@@ -5201,7 +5201,7 @@
       </c>
       <c r="K71" s="4" t="inlineStr">
         <is>
-          <t>Reduce to less than 6,500 per 100,000 inhabitants by 2030</t>
+          <t>reduce to less than 6,500 per 100,000 inhabitants by 2030</t>
         </is>
       </c>
       <c r="L71" s="4" t="inlineStr">
@@ -5263,12 +5263,12 @@
       </c>
       <c r="J72" s="4" t="inlineStr">
         <is>
-          <t>Mindestens 15 Projekte pro Jahr bis 2030</t>
+          <t>mindestens 15 Projekte pro Jahr bis 2030</t>
         </is>
       </c>
       <c r="K72" s="4" t="inlineStr">
         <is>
-          <t>At least 15 projects per year by 2030</t>
+          <t>at least 15 projects per year by 2030</t>
         </is>
       </c>
       <c r="L72" s="4" t="inlineStr">
@@ -5335,7 +5335,7 @@
       </c>
       <c r="K73" s="4" t="inlineStr">
         <is>
-          <t>Improvement by 2030</t>
+          <t>improvement by 2030</t>
         </is>
       </c>
       <c r="L73" s="4" t="inlineStr">
@@ -5402,7 +5402,7 @@
       </c>
       <c r="K74" s="4" t="inlineStr">
         <is>
-          <t>Improvement by 2030</t>
+          <t>improvement by 2030</t>
         </is>
       </c>
       <c r="L74" s="4" t="inlineStr">
@@ -5464,12 +5464,12 @@
       </c>
       <c r="J75" s="4" t="inlineStr">
         <is>
-          <t>Steigerung auf 0,7 % bis 2030</t>
+          <t>Steigerung des Anteils auf 0,7 % des BNE bis 2030</t>
         </is>
       </c>
       <c r="K75" s="4" t="inlineStr">
         <is>
-          <t>Increase to 0.7% by 2030</t>
+          <t>increase to 0.7% of GNI by 2030</t>
         </is>
       </c>
       <c r="L75" s="4" t="inlineStr">
@@ -5536,7 +5536,7 @@
       </c>
       <c r="K76" s="4" t="inlineStr">
         <is>
-          <t>Increase by 10% from 2015 to 2020, then stabilised</t>
+          <t>increase by 10% from 2015 to 2020, then stabilised</t>
         </is>
       </c>
       <c r="L76" s="4" t="inlineStr">
@@ -5598,12 +5598,12 @@
       </c>
       <c r="J77" s="4" t="inlineStr">
         <is>
-          <t>Steigerung um 100 % bis 2030</t>
+          <t>Steigerung des Anteils um 100 % bis 2030 gegenüber 2014</t>
         </is>
       </c>
       <c r="K77" s="4" t="inlineStr">
         <is>
-          <t>Increase by 100 % by 2030</t>
+          <t>increase by 100 % by 2030 compared to 2014</t>
         </is>
       </c>
       <c r="L77" s="4" t="inlineStr">

--- a/Tab_5a_Indikatoren.xlsx
+++ b/Tab_5a_Indikatoren.xlsx
@@ -447,8 +447,8 @@
     <col customWidth="true" min="2" max="2" width="18.1640625"/>
     <col customWidth="true" min="3" max="3" width="13.8359375"/>
     <col customWidth="true" min="4" max="4" width="39.40234375"/>
-    <col customWidth="true" min="5" max="5" width="33.8359375"/>
-    <col customWidth="true" min="6" max="6" width="17.28515625"/>
+    <col customWidth="true" min="5" max="5" width="18.6015625"/>
+    <col customWidth="true" min="6" max="6" width="40.28125"/>
     <col customWidth="true" min="7" max="7" width="20.5078125"/>
     <col customWidth="true" min="8" max="8" width="60.9375"/>
     <col customWidth="true" min="9" max="9" width="43.359375"/>
@@ -5042,12 +5042,12 @@
       </c>
       <c r="F69" s="4" t="inlineStr">
         <is>
-          <t>Erhalt bzw. Wiederaufbau von Wäldern in Entwicklungsländern unter dem REDD+-Regelwerk</t>
+          <t>REDD+ (ergebnisbasierte Auszahlungen für internationalen Waldschutz)</t>
         </is>
       </c>
       <c r="G69" s="4" t="inlineStr">
         <is>
-          <t>Preservation or restoration of forests in developing countries under the REDD+ rulebook</t>
+          <t>REDD+ (results-based payments for international protection of forests)</t>
         </is>
       </c>
       <c r="H69" s="4" t="inlineStr">
@@ -5109,12 +5109,12 @@
       </c>
       <c r="F70" s="4" t="inlineStr">
         <is>
-          <t>Deutsche bilaterale Bruttoentwicklungsausgaben zur Umsetzung des Übereinkommens der VN zur Bekämpfung der Wüstenbildung</t>
+          <t>Internationaler Bodenschutz (Bruttoentwicklungsausgaben für internationalen Bodenschutz)</t>
         </is>
       </c>
       <c r="G70" s="4" t="inlineStr">
         <is>
-          <t>German gross bilateral development expenditure for the implementation of the UN Convention to Combat Desertification</t>
+          <t>International soil protection (gross development assistance for international soil protection)</t>
         </is>
       </c>
       <c r="H70" s="4" t="inlineStr">
@@ -5310,7 +5310,7 @@
       </c>
       <c r="F73" s="4" t="inlineStr">
         <is>
-          <t>Corruption Perception Index in Deutschland</t>
+          <t>Corruption Perception Index für Deutschland</t>
         </is>
       </c>
       <c r="G73" s="4" t="inlineStr">
@@ -5377,7 +5377,7 @@
       </c>
       <c r="F74" s="4" t="inlineStr">
         <is>
-          <t>Anzahl der Partnerländer deutscher Entwicklungszusammenarbeit, deren Bewertung sich gegenüber 2012 verbessert hat</t>
+          <t>Anzahl der Partnerländer deutscher Entwicklungszusammenarbeit, deren Corruption Perception Index sich gegenüber 2012 verbessert hat</t>
         </is>
       </c>
       <c r="G74" s="4" t="inlineStr">

--- a/Tab_5a_Indikatoren.xlsx
+++ b/Tab_5a_Indikatoren.xlsx
@@ -448,7 +448,7 @@
     <col customWidth="true" min="3" max="3" width="13.8359375"/>
     <col customWidth="true" min="4" max="4" width="39.40234375"/>
     <col customWidth="true" min="5" max="5" width="18.6015625"/>
-    <col customWidth="true" min="6" max="6" width="40.28125"/>
+    <col customWidth="true" min="6" max="6" width="17.28515625"/>
     <col customWidth="true" min="7" max="7" width="20.5078125"/>
     <col customWidth="true" min="8" max="8" width="60.9375"/>
     <col customWidth="true" min="9" max="9" width="43.359375"/>
@@ -1769,7 +1769,7 @@
       </c>
       <c r="H20" s="4" t="inlineStr">
         <is>
-          <t>Verringerung des Abstandes auf 10 % bis 2020, anschließend Beibehaltung bis 2030</t>
+          <t>Verringerung des Abstandes auf 10 % bis 2020, Beibehaltung bis 2030</t>
         </is>
       </c>
       <c r="I20" s="4" t="inlineStr">
@@ -1816,12 +1816,12 @@
       </c>
       <c r="D21" s="4" t="inlineStr">
         <is>
-          <t>b) Wirtschaft</t>
+          <t>b) Aufsichtsräte</t>
         </is>
       </c>
       <c r="E21" s="4" t="inlineStr">
         <is>
-          <t>b) Business</t>
+          <t>b) Supervisory boards</t>
         </is>
       </c>
       <c r="F21" s="4" t="inlineStr">

--- a/Tab_5a_Indikatoren.xlsx
+++ b/Tab_5a_Indikatoren.xlsx
@@ -435,7 +435,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M77"/>
+  <dimension ref="A1:O77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -456,6 +456,8 @@
     <col customWidth="true" min="11" max="11" width="45.703125"/>
     <col customWidth="true" min="12" max="12" width="59.47265625"/>
     <col customWidth="true" min="13" max="13" width="52.29296875"/>
+    <col customWidth="true" min="14" max="14" width="13.8359375"/>
+    <col customWidth="true" min="15" max="15" width="13.8359375"/>
   </cols>
   <sheetData>
     <row outlineLevel="0" r="1">
@@ -524,6 +526,16 @@
           <t>Bezeichnung für Plattform En</t>
         </is>
       </c>
+      <c r="N1" s="2" t="inlineStr">
+        <is>
+          <t>Bezeichnung für Statusübersicht De</t>
+        </is>
+      </c>
+      <c r="O1" s="2" t="inlineStr">
+        <is>
+          <t>Bezeichnung für Statusübersicht En</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="2">
       <c r="A2" s="4" t="inlineStr">
@@ -591,6 +603,16 @@
           <t>Material deprivation</t>
         </is>
       </c>
+      <c r="N2" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O2" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="3">
       <c r="A3" s="4" t="inlineStr">
@@ -658,6 +680,16 @@
           <t>Severe material deprivation</t>
         </is>
       </c>
+      <c r="N3" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O3" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="4">
       <c r="A4" s="4" t="inlineStr">
@@ -725,6 +757,16 @@
           <t>Nitrogen surplus in agriculture</t>
         </is>
       </c>
+      <c r="N4" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O4" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="5">
       <c r="A5" s="4" t="inlineStr">
@@ -792,6 +834,16 @@
           <t>Organic farming</t>
         </is>
       </c>
+      <c r="N5" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O5" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="6">
       <c r="A6" s="4" t="inlineStr">
@@ -859,6 +911,16 @@
           <t>Support for good governance in attaining appropriate nutrition world-wide</t>
         </is>
       </c>
+      <c r="N6" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O6" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="7">
       <c r="A7" s="4" t="inlineStr">
@@ -926,6 +988,16 @@
           <t>Premature mortality (women)</t>
         </is>
       </c>
+      <c r="N7" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O7" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="8">
       <c r="A8" s="4" t="inlineStr">
@@ -993,6 +1065,16 @@
           <t>Premature mortality (men)</t>
         </is>
       </c>
+      <c r="N8" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O8" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="9">
       <c r="A9" s="4" t="inlineStr">
@@ -1060,6 +1142,16 @@
           <t>Smoking rate among adolescents</t>
         </is>
       </c>
+      <c r="N9" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O9" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="10">
       <c r="A10" s="4" t="inlineStr">
@@ -1127,6 +1219,16 @@
           <t>Smoking rate among adults</t>
         </is>
       </c>
+      <c r="N10" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O10" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="11">
       <c r="A11" s="4" t="inlineStr">
@@ -1194,6 +1296,16 @@
           <t>Obesity rate among children and adolescents</t>
         </is>
       </c>
+      <c r="N11" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O11" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="12">
       <c r="A12" s="4" t="inlineStr">
@@ -1261,6 +1373,16 @@
           <t>Obesity rate among adults</t>
         </is>
       </c>
+      <c r="N12" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O12" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="13">
       <c r="A13" s="4" t="inlineStr">
@@ -1328,6 +1450,16 @@
           <t>Emissions of air pollutants</t>
         </is>
       </c>
+      <c r="N13" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O13" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="14">
       <c r="A14" s="4" t="inlineStr">
@@ -1395,6 +1527,16 @@
           <t>Share of the population with excessive exposure to PM10</t>
         </is>
       </c>
+      <c r="N14" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O14" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="15">
       <c r="A15" s="4" t="inlineStr">
@@ -1462,6 +1604,16 @@
           <t>Germany’s contribution to global pandemic prevention and response</t>
         </is>
       </c>
+      <c r="N15" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O15" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="16">
       <c r="A16" s="4" t="inlineStr">
@@ -1529,6 +1681,16 @@
           <t>Early school leavers</t>
         </is>
       </c>
+      <c r="N16" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O16" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="17">
       <c r="A17" s="4" t="inlineStr">
@@ -1596,6 +1758,16 @@
           <t>Persons with an academic or higher vocational qualification (30 to 34-year-olds with a tertiary or post-secondary non-tertiary level of education)</t>
         </is>
       </c>
+      <c r="N17" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O17" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="18">
       <c r="A18" s="4" t="inlineStr">
@@ -1663,6 +1835,16 @@
           <t>All-day care provision for 0 to 2-year-old children</t>
         </is>
       </c>
+      <c r="N18" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O18" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="19">
       <c r="A19" s="4" t="inlineStr">
@@ -1730,6 +1912,16 @@
           <t>All-day care provision for 3 to 5-year-old children</t>
         </is>
       </c>
+      <c r="N19" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O19" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="20">
       <c r="A20" s="4" t="inlineStr">
@@ -1797,6 +1989,16 @@
           <t>Gender pay gap</t>
         </is>
       </c>
+      <c r="N20" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O20" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="21">
       <c r="A21" s="4" t="inlineStr">
@@ -1816,12 +2018,12 @@
       </c>
       <c r="D21" s="4" t="inlineStr">
         <is>
-          <t>b) Aufsichtsräte</t>
+          <t>b) Wirtschaft</t>
         </is>
       </c>
       <c r="E21" s="4" t="inlineStr">
         <is>
-          <t>b) Supervisory boards</t>
+          <t>b) Business</t>
         </is>
       </c>
       <c r="F21" s="4" t="inlineStr">
@@ -1862,6 +2064,16 @@
       <c r="M21" s="4" t="inlineStr">
         <is>
           <t>On supervisory boards of listed and fully co-determined companies</t>
+        </is>
+      </c>
+      <c r="N21" s="4" t="inlineStr">
+        <is>
+          <t>Frauen in Führungspositionen in der Wirtschaft</t>
+        </is>
+      </c>
+      <c r="O21" s="4" t="inlineStr">
+        <is>
+          <t>Women in management positions in business</t>
         </is>
       </c>
     </row>
@@ -1931,6 +2143,16 @@
           <t>In management positions in the federal civil service</t>
         </is>
       </c>
+      <c r="N22" s="4" t="inlineStr">
+        <is>
+          <t>Frauen in Führungspositionen im öffentlichen Dienst des Bundes</t>
+        </is>
+      </c>
+      <c r="O22" s="4" t="inlineStr">
+        <is>
+          <t>Women in management positions in the federal civil service</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="23">
       <c r="A23" s="4" t="inlineStr">
@@ -1998,6 +2220,16 @@
           <t>Proportion of fathers receiving parental allowance</t>
         </is>
       </c>
+      <c r="N23" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O23" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="24">
       <c r="A24" s="4" t="inlineStr">
@@ -2065,6 +2297,16 @@
           <t>Vocational qualifications of women and girls through German development cooperation</t>
         </is>
       </c>
+      <c r="N24" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O24" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="25">
       <c r="A25" s="4" t="inlineStr">
@@ -2132,6 +2374,16 @@
           <t>Phosphorous in flowing waters</t>
         </is>
       </c>
+      <c r="N25" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O25" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="26">
       <c r="A26" s="4" t="inlineStr">
@@ -2199,6 +2451,16 @@
           <t>Nitrate in groundwater</t>
         </is>
       </c>
+      <c r="N26" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O26" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="27">
       <c r="A27" s="4" t="inlineStr">
@@ -2266,6 +2528,16 @@
           <t>Number of people gaining first-time or upgraded access to drinking water owing to German support</t>
         </is>
       </c>
+      <c r="N27" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O27" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="28">
       <c r="A28" s="4" t="inlineStr">
@@ -2333,6 +2605,16 @@
           <t>Number of people gaining first-time or improved access to sanitation owing to German support</t>
         </is>
       </c>
+      <c r="N28" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O28" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="29">
       <c r="A29" s="4" t="inlineStr">
@@ -2400,6 +2682,16 @@
           <t>Number of people gaining first-time or upgraded access to drinking water or sanitation owing to German support</t>
         </is>
       </c>
+      <c r="N29" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O29" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="30">
       <c r="A30" s="4" t="inlineStr">
@@ -2467,6 +2759,16 @@
           <t>Final energy productivity</t>
         </is>
       </c>
+      <c r="N30" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O30" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="31">
       <c r="A31" s="4" t="inlineStr">
@@ -2534,6 +2836,16 @@
           <t>Primary energy consumption</t>
         </is>
       </c>
+      <c r="N31" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O31" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="32">
       <c r="A32" s="4" t="inlineStr">
@@ -2601,6 +2913,16 @@
           <t>Share of renewable energies in gross final energy consumption</t>
         </is>
       </c>
+      <c r="N32" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O32" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="33">
       <c r="A33" s="4" t="inlineStr">
@@ -2668,6 +2990,16 @@
           <t>Share of electricity from renewable energy sources in gross electricity consumption</t>
         </is>
       </c>
+      <c r="N33" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O33" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="34">
       <c r="A34" s="4" t="inlineStr">
@@ -2735,6 +3067,16 @@
           <t>Raw material input productivity</t>
         </is>
       </c>
+      <c r="N34" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O34" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="35">
       <c r="A35" s="4" t="inlineStr">
@@ -2802,6 +3144,16 @@
           <t>Government deficit</t>
         </is>
       </c>
+      <c r="N35" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O35" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="36">
       <c r="A36" s="4" t="inlineStr">
@@ -2869,6 +3221,16 @@
           <t>Structural deficit</t>
         </is>
       </c>
+      <c r="N36" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O36" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="37">
       <c r="A37" s="4" t="inlineStr">
@@ -2936,6 +3298,16 @@
           <t>Government debt</t>
         </is>
       </c>
+      <c r="N37" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O37" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="38">
       <c r="A38" s="4" t="inlineStr">
@@ -3003,6 +3375,16 @@
           <t>Gross fixed capital formation in relation to GDP</t>
         </is>
       </c>
+      <c r="N38" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O38" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="39">
       <c r="A39" s="4" t="inlineStr">
@@ -3070,6 +3452,16 @@
           <t>Gross domestic product per capita</t>
         </is>
       </c>
+      <c r="N39" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O39" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="40">
       <c r="A40" s="4" t="inlineStr">
@@ -3137,6 +3529,16 @@
           <t>Employment rate, total (20 to 64-year-olds)</t>
         </is>
       </c>
+      <c r="N40" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O40" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="41">
       <c r="A41" s="4" t="inlineStr">
@@ -3204,6 +3606,16 @@
           <t>Employment rate, older people (60 to 64-year-olds)</t>
         </is>
       </c>
+      <c r="N41" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O41" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="42">
       <c r="A42" s="4" t="inlineStr">
@@ -3271,6 +3683,16 @@
           <t>Members of the Textile Partnership</t>
         </is>
       </c>
+      <c r="N42" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O42" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="43">
       <c r="A43" s="4" t="inlineStr">
@@ -3338,6 +3760,16 @@
           <t>Private and public expenditure on research and development</t>
         </is>
       </c>
+      <c r="N43" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O43" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="44">
       <c r="A44" s="4" t="inlineStr">
@@ -3405,6 +3837,16 @@
           <t>Roll-out of broadband – share of households with access to gigabit broadband services</t>
         </is>
       </c>
+      <c r="N44" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O44" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="45">
       <c r="A45" s="4" t="inlineStr">
@@ -3472,6 +3914,16 @@
           <t>Foreign school graduates</t>
         </is>
       </c>
+      <c r="N45" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O45" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="46">
       <c r="A46" s="4" t="inlineStr">
@@ -3539,6 +3991,16 @@
           <t>Gini coefficient of income after social transfers</t>
         </is>
       </c>
+      <c r="N46" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O46" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="47">
       <c r="A47" s="4" t="inlineStr">
@@ -3606,6 +4068,16 @@
           <t>Expansion of settlement and transport area in ha per day</t>
         </is>
       </c>
+      <c r="N47" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O47" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="48">
       <c r="A48" s="4" t="inlineStr">
@@ -3673,6 +4145,16 @@
           <t>Loss of open space area</t>
         </is>
       </c>
+      <c r="N48" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O48" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="49">
       <c r="A49" s="4" t="inlineStr">
@@ -3740,6 +4222,16 @@
           <t>Density of settlements</t>
         </is>
       </c>
+      <c r="N49" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O49" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="50">
       <c r="A50" s="4" t="inlineStr">
@@ -3807,6 +4299,16 @@
           <t>Final energy consumption in goods transport</t>
         </is>
       </c>
+      <c r="N50" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O50" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="51">
       <c r="A51" s="4" t="inlineStr">
@@ -3874,6 +4376,16 @@
           <t>Final energy consumption in passenger transport</t>
         </is>
       </c>
+      <c r="N51" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O51" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="52">
       <c r="A52" s="4" t="inlineStr">
@@ -3941,6 +4453,16 @@
           <t>Accessibility of medium-sized and large cities by public transport</t>
         </is>
       </c>
+      <c r="N52" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O52" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="53">
       <c r="A53" s="4" t="inlineStr">
@@ -4008,6 +4530,16 @@
           <t>Housing cost overload</t>
         </is>
       </c>
+      <c r="N53" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O53" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="54">
       <c r="A54" s="4" t="inlineStr">
@@ -4075,6 +4607,16 @@
           <t>Number of objects in the German Digital Library</t>
         </is>
       </c>
+      <c r="N54" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O54" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="55">
       <c r="A55" s="4" t="inlineStr">
@@ -4142,6 +4684,16 @@
           <t>Market share of products certified by publicly managed eco-labelling schemes</t>
         </is>
       </c>
+      <c r="N55" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O55" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="56">
       <c r="A56" s="4" t="inlineStr">
@@ -4209,6 +4761,16 @@
           <t>Direct and indirect use of raw materials</t>
         </is>
       </c>
+      <c r="N56" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O56" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="57">
       <c r="A57" s="4" t="inlineStr">
@@ -4276,6 +4838,16 @@
           <t>Direct and indirect energy consumption</t>
         </is>
       </c>
+      <c r="N57" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O57" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="58">
       <c r="A58" s="4" t="inlineStr">
@@ -4343,6 +4915,16 @@
           <t>Direct and indirect CO2 emissions</t>
         </is>
       </c>
+      <c r="N58" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O58" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="59">
       <c r="A59" s="4" t="inlineStr">
@@ -4410,6 +4992,16 @@
           <t>EMAS eco-management</t>
         </is>
       </c>
+      <c r="N59" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O59" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="60">
       <c r="A60" s="4" t="inlineStr">
@@ -4477,6 +5069,16 @@
           <t>Paper bearing the Blue Angel label as a proportion of the total paper consumption of the direct federal administration</t>
         </is>
       </c>
+      <c r="N60" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O60" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="61">
       <c r="A61" s="4" t="inlineStr">
@@ -4544,6 +5146,16 @@
           <t>CO2 emissions of commercially available vehicles in the public sector</t>
         </is>
       </c>
+      <c r="N61" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O61" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="62">
       <c r="A62" s="4" t="inlineStr">
@@ -4611,6 +5223,16 @@
           <t>Greenhouse gas emissions</t>
         </is>
       </c>
+      <c r="N62" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O62" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="63">
       <c r="A63" s="4" t="inlineStr">
@@ -4678,6 +5300,16 @@
           <t>International climate finance for the reduction of greenhouse gases and adaptation to climate change</t>
         </is>
       </c>
+      <c r="N63" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O63" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="64">
       <c r="A64" s="4" t="inlineStr">
@@ -4745,6 +5377,16 @@
           <t>Nitrogen input in coastal and marine waters of the Baltic Sea</t>
         </is>
       </c>
+      <c r="N64" s="4" t="inlineStr">
+        <is>
+          <t>Stickstoffeintrag über die Zuflüsse in die Ostsee</t>
+        </is>
+      </c>
+      <c r="O64" s="4" t="inlineStr">
+        <is>
+          <t>Nitrogen inputs via the inflows into the Baltic Sea</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="65">
       <c r="A65" s="4" t="inlineStr">
@@ -4812,6 +5454,16 @@
           <t>Nitrogen input in coastal and marine waters of the North Sea</t>
         </is>
       </c>
+      <c r="N65" s="4" t="inlineStr">
+        <is>
+          <t>Stickstoffeintrag über die Zuflüsse in die Nordsee</t>
+        </is>
+      </c>
+      <c r="O65" s="4" t="inlineStr">
+        <is>
+          <t>Nitrogen inputs via the inflows into the North Sea</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="66">
       <c r="A66" s="4" t="inlineStr">
@@ -4879,6 +5531,16 @@
           <t>Share of sustainably fished fish populations in the North Sea and Baltic</t>
         </is>
       </c>
+      <c r="N66" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O66" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="67">
       <c r="A67" s="4" t="inlineStr">
@@ -4946,6 +5608,16 @@
           <t>Biodiversity and landscape quality</t>
         </is>
       </c>
+      <c r="N67" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O67" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="68">
       <c r="A68" s="4" t="inlineStr">
@@ -5013,6 +5685,16 @@
           <t>Eutrophication of ecosystems</t>
         </is>
       </c>
+      <c r="N68" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O68" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="69">
       <c r="A69" s="4" t="inlineStr">
@@ -5080,6 +5762,16 @@
           <t>Preservation or restoration of forests in developing countries under the REDD+ rulebook</t>
         </is>
       </c>
+      <c r="N69" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O69" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="70">
       <c r="A70" s="4" t="inlineStr">
@@ -5147,6 +5839,16 @@
           <t>German gross bilateral development expenditure for the implementation of the UN Convention to Combat Desertification</t>
         </is>
       </c>
+      <c r="N70" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O70" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="71">
       <c r="A71" s="4" t="inlineStr">
@@ -5214,6 +5916,16 @@
           <t>Criminal offences</t>
         </is>
       </c>
+      <c r="N71" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O71" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="72">
       <c r="A72" s="4" t="inlineStr">
@@ -5281,6 +5993,16 @@
           <t>Number of projects to secure, register and destroy small arms and light weapons carried out by Germany in affected regions of the world</t>
         </is>
       </c>
+      <c r="N72" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O72" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="73">
       <c r="A73" s="4" t="inlineStr">
@@ -5345,7 +6067,17 @@
       </c>
       <c r="M73" s="4" t="inlineStr">
         <is>
-          <t>Corruption Perceptions Index in Germany</t>
+          <t>Corruption Perception Index in Germany</t>
+        </is>
+      </c>
+      <c r="N73" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O73" s="4" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -5415,6 +6147,16 @@
           <t>Number of partner countries involved in German development cooperation with improved CPI scores compared with 2012</t>
         </is>
       </c>
+      <c r="N74" s="4" t="inlineStr">
+        <is>
+          <t>Corruption Perception Index in Partnerländern deutscher Entwicklungszusammenarbeit</t>
+        </is>
+      </c>
+      <c r="O74" s="4" t="inlineStr">
+        <is>
+          <t>Corruption Perception Index in partner countries involved in German development cooperation</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="75">
       <c r="A75" s="4" t="inlineStr">
@@ -5482,6 +6224,16 @@
           <t>Official development assistance as a proportion of gross national income</t>
         </is>
       </c>
+      <c r="N75" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O75" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="76">
       <c r="A76" s="4" t="inlineStr">
@@ -5549,6 +6301,16 @@
           <t>Number of students and researchers from developing countries and LDCs per year</t>
         </is>
       </c>
+      <c r="N76" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O76" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="77">
       <c r="A77" s="4" t="inlineStr">
@@ -5614,6 +6376,16 @@
       <c r="M77" s="4" t="inlineStr">
         <is>
           <t>Imports from least developed countries</t>
+        </is>
+      </c>
+      <c r="N77" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O77" s="4" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>

--- a/Tab_5a_Indikatoren.xlsx
+++ b/Tab_5a_Indikatoren.xlsx
@@ -1971,12 +1971,12 @@
       </c>
       <c r="J20" s="4" t="inlineStr">
         <is>
-          <t>Beibehaltung von 10 % bis 2030</t>
+          <t>Beibehaltung von maximal 10 % bis 2030</t>
         </is>
       </c>
       <c r="K20" s="4" t="inlineStr">
         <is>
-          <t>maintaine 10% by 2030</t>
+          <t>maintaine a maximum of 10% by 2030</t>
         </is>
       </c>
       <c r="L20" s="4" t="inlineStr">

--- a/Tab_5a_Indikatoren.xlsx
+++ b/Tab_5a_Indikatoren.xlsx
@@ -435,7 +435,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O77"/>
+  <dimension ref="A1:M77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -443,21 +443,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col customWidth="true" min="1" max="1" width="21.82421875"/>
-    <col customWidth="true" min="2" max="2" width="18.1640625"/>
+    <col customWidth="true" min="1" max="1" width="10.25390625"/>
+    <col customWidth="true" min="2" max="2" width="4.1015625"/>
     <col customWidth="true" min="3" max="3" width="13.8359375"/>
-    <col customWidth="true" min="4" max="4" width="39.40234375"/>
-    <col customWidth="true" min="5" max="5" width="18.6015625"/>
-    <col customWidth="true" min="6" max="6" width="17.28515625"/>
-    <col customWidth="true" min="7" max="7" width="20.5078125"/>
-    <col customWidth="true" min="8" max="8" width="60.9375"/>
-    <col customWidth="true" min="9" max="9" width="43.359375"/>
-    <col customWidth="true" min="10" max="10" width="48.77734375"/>
-    <col customWidth="true" min="11" max="11" width="45.703125"/>
+    <col customWidth="true" min="4" max="4" width="2.48828125"/>
+    <col customWidth="true" min="5" max="5" width="2.48828125"/>
+    <col customWidth="true" min="6" max="6" width="23.4375"/>
+    <col customWidth="true" min="7" max="7" width="40.4296875"/>
+    <col customWidth="true" min="8" max="8" width="1.46484375"/>
+    <col customWidth="true" min="9" max="9" width="5.7109375"/>
+    <col customWidth="true" min="10" max="10" width="3.515625"/>
+    <col customWidth="true" min="11" max="11" width="5.2734375"/>
     <col customWidth="true" min="12" max="12" width="59.47265625"/>
-    <col customWidth="true" min="13" max="13" width="52.29296875"/>
-    <col customWidth="true" min="14" max="14" width="13.8359375"/>
-    <col customWidth="true" min="15" max="15" width="13.8359375"/>
+    <col customWidth="true" min="13" max="13" width="2.48828125"/>
   </cols>
   <sheetData>
     <row outlineLevel="0" r="1">
@@ -518,22 +516,12 @@
       </c>
       <c r="L1" s="2" t="inlineStr">
         <is>
-          <t>Bezeichnung für Plattform De</t>
+          <t>Indikator in Auswahlfeld De</t>
         </is>
       </c>
       <c r="M1" s="2" t="inlineStr">
         <is>
-          <t>Bezeichnung für Plattform En</t>
-        </is>
-      </c>
-      <c r="N1" s="2" t="inlineStr">
-        <is>
-          <t>Bezeichnung für Statusübersicht De</t>
-        </is>
-      </c>
-      <c r="O1" s="2" t="inlineStr">
-        <is>
-          <t>Bezeichnung für Statusübersicht En</t>
+          <t>Indikator in Auswahlfeld En</t>
         </is>
       </c>
     </row>
@@ -603,16 +591,6 @@
           <t>Material deprivation</t>
         </is>
       </c>
-      <c r="N2" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="O2" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
     </row>
     <row outlineLevel="0" r="3">
       <c r="A3" s="4" t="inlineStr">
@@ -680,16 +658,6 @@
           <t>Severe material deprivation</t>
         </is>
       </c>
-      <c r="N3" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="O3" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
     </row>
     <row outlineLevel="0" r="4">
       <c r="A4" s="4" t="inlineStr">
@@ -757,16 +725,6 @@
           <t>Nitrogen surplus in agriculture</t>
         </is>
       </c>
-      <c r="N4" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="O4" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
     </row>
     <row outlineLevel="0" r="5">
       <c r="A5" s="4" t="inlineStr">
@@ -834,16 +792,6 @@
           <t>Organic farming</t>
         </is>
       </c>
-      <c r="N5" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="O5" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
     </row>
     <row outlineLevel="0" r="6">
       <c r="A6" s="4" t="inlineStr">
@@ -911,16 +859,6 @@
           <t>Support for good governance in attaining appropriate nutrition world-wide</t>
         </is>
       </c>
-      <c r="N6" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="O6" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
     </row>
     <row outlineLevel="0" r="7">
       <c r="A7" s="4" t="inlineStr">
@@ -988,16 +926,6 @@
           <t>Premature mortality (women)</t>
         </is>
       </c>
-      <c r="N7" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="O7" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
     </row>
     <row outlineLevel="0" r="8">
       <c r="A8" s="4" t="inlineStr">
@@ -1065,16 +993,6 @@
           <t>Premature mortality (men)</t>
         </is>
       </c>
-      <c r="N8" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="O8" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
     </row>
     <row outlineLevel="0" r="9">
       <c r="A9" s="4" t="inlineStr">
@@ -1142,16 +1060,6 @@
           <t>Smoking rate among adolescents</t>
         </is>
       </c>
-      <c r="N9" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="O9" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
     </row>
     <row outlineLevel="0" r="10">
       <c r="A10" s="4" t="inlineStr">
@@ -1219,16 +1127,6 @@
           <t>Smoking rate among adults</t>
         </is>
       </c>
-      <c r="N10" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="O10" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
     </row>
     <row outlineLevel="0" r="11">
       <c r="A11" s="4" t="inlineStr">
@@ -1296,16 +1194,6 @@
           <t>Obesity rate among children and adolescents</t>
         </is>
       </c>
-      <c r="N11" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="O11" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
     </row>
     <row outlineLevel="0" r="12">
       <c r="A12" s="4" t="inlineStr">
@@ -1373,16 +1261,6 @@
           <t>Obesity rate among adults</t>
         </is>
       </c>
-      <c r="N12" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="O12" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
     </row>
     <row outlineLevel="0" r="13">
       <c r="A13" s="4" t="inlineStr">
@@ -1450,16 +1328,6 @@
           <t>Emissions of air pollutants</t>
         </is>
       </c>
-      <c r="N13" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="O13" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
     </row>
     <row outlineLevel="0" r="14">
       <c r="A14" s="4" t="inlineStr">
@@ -1527,16 +1395,6 @@
           <t>Share of the population with excessive exposure to PM10</t>
         </is>
       </c>
-      <c r="N14" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="O14" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
     </row>
     <row outlineLevel="0" r="15">
       <c r="A15" s="4" t="inlineStr">
@@ -1604,16 +1462,6 @@
           <t>Germany’s contribution to global pandemic prevention and response</t>
         </is>
       </c>
-      <c r="N15" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="O15" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
     </row>
     <row outlineLevel="0" r="16">
       <c r="A16" s="4" t="inlineStr">
@@ -1681,16 +1529,6 @@
           <t>Early school leavers</t>
         </is>
       </c>
-      <c r="N16" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="O16" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
     </row>
     <row outlineLevel="0" r="17">
       <c r="A17" s="4" t="inlineStr">
@@ -1758,16 +1596,6 @@
           <t>Persons with an academic or higher vocational qualification (30 to 34-year-olds with a tertiary or post-secondary non-tertiary level of education)</t>
         </is>
       </c>
-      <c r="N17" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="O17" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
     </row>
     <row outlineLevel="0" r="18">
       <c r="A18" s="4" t="inlineStr">
@@ -1835,16 +1663,6 @@
           <t>All-day care provision for 0 to 2-year-old children</t>
         </is>
       </c>
-      <c r="N18" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="O18" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
     </row>
     <row outlineLevel="0" r="19">
       <c r="A19" s="4" t="inlineStr">
@@ -1912,16 +1730,6 @@
           <t>All-day care provision for 3 to 5-year-old children</t>
         </is>
       </c>
-      <c r="N19" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="O19" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
     </row>
     <row outlineLevel="0" r="20">
       <c r="A20" s="4" t="inlineStr">
@@ -1989,16 +1797,6 @@
           <t>Gender pay gap</t>
         </is>
       </c>
-      <c r="N20" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="O20" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
     </row>
     <row outlineLevel="0" r="21">
       <c r="A21" s="4" t="inlineStr">
@@ -2028,52 +1826,42 @@
       </c>
       <c r="F21" s="4" t="inlineStr">
         <is>
+          <t>Frauen in Führungspositionen in der Wirtschaft</t>
+        </is>
+      </c>
+      <c r="G21" s="4" t="inlineStr">
+        <is>
+          <t>Women in management positions in business</t>
+        </is>
+      </c>
+      <c r="H21" s="4" t="inlineStr">
+        <is>
+          <t>30 % Frauen in Aufsichtsräten der börsennotierten und paritätisch mitbestimmten Unternehmen bis 2030</t>
+        </is>
+      </c>
+      <c r="I21" s="4" t="inlineStr">
+        <is>
+          <t>30% women on supervisory boards of listed and fully co-determined companies by 2030</t>
+        </is>
+      </c>
+      <c r="J21" s="4" t="inlineStr">
+        <is>
+          <t>30 % Frauen in Aufsichtsräten bis 2030</t>
+        </is>
+      </c>
+      <c r="K21" s="4" t="inlineStr">
+        <is>
+          <t>30% women on supervisory boards by 2030</t>
+        </is>
+      </c>
+      <c r="L21" s="4" t="inlineStr">
+        <is>
           <t>In Aufsichtsräten der börsennotierten und paritätisch mitbestimmten Unternehmen</t>
         </is>
       </c>
-      <c r="G21" s="4" t="inlineStr">
+      <c r="M21" s="4" t="inlineStr">
         <is>
           <t>On supervisory boards of listed and fully co-determined companies</t>
-        </is>
-      </c>
-      <c r="H21" s="4" t="inlineStr">
-        <is>
-          <t>30 % Frauen in Aufsichtsräten der börsennotierten und paritätisch mitbestimmten Unternehmen bis 2030</t>
-        </is>
-      </c>
-      <c r="I21" s="4" t="inlineStr">
-        <is>
-          <t>30% women on supervisory boards of listed and fully co-determined companies by 2030</t>
-        </is>
-      </c>
-      <c r="J21" s="4" t="inlineStr">
-        <is>
-          <t>30 % Frauen in Aufsichtsräten bis 2030</t>
-        </is>
-      </c>
-      <c r="K21" s="4" t="inlineStr">
-        <is>
-          <t>30% women on supervisory boards by 2030</t>
-        </is>
-      </c>
-      <c r="L21" s="4" t="inlineStr">
-        <is>
-          <t>In Aufsichtsräten der börsennotierten und paritätisch mitbestimmten Unternehmen</t>
-        </is>
-      </c>
-      <c r="M21" s="4" t="inlineStr">
-        <is>
-          <t>On supervisory boards of listed and fully co-determined companies</t>
-        </is>
-      </c>
-      <c r="N21" s="4" t="inlineStr">
-        <is>
-          <t>Frauen in Führungspositionen in der Wirtschaft</t>
-        </is>
-      </c>
-      <c r="O21" s="4" t="inlineStr">
-        <is>
-          <t>Women in management positions in business</t>
         </is>
       </c>
     </row>
@@ -2105,52 +1893,42 @@
       </c>
       <c r="F22" s="4" t="inlineStr">
         <is>
+          <t>Frauen in Führungspositionen im öffentlichen Dienst des Bundes</t>
+        </is>
+      </c>
+      <c r="G22" s="4" t="inlineStr">
+        <is>
+          <t>Women in management positions in the federal civil service</t>
+        </is>
+      </c>
+      <c r="H22" s="4" t="inlineStr">
+        <is>
+          <t>Gleichberechtigte Teilhabe von Frauen und Männern in Leitungsfunktionen des öffentlichen Dienstes bis 2025</t>
+        </is>
+      </c>
+      <c r="I22" s="4" t="inlineStr">
+        <is>
+          <t>Equal-opportunity participation of women and men in civil service management positions by 2025</t>
+        </is>
+      </c>
+      <c r="J22" s="4" t="inlineStr">
+        <is>
+          <t>gleichberechtigte Teilhabe bis 2025</t>
+        </is>
+      </c>
+      <c r="K22" s="4" t="inlineStr">
+        <is>
+          <t>equal-opportunity participation by 2025</t>
+        </is>
+      </c>
+      <c r="L22" s="4" t="inlineStr">
+        <is>
           <t>Im öffentlichen Dienst des Bundes</t>
         </is>
       </c>
-      <c r="G22" s="4" t="inlineStr">
+      <c r="M22" s="4" t="inlineStr">
         <is>
           <t>In management positions in the federal civil service</t>
-        </is>
-      </c>
-      <c r="H22" s="4" t="inlineStr">
-        <is>
-          <t>Gleichberechtigte Teilhabe von Frauen und Männern in Leitungsfunktionen des öffentlichen Dienstes bis 2025</t>
-        </is>
-      </c>
-      <c r="I22" s="4" t="inlineStr">
-        <is>
-          <t>Equal-opportunity participation of women and men in civil service management positions by 2025</t>
-        </is>
-      </c>
-      <c r="J22" s="4" t="inlineStr">
-        <is>
-          <t>gleichberechtigte Teilhabe bis 2025</t>
-        </is>
-      </c>
-      <c r="K22" s="4" t="inlineStr">
-        <is>
-          <t>equal-opportunity participation by 2025</t>
-        </is>
-      </c>
-      <c r="L22" s="4" t="inlineStr">
-        <is>
-          <t>Im öffentlichen Dienst des Bundes</t>
-        </is>
-      </c>
-      <c r="M22" s="4" t="inlineStr">
-        <is>
-          <t>In management positions in the federal civil service</t>
-        </is>
-      </c>
-      <c r="N22" s="4" t="inlineStr">
-        <is>
-          <t>Frauen in Führungspositionen im öffentlichen Dienst des Bundes</t>
-        </is>
-      </c>
-      <c r="O22" s="4" t="inlineStr">
-        <is>
-          <t>Women in management positions in the federal civil service</t>
         </is>
       </c>
     </row>
@@ -2220,16 +1998,6 @@
           <t>Proportion of fathers receiving parental allowance</t>
         </is>
       </c>
-      <c r="N23" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="O23" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
     </row>
     <row outlineLevel="0" r="24">
       <c r="A24" s="4" t="inlineStr">
@@ -2297,16 +2065,6 @@
           <t>Vocational qualifications of women and girls through German development cooperation</t>
         </is>
       </c>
-      <c r="N24" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="O24" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
     </row>
     <row outlineLevel="0" r="25">
       <c r="A25" s="4" t="inlineStr">
@@ -2374,16 +2132,6 @@
           <t>Phosphorous in flowing waters</t>
         </is>
       </c>
-      <c r="N25" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="O25" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
     </row>
     <row outlineLevel="0" r="26">
       <c r="A26" s="4" t="inlineStr">
@@ -2451,16 +2199,6 @@
           <t>Nitrate in groundwater</t>
         </is>
       </c>
-      <c r="N26" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="O26" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
     </row>
     <row outlineLevel="0" r="27">
       <c r="A27" s="4" t="inlineStr">
@@ -2490,52 +2228,42 @@
       </c>
       <c r="F27" s="4" t="inlineStr">
         <is>
+          <t>Anzahl der Menschen, die einen neuen oder hochwertigeren Zugang zur Trinkwasserversorgung durch deutsche Unterstützung erhalten</t>
+        </is>
+      </c>
+      <c r="G27" s="4" t="inlineStr">
+        <is>
+          <t>Number of people gaining first-time or upgraded access to drinking water owing to German support</t>
+        </is>
+      </c>
+      <c r="H27" s="4" t="inlineStr">
+        <is>
+          <t>6 Millionen Menschen pro Jahr bis 2030</t>
+        </is>
+      </c>
+      <c r="I27" s="4" t="inlineStr">
+        <is>
+          <t>6 million people per year by 2030</t>
+        </is>
+      </c>
+      <c r="J27" s="4" t="inlineStr">
+        <is>
+          <t>6 Millionen Menschen pro Jahr bis 2030</t>
+        </is>
+      </c>
+      <c r="K27" s="4" t="inlineStr">
+        <is>
+          <t>6 million people per year by 2030</t>
+        </is>
+      </c>
+      <c r="L27" s="4" t="inlineStr">
+        <is>
           <t>Anzahl der Menschen, die einen neuen oder hochwertigeren Zugang zur Trinkwasserversorgung erhalten haben</t>
         </is>
       </c>
-      <c r="G27" s="4" t="inlineStr">
+      <c r="M27" s="4" t="inlineStr">
         <is>
           <t>Number of people gaining first-time or upgraded access to drinking water</t>
-        </is>
-      </c>
-      <c r="H27" s="4" t="inlineStr">
-        <is>
-          <t>6 Millionen Menschen pro Jahr bis 2030</t>
-        </is>
-      </c>
-      <c r="I27" s="4" t="inlineStr">
-        <is>
-          <t>6 million people per year by 2030</t>
-        </is>
-      </c>
-      <c r="J27" s="4" t="inlineStr">
-        <is>
-          <t>6 Millionen Menschen pro Jahr bis 2030</t>
-        </is>
-      </c>
-      <c r="K27" s="4" t="inlineStr">
-        <is>
-          <t>6 million people per year by 2030</t>
-        </is>
-      </c>
-      <c r="L27" s="4" t="inlineStr">
-        <is>
-          <t>Anzahl der Menschen, die einen neuen oder hochwertigeren Zugang zur Trinkwasserversorgung durch deutsche Unterstützung erhalten</t>
-        </is>
-      </c>
-      <c r="M27" s="4" t="inlineStr">
-        <is>
-          <t>Number of people gaining first-time or upgraded access to drinking water owing to German support</t>
-        </is>
-      </c>
-      <c r="N27" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="O27" s="4" t="inlineStr">
-        <is>
-          <t/>
         </is>
       </c>
     </row>
@@ -2567,52 +2295,42 @@
       </c>
       <c r="F28" s="4" t="inlineStr">
         <is>
+          <t>Anzahl der Menschen, die einen neuen oder verbesserten Anschluss zur Sanitärversorgung durch deutsche Unterstützung erhalten</t>
+        </is>
+      </c>
+      <c r="G28" s="4" t="inlineStr">
+        <is>
+          <t>Number of people gaining first-time or improved access to sanitation owing to German support</t>
+        </is>
+      </c>
+      <c r="H28" s="4" t="inlineStr">
+        <is>
+          <t>4 Millionen Menschen pro Jahr bis 2030</t>
+        </is>
+      </c>
+      <c r="I28" s="4" t="inlineStr">
+        <is>
+          <t>4 million people per year by 2030</t>
+        </is>
+      </c>
+      <c r="J28" s="4" t="inlineStr">
+        <is>
+          <t>4 Millionen Menschen pro Jahr bis 2030</t>
+        </is>
+      </c>
+      <c r="K28" s="4" t="inlineStr">
+        <is>
+          <t>4 million people per year by 2030</t>
+        </is>
+      </c>
+      <c r="L28" s="4" t="inlineStr">
+        <is>
           <t>Anzahl der Menschen, die einen neuen oder verbesserten Anschluss zur Sanitärversorgung erhalten haben</t>
         </is>
       </c>
-      <c r="G28" s="4" t="inlineStr">
+      <c r="M28" s="4" t="inlineStr">
         <is>
           <t>Number of people gaining first-time or improved access to sanitation</t>
-        </is>
-      </c>
-      <c r="H28" s="4" t="inlineStr">
-        <is>
-          <t>4 Millionen Menschen pro Jahr bis 2030</t>
-        </is>
-      </c>
-      <c r="I28" s="4" t="inlineStr">
-        <is>
-          <t>4 million people per year by 2030</t>
-        </is>
-      </c>
-      <c r="J28" s="4" t="inlineStr">
-        <is>
-          <t>4 Millionen Menschen pro Jahr bis 2030</t>
-        </is>
-      </c>
-      <c r="K28" s="4" t="inlineStr">
-        <is>
-          <t>4 million people per year by 2030</t>
-        </is>
-      </c>
-      <c r="L28" s="4" t="inlineStr">
-        <is>
-          <t>Anzahl der Menschen, die einen neuen oder verbesserten Anschluss zur Sanitärversorgung durch deutsche Unterstützung erhalten</t>
-        </is>
-      </c>
-      <c r="M28" s="4" t="inlineStr">
-        <is>
-          <t>Number of people gaining first-time or improved access to sanitation owing to German support</t>
-        </is>
-      </c>
-      <c r="N28" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="O28" s="4" t="inlineStr">
-        <is>
-          <t/>
         </is>
       </c>
     </row>
@@ -2644,52 +2362,42 @@
       </c>
       <c r="F29" s="4" t="inlineStr">
         <is>
+          <t>Anzahl der Menschen, die einen neuen oder hochwertigeren Zugang zur Trinkwasserversorgung oder Anschluss zur Sanitärversorgung durch deutsche Unterstützung erhalten</t>
+        </is>
+      </c>
+      <c r="G29" s="4" t="inlineStr">
+        <is>
+          <t>Number of people gaining first-time or upgraded access to drinking water or sanitation owing to German support</t>
+        </is>
+      </c>
+      <c r="H29" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I29" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J29" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K29" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L29" s="4" t="inlineStr">
+        <is>
           <t>Anzahl der Menschen, die einen neuen oder hochwertigeren Zugang zur Trinkwasserversorgung oder Anschluss zur Sanitärversorgung erhalten haben</t>
         </is>
       </c>
-      <c r="G29" s="4" t="inlineStr">
+      <c r="M29" s="4" t="inlineStr">
         <is>
           <t>Number of people gaining first-time or upgraded access to drinking water or sanitation</t>
-        </is>
-      </c>
-      <c r="H29" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I29" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J29" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K29" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="L29" s="4" t="inlineStr">
-        <is>
-          <t>Anzahl der Menschen, die einen neuen oder hochwertigeren Zugang zur Trinkwasserversorgung oder Anschluss zur Sanitärversorgung durch deutsche Unterstützung erhalten</t>
-        </is>
-      </c>
-      <c r="M29" s="4" t="inlineStr">
-        <is>
-          <t>Number of people gaining first-time or upgraded access to drinking water or sanitation owing to German support</t>
-        </is>
-      </c>
-      <c r="N29" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="O29" s="4" t="inlineStr">
-        <is>
-          <t/>
         </is>
       </c>
     </row>
@@ -2759,16 +2467,6 @@
           <t>Final energy productivity</t>
         </is>
       </c>
-      <c r="N30" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="O30" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
     </row>
     <row outlineLevel="0" r="31">
       <c r="A31" s="4" t="inlineStr">
@@ -2836,16 +2534,6 @@
           <t>Primary energy consumption</t>
         </is>
       </c>
-      <c r="N31" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="O31" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
     </row>
     <row outlineLevel="0" r="32">
       <c r="A32" s="4" t="inlineStr">
@@ -2913,16 +2601,6 @@
           <t>Share of renewable energies in gross final energy consumption</t>
         </is>
       </c>
-      <c r="N32" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="O32" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
     </row>
     <row outlineLevel="0" r="33">
       <c r="A33" s="4" t="inlineStr">
@@ -2990,16 +2668,6 @@
           <t>Share of electricity from renewable energy sources in gross electricity consumption</t>
         </is>
       </c>
-      <c r="N33" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="O33" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
     </row>
     <row outlineLevel="0" r="34">
       <c r="A34" s="4" t="inlineStr">
@@ -3067,16 +2735,6 @@
           <t>Raw material input productivity</t>
         </is>
       </c>
-      <c r="N34" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="O34" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
     </row>
     <row outlineLevel="0" r="35">
       <c r="A35" s="4" t="inlineStr">
@@ -3144,16 +2802,6 @@
           <t>Government deficit</t>
         </is>
       </c>
-      <c r="N35" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="O35" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
     </row>
     <row outlineLevel="0" r="36">
       <c r="A36" s="4" t="inlineStr">
@@ -3221,16 +2869,6 @@
           <t>Structural deficit</t>
         </is>
       </c>
-      <c r="N36" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="O36" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
     </row>
     <row outlineLevel="0" r="37">
       <c r="A37" s="4" t="inlineStr">
@@ -3298,16 +2936,6 @@
           <t>Government debt</t>
         </is>
       </c>
-      <c r="N37" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="O37" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
     </row>
     <row outlineLevel="0" r="38">
       <c r="A38" s="4" t="inlineStr">
@@ -3375,16 +3003,6 @@
           <t>Gross fixed capital formation in relation to GDP</t>
         </is>
       </c>
-      <c r="N38" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="O38" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
     </row>
     <row outlineLevel="0" r="39">
       <c r="A39" s="4" t="inlineStr">
@@ -3452,16 +3070,6 @@
           <t>Gross domestic product per capita</t>
         </is>
       </c>
-      <c r="N39" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="O39" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
     </row>
     <row outlineLevel="0" r="40">
       <c r="A40" s="4" t="inlineStr">
@@ -3529,16 +3137,6 @@
           <t>Employment rate, total (20 to 64-year-olds)</t>
         </is>
       </c>
-      <c r="N40" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="O40" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
     </row>
     <row outlineLevel="0" r="41">
       <c r="A41" s="4" t="inlineStr">
@@ -3606,16 +3204,6 @@
           <t>Employment rate, older people (60 to 64-year-olds)</t>
         </is>
       </c>
-      <c r="N41" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="O41" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
     </row>
     <row outlineLevel="0" r="42">
       <c r="A42" s="4" t="inlineStr">
@@ -3683,16 +3271,6 @@
           <t>Members of the Textile Partnership</t>
         </is>
       </c>
-      <c r="N42" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="O42" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
     </row>
     <row outlineLevel="0" r="43">
       <c r="A43" s="4" t="inlineStr">
@@ -3760,16 +3338,6 @@
           <t>Private and public expenditure on research and development</t>
         </is>
       </c>
-      <c r="N43" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="O43" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
     </row>
     <row outlineLevel="0" r="44">
       <c r="A44" s="4" t="inlineStr">
@@ -3837,16 +3405,6 @@
           <t>Roll-out of broadband – share of households with access to gigabit broadband services</t>
         </is>
       </c>
-      <c r="N44" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="O44" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
     </row>
     <row outlineLevel="0" r="45">
       <c r="A45" s="4" t="inlineStr">
@@ -3914,16 +3472,6 @@
           <t>Foreign school graduates</t>
         </is>
       </c>
-      <c r="N45" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="O45" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
     </row>
     <row outlineLevel="0" r="46">
       <c r="A46" s="4" t="inlineStr">
@@ -3991,16 +3539,6 @@
           <t>Gini coefficient of income after social transfers</t>
         </is>
       </c>
-      <c r="N46" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="O46" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
     </row>
     <row outlineLevel="0" r="47">
       <c r="A47" s="4" t="inlineStr">
@@ -4068,16 +3606,6 @@
           <t>Expansion of settlement and transport area in ha per day</t>
         </is>
       </c>
-      <c r="N47" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="O47" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
     </row>
     <row outlineLevel="0" r="48">
       <c r="A48" s="4" t="inlineStr">
@@ -4145,16 +3673,6 @@
           <t>Loss of open space area</t>
         </is>
       </c>
-      <c r="N48" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="O48" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
     </row>
     <row outlineLevel="0" r="49">
       <c r="A49" s="4" t="inlineStr">
@@ -4222,16 +3740,6 @@
           <t>Density of settlements</t>
         </is>
       </c>
-      <c r="N49" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="O49" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
     </row>
     <row outlineLevel="0" r="50">
       <c r="A50" s="4" t="inlineStr">
@@ -4299,16 +3807,6 @@
           <t>Final energy consumption in goods transport</t>
         </is>
       </c>
-      <c r="N50" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="O50" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
     </row>
     <row outlineLevel="0" r="51">
       <c r="A51" s="4" t="inlineStr">
@@ -4376,16 +3874,6 @@
           <t>Final energy consumption in passenger transport</t>
         </is>
       </c>
-      <c r="N51" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="O51" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
     </row>
     <row outlineLevel="0" r="52">
       <c r="A52" s="4" t="inlineStr">
@@ -4453,16 +3941,6 @@
           <t>Accessibility of medium-sized and large cities by public transport</t>
         </is>
       </c>
-      <c r="N52" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="O52" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
     </row>
     <row outlineLevel="0" r="53">
       <c r="A53" s="4" t="inlineStr">
@@ -4530,16 +4008,6 @@
           <t>Housing cost overload</t>
         </is>
       </c>
-      <c r="N53" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="O53" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
     </row>
     <row outlineLevel="0" r="54">
       <c r="A54" s="4" t="inlineStr">
@@ -4607,16 +4075,6 @@
           <t>Number of objects in the German Digital Library</t>
         </is>
       </c>
-      <c r="N54" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="O54" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
     </row>
     <row outlineLevel="0" r="55">
       <c r="A55" s="4" t="inlineStr">
@@ -4684,16 +4142,6 @@
           <t>Market share of products certified by publicly managed eco-labelling schemes</t>
         </is>
       </c>
-      <c r="N55" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="O55" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
     </row>
     <row outlineLevel="0" r="56">
       <c r="A56" s="4" t="inlineStr">
@@ -4761,16 +4209,6 @@
           <t>Direct and indirect use of raw materials</t>
         </is>
       </c>
-      <c r="N56" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="O56" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
     </row>
     <row outlineLevel="0" r="57">
       <c r="A57" s="4" t="inlineStr">
@@ -4838,16 +4276,6 @@
           <t>Direct and indirect energy consumption</t>
         </is>
       </c>
-      <c r="N57" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="O57" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
     </row>
     <row outlineLevel="0" r="58">
       <c r="A58" s="4" t="inlineStr">
@@ -4907,22 +4335,12 @@
       </c>
       <c r="L58" s="4" t="inlineStr">
         <is>
-          <t>Direkte und indirrekte CO2-Emissionen</t>
+          <t>Direkte und indirekte CO2-Emissionen</t>
         </is>
       </c>
       <c r="M58" s="4" t="inlineStr">
         <is>
           <t>Direct and indirect CO2 emissions</t>
-        </is>
-      </c>
-      <c r="N58" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="O58" s="4" t="inlineStr">
-        <is>
-          <t/>
         </is>
       </c>
     </row>
@@ -4992,16 +4410,6 @@
           <t>EMAS eco-management</t>
         </is>
       </c>
-      <c r="N59" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="O59" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
     </row>
     <row outlineLevel="0" r="60">
       <c r="A60" s="4" t="inlineStr">
@@ -5069,16 +4477,6 @@
           <t>Paper bearing the Blue Angel label as a proportion of the total paper consumption of the direct federal administration</t>
         </is>
       </c>
-      <c r="N60" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="O60" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
     </row>
     <row outlineLevel="0" r="61">
       <c r="A61" s="4" t="inlineStr">
@@ -5146,16 +4544,6 @@
           <t>CO2 emissions of commercially available vehicles in the public sector</t>
         </is>
       </c>
-      <c r="N61" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="O61" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
     </row>
     <row outlineLevel="0" r="62">
       <c r="A62" s="4" t="inlineStr">
@@ -5223,16 +4611,6 @@
           <t>Greenhouse gas emissions</t>
         </is>
       </c>
-      <c r="N62" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="O62" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
     </row>
     <row outlineLevel="0" r="63">
       <c r="A63" s="4" t="inlineStr">
@@ -5300,16 +4678,6 @@
           <t>International climate finance for the reduction of greenhouse gases and adaptation to climate change</t>
         </is>
       </c>
-      <c r="N63" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="O63" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
     </row>
     <row outlineLevel="0" r="64">
       <c r="A64" s="4" t="inlineStr">
@@ -5369,22 +4737,12 @@
       </c>
       <c r="L64" s="4" t="inlineStr">
         <is>
-          <t>Stickstoffeinträge in Küsten- und Meeresgewässer der Ostsee</t>
+          <t>Stickstoffeintrag über die Zuflüsse in die Ostsee</t>
         </is>
       </c>
       <c r="M64" s="4" t="inlineStr">
         <is>
           <t>Nitrogen input in coastal and marine waters of the Baltic Sea</t>
-        </is>
-      </c>
-      <c r="N64" s="4" t="inlineStr">
-        <is>
-          <t>Stickstoffeintrag über die Zuflüsse in die Ostsee</t>
-        </is>
-      </c>
-      <c r="O64" s="4" t="inlineStr">
-        <is>
-          <t>Nitrogen inputs via the inflows into the Baltic Sea</t>
         </is>
       </c>
     </row>
@@ -5446,22 +4804,12 @@
       </c>
       <c r="L65" s="4" t="inlineStr">
         <is>
-          <t>Stickstoffeinträge in Küsten- und Meeresgewässer der Nordsee</t>
+          <t>Stickstoffeintrag über die Zuflüsse in die Nordsee</t>
         </is>
       </c>
       <c r="M65" s="4" t="inlineStr">
         <is>
           <t>Nitrogen input in coastal and marine waters of the North Sea</t>
-        </is>
-      </c>
-      <c r="N65" s="4" t="inlineStr">
-        <is>
-          <t>Stickstoffeintrag über die Zuflüsse in die Nordsee</t>
-        </is>
-      </c>
-      <c r="O65" s="4" t="inlineStr">
-        <is>
-          <t>Nitrogen inputs via the inflows into the North Sea</t>
         </is>
       </c>
     </row>
@@ -5531,16 +4879,6 @@
           <t>Share of sustainably fished fish populations in the North Sea and Baltic</t>
         </is>
       </c>
-      <c r="N66" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="O66" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
     </row>
     <row outlineLevel="0" r="67">
       <c r="A67" s="4" t="inlineStr">
@@ -5608,16 +4946,6 @@
           <t>Biodiversity and landscape quality</t>
         </is>
       </c>
-      <c r="N67" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="O67" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
     </row>
     <row outlineLevel="0" r="68">
       <c r="A68" s="4" t="inlineStr">
@@ -5685,16 +5013,6 @@
           <t>Eutrophication of ecosystems</t>
         </is>
       </c>
-      <c r="N68" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="O68" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
     </row>
     <row outlineLevel="0" r="69">
       <c r="A69" s="4" t="inlineStr">
@@ -5762,16 +5080,6 @@
           <t>Preservation or restoration of forests in developing countries under the REDD+ rulebook</t>
         </is>
       </c>
-      <c r="N69" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="O69" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
     </row>
     <row outlineLevel="0" r="70">
       <c r="A70" s="4" t="inlineStr">
@@ -5839,16 +5147,6 @@
           <t>German gross bilateral development expenditure for the implementation of the UN Convention to Combat Desertification</t>
         </is>
       </c>
-      <c r="N70" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="O70" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
     </row>
     <row outlineLevel="0" r="71">
       <c r="A71" s="4" t="inlineStr">
@@ -5916,16 +5214,6 @@
           <t>Criminal offences</t>
         </is>
       </c>
-      <c r="N71" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="O71" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
     </row>
     <row outlineLevel="0" r="72">
       <c r="A72" s="4" t="inlineStr">
@@ -5993,16 +5281,6 @@
           <t>Number of projects to secure, register and destroy small arms and light weapons carried out by Germany in affected regions of the world</t>
         </is>
       </c>
-      <c r="N72" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="O72" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
     </row>
     <row outlineLevel="0" r="73">
       <c r="A73" s="4" t="inlineStr">
@@ -6032,7 +5310,7 @@
       </c>
       <c r="F73" s="4" t="inlineStr">
         <is>
-          <t>Corruption Perception Index für Deutschland</t>
+          <t>Corruption Perception Index in Deutschland</t>
         </is>
       </c>
       <c r="G73" s="4" t="inlineStr">
@@ -6068,16 +5346,6 @@
       <c r="M73" s="4" t="inlineStr">
         <is>
           <t>Corruption Perception Index in Germany</t>
-        </is>
-      </c>
-      <c r="N73" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="O73" s="4" t="inlineStr">
-        <is>
-          <t/>
         </is>
       </c>
     </row>
@@ -6109,52 +5377,42 @@
       </c>
       <c r="F74" s="4" t="inlineStr">
         <is>
-          <t>Anzahl der Partnerländer deutscher Entwicklungszusammenarbeit, deren Corruption Perception Index sich gegenüber 2012 verbessert hat</t>
+          <t>Corruption Perception Index in den Partnerländern der deutschen Entwicklungszusammenarbeit</t>
         </is>
       </c>
       <c r="G74" s="4" t="inlineStr">
         <is>
+          <t>Corruption Perceptions Index in partner countries involved in German development cooperation</t>
+        </is>
+      </c>
+      <c r="H74" s="4" t="inlineStr">
+        <is>
+          <t>Verbesserung gegenüber 2012 bis 2030</t>
+        </is>
+      </c>
+      <c r="I74" s="4" t="inlineStr">
+        <is>
+          <t>Improvement by 2030, compared to 2012</t>
+        </is>
+      </c>
+      <c r="J74" s="4" t="inlineStr">
+        <is>
+          <t>Verbesserung bis 2030</t>
+        </is>
+      </c>
+      <c r="K74" s="4" t="inlineStr">
+        <is>
+          <t>improvement by 2030</t>
+        </is>
+      </c>
+      <c r="L74" s="4" t="inlineStr">
+        <is>
+          <t>Anzahl der Partnerländer deutscher Entwicklungszusammenarbeit, deren Bewertung sich gegenüber 2012 verbessert hat</t>
+        </is>
+      </c>
+      <c r="M74" s="4" t="inlineStr">
+        <is>
           <t>Number of partner countries involved in German development cooperation with improved CPI scores compared with 2012</t>
-        </is>
-      </c>
-      <c r="H74" s="4" t="inlineStr">
-        <is>
-          <t>Verbesserung gegenüber 2012 bis 2030</t>
-        </is>
-      </c>
-      <c r="I74" s="4" t="inlineStr">
-        <is>
-          <t>Improvement by 2030, compared to 2012</t>
-        </is>
-      </c>
-      <c r="J74" s="4" t="inlineStr">
-        <is>
-          <t>Verbesserung bis 2030</t>
-        </is>
-      </c>
-      <c r="K74" s="4" t="inlineStr">
-        <is>
-          <t>improvement by 2030</t>
-        </is>
-      </c>
-      <c r="L74" s="4" t="inlineStr">
-        <is>
-          <t>Anzahl der Partnerländer deutscher Entwicklungszusammenarbeit, deren Bewertung sich gegenüber 2012 verbessert hat</t>
-        </is>
-      </c>
-      <c r="M74" s="4" t="inlineStr">
-        <is>
-          <t>Number of partner countries involved in German development cooperation with improved CPI scores compared with 2012</t>
-        </is>
-      </c>
-      <c r="N74" s="4" t="inlineStr">
-        <is>
-          <t>Corruption Perception Index in Partnerländern deutscher Entwicklungszusammenarbeit</t>
-        </is>
-      </c>
-      <c r="O74" s="4" t="inlineStr">
-        <is>
-          <t>Corruption Perception Index in partner countries involved in German development cooperation</t>
         </is>
       </c>
     </row>
@@ -6224,16 +5482,6 @@
           <t>Official development assistance as a proportion of gross national income</t>
         </is>
       </c>
-      <c r="N75" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="O75" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
     </row>
     <row outlineLevel="0" r="76">
       <c r="A76" s="4" t="inlineStr">
@@ -6301,16 +5549,6 @@
           <t>Number of students and researchers from developing countries and LDCs per year</t>
         </is>
       </c>
-      <c r="N76" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="O76" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
     </row>
     <row outlineLevel="0" r="77">
       <c r="A77" s="4" t="inlineStr">
@@ -6376,16 +5614,6 @@
       <c r="M77" s="4" t="inlineStr">
         <is>
           <t>Imports from least developed countries</t>
-        </is>
-      </c>
-      <c r="N77" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="O77" s="4" t="inlineStr">
-        <is>
-          <t/>
         </is>
       </c>
     </row>

--- a/Tab_5a_Indikatoren.xlsx
+++ b/Tab_5a_Indikatoren.xlsx
@@ -450,8 +450,8 @@
     <col customWidth="true" min="5" max="5" width="2.48828125"/>
     <col customWidth="true" min="6" max="6" width="23.4375"/>
     <col customWidth="true" min="7" max="7" width="40.4296875"/>
-    <col customWidth="true" min="8" max="8" width="1.46484375"/>
-    <col customWidth="true" min="9" max="9" width="5.7109375"/>
+    <col customWidth="true" min="8" max="8" width="20.80078125"/>
+    <col customWidth="true" min="9" max="9" width="31.0546875"/>
     <col customWidth="true" min="10" max="10" width="3.515625"/>
     <col customWidth="true" min="11" max="11" width="5.2734375"/>
     <col customWidth="true" min="12" max="12" width="59.47265625"/>
@@ -4201,7 +4201,7 @@
       </c>
       <c r="L56" s="4" t="inlineStr">
         <is>
-          <t>Direkter und indirrekter Rohstoffeinsatz</t>
+          <t>Direkter und indirekter Rohstoffeinsatz</t>
         </is>
       </c>
       <c r="M56" s="4" t="inlineStr">
@@ -4268,7 +4268,7 @@
       </c>
       <c r="L57" s="4" t="inlineStr">
         <is>
-          <t>Direkter und indirrekter Energieverbrauch</t>
+          <t>Direkter und indirekter Energieverbrauch</t>
         </is>
       </c>
       <c r="M57" s="4" t="inlineStr">

--- a/Tab_5a_Indikatoren.xlsx
+++ b/Tab_5a_Indikatoren.xlsx
@@ -888,7 +888,7 @@
       </c>
       <c r="F7" s="4" t="inlineStr">
         <is>
-          <t>Vorzeitige Sterblichkeit (Frauen)</t>
+          <t>Vorzeitig Gestorbene (Frauen)</t>
         </is>
       </c>
       <c r="G7" s="4" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
-          <t>Vorzeitige Sterblichkeit (Männer)</t>
+          <t>Vorzeitig Gestorbene (Männer)</t>
         </is>
       </c>
       <c r="G8" s="4" t="inlineStr">

--- a/Tab_5a_Indikatoren.xlsx
+++ b/Tab_5a_Indikatoren.xlsx
@@ -893,7 +893,7 @@
       </c>
       <c r="G7" s="4" t="inlineStr">
         <is>
-          <t>Premature mortality (women)</t>
+          <t>Premature death (women)</t>
         </is>
       </c>
       <c r="H7" s="4" t="inlineStr">
@@ -960,7 +960,7 @@
       </c>
       <c r="G8" s="4" t="inlineStr">
         <is>
-          <t>Premature mortality (men)</t>
+          <t>Premature death (men)</t>
         </is>
       </c>
       <c r="H8" s="4" t="inlineStr">

--- a/Tab_5a_Indikatoren.xlsx
+++ b/Tab_5a_Indikatoren.xlsx
@@ -888,42 +888,42 @@
       </c>
       <c r="F7" s="4" t="inlineStr">
         <is>
+          <t>Vorzeitige Sterblichkeit (Frauen)</t>
+        </is>
+      </c>
+      <c r="G7" s="4" t="inlineStr">
+        <is>
+          <t>Premature mortality (women)</t>
+        </is>
+      </c>
+      <c r="H7" s="4" t="inlineStr">
+        <is>
+          <t>Senkung auf 100 Todesfälle je 100 000 Einwohner (Frauen) bis 2030</t>
+        </is>
+      </c>
+      <c r="I7" s="4" t="inlineStr">
+        <is>
+          <t>To be reduced to 100 deaths per 100,000 inhabitants (women) by 2030</t>
+        </is>
+      </c>
+      <c r="J7" s="4" t="inlineStr">
+        <is>
+          <t>Senkung auf 100 Todesfälle je 100 000 Einwohnerinnen bis 2030</t>
+        </is>
+      </c>
+      <c r="K7" s="4" t="inlineStr">
+        <is>
+          <t>to be reduced to 100 deaths per 100,000 inhabitants by 2030</t>
+        </is>
+      </c>
+      <c r="L7" s="4" t="inlineStr">
+        <is>
           <t>Vorzeitig Gestorbene (Frauen)</t>
         </is>
       </c>
-      <c r="G7" s="4" t="inlineStr">
+      <c r="M7" s="4" t="inlineStr">
         <is>
           <t>Premature death (women)</t>
-        </is>
-      </c>
-      <c r="H7" s="4" t="inlineStr">
-        <is>
-          <t>Senkung auf 100 Todesfälle je 100 000 Einwohner (Frauen) bis 2030</t>
-        </is>
-      </c>
-      <c r="I7" s="4" t="inlineStr">
-        <is>
-          <t>To be reduced to 100 deaths per 100,000 inhabitants (women) by 2030</t>
-        </is>
-      </c>
-      <c r="J7" s="4" t="inlineStr">
-        <is>
-          <t>Senkung auf 100 Todesfälle je 100 000 Einwohnerinnen bis 2030</t>
-        </is>
-      </c>
-      <c r="K7" s="4" t="inlineStr">
-        <is>
-          <t>to be reduced to 100 deaths per 100,000 inhabitants by 2030</t>
-        </is>
-      </c>
-      <c r="L7" s="4" t="inlineStr">
-        <is>
-          <t>Vorzeitige Sterblichkeit (Frauen)</t>
-        </is>
-      </c>
-      <c r="M7" s="4" t="inlineStr">
-        <is>
-          <t>Premature mortality (women)</t>
         </is>
       </c>
     </row>
@@ -955,42 +955,42 @@
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
+          <t>Vorzeitige Sterblichkeit (Männer)</t>
+        </is>
+      </c>
+      <c r="G8" s="4" t="inlineStr">
+        <is>
+          <t>Premature mortality (men)</t>
+        </is>
+      </c>
+      <c r="H8" s="4" t="inlineStr">
+        <is>
+          <t>Senkung auf 190 Todesfälle je 100 000 Einwohner (Männer) bis 2030</t>
+        </is>
+      </c>
+      <c r="I8" s="4" t="inlineStr">
+        <is>
+          <t>To be reduced to 190 deaths per 100,000 inhabitants (men) by 2030</t>
+        </is>
+      </c>
+      <c r="J8" s="4" t="inlineStr">
+        <is>
+          <t>Senkung auf 190 Todesfälle je 100 000 Einwohner bis 2030</t>
+        </is>
+      </c>
+      <c r="K8" s="4" t="inlineStr">
+        <is>
+          <t>to be reduced to 190 deaths per 100,000 inhabitants by 2030</t>
+        </is>
+      </c>
+      <c r="L8" s="4" t="inlineStr">
+        <is>
           <t>Vorzeitig Gestorbene (Männer)</t>
         </is>
       </c>
-      <c r="G8" s="4" t="inlineStr">
+      <c r="M8" s="4" t="inlineStr">
         <is>
           <t>Premature death (men)</t>
-        </is>
-      </c>
-      <c r="H8" s="4" t="inlineStr">
-        <is>
-          <t>Senkung auf 190 Todesfälle je 100 000 Einwohner (Männer) bis 2030</t>
-        </is>
-      </c>
-      <c r="I8" s="4" t="inlineStr">
-        <is>
-          <t>To be reduced to 190 deaths per 100,000 inhabitants (men) by 2030</t>
-        </is>
-      </c>
-      <c r="J8" s="4" t="inlineStr">
-        <is>
-          <t>Senkung auf 190 Todesfälle je 100 000 Einwohner bis 2030</t>
-        </is>
-      </c>
-      <c r="K8" s="4" t="inlineStr">
-        <is>
-          <t>to be reduced to 190 deaths per 100,000 inhabitants by 2030</t>
-        </is>
-      </c>
-      <c r="L8" s="4" t="inlineStr">
-        <is>
-          <t>Vorzeitige Sterblichkeit (Männer)</t>
-        </is>
-      </c>
-      <c r="M8" s="4" t="inlineStr">
-        <is>
-          <t>Premature mortality (men)</t>
         </is>
       </c>
     </row>

--- a/Tab_5a_Indikatoren.xlsx
+++ b/Tab_5a_Indikatoren.xlsx
@@ -446,14 +446,14 @@
     <col customWidth="true" min="1" max="1" width="10.25390625"/>
     <col customWidth="true" min="2" max="2" width="4.1015625"/>
     <col customWidth="true" min="3" max="3" width="13.8359375"/>
-    <col customWidth="true" min="4" max="4" width="2.48828125"/>
-    <col customWidth="true" min="5" max="5" width="2.48828125"/>
+    <col customWidth="true" min="4" max="4" width="12.7421875"/>
+    <col customWidth="true" min="5" max="5" width="12.890625"/>
     <col customWidth="true" min="6" max="6" width="23.4375"/>
     <col customWidth="true" min="7" max="7" width="40.4296875"/>
     <col customWidth="true" min="8" max="8" width="20.80078125"/>
-    <col customWidth="true" min="9" max="9" width="31.0546875"/>
+    <col customWidth="true" min="9" max="9" width="68.11328125"/>
     <col customWidth="true" min="10" max="10" width="3.515625"/>
-    <col customWidth="true" min="11" max="11" width="5.2734375"/>
+    <col customWidth="true" min="11" max="11" width="31.19921875"/>
     <col customWidth="true" min="12" max="12" width="59.47265625"/>
     <col customWidth="true" min="13" max="13" width="2.48828125"/>
   </cols>
@@ -769,7 +769,7 @@
       </c>
       <c r="I5" s="4" t="inlineStr">
         <is>
-          <t>Increase the proportion of organically farmed agricultural land to 30% by 2030</t>
+          <t>Increase the proportion of organically farmed agricultural land to 30 % by 2030</t>
         </is>
       </c>
       <c r="J5" s="4" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="K5" s="4" t="inlineStr">
         <is>
-          <t>increase the proportion of organically farmed agricultural land to 30% by 2030</t>
+          <t>increase the proportion of organically farmed agricultural land to 30 % by 2030</t>
         </is>
       </c>
       <c r="L5" s="4" t="inlineStr">
@@ -1037,7 +1037,7 @@
       </c>
       <c r="I9" s="4" t="inlineStr">
         <is>
-          <t>Reduction to 7% by 2030</t>
+          <t>Reduction to 7 % by 2030</t>
         </is>
       </c>
       <c r="J9" s="4" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="K9" s="4" t="inlineStr">
         <is>
-          <t>reduction to 7% by 2030</t>
+          <t>reduction to 7 % by 2030</t>
         </is>
       </c>
       <c r="L9" s="4" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="I10" s="4" t="inlineStr">
         <is>
-          <t>Reduction to 19% by 2030</t>
+          <t>Reduction to 19 % by 2030</t>
         </is>
       </c>
       <c r="J10" s="4" t="inlineStr">
@@ -1114,7 +1114,7 @@
       </c>
       <c r="K10" s="4" t="inlineStr">
         <is>
-          <t>reduction to 19% by 2030</t>
+          <t>reduction to 19 % by 2030</t>
         </is>
       </c>
       <c r="L10" s="4" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="I13" s="4" t="inlineStr">
         <is>
-          <t>Reduction of emissions to 55% of 2005 level (unweighted average of the five pollutants) by 2030</t>
+          <t>Reduction of emissions to 55 % of 2005 level (unweighted average of the five pollutants) by 2030</t>
         </is>
       </c>
       <c r="J13" s="4" t="inlineStr">
@@ -1315,7 +1315,7 @@
       </c>
       <c r="K13" s="4" t="inlineStr">
         <is>
-          <t>reduction to 55% by 2030</t>
+          <t>reduction to 55 % by 2030</t>
         </is>
       </c>
       <c r="L13" s="4" t="inlineStr">
@@ -1506,7 +1506,7 @@
       </c>
       <c r="I16" s="4" t="inlineStr">
         <is>
-          <t>Reduce the proportion to 9.5% by 2030</t>
+          <t>Reduce the proportion to 9.5 % by 2030</t>
         </is>
       </c>
       <c r="J16" s="4" t="inlineStr">
@@ -1516,7 +1516,7 @@
       </c>
       <c r="K16" s="4" t="inlineStr">
         <is>
-          <t>reduce the proportion to 9.5% by 2030</t>
+          <t>reduce the proportion to 9.5 % by 2030</t>
         </is>
       </c>
       <c r="L16" s="4" t="inlineStr">
@@ -1573,7 +1573,7 @@
       </c>
       <c r="I17" s="4" t="inlineStr">
         <is>
-          <t>Increase the proportion to 55% by 2030</t>
+          <t>Increase the proportion to 55 % by 2030</t>
         </is>
       </c>
       <c r="J17" s="4" t="inlineStr">
@@ -1583,7 +1583,7 @@
       </c>
       <c r="K17" s="4" t="inlineStr">
         <is>
-          <t>increase the proportion to 55% by 2030</t>
+          <t>increase the proportion to 55 % by 2030</t>
         </is>
       </c>
       <c r="L17" s="4" t="inlineStr">
@@ -1640,7 +1640,7 @@
       </c>
       <c r="I18" s="4" t="inlineStr">
         <is>
-          <t>Increase to 35% by 2030</t>
+          <t>Increase to 35 % by 2030</t>
         </is>
       </c>
       <c r="J18" s="4" t="inlineStr">
@@ -1650,7 +1650,7 @@
       </c>
       <c r="K18" s="4" t="inlineStr">
         <is>
-          <t>increase to 35% by 2030</t>
+          <t>increase to 35 % by 2030</t>
         </is>
       </c>
       <c r="L18" s="4" t="inlineStr">
@@ -1707,7 +1707,7 @@
       </c>
       <c r="I19" s="4" t="inlineStr">
         <is>
-          <t>Increase to 70% by 2030</t>
+          <t>Increase to 70 % by 2030</t>
         </is>
       </c>
       <c r="J19" s="4" t="inlineStr">
@@ -1717,7 +1717,7 @@
       </c>
       <c r="K19" s="4" t="inlineStr">
         <is>
-          <t>increase to 70% by 2030</t>
+          <t>increase to 70 % by 2030</t>
         </is>
       </c>
       <c r="L19" s="4" t="inlineStr">
@@ -1774,7 +1774,7 @@
       </c>
       <c r="I20" s="4" t="inlineStr">
         <is>
-          <t>Reduce the gap to 10% by 2020, maintained until 2030 subsequently</t>
+          <t>Reduce the gap to 10 % by 2020, maintained until 2030 subsequently</t>
         </is>
       </c>
       <c r="J20" s="4" t="inlineStr">
@@ -1784,7 +1784,7 @@
       </c>
       <c r="K20" s="4" t="inlineStr">
         <is>
-          <t>maintaine a maximum of 10% by 2030</t>
+          <t>maintaine a maximum of 10 % by 2030</t>
         </is>
       </c>
       <c r="L20" s="4" t="inlineStr">
@@ -1841,7 +1841,7 @@
       </c>
       <c r="I21" s="4" t="inlineStr">
         <is>
-          <t>30% women on supervisory boards of listed and fully co-determined companies by 2030</t>
+          <t>30 % women on supervisory boards of listed and fully co-determined companies by 2030</t>
         </is>
       </c>
       <c r="J21" s="4" t="inlineStr">
@@ -1975,7 +1975,7 @@
       </c>
       <c r="I23" s="4" t="inlineStr">
         <is>
-          <t>65% by 2030</t>
+          <t>65 % by 2030</t>
         </is>
       </c>
       <c r="J23" s="4" t="inlineStr">
@@ -1985,7 +1985,7 @@
       </c>
       <c r="K23" s="4" t="inlineStr">
         <is>
-          <t>65% by 2030</t>
+          <t>65 % by 2030</t>
         </is>
       </c>
       <c r="L23" s="4" t="inlineStr">
@@ -2444,7 +2444,7 @@
       </c>
       <c r="I30" s="4" t="inlineStr">
         <is>
-          <t>Increase by 2.1% per year from 2008 to 2050</t>
+          <t>Increase by 2.1 % per year from 2008 to 2050</t>
         </is>
       </c>
       <c r="J30" s="4" t="inlineStr">
@@ -2454,7 +2454,7 @@
       </c>
       <c r="K30" s="4" t="inlineStr">
         <is>
-          <t>increase by 2.1% per year</t>
+          <t>increase by 2.1 % per year</t>
         </is>
       </c>
       <c r="L30" s="4" t="inlineStr">
@@ -2511,7 +2511,7 @@
       </c>
       <c r="I31" s="4" t="inlineStr">
         <is>
-          <t>Reduction by 20% by 2020, by 30% by 2030, and by 50% by 2050, all compared to 2008</t>
+          <t>Reduction by 20 % by 2020, by 30 % by 2030, and by 50 % by 2050, all compared to 2008</t>
         </is>
       </c>
       <c r="J31" s="4" t="inlineStr">
@@ -2521,7 +2521,7 @@
       </c>
       <c r="K31" s="4" t="inlineStr">
         <is>
-          <t>reduction by 30% by 2030</t>
+          <t>reduction by 30 % by 2030</t>
         </is>
       </c>
       <c r="L31" s="4" t="inlineStr">
@@ -2578,7 +2578,7 @@
       </c>
       <c r="I32" s="4" t="inlineStr">
         <is>
-          <t>Increase to 18% by 2020 and to 30% by 2030, to 45% by 2040 and to 60% by 2050</t>
+          <t>Increase to 18 % by 2020 and to 30 % by 2030, to 45 % by 2040 and to 60 % by 2050</t>
         </is>
       </c>
       <c r="J32" s="4" t="inlineStr">
@@ -2588,7 +2588,7 @@
       </c>
       <c r="K32" s="4" t="inlineStr">
         <is>
-          <t>increase to 30% by 2030</t>
+          <t>increase to 30 % by 2030</t>
         </is>
       </c>
       <c r="L32" s="4" t="inlineStr">
@@ -2645,7 +2645,7 @@
       </c>
       <c r="I33" s="4" t="inlineStr">
         <is>
-          <t>Increase to at least 80% by 2030</t>
+          <t>Increase to at least 80 % by 2030</t>
         </is>
       </c>
       <c r="J33" s="4" t="inlineStr">
@@ -2655,7 +2655,7 @@
       </c>
       <c r="K33" s="4" t="inlineStr">
         <is>
-          <t>increase to 80% by 2030</t>
+          <t>increase to 80 % by 2030</t>
         </is>
       </c>
       <c r="L33" s="4" t="inlineStr">
@@ -2779,7 +2779,7 @@
       </c>
       <c r="I35" s="4" t="inlineStr">
         <is>
-          <t>Annual government deficit less than 3% of GDP, to be maintained until 2030</t>
+          <t>Annual government deficit less than 3 % of GDP, to be maintained until 2030</t>
         </is>
       </c>
       <c r="J35" s="4" t="inlineStr">
@@ -2789,7 +2789,7 @@
       </c>
       <c r="K35" s="4" t="inlineStr">
         <is>
-          <t>less than 3% of GDP</t>
+          <t>less than 3 % of GDP</t>
         </is>
       </c>
       <c r="L35" s="4" t="inlineStr">
@@ -2846,7 +2846,7 @@
       </c>
       <c r="I36" s="4" t="inlineStr">
         <is>
-          <t>Structurally balanced government budget, general government structural deficit must not exceed 0.5% of GDP, to be maintained until 2030</t>
+          <t>Structurally balanced government budget, general government structural deficit must not exceed 0.5 % of GDP, to be maintained until 2030</t>
         </is>
       </c>
       <c r="J36" s="4" t="inlineStr">
@@ -2856,7 +2856,7 @@
       </c>
       <c r="K36" s="4" t="inlineStr">
         <is>
-          <t>less than 0.5% of GDP</t>
+          <t>less than 0.5 % of GDP</t>
         </is>
       </c>
       <c r="L36" s="4" t="inlineStr">
@@ -2913,7 +2913,7 @@
       </c>
       <c r="I37" s="4" t="inlineStr">
         <is>
-          <t>Ratio of government debt to GDP must not exceed  60%, to be maintained until 2030</t>
+          <t>Ratio of government debt to GDP must not exceed  60 %, to be maintained until 2030</t>
         </is>
       </c>
       <c r="J37" s="4" t="inlineStr">
@@ -2923,7 +2923,7 @@
       </c>
       <c r="K37" s="4" t="inlineStr">
         <is>
-          <t>max. 60% of GDP</t>
+          <t>max. 60 % of GDP</t>
         </is>
       </c>
       <c r="L37" s="4" t="inlineStr">
@@ -3114,7 +3114,7 @@
       </c>
       <c r="I40" s="4" t="inlineStr">
         <is>
-          <t>Increase to 78% by 2030</t>
+          <t>Increase to 78 % by 2030</t>
         </is>
       </c>
       <c r="J40" s="4" t="inlineStr">
@@ -3124,7 +3124,7 @@
       </c>
       <c r="K40" s="4" t="inlineStr">
         <is>
-          <t>increase to 78% by 2030</t>
+          <t>increase to 78 % by 2030</t>
         </is>
       </c>
       <c r="L40" s="4" t="inlineStr">
@@ -3181,7 +3181,7 @@
       </c>
       <c r="I41" s="4" t="inlineStr">
         <is>
-          <t>Increase to 60% by 2030</t>
+          <t>Increase to 60 % by 2030</t>
         </is>
       </c>
       <c r="J41" s="4" t="inlineStr">
@@ -3191,7 +3191,7 @@
       </c>
       <c r="K41" s="4" t="inlineStr">
         <is>
-          <t>increase to 60% by 2030</t>
+          <t>increase to 60 % by 2030</t>
         </is>
       </c>
       <c r="L41" s="4" t="inlineStr">
@@ -3315,7 +3315,7 @@
       </c>
       <c r="I43" s="4" t="inlineStr">
         <is>
-          <t>At least 3.5% of GDP per year by 2025</t>
+          <t>At least 3.5 % of GDP per year by 2025</t>
         </is>
       </c>
       <c r="J43" s="4" t="inlineStr">
@@ -3325,7 +3325,7 @@
       </c>
       <c r="K43" s="4" t="inlineStr">
         <is>
-          <t>at least 3.5% of GDP per year by 2025</t>
+          <t>at least 3.5 % of GDP per year by 2025</t>
         </is>
       </c>
       <c r="L43" s="4" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="I50" s="4" t="inlineStr">
         <is>
-          <t>Reduction by 15–20% by 2030</t>
+          <t>Reduction by 15–20 % by 2030</t>
         </is>
       </c>
       <c r="J50" s="4" t="inlineStr">
@@ -3794,7 +3794,7 @@
       </c>
       <c r="K50" s="4" t="inlineStr">
         <is>
-          <t>reduction by 15-20% by 2030</t>
+          <t>reduction by 15-20 % by 2030</t>
         </is>
       </c>
       <c r="L50" s="4" t="inlineStr">
@@ -3851,7 +3851,7 @@
       </c>
       <c r="I51" s="4" t="inlineStr">
         <is>
-          <t>Reduction by 15–20% by 2030</t>
+          <t>Reduction by 15–20 % by 2030</t>
         </is>
       </c>
       <c r="J51" s="4" t="inlineStr">
@@ -3861,7 +3861,7 @@
       </c>
       <c r="K51" s="4" t="inlineStr">
         <is>
-          <t>reduction by 15-20% by 2030</t>
+          <t>reduction by 15-20 % by 2030</t>
         </is>
       </c>
       <c r="L51" s="4" t="inlineStr">
@@ -3985,7 +3985,7 @@
       </c>
       <c r="I53" s="4" t="inlineStr">
         <is>
-          <t>Reduce the proportion of people who are overburdened to 13% by 2030</t>
+          <t>Reduce the proportion of people who are overburdened to 13 % by 2030</t>
         </is>
       </c>
       <c r="J53" s="4" t="inlineStr">
@@ -3995,7 +3995,7 @@
       </c>
       <c r="K53" s="4" t="inlineStr">
         <is>
-          <t>reduce to 13% by 2030</t>
+          <t>reduce to 13 % by 2030</t>
         </is>
       </c>
       <c r="L53" s="4" t="inlineStr">
@@ -4119,7 +4119,7 @@
       </c>
       <c r="I55" s="4" t="inlineStr">
         <is>
-          <t>Increase the market share to 34% by 2030</t>
+          <t>Increase the market share to 34 % by 2030</t>
         </is>
       </c>
       <c r="J55" s="4" t="inlineStr">
@@ -4129,7 +4129,7 @@
       </c>
       <c r="K55" s="4" t="inlineStr">
         <is>
-          <t>increase the market share to 34% by 2030</t>
+          <t>increase the market share to 34 % by 2030</t>
         </is>
       </c>
       <c r="L55" s="4" t="inlineStr">
@@ -4454,7 +4454,7 @@
       </c>
       <c r="I60" s="4" t="inlineStr">
         <is>
-          <t>Increase the proportion to 95% by 2020</t>
+          <t>Increase the proportion to 95 % by 2020</t>
         </is>
       </c>
       <c r="J60" s="4" t="inlineStr">
@@ -4464,7 +4464,7 @@
       </c>
       <c r="K60" s="4" t="inlineStr">
         <is>
-          <t>increase to 95% by 2020</t>
+          <t>increase to 95 % by 2020</t>
         </is>
       </c>
       <c r="L60" s="4" t="inlineStr">
@@ -4588,7 +4588,7 @@
       </c>
       <c r="I62" s="4" t="inlineStr">
         <is>
-          <t>Reduce by at least 65% by 2030 and by at least 88% by 2040; greenhouse gas neutrality to be achieved by 2045</t>
+          <t>Reduce by at least 65 % by 2030 and by at least 88 % by 2040; greenhouse gas neutrality to be achieved by 2045</t>
         </is>
       </c>
       <c r="J62" s="4" t="inlineStr">
@@ -4598,7 +4598,7 @@
       </c>
       <c r="K62" s="4" t="inlineStr">
         <is>
-          <t>reduce by 65% by 2030</t>
+          <t>reduce by 65 % by 2030</t>
         </is>
       </c>
       <c r="L62" s="4" t="inlineStr">
@@ -4655,7 +4655,7 @@
       </c>
       <c r="I63" s="4" t="inlineStr">
         <is>
-          <t>Increase international climate finance to at least 6 billion euros by 2025 at the latest.</t>
+          <t>Increase international climate finance to at least 6 billion euros by 2025 at the latest</t>
         </is>
       </c>
       <c r="J63" s="4" t="inlineStr">
@@ -4990,7 +4990,7 @@
       </c>
       <c r="I68" s="4" t="inlineStr">
         <is>
-          <t>Reduction by 35% by 2030 compared to 2005</t>
+          <t>Reduction by 35 % by 2030 compared to 2005</t>
         </is>
       </c>
       <c r="J68" s="4" t="inlineStr">
@@ -5000,7 +5000,7 @@
       </c>
       <c r="K68" s="4" t="inlineStr">
         <is>
-          <t>reduction by 35% by 2030</t>
+          <t>reduction by 35 % by 2030</t>
         </is>
       </c>
       <c r="L68" s="4" t="inlineStr">
@@ -5459,7 +5459,7 @@
       </c>
       <c r="I75" s="4" t="inlineStr">
         <is>
-          <t>Increase the proportion to 0.7% of gross national income by 2030</t>
+          <t>Increase the proportion to 0.7 % of gross national income by 2030</t>
         </is>
       </c>
       <c r="J75" s="4" t="inlineStr">
@@ -5469,7 +5469,7 @@
       </c>
       <c r="K75" s="4" t="inlineStr">
         <is>
-          <t>increase to 0.7% of GNI by 2030</t>
+          <t>increase to 0.7 % of GNI by 2030</t>
         </is>
       </c>
       <c r="L75" s="4" t="inlineStr">
@@ -5526,7 +5526,7 @@
       </c>
       <c r="I76" s="4" t="inlineStr">
         <is>
-          <t>Increase the number by 10% from 2015 to 2020, then stabilised</t>
+          <t>Increase the number by 10 % from 2015 to 2020, then stabilised</t>
         </is>
       </c>
       <c r="J76" s="4" t="inlineStr">
@@ -5536,7 +5536,7 @@
       </c>
       <c r="K76" s="4" t="inlineStr">
         <is>
-          <t>increase by 10% from 2015 to 2020, then stabilised</t>
+          <t>increase by 10 % from 2015 to 2020, then stabilised</t>
         </is>
       </c>
       <c r="L76" s="4" t="inlineStr">

--- a/Tab_5a_Indikatoren.xlsx
+++ b/Tab_5a_Indikatoren.xlsx
@@ -455,7 +455,7 @@
     <col customWidth="true" min="10" max="10" width="3.515625"/>
     <col customWidth="true" min="11" max="11" width="31.19921875"/>
     <col customWidth="true" min="12" max="12" width="59.47265625"/>
-    <col customWidth="true" min="13" max="13" width="2.48828125"/>
+    <col customWidth="true" min="13" max="13" width="29.00390625"/>
   </cols>
   <sheetData>
     <row outlineLevel="0" r="1">
@@ -1052,12 +1052,12 @@
       </c>
       <c r="L9" s="4" t="inlineStr">
         <is>
-          <t>Raucherquote von Jugendlichen</t>
+          <t>Jugendliche</t>
         </is>
       </c>
       <c r="M9" s="4" t="inlineStr">
         <is>
-          <t>Smoking rate among adolescents</t>
+          <t>Adolescents</t>
         </is>
       </c>
     </row>
@@ -1119,12 +1119,12 @@
       </c>
       <c r="L10" s="4" t="inlineStr">
         <is>
-          <t>Raucherquote von Erwachsenen</t>
+          <t>Erwachsene</t>
         </is>
       </c>
       <c r="M10" s="4" t="inlineStr">
         <is>
-          <t>Smoking rate among adults</t>
+          <t>Adults</t>
         </is>
       </c>
     </row>

--- a/Tab_5a_Indikatoren.xlsx
+++ b/Tab_5a_Indikatoren.xlsx
@@ -444,7 +444,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col customWidth="true" min="1" max="1" width="10.25390625"/>
-    <col customWidth="true" min="2" max="2" width="4.1015625"/>
+    <col customWidth="true" min="2" max="2" width="19.04296875"/>
     <col customWidth="true" min="3" max="3" width="13.8359375"/>
     <col customWidth="true" min="4" max="4" width="12.7421875"/>
     <col customWidth="true" min="5" max="5" width="12.890625"/>
@@ -452,10 +452,10 @@
     <col customWidth="true" min="7" max="7" width="40.4296875"/>
     <col customWidth="true" min="8" max="8" width="20.80078125"/>
     <col customWidth="true" min="9" max="9" width="68.11328125"/>
-    <col customWidth="true" min="10" max="10" width="3.515625"/>
+    <col customWidth="true" min="10" max="10" width="45.99609375"/>
     <col customWidth="true" min="11" max="11" width="31.19921875"/>
     <col customWidth="true" min="12" max="12" width="59.47265625"/>
-    <col customWidth="true" min="13" max="13" width="29.00390625"/>
+    <col customWidth="true" min="13" max="13" width="24.75390625"/>
   </cols>
   <sheetData>
     <row outlineLevel="0" r="1">
@@ -4387,7 +4387,7 @@
       </c>
       <c r="I59" s="4" t="inlineStr">
         <is>
-          <t>5,000 locations of organisations by 2030</t>
+          <t>5,000 locations of organisation by 2030</t>
         </is>
       </c>
       <c r="J59" s="4" t="inlineStr">
@@ -4397,7 +4397,7 @@
       </c>
       <c r="K59" s="4" t="inlineStr">
         <is>
-          <t>5,000 locations of organisations by 2030</t>
+          <t>5,000 locations of organisation by 2030</t>
         </is>
       </c>
       <c r="L59" s="4" t="inlineStr">

--- a/Tab_5a_Indikatoren.xlsx
+++ b/Tab_5a_Indikatoren.xlsx
@@ -4846,7 +4846,7 @@
       </c>
       <c r="G66" s="4" t="inlineStr">
         <is>
-          <t>Share of sustainably fished fish populations in the North Sea and Baltic</t>
+          <t>Share of sustainably fished fish stocks of fish in the North and Baltic Seas</t>
         </is>
       </c>
       <c r="H66" s="4" t="inlineStr">
@@ -4876,7 +4876,7 @@
       </c>
       <c r="M66" s="4" t="inlineStr">
         <is>
-          <t>Share of sustainably fished fish populations in the North Sea and Baltic</t>
+          <t>Share of sustainably fished fish stocks of fish in the North and Baltic Seasc</t>
         </is>
       </c>
     </row>
@@ -5382,7 +5382,7 @@
       </c>
       <c r="G74" s="4" t="inlineStr">
         <is>
-          <t>Corruption Perceptions Index in partner countries involved in German development cooperation</t>
+          <t>Corruption Perceptions Index in partner countries for German development cooperation</t>
         </is>
       </c>
       <c r="H74" s="4" t="inlineStr">
@@ -5412,7 +5412,7 @@
       </c>
       <c r="M74" s="4" t="inlineStr">
         <is>
-          <t>Number of partner countries involved in German development cooperation with improved CPI scores compared with 2012</t>
+          <t>Number of partner countries for German development cooperation with improved CPI scores compared with 2012</t>
         </is>
       </c>
     </row>
@@ -5516,7 +5516,7 @@
       </c>
       <c r="G76" s="4" t="inlineStr">
         <is>
-          <t>Number of students and researchers from developing countries and LDCs per year</t>
+          <t>Number of students and researchers from developing countries and least developed countries (LDC) per year</t>
         </is>
       </c>
       <c r="H76" s="4" t="inlineStr">
@@ -5546,7 +5546,7 @@
       </c>
       <c r="M76" s="4" t="inlineStr">
         <is>
-          <t>Number of students and researchers from developing countries and LDCs per year</t>
+          <t>Number of students and researchers from developing countries and least developed countries (LDC) per year</t>
         </is>
       </c>
     </row>

--- a/Tab_5a_Indikatoren.xlsx
+++ b/Tab_5a_Indikatoren.xlsx
@@ -446,10 +446,10 @@
     <col customWidth="true" min="1" max="1" width="10.25390625"/>
     <col customWidth="true" min="2" max="2" width="19.04296875"/>
     <col customWidth="true" min="3" max="3" width="13.8359375"/>
-    <col customWidth="true" min="4" max="4" width="12.7421875"/>
-    <col customWidth="true" min="5" max="5" width="12.890625"/>
-    <col customWidth="true" min="6" max="6" width="23.4375"/>
-    <col customWidth="true" min="7" max="7" width="40.4296875"/>
+    <col customWidth="true" min="4" max="4" width="47.3125"/>
+    <col customWidth="true" min="5" max="5" width="38.81640625"/>
+    <col customWidth="true" min="6" max="6" width="51.4140625"/>
+    <col customWidth="true" min="7" max="7" width="42.625"/>
     <col customWidth="true" min="8" max="8" width="20.80078125"/>
     <col customWidth="true" min="9" max="9" width="68.11328125"/>
     <col customWidth="true" min="10" max="10" width="45.99609375"/>
@@ -2563,7 +2563,7 @@
       </c>
       <c r="F32" s="4" t="inlineStr">
         <is>
-          <t>Anteil erneuerbarer Energien am Brutto-Endenergieverbrauch</t>
+          <t>Anteil erneuerbarer Energien am Bruttoendenergieverbrauch</t>
         </is>
       </c>
       <c r="G32" s="4" t="inlineStr">
@@ -2593,7 +2593,7 @@
       </c>
       <c r="L32" s="4" t="inlineStr">
         <is>
-          <t>Anteil erneuerbarer Energien am Brutto-Endenergieverbrauch</t>
+          <t>Anteil erneuerbarer Energien am Bruttoendenergieverbrauch</t>
         </is>
       </c>
       <c r="M32" s="4" t="inlineStr">
@@ -2965,7 +2965,7 @@
       </c>
       <c r="F38" s="4" t="inlineStr">
         <is>
-          <t>Verhältnis der Bruttoanlageinvestitionen zum BIP</t>
+          <t>Verhältnis der Bruttoanlageinvestitionen zum Bruttoinlandsprodukt</t>
         </is>
       </c>
       <c r="G38" s="4" t="inlineStr">
@@ -2995,7 +2995,7 @@
       </c>
       <c r="L38" s="4" t="inlineStr">
         <is>
-          <t>Verhältnis der Bruttoanlageinvestitionen zum BIP</t>
+          <t>Verhältnis der Bruttoanlageinvestitionen zum Bruttoinlandsprodukt</t>
         </is>
       </c>
       <c r="M38" s="4" t="inlineStr">
@@ -3032,7 +3032,7 @@
       </c>
       <c r="F39" s="4" t="inlineStr">
         <is>
-          <t>Bruttoinlandsprodukt je Einwohner</t>
+          <t>Bruttoinlandsprodukt je Einwohnerin und Einwohner</t>
         </is>
       </c>
       <c r="G39" s="4" t="inlineStr">
@@ -3062,7 +3062,7 @@
       </c>
       <c r="L39" s="4" t="inlineStr">
         <is>
-          <t>Bruttoinlandsprodukt je Einwohner</t>
+          <t>Bruttoinlandsprodukt je Einwohnerin und Einwohner</t>
         </is>
       </c>
       <c r="M39" s="4" t="inlineStr">
@@ -3089,22 +3089,22 @@
       </c>
       <c r="D40" s="4" t="inlineStr">
         <is>
-          <t>a) Insgesamt (20-64 Jahre)</t>
+          <t>a) Insgesamt (20-64-Jährige)</t>
         </is>
       </c>
       <c r="E40" s="4" t="inlineStr">
         <is>
-          <t>a) total (20 to 64- year-olds)</t>
+          <t>a) total (20 to 64-year-olds)</t>
         </is>
       </c>
       <c r="F40" s="4" t="inlineStr">
         <is>
-          <t>Erwerbstätigenquote insgesamt (20 bis 64 Jahre)</t>
+          <t>Erwerbstätigenquote (20- bis 64-Jährige)</t>
         </is>
       </c>
       <c r="G40" s="4" t="inlineStr">
         <is>
-          <t>Employment rate, total (20 to 64-year-olds)</t>
+          <t>Employment rate (20 to 64-year-olds)</t>
         </is>
       </c>
       <c r="H40" s="4" t="inlineStr">
@@ -3129,7 +3129,7 @@
       </c>
       <c r="L40" s="4" t="inlineStr">
         <is>
-          <t>Erwerbstätigenquote insgesamt (20 bis 64 Jahre)</t>
+          <t>Erwerbstätigenquote insgesamt (20- bis 64-Jährige)</t>
         </is>
       </c>
       <c r="M40" s="4" t="inlineStr">
@@ -3156,7 +3156,7 @@
       </c>
       <c r="D41" s="4" t="inlineStr">
         <is>
-          <t>b) Ältere (60-64 Jahre)</t>
+          <t>b) Ältere (60-64-Jährige)</t>
         </is>
       </c>
       <c r="E41" s="4" t="inlineStr">
@@ -3166,12 +3166,12 @@
       </c>
       <c r="F41" s="4" t="inlineStr">
         <is>
-          <t>Erwerbstätigenquote Ältere (60 bis 64 Jahre)</t>
+          <t>Erwerbstätigenquote (60- bis 64-Jährige)</t>
         </is>
       </c>
       <c r="G41" s="4" t="inlineStr">
         <is>
-          <t>Employment rate, older people (60 to 64-year-olds)</t>
+          <t>Employment rate (60 to 64-year-olds)</t>
         </is>
       </c>
       <c r="H41" s="4" t="inlineStr">
@@ -3196,7 +3196,7 @@
       </c>
       <c r="L41" s="4" t="inlineStr">
         <is>
-          <t>Erwerbstätigenquote Ältere (60 bis 64 Jahre)</t>
+          <t>Erwerbstätigenquote Ältere (60- bis 64-Jährige)</t>
         </is>
       </c>
       <c r="M41" s="4" t="inlineStr">
@@ -3372,7 +3372,7 @@
       </c>
       <c r="G44" s="4" t="inlineStr">
         <is>
-          <t>Roll-out of broadband – share of households with access to gigabit broadband services</t>
+          <t>Roll-out of broadband – Share of households with access to gigabit broadband services</t>
         </is>
       </c>
       <c r="H44" s="4" t="inlineStr">
@@ -3402,7 +3402,7 @@
       </c>
       <c r="M44" s="4" t="inlineStr">
         <is>
-          <t>Roll-out of broadband – share of households with access to gigabit broadband services</t>
+          <t>Roll-out of broadband – Share of households with access to gigabit broadband services</t>
         </is>
       </c>
     </row>
@@ -3568,12 +3568,12 @@
       </c>
       <c r="F47" s="4" t="inlineStr">
         <is>
-          <t>Anstieg der Siedlungs- und Verkehrsfläche in ha pro Tag</t>
+          <t>Anstieg der Siedlungs- und Verkehrsfläche</t>
         </is>
       </c>
       <c r="G47" s="4" t="inlineStr">
         <is>
-          <t>Expansion of settlement and transport area in ha per day</t>
+          <t>Expansion of settlement and transport area</t>
         </is>
       </c>
       <c r="H47" s="4" t="inlineStr">
@@ -3598,12 +3598,12 @@
       </c>
       <c r="L47" s="4" t="inlineStr">
         <is>
-          <t>Anstieg der Siedlungs- und Verkehrsfläche in ha pro Tag</t>
+          <t>Anstieg der Siedlungs- und Verkehrsfläche</t>
         </is>
       </c>
       <c r="M47" s="4" t="inlineStr">
         <is>
-          <t>Expansion of settlement and transport area in ha per day</t>
+          <t>Expansion of settlement and transport area</t>
         </is>
       </c>
     </row>
@@ -3975,7 +3975,7 @@
       </c>
       <c r="G53" s="4" t="inlineStr">
         <is>
-          <t>Housing cost overload</t>
+          <t>Housing cost overburden</t>
         </is>
       </c>
       <c r="H53" s="4" t="inlineStr">
@@ -4005,7 +4005,7 @@
       </c>
       <c r="M53" s="4" t="inlineStr">
         <is>
-          <t>Housing cost overload</t>
+          <t>Housing cost overburden</t>
         </is>
       </c>
     </row>
@@ -4367,7 +4367,7 @@
       </c>
       <c r="E59" s="4" t="inlineStr">
         <is>
-          <t>EMAS eco-management</t>
+          <t>Eco-management EMAS</t>
         </is>
       </c>
       <c r="F59" s="4" t="inlineStr">
@@ -4377,7 +4377,7 @@
       </c>
       <c r="G59" s="4" t="inlineStr">
         <is>
-          <t>EMAS eco-management</t>
+          <t>Eco-management EMAS</t>
         </is>
       </c>
       <c r="H59" s="4" t="inlineStr">
@@ -4407,7 +4407,7 @@
       </c>
       <c r="M59" s="4" t="inlineStr">
         <is>
-          <t>EMAS eco-management</t>
+          <t>Eco-management EMAS</t>
         </is>
       </c>
     </row>
@@ -4707,12 +4707,12 @@
       </c>
       <c r="F64" s="4" t="inlineStr">
         <is>
-          <t>Nährstoffeinträge in Küstengewässer und Meeresgewässer – Stickstoffeintrag über die Zuflüsse in die Ostsee</t>
+          <t>Stickstoffeintrag über die Zuflüsse in die Ostsee</t>
         </is>
       </c>
       <c r="G64" s="4" t="inlineStr">
         <is>
-          <t>Nitrogen input in coastal and marine waters – nitrogen input via the inflows into the Baltic Sea</t>
+          <t>Nitrogen input via the inflows into the Baltic Sea</t>
         </is>
       </c>
       <c r="H64" s="4" t="inlineStr">
@@ -4742,7 +4742,7 @@
       </c>
       <c r="M64" s="4" t="inlineStr">
         <is>
-          <t>Nitrogen input in coastal and marine waters of the Baltic Sea</t>
+          <t>Nitrogen input via the inflows into the Baltic Sea</t>
         </is>
       </c>
     </row>
@@ -4774,12 +4774,12 @@
       </c>
       <c r="F65" s="4" t="inlineStr">
         <is>
-          <t>Nährstoffeinträge in Küstengewässer und Meeresgewässer – Stickstoffeintrag über die Zuflüsse in die Nordsee</t>
+          <t>Stickstoffeintrag über die Zuflüsse in die Nordsee</t>
         </is>
       </c>
       <c r="G65" s="4" t="inlineStr">
         <is>
-          <t>Nitrogen input in coastal and marine waters – nitrogen input via the inflows into the North Sea</t>
+          <t>Nitrogen input via the inflows into the North Sea</t>
         </is>
       </c>
       <c r="H65" s="4" t="inlineStr">
@@ -4809,7 +4809,7 @@
       </c>
       <c r="M65" s="4" t="inlineStr">
         <is>
-          <t>Nitrogen input in coastal and marine waters of the North Sea</t>
+          <t>Nitrogen input via the inflows into the North Sea</t>
         </is>
       </c>
     </row>
@@ -4846,7 +4846,7 @@
       </c>
       <c r="G66" s="4" t="inlineStr">
         <is>
-          <t>Share of sustainably fished fish stocks of fish in the North and Baltic Seas</t>
+          <t>Share of sustainably fished stocks of fish in the North and Baltic Seas</t>
         </is>
       </c>
       <c r="H66" s="4" t="inlineStr">
@@ -4876,7 +4876,7 @@
       </c>
       <c r="M66" s="4" t="inlineStr">
         <is>
-          <t>Share of sustainably fished fish stocks of fish in the North and Baltic Seasc</t>
+          <t>Share of sustainably fished stocks of fish in the North and Baltic Seas</t>
         </is>
       </c>
     </row>
@@ -5501,22 +5501,22 @@
       </c>
       <c r="D76" s="4" t="inlineStr">
         <is>
-          <t>Studierende und Forschende aus Entwicklungs- und Schwellenländern</t>
+          <t>Studierende und Forschende aus Entwicklungslenländern und LDCs</t>
         </is>
       </c>
       <c r="E76" s="4" t="inlineStr">
         <is>
-          <t>Students and researchers from developing and emerging countries</t>
+          <t>Students and researchers from developing countries and LDCs</t>
         </is>
       </c>
       <c r="F76" s="4" t="inlineStr">
         <is>
-          <t>Anzahl der Studierenden und Forschenden aus Entwicklungsländern sowie LDCs pro Jahr</t>
+          <t>Anzahl der Studierenden und Forschenden aus Entwicklungsländern sowie aus am wenigsten entwickelten Ländern pro Jahr</t>
         </is>
       </c>
       <c r="G76" s="4" t="inlineStr">
         <is>
-          <t>Number of students and researchers from developing countries and least developed countries (LDC) per year</t>
+          <t>Number of students and researchers from developing countries and least developed countries per year</t>
         </is>
       </c>
       <c r="H76" s="4" t="inlineStr">
@@ -5541,12 +5541,12 @@
       </c>
       <c r="L76" s="4" t="inlineStr">
         <is>
-          <t>Anzahl der Studierenden und Forschenden aus Entwicklungsländern sowie LDCs pro Jahr</t>
+          <t>Anzahl der Studierenden und Forschenden aus Entwicklungsländern sowie aus am wenigsten entwickelten Ländern pro Jahr</t>
         </is>
       </c>
       <c r="M76" s="4" t="inlineStr">
         <is>
-          <t>Number of students and researchers from developing countries and least developed countries (LDC) per year</t>
+          <t>Number of students and researchers from developing countries and least developed countries per year</t>
         </is>
       </c>
     </row>

--- a/Tab_5a_Indikatoren.xlsx
+++ b/Tab_5a_Indikatoren.xlsx
@@ -455,7 +455,7 @@
     <col customWidth="true" min="10" max="10" width="45.99609375"/>
     <col customWidth="true" min="11" max="11" width="31.19921875"/>
     <col customWidth="true" min="12" max="12" width="59.47265625"/>
-    <col customWidth="true" min="13" max="13" width="24.75390625"/>
+    <col customWidth="true" min="13" max="13" width="51.5625"/>
   </cols>
   <sheetData>
     <row outlineLevel="0" r="1">
@@ -2563,7 +2563,7 @@
       </c>
       <c r="F32" s="4" t="inlineStr">
         <is>
-          <t>Anteil erneuerbarer Energien am Bruttoendenergieverbrauch</t>
+          <t>Anteil erneuerbarer Energien am Brutto-Endenergieverbrauch</t>
         </is>
       </c>
       <c r="G32" s="4" t="inlineStr">
@@ -2593,7 +2593,7 @@
       </c>
       <c r="L32" s="4" t="inlineStr">
         <is>
-          <t>Anteil erneuerbarer Energien am Bruttoendenergieverbrauch</t>
+          <t>Anteil erneuerbarer Energien am Brutto-Endenergieverbrauch</t>
         </is>
       </c>
       <c r="M32" s="4" t="inlineStr">
@@ -2965,7 +2965,7 @@
       </c>
       <c r="F38" s="4" t="inlineStr">
         <is>
-          <t>Verhältnis der Bruttoanlageinvestitionen zum Bruttoinlandsprodukt</t>
+          <t>Verhältnis der Bruttoanlageinvestitionen zum BIP</t>
         </is>
       </c>
       <c r="G38" s="4" t="inlineStr">
@@ -2995,7 +2995,7 @@
       </c>
       <c r="L38" s="4" t="inlineStr">
         <is>
-          <t>Verhältnis der Bruttoanlageinvestitionen zum Bruttoinlandsprodukt</t>
+          <t>Verhältnis der Bruttoanlageinvestitionen zum BIP</t>
         </is>
       </c>
       <c r="M38" s="4" t="inlineStr">
@@ -3975,7 +3975,7 @@
       </c>
       <c r="G53" s="4" t="inlineStr">
         <is>
-          <t>Housing cost overburden</t>
+          <t>Housing cost overload</t>
         </is>
       </c>
       <c r="H53" s="4" t="inlineStr">
@@ -4005,7 +4005,7 @@
       </c>
       <c r="M53" s="4" t="inlineStr">
         <is>
-          <t>Housing cost overburden</t>
+          <t>Housing cost overload</t>
         </is>
       </c>
     </row>
@@ -4367,7 +4367,7 @@
       </c>
       <c r="E59" s="4" t="inlineStr">
         <is>
-          <t>Eco-management EMAS</t>
+          <t>EMAS eco-management</t>
         </is>
       </c>
       <c r="F59" s="4" t="inlineStr">
@@ -4377,7 +4377,7 @@
       </c>
       <c r="G59" s="4" t="inlineStr">
         <is>
-          <t>Eco-management EMAS</t>
+          <t>EMAS eco-management</t>
         </is>
       </c>
       <c r="H59" s="4" t="inlineStr">
@@ -4407,7 +4407,7 @@
       </c>
       <c r="M59" s="4" t="inlineStr">
         <is>
-          <t>Eco-management EMAS</t>
+          <t>EMAS eco-management</t>
         </is>
       </c>
     </row>

--- a/Tab_5a_Indikatoren.xlsx
+++ b/Tab_5a_Indikatoren.xlsx
@@ -1347,7 +1347,7 @@
       </c>
       <c r="D14" s="4" t="inlineStr">
         <is>
-          <t>Exposition von Feinstaub</t>
+          <t>Feinstaubexosition</t>
         </is>
       </c>
       <c r="E14" s="4" t="inlineStr">

--- a/Tab_5a_Indikatoren.xlsx
+++ b/Tab_5a_Indikatoren.xlsx
@@ -4506,7 +4506,7 @@
       </c>
       <c r="F61" s="4" t="inlineStr">
         <is>
-          <t>CO2-Emissionen von handelsüblichen Kraftfahrzeugen der öffentlichen Hand</t>
+          <t>CO2-Emissionen je Fahrleistungen der Kraftfahrzeuge der öffentlichen Hand</t>
         </is>
       </c>
       <c r="G61" s="4" t="inlineStr">
@@ -4536,7 +4536,7 @@
       </c>
       <c r="L61" s="4" t="inlineStr">
         <is>
-          <t>CO2-Emissionen von handelsüblichen Kraftfahrzeugen der öffentlichen Hand</t>
+          <t>CO2-Emissionen je Fahrleistungen der Kraftfahrzeuge der öffentlichen Hand</t>
         </is>
       </c>
       <c r="M61" s="4" t="inlineStr">

--- a/Tab_5a_Indikatoren.xlsx
+++ b/Tab_5a_Indikatoren.xlsx
@@ -2032,7 +2032,7 @@
       </c>
       <c r="G24" s="4" t="inlineStr">
         <is>
-          <t>Vocational qualifications of women and girls through German development cooperation</t>
+          <t>Vocational qualifications of women and girls through German development assistance</t>
         </is>
       </c>
       <c r="H24" s="4" t="inlineStr">

--- a/Tab_5a_Indikatoren.xlsx
+++ b/Tab_5a_Indikatoren.xlsx
@@ -435,7 +435,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M77"/>
+  <dimension ref="A1:M76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -543,7 +543,7 @@
       </c>
       <c r="D2" s="4" t="inlineStr">
         <is>
-          <t>a) Materielle Deprivation</t>
+          <t>a) Materielle und soziale Deprivation</t>
         </is>
       </c>
       <c r="E2" s="4" t="inlineStr">
@@ -553,7 +553,7 @@
       </c>
       <c r="F2" s="4" t="inlineStr">
         <is>
-          <t>Materielle Deprivation</t>
+          <t>Materielle und soziale Deprivation</t>
         </is>
       </c>
       <c r="G2" s="4" t="inlineStr">
@@ -563,7 +563,7 @@
       </c>
       <c r="H2" s="4" t="inlineStr">
         <is>
-          <t>Anteil der Personen, die materiell depriviert sind, bis 2030 deutlich unter EU-27-Wert halten</t>
+          <t>Anteil der Personen, die materiell und sozial depriviert sind, bis 2030 unter dem EU-Durchschnitt halten</t>
         </is>
       </c>
       <c r="I2" s="4" t="inlineStr">
@@ -573,7 +573,7 @@
       </c>
       <c r="J2" s="4" t="inlineStr">
         <is>
-          <t>Anteil bis 2030 unter EU-27-Wert halten</t>
+          <t>Anteil bis 2030 unter EU-Durchschnitt halten</t>
         </is>
       </c>
       <c r="K2" s="4" t="inlineStr">
@@ -610,7 +610,7 @@
       </c>
       <c r="D3" s="4" t="inlineStr">
         <is>
-          <t>b) Erhebliche materielle Deprivation</t>
+          <t>b) Erhebliche materielle und soziale Deprivation</t>
         </is>
       </c>
       <c r="E3" s="4" t="inlineStr">
@@ -620,7 +620,7 @@
       </c>
       <c r="F3" s="4" t="inlineStr">
         <is>
-          <t>Erhebliche materielle Deprivation</t>
+          <t>Erhebliche materielle und soziale Deprivation</t>
         </is>
       </c>
       <c r="G3" s="4" t="inlineStr">
@@ -630,7 +630,7 @@
       </c>
       <c r="H3" s="4" t="inlineStr">
         <is>
-          <t>Anteil der Personen, die erheblich materiell depriviert sind, bis 2030 deutlich unter EU-27-Wert halten</t>
+          <t>Anteil der Personen, die erheblich materiell und sozial depriviert sind, bis 2030 unter dem EU-Durchschnitt halten</t>
         </is>
       </c>
       <c r="I3" s="4" t="inlineStr">
@@ -640,7 +640,7 @@
       </c>
       <c r="J3" s="4" t="inlineStr">
         <is>
-          <t>Anteil bis 2030 unter EU-27-Wert halten</t>
+          <t>Anteil bis 2030 unter EU-Durchschnitt halten</t>
         </is>
       </c>
       <c r="K3" s="4" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="H4" s="4" t="inlineStr">
         <is>
-          <t>Verringerung der Stickstoffüberschüsse der Gesamtbilanz für Deutschland auf 70 Kilogramm je Hektar landwirtschaftlich genutzter Fläche im Jahresmittel 2028-2032</t>
+          <t>Verringerung der Stickstoffüberschüsse der Gesamtbilanz für Deutschland auf 70 Kilogramm je Hektar landwirtschaftlich genutzter Fläche im Jahresmittel 2026-2030</t>
         </is>
       </c>
       <c r="I4" s="4" t="inlineStr">
@@ -878,7 +878,7 @@
       </c>
       <c r="D7" s="4" t="inlineStr">
         <is>
-          <t>a) Frauen</t>
+          <t>Vermeidbare Sterblichkeit</t>
         </is>
       </c>
       <c r="E7" s="4" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="F7" s="4" t="inlineStr">
         <is>
-          <t>Vorzeitige Sterblichkeit (Frauen)</t>
+          <t>Durch Prävention und Behandlung vermeidbare Sterblichkeit</t>
         </is>
       </c>
       <c r="G7" s="4" t="inlineStr">
@@ -898,7 +898,7 @@
       </c>
       <c r="H7" s="4" t="inlineStr">
         <is>
-          <t>Senkung auf 100 Todesfälle je 100 000 Einwohner (Frauen) bis 2030</t>
+          <t>Senkung auf 200 Todesfälle je 100 000 Einwohnerinnen und Einwohner bis 2030</t>
         </is>
       </c>
       <c r="I7" s="4" t="inlineStr">
@@ -908,7 +908,7 @@
       </c>
       <c r="J7" s="4" t="inlineStr">
         <is>
-          <t>Senkung auf 100 Todesfälle je 100 000 Einwohnerinnen bis 2030</t>
+          <t>Senkung auf 200 Todesfälle je 100 000 Einwohnerinnen und Einwohner bis 2030</t>
         </is>
       </c>
       <c r="K7" s="4" t="inlineStr">
@@ -930,74 +930,74 @@
     <row outlineLevel="0" r="8">
       <c r="A8" s="4" t="inlineStr">
         <is>
-          <t>Z03_B01_P01_Ib01_I02</t>
+          <t>Z03_B01_P01_Ib02_I01</t>
         </is>
       </c>
       <c r="B8" s="4" t="inlineStr">
         <is>
-          <t>Z03_B01_P01_Ib01</t>
+          <t>Z03_B01_P01_Ib02</t>
         </is>
       </c>
       <c r="C8" s="4" t="inlineStr">
         <is>
-          <t>3.1.b</t>
+          <t>3.1.c</t>
         </is>
       </c>
       <c r="D8" s="4" t="inlineStr">
         <is>
-          <t>b) Männer</t>
+          <t>c) Jugendliche</t>
         </is>
       </c>
       <c r="E8" s="4" t="inlineStr">
         <is>
-          <t>b) Men</t>
+          <t>c) Adolescents</t>
         </is>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
-          <t>Vorzeitige Sterblichkeit (Männer)</t>
+          <t>Raucherquote von Jugendlichen</t>
         </is>
       </c>
       <c r="G8" s="4" t="inlineStr">
         <is>
-          <t>Premature mortality (men)</t>
+          <t>Smoking rate among adolescents</t>
         </is>
       </c>
       <c r="H8" s="4" t="inlineStr">
         <is>
-          <t>Senkung auf 190 Todesfälle je 100 000 Einwohner (Männer) bis 2030</t>
+          <t>Senkung auf 7 % bis 2030</t>
         </is>
       </c>
       <c r="I8" s="4" t="inlineStr">
         <is>
-          <t>To be reduced to 190 deaths per 100,000 inhabitants (men) by 2030</t>
+          <t>Reduction to 7 % by 2030</t>
         </is>
       </c>
       <c r="J8" s="4" t="inlineStr">
         <is>
-          <t>Senkung auf 190 Todesfälle je 100 000 Einwohner bis 2030</t>
+          <t>Senkung auf 7 % bis 2030</t>
         </is>
       </c>
       <c r="K8" s="4" t="inlineStr">
         <is>
-          <t>to be reduced to 190 deaths per 100,000 inhabitants by 2030</t>
+          <t>reduction to 7 % by 2030</t>
         </is>
       </c>
       <c r="L8" s="4" t="inlineStr">
         <is>
-          <t>Vorzeitig Gestorbene (Männer)</t>
+          <t>Jugendliche</t>
         </is>
       </c>
       <c r="M8" s="4" t="inlineStr">
         <is>
-          <t>Premature death (men)</t>
+          <t>Adolescents</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="9">
       <c r="A9" s="4" t="inlineStr">
         <is>
-          <t>Z03_B01_P01_Ib02_I01</t>
+          <t>Z03_B01_P01_Ib02_I02</t>
         </is>
       </c>
       <c r="B9" s="4" t="inlineStr">
@@ -1007,141 +1007,141 @@
       </c>
       <c r="C9" s="4" t="inlineStr">
         <is>
-          <t>3.1.c</t>
+          <t>3.1.d</t>
         </is>
       </c>
       <c r="D9" s="4" t="inlineStr">
         <is>
-          <t>c) Jugendliche</t>
+          <t>d) Erwachsene</t>
         </is>
       </c>
       <c r="E9" s="4" t="inlineStr">
         <is>
-          <t>c) Adolescents</t>
+          <t>d) Adults</t>
         </is>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
-          <t>Raucherquote von Jugendlichen</t>
+          <t>Raucherquote von Erwachsenen</t>
         </is>
       </c>
       <c r="G9" s="4" t="inlineStr">
         <is>
-          <t>Smoking rate among adolescents</t>
+          <t>Smoking rate among adults</t>
         </is>
       </c>
       <c r="H9" s="4" t="inlineStr">
         <is>
-          <t>Senkung auf 7 % bis 2030</t>
+          <t>Senkung auf 19 % bis 2030</t>
         </is>
       </c>
       <c r="I9" s="4" t="inlineStr">
         <is>
-          <t>Reduction to 7 % by 2030</t>
+          <t>Reduction to 19 % by 2030</t>
         </is>
       </c>
       <c r="J9" s="4" t="inlineStr">
         <is>
-          <t>Senkung auf 7 % bis 2030</t>
+          <t>Senkung auf 19 % bis 2030</t>
         </is>
       </c>
       <c r="K9" s="4" t="inlineStr">
         <is>
-          <t>reduction to 7 % by 2030</t>
+          <t>reduction to 19 % by 2030</t>
         </is>
       </c>
       <c r="L9" s="4" t="inlineStr">
         <is>
-          <t>Jugendliche</t>
+          <t>Erwachsene</t>
         </is>
       </c>
       <c r="M9" s="4" t="inlineStr">
         <is>
-          <t>Adolescents</t>
+          <t>Adults</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="10">
       <c r="A10" s="4" t="inlineStr">
         <is>
-          <t>Z03_B01_P01_Ib02_I02</t>
+          <t>Z03_B01_P01_Ib03_I01</t>
         </is>
       </c>
       <c r="B10" s="4" t="inlineStr">
         <is>
-          <t>Z03_B01_P01_Ib02</t>
+          <t>Z03_B01_P01_Ib03</t>
         </is>
       </c>
       <c r="C10" s="4" t="inlineStr">
         <is>
-          <t>3.1.d</t>
+          <t>3.1.e</t>
         </is>
       </c>
       <c r="D10" s="4" t="inlineStr">
         <is>
-          <t>d) Erwachsene</t>
+          <t>Adipositas</t>
         </is>
       </c>
       <c r="E10" s="4" t="inlineStr">
         <is>
-          <t>d) Adults</t>
+          <t>Obesity</t>
         </is>
       </c>
       <c r="F10" s="4" t="inlineStr">
         <is>
-          <t>Raucherquote von Erwachsenen</t>
+          <t>Adipositasquote von Kindern und Jugendlichen</t>
         </is>
       </c>
       <c r="G10" s="4" t="inlineStr">
         <is>
-          <t>Smoking rate among adults</t>
+          <t>Obesity rate among children and adolescents</t>
         </is>
       </c>
       <c r="H10" s="4" t="inlineStr">
         <is>
-          <t>Senkung auf 19 % bis 2030</t>
+          <t>Anstieg dauerhaft stoppen</t>
         </is>
       </c>
       <c r="I10" s="4" t="inlineStr">
         <is>
-          <t>Reduction to 19 % by 2030</t>
+          <t>Increase to be permanently halted</t>
         </is>
       </c>
       <c r="J10" s="4" t="inlineStr">
         <is>
-          <t>Senkung auf 19 % bis 2030</t>
+          <t>Anstieg dauerhaft stoppen</t>
         </is>
       </c>
       <c r="K10" s="4" t="inlineStr">
         <is>
-          <t>reduction to 19 % by 2030</t>
+          <t>increase to be permanently halted</t>
         </is>
       </c>
       <c r="L10" s="4" t="inlineStr">
         <is>
-          <t>Erwachsene</t>
+          <t>Adipositasquote von Kindern und Jugendlichen</t>
         </is>
       </c>
       <c r="M10" s="4" t="inlineStr">
         <is>
-          <t>Adults</t>
+          <t>Obesity rate among children and adolescents</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="11">
       <c r="A11" s="4" t="inlineStr">
         <is>
-          <t>Z03_B01_P01_Ib03_I01</t>
+          <t>Z03_B01_P01_Ib04_I01</t>
         </is>
       </c>
       <c r="B11" s="4" t="inlineStr">
         <is>
-          <t>Z03_B01_P01_Ib03</t>
+          <t>Z03_B01_P01_Ib04</t>
         </is>
       </c>
       <c r="C11" s="4" t="inlineStr">
         <is>
-          <t>3.1.e</t>
+          <t>3.1.f</t>
         </is>
       </c>
       <c r="D11" s="4" t="inlineStr">
@@ -1156,12 +1156,12 @@
       </c>
       <c r="F11" s="4" t="inlineStr">
         <is>
-          <t>Adipositasquote von Kindern und Jugendlichen</t>
+          <t>Adipositasquote von Erwachsenen</t>
         </is>
       </c>
       <c r="G11" s="4" t="inlineStr">
         <is>
-          <t>Obesity rate among children and adolescents</t>
+          <t>Obesity rate among adults</t>
         </is>
       </c>
       <c r="H11" s="4" t="inlineStr">
@@ -1186,421 +1186,421 @@
       </c>
       <c r="L11" s="4" t="inlineStr">
         <is>
-          <t>Adipositasquote von Kindern und Jugendlichen</t>
+          <t>Adipositasquote von Erwachsenen</t>
         </is>
       </c>
       <c r="M11" s="4" t="inlineStr">
         <is>
-          <t>Obesity rate among children and adolescents</t>
+          <t>Obesity rate among adults</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="12">
       <c r="A12" s="4" t="inlineStr">
         <is>
-          <t>Z03_B01_P01_Ib04_I01</t>
+          <t>Z03_B02_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B12" s="4" t="inlineStr">
         <is>
-          <t>Z03_B01_P01_Ib04</t>
+          <t>Z03_B02_P01_Ib01</t>
         </is>
       </c>
       <c r="C12" s="4" t="inlineStr">
         <is>
-          <t>3.1.f</t>
+          <t>3.2.a</t>
         </is>
       </c>
       <c r="D12" s="4" t="inlineStr">
         <is>
-          <t>Adipositas</t>
+          <t>Luftschadstoffe</t>
         </is>
       </c>
       <c r="E12" s="4" t="inlineStr">
         <is>
-          <t>Obesity</t>
+          <t>Air pollutants</t>
         </is>
       </c>
       <c r="F12" s="4" t="inlineStr">
         <is>
-          <t>Adipositasquote von Erwachsenen</t>
+          <t>Emissionen von Luftschadstoffen</t>
         </is>
       </c>
       <c r="G12" s="4" t="inlineStr">
         <is>
-          <t>Obesity rate among adults</t>
+          <t>Emissions of air pollutants</t>
         </is>
       </c>
       <c r="H12" s="4" t="inlineStr">
         <is>
-          <t>Anstieg dauerhaft stoppen</t>
+          <t>Reduktion der Emissionen des Jahres 2005 auf 55 % (ungewichtetes Mittel der fünf Schadstoffe) bis 2030</t>
         </is>
       </c>
       <c r="I12" s="4" t="inlineStr">
         <is>
-          <t>Increase to be permanently halted</t>
+          <t>Reduction of emissions to 55 % of 2005 level (unweighted average of the five pollutants) by 2030</t>
         </is>
       </c>
       <c r="J12" s="4" t="inlineStr">
         <is>
-          <t>Anstieg dauerhaft stoppen</t>
+          <t>Reduktion auf 55 % bis 2030</t>
         </is>
       </c>
       <c r="K12" s="4" t="inlineStr">
         <is>
-          <t>increase to be permanently halted</t>
+          <t>reduction to 55 % by 2030</t>
         </is>
       </c>
       <c r="L12" s="4" t="inlineStr">
         <is>
-          <t>Adipositasquote von Erwachsenen</t>
+          <t>Emissionen von Luftschadstoffen</t>
         </is>
       </c>
       <c r="M12" s="4" t="inlineStr">
         <is>
-          <t>Obesity rate among adults</t>
+          <t>Emissions of air pollutants</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="13">
       <c r="A13" s="4" t="inlineStr">
         <is>
-          <t>Z03_B02_P01_Ib01_I01</t>
+          <t>Z03_B02_P01_Ib02_I01</t>
         </is>
       </c>
       <c r="B13" s="4" t="inlineStr">
         <is>
-          <t>Z03_B02_P01_Ib01</t>
+          <t>Z03_B02_P01_Ib02</t>
         </is>
       </c>
       <c r="C13" s="4" t="inlineStr">
         <is>
-          <t>3.2.a</t>
+          <t>3.2.b</t>
         </is>
       </c>
       <c r="D13" s="4" t="inlineStr">
         <is>
-          <t>Luftschadstoffe</t>
+          <t>Feinstaubexosition</t>
         </is>
       </c>
       <c r="E13" s="4" t="inlineStr">
         <is>
-          <t>Air pollutants</t>
+          <t>Exposure to particulate matter</t>
         </is>
       </c>
       <c r="F13" s="4" t="inlineStr">
         <is>
-          <t>Emissionen von Luftschadstoffen</t>
+          <t>Anteil der Bevölkerung mit erhöhter PM10-Feinstaubexposition</t>
         </is>
       </c>
       <c r="G13" s="4" t="inlineStr">
         <is>
-          <t>Emissions of air pollutants</t>
+          <t>Share of the population with excessive exposure to PM10</t>
         </is>
       </c>
       <c r="H13" s="4" t="inlineStr">
         <is>
-          <t>Reduktion der Emissionen des Jahres 2005 auf 55 % (ungewichtetes Mittel der fünf Schadstoffe) bis 2030</t>
+          <t>Erreichung des Feinstaub- WHO-Richtwerts von 20 Mikrogramm/Kubikmeter für PM10 im Jahresmittel möglichst flächendeckend bis 2030</t>
         </is>
       </c>
       <c r="I13" s="4" t="inlineStr">
         <is>
-          <t>Reduction of emissions to 55 % of 2005 level (unweighted average of the five pollutants) by 2030</t>
+          <t>WHO particulate matter guideline value of 20 micrograms/cubic metre for PM10 to be adhered to as widely as possible by 2030</t>
         </is>
       </c>
       <c r="J13" s="4" t="inlineStr">
         <is>
-          <t>Reduktion auf 55 % bis 2030</t>
+          <t>Erreichung des Richtwerts von 20 µg/m³ bis 2030</t>
         </is>
       </c>
       <c r="K13" s="4" t="inlineStr">
         <is>
-          <t>reduction to 55 % by 2030</t>
+          <t>adherence to the guideline value by 2030</t>
         </is>
       </c>
       <c r="L13" s="4" t="inlineStr">
         <is>
-          <t>Emissionen von Luftschadstoffen</t>
+          <t>Anteil der Bevölkerung mit erhöhter PM10-Feinstaubexposition</t>
         </is>
       </c>
       <c r="M13" s="4" t="inlineStr">
         <is>
-          <t>Emissions of air pollutants</t>
+          <t>Share of the population with excessive exposure to PM10</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="14">
       <c r="A14" s="4" t="inlineStr">
         <is>
-          <t>Z03_B02_P01_Ib02_I01</t>
+          <t>Z03_B03_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B14" s="4" t="inlineStr">
         <is>
-          <t>Z03_B02_P01_Ib02</t>
+          <t>Z03_B03_P01_Ib01</t>
         </is>
       </c>
       <c r="C14" s="4" t="inlineStr">
         <is>
-          <t>3.2.b</t>
+          <t>3.3</t>
         </is>
       </c>
       <c r="D14" s="4" t="inlineStr">
         <is>
-          <t>Feinstaubexosition</t>
+          <t>Pandemieprävention und -reaktion</t>
         </is>
       </c>
       <c r="E14" s="4" t="inlineStr">
         <is>
-          <t>Exposure to particulate matter</t>
+          <t>Pandemic prevention and response</t>
         </is>
       </c>
       <c r="F14" s="4" t="inlineStr">
         <is>
-          <t>Anteil der Bevölkerung mit erhöhter PM10-Feinstaubexposition</t>
+          <t>Beitrag Deutschlands zur globalen Pandemieprävention und -reaktion</t>
         </is>
       </c>
       <c r="G14" s="4" t="inlineStr">
         <is>
-          <t>Share of the population with excessive exposure to PM10</t>
+          <t>Germany’s contribution to global pandemic prevention and response</t>
         </is>
       </c>
       <c r="H14" s="4" t="inlineStr">
         <is>
-          <t>Erreichung des Feinstaub- WHO-Richtwerts von 20 Mikrogramm/Kubikmeter für PM10 im Jahresmittel möglichst flächendeckend bis 2030</t>
+          <t>Steigerung der Ausgaben bis 2030</t>
         </is>
       </c>
       <c r="I14" s="4" t="inlineStr">
         <is>
-          <t>WHO particulate matter guideline value of 20 micrograms/cubic metre for PM10 to be adhered to as widely as possible by 2030</t>
+          <t>Expenditure to be increased by 2030</t>
         </is>
       </c>
       <c r="J14" s="4" t="inlineStr">
         <is>
-          <t>Erreichung des Richtwerts von 20 µg/m³ bis 2030</t>
+          <t>Steigerung der Ausgaben bis 2030</t>
         </is>
       </c>
       <c r="K14" s="4" t="inlineStr">
         <is>
-          <t>adherence to the guideline value by 2030</t>
+          <t>expenditure to be increased by 2030</t>
         </is>
       </c>
       <c r="L14" s="4" t="inlineStr">
         <is>
-          <t>Anteil der Bevölkerung mit erhöhter PM10-Feinstaubexposition</t>
+          <t>Beitrag Deutschlands zur globalen Pandemieprävention und -reaktion</t>
         </is>
       </c>
       <c r="M14" s="4" t="inlineStr">
         <is>
-          <t>Share of the population with excessive exposure to PM10</t>
+          <t>Germany’s contribution to global pandemic prevention and response</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="15">
       <c r="A15" s="4" t="inlineStr">
         <is>
-          <t>Z03_B03_P01_Ib01_I01</t>
+          <t>Z04_B01_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B15" s="4" t="inlineStr">
         <is>
-          <t>Z03_B03_P01_Ib01</t>
+          <t>Z04_B01_P01_Ib01</t>
         </is>
       </c>
       <c r="C15" s="4" t="inlineStr">
         <is>
-          <t>3.3</t>
+          <t>4.1.a</t>
         </is>
       </c>
       <c r="D15" s="4" t="inlineStr">
         <is>
-          <t>Pandemieprävention und -reaktion</t>
+          <t>Frühe Schulabgänger/ -innen</t>
         </is>
       </c>
       <c r="E15" s="4" t="inlineStr">
         <is>
-          <t>Pandemic prevention and response</t>
+          <t>Early school leavers</t>
         </is>
       </c>
       <c r="F15" s="4" t="inlineStr">
         <is>
-          <t>Beitrag Deutschlands zur globalen Pandemieprävention und -reaktion</t>
+          <t>Frühe Schulabgängerinnen und Schulabgänger</t>
         </is>
       </c>
       <c r="G15" s="4" t="inlineStr">
         <is>
-          <t>Germany’s contribution to global pandemic prevention and response</t>
+          <t>Early school leavers</t>
         </is>
       </c>
       <c r="H15" s="4" t="inlineStr">
         <is>
-          <t>Steigerung der Ausgaben bis 2030</t>
+          <t>Verringerung des Anteils auf 9,5 % bis 2030</t>
         </is>
       </c>
       <c r="I15" s="4" t="inlineStr">
         <is>
-          <t>Expenditure to be increased by 2030</t>
+          <t>Reduce the proportion to 9.5 % by 2030</t>
         </is>
       </c>
       <c r="J15" s="4" t="inlineStr">
         <is>
-          <t>Steigerung der Ausgaben bis 2030</t>
+          <t>Verringerung des Anteils auf 9,5 % bis 2030</t>
         </is>
       </c>
       <c r="K15" s="4" t="inlineStr">
         <is>
-          <t>expenditure to be increased by 2030</t>
+          <t>reduce the proportion to 9.5 % by 2030</t>
         </is>
       </c>
       <c r="L15" s="4" t="inlineStr">
         <is>
-          <t>Beitrag Deutschlands zur globalen Pandemieprävention und -reaktion</t>
+          <t>Frühe Schulabgängerinnen und Schulabgänger</t>
         </is>
       </c>
       <c r="M15" s="4" t="inlineStr">
         <is>
-          <t>Germany’s contribution to global pandemic prevention and response</t>
+          <t>Early school leavers</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="16">
       <c r="A16" s="4" t="inlineStr">
         <is>
-          <t>Z04_B01_P01_Ib01_I01</t>
+          <t>Z04_B01_P01_Ib02_I01</t>
         </is>
       </c>
       <c r="B16" s="4" t="inlineStr">
         <is>
-          <t>Z04_B01_P01_Ib01</t>
+          <t>Z04_B01_P01_Ib02</t>
         </is>
       </c>
       <c r="C16" s="4" t="inlineStr">
         <is>
-          <t>4.1.a</t>
+          <t>4.1.b</t>
         </is>
       </c>
       <c r="D16" s="4" t="inlineStr">
         <is>
-          <t>Frühe Schulabgänger/ -innen</t>
+          <t>Berufliche Qualifizierung</t>
         </is>
       </c>
       <c r="E16" s="4" t="inlineStr">
         <is>
-          <t>Early school leavers</t>
+          <t>Vocational qualification</t>
         </is>
       </c>
       <c r="F16" s="4" t="inlineStr">
         <is>
-          <t>Frühe Schulabgängerinnen und Schulabgänger</t>
+          <t>Akademisch Qualifizierte und beruflich Höherqualifizierte (30- bis 34-Jährige mit tertiärem oder post-sekundarem nichttertiärem Abschluss)</t>
         </is>
       </c>
       <c r="G16" s="4" t="inlineStr">
         <is>
-          <t>Early school leavers</t>
+          <t>Persons with an academic or higher vocational qualification (30 to 34-year-olds with a tertiary or post-secondary non-tertiary level of education)</t>
         </is>
       </c>
       <c r="H16" s="4" t="inlineStr">
         <is>
-          <t>Verringerung des Anteils auf 9,5 % bis 2030</t>
+          <t>Steigerung des Anteils auf 55 % bis 2030</t>
         </is>
       </c>
       <c r="I16" s="4" t="inlineStr">
         <is>
-          <t>Reduce the proportion to 9.5 % by 2030</t>
+          <t>Increase the proportion to 55 % by 2030</t>
         </is>
       </c>
       <c r="J16" s="4" t="inlineStr">
         <is>
-          <t>Verringerung des Anteils auf 9,5 % bis 2030</t>
+          <t>Steigerung des Anteils auf 55 % bis 2030</t>
         </is>
       </c>
       <c r="K16" s="4" t="inlineStr">
         <is>
-          <t>reduce the proportion to 9.5 % by 2030</t>
+          <t>increase the proportion to 55 % by 2030</t>
         </is>
       </c>
       <c r="L16" s="4" t="inlineStr">
         <is>
-          <t>Frühe Schulabgängerinnen und Schulabgänger</t>
+          <t>Akademisch Qualifizierte und beruflich Höherqualifizierte (30- bis 34-Jährige mit tertiärem oder post-sekundarem nichttertiärem Abschluss)</t>
         </is>
       </c>
       <c r="M16" s="4" t="inlineStr">
         <is>
-          <t>Early school leavers</t>
+          <t>Persons with an academic or higher vocational qualification (30 to 34-year-olds with a tertiary or post-secondary non-tertiary level of education)</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="17">
       <c r="A17" s="4" t="inlineStr">
         <is>
-          <t>Z04_B01_P01_Ib02_I01</t>
+          <t>Z04_B02_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B17" s="4" t="inlineStr">
         <is>
-          <t>Z04_B01_P01_Ib02</t>
+          <t>Z04_B02_P01_Ib01</t>
         </is>
       </c>
       <c r="C17" s="4" t="inlineStr">
         <is>
-          <t>4.1.b</t>
+          <t>4.2.a</t>
         </is>
       </c>
       <c r="D17" s="4" t="inlineStr">
         <is>
-          <t>Berufliche Qualifizierung</t>
+          <t>a) 0- bis 2-Jährige</t>
         </is>
       </c>
       <c r="E17" s="4" t="inlineStr">
         <is>
-          <t>Vocational qualification</t>
+          <t>a) 0 to 2-year-olds</t>
         </is>
       </c>
       <c r="F17" s="4" t="inlineStr">
         <is>
-          <t>Akademisch Qualifizierte und beruflich Höherqualifizierte (30- bis 34-Jährige mit tertiärem oder post-sekundarem nichttertiärem Abschluss)</t>
+          <t>Ganztagsbetreuung für Kinder &lt;br&gt;0- bis 2-Jährige</t>
         </is>
       </c>
       <c r="G17" s="4" t="inlineStr">
         <is>
-          <t>Persons with an academic or higher vocational qualification (30 to 34-year-olds with a tertiary or post-secondary non-tertiary level of education)</t>
+          <t>All-day care provision for 0 to 2-year-old children</t>
         </is>
       </c>
       <c r="H17" s="4" t="inlineStr">
         <is>
-          <t>Steigerung des Anteils auf 55 % bis 2030</t>
+          <t>Anstieg auf 35 % bis 2030</t>
         </is>
       </c>
       <c r="I17" s="4" t="inlineStr">
         <is>
-          <t>Increase the proportion to 55 % by 2030</t>
+          <t>Increase to 35 % by 2030</t>
         </is>
       </c>
       <c r="J17" s="4" t="inlineStr">
         <is>
-          <t>Steigerung des Anteils auf 55 % bis 2030</t>
+          <t>Anstieg auf 35 % bis 2030</t>
         </is>
       </c>
       <c r="K17" s="4" t="inlineStr">
         <is>
-          <t>increase the proportion to 55 % by 2030</t>
+          <t>increase to 35 % by 2030</t>
         </is>
       </c>
       <c r="L17" s="4" t="inlineStr">
         <is>
-          <t>Akademisch Qualifizierte und beruflich Höherqualifizierte (30- bis 34-Jährige mit tertiärem oder post-sekundarem nichttertiärem Abschluss)</t>
+          <t>Ganztagsbetreuung für Kinder &lt;br&gt;0- bis 2-Jährige</t>
         </is>
       </c>
       <c r="M17" s="4" t="inlineStr">
         <is>
-          <t>Persons with an academic or higher vocational qualification (30 to 34-year-olds with a tertiary or post-secondary non-tertiary level of education)</t>
+          <t>All-day care provision for 0 to 2-year-old children</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="18">
       <c r="A18" s="4" t="inlineStr">
         <is>
-          <t>Z04_B02_P01_Ib01_I01</t>
+          <t>Z04_B02_P01_Ib01_I02</t>
         </is>
       </c>
       <c r="B18" s="4" t="inlineStr">
@@ -1610,198 +1610,198 @@
       </c>
       <c r="C18" s="4" t="inlineStr">
         <is>
-          <t>4.2.a</t>
+          <t>4.2.b</t>
         </is>
       </c>
       <c r="D18" s="4" t="inlineStr">
         <is>
-          <t>a) 0- bis 2-Jährige</t>
+          <t>b) 3- bis 5-Jährige</t>
         </is>
       </c>
       <c r="E18" s="4" t="inlineStr">
         <is>
-          <t>a) 0 to 2-year-olds</t>
+          <t>b) 3 to 5-year-olds</t>
         </is>
       </c>
       <c r="F18" s="4" t="inlineStr">
         <is>
-          <t>Ganztagsbetreuung für Kinder &lt;br&gt;0- bis 2-Jährige</t>
+          <t>Ganztagsbetreuung für Kinder &lt;br&gt;3- bis 5-Jährige</t>
         </is>
       </c>
       <c r="G18" s="4" t="inlineStr">
         <is>
-          <t>All-day care provision for 0 to 2-year-old children</t>
+          <t>All-day care provision for 3 to 5-year-old children</t>
         </is>
       </c>
       <c r="H18" s="4" t="inlineStr">
         <is>
-          <t>Anstieg auf 35 % bis 2030</t>
+          <t>Anstieg auf 70 % bis 2030</t>
         </is>
       </c>
       <c r="I18" s="4" t="inlineStr">
         <is>
-          <t>Increase to 35 % by 2030</t>
+          <t>Increase to 70 % by 2030</t>
         </is>
       </c>
       <c r="J18" s="4" t="inlineStr">
         <is>
-          <t>Anstieg auf 35 % bis 2030</t>
+          <t>Anstieg auf 70 % bis 2030</t>
         </is>
       </c>
       <c r="K18" s="4" t="inlineStr">
         <is>
-          <t>increase to 35 % by 2030</t>
+          <t>increase to 70 % by 2030</t>
         </is>
       </c>
       <c r="L18" s="4" t="inlineStr">
         <is>
-          <t>Ganztagsbetreuung für Kinder &lt;br&gt;0- bis 2-Jährige</t>
+          <t>Ganztagsbetreuung für Kinder &lt;br&gt;3- bis 5-Jährige</t>
         </is>
       </c>
       <c r="M18" s="4" t="inlineStr">
         <is>
-          <t>All-day care provision for 0 to 2-year-old children</t>
+          <t>All-day care provision for 3 to 5-year-old children</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="19">
       <c r="A19" s="4" t="inlineStr">
         <is>
-          <t>Z04_B02_P01_Ib01_I02</t>
+          <t>Z05_B01_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B19" s="4" t="inlineStr">
         <is>
-          <t>Z04_B02_P01_Ib01</t>
+          <t>Z05_B01_P01_Ib01</t>
         </is>
       </c>
       <c r="C19" s="4" t="inlineStr">
         <is>
-          <t>4.2.b</t>
+          <t>5.1.a</t>
         </is>
       </c>
       <c r="D19" s="4" t="inlineStr">
         <is>
-          <t>b) 3- bis 5-Jährige</t>
+          <t>Gender Pay Gap</t>
         </is>
       </c>
       <c r="E19" s="4" t="inlineStr">
         <is>
-          <t>b) 3 to 5-year-olds</t>
+          <t>Gender Pay Gap</t>
         </is>
       </c>
       <c r="F19" s="4" t="inlineStr">
         <is>
-          <t>Ganztagsbetreuung für Kinder &lt;br&gt;3- bis 5-Jährige</t>
+          <t>Verdienstabstand zwischen Frauen und Männern</t>
         </is>
       </c>
       <c r="G19" s="4" t="inlineStr">
         <is>
-          <t>All-day care provision for 3 to 5-year-old children</t>
+          <t>Gender pay gap</t>
         </is>
       </c>
       <c r="H19" s="4" t="inlineStr">
         <is>
-          <t>Anstieg auf 70 % bis 2030</t>
+          <t>Verringerung des Abstandes auf 10 % bis 2020, Beibehaltung bis 2030</t>
         </is>
       </c>
       <c r="I19" s="4" t="inlineStr">
         <is>
-          <t>Increase to 70 % by 2030</t>
+          <t>Reduce the gap to 10 % by 2020, maintained until 2030 subsequently</t>
         </is>
       </c>
       <c r="J19" s="4" t="inlineStr">
         <is>
-          <t>Anstieg auf 70 % bis 2030</t>
+          <t>Beibehaltung von maximal 10 % bis 2030</t>
         </is>
       </c>
       <c r="K19" s="4" t="inlineStr">
         <is>
-          <t>increase to 70 % by 2030</t>
+          <t>maintaine a maximum of 10 % by 2030</t>
         </is>
       </c>
       <c r="L19" s="4" t="inlineStr">
         <is>
-          <t>Ganztagsbetreuung für Kinder &lt;br&gt;3- bis 5-Jährige</t>
+          <t>Verdienstabstand zwischen Frauen und Männern</t>
         </is>
       </c>
       <c r="M19" s="4" t="inlineStr">
         <is>
-          <t>All-day care provision for 3 to 5-year-old children</t>
+          <t>Gender pay gap</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="20">
       <c r="A20" s="4" t="inlineStr">
         <is>
-          <t>Z05_B01_P01_Ib01_I01</t>
+          <t>Z05_B01_P01_Ib02_I01</t>
         </is>
       </c>
       <c r="B20" s="4" t="inlineStr">
         <is>
-          <t>Z05_B01_P01_Ib01</t>
+          <t>Z05_B01_P01_Ib02</t>
         </is>
       </c>
       <c r="C20" s="4" t="inlineStr">
         <is>
-          <t>5.1.a</t>
+          <t>5.1.b</t>
         </is>
       </c>
       <c r="D20" s="4" t="inlineStr">
         <is>
-          <t>Gender Pay Gap</t>
+          <t>b) Wirtschaft</t>
         </is>
       </c>
       <c r="E20" s="4" t="inlineStr">
         <is>
-          <t>Gender Pay Gap</t>
+          <t>b) Business</t>
         </is>
       </c>
       <c r="F20" s="4" t="inlineStr">
         <is>
-          <t>Verdienstabstand zwischen Frauen und Männern</t>
+          <t>Frauen in Führungspositionen in der Wirtschaft</t>
         </is>
       </c>
       <c r="G20" s="4" t="inlineStr">
         <is>
-          <t>Gender pay gap</t>
+          <t>Women in management positions in business</t>
         </is>
       </c>
       <c r="H20" s="4" t="inlineStr">
         <is>
-          <t>Verringerung des Abstandes auf 10 % bis 2020, Beibehaltung bis 2030</t>
+          <t>30 % Frauen in Aufsichtsräten der börsennotierten und paritätisch mitbestimmten Unternehmen bis 2030</t>
         </is>
       </c>
       <c r="I20" s="4" t="inlineStr">
         <is>
-          <t>Reduce the gap to 10 % by 2020, maintained until 2030 subsequently</t>
+          <t>30 % women on supervisory boards of listed and fully co-determined companies by 2030</t>
         </is>
       </c>
       <c r="J20" s="4" t="inlineStr">
         <is>
-          <t>Beibehaltung von maximal 10 % bis 2030</t>
+          <t>30 % Frauen in Aufsichtsräten bis 2030</t>
         </is>
       </c>
       <c r="K20" s="4" t="inlineStr">
         <is>
-          <t>maintaine a maximum of 10 % by 2030</t>
+          <t>30% women on supervisory boards by 2030</t>
         </is>
       </c>
       <c r="L20" s="4" t="inlineStr">
         <is>
-          <t>Verdienstabstand zwischen Frauen und Männern</t>
+          <t>In Aufsichtsräten der börsennotierten und paritätisch mitbestimmten Unternehmen</t>
         </is>
       </c>
       <c r="M20" s="4" t="inlineStr">
         <is>
-          <t>Gender pay gap</t>
+          <t>On supervisory boards of listed and fully co-determined companies</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="21">
       <c r="A21" s="4" t="inlineStr">
         <is>
-          <t>Z05_B01_P01_Ib02_I01</t>
+          <t>Z05_B01_P01_Ib02_I02</t>
         </is>
       </c>
       <c r="B21" s="4" t="inlineStr">
@@ -1811,399 +1811,399 @@
       </c>
       <c r="C21" s="4" t="inlineStr">
         <is>
-          <t>5.1.b</t>
+          <t>5.1.c</t>
         </is>
       </c>
       <c r="D21" s="4" t="inlineStr">
         <is>
-          <t>b) Wirtschaft</t>
+          <t>c) Öffentlicher Dienst des Bundes</t>
         </is>
       </c>
       <c r="E21" s="4" t="inlineStr">
         <is>
-          <t>b) Business</t>
+          <t>c) Federal civil service</t>
         </is>
       </c>
       <c r="F21" s="4" t="inlineStr">
         <is>
-          <t>Frauen in Führungspositionen in der Wirtschaft</t>
+          <t>Frauen in Führungspositionen im öffentlichen Dienst des Bundes</t>
         </is>
       </c>
       <c r="G21" s="4" t="inlineStr">
         <is>
-          <t>Women in management positions in business</t>
+          <t>Women in management positions in the federal civil service</t>
         </is>
       </c>
       <c r="H21" s="4" t="inlineStr">
         <is>
-          <t>30 % Frauen in Aufsichtsräten der börsennotierten und paritätisch mitbestimmten Unternehmen bis 2030</t>
+          <t>Gleichberechtigte Teilhabe von Frauen und Männern in Leitungsfunktionen des öffentlichen Dienstes bis 2025</t>
         </is>
       </c>
       <c r="I21" s="4" t="inlineStr">
         <is>
-          <t>30 % women on supervisory boards of listed and fully co-determined companies by 2030</t>
+          <t>Equal-opportunity participation of women and men in civil service management positions by 2025</t>
         </is>
       </c>
       <c r="J21" s="4" t="inlineStr">
         <is>
-          <t>30 % Frauen in Aufsichtsräten bis 2030</t>
+          <t>gleichberechtigte Teilhabe bis 2025</t>
         </is>
       </c>
       <c r="K21" s="4" t="inlineStr">
         <is>
-          <t>30% women on supervisory boards by 2030</t>
+          <t>equal-opportunity participation by 2025</t>
         </is>
       </c>
       <c r="L21" s="4" t="inlineStr">
         <is>
-          <t>In Aufsichtsräten der börsennotierten und paritätisch mitbestimmten Unternehmen</t>
+          <t>Im öffentlichen Dienst des Bundes</t>
         </is>
       </c>
       <c r="M21" s="4" t="inlineStr">
         <is>
-          <t>On supervisory boards of listed and fully co-determined companies</t>
+          <t>In management positions in the federal civil service</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="22">
       <c r="A22" s="4" t="inlineStr">
         <is>
-          <t>Z05_B01_P01_Ib02_I02</t>
+          <t>Z05_B01_P01_Ib03_I01</t>
         </is>
       </c>
       <c r="B22" s="4" t="inlineStr">
         <is>
-          <t>Z05_B01_P01_Ib02</t>
+          <t>Z05_B01_P01_Ib03</t>
         </is>
       </c>
       <c r="C22" s="4" t="inlineStr">
         <is>
-          <t>5.1.c</t>
+          <t>5.1.d</t>
         </is>
       </c>
       <c r="D22" s="4" t="inlineStr">
         <is>
-          <t>c) Öffentlicher Dienst des Bundes</t>
+          <t>Väterbeteiligung beim Elterngeld</t>
         </is>
       </c>
       <c r="E22" s="4" t="inlineStr">
         <is>
-          <t>c) Federal civil service</t>
+          <t>Fathers receiving parental allowance</t>
         </is>
       </c>
       <c r="F22" s="4" t="inlineStr">
         <is>
-          <t>Frauen in Führungspositionen im öffentlichen Dienst des Bundes</t>
+          <t>Väterbeteiligung beim Elterngeld</t>
         </is>
       </c>
       <c r="G22" s="4" t="inlineStr">
         <is>
-          <t>Women in management positions in the federal civil service</t>
+          <t>Proportion of fathers receiving parental allowance</t>
         </is>
       </c>
       <c r="H22" s="4" t="inlineStr">
         <is>
-          <t>Gleichberechtigte Teilhabe von Frauen und Männern in Leitungsfunktionen des öffentlichen Dienstes bis 2025</t>
+          <t>65 % bis 2030</t>
         </is>
       </c>
       <c r="I22" s="4" t="inlineStr">
         <is>
-          <t>Equal-opportunity participation of women and men in civil service management positions by 2025</t>
+          <t>65 % by 2030</t>
         </is>
       </c>
       <c r="J22" s="4" t="inlineStr">
         <is>
-          <t>gleichberechtigte Teilhabe bis 2025</t>
+          <t>65 % bis 2030</t>
         </is>
       </c>
       <c r="K22" s="4" t="inlineStr">
         <is>
-          <t>equal-opportunity participation by 2025</t>
+          <t>65 % by 2030</t>
         </is>
       </c>
       <c r="L22" s="4" t="inlineStr">
         <is>
-          <t>Im öffentlichen Dienst des Bundes</t>
+          <t>Väterbeteiligung beim Elterngeld</t>
         </is>
       </c>
       <c r="M22" s="4" t="inlineStr">
         <is>
-          <t>In management positions in the federal civil service</t>
+          <t>Proportion of fathers receiving parental allowance</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="23">
       <c r="A23" s="4" t="inlineStr">
         <is>
-          <t>Z05_B01_P01_Ib03_I01</t>
+          <t>Z05_B01_P02_Ib01_I01</t>
         </is>
       </c>
       <c r="B23" s="4" t="inlineStr">
         <is>
-          <t>Z05_B01_P01_Ib03</t>
+          <t>Z05_B01_P02_Ib01</t>
         </is>
       </c>
       <c r="C23" s="4" t="inlineStr">
         <is>
-          <t>5.1.d</t>
+          <t>5.1.e</t>
         </is>
       </c>
       <c r="D23" s="4" t="inlineStr">
         <is>
-          <t>Väterbeteiligung beim Elterngeld</t>
+          <t>Berufliche Qualifizierung von Frauen und Mädchen durch Entwicklungszusammenarbeit</t>
         </is>
       </c>
       <c r="E23" s="4" t="inlineStr">
         <is>
-          <t>Fathers receiving parental allowance</t>
+          <t>Vocational qualifications of women and girls through development coopreation</t>
         </is>
       </c>
       <c r="F23" s="4" t="inlineStr">
         <is>
-          <t>Väterbeteiligung beim Elterngeld</t>
+          <t>Berufliche Qualifizierung von Frauen und Mädchen durch deutsche entwicklungspolitische Zusammenarbeit</t>
         </is>
       </c>
       <c r="G23" s="4" t="inlineStr">
         <is>
-          <t>Proportion of fathers receiving parental allowance</t>
+          <t>Vocational qualifications of women and girls through German development assistance</t>
         </is>
       </c>
       <c r="H23" s="4" t="inlineStr">
         <is>
-          <t>65 % bis 2030</t>
+          <t>Sukzessive Steigerung bis 2030 um ein Drittel verglichen mit Basisjahr 2015</t>
         </is>
       </c>
       <c r="I23" s="4" t="inlineStr">
         <is>
-          <t>65 % by 2030</t>
+          <t>To be increased gradually by a third by 2030 compared to 2015 as the base year</t>
         </is>
       </c>
       <c r="J23" s="4" t="inlineStr">
         <is>
-          <t>65 % bis 2030</t>
+          <t>Steigerung um ein Drittel bis 2030</t>
         </is>
       </c>
       <c r="K23" s="4" t="inlineStr">
         <is>
-          <t>65 % by 2030</t>
+          <t>to be increased by a third by 2030</t>
         </is>
       </c>
       <c r="L23" s="4" t="inlineStr">
         <is>
-          <t>Väterbeteiligung beim Elterngeld</t>
+          <t>Berufliche Qualifizierung von Frauen und Mädchen durch deutsche entwicklungspolitische Zusammenarbeit</t>
         </is>
       </c>
       <c r="M23" s="4" t="inlineStr">
         <is>
-          <t>Proportion of fathers receiving parental allowance</t>
+          <t>Vocational qualifications of women and girls through German development cooperation</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="24">
       <c r="A24" s="4" t="inlineStr">
         <is>
-          <t>Z05_B01_P02_Ib01_I01</t>
+          <t>Z06_B01_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B24" s="4" t="inlineStr">
         <is>
-          <t>Z05_B01_P02_Ib01</t>
+          <t>Z06_B01_P01_Ib01</t>
         </is>
       </c>
       <c r="C24" s="4" t="inlineStr">
         <is>
-          <t>5.1.e</t>
+          <t>6.1.a</t>
         </is>
       </c>
       <c r="D24" s="4" t="inlineStr">
         <is>
-          <t>Berufliche Qualifizierung von Frauen und Mädchen durch Entwicklungszusammenarbeit</t>
+          <t>Phosphor in Fließgewässern</t>
         </is>
       </c>
       <c r="E24" s="4" t="inlineStr">
         <is>
-          <t>Vocational qualifications of women and girls through development coopreation</t>
+          <t>Phosphorous in flowing waters</t>
         </is>
       </c>
       <c r="F24" s="4" t="inlineStr">
         <is>
-          <t>Berufliche Qualifizierung von Frauen und Mädchen durch deutsche entwicklungspolitische Zusammenarbeit</t>
+          <t>Phosphor in Fließgewässern</t>
         </is>
       </c>
       <c r="G24" s="4" t="inlineStr">
         <is>
-          <t>Vocational qualifications of women and girls through German development assistance</t>
+          <t>Phosphorous in flowing waters</t>
         </is>
       </c>
       <c r="H24" s="4" t="inlineStr">
         <is>
-          <t>Sukzessive Steigerung bis 2030 um ein Drittel verglichen mit Basisjahr 2015</t>
+          <t>Einhaltung oder Unterschreitung der gewässertypischen Orientierungswerte an allen Messstellen bis 2030</t>
         </is>
       </c>
       <c r="I24" s="4" t="inlineStr">
         <is>
-          <t>To be increased gradually by a third by 2030 compared to 2015 as the base year</t>
+          <t>Not exceeding benchmark values for specific types of water bodies at all monitoring points by 2030</t>
         </is>
       </c>
       <c r="J24" s="4" t="inlineStr">
         <is>
-          <t>Steigerung um ein Drittel bis 2030</t>
+          <t>Einhaltung oder Unterschreitung der Orientierungswerte bis 2030</t>
         </is>
       </c>
       <c r="K24" s="4" t="inlineStr">
         <is>
-          <t>to be increased by a third by 2030</t>
+          <t>not exceeding benchmark values by 2030</t>
         </is>
       </c>
       <c r="L24" s="4" t="inlineStr">
         <is>
-          <t>Berufliche Qualifizierung von Frauen und Mädchen durch deutsche entwicklungspolitische Zusammenarbeit</t>
+          <t>Phosphor in Fließgewässern</t>
         </is>
       </c>
       <c r="M24" s="4" t="inlineStr">
         <is>
-          <t>Vocational qualifications of women and girls through German development cooperation</t>
+          <t>Phosphorous in flowing waters</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="25">
       <c r="A25" s="4" t="inlineStr">
         <is>
-          <t>Z06_B01_P01_Ib01_I01</t>
+          <t>Z06_B01_P01_Ib02_I01</t>
         </is>
       </c>
       <c r="B25" s="4" t="inlineStr">
         <is>
-          <t>Z06_B01_P01_Ib01</t>
+          <t>Z06_B01_P01_Ib02</t>
         </is>
       </c>
       <c r="C25" s="4" t="inlineStr">
         <is>
-          <t>6.1.a</t>
+          <t>6.1.b</t>
         </is>
       </c>
       <c r="D25" s="4" t="inlineStr">
         <is>
-          <t>Phosphor in Fließgewässern</t>
+          <t>Nitrat im Grundwasser</t>
         </is>
       </c>
       <c r="E25" s="4" t="inlineStr">
         <is>
-          <t>Phosphorous in flowing waters</t>
+          <t>Nitrate in groundwater</t>
         </is>
       </c>
       <c r="F25" s="4" t="inlineStr">
         <is>
-          <t>Phosphor in Fließgewässern</t>
+          <t>Nitrat im Grundwasser</t>
         </is>
       </c>
       <c r="G25" s="4" t="inlineStr">
         <is>
-          <t>Phosphorous in flowing waters</t>
+          <t>Nitrate in groundwater</t>
         </is>
       </c>
       <c r="H25" s="4" t="inlineStr">
         <is>
-          <t>Einhaltung oder Unterschreitung der gewässertypischen Orientierungswerte an allen Messstellen bis 2030</t>
+          <t>Einhaltung des Nitrat Schwellenwertes von 50 Milligramm pro Liter an allen Messstellen bis 2030</t>
         </is>
       </c>
       <c r="I25" s="4" t="inlineStr">
         <is>
-          <t>Not exceeding benchmark values for specific types of water bodies at all monitoring points by 2030</t>
+          <t>Compliance with the nitrate threshold value of 50 mg/l at all monitoring points by 2030</t>
         </is>
       </c>
       <c r="J25" s="4" t="inlineStr">
         <is>
-          <t>Einhaltung oder Unterschreitung der Orientierungswerte bis 2030</t>
+          <t>Einhaltung des Schwellenwertes von 50 mg/l bis 2030</t>
         </is>
       </c>
       <c r="K25" s="4" t="inlineStr">
         <is>
-          <t>not exceeding benchmark values by 2030</t>
+          <t>compliance with the threshold value of 50 mg/l by 2030</t>
         </is>
       </c>
       <c r="L25" s="4" t="inlineStr">
         <is>
-          <t>Phosphor in Fließgewässern</t>
+          <t>Nitrat im Grundwasser</t>
         </is>
       </c>
       <c r="M25" s="4" t="inlineStr">
         <is>
-          <t>Phosphorous in flowing waters</t>
+          <t>Nitrate in groundwater</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="26">
       <c r="A26" s="4" t="inlineStr">
         <is>
-          <t>Z06_B01_P01_Ib02_I01</t>
+          <t>Z06_B02_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B26" s="4" t="inlineStr">
         <is>
-          <t>Z06_B01_P01_Ib02</t>
+          <t>Z06_B02_P01_Ib01</t>
         </is>
       </c>
       <c r="C26" s="4" t="inlineStr">
         <is>
-          <t>6.1.b</t>
+          <t>6.2.a</t>
         </is>
       </c>
       <c r="D26" s="4" t="inlineStr">
         <is>
-          <t>Nitrat im Grundwasser</t>
+          <t>a) Trinkwasserversorgung</t>
         </is>
       </c>
       <c r="E26" s="4" t="inlineStr">
         <is>
-          <t>Nitrate in groundwater</t>
+          <t>a) Access to drinking water</t>
         </is>
       </c>
       <c r="F26" s="4" t="inlineStr">
         <is>
-          <t>Nitrat im Grundwasser</t>
+          <t>Anzahl der Menschen, die einen neuen oder hochwertigeren Zugang zur Trinkwasserversorgung durch deutsche Unterstützung erhalten</t>
         </is>
       </c>
       <c r="G26" s="4" t="inlineStr">
         <is>
-          <t>Nitrate in groundwater</t>
+          <t>Number of people gaining first-time or upgraded access to drinking water owing to German support</t>
         </is>
       </c>
       <c r="H26" s="4" t="inlineStr">
         <is>
-          <t>Einhaltung des Nitrat Schwellenwertes von 50 Milligramm pro Liter an allen Messstellen bis 2030</t>
+          <t>6 Millionen Menschen pro Jahr bis 2030</t>
         </is>
       </c>
       <c r="I26" s="4" t="inlineStr">
         <is>
-          <t>Compliance with the nitrate threshold value of 50 mg/l at all monitoring points by 2030</t>
+          <t>6 million people per year by 2030</t>
         </is>
       </c>
       <c r="J26" s="4" t="inlineStr">
         <is>
-          <t>Einhaltung des Schwellenwertes von 50 mg/l bis 2030</t>
+          <t>6 Millionen Menschen pro Jahr bis 2030</t>
         </is>
       </c>
       <c r="K26" s="4" t="inlineStr">
         <is>
-          <t>compliance with the threshold value of 50 mg/l by 2030</t>
+          <t>6 million people per year by 2030</t>
         </is>
       </c>
       <c r="L26" s="4" t="inlineStr">
         <is>
-          <t>Nitrat im Grundwasser</t>
+          <t>Anzahl der Menschen, die einen neuen oder hochwertigeren Zugang zur Trinkwasserversorgung erhalten haben</t>
         </is>
       </c>
       <c r="M26" s="4" t="inlineStr">
         <is>
-          <t>Nitrate in groundwater</t>
+          <t>Number of people gaining first-time or upgraded access to drinking water</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="27">
       <c r="A27" s="4" t="inlineStr">
         <is>
-          <t>Z06_B02_P01_Ib01_I01</t>
+          <t>Z06_B02_P01_Ib01_I02</t>
         </is>
       </c>
       <c r="B27" s="4" t="inlineStr">
@@ -2213,64 +2213,64 @@
       </c>
       <c r="C27" s="4" t="inlineStr">
         <is>
-          <t>6.2.a</t>
+          <t>6.2.b</t>
         </is>
       </c>
       <c r="D27" s="4" t="inlineStr">
         <is>
-          <t>a) Trinkwasserversorgung</t>
+          <t>b) Sanitärversorgung</t>
         </is>
       </c>
       <c r="E27" s="4" t="inlineStr">
         <is>
-          <t>a) Access to drinking water</t>
+          <t>b) Access to sanitation</t>
         </is>
       </c>
       <c r="F27" s="4" t="inlineStr">
         <is>
-          <t>Anzahl der Menschen, die einen neuen oder hochwertigeren Zugang zur Trinkwasserversorgung durch deutsche Unterstützung erhalten</t>
+          <t>Anzahl der Menschen, die einen neuen oder verbesserten Anschluss zur Sanitärversorgung durch deutsche Unterstützung erhalten</t>
         </is>
       </c>
       <c r="G27" s="4" t="inlineStr">
         <is>
-          <t>Number of people gaining first-time or upgraded access to drinking water owing to German support</t>
+          <t>Number of people gaining first-time or improved access to sanitation owing to German support</t>
         </is>
       </c>
       <c r="H27" s="4" t="inlineStr">
         <is>
-          <t>6 Millionen Menschen pro Jahr bis 2030</t>
+          <t>4 Millionen Menschen pro Jahr bis 2030</t>
         </is>
       </c>
       <c r="I27" s="4" t="inlineStr">
         <is>
-          <t>6 million people per year by 2030</t>
+          <t>4 million people per year by 2030</t>
         </is>
       </c>
       <c r="J27" s="4" t="inlineStr">
         <is>
-          <t>6 Millionen Menschen pro Jahr bis 2030</t>
+          <t>4 Millionen Menschen pro Jahr bis 2030</t>
         </is>
       </c>
       <c r="K27" s="4" t="inlineStr">
         <is>
-          <t>6 million people per year by 2030</t>
+          <t>4 million people per year by 2030</t>
         </is>
       </c>
       <c r="L27" s="4" t="inlineStr">
         <is>
-          <t>Anzahl der Menschen, die einen neuen oder hochwertigeren Zugang zur Trinkwasserversorgung erhalten haben</t>
+          <t>Anzahl der Menschen, die einen neuen oder verbesserten Anschluss zur Sanitärversorgung erhalten haben</t>
         </is>
       </c>
       <c r="M27" s="4" t="inlineStr">
         <is>
-          <t>Number of people gaining first-time or upgraded access to drinking water</t>
+          <t>Number of people gaining first-time or improved access to sanitation</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="28">
       <c r="A28" s="4" t="inlineStr">
         <is>
-          <t>Z06_B02_P01_Ib01_I02</t>
+          <t>Z06_B02_P01_Ib01_I03</t>
         </is>
       </c>
       <c r="B28" s="4" t="inlineStr">
@@ -2280,131 +2280,131 @@
       </c>
       <c r="C28" s="4" t="inlineStr">
         <is>
-          <t>6.2.b</t>
+          <t>6.2</t>
         </is>
       </c>
       <c r="D28" s="4" t="inlineStr">
         <is>
-          <t>b) Sanitärversorgung</t>
+          <t>Trinkwasser- und Sanitärversorgung</t>
         </is>
       </c>
       <c r="E28" s="4" t="inlineStr">
         <is>
-          <t>b) Access to sanitation</t>
+          <t>Access to drinking water and sanitation</t>
         </is>
       </c>
       <c r="F28" s="4" t="inlineStr">
         <is>
-          <t>Anzahl der Menschen, die einen neuen oder verbesserten Anschluss zur Sanitärversorgung durch deutsche Unterstützung erhalten</t>
+          <t>Anzahl der Menschen, die einen neuen oder hochwertigeren Zugang zur Trinkwasserversorgung oder Anschluss zur Sanitärversorgung durch deutsche Unterstützung erhalten</t>
         </is>
       </c>
       <c r="G28" s="4" t="inlineStr">
         <is>
-          <t>Number of people gaining first-time or improved access to sanitation owing to German support</t>
+          <t>Number of people gaining first-time or upgraded access to drinking water or sanitation owing to German support</t>
         </is>
       </c>
       <c r="H28" s="4" t="inlineStr">
         <is>
-          <t>4 Millionen Menschen pro Jahr bis 2030</t>
+          <t/>
         </is>
       </c>
       <c r="I28" s="4" t="inlineStr">
         <is>
-          <t>4 million people per year by 2030</t>
+          <t/>
         </is>
       </c>
       <c r="J28" s="4" t="inlineStr">
         <is>
-          <t>4 Millionen Menschen pro Jahr bis 2030</t>
+          <t/>
         </is>
       </c>
       <c r="K28" s="4" t="inlineStr">
         <is>
-          <t>4 million people per year by 2030</t>
+          <t/>
         </is>
       </c>
       <c r="L28" s="4" t="inlineStr">
         <is>
-          <t>Anzahl der Menschen, die einen neuen oder verbesserten Anschluss zur Sanitärversorgung erhalten haben</t>
+          <t>Anzahl der Menschen, die einen neuen oder hochwertigeren Zugang zur Trinkwasserversorgung oder Anschluss zur Sanitärversorgung erhalten haben</t>
         </is>
       </c>
       <c r="M28" s="4" t="inlineStr">
         <is>
-          <t>Number of people gaining first-time or improved access to sanitation</t>
+          <t>Number of people gaining first-time or upgraded access to drinking water or sanitation</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="29">
       <c r="A29" s="4" t="inlineStr">
         <is>
-          <t>Z06_B02_P01_Ib01_I03</t>
+          <t>Z07_B01_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B29" s="4" t="inlineStr">
         <is>
-          <t>Z06_B02_P01_Ib01</t>
+          <t>Z07_B01_P01_Ib01</t>
         </is>
       </c>
       <c r="C29" s="4" t="inlineStr">
         <is>
-          <t>6.2</t>
+          <t>7.1.a</t>
         </is>
       </c>
       <c r="D29" s="4" t="inlineStr">
         <is>
-          <t>Trinkwasser- und Sanitärversorgung</t>
+          <t>a) Endenergieproduktivität</t>
         </is>
       </c>
       <c r="E29" s="4" t="inlineStr">
         <is>
-          <t>Access to drinking water and sanitation</t>
+          <t>a) Final energy productivity</t>
         </is>
       </c>
       <c r="F29" s="4" t="inlineStr">
         <is>
-          <t>Anzahl der Menschen, die einen neuen oder hochwertigeren Zugang zur Trinkwasserversorgung oder Anschluss zur Sanitärversorgung durch deutsche Unterstützung erhalten</t>
+          <t>Endenergieproduktivität</t>
         </is>
       </c>
       <c r="G29" s="4" t="inlineStr">
         <is>
-          <t>Number of people gaining first-time or upgraded access to drinking water or sanitation owing to German support</t>
+          <t>Final energy productivity</t>
         </is>
       </c>
       <c r="H29" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Steigerung um 2,1 % pro Jahr im Zeitraum von 2008 – 2050</t>
         </is>
       </c>
       <c r="I29" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Increase by 2.1 % per year from 2008 to 2050</t>
         </is>
       </c>
       <c r="J29" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Steigerung um 2,1 % pro Jahr</t>
         </is>
       </c>
       <c r="K29" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>increase by 2.1 % per year</t>
         </is>
       </c>
       <c r="L29" s="4" t="inlineStr">
         <is>
-          <t>Anzahl der Menschen, die einen neuen oder hochwertigeren Zugang zur Trinkwasserversorgung oder Anschluss zur Sanitärversorgung erhalten haben</t>
+          <t>Endenergieproduktivität</t>
         </is>
       </c>
       <c r="M29" s="4" t="inlineStr">
         <is>
-          <t>Number of people gaining first-time or upgraded access to drinking water or sanitation</t>
+          <t>Final energy productivity</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="30">
       <c r="A30" s="4" t="inlineStr">
         <is>
-          <t>Z07_B01_P01_Ib01_I01</t>
+          <t>Z07_B01_P01_Ib01_I02</t>
         </is>
       </c>
       <c r="B30" s="4" t="inlineStr">
@@ -2414,332 +2414,332 @@
       </c>
       <c r="C30" s="4" t="inlineStr">
         <is>
-          <t>7.1.a</t>
+          <t>7.1.b</t>
         </is>
       </c>
       <c r="D30" s="4" t="inlineStr">
         <is>
-          <t>a) Endenergieproduktivität</t>
+          <t>b) Primärenergieverbrauch</t>
         </is>
       </c>
       <c r="E30" s="4" t="inlineStr">
         <is>
-          <t>a) Final energy productivity</t>
+          <t>b) Primary energy consumption</t>
         </is>
       </c>
       <c r="F30" s="4" t="inlineStr">
         <is>
-          <t>Endenergieproduktivität</t>
+          <t>Primärenergieverbrauch</t>
         </is>
       </c>
       <c r="G30" s="4" t="inlineStr">
         <is>
-          <t>Final energy productivity</t>
+          <t>Primary energy consumption</t>
         </is>
       </c>
       <c r="H30" s="4" t="inlineStr">
         <is>
-          <t>Steigerung um 2,1 % pro Jahr im Zeitraum von 2008 – 2050</t>
+          <t>Senkung um 20 % bis 2020, um 30 % bis 2030 und um 50 % bis 2050 jeweils gegenüber 2008</t>
         </is>
       </c>
       <c r="I30" s="4" t="inlineStr">
         <is>
-          <t>Increase by 2.1 % per year from 2008 to 2050</t>
+          <t>Reduction by 20 % by 2020, by 30 % by 2030, and by 50 % by 2050, all compared to 2008</t>
         </is>
       </c>
       <c r="J30" s="4" t="inlineStr">
         <is>
-          <t>Steigerung um 2,1 % pro Jahr</t>
+          <t>Senkung um 30 % bis 2030</t>
         </is>
       </c>
       <c r="K30" s="4" t="inlineStr">
         <is>
-          <t>increase by 2.1 % per year</t>
+          <t>reduction by 30 % by 2030</t>
         </is>
       </c>
       <c r="L30" s="4" t="inlineStr">
         <is>
-          <t>Endenergieproduktivität</t>
+          <t>Primärenergieverbrauch</t>
         </is>
       </c>
       <c r="M30" s="4" t="inlineStr">
         <is>
-          <t>Final energy productivity</t>
+          <t>Primary energy consumption</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="31">
       <c r="A31" s="4" t="inlineStr">
         <is>
-          <t>Z07_B01_P01_Ib01_I02</t>
+          <t>Z07_B02_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B31" s="4" t="inlineStr">
         <is>
-          <t>Z07_B01_P01_Ib01</t>
+          <t>Z07_B02_P01_Ib01</t>
         </is>
       </c>
       <c r="C31" s="4" t="inlineStr">
         <is>
-          <t>7.1.b</t>
+          <t>7.2.a</t>
         </is>
       </c>
       <c r="D31" s="4" t="inlineStr">
         <is>
-          <t>b) Primärenergieverbrauch</t>
+          <t>Erneuerbarer Energien</t>
         </is>
       </c>
       <c r="E31" s="4" t="inlineStr">
         <is>
-          <t>b) Primary energy consumption</t>
+          <t>Renewable energies</t>
         </is>
       </c>
       <c r="F31" s="4" t="inlineStr">
         <is>
-          <t>Primärenergieverbrauch</t>
+          <t>Anteil erneuerbarer Energien am Brutto-Endenergieverbrauch</t>
         </is>
       </c>
       <c r="G31" s="4" t="inlineStr">
         <is>
-          <t>Primary energy consumption</t>
+          <t>Share of renewable energies in gross final energy consumption</t>
         </is>
       </c>
       <c r="H31" s="4" t="inlineStr">
         <is>
-          <t>Senkung um 20 % bis 2020, um 30 % bis 2030 und um 50 % bis 2050 jeweils gegenüber 2008</t>
+          <t>Anstieg auf 18 % bis 2020, auf 30 % bis 2030, auf 45 % bis 2040 und auf 60 % bis 2050</t>
         </is>
       </c>
       <c r="I31" s="4" t="inlineStr">
         <is>
-          <t>Reduction by 20 % by 2020, by 30 % by 2030, and by 50 % by 2050, all compared to 2008</t>
+          <t>Increase to 18 % by 2020 and to 30 % by 2030, to 45 % by 2040 and to 60 % by 2050</t>
         </is>
       </c>
       <c r="J31" s="4" t="inlineStr">
         <is>
-          <t>Senkung um 30 % bis 2030</t>
+          <t>Anstieg auf 30 % bis 2030</t>
         </is>
       </c>
       <c r="K31" s="4" t="inlineStr">
         <is>
-          <t>reduction by 30 % by 2030</t>
+          <t>increase to 30 % by 2030</t>
         </is>
       </c>
       <c r="L31" s="4" t="inlineStr">
         <is>
-          <t>Primärenergieverbrauch</t>
+          <t>Anteil erneuerbarer Energien am Brutto-Endenergieverbrauch</t>
         </is>
       </c>
       <c r="M31" s="4" t="inlineStr">
         <is>
-          <t>Primary energy consumption</t>
+          <t>Share of renewable energies in gross final energy consumption</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="32">
       <c r="A32" s="4" t="inlineStr">
         <is>
-          <t>Z07_B02_P01_Ib01_I01</t>
+          <t>Z07_B02_P01_Ib02_I01</t>
         </is>
       </c>
       <c r="B32" s="4" t="inlineStr">
         <is>
-          <t>Z07_B02_P01_Ib01</t>
+          <t>Z07_B02_P01_Ib02</t>
         </is>
       </c>
       <c r="C32" s="4" t="inlineStr">
         <is>
-          <t>7.2.a</t>
+          <t>7.2.b</t>
         </is>
       </c>
       <c r="D32" s="4" t="inlineStr">
         <is>
-          <t>Erneuerbarer Energien</t>
+          <t>Strom aus erneuerbaren Energiequellen</t>
         </is>
       </c>
       <c r="E32" s="4" t="inlineStr">
         <is>
-          <t>Renewable energies</t>
+          <t>Electricity from renewable energy sources</t>
         </is>
       </c>
       <c r="F32" s="4" t="inlineStr">
         <is>
-          <t>Anteil erneuerbarer Energien am Brutto-Endenergieverbrauch</t>
+          <t>Anteil des Stroms aus erneuerbaren Energiequellen am Bruttostromverbrauch</t>
         </is>
       </c>
       <c r="G32" s="4" t="inlineStr">
         <is>
-          <t>Share of renewable energies in gross final energy consumption</t>
+          <t>Share of electricity from renewable energy sources in gross electricity consumption</t>
         </is>
       </c>
       <c r="H32" s="4" t="inlineStr">
         <is>
-          <t>Anstieg auf 18 % bis 2020, auf 30 % bis 2030, auf 45 % bis 2040 und auf 60 % bis 2050</t>
+          <t>Anstieg auf mindestens 80 % bis 2030</t>
         </is>
       </c>
       <c r="I32" s="4" t="inlineStr">
         <is>
-          <t>Increase to 18 % by 2020 and to 30 % by 2030, to 45 % by 2040 and to 60 % by 2050</t>
+          <t>Increase to at least 80 % by 2030</t>
         </is>
       </c>
       <c r="J32" s="4" t="inlineStr">
         <is>
-          <t>Anstieg auf 30 % bis 2030</t>
+          <t>Anstieg auf 80 % bis 2030</t>
         </is>
       </c>
       <c r="K32" s="4" t="inlineStr">
         <is>
-          <t>increase to 30 % by 2030</t>
+          <t>increase to 80 % by 2030</t>
         </is>
       </c>
       <c r="L32" s="4" t="inlineStr">
         <is>
-          <t>Anteil erneuerbarer Energien am Brutto-Endenergieverbrauch</t>
+          <t>Anteil des Stroms aus erneuerbaren Energiequellen am Bruttostromverbrauch</t>
         </is>
       </c>
       <c r="M32" s="4" t="inlineStr">
         <is>
-          <t>Share of renewable energies in gross final energy consumption</t>
+          <t>Share of electricity from renewable energy sources in gross electricity consumption</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="33">
       <c r="A33" s="4" t="inlineStr">
         <is>
-          <t>Z07_B02_P01_Ib02_I01</t>
+          <t>Z08_B01_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B33" s="4" t="inlineStr">
         <is>
-          <t>Z07_B02_P01_Ib02</t>
+          <t>Z08_B01_P01_Ib01</t>
         </is>
       </c>
       <c r="C33" s="4" t="inlineStr">
         <is>
-          <t>7.2.b</t>
+          <t>8.1</t>
         </is>
       </c>
       <c r="D33" s="4" t="inlineStr">
         <is>
-          <t>Strom aus erneuerbaren Energiequellen</t>
+          <t>Gesamtrohstoffproduktivität</t>
         </is>
       </c>
       <c r="E33" s="4" t="inlineStr">
         <is>
-          <t>Electricity from renewable energy sources</t>
+          <t>Raw material input productivity</t>
         </is>
       </c>
       <c r="F33" s="4" t="inlineStr">
         <is>
-          <t>Anteil des Stroms aus erneuerbaren Energiequellen am Bruttostromverbrauch</t>
+          <t>Gesamtrohstoffproduktivität</t>
         </is>
       </c>
       <c r="G33" s="4" t="inlineStr">
         <is>
-          <t>Share of electricity from renewable energy sources in gross electricity consumption</t>
+          <t>Raw material input productivity</t>
         </is>
       </c>
       <c r="H33" s="4" t="inlineStr">
         <is>
-          <t>Anstieg auf mindestens 80 % bis 2030</t>
+          <t>Beibehaltung des Trends der Jahre 2000 – 2010 bis 2030</t>
         </is>
       </c>
       <c r="I33" s="4" t="inlineStr">
         <is>
-          <t>Increase to at least 80 % by 2030</t>
+          <t>Trend of the years 2000–2010 to be maintained until 2030</t>
         </is>
       </c>
       <c r="J33" s="4" t="inlineStr">
         <is>
-          <t>Anstieg auf 80 % bis 2030</t>
+          <t>Beibehaltung des Trends der Jahre 2000 - 2010 bis 2030</t>
         </is>
       </c>
       <c r="K33" s="4" t="inlineStr">
         <is>
-          <t>increase to 80 % by 2030</t>
+          <t>trend of the years 2000-2010 to be maintained until 2030</t>
         </is>
       </c>
       <c r="L33" s="4" t="inlineStr">
         <is>
-          <t>Anteil des Stroms aus erneuerbaren Energiequellen am Bruttostromverbrauch</t>
+          <t>Gesamtrohstoffproduktivität</t>
         </is>
       </c>
       <c r="M33" s="4" t="inlineStr">
         <is>
-          <t>Share of electricity from renewable energy sources in gross electricity consumption</t>
+          <t>Raw material input productivity</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="34">
       <c r="A34" s="4" t="inlineStr">
         <is>
-          <t>Z08_B01_P01_Ib01_I01</t>
+          <t>Z08_B02_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B34" s="4" t="inlineStr">
         <is>
-          <t>Z08_B01_P01_Ib01</t>
+          <t>Z08_B02_P01_Ib01</t>
         </is>
       </c>
       <c r="C34" s="4" t="inlineStr">
         <is>
-          <t>8.1</t>
+          <t>8.2.a</t>
         </is>
       </c>
       <c r="D34" s="4" t="inlineStr">
         <is>
-          <t>Gesamtrohstoffproduktivität</t>
+          <t>a) Staatsdefizit</t>
         </is>
       </c>
       <c r="E34" s="4" t="inlineStr">
         <is>
-          <t>Raw material input productivity</t>
+          <t>a) Government deficit</t>
         </is>
       </c>
       <c r="F34" s="4" t="inlineStr">
         <is>
-          <t>Gesamtrohstoffproduktivität</t>
+          <t>Staatsdefizit</t>
         </is>
       </c>
       <c r="G34" s="4" t="inlineStr">
         <is>
-          <t>Raw material input productivity</t>
+          <t>Government deficit</t>
         </is>
       </c>
       <c r="H34" s="4" t="inlineStr">
         <is>
-          <t>Beibehaltung des Trends der Jahre 2000 – 2010 bis 2030</t>
+          <t>Jährliches Staatsdefizit kleiner als 3 % des BIP, Beibehaltung bis 2030</t>
         </is>
       </c>
       <c r="I34" s="4" t="inlineStr">
         <is>
-          <t>Trend of the years 2000–2010 to be maintained until 2030</t>
+          <t>Annual government deficit less than 3 % of GDP, to be maintained until 2030</t>
         </is>
       </c>
       <c r="J34" s="4" t="inlineStr">
         <is>
-          <t>Beibehaltung des Trends der Jahre 2000 - 2010 bis 2030</t>
+          <t>unter 3 % des BIP</t>
         </is>
       </c>
       <c r="K34" s="4" t="inlineStr">
         <is>
-          <t>trend of the years 2000-2010 to be maintained until 2030</t>
+          <t>less than 3 % of GDP</t>
         </is>
       </c>
       <c r="L34" s="4" t="inlineStr">
         <is>
-          <t>Gesamtrohstoffproduktivität</t>
+          <t>Staatsdefizit</t>
         </is>
       </c>
       <c r="M34" s="4" t="inlineStr">
         <is>
-          <t>Raw material input productivity</t>
+          <t>Government deficit</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="35">
       <c r="A35" s="4" t="inlineStr">
         <is>
-          <t>Z08_B02_P01_Ib01_I01</t>
+          <t>Z08_B02_P01_Ib01_I02</t>
         </is>
       </c>
       <c r="B35" s="4" t="inlineStr">
@@ -2749,332 +2749,332 @@
       </c>
       <c r="C35" s="4" t="inlineStr">
         <is>
-          <t>8.2.a</t>
+          <t>8.2.b</t>
         </is>
       </c>
       <c r="D35" s="4" t="inlineStr">
         <is>
-          <t>a) Staatsdefizit</t>
+          <t>b) Strukturelles Defizit</t>
         </is>
       </c>
       <c r="E35" s="4" t="inlineStr">
         <is>
-          <t>a) Government deficit</t>
+          <t>b) Structural deficit</t>
         </is>
       </c>
       <c r="F35" s="4" t="inlineStr">
         <is>
-          <t>Staatsdefizit</t>
+          <t>Strukturelles Defizit</t>
         </is>
       </c>
       <c r="G35" s="4" t="inlineStr">
         <is>
-          <t>Government deficit</t>
+          <t>Structural deficit</t>
         </is>
       </c>
       <c r="H35" s="4" t="inlineStr">
         <is>
-          <t>Jährliches Staatsdefizit kleiner als 3 % des BIP, Beibehaltung bis 2030</t>
+          <t>Strukturell ausgeglichener Staatshaushalt, gesamtstaatliches strukturelles Defizit von max. 0,5 % des BIP, Beibehaltung bis 2030</t>
         </is>
       </c>
       <c r="I35" s="4" t="inlineStr">
         <is>
-          <t>Annual government deficit less than 3 % of GDP, to be maintained until 2030</t>
+          <t>Structurally balanced government budget, general government structural deficit must not exceed 0.5 % of GDP, to be maintained until 2030</t>
         </is>
       </c>
       <c r="J35" s="4" t="inlineStr">
         <is>
-          <t>unter 3 % des BIP</t>
+          <t>unter 0,5 % des BIP</t>
         </is>
       </c>
       <c r="K35" s="4" t="inlineStr">
         <is>
-          <t>less than 3 % of GDP</t>
+          <t>less than 0.5 % of GDP</t>
         </is>
       </c>
       <c r="L35" s="4" t="inlineStr">
         <is>
-          <t>Staatsdefizit</t>
+          <t>Strukturelles Defizit</t>
         </is>
       </c>
       <c r="M35" s="4" t="inlineStr">
         <is>
-          <t>Government deficit</t>
+          <t>Structural deficit</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="36">
       <c r="A36" s="4" t="inlineStr">
         <is>
-          <t>Z08_B02_P01_Ib01_I02</t>
+          <t>Z08_B02_P01_Ib02_I01</t>
         </is>
       </c>
       <c r="B36" s="4" t="inlineStr">
         <is>
-          <t>Z08_B02_P01_Ib01</t>
+          <t>Z08_B02_P01_Ib02</t>
         </is>
       </c>
       <c r="C36" s="4" t="inlineStr">
         <is>
-          <t>8.2.b</t>
+          <t>8.2.c</t>
         </is>
       </c>
       <c r="D36" s="4" t="inlineStr">
         <is>
-          <t>b) Strukturelles Defizit</t>
+          <t>Schuldenstandsquote</t>
         </is>
       </c>
       <c r="E36" s="4" t="inlineStr">
         <is>
-          <t>b) Structural deficit</t>
+          <t>Ratio of government debt</t>
         </is>
       </c>
       <c r="F36" s="4" t="inlineStr">
         <is>
-          <t>Strukturelles Defizit</t>
+          <t>Schuldenstand</t>
         </is>
       </c>
       <c r="G36" s="4" t="inlineStr">
         <is>
-          <t>Structural deficit</t>
+          <t>Government debt</t>
         </is>
       </c>
       <c r="H36" s="4" t="inlineStr">
         <is>
-          <t>Strukturell ausgeglichener Staatshaushalt, gesamtstaatliches strukturelles Defizit von max. 0,5 % des BIP, Beibehaltung bis 2030</t>
+          <t>Schuldenstandsquote max. 60 % des BIP, Beibehaltung bis 2030</t>
         </is>
       </c>
       <c r="I36" s="4" t="inlineStr">
         <is>
-          <t>Structurally balanced government budget, general government structural deficit must not exceed 0.5 % of GDP, to be maintained until 2030</t>
+          <t>Ratio of government debt to GDP must not exceed  60 %, to be maintained until 2030</t>
         </is>
       </c>
       <c r="J36" s="4" t="inlineStr">
         <is>
-          <t>unter 0,5 % des BIP</t>
+          <t>max. 60 % des BIP</t>
         </is>
       </c>
       <c r="K36" s="4" t="inlineStr">
         <is>
-          <t>less than 0.5 % of GDP</t>
+          <t>max. 60 % of GDP</t>
         </is>
       </c>
       <c r="L36" s="4" t="inlineStr">
         <is>
-          <t>Strukturelles Defizit</t>
+          <t>Schuldenstand</t>
         </is>
       </c>
       <c r="M36" s="4" t="inlineStr">
         <is>
-          <t>Structural deficit</t>
+          <t>Government debt</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="37">
       <c r="A37" s="4" t="inlineStr">
         <is>
-          <t>Z08_B02_P01_Ib02_I01</t>
+          <t>Z08_B03_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B37" s="4" t="inlineStr">
         <is>
-          <t>Z08_B02_P01_Ib02</t>
+          <t>Z08_B03_P01_Ib01</t>
         </is>
       </c>
       <c r="C37" s="4" t="inlineStr">
         <is>
-          <t>8.2.c</t>
+          <t>8.3</t>
         </is>
       </c>
       <c r="D37" s="4" t="inlineStr">
         <is>
-          <t>Schuldenstandsquote</t>
+          <t>Anlageinvestitionen</t>
         </is>
       </c>
       <c r="E37" s="4" t="inlineStr">
         <is>
-          <t>Ratio of government debt</t>
+          <t>Gross fixed capital formation</t>
         </is>
       </c>
       <c r="F37" s="4" t="inlineStr">
         <is>
-          <t>Schuldenstand</t>
+          <t>Verhältnis der Bruttoanlageinvestitionen zum BIP</t>
         </is>
       </c>
       <c r="G37" s="4" t="inlineStr">
         <is>
-          <t>Government debt</t>
+          <t>Gross fixed capital formation in relation to GDP</t>
         </is>
       </c>
       <c r="H37" s="4" t="inlineStr">
         <is>
-          <t>Schuldenstandsquote max. 60 % des BIP, Beibehaltung bis 2030</t>
+          <t>Angemessene Entwicklung des Anteils, Beibehaltung bis 2030</t>
         </is>
       </c>
       <c r="I37" s="4" t="inlineStr">
         <is>
-          <t>Ratio of government debt to GDP must not exceed  60 %, to be maintained until 2030</t>
+          <t>Appropriate development of the ratio, to be maintained until 2030</t>
         </is>
       </c>
       <c r="J37" s="4" t="inlineStr">
         <is>
-          <t>max. 60 % des BIP</t>
+          <t>angemessene Entwicklung bis 2030</t>
         </is>
       </c>
       <c r="K37" s="4" t="inlineStr">
         <is>
-          <t>max. 60 % of GDP</t>
+          <t>appropriate development by 2030</t>
         </is>
       </c>
       <c r="L37" s="4" t="inlineStr">
         <is>
-          <t>Schuldenstand</t>
+          <t>Verhältnis der Bruttoanlageinvestitionen zum BIP</t>
         </is>
       </c>
       <c r="M37" s="4" t="inlineStr">
         <is>
-          <t>Government debt</t>
+          <t>Gross fixed capital formation in relation to GDP</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="38">
       <c r="A38" s="4" t="inlineStr">
         <is>
-          <t>Z08_B03_P01_Ib01_I01</t>
+          <t>Z08_B04_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B38" s="4" t="inlineStr">
         <is>
-          <t>Z08_B03_P01_Ib01</t>
+          <t>Z08_B04_P01_Ib01</t>
         </is>
       </c>
       <c r="C38" s="4" t="inlineStr">
         <is>
-          <t>8.3</t>
+          <t>8.4</t>
         </is>
       </c>
       <c r="D38" s="4" t="inlineStr">
         <is>
-          <t>Anlageinvestitionen</t>
+          <t>Bruttoinlandsprodukt</t>
         </is>
       </c>
       <c r="E38" s="4" t="inlineStr">
         <is>
-          <t>Gross fixed capital formation</t>
+          <t>Gross domestic product</t>
         </is>
       </c>
       <c r="F38" s="4" t="inlineStr">
         <is>
-          <t>Verhältnis der Bruttoanlageinvestitionen zum BIP</t>
+          <t>Bruttoinlandsprodukt je Einwohnerin und Einwohner</t>
         </is>
       </c>
       <c r="G38" s="4" t="inlineStr">
         <is>
-          <t>Gross fixed capital formation in relation to GDP</t>
+          <t>Gross domestic product per capita</t>
         </is>
       </c>
       <c r="H38" s="4" t="inlineStr">
         <is>
-          <t>Angemessene Entwicklung des Anteils, Beibehaltung bis 2030</t>
+          <t>Stetiges und angemessenes Wirtschaftswachstum</t>
         </is>
       </c>
       <c r="I38" s="4" t="inlineStr">
         <is>
-          <t>Appropriate development of the ratio, to be maintained until 2030</t>
+          <t>Steady and appropriate economic growth</t>
         </is>
       </c>
       <c r="J38" s="4" t="inlineStr">
         <is>
-          <t>angemessene Entwicklung bis 2030</t>
+          <t>stetiges und angemessenes Wirtschaftswachstum</t>
         </is>
       </c>
       <c r="K38" s="4" t="inlineStr">
         <is>
-          <t>appropriate development by 2030</t>
+          <t>steady and appropriate economic growth</t>
         </is>
       </c>
       <c r="L38" s="4" t="inlineStr">
         <is>
-          <t>Verhältnis der Bruttoanlageinvestitionen zum BIP</t>
+          <t>Bruttoinlandsprodukt je Einwohnerin und Einwohner</t>
         </is>
       </c>
       <c r="M38" s="4" t="inlineStr">
         <is>
-          <t>Gross fixed capital formation in relation to GDP</t>
+          <t>Gross domestic product per capita</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="39">
       <c r="A39" s="4" t="inlineStr">
         <is>
-          <t>Z08_B04_P01_Ib01_I01</t>
+          <t>Z08_B05_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B39" s="4" t="inlineStr">
         <is>
-          <t>Z08_B04_P01_Ib01</t>
+          <t>Z08_B05_P01_Ib01</t>
         </is>
       </c>
       <c r="C39" s="4" t="inlineStr">
         <is>
-          <t>8.4</t>
+          <t>8.5.a</t>
         </is>
       </c>
       <c r="D39" s="4" t="inlineStr">
         <is>
-          <t>Bruttoinlandsprodukt</t>
+          <t>a) Insgesamt (20-64-Jährige)</t>
         </is>
       </c>
       <c r="E39" s="4" t="inlineStr">
         <is>
-          <t>Gross domestic product</t>
+          <t>a) total (20 to 64-year-olds)</t>
         </is>
       </c>
       <c r="F39" s="4" t="inlineStr">
         <is>
-          <t>Bruttoinlandsprodukt je Einwohnerin und Einwohner</t>
+          <t>Erwerbstätigenquote (20- bis 64-Jährige)</t>
         </is>
       </c>
       <c r="G39" s="4" t="inlineStr">
         <is>
-          <t>Gross domestic product per capita</t>
+          <t>Employment rate (20 to 64-year-olds)</t>
         </is>
       </c>
       <c r="H39" s="4" t="inlineStr">
         <is>
-          <t>Stetiges und angemessenes Wirtschaftswachstum</t>
+          <t>Erhöhung auf 78 % bis 2030</t>
         </is>
       </c>
       <c r="I39" s="4" t="inlineStr">
         <is>
-          <t>Steady and appropriate economic growth</t>
+          <t>Increase to 78 % by 2030</t>
         </is>
       </c>
       <c r="J39" s="4" t="inlineStr">
         <is>
-          <t>stetiges und angemessenes Wirtschaftswachstum</t>
+          <t>Erhöhung auf 78 % bis 2030</t>
         </is>
       </c>
       <c r="K39" s="4" t="inlineStr">
         <is>
-          <t>steady and appropriate economic growth</t>
+          <t>increase to 78 % by 2030</t>
         </is>
       </c>
       <c r="L39" s="4" t="inlineStr">
         <is>
-          <t>Bruttoinlandsprodukt je Einwohnerin und Einwohner</t>
+          <t>Erwerbstätigenquote insgesamt (20- bis 64-Jährige)</t>
         </is>
       </c>
       <c r="M39" s="4" t="inlineStr">
         <is>
-          <t>Gross domestic product per capita</t>
+          <t>Employment rate, total (20 to 64-year-olds)</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="40">
       <c r="A40" s="4" t="inlineStr">
         <is>
-          <t>Z08_B05_P01_Ib01_I01</t>
+          <t>Z08_B05_P01_Ib01_I02</t>
         </is>
       </c>
       <c r="B40" s="4" t="inlineStr">
@@ -3084,697 +3084,697 @@
       </c>
       <c r="C40" s="4" t="inlineStr">
         <is>
-          <t>8.5.a</t>
+          <t>8.5.b</t>
         </is>
       </c>
       <c r="D40" s="4" t="inlineStr">
         <is>
-          <t>a) Insgesamt (20-64-Jährige)</t>
+          <t>b) Ältere (60-64-Jährige)</t>
         </is>
       </c>
       <c r="E40" s="4" t="inlineStr">
         <is>
-          <t>a) total (20 to 64-year-olds)</t>
+          <t>b) older people (60 to 64-year-olds)</t>
         </is>
       </c>
       <c r="F40" s="4" t="inlineStr">
         <is>
-          <t>Erwerbstätigenquote (20- bis 64-Jährige)</t>
+          <t>Erwerbstätigenquote (60- bis 64-Jährige)</t>
         </is>
       </c>
       <c r="G40" s="4" t="inlineStr">
         <is>
-          <t>Employment rate (20 to 64-year-olds)</t>
+          <t>Employment rate (60 to 64-year-olds)</t>
         </is>
       </c>
       <c r="H40" s="4" t="inlineStr">
         <is>
-          <t>Erhöhung auf 78 % bis 2030</t>
+          <t>Erhöhung auf 60 % bis 2030</t>
         </is>
       </c>
       <c r="I40" s="4" t="inlineStr">
         <is>
-          <t>Increase to 78 % by 2030</t>
+          <t>Increase to 60 % by 2030</t>
         </is>
       </c>
       <c r="J40" s="4" t="inlineStr">
         <is>
-          <t>Erhöhung auf 78 % bis 2030</t>
+          <t>Erhöhung auf 60 % bis 2030</t>
         </is>
       </c>
       <c r="K40" s="4" t="inlineStr">
         <is>
-          <t>increase to 78 % by 2030</t>
+          <t>increase to 60 % by 2030</t>
         </is>
       </c>
       <c r="L40" s="4" t="inlineStr">
         <is>
-          <t>Erwerbstätigenquote insgesamt (20- bis 64-Jährige)</t>
+          <t>Erwerbstätigenquote Ältere (60- bis 64-Jährige)</t>
         </is>
       </c>
       <c r="M40" s="4" t="inlineStr">
         <is>
-          <t>Employment rate, total (20 to 64-year-olds)</t>
+          <t>Employment rate, older people (60 to 64-year-olds)</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="41">
       <c r="A41" s="4" t="inlineStr">
         <is>
-          <t>Z08_B05_P01_Ib01_I02</t>
+          <t>Z08_B06_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B41" s="4" t="inlineStr">
         <is>
-          <t>Z08_B05_P01_Ib01</t>
+          <t>Z08_B06_P01_Ib01</t>
         </is>
       </c>
       <c r="C41" s="4" t="inlineStr">
         <is>
-          <t>8.5.b</t>
+          <t>8.6</t>
         </is>
       </c>
       <c r="D41" s="4" t="inlineStr">
         <is>
-          <t>b) Ältere (60-64-Jährige)</t>
+          <t>Mitglieder des Textilbündnisses</t>
         </is>
       </c>
       <c r="E41" s="4" t="inlineStr">
         <is>
-          <t>b) older people (60 to 64-year-olds)</t>
+          <t>Members of the Textile Partnership</t>
         </is>
       </c>
       <c r="F41" s="4" t="inlineStr">
         <is>
-          <t>Erwerbstätigenquote (60- bis 64-Jährige)</t>
+          <t>Mitglieder des Textilbündnisses</t>
         </is>
       </c>
       <c r="G41" s="4" t="inlineStr">
         <is>
-          <t>Employment rate (60 to 64-year-olds)</t>
+          <t>Members of the Textile Partnership</t>
         </is>
       </c>
       <c r="H41" s="4" t="inlineStr">
         <is>
-          <t>Erhöhung auf 60 % bis 2030</t>
+          <t>Signifikante Steigerung bis 2030</t>
         </is>
       </c>
       <c r="I41" s="4" t="inlineStr">
         <is>
-          <t>Increase to 60 % by 2030</t>
+          <t>Significantly increase by 2030</t>
         </is>
       </c>
       <c r="J41" s="4" t="inlineStr">
         <is>
-          <t>Erhöhung auf 60 % bis 2030</t>
+          <t>Steigerung der Anzahl bis 2030</t>
         </is>
       </c>
       <c r="K41" s="4" t="inlineStr">
         <is>
-          <t>increase to 60 % by 2030</t>
+          <t>increase number by 2030</t>
         </is>
       </c>
       <c r="L41" s="4" t="inlineStr">
         <is>
-          <t>Erwerbstätigenquote Ältere (60- bis 64-Jährige)</t>
+          <t>Mitglieder des Textilbündnisses</t>
         </is>
       </c>
       <c r="M41" s="4" t="inlineStr">
         <is>
-          <t>Employment rate, older people (60 to 64-year-olds)</t>
+          <t>Members of the Textile Partnership</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="42">
       <c r="A42" s="4" t="inlineStr">
         <is>
-          <t>Z08_B06_P01_Ib01_I01</t>
+          <t>Z09_B01_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B42" s="4" t="inlineStr">
         <is>
-          <t>Z08_B06_P01_Ib01</t>
+          <t>Z09_B01_P01_Ib01</t>
         </is>
       </c>
       <c r="C42" s="4" t="inlineStr">
         <is>
-          <t>8.6</t>
+          <t>9.1.a</t>
         </is>
       </c>
       <c r="D42" s="4" t="inlineStr">
         <is>
-          <t>Mitglieder des Textilbündnisses</t>
+          <t>Ausgaben für Forschung und Entwicklung</t>
         </is>
       </c>
       <c r="E42" s="4" t="inlineStr">
         <is>
-          <t>Members of the Textile Partnership</t>
+          <t>Expenditure on research and development</t>
         </is>
       </c>
       <c r="F42" s="4" t="inlineStr">
         <is>
-          <t>Mitglieder des Textilbündnisses</t>
+          <t>Private und öffentliche Ausgaben für Forschung und Entwicklung</t>
         </is>
       </c>
       <c r="G42" s="4" t="inlineStr">
         <is>
-          <t>Members of the Textile Partnership</t>
+          <t>Private and public expenditure on research and development</t>
         </is>
       </c>
       <c r="H42" s="4" t="inlineStr">
         <is>
-          <t>Signifikante Steigerung bis 2030</t>
+          <t>Jährlich mindestens 3,5 % des BIP bis 2025</t>
         </is>
       </c>
       <c r="I42" s="4" t="inlineStr">
         <is>
-          <t>Significantly increase by 2030</t>
+          <t>At least 3.5 % of GDP per year by 2025</t>
         </is>
       </c>
       <c r="J42" s="4" t="inlineStr">
         <is>
-          <t>Steigerung der Anzahl bis 2030</t>
+          <t>jährlich mindestens 3,5 % des BIP bis 2025</t>
         </is>
       </c>
       <c r="K42" s="4" t="inlineStr">
         <is>
-          <t>increase number by 2030</t>
+          <t>at least 3.5 % of GDP per year by 2025</t>
         </is>
       </c>
       <c r="L42" s="4" t="inlineStr">
         <is>
-          <t>Mitglieder des Textilbündnisses</t>
+          <t>Private und öffentliche Ausgaben für Forschung und Entwicklung</t>
         </is>
       </c>
       <c r="M42" s="4" t="inlineStr">
         <is>
-          <t>Members of the Textile Partnership</t>
+          <t>Private and public expenditure on research and development</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="43">
       <c r="A43" s="4" t="inlineStr">
         <is>
-          <t>Z09_B01_P01_Ib01_I01</t>
+          <t>Z09_B01_P01_Ib02_I01</t>
         </is>
       </c>
       <c r="B43" s="4" t="inlineStr">
         <is>
-          <t>Z09_B01_P01_Ib01</t>
+          <t>Z09_B01_P01_Ib02</t>
         </is>
       </c>
       <c r="C43" s="4" t="inlineStr">
         <is>
-          <t>9.1.a</t>
+          <t>9.1.b</t>
         </is>
       </c>
       <c r="D43" s="4" t="inlineStr">
         <is>
-          <t>Ausgaben für Forschung und Entwicklung</t>
+          <t>Breitbandverfügbarkeit</t>
         </is>
       </c>
       <c r="E43" s="4" t="inlineStr">
         <is>
-          <t>Expenditure on research and development</t>
+          <t>Broadband availability</t>
         </is>
       </c>
       <c r="F43" s="4" t="inlineStr">
         <is>
-          <t>Private und öffentliche Ausgaben für Forschung und Entwicklung</t>
+          <t>Breitbandausbau – Anteil der Haushalte mit Zugang zu Gigabit-Breitbandversorgung</t>
         </is>
       </c>
       <c r="G43" s="4" t="inlineStr">
         <is>
-          <t>Private and public expenditure on research and development</t>
+          <t>Roll-out of broadband – Share of households with access to gigabit broadband services</t>
         </is>
       </c>
       <c r="H43" s="4" t="inlineStr">
         <is>
-          <t>Jährlich mindestens 3,5 % des BIP bis 2025</t>
+          <t>Flächendeckender Aufbau von Gigabitnetzen bis 2025</t>
         </is>
       </c>
       <c r="I43" s="4" t="inlineStr">
         <is>
-          <t>At least 3.5 % of GDP per year by 2025</t>
+          <t>Universal gigabit network Roll-out by 2025</t>
         </is>
       </c>
       <c r="J43" s="4" t="inlineStr">
         <is>
-          <t>jährlich mindestens 3,5 % des BIP bis 2025</t>
+          <t>flächendeckender Aufbau bis 2025</t>
         </is>
       </c>
       <c r="K43" s="4" t="inlineStr">
         <is>
-          <t>at least 3.5 % of GDP per year by 2025</t>
+          <t>universal Roll-out by 2025</t>
         </is>
       </c>
       <c r="L43" s="4" t="inlineStr">
         <is>
-          <t>Private und öffentliche Ausgaben für Forschung und Entwicklung</t>
+          <t>Breitbandausbau – Anteil der Haushalte mit Zugang zu Gigabit-Breitbandversorgung</t>
         </is>
       </c>
       <c r="M43" s="4" t="inlineStr">
         <is>
-          <t>Private and public expenditure on research and development</t>
+          <t>Roll-out of broadband – Share of households with access to gigabit broadband services</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="44">
       <c r="A44" s="4" t="inlineStr">
         <is>
-          <t>Z09_B01_P01_Ib02_I01</t>
+          <t>Z10_B01_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B44" s="4" t="inlineStr">
         <is>
-          <t>Z09_B01_P01_Ib02</t>
+          <t>Z10_B01_P01_Ib01</t>
         </is>
       </c>
       <c r="C44" s="4" t="inlineStr">
         <is>
-          <t>9.1.b</t>
+          <t>10.1</t>
         </is>
       </c>
       <c r="D44" s="4" t="inlineStr">
         <is>
-          <t>Breitbandverfügbarkeit</t>
+          <t>Abschlussquote</t>
         </is>
       </c>
       <c r="E44" s="4" t="inlineStr">
         <is>
-          <t>Broadband availability</t>
+          <t>Graduation rate</t>
         </is>
       </c>
       <c r="F44" s="4" t="inlineStr">
         <is>
-          <t>Breitbandausbau – Anteil der Haushalte mit Zugang zu Gigabit-Breitbandversorgung</t>
+          <t>Ausländische Schulabsolventinnen und Schulabsolventen</t>
         </is>
       </c>
       <c r="G44" s="4" t="inlineStr">
         <is>
-          <t>Roll-out of broadband – Share of households with access to gigabit broadband services</t>
+          <t>Foreign school graduates</t>
         </is>
       </c>
       <c r="H44" s="4" t="inlineStr">
         <is>
-          <t>Flächendeckender Aufbau von Gigabitnetzen bis 2025</t>
+          <t>Erhöhung des Anteils der ausländischen Schulabgänger mit mindestens Hauptschulabschluss und Angleichung an die Quote deutscher Schulabgänger bis 2030</t>
         </is>
       </c>
       <c r="I44" s="4" t="inlineStr">
         <is>
-          <t>Universal gigabit network Roll-out by 2025</t>
+          <t>Increase the proportion of foreign school leavers with a least a secondary general school certificate and bring into line with that of German school leavers by 2030</t>
         </is>
       </c>
       <c r="J44" s="4" t="inlineStr">
         <is>
-          <t>flächendeckender Aufbau bis 2025</t>
+          <t>Erhöhung bei ausländischen Schulabsolvierenden und Angleichung an die Quote deutscher -absolvierenden bis 2030</t>
         </is>
       </c>
       <c r="K44" s="4" t="inlineStr">
         <is>
-          <t>universal Roll-out by 2025</t>
+          <t>increase among foreign school leavers and bring it into line with the rate of German school leavers by 2030</t>
         </is>
       </c>
       <c r="L44" s="4" t="inlineStr">
         <is>
-          <t>Breitbandausbau – Anteil der Haushalte mit Zugang zu Gigabit-Breitbandversorgung</t>
+          <t>Ausländische Schulabsolventinnen und Schulabsolventen</t>
         </is>
       </c>
       <c r="M44" s="4" t="inlineStr">
         <is>
-          <t>Roll-out of broadband – Share of households with access to gigabit broadband services</t>
+          <t>Foreign school graduates</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="45">
       <c r="A45" s="4" t="inlineStr">
         <is>
-          <t>Z10_B01_P01_Ib01_I01</t>
+          <t>Z10_B02_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B45" s="4" t="inlineStr">
         <is>
-          <t>Z10_B01_P01_Ib01</t>
+          <t>Z10_B02_P01_Ib01</t>
         </is>
       </c>
       <c r="C45" s="4" t="inlineStr">
         <is>
-          <t>10.1</t>
+          <t>10.2</t>
         </is>
       </c>
       <c r="D45" s="4" t="inlineStr">
         <is>
-          <t>Abschlussquote</t>
+          <t>Gini-Koeffizient Einkommen nach Sozialtransfer</t>
         </is>
       </c>
       <c r="E45" s="4" t="inlineStr">
         <is>
-          <t>Graduation rate</t>
+          <t>Gini coefficient of income after social transfers</t>
         </is>
       </c>
       <c r="F45" s="4" t="inlineStr">
         <is>
-          <t>Ausländische Schulabsolventinnen und Schulabsolventen</t>
+          <t>Gini-Koeffizient des Einkommens nach Sozialtransfers</t>
         </is>
       </c>
       <c r="G45" s="4" t="inlineStr">
         <is>
-          <t>Foreign school graduates</t>
+          <t>Gini coefficient of income after social transfers</t>
         </is>
       </c>
       <c r="H45" s="4" t="inlineStr">
         <is>
-          <t>Erhöhung des Anteils der ausländischen Schulabgänger mit mindestens Hauptschulabschluss und Angleichung an die Quote deutscher Schulabgänger bis 2030</t>
+          <t>Gini-Koeffizient Einkommen nach Sozialtransfer bis 2030 unterhalb des EU-27-Wertes</t>
         </is>
       </c>
       <c r="I45" s="4" t="inlineStr">
         <is>
-          <t>Increase the proportion of foreign school leavers with a least a secondary general school certificate and bring into line with that of German school leavers by 2030</t>
+          <t>Gini coefficient of income after social transfers to be below the EU-27 figure by 2030</t>
         </is>
       </c>
       <c r="J45" s="4" t="inlineStr">
         <is>
-          <t>Erhöhung bei ausländischen Schulabsolvierenden und Angleichung an die Quote deutscher -absolvierenden bis 2030</t>
+          <t>bis 2030 unterhalb des EU-27-Wertes</t>
         </is>
       </c>
       <c r="K45" s="4" t="inlineStr">
         <is>
-          <t>increase among foreign school leavers and bring it into line with the rate of German school leavers by 2030</t>
+          <t>to be below the EU-27 figure by 2030</t>
         </is>
       </c>
       <c r="L45" s="4" t="inlineStr">
         <is>
-          <t>Ausländische Schulabsolventinnen und Schulabsolventen</t>
+          <t>Gini-Koeffizient des Einkommens nach Sozialtransfers</t>
         </is>
       </c>
       <c r="M45" s="4" t="inlineStr">
         <is>
-          <t>Foreign school graduates</t>
+          <t>Gini coefficient of income after social transfers</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="46">
       <c r="A46" s="4" t="inlineStr">
         <is>
-          <t>Z10_B02_P01_Ib01_I01</t>
+          <t>Z11_B01_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B46" s="4" t="inlineStr">
         <is>
-          <t>Z10_B02_P01_Ib01</t>
+          <t>Z11_B01_P01_Ib01</t>
         </is>
       </c>
       <c r="C46" s="4" t="inlineStr">
         <is>
-          <t>10.2</t>
+          <t>11.1.a</t>
         </is>
       </c>
       <c r="D46" s="4" t="inlineStr">
         <is>
-          <t>Gini-Koeffizient Einkommen nach Sozialtransfer</t>
+          <t>Anstieg der Siedlungs- und Verkehrsfläche</t>
         </is>
       </c>
       <c r="E46" s="4" t="inlineStr">
         <is>
-          <t>Gini coefficient of income after social transfers</t>
+          <t>Expansion of settlement and transport area</t>
         </is>
       </c>
       <c r="F46" s="4" t="inlineStr">
         <is>
-          <t>Gini-Koeffizient des Einkommens nach Sozialtransfers</t>
+          <t>Anstieg der Siedlungs- und Verkehrsfläche</t>
         </is>
       </c>
       <c r="G46" s="4" t="inlineStr">
         <is>
-          <t>Gini coefficient of income after social transfers</t>
+          <t>Expansion of settlement and transport area</t>
         </is>
       </c>
       <c r="H46" s="4" t="inlineStr">
         <is>
-          <t>Gini-Koeffizient Einkommen nach Sozialtransfer bis 2030 unterhalb des EU-27-Wertes</t>
+          <t>Senkung auf durchschnittlich unter 30 ha pro Tag bis 2030</t>
         </is>
       </c>
       <c r="I46" s="4" t="inlineStr">
         <is>
-          <t>Gini coefficient of income after social transfers to be below the EU-27 figure by 2030</t>
+          <t>Reduction to under 30 ha on average per day by 2030</t>
         </is>
       </c>
       <c r="J46" s="4" t="inlineStr">
         <is>
-          <t>bis 2030 unterhalb des EU-27-Wertes</t>
+          <t>Senkung auf unter 30 ha pro Tag bis 2030</t>
         </is>
       </c>
       <c r="K46" s="4" t="inlineStr">
         <is>
-          <t>to be below the EU-27 figure by 2030</t>
+          <t>reduction to under 30 ha per day by 2030</t>
         </is>
       </c>
       <c r="L46" s="4" t="inlineStr">
         <is>
-          <t>Gini-Koeffizient des Einkommens nach Sozialtransfers</t>
+          <t>Anstieg der Siedlungs- und Verkehrsfläche</t>
         </is>
       </c>
       <c r="M46" s="4" t="inlineStr">
         <is>
-          <t>Gini coefficient of income after social transfers</t>
+          <t>Expansion of settlement and transport area</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="47">
       <c r="A47" s="4" t="inlineStr">
         <is>
-          <t>Z11_B01_P01_Ib01_I01</t>
+          <t>Z11_B01_P01_Ib02_I01</t>
         </is>
       </c>
       <c r="B47" s="4" t="inlineStr">
         <is>
-          <t>Z11_B01_P01_Ib01</t>
+          <t>Z11_B01_P01_Ib02</t>
         </is>
       </c>
       <c r="C47" s="4" t="inlineStr">
         <is>
-          <t>11.1.a</t>
+          <t>11.1.b</t>
         </is>
       </c>
       <c r="D47" s="4" t="inlineStr">
         <is>
-          <t>Anstieg der Siedlungs- und Verkehrsfläche</t>
+          <t>Freiraumverlust</t>
         </is>
       </c>
       <c r="E47" s="4" t="inlineStr">
         <is>
-          <t>Expansion of settlement and transport area</t>
+          <t>Loss of open space area</t>
         </is>
       </c>
       <c r="F47" s="4" t="inlineStr">
         <is>
-          <t>Anstieg der Siedlungs- und Verkehrsfläche</t>
+          <t>Freiraumverlust</t>
         </is>
       </c>
       <c r="G47" s="4" t="inlineStr">
         <is>
-          <t>Expansion of settlement and transport area</t>
+          <t>Loss of open space area</t>
         </is>
       </c>
       <c r="H47" s="4" t="inlineStr">
         <is>
-          <t>Senkung auf durchschnittlich unter 30 ha pro Tag bis 2030</t>
+          <t>Verringerung des einwohnerbezogenen Freiflächenverlustes</t>
         </is>
       </c>
       <c r="I47" s="4" t="inlineStr">
         <is>
-          <t>Reduction to under 30 ha on average per day by 2030</t>
+          <t>Reduce the loss of per capita open space area</t>
         </is>
       </c>
       <c r="J47" s="4" t="inlineStr">
         <is>
-          <t>Senkung auf unter 30 ha pro Tag bis 2030</t>
+          <t>Verringerung</t>
         </is>
       </c>
       <c r="K47" s="4" t="inlineStr">
         <is>
-          <t>reduction to under 30 ha per day by 2030</t>
+          <t>reduce the loss</t>
         </is>
       </c>
       <c r="L47" s="4" t="inlineStr">
         <is>
-          <t>Anstieg der Siedlungs- und Verkehrsfläche</t>
+          <t>Freiraumverlust</t>
         </is>
       </c>
       <c r="M47" s="4" t="inlineStr">
         <is>
-          <t>Expansion of settlement and transport area</t>
+          <t>Loss of open space area</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="48">
       <c r="A48" s="4" t="inlineStr">
         <is>
-          <t>Z11_B01_P01_Ib02_I01</t>
+          <t>Z11_B01_P01_Ib03_I01</t>
         </is>
       </c>
       <c r="B48" s="4" t="inlineStr">
         <is>
-          <t>Z11_B01_P01_Ib02</t>
+          <t>Z11_B01_P01_Ib03</t>
         </is>
       </c>
       <c r="C48" s="4" t="inlineStr">
         <is>
-          <t>11.1.b</t>
+          <t>11.1.c</t>
         </is>
       </c>
       <c r="D48" s="4" t="inlineStr">
         <is>
-          <t>Freiraumverlust</t>
+          <t>Siedlungsdichte</t>
         </is>
       </c>
       <c r="E48" s="4" t="inlineStr">
         <is>
-          <t>Loss of open space area</t>
+          <t>Density of settlements</t>
         </is>
       </c>
       <c r="F48" s="4" t="inlineStr">
         <is>
-          <t>Freiraumverlust</t>
+          <t>Siedlungsdichte</t>
         </is>
       </c>
       <c r="G48" s="4" t="inlineStr">
         <is>
-          <t>Loss of open space area</t>
+          <t>Density of settlements</t>
         </is>
       </c>
       <c r="H48" s="4" t="inlineStr">
         <is>
-          <t>Verringerung des einwohnerbezogenen Freiflächenverlustes</t>
+          <t>Keine Verringerung der Siedlungsdichte</t>
         </is>
       </c>
       <c r="I48" s="4" t="inlineStr">
         <is>
-          <t>Reduce the loss of per capita open space area</t>
+          <t>No reduction in density of settlements</t>
         </is>
       </c>
       <c r="J48" s="4" t="inlineStr">
         <is>
-          <t>Verringerung</t>
+          <t>keine Verringerung</t>
         </is>
       </c>
       <c r="K48" s="4" t="inlineStr">
         <is>
-          <t>reduce the loss</t>
+          <t>no reduction</t>
         </is>
       </c>
       <c r="L48" s="4" t="inlineStr">
         <is>
-          <t>Freiraumverlust</t>
+          <t>Siedlungsdichte</t>
         </is>
       </c>
       <c r="M48" s="4" t="inlineStr">
         <is>
-          <t>Loss of open space area</t>
+          <t>Density of settlements</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="49">
       <c r="A49" s="4" t="inlineStr">
         <is>
-          <t>Z11_B01_P01_Ib03_I01</t>
+          <t>Z11_B02_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B49" s="4" t="inlineStr">
         <is>
-          <t>Z11_B01_P01_Ib03</t>
+          <t>Z11_B02_P01_Ib01</t>
         </is>
       </c>
       <c r="C49" s="4" t="inlineStr">
         <is>
-          <t>11.1.c</t>
+          <t>11.2.a</t>
         </is>
       </c>
       <c r="D49" s="4" t="inlineStr">
         <is>
-          <t>Siedlungsdichte</t>
+          <t>Endenergieverbrauch im Güterverkehr</t>
         </is>
       </c>
       <c r="E49" s="4" t="inlineStr">
         <is>
-          <t>Density of settlements</t>
+          <t>Energy consumption in goods transport</t>
         </is>
       </c>
       <c r="F49" s="4" t="inlineStr">
         <is>
-          <t>Siedlungsdichte</t>
+          <t>Endenergieverbrauch im Güterverkehr</t>
         </is>
       </c>
       <c r="G49" s="4" t="inlineStr">
         <is>
-          <t>Density of settlements</t>
+          <t>Final energy consumption in goods transport</t>
         </is>
       </c>
       <c r="H49" s="4" t="inlineStr">
         <is>
-          <t>Keine Verringerung der Siedlungsdichte</t>
+          <t>Senkung um 15 bis 20 % bis 2030</t>
         </is>
       </c>
       <c r="I49" s="4" t="inlineStr">
         <is>
-          <t>No reduction in density of settlements</t>
+          <t>Reduction by 15–20 % by 2030</t>
         </is>
       </c>
       <c r="J49" s="4" t="inlineStr">
         <is>
-          <t>keine Verringerung</t>
+          <t>Senkung um 15 bis 20 % bis 2030</t>
         </is>
       </c>
       <c r="K49" s="4" t="inlineStr">
         <is>
-          <t>no reduction</t>
+          <t>reduction by 15-20 % by 2030</t>
         </is>
       </c>
       <c r="L49" s="4" t="inlineStr">
         <is>
-          <t>Siedlungsdichte</t>
+          <t>Endenergieverbrauch im Güterverkehr</t>
         </is>
       </c>
       <c r="M49" s="4" t="inlineStr">
         <is>
-          <t>Density of settlements</t>
+          <t>Final energy consumption in goods transport</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="50">
       <c r="A50" s="4" t="inlineStr">
         <is>
-          <t>Z11_B02_P01_Ib01_I01</t>
+          <t>Z11_B02_P01_Ib02_I01</t>
         </is>
       </c>
       <c r="B50" s="4" t="inlineStr">
         <is>
-          <t>Z11_B02_P01_Ib01</t>
+          <t>Z11_B02_P01_Ib02</t>
         </is>
       </c>
       <c r="C50" s="4" t="inlineStr">
         <is>
-          <t>11.2.a</t>
+          <t>11.2.b</t>
         </is>
       </c>
       <c r="D50" s="4" t="inlineStr">
         <is>
-          <t>Endenergieverbrauch im Güterverkehr</t>
+          <t>Endenergieverbrauch im Personenverkehr</t>
         </is>
       </c>
       <c r="E50" s="4" t="inlineStr">
         <is>
-          <t>Energy consumption in goods transport</t>
+          <t>Energy consumption in passenger transport</t>
         </is>
       </c>
       <c r="F50" s="4" t="inlineStr">
         <is>
-          <t>Endenergieverbrauch im Güterverkehr</t>
+          <t>Endenergieverbrauch im Personenverkehr</t>
         </is>
       </c>
       <c r="G50" s="4" t="inlineStr">
         <is>
-          <t>Final energy consumption in goods transport</t>
+          <t>Final energy consumption in passenger transport</t>
         </is>
       </c>
       <c r="H50" s="4" t="inlineStr">
@@ -3799,354 +3799,354 @@
       </c>
       <c r="L50" s="4" t="inlineStr">
         <is>
-          <t>Endenergieverbrauch im Güterverkehr</t>
+          <t>Endenergieverbrauch im Personenverkehr</t>
         </is>
       </c>
       <c r="M50" s="4" t="inlineStr">
         <is>
-          <t>Final energy consumption in goods transport</t>
+          <t>Final energy consumption in passenger transport</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="51">
       <c r="A51" s="4" t="inlineStr">
         <is>
-          <t>Z11_B02_P01_Ib02_I01</t>
+          <t>Z11_B02_P01_Ib03_I01</t>
         </is>
       </c>
       <c r="B51" s="4" t="inlineStr">
         <is>
-          <t>Z11_B02_P01_Ib02</t>
+          <t>Z11_B02_P01_Ib03</t>
         </is>
       </c>
       <c r="C51" s="4" t="inlineStr">
         <is>
-          <t>11.2.b</t>
+          <t>11.2.c</t>
         </is>
       </c>
       <c r="D51" s="4" t="inlineStr">
         <is>
-          <t>Endenergieverbrauch im Personenverkehr</t>
+          <t>Reisezeit mit öffentlichen Verkehrsmitteln</t>
         </is>
       </c>
       <c r="E51" s="4" t="inlineStr">
         <is>
-          <t>Energy consumption in passenger transport</t>
+          <t>Average travel time by public transport</t>
         </is>
       </c>
       <c r="F51" s="4" t="inlineStr">
         <is>
-          <t>Endenergieverbrauch im Personenverkehr</t>
+          <t>Erreichbarkeit von Mittel- und Oberzentren mit öffentlichen Verkehrsmitteln</t>
         </is>
       </c>
       <c r="G51" s="4" t="inlineStr">
         <is>
-          <t>Final energy consumption in passenger transport</t>
+          <t>Accessibility of medium-sized and large cities by public transport</t>
         </is>
       </c>
       <c r="H51" s="4" t="inlineStr">
         <is>
-          <t>Senkung um 15 bis 20 % bis 2030</t>
+          <t>Verringerung der durchschnittlichen Reisezeit mit öffentlichen Verkehrsmitteln</t>
         </is>
       </c>
       <c r="I51" s="4" t="inlineStr">
         <is>
-          <t>Reduction by 15–20 % by 2030</t>
+          <t>Reduction of average travel time by public transport</t>
         </is>
       </c>
       <c r="J51" s="4" t="inlineStr">
         <is>
-          <t>Senkung um 15 bis 20 % bis 2030</t>
+          <t>Verringerung</t>
         </is>
       </c>
       <c r="K51" s="4" t="inlineStr">
         <is>
-          <t>reduction by 15-20 % by 2030</t>
+          <t>reduction</t>
         </is>
       </c>
       <c r="L51" s="4" t="inlineStr">
         <is>
-          <t>Endenergieverbrauch im Personenverkehr</t>
+          <t>Erreichbarkeit von Mittel- und Oberzentren mit öffentlichen Verkehrsmitteln</t>
         </is>
       </c>
       <c r="M51" s="4" t="inlineStr">
         <is>
-          <t>Final energy consumption in passenger transport</t>
+          <t>Accessibility of medium-sized and large cities by public transport</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="52">
       <c r="A52" s="4" t="inlineStr">
         <is>
-          <t>Z11_B02_P01_Ib03_I01</t>
+          <t>Z11_B03_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B52" s="4" t="inlineStr">
         <is>
-          <t>Z11_B02_P01_Ib03</t>
+          <t>Z11_B03_P01_Ib01</t>
         </is>
       </c>
       <c r="C52" s="4" t="inlineStr">
         <is>
-          <t>11.2.c</t>
+          <t>11.3</t>
         </is>
       </c>
       <c r="D52" s="4" t="inlineStr">
         <is>
-          <t>Reisezeit mit öffentlichen Verkehrsmitteln</t>
+          <t>Durch Wohnkosten überlastete Personen</t>
         </is>
       </c>
       <c r="E52" s="4" t="inlineStr">
         <is>
-          <t>Average travel time by public transport</t>
+          <t>Persons overburdened by housing costs</t>
         </is>
       </c>
       <c r="F52" s="4" t="inlineStr">
         <is>
-          <t>Erreichbarkeit von Mittel- und Oberzentren mit öffentlichen Verkehrsmitteln</t>
+          <t>Überlastung durch Wohnkosten</t>
         </is>
       </c>
       <c r="G52" s="4" t="inlineStr">
         <is>
-          <t>Accessibility of medium-sized and large cities by public transport</t>
+          <t>Housing cost overload</t>
         </is>
       </c>
       <c r="H52" s="4" t="inlineStr">
         <is>
-          <t>Verringerung der durchschnittlichen Reisezeit mit öffentlichen Verkehrsmitteln</t>
+          <t>Senkung des Anteils der überlasteten Personen an der Bevölkerung auf 13 % bis 2030</t>
         </is>
       </c>
       <c r="I52" s="4" t="inlineStr">
         <is>
-          <t>Reduction of average travel time by public transport</t>
+          <t>Reduce the proportion of people who are overburdened to 13 % by 2030</t>
         </is>
       </c>
       <c r="J52" s="4" t="inlineStr">
         <is>
-          <t>Verringerung</t>
+          <t>Senkung auf 13 % bis 2030</t>
         </is>
       </c>
       <c r="K52" s="4" t="inlineStr">
         <is>
-          <t>reduction</t>
+          <t>reduce to 13 % by 2030</t>
         </is>
       </c>
       <c r="L52" s="4" t="inlineStr">
         <is>
-          <t>Erreichbarkeit von Mittel- und Oberzentren mit öffentlichen Verkehrsmitteln</t>
+          <t>Überlastung durch Wohnkosten</t>
         </is>
       </c>
       <c r="M52" s="4" t="inlineStr">
         <is>
-          <t>Accessibility of medium-sized and large cities by public transport</t>
+          <t>Housing cost overload</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="53">
       <c r="A53" s="4" t="inlineStr">
         <is>
-          <t>Z11_B03_P01_Ib01_I01</t>
+          <t>Z11_B04_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B53" s="4" t="inlineStr">
         <is>
-          <t>Z11_B03_P01_Ib01</t>
+          <t>Z11_B04_P01_Ib01</t>
         </is>
       </c>
       <c r="C53" s="4" t="inlineStr">
         <is>
-          <t>11.3</t>
+          <t>11.4</t>
         </is>
       </c>
       <c r="D53" s="4" t="inlineStr">
         <is>
-          <t>Durch Wohnkosten überlastete Personen</t>
+          <t>Objekte in der Deutschen Digitalen Bibliothek</t>
         </is>
       </c>
       <c r="E53" s="4" t="inlineStr">
         <is>
-          <t>Persons overburdened by housing costs</t>
+          <t>Objects in the German Digital Library</t>
         </is>
       </c>
       <c r="F53" s="4" t="inlineStr">
         <is>
-          <t>Überlastung durch Wohnkosten</t>
+          <t>Zahl der Objekte in der Deutschen Digitalen Bibliothek</t>
         </is>
       </c>
       <c r="G53" s="4" t="inlineStr">
         <is>
-          <t>Housing cost overload</t>
+          <t>Number of objects in the German Digital Library</t>
         </is>
       </c>
       <c r="H53" s="4" t="inlineStr">
         <is>
-          <t>Senkung des Anteils der überlasteten Personen an der Bevölkerung auf 13 % bis 2030</t>
+          <t>Steigerung der Zahl der in der Deutschen Digitalen Bibliothek vernetzten Objekte auf 50 Millionen bis 2030</t>
         </is>
       </c>
       <c r="I53" s="4" t="inlineStr">
         <is>
-          <t>Reduce the proportion of people who are overburdened to 13 % by 2030</t>
+          <t>Increase in the number of objects in the network of the German Digital Library to 50 million by 2030</t>
         </is>
       </c>
       <c r="J53" s="4" t="inlineStr">
         <is>
-          <t>Senkung auf 13 % bis 2030</t>
+          <t>Steigerung auf 50 Millionen bis 2030</t>
         </is>
       </c>
       <c r="K53" s="4" t="inlineStr">
         <is>
-          <t>reduce to 13 % by 2030</t>
+          <t>increase to 50 million by 2030</t>
         </is>
       </c>
       <c r="L53" s="4" t="inlineStr">
         <is>
-          <t>Überlastung durch Wohnkosten</t>
+          <t>Zahl der Objekte in der Deutschen Digitalen Bibliothek</t>
         </is>
       </c>
       <c r="M53" s="4" t="inlineStr">
         <is>
-          <t>Housing cost overload</t>
+          <t>Number of objects in the German Digital Library</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="54">
       <c r="A54" s="4" t="inlineStr">
         <is>
-          <t>Z11_B04_P01_Ib01_I01</t>
+          <t>Z12_B01_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B54" s="4" t="inlineStr">
         <is>
-          <t>Z11_B04_P01_Ib01</t>
+          <t>Z12_B01_P01_Ib01</t>
         </is>
       </c>
       <c r="C54" s="4" t="inlineStr">
         <is>
-          <t>11.4</t>
+          <t>12.1.a</t>
         </is>
       </c>
       <c r="D54" s="4" t="inlineStr">
         <is>
-          <t>Objekte in der Deutschen Digitalen Bibliothek</t>
+          <t>Produkte mit Umweltzeichen</t>
         </is>
       </c>
       <c r="E54" s="4" t="inlineStr">
         <is>
-          <t>Objects in the German Digital Library</t>
+          <t>Products certified by eco-labelling schemes</t>
         </is>
       </c>
       <c r="F54" s="4" t="inlineStr">
         <is>
-          <t>Zahl der Objekte in der Deutschen Digitalen Bibliothek</t>
+          <t>Marktanteil von Produkten mit staatlichen Umweltzeichen</t>
         </is>
       </c>
       <c r="G54" s="4" t="inlineStr">
         <is>
-          <t>Number of objects in the German Digital Library</t>
+          <t>Market share of products certified by publicly managed eco-labelling schemes</t>
         </is>
       </c>
       <c r="H54" s="4" t="inlineStr">
         <is>
-          <t>Steigerung der Zahl der in der Deutschen Digitalen Bibliothek vernetzten Objekte auf 50 Millionen bis 2030</t>
+          <t>Steigerung des Marktanteils auf 34 % bis 2030</t>
         </is>
       </c>
       <c r="I54" s="4" t="inlineStr">
         <is>
-          <t>Increase in the number of objects in the network of the German Digital Library to 50 million by 2030</t>
+          <t>Increase the market share to 34 % by 2030</t>
         </is>
       </c>
       <c r="J54" s="4" t="inlineStr">
         <is>
-          <t>Steigerung auf 50 Millionen bis 2030</t>
+          <t>Steigerung des Marktanteils auf 34 % bis 2030</t>
         </is>
       </c>
       <c r="K54" s="4" t="inlineStr">
         <is>
-          <t>increase to 50 million by 2030</t>
+          <t>increase the market share to 34 % by 2030</t>
         </is>
       </c>
       <c r="L54" s="4" t="inlineStr">
         <is>
-          <t>Zahl der Objekte in der Deutschen Digitalen Bibliothek</t>
+          <t>Marktanteil von Produkten mit staatlichen Umweltzeichen</t>
         </is>
       </c>
       <c r="M54" s="4" t="inlineStr">
         <is>
-          <t>Number of objects in the German Digital Library</t>
+          <t>Market share of products certified by publicly managed eco-labelling schemes</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="55">
       <c r="A55" s="4" t="inlineStr">
         <is>
-          <t>Z12_B01_P01_Ib01_I01</t>
+          <t>Z12_B01_P01_Ib02_I01</t>
         </is>
       </c>
       <c r="B55" s="4" t="inlineStr">
         <is>
-          <t>Z12_B01_P01_Ib01</t>
+          <t>Z12_B01_P01_Ib02</t>
         </is>
       </c>
       <c r="C55" s="4" t="inlineStr">
         <is>
-          <t>12.1.a</t>
+          <t>12.1.ba</t>
         </is>
       </c>
       <c r="D55" s="4" t="inlineStr">
         <is>
-          <t>Produkte mit Umweltzeichen</t>
+          <t>ba) Rohstoffeinsatz</t>
         </is>
       </c>
       <c r="E55" s="4" t="inlineStr">
         <is>
-          <t>Products certified by eco-labelling schemes</t>
+          <t>ba) Use of raw materials</t>
         </is>
       </c>
       <c r="F55" s="4" t="inlineStr">
         <is>
-          <t>Marktanteil von Produkten mit staatlichen Umweltzeichen</t>
+          <t>Globale Umweltinanspruchnahme durch den Konsum privater Haushalte - Rohstoffeinsatz</t>
         </is>
       </c>
       <c r="G55" s="4" t="inlineStr">
         <is>
-          <t>Market share of products certified by publicly managed eco-labelling schemes</t>
+          <t>Global environmental impact by private household consumption – use of raw materials</t>
         </is>
       </c>
       <c r="H55" s="4" t="inlineStr">
         <is>
-          <t>Steigerung des Marktanteils auf 34 % bis 2030</t>
+          <t>Kontinuierliche Reduzierung </t>
         </is>
       </c>
       <c r="I55" s="4" t="inlineStr">
         <is>
-          <t>Increase the market share to 34 % by 2030</t>
+          <t>Steady reduction</t>
         </is>
       </c>
       <c r="J55" s="4" t="inlineStr">
         <is>
-          <t>Steigerung des Marktanteils auf 34 % bis 2030</t>
+          <t>kontinuierliche Reduzierung</t>
         </is>
       </c>
       <c r="K55" s="4" t="inlineStr">
         <is>
-          <t>increase the market share to 34 % by 2030</t>
+          <t>steady reduction</t>
         </is>
       </c>
       <c r="L55" s="4" t="inlineStr">
         <is>
-          <t>Marktanteil von Produkten mit staatlichen Umweltzeichen</t>
+          <t>Direkter und indirekter Rohstoffeinsatz</t>
         </is>
       </c>
       <c r="M55" s="4" t="inlineStr">
         <is>
-          <t>Market share of products certified by publicly managed eco-labelling schemes</t>
+          <t>Direct and indirect use of raw materials</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="56">
       <c r="A56" s="4" t="inlineStr">
         <is>
-          <t>Z12_B01_P01_Ib02_I01</t>
+          <t>Z12_B01_P01_Ib02_I02</t>
         </is>
       </c>
       <c r="B56" s="4" t="inlineStr">
@@ -4156,27 +4156,27 @@
       </c>
       <c r="C56" s="4" t="inlineStr">
         <is>
-          <t>12.1.ba</t>
+          <t>12.1.bb</t>
         </is>
       </c>
       <c r="D56" s="4" t="inlineStr">
         <is>
-          <t>ba) Rohstoffeinsatz</t>
+          <t>bb) Energieverbrauch</t>
         </is>
       </c>
       <c r="E56" s="4" t="inlineStr">
         <is>
-          <t>ba) Use of raw materials</t>
+          <t>bb) Energy consumption</t>
         </is>
       </c>
       <c r="F56" s="4" t="inlineStr">
         <is>
-          <t>Globale Umweltinanspruchnahme durch den Konsum privater Haushalte - Rohstoffeinsatz</t>
+          <t>Globale Umweltinanspruchnahme durch den Konsum privater Haushalte - Energieverbrauch</t>
         </is>
       </c>
       <c r="G56" s="4" t="inlineStr">
         <is>
-          <t>Global environmental impact by private household consumption – use of raw materials</t>
+          <t>Global environmental impact by private household consumption – energy consumption</t>
         </is>
       </c>
       <c r="H56" s="4" t="inlineStr">
@@ -4201,19 +4201,19 @@
       </c>
       <c r="L56" s="4" t="inlineStr">
         <is>
-          <t>Direkter und indirekter Rohstoffeinsatz</t>
+          <t>Direkter und indirekter Energieverbrauch</t>
         </is>
       </c>
       <c r="M56" s="4" t="inlineStr">
         <is>
-          <t>Direct and indirect use of raw materials</t>
+          <t>Direct and indirect energy consumption</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="57">
       <c r="A57" s="4" t="inlineStr">
         <is>
-          <t>Z12_B01_P01_Ib02_I02</t>
+          <t>Z12_B01_P01_Ib02_I03</t>
         </is>
       </c>
       <c r="B57" s="4" t="inlineStr">
@@ -4223,27 +4223,27 @@
       </c>
       <c r="C57" s="4" t="inlineStr">
         <is>
-          <t>12.1.bb</t>
+          <t>12.1.bc</t>
         </is>
       </c>
       <c r="D57" s="4" t="inlineStr">
         <is>
-          <t>bb) Energieverbrauch</t>
+          <t>bc) CO2-Emissionen</t>
         </is>
       </c>
       <c r="E57" s="4" t="inlineStr">
         <is>
-          <t>bb) Energy consumption</t>
+          <t>bc) CO2 emissions</t>
         </is>
       </c>
       <c r="F57" s="4" t="inlineStr">
         <is>
-          <t>Globale Umweltinanspruchnahme durch den Konsum privater Haushalte - Energieverbrauch</t>
+          <t>Globale Umweltinanspruchnahme durch den Konsum privater Haushalte - CO2-Emissionen</t>
         </is>
       </c>
       <c r="G57" s="4" t="inlineStr">
         <is>
-          <t>Global environmental impact by private household consumption – energy consumption</t>
+          <t>Global environmental impact by private household consumption – CO2 emissions</t>
         </is>
       </c>
       <c r="H57" s="4" t="inlineStr">
@@ -4268,153 +4268,153 @@
       </c>
       <c r="L57" s="4" t="inlineStr">
         <is>
-          <t>Direkter und indirekter Energieverbrauch</t>
+          <t>Direkte und indirekte CO2-Emissionen</t>
         </is>
       </c>
       <c r="M57" s="4" t="inlineStr">
         <is>
-          <t>Direct and indirect energy consumption</t>
+          <t>Direct and indirect CO2 emissions</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="58">
       <c r="A58" s="4" t="inlineStr">
         <is>
-          <t>Z12_B01_P01_Ib02_I03</t>
+          <t>Z12_B02_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B58" s="4" t="inlineStr">
         <is>
-          <t>Z12_B01_P01_Ib02</t>
+          <t>Z12_B02_P01_Ib01</t>
         </is>
       </c>
       <c r="C58" s="4" t="inlineStr">
         <is>
-          <t>12.1.bc</t>
+          <t>12.2</t>
         </is>
       </c>
       <c r="D58" s="4" t="inlineStr">
         <is>
-          <t>bc) CO2-Emissionen</t>
+          <t>Umweltmanagement EMAS</t>
         </is>
       </c>
       <c r="E58" s="4" t="inlineStr">
         <is>
-          <t>bc) CO2 emissions</t>
+          <t>EMAS eco-management</t>
         </is>
       </c>
       <c r="F58" s="4" t="inlineStr">
         <is>
-          <t>Globale Umweltinanspruchnahme durch den Konsum privater Haushalte - CO2-Emissionen</t>
+          <t>Umweltmanagement EMAS</t>
         </is>
       </c>
       <c r="G58" s="4" t="inlineStr">
         <is>
-          <t>Global environmental impact by private household consumption – CO2 emissions</t>
+          <t>EMAS eco-management</t>
         </is>
       </c>
       <c r="H58" s="4" t="inlineStr">
         <is>
-          <t>Kontinuierliche Reduzierung </t>
+          <t>5 000 Organisationsstandorte bis 2030</t>
         </is>
       </c>
       <c r="I58" s="4" t="inlineStr">
         <is>
-          <t>Steady reduction</t>
+          <t>5,000 locations of organisation by 2030</t>
         </is>
       </c>
       <c r="J58" s="4" t="inlineStr">
         <is>
-          <t>kontinuierliche Reduzierung</t>
+          <t>5 000 Organisationsstandorte bis 2030</t>
         </is>
       </c>
       <c r="K58" s="4" t="inlineStr">
         <is>
-          <t>steady reduction</t>
+          <t>5,000 locations of organisation by 2030</t>
         </is>
       </c>
       <c r="L58" s="4" t="inlineStr">
         <is>
-          <t>Direkte und indirekte CO2-Emissionen</t>
+          <t>Umweltmanagement EMAS</t>
         </is>
       </c>
       <c r="M58" s="4" t="inlineStr">
         <is>
-          <t>Direct and indirect CO2 emissions</t>
+          <t>EMAS eco-management</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="59">
       <c r="A59" s="4" t="inlineStr">
         <is>
-          <t>Z12_B02_P01_Ib01_I01</t>
+          <t>Z12_B03_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B59" s="4" t="inlineStr">
         <is>
-          <t>Z12_B02_P01_Ib01</t>
+          <t>Z12_B03_P01_Ib01</t>
         </is>
       </c>
       <c r="C59" s="4" t="inlineStr">
         <is>
-          <t>12.2</t>
+          <t>12.3.a</t>
         </is>
       </c>
       <c r="D59" s="4" t="inlineStr">
         <is>
-          <t>Umweltmanagement EMAS</t>
+          <t>a) Anteil Papier mit Blauem Engel der Bundesverwaltung</t>
         </is>
       </c>
       <c r="E59" s="4" t="inlineStr">
         <is>
-          <t>EMAS eco-management</t>
+          <t>a) Share of paper bearing the Blue Angel label of the federal administration</t>
         </is>
       </c>
       <c r="F59" s="4" t="inlineStr">
         <is>
-          <t>Umweltmanagement EMAS</t>
+          <t>Anteil des Papiers mit Blauem Engel am Gesamtpapierverbrauch der unmittelbaren Bundesverwaltung</t>
         </is>
       </c>
       <c r="G59" s="4" t="inlineStr">
         <is>
-          <t>EMAS eco-management</t>
+          <t>Paper bearing the Blue Angel label as a proportion of the total paper consumption of the direct federal administration</t>
         </is>
       </c>
       <c r="H59" s="4" t="inlineStr">
         <is>
-          <t>5 000 Organisationsstandorte bis 2030</t>
+          <t>Steigerung des Anteils auf 95 % bis 2020</t>
         </is>
       </c>
       <c r="I59" s="4" t="inlineStr">
         <is>
-          <t>5,000 locations of organisation by 2030</t>
+          <t>Increase the proportion to 95 % by 2020</t>
         </is>
       </c>
       <c r="J59" s="4" t="inlineStr">
         <is>
-          <t>5 000 Organisationsstandorte bis 2030</t>
+          <t>Steigerung auf 95 % bis 2020</t>
         </is>
       </c>
       <c r="K59" s="4" t="inlineStr">
         <is>
-          <t>5,000 locations of organisation by 2030</t>
+          <t>increase to 95 % by 2020</t>
         </is>
       </c>
       <c r="L59" s="4" t="inlineStr">
         <is>
-          <t>Umweltmanagement EMAS</t>
+          <t>Anteil des Papiers mit Blauem Engel am Gesamtpapierverbrauch der unmittelbaren Bundesverwaltung</t>
         </is>
       </c>
       <c r="M59" s="4" t="inlineStr">
         <is>
-          <t>EMAS eco-management</t>
+          <t>Paper bearing the Blue Angel label as a proportion of the total paper consumption of the direct federal administration</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="60">
       <c r="A60" s="4" t="inlineStr">
         <is>
-          <t>Z12_B03_P01_Ib01_I01</t>
+          <t>Z12_B03_P01_Ib01_I02</t>
         </is>
       </c>
       <c r="B60" s="4" t="inlineStr">
@@ -4424,265 +4424,265 @@
       </c>
       <c r="C60" s="4" t="inlineStr">
         <is>
-          <t>12.3.a</t>
+          <t>12.3.b</t>
         </is>
       </c>
       <c r="D60" s="4" t="inlineStr">
         <is>
-          <t>a) Anteil Papier mit Blauem Engel der Bundesverwaltung</t>
+          <t>b) CO2-Emissionen der Kfz der öffentlichen Hand</t>
         </is>
       </c>
       <c r="E60" s="4" t="inlineStr">
         <is>
-          <t>a) Share of paper bearing the Blue Angel label of the federal administration</t>
+          <t>b) CO2 emissions of vehicles in the public sector</t>
         </is>
       </c>
       <c r="F60" s="4" t="inlineStr">
         <is>
-          <t>Anteil des Papiers mit Blauem Engel am Gesamtpapierverbrauch der unmittelbaren Bundesverwaltung</t>
+          <t>CO2-Emissionen je Fahrleistungen der Kraftfahrzeuge der öffentlichen Hand</t>
         </is>
       </c>
       <c r="G60" s="4" t="inlineStr">
         <is>
-          <t>Paper bearing the Blue Angel label as a proportion of the total paper consumption of the direct federal administration</t>
+          <t>CO2 emissions of commercially available vehicles in the public sector</t>
         </is>
       </c>
       <c r="H60" s="4" t="inlineStr">
         <is>
-          <t>Steigerung des Anteils auf 95 % bis 2020</t>
+          <t>Signifikante Senkung</t>
         </is>
       </c>
       <c r="I60" s="4" t="inlineStr">
         <is>
-          <t>Increase the proportion to 95 % by 2020</t>
+          <t>Significantly reduce</t>
         </is>
       </c>
       <c r="J60" s="4" t="inlineStr">
         <is>
-          <t>Steigerung auf 95 % bis 2020</t>
+          <t>signifikante Senkung</t>
         </is>
       </c>
       <c r="K60" s="4" t="inlineStr">
         <is>
-          <t>increase to 95 % by 2020</t>
+          <t>significantly reduce</t>
         </is>
       </c>
       <c r="L60" s="4" t="inlineStr">
         <is>
-          <t>Anteil des Papiers mit Blauem Engel am Gesamtpapierverbrauch der unmittelbaren Bundesverwaltung</t>
+          <t>CO2-Emissionen je Fahrleistungen der Kraftfahrzeuge der öffentlichen Hand</t>
         </is>
       </c>
       <c r="M60" s="4" t="inlineStr">
         <is>
-          <t>Paper bearing the Blue Angel label as a proportion of the total paper consumption of the direct federal administration</t>
+          <t>CO2 emissions of commercially available vehicles in the public sector</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="61">
       <c r="A61" s="4" t="inlineStr">
         <is>
-          <t>Z12_B03_P01_Ib01_I02</t>
+          <t>Z13_B01_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B61" s="4" t="inlineStr">
         <is>
-          <t>Z12_B03_P01_Ib01</t>
+          <t>Z13_B01_P01_Ib01</t>
         </is>
       </c>
       <c r="C61" s="4" t="inlineStr">
         <is>
-          <t>12.3.b</t>
+          <t>13.1.a</t>
         </is>
       </c>
       <c r="D61" s="4" t="inlineStr">
         <is>
-          <t>b) CO2-Emissionen der Kfz der öffentlichen Hand</t>
+          <t>Treibhausgasemissionen</t>
         </is>
       </c>
       <c r="E61" s="4" t="inlineStr">
         <is>
-          <t>b) CO2 emissions of vehicles in the public sector</t>
+          <t>Greenhouse gas emissions</t>
         </is>
       </c>
       <c r="F61" s="4" t="inlineStr">
         <is>
-          <t>CO2-Emissionen je Fahrleistungen der Kraftfahrzeuge der öffentlichen Hand</t>
+          <t>Treibhausgasemissionen</t>
         </is>
       </c>
       <c r="G61" s="4" t="inlineStr">
         <is>
-          <t>CO2 emissions of commercially available vehicles in the public sector</t>
+          <t>Greenhouse gas emissions</t>
         </is>
       </c>
       <c r="H61" s="4" t="inlineStr">
         <is>
-          <t>Signifikante Senkung</t>
+          <t>Minderung um mindestens 65 % bis 2030, um mindestens 88 % bis 2040; Erreichung der Treibhausgasneutralität bis 2045</t>
         </is>
       </c>
       <c r="I61" s="4" t="inlineStr">
         <is>
-          <t>Significantly reduce</t>
+          <t>Reduce by at least 65 % by 2030 and by at least 88 % by 2040; greenhouse gas neutrality to be achieved by 2045</t>
         </is>
       </c>
       <c r="J61" s="4" t="inlineStr">
         <is>
-          <t>signifikante Senkung</t>
+          <t>Minderung um 65 % bis 2030</t>
         </is>
       </c>
       <c r="K61" s="4" t="inlineStr">
         <is>
-          <t>significantly reduce</t>
+          <t>reduce by 65 % by 2030</t>
         </is>
       </c>
       <c r="L61" s="4" t="inlineStr">
         <is>
-          <t>CO2-Emissionen je Fahrleistungen der Kraftfahrzeuge der öffentlichen Hand</t>
+          <t>Treibhausgasemissionen</t>
         </is>
       </c>
       <c r="M61" s="4" t="inlineStr">
         <is>
-          <t>CO2 emissions of commercially available vehicles in the public sector</t>
+          <t>Greenhouse gas emissions</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="62">
       <c r="A62" s="4" t="inlineStr">
         <is>
-          <t>Z13_B01_P01_Ib01_I01</t>
+          <t>Z13_B01_P02_Ib01_I01</t>
         </is>
       </c>
       <c r="B62" s="4" t="inlineStr">
         <is>
-          <t>Z13_B01_P01_Ib01</t>
+          <t>Z13_B01_P02_Ib01</t>
         </is>
       </c>
       <c r="C62" s="4" t="inlineStr">
         <is>
-          <t>13.1.a</t>
+          <t>13.1.b</t>
         </is>
       </c>
       <c r="D62" s="4" t="inlineStr">
         <is>
-          <t>Treibhausgasemissionen</t>
+          <t>Zahlungen zur Klimafinanzierung</t>
         </is>
       </c>
       <c r="E62" s="4" t="inlineStr">
         <is>
-          <t>Greenhouse gas emissions</t>
+          <t>Climate finance payments</t>
         </is>
       </c>
       <c r="F62" s="4" t="inlineStr">
         <is>
-          <t>Treibhausgasemissionen</t>
+          <t>Internationale Klimafinanzierung zur Reduktion von Treibhausgasen und zur Anpassung an den Klimawandel</t>
         </is>
       </c>
       <c r="G62" s="4" t="inlineStr">
         <is>
-          <t>Greenhouse gas emissions</t>
+          <t>International climate finance for the reduction of greenhouse gases and adaptation to climate change</t>
         </is>
       </c>
       <c r="H62" s="4" t="inlineStr">
         <is>
-          <t>Minderung um mindestens 65 % bis 2030, um mindestens 88 % bis 2040; Erreichung der Treibhausgasneutralität bis 2045</t>
+          <t>Erhöhung der internationalen Klimafinanzierung auf mindestens 6 Mrd. Euro bis spätestens 2025.</t>
         </is>
       </c>
       <c r="I62" s="4" t="inlineStr">
         <is>
-          <t>Reduce by at least 65 % by 2030 and by at least 88 % by 2040; greenhouse gas neutrality to be achieved by 2045</t>
+          <t>Increase international climate finance to at least 6 billion euros by 2025 at the latest</t>
         </is>
       </c>
       <c r="J62" s="4" t="inlineStr">
         <is>
-          <t>Minderung um 65 % bis 2030</t>
+          <t>Erhöhung auf 6 Mrd. Euro bis 2025</t>
         </is>
       </c>
       <c r="K62" s="4" t="inlineStr">
         <is>
-          <t>reduce by 65 % by 2030</t>
+          <t>increase to 6 bn euro by 2025</t>
         </is>
       </c>
       <c r="L62" s="4" t="inlineStr">
         <is>
-          <t>Treibhausgasemissionen</t>
+          <t>Internationale Klimafinanzierung zur Reduktion von Treibhausgasen und zur Anpassung an den Klimawandel</t>
         </is>
       </c>
       <c r="M62" s="4" t="inlineStr">
         <is>
-          <t>Greenhouse gas emissions</t>
+          <t>International climate finance for the reduction of greenhouse gases and adaptation to climate change</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="63">
       <c r="A63" s="4" t="inlineStr">
         <is>
-          <t>Z13_B01_P02_Ib01_I01</t>
+          <t>Z14_B01_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B63" s="4" t="inlineStr">
         <is>
-          <t>Z13_B01_P02_Ib01</t>
+          <t>Z14_B01_P01_Ib01</t>
         </is>
       </c>
       <c r="C63" s="4" t="inlineStr">
         <is>
-          <t>13.1.b</t>
+          <t>14.1.aa</t>
         </is>
       </c>
       <c r="D63" s="4" t="inlineStr">
         <is>
-          <t>Zahlungen zur Klimafinanzierung</t>
+          <t>aa) Ostsee</t>
         </is>
       </c>
       <c r="E63" s="4" t="inlineStr">
         <is>
-          <t>Climate finance payments</t>
+          <t>aa) Baltic Sea</t>
         </is>
       </c>
       <c r="F63" s="4" t="inlineStr">
         <is>
-          <t>Internationale Klimafinanzierung zur Reduktion von Treibhausgasen und zur Anpassung an den Klimawandel</t>
+          <t>Stickstoffeintrag über die Zuflüsse in die Ostsee</t>
         </is>
       </c>
       <c r="G63" s="4" t="inlineStr">
         <is>
-          <t>International climate finance for the reduction of greenhouse gases and adaptation to climate change</t>
+          <t>Nitrogen input via the inflows into the Baltic Sea</t>
         </is>
       </c>
       <c r="H63" s="4" t="inlineStr">
         <is>
-          <t>Erhöhung der internationalen Klimafinanzierung auf mindestens 6 Mrd. Euro bis spätestens 2025.</t>
+          <t>Einhaltung des guten Zustands nach Oberflächengewässerverordnung (Jahresmittelwerte für Gesamtstickstoff bei in die Ostsee mündenden Flüssen sollen 2,6 Milligramm pro Liter nicht überschreiten)</t>
         </is>
       </c>
       <c r="I63" s="4" t="inlineStr">
         <is>
-          <t>Increase international climate finance to at least 6 billion euros by 2025 at the latest</t>
+          <t>Adherence to good quality in accordance with the Ordinance on the Protection of Surface Waters (Oberflächengewässerver-ordnung) (annual averages for total nitro-gen in rivers flowing into the Baltic may not exceed 2.6 mg/l)</t>
         </is>
       </c>
       <c r="J63" s="4" t="inlineStr">
         <is>
-          <t>Erhöhung auf 6 Mrd. Euro bis 2025</t>
+          <t>Gesamtstickstoff in Zuflüssen unter 2,6 mg/l</t>
         </is>
       </c>
       <c r="K63" s="4" t="inlineStr">
         <is>
-          <t>increase to 6 bn euro by 2025</t>
+          <t>total nitrogen in the inflows below 2.6 mg/l</t>
         </is>
       </c>
       <c r="L63" s="4" t="inlineStr">
         <is>
-          <t>Internationale Klimafinanzierung zur Reduktion von Treibhausgasen und zur Anpassung an den Klimawandel</t>
+          <t>Stickstoffeintrag über die Zuflüsse in die Ostsee</t>
         </is>
       </c>
       <c r="M63" s="4" t="inlineStr">
         <is>
-          <t>International climate finance for the reduction of greenhouse gases and adaptation to climate change</t>
+          <t>Nitrogen input via the inflows into the Baltic Sea</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="64">
       <c r="A64" s="4" t="inlineStr">
         <is>
-          <t>Z14_B01_P01_Ib01_I01</t>
+          <t>Z14_B01_P01_Ib01_I02</t>
         </is>
       </c>
       <c r="B64" s="4" t="inlineStr">
@@ -4692,332 +4692,332 @@
       </c>
       <c r="C64" s="4" t="inlineStr">
         <is>
-          <t>14.1.aa</t>
+          <t>14.1.ab</t>
         </is>
       </c>
       <c r="D64" s="4" t="inlineStr">
         <is>
-          <t>aa) Ostsee</t>
+          <t>ab) Nordsee</t>
         </is>
       </c>
       <c r="E64" s="4" t="inlineStr">
         <is>
-          <t>aa) Baltic Sea</t>
+          <t>ab) North Sea</t>
         </is>
       </c>
       <c r="F64" s="4" t="inlineStr">
         <is>
-          <t>Stickstoffeintrag über die Zuflüsse in die Ostsee</t>
+          <t>Stickstoffeintrag über die Zuflüsse in die Nordsee</t>
         </is>
       </c>
       <c r="G64" s="4" t="inlineStr">
         <is>
-          <t>Nitrogen input via the inflows into the Baltic Sea</t>
+          <t>Nitrogen input via the inflows into the North Sea</t>
         </is>
       </c>
       <c r="H64" s="4" t="inlineStr">
         <is>
-          <t>Einhaltung des guten Zustands nach Oberflächengewässerverordnung (Jahresmittelwerte für Gesamtstickstoff bei in die Ostsee mündenden Flüssen sollen 2,6 Milligramm pro Liter nicht überschreiten)</t>
+          <t>Einhaltung des guten Zustands nach Oberflächengewässerverordnung (Jahresmittelwerte für Gesamtstickstoff bei in die Nordsee mündenden Flüssen sollen 2,8 Milligramm pro Liter nicht überschreiten)</t>
         </is>
       </c>
       <c r="I64" s="4" t="inlineStr">
         <is>
-          <t>Adherence to good quality in accordance with the Ordinance on the Protection of Surface Waters (Oberflächengewässerver-ordnung) (annual averages for total nitro-gen in rivers flowing into the Baltic may not exceed 2.6 mg/l)</t>
+          <t>Adherence to good quality in accordance with the Ordinance on the Protection of Surface Waters (annual averages for total nitrogen in rivers flowing into the North Sea may not exceed 2.8 mg/l)</t>
         </is>
       </c>
       <c r="J64" s="4" t="inlineStr">
         <is>
-          <t>Gesamtstickstoff in Zuflüssen unter 2,6 mg/l</t>
+          <t>Gesamtstickstoff in Zuflüssen unter 2,8 mg/l</t>
         </is>
       </c>
       <c r="K64" s="4" t="inlineStr">
         <is>
-          <t>total nitrogen in the inflows below 2.6 mg/l</t>
+          <t>total nitrogen in the inflows below 2.8 mg/l</t>
         </is>
       </c>
       <c r="L64" s="4" t="inlineStr">
         <is>
-          <t>Stickstoffeintrag über die Zuflüsse in die Ostsee</t>
+          <t>Stickstoffeintrag über die Zuflüsse in die Nordsee</t>
         </is>
       </c>
       <c r="M64" s="4" t="inlineStr">
         <is>
-          <t>Nitrogen input via the inflows into the Baltic Sea</t>
+          <t>Nitrogen input via the inflows into the North Sea</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="65">
       <c r="A65" s="4" t="inlineStr">
         <is>
-          <t>Z14_B01_P01_Ib01_I02</t>
+          <t>Z14_B01_P01_Ib02_I01</t>
         </is>
       </c>
       <c r="B65" s="4" t="inlineStr">
         <is>
-          <t>Z14_B01_P01_Ib01</t>
+          <t>Z14_B01_P01_Ib02</t>
         </is>
       </c>
       <c r="C65" s="4" t="inlineStr">
         <is>
-          <t>14.1.ab</t>
+          <t>14.1.b</t>
         </is>
       </c>
       <c r="D65" s="4" t="inlineStr">
         <is>
-          <t>ab) Nordsee</t>
+          <t>Bewirtschaftung von Fischbeständen</t>
         </is>
       </c>
       <c r="E65" s="4" t="inlineStr">
         <is>
-          <t>ab) North Sea</t>
+          <t>Fish stock management</t>
         </is>
       </c>
       <c r="F65" s="4" t="inlineStr">
         <is>
-          <t>Stickstoffeintrag über die Zuflüsse in die Nordsee</t>
+          <t>Anteil der nachhaltig befischten Fischbestände in Nord- und Ostsee</t>
         </is>
       </c>
       <c r="G65" s="4" t="inlineStr">
         <is>
-          <t>Nitrogen input via the inflows into the North Sea</t>
+          <t>Share of sustainably fished stocks of fish in the North and Baltic Seas</t>
         </is>
       </c>
       <c r="H65" s="4" t="inlineStr">
         <is>
-          <t>Einhaltung des guten Zustands nach Oberflächengewässerverordnung (Jahresmittelwerte für Gesamtstickstoff bei in die Nordsee mündenden Flüssen sollen 2,8 Milligramm pro Liter nicht überschreiten)</t>
+          <t>Alle wirtschaftlich genutzten Fischbestände sollen nach dem MSY-Ansatz nachhaltig bewirtschaftet werden bis 2020</t>
         </is>
       </c>
       <c r="I65" s="4" t="inlineStr">
         <is>
-          <t>Adherence to good quality in accordance with the Ordinance on the Protection of Surface Waters (annual averages for total nitrogen in rivers flowing into the North Sea may not exceed 2.8 mg/l)</t>
+          <t>All fish stocks used for commercial purpos-es to be sustainably managed in accordance with the Maximum Sustainable Yield (MSY) approach by 2020</t>
         </is>
       </c>
       <c r="J65" s="4" t="inlineStr">
         <is>
-          <t>Gesamtstickstoff in Zuflüssen unter 2,8 mg/l</t>
+          <t>nachhaltige Bewirtschaftung nach dem MSY-Ansatz bis 2020</t>
         </is>
       </c>
       <c r="K65" s="4" t="inlineStr">
         <is>
-          <t>total nitrogen in the inflows below 2.8 mg/l</t>
+          <t>sustainable management in accordance with the MSY approachby 2020</t>
         </is>
       </c>
       <c r="L65" s="4" t="inlineStr">
         <is>
-          <t>Stickstoffeintrag über die Zuflüsse in die Nordsee</t>
+          <t>Anteil der nachhaltig befischten Fischbestände in Nord- und Ostsee</t>
         </is>
       </c>
       <c r="M65" s="4" t="inlineStr">
         <is>
-          <t>Nitrogen input via the inflows into the North Sea</t>
+          <t>Share of sustainably fished stocks of fish in the North and Baltic Seas</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="66">
       <c r="A66" s="4" t="inlineStr">
         <is>
-          <t>Z14_B01_P01_Ib02_I01</t>
+          <t>Z15_B01_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B66" s="4" t="inlineStr">
         <is>
-          <t>Z14_B01_P01_Ib02</t>
+          <t>Z15_B01_P01_Ib01</t>
         </is>
       </c>
       <c r="C66" s="4" t="inlineStr">
         <is>
-          <t>14.1.b</t>
+          <t>15.1</t>
         </is>
       </c>
       <c r="D66" s="4" t="inlineStr">
         <is>
-          <t>Bewirtschaftung von Fischbeständen</t>
+          <t>Artenvielfalt und Landschaftsqualität</t>
         </is>
       </c>
       <c r="E66" s="4" t="inlineStr">
         <is>
-          <t>Fish stock management</t>
+          <t>Biodiversity and landscape quality</t>
         </is>
       </c>
       <c r="F66" s="4" t="inlineStr">
         <is>
-          <t>Anteil der nachhaltig befischten Fischbestände in Nord- und Ostsee</t>
+          <t>Artenvielfalt und Landschaftsqualität</t>
         </is>
       </c>
       <c r="G66" s="4" t="inlineStr">
         <is>
-          <t>Share of sustainably fished stocks of fish in the North and Baltic Seas</t>
+          <t>Biodiversity and landscape quality</t>
         </is>
       </c>
       <c r="H66" s="4" t="inlineStr">
         <is>
-          <t>Alle wirtschaftlich genutzten Fischbestände sollen nach dem MSY-Ansatz nachhaltig bewirtschaftet werden bis 2020</t>
+          <t>Erreichen des Indexwertes 100 bis 2030</t>
         </is>
       </c>
       <c r="I66" s="4" t="inlineStr">
         <is>
-          <t>All fish stocks used for commercial purpos-es to be sustainably managed in accordance with the Maximum Sustainable Yield (MSY) approach by 2020</t>
+          <t>Reach the index value of 100 by 2030</t>
         </is>
       </c>
       <c r="J66" s="4" t="inlineStr">
         <is>
-          <t>nachhaltige Bewirtschaftung nach dem MSY-Ansatz bis 2020</t>
+          <t>Erreichen des Indexwertes 100 bis 2030</t>
         </is>
       </c>
       <c r="K66" s="4" t="inlineStr">
         <is>
-          <t>sustainable management in accordance with the MSY approachby 2020</t>
+          <t>reach the index value of 100 by 2030</t>
         </is>
       </c>
       <c r="L66" s="4" t="inlineStr">
         <is>
-          <t>Anteil der nachhaltig befischten Fischbestände in Nord- und Ostsee</t>
+          <t>Artenvielfalt und Landschaftsqualität</t>
         </is>
       </c>
       <c r="M66" s="4" t="inlineStr">
         <is>
-          <t>Share of sustainably fished stocks of fish in the North and Baltic Seas</t>
+          <t>Biodiversity and landscape quality</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="67">
       <c r="A67" s="4" t="inlineStr">
         <is>
-          <t>Z15_B01_P01_Ib01_I01</t>
+          <t>Z15_B02_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B67" s="4" t="inlineStr">
         <is>
-          <t>Z15_B01_P01_Ib01</t>
+          <t>Z15_B02_P01_Ib01</t>
         </is>
       </c>
       <c r="C67" s="4" t="inlineStr">
         <is>
-          <t>15.1</t>
+          <t>15.2</t>
         </is>
       </c>
       <c r="D67" s="4" t="inlineStr">
         <is>
-          <t>Artenvielfalt und Landschaftsqualität</t>
+          <t>Flächen mit erhöhtem Stickstoffeintrag</t>
         </is>
       </c>
       <c r="E67" s="4" t="inlineStr">
         <is>
-          <t>Biodiversity and landscape quality</t>
+          <t>Land with elevated inputs of nitrogen</t>
         </is>
       </c>
       <c r="F67" s="4" t="inlineStr">
         <is>
-          <t>Artenvielfalt und Landschaftsqualität</t>
+          <t>Eutrophierung der Ökosysteme</t>
         </is>
       </c>
       <c r="G67" s="4" t="inlineStr">
         <is>
-          <t>Biodiversity and landscape quality</t>
+          <t>Eutrophication of ecosystems</t>
         </is>
       </c>
       <c r="H67" s="4" t="inlineStr">
         <is>
-          <t>Erreichen des Indexwertes 100 bis 2030</t>
+          <t>Verringerung um 35 % bis 2030 gegenüber 2005</t>
         </is>
       </c>
       <c r="I67" s="4" t="inlineStr">
         <is>
-          <t>Reach the index value of 100 by 2030</t>
+          <t>Reduction by 35 % by 2030 compared to 2005</t>
         </is>
       </c>
       <c r="J67" s="4" t="inlineStr">
         <is>
-          <t>Erreichen des Indexwertes 100 bis 2030</t>
+          <t>Verringerung um 35 % bis 2030</t>
         </is>
       </c>
       <c r="K67" s="4" t="inlineStr">
         <is>
-          <t>reach the index value of 100 by 2030</t>
+          <t>reduction by 35 % by 2030</t>
         </is>
       </c>
       <c r="L67" s="4" t="inlineStr">
         <is>
-          <t>Artenvielfalt und Landschaftsqualität</t>
+          <t>Eutrophierung der Ökosysteme</t>
         </is>
       </c>
       <c r="M67" s="4" t="inlineStr">
         <is>
-          <t>Biodiversity and landscape quality</t>
+          <t>Eutrophication of ecosystems</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="68">
       <c r="A68" s="4" t="inlineStr">
         <is>
-          <t>Z15_B02_P01_Ib01_I01</t>
+          <t>Z15_B02_P02_Ib01_I01</t>
         </is>
       </c>
       <c r="B68" s="4" t="inlineStr">
         <is>
-          <t>Z15_B02_P01_Ib01</t>
+          <t>Z15_B02_P02_Ib01</t>
         </is>
       </c>
       <c r="C68" s="4" t="inlineStr">
         <is>
-          <t>15.2</t>
+          <t>15.3.a</t>
         </is>
       </c>
       <c r="D68" s="4" t="inlineStr">
         <is>
-          <t>Flächen mit erhöhtem Stickstoffeintrag</t>
+          <t>a) Wälder unter REDD+-Regelwerk</t>
         </is>
       </c>
       <c r="E68" s="4" t="inlineStr">
         <is>
-          <t>Land with elevated inputs of nitrogen</t>
+          <t>a) Forests under REDD+ rulebook</t>
         </is>
       </c>
       <c r="F68" s="4" t="inlineStr">
         <is>
-          <t>Eutrophierung der Ökosysteme</t>
+          <t>REDD+ (ergebnisbasierte Auszahlungen für internationalen Waldschutz)</t>
         </is>
       </c>
       <c r="G68" s="4" t="inlineStr">
         <is>
-          <t>Eutrophication of ecosystems</t>
+          <t>REDD+ (results-based payments for international protection of forests)</t>
         </is>
       </c>
       <c r="H68" s="4" t="inlineStr">
         <is>
-          <t>Verringerung um 35 % bis 2030 gegenüber 2005</t>
+          <t>Steigerung der Zahlungen bis 2030</t>
         </is>
       </c>
       <c r="I68" s="4" t="inlineStr">
         <is>
-          <t>Reduction by 35 % by 2030 compared to 2005</t>
+          <t>Increase payments by 2030</t>
         </is>
       </c>
       <c r="J68" s="4" t="inlineStr">
         <is>
-          <t>Verringerung um 35 % bis 2030</t>
+          <t>Steigerung der Zahlungen bis 2030</t>
         </is>
       </c>
       <c r="K68" s="4" t="inlineStr">
         <is>
-          <t>reduction by 35 % by 2030</t>
+          <t>increase payments by 2030</t>
         </is>
       </c>
       <c r="L68" s="4" t="inlineStr">
         <is>
-          <t>Eutrophierung der Ökosysteme</t>
+          <t>Erhalt bzw. Wiederaufbau von Wäldern in Entwicklungsländern unter dem REDD+-Regelwerk</t>
         </is>
       </c>
       <c r="M68" s="4" t="inlineStr">
         <is>
-          <t>Eutrophication of ecosystems</t>
+          <t>Preservation or restoration of forests in developing countries under the REDD+ rulebook</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="69">
       <c r="A69" s="4" t="inlineStr">
         <is>
-          <t>Z15_B02_P02_Ib01_I01</t>
+          <t>Z15_B02_P02_Ib01_I02</t>
         </is>
       </c>
       <c r="B69" s="4" t="inlineStr">
@@ -5027,27 +5027,27 @@
       </c>
       <c r="C69" s="4" t="inlineStr">
         <is>
-          <t>15.3.a</t>
+          <t>15.3.b</t>
         </is>
       </c>
       <c r="D69" s="4" t="inlineStr">
         <is>
-          <t>a) Wälder unter REDD+-Regelwerk</t>
+          <t>b) Internationaler Bodenschutz</t>
         </is>
       </c>
       <c r="E69" s="4" t="inlineStr">
         <is>
-          <t>a) Forests under REDD+ rulebook</t>
+          <t>b) Combat Desertification</t>
         </is>
       </c>
       <c r="F69" s="4" t="inlineStr">
         <is>
-          <t>REDD+ (ergebnisbasierte Auszahlungen für internationalen Waldschutz)</t>
+          <t>Internationaler Bodenschutz (Bruttoentwicklungsausgaben für internationalen Bodenschutz)</t>
         </is>
       </c>
       <c r="G69" s="4" t="inlineStr">
         <is>
-          <t>REDD+ (results-based payments for international protection of forests)</t>
+          <t>International soil protection (gross development assistance for international soil protection)</t>
         </is>
       </c>
       <c r="H69" s="4" t="inlineStr">
@@ -5072,220 +5072,220 @@
       </c>
       <c r="L69" s="4" t="inlineStr">
         <is>
-          <t>Erhalt bzw. Wiederaufbau von Wäldern in Entwicklungsländern unter dem REDD+-Regelwerk</t>
+          <t>Deutsche bilaterale Bruttoentwicklungsausgaben zur Umsetzung des Übereinkommens der VN zur Bekämpfung der Wüstenbildung</t>
         </is>
       </c>
       <c r="M69" s="4" t="inlineStr">
         <is>
-          <t>Preservation or restoration of forests in developing countries under the REDD+ rulebook</t>
+          <t>German gross bilateral development expenditure for the implementation of the UN Convention to Combat Desertification</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="70">
       <c r="A70" s="4" t="inlineStr">
         <is>
-          <t>Z15_B02_P02_Ib01_I02</t>
+          <t>Z16_B01_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B70" s="4" t="inlineStr">
         <is>
-          <t>Z15_B02_P02_Ib01</t>
+          <t>Z16_B01_P01_Ib01</t>
         </is>
       </c>
       <c r="C70" s="4" t="inlineStr">
         <is>
-          <t>15.3.b</t>
+          <t>16.1</t>
         </is>
       </c>
       <c r="D70" s="4" t="inlineStr">
         <is>
-          <t>b) Internationaler Bodenschutz</t>
+          <t>Anzahl an Straftaten</t>
         </is>
       </c>
       <c r="E70" s="4" t="inlineStr">
         <is>
-          <t>b) Combat Desertification</t>
+          <t>Number of criminal offences</t>
         </is>
       </c>
       <c r="F70" s="4" t="inlineStr">
         <is>
-          <t>Internationaler Bodenschutz (Bruttoentwicklungsausgaben für internationalen Bodenschutz)</t>
+          <t>Straftaten</t>
         </is>
       </c>
       <c r="G70" s="4" t="inlineStr">
         <is>
-          <t>International soil protection (gross development assistance for international soil protection)</t>
+          <t>Criminal offences</t>
         </is>
       </c>
       <c r="H70" s="4" t="inlineStr">
         <is>
-          <t>Steigerung der Zahlungen bis 2030</t>
+          <t>Rückgang der Zahl der erfassten Straftaten je 100 000 Einwohner/ -innen auf unter 6 500 bis 2030</t>
         </is>
       </c>
       <c r="I70" s="4" t="inlineStr">
         <is>
-          <t>Increase payments by 2030</t>
+          <t>Reduce the number of criminal offences re-corded per 100,000 inhabitants to less than 6,500 by 2030</t>
         </is>
       </c>
       <c r="J70" s="4" t="inlineStr">
         <is>
-          <t>Steigerung der Zahlungen bis 2030</t>
+          <t>Rückgang auf unter 6 500 je 100 000 Einwohner/ -innen bis 2030</t>
         </is>
       </c>
       <c r="K70" s="4" t="inlineStr">
         <is>
-          <t>increase payments by 2030</t>
+          <t>reduce to less than 6,500 per 100,000 inhabitants by 2030</t>
         </is>
       </c>
       <c r="L70" s="4" t="inlineStr">
         <is>
-          <t>Deutsche bilaterale Bruttoentwicklungsausgaben zur Umsetzung des Übereinkommens der VN zur Bekämpfung der Wüstenbildung</t>
+          <t>Straftaten</t>
         </is>
       </c>
       <c r="M70" s="4" t="inlineStr">
         <is>
-          <t>German gross bilateral development expenditure for the implementation of the UN Convention to Combat Desertification</t>
+          <t>Criminal offences</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="71">
       <c r="A71" s="4" t="inlineStr">
         <is>
-          <t>Z16_B01_P01_Ib01_I01</t>
+          <t>Z16_B02_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B71" s="4" t="inlineStr">
         <is>
-          <t>Z16_B01_P01_Ib01</t>
+          <t>Z16_B02_P01_Ib01</t>
         </is>
       </c>
       <c r="C71" s="4" t="inlineStr">
         <is>
-          <t>16.1</t>
+          <t>16.2</t>
         </is>
       </c>
       <c r="D71" s="4" t="inlineStr">
         <is>
-          <t>Anzahl an Straftaten</t>
+          <t>Sicherung, Registrierung und Zerstörung von Waffen</t>
         </is>
       </c>
       <c r="E71" s="4" t="inlineStr">
         <is>
-          <t>Number of criminal offences</t>
+          <t>Securing, registration and destruction of weapons</t>
         </is>
       </c>
       <c r="F71" s="4" t="inlineStr">
         <is>
-          <t>Straftaten</t>
+          <t>Anzahl der in betroffenen Weltregionen durchgeführten Projekte zur Sicherung, Registrierung und Zerstörung von Kleinwaffen und leichten Waffen durch Deutschland</t>
         </is>
       </c>
       <c r="G71" s="4" t="inlineStr">
         <is>
-          <t>Criminal offences</t>
+          <t>Number of projects to secure, register and destroy small arms and light weapons carried out by Germany in affected regions of the world</t>
         </is>
       </c>
       <c r="H71" s="4" t="inlineStr">
         <is>
-          <t>Rückgang der Zahl der erfassten Straftaten je 100 000 Einwohner/ -innen auf unter 6 500 bis 2030</t>
+          <t>Mindestens 15 Projekte pro Jahr bis 2030</t>
         </is>
       </c>
       <c r="I71" s="4" t="inlineStr">
         <is>
-          <t>Reduce the number of criminal offences re-corded per 100,000 inhabitants to less than 6,500 by 2030</t>
+          <t>At least 15 projects per year by 2030</t>
         </is>
       </c>
       <c r="J71" s="4" t="inlineStr">
         <is>
-          <t>Rückgang auf unter 6 500 je 100 000 Einwohner/ -innen bis 2030</t>
+          <t>mindestens 15 Projekte pro Jahr bis 2030</t>
         </is>
       </c>
       <c r="K71" s="4" t="inlineStr">
         <is>
-          <t>reduce to less than 6,500 per 100,000 inhabitants by 2030</t>
+          <t>at least 15 projects per year by 2030</t>
         </is>
       </c>
       <c r="L71" s="4" t="inlineStr">
         <is>
-          <t>Straftaten</t>
+          <t>Anzahl der in betroffenen Weltregionen durchgeführten Projekte zur Sicherung, Registrierung und Zerstörung von Kleinwaffen und leichten Waffen durch Deutschland</t>
         </is>
       </c>
       <c r="M71" s="4" t="inlineStr">
         <is>
-          <t>Criminal offences</t>
+          <t>Number of projects to secure, register and destroy small arms and light weapons carried out by Germany in affected regions of the world</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="72">
       <c r="A72" s="4" t="inlineStr">
         <is>
-          <t>Z16_B02_P01_Ib01_I01</t>
+          <t>Z16_B03_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B72" s="4" t="inlineStr">
         <is>
-          <t>Z16_B02_P01_Ib01</t>
+          <t>Z16_B03_P01_Ib01</t>
         </is>
       </c>
       <c r="C72" s="4" t="inlineStr">
         <is>
-          <t>16.2</t>
+          <t>16.3.a</t>
         </is>
       </c>
       <c r="D72" s="4" t="inlineStr">
         <is>
-          <t>Sicherung, Registrierung und Zerstörung von Waffen</t>
+          <t>a) CPI Deutschland</t>
         </is>
       </c>
       <c r="E72" s="4" t="inlineStr">
         <is>
-          <t>Securing, registration and destruction of weapons</t>
+          <t>a) CPI Germany</t>
         </is>
       </c>
       <c r="F72" s="4" t="inlineStr">
         <is>
-          <t>Anzahl der in betroffenen Weltregionen durchgeführten Projekte zur Sicherung, Registrierung und Zerstörung von Kleinwaffen und leichten Waffen durch Deutschland</t>
+          <t>Corruption Perception Index in Deutschland</t>
         </is>
       </c>
       <c r="G72" s="4" t="inlineStr">
         <is>
-          <t>Number of projects to secure, register and destroy small arms and light weapons carried out by Germany in affected regions of the world</t>
+          <t>Corruption Perceptions Index in Germany</t>
         </is>
       </c>
       <c r="H72" s="4" t="inlineStr">
         <is>
-          <t>Mindestens 15 Projekte pro Jahr bis 2030</t>
+          <t>Verbesserung gegenüber 2012 bis 2030</t>
         </is>
       </c>
       <c r="I72" s="4" t="inlineStr">
         <is>
-          <t>At least 15 projects per year by 2030</t>
+          <t>Improvement by 2030, compared to 2012</t>
         </is>
       </c>
       <c r="J72" s="4" t="inlineStr">
         <is>
-          <t>mindestens 15 Projekte pro Jahr bis 2030</t>
+          <t>Verbesserung bis 2030</t>
         </is>
       </c>
       <c r="K72" s="4" t="inlineStr">
         <is>
-          <t>at least 15 projects per year by 2030</t>
+          <t>improvement by 2030</t>
         </is>
       </c>
       <c r="L72" s="4" t="inlineStr">
         <is>
-          <t>Anzahl der in betroffenen Weltregionen durchgeführten Projekte zur Sicherung, Registrierung und Zerstörung von Kleinwaffen und leichten Waffen durch Deutschland</t>
+          <t>Corruption Perception Index in Deutschland</t>
         </is>
       </c>
       <c r="M72" s="4" t="inlineStr">
         <is>
-          <t>Number of projects to secure, register and destroy small arms and light weapons carried out by Germany in affected regions of the world</t>
+          <t>Corruption Perception Index in Germany</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="73">
       <c r="A73" s="4" t="inlineStr">
         <is>
-          <t>Z16_B03_P01_Ib01_I01</t>
+          <t>Z16_B03_P01_Ib01_I02</t>
         </is>
       </c>
       <c r="B73" s="4" t="inlineStr">
@@ -5295,27 +5295,27 @@
       </c>
       <c r="C73" s="4" t="inlineStr">
         <is>
-          <t>16.3.a</t>
+          <t>16.3.b</t>
         </is>
       </c>
       <c r="D73" s="4" t="inlineStr">
         <is>
-          <t>a) CPI Deutschland</t>
+          <t>b) CPI  Partnerländer</t>
         </is>
       </c>
       <c r="E73" s="4" t="inlineStr">
         <is>
-          <t>a) CPI Germany</t>
+          <t>b) CPI Partner countries</t>
         </is>
       </c>
       <c r="F73" s="4" t="inlineStr">
         <is>
-          <t>Corruption Perception Index in Deutschland</t>
+          <t>Corruption Perception Index in den Partnerländern der deutschen Entwicklungszusammenarbeit</t>
         </is>
       </c>
       <c r="G73" s="4" t="inlineStr">
         <is>
-          <t>Corruption Perceptions Index in Germany</t>
+          <t>Corruption Perceptions Index in partner countries for German development cooperation</t>
         </is>
       </c>
       <c r="H73" s="4" t="inlineStr">
@@ -5340,278 +5340,211 @@
       </c>
       <c r="L73" s="4" t="inlineStr">
         <is>
-          <t>Corruption Perception Index in Deutschland</t>
+          <t>Anzahl der Partnerländer deutscher Entwicklungszusammenarbeit, deren Bewertung sich gegenüber 2012 verbessert hat</t>
         </is>
       </c>
       <c r="M73" s="4" t="inlineStr">
         <is>
-          <t>Corruption Perception Index in Germany</t>
+          <t>Number of partner countries for German development cooperation with improved CPI scores compared with 2012</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="74">
       <c r="A74" s="4" t="inlineStr">
         <is>
-          <t>Z16_B03_P01_Ib01_I02</t>
+          <t>Z17_B01_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B74" s="4" t="inlineStr">
         <is>
-          <t>Z16_B03_P01_Ib01</t>
+          <t>Z17_B01_P01_Ib01</t>
         </is>
       </c>
       <c r="C74" s="4" t="inlineStr">
         <is>
-          <t>16.3.b</t>
+          <t>17.1</t>
         </is>
       </c>
       <c r="D74" s="4" t="inlineStr">
         <is>
-          <t>b) CPI  Partnerländer</t>
+          <t>Entwicklungsausgaben</t>
         </is>
       </c>
       <c r="E74" s="4" t="inlineStr">
         <is>
-          <t>b) CPI Partner countries</t>
+          <t>Development assistance</t>
         </is>
       </c>
       <c r="F74" s="4" t="inlineStr">
         <is>
-          <t>Corruption Perception Index in den Partnerländern der deutschen Entwicklungszusammenarbeit</t>
+          <t>Anteil öffentlicher Entwicklungsausgaben am Bruttonationaleinkommen</t>
         </is>
       </c>
       <c r="G74" s="4" t="inlineStr">
         <is>
-          <t>Corruption Perceptions Index in partner countries for German development cooperation</t>
+          <t>Official development assistance as a proportion of gross national income</t>
         </is>
       </c>
       <c r="H74" s="4" t="inlineStr">
         <is>
-          <t>Verbesserung gegenüber 2012 bis 2030</t>
+          <t>Steigerung des Anteils auf 0,7 % des  Bruttonationaleinkommens bis 2030</t>
         </is>
       </c>
       <c r="I74" s="4" t="inlineStr">
         <is>
-          <t>Improvement by 2030, compared to 2012</t>
+          <t>Increase the proportion to 0.7 % of gross national income by 2030</t>
         </is>
       </c>
       <c r="J74" s="4" t="inlineStr">
         <is>
-          <t>Verbesserung bis 2030</t>
+          <t>Steigerung des Anteils auf 0,7 % des BNE bis 2030</t>
         </is>
       </c>
       <c r="K74" s="4" t="inlineStr">
         <is>
-          <t>improvement by 2030</t>
+          <t>increase to 0.7 % of GNI by 2030</t>
         </is>
       </c>
       <c r="L74" s="4" t="inlineStr">
         <is>
-          <t>Anzahl der Partnerländer deutscher Entwicklungszusammenarbeit, deren Bewertung sich gegenüber 2012 verbessert hat</t>
+          <t>Anteil öffentlicher Entwicklungsausgaben am Bruttonationaleinkommen</t>
         </is>
       </c>
       <c r="M74" s="4" t="inlineStr">
         <is>
-          <t>Number of partner countries for German development cooperation with improved CPI scores compared with 2012</t>
+          <t>Official development assistance as a proportion of gross national income</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="75">
       <c r="A75" s="4" t="inlineStr">
         <is>
-          <t>Z17_B01_P01_Ib01_I01</t>
+          <t>Z17_B02_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B75" s="4" t="inlineStr">
         <is>
-          <t>Z17_B01_P01_Ib01</t>
+          <t>Z17_B02_P01_Ib01</t>
         </is>
       </c>
       <c r="C75" s="4" t="inlineStr">
         <is>
-          <t>17.1</t>
+          <t>17.2</t>
         </is>
       </c>
       <c r="D75" s="4" t="inlineStr">
         <is>
-          <t>Entwicklungsausgaben</t>
+          <t>Studierende und Forschende aus Entwicklungslenländern und LDCs</t>
         </is>
       </c>
       <c r="E75" s="4" t="inlineStr">
         <is>
-          <t>Development assistance</t>
+          <t>Students and researchers from developing countries and LDCs</t>
         </is>
       </c>
       <c r="F75" s="4" t="inlineStr">
         <is>
-          <t>Anteil öffentlicher Entwicklungsausgaben am Bruttonationaleinkommen</t>
+          <t>Anzahl der Studierenden und Forschenden aus Entwicklungsländern sowie aus am wenigsten entwickelten Ländern pro Jahr</t>
         </is>
       </c>
       <c r="G75" s="4" t="inlineStr">
         <is>
-          <t>Official development assistance as a proportion of gross national income</t>
+          <t>Number of students and researchers from developing countries and least developed countries per year</t>
         </is>
       </c>
       <c r="H75" s="4" t="inlineStr">
         <is>
-          <t>Steigerung des Anteils auf 0,7 % des  Bruttonationaleinkommens bis 2030</t>
+          <t>Steigerung der Anzahl um 10 % von 2015 bis 2020, anschließend Verstetigung</t>
         </is>
       </c>
       <c r="I75" s="4" t="inlineStr">
         <is>
-          <t>Increase the proportion to 0.7 % of gross national income by 2030</t>
+          <t>Increase the number by 10 % from 2015 to 2020, then stabilised</t>
         </is>
       </c>
       <c r="J75" s="4" t="inlineStr">
         <is>
-          <t>Steigerung des Anteils auf 0,7 % des BNE bis 2030</t>
+          <t>Steigerung um 10 % von 2015 bis 2020, anschließend Verstetigung</t>
         </is>
       </c>
       <c r="K75" s="4" t="inlineStr">
         <is>
-          <t>increase to 0.7 % of GNI by 2030</t>
+          <t>increase by 10 % from 2015 to 2020, then stabilised</t>
         </is>
       </c>
       <c r="L75" s="4" t="inlineStr">
         <is>
-          <t>Anteil öffentlicher Entwicklungsausgaben am Bruttonationaleinkommen</t>
+          <t>Anzahl der Studierenden und Forschenden aus Entwicklungsländern sowie aus am wenigsten entwickelten Ländern pro Jahr</t>
         </is>
       </c>
       <c r="M75" s="4" t="inlineStr">
         <is>
-          <t>Official development assistance as a proportion of gross national income</t>
+          <t>Number of students and researchers from developing countries and least developed countries per year</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="76">
       <c r="A76" s="4" t="inlineStr">
         <is>
-          <t>Z17_B02_P01_Ib01_I01</t>
+          <t>Z17_B03_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B76" s="4" t="inlineStr">
         <is>
-          <t>Z17_B02_P01_Ib01</t>
+          <t>Z17_B03_P01_Ib01</t>
         </is>
       </c>
       <c r="C76" s="4" t="inlineStr">
         <is>
-          <t>17.2</t>
+          <t>17.3</t>
         </is>
       </c>
       <c r="D76" s="4" t="inlineStr">
         <is>
-          <t>Studierende und Forschende aus Entwicklungslenländern und LDCs</t>
+          <t>Einfuhren aus LDCs</t>
         </is>
       </c>
       <c r="E76" s="4" t="inlineStr">
         <is>
-          <t>Students and researchers from developing countries and LDCs</t>
+          <t>Imports coming from LDCs</t>
         </is>
       </c>
       <c r="F76" s="4" t="inlineStr">
         <is>
-          <t>Anzahl der Studierenden und Forschenden aus Entwicklungsländern sowie aus am wenigsten entwickelten Ländern pro Jahr</t>
+          <t>Einfuhren aus am wenigsten entwickelten Ländern</t>
         </is>
       </c>
       <c r="G76" s="4" t="inlineStr">
         <is>
-          <t>Number of students and researchers from developing countries and least developed countries per year</t>
+          <t>Imports from least developed countries</t>
         </is>
       </c>
       <c r="H76" s="4" t="inlineStr">
         <is>
-          <t>Steigerung der Anzahl um 10 % von 2015 bis 2020, anschließend Verstetigung</t>
+          <t>Steigerung des Anteils um 100 % bis 2030 gegenüber 2014</t>
         </is>
       </c>
       <c r="I76" s="4" t="inlineStr">
         <is>
-          <t>Increase the number by 10 % from 2015 to 2020, then stabilised</t>
+          <t>Increase the proportion by 100 % by 2030, compared to 2014</t>
         </is>
       </c>
       <c r="J76" s="4" t="inlineStr">
         <is>
-          <t>Steigerung um 10 % von 2015 bis 2020, anschließend Verstetigung</t>
+          <t>Steigerung des Anteils um 100 % bis 2030 gegenüber 2014</t>
         </is>
       </c>
       <c r="K76" s="4" t="inlineStr">
         <is>
-          <t>increase by 10 % from 2015 to 2020, then stabilised</t>
+          <t>increase by 100 % by 2030 compared to 2014</t>
         </is>
       </c>
       <c r="L76" s="4" t="inlineStr">
         <is>
-          <t>Anzahl der Studierenden und Forschenden aus Entwicklungsländern sowie aus am wenigsten entwickelten Ländern pro Jahr</t>
+          <t>Einfuhren aus am wenigsten entwickelten Ländern</t>
         </is>
       </c>
       <c r="M76" s="4" t="inlineStr">
-        <is>
-          <t>Number of students and researchers from developing countries and least developed countries per year</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="77">
-      <c r="A77" s="4" t="inlineStr">
-        <is>
-          <t>Z17_B03_P01_Ib01_I01</t>
-        </is>
-      </c>
-      <c r="B77" s="4" t="inlineStr">
-        <is>
-          <t>Z17_B03_P01_Ib01</t>
-        </is>
-      </c>
-      <c r="C77" s="4" t="inlineStr">
-        <is>
-          <t>17.3</t>
-        </is>
-      </c>
-      <c r="D77" s="4" t="inlineStr">
-        <is>
-          <t>Einfuhren aus LDCs</t>
-        </is>
-      </c>
-      <c r="E77" s="4" t="inlineStr">
-        <is>
-          <t>Imports coming from LDCs</t>
-        </is>
-      </c>
-      <c r="F77" s="4" t="inlineStr">
-        <is>
-          <t>Einfuhren aus am wenigsten entwickelten Ländern</t>
-        </is>
-      </c>
-      <c r="G77" s="4" t="inlineStr">
-        <is>
-          <t>Imports from least developed countries</t>
-        </is>
-      </c>
-      <c r="H77" s="4" t="inlineStr">
-        <is>
-          <t>Steigerung des Anteils um 100 % bis 2030 gegenüber 2014</t>
-        </is>
-      </c>
-      <c r="I77" s="4" t="inlineStr">
-        <is>
-          <t>Increase the proportion by 100 % by 2030, compared to 2014</t>
-        </is>
-      </c>
-      <c r="J77" s="4" t="inlineStr">
-        <is>
-          <t>Steigerung des Anteils um 100 % bis 2030 gegenüber 2014</t>
-        </is>
-      </c>
-      <c r="K77" s="4" t="inlineStr">
-        <is>
-          <t>increase by 100 % by 2030 compared to 2014</t>
-        </is>
-      </c>
-      <c r="L77" s="4" t="inlineStr">
-        <is>
-          <t>Einfuhren aus am wenigsten entwickelten Ländern</t>
-        </is>
-      </c>
-      <c r="M77" s="4" t="inlineStr">
         <is>
           <t>Imports from least developed countries</t>
         </is>

--- a/Tab_5a_Indikatoren.xlsx
+++ b/Tab_5a_Indikatoren.xlsx
@@ -435,7 +435,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M76"/>
+  <dimension ref="A1:M79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -883,7 +883,7 @@
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
-          <t>a) Women</t>
+          <t>X</t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr">
@@ -893,7 +893,7 @@
       </c>
       <c r="G7" s="4" t="inlineStr">
         <is>
-          <t>Premature mortality (women)</t>
+          <t>X</t>
         </is>
       </c>
       <c r="H7" s="4" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="I7" s="4" t="inlineStr">
         <is>
-          <t>To be reduced to 100 deaths per 100,000 inhabitants (women) by 2030</t>
+          <t>X</t>
         </is>
       </c>
       <c r="J7" s="4" t="inlineStr">
@@ -913,17 +913,17 @@
       </c>
       <c r="K7" s="4" t="inlineStr">
         <is>
-          <t>to be reduced to 100 deaths per 100,000 inhabitants by 2030</t>
+          <t>X</t>
         </is>
       </c>
       <c r="L7" s="4" t="inlineStr">
         <is>
-          <t>Vorzeitig Gestorbene (Frauen)</t>
+          <t>Vermeidbare Sterblichkeit</t>
         </is>
       </c>
       <c r="M7" s="4" t="inlineStr">
         <is>
-          <t>Premature death (women)</t>
+          <t>X</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1290,7 @@
       </c>
       <c r="F13" s="4" t="inlineStr">
         <is>
-          <t>Anteil der Bevölkerung mit erhöhter PM10-Feinstaubexposition</t>
+          <t>Anteil der Bevölkerung mit erhöhter PM2,5-Feinstaubexposition</t>
         </is>
       </c>
       <c r="G13" s="4" t="inlineStr">
@@ -1300,7 +1300,7 @@
       </c>
       <c r="H13" s="4" t="inlineStr">
         <is>
-          <t>Erreichung des Feinstaub- WHO-Richtwerts von 20 Mikrogramm/Kubikmeter für PM10 im Jahresmittel möglichst flächendeckend bis 2030</t>
+          <t>Rückgang des Anteils der Bevölkerung mit einer PM2,5-Feinstaubexposition von mehr als 10 Mikrogramm pro Kubikmeter im Jahresmittel (entspricht der Höhe des neuen ab 2030 einzuhaltenden EU-Grenzwertes für PM2,5) bis 2030 auf dann 0 Prozent</t>
         </is>
       </c>
       <c r="I13" s="4" t="inlineStr">
@@ -1310,7 +1310,7 @@
       </c>
       <c r="J13" s="4" t="inlineStr">
         <is>
-          <t>Erreichung des Richtwerts von 20 µg/m³ bis 2030</t>
+          <t>Erreichung des Richtwerts von 10 µg/m³ bis 2030</t>
         </is>
       </c>
       <c r="K13" s="4" t="inlineStr">
@@ -1342,7 +1342,7 @@
       </c>
       <c r="C14" s="4" t="inlineStr">
         <is>
-          <t>3.3</t>
+          <t>3.3.a</t>
         </is>
       </c>
       <c r="D14" s="4" t="inlineStr">
@@ -1399,208 +1399,208 @@
     <row outlineLevel="0" r="15">
       <c r="A15" s="4" t="inlineStr">
         <is>
-          <t>Z04_B01_P01_Ib01_I01</t>
+          <t>Z03_B03_P01_Ib02_I01</t>
         </is>
       </c>
       <c r="B15" s="4" t="inlineStr">
         <is>
-          <t>Z04_B01_P01_Ib01</t>
+          <t>Z03_B03_P01_Ib02</t>
         </is>
       </c>
       <c r="C15" s="4" t="inlineStr">
         <is>
-          <t>4.1.a</t>
+          <t>3.3.b</t>
         </is>
       </c>
       <c r="D15" s="4" t="inlineStr">
         <is>
-          <t>Frühe Schulabgänger/ -innen</t>
+          <t>Fortschritte beim Global Health Security Index</t>
         </is>
       </c>
       <c r="E15" s="4" t="inlineStr">
         <is>
-          <t>Early school leavers</t>
+          <t>X</t>
         </is>
       </c>
       <c r="F15" s="4" t="inlineStr">
         <is>
-          <t>Frühe Schulabgängerinnen und Schulabgänger</t>
+          <t>Anteil der Länder, die Deutschland bei der Pandemieprävention, -vorsorge und -reaktion (PPR) unterstützt und die im Global Health Security Index (GHSI) Fortschritte gemacht haben, an der Anzahl der Länder, die Deutschland im Bereich PPR unterstützt</t>
         </is>
       </c>
       <c r="G15" s="4" t="inlineStr">
         <is>
-          <t>Early school leavers</t>
+          <t>X</t>
         </is>
       </c>
       <c r="H15" s="4" t="inlineStr">
         <is>
-          <t>Verringerung des Anteils auf 9,5 % bis 2030</t>
+          <t>30 Prozent der Länder haben im Jahr 2030 eine Verbesserung des Global Health Security Index (GSHI) um mindestens den Wert 3 gegenüber 2019 erzielt</t>
         </is>
       </c>
       <c r="I15" s="4" t="inlineStr">
         <is>
-          <t>Reduce the proportion to 9.5 % by 2030</t>
+          <t>X</t>
         </is>
       </c>
       <c r="J15" s="4" t="inlineStr">
         <is>
-          <t>Verringerung des Anteils auf 9,5 % bis 2030</t>
+          <t>X</t>
         </is>
       </c>
       <c r="K15" s="4" t="inlineStr">
         <is>
-          <t>reduce the proportion to 9.5 % by 2030</t>
+          <t>X</t>
         </is>
       </c>
       <c r="L15" s="4" t="inlineStr">
         <is>
-          <t>Frühe Schulabgängerinnen und Schulabgänger</t>
+          <t>X</t>
         </is>
       </c>
       <c r="M15" s="4" t="inlineStr">
         <is>
-          <t>Early school leavers</t>
+          <t>X</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="16">
       <c r="A16" s="4" t="inlineStr">
         <is>
-          <t>Z04_B01_P01_Ib02_I01</t>
+          <t>Z04_B01_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B16" s="4" t="inlineStr">
         <is>
-          <t>Z04_B01_P01_Ib02</t>
+          <t>Z04_B01_P01_Ib01</t>
         </is>
       </c>
       <c r="C16" s="4" t="inlineStr">
         <is>
-          <t>4.1.b</t>
+          <t>4.1.a</t>
         </is>
       </c>
       <c r="D16" s="4" t="inlineStr">
         <is>
-          <t>Berufliche Qualifizierung</t>
+          <t>Frühe Schulabgänger/ -innen</t>
         </is>
       </c>
       <c r="E16" s="4" t="inlineStr">
         <is>
-          <t>Vocational qualification</t>
+          <t>Early school leavers</t>
         </is>
       </c>
       <c r="F16" s="4" t="inlineStr">
         <is>
-          <t>Akademisch Qualifizierte und beruflich Höherqualifizierte (30- bis 34-Jährige mit tertiärem oder post-sekundarem nichttertiärem Abschluss)</t>
+          <t>Frühe Schulabgängerinnen und Schulabgänger</t>
         </is>
       </c>
       <c r="G16" s="4" t="inlineStr">
         <is>
-          <t>Persons with an academic or higher vocational qualification (30 to 34-year-olds with a tertiary or post-secondary non-tertiary level of education)</t>
+          <t>Early school leavers</t>
         </is>
       </c>
       <c r="H16" s="4" t="inlineStr">
         <is>
-          <t>Steigerung des Anteils auf 55 % bis 2030</t>
+          <t>Verringerung des Anteils auf 9,5 % bis 2030</t>
         </is>
       </c>
       <c r="I16" s="4" t="inlineStr">
         <is>
-          <t>Increase the proportion to 55 % by 2030</t>
+          <t>Reduce the proportion to 9.5 % by 2030</t>
         </is>
       </c>
       <c r="J16" s="4" t="inlineStr">
         <is>
-          <t>Steigerung des Anteils auf 55 % bis 2030</t>
+          <t>Verringerung des Anteils auf 9,5 % bis 2030</t>
         </is>
       </c>
       <c r="K16" s="4" t="inlineStr">
         <is>
-          <t>increase the proportion to 55 % by 2030</t>
+          <t>reduce the proportion to 9.5 % by 2030</t>
         </is>
       </c>
       <c r="L16" s="4" t="inlineStr">
         <is>
-          <t>Akademisch Qualifizierte und beruflich Höherqualifizierte (30- bis 34-Jährige mit tertiärem oder post-sekundarem nichttertiärem Abschluss)</t>
+          <t>Frühe Schulabgängerinnen und Schulabgänger</t>
         </is>
       </c>
       <c r="M16" s="4" t="inlineStr">
         <is>
-          <t>Persons with an academic or higher vocational qualification (30 to 34-year-olds with a tertiary or post-secondary non-tertiary level of education)</t>
+          <t>Early school leavers</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="17">
       <c r="A17" s="4" t="inlineStr">
         <is>
-          <t>Z04_B02_P01_Ib01_I01</t>
+          <t>Z04_B01_P01_Ib02_I01</t>
         </is>
       </c>
       <c r="B17" s="4" t="inlineStr">
         <is>
-          <t>Z04_B02_P01_Ib01</t>
+          <t>Z04_B01_P01_Ib02</t>
         </is>
       </c>
       <c r="C17" s="4" t="inlineStr">
         <is>
-          <t>4.2.a</t>
+          <t>4.1.b</t>
         </is>
       </c>
       <c r="D17" s="4" t="inlineStr">
         <is>
-          <t>a) 0- bis 2-Jährige</t>
+          <t>Berufliche Qualifizierung</t>
         </is>
       </c>
       <c r="E17" s="4" t="inlineStr">
         <is>
-          <t>a) 0 to 2-year-olds</t>
+          <t>Vocational qualification</t>
         </is>
       </c>
       <c r="F17" s="4" t="inlineStr">
         <is>
-          <t>Ganztagsbetreuung für Kinder &lt;br&gt;0- bis 2-Jährige</t>
+          <t>Akademisch Qualifizierte und beruflich Höherqualifizierte (30- bis 34-Jährige mit tertiärem oder post-sekundarem nichttertiärem Abschluss)</t>
         </is>
       </c>
       <c r="G17" s="4" t="inlineStr">
         <is>
-          <t>All-day care provision for 0 to 2-year-old children</t>
+          <t>Persons with an academic or higher vocational qualification (30 to 34-year-olds with a tertiary or post-secondary non-tertiary level of education)</t>
         </is>
       </c>
       <c r="H17" s="4" t="inlineStr">
         <is>
-          <t>Anstieg auf 35 % bis 2030</t>
+          <t>Steigerung des Anteils auf 55 % bis 2030</t>
         </is>
       </c>
       <c r="I17" s="4" t="inlineStr">
         <is>
-          <t>Increase to 35 % by 2030</t>
+          <t>Increase the proportion to 55 % by 2030</t>
         </is>
       </c>
       <c r="J17" s="4" t="inlineStr">
         <is>
-          <t>Anstieg auf 35 % bis 2030</t>
+          <t>Steigerung des Anteils auf 55 % bis 2030</t>
         </is>
       </c>
       <c r="K17" s="4" t="inlineStr">
         <is>
-          <t>increase to 35 % by 2030</t>
+          <t>increase the proportion to 55 % by 2030</t>
         </is>
       </c>
       <c r="L17" s="4" t="inlineStr">
         <is>
-          <t>Ganztagsbetreuung für Kinder &lt;br&gt;0- bis 2-Jährige</t>
+          <t>Akademisch Qualifizierte und beruflich Höherqualifizierte (30- bis 34-Jährige mit tertiärem oder post-sekundarem nichttertiärem Abschluss)</t>
         </is>
       </c>
       <c r="M17" s="4" t="inlineStr">
         <is>
-          <t>All-day care provision for 0 to 2-year-old children</t>
+          <t>Persons with an academic or higher vocational qualification (30 to 34-year-olds with a tertiary or post-secondary non-tertiary level of education)</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="18">
       <c r="A18" s="4" t="inlineStr">
         <is>
-          <t>Z04_B02_P01_Ib01_I02</t>
+          <t>Z04_B02_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B18" s="4" t="inlineStr">
@@ -1610,198 +1610,198 @@
       </c>
       <c r="C18" s="4" t="inlineStr">
         <is>
-          <t>4.2.b</t>
+          <t>4.2.a</t>
         </is>
       </c>
       <c r="D18" s="4" t="inlineStr">
         <is>
-          <t>b) 3- bis 5-Jährige</t>
+          <t>a) 0- bis 2-Jährige</t>
         </is>
       </c>
       <c r="E18" s="4" t="inlineStr">
         <is>
-          <t>b) 3 to 5-year-olds</t>
+          <t>a) 0 to 2-year-olds</t>
         </is>
       </c>
       <c r="F18" s="4" t="inlineStr">
         <is>
-          <t>Ganztagsbetreuung für Kinder &lt;br&gt;3- bis 5-Jährige</t>
+          <t>Ganztagsbetreuung für Kinder &lt;br&gt;0- bis 2-Jährige</t>
         </is>
       </c>
       <c r="G18" s="4" t="inlineStr">
         <is>
-          <t>All-day care provision for 3 to 5-year-old children</t>
+          <t>All-day care provision for 0 to 2-year-old children</t>
         </is>
       </c>
       <c r="H18" s="4" t="inlineStr">
         <is>
-          <t>Anstieg auf 70 % bis 2030</t>
+          <t>Anstieg auf 35 % bis 2030</t>
         </is>
       </c>
       <c r="I18" s="4" t="inlineStr">
         <is>
-          <t>Increase to 70 % by 2030</t>
+          <t>Increase to 35 % by 2030</t>
         </is>
       </c>
       <c r="J18" s="4" t="inlineStr">
         <is>
-          <t>Anstieg auf 70 % bis 2030</t>
+          <t>Anstieg auf 35 % bis 2030</t>
         </is>
       </c>
       <c r="K18" s="4" t="inlineStr">
         <is>
-          <t>increase to 70 % by 2030</t>
+          <t>increase to 35 % by 2030</t>
         </is>
       </c>
       <c r="L18" s="4" t="inlineStr">
         <is>
-          <t>Ganztagsbetreuung für Kinder &lt;br&gt;3- bis 5-Jährige</t>
+          <t>Ganztagsbetreuung für Kinder &lt;br&gt;0- bis 2-Jährige</t>
         </is>
       </c>
       <c r="M18" s="4" t="inlineStr">
         <is>
-          <t>All-day care provision for 3 to 5-year-old children</t>
+          <t>All-day care provision for 0 to 2-year-old children</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="19">
       <c r="A19" s="4" t="inlineStr">
         <is>
-          <t>Z05_B01_P01_Ib01_I01</t>
+          <t>Z04_B02_P01_Ib01_I02</t>
         </is>
       </c>
       <c r="B19" s="4" t="inlineStr">
         <is>
-          <t>Z05_B01_P01_Ib01</t>
+          <t>Z04_B02_P01_Ib01</t>
         </is>
       </c>
       <c r="C19" s="4" t="inlineStr">
         <is>
-          <t>5.1.a</t>
+          <t>4.2.b</t>
         </is>
       </c>
       <c r="D19" s="4" t="inlineStr">
         <is>
-          <t>Gender Pay Gap</t>
+          <t>b) 3- bis 5-Jährige</t>
         </is>
       </c>
       <c r="E19" s="4" t="inlineStr">
         <is>
-          <t>Gender Pay Gap</t>
+          <t>b) 3 to 5-year-olds</t>
         </is>
       </c>
       <c r="F19" s="4" t="inlineStr">
         <is>
-          <t>Verdienstabstand zwischen Frauen und Männern</t>
+          <t>Ganztagsbetreuung für Kinder &lt;br&gt;3- bis 5-Jährige</t>
         </is>
       </c>
       <c r="G19" s="4" t="inlineStr">
         <is>
-          <t>Gender pay gap</t>
+          <t>All-day care provision for 3 to 5-year-old children</t>
         </is>
       </c>
       <c r="H19" s="4" t="inlineStr">
         <is>
-          <t>Verringerung des Abstandes auf 10 % bis 2020, Beibehaltung bis 2030</t>
+          <t>Anstieg auf 70 % bis 2030</t>
         </is>
       </c>
       <c r="I19" s="4" t="inlineStr">
         <is>
-          <t>Reduce the gap to 10 % by 2020, maintained until 2030 subsequently</t>
+          <t>Increase to 70 % by 2030</t>
         </is>
       </c>
       <c r="J19" s="4" t="inlineStr">
         <is>
-          <t>Beibehaltung von maximal 10 % bis 2030</t>
+          <t>Anstieg auf 70 % bis 2030</t>
         </is>
       </c>
       <c r="K19" s="4" t="inlineStr">
         <is>
-          <t>maintaine a maximum of 10 % by 2030</t>
+          <t>increase to 70 % by 2030</t>
         </is>
       </c>
       <c r="L19" s="4" t="inlineStr">
         <is>
-          <t>Verdienstabstand zwischen Frauen und Männern</t>
+          <t>Ganztagsbetreuung für Kinder &lt;br&gt;3- bis 5-Jährige</t>
         </is>
       </c>
       <c r="M19" s="4" t="inlineStr">
         <is>
-          <t>Gender pay gap</t>
+          <t>All-day care provision for 3 to 5-year-old children</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="20">
       <c r="A20" s="4" t="inlineStr">
         <is>
-          <t>Z05_B01_P01_Ib02_I01</t>
+          <t>Z05_B01_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B20" s="4" t="inlineStr">
         <is>
-          <t>Z05_B01_P01_Ib02</t>
+          <t>Z05_B01_P01_Ib01</t>
         </is>
       </c>
       <c r="C20" s="4" t="inlineStr">
         <is>
-          <t>5.1.b</t>
+          <t>5.1.a</t>
         </is>
       </c>
       <c r="D20" s="4" t="inlineStr">
         <is>
-          <t>b) Wirtschaft</t>
+          <t>Gender Pay Gap</t>
         </is>
       </c>
       <c r="E20" s="4" t="inlineStr">
         <is>
-          <t>b) Business</t>
+          <t>Gender Pay Gap</t>
         </is>
       </c>
       <c r="F20" s="4" t="inlineStr">
         <is>
-          <t>Frauen in Führungspositionen in der Wirtschaft</t>
+          <t>Verdienstabstand zwischen Frauen und Männern</t>
         </is>
       </c>
       <c r="G20" s="4" t="inlineStr">
         <is>
-          <t>Women in management positions in business</t>
+          <t>Gender pay gap</t>
         </is>
       </c>
       <c r="H20" s="4" t="inlineStr">
         <is>
-          <t>30 % Frauen in Aufsichtsräten der börsennotierten und paritätisch mitbestimmten Unternehmen bis 2030</t>
+          <t>Verringerung des Abstandes auf 10 % bis 2020, Beibehaltung bis 2030</t>
         </is>
       </c>
       <c r="I20" s="4" t="inlineStr">
         <is>
-          <t>30 % women on supervisory boards of listed and fully co-determined companies by 2030</t>
+          <t>Reduce the gap to 10 % by 2020, maintained until 2030 subsequently</t>
         </is>
       </c>
       <c r="J20" s="4" t="inlineStr">
         <is>
-          <t>30 % Frauen in Aufsichtsräten bis 2030</t>
+          <t>Beibehaltung von maximal 10 % bis 2030</t>
         </is>
       </c>
       <c r="K20" s="4" t="inlineStr">
         <is>
-          <t>30% women on supervisory boards by 2030</t>
+          <t>maintaine a maximum of 10 % by 2030</t>
         </is>
       </c>
       <c r="L20" s="4" t="inlineStr">
         <is>
-          <t>In Aufsichtsräten der börsennotierten und paritätisch mitbestimmten Unternehmen</t>
+          <t>Verdienstabstand zwischen Frauen und Männern</t>
         </is>
       </c>
       <c r="M20" s="4" t="inlineStr">
         <is>
-          <t>On supervisory boards of listed and fully co-determined companies</t>
+          <t>Gender pay gap</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="21">
       <c r="A21" s="4" t="inlineStr">
         <is>
-          <t>Z05_B01_P01_Ib02_I02</t>
+          <t>Z05_B01_P01_Ib02_I01</t>
         </is>
       </c>
       <c r="B21" s="4" t="inlineStr">
@@ -1811,399 +1811,399 @@
       </c>
       <c r="C21" s="4" t="inlineStr">
         <is>
-          <t>5.1.c</t>
+          <t>5.1.b</t>
         </is>
       </c>
       <c r="D21" s="4" t="inlineStr">
         <is>
-          <t>c) Öffentlicher Dienst des Bundes</t>
+          <t>b) Wirtschaft</t>
         </is>
       </c>
       <c r="E21" s="4" t="inlineStr">
         <is>
-          <t>c) Federal civil service</t>
+          <t>b) Business</t>
         </is>
       </c>
       <c r="F21" s="4" t="inlineStr">
         <is>
-          <t>Frauen in Führungspositionen im öffentlichen Dienst des Bundes</t>
+          <t>Frauen in Führungspositionen in der Wirtschaft</t>
         </is>
       </c>
       <c r="G21" s="4" t="inlineStr">
         <is>
-          <t>Women in management positions in the federal civil service</t>
+          <t>Women in management positions in business</t>
         </is>
       </c>
       <c r="H21" s="4" t="inlineStr">
         <is>
-          <t>Gleichberechtigte Teilhabe von Frauen und Männern in Leitungsfunktionen des öffentlichen Dienstes bis 2025</t>
+          <t>30 % Frauen in Aufsichtsräten der börsennotierten und paritätisch mitbestimmten Unternehmen bis 2030</t>
         </is>
       </c>
       <c r="I21" s="4" t="inlineStr">
         <is>
-          <t>Equal-opportunity participation of women and men in civil service management positions by 2025</t>
+          <t>30 % women on supervisory boards of listed and fully co-determined companies by 2030</t>
         </is>
       </c>
       <c r="J21" s="4" t="inlineStr">
         <is>
-          <t>gleichberechtigte Teilhabe bis 2025</t>
+          <t>30 % Frauen in Aufsichtsräten bis 2030</t>
         </is>
       </c>
       <c r="K21" s="4" t="inlineStr">
         <is>
-          <t>equal-opportunity participation by 2025</t>
+          <t>30% women on supervisory boards by 2030</t>
         </is>
       </c>
       <c r="L21" s="4" t="inlineStr">
         <is>
-          <t>Im öffentlichen Dienst des Bundes</t>
+          <t>In Aufsichtsräten der börsennotierten und paritätisch mitbestimmten Unternehmen</t>
         </is>
       </c>
       <c r="M21" s="4" t="inlineStr">
         <is>
-          <t>In management positions in the federal civil service</t>
+          <t>On supervisory boards of listed and fully co-determined companies</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="22">
       <c r="A22" s="4" t="inlineStr">
         <is>
-          <t>Z05_B01_P01_Ib03_I01</t>
+          <t>Z05_B01_P01_Ib02_I02</t>
         </is>
       </c>
       <c r="B22" s="4" t="inlineStr">
         <is>
-          <t>Z05_B01_P01_Ib03</t>
+          <t>Z05_B01_P01_Ib02</t>
         </is>
       </c>
       <c r="C22" s="4" t="inlineStr">
         <is>
-          <t>5.1.d</t>
+          <t>5.1.c</t>
         </is>
       </c>
       <c r="D22" s="4" t="inlineStr">
         <is>
-          <t>Väterbeteiligung beim Elterngeld</t>
+          <t>c) Öffentlicher Dienst des Bundes</t>
         </is>
       </c>
       <c r="E22" s="4" t="inlineStr">
         <is>
-          <t>Fathers receiving parental allowance</t>
+          <t>c) Federal civil service</t>
         </is>
       </c>
       <c r="F22" s="4" t="inlineStr">
         <is>
-          <t>Väterbeteiligung beim Elterngeld</t>
+          <t>Frauen in Führungspositionen im öffentlichen Dienst des Bundes</t>
         </is>
       </c>
       <c r="G22" s="4" t="inlineStr">
         <is>
-          <t>Proportion of fathers receiving parental allowance</t>
+          <t>Women in management positions in the federal civil service</t>
         </is>
       </c>
       <c r="H22" s="4" t="inlineStr">
         <is>
-          <t>65 % bis 2030</t>
+          <t>Gleichberechtigte Teilhabe von Frauen und Männern in Leitungsfunktionen des öffentlichen Dienstes bis 2025</t>
         </is>
       </c>
       <c r="I22" s="4" t="inlineStr">
         <is>
-          <t>65 % by 2030</t>
+          <t>Equal-opportunity participation of women and men in civil service management positions by 2025</t>
         </is>
       </c>
       <c r="J22" s="4" t="inlineStr">
         <is>
-          <t>65 % bis 2030</t>
+          <t>gleichberechtigte Teilhabe bis 2025</t>
         </is>
       </c>
       <c r="K22" s="4" t="inlineStr">
         <is>
-          <t>65 % by 2030</t>
+          <t>equal-opportunity participation by 2025</t>
         </is>
       </c>
       <c r="L22" s="4" t="inlineStr">
         <is>
-          <t>Väterbeteiligung beim Elterngeld</t>
+          <t>Im öffentlichen Dienst des Bundes</t>
         </is>
       </c>
       <c r="M22" s="4" t="inlineStr">
         <is>
-          <t>Proportion of fathers receiving parental allowance</t>
+          <t>In management positions in the federal civil service</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="23">
       <c r="A23" s="4" t="inlineStr">
         <is>
-          <t>Z05_B01_P02_Ib01_I01</t>
+          <t>Z05_B01_P01_Ib03_I01</t>
         </is>
       </c>
       <c r="B23" s="4" t="inlineStr">
         <is>
-          <t>Z05_B01_P02_Ib01</t>
+          <t>Z05_B01_P01_Ib03</t>
         </is>
       </c>
       <c r="C23" s="4" t="inlineStr">
         <is>
-          <t>5.1.e</t>
+          <t>5.1.d</t>
         </is>
       </c>
       <c r="D23" s="4" t="inlineStr">
         <is>
-          <t>Berufliche Qualifizierung von Frauen und Mädchen durch Entwicklungszusammenarbeit</t>
+          <t>Väterbeteiligung beim Elterngeld</t>
         </is>
       </c>
       <c r="E23" s="4" t="inlineStr">
         <is>
-          <t>Vocational qualifications of women and girls through development coopreation</t>
+          <t>Fathers receiving parental allowance</t>
         </is>
       </c>
       <c r="F23" s="4" t="inlineStr">
         <is>
-          <t>Berufliche Qualifizierung von Frauen und Mädchen durch deutsche entwicklungspolitische Zusammenarbeit</t>
+          <t>Väterbeteiligung beim Elterngeld</t>
         </is>
       </c>
       <c r="G23" s="4" t="inlineStr">
         <is>
-          <t>Vocational qualifications of women and girls through German development assistance</t>
+          <t>Proportion of fathers receiving parental allowance</t>
         </is>
       </c>
       <c r="H23" s="4" t="inlineStr">
         <is>
-          <t>Sukzessive Steigerung bis 2030 um ein Drittel verglichen mit Basisjahr 2015</t>
+          <t>65 % bis 2030</t>
         </is>
       </c>
       <c r="I23" s="4" t="inlineStr">
         <is>
-          <t>To be increased gradually by a third by 2030 compared to 2015 as the base year</t>
+          <t>65 % by 2030</t>
         </is>
       </c>
       <c r="J23" s="4" t="inlineStr">
         <is>
-          <t>Steigerung um ein Drittel bis 2030</t>
+          <t>65 % bis 2030</t>
         </is>
       </c>
       <c r="K23" s="4" t="inlineStr">
         <is>
-          <t>to be increased by a third by 2030</t>
+          <t>65 % by 2030</t>
         </is>
       </c>
       <c r="L23" s="4" t="inlineStr">
         <is>
-          <t>Berufliche Qualifizierung von Frauen und Mädchen durch deutsche entwicklungspolitische Zusammenarbeit</t>
+          <t>Väterbeteiligung beim Elterngeld</t>
         </is>
       </c>
       <c r="M23" s="4" t="inlineStr">
         <is>
-          <t>Vocational qualifications of women and girls through German development cooperation</t>
+          <t>Proportion of fathers receiving parental allowance</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="24">
       <c r="A24" s="4" t="inlineStr">
         <is>
-          <t>Z06_B01_P01_Ib01_I01</t>
+          <t>Z05_B01_P02_Ib01_I01</t>
         </is>
       </c>
       <c r="B24" s="4" t="inlineStr">
         <is>
-          <t>Z06_B01_P01_Ib01</t>
+          <t>Z05_B01_P02_Ib01</t>
         </is>
       </c>
       <c r="C24" s="4" t="inlineStr">
         <is>
-          <t>6.1.a</t>
+          <t>5.1.e</t>
         </is>
       </c>
       <c r="D24" s="4" t="inlineStr">
         <is>
-          <t>Phosphor in Fließgewässern</t>
+          <t>Berufliche Qualifizierung von Frauen und Mädchen durch Entwicklungszusammenarbeit</t>
         </is>
       </c>
       <c r="E24" s="4" t="inlineStr">
         <is>
-          <t>Phosphorous in flowing waters</t>
+          <t>Vocational qualifications of women and girls through development coopreation</t>
         </is>
       </c>
       <c r="F24" s="4" t="inlineStr">
         <is>
-          <t>Phosphor in Fließgewässern</t>
+          <t>Berufliche Qualifizierung von Frauen und Mädchen durch deutsche entwicklungspolitische Zusammenarbeit</t>
         </is>
       </c>
       <c r="G24" s="4" t="inlineStr">
         <is>
-          <t>Phosphorous in flowing waters</t>
+          <t>Vocational qualifications of women and girls through German development assistance</t>
         </is>
       </c>
       <c r="H24" s="4" t="inlineStr">
         <is>
-          <t>Einhaltung oder Unterschreitung der gewässertypischen Orientierungswerte an allen Messstellen bis 2030</t>
+          <t>Sukzessive Steigerung bis 2030 um ein Drittel verglichen mit Basisjahr 2015</t>
         </is>
       </c>
       <c r="I24" s="4" t="inlineStr">
         <is>
-          <t>Not exceeding benchmark values for specific types of water bodies at all monitoring points by 2030</t>
+          <t>To be increased gradually by a third by 2030 compared to 2015 as the base year</t>
         </is>
       </c>
       <c r="J24" s="4" t="inlineStr">
         <is>
-          <t>Einhaltung oder Unterschreitung der Orientierungswerte bis 2030</t>
+          <t>Steigerung um ein Drittel bis 2030</t>
         </is>
       </c>
       <c r="K24" s="4" t="inlineStr">
         <is>
-          <t>not exceeding benchmark values by 2030</t>
+          <t>to be increased by a third by 2030</t>
         </is>
       </c>
       <c r="L24" s="4" t="inlineStr">
         <is>
-          <t>Phosphor in Fließgewässern</t>
+          <t>Berufliche Qualifizierung von Frauen und Mädchen durch deutsche entwicklungspolitische Zusammenarbeit</t>
         </is>
       </c>
       <c r="M24" s="4" t="inlineStr">
         <is>
-          <t>Phosphorous in flowing waters</t>
+          <t>Vocational qualifications of women and girls through German development cooperation</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="25">
       <c r="A25" s="4" t="inlineStr">
         <is>
-          <t>Z06_B01_P01_Ib02_I01</t>
+          <t>Z06_B01_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B25" s="4" t="inlineStr">
         <is>
-          <t>Z06_B01_P01_Ib02</t>
+          <t>Z06_B01_P01_Ib01</t>
         </is>
       </c>
       <c r="C25" s="4" t="inlineStr">
         <is>
-          <t>6.1.b</t>
+          <t>6.1.a</t>
         </is>
       </c>
       <c r="D25" s="4" t="inlineStr">
         <is>
-          <t>Nitrat im Grundwasser</t>
+          <t>Phosphor in Fließgewässern</t>
         </is>
       </c>
       <c r="E25" s="4" t="inlineStr">
         <is>
-          <t>Nitrate in groundwater</t>
+          <t>Phosphorous in flowing waters</t>
         </is>
       </c>
       <c r="F25" s="4" t="inlineStr">
         <is>
-          <t>Nitrat im Grundwasser</t>
+          <t>Phosphor in Fließgewässern</t>
         </is>
       </c>
       <c r="G25" s="4" t="inlineStr">
         <is>
-          <t>Nitrate in groundwater</t>
+          <t>Phosphorous in flowing waters</t>
         </is>
       </c>
       <c r="H25" s="4" t="inlineStr">
         <is>
-          <t>Einhaltung des Nitrat Schwellenwertes von 50 Milligramm pro Liter an allen Messstellen bis 2030</t>
+          <t>Einhaltung oder Unterschreitung der gewässertypischen Orientierungswerte an allen Messstellen bis 2030</t>
         </is>
       </c>
       <c r="I25" s="4" t="inlineStr">
         <is>
-          <t>Compliance with the nitrate threshold value of 50 mg/l at all monitoring points by 2030</t>
+          <t>Not exceeding benchmark values for specific types of water bodies at all monitoring points by 2030</t>
         </is>
       </c>
       <c r="J25" s="4" t="inlineStr">
         <is>
-          <t>Einhaltung des Schwellenwertes von 50 mg/l bis 2030</t>
+          <t>Einhaltung oder Unterschreitung der Orientierungswerte bis 2030</t>
         </is>
       </c>
       <c r="K25" s="4" t="inlineStr">
         <is>
-          <t>compliance with the threshold value of 50 mg/l by 2030</t>
+          <t>not exceeding benchmark values by 2030</t>
         </is>
       </c>
       <c r="L25" s="4" t="inlineStr">
         <is>
-          <t>Nitrat im Grundwasser</t>
+          <t>Phosphor in Fließgewässern</t>
         </is>
       </c>
       <c r="M25" s="4" t="inlineStr">
         <is>
-          <t>Nitrate in groundwater</t>
+          <t>Phosphorous in flowing waters</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="26">
       <c r="A26" s="4" t="inlineStr">
         <is>
-          <t>Z06_B02_P01_Ib01_I01</t>
+          <t>Z06_B01_P01_Ib02_I01</t>
         </is>
       </c>
       <c r="B26" s="4" t="inlineStr">
         <is>
-          <t>Z06_B02_P01_Ib01</t>
+          <t>Z06_B01_P01_Ib02</t>
         </is>
       </c>
       <c r="C26" s="4" t="inlineStr">
         <is>
-          <t>6.2.a</t>
+          <t>6.1.b</t>
         </is>
       </c>
       <c r="D26" s="4" t="inlineStr">
         <is>
-          <t>a) Trinkwasserversorgung</t>
+          <t>Nitrat im Grundwasser</t>
         </is>
       </c>
       <c r="E26" s="4" t="inlineStr">
         <is>
-          <t>a) Access to drinking water</t>
+          <t>Nitrate in groundwater</t>
         </is>
       </c>
       <c r="F26" s="4" t="inlineStr">
         <is>
-          <t>Anzahl der Menschen, die einen neuen oder hochwertigeren Zugang zur Trinkwasserversorgung durch deutsche Unterstützung erhalten</t>
+          <t>Nitrat im Grundwasser</t>
         </is>
       </c>
       <c r="G26" s="4" t="inlineStr">
         <is>
-          <t>Number of people gaining first-time or upgraded access to drinking water owing to German support</t>
+          <t>Nitrate in groundwater</t>
         </is>
       </c>
       <c r="H26" s="4" t="inlineStr">
         <is>
-          <t>6 Millionen Menschen pro Jahr bis 2030</t>
+          <t>Einhaltung des Nitrat Schwellenwertes von 50 Milligramm pro Liter an allen Messstellen bis 2030</t>
         </is>
       </c>
       <c r="I26" s="4" t="inlineStr">
         <is>
-          <t>6 million people per year by 2030</t>
+          <t>Compliance with the nitrate threshold value of 50 mg/l at all monitoring points by 2030</t>
         </is>
       </c>
       <c r="J26" s="4" t="inlineStr">
         <is>
-          <t>6 Millionen Menschen pro Jahr bis 2030</t>
+          <t>Einhaltung des Schwellenwertes von 50 mg/l bis 2030</t>
         </is>
       </c>
       <c r="K26" s="4" t="inlineStr">
         <is>
-          <t>6 million people per year by 2030</t>
+          <t>compliance with the threshold value of 50 mg/l by 2030</t>
         </is>
       </c>
       <c r="L26" s="4" t="inlineStr">
         <is>
-          <t>Anzahl der Menschen, die einen neuen oder hochwertigeren Zugang zur Trinkwasserversorgung erhalten haben</t>
+          <t>Nitrat im Grundwasser</t>
         </is>
       </c>
       <c r="M26" s="4" t="inlineStr">
         <is>
-          <t>Number of people gaining first-time or upgraded access to drinking water</t>
+          <t>Nitrate in groundwater</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="27">
       <c r="A27" s="4" t="inlineStr">
         <is>
-          <t>Z06_B02_P01_Ib01_I02</t>
+          <t>Z06_B02_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B27" s="4" t="inlineStr">
@@ -2213,64 +2213,64 @@
       </c>
       <c r="C27" s="4" t="inlineStr">
         <is>
-          <t>6.2.b</t>
+          <t>6.2.a</t>
         </is>
       </c>
       <c r="D27" s="4" t="inlineStr">
         <is>
-          <t>b) Sanitärversorgung</t>
+          <t>a) Trinkwasserversorgung</t>
         </is>
       </c>
       <c r="E27" s="4" t="inlineStr">
         <is>
-          <t>b) Access to sanitation</t>
+          <t>a) Access to drinking water</t>
         </is>
       </c>
       <c r="F27" s="4" t="inlineStr">
         <is>
-          <t>Anzahl der Menschen, die einen neuen oder verbesserten Anschluss zur Sanitärversorgung durch deutsche Unterstützung erhalten</t>
+          <t>Anzahl der Menschen, die einen neuen oder hochwertigeren Zugang zur Trinkwasserversorgung durch deutsche Unterstützung erhalten</t>
         </is>
       </c>
       <c r="G27" s="4" t="inlineStr">
         <is>
-          <t>Number of people gaining first-time or improved access to sanitation owing to German support</t>
+          <t>Number of people gaining first-time or upgraded access to drinking water owing to German support</t>
         </is>
       </c>
       <c r="H27" s="4" t="inlineStr">
         <is>
-          <t>4 Millionen Menschen pro Jahr bis 2030</t>
+          <t>6 Millionen Menschen pro Jahr bis 2030</t>
         </is>
       </c>
       <c r="I27" s="4" t="inlineStr">
         <is>
-          <t>4 million people per year by 2030</t>
+          <t>6 million people per year by 2030</t>
         </is>
       </c>
       <c r="J27" s="4" t="inlineStr">
         <is>
-          <t>4 Millionen Menschen pro Jahr bis 2030</t>
+          <t>6 Millionen Menschen pro Jahr bis 2030</t>
         </is>
       </c>
       <c r="K27" s="4" t="inlineStr">
         <is>
-          <t>4 million people per year by 2030</t>
+          <t>6 million people per year by 2030</t>
         </is>
       </c>
       <c r="L27" s="4" t="inlineStr">
         <is>
-          <t>Anzahl der Menschen, die einen neuen oder verbesserten Anschluss zur Sanitärversorgung erhalten haben</t>
+          <t>Anzahl der Menschen, die einen neuen oder hochwertigeren Zugang zur Trinkwasserversorgung erhalten haben</t>
         </is>
       </c>
       <c r="M27" s="4" t="inlineStr">
         <is>
-          <t>Number of people gaining first-time or improved access to sanitation</t>
+          <t>Number of people gaining first-time or upgraded access to drinking water</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="28">
       <c r="A28" s="4" t="inlineStr">
         <is>
-          <t>Z06_B02_P01_Ib01_I03</t>
+          <t>Z06_B02_P01_Ib01_I02</t>
         </is>
       </c>
       <c r="B28" s="4" t="inlineStr">
@@ -2280,131 +2280,131 @@
       </c>
       <c r="C28" s="4" t="inlineStr">
         <is>
-          <t>6.2</t>
+          <t>6.2.b</t>
         </is>
       </c>
       <c r="D28" s="4" t="inlineStr">
         <is>
-          <t>Trinkwasser- und Sanitärversorgung</t>
+          <t>b) Sanitärversorgung</t>
         </is>
       </c>
       <c r="E28" s="4" t="inlineStr">
         <is>
-          <t>Access to drinking water and sanitation</t>
+          <t>b) Access to sanitation</t>
         </is>
       </c>
       <c r="F28" s="4" t="inlineStr">
         <is>
-          <t>Anzahl der Menschen, die einen neuen oder hochwertigeren Zugang zur Trinkwasserversorgung oder Anschluss zur Sanitärversorgung durch deutsche Unterstützung erhalten</t>
+          <t>Anzahl der Menschen, die einen neuen oder verbesserten Anschluss zur Sanitärversorgung durch deutsche Unterstützung erhalten</t>
         </is>
       </c>
       <c r="G28" s="4" t="inlineStr">
         <is>
-          <t>Number of people gaining first-time or upgraded access to drinking water or sanitation owing to German support</t>
+          <t>Number of people gaining first-time or improved access to sanitation owing to German support</t>
         </is>
       </c>
       <c r="H28" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>4 Millionen Menschen pro Jahr bis 2030</t>
         </is>
       </c>
       <c r="I28" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>4 million people per year by 2030</t>
         </is>
       </c>
       <c r="J28" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>4 Millionen Menschen pro Jahr bis 2030</t>
         </is>
       </c>
       <c r="K28" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>4 million people per year by 2030</t>
         </is>
       </c>
       <c r="L28" s="4" t="inlineStr">
         <is>
-          <t>Anzahl der Menschen, die einen neuen oder hochwertigeren Zugang zur Trinkwasserversorgung oder Anschluss zur Sanitärversorgung erhalten haben</t>
+          <t>Anzahl der Menschen, die einen neuen oder verbesserten Anschluss zur Sanitärversorgung erhalten haben</t>
         </is>
       </c>
       <c r="M28" s="4" t="inlineStr">
         <is>
-          <t>Number of people gaining first-time or upgraded access to drinking water or sanitation</t>
+          <t>Number of people gaining first-time or improved access to sanitation</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="29">
       <c r="A29" s="4" t="inlineStr">
         <is>
-          <t>Z07_B01_P01_Ib01_I01</t>
+          <t>Z06_B02_P01_Ib01_I03</t>
         </is>
       </c>
       <c r="B29" s="4" t="inlineStr">
         <is>
-          <t>Z07_B01_P01_Ib01</t>
+          <t>Z06_B02_P01_Ib01</t>
         </is>
       </c>
       <c r="C29" s="4" t="inlineStr">
         <is>
-          <t>7.1.a</t>
+          <t>6.2</t>
         </is>
       </c>
       <c r="D29" s="4" t="inlineStr">
         <is>
-          <t>a) Endenergieproduktivität</t>
+          <t>Trinkwasser- und Sanitärversorgung</t>
         </is>
       </c>
       <c r="E29" s="4" t="inlineStr">
         <is>
-          <t>a) Final energy productivity</t>
+          <t>Access to drinking water and sanitation</t>
         </is>
       </c>
       <c r="F29" s="4" t="inlineStr">
         <is>
-          <t>Endenergieproduktivität</t>
+          <t>Anzahl der Menschen, die einen neuen oder hochwertigeren Zugang zur Trinkwasserversorgung oder Anschluss zur Sanitärversorgung durch deutsche Unterstützung erhalten</t>
         </is>
       </c>
       <c r="G29" s="4" t="inlineStr">
         <is>
-          <t>Final energy productivity</t>
+          <t>Number of people gaining first-time or upgraded access to drinking water or sanitation owing to German support</t>
         </is>
       </c>
       <c r="H29" s="4" t="inlineStr">
         <is>
-          <t>Steigerung um 2,1 % pro Jahr im Zeitraum von 2008 – 2050</t>
+          <t/>
         </is>
       </c>
       <c r="I29" s="4" t="inlineStr">
         <is>
-          <t>Increase by 2.1 % per year from 2008 to 2050</t>
+          <t/>
         </is>
       </c>
       <c r="J29" s="4" t="inlineStr">
         <is>
-          <t>Steigerung um 2,1 % pro Jahr</t>
+          <t/>
         </is>
       </c>
       <c r="K29" s="4" t="inlineStr">
         <is>
-          <t>increase by 2.1 % per year</t>
+          <t/>
         </is>
       </c>
       <c r="L29" s="4" t="inlineStr">
         <is>
-          <t>Endenergieproduktivität</t>
+          <t>Anzahl der Menschen, die einen neuen oder hochwertigeren Zugang zur Trinkwasserversorgung oder Anschluss zur Sanitärversorgung erhalten haben</t>
         </is>
       </c>
       <c r="M29" s="4" t="inlineStr">
         <is>
-          <t>Final energy productivity</t>
+          <t>Number of people gaining first-time or upgraded access to drinking water or sanitation</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="30">
       <c r="A30" s="4" t="inlineStr">
         <is>
-          <t>Z07_B01_P01_Ib01_I02</t>
+          <t>Z07_B01_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B30" s="4" t="inlineStr">
@@ -2414,332 +2414,332 @@
       </c>
       <c r="C30" s="4" t="inlineStr">
         <is>
-          <t>7.1.b</t>
+          <t>7.1.a</t>
         </is>
       </c>
       <c r="D30" s="4" t="inlineStr">
         <is>
-          <t>b) Primärenergieverbrauch</t>
+          <t>a) Endenergieproduktivität</t>
         </is>
       </c>
       <c r="E30" s="4" t="inlineStr">
         <is>
-          <t>b) Primary energy consumption</t>
+          <t>a) Final energy productivity</t>
         </is>
       </c>
       <c r="F30" s="4" t="inlineStr">
         <is>
-          <t>Primärenergieverbrauch</t>
+          <t>Endenergieproduktivität</t>
         </is>
       </c>
       <c r="G30" s="4" t="inlineStr">
         <is>
-          <t>Primary energy consumption</t>
+          <t>Final energy productivity</t>
         </is>
       </c>
       <c r="H30" s="4" t="inlineStr">
         <is>
-          <t>Senkung um 20 % bis 2020, um 30 % bis 2030 und um 50 % bis 2050 jeweils gegenüber 2008</t>
+          <t>Steigerung um 2,1 % pro Jahr im Zeitraum von 2008 – 2050</t>
         </is>
       </c>
       <c r="I30" s="4" t="inlineStr">
         <is>
-          <t>Reduction by 20 % by 2020, by 30 % by 2030, and by 50 % by 2050, all compared to 2008</t>
+          <t>Increase by 2.1 % per year from 2008 to 2050</t>
         </is>
       </c>
       <c r="J30" s="4" t="inlineStr">
         <is>
-          <t>Senkung um 30 % bis 2030</t>
+          <t>Steigerung um 2,1 % pro Jahr</t>
         </is>
       </c>
       <c r="K30" s="4" t="inlineStr">
         <is>
-          <t>reduction by 30 % by 2030</t>
+          <t>increase by 2.1 % per year</t>
         </is>
       </c>
       <c r="L30" s="4" t="inlineStr">
         <is>
-          <t>Primärenergieverbrauch</t>
+          <t>Endenergieproduktivität</t>
         </is>
       </c>
       <c r="M30" s="4" t="inlineStr">
         <is>
-          <t>Primary energy consumption</t>
+          <t>Final energy productivity</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="31">
       <c r="A31" s="4" t="inlineStr">
         <is>
-          <t>Z07_B02_P01_Ib01_I01</t>
+          <t>Z07_B01_P01_Ib01_I02</t>
         </is>
       </c>
       <c r="B31" s="4" t="inlineStr">
         <is>
-          <t>Z07_B02_P01_Ib01</t>
+          <t>Z07_B01_P01_Ib01</t>
         </is>
       </c>
       <c r="C31" s="4" t="inlineStr">
         <is>
-          <t>7.2.a</t>
+          <t>7.1.b</t>
         </is>
       </c>
       <c r="D31" s="4" t="inlineStr">
         <is>
-          <t>Erneuerbarer Energien</t>
+          <t>b) Primärenergieverbrauch</t>
         </is>
       </c>
       <c r="E31" s="4" t="inlineStr">
         <is>
-          <t>Renewable energies</t>
+          <t>b) Primary energy consumption</t>
         </is>
       </c>
       <c r="F31" s="4" t="inlineStr">
         <is>
-          <t>Anteil erneuerbarer Energien am Brutto-Endenergieverbrauch</t>
+          <t>Primärenergieverbrauch</t>
         </is>
       </c>
       <c r="G31" s="4" t="inlineStr">
         <is>
-          <t>Share of renewable energies in gross final energy consumption</t>
+          <t>Primary energy consumption</t>
         </is>
       </c>
       <c r="H31" s="4" t="inlineStr">
         <is>
-          <t>Anstieg auf 18 % bis 2020, auf 30 % bis 2030, auf 45 % bis 2040 und auf 60 % bis 2050</t>
+          <t>Senkung um 20 % bis 2020, um 30 % bis 2030 und um 50 % bis 2050 jeweils gegenüber 2008</t>
         </is>
       </c>
       <c r="I31" s="4" t="inlineStr">
         <is>
-          <t>Increase to 18 % by 2020 and to 30 % by 2030, to 45 % by 2040 and to 60 % by 2050</t>
+          <t>Reduction by 20 % by 2020, by 30 % by 2030, and by 50 % by 2050, all compared to 2008</t>
         </is>
       </c>
       <c r="J31" s="4" t="inlineStr">
         <is>
-          <t>Anstieg auf 30 % bis 2030</t>
+          <t>Senkung um 30 % bis 2030</t>
         </is>
       </c>
       <c r="K31" s="4" t="inlineStr">
         <is>
-          <t>increase to 30 % by 2030</t>
+          <t>reduction by 30 % by 2030</t>
         </is>
       </c>
       <c r="L31" s="4" t="inlineStr">
         <is>
-          <t>Anteil erneuerbarer Energien am Brutto-Endenergieverbrauch</t>
+          <t>Primärenergieverbrauch</t>
         </is>
       </c>
       <c r="M31" s="4" t="inlineStr">
         <is>
-          <t>Share of renewable energies in gross final energy consumption</t>
+          <t>Primary energy consumption</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="32">
       <c r="A32" s="4" t="inlineStr">
         <is>
-          <t>Z07_B02_P01_Ib02_I01</t>
+          <t>Z07_B02_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B32" s="4" t="inlineStr">
         <is>
-          <t>Z07_B02_P01_Ib02</t>
+          <t>Z07_B02_P01_Ib01</t>
         </is>
       </c>
       <c r="C32" s="4" t="inlineStr">
         <is>
-          <t>7.2.b</t>
+          <t>7.2.a</t>
         </is>
       </c>
       <c r="D32" s="4" t="inlineStr">
         <is>
-          <t>Strom aus erneuerbaren Energiequellen</t>
+          <t>Erneuerbarer Energien</t>
         </is>
       </c>
       <c r="E32" s="4" t="inlineStr">
         <is>
-          <t>Electricity from renewable energy sources</t>
+          <t>Renewable energies</t>
         </is>
       </c>
       <c r="F32" s="4" t="inlineStr">
         <is>
-          <t>Anteil des Stroms aus erneuerbaren Energiequellen am Bruttostromverbrauch</t>
+          <t>Anteil erneuerbarer Energien am Brutto-Endenergieverbrauch</t>
         </is>
       </c>
       <c r="G32" s="4" t="inlineStr">
         <is>
-          <t>Share of electricity from renewable energy sources in gross electricity consumption</t>
+          <t>Share of renewable energies in gross final energy consumption</t>
         </is>
       </c>
       <c r="H32" s="4" t="inlineStr">
         <is>
-          <t>Anstieg auf mindestens 80 % bis 2030</t>
+          <t>Anstieg auf 18 % bis 2020, auf 30 % bis 2030, auf 45 % bis 2040 und auf 60 % bis 2050</t>
         </is>
       </c>
       <c r="I32" s="4" t="inlineStr">
         <is>
-          <t>Increase to at least 80 % by 2030</t>
+          <t>Increase to 18 % by 2020 and to 30 % by 2030, to 45 % by 2040 and to 60 % by 2050</t>
         </is>
       </c>
       <c r="J32" s="4" t="inlineStr">
         <is>
-          <t>Anstieg auf 80 % bis 2030</t>
+          <t>Anstieg auf 30 % bis 2030</t>
         </is>
       </c>
       <c r="K32" s="4" t="inlineStr">
         <is>
-          <t>increase to 80 % by 2030</t>
+          <t>increase to 30 % by 2030</t>
         </is>
       </c>
       <c r="L32" s="4" t="inlineStr">
         <is>
-          <t>Anteil des Stroms aus erneuerbaren Energiequellen am Bruttostromverbrauch</t>
+          <t>Anteil erneuerbarer Energien am Brutto-Endenergieverbrauch</t>
         </is>
       </c>
       <c r="M32" s="4" t="inlineStr">
         <is>
-          <t>Share of electricity from renewable energy sources in gross electricity consumption</t>
+          <t>Share of renewable energies in gross final energy consumption</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="33">
       <c r="A33" s="4" t="inlineStr">
         <is>
-          <t>Z08_B01_P01_Ib01_I01</t>
+          <t>Z07_B02_P01_Ib02_I01</t>
         </is>
       </c>
       <c r="B33" s="4" t="inlineStr">
         <is>
-          <t>Z08_B01_P01_Ib01</t>
+          <t>Z07_B02_P01_Ib02</t>
         </is>
       </c>
       <c r="C33" s="4" t="inlineStr">
         <is>
-          <t>8.1</t>
+          <t>7.2.b</t>
         </is>
       </c>
       <c r="D33" s="4" t="inlineStr">
         <is>
-          <t>Gesamtrohstoffproduktivität</t>
+          <t>Strom aus erneuerbaren Energiequellen</t>
         </is>
       </c>
       <c r="E33" s="4" t="inlineStr">
         <is>
-          <t>Raw material input productivity</t>
+          <t>Electricity from renewable energy sources</t>
         </is>
       </c>
       <c r="F33" s="4" t="inlineStr">
         <is>
-          <t>Gesamtrohstoffproduktivität</t>
+          <t>Anteil des Stroms aus erneuerbaren Energiequellen am Bruttostromverbrauch</t>
         </is>
       </c>
       <c r="G33" s="4" t="inlineStr">
         <is>
-          <t>Raw material input productivity</t>
+          <t>Share of electricity from renewable energy sources in gross electricity consumption</t>
         </is>
       </c>
       <c r="H33" s="4" t="inlineStr">
         <is>
-          <t>Beibehaltung des Trends der Jahre 2000 – 2010 bis 2030</t>
+          <t>Anstieg auf mindestens 80 % bis 2030</t>
         </is>
       </c>
       <c r="I33" s="4" t="inlineStr">
         <is>
-          <t>Trend of the years 2000–2010 to be maintained until 2030</t>
+          <t>Increase to at least 80 % by 2030</t>
         </is>
       </c>
       <c r="J33" s="4" t="inlineStr">
         <is>
-          <t>Beibehaltung des Trends der Jahre 2000 - 2010 bis 2030</t>
+          <t>Anstieg auf 80 % bis 2030</t>
         </is>
       </c>
       <c r="K33" s="4" t="inlineStr">
         <is>
-          <t>trend of the years 2000-2010 to be maintained until 2030</t>
+          <t>increase to 80 % by 2030</t>
         </is>
       </c>
       <c r="L33" s="4" t="inlineStr">
         <is>
-          <t>Gesamtrohstoffproduktivität</t>
+          <t>Anteil des Stroms aus erneuerbaren Energiequellen am Bruttostromverbrauch</t>
         </is>
       </c>
       <c r="M33" s="4" t="inlineStr">
         <is>
-          <t>Raw material input productivity</t>
+          <t>Share of electricity from renewable energy sources in gross electricity consumption</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="34">
       <c r="A34" s="4" t="inlineStr">
         <is>
-          <t>Z08_B02_P01_Ib01_I01</t>
+          <t>Z08_B01_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B34" s="4" t="inlineStr">
         <is>
-          <t>Z08_B02_P01_Ib01</t>
+          <t>Z08_B01_P01_Ib01</t>
         </is>
       </c>
       <c r="C34" s="4" t="inlineStr">
         <is>
-          <t>8.2.a</t>
+          <t>8.1</t>
         </is>
       </c>
       <c r="D34" s="4" t="inlineStr">
         <is>
-          <t>a) Staatsdefizit</t>
+          <t>Gesamtrohstoffproduktivität</t>
         </is>
       </c>
       <c r="E34" s="4" t="inlineStr">
         <is>
-          <t>a) Government deficit</t>
+          <t>Raw material input productivity</t>
         </is>
       </c>
       <c r="F34" s="4" t="inlineStr">
         <is>
-          <t>Staatsdefizit</t>
+          <t>Gesamtrohstoffproduktivität</t>
         </is>
       </c>
       <c r="G34" s="4" t="inlineStr">
         <is>
-          <t>Government deficit</t>
+          <t>Raw material input productivity</t>
         </is>
       </c>
       <c r="H34" s="4" t="inlineStr">
         <is>
-          <t>Jährliches Staatsdefizit kleiner als 3 % des BIP, Beibehaltung bis 2030</t>
+          <t>Beibehaltung des Trends der Jahre 2000 – 2010 bis 2030</t>
         </is>
       </c>
       <c r="I34" s="4" t="inlineStr">
         <is>
-          <t>Annual government deficit less than 3 % of GDP, to be maintained until 2030</t>
+          <t>Trend of the years 2000–2010 to be maintained until 2030</t>
         </is>
       </c>
       <c r="J34" s="4" t="inlineStr">
         <is>
-          <t>unter 3 % des BIP</t>
+          <t>Beibehaltung des Trends der Jahre 2000 - 2010 bis 2030</t>
         </is>
       </c>
       <c r="K34" s="4" t="inlineStr">
         <is>
-          <t>less than 3 % of GDP</t>
+          <t>trend of the years 2000-2010 to be maintained until 2030</t>
         </is>
       </c>
       <c r="L34" s="4" t="inlineStr">
         <is>
-          <t>Staatsdefizit</t>
+          <t>Gesamtrohstoffproduktivität</t>
         </is>
       </c>
       <c r="M34" s="4" t="inlineStr">
         <is>
-          <t>Government deficit</t>
+          <t>Raw material input productivity</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="35">
       <c r="A35" s="4" t="inlineStr">
         <is>
-          <t>Z08_B02_P01_Ib01_I02</t>
+          <t>Z08_B02_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B35" s="4" t="inlineStr">
@@ -2749,332 +2749,332 @@
       </c>
       <c r="C35" s="4" t="inlineStr">
         <is>
-          <t>8.2.b</t>
+          <t>8.2.a</t>
         </is>
       </c>
       <c r="D35" s="4" t="inlineStr">
         <is>
-          <t>b) Strukturelles Defizit</t>
+          <t>a) Staatsdefizit</t>
         </is>
       </c>
       <c r="E35" s="4" t="inlineStr">
         <is>
-          <t>b) Structural deficit</t>
+          <t>a) Government deficit</t>
         </is>
       </c>
       <c r="F35" s="4" t="inlineStr">
         <is>
-          <t>Strukturelles Defizit</t>
+          <t>Staatsdefizit</t>
         </is>
       </c>
       <c r="G35" s="4" t="inlineStr">
         <is>
-          <t>Structural deficit</t>
+          <t>Government deficit</t>
         </is>
       </c>
       <c r="H35" s="4" t="inlineStr">
         <is>
-          <t>Strukturell ausgeglichener Staatshaushalt, gesamtstaatliches strukturelles Defizit von max. 0,5 % des BIP, Beibehaltung bis 2030</t>
+          <t>Jährliches Staatsdefizit kleiner als 3 % des BIP, Beibehaltung bis 2030</t>
         </is>
       </c>
       <c r="I35" s="4" t="inlineStr">
         <is>
-          <t>Structurally balanced government budget, general government structural deficit must not exceed 0.5 % of GDP, to be maintained until 2030</t>
+          <t>Annual government deficit less than 3 % of GDP, to be maintained until 2030</t>
         </is>
       </c>
       <c r="J35" s="4" t="inlineStr">
         <is>
-          <t>unter 0,5 % des BIP</t>
+          <t>unter 3 % des BIP</t>
         </is>
       </c>
       <c r="K35" s="4" t="inlineStr">
         <is>
-          <t>less than 0.5 % of GDP</t>
+          <t>less than 3 % of GDP</t>
         </is>
       </c>
       <c r="L35" s="4" t="inlineStr">
         <is>
-          <t>Strukturelles Defizit</t>
+          <t>Staatsdefizit</t>
         </is>
       </c>
       <c r="M35" s="4" t="inlineStr">
         <is>
-          <t>Structural deficit</t>
+          <t>Government deficit</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="36">
       <c r="A36" s="4" t="inlineStr">
         <is>
-          <t>Z08_B02_P01_Ib02_I01</t>
+          <t>Z08_B02_P01_Ib01_I02</t>
         </is>
       </c>
       <c r="B36" s="4" t="inlineStr">
         <is>
-          <t>Z08_B02_P01_Ib02</t>
+          <t>Z08_B02_P01_Ib01</t>
         </is>
       </c>
       <c r="C36" s="4" t="inlineStr">
         <is>
-          <t>8.2.c</t>
+          <t>8.2.b</t>
         </is>
       </c>
       <c r="D36" s="4" t="inlineStr">
         <is>
-          <t>Schuldenstandsquote</t>
+          <t>b) Strukturelles Defizit</t>
         </is>
       </c>
       <c r="E36" s="4" t="inlineStr">
         <is>
-          <t>Ratio of government debt</t>
+          <t>b) Structural deficit</t>
         </is>
       </c>
       <c r="F36" s="4" t="inlineStr">
         <is>
-          <t>Schuldenstand</t>
+          <t>Strukturelles Defizit</t>
         </is>
       </c>
       <c r="G36" s="4" t="inlineStr">
         <is>
-          <t>Government debt</t>
+          <t>Structural deficit</t>
         </is>
       </c>
       <c r="H36" s="4" t="inlineStr">
         <is>
-          <t>Schuldenstandsquote max. 60 % des BIP, Beibehaltung bis 2030</t>
+          <t>Strukturell ausgeglichener Staatshaushalt, gesamtstaatliches strukturelles Defizit von max. 0,5 % des BIP, Beibehaltung bis 2030</t>
         </is>
       </c>
       <c r="I36" s="4" t="inlineStr">
         <is>
-          <t>Ratio of government debt to GDP must not exceed  60 %, to be maintained until 2030</t>
+          <t>Structurally balanced government budget, general government structural deficit must not exceed 0.5 % of GDP, to be maintained until 2030</t>
         </is>
       </c>
       <c r="J36" s="4" t="inlineStr">
         <is>
-          <t>max. 60 % des BIP</t>
+          <t>unter 0,5 % des BIP</t>
         </is>
       </c>
       <c r="K36" s="4" t="inlineStr">
         <is>
-          <t>max. 60 % of GDP</t>
+          <t>less than 0.5 % of GDP</t>
         </is>
       </c>
       <c r="L36" s="4" t="inlineStr">
         <is>
-          <t>Schuldenstand</t>
+          <t>Strukturelles Defizit</t>
         </is>
       </c>
       <c r="M36" s="4" t="inlineStr">
         <is>
-          <t>Government debt</t>
+          <t>Structural deficit</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="37">
       <c r="A37" s="4" t="inlineStr">
         <is>
-          <t>Z08_B03_P01_Ib01_I01</t>
+          <t>Z08_B02_P01_Ib02_I01</t>
         </is>
       </c>
       <c r="B37" s="4" t="inlineStr">
         <is>
-          <t>Z08_B03_P01_Ib01</t>
+          <t>Z08_B02_P01_Ib02</t>
         </is>
       </c>
       <c r="C37" s="4" t="inlineStr">
         <is>
-          <t>8.3</t>
+          <t>8.2.c</t>
         </is>
       </c>
       <c r="D37" s="4" t="inlineStr">
         <is>
-          <t>Anlageinvestitionen</t>
+          <t>Schuldenstandsquote</t>
         </is>
       </c>
       <c r="E37" s="4" t="inlineStr">
         <is>
-          <t>Gross fixed capital formation</t>
+          <t>Ratio of government debt</t>
         </is>
       </c>
       <c r="F37" s="4" t="inlineStr">
         <is>
-          <t>Verhältnis der Bruttoanlageinvestitionen zum BIP</t>
+          <t>Schuldenstand</t>
         </is>
       </c>
       <c r="G37" s="4" t="inlineStr">
         <is>
-          <t>Gross fixed capital formation in relation to GDP</t>
+          <t>Government debt</t>
         </is>
       </c>
       <c r="H37" s="4" t="inlineStr">
         <is>
-          <t>Angemessene Entwicklung des Anteils, Beibehaltung bis 2030</t>
+          <t>Schuldenstandsquote max. 60 % des BIP, Beibehaltung bis 2030</t>
         </is>
       </c>
       <c r="I37" s="4" t="inlineStr">
         <is>
-          <t>Appropriate development of the ratio, to be maintained until 2030</t>
+          <t>Ratio of government debt to GDP must not exceed  60 %, to be maintained until 2030</t>
         </is>
       </c>
       <c r="J37" s="4" t="inlineStr">
         <is>
-          <t>angemessene Entwicklung bis 2030</t>
+          <t>max. 60 % des BIP</t>
         </is>
       </c>
       <c r="K37" s="4" t="inlineStr">
         <is>
-          <t>appropriate development by 2030</t>
+          <t>max. 60 % of GDP</t>
         </is>
       </c>
       <c r="L37" s="4" t="inlineStr">
         <is>
-          <t>Verhältnis der Bruttoanlageinvestitionen zum BIP</t>
+          <t>Schuldenstand</t>
         </is>
       </c>
       <c r="M37" s="4" t="inlineStr">
         <is>
-          <t>Gross fixed capital formation in relation to GDP</t>
+          <t>Government debt</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="38">
       <c r="A38" s="4" t="inlineStr">
         <is>
-          <t>Z08_B04_P01_Ib01_I01</t>
+          <t>Z08_B03_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B38" s="4" t="inlineStr">
         <is>
-          <t>Z08_B04_P01_Ib01</t>
+          <t>Z08_B03_P01_Ib01</t>
         </is>
       </c>
       <c r="C38" s="4" t="inlineStr">
         <is>
-          <t>8.4</t>
+          <t>8.3</t>
         </is>
       </c>
       <c r="D38" s="4" t="inlineStr">
         <is>
-          <t>Bruttoinlandsprodukt</t>
+          <t>Anlageinvestitionen</t>
         </is>
       </c>
       <c r="E38" s="4" t="inlineStr">
         <is>
-          <t>Gross domestic product</t>
+          <t>Gross fixed capital formation</t>
         </is>
       </c>
       <c r="F38" s="4" t="inlineStr">
         <is>
-          <t>Bruttoinlandsprodukt je Einwohnerin und Einwohner</t>
+          <t>Verhältnis der Bruttoanlageinvestitionen zum BIP</t>
         </is>
       </c>
       <c r="G38" s="4" t="inlineStr">
         <is>
-          <t>Gross domestic product per capita</t>
+          <t>Gross fixed capital formation in relation to GDP</t>
         </is>
       </c>
       <c r="H38" s="4" t="inlineStr">
         <is>
-          <t>Stetiges und angemessenes Wirtschaftswachstum</t>
+          <t>Angemessene Entwicklung des Anteils, Beibehaltung bis 2030</t>
         </is>
       </c>
       <c r="I38" s="4" t="inlineStr">
         <is>
-          <t>Steady and appropriate economic growth</t>
+          <t>Appropriate development of the ratio, to be maintained until 2030</t>
         </is>
       </c>
       <c r="J38" s="4" t="inlineStr">
         <is>
-          <t>stetiges und angemessenes Wirtschaftswachstum</t>
+          <t>angemessene Entwicklung bis 2030</t>
         </is>
       </c>
       <c r="K38" s="4" t="inlineStr">
         <is>
-          <t>steady and appropriate economic growth</t>
+          <t>appropriate development by 2030</t>
         </is>
       </c>
       <c r="L38" s="4" t="inlineStr">
         <is>
-          <t>Bruttoinlandsprodukt je Einwohnerin und Einwohner</t>
+          <t>Verhältnis der Bruttoanlageinvestitionen zum BIP</t>
         </is>
       </c>
       <c r="M38" s="4" t="inlineStr">
         <is>
-          <t>Gross domestic product per capita</t>
+          <t>Gross fixed capital formation in relation to GDP</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="39">
       <c r="A39" s="4" t="inlineStr">
         <is>
-          <t>Z08_B05_P01_Ib01_I01</t>
+          <t>Z08_B04_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B39" s="4" t="inlineStr">
         <is>
-          <t>Z08_B05_P01_Ib01</t>
+          <t>Z08_B04_P01_Ib01</t>
         </is>
       </c>
       <c r="C39" s="4" t="inlineStr">
         <is>
-          <t>8.5.a</t>
+          <t>8.4</t>
         </is>
       </c>
       <c r="D39" s="4" t="inlineStr">
         <is>
-          <t>a) Insgesamt (20-64-Jährige)</t>
+          <t>Bruttoinlandsprodukt</t>
         </is>
       </c>
       <c r="E39" s="4" t="inlineStr">
         <is>
-          <t>a) total (20 to 64-year-olds)</t>
+          <t>Gross domestic product</t>
         </is>
       </c>
       <c r="F39" s="4" t="inlineStr">
         <is>
-          <t>Erwerbstätigenquote (20- bis 64-Jährige)</t>
+          <t>Bruttoinlandsprodukt je Einwohnerin und Einwohner</t>
         </is>
       </c>
       <c r="G39" s="4" t="inlineStr">
         <is>
-          <t>Employment rate (20 to 64-year-olds)</t>
+          <t>Gross domestic product per capita</t>
         </is>
       </c>
       <c r="H39" s="4" t="inlineStr">
         <is>
-          <t>Erhöhung auf 78 % bis 2030</t>
+          <t>Stetiges und angemessenes Wirtschaftswachstum</t>
         </is>
       </c>
       <c r="I39" s="4" t="inlineStr">
         <is>
-          <t>Increase to 78 % by 2030</t>
+          <t>Steady and appropriate economic growth</t>
         </is>
       </c>
       <c r="J39" s="4" t="inlineStr">
         <is>
-          <t>Erhöhung auf 78 % bis 2030</t>
+          <t>stetiges und angemessenes Wirtschaftswachstum</t>
         </is>
       </c>
       <c r="K39" s="4" t="inlineStr">
         <is>
-          <t>increase to 78 % by 2030</t>
+          <t>steady and appropriate economic growth</t>
         </is>
       </c>
       <c r="L39" s="4" t="inlineStr">
         <is>
-          <t>Erwerbstätigenquote insgesamt (20- bis 64-Jährige)</t>
+          <t>Bruttoinlandsprodukt je Einwohnerin und Einwohner</t>
         </is>
       </c>
       <c r="M39" s="4" t="inlineStr">
         <is>
-          <t>Employment rate, total (20 to 64-year-olds)</t>
+          <t>Gross domestic product per capita</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="40">
       <c r="A40" s="4" t="inlineStr">
         <is>
-          <t>Z08_B05_P01_Ib01_I02</t>
+          <t>Z08_B05_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B40" s="4" t="inlineStr">
@@ -3084,697 +3084,697 @@
       </c>
       <c r="C40" s="4" t="inlineStr">
         <is>
-          <t>8.5.b</t>
+          <t>8.5.a</t>
         </is>
       </c>
       <c r="D40" s="4" t="inlineStr">
         <is>
-          <t>b) Ältere (60-64-Jährige)</t>
+          <t>a) Insgesamt (20-64-Jährige)</t>
         </is>
       </c>
       <c r="E40" s="4" t="inlineStr">
         <is>
-          <t>b) older people (60 to 64-year-olds)</t>
+          <t>a) total (20 to 64-year-olds)</t>
         </is>
       </c>
       <c r="F40" s="4" t="inlineStr">
         <is>
-          <t>Erwerbstätigenquote (60- bis 64-Jährige)</t>
+          <t>Erwerbstätigenquote (20- bis 64-Jährige)</t>
         </is>
       </c>
       <c r="G40" s="4" t="inlineStr">
         <is>
-          <t>Employment rate (60 to 64-year-olds)</t>
+          <t>Employment rate (20 to 64-year-olds)</t>
         </is>
       </c>
       <c r="H40" s="4" t="inlineStr">
         <is>
-          <t>Erhöhung auf 60 % bis 2030</t>
+          <t>Erhöhung auf 78 % bis 2030</t>
         </is>
       </c>
       <c r="I40" s="4" t="inlineStr">
         <is>
-          <t>Increase to 60 % by 2030</t>
+          <t>Increase to 78 % by 2030</t>
         </is>
       </c>
       <c r="J40" s="4" t="inlineStr">
         <is>
-          <t>Erhöhung auf 60 % bis 2030</t>
+          <t>Erhöhung auf 78 % bis 2030</t>
         </is>
       </c>
       <c r="K40" s="4" t="inlineStr">
         <is>
-          <t>increase to 60 % by 2030</t>
+          <t>increase to 78 % by 2030</t>
         </is>
       </c>
       <c r="L40" s="4" t="inlineStr">
         <is>
-          <t>Erwerbstätigenquote Ältere (60- bis 64-Jährige)</t>
+          <t>Erwerbstätigenquote insgesamt (20- bis 64-Jährige)</t>
         </is>
       </c>
       <c r="M40" s="4" t="inlineStr">
         <is>
-          <t>Employment rate, older people (60 to 64-year-olds)</t>
+          <t>Employment rate, total (20 to 64-year-olds)</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="41">
       <c r="A41" s="4" t="inlineStr">
         <is>
-          <t>Z08_B06_P01_Ib01_I01</t>
+          <t>Z08_B05_P01_Ib01_I02</t>
         </is>
       </c>
       <c r="B41" s="4" t="inlineStr">
         <is>
-          <t>Z08_B06_P01_Ib01</t>
+          <t>Z08_B05_P01_Ib01</t>
         </is>
       </c>
       <c r="C41" s="4" t="inlineStr">
         <is>
-          <t>8.6</t>
+          <t>8.5.b</t>
         </is>
       </c>
       <c r="D41" s="4" t="inlineStr">
         <is>
-          <t>Mitglieder des Textilbündnisses</t>
+          <t>b) Ältere (60-64-Jährige)</t>
         </is>
       </c>
       <c r="E41" s="4" t="inlineStr">
         <is>
-          <t>Members of the Textile Partnership</t>
+          <t>b) older people (60 to 64-year-olds)</t>
         </is>
       </c>
       <c r="F41" s="4" t="inlineStr">
         <is>
-          <t>Mitglieder des Textilbündnisses</t>
+          <t>Erwerbstätigenquote (60- bis 64-Jährige)</t>
         </is>
       </c>
       <c r="G41" s="4" t="inlineStr">
         <is>
-          <t>Members of the Textile Partnership</t>
+          <t>Employment rate (60 to 64-year-olds)</t>
         </is>
       </c>
       <c r="H41" s="4" t="inlineStr">
         <is>
-          <t>Signifikante Steigerung bis 2030</t>
+          <t>Erhöhung auf 60 % bis 2030</t>
         </is>
       </c>
       <c r="I41" s="4" t="inlineStr">
         <is>
-          <t>Significantly increase by 2030</t>
+          <t>Increase to 60 % by 2030</t>
         </is>
       </c>
       <c r="J41" s="4" t="inlineStr">
         <is>
-          <t>Steigerung der Anzahl bis 2030</t>
+          <t>Erhöhung auf 60 % bis 2030</t>
         </is>
       </c>
       <c r="K41" s="4" t="inlineStr">
         <is>
-          <t>increase number by 2030</t>
+          <t>increase to 60 % by 2030</t>
         </is>
       </c>
       <c r="L41" s="4" t="inlineStr">
         <is>
-          <t>Mitglieder des Textilbündnisses</t>
+          <t>Erwerbstätigenquote Ältere (60- bis 64-Jährige)</t>
         </is>
       </c>
       <c r="M41" s="4" t="inlineStr">
         <is>
-          <t>Members of the Textile Partnership</t>
+          <t>Employment rate, older people (60 to 64-year-olds)</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="42">
       <c r="A42" s="4" t="inlineStr">
         <is>
-          <t>Z09_B01_P01_Ib01_I01</t>
+          <t>Z08_B06_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B42" s="4" t="inlineStr">
         <is>
-          <t>Z09_B01_P01_Ib01</t>
+          <t>Z08_B06_P01_Ib01</t>
         </is>
       </c>
       <c r="C42" s="4" t="inlineStr">
         <is>
-          <t>9.1.a</t>
+          <t>8.6</t>
         </is>
       </c>
       <c r="D42" s="4" t="inlineStr">
         <is>
-          <t>Ausgaben für Forschung und Entwicklung</t>
+          <t>Mitglieder des Textilbündnisses</t>
         </is>
       </c>
       <c r="E42" s="4" t="inlineStr">
         <is>
-          <t>Expenditure on research and development</t>
+          <t>Members of the Textile Partnership</t>
         </is>
       </c>
       <c r="F42" s="4" t="inlineStr">
         <is>
-          <t>Private und öffentliche Ausgaben für Forschung und Entwicklung</t>
+          <t>Mitglieder des Textilbündnisses</t>
         </is>
       </c>
       <c r="G42" s="4" t="inlineStr">
         <is>
-          <t>Private and public expenditure on research and development</t>
+          <t>Members of the Textile Partnership</t>
         </is>
       </c>
       <c r="H42" s="4" t="inlineStr">
         <is>
-          <t>Jährlich mindestens 3,5 % des BIP bis 2025</t>
+          <t>Signifikante Steigerung bis 2030</t>
         </is>
       </c>
       <c r="I42" s="4" t="inlineStr">
         <is>
-          <t>At least 3.5 % of GDP per year by 2025</t>
+          <t>Significantly increase by 2030</t>
         </is>
       </c>
       <c r="J42" s="4" t="inlineStr">
         <is>
-          <t>jährlich mindestens 3,5 % des BIP bis 2025</t>
+          <t>Steigerung der Anzahl bis 2030</t>
         </is>
       </c>
       <c r="K42" s="4" t="inlineStr">
         <is>
-          <t>at least 3.5 % of GDP per year by 2025</t>
+          <t>increase number by 2030</t>
         </is>
       </c>
       <c r="L42" s="4" t="inlineStr">
         <is>
-          <t>Private und öffentliche Ausgaben für Forschung und Entwicklung</t>
+          <t>Mitglieder des Textilbündnisses</t>
         </is>
       </c>
       <c r="M42" s="4" t="inlineStr">
         <is>
-          <t>Private and public expenditure on research and development</t>
+          <t>Members of the Textile Partnership</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="43">
       <c r="A43" s="4" t="inlineStr">
         <is>
-          <t>Z09_B01_P01_Ib02_I01</t>
+          <t>Z09_B01_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B43" s="4" t="inlineStr">
         <is>
-          <t>Z09_B01_P01_Ib02</t>
+          <t>Z09_B01_P01_Ib01</t>
         </is>
       </c>
       <c r="C43" s="4" t="inlineStr">
         <is>
-          <t>9.1.b</t>
+          <t>9.1.a</t>
         </is>
       </c>
       <c r="D43" s="4" t="inlineStr">
         <is>
-          <t>Breitbandverfügbarkeit</t>
+          <t>Ausgaben für Forschung und Entwicklung</t>
         </is>
       </c>
       <c r="E43" s="4" t="inlineStr">
         <is>
-          <t>Broadband availability</t>
+          <t>Expenditure on research and development</t>
         </is>
       </c>
       <c r="F43" s="4" t="inlineStr">
         <is>
-          <t>Breitbandausbau – Anteil der Haushalte mit Zugang zu Gigabit-Breitbandversorgung</t>
+          <t>Private und öffentliche Ausgaben für Forschung und Entwicklung</t>
         </is>
       </c>
       <c r="G43" s="4" t="inlineStr">
         <is>
-          <t>Roll-out of broadband – Share of households with access to gigabit broadband services</t>
+          <t>Private and public expenditure on research and development</t>
         </is>
       </c>
       <c r="H43" s="4" t="inlineStr">
         <is>
-          <t>Flächendeckender Aufbau von Gigabitnetzen bis 2025</t>
+          <t>Jährlich mindestens 3,5 % des BIP bis 2025</t>
         </is>
       </c>
       <c r="I43" s="4" t="inlineStr">
         <is>
-          <t>Universal gigabit network Roll-out by 2025</t>
+          <t>At least 3.5 % of GDP per year by 2025</t>
         </is>
       </c>
       <c r="J43" s="4" t="inlineStr">
         <is>
-          <t>flächendeckender Aufbau bis 2025</t>
+          <t>jährlich mindestens 3,5 % des BIP bis 2025</t>
         </is>
       </c>
       <c r="K43" s="4" t="inlineStr">
         <is>
-          <t>universal Roll-out by 2025</t>
+          <t>at least 3.5 % of GDP per year by 2025</t>
         </is>
       </c>
       <c r="L43" s="4" t="inlineStr">
         <is>
-          <t>Breitbandausbau – Anteil der Haushalte mit Zugang zu Gigabit-Breitbandversorgung</t>
+          <t>Private und öffentliche Ausgaben für Forschung und Entwicklung</t>
         </is>
       </c>
       <c r="M43" s="4" t="inlineStr">
         <is>
-          <t>Roll-out of broadband – Share of households with access to gigabit broadband services</t>
+          <t>Private and public expenditure on research and development</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="44">
       <c r="A44" s="4" t="inlineStr">
         <is>
-          <t>Z10_B01_P01_Ib01_I01</t>
+          <t>Z09_B01_P01_Ib02_I01</t>
         </is>
       </c>
       <c r="B44" s="4" t="inlineStr">
         <is>
-          <t>Z10_B01_P01_Ib01</t>
+          <t>Z09_B01_P01_Ib02</t>
         </is>
       </c>
       <c r="C44" s="4" t="inlineStr">
         <is>
-          <t>10.1</t>
+          <t>9.1.b</t>
         </is>
       </c>
       <c r="D44" s="4" t="inlineStr">
         <is>
-          <t>Abschlussquote</t>
+          <t>Breitbandverfügbarkeit</t>
         </is>
       </c>
       <c r="E44" s="4" t="inlineStr">
         <is>
-          <t>Graduation rate</t>
+          <t>Broadband availability</t>
         </is>
       </c>
       <c r="F44" s="4" t="inlineStr">
         <is>
-          <t>Ausländische Schulabsolventinnen und Schulabsolventen</t>
+          <t>Breitbandausbau – Anteil der Haushalte mit Zugang zu Gigabit-Breitbandversorgung</t>
         </is>
       </c>
       <c r="G44" s="4" t="inlineStr">
         <is>
-          <t>Foreign school graduates</t>
+          <t>Roll-out of broadband – Share of households with access to gigabit broadband services</t>
         </is>
       </c>
       <c r="H44" s="4" t="inlineStr">
         <is>
-          <t>Erhöhung des Anteils der ausländischen Schulabgänger mit mindestens Hauptschulabschluss und Angleichung an die Quote deutscher Schulabgänger bis 2030</t>
+          <t>Flächendeckender Aufbau von Gigabitnetzen bis 2025</t>
         </is>
       </c>
       <c r="I44" s="4" t="inlineStr">
         <is>
-          <t>Increase the proportion of foreign school leavers with a least a secondary general school certificate and bring into line with that of German school leavers by 2030</t>
+          <t>Universal gigabit network Roll-out by 2025</t>
         </is>
       </c>
       <c r="J44" s="4" t="inlineStr">
         <is>
-          <t>Erhöhung bei ausländischen Schulabsolvierenden und Angleichung an die Quote deutscher -absolvierenden bis 2030</t>
+          <t>flächendeckender Aufbau bis 2025</t>
         </is>
       </c>
       <c r="K44" s="4" t="inlineStr">
         <is>
-          <t>increase among foreign school leavers and bring it into line with the rate of German school leavers by 2030</t>
+          <t>universal Roll-out by 2025</t>
         </is>
       </c>
       <c r="L44" s="4" t="inlineStr">
         <is>
-          <t>Ausländische Schulabsolventinnen und Schulabsolventen</t>
+          <t>Breitbandausbau – Anteil der Haushalte mit Zugang zu Gigabit-Breitbandversorgung</t>
         </is>
       </c>
       <c r="M44" s="4" t="inlineStr">
         <is>
-          <t>Foreign school graduates</t>
+          <t>Roll-out of broadband – Share of households with access to gigabit broadband services</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="45">
       <c r="A45" s="4" t="inlineStr">
         <is>
-          <t>Z10_B02_P01_Ib01_I01</t>
+          <t>Z10_B01_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B45" s="4" t="inlineStr">
         <is>
-          <t>Z10_B02_P01_Ib01</t>
+          <t>Z10_B01_P01_Ib01</t>
         </is>
       </c>
       <c r="C45" s="4" t="inlineStr">
         <is>
-          <t>10.2</t>
+          <t>10.1</t>
         </is>
       </c>
       <c r="D45" s="4" t="inlineStr">
         <is>
-          <t>Gini-Koeffizient Einkommen nach Sozialtransfer</t>
+          <t>Abschlussquote</t>
         </is>
       </c>
       <c r="E45" s="4" t="inlineStr">
         <is>
-          <t>Gini coefficient of income after social transfers</t>
+          <t>Graduation rate</t>
         </is>
       </c>
       <c r="F45" s="4" t="inlineStr">
         <is>
-          <t>Gini-Koeffizient des Einkommens nach Sozialtransfers</t>
+          <t>Ausländische Schulabsolventinnen und Schulabsolventen</t>
         </is>
       </c>
       <c r="G45" s="4" t="inlineStr">
         <is>
-          <t>Gini coefficient of income after social transfers</t>
+          <t>Foreign school graduates</t>
         </is>
       </c>
       <c r="H45" s="4" t="inlineStr">
         <is>
-          <t>Gini-Koeffizient Einkommen nach Sozialtransfer bis 2030 unterhalb des EU-27-Wertes</t>
+          <t>Erhöhung des Anteils der ausländischen Schulabgänger mit mindestens Hauptschulabschluss und Angleichung an die Quote deutscher Schulabgänger bis 2030</t>
         </is>
       </c>
       <c r="I45" s="4" t="inlineStr">
         <is>
-          <t>Gini coefficient of income after social transfers to be below the EU-27 figure by 2030</t>
+          <t>Increase the proportion of foreign school leavers with a least a secondary general school certificate and bring into line with that of German school leavers by 2030</t>
         </is>
       </c>
       <c r="J45" s="4" t="inlineStr">
         <is>
-          <t>bis 2030 unterhalb des EU-27-Wertes</t>
+          <t>Erhöhung bei ausländischen Schulabsolvierenden und Angleichung an die Quote deutscher -absolvierenden bis 2030</t>
         </is>
       </c>
       <c r="K45" s="4" t="inlineStr">
         <is>
-          <t>to be below the EU-27 figure by 2030</t>
+          <t>increase among foreign school leavers and bring it into line with the rate of German school leavers by 2030</t>
         </is>
       </c>
       <c r="L45" s="4" t="inlineStr">
         <is>
-          <t>Gini-Koeffizient des Einkommens nach Sozialtransfers</t>
+          <t>Ausländische Schulabsolventinnen und Schulabsolventen</t>
         </is>
       </c>
       <c r="M45" s="4" t="inlineStr">
         <is>
-          <t>Gini coefficient of income after social transfers</t>
+          <t>Foreign school graduates</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="46">
       <c r="A46" s="4" t="inlineStr">
         <is>
-          <t>Z11_B01_P01_Ib01_I01</t>
+          <t>Z10_B02_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B46" s="4" t="inlineStr">
         <is>
-          <t>Z11_B01_P01_Ib01</t>
+          <t>Z10_B02_P01_Ib01</t>
         </is>
       </c>
       <c r="C46" s="4" t="inlineStr">
         <is>
-          <t>11.1.a</t>
+          <t>10.2</t>
         </is>
       </c>
       <c r="D46" s="4" t="inlineStr">
         <is>
-          <t>Anstieg der Siedlungs- und Verkehrsfläche</t>
+          <t>Gini-Koeffizient Einkommen nach Sozialtransfer</t>
         </is>
       </c>
       <c r="E46" s="4" t="inlineStr">
         <is>
-          <t>Expansion of settlement and transport area</t>
+          <t>Gini coefficient of income after social transfers</t>
         </is>
       </c>
       <c r="F46" s="4" t="inlineStr">
         <is>
-          <t>Anstieg der Siedlungs- und Verkehrsfläche</t>
+          <t>Gini-Koeffizient des Einkommens nach Sozialtransfers</t>
         </is>
       </c>
       <c r="G46" s="4" t="inlineStr">
         <is>
-          <t>Expansion of settlement and transport area</t>
+          <t>Gini coefficient of income after social transfers</t>
         </is>
       </c>
       <c r="H46" s="4" t="inlineStr">
         <is>
-          <t>Senkung auf durchschnittlich unter 30 ha pro Tag bis 2030</t>
+          <t>Gini-Koeffizient Einkommen nach Sozialtransfer bis 2030 unterhalb des EU-27-Wertes</t>
         </is>
       </c>
       <c r="I46" s="4" t="inlineStr">
         <is>
-          <t>Reduction to under 30 ha on average per day by 2030</t>
+          <t>Gini coefficient of income after social transfers to be below the EU-27 figure by 2030</t>
         </is>
       </c>
       <c r="J46" s="4" t="inlineStr">
         <is>
-          <t>Senkung auf unter 30 ha pro Tag bis 2030</t>
+          <t>bis 2030 unterhalb des EU-27-Wertes</t>
         </is>
       </c>
       <c r="K46" s="4" t="inlineStr">
         <is>
-          <t>reduction to under 30 ha per day by 2030</t>
+          <t>to be below the EU-27 figure by 2030</t>
         </is>
       </c>
       <c r="L46" s="4" t="inlineStr">
         <is>
-          <t>Anstieg der Siedlungs- und Verkehrsfläche</t>
+          <t>Gini-Koeffizient des Einkommens nach Sozialtransfers</t>
         </is>
       </c>
       <c r="M46" s="4" t="inlineStr">
         <is>
-          <t>Expansion of settlement and transport area</t>
+          <t>Gini coefficient of income after social transfers</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="47">
       <c r="A47" s="4" t="inlineStr">
         <is>
-          <t>Z11_B01_P01_Ib02_I01</t>
+          <t>Z11_B01_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B47" s="4" t="inlineStr">
         <is>
-          <t>Z11_B01_P01_Ib02</t>
+          <t>Z11_B01_P01_Ib01</t>
         </is>
       </c>
       <c r="C47" s="4" t="inlineStr">
         <is>
-          <t>11.1.b</t>
+          <t>11.1.a</t>
         </is>
       </c>
       <c r="D47" s="4" t="inlineStr">
         <is>
-          <t>Freiraumverlust</t>
+          <t>Anstieg der Siedlungs- und Verkehrsfläche</t>
         </is>
       </c>
       <c r="E47" s="4" t="inlineStr">
         <is>
-          <t>Loss of open space area</t>
+          <t>Expansion of settlement and transport area</t>
         </is>
       </c>
       <c r="F47" s="4" t="inlineStr">
         <is>
-          <t>Freiraumverlust</t>
+          <t>Anstieg der Siedlungs- und Verkehrsfläche</t>
         </is>
       </c>
       <c r="G47" s="4" t="inlineStr">
         <is>
-          <t>Loss of open space area</t>
+          <t>Expansion of settlement and transport area</t>
         </is>
       </c>
       <c r="H47" s="4" t="inlineStr">
         <is>
-          <t>Verringerung des einwohnerbezogenen Freiflächenverlustes</t>
+          <t>Senkung auf durchschnittlich unter 30 ha pro Tag bis 2030</t>
         </is>
       </c>
       <c r="I47" s="4" t="inlineStr">
         <is>
-          <t>Reduce the loss of per capita open space area</t>
+          <t>Reduction to under 30 ha on average per day by 2030</t>
         </is>
       </c>
       <c r="J47" s="4" t="inlineStr">
         <is>
-          <t>Verringerung</t>
+          <t>Senkung auf unter 30 ha pro Tag bis 2030</t>
         </is>
       </c>
       <c r="K47" s="4" t="inlineStr">
         <is>
-          <t>reduce the loss</t>
+          <t>reduction to under 30 ha per day by 2030</t>
         </is>
       </c>
       <c r="L47" s="4" t="inlineStr">
         <is>
-          <t>Freiraumverlust</t>
+          <t>Anstieg der Siedlungs- und Verkehrsfläche</t>
         </is>
       </c>
       <c r="M47" s="4" t="inlineStr">
         <is>
-          <t>Loss of open space area</t>
+          <t>Expansion of settlement and transport area</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="48">
       <c r="A48" s="4" t="inlineStr">
         <is>
-          <t>Z11_B01_P01_Ib03_I01</t>
+          <t>Z11_B01_P01_Ib02_I01</t>
         </is>
       </c>
       <c r="B48" s="4" t="inlineStr">
         <is>
-          <t>Z11_B01_P01_Ib03</t>
+          <t>Z11_B01_P01_Ib02</t>
         </is>
       </c>
       <c r="C48" s="4" t="inlineStr">
         <is>
-          <t>11.1.c</t>
+          <t>11.1.b</t>
         </is>
       </c>
       <c r="D48" s="4" t="inlineStr">
         <is>
-          <t>Siedlungsdichte</t>
+          <t>Freiraumverlust</t>
         </is>
       </c>
       <c r="E48" s="4" t="inlineStr">
         <is>
-          <t>Density of settlements</t>
+          <t>Loss of open space area</t>
         </is>
       </c>
       <c r="F48" s="4" t="inlineStr">
         <is>
-          <t>Siedlungsdichte</t>
+          <t>Freiraumverlust</t>
         </is>
       </c>
       <c r="G48" s="4" t="inlineStr">
         <is>
-          <t>Density of settlements</t>
+          <t>Loss of open space area</t>
         </is>
       </c>
       <c r="H48" s="4" t="inlineStr">
         <is>
-          <t>Keine Verringerung der Siedlungsdichte</t>
+          <t>Verringerung des einwohnerbezogenen Freiflächenverlustes</t>
         </is>
       </c>
       <c r="I48" s="4" t="inlineStr">
         <is>
-          <t>No reduction in density of settlements</t>
+          <t>Reduce the loss of per capita open space area</t>
         </is>
       </c>
       <c r="J48" s="4" t="inlineStr">
         <is>
-          <t>keine Verringerung</t>
+          <t>Verringerung</t>
         </is>
       </c>
       <c r="K48" s="4" t="inlineStr">
         <is>
-          <t>no reduction</t>
+          <t>reduce the loss</t>
         </is>
       </c>
       <c r="L48" s="4" t="inlineStr">
         <is>
-          <t>Siedlungsdichte</t>
+          <t>Freiraumverlust</t>
         </is>
       </c>
       <c r="M48" s="4" t="inlineStr">
         <is>
-          <t>Density of settlements</t>
+          <t>Loss of open space area</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="49">
       <c r="A49" s="4" t="inlineStr">
         <is>
-          <t>Z11_B02_P01_Ib01_I01</t>
+          <t>Z11_B01_P01_Ib03_I01</t>
         </is>
       </c>
       <c r="B49" s="4" t="inlineStr">
         <is>
-          <t>Z11_B02_P01_Ib01</t>
+          <t>Z11_B01_P01_Ib03</t>
         </is>
       </c>
       <c r="C49" s="4" t="inlineStr">
         <is>
-          <t>11.2.a</t>
+          <t>11.1.c</t>
         </is>
       </c>
       <c r="D49" s="4" t="inlineStr">
         <is>
-          <t>Endenergieverbrauch im Güterverkehr</t>
+          <t>Siedlungsdichte</t>
         </is>
       </c>
       <c r="E49" s="4" t="inlineStr">
         <is>
-          <t>Energy consumption in goods transport</t>
+          <t>Density of settlements</t>
         </is>
       </c>
       <c r="F49" s="4" t="inlineStr">
         <is>
-          <t>Endenergieverbrauch im Güterverkehr</t>
+          <t>Siedlungsdichte</t>
         </is>
       </c>
       <c r="G49" s="4" t="inlineStr">
         <is>
-          <t>Final energy consumption in goods transport</t>
+          <t>Density of settlements</t>
         </is>
       </c>
       <c r="H49" s="4" t="inlineStr">
         <is>
-          <t>Senkung um 15 bis 20 % bis 2030</t>
+          <t>Keine Verringerung der Siedlungsdichte</t>
         </is>
       </c>
       <c r="I49" s="4" t="inlineStr">
         <is>
-          <t>Reduction by 15–20 % by 2030</t>
+          <t>No reduction in density of settlements</t>
         </is>
       </c>
       <c r="J49" s="4" t="inlineStr">
         <is>
-          <t>Senkung um 15 bis 20 % bis 2030</t>
+          <t>keine Verringerung</t>
         </is>
       </c>
       <c r="K49" s="4" t="inlineStr">
         <is>
-          <t>reduction by 15-20 % by 2030</t>
+          <t>no reduction</t>
         </is>
       </c>
       <c r="L49" s="4" t="inlineStr">
         <is>
-          <t>Endenergieverbrauch im Güterverkehr</t>
+          <t>Siedlungsdichte</t>
         </is>
       </c>
       <c r="M49" s="4" t="inlineStr">
         <is>
-          <t>Final energy consumption in goods transport</t>
+          <t>Density of settlements</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="50">
       <c r="A50" s="4" t="inlineStr">
         <is>
-          <t>Z11_B02_P01_Ib02_I01</t>
+          <t>Z11_B02_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B50" s="4" t="inlineStr">
         <is>
-          <t>Z11_B02_P01_Ib02</t>
+          <t>Z11_B02_P01_Ib01</t>
         </is>
       </c>
       <c r="C50" s="4" t="inlineStr">
         <is>
-          <t>11.2.b</t>
+          <t>11.2.a</t>
         </is>
       </c>
       <c r="D50" s="4" t="inlineStr">
         <is>
-          <t>Endenergieverbrauch im Personenverkehr</t>
+          <t>Endenergieverbrauch im Güterverkehr</t>
         </is>
       </c>
       <c r="E50" s="4" t="inlineStr">
         <is>
-          <t>Energy consumption in passenger transport</t>
+          <t>Energy consumption in goods transport</t>
         </is>
       </c>
       <c r="F50" s="4" t="inlineStr">
         <is>
-          <t>Endenergieverbrauch im Personenverkehr</t>
+          <t>Endenergieverbrauch im Güterverkehr</t>
         </is>
       </c>
       <c r="G50" s="4" t="inlineStr">
         <is>
-          <t>Final energy consumption in passenger transport</t>
+          <t>Final energy consumption in goods transport</t>
         </is>
       </c>
       <c r="H50" s="4" t="inlineStr">
@@ -3799,354 +3799,354 @@
       </c>
       <c r="L50" s="4" t="inlineStr">
         <is>
-          <t>Endenergieverbrauch im Personenverkehr</t>
+          <t>Endenergieverbrauch im Güterverkehr</t>
         </is>
       </c>
       <c r="M50" s="4" t="inlineStr">
         <is>
-          <t>Final energy consumption in passenger transport</t>
+          <t>Final energy consumption in goods transport</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="51">
       <c r="A51" s="4" t="inlineStr">
         <is>
-          <t>Z11_B02_P01_Ib03_I01</t>
+          <t>Z11_B02_P01_Ib02_I01</t>
         </is>
       </c>
       <c r="B51" s="4" t="inlineStr">
         <is>
-          <t>Z11_B02_P01_Ib03</t>
+          <t>Z11_B02_P01_Ib02</t>
         </is>
       </c>
       <c r="C51" s="4" t="inlineStr">
         <is>
-          <t>11.2.c</t>
+          <t>11.2.b</t>
         </is>
       </c>
       <c r="D51" s="4" t="inlineStr">
         <is>
-          <t>Reisezeit mit öffentlichen Verkehrsmitteln</t>
+          <t>Endenergieverbrauch im Personenverkehr</t>
         </is>
       </c>
       <c r="E51" s="4" t="inlineStr">
         <is>
-          <t>Average travel time by public transport</t>
+          <t>Energy consumption in passenger transport</t>
         </is>
       </c>
       <c r="F51" s="4" t="inlineStr">
         <is>
-          <t>Erreichbarkeit von Mittel- und Oberzentren mit öffentlichen Verkehrsmitteln</t>
+          <t>Endenergieverbrauch im Personenverkehr</t>
         </is>
       </c>
       <c r="G51" s="4" t="inlineStr">
         <is>
-          <t>Accessibility of medium-sized and large cities by public transport</t>
+          <t>Final energy consumption in passenger transport</t>
         </is>
       </c>
       <c r="H51" s="4" t="inlineStr">
         <is>
-          <t>Verringerung der durchschnittlichen Reisezeit mit öffentlichen Verkehrsmitteln</t>
+          <t>Senkung um 15 bis 20 % bis 2030</t>
         </is>
       </c>
       <c r="I51" s="4" t="inlineStr">
         <is>
-          <t>Reduction of average travel time by public transport</t>
+          <t>Reduction by 15–20 % by 2030</t>
         </is>
       </c>
       <c r="J51" s="4" t="inlineStr">
         <is>
-          <t>Verringerung</t>
+          <t>Senkung um 15 bis 20 % bis 2030</t>
         </is>
       </c>
       <c r="K51" s="4" t="inlineStr">
         <is>
-          <t>reduction</t>
+          <t>reduction by 15-20 % by 2030</t>
         </is>
       </c>
       <c r="L51" s="4" t="inlineStr">
         <is>
-          <t>Erreichbarkeit von Mittel- und Oberzentren mit öffentlichen Verkehrsmitteln</t>
+          <t>Endenergieverbrauch im Personenverkehr</t>
         </is>
       </c>
       <c r="M51" s="4" t="inlineStr">
         <is>
-          <t>Accessibility of medium-sized and large cities by public transport</t>
+          <t>Final energy consumption in passenger transport</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="52">
       <c r="A52" s="4" t="inlineStr">
         <is>
-          <t>Z11_B03_P01_Ib01_I01</t>
+          <t>Z11_B02_P01_Ib03_I01</t>
         </is>
       </c>
       <c r="B52" s="4" t="inlineStr">
         <is>
-          <t>Z11_B03_P01_Ib01</t>
+          <t>Z11_B02_P01_Ib03</t>
         </is>
       </c>
       <c r="C52" s="4" t="inlineStr">
         <is>
-          <t>11.3</t>
+          <t>11.2.c</t>
         </is>
       </c>
       <c r="D52" s="4" t="inlineStr">
         <is>
-          <t>Durch Wohnkosten überlastete Personen</t>
+          <t>Reisezeit mit öffentlichen Verkehrsmitteln</t>
         </is>
       </c>
       <c r="E52" s="4" t="inlineStr">
         <is>
-          <t>Persons overburdened by housing costs</t>
+          <t>Average travel time by public transport</t>
         </is>
       </c>
       <c r="F52" s="4" t="inlineStr">
         <is>
-          <t>Überlastung durch Wohnkosten</t>
+          <t>Erreichbarkeit von Mittel- und Oberzentren mit öffentlichen Verkehrsmitteln</t>
         </is>
       </c>
       <c r="G52" s="4" t="inlineStr">
         <is>
-          <t>Housing cost overload</t>
+          <t>Accessibility of medium-sized and large cities by public transport</t>
         </is>
       </c>
       <c r="H52" s="4" t="inlineStr">
         <is>
-          <t>Senkung des Anteils der überlasteten Personen an der Bevölkerung auf 13 % bis 2030</t>
+          <t>Verringerung der durchschnittlichen Reisezeit mit öffentlichen Verkehrsmitteln</t>
         </is>
       </c>
       <c r="I52" s="4" t="inlineStr">
         <is>
-          <t>Reduce the proportion of people who are overburdened to 13 % by 2030</t>
+          <t>Reduction of average travel time by public transport</t>
         </is>
       </c>
       <c r="J52" s="4" t="inlineStr">
         <is>
-          <t>Senkung auf 13 % bis 2030</t>
+          <t>Verringerung</t>
         </is>
       </c>
       <c r="K52" s="4" t="inlineStr">
         <is>
-          <t>reduce to 13 % by 2030</t>
+          <t>reduction</t>
         </is>
       </c>
       <c r="L52" s="4" t="inlineStr">
         <is>
-          <t>Überlastung durch Wohnkosten</t>
+          <t>Erreichbarkeit von Mittel- und Oberzentren mit öffentlichen Verkehrsmitteln</t>
         </is>
       </c>
       <c r="M52" s="4" t="inlineStr">
         <is>
-          <t>Housing cost overload</t>
+          <t>Accessibility of medium-sized and large cities by public transport</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="53">
       <c r="A53" s="4" t="inlineStr">
         <is>
-          <t>Z11_B04_P01_Ib01_I01</t>
+          <t>Z11_B03_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B53" s="4" t="inlineStr">
         <is>
-          <t>Z11_B04_P01_Ib01</t>
+          <t>Z11_B03_P01_Ib01</t>
         </is>
       </c>
       <c r="C53" s="4" t="inlineStr">
         <is>
-          <t>11.4</t>
+          <t>11.3</t>
         </is>
       </c>
       <c r="D53" s="4" t="inlineStr">
         <is>
-          <t>Objekte in der Deutschen Digitalen Bibliothek</t>
+          <t>Durch Wohnkosten überlastete Personen</t>
         </is>
       </c>
       <c r="E53" s="4" t="inlineStr">
         <is>
-          <t>Objects in the German Digital Library</t>
+          <t>Persons overburdened by housing costs</t>
         </is>
       </c>
       <c r="F53" s="4" t="inlineStr">
         <is>
-          <t>Zahl der Objekte in der Deutschen Digitalen Bibliothek</t>
+          <t>Überlastung durch Wohnkosten</t>
         </is>
       </c>
       <c r="G53" s="4" t="inlineStr">
         <is>
-          <t>Number of objects in the German Digital Library</t>
+          <t>Housing cost overload</t>
         </is>
       </c>
       <c r="H53" s="4" t="inlineStr">
         <is>
-          <t>Steigerung der Zahl der in der Deutschen Digitalen Bibliothek vernetzten Objekte auf 50 Millionen bis 2030</t>
+          <t>Senkung des Anteils der überlasteten Personen an der Bevölkerung auf 13 % bis 2030</t>
         </is>
       </c>
       <c r="I53" s="4" t="inlineStr">
         <is>
-          <t>Increase in the number of objects in the network of the German Digital Library to 50 million by 2030</t>
+          <t>Reduce the proportion of people who are overburdened to 13 % by 2030</t>
         </is>
       </c>
       <c r="J53" s="4" t="inlineStr">
         <is>
-          <t>Steigerung auf 50 Millionen bis 2030</t>
+          <t>Senkung auf 13 % bis 2030</t>
         </is>
       </c>
       <c r="K53" s="4" t="inlineStr">
         <is>
-          <t>increase to 50 million by 2030</t>
+          <t>reduce to 13 % by 2030</t>
         </is>
       </c>
       <c r="L53" s="4" t="inlineStr">
         <is>
-          <t>Zahl der Objekte in der Deutschen Digitalen Bibliothek</t>
+          <t>Überlastung durch Wohnkosten</t>
         </is>
       </c>
       <c r="M53" s="4" t="inlineStr">
         <is>
-          <t>Number of objects in the German Digital Library</t>
+          <t>Housing cost overload</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="54">
       <c r="A54" s="4" t="inlineStr">
         <is>
-          <t>Z12_B01_P01_Ib01_I01</t>
+          <t>Z11_B04_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B54" s="4" t="inlineStr">
         <is>
-          <t>Z12_B01_P01_Ib01</t>
+          <t>Z11_B04_P01_Ib01</t>
         </is>
       </c>
       <c r="C54" s="4" t="inlineStr">
         <is>
-          <t>12.1.a</t>
+          <t>11.4</t>
         </is>
       </c>
       <c r="D54" s="4" t="inlineStr">
         <is>
-          <t>Produkte mit Umweltzeichen</t>
+          <t>Objekte in der Deutschen Digitalen Bibliothek</t>
         </is>
       </c>
       <c r="E54" s="4" t="inlineStr">
         <is>
-          <t>Products certified by eco-labelling schemes</t>
+          <t>Objects in the German Digital Library</t>
         </is>
       </c>
       <c r="F54" s="4" t="inlineStr">
         <is>
-          <t>Marktanteil von Produkten mit staatlichen Umweltzeichen</t>
+          <t>Zahl der Objekte in der Deutschen Digitalen Bibliothek</t>
         </is>
       </c>
       <c r="G54" s="4" t="inlineStr">
         <is>
-          <t>Market share of products certified by publicly managed eco-labelling schemes</t>
+          <t>Number of objects in the German Digital Library</t>
         </is>
       </c>
       <c r="H54" s="4" t="inlineStr">
         <is>
-          <t>Steigerung des Marktanteils auf 34 % bis 2030</t>
+          <t>Steigerung der Zahl der in der Deutschen Digitalen Bibliothek vernetzten Objekte auf 50 Millionen bis 2030</t>
         </is>
       </c>
       <c r="I54" s="4" t="inlineStr">
         <is>
-          <t>Increase the market share to 34 % by 2030</t>
+          <t>Increase in the number of objects in the network of the German Digital Library to 50 million by 2030</t>
         </is>
       </c>
       <c r="J54" s="4" t="inlineStr">
         <is>
-          <t>Steigerung des Marktanteils auf 34 % bis 2030</t>
+          <t>Steigerung auf 50 Millionen bis 2030</t>
         </is>
       </c>
       <c r="K54" s="4" t="inlineStr">
         <is>
-          <t>increase the market share to 34 % by 2030</t>
+          <t>increase to 50 million by 2030</t>
         </is>
       </c>
       <c r="L54" s="4" t="inlineStr">
         <is>
-          <t>Marktanteil von Produkten mit staatlichen Umweltzeichen</t>
+          <t>Zahl der Objekte in der Deutschen Digitalen Bibliothek</t>
         </is>
       </c>
       <c r="M54" s="4" t="inlineStr">
         <is>
-          <t>Market share of products certified by publicly managed eco-labelling schemes</t>
+          <t>Number of objects in the German Digital Library</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="55">
       <c r="A55" s="4" t="inlineStr">
         <is>
-          <t>Z12_B01_P01_Ib02_I01</t>
+          <t>Z12_B01_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B55" s="4" t="inlineStr">
         <is>
-          <t>Z12_B01_P01_Ib02</t>
+          <t>Z12_B01_P01_Ib01</t>
         </is>
       </c>
       <c r="C55" s="4" t="inlineStr">
         <is>
-          <t>12.1.ba</t>
+          <t>12.1.a</t>
         </is>
       </c>
       <c r="D55" s="4" t="inlineStr">
         <is>
-          <t>ba) Rohstoffeinsatz</t>
+          <t>Produkte mit Umweltzeichen</t>
         </is>
       </c>
       <c r="E55" s="4" t="inlineStr">
         <is>
-          <t>ba) Use of raw materials</t>
+          <t>Products certified by eco-labelling schemes</t>
         </is>
       </c>
       <c r="F55" s="4" t="inlineStr">
         <is>
-          <t>Globale Umweltinanspruchnahme durch den Konsum privater Haushalte - Rohstoffeinsatz</t>
+          <t>Marktanteil von Produkten mit staatlichen Umweltzeichen</t>
         </is>
       </c>
       <c r="G55" s="4" t="inlineStr">
         <is>
-          <t>Global environmental impact by private household consumption – use of raw materials</t>
+          <t>Market share of products certified by publicly managed eco-labelling schemes</t>
         </is>
       </c>
       <c r="H55" s="4" t="inlineStr">
         <is>
-          <t>Kontinuierliche Reduzierung </t>
+          <t>Steigerung des Marktanteils auf 34 % bis 2030</t>
         </is>
       </c>
       <c r="I55" s="4" t="inlineStr">
         <is>
-          <t>Steady reduction</t>
+          <t>Increase the market share to 34 % by 2030</t>
         </is>
       </c>
       <c r="J55" s="4" t="inlineStr">
         <is>
-          <t>kontinuierliche Reduzierung</t>
+          <t>Steigerung des Marktanteils auf 34 % bis 2030</t>
         </is>
       </c>
       <c r="K55" s="4" t="inlineStr">
         <is>
-          <t>steady reduction</t>
+          <t>increase the market share to 34 % by 2030</t>
         </is>
       </c>
       <c r="L55" s="4" t="inlineStr">
         <is>
-          <t>Direkter und indirekter Rohstoffeinsatz</t>
+          <t>Marktanteil von Produkten mit staatlichen Umweltzeichen</t>
         </is>
       </c>
       <c r="M55" s="4" t="inlineStr">
         <is>
-          <t>Direct and indirect use of raw materials</t>
+          <t>Market share of products certified by publicly managed eco-labelling schemes</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="56">
       <c r="A56" s="4" t="inlineStr">
         <is>
-          <t>Z12_B01_P01_Ib02_I02</t>
+          <t>Z12_B01_P01_Ib02_I01</t>
         </is>
       </c>
       <c r="B56" s="4" t="inlineStr">
@@ -4156,27 +4156,27 @@
       </c>
       <c r="C56" s="4" t="inlineStr">
         <is>
-          <t>12.1.bb</t>
+          <t>12.1.ba</t>
         </is>
       </c>
       <c r="D56" s="4" t="inlineStr">
         <is>
-          <t>bb) Energieverbrauch</t>
+          <t>ba) Rohstoffeinsatz</t>
         </is>
       </c>
       <c r="E56" s="4" t="inlineStr">
         <is>
-          <t>bb) Energy consumption</t>
+          <t>ba) Use of raw materials</t>
         </is>
       </c>
       <c r="F56" s="4" t="inlineStr">
         <is>
-          <t>Globale Umweltinanspruchnahme durch den Konsum privater Haushalte - Energieverbrauch</t>
+          <t>Globale Umweltinanspruchnahme durch den Konsum privater Haushalte - Rohstoffeinsatz</t>
         </is>
       </c>
       <c r="G56" s="4" t="inlineStr">
         <is>
-          <t>Global environmental impact by private household consumption – energy consumption</t>
+          <t>Global environmental impact by private household consumption – use of raw materials</t>
         </is>
       </c>
       <c r="H56" s="4" t="inlineStr">
@@ -4201,19 +4201,19 @@
       </c>
       <c r="L56" s="4" t="inlineStr">
         <is>
-          <t>Direkter und indirekter Energieverbrauch</t>
+          <t>Direkter und indirekter Rohstoffeinsatz</t>
         </is>
       </c>
       <c r="M56" s="4" t="inlineStr">
         <is>
-          <t>Direct and indirect energy consumption</t>
+          <t>Direct and indirect use of raw materials</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="57">
       <c r="A57" s="4" t="inlineStr">
         <is>
-          <t>Z12_B01_P01_Ib02_I03</t>
+          <t>Z12_B01_P01_Ib02_I02</t>
         </is>
       </c>
       <c r="B57" s="4" t="inlineStr">
@@ -4223,27 +4223,27 @@
       </c>
       <c r="C57" s="4" t="inlineStr">
         <is>
-          <t>12.1.bc</t>
+          <t>12.1.bb</t>
         </is>
       </c>
       <c r="D57" s="4" t="inlineStr">
         <is>
-          <t>bc) CO2-Emissionen</t>
+          <t>bb) Energieverbrauch</t>
         </is>
       </c>
       <c r="E57" s="4" t="inlineStr">
         <is>
-          <t>bc) CO2 emissions</t>
+          <t>bb) Energy consumption</t>
         </is>
       </c>
       <c r="F57" s="4" t="inlineStr">
         <is>
-          <t>Globale Umweltinanspruchnahme durch den Konsum privater Haushalte - CO2-Emissionen</t>
+          <t>Globale Umweltinanspruchnahme durch den Konsum privater Haushalte - Energieverbrauch</t>
         </is>
       </c>
       <c r="G57" s="4" t="inlineStr">
         <is>
-          <t>Global environmental impact by private household consumption – CO2 emissions</t>
+          <t>Global environmental impact by private household consumption – energy consumption</t>
         </is>
       </c>
       <c r="H57" s="4" t="inlineStr">
@@ -4268,153 +4268,153 @@
       </c>
       <c r="L57" s="4" t="inlineStr">
         <is>
-          <t>Direkte und indirekte CO2-Emissionen</t>
+          <t>Direkter und indirekter Energieverbrauch</t>
         </is>
       </c>
       <c r="M57" s="4" t="inlineStr">
         <is>
-          <t>Direct and indirect CO2 emissions</t>
+          <t>Direct and indirect energy consumption</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="58">
       <c r="A58" s="4" t="inlineStr">
         <is>
-          <t>Z12_B02_P01_Ib01_I01</t>
+          <t>Z12_B01_P01_Ib02_I03</t>
         </is>
       </c>
       <c r="B58" s="4" t="inlineStr">
         <is>
-          <t>Z12_B02_P01_Ib01</t>
+          <t>Z12_B01_P01_Ib02</t>
         </is>
       </c>
       <c r="C58" s="4" t="inlineStr">
         <is>
-          <t>12.2</t>
+          <t>12.1.bc</t>
         </is>
       </c>
       <c r="D58" s="4" t="inlineStr">
         <is>
-          <t>Umweltmanagement EMAS</t>
+          <t>bc) CO2-Emissionen</t>
         </is>
       </c>
       <c r="E58" s="4" t="inlineStr">
         <is>
-          <t>EMAS eco-management</t>
+          <t>bc) CO2 emissions</t>
         </is>
       </c>
       <c r="F58" s="4" t="inlineStr">
         <is>
-          <t>Umweltmanagement EMAS</t>
+          <t>Globale Umweltinanspruchnahme durch den Konsum privater Haushalte - CO2-Emissionen</t>
         </is>
       </c>
       <c r="G58" s="4" t="inlineStr">
         <is>
-          <t>EMAS eco-management</t>
+          <t>Global environmental impact by private household consumption – CO2 emissions</t>
         </is>
       </c>
       <c r="H58" s="4" t="inlineStr">
         <is>
-          <t>5 000 Organisationsstandorte bis 2030</t>
+          <t>Kontinuierliche Reduzierung </t>
         </is>
       </c>
       <c r="I58" s="4" t="inlineStr">
         <is>
-          <t>5,000 locations of organisation by 2030</t>
+          <t>Steady reduction</t>
         </is>
       </c>
       <c r="J58" s="4" t="inlineStr">
         <is>
-          <t>5 000 Organisationsstandorte bis 2030</t>
+          <t>kontinuierliche Reduzierung</t>
         </is>
       </c>
       <c r="K58" s="4" t="inlineStr">
         <is>
-          <t>5,000 locations of organisation by 2030</t>
+          <t>steady reduction</t>
         </is>
       </c>
       <c r="L58" s="4" t="inlineStr">
         <is>
-          <t>Umweltmanagement EMAS</t>
+          <t>Direkte und indirekte CO2-Emissionen</t>
         </is>
       </c>
       <c r="M58" s="4" t="inlineStr">
         <is>
-          <t>EMAS eco-management</t>
+          <t>Direct and indirect CO2 emissions</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="59">
       <c r="A59" s="4" t="inlineStr">
         <is>
-          <t>Z12_B03_P01_Ib01_I01</t>
+          <t>Z12_B02_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B59" s="4" t="inlineStr">
         <is>
-          <t>Z12_B03_P01_Ib01</t>
+          <t>Z12_B02_P01_Ib01</t>
         </is>
       </c>
       <c r="C59" s="4" t="inlineStr">
         <is>
-          <t>12.3.a</t>
+          <t>12.2</t>
         </is>
       </c>
       <c r="D59" s="4" t="inlineStr">
         <is>
-          <t>a) Anteil Papier mit Blauem Engel der Bundesverwaltung</t>
+          <t>Umweltmanagement EMAS</t>
         </is>
       </c>
       <c r="E59" s="4" t="inlineStr">
         <is>
-          <t>a) Share of paper bearing the Blue Angel label of the federal administration</t>
+          <t>EMAS eco-management</t>
         </is>
       </c>
       <c r="F59" s="4" t="inlineStr">
         <is>
-          <t>Anteil des Papiers mit Blauem Engel am Gesamtpapierverbrauch der unmittelbaren Bundesverwaltung</t>
+          <t>Umweltmanagement EMAS</t>
         </is>
       </c>
       <c r="G59" s="4" t="inlineStr">
         <is>
-          <t>Paper bearing the Blue Angel label as a proportion of the total paper consumption of the direct federal administration</t>
+          <t>EMAS eco-management</t>
         </is>
       </c>
       <c r="H59" s="4" t="inlineStr">
         <is>
-          <t>Steigerung des Anteils auf 95 % bis 2020</t>
+          <t>5 000 Organisationsstandorte bis 2030</t>
         </is>
       </c>
       <c r="I59" s="4" t="inlineStr">
         <is>
-          <t>Increase the proportion to 95 % by 2020</t>
+          <t>5,000 locations of organisation by 2030</t>
         </is>
       </c>
       <c r="J59" s="4" t="inlineStr">
         <is>
-          <t>Steigerung auf 95 % bis 2020</t>
+          <t>5 000 Organisationsstandorte bis 2030</t>
         </is>
       </c>
       <c r="K59" s="4" t="inlineStr">
         <is>
-          <t>increase to 95 % by 2020</t>
+          <t>5,000 locations of organisation by 2030</t>
         </is>
       </c>
       <c r="L59" s="4" t="inlineStr">
         <is>
-          <t>Anteil des Papiers mit Blauem Engel am Gesamtpapierverbrauch der unmittelbaren Bundesverwaltung</t>
+          <t>Umweltmanagement EMAS</t>
         </is>
       </c>
       <c r="M59" s="4" t="inlineStr">
         <is>
-          <t>Paper bearing the Blue Angel label as a proportion of the total paper consumption of the direct federal administration</t>
+          <t>EMAS eco-management</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="60">
       <c r="A60" s="4" t="inlineStr">
         <is>
-          <t>Z12_B03_P01_Ib01_I02</t>
+          <t>Z12_B03_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B60" s="4" t="inlineStr">
@@ -4424,265 +4424,265 @@
       </c>
       <c r="C60" s="4" t="inlineStr">
         <is>
-          <t>12.3.b</t>
+          <t>12.3.a</t>
         </is>
       </c>
       <c r="D60" s="4" t="inlineStr">
         <is>
-          <t>b) CO2-Emissionen der Kfz der öffentlichen Hand</t>
+          <t>a) Anteil Papier mit Blauem Engel der Bundesverwaltung</t>
         </is>
       </c>
       <c r="E60" s="4" t="inlineStr">
         <is>
-          <t>b) CO2 emissions of vehicles in the public sector</t>
+          <t>a) Share of paper bearing the Blue Angel label of the federal administration</t>
         </is>
       </c>
       <c r="F60" s="4" t="inlineStr">
         <is>
-          <t>CO2-Emissionen je Fahrleistungen der Kraftfahrzeuge der öffentlichen Hand</t>
+          <t>Anteil des Papiers mit Blauem Engel am Gesamtpapierverbrauch der unmittelbaren Bundesverwaltung</t>
         </is>
       </c>
       <c r="G60" s="4" t="inlineStr">
         <is>
-          <t>CO2 emissions of commercially available vehicles in the public sector</t>
+          <t>Paper bearing the Blue Angel label as a proportion of the total paper consumption of the direct federal administration</t>
         </is>
       </c>
       <c r="H60" s="4" t="inlineStr">
         <is>
-          <t>Signifikante Senkung</t>
+          <t>Steigerung des Anteils auf 95 % bis 2020</t>
         </is>
       </c>
       <c r="I60" s="4" t="inlineStr">
         <is>
-          <t>Significantly reduce</t>
+          <t>Increase the proportion to 95 % by 2020</t>
         </is>
       </c>
       <c r="J60" s="4" t="inlineStr">
         <is>
-          <t>signifikante Senkung</t>
+          <t>Steigerung auf 95 % bis 2020</t>
         </is>
       </c>
       <c r="K60" s="4" t="inlineStr">
         <is>
-          <t>significantly reduce</t>
+          <t>increase to 95 % by 2020</t>
         </is>
       </c>
       <c r="L60" s="4" t="inlineStr">
         <is>
-          <t>CO2-Emissionen je Fahrleistungen der Kraftfahrzeuge der öffentlichen Hand</t>
+          <t>Anteil des Papiers mit Blauem Engel am Gesamtpapierverbrauch der unmittelbaren Bundesverwaltung</t>
         </is>
       </c>
       <c r="M60" s="4" t="inlineStr">
         <is>
-          <t>CO2 emissions of commercially available vehicles in the public sector</t>
+          <t>Paper bearing the Blue Angel label as a proportion of the total paper consumption of the direct federal administration</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="61">
       <c r="A61" s="4" t="inlineStr">
         <is>
-          <t>Z13_B01_P01_Ib01_I01</t>
+          <t>Z12_B03_P01_Ib01_I02</t>
         </is>
       </c>
       <c r="B61" s="4" t="inlineStr">
         <is>
-          <t>Z13_B01_P01_Ib01</t>
+          <t>Z12_B03_P01_Ib01</t>
         </is>
       </c>
       <c r="C61" s="4" t="inlineStr">
         <is>
-          <t>13.1.a</t>
+          <t>12.3.b</t>
         </is>
       </c>
       <c r="D61" s="4" t="inlineStr">
         <is>
-          <t>Treibhausgasemissionen</t>
+          <t>b) CO2-Emissionen der Kfz der öffentlichen Hand</t>
         </is>
       </c>
       <c r="E61" s="4" t="inlineStr">
         <is>
-          <t>Greenhouse gas emissions</t>
+          <t>b) CO2 emissions of vehicles in the public sector</t>
         </is>
       </c>
       <c r="F61" s="4" t="inlineStr">
         <is>
-          <t>Treibhausgasemissionen</t>
+          <t>CO2-Emissionen je Fahrleistungen der Kraftfahrzeuge der öffentlichen Hand</t>
         </is>
       </c>
       <c r="G61" s="4" t="inlineStr">
         <is>
-          <t>Greenhouse gas emissions</t>
+          <t>CO2 emissions of commercially available vehicles in the public sector</t>
         </is>
       </c>
       <c r="H61" s="4" t="inlineStr">
         <is>
-          <t>Minderung um mindestens 65 % bis 2030, um mindestens 88 % bis 2040; Erreichung der Treibhausgasneutralität bis 2045</t>
+          <t>Signifikante Senkung</t>
         </is>
       </c>
       <c r="I61" s="4" t="inlineStr">
         <is>
-          <t>Reduce by at least 65 % by 2030 and by at least 88 % by 2040; greenhouse gas neutrality to be achieved by 2045</t>
+          <t>Significantly reduce</t>
         </is>
       </c>
       <c r="J61" s="4" t="inlineStr">
         <is>
-          <t>Minderung um 65 % bis 2030</t>
+          <t>signifikante Senkung</t>
         </is>
       </c>
       <c r="K61" s="4" t="inlineStr">
         <is>
-          <t>reduce by 65 % by 2030</t>
+          <t>significantly reduce</t>
         </is>
       </c>
       <c r="L61" s="4" t="inlineStr">
         <is>
-          <t>Treibhausgasemissionen</t>
+          <t>CO2-Emissionen je Fahrleistungen der Kraftfahrzeuge der öffentlichen Hand</t>
         </is>
       </c>
       <c r="M61" s="4" t="inlineStr">
         <is>
-          <t>Greenhouse gas emissions</t>
+          <t>CO2 emissions of commercially available vehicles in the public sector</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="62">
       <c r="A62" s="4" t="inlineStr">
         <is>
-          <t>Z13_B01_P02_Ib01_I01</t>
+          <t>Z13_B01_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B62" s="4" t="inlineStr">
         <is>
-          <t>Z13_B01_P02_Ib01</t>
+          <t>Z13_B01_P01_Ib01</t>
         </is>
       </c>
       <c r="C62" s="4" t="inlineStr">
         <is>
-          <t>13.1.b</t>
+          <t>13.1.a</t>
         </is>
       </c>
       <c r="D62" s="4" t="inlineStr">
         <is>
-          <t>Zahlungen zur Klimafinanzierung</t>
+          <t>Treibhausgasemissionen</t>
         </is>
       </c>
       <c r="E62" s="4" t="inlineStr">
         <is>
-          <t>Climate finance payments</t>
+          <t>Greenhouse gas emissions</t>
         </is>
       </c>
       <c r="F62" s="4" t="inlineStr">
         <is>
-          <t>Internationale Klimafinanzierung zur Reduktion von Treibhausgasen und zur Anpassung an den Klimawandel</t>
+          <t>Treibhausgasemissionen</t>
         </is>
       </c>
       <c r="G62" s="4" t="inlineStr">
         <is>
-          <t>International climate finance for the reduction of greenhouse gases and adaptation to climate change</t>
+          <t>Greenhouse gas emissions</t>
         </is>
       </c>
       <c r="H62" s="4" t="inlineStr">
         <is>
-          <t>Erhöhung der internationalen Klimafinanzierung auf mindestens 6 Mrd. Euro bis spätestens 2025.</t>
+          <t>Minderung um mindestens 65 % bis 2030, um mindestens 88 % bis 2040; Erreichung der Treibhausgasneutralität bis 2045</t>
         </is>
       </c>
       <c r="I62" s="4" t="inlineStr">
         <is>
-          <t>Increase international climate finance to at least 6 billion euros by 2025 at the latest</t>
+          <t>Reduce by at least 65 % by 2030 and by at least 88 % by 2040; greenhouse gas neutrality to be achieved by 2045</t>
         </is>
       </c>
       <c r="J62" s="4" t="inlineStr">
         <is>
-          <t>Erhöhung auf 6 Mrd. Euro bis 2025</t>
+          <t>Minderung um 65 % bis 2030</t>
         </is>
       </c>
       <c r="K62" s="4" t="inlineStr">
         <is>
-          <t>increase to 6 bn euro by 2025</t>
+          <t>reduce by 65 % by 2030</t>
         </is>
       </c>
       <c r="L62" s="4" t="inlineStr">
         <is>
-          <t>Internationale Klimafinanzierung zur Reduktion von Treibhausgasen und zur Anpassung an den Klimawandel</t>
+          <t>Treibhausgasemissionen</t>
         </is>
       </c>
       <c r="M62" s="4" t="inlineStr">
         <is>
-          <t>International climate finance for the reduction of greenhouse gases and adaptation to climate change</t>
+          <t>Greenhouse gas emissions</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="63">
       <c r="A63" s="4" t="inlineStr">
         <is>
-          <t>Z14_B01_P01_Ib01_I01</t>
+          <t>Z13_B01_P02_Ib01_I01</t>
         </is>
       </c>
       <c r="B63" s="4" t="inlineStr">
         <is>
-          <t>Z14_B01_P01_Ib01</t>
+          <t>Z13_B01_P02_Ib01</t>
         </is>
       </c>
       <c r="C63" s="4" t="inlineStr">
         <is>
-          <t>14.1.aa</t>
+          <t>13.1.b</t>
         </is>
       </c>
       <c r="D63" s="4" t="inlineStr">
         <is>
-          <t>aa) Ostsee</t>
+          <t>Zahlungen zur Klimafinanzierung</t>
         </is>
       </c>
       <c r="E63" s="4" t="inlineStr">
         <is>
-          <t>aa) Baltic Sea</t>
+          <t>Climate finance payments</t>
         </is>
       </c>
       <c r="F63" s="4" t="inlineStr">
         <is>
-          <t>Stickstoffeintrag über die Zuflüsse in die Ostsee</t>
+          <t>Internationale Klimafinanzierung zur Reduktion von Treibhausgasen und zur Anpassung an den Klimawandel</t>
         </is>
       </c>
       <c r="G63" s="4" t="inlineStr">
         <is>
-          <t>Nitrogen input via the inflows into the Baltic Sea</t>
+          <t>International climate finance for the reduction of greenhouse gases and adaptation to climate change</t>
         </is>
       </c>
       <c r="H63" s="4" t="inlineStr">
         <is>
-          <t>Einhaltung des guten Zustands nach Oberflächengewässerverordnung (Jahresmittelwerte für Gesamtstickstoff bei in die Ostsee mündenden Flüssen sollen 2,6 Milligramm pro Liter nicht überschreiten)</t>
+          <t>Erhöhung der internationalen Klimafinanzierung auf mindestens 6 Mrd. Euro bis spätestens 2025.</t>
         </is>
       </c>
       <c r="I63" s="4" t="inlineStr">
         <is>
-          <t>Adherence to good quality in accordance with the Ordinance on the Protection of Surface Waters (Oberflächengewässerver-ordnung) (annual averages for total nitro-gen in rivers flowing into the Baltic may not exceed 2.6 mg/l)</t>
+          <t>Increase international climate finance to at least 6 billion euros by 2025 at the latest</t>
         </is>
       </c>
       <c r="J63" s="4" t="inlineStr">
         <is>
-          <t>Gesamtstickstoff in Zuflüssen unter 2,6 mg/l</t>
+          <t>Erhöhung auf 6 Mrd. Euro bis 2025</t>
         </is>
       </c>
       <c r="K63" s="4" t="inlineStr">
         <is>
-          <t>total nitrogen in the inflows below 2.6 mg/l</t>
+          <t>increase to 6 bn euro by 2025</t>
         </is>
       </c>
       <c r="L63" s="4" t="inlineStr">
         <is>
-          <t>Stickstoffeintrag über die Zuflüsse in die Ostsee</t>
+          <t>Internationale Klimafinanzierung zur Reduktion von Treibhausgasen und zur Anpassung an den Klimawandel</t>
         </is>
       </c>
       <c r="M63" s="4" t="inlineStr">
         <is>
-          <t>Nitrogen input via the inflows into the Baltic Sea</t>
+          <t>International climate finance for the reduction of greenhouse gases and adaptation to climate change</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="64">
       <c r="A64" s="4" t="inlineStr">
         <is>
-          <t>Z14_B01_P01_Ib01_I02</t>
+          <t>Z14_B01_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B64" s="4" t="inlineStr">
@@ -4692,332 +4692,332 @@
       </c>
       <c r="C64" s="4" t="inlineStr">
         <is>
-          <t>14.1.ab</t>
+          <t>14.1.aa</t>
         </is>
       </c>
       <c r="D64" s="4" t="inlineStr">
         <is>
-          <t>ab) Nordsee</t>
+          <t>aa) Ostsee</t>
         </is>
       </c>
       <c r="E64" s="4" t="inlineStr">
         <is>
-          <t>ab) North Sea</t>
+          <t>aa) Baltic Sea</t>
         </is>
       </c>
       <c r="F64" s="4" t="inlineStr">
         <is>
-          <t>Stickstoffeintrag über die Zuflüsse in die Nordsee</t>
+          <t>Stickstoffeintrag über die Zuflüsse in die Ostsee</t>
         </is>
       </c>
       <c r="G64" s="4" t="inlineStr">
         <is>
-          <t>Nitrogen input via the inflows into the North Sea</t>
+          <t>Nitrogen input via the inflows into the Baltic Sea</t>
         </is>
       </c>
       <c r="H64" s="4" t="inlineStr">
         <is>
-          <t>Einhaltung des guten Zustands nach Oberflächengewässerverordnung (Jahresmittelwerte für Gesamtstickstoff bei in die Nordsee mündenden Flüssen sollen 2,8 Milligramm pro Liter nicht überschreiten)</t>
+          <t>Einhaltung des guten Zustands nach Oberflächengewässerverordnung (Jahresmittelwerte für Gesamtstickstoff bei in die Ostsee mündenden Flüssen sollen 2,6 Milligramm pro Liter nicht überschreiten)</t>
         </is>
       </c>
       <c r="I64" s="4" t="inlineStr">
         <is>
-          <t>Adherence to good quality in accordance with the Ordinance on the Protection of Surface Waters (annual averages for total nitrogen in rivers flowing into the North Sea may not exceed 2.8 mg/l)</t>
+          <t>Adherence to good quality in accordance with the Ordinance on the Protection of Surface Waters (Oberflächengewässerver-ordnung) (annual averages for total nitro-gen in rivers flowing into the Baltic may not exceed 2.6 mg/l)</t>
         </is>
       </c>
       <c r="J64" s="4" t="inlineStr">
         <is>
-          <t>Gesamtstickstoff in Zuflüssen unter 2,8 mg/l</t>
+          <t>Gesamtstickstoff in Zuflüssen unter 2,6 mg/l</t>
         </is>
       </c>
       <c r="K64" s="4" t="inlineStr">
         <is>
-          <t>total nitrogen in the inflows below 2.8 mg/l</t>
+          <t>total nitrogen in the inflows below 2.6 mg/l</t>
         </is>
       </c>
       <c r="L64" s="4" t="inlineStr">
         <is>
-          <t>Stickstoffeintrag über die Zuflüsse in die Nordsee</t>
+          <t>Stickstoffeintrag über die Zuflüsse in die Ostsee</t>
         </is>
       </c>
       <c r="M64" s="4" t="inlineStr">
         <is>
-          <t>Nitrogen input via the inflows into the North Sea</t>
+          <t>Nitrogen input via the inflows into the Baltic Sea</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="65">
       <c r="A65" s="4" t="inlineStr">
         <is>
-          <t>Z14_B01_P01_Ib02_I01</t>
+          <t>Z14_B01_P01_Ib01_I02</t>
         </is>
       </c>
       <c r="B65" s="4" t="inlineStr">
         <is>
-          <t>Z14_B01_P01_Ib02</t>
+          <t>Z14_B01_P01_Ib01</t>
         </is>
       </c>
       <c r="C65" s="4" t="inlineStr">
         <is>
-          <t>14.1.b</t>
+          <t>14.1.ab</t>
         </is>
       </c>
       <c r="D65" s="4" t="inlineStr">
         <is>
-          <t>Bewirtschaftung von Fischbeständen</t>
+          <t>ab) Nordsee</t>
         </is>
       </c>
       <c r="E65" s="4" t="inlineStr">
         <is>
-          <t>Fish stock management</t>
+          <t>ab) North Sea</t>
         </is>
       </c>
       <c r="F65" s="4" t="inlineStr">
         <is>
-          <t>Anteil der nachhaltig befischten Fischbestände in Nord- und Ostsee</t>
+          <t>Stickstoffeintrag über die Zuflüsse in die Nordsee</t>
         </is>
       </c>
       <c r="G65" s="4" t="inlineStr">
         <is>
-          <t>Share of sustainably fished stocks of fish in the North and Baltic Seas</t>
+          <t>Nitrogen input via the inflows into the North Sea</t>
         </is>
       </c>
       <c r="H65" s="4" t="inlineStr">
         <is>
-          <t>Alle wirtschaftlich genutzten Fischbestände sollen nach dem MSY-Ansatz nachhaltig bewirtschaftet werden bis 2020</t>
+          <t>Einhaltung des guten Zustands nach Oberflächengewässerverordnung (Jahresmittelwerte für Gesamtstickstoff bei in die Nordsee mündenden Flüssen sollen 2,8 Milligramm pro Liter nicht überschreiten)</t>
         </is>
       </c>
       <c r="I65" s="4" t="inlineStr">
         <is>
-          <t>All fish stocks used for commercial purpos-es to be sustainably managed in accordance with the Maximum Sustainable Yield (MSY) approach by 2020</t>
+          <t>Adherence to good quality in accordance with the Ordinance on the Protection of Surface Waters (annual averages for total nitrogen in rivers flowing into the North Sea may not exceed 2.8 mg/l)</t>
         </is>
       </c>
       <c r="J65" s="4" t="inlineStr">
         <is>
-          <t>nachhaltige Bewirtschaftung nach dem MSY-Ansatz bis 2020</t>
+          <t>Gesamtstickstoff in Zuflüssen unter 2,8 mg/l</t>
         </is>
       </c>
       <c r="K65" s="4" t="inlineStr">
         <is>
-          <t>sustainable management in accordance with the MSY approachby 2020</t>
+          <t>total nitrogen in the inflows below 2.8 mg/l</t>
         </is>
       </c>
       <c r="L65" s="4" t="inlineStr">
         <is>
-          <t>Anteil der nachhaltig befischten Fischbestände in Nord- und Ostsee</t>
+          <t>Stickstoffeintrag über die Zuflüsse in die Nordsee</t>
         </is>
       </c>
       <c r="M65" s="4" t="inlineStr">
         <is>
-          <t>Share of sustainably fished stocks of fish in the North and Baltic Seas</t>
+          <t>Nitrogen input via the inflows into the North Sea</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="66">
       <c r="A66" s="4" t="inlineStr">
         <is>
-          <t>Z15_B01_P01_Ib01_I01</t>
+          <t>Z14_B01_P01_Ib02_I01</t>
         </is>
       </c>
       <c r="B66" s="4" t="inlineStr">
         <is>
-          <t>Z15_B01_P01_Ib01</t>
+          <t>Z14_B01_P01_Ib02</t>
         </is>
       </c>
       <c r="C66" s="4" t="inlineStr">
         <is>
-          <t>15.1</t>
+          <t>14.1.b</t>
         </is>
       </c>
       <c r="D66" s="4" t="inlineStr">
         <is>
-          <t>Artenvielfalt und Landschaftsqualität</t>
+          <t>Bewirtschaftung von Fischbeständen</t>
         </is>
       </c>
       <c r="E66" s="4" t="inlineStr">
         <is>
-          <t>Biodiversity and landscape quality</t>
+          <t>Fish stock management</t>
         </is>
       </c>
       <c r="F66" s="4" t="inlineStr">
         <is>
-          <t>Artenvielfalt und Landschaftsqualität</t>
+          <t>Anteil der nachhaltig befischten Fischbestände in Nord- und Ostsee</t>
         </is>
       </c>
       <c r="G66" s="4" t="inlineStr">
         <is>
-          <t>Biodiversity and landscape quality</t>
+          <t>Share of sustainably fished stocks of fish in the North and Baltic Seas</t>
         </is>
       </c>
       <c r="H66" s="4" t="inlineStr">
         <is>
-          <t>Erreichen des Indexwertes 100 bis 2030</t>
+          <t>Alle wirtschaftlich genutzten Fischbestände sollen nach dem MSY-Ansatz nachhaltig bewirtschaftet werden bis 2020</t>
         </is>
       </c>
       <c r="I66" s="4" t="inlineStr">
         <is>
-          <t>Reach the index value of 100 by 2030</t>
+          <t>All fish stocks used for commercial purpos-es to be sustainably managed in accordance with the Maximum Sustainable Yield (MSY) approach by 2020</t>
         </is>
       </c>
       <c r="J66" s="4" t="inlineStr">
         <is>
-          <t>Erreichen des Indexwertes 100 bis 2030</t>
+          <t>nachhaltige Bewirtschaftung nach dem MSY-Ansatz bis 2020</t>
         </is>
       </c>
       <c r="K66" s="4" t="inlineStr">
         <is>
-          <t>reach the index value of 100 by 2030</t>
+          <t>sustainable management in accordance with the MSY approachby 2020</t>
         </is>
       </c>
       <c r="L66" s="4" t="inlineStr">
         <is>
-          <t>Artenvielfalt und Landschaftsqualität</t>
+          <t>Anteil der nachhaltig befischten Fischbestände in Nord- und Ostsee</t>
         </is>
       </c>
       <c r="M66" s="4" t="inlineStr">
         <is>
-          <t>Biodiversity and landscape quality</t>
+          <t>Share of sustainably fished stocks of fish in the North and Baltic Seas</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="67">
       <c r="A67" s="4" t="inlineStr">
         <is>
-          <t>Z15_B02_P01_Ib01_I01</t>
+          <t>Z15_B01_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B67" s="4" t="inlineStr">
         <is>
-          <t>Z15_B02_P01_Ib01</t>
+          <t>Z15_B01_P01_Ib01</t>
         </is>
       </c>
       <c r="C67" s="4" t="inlineStr">
         <is>
-          <t>15.2</t>
+          <t>15.1</t>
         </is>
       </c>
       <c r="D67" s="4" t="inlineStr">
         <is>
-          <t>Flächen mit erhöhtem Stickstoffeintrag</t>
+          <t>Artenvielfalt und Landschaftsqualität</t>
         </is>
       </c>
       <c r="E67" s="4" t="inlineStr">
         <is>
-          <t>Land with elevated inputs of nitrogen</t>
+          <t>Biodiversity and landscape quality</t>
         </is>
       </c>
       <c r="F67" s="4" t="inlineStr">
         <is>
-          <t>Eutrophierung der Ökosysteme</t>
+          <t>Artenvielfalt und Landschaftsqualität</t>
         </is>
       </c>
       <c r="G67" s="4" t="inlineStr">
         <is>
-          <t>Eutrophication of ecosystems</t>
+          <t>Biodiversity and landscape quality</t>
         </is>
       </c>
       <c r="H67" s="4" t="inlineStr">
         <is>
-          <t>Verringerung um 35 % bis 2030 gegenüber 2005</t>
+          <t>Erreichen des Indexwertes 100 bis 2030</t>
         </is>
       </c>
       <c r="I67" s="4" t="inlineStr">
         <is>
-          <t>Reduction by 35 % by 2030 compared to 2005</t>
+          <t>Reach the index value of 100 by 2030</t>
         </is>
       </c>
       <c r="J67" s="4" t="inlineStr">
         <is>
-          <t>Verringerung um 35 % bis 2030</t>
+          <t>Erreichen des Indexwertes 100 bis 2030</t>
         </is>
       </c>
       <c r="K67" s="4" t="inlineStr">
         <is>
-          <t>reduction by 35 % by 2030</t>
+          <t>reach the index value of 100 by 2030</t>
         </is>
       </c>
       <c r="L67" s="4" t="inlineStr">
         <is>
-          <t>Eutrophierung der Ökosysteme</t>
+          <t>Artenvielfalt und Landschaftsqualität</t>
         </is>
       </c>
       <c r="M67" s="4" t="inlineStr">
         <is>
-          <t>Eutrophication of ecosystems</t>
+          <t>Biodiversity and landscape quality</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="68">
       <c r="A68" s="4" t="inlineStr">
         <is>
-          <t>Z15_B02_P02_Ib01_I01</t>
+          <t>Z15_B02_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B68" s="4" t="inlineStr">
         <is>
-          <t>Z15_B02_P02_Ib01</t>
+          <t>Z15_B02_P01_Ib01</t>
         </is>
       </c>
       <c r="C68" s="4" t="inlineStr">
         <is>
-          <t>15.3.a</t>
+          <t>15.2</t>
         </is>
       </c>
       <c r="D68" s="4" t="inlineStr">
         <is>
-          <t>a) Wälder unter REDD+-Regelwerk</t>
+          <t>Flächen mit erhöhtem Stickstoffeintrag</t>
         </is>
       </c>
       <c r="E68" s="4" t="inlineStr">
         <is>
-          <t>a) Forests under REDD+ rulebook</t>
+          <t>Land with elevated inputs of nitrogen</t>
         </is>
       </c>
       <c r="F68" s="4" t="inlineStr">
         <is>
-          <t>REDD+ (ergebnisbasierte Auszahlungen für internationalen Waldschutz)</t>
+          <t>Eutrophierung der Ökosysteme</t>
         </is>
       </c>
       <c r="G68" s="4" t="inlineStr">
         <is>
-          <t>REDD+ (results-based payments for international protection of forests)</t>
+          <t>Eutrophication of ecosystems</t>
         </is>
       </c>
       <c r="H68" s="4" t="inlineStr">
         <is>
-          <t>Steigerung der Zahlungen bis 2030</t>
+          <t>Verringerung um 35 % bis 2030 gegenüber 2005</t>
         </is>
       </c>
       <c r="I68" s="4" t="inlineStr">
         <is>
-          <t>Increase payments by 2030</t>
+          <t>Reduction by 35 % by 2030 compared to 2005</t>
         </is>
       </c>
       <c r="J68" s="4" t="inlineStr">
         <is>
-          <t>Steigerung der Zahlungen bis 2030</t>
+          <t>Verringerung um 35 % bis 2030</t>
         </is>
       </c>
       <c r="K68" s="4" t="inlineStr">
         <is>
-          <t>increase payments by 2030</t>
+          <t>reduction by 35 % by 2030</t>
         </is>
       </c>
       <c r="L68" s="4" t="inlineStr">
         <is>
-          <t>Erhalt bzw. Wiederaufbau von Wäldern in Entwicklungsländern unter dem REDD+-Regelwerk</t>
+          <t>Eutrophierung der Ökosysteme</t>
         </is>
       </c>
       <c r="M68" s="4" t="inlineStr">
         <is>
-          <t>Preservation or restoration of forests in developing countries under the REDD+ rulebook</t>
+          <t>Eutrophication of ecosystems</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="69">
       <c r="A69" s="4" t="inlineStr">
         <is>
-          <t>Z15_B02_P02_Ib01_I02</t>
+          <t>Z15_B02_P02_Ib01_I01</t>
         </is>
       </c>
       <c r="B69" s="4" t="inlineStr">
@@ -5027,27 +5027,27 @@
       </c>
       <c r="C69" s="4" t="inlineStr">
         <is>
-          <t>15.3.b</t>
+          <t>15.3.a</t>
         </is>
       </c>
       <c r="D69" s="4" t="inlineStr">
         <is>
-          <t>b) Internationaler Bodenschutz</t>
+          <t>a) Wälder unter REDD+-Regelwerk</t>
         </is>
       </c>
       <c r="E69" s="4" t="inlineStr">
         <is>
-          <t>b) Combat Desertification</t>
+          <t>a) Forests under REDD+ rulebook</t>
         </is>
       </c>
       <c r="F69" s="4" t="inlineStr">
         <is>
-          <t>Internationaler Bodenschutz (Bruttoentwicklungsausgaben für internationalen Bodenschutz)</t>
+          <t>REDD+ (ergebnisbasierte Auszahlungen für internationalen Waldschutz)</t>
         </is>
       </c>
       <c r="G69" s="4" t="inlineStr">
         <is>
-          <t>International soil protection (gross development assistance for international soil protection)</t>
+          <t>REDD+ (results-based payments for international protection of forests)</t>
         </is>
       </c>
       <c r="H69" s="4" t="inlineStr">
@@ -5072,220 +5072,220 @@
       </c>
       <c r="L69" s="4" t="inlineStr">
         <is>
-          <t>Deutsche bilaterale Bruttoentwicklungsausgaben zur Umsetzung des Übereinkommens der VN zur Bekämpfung der Wüstenbildung</t>
+          <t>Erhalt bzw. Wiederaufbau von Wäldern in Entwicklungsländern unter dem REDD+-Regelwerk</t>
         </is>
       </c>
       <c r="M69" s="4" t="inlineStr">
         <is>
-          <t>German gross bilateral development expenditure for the implementation of the UN Convention to Combat Desertification</t>
+          <t>Preservation or restoration of forests in developing countries under the REDD+ rulebook</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="70">
       <c r="A70" s="4" t="inlineStr">
         <is>
-          <t>Z16_B01_P01_Ib01_I01</t>
+          <t>Z15_B02_P02_Ib01_I02</t>
         </is>
       </c>
       <c r="B70" s="4" t="inlineStr">
         <is>
-          <t>Z16_B01_P01_Ib01</t>
+          <t>Z15_B02_P02_Ib01</t>
         </is>
       </c>
       <c r="C70" s="4" t="inlineStr">
         <is>
-          <t>16.1</t>
+          <t>15.3.b</t>
         </is>
       </c>
       <c r="D70" s="4" t="inlineStr">
         <is>
-          <t>Anzahl an Straftaten</t>
+          <t>b) Internationaler Bodenschutz</t>
         </is>
       </c>
       <c r="E70" s="4" t="inlineStr">
         <is>
-          <t>Number of criminal offences</t>
+          <t>b) Combat Desertification</t>
         </is>
       </c>
       <c r="F70" s="4" t="inlineStr">
         <is>
-          <t>Straftaten</t>
+          <t>Internationaler Bodenschutz (Bruttoentwicklungsausgaben für internationalen Bodenschutz)</t>
         </is>
       </c>
       <c r="G70" s="4" t="inlineStr">
         <is>
-          <t>Criminal offences</t>
+          <t>International soil protection (gross development assistance for international soil protection)</t>
         </is>
       </c>
       <c r="H70" s="4" t="inlineStr">
         <is>
-          <t>Rückgang der Zahl der erfassten Straftaten je 100 000 Einwohner/ -innen auf unter 6 500 bis 2030</t>
+          <t>Steigerung der Zahlungen bis 2030</t>
         </is>
       </c>
       <c r="I70" s="4" t="inlineStr">
         <is>
-          <t>Reduce the number of criminal offences re-corded per 100,000 inhabitants to less than 6,500 by 2030</t>
+          <t>Increase payments by 2030</t>
         </is>
       </c>
       <c r="J70" s="4" t="inlineStr">
         <is>
-          <t>Rückgang auf unter 6 500 je 100 000 Einwohner/ -innen bis 2030</t>
+          <t>Steigerung der Zahlungen bis 2030</t>
         </is>
       </c>
       <c r="K70" s="4" t="inlineStr">
         <is>
-          <t>reduce to less than 6,500 per 100,000 inhabitants by 2030</t>
+          <t>increase payments by 2030</t>
         </is>
       </c>
       <c r="L70" s="4" t="inlineStr">
         <is>
-          <t>Straftaten</t>
+          <t>Deutsche bilaterale Bruttoentwicklungsausgaben zur Umsetzung des Übereinkommens der VN zur Bekämpfung der Wüstenbildung</t>
         </is>
       </c>
       <c r="M70" s="4" t="inlineStr">
         <is>
-          <t>Criminal offences</t>
+          <t>German gross bilateral development expenditure for the implementation of the UN Convention to Combat Desertification</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="71">
       <c r="A71" s="4" t="inlineStr">
         <is>
-          <t>Z16_B02_P01_Ib01_I01</t>
+          <t>Z16_B01_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B71" s="4" t="inlineStr">
         <is>
-          <t>Z16_B02_P01_Ib01</t>
+          <t>Z16_B01_P01_Ib01</t>
         </is>
       </c>
       <c r="C71" s="4" t="inlineStr">
         <is>
-          <t>16.2</t>
+          <t>16.1</t>
         </is>
       </c>
       <c r="D71" s="4" t="inlineStr">
         <is>
-          <t>Sicherung, Registrierung und Zerstörung von Waffen</t>
+          <t>Anzahl an Straftaten</t>
         </is>
       </c>
       <c r="E71" s="4" t="inlineStr">
         <is>
-          <t>Securing, registration and destruction of weapons</t>
+          <t>Number of criminal offences</t>
         </is>
       </c>
       <c r="F71" s="4" t="inlineStr">
         <is>
-          <t>Anzahl der in betroffenen Weltregionen durchgeführten Projekte zur Sicherung, Registrierung und Zerstörung von Kleinwaffen und leichten Waffen durch Deutschland</t>
+          <t>Straftaten</t>
         </is>
       </c>
       <c r="G71" s="4" t="inlineStr">
         <is>
-          <t>Number of projects to secure, register and destroy small arms and light weapons carried out by Germany in affected regions of the world</t>
+          <t>Criminal offences</t>
         </is>
       </c>
       <c r="H71" s="4" t="inlineStr">
         <is>
-          <t>Mindestens 15 Projekte pro Jahr bis 2030</t>
+          <t>Rückgang der Zahl der erfassten Straftaten je 100 000 Einwohner/ -innen auf unter 6 500 bis 2030</t>
         </is>
       </c>
       <c r="I71" s="4" t="inlineStr">
         <is>
-          <t>At least 15 projects per year by 2030</t>
+          <t>Reduce the number of criminal offences re-corded per 100,000 inhabitants to less than 6,500 by 2030</t>
         </is>
       </c>
       <c r="J71" s="4" t="inlineStr">
         <is>
-          <t>mindestens 15 Projekte pro Jahr bis 2030</t>
+          <t>Rückgang auf unter 6 500 je 100 000 Einwohner/ -innen bis 2030</t>
         </is>
       </c>
       <c r="K71" s="4" t="inlineStr">
         <is>
-          <t>at least 15 projects per year by 2030</t>
+          <t>reduce to less than 6,500 per 100,000 inhabitants by 2030</t>
         </is>
       </c>
       <c r="L71" s="4" t="inlineStr">
         <is>
-          <t>Anzahl der in betroffenen Weltregionen durchgeführten Projekte zur Sicherung, Registrierung und Zerstörung von Kleinwaffen und leichten Waffen durch Deutschland</t>
+          <t>Straftaten</t>
         </is>
       </c>
       <c r="M71" s="4" t="inlineStr">
         <is>
-          <t>Number of projects to secure, register and destroy small arms and light weapons carried out by Germany in affected regions of the world</t>
+          <t>Criminal offences</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="72">
       <c r="A72" s="4" t="inlineStr">
         <is>
-          <t>Z16_B03_P01_Ib01_I01</t>
+          <t>Z16_B02_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B72" s="4" t="inlineStr">
         <is>
-          <t>Z16_B03_P01_Ib01</t>
+          <t>Z16_B02_P01_Ib01</t>
         </is>
       </c>
       <c r="C72" s="4" t="inlineStr">
         <is>
-          <t>16.3.a</t>
+          <t>16.2</t>
         </is>
       </c>
       <c r="D72" s="4" t="inlineStr">
         <is>
-          <t>a) CPI Deutschland</t>
+          <t>Sicherung, Registrierung und Zerstörung von Waffen</t>
         </is>
       </c>
       <c r="E72" s="4" t="inlineStr">
         <is>
-          <t>a) CPI Germany</t>
+          <t>Securing, registration and destruction of weapons</t>
         </is>
       </c>
       <c r="F72" s="4" t="inlineStr">
         <is>
-          <t>Corruption Perception Index in Deutschland</t>
+          <t>Anzahl der in betroffenen Weltregionen durchgeführten Projekte zur Sicherung, Registrierung und Zerstörung von Kleinwaffen und leichten Waffen durch Deutschland</t>
         </is>
       </c>
       <c r="G72" s="4" t="inlineStr">
         <is>
-          <t>Corruption Perceptions Index in Germany</t>
+          <t>Number of projects to secure, register and destroy small arms and light weapons carried out by Germany in affected regions of the world</t>
         </is>
       </c>
       <c r="H72" s="4" t="inlineStr">
         <is>
-          <t>Verbesserung gegenüber 2012 bis 2030</t>
+          <t>Mindestens 15 Projekte pro Jahr bis 2030</t>
         </is>
       </c>
       <c r="I72" s="4" t="inlineStr">
         <is>
-          <t>Improvement by 2030, compared to 2012</t>
+          <t>At least 15 projects per year by 2030</t>
         </is>
       </c>
       <c r="J72" s="4" t="inlineStr">
         <is>
-          <t>Verbesserung bis 2030</t>
+          <t>mindestens 15 Projekte pro Jahr bis 2030</t>
         </is>
       </c>
       <c r="K72" s="4" t="inlineStr">
         <is>
-          <t>improvement by 2030</t>
+          <t>at least 15 projects per year by 2030</t>
         </is>
       </c>
       <c r="L72" s="4" t="inlineStr">
         <is>
-          <t>Corruption Perception Index in Deutschland</t>
+          <t>Anzahl der in betroffenen Weltregionen durchgeführten Projekte zur Sicherung, Registrierung und Zerstörung von Kleinwaffen und leichten Waffen durch Deutschland</t>
         </is>
       </c>
       <c r="M72" s="4" t="inlineStr">
         <is>
-          <t>Corruption Perception Index in Germany</t>
+          <t>Number of projects to secure, register and destroy small arms and light weapons carried out by Germany in affected regions of the world</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="73">
       <c r="A73" s="4" t="inlineStr">
         <is>
-          <t>Z16_B03_P01_Ib01_I02</t>
+          <t>Z16_B03_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B73" s="4" t="inlineStr">
@@ -5295,27 +5295,27 @@
       </c>
       <c r="C73" s="4" t="inlineStr">
         <is>
-          <t>16.3.b</t>
+          <t>16.3.a</t>
         </is>
       </c>
       <c r="D73" s="4" t="inlineStr">
         <is>
-          <t>b) CPI  Partnerländer</t>
+          <t>a) CPI Deutschland</t>
         </is>
       </c>
       <c r="E73" s="4" t="inlineStr">
         <is>
-          <t>b) CPI Partner countries</t>
+          <t>a) CPI Germany</t>
         </is>
       </c>
       <c r="F73" s="4" t="inlineStr">
         <is>
-          <t>Corruption Perception Index in den Partnerländern der deutschen Entwicklungszusammenarbeit</t>
+          <t>Corruption Perception Index in Deutschland</t>
         </is>
       </c>
       <c r="G73" s="4" t="inlineStr">
         <is>
-          <t>Corruption Perceptions Index in partner countries for German development cooperation</t>
+          <t>Corruption Perceptions Index in Germany</t>
         </is>
       </c>
       <c r="H73" s="4" t="inlineStr">
@@ -5340,213 +5340,414 @@
       </c>
       <c r="L73" s="4" t="inlineStr">
         <is>
-          <t>Anzahl der Partnerländer deutscher Entwicklungszusammenarbeit, deren Bewertung sich gegenüber 2012 verbessert hat</t>
+          <t>Corruption Perception Index in Deutschland</t>
         </is>
       </c>
       <c r="M73" s="4" t="inlineStr">
         <is>
-          <t>Number of partner countries for German development cooperation with improved CPI scores compared with 2012</t>
+          <t>Corruption Perception Index in Germany</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="74">
       <c r="A74" s="4" t="inlineStr">
         <is>
-          <t>Z17_B01_P01_Ib01_I01</t>
+          <t>Z16_B03_P01_Ib01_I02</t>
         </is>
       </c>
       <c r="B74" s="4" t="inlineStr">
         <is>
-          <t>Z17_B01_P01_Ib01</t>
+          <t>Z16_B03_P01_Ib01</t>
         </is>
       </c>
       <c r="C74" s="4" t="inlineStr">
         <is>
-          <t>17.1</t>
+          <t>16.3.b</t>
         </is>
       </c>
       <c r="D74" s="4" t="inlineStr">
         <is>
-          <t>Entwicklungsausgaben</t>
+          <t>b) CPI  Partnerländer</t>
         </is>
       </c>
       <c r="E74" s="4" t="inlineStr">
         <is>
-          <t>Development assistance</t>
+          <t>b) CPI Partner countries</t>
         </is>
       </c>
       <c r="F74" s="4" t="inlineStr">
         <is>
-          <t>Anteil öffentlicher Entwicklungsausgaben am Bruttonationaleinkommen</t>
+          <t>Corruption Perception Index in den Partnerländern der deutschen Entwicklungszusammenarbeit</t>
         </is>
       </c>
       <c r="G74" s="4" t="inlineStr">
         <is>
-          <t>Official development assistance as a proportion of gross national income</t>
+          <t>Corruption Perceptions Index in partner countries for German development cooperation</t>
         </is>
       </c>
       <c r="H74" s="4" t="inlineStr">
         <is>
-          <t>Steigerung des Anteils auf 0,7 % des  Bruttonationaleinkommens bis 2030</t>
+          <t>Verbesserung gegenüber 2012 bis 2030</t>
         </is>
       </c>
       <c r="I74" s="4" t="inlineStr">
         <is>
-          <t>Increase the proportion to 0.7 % of gross national income by 2030</t>
+          <t>Improvement by 2030, compared to 2012</t>
         </is>
       </c>
       <c r="J74" s="4" t="inlineStr">
         <is>
-          <t>Steigerung des Anteils auf 0,7 % des BNE bis 2030</t>
+          <t>Verbesserung bis 2030</t>
         </is>
       </c>
       <c r="K74" s="4" t="inlineStr">
         <is>
-          <t>increase to 0.7 % of GNI by 2030</t>
+          <t>improvement by 2030</t>
         </is>
       </c>
       <c r="L74" s="4" t="inlineStr">
         <is>
-          <t>Anteil öffentlicher Entwicklungsausgaben am Bruttonationaleinkommen</t>
+          <t>Anzahl der Partnerländer deutscher Entwicklungszusammenarbeit, deren Bewertung sich gegenüber 2012 verbessert hat</t>
         </is>
       </c>
       <c r="M74" s="4" t="inlineStr">
         <is>
-          <t>Official development assistance as a proportion of gross national income</t>
+          <t>Number of partner countries for German development cooperation with improved CPI scores compared with 2012</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="75">
       <c r="A75" s="4" t="inlineStr">
         <is>
-          <t>Z17_B02_P01_Ib01_I01</t>
+          <t>Z17_B01_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B75" s="4" t="inlineStr">
         <is>
-          <t>Z17_B02_P01_Ib01</t>
+          <t>Z17_B01_P01_Ib01</t>
         </is>
       </c>
       <c r="C75" s="4" t="inlineStr">
         <is>
-          <t>17.2</t>
+          <t>17.1</t>
         </is>
       </c>
       <c r="D75" s="4" t="inlineStr">
         <is>
-          <t>Studierende und Forschende aus Entwicklungslenländern und LDCs</t>
+          <t>Entwicklungsausgaben</t>
         </is>
       </c>
       <c r="E75" s="4" t="inlineStr">
         <is>
-          <t>Students and researchers from developing countries and LDCs</t>
+          <t>Development assistance</t>
         </is>
       </c>
       <c r="F75" s="4" t="inlineStr">
         <is>
-          <t>Anzahl der Studierenden und Forschenden aus Entwicklungsländern sowie aus am wenigsten entwickelten Ländern pro Jahr</t>
+          <t>Anteil öffentlicher Entwicklungsausgaben am Bruttonationaleinkommen</t>
         </is>
       </c>
       <c r="G75" s="4" t="inlineStr">
         <is>
-          <t>Number of students and researchers from developing countries and least developed countries per year</t>
+          <t>Official development assistance as a proportion of gross national income</t>
         </is>
       </c>
       <c r="H75" s="4" t="inlineStr">
         <is>
-          <t>Steigerung der Anzahl um 10 % von 2015 bis 2020, anschließend Verstetigung</t>
+          <t>Steigerung des Anteils auf 0,7 % des  Bruttonationaleinkommens bis 2030</t>
         </is>
       </c>
       <c r="I75" s="4" t="inlineStr">
         <is>
-          <t>Increase the number by 10 % from 2015 to 2020, then stabilised</t>
+          <t>Increase the proportion to 0.7 % of gross national income by 2030</t>
         </is>
       </c>
       <c r="J75" s="4" t="inlineStr">
         <is>
-          <t>Steigerung um 10 % von 2015 bis 2020, anschließend Verstetigung</t>
+          <t>Steigerung des Anteils auf 0,7 % des BNE bis 2030</t>
         </is>
       </c>
       <c r="K75" s="4" t="inlineStr">
         <is>
-          <t>increase by 10 % from 2015 to 2020, then stabilised</t>
+          <t>increase to 0.7 % of GNI by 2030</t>
         </is>
       </c>
       <c r="L75" s="4" t="inlineStr">
         <is>
-          <t>Anzahl der Studierenden und Forschenden aus Entwicklungsländern sowie aus am wenigsten entwickelten Ländern pro Jahr</t>
+          <t>Anteil öffentlicher Entwicklungsausgaben am Bruttonationaleinkommen</t>
         </is>
       </c>
       <c r="M75" s="4" t="inlineStr">
         <is>
-          <t>Number of students and researchers from developing countries and least developed countries per year</t>
+          <t>Official development assistance as a proportion of gross national income</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="76">
       <c r="A76" s="4" t="inlineStr">
         <is>
+          <t>Z17_B02_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="B76" s="4" t="inlineStr">
+        <is>
+          <t>Z17_B02_P01_Ib01</t>
+        </is>
+      </c>
+      <c r="C76" s="4" t="inlineStr">
+        <is>
+          <t>17.2</t>
+        </is>
+      </c>
+      <c r="D76" s="4" t="inlineStr">
+        <is>
+          <t>Studierende und Forschende aus Entwicklungslenländern und LDCs</t>
+        </is>
+      </c>
+      <c r="E76" s="4" t="inlineStr">
+        <is>
+          <t>Students and researchers from developing countries and LDCs</t>
+        </is>
+      </c>
+      <c r="F76" s="4" t="inlineStr">
+        <is>
+          <t>Anzahl der Studierenden und Forschenden aus Entwicklungsländern sowie aus am wenigsten entwickelten Ländern pro Jahr</t>
+        </is>
+      </c>
+      <c r="G76" s="4" t="inlineStr">
+        <is>
+          <t>Number of students and researchers from developing countries and least developed countries per year</t>
+        </is>
+      </c>
+      <c r="H76" s="4" t="inlineStr">
+        <is>
+          <t>Steigerung der Anzahl um 10 % von 2015 bis 2020, anschließend Verstetigung</t>
+        </is>
+      </c>
+      <c r="I76" s="4" t="inlineStr">
+        <is>
+          <t>Increase the number by 10 % from 2015 to 2020, then stabilised</t>
+        </is>
+      </c>
+      <c r="J76" s="4" t="inlineStr">
+        <is>
+          <t>Steigerung um 10 % von 2015 bis 2020, anschließend Verstetigung</t>
+        </is>
+      </c>
+      <c r="K76" s="4" t="inlineStr">
+        <is>
+          <t>increase by 10 % from 2015 to 2020, then stabilised</t>
+        </is>
+      </c>
+      <c r="L76" s="4" t="inlineStr">
+        <is>
+          <t>Anzahl der Studierenden und Forschenden aus Entwicklungsländern sowie aus am wenigsten entwickelten Ländern pro Jahr</t>
+        </is>
+      </c>
+      <c r="M76" s="4" t="inlineStr">
+        <is>
+          <t>Number of students and researchers from developing countries and least developed countries per year</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="77">
+      <c r="A77" s="4" t="inlineStr">
+        <is>
           <t>Z17_B03_P01_Ib01_I01</t>
         </is>
       </c>
-      <c r="B76" s="4" t="inlineStr">
+      <c r="B77" s="4" t="inlineStr">
         <is>
           <t>Z17_B03_P01_Ib01</t>
         </is>
       </c>
-      <c r="C76" s="4" t="inlineStr">
+      <c r="C77" s="4" t="inlineStr">
         <is>
           <t>17.3</t>
         </is>
       </c>
-      <c r="D76" s="4" t="inlineStr">
+      <c r="D77" s="4" t="inlineStr">
         <is>
           <t>Einfuhren aus LDCs</t>
         </is>
       </c>
-      <c r="E76" s="4" t="inlineStr">
+      <c r="E77" s="4" t="inlineStr">
         <is>
           <t>Imports coming from LDCs</t>
         </is>
       </c>
-      <c r="F76" s="4" t="inlineStr">
+      <c r="F77" s="4" t="inlineStr">
         <is>
           <t>Einfuhren aus am wenigsten entwickelten Ländern</t>
         </is>
       </c>
-      <c r="G76" s="4" t="inlineStr">
+      <c r="G77" s="4" t="inlineStr">
         <is>
           <t>Imports from least developed countries</t>
         </is>
       </c>
-      <c r="H76" s="4" t="inlineStr">
+      <c r="H77" s="4" t="inlineStr">
         <is>
           <t>Steigerung des Anteils um 100 % bis 2030 gegenüber 2014</t>
         </is>
       </c>
-      <c r="I76" s="4" t="inlineStr">
+      <c r="I77" s="4" t="inlineStr">
         <is>
           <t>Increase the proportion by 100 % by 2030, compared to 2014</t>
         </is>
       </c>
-      <c r="J76" s="4" t="inlineStr">
+      <c r="J77" s="4" t="inlineStr">
         <is>
           <t>Steigerung des Anteils um 100 % bis 2030 gegenüber 2014</t>
         </is>
       </c>
-      <c r="K76" s="4" t="inlineStr">
+      <c r="K77" s="4" t="inlineStr">
         <is>
           <t>increase by 100 % by 2030 compared to 2014</t>
         </is>
       </c>
-      <c r="L76" s="4" t="inlineStr">
+      <c r="L77" s="4" t="inlineStr">
         <is>
           <t>Einfuhren aus am wenigsten entwickelten Ländern</t>
         </is>
       </c>
-      <c r="M76" s="4" t="inlineStr">
+      <c r="M77" s="4" t="inlineStr">
         <is>
           <t>Imports from least developed countries</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="78">
+      <c r="A78" s="4" t="inlineStr">
+        <is>
+          <t>Z03_B04_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="B78" s="4" t="inlineStr">
+        <is>
+          <t>Z03_B04_P01_Ib01</t>
+        </is>
+      </c>
+      <c r="C78" s="4" t="inlineStr">
+        <is>
+          <t>3.4.a</t>
+        </is>
+      </c>
+      <c r="D78" s="4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="E78" s="4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="F78" s="4" t="inlineStr">
+        <is>
+          <t>Unterschied in der Lebenserwartung zwischen sozio-ökonomisch deprivierten und wohlhabenden Regionen (Frauen)</t>
+        </is>
+      </c>
+      <c r="G78" s="4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H78" s="4" t="inlineStr">
+        <is>
+          <t>Rückgang des Unterschieds in der mittleren Lebenserwartung von Frauen zwischen deprivierten und wohlhabenden Regionen bei gleichzeitigem Anstieg der Lebenserwartung von Frauen in deprivierten Regionen</t>
+        </is>
+      </c>
+      <c r="I78" s="4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J78" s="4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="K78" s="4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="L78" s="4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="M78" s="4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="79">
+      <c r="A79" s="4" t="inlineStr">
+        <is>
+          <t>Z03_B04_P01_Ib01_I02</t>
+        </is>
+      </c>
+      <c r="B79" s="4" t="inlineStr">
+        <is>
+          <t>Z03_B04_P01_Ib01</t>
+        </is>
+      </c>
+      <c r="C79" s="4" t="inlineStr">
+        <is>
+          <t>3.4.b</t>
+        </is>
+      </c>
+      <c r="D79" s="4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="E79" s="4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="F79" s="4" t="inlineStr">
+        <is>
+          <t>Unterschied in der Lebenserwartung zwischen sozio-ökonomisch deprivierten und wohlhabenden Regionen (Männer)</t>
+        </is>
+      </c>
+      <c r="G79" s="4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H79" s="4" t="inlineStr">
+        <is>
+          <t>Rückgang des Unterschieds in der mittleren Lebenserwartung von Männern zwischen deprivierten und wohlhabenden Regionen bei gleichzeitigem Anstieg der Lebenserwartung von Frauen in deprivierten Regionen</t>
+        </is>
+      </c>
+      <c r="I79" s="4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J79" s="4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="K79" s="4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="L79" s="4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="M79" s="4" t="inlineStr">
+        <is>
+          <t>X</t>
         </is>
       </c>
     </row>

--- a/Tab_5a_Indikatoren.xlsx
+++ b/Tab_5a_Indikatoren.xlsx
@@ -435,7 +435,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M79"/>
+  <dimension ref="A1:M80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -1320,12 +1320,12 @@
       </c>
       <c r="L13" s="4" t="inlineStr">
         <is>
-          <t>Anteil der Bevölkerung mit erhöhter PM10-Feinstaubexposition</t>
+          <t>Anteil der Bevölkerung mit erhöhter PM2,5-Feinstaubexposition</t>
         </is>
       </c>
       <c r="M13" s="4" t="inlineStr">
         <is>
-          <t>Share of the population with excessive exposure to PM10</t>
+          <t>Share of the population with excessive exposure to PM2,5</t>
         </is>
       </c>
     </row>
@@ -1466,878 +1466,878 @@
     <row outlineLevel="0" r="16">
       <c r="A16" s="4" t="inlineStr">
         <is>
-          <t>Z04_B01_P01_Ib01_I01</t>
+          <t>Z03_B04_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B16" s="4" t="inlineStr">
         <is>
-          <t>Z04_B01_P01_Ib01</t>
+          <t>Z03_B04_P01_Ib01</t>
         </is>
       </c>
       <c r="C16" s="4" t="inlineStr">
         <is>
-          <t>4.1.a</t>
+          <t>3.4.a</t>
         </is>
       </c>
       <c r="D16" s="4" t="inlineStr">
         <is>
-          <t>Frühe Schulabgänger/ -innen</t>
+          <t>X</t>
         </is>
       </c>
       <c r="E16" s="4" t="inlineStr">
         <is>
-          <t>Early school leavers</t>
+          <t>X</t>
         </is>
       </c>
       <c r="F16" s="4" t="inlineStr">
         <is>
-          <t>Frühe Schulabgängerinnen und Schulabgänger</t>
+          <t>Unterschied in der Lebenserwartung zwischen sozio-ökonomisch deprivierten und wohlhabenden Regionen (Frauen)</t>
         </is>
       </c>
       <c r="G16" s="4" t="inlineStr">
         <is>
-          <t>Early school leavers</t>
+          <t>X</t>
         </is>
       </c>
       <c r="H16" s="4" t="inlineStr">
         <is>
-          <t>Verringerung des Anteils auf 9,5 % bis 2030</t>
+          <t>Rückgang des Unterschieds in der mittleren Lebenserwartung von Frauen zwischen deprivierten und wohlhabenden Regionen bei gleichzeitigem Anstieg der Lebenserwartung von Frauen in deprivierten Regionen</t>
         </is>
       </c>
       <c r="I16" s="4" t="inlineStr">
         <is>
-          <t>Reduce the proportion to 9.5 % by 2030</t>
+          <t>X</t>
         </is>
       </c>
       <c r="J16" s="4" t="inlineStr">
         <is>
-          <t>Verringerung des Anteils auf 9,5 % bis 2030</t>
+          <t>X</t>
         </is>
       </c>
       <c r="K16" s="4" t="inlineStr">
         <is>
-          <t>reduce the proportion to 9.5 % by 2030</t>
+          <t>X</t>
         </is>
       </c>
       <c r="L16" s="4" t="inlineStr">
         <is>
-          <t>Frühe Schulabgängerinnen und Schulabgänger</t>
+          <t>X</t>
         </is>
       </c>
       <c r="M16" s="4" t="inlineStr">
         <is>
-          <t>Early school leavers</t>
+          <t>X</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="17">
       <c r="A17" s="4" t="inlineStr">
         <is>
-          <t>Z04_B01_P01_Ib02_I01</t>
+          <t>Z03_B04_P01_Ib01_I02</t>
         </is>
       </c>
       <c r="B17" s="4" t="inlineStr">
         <is>
-          <t>Z04_B01_P01_Ib02</t>
+          <t>Z03_B04_P01_Ib01</t>
         </is>
       </c>
       <c r="C17" s="4" t="inlineStr">
         <is>
-          <t>4.1.b</t>
+          <t>3.4.b</t>
         </is>
       </c>
       <c r="D17" s="4" t="inlineStr">
         <is>
-          <t>Berufliche Qualifizierung</t>
+          <t>X</t>
         </is>
       </c>
       <c r="E17" s="4" t="inlineStr">
         <is>
-          <t>Vocational qualification</t>
+          <t>X</t>
         </is>
       </c>
       <c r="F17" s="4" t="inlineStr">
         <is>
-          <t>Akademisch Qualifizierte und beruflich Höherqualifizierte (30- bis 34-Jährige mit tertiärem oder post-sekundarem nichttertiärem Abschluss)</t>
+          <t>Unterschied in der Lebenserwartung zwischen sozio-ökonomisch deprivierten und wohlhabenden Regionen (Männer)</t>
         </is>
       </c>
       <c r="G17" s="4" t="inlineStr">
         <is>
-          <t>Persons with an academic or higher vocational qualification (30 to 34-year-olds with a tertiary or post-secondary non-tertiary level of education)</t>
+          <t>X</t>
         </is>
       </c>
       <c r="H17" s="4" t="inlineStr">
         <is>
-          <t>Steigerung des Anteils auf 55 % bis 2030</t>
+          <t>Rückgang des Unterschieds in der mittleren Lebenserwartung von Männern zwischen deprivierten und wohlhabenden Regionen bei gleichzeitigem Anstieg der Lebenserwartung von Frauen in deprivierten Regionen</t>
         </is>
       </c>
       <c r="I17" s="4" t="inlineStr">
         <is>
-          <t>Increase the proportion to 55 % by 2030</t>
+          <t>X</t>
         </is>
       </c>
       <c r="J17" s="4" t="inlineStr">
         <is>
-          <t>Steigerung des Anteils auf 55 % bis 2030</t>
+          <t>X</t>
         </is>
       </c>
       <c r="K17" s="4" t="inlineStr">
         <is>
-          <t>increase the proportion to 55 % by 2030</t>
+          <t>X</t>
         </is>
       </c>
       <c r="L17" s="4" t="inlineStr">
         <is>
-          <t>Akademisch Qualifizierte und beruflich Höherqualifizierte (30- bis 34-Jährige mit tertiärem oder post-sekundarem nichttertiärem Abschluss)</t>
+          <t>X</t>
         </is>
       </c>
       <c r="M17" s="4" t="inlineStr">
         <is>
-          <t>Persons with an academic or higher vocational qualification (30 to 34-year-olds with a tertiary or post-secondary non-tertiary level of education)</t>
+          <t>X</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="18">
       <c r="A18" s="4" t="inlineStr">
         <is>
-          <t>Z04_B02_P01_Ib01_I01</t>
+          <t>Z04_B01_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B18" s="4" t="inlineStr">
         <is>
-          <t>Z04_B02_P01_Ib01</t>
+          <t>Z04_B01_P01_Ib01</t>
         </is>
       </c>
       <c r="C18" s="4" t="inlineStr">
         <is>
-          <t>4.2.a</t>
+          <t>4.1.a</t>
         </is>
       </c>
       <c r="D18" s="4" t="inlineStr">
         <is>
-          <t>a) 0- bis 2-Jährige</t>
+          <t>Frühe Schul- und Ausbildungsabgängerinnen und -abgänger</t>
         </is>
       </c>
       <c r="E18" s="4" t="inlineStr">
         <is>
-          <t>a) 0 to 2-year-olds</t>
+          <t>Early school leaversXXX</t>
         </is>
       </c>
       <c r="F18" s="4" t="inlineStr">
         <is>
-          <t>Ganztagsbetreuung für Kinder &lt;br&gt;0- bis 2-Jährige</t>
+          <t>Frühe Schul- und Ausbildungsabgängerinnen und -abgänger</t>
         </is>
       </c>
       <c r="G18" s="4" t="inlineStr">
         <is>
-          <t>All-day care provision for 0 to 2-year-old children</t>
+          <t>Early school leaversXXX</t>
         </is>
       </c>
       <c r="H18" s="4" t="inlineStr">
         <is>
-          <t>Anstieg auf 35 % bis 2030</t>
+          <t>Verringerung des Anteils auf 9,5 % bis 2030</t>
         </is>
       </c>
       <c r="I18" s="4" t="inlineStr">
         <is>
-          <t>Increase to 35 % by 2030</t>
+          <t>Reduce the proportion to 9.5 % by 2030</t>
         </is>
       </c>
       <c r="J18" s="4" t="inlineStr">
         <is>
-          <t>Anstieg auf 35 % bis 2030</t>
+          <t>Verringerung des Anteils auf 9,5 % bis 2030</t>
         </is>
       </c>
       <c r="K18" s="4" t="inlineStr">
         <is>
-          <t>increase to 35 % by 2030</t>
+          <t>reduce the proportion to 9.5 % by 2030</t>
         </is>
       </c>
       <c r="L18" s="4" t="inlineStr">
         <is>
-          <t>Ganztagsbetreuung für Kinder &lt;br&gt;0- bis 2-Jährige</t>
+          <t>Frühe Schul- und Ausbildungsabgängerinnen und -abgänger</t>
         </is>
       </c>
       <c r="M18" s="4" t="inlineStr">
         <is>
-          <t>All-day care provision for 0 to 2-year-old children</t>
+          <t>Early school leaversXXX</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="19">
       <c r="A19" s="4" t="inlineStr">
         <is>
-          <t>Z04_B02_P01_Ib01_I02</t>
+          <t>Z04_B01_P01_Ib02_I01</t>
         </is>
       </c>
       <c r="B19" s="4" t="inlineStr">
         <is>
-          <t>Z04_B02_P01_Ib01</t>
+          <t>Z04_B01_P01_Ib02</t>
         </is>
       </c>
       <c r="C19" s="4" t="inlineStr">
         <is>
-          <t>4.2.b</t>
+          <t>4.1.b</t>
         </is>
       </c>
       <c r="D19" s="4" t="inlineStr">
         <is>
-          <t>b) 3- bis 5-Jährige</t>
+          <t>Berufliche Qualifizierung</t>
         </is>
       </c>
       <c r="E19" s="4" t="inlineStr">
         <is>
-          <t>b) 3 to 5-year-olds</t>
+          <t>Vocational qualification</t>
         </is>
       </c>
       <c r="F19" s="4" t="inlineStr">
         <is>
-          <t>Ganztagsbetreuung für Kinder &lt;br&gt;3- bis 5-Jährige</t>
+          <t>Akademisch Qualifizierte und beruflich Höherqualifizierte (30- bis 34-Jährige mit tertiärem oder post-sekundarem nichttertiärem Abschluss)</t>
         </is>
       </c>
       <c r="G19" s="4" t="inlineStr">
         <is>
-          <t>All-day care provision for 3 to 5-year-old children</t>
+          <t>Persons with an academic or higher vocational qualification (30 to 34-year-olds with a tertiary or post-secondary non-tertiary level of education)</t>
         </is>
       </c>
       <c r="H19" s="4" t="inlineStr">
         <is>
-          <t>Anstieg auf 70 % bis 2030</t>
+          <t>Steigerung des Anteils auf 55 % bis 2030</t>
         </is>
       </c>
       <c r="I19" s="4" t="inlineStr">
         <is>
-          <t>Increase to 70 % by 2030</t>
+          <t>Increase the proportion to 55 % by 2030</t>
         </is>
       </c>
       <c r="J19" s="4" t="inlineStr">
         <is>
-          <t>Anstieg auf 70 % bis 2030</t>
+          <t>Steigerung des Anteils auf 55 % bis 2030</t>
         </is>
       </c>
       <c r="K19" s="4" t="inlineStr">
         <is>
-          <t>increase to 70 % by 2030</t>
+          <t>increase the proportion to 55 % by 2030</t>
         </is>
       </c>
       <c r="L19" s="4" t="inlineStr">
         <is>
-          <t>Ganztagsbetreuung für Kinder &lt;br&gt;3- bis 5-Jährige</t>
+          <t>Akademisch Qualifizierte und beruflich Höherqualifizierte (30- bis 34-Jährige mit tertiärem oder post-sekundarem nichttertiärem Abschluss)</t>
         </is>
       </c>
       <c r="M19" s="4" t="inlineStr">
         <is>
-          <t>All-day care provision for 3 to 5-year-old children</t>
+          <t>Persons with an academic or higher vocational qualification (30 to 34-year-olds with a tertiary or post-secondary non-tertiary level of education)</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="20">
       <c r="A20" s="4" t="inlineStr">
         <is>
-          <t>Z05_B01_P01_Ib01_I01</t>
+          <t>Z04_B02_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B20" s="4" t="inlineStr">
         <is>
-          <t>Z05_B01_P01_Ib01</t>
+          <t>Z04_B02_P01_Ib01</t>
         </is>
       </c>
       <c r="C20" s="4" t="inlineStr">
         <is>
-          <t>5.1.a</t>
+          <t>4.2.a</t>
         </is>
       </c>
       <c r="D20" s="4" t="inlineStr">
         <is>
-          <t>Gender Pay Gap</t>
+          <t>a) 0- bis 2-Jährige</t>
         </is>
       </c>
       <c r="E20" s="4" t="inlineStr">
         <is>
-          <t>Gender Pay Gap</t>
+          <t>a) 0 to 2-year-olds</t>
         </is>
       </c>
       <c r="F20" s="4" t="inlineStr">
         <is>
-          <t>Verdienstabstand zwischen Frauen und Männern</t>
+          <t>Ganztagsbetreuung für Kinder &lt;br&gt;0- bis 2-Jährige</t>
         </is>
       </c>
       <c r="G20" s="4" t="inlineStr">
         <is>
-          <t>Gender pay gap</t>
+          <t>All-day care provision for 0 to 2-year-old children</t>
         </is>
       </c>
       <c r="H20" s="4" t="inlineStr">
         <is>
-          <t>Verringerung des Abstandes auf 10 % bis 2020, Beibehaltung bis 2030</t>
+          <t>Anstieg auf 35 % bis 2030</t>
         </is>
       </c>
       <c r="I20" s="4" t="inlineStr">
         <is>
-          <t>Reduce the gap to 10 % by 2020, maintained until 2030 subsequently</t>
+          <t>Increase to 35 % by 2030</t>
         </is>
       </c>
       <c r="J20" s="4" t="inlineStr">
         <is>
-          <t>Beibehaltung von maximal 10 % bis 2030</t>
+          <t>Anstieg auf 35 % bis 2030</t>
         </is>
       </c>
       <c r="K20" s="4" t="inlineStr">
         <is>
-          <t>maintaine a maximum of 10 % by 2030</t>
+          <t>increase to 35 % by 2030</t>
         </is>
       </c>
       <c r="L20" s="4" t="inlineStr">
         <is>
-          <t>Verdienstabstand zwischen Frauen und Männern</t>
+          <t>Ganztagsbetreuung für Kinder &lt;br&gt;0- bis 2-Jährige</t>
         </is>
       </c>
       <c r="M20" s="4" t="inlineStr">
         <is>
-          <t>Gender pay gap</t>
+          <t>All-day care provision for 0 to 2-year-old children</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="21">
       <c r="A21" s="4" t="inlineStr">
         <is>
-          <t>Z05_B01_P01_Ib02_I01</t>
+          <t>Z04_B02_P01_Ib01_I02</t>
         </is>
       </c>
       <c r="B21" s="4" t="inlineStr">
         <is>
-          <t>Z05_B01_P01_Ib02</t>
+          <t>Z04_B02_P01_Ib01</t>
         </is>
       </c>
       <c r="C21" s="4" t="inlineStr">
         <is>
-          <t>5.1.b</t>
+          <t>4.2.b</t>
         </is>
       </c>
       <c r="D21" s="4" t="inlineStr">
         <is>
-          <t>b) Wirtschaft</t>
+          <t>b) 3- bis 5-Jährige</t>
         </is>
       </c>
       <c r="E21" s="4" t="inlineStr">
         <is>
-          <t>b) Business</t>
+          <t>b) 3 to 5-year-olds</t>
         </is>
       </c>
       <c r="F21" s="4" t="inlineStr">
         <is>
-          <t>Frauen in Führungspositionen in der Wirtschaft</t>
+          <t>Ganztagsbetreuung für Kinder &lt;br&gt;3- bis 5-Jährige</t>
         </is>
       </c>
       <c r="G21" s="4" t="inlineStr">
         <is>
-          <t>Women in management positions in business</t>
+          <t>All-day care provision for 3 to 5-year-old children</t>
         </is>
       </c>
       <c r="H21" s="4" t="inlineStr">
         <is>
-          <t>30 % Frauen in Aufsichtsräten der börsennotierten und paritätisch mitbestimmten Unternehmen bis 2030</t>
+          <t>Anstieg auf 70 % bis 2030</t>
         </is>
       </c>
       <c r="I21" s="4" t="inlineStr">
         <is>
-          <t>30 % women on supervisory boards of listed and fully co-determined companies by 2030</t>
+          <t>Increase to 70 % by 2030</t>
         </is>
       </c>
       <c r="J21" s="4" t="inlineStr">
         <is>
-          <t>30 % Frauen in Aufsichtsräten bis 2030</t>
+          <t>Anstieg auf 70 % bis 2030</t>
         </is>
       </c>
       <c r="K21" s="4" t="inlineStr">
         <is>
-          <t>30% women on supervisory boards by 2030</t>
+          <t>increase to 70 % by 2030</t>
         </is>
       </c>
       <c r="L21" s="4" t="inlineStr">
         <is>
-          <t>In Aufsichtsräten der börsennotierten und paritätisch mitbestimmten Unternehmen</t>
+          <t>Ganztagsbetreuung für Kinder &lt;br&gt;3- bis 5-Jährige</t>
         </is>
       </c>
       <c r="M21" s="4" t="inlineStr">
         <is>
-          <t>On supervisory boards of listed and fully co-determined companies</t>
+          <t>All-day care provision for 3 to 5-year-old children</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="22">
       <c r="A22" s="4" t="inlineStr">
         <is>
-          <t>Z05_B01_P01_Ib02_I02</t>
+          <t>Z05_B01_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B22" s="4" t="inlineStr">
         <is>
-          <t>Z05_B01_P01_Ib02</t>
+          <t>Z05_B01_P01_Ib01</t>
         </is>
       </c>
       <c r="C22" s="4" t="inlineStr">
         <is>
-          <t>5.1.c</t>
+          <t>5.1.a</t>
         </is>
       </c>
       <c r="D22" s="4" t="inlineStr">
         <is>
-          <t>c) Öffentlicher Dienst des Bundes</t>
+          <t>Gender Pay Gap</t>
         </is>
       </c>
       <c r="E22" s="4" t="inlineStr">
         <is>
-          <t>c) Federal civil service</t>
+          <t>Gender Pay Gap</t>
         </is>
       </c>
       <c r="F22" s="4" t="inlineStr">
         <is>
-          <t>Frauen in Führungspositionen im öffentlichen Dienst des Bundes</t>
+          <t>Verdienstabstand zwischen Frauen und Männern</t>
         </is>
       </c>
       <c r="G22" s="4" t="inlineStr">
         <is>
-          <t>Women in management positions in the federal civil service</t>
+          <t>Gender pay gap</t>
         </is>
       </c>
       <c r="H22" s="4" t="inlineStr">
         <is>
-          <t>Gleichberechtigte Teilhabe von Frauen und Männern in Leitungsfunktionen des öffentlichen Dienstes bis 2025</t>
+          <t>Verringerung des Abstandes auf 10 % bis 2020, Beibehaltung bis 2030</t>
         </is>
       </c>
       <c r="I22" s="4" t="inlineStr">
         <is>
-          <t>Equal-opportunity participation of women and men in civil service management positions by 2025</t>
+          <t>Reduce the gap to 10 % by 2020, maintained until 2030 subsequently</t>
         </is>
       </c>
       <c r="J22" s="4" t="inlineStr">
         <is>
-          <t>gleichberechtigte Teilhabe bis 2025</t>
+          <t>Beibehaltung von maximal 10 % bis 2030</t>
         </is>
       </c>
       <c r="K22" s="4" t="inlineStr">
         <is>
-          <t>equal-opportunity participation by 2025</t>
+          <t>maintaine a maximum of 10 % by 2030</t>
         </is>
       </c>
       <c r="L22" s="4" t="inlineStr">
         <is>
-          <t>Im öffentlichen Dienst des Bundes</t>
+          <t>Verdienstabstand zwischen Frauen und Männern</t>
         </is>
       </c>
       <c r="M22" s="4" t="inlineStr">
         <is>
-          <t>In management positions in the federal civil service</t>
+          <t>Gender pay gap</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="23">
       <c r="A23" s="4" t="inlineStr">
         <is>
-          <t>Z05_B01_P01_Ib03_I01</t>
+          <t>Z05_B01_P01_Ib02_I01</t>
         </is>
       </c>
       <c r="B23" s="4" t="inlineStr">
         <is>
-          <t>Z05_B01_P01_Ib03</t>
+          <t>Z05_B01_P01_Ib02</t>
         </is>
       </c>
       <c r="C23" s="4" t="inlineStr">
         <is>
-          <t>5.1.d</t>
+          <t>5.1.b</t>
         </is>
       </c>
       <c r="D23" s="4" t="inlineStr">
         <is>
-          <t>Väterbeteiligung beim Elterngeld</t>
+          <t>b) Wirtschaft</t>
         </is>
       </c>
       <c r="E23" s="4" t="inlineStr">
         <is>
-          <t>Fathers receiving parental allowance</t>
+          <t>b) Business</t>
         </is>
       </c>
       <c r="F23" s="4" t="inlineStr">
         <is>
-          <t>Väterbeteiligung beim Elterngeld</t>
+          <t>Frauen in Führungspositionen in der Wirtschaft</t>
         </is>
       </c>
       <c r="G23" s="4" t="inlineStr">
         <is>
-          <t>Proportion of fathers receiving parental allowance</t>
+          <t>Women in management positions in business</t>
         </is>
       </c>
       <c r="H23" s="4" t="inlineStr">
         <is>
-          <t>65 % bis 2030</t>
+          <t>30 % Frauen in Aufsichtsräten der börsennotierten und paritätisch mitbestimmten Unternehmen bis 2030</t>
         </is>
       </c>
       <c r="I23" s="4" t="inlineStr">
         <is>
-          <t>65 % by 2030</t>
+          <t>30 % women on supervisory boards of listed and fully co-determined companies by 2030</t>
         </is>
       </c>
       <c r="J23" s="4" t="inlineStr">
         <is>
-          <t>65 % bis 2030</t>
+          <t>30 % Frauen in Aufsichtsräten bis 2030</t>
         </is>
       </c>
       <c r="K23" s="4" t="inlineStr">
         <is>
-          <t>65 % by 2030</t>
+          <t>30% women on supervisory boards by 2030</t>
         </is>
       </c>
       <c r="L23" s="4" t="inlineStr">
         <is>
-          <t>Väterbeteiligung beim Elterngeld</t>
+          <t>In Aufsichtsräten der börsennotierten und paritätisch mitbestimmten Unternehmen</t>
         </is>
       </c>
       <c r="M23" s="4" t="inlineStr">
         <is>
-          <t>Proportion of fathers receiving parental allowance</t>
+          <t>On supervisory boards of listed and fully co-determined companies</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="24">
       <c r="A24" s="4" t="inlineStr">
         <is>
-          <t>Z05_B01_P02_Ib01_I01</t>
+          <t>Z05_B01_P01_Ib02_I02</t>
         </is>
       </c>
       <c r="B24" s="4" t="inlineStr">
         <is>
-          <t>Z05_B01_P02_Ib01</t>
+          <t>Z05_B01_P01_Ib02</t>
         </is>
       </c>
       <c r="C24" s="4" t="inlineStr">
         <is>
-          <t>5.1.e</t>
+          <t>5.1.c</t>
         </is>
       </c>
       <c r="D24" s="4" t="inlineStr">
         <is>
-          <t>Berufliche Qualifizierung von Frauen und Mädchen durch Entwicklungszusammenarbeit</t>
+          <t>c) Öffentlicher Dienst des Bundes</t>
         </is>
       </c>
       <c r="E24" s="4" t="inlineStr">
         <is>
-          <t>Vocational qualifications of women and girls through development coopreation</t>
+          <t>c) Federal civil service</t>
         </is>
       </c>
       <c r="F24" s="4" t="inlineStr">
         <is>
-          <t>Berufliche Qualifizierung von Frauen und Mädchen durch deutsche entwicklungspolitische Zusammenarbeit</t>
+          <t>Frauen in Führungspositionen im öffentlichen Dienst des Bundes</t>
         </is>
       </c>
       <c r="G24" s="4" t="inlineStr">
         <is>
-          <t>Vocational qualifications of women and girls through German development assistance</t>
+          <t>Women in management positions in the federal civil service</t>
         </is>
       </c>
       <c r="H24" s="4" t="inlineStr">
         <is>
-          <t>Sukzessive Steigerung bis 2030 um ein Drittel verglichen mit Basisjahr 2015</t>
+          <t>Gleichberechtigte Teilhabe von Frauen und Männern in Leitungsfunktionen des öffentlichen Dienstes bis 2025</t>
         </is>
       </c>
       <c r="I24" s="4" t="inlineStr">
         <is>
-          <t>To be increased gradually by a third by 2030 compared to 2015 as the base year</t>
+          <t>Equal-opportunity participation of women and men in civil service management positions by 2025</t>
         </is>
       </c>
       <c r="J24" s="4" t="inlineStr">
         <is>
-          <t>Steigerung um ein Drittel bis 2030</t>
+          <t>gleichberechtigte Teilhabe bis 2025</t>
         </is>
       </c>
       <c r="K24" s="4" t="inlineStr">
         <is>
-          <t>to be increased by a third by 2030</t>
+          <t>equal-opportunity participation by 2025</t>
         </is>
       </c>
       <c r="L24" s="4" t="inlineStr">
         <is>
-          <t>Berufliche Qualifizierung von Frauen und Mädchen durch deutsche entwicklungspolitische Zusammenarbeit</t>
+          <t>Im öffentlichen Dienst des Bundes</t>
         </is>
       </c>
       <c r="M24" s="4" t="inlineStr">
         <is>
-          <t>Vocational qualifications of women and girls through German development cooperation</t>
+          <t>In management positions in the federal civil service</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="25">
       <c r="A25" s="4" t="inlineStr">
         <is>
-          <t>Z06_B01_P01_Ib01_I01</t>
+          <t>Z05_B01_P01_Ib03_I01</t>
         </is>
       </c>
       <c r="B25" s="4" t="inlineStr">
         <is>
-          <t>Z06_B01_P01_Ib01</t>
+          <t>Z05_B01_P01_Ib03</t>
         </is>
       </c>
       <c r="C25" s="4" t="inlineStr">
         <is>
-          <t>6.1.a</t>
+          <t>5.1.d</t>
         </is>
       </c>
       <c r="D25" s="4" t="inlineStr">
         <is>
-          <t>Phosphor in Fließgewässern</t>
+          <t>Väterbeteiligung beim Elterngeld</t>
         </is>
       </c>
       <c r="E25" s="4" t="inlineStr">
         <is>
-          <t>Phosphorous in flowing waters</t>
+          <t>Fathers receiving parental allowance</t>
         </is>
       </c>
       <c r="F25" s="4" t="inlineStr">
         <is>
-          <t>Phosphor in Fließgewässern</t>
+          <t>Väterbeteiligung beim Elterngeld</t>
         </is>
       </c>
       <c r="G25" s="4" t="inlineStr">
         <is>
-          <t>Phosphorous in flowing waters</t>
+          <t>Proportion of fathers receiving parental allowance</t>
         </is>
       </c>
       <c r="H25" s="4" t="inlineStr">
         <is>
-          <t>Einhaltung oder Unterschreitung der gewässertypischen Orientierungswerte an allen Messstellen bis 2030</t>
+          <t>65 % bis 2030</t>
         </is>
       </c>
       <c r="I25" s="4" t="inlineStr">
         <is>
-          <t>Not exceeding benchmark values for specific types of water bodies at all monitoring points by 2030</t>
+          <t>65 % by 2030</t>
         </is>
       </c>
       <c r="J25" s="4" t="inlineStr">
         <is>
-          <t>Einhaltung oder Unterschreitung der Orientierungswerte bis 2030</t>
+          <t>65 % bis 2030</t>
         </is>
       </c>
       <c r="K25" s="4" t="inlineStr">
         <is>
-          <t>not exceeding benchmark values by 2030</t>
+          <t>65 % by 2030</t>
         </is>
       </c>
       <c r="L25" s="4" t="inlineStr">
         <is>
-          <t>Phosphor in Fließgewässern</t>
+          <t>Väterbeteiligung beim Elterngeld</t>
         </is>
       </c>
       <c r="M25" s="4" t="inlineStr">
         <is>
-          <t>Phosphorous in flowing waters</t>
+          <t>Proportion of fathers receiving parental allowance</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="26">
       <c r="A26" s="4" t="inlineStr">
         <is>
-          <t>Z06_B01_P01_Ib02_I01</t>
+          <t>Z05_B01_P02_Ib01_I01</t>
         </is>
       </c>
       <c r="B26" s="4" t="inlineStr">
         <is>
-          <t>Z06_B01_P01_Ib02</t>
+          <t>Z05_B01_P02_Ib01</t>
         </is>
       </c>
       <c r="C26" s="4" t="inlineStr">
         <is>
-          <t>6.1.b</t>
+          <t>5.1.e</t>
         </is>
       </c>
       <c r="D26" s="4" t="inlineStr">
         <is>
-          <t>Nitrat im Grundwasser</t>
+          <t>Berufliche Qualifizierung von Frauen und Mädchen durch Entwicklungszusammenarbeit</t>
         </is>
       </c>
       <c r="E26" s="4" t="inlineStr">
         <is>
-          <t>Nitrate in groundwater</t>
+          <t>Vocational qualifications of women and girls through development coopreation</t>
         </is>
       </c>
       <c r="F26" s="4" t="inlineStr">
         <is>
-          <t>Nitrat im Grundwasser</t>
+          <t>Berufliche Qualifizierung von Frauen und Mädchen durch deutsche entwicklungspolitische Zusammenarbeit</t>
         </is>
       </c>
       <c r="G26" s="4" t="inlineStr">
         <is>
-          <t>Nitrate in groundwater</t>
+          <t>Vocational qualifications of women and girls through German development assistance</t>
         </is>
       </c>
       <c r="H26" s="4" t="inlineStr">
         <is>
-          <t>Einhaltung des Nitrat Schwellenwertes von 50 Milligramm pro Liter an allen Messstellen bis 2030</t>
+          <t>Sukzessive Steigerung bis 2030 um ein Drittel verglichen mit Basisjahr 2015</t>
         </is>
       </c>
       <c r="I26" s="4" t="inlineStr">
         <is>
-          <t>Compliance with the nitrate threshold value of 50 mg/l at all monitoring points by 2030</t>
+          <t>To be increased gradually by a third by 2030 compared to 2015 as the base year</t>
         </is>
       </c>
       <c r="J26" s="4" t="inlineStr">
         <is>
-          <t>Einhaltung des Schwellenwertes von 50 mg/l bis 2030</t>
+          <t>Steigerung um ein Drittel bis 2030</t>
         </is>
       </c>
       <c r="K26" s="4" t="inlineStr">
         <is>
-          <t>compliance with the threshold value of 50 mg/l by 2030</t>
+          <t>to be increased by a third by 2030</t>
         </is>
       </c>
       <c r="L26" s="4" t="inlineStr">
         <is>
-          <t>Nitrat im Grundwasser</t>
+          <t>Berufliche Qualifizierung von Frauen und Mädchen durch deutsche entwicklungspolitische Zusammenarbeit</t>
         </is>
       </c>
       <c r="M26" s="4" t="inlineStr">
         <is>
-          <t>Nitrate in groundwater</t>
+          <t>Vocational qualifications of women and girls through German development cooperation</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="27">
       <c r="A27" s="4" t="inlineStr">
         <is>
-          <t>Z06_B02_P01_Ib01_I01</t>
+          <t>Z06_B01_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B27" s="4" t="inlineStr">
         <is>
-          <t>Z06_B02_P01_Ib01</t>
+          <t>Z06_B01_P01_Ib01</t>
         </is>
       </c>
       <c r="C27" s="4" t="inlineStr">
         <is>
-          <t>6.2.a</t>
+          <t>6.1.a</t>
         </is>
       </c>
       <c r="D27" s="4" t="inlineStr">
         <is>
-          <t>a) Trinkwasserversorgung</t>
+          <t>Phosphor in Fließgewässern</t>
         </is>
       </c>
       <c r="E27" s="4" t="inlineStr">
         <is>
-          <t>a) Access to drinking water</t>
+          <t>Phosphorous in flowing waters</t>
         </is>
       </c>
       <c r="F27" s="4" t="inlineStr">
         <is>
-          <t>Anzahl der Menschen, die einen neuen oder hochwertigeren Zugang zur Trinkwasserversorgung durch deutsche Unterstützung erhalten</t>
+          <t>Phosphor in Fließgewässern</t>
         </is>
       </c>
       <c r="G27" s="4" t="inlineStr">
         <is>
-          <t>Number of people gaining first-time or upgraded access to drinking water owing to German support</t>
+          <t>Phosphorous in flowing waters</t>
         </is>
       </c>
       <c r="H27" s="4" t="inlineStr">
         <is>
-          <t>6 Millionen Menschen pro Jahr bis 2030</t>
+          <t>Einhaltung oder Unterschreitung der gewässertypischen Orientierungswerte an allen Messstellen bis 2030</t>
         </is>
       </c>
       <c r="I27" s="4" t="inlineStr">
         <is>
-          <t>6 million people per year by 2030</t>
+          <t>Not exceeding benchmark values for specific types of water bodies at all monitoring points by 2030</t>
         </is>
       </c>
       <c r="J27" s="4" t="inlineStr">
         <is>
-          <t>6 Millionen Menschen pro Jahr bis 2030</t>
+          <t>Einhaltung oder Unterschreitung der Orientierungswerte bis 2030</t>
         </is>
       </c>
       <c r="K27" s="4" t="inlineStr">
         <is>
-          <t>6 million people per year by 2030</t>
+          <t>not exceeding benchmark values by 2030</t>
         </is>
       </c>
       <c r="L27" s="4" t="inlineStr">
         <is>
-          <t>Anzahl der Menschen, die einen neuen oder hochwertigeren Zugang zur Trinkwasserversorgung erhalten haben</t>
+          <t>Phosphor in Fließgewässern</t>
         </is>
       </c>
       <c r="M27" s="4" t="inlineStr">
         <is>
-          <t>Number of people gaining first-time or upgraded access to drinking water</t>
+          <t>Phosphorous in flowing waters</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="28">
       <c r="A28" s="4" t="inlineStr">
         <is>
-          <t>Z06_B02_P01_Ib01_I02</t>
+          <t>Z06_B01_P01_Ib02_I01</t>
         </is>
       </c>
       <c r="B28" s="4" t="inlineStr">
         <is>
-          <t>Z06_B02_P01_Ib01</t>
+          <t>Z06_B01_P01_Ib02</t>
         </is>
       </c>
       <c r="C28" s="4" t="inlineStr">
         <is>
-          <t>6.2.b</t>
+          <t>6.1.b</t>
         </is>
       </c>
       <c r="D28" s="4" t="inlineStr">
         <is>
-          <t>b) Sanitärversorgung</t>
+          <t>Nitrat im Grundwasser</t>
         </is>
       </c>
       <c r="E28" s="4" t="inlineStr">
         <is>
-          <t>b) Access to sanitation</t>
+          <t>Nitrate in groundwater</t>
         </is>
       </c>
       <c r="F28" s="4" t="inlineStr">
         <is>
-          <t>Anzahl der Menschen, die einen neuen oder verbesserten Anschluss zur Sanitärversorgung durch deutsche Unterstützung erhalten</t>
+          <t>Nitrat im Grundwasser</t>
         </is>
       </c>
       <c r="G28" s="4" t="inlineStr">
         <is>
-          <t>Number of people gaining first-time or improved access to sanitation owing to German support</t>
+          <t>Nitrate in groundwater</t>
         </is>
       </c>
       <c r="H28" s="4" t="inlineStr">
         <is>
-          <t>4 Millionen Menschen pro Jahr bis 2030</t>
+          <t>Einhaltung des Nitrat Schwellenwertes von 50 Milligramm pro Liter an allen Messstellen bis 2030</t>
         </is>
       </c>
       <c r="I28" s="4" t="inlineStr">
         <is>
-          <t>4 million people per year by 2030</t>
+          <t>Compliance with the nitrate threshold value of 50 mg/l at all monitoring points by 2030</t>
         </is>
       </c>
       <c r="J28" s="4" t="inlineStr">
         <is>
-          <t>4 Millionen Menschen pro Jahr bis 2030</t>
+          <t>Einhaltung des Schwellenwertes von 50 mg/l bis 2030</t>
         </is>
       </c>
       <c r="K28" s="4" t="inlineStr">
         <is>
-          <t>4 million people per year by 2030</t>
+          <t>compliance with the threshold value of 50 mg/l by 2030</t>
         </is>
       </c>
       <c r="L28" s="4" t="inlineStr">
         <is>
-          <t>Anzahl der Menschen, die einen neuen oder verbesserten Anschluss zur Sanitärversorgung erhalten haben</t>
+          <t>Nitrat im Grundwasser</t>
         </is>
       </c>
       <c r="M28" s="4" t="inlineStr">
         <is>
-          <t>Number of people gaining first-time or improved access to sanitation</t>
+          <t>Nitrate in groundwater</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="29">
       <c r="A29" s="4" t="inlineStr">
         <is>
-          <t>Z06_B02_P01_Ib01_I03</t>
+          <t>Z06_B02_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B29" s="4" t="inlineStr">
@@ -2347,1940 +2347,1940 @@
       </c>
       <c r="C29" s="4" t="inlineStr">
         <is>
-          <t>6.2</t>
+          <t>6.2.a</t>
         </is>
       </c>
       <c r="D29" s="4" t="inlineStr">
         <is>
-          <t>Trinkwasser- und Sanitärversorgung</t>
+          <t>a) Trinkwasserversorgung</t>
         </is>
       </c>
       <c r="E29" s="4" t="inlineStr">
         <is>
-          <t>Access to drinking water and sanitation</t>
+          <t>a) Access to drinking water</t>
         </is>
       </c>
       <c r="F29" s="4" t="inlineStr">
         <is>
-          <t>Anzahl der Menschen, die einen neuen oder hochwertigeren Zugang zur Trinkwasserversorgung oder Anschluss zur Sanitärversorgung durch deutsche Unterstützung erhalten</t>
+          <t>Anzahl der Menschen, die einen neuen oder hochwertigeren Zugang zur Trinkwasserversorgung durch deutsche Unterstützung erhalten</t>
         </is>
       </c>
       <c r="G29" s="4" t="inlineStr">
         <is>
-          <t>Number of people gaining first-time or upgraded access to drinking water or sanitation owing to German support</t>
+          <t>Number of people gaining first-time or upgraded access to drinking water owing to German support</t>
         </is>
       </c>
       <c r="H29" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>6 Millionen Menschen pro Jahr bis 2030</t>
         </is>
       </c>
       <c r="I29" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>6 million people per year by 2030</t>
         </is>
       </c>
       <c r="J29" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>6 Millionen Menschen pro Jahr bis 2030</t>
         </is>
       </c>
       <c r="K29" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>6 million people per year by 2030</t>
         </is>
       </c>
       <c r="L29" s="4" t="inlineStr">
         <is>
-          <t>Anzahl der Menschen, die einen neuen oder hochwertigeren Zugang zur Trinkwasserversorgung oder Anschluss zur Sanitärversorgung erhalten haben</t>
+          <t>Anzahl der Menschen, die einen neuen oder hochwertigeren Zugang zur Trinkwasserversorgung erhalten haben</t>
         </is>
       </c>
       <c r="M29" s="4" t="inlineStr">
         <is>
-          <t>Number of people gaining first-time or upgraded access to drinking water or sanitation</t>
+          <t>Number of people gaining first-time or upgraded access to drinking water</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="30">
       <c r="A30" s="4" t="inlineStr">
         <is>
-          <t>Z07_B01_P01_Ib01_I01</t>
+          <t>Z06_B02_P01_Ib01_I02</t>
         </is>
       </c>
       <c r="B30" s="4" t="inlineStr">
         <is>
-          <t>Z07_B01_P01_Ib01</t>
+          <t>Z06_B02_P01_Ib01</t>
         </is>
       </c>
       <c r="C30" s="4" t="inlineStr">
         <is>
-          <t>7.1.a</t>
+          <t>6.2.b</t>
         </is>
       </c>
       <c r="D30" s="4" t="inlineStr">
         <is>
-          <t>a) Endenergieproduktivität</t>
+          <t>b) Sanitärversorgung</t>
         </is>
       </c>
       <c r="E30" s="4" t="inlineStr">
         <is>
-          <t>a) Final energy productivity</t>
+          <t>b) Access to sanitation</t>
         </is>
       </c>
       <c r="F30" s="4" t="inlineStr">
         <is>
-          <t>Endenergieproduktivität</t>
+          <t>Anzahl der Menschen, die einen neuen oder verbesserten Anschluss zur Sanitärversorgung durch deutsche Unterstützung erhalten</t>
         </is>
       </c>
       <c r="G30" s="4" t="inlineStr">
         <is>
-          <t>Final energy productivity</t>
+          <t>Number of people gaining first-time or improved access to sanitation owing to German support</t>
         </is>
       </c>
       <c r="H30" s="4" t="inlineStr">
         <is>
-          <t>Steigerung um 2,1 % pro Jahr im Zeitraum von 2008 – 2050</t>
+          <t>4 Millionen Menschen pro Jahr bis 2030</t>
         </is>
       </c>
       <c r="I30" s="4" t="inlineStr">
         <is>
-          <t>Increase by 2.1 % per year from 2008 to 2050</t>
+          <t>4 million people per year by 2030</t>
         </is>
       </c>
       <c r="J30" s="4" t="inlineStr">
         <is>
-          <t>Steigerung um 2,1 % pro Jahr</t>
+          <t>4 Millionen Menschen pro Jahr bis 2030</t>
         </is>
       </c>
       <c r="K30" s="4" t="inlineStr">
         <is>
-          <t>increase by 2.1 % per year</t>
+          <t>4 million people per year by 2030</t>
         </is>
       </c>
       <c r="L30" s="4" t="inlineStr">
         <is>
-          <t>Endenergieproduktivität</t>
+          <t>Anzahl der Menschen, die einen neuen oder verbesserten Anschluss zur Sanitärversorgung erhalten haben</t>
         </is>
       </c>
       <c r="M30" s="4" t="inlineStr">
         <is>
-          <t>Final energy productivity</t>
+          <t>Number of people gaining first-time or improved access to sanitation</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="31">
       <c r="A31" s="4" t="inlineStr">
         <is>
-          <t>Z07_B01_P01_Ib01_I02</t>
+          <t>Z06_B02_P01_Ib01_I03</t>
         </is>
       </c>
       <c r="B31" s="4" t="inlineStr">
         <is>
-          <t>Z07_B01_P01_Ib01</t>
+          <t>Z06_B02_P01_Ib01</t>
         </is>
       </c>
       <c r="C31" s="4" t="inlineStr">
         <is>
-          <t>7.1.b</t>
+          <t>6.2</t>
         </is>
       </c>
       <c r="D31" s="4" t="inlineStr">
         <is>
-          <t>b) Primärenergieverbrauch</t>
+          <t>Trinkwasser- und Sanitärversorgung</t>
         </is>
       </c>
       <c r="E31" s="4" t="inlineStr">
         <is>
-          <t>b) Primary energy consumption</t>
+          <t>Access to drinking water and sanitation</t>
         </is>
       </c>
       <c r="F31" s="4" t="inlineStr">
         <is>
-          <t>Primärenergieverbrauch</t>
+          <t>Anzahl der Menschen, die einen neuen oder hochwertigeren Zugang zur Trinkwasserversorgung oder Anschluss zur Sanitärversorgung durch deutsche Unterstützung erhalten</t>
         </is>
       </c>
       <c r="G31" s="4" t="inlineStr">
         <is>
-          <t>Primary energy consumption</t>
+          <t>Number of people gaining first-time or upgraded access to drinking water or sanitation owing to German support</t>
         </is>
       </c>
       <c r="H31" s="4" t="inlineStr">
         <is>
-          <t>Senkung um 20 % bis 2020, um 30 % bis 2030 und um 50 % bis 2050 jeweils gegenüber 2008</t>
+          <t/>
         </is>
       </c>
       <c r="I31" s="4" t="inlineStr">
         <is>
-          <t>Reduction by 20 % by 2020, by 30 % by 2030, and by 50 % by 2050, all compared to 2008</t>
+          <t/>
         </is>
       </c>
       <c r="J31" s="4" t="inlineStr">
         <is>
-          <t>Senkung um 30 % bis 2030</t>
+          <t/>
         </is>
       </c>
       <c r="K31" s="4" t="inlineStr">
         <is>
-          <t>reduction by 30 % by 2030</t>
+          <t/>
         </is>
       </c>
       <c r="L31" s="4" t="inlineStr">
         <is>
-          <t>Primärenergieverbrauch</t>
+          <t>Anzahl der Menschen, die einen neuen oder hochwertigeren Zugang zur Trinkwasserversorgung oder Anschluss zur Sanitärversorgung erhalten haben</t>
         </is>
       </c>
       <c r="M31" s="4" t="inlineStr">
         <is>
-          <t>Primary energy consumption</t>
+          <t>Number of people gaining first-time or upgraded access to drinking water or sanitation</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="32">
       <c r="A32" s="4" t="inlineStr">
         <is>
-          <t>Z07_B02_P01_Ib01_I01</t>
+          <t>Z07_B01_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B32" s="4" t="inlineStr">
         <is>
-          <t>Z07_B02_P01_Ib01</t>
+          <t>Z07_B01_P01_Ib01</t>
         </is>
       </c>
       <c r="C32" s="4" t="inlineStr">
         <is>
-          <t>7.2.a</t>
+          <t>7.1.a</t>
         </is>
       </c>
       <c r="D32" s="4" t="inlineStr">
         <is>
-          <t>Erneuerbarer Energien</t>
+          <t>a) Endenergieproduktivität</t>
         </is>
       </c>
       <c r="E32" s="4" t="inlineStr">
         <is>
-          <t>Renewable energies</t>
+          <t>a) Final energy productivity</t>
         </is>
       </c>
       <c r="F32" s="4" t="inlineStr">
         <is>
-          <t>Anteil erneuerbarer Energien am Brutto-Endenergieverbrauch</t>
+          <t>Endenergieproduktivität</t>
         </is>
       </c>
       <c r="G32" s="4" t="inlineStr">
         <is>
-          <t>Share of renewable energies in gross final energy consumption</t>
+          <t>Final energy productivity</t>
         </is>
       </c>
       <c r="H32" s="4" t="inlineStr">
         <is>
-          <t>Anstieg auf 18 % bis 2020, auf 30 % bis 2030, auf 45 % bis 2040 und auf 60 % bis 2050</t>
+          <t>Steigerung um 2,1 % pro Jahr im Zeitraum von 2008 – 2050</t>
         </is>
       </c>
       <c r="I32" s="4" t="inlineStr">
         <is>
-          <t>Increase to 18 % by 2020 and to 30 % by 2030, to 45 % by 2040 and to 60 % by 2050</t>
+          <t>Increase by 2.1 % per year from 2008 to 2050</t>
         </is>
       </c>
       <c r="J32" s="4" t="inlineStr">
         <is>
-          <t>Anstieg auf 30 % bis 2030</t>
+          <t>Steigerung um 2,1 % pro Jahr</t>
         </is>
       </c>
       <c r="K32" s="4" t="inlineStr">
         <is>
-          <t>increase to 30 % by 2030</t>
+          <t>increase by 2.1 % per year</t>
         </is>
       </c>
       <c r="L32" s="4" t="inlineStr">
         <is>
-          <t>Anteil erneuerbarer Energien am Brutto-Endenergieverbrauch</t>
+          <t>Endenergieproduktivität</t>
         </is>
       </c>
       <c r="M32" s="4" t="inlineStr">
         <is>
-          <t>Share of renewable energies in gross final energy consumption</t>
+          <t>Final energy productivity</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="33">
       <c r="A33" s="4" t="inlineStr">
         <is>
-          <t>Z07_B02_P01_Ib02_I01</t>
+          <t>Z07_B01_P01_Ib01_I02</t>
         </is>
       </c>
       <c r="B33" s="4" t="inlineStr">
         <is>
-          <t>Z07_B02_P01_Ib02</t>
+          <t>Z07_B01_P01_Ib01</t>
         </is>
       </c>
       <c r="C33" s="4" t="inlineStr">
         <is>
-          <t>7.2.b</t>
+          <t>7.1.b</t>
         </is>
       </c>
       <c r="D33" s="4" t="inlineStr">
         <is>
-          <t>Strom aus erneuerbaren Energiequellen</t>
+          <t>b) Primärenergieverbrauch</t>
         </is>
       </c>
       <c r="E33" s="4" t="inlineStr">
         <is>
-          <t>Electricity from renewable energy sources</t>
+          <t>b) Primary energy consumption</t>
         </is>
       </c>
       <c r="F33" s="4" t="inlineStr">
         <is>
-          <t>Anteil des Stroms aus erneuerbaren Energiequellen am Bruttostromverbrauch</t>
+          <t>Primärenergieverbrauch</t>
         </is>
       </c>
       <c r="G33" s="4" t="inlineStr">
         <is>
-          <t>Share of electricity from renewable energy sources in gross electricity consumption</t>
+          <t>Primary energy consumption</t>
         </is>
       </c>
       <c r="H33" s="4" t="inlineStr">
         <is>
-          <t>Anstieg auf mindestens 80 % bis 2030</t>
+          <t>Senkung um 20 % bis 2020, um 30 % bis 2030 und um 50 % bis 2050 jeweils gegenüber 2008</t>
         </is>
       </c>
       <c r="I33" s="4" t="inlineStr">
         <is>
-          <t>Increase to at least 80 % by 2030</t>
+          <t>Reduction by 20 % by 2020, by 30 % by 2030, and by 50 % by 2050, all compared to 2008</t>
         </is>
       </c>
       <c r="J33" s="4" t="inlineStr">
         <is>
-          <t>Anstieg auf 80 % bis 2030</t>
+          <t>Senkung um 30 % bis 2030</t>
         </is>
       </c>
       <c r="K33" s="4" t="inlineStr">
         <is>
-          <t>increase to 80 % by 2030</t>
+          <t>reduction by 30 % by 2030</t>
         </is>
       </c>
       <c r="L33" s="4" t="inlineStr">
         <is>
-          <t>Anteil des Stroms aus erneuerbaren Energiequellen am Bruttostromverbrauch</t>
+          <t>Primärenergieverbrauch</t>
         </is>
       </c>
       <c r="M33" s="4" t="inlineStr">
         <is>
-          <t>Share of electricity from renewable energy sources in gross electricity consumption</t>
+          <t>Primary energy consumption</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="34">
       <c r="A34" s="4" t="inlineStr">
         <is>
-          <t>Z08_B01_P01_Ib01_I01</t>
+          <t>Z07_B02_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B34" s="4" t="inlineStr">
         <is>
-          <t>Z08_B01_P01_Ib01</t>
+          <t>Z07_B02_P01_Ib01</t>
         </is>
       </c>
       <c r="C34" s="4" t="inlineStr">
         <is>
-          <t>8.1</t>
+          <t>7.2.a</t>
         </is>
       </c>
       <c r="D34" s="4" t="inlineStr">
         <is>
-          <t>Gesamtrohstoffproduktivität</t>
+          <t>Erneuerbarer Energien</t>
         </is>
       </c>
       <c r="E34" s="4" t="inlineStr">
         <is>
-          <t>Raw material input productivity</t>
+          <t>Renewable energies</t>
         </is>
       </c>
       <c r="F34" s="4" t="inlineStr">
         <is>
-          <t>Gesamtrohstoffproduktivität</t>
+          <t>Anteil erneuerbarer Energien am Brutto-Endenergieverbrauch</t>
         </is>
       </c>
       <c r="G34" s="4" t="inlineStr">
         <is>
-          <t>Raw material input productivity</t>
+          <t>Share of renewable energies in gross final energy consumption</t>
         </is>
       </c>
       <c r="H34" s="4" t="inlineStr">
         <is>
-          <t>Beibehaltung des Trends der Jahre 2000 – 2010 bis 2030</t>
+          <t>Anstieg auf 18 % bis 2020, auf 30 % bis 2030, auf 45 % bis 2040 und auf 60 % bis 2050</t>
         </is>
       </c>
       <c r="I34" s="4" t="inlineStr">
         <is>
-          <t>Trend of the years 2000–2010 to be maintained until 2030</t>
+          <t>Increase to 18 % by 2020 and to 30 % by 2030, to 45 % by 2040 and to 60 % by 2050</t>
         </is>
       </c>
       <c r="J34" s="4" t="inlineStr">
         <is>
-          <t>Beibehaltung des Trends der Jahre 2000 - 2010 bis 2030</t>
+          <t>Anstieg auf 30 % bis 2030</t>
         </is>
       </c>
       <c r="K34" s="4" t="inlineStr">
         <is>
-          <t>trend of the years 2000-2010 to be maintained until 2030</t>
+          <t>increase to 30 % by 2030</t>
         </is>
       </c>
       <c r="L34" s="4" t="inlineStr">
         <is>
-          <t>Gesamtrohstoffproduktivität</t>
+          <t>Anteil erneuerbarer Energien am Brutto-Endenergieverbrauch</t>
         </is>
       </c>
       <c r="M34" s="4" t="inlineStr">
         <is>
-          <t>Raw material input productivity</t>
+          <t>Share of renewable energies in gross final energy consumption</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="35">
       <c r="A35" s="4" t="inlineStr">
         <is>
-          <t>Z08_B02_P01_Ib01_I01</t>
+          <t>Z07_B02_P01_Ib02_I01</t>
         </is>
       </c>
       <c r="B35" s="4" t="inlineStr">
         <is>
-          <t>Z08_B02_P01_Ib01</t>
+          <t>Z07_B02_P01_Ib02</t>
         </is>
       </c>
       <c r="C35" s="4" t="inlineStr">
         <is>
-          <t>8.2.a</t>
+          <t>7.2.b</t>
         </is>
       </c>
       <c r="D35" s="4" t="inlineStr">
         <is>
-          <t>a) Staatsdefizit</t>
+          <t>Strom aus erneuerbaren Energiequellen</t>
         </is>
       </c>
       <c r="E35" s="4" t="inlineStr">
         <is>
-          <t>a) Government deficit</t>
+          <t>Electricity from renewable energy sources</t>
         </is>
       </c>
       <c r="F35" s="4" t="inlineStr">
         <is>
-          <t>Staatsdefizit</t>
+          <t>Anteil des Stroms aus erneuerbaren Energiequellen am Bruttostromverbrauch</t>
         </is>
       </c>
       <c r="G35" s="4" t="inlineStr">
         <is>
-          <t>Government deficit</t>
+          <t>Share of electricity from renewable energy sources in gross electricity consumption</t>
         </is>
       </c>
       <c r="H35" s="4" t="inlineStr">
         <is>
-          <t>Jährliches Staatsdefizit kleiner als 3 % des BIP, Beibehaltung bis 2030</t>
+          <t>Anstieg auf mindestens 80 % bis 2030</t>
         </is>
       </c>
       <c r="I35" s="4" t="inlineStr">
         <is>
-          <t>Annual government deficit less than 3 % of GDP, to be maintained until 2030</t>
+          <t>Increase to at least 80 % by 2030</t>
         </is>
       </c>
       <c r="J35" s="4" t="inlineStr">
         <is>
-          <t>unter 3 % des BIP</t>
+          <t>Anstieg auf 80 % bis 2030</t>
         </is>
       </c>
       <c r="K35" s="4" t="inlineStr">
         <is>
-          <t>less than 3 % of GDP</t>
+          <t>increase to 80 % by 2030</t>
         </is>
       </c>
       <c r="L35" s="4" t="inlineStr">
         <is>
-          <t>Staatsdefizit</t>
+          <t>Anteil des Stroms aus erneuerbaren Energiequellen am Bruttostromverbrauch</t>
         </is>
       </c>
       <c r="M35" s="4" t="inlineStr">
         <is>
-          <t>Government deficit</t>
+          <t>Share of electricity from renewable energy sources in gross electricity consumption</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="36">
       <c r="A36" s="4" t="inlineStr">
         <is>
-          <t>Z08_B02_P01_Ib01_I02</t>
+          <t>Z08_B01_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B36" s="4" t="inlineStr">
         <is>
-          <t>Z08_B02_P01_Ib01</t>
+          <t>Z08_B01_P01_Ib01</t>
         </is>
       </c>
       <c r="C36" s="4" t="inlineStr">
         <is>
-          <t>8.2.b</t>
+          <t>8.1</t>
         </is>
       </c>
       <c r="D36" s="4" t="inlineStr">
         <is>
-          <t>b) Strukturelles Defizit</t>
+          <t>Gesamtrohstoffproduktivität</t>
         </is>
       </c>
       <c r="E36" s="4" t="inlineStr">
         <is>
-          <t>b) Structural deficit</t>
+          <t>Raw material input productivity</t>
         </is>
       </c>
       <c r="F36" s="4" t="inlineStr">
         <is>
-          <t>Strukturelles Defizit</t>
+          <t>Gesamtrohstoffproduktivität</t>
         </is>
       </c>
       <c r="G36" s="4" t="inlineStr">
         <is>
-          <t>Structural deficit</t>
+          <t>Raw material input productivity</t>
         </is>
       </c>
       <c r="H36" s="4" t="inlineStr">
         <is>
-          <t>Strukturell ausgeglichener Staatshaushalt, gesamtstaatliches strukturelles Defizit von max. 0,5 % des BIP, Beibehaltung bis 2030</t>
+          <t>Beibehaltung des Trends der Jahre 2000 – 2010 bis 2030</t>
         </is>
       </c>
       <c r="I36" s="4" t="inlineStr">
         <is>
-          <t>Structurally balanced government budget, general government structural deficit must not exceed 0.5 % of GDP, to be maintained until 2030</t>
+          <t>Trend of the years 2000–2010 to be maintained until 2030</t>
         </is>
       </c>
       <c r="J36" s="4" t="inlineStr">
         <is>
-          <t>unter 0,5 % des BIP</t>
+          <t>Beibehaltung des Trends der Jahre 2000 - 2010 bis 2030</t>
         </is>
       </c>
       <c r="K36" s="4" t="inlineStr">
         <is>
-          <t>less than 0.5 % of GDP</t>
+          <t>trend of the years 2000-2010 to be maintained until 2030</t>
         </is>
       </c>
       <c r="L36" s="4" t="inlineStr">
         <is>
-          <t>Strukturelles Defizit</t>
+          <t>Gesamtrohstoffproduktivität</t>
         </is>
       </c>
       <c r="M36" s="4" t="inlineStr">
         <is>
-          <t>Structural deficit</t>
+          <t>Raw material input productivity</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="37">
       <c r="A37" s="4" t="inlineStr">
         <is>
-          <t>Z08_B02_P01_Ib02_I01</t>
+          <t>Z08_B02_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B37" s="4" t="inlineStr">
         <is>
-          <t>Z08_B02_P01_Ib02</t>
+          <t>Z08_B02_P01_Ib01</t>
         </is>
       </c>
       <c r="C37" s="4" t="inlineStr">
         <is>
-          <t>8.2.c</t>
+          <t>8.2.a</t>
         </is>
       </c>
       <c r="D37" s="4" t="inlineStr">
         <is>
-          <t>Schuldenstandsquote</t>
+          <t>a) Staatsdefizit</t>
         </is>
       </c>
       <c r="E37" s="4" t="inlineStr">
         <is>
-          <t>Ratio of government debt</t>
+          <t>a) Government deficit</t>
         </is>
       </c>
       <c r="F37" s="4" t="inlineStr">
         <is>
-          <t>Schuldenstand</t>
+          <t>Staatsdefizit</t>
         </is>
       </c>
       <c r="G37" s="4" t="inlineStr">
         <is>
-          <t>Government debt</t>
+          <t>Government deficit</t>
         </is>
       </c>
       <c r="H37" s="4" t="inlineStr">
         <is>
-          <t>Schuldenstandsquote max. 60 % des BIP, Beibehaltung bis 2030</t>
+          <t>Jährliches Staatsdefizit kleiner als 3 % des BIP, Beibehaltung bis 2030</t>
         </is>
       </c>
       <c r="I37" s="4" t="inlineStr">
         <is>
-          <t>Ratio of government debt to GDP must not exceed  60 %, to be maintained until 2030</t>
+          <t>Annual government deficit less than 3 % of GDP, to be maintained until 2030</t>
         </is>
       </c>
       <c r="J37" s="4" t="inlineStr">
         <is>
-          <t>max. 60 % des BIP</t>
+          <t>unter 3 % des BIP</t>
         </is>
       </c>
       <c r="K37" s="4" t="inlineStr">
         <is>
-          <t>max. 60 % of GDP</t>
+          <t>less than 3 % of GDP</t>
         </is>
       </c>
       <c r="L37" s="4" t="inlineStr">
         <is>
-          <t>Schuldenstand</t>
+          <t>Staatsdefizit</t>
         </is>
       </c>
       <c r="M37" s="4" t="inlineStr">
         <is>
-          <t>Government debt</t>
+          <t>Government deficit</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="38">
       <c r="A38" s="4" t="inlineStr">
         <is>
-          <t>Z08_B03_P01_Ib01_I01</t>
+          <t>Z08_B02_P01_Ib01_I02</t>
         </is>
       </c>
       <c r="B38" s="4" t="inlineStr">
         <is>
-          <t>Z08_B03_P01_Ib01</t>
+          <t>Z08_B02_P01_Ib01</t>
         </is>
       </c>
       <c r="C38" s="4" t="inlineStr">
         <is>
-          <t>8.3</t>
+          <t>8.2.b</t>
         </is>
       </c>
       <c r="D38" s="4" t="inlineStr">
         <is>
-          <t>Anlageinvestitionen</t>
+          <t>b) Strukturelles Defizit</t>
         </is>
       </c>
       <c r="E38" s="4" t="inlineStr">
         <is>
-          <t>Gross fixed capital formation</t>
+          <t>b) Structural deficit</t>
         </is>
       </c>
       <c r="F38" s="4" t="inlineStr">
         <is>
-          <t>Verhältnis der Bruttoanlageinvestitionen zum BIP</t>
+          <t>Strukturelles Defizit</t>
         </is>
       </c>
       <c r="G38" s="4" t="inlineStr">
         <is>
-          <t>Gross fixed capital formation in relation to GDP</t>
+          <t>Structural deficit</t>
         </is>
       </c>
       <c r="H38" s="4" t="inlineStr">
         <is>
-          <t>Angemessene Entwicklung des Anteils, Beibehaltung bis 2030</t>
+          <t>Strukturell ausgeglichener Staatshaushalt, gesamtstaatliches strukturelles Defizit von max. 0,5 % des BIP, Beibehaltung bis 2030</t>
         </is>
       </c>
       <c r="I38" s="4" t="inlineStr">
         <is>
-          <t>Appropriate development of the ratio, to be maintained until 2030</t>
+          <t>Structurally balanced government budget, general government structural deficit must not exceed 0.5 % of GDP, to be maintained until 2030</t>
         </is>
       </c>
       <c r="J38" s="4" t="inlineStr">
         <is>
-          <t>angemessene Entwicklung bis 2030</t>
+          <t>unter 0,5 % des BIP</t>
         </is>
       </c>
       <c r="K38" s="4" t="inlineStr">
         <is>
-          <t>appropriate development by 2030</t>
+          <t>less than 0.5 % of GDP</t>
         </is>
       </c>
       <c r="L38" s="4" t="inlineStr">
         <is>
-          <t>Verhältnis der Bruttoanlageinvestitionen zum BIP</t>
+          <t>Strukturelles Defizit</t>
         </is>
       </c>
       <c r="M38" s="4" t="inlineStr">
         <is>
-          <t>Gross fixed capital formation in relation to GDP</t>
+          <t>Structural deficit</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="39">
       <c r="A39" s="4" t="inlineStr">
         <is>
-          <t>Z08_B04_P01_Ib01_I01</t>
+          <t>Z08_B02_P01_Ib02_I01</t>
         </is>
       </c>
       <c r="B39" s="4" t="inlineStr">
         <is>
-          <t>Z08_B04_P01_Ib01</t>
+          <t>Z08_B02_P01_Ib02</t>
         </is>
       </c>
       <c r="C39" s="4" t="inlineStr">
         <is>
-          <t>8.4</t>
+          <t>8.2.c</t>
         </is>
       </c>
       <c r="D39" s="4" t="inlineStr">
         <is>
-          <t>Bruttoinlandsprodukt</t>
+          <t>Schuldenstandsquote</t>
         </is>
       </c>
       <c r="E39" s="4" t="inlineStr">
         <is>
-          <t>Gross domestic product</t>
+          <t>Ratio of government debt</t>
         </is>
       </c>
       <c r="F39" s="4" t="inlineStr">
         <is>
-          <t>Bruttoinlandsprodukt je Einwohnerin und Einwohner</t>
+          <t>Schuldenstand</t>
         </is>
       </c>
       <c r="G39" s="4" t="inlineStr">
         <is>
-          <t>Gross domestic product per capita</t>
+          <t>Government debt</t>
         </is>
       </c>
       <c r="H39" s="4" t="inlineStr">
         <is>
-          <t>Stetiges und angemessenes Wirtschaftswachstum</t>
+          <t>Schuldenstandsquote max. 60 % des BIP, Beibehaltung bis 2030</t>
         </is>
       </c>
       <c r="I39" s="4" t="inlineStr">
         <is>
-          <t>Steady and appropriate economic growth</t>
+          <t>Ratio of government debt to GDP must not exceed  60 %, to be maintained until 2030</t>
         </is>
       </c>
       <c r="J39" s="4" t="inlineStr">
         <is>
-          <t>stetiges und angemessenes Wirtschaftswachstum</t>
+          <t>max. 60 % des BIP</t>
         </is>
       </c>
       <c r="K39" s="4" t="inlineStr">
         <is>
-          <t>steady and appropriate economic growth</t>
+          <t>max. 60 % of GDP</t>
         </is>
       </c>
       <c r="L39" s="4" t="inlineStr">
         <is>
-          <t>Bruttoinlandsprodukt je Einwohnerin und Einwohner</t>
+          <t>Schuldenstand</t>
         </is>
       </c>
       <c r="M39" s="4" t="inlineStr">
         <is>
-          <t>Gross domestic product per capita</t>
+          <t>Government debt</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="40">
       <c r="A40" s="4" t="inlineStr">
         <is>
-          <t>Z08_B05_P01_Ib01_I01</t>
+          <t>Z08_B03_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B40" s="4" t="inlineStr">
         <is>
-          <t>Z08_B05_P01_Ib01</t>
+          <t>Z08_B03_P01_Ib01</t>
         </is>
       </c>
       <c r="C40" s="4" t="inlineStr">
         <is>
-          <t>8.5.a</t>
+          <t>8.3</t>
         </is>
       </c>
       <c r="D40" s="4" t="inlineStr">
         <is>
-          <t>a) Insgesamt (20-64-Jährige)</t>
+          <t>Anlageinvestitionen</t>
         </is>
       </c>
       <c r="E40" s="4" t="inlineStr">
         <is>
-          <t>a) total (20 to 64-year-olds)</t>
+          <t>Gross fixed capital formation</t>
         </is>
       </c>
       <c r="F40" s="4" t="inlineStr">
         <is>
-          <t>Erwerbstätigenquote (20- bis 64-Jährige)</t>
+          <t>Verhältnis der Bruttoanlageinvestitionen zum BIP</t>
         </is>
       </c>
       <c r="G40" s="4" t="inlineStr">
         <is>
-          <t>Employment rate (20 to 64-year-olds)</t>
+          <t>Gross fixed capital formation in relation to GDP</t>
         </is>
       </c>
       <c r="H40" s="4" t="inlineStr">
         <is>
-          <t>Erhöhung auf 78 % bis 2030</t>
+          <t>Angemessene Entwicklung des Anteils, Beibehaltung bis 2030</t>
         </is>
       </c>
       <c r="I40" s="4" t="inlineStr">
         <is>
-          <t>Increase to 78 % by 2030</t>
+          <t>Appropriate development of the ratio, to be maintained until 2030</t>
         </is>
       </c>
       <c r="J40" s="4" t="inlineStr">
         <is>
-          <t>Erhöhung auf 78 % bis 2030</t>
+          <t>angemessene Entwicklung bis 2030</t>
         </is>
       </c>
       <c r="K40" s="4" t="inlineStr">
         <is>
-          <t>increase to 78 % by 2030</t>
+          <t>appropriate development by 2030</t>
         </is>
       </c>
       <c r="L40" s="4" t="inlineStr">
         <is>
-          <t>Erwerbstätigenquote insgesamt (20- bis 64-Jährige)</t>
+          <t>Verhältnis der Bruttoanlageinvestitionen zum BIP</t>
         </is>
       </c>
       <c r="M40" s="4" t="inlineStr">
         <is>
-          <t>Employment rate, total (20 to 64-year-olds)</t>
+          <t>Gross fixed capital formation in relation to GDP</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="41">
       <c r="A41" s="4" t="inlineStr">
         <is>
-          <t>Z08_B05_P01_Ib01_I02</t>
+          <t>Z08_B04_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B41" s="4" t="inlineStr">
         <is>
-          <t>Z08_B05_P01_Ib01</t>
+          <t>Z08_B04_P01_Ib01</t>
         </is>
       </c>
       <c r="C41" s="4" t="inlineStr">
         <is>
-          <t>8.5.b</t>
+          <t>8.4</t>
         </is>
       </c>
       <c r="D41" s="4" t="inlineStr">
         <is>
-          <t>b) Ältere (60-64-Jährige)</t>
+          <t>Bruttoinlandsprodukt</t>
         </is>
       </c>
       <c r="E41" s="4" t="inlineStr">
         <is>
-          <t>b) older people (60 to 64-year-olds)</t>
+          <t>Gross domestic product</t>
         </is>
       </c>
       <c r="F41" s="4" t="inlineStr">
         <is>
-          <t>Erwerbstätigenquote (60- bis 64-Jährige)</t>
+          <t>Bruttoinlandsprodukt je Einwohnerin und Einwohner</t>
         </is>
       </c>
       <c r="G41" s="4" t="inlineStr">
         <is>
-          <t>Employment rate (60 to 64-year-olds)</t>
+          <t>Gross domestic product per capita</t>
         </is>
       </c>
       <c r="H41" s="4" t="inlineStr">
         <is>
-          <t>Erhöhung auf 60 % bis 2030</t>
+          <t>Stetiges und angemessenes Wirtschaftswachstum</t>
         </is>
       </c>
       <c r="I41" s="4" t="inlineStr">
         <is>
-          <t>Increase to 60 % by 2030</t>
+          <t>Steady and appropriate economic growth</t>
         </is>
       </c>
       <c r="J41" s="4" t="inlineStr">
         <is>
-          <t>Erhöhung auf 60 % bis 2030</t>
+          <t>stetiges und angemessenes Wirtschaftswachstum</t>
         </is>
       </c>
       <c r="K41" s="4" t="inlineStr">
         <is>
-          <t>increase to 60 % by 2030</t>
+          <t>steady and appropriate economic growth</t>
         </is>
       </c>
       <c r="L41" s="4" t="inlineStr">
         <is>
-          <t>Erwerbstätigenquote Ältere (60- bis 64-Jährige)</t>
+          <t>Bruttoinlandsprodukt je Einwohnerin und Einwohner</t>
         </is>
       </c>
       <c r="M41" s="4" t="inlineStr">
         <is>
-          <t>Employment rate, older people (60 to 64-year-olds)</t>
+          <t>Gross domestic product per capita</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="42">
       <c r="A42" s="4" t="inlineStr">
         <is>
-          <t>Z08_B06_P01_Ib01_I01</t>
+          <t>Z08_B05_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B42" s="4" t="inlineStr">
         <is>
-          <t>Z08_B06_P01_Ib01</t>
+          <t>Z08_B05_P01_Ib01</t>
         </is>
       </c>
       <c r="C42" s="4" t="inlineStr">
         <is>
-          <t>8.6</t>
+          <t>8.5.a</t>
         </is>
       </c>
       <c r="D42" s="4" t="inlineStr">
         <is>
-          <t>Mitglieder des Textilbündnisses</t>
+          <t>a) Insgesamt (20-64-Jährige)</t>
         </is>
       </c>
       <c r="E42" s="4" t="inlineStr">
         <is>
-          <t>Members of the Textile Partnership</t>
+          <t>a) total (20 to 64-year-olds)</t>
         </is>
       </c>
       <c r="F42" s="4" t="inlineStr">
         <is>
-          <t>Mitglieder des Textilbündnisses</t>
+          <t>Erwerbstätigenquote (20- bis 64-Jährige)</t>
         </is>
       </c>
       <c r="G42" s="4" t="inlineStr">
         <is>
-          <t>Members of the Textile Partnership</t>
+          <t>Employment rate (20 to 64-year-olds)</t>
         </is>
       </c>
       <c r="H42" s="4" t="inlineStr">
         <is>
-          <t>Signifikante Steigerung bis 2030</t>
+          <t>Erhöhung auf 78 % bis 2030</t>
         </is>
       </c>
       <c r="I42" s="4" t="inlineStr">
         <is>
-          <t>Significantly increase by 2030</t>
+          <t>Increase to 78 % by 2030</t>
         </is>
       </c>
       <c r="J42" s="4" t="inlineStr">
         <is>
-          <t>Steigerung der Anzahl bis 2030</t>
+          <t>Erhöhung auf 78 % bis 2030</t>
         </is>
       </c>
       <c r="K42" s="4" t="inlineStr">
         <is>
-          <t>increase number by 2030</t>
+          <t>increase to 78 % by 2030</t>
         </is>
       </c>
       <c r="L42" s="4" t="inlineStr">
         <is>
-          <t>Mitglieder des Textilbündnisses</t>
+          <t>Erwerbstätigenquote insgesamt (20- bis 64-Jährige)</t>
         </is>
       </c>
       <c r="M42" s="4" t="inlineStr">
         <is>
-          <t>Members of the Textile Partnership</t>
+          <t>Employment rate, total (20 to 64-year-olds)</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="43">
       <c r="A43" s="4" t="inlineStr">
         <is>
-          <t>Z09_B01_P01_Ib01_I01</t>
+          <t>Z08_B05_P01_Ib01_I02</t>
         </is>
       </c>
       <c r="B43" s="4" t="inlineStr">
         <is>
-          <t>Z09_B01_P01_Ib01</t>
+          <t>Z08_B05_P01_Ib01</t>
         </is>
       </c>
       <c r="C43" s="4" t="inlineStr">
         <is>
-          <t>9.1.a</t>
+          <t>8.5.b</t>
         </is>
       </c>
       <c r="D43" s="4" t="inlineStr">
         <is>
-          <t>Ausgaben für Forschung und Entwicklung</t>
+          <t>b) Ältere (60-64-Jährige)</t>
         </is>
       </c>
       <c r="E43" s="4" t="inlineStr">
         <is>
-          <t>Expenditure on research and development</t>
+          <t>b) older people (60 to 64-year-olds)</t>
         </is>
       </c>
       <c r="F43" s="4" t="inlineStr">
         <is>
-          <t>Private und öffentliche Ausgaben für Forschung und Entwicklung</t>
+          <t>Erwerbstätigenquote (60- bis 64-Jährige)</t>
         </is>
       </c>
       <c r="G43" s="4" t="inlineStr">
         <is>
-          <t>Private and public expenditure on research and development</t>
+          <t>Employment rate (60 to 64-year-olds)</t>
         </is>
       </c>
       <c r="H43" s="4" t="inlineStr">
         <is>
-          <t>Jährlich mindestens 3,5 % des BIP bis 2025</t>
+          <t>Erhöhung auf 60 % bis 2030</t>
         </is>
       </c>
       <c r="I43" s="4" t="inlineStr">
         <is>
-          <t>At least 3.5 % of GDP per year by 2025</t>
+          <t>Increase to 60 % by 2030</t>
         </is>
       </c>
       <c r="J43" s="4" t="inlineStr">
         <is>
-          <t>jährlich mindestens 3,5 % des BIP bis 2025</t>
+          <t>Erhöhung auf 60 % bis 2030</t>
         </is>
       </c>
       <c r="K43" s="4" t="inlineStr">
         <is>
-          <t>at least 3.5 % of GDP per year by 2025</t>
+          <t>increase to 60 % by 2030</t>
         </is>
       </c>
       <c r="L43" s="4" t="inlineStr">
         <is>
-          <t>Private und öffentliche Ausgaben für Forschung und Entwicklung</t>
+          <t>Erwerbstätigenquote Ältere (60- bis 64-Jährige)</t>
         </is>
       </c>
       <c r="M43" s="4" t="inlineStr">
         <is>
-          <t>Private and public expenditure on research and development</t>
+          <t>Employment rate, older people (60 to 64-year-olds)</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="44">
       <c r="A44" s="4" t="inlineStr">
         <is>
-          <t>Z09_B01_P01_Ib02_I01</t>
+          <t>Z08_B06_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B44" s="4" t="inlineStr">
         <is>
-          <t>Z09_B01_P01_Ib02</t>
+          <t>Z08_B06_P01_Ib01</t>
         </is>
       </c>
       <c r="C44" s="4" t="inlineStr">
         <is>
-          <t>9.1.b</t>
+          <t>8.6</t>
         </is>
       </c>
       <c r="D44" s="4" t="inlineStr">
         <is>
-          <t>Breitbandverfügbarkeit</t>
+          <t>Mitglieder des Textilbündnisses</t>
         </is>
       </c>
       <c r="E44" s="4" t="inlineStr">
         <is>
-          <t>Broadband availability</t>
+          <t>Members of the Textile Partnership</t>
         </is>
       </c>
       <c r="F44" s="4" t="inlineStr">
         <is>
-          <t>Breitbandausbau – Anteil der Haushalte mit Zugang zu Gigabit-Breitbandversorgung</t>
+          <t>Mitglieder des Textilbündnisses</t>
         </is>
       </c>
       <c r="G44" s="4" t="inlineStr">
         <is>
-          <t>Roll-out of broadband – Share of households with access to gigabit broadband services</t>
+          <t>Members of the Textile Partnership</t>
         </is>
       </c>
       <c r="H44" s="4" t="inlineStr">
         <is>
-          <t>Flächendeckender Aufbau von Gigabitnetzen bis 2025</t>
+          <t>Signifikante Steigerung bis 2030</t>
         </is>
       </c>
       <c r="I44" s="4" t="inlineStr">
         <is>
-          <t>Universal gigabit network Roll-out by 2025</t>
+          <t>Significantly increase by 2030</t>
         </is>
       </c>
       <c r="J44" s="4" t="inlineStr">
         <is>
-          <t>flächendeckender Aufbau bis 2025</t>
+          <t>Steigerung der Anzahl bis 2030</t>
         </is>
       </c>
       <c r="K44" s="4" t="inlineStr">
         <is>
-          <t>universal Roll-out by 2025</t>
+          <t>increase number by 2030</t>
         </is>
       </c>
       <c r="L44" s="4" t="inlineStr">
         <is>
-          <t>Breitbandausbau – Anteil der Haushalte mit Zugang zu Gigabit-Breitbandversorgung</t>
+          <t>Mitglieder des Textilbündnisses</t>
         </is>
       </c>
       <c r="M44" s="4" t="inlineStr">
         <is>
-          <t>Roll-out of broadband – Share of households with access to gigabit broadband services</t>
+          <t>Members of the Textile Partnership</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="45">
       <c r="A45" s="4" t="inlineStr">
         <is>
-          <t>Z10_B01_P01_Ib01_I01</t>
+          <t>Z09_B01_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B45" s="4" t="inlineStr">
         <is>
-          <t>Z10_B01_P01_Ib01</t>
+          <t>Z09_B01_P01_Ib01</t>
         </is>
       </c>
       <c r="C45" s="4" t="inlineStr">
         <is>
-          <t>10.1</t>
+          <t>9.1.a</t>
         </is>
       </c>
       <c r="D45" s="4" t="inlineStr">
         <is>
-          <t>Abschlussquote</t>
+          <t>Ausgaben für Forschung und Entwicklung</t>
         </is>
       </c>
       <c r="E45" s="4" t="inlineStr">
         <is>
-          <t>Graduation rate</t>
+          <t>Expenditure on research and development</t>
         </is>
       </c>
       <c r="F45" s="4" t="inlineStr">
         <is>
-          <t>Ausländische Schulabsolventinnen und Schulabsolventen</t>
+          <t>Private und öffentliche Ausgaben für Forschung und Entwicklung</t>
         </is>
       </c>
       <c r="G45" s="4" t="inlineStr">
         <is>
-          <t>Foreign school graduates</t>
+          <t>Private and public expenditure on research and development</t>
         </is>
       </c>
       <c r="H45" s="4" t="inlineStr">
         <is>
-          <t>Erhöhung des Anteils der ausländischen Schulabgänger mit mindestens Hauptschulabschluss und Angleichung an die Quote deutscher Schulabgänger bis 2030</t>
+          <t>Jährlich mindestens 3,5 % des BIP bis 2025</t>
         </is>
       </c>
       <c r="I45" s="4" t="inlineStr">
         <is>
-          <t>Increase the proportion of foreign school leavers with a least a secondary general school certificate and bring into line with that of German school leavers by 2030</t>
+          <t>At least 3.5 % of GDP per year by 2025</t>
         </is>
       </c>
       <c r="J45" s="4" t="inlineStr">
         <is>
-          <t>Erhöhung bei ausländischen Schulabsolvierenden und Angleichung an die Quote deutscher -absolvierenden bis 2030</t>
+          <t>jährlich mindestens 3,5 % des BIP bis 2025</t>
         </is>
       </c>
       <c r="K45" s="4" t="inlineStr">
         <is>
-          <t>increase among foreign school leavers and bring it into line with the rate of German school leavers by 2030</t>
+          <t>at least 3.5 % of GDP per year by 2025</t>
         </is>
       </c>
       <c r="L45" s="4" t="inlineStr">
         <is>
-          <t>Ausländische Schulabsolventinnen und Schulabsolventen</t>
+          <t>Private und öffentliche Ausgaben für Forschung und Entwicklung</t>
         </is>
       </c>
       <c r="M45" s="4" t="inlineStr">
         <is>
-          <t>Foreign school graduates</t>
+          <t>Private and public expenditure on research and development</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="46">
       <c r="A46" s="4" t="inlineStr">
         <is>
-          <t>Z10_B02_P01_Ib01_I01</t>
+          <t>Z09_B01_P01_Ib02_I01</t>
         </is>
       </c>
       <c r="B46" s="4" t="inlineStr">
         <is>
-          <t>Z10_B02_P01_Ib01</t>
+          <t>Z09_B01_P01_Ib02</t>
         </is>
       </c>
       <c r="C46" s="4" t="inlineStr">
         <is>
-          <t>10.2</t>
+          <t>9.1.b</t>
         </is>
       </c>
       <c r="D46" s="4" t="inlineStr">
         <is>
-          <t>Gini-Koeffizient Einkommen nach Sozialtransfer</t>
+          <t>Breitbandverfügbarkeit</t>
         </is>
       </c>
       <c r="E46" s="4" t="inlineStr">
         <is>
-          <t>Gini coefficient of income after social transfers</t>
+          <t>Broadband availability</t>
         </is>
       </c>
       <c r="F46" s="4" t="inlineStr">
         <is>
-          <t>Gini-Koeffizient des Einkommens nach Sozialtransfers</t>
+          <t>Breitbandausbau – Anteil der Haushalte mit Zugang zu Gigabit-Breitbandversorgung</t>
         </is>
       </c>
       <c r="G46" s="4" t="inlineStr">
         <is>
-          <t>Gini coefficient of income after social transfers</t>
+          <t>Roll-out of broadband – Share of households with access to gigabit broadband services</t>
         </is>
       </c>
       <c r="H46" s="4" t="inlineStr">
         <is>
-          <t>Gini-Koeffizient Einkommen nach Sozialtransfer bis 2030 unterhalb des EU-27-Wertes</t>
+          <t>Flächendeckender Aufbau von Gigabitnetzen bis 2025</t>
         </is>
       </c>
       <c r="I46" s="4" t="inlineStr">
         <is>
-          <t>Gini coefficient of income after social transfers to be below the EU-27 figure by 2030</t>
+          <t>Universal gigabit network Roll-out by 2025</t>
         </is>
       </c>
       <c r="J46" s="4" t="inlineStr">
         <is>
-          <t>bis 2030 unterhalb des EU-27-Wertes</t>
+          <t>flächendeckender Aufbau bis 2025</t>
         </is>
       </c>
       <c r="K46" s="4" t="inlineStr">
         <is>
-          <t>to be below the EU-27 figure by 2030</t>
+          <t>universal Roll-out by 2025</t>
         </is>
       </c>
       <c r="L46" s="4" t="inlineStr">
         <is>
-          <t>Gini-Koeffizient des Einkommens nach Sozialtransfers</t>
+          <t>Breitbandausbau – Anteil der Haushalte mit Zugang zu Gigabit-Breitbandversorgung</t>
         </is>
       </c>
       <c r="M46" s="4" t="inlineStr">
         <is>
-          <t>Gini coefficient of income after social transfers</t>
+          <t>Roll-out of broadband – Share of households with access to gigabit broadband services</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="47">
       <c r="A47" s="4" t="inlineStr">
         <is>
-          <t>Z11_B01_P01_Ib01_I01</t>
+          <t>Z10_B01_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B47" s="4" t="inlineStr">
         <is>
-          <t>Z11_B01_P01_Ib01</t>
+          <t>Z10_B01_P01_Ib01</t>
         </is>
       </c>
       <c r="C47" s="4" t="inlineStr">
         <is>
-          <t>11.1.a</t>
+          <t>10.1</t>
         </is>
       </c>
       <c r="D47" s="4" t="inlineStr">
         <is>
-          <t>Anstieg der Siedlungs- und Verkehrsfläche</t>
+          <t>Abschlussquote</t>
         </is>
       </c>
       <c r="E47" s="4" t="inlineStr">
         <is>
-          <t>Expansion of settlement and transport area</t>
+          <t>Graduation rate</t>
         </is>
       </c>
       <c r="F47" s="4" t="inlineStr">
         <is>
-          <t>Anstieg der Siedlungs- und Verkehrsfläche</t>
+          <t>Ausländische Schulabsolventinnen und Schulabsolventen</t>
         </is>
       </c>
       <c r="G47" s="4" t="inlineStr">
         <is>
-          <t>Expansion of settlement and transport area</t>
+          <t>Foreign school graduates</t>
         </is>
       </c>
       <c r="H47" s="4" t="inlineStr">
         <is>
-          <t>Senkung auf durchschnittlich unter 30 ha pro Tag bis 2030</t>
+          <t>Erhöhung des Anteils der ausländischen Schulabgänger mit mindestens Hauptschulabschluss und Angleichung an die Quote deutscher Schulabgänger bis 2030</t>
         </is>
       </c>
       <c r="I47" s="4" t="inlineStr">
         <is>
-          <t>Reduction to under 30 ha on average per day by 2030</t>
+          <t>Increase the proportion of foreign school leavers with a least a secondary general school certificate and bring into line with that of German school leavers by 2030</t>
         </is>
       </c>
       <c r="J47" s="4" t="inlineStr">
         <is>
-          <t>Senkung auf unter 30 ha pro Tag bis 2030</t>
+          <t>Erhöhung bei ausländischen Schulabsolvierenden und Angleichung an die Quote deutscher -absolvierenden bis 2030</t>
         </is>
       </c>
       <c r="K47" s="4" t="inlineStr">
         <is>
-          <t>reduction to under 30 ha per day by 2030</t>
+          <t>increase among foreign school leavers and bring it into line with the rate of German school leavers by 2030</t>
         </is>
       </c>
       <c r="L47" s="4" t="inlineStr">
         <is>
-          <t>Anstieg der Siedlungs- und Verkehrsfläche</t>
+          <t>Ausländische Schulabsolventinnen und Schulabsolventen</t>
         </is>
       </c>
       <c r="M47" s="4" t="inlineStr">
         <is>
-          <t>Expansion of settlement and transport area</t>
+          <t>Foreign school graduates</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="48">
       <c r="A48" s="4" t="inlineStr">
         <is>
-          <t>Z11_B01_P01_Ib02_I01</t>
+          <t>Z10_B02_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B48" s="4" t="inlineStr">
         <is>
-          <t>Z11_B01_P01_Ib02</t>
+          <t>Z10_B02_P01_Ib01</t>
         </is>
       </c>
       <c r="C48" s="4" t="inlineStr">
         <is>
-          <t>11.1.b</t>
+          <t>10.2</t>
         </is>
       </c>
       <c r="D48" s="4" t="inlineStr">
         <is>
-          <t>Freiraumverlust</t>
+          <t>Gini-Koeffizient Einkommen nach Sozialtransfer</t>
         </is>
       </c>
       <c r="E48" s="4" t="inlineStr">
         <is>
-          <t>Loss of open space area</t>
+          <t>Gini coefficient of income after social transfers</t>
         </is>
       </c>
       <c r="F48" s="4" t="inlineStr">
         <is>
-          <t>Freiraumverlust</t>
+          <t>Gini-Koeffizient des Einkommens nach Sozialtransfers</t>
         </is>
       </c>
       <c r="G48" s="4" t="inlineStr">
         <is>
-          <t>Loss of open space area</t>
+          <t>Gini coefficient of income after social transfers</t>
         </is>
       </c>
       <c r="H48" s="4" t="inlineStr">
         <is>
-          <t>Verringerung des einwohnerbezogenen Freiflächenverlustes</t>
+          <t>Gini-Koeffizient Einkommen nach Sozialtransfer bis 2030 unterhalb des EU-27-Wertes</t>
         </is>
       </c>
       <c r="I48" s="4" t="inlineStr">
         <is>
-          <t>Reduce the loss of per capita open space area</t>
+          <t>Gini coefficient of income after social transfers to be below the EU-27 figure by 2030</t>
         </is>
       </c>
       <c r="J48" s="4" t="inlineStr">
         <is>
-          <t>Verringerung</t>
+          <t>bis 2030 unterhalb des EU-27-Wertes</t>
         </is>
       </c>
       <c r="K48" s="4" t="inlineStr">
         <is>
-          <t>reduce the loss</t>
+          <t>to be below the EU-27 figure by 2030</t>
         </is>
       </c>
       <c r="L48" s="4" t="inlineStr">
         <is>
-          <t>Freiraumverlust</t>
+          <t>Gini-Koeffizient des Einkommens nach Sozialtransfers</t>
         </is>
       </c>
       <c r="M48" s="4" t="inlineStr">
         <is>
-          <t>Loss of open space area</t>
+          <t>Gini coefficient of income after social transfers</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="49">
       <c r="A49" s="4" t="inlineStr">
         <is>
-          <t>Z11_B01_P01_Ib03_I01</t>
+          <t>Z11_B01_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B49" s="4" t="inlineStr">
         <is>
-          <t>Z11_B01_P01_Ib03</t>
+          <t>Z11_B01_P01_Ib01</t>
         </is>
       </c>
       <c r="C49" s="4" t="inlineStr">
         <is>
-          <t>11.1.c</t>
+          <t>11.1.a</t>
         </is>
       </c>
       <c r="D49" s="4" t="inlineStr">
         <is>
-          <t>Siedlungsdichte</t>
+          <t>Anstieg der Siedlungs- und Verkehrsfläche</t>
         </is>
       </c>
       <c r="E49" s="4" t="inlineStr">
         <is>
-          <t>Density of settlements</t>
+          <t>Expansion of settlement and transport area</t>
         </is>
       </c>
       <c r="F49" s="4" t="inlineStr">
         <is>
-          <t>Siedlungsdichte</t>
+          <t>Anstieg der Siedlungs- und Verkehrsfläche</t>
         </is>
       </c>
       <c r="G49" s="4" t="inlineStr">
         <is>
-          <t>Density of settlements</t>
+          <t>Expansion of settlement and transport area</t>
         </is>
       </c>
       <c r="H49" s="4" t="inlineStr">
         <is>
-          <t>Keine Verringerung der Siedlungsdichte</t>
+          <t>Senkung auf durchschnittlich unter 30 ha pro Tag bis 2030</t>
         </is>
       </c>
       <c r="I49" s="4" t="inlineStr">
         <is>
-          <t>No reduction in density of settlements</t>
+          <t>Reduction to under 30 ha on average per day by 2030</t>
         </is>
       </c>
       <c r="J49" s="4" t="inlineStr">
         <is>
-          <t>keine Verringerung</t>
+          <t>Senkung auf unter 30 ha pro Tag bis 2030</t>
         </is>
       </c>
       <c r="K49" s="4" t="inlineStr">
         <is>
-          <t>no reduction</t>
+          <t>reduction to under 30 ha per day by 2030</t>
         </is>
       </c>
       <c r="L49" s="4" t="inlineStr">
         <is>
-          <t>Siedlungsdichte</t>
+          <t>Anstieg der Siedlungs- und Verkehrsfläche</t>
         </is>
       </c>
       <c r="M49" s="4" t="inlineStr">
         <is>
-          <t>Density of settlements</t>
+          <t>Expansion of settlement and transport area</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="50">
       <c r="A50" s="4" t="inlineStr">
         <is>
-          <t>Z11_B02_P01_Ib01_I01</t>
+          <t>Z11_B01_P01_Ib02_I01</t>
         </is>
       </c>
       <c r="B50" s="4" t="inlineStr">
         <is>
-          <t>Z11_B02_P01_Ib01</t>
+          <t>Z11_B01_P01_Ib02</t>
         </is>
       </c>
       <c r="C50" s="4" t="inlineStr">
         <is>
-          <t>11.2.a</t>
+          <t>11.1.b</t>
         </is>
       </c>
       <c r="D50" s="4" t="inlineStr">
         <is>
-          <t>Endenergieverbrauch im Güterverkehr</t>
+          <t>Freiraumverlust</t>
         </is>
       </c>
       <c r="E50" s="4" t="inlineStr">
         <is>
-          <t>Energy consumption in goods transport</t>
+          <t>Loss of open space area</t>
         </is>
       </c>
       <c r="F50" s="4" t="inlineStr">
         <is>
-          <t>Endenergieverbrauch im Güterverkehr</t>
+          <t>Freiraumverlust</t>
         </is>
       </c>
       <c r="G50" s="4" t="inlineStr">
         <is>
-          <t>Final energy consumption in goods transport</t>
+          <t>Loss of open space area</t>
         </is>
       </c>
       <c r="H50" s="4" t="inlineStr">
         <is>
-          <t>Senkung um 15 bis 20 % bis 2030</t>
+          <t>Verringerung des einwohnerbezogenen Freiflächenverlustes</t>
         </is>
       </c>
       <c r="I50" s="4" t="inlineStr">
         <is>
-          <t>Reduction by 15–20 % by 2030</t>
+          <t>Reduce the loss of per capita open space area</t>
         </is>
       </c>
       <c r="J50" s="4" t="inlineStr">
         <is>
-          <t>Senkung um 15 bis 20 % bis 2030</t>
+          <t>Verringerung</t>
         </is>
       </c>
       <c r="K50" s="4" t="inlineStr">
         <is>
-          <t>reduction by 15-20 % by 2030</t>
+          <t>reduce the loss</t>
         </is>
       </c>
       <c r="L50" s="4" t="inlineStr">
         <is>
-          <t>Endenergieverbrauch im Güterverkehr</t>
+          <t>Freiraumverlust</t>
         </is>
       </c>
       <c r="M50" s="4" t="inlineStr">
         <is>
-          <t>Final energy consumption in goods transport</t>
+          <t>Loss of open space area</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="51">
       <c r="A51" s="4" t="inlineStr">
         <is>
-          <t>Z11_B02_P01_Ib02_I01</t>
+          <t>Z11_B01_P01_Ib03_I01</t>
         </is>
       </c>
       <c r="B51" s="4" t="inlineStr">
         <is>
-          <t>Z11_B02_P01_Ib02</t>
+          <t>Z11_B01_P01_Ib03</t>
         </is>
       </c>
       <c r="C51" s="4" t="inlineStr">
         <is>
-          <t>11.2.b</t>
+          <t>11.1.c</t>
         </is>
       </c>
       <c r="D51" s="4" t="inlineStr">
         <is>
-          <t>Endenergieverbrauch im Personenverkehr</t>
+          <t>Siedlungsdichte</t>
         </is>
       </c>
       <c r="E51" s="4" t="inlineStr">
         <is>
-          <t>Energy consumption in passenger transport</t>
+          <t>Density of settlements</t>
         </is>
       </c>
       <c r="F51" s="4" t="inlineStr">
         <is>
-          <t>Endenergieverbrauch im Personenverkehr</t>
+          <t>Siedlungsdichte</t>
         </is>
       </c>
       <c r="G51" s="4" t="inlineStr">
         <is>
-          <t>Final energy consumption in passenger transport</t>
+          <t>Density of settlements</t>
         </is>
       </c>
       <c r="H51" s="4" t="inlineStr">
         <is>
-          <t>Senkung um 15 bis 20 % bis 2030</t>
+          <t>Keine Verringerung der Siedlungsdichte</t>
         </is>
       </c>
       <c r="I51" s="4" t="inlineStr">
         <is>
-          <t>Reduction by 15–20 % by 2030</t>
+          <t>No reduction in density of settlements</t>
         </is>
       </c>
       <c r="J51" s="4" t="inlineStr">
         <is>
-          <t>Senkung um 15 bis 20 % bis 2030</t>
+          <t>keine Verringerung</t>
         </is>
       </c>
       <c r="K51" s="4" t="inlineStr">
         <is>
-          <t>reduction by 15-20 % by 2030</t>
+          <t>no reduction</t>
         </is>
       </c>
       <c r="L51" s="4" t="inlineStr">
         <is>
-          <t>Endenergieverbrauch im Personenverkehr</t>
+          <t>Siedlungsdichte</t>
         </is>
       </c>
       <c r="M51" s="4" t="inlineStr">
         <is>
-          <t>Final energy consumption in passenger transport</t>
+          <t>Density of settlements</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="52">
       <c r="A52" s="4" t="inlineStr">
         <is>
-          <t>Z11_B02_P01_Ib03_I01</t>
+          <t>Z11_B02_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B52" s="4" t="inlineStr">
         <is>
-          <t>Z11_B02_P01_Ib03</t>
+          <t>Z11_B02_P01_Ib01</t>
         </is>
       </c>
       <c r="C52" s="4" t="inlineStr">
         <is>
-          <t>11.2.c</t>
+          <t>11.2.a</t>
         </is>
       </c>
       <c r="D52" s="4" t="inlineStr">
         <is>
-          <t>Reisezeit mit öffentlichen Verkehrsmitteln</t>
+          <t>Endenergieverbrauch im Güterverkehr</t>
         </is>
       </c>
       <c r="E52" s="4" t="inlineStr">
         <is>
-          <t>Average travel time by public transport</t>
+          <t>Energy consumption in goods transport</t>
         </is>
       </c>
       <c r="F52" s="4" t="inlineStr">
         <is>
-          <t>Erreichbarkeit von Mittel- und Oberzentren mit öffentlichen Verkehrsmitteln</t>
+          <t>Endenergieverbrauch im Güterverkehr</t>
         </is>
       </c>
       <c r="G52" s="4" t="inlineStr">
         <is>
-          <t>Accessibility of medium-sized and large cities by public transport</t>
+          <t>Final energy consumption in goods transport</t>
         </is>
       </c>
       <c r="H52" s="4" t="inlineStr">
         <is>
-          <t>Verringerung der durchschnittlichen Reisezeit mit öffentlichen Verkehrsmitteln</t>
+          <t>Senkung um 15 bis 20 % bis 2030</t>
         </is>
       </c>
       <c r="I52" s="4" t="inlineStr">
         <is>
-          <t>Reduction of average travel time by public transport</t>
+          <t>Reduction by 15–20 % by 2030</t>
         </is>
       </c>
       <c r="J52" s="4" t="inlineStr">
         <is>
-          <t>Verringerung</t>
+          <t>Senkung um 15 bis 20 % bis 2030</t>
         </is>
       </c>
       <c r="K52" s="4" t="inlineStr">
         <is>
-          <t>reduction</t>
+          <t>reduction by 15-20 % by 2030</t>
         </is>
       </c>
       <c r="L52" s="4" t="inlineStr">
         <is>
-          <t>Erreichbarkeit von Mittel- und Oberzentren mit öffentlichen Verkehrsmitteln</t>
+          <t>Endenergieverbrauch im Güterverkehr</t>
         </is>
       </c>
       <c r="M52" s="4" t="inlineStr">
         <is>
-          <t>Accessibility of medium-sized and large cities by public transport</t>
+          <t>Final energy consumption in goods transport</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="53">
       <c r="A53" s="4" t="inlineStr">
         <is>
-          <t>Z11_B03_P01_Ib01_I01</t>
+          <t>Z11_B02_P01_Ib02_I01</t>
         </is>
       </c>
       <c r="B53" s="4" t="inlineStr">
         <is>
-          <t>Z11_B03_P01_Ib01</t>
+          <t>Z11_B02_P01_Ib02</t>
         </is>
       </c>
       <c r="C53" s="4" t="inlineStr">
         <is>
-          <t>11.3</t>
+          <t>11.2.b</t>
         </is>
       </c>
       <c r="D53" s="4" t="inlineStr">
         <is>
-          <t>Durch Wohnkosten überlastete Personen</t>
+          <t>Endenergieverbrauch im Personenverkehr</t>
         </is>
       </c>
       <c r="E53" s="4" t="inlineStr">
         <is>
-          <t>Persons overburdened by housing costs</t>
+          <t>Energy consumption in passenger transport</t>
         </is>
       </c>
       <c r="F53" s="4" t="inlineStr">
         <is>
-          <t>Überlastung durch Wohnkosten</t>
+          <t>Endenergieverbrauch im Personenverkehr</t>
         </is>
       </c>
       <c r="G53" s="4" t="inlineStr">
         <is>
-          <t>Housing cost overload</t>
+          <t>Final energy consumption in passenger transport</t>
         </is>
       </c>
       <c r="H53" s="4" t="inlineStr">
         <is>
-          <t>Senkung des Anteils der überlasteten Personen an der Bevölkerung auf 13 % bis 2030</t>
+          <t>Senkung um 15 bis 20 % bis 2030</t>
         </is>
       </c>
       <c r="I53" s="4" t="inlineStr">
         <is>
-          <t>Reduce the proportion of people who are overburdened to 13 % by 2030</t>
+          <t>Reduction by 15–20 % by 2030</t>
         </is>
       </c>
       <c r="J53" s="4" t="inlineStr">
         <is>
-          <t>Senkung auf 13 % bis 2030</t>
+          <t>Senkung um 15 bis 20 % bis 2030</t>
         </is>
       </c>
       <c r="K53" s="4" t="inlineStr">
         <is>
-          <t>reduce to 13 % by 2030</t>
+          <t>reduction by 15-20 % by 2030</t>
         </is>
       </c>
       <c r="L53" s="4" t="inlineStr">
         <is>
-          <t>Überlastung durch Wohnkosten</t>
+          <t>Endenergieverbrauch im Personenverkehr</t>
         </is>
       </c>
       <c r="M53" s="4" t="inlineStr">
         <is>
-          <t>Housing cost overload</t>
+          <t>Final energy consumption in passenger transport</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="54">
       <c r="A54" s="4" t="inlineStr">
         <is>
-          <t>Z11_B04_P01_Ib01_I01</t>
+          <t>Z11_B02_P01_Ib03_I01</t>
         </is>
       </c>
       <c r="B54" s="4" t="inlineStr">
         <is>
-          <t>Z11_B04_P01_Ib01</t>
+          <t>Z11_B02_P01_Ib03</t>
         </is>
       </c>
       <c r="C54" s="4" t="inlineStr">
         <is>
-          <t>11.4</t>
+          <t>11.2.c</t>
         </is>
       </c>
       <c r="D54" s="4" t="inlineStr">
         <is>
-          <t>Objekte in der Deutschen Digitalen Bibliothek</t>
+          <t>Reisezeit mit öffentlichen Verkehrsmitteln</t>
         </is>
       </c>
       <c r="E54" s="4" t="inlineStr">
         <is>
-          <t>Objects in the German Digital Library</t>
+          <t>Average travel time by public transport</t>
         </is>
       </c>
       <c r="F54" s="4" t="inlineStr">
         <is>
-          <t>Zahl der Objekte in der Deutschen Digitalen Bibliothek</t>
+          <t>Erreichbarkeit von Mittel- und Oberzentren mit öffentlichen Verkehrsmitteln</t>
         </is>
       </c>
       <c r="G54" s="4" t="inlineStr">
         <is>
-          <t>Number of objects in the German Digital Library</t>
+          <t>Accessibility of medium-sized and large cities by public transport</t>
         </is>
       </c>
       <c r="H54" s="4" t="inlineStr">
         <is>
-          <t>Steigerung der Zahl der in der Deutschen Digitalen Bibliothek vernetzten Objekte auf 50 Millionen bis 2030</t>
+          <t>Verringerung der durchschnittlichen Reisezeit mit öffentlichen Verkehrsmitteln</t>
         </is>
       </c>
       <c r="I54" s="4" t="inlineStr">
         <is>
-          <t>Increase in the number of objects in the network of the German Digital Library to 50 million by 2030</t>
+          <t>Reduction of average travel time by public transport</t>
         </is>
       </c>
       <c r="J54" s="4" t="inlineStr">
         <is>
-          <t>Steigerung auf 50 Millionen bis 2030</t>
+          <t>Verringerung</t>
         </is>
       </c>
       <c r="K54" s="4" t="inlineStr">
         <is>
-          <t>increase to 50 million by 2030</t>
+          <t>reduction</t>
         </is>
       </c>
       <c r="L54" s="4" t="inlineStr">
         <is>
-          <t>Zahl der Objekte in der Deutschen Digitalen Bibliothek</t>
+          <t>Erreichbarkeit von Mittel- und Oberzentren mit öffentlichen Verkehrsmitteln</t>
         </is>
       </c>
       <c r="M54" s="4" t="inlineStr">
         <is>
-          <t>Number of objects in the German Digital Library</t>
+          <t>Accessibility of medium-sized and large cities by public transport</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="55">
       <c r="A55" s="4" t="inlineStr">
         <is>
-          <t>Z12_B01_P01_Ib01_I01</t>
+          <t>Z11_B03_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B55" s="4" t="inlineStr">
         <is>
-          <t>Z12_B01_P01_Ib01</t>
+          <t>Z11_B03_P01_Ib01</t>
         </is>
       </c>
       <c r="C55" s="4" t="inlineStr">
         <is>
-          <t>12.1.a</t>
+          <t>11.3</t>
         </is>
       </c>
       <c r="D55" s="4" t="inlineStr">
         <is>
-          <t>Produkte mit Umweltzeichen</t>
+          <t>Durch Wohnkosten überlastete Personen</t>
         </is>
       </c>
       <c r="E55" s="4" t="inlineStr">
         <is>
-          <t>Products certified by eco-labelling schemes</t>
+          <t>Persons overburdened by housing costs</t>
         </is>
       </c>
       <c r="F55" s="4" t="inlineStr">
         <is>
-          <t>Marktanteil von Produkten mit staatlichen Umweltzeichen</t>
+          <t>Überlastung durch Wohnkosten</t>
         </is>
       </c>
       <c r="G55" s="4" t="inlineStr">
         <is>
-          <t>Market share of products certified by publicly managed eco-labelling schemes</t>
+          <t>Housing cost overload</t>
         </is>
       </c>
       <c r="H55" s="4" t="inlineStr">
         <is>
-          <t>Steigerung des Marktanteils auf 34 % bis 2030</t>
+          <t>Senkung des Anteils der überlasteten Personen an der Bevölkerung auf 13 % bis 2030</t>
         </is>
       </c>
       <c r="I55" s="4" t="inlineStr">
         <is>
-          <t>Increase the market share to 34 % by 2030</t>
+          <t>Reduce the proportion of people who are overburdened to 13 % by 2030</t>
         </is>
       </c>
       <c r="J55" s="4" t="inlineStr">
         <is>
-          <t>Steigerung des Marktanteils auf 34 % bis 2030</t>
+          <t>Senkung auf 13 % bis 2030</t>
         </is>
       </c>
       <c r="K55" s="4" t="inlineStr">
         <is>
-          <t>increase the market share to 34 % by 2030</t>
+          <t>reduce to 13 % by 2030</t>
         </is>
       </c>
       <c r="L55" s="4" t="inlineStr">
         <is>
-          <t>Marktanteil von Produkten mit staatlichen Umweltzeichen</t>
+          <t>Überlastung durch Wohnkosten</t>
         </is>
       </c>
       <c r="M55" s="4" t="inlineStr">
         <is>
-          <t>Market share of products certified by publicly managed eco-labelling schemes</t>
+          <t>Housing cost overload</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="56">
       <c r="A56" s="4" t="inlineStr">
         <is>
-          <t>Z12_B01_P01_Ib02_I01</t>
+          <t>Z11_B04_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B56" s="4" t="inlineStr">
         <is>
-          <t>Z12_B01_P01_Ib02</t>
+          <t>Z11_B04_P01_Ib01</t>
         </is>
       </c>
       <c r="C56" s="4" t="inlineStr">
         <is>
-          <t>12.1.ba</t>
+          <t>11.4</t>
         </is>
       </c>
       <c r="D56" s="4" t="inlineStr">
         <is>
-          <t>ba) Rohstoffeinsatz</t>
+          <t>Objekte in der Deutschen Digitalen Bibliothek</t>
         </is>
       </c>
       <c r="E56" s="4" t="inlineStr">
         <is>
-          <t>ba) Use of raw materials</t>
+          <t>Objects in the German Digital Library</t>
         </is>
       </c>
       <c r="F56" s="4" t="inlineStr">
         <is>
-          <t>Globale Umweltinanspruchnahme durch den Konsum privater Haushalte - Rohstoffeinsatz</t>
+          <t>Zahl der Objekte in der Deutschen Digitalen Bibliothek</t>
         </is>
       </c>
       <c r="G56" s="4" t="inlineStr">
         <is>
-          <t>Global environmental impact by private household consumption – use of raw materials</t>
+          <t>Number of objects in the German Digital Library</t>
         </is>
       </c>
       <c r="H56" s="4" t="inlineStr">
         <is>
-          <t>Kontinuierliche Reduzierung </t>
+          <t>Steigerung der Zahl der in der Deutschen Digitalen Bibliothek vernetzten Objekte auf 50 Millionen bis 2030</t>
         </is>
       </c>
       <c r="I56" s="4" t="inlineStr">
         <is>
-          <t>Steady reduction</t>
+          <t>Increase in the number of objects in the network of the German Digital Library to 50 million by 2030</t>
         </is>
       </c>
       <c r="J56" s="4" t="inlineStr">
         <is>
-          <t>kontinuierliche Reduzierung</t>
+          <t>Steigerung auf 50 Millionen bis 2030</t>
         </is>
       </c>
       <c r="K56" s="4" t="inlineStr">
         <is>
-          <t>steady reduction</t>
+          <t>increase to 50 million by 2030</t>
         </is>
       </c>
       <c r="L56" s="4" t="inlineStr">
         <is>
-          <t>Direkter und indirekter Rohstoffeinsatz</t>
+          <t>Zahl der Objekte in der Deutschen Digitalen Bibliothek</t>
         </is>
       </c>
       <c r="M56" s="4" t="inlineStr">
         <is>
-          <t>Direct and indirect use of raw materials</t>
+          <t>Number of objects in the German Digital Library</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="57">
       <c r="A57" s="4" t="inlineStr">
         <is>
-          <t>Z12_B01_P01_Ib02_I02</t>
+          <t>Z12_B01_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B57" s="4" t="inlineStr">
         <is>
-          <t>Z12_B01_P01_Ib02</t>
+          <t>Z12_B01_P01_Ib01</t>
         </is>
       </c>
       <c r="C57" s="4" t="inlineStr">
         <is>
-          <t>12.1.bb</t>
+          <t>12.1.a</t>
         </is>
       </c>
       <c r="D57" s="4" t="inlineStr">
         <is>
-          <t>bb) Energieverbrauch</t>
+          <t>Produkte mit Umweltzeichen</t>
         </is>
       </c>
       <c r="E57" s="4" t="inlineStr">
         <is>
-          <t>bb) Energy consumption</t>
+          <t>Products certified by eco-labelling schemes</t>
         </is>
       </c>
       <c r="F57" s="4" t="inlineStr">
         <is>
-          <t>Globale Umweltinanspruchnahme durch den Konsum privater Haushalte - Energieverbrauch</t>
+          <t>Marktanteil von Produkten mit staatlichen Umweltzeichen</t>
         </is>
       </c>
       <c r="G57" s="4" t="inlineStr">
         <is>
-          <t>Global environmental impact by private household consumption – energy consumption</t>
+          <t>Market share of products certified by publicly managed eco-labelling schemes</t>
         </is>
       </c>
       <c r="H57" s="4" t="inlineStr">
         <is>
-          <t>Kontinuierliche Reduzierung </t>
+          <t>Steigerung des Marktanteils auf 34 % bis 2030</t>
         </is>
       </c>
       <c r="I57" s="4" t="inlineStr">
         <is>
-          <t>Steady reduction</t>
+          <t>Increase the market share to 34 % by 2030</t>
         </is>
       </c>
       <c r="J57" s="4" t="inlineStr">
         <is>
-          <t>kontinuierliche Reduzierung</t>
+          <t>Steigerung des Marktanteils auf 34 % bis 2030</t>
         </is>
       </c>
       <c r="K57" s="4" t="inlineStr">
         <is>
-          <t>steady reduction</t>
+          <t>increase the market share to 34 % by 2030</t>
         </is>
       </c>
       <c r="L57" s="4" t="inlineStr">
         <is>
-          <t>Direkter und indirekter Energieverbrauch</t>
+          <t>Marktanteil von Produkten mit staatlichen Umweltzeichen</t>
         </is>
       </c>
       <c r="M57" s="4" t="inlineStr">
         <is>
-          <t>Direct and indirect energy consumption</t>
+          <t>Market share of products certified by publicly managed eco-labelling schemes</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="58">
       <c r="A58" s="4" t="inlineStr">
         <is>
-          <t>Z12_B01_P01_Ib02_I03</t>
+          <t>Z12_B01_P01_Ib02_I01</t>
         </is>
       </c>
       <c r="B58" s="4" t="inlineStr">
@@ -4290,27 +4290,27 @@
       </c>
       <c r="C58" s="4" t="inlineStr">
         <is>
-          <t>12.1.bc</t>
+          <t>12.1.ba</t>
         </is>
       </c>
       <c r="D58" s="4" t="inlineStr">
         <is>
-          <t>bc) CO2-Emissionen</t>
+          <t>ba) Rohstoffeinsatz</t>
         </is>
       </c>
       <c r="E58" s="4" t="inlineStr">
         <is>
-          <t>bc) CO2 emissions</t>
+          <t>ba) Use of raw materials</t>
         </is>
       </c>
       <c r="F58" s="4" t="inlineStr">
         <is>
-          <t>Globale Umweltinanspruchnahme durch den Konsum privater Haushalte - CO2-Emissionen</t>
+          <t>Globale Umweltinanspruchnahme durch den Konsum privater Haushalte - Rohstoffeinsatz</t>
         </is>
       </c>
       <c r="G58" s="4" t="inlineStr">
         <is>
-          <t>Global environmental impact by private household consumption – CO2 emissions</t>
+          <t>Global environmental impact by private household consumption – use of raw materials</t>
         </is>
       </c>
       <c r="H58" s="4" t="inlineStr">
@@ -4335,1419 +4335,1486 @@
       </c>
       <c r="L58" s="4" t="inlineStr">
         <is>
-          <t>Direkte und indirekte CO2-Emissionen</t>
+          <t>Direkter und indirekter Rohstoffeinsatz</t>
         </is>
       </c>
       <c r="M58" s="4" t="inlineStr">
         <is>
-          <t>Direct and indirect CO2 emissions</t>
+          <t>Direct and indirect use of raw materials</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="59">
       <c r="A59" s="4" t="inlineStr">
         <is>
-          <t>Z12_B02_P01_Ib01_I01</t>
+          <t>Z12_B01_P01_Ib02_I02</t>
         </is>
       </c>
       <c r="B59" s="4" t="inlineStr">
         <is>
-          <t>Z12_B02_P01_Ib01</t>
+          <t>Z12_B01_P01_Ib02</t>
         </is>
       </c>
       <c r="C59" s="4" t="inlineStr">
         <is>
-          <t>12.2</t>
+          <t>12.1.bb</t>
         </is>
       </c>
       <c r="D59" s="4" t="inlineStr">
         <is>
-          <t>Umweltmanagement EMAS</t>
+          <t>bb) Energieverbrauch</t>
         </is>
       </c>
       <c r="E59" s="4" t="inlineStr">
         <is>
-          <t>EMAS eco-management</t>
+          <t>bb) Energy consumption</t>
         </is>
       </c>
       <c r="F59" s="4" t="inlineStr">
         <is>
-          <t>Umweltmanagement EMAS</t>
+          <t>Globale Umweltinanspruchnahme durch den Konsum privater Haushalte - Energieverbrauch</t>
         </is>
       </c>
       <c r="G59" s="4" t="inlineStr">
         <is>
-          <t>EMAS eco-management</t>
+          <t>Global environmental impact by private household consumption – energy consumption</t>
         </is>
       </c>
       <c r="H59" s="4" t="inlineStr">
         <is>
-          <t>5 000 Organisationsstandorte bis 2030</t>
+          <t>Kontinuierliche Reduzierung </t>
         </is>
       </c>
       <c r="I59" s="4" t="inlineStr">
         <is>
-          <t>5,000 locations of organisation by 2030</t>
+          <t>Steady reduction</t>
         </is>
       </c>
       <c r="J59" s="4" t="inlineStr">
         <is>
-          <t>5 000 Organisationsstandorte bis 2030</t>
+          <t>kontinuierliche Reduzierung</t>
         </is>
       </c>
       <c r="K59" s="4" t="inlineStr">
         <is>
-          <t>5,000 locations of organisation by 2030</t>
+          <t>steady reduction</t>
         </is>
       </c>
       <c r="L59" s="4" t="inlineStr">
         <is>
-          <t>Umweltmanagement EMAS</t>
+          <t>Direkter und indirekter Energieverbrauch</t>
         </is>
       </c>
       <c r="M59" s="4" t="inlineStr">
         <is>
-          <t>EMAS eco-management</t>
+          <t>Direct and indirect energy consumption</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="60">
       <c r="A60" s="4" t="inlineStr">
         <is>
-          <t>Z12_B03_P01_Ib01_I01</t>
+          <t>Z12_B01_P01_Ib02_I03</t>
         </is>
       </c>
       <c r="B60" s="4" t="inlineStr">
         <is>
-          <t>Z12_B03_P01_Ib01</t>
+          <t>Z12_B01_P01_Ib02</t>
         </is>
       </c>
       <c r="C60" s="4" t="inlineStr">
         <is>
-          <t>12.3.a</t>
+          <t>12.1.bc</t>
         </is>
       </c>
       <c r="D60" s="4" t="inlineStr">
         <is>
-          <t>a) Anteil Papier mit Blauem Engel der Bundesverwaltung</t>
+          <t>bc) CO2-Emissionen</t>
         </is>
       </c>
       <c r="E60" s="4" t="inlineStr">
         <is>
-          <t>a) Share of paper bearing the Blue Angel label of the federal administration</t>
+          <t>bc) CO2 emissions</t>
         </is>
       </c>
       <c r="F60" s="4" t="inlineStr">
         <is>
-          <t>Anteil des Papiers mit Blauem Engel am Gesamtpapierverbrauch der unmittelbaren Bundesverwaltung</t>
+          <t>Globale Umweltinanspruchnahme durch den Konsum privater Haushalte - CO2-Emissionen</t>
         </is>
       </c>
       <c r="G60" s="4" t="inlineStr">
         <is>
-          <t>Paper bearing the Blue Angel label as a proportion of the total paper consumption of the direct federal administration</t>
+          <t>Global environmental impact by private household consumption – CO2 emissions</t>
         </is>
       </c>
       <c r="H60" s="4" t="inlineStr">
         <is>
-          <t>Steigerung des Anteils auf 95 % bis 2020</t>
+          <t>Kontinuierliche Reduzierung </t>
         </is>
       </c>
       <c r="I60" s="4" t="inlineStr">
         <is>
-          <t>Increase the proportion to 95 % by 2020</t>
+          <t>Steady reduction</t>
         </is>
       </c>
       <c r="J60" s="4" t="inlineStr">
         <is>
-          <t>Steigerung auf 95 % bis 2020</t>
+          <t>kontinuierliche Reduzierung</t>
         </is>
       </c>
       <c r="K60" s="4" t="inlineStr">
         <is>
-          <t>increase to 95 % by 2020</t>
+          <t>steady reduction</t>
         </is>
       </c>
       <c r="L60" s="4" t="inlineStr">
         <is>
-          <t>Anteil des Papiers mit Blauem Engel am Gesamtpapierverbrauch der unmittelbaren Bundesverwaltung</t>
+          <t>Direkte und indirekte CO2-Emissionen</t>
         </is>
       </c>
       <c r="M60" s="4" t="inlineStr">
         <is>
-          <t>Paper bearing the Blue Angel label as a proportion of the total paper consumption of the direct federal administration</t>
+          <t>Direct and indirect CO2 emissions</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="61">
       <c r="A61" s="4" t="inlineStr">
         <is>
-          <t>Z12_B03_P01_Ib01_I02</t>
+          <t>Z12_B02_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B61" s="4" t="inlineStr">
         <is>
-          <t>Z12_B03_P01_Ib01</t>
+          <t>Z12_B02_P01_Ib01</t>
         </is>
       </c>
       <c r="C61" s="4" t="inlineStr">
         <is>
-          <t>12.3.b</t>
+          <t>12.2</t>
         </is>
       </c>
       <c r="D61" s="4" t="inlineStr">
         <is>
-          <t>b) CO2-Emissionen der Kfz der öffentlichen Hand</t>
+          <t>Umweltmanagement EMAS</t>
         </is>
       </c>
       <c r="E61" s="4" t="inlineStr">
         <is>
-          <t>b) CO2 emissions of vehicles in the public sector</t>
+          <t>EMAS eco-management</t>
         </is>
       </c>
       <c r="F61" s="4" t="inlineStr">
         <is>
-          <t>CO2-Emissionen je Fahrleistungen der Kraftfahrzeuge der öffentlichen Hand</t>
+          <t>Umweltmanagement EMAS</t>
         </is>
       </c>
       <c r="G61" s="4" t="inlineStr">
         <is>
-          <t>CO2 emissions of commercially available vehicles in the public sector</t>
+          <t>EMAS eco-management</t>
         </is>
       </c>
       <c r="H61" s="4" t="inlineStr">
         <is>
-          <t>Signifikante Senkung</t>
+          <t>5 000 Organisationsstandorte bis 2030</t>
         </is>
       </c>
       <c r="I61" s="4" t="inlineStr">
         <is>
-          <t>Significantly reduce</t>
+          <t>5,000 locations of organisation by 2030</t>
         </is>
       </c>
       <c r="J61" s="4" t="inlineStr">
         <is>
-          <t>signifikante Senkung</t>
+          <t>5 000 Organisationsstandorte bis 2030</t>
         </is>
       </c>
       <c r="K61" s="4" t="inlineStr">
         <is>
-          <t>significantly reduce</t>
+          <t>5,000 locations of organisation by 2030</t>
         </is>
       </c>
       <c r="L61" s="4" t="inlineStr">
         <is>
-          <t>CO2-Emissionen je Fahrleistungen der Kraftfahrzeuge der öffentlichen Hand</t>
+          <t>Umweltmanagement EMAS</t>
         </is>
       </c>
       <c r="M61" s="4" t="inlineStr">
         <is>
-          <t>CO2 emissions of commercially available vehicles in the public sector</t>
+          <t>EMAS eco-management</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="62">
       <c r="A62" s="4" t="inlineStr">
         <is>
-          <t>Z13_B01_P01_Ib01_I01</t>
+          <t>Z12_B03_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B62" s="4" t="inlineStr">
         <is>
-          <t>Z13_B01_P01_Ib01</t>
+          <t>Z12_B03_P01_Ib01</t>
         </is>
       </c>
       <c r="C62" s="4" t="inlineStr">
         <is>
-          <t>13.1.a</t>
+          <t>12.3.a</t>
         </is>
       </c>
       <c r="D62" s="4" t="inlineStr">
         <is>
-          <t>Treibhausgasemissionen</t>
+          <t>a) Anteil Papier mit Blauem Engel der Bundesverwaltung</t>
         </is>
       </c>
       <c r="E62" s="4" t="inlineStr">
         <is>
-          <t>Greenhouse gas emissions</t>
+          <t>a) Share of paper bearing the Blue Angel label of the federal administration</t>
         </is>
       </c>
       <c r="F62" s="4" t="inlineStr">
         <is>
-          <t>Treibhausgasemissionen</t>
+          <t>Anteil des Papiers mit Blauem Engel am Gesamtpapierverbrauch der unmittelbaren Bundesverwaltung</t>
         </is>
       </c>
       <c r="G62" s="4" t="inlineStr">
         <is>
-          <t>Greenhouse gas emissions</t>
+          <t>Paper bearing the Blue Angel label as a proportion of the total paper consumption of the direct federal administration</t>
         </is>
       </c>
       <c r="H62" s="4" t="inlineStr">
         <is>
-          <t>Minderung um mindestens 65 % bis 2030, um mindestens 88 % bis 2040; Erreichung der Treibhausgasneutralität bis 2045</t>
+          <t>Steigerung des Anteils auf 95 % bis 2020</t>
         </is>
       </c>
       <c r="I62" s="4" t="inlineStr">
         <is>
-          <t>Reduce by at least 65 % by 2030 and by at least 88 % by 2040; greenhouse gas neutrality to be achieved by 2045</t>
+          <t>Increase the proportion to 95 % by 2020</t>
         </is>
       </c>
       <c r="J62" s="4" t="inlineStr">
         <is>
-          <t>Minderung um 65 % bis 2030</t>
+          <t>Steigerung auf 95 % bis 2020</t>
         </is>
       </c>
       <c r="K62" s="4" t="inlineStr">
         <is>
-          <t>reduce by 65 % by 2030</t>
+          <t>increase to 95 % by 2020</t>
         </is>
       </c>
       <c r="L62" s="4" t="inlineStr">
         <is>
-          <t>Treibhausgasemissionen</t>
+          <t>Anteil des Papiers mit Blauem Engel am Gesamtpapierverbrauch der unmittelbaren Bundesverwaltung</t>
         </is>
       </c>
       <c r="M62" s="4" t="inlineStr">
         <is>
-          <t>Greenhouse gas emissions</t>
+          <t>Paper bearing the Blue Angel label as a proportion of the total paper consumption of the direct federal administration</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="63">
       <c r="A63" s="4" t="inlineStr">
         <is>
-          <t>Z13_B01_P02_Ib01_I01</t>
+          <t>Z12_B03_P01_Ib01_I02</t>
         </is>
       </c>
       <c r="B63" s="4" t="inlineStr">
         <is>
-          <t>Z13_B01_P02_Ib01</t>
+          <t>Z12_B03_P01_Ib01</t>
         </is>
       </c>
       <c r="C63" s="4" t="inlineStr">
         <is>
-          <t>13.1.b</t>
+          <t>12.3.b</t>
         </is>
       </c>
       <c r="D63" s="4" t="inlineStr">
         <is>
-          <t>Zahlungen zur Klimafinanzierung</t>
+          <t>b) CO2-Emissionen der Kfz der öffentlichen Hand</t>
         </is>
       </c>
       <c r="E63" s="4" t="inlineStr">
         <is>
-          <t>Climate finance payments</t>
+          <t>b) CO2 emissions of vehicles in the public sector</t>
         </is>
       </c>
       <c r="F63" s="4" t="inlineStr">
         <is>
-          <t>Internationale Klimafinanzierung zur Reduktion von Treibhausgasen und zur Anpassung an den Klimawandel</t>
+          <t>CO2-Emissionen je Fahrleistungen der Kraftfahrzeuge der öffentlichen Hand</t>
         </is>
       </c>
       <c r="G63" s="4" t="inlineStr">
         <is>
-          <t>International climate finance for the reduction of greenhouse gases and adaptation to climate change</t>
+          <t>CO2 emissions of commercially available vehicles in the public sector</t>
         </is>
       </c>
       <c r="H63" s="4" t="inlineStr">
         <is>
-          <t>Erhöhung der internationalen Klimafinanzierung auf mindestens 6 Mrd. Euro bis spätestens 2025.</t>
+          <t>Signifikante Senkung</t>
         </is>
       </c>
       <c r="I63" s="4" t="inlineStr">
         <is>
-          <t>Increase international climate finance to at least 6 billion euros by 2025 at the latest</t>
+          <t>Significantly reduce</t>
         </is>
       </c>
       <c r="J63" s="4" t="inlineStr">
         <is>
-          <t>Erhöhung auf 6 Mrd. Euro bis 2025</t>
+          <t>signifikante Senkung</t>
         </is>
       </c>
       <c r="K63" s="4" t="inlineStr">
         <is>
-          <t>increase to 6 bn euro by 2025</t>
+          <t>significantly reduce</t>
         </is>
       </c>
       <c r="L63" s="4" t="inlineStr">
         <is>
-          <t>Internationale Klimafinanzierung zur Reduktion von Treibhausgasen und zur Anpassung an den Klimawandel</t>
+          <t>CO2-Emissionen je Fahrleistungen der Kraftfahrzeuge der öffentlichen Hand</t>
         </is>
       </c>
       <c r="M63" s="4" t="inlineStr">
         <is>
-          <t>International climate finance for the reduction of greenhouse gases and adaptation to climate change</t>
+          <t>CO2 emissions of commercially available vehicles in the public sector</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="64">
       <c r="A64" s="4" t="inlineStr">
         <is>
-          <t>Z14_B01_P01_Ib01_I01</t>
+          <t>Z13_B01_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B64" s="4" t="inlineStr">
         <is>
-          <t>Z14_B01_P01_Ib01</t>
+          <t>Z13_B01_P01_Ib01</t>
         </is>
       </c>
       <c r="C64" s="4" t="inlineStr">
         <is>
-          <t>14.1.aa</t>
+          <t>13.1.a</t>
         </is>
       </c>
       <c r="D64" s="4" t="inlineStr">
         <is>
-          <t>aa) Ostsee</t>
+          <t>Treibhausgasemissionen</t>
         </is>
       </c>
       <c r="E64" s="4" t="inlineStr">
         <is>
-          <t>aa) Baltic Sea</t>
+          <t>Greenhouse gas emissions</t>
         </is>
       </c>
       <c r="F64" s="4" t="inlineStr">
         <is>
-          <t>Stickstoffeintrag über die Zuflüsse in die Ostsee</t>
+          <t>Treibhausgasemissionen</t>
         </is>
       </c>
       <c r="G64" s="4" t="inlineStr">
         <is>
-          <t>Nitrogen input via the inflows into the Baltic Sea</t>
+          <t>Greenhouse gas emissions</t>
         </is>
       </c>
       <c r="H64" s="4" t="inlineStr">
         <is>
-          <t>Einhaltung des guten Zustands nach Oberflächengewässerverordnung (Jahresmittelwerte für Gesamtstickstoff bei in die Ostsee mündenden Flüssen sollen 2,6 Milligramm pro Liter nicht überschreiten)</t>
+          <t>Minderung um mindestens 65 % bis 2030, um mindestens 88 % bis 2040; Erreichung der Treibhausgasneutralität bis 2045</t>
         </is>
       </c>
       <c r="I64" s="4" t="inlineStr">
         <is>
-          <t>Adherence to good quality in accordance with the Ordinance on the Protection of Surface Waters (Oberflächengewässerver-ordnung) (annual averages for total nitro-gen in rivers flowing into the Baltic may not exceed 2.6 mg/l)</t>
+          <t>Reduce by at least 65 % by 2030 and by at least 88 % by 2040; greenhouse gas neutrality to be achieved by 2045</t>
         </is>
       </c>
       <c r="J64" s="4" t="inlineStr">
         <is>
-          <t>Gesamtstickstoff in Zuflüssen unter 2,6 mg/l</t>
+          <t>Minderung um 65 % bis 2030</t>
         </is>
       </c>
       <c r="K64" s="4" t="inlineStr">
         <is>
-          <t>total nitrogen in the inflows below 2.6 mg/l</t>
+          <t>reduce by 65 % by 2030</t>
         </is>
       </c>
       <c r="L64" s="4" t="inlineStr">
         <is>
-          <t>Stickstoffeintrag über die Zuflüsse in die Ostsee</t>
+          <t>Treibhausgasemissionen</t>
         </is>
       </c>
       <c r="M64" s="4" t="inlineStr">
         <is>
-          <t>Nitrogen input via the inflows into the Baltic Sea</t>
+          <t>Greenhouse gas emissions</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="65">
       <c r="A65" s="4" t="inlineStr">
         <is>
-          <t>Z14_B01_P01_Ib01_I02</t>
+          <t>Z13_B01_P02_Ib01_I01</t>
         </is>
       </c>
       <c r="B65" s="4" t="inlineStr">
         <is>
-          <t>Z14_B01_P01_Ib01</t>
+          <t>Z13_B01_P02_Ib01</t>
         </is>
       </c>
       <c r="C65" s="4" t="inlineStr">
         <is>
-          <t>14.1.ab</t>
+          <t>13.1.b</t>
         </is>
       </c>
       <c r="D65" s="4" t="inlineStr">
         <is>
-          <t>ab) Nordsee</t>
+          <t>Zahlungen zur Klimafinanzierung</t>
         </is>
       </c>
       <c r="E65" s="4" t="inlineStr">
         <is>
-          <t>ab) North Sea</t>
+          <t>Climate finance payments</t>
         </is>
       </c>
       <c r="F65" s="4" t="inlineStr">
         <is>
-          <t>Stickstoffeintrag über die Zuflüsse in die Nordsee</t>
+          <t>Internationale Klimafinanzierung zur Reduktion von Treibhausgasen und zur Anpassung an den Klimawandel</t>
         </is>
       </c>
       <c r="G65" s="4" t="inlineStr">
         <is>
-          <t>Nitrogen input via the inflows into the North Sea</t>
+          <t>International climate finance for the reduction of greenhouse gases and adaptation to climate change</t>
         </is>
       </c>
       <c r="H65" s="4" t="inlineStr">
         <is>
-          <t>Einhaltung des guten Zustands nach Oberflächengewässerverordnung (Jahresmittelwerte für Gesamtstickstoff bei in die Nordsee mündenden Flüssen sollen 2,8 Milligramm pro Liter nicht überschreiten)</t>
+          <t>Erhöhung der internationalen Klimafinanzierung auf mindestens 6 Mrd. Euro bis spätestens 2025.</t>
         </is>
       </c>
       <c r="I65" s="4" t="inlineStr">
         <is>
-          <t>Adherence to good quality in accordance with the Ordinance on the Protection of Surface Waters (annual averages for total nitrogen in rivers flowing into the North Sea may not exceed 2.8 mg/l)</t>
+          <t>Increase international climate finance to at least 6 billion euros by 2025 at the latest</t>
         </is>
       </c>
       <c r="J65" s="4" t="inlineStr">
         <is>
-          <t>Gesamtstickstoff in Zuflüssen unter 2,8 mg/l</t>
+          <t>Erhöhung auf 6 Mrd. Euro bis 2025</t>
         </is>
       </c>
       <c r="K65" s="4" t="inlineStr">
         <is>
-          <t>total nitrogen in the inflows below 2.8 mg/l</t>
+          <t>increase to 6 bn euro by 2025</t>
         </is>
       </c>
       <c r="L65" s="4" t="inlineStr">
         <is>
-          <t>Stickstoffeintrag über die Zuflüsse in die Nordsee</t>
+          <t>Internationale Klimafinanzierung zur Reduktion von Treibhausgasen und zur Anpassung an den Klimawandel</t>
         </is>
       </c>
       <c r="M65" s="4" t="inlineStr">
         <is>
-          <t>Nitrogen input via the inflows into the North Sea</t>
+          <t>International climate finance for the reduction of greenhouse gases and adaptation to climate change</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="66">
       <c r="A66" s="4" t="inlineStr">
         <is>
-          <t>Z14_B01_P01_Ib02_I01</t>
+          <t>Z14_B01_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B66" s="4" t="inlineStr">
         <is>
-          <t>Z14_B01_P01_Ib02</t>
+          <t>Z14_B01_P01_Ib01</t>
         </is>
       </c>
       <c r="C66" s="4" t="inlineStr">
         <is>
-          <t>14.1.b</t>
+          <t>14.1.aa</t>
         </is>
       </c>
       <c r="D66" s="4" t="inlineStr">
         <is>
-          <t>Bewirtschaftung von Fischbeständen</t>
+          <t>aa) Ostsee</t>
         </is>
       </c>
       <c r="E66" s="4" t="inlineStr">
         <is>
-          <t>Fish stock management</t>
+          <t>aa) Baltic Sea</t>
         </is>
       </c>
       <c r="F66" s="4" t="inlineStr">
         <is>
-          <t>Anteil der nachhaltig befischten Fischbestände in Nord- und Ostsee</t>
+          <t>Stickstoffeintrag über die Zuflüsse in die Ostsee</t>
         </is>
       </c>
       <c r="G66" s="4" t="inlineStr">
         <is>
-          <t>Share of sustainably fished stocks of fish in the North and Baltic Seas</t>
+          <t>Nitrogen input via the inflows into the Baltic Sea</t>
         </is>
       </c>
       <c r="H66" s="4" t="inlineStr">
         <is>
-          <t>Alle wirtschaftlich genutzten Fischbestände sollen nach dem MSY-Ansatz nachhaltig bewirtschaftet werden bis 2020</t>
+          <t>Einhaltung des guten Zustands nach Oberflächengewässerverordnung (Jahresmittelwerte für Gesamtstickstoff bei in die Ostsee mündenden Flüssen sollen 2,6 Milligramm pro Liter nicht überschreiten)</t>
         </is>
       </c>
       <c r="I66" s="4" t="inlineStr">
         <is>
-          <t>All fish stocks used for commercial purpos-es to be sustainably managed in accordance with the Maximum Sustainable Yield (MSY) approach by 2020</t>
+          <t>Adherence to good quality in accordance with the Ordinance on the Protection of Surface Waters (Oberflächengewässerver-ordnung) (annual averages for total nitro-gen in rivers flowing into the Baltic may not exceed 2.6 mg/l)</t>
         </is>
       </c>
       <c r="J66" s="4" t="inlineStr">
         <is>
-          <t>nachhaltige Bewirtschaftung nach dem MSY-Ansatz bis 2020</t>
+          <t>Gesamtstickstoff in Zuflüssen unter 2,6 mg/l</t>
         </is>
       </c>
       <c r="K66" s="4" t="inlineStr">
         <is>
-          <t>sustainable management in accordance with the MSY approachby 2020</t>
+          <t>total nitrogen in the inflows below 2.6 mg/l</t>
         </is>
       </c>
       <c r="L66" s="4" t="inlineStr">
         <is>
-          <t>Anteil der nachhaltig befischten Fischbestände in Nord- und Ostsee</t>
+          <t>Stickstoffeintrag über die Zuflüsse in die Ostsee</t>
         </is>
       </c>
       <c r="M66" s="4" t="inlineStr">
         <is>
-          <t>Share of sustainably fished stocks of fish in the North and Baltic Seas</t>
+          <t>Nitrogen input via the inflows into the Baltic Sea</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="67">
       <c r="A67" s="4" t="inlineStr">
         <is>
-          <t>Z15_B01_P01_Ib01_I01</t>
+          <t>Z14_B01_P01_Ib01_I02</t>
         </is>
       </c>
       <c r="B67" s="4" t="inlineStr">
         <is>
-          <t>Z15_B01_P01_Ib01</t>
+          <t>Z14_B01_P01_Ib01</t>
         </is>
       </c>
       <c r="C67" s="4" t="inlineStr">
         <is>
-          <t>15.1</t>
+          <t>14.1.ab</t>
         </is>
       </c>
       <c r="D67" s="4" t="inlineStr">
         <is>
-          <t>Artenvielfalt und Landschaftsqualität</t>
+          <t>ab) Nordsee</t>
         </is>
       </c>
       <c r="E67" s="4" t="inlineStr">
         <is>
-          <t>Biodiversity and landscape quality</t>
+          <t>ab) North Sea</t>
         </is>
       </c>
       <c r="F67" s="4" t="inlineStr">
         <is>
-          <t>Artenvielfalt und Landschaftsqualität</t>
+          <t>Stickstoffeintrag über die Zuflüsse in die Nordsee</t>
         </is>
       </c>
       <c r="G67" s="4" t="inlineStr">
         <is>
-          <t>Biodiversity and landscape quality</t>
+          <t>Nitrogen input via the inflows into the North Sea</t>
         </is>
       </c>
       <c r="H67" s="4" t="inlineStr">
         <is>
-          <t>Erreichen des Indexwertes 100 bis 2030</t>
+          <t>Einhaltung des guten Zustands nach Oberflächengewässerverordnung (Jahresmittelwerte für Gesamtstickstoff bei in die Nordsee mündenden Flüssen sollen 2,8 Milligramm pro Liter nicht überschreiten)</t>
         </is>
       </c>
       <c r="I67" s="4" t="inlineStr">
         <is>
-          <t>Reach the index value of 100 by 2030</t>
+          <t>Adherence to good quality in accordance with the Ordinance on the Protection of Surface Waters (annual averages for total nitrogen in rivers flowing into the North Sea may not exceed 2.8 mg/l)</t>
         </is>
       </c>
       <c r="J67" s="4" t="inlineStr">
         <is>
-          <t>Erreichen des Indexwertes 100 bis 2030</t>
+          <t>Gesamtstickstoff in Zuflüssen unter 2,8 mg/l</t>
         </is>
       </c>
       <c r="K67" s="4" t="inlineStr">
         <is>
-          <t>reach the index value of 100 by 2030</t>
+          <t>total nitrogen in the inflows below 2.8 mg/l</t>
         </is>
       </c>
       <c r="L67" s="4" t="inlineStr">
         <is>
-          <t>Artenvielfalt und Landschaftsqualität</t>
+          <t>Stickstoffeintrag über die Zuflüsse in die Nordsee</t>
         </is>
       </c>
       <c r="M67" s="4" t="inlineStr">
         <is>
-          <t>Biodiversity and landscape quality</t>
+          <t>Nitrogen input via the inflows into the North Sea</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="68">
       <c r="A68" s="4" t="inlineStr">
         <is>
-          <t>Z15_B02_P01_Ib01_I01</t>
+          <t>Z14_B01_P01_Ib02_I01</t>
         </is>
       </c>
       <c r="B68" s="4" t="inlineStr">
         <is>
-          <t>Z15_B02_P01_Ib01</t>
+          <t>Z14_B01_P01_Ib02</t>
         </is>
       </c>
       <c r="C68" s="4" t="inlineStr">
         <is>
-          <t>15.2</t>
+          <t>14.1.b</t>
         </is>
       </c>
       <c r="D68" s="4" t="inlineStr">
         <is>
-          <t>Flächen mit erhöhtem Stickstoffeintrag</t>
+          <t>Bewirtschaftung von Fischbeständen</t>
         </is>
       </c>
       <c r="E68" s="4" t="inlineStr">
         <is>
-          <t>Land with elevated inputs of nitrogen</t>
+          <t>Fish stock management</t>
         </is>
       </c>
       <c r="F68" s="4" t="inlineStr">
         <is>
-          <t>Eutrophierung der Ökosysteme</t>
+          <t>Anteil der nachhaltig befischten Fischbestände in Nord- und Ostsee</t>
         </is>
       </c>
       <c r="G68" s="4" t="inlineStr">
         <is>
-          <t>Eutrophication of ecosystems</t>
+          <t>Share of sustainably fished stocks of fish in the North and Baltic Seas</t>
         </is>
       </c>
       <c r="H68" s="4" t="inlineStr">
         <is>
-          <t>Verringerung um 35 % bis 2030 gegenüber 2005</t>
+          <t>Alle wirtschaftlich genutzten Fischbestände sollen nach dem MSY-Ansatz nachhaltig bewirtschaftet werden bis 2020</t>
         </is>
       </c>
       <c r="I68" s="4" t="inlineStr">
         <is>
-          <t>Reduction by 35 % by 2030 compared to 2005</t>
+          <t>All fish stocks used for commercial purpos-es to be sustainably managed in accordance with the Maximum Sustainable Yield (MSY) approach by 2020</t>
         </is>
       </c>
       <c r="J68" s="4" t="inlineStr">
         <is>
-          <t>Verringerung um 35 % bis 2030</t>
+          <t>nachhaltige Bewirtschaftung nach dem MSY-Ansatz bis 2020</t>
         </is>
       </c>
       <c r="K68" s="4" t="inlineStr">
         <is>
-          <t>reduction by 35 % by 2030</t>
+          <t>sustainable management in accordance with the MSY approachby 2020</t>
         </is>
       </c>
       <c r="L68" s="4" t="inlineStr">
         <is>
-          <t>Eutrophierung der Ökosysteme</t>
+          <t>Anteil der nachhaltig befischten Fischbestände in Nord- und Ostsee</t>
         </is>
       </c>
       <c r="M68" s="4" t="inlineStr">
         <is>
-          <t>Eutrophication of ecosystems</t>
+          <t>Share of sustainably fished stocks of fish in the North and Baltic Seas</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="69">
       <c r="A69" s="4" t="inlineStr">
         <is>
-          <t>Z15_B02_P02_Ib01_I01</t>
+          <t>Z15_B01_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B69" s="4" t="inlineStr">
         <is>
-          <t>Z15_B02_P02_Ib01</t>
+          <t>Z15_B01_P01_Ib01</t>
         </is>
       </c>
       <c r="C69" s="4" t="inlineStr">
         <is>
-          <t>15.3.a</t>
+          <t>15.1</t>
         </is>
       </c>
       <c r="D69" s="4" t="inlineStr">
         <is>
-          <t>a) Wälder unter REDD+-Regelwerk</t>
+          <t>Artenvielfalt und Landschaftsqualität</t>
         </is>
       </c>
       <c r="E69" s="4" t="inlineStr">
         <is>
-          <t>a) Forests under REDD+ rulebook</t>
+          <t>Biodiversity and landscape quality</t>
         </is>
       </c>
       <c r="F69" s="4" t="inlineStr">
         <is>
-          <t>REDD+ (ergebnisbasierte Auszahlungen für internationalen Waldschutz)</t>
+          <t>Artenvielfalt und Landschaftsqualität</t>
         </is>
       </c>
       <c r="G69" s="4" t="inlineStr">
         <is>
-          <t>REDD+ (results-based payments for international protection of forests)</t>
+          <t>Biodiversity and landscape quality</t>
         </is>
       </c>
       <c r="H69" s="4" t="inlineStr">
         <is>
-          <t>Steigerung der Zahlungen bis 2030</t>
+          <t>Erreichen des Indexwertes 100 bis 2030</t>
         </is>
       </c>
       <c r="I69" s="4" t="inlineStr">
         <is>
-          <t>Increase payments by 2030</t>
+          <t>Reach the index value of 100 by 2030</t>
         </is>
       </c>
       <c r="J69" s="4" t="inlineStr">
         <is>
-          <t>Steigerung der Zahlungen bis 2030</t>
+          <t>Erreichen des Indexwertes 100 bis 2030</t>
         </is>
       </c>
       <c r="K69" s="4" t="inlineStr">
         <is>
-          <t>increase payments by 2030</t>
+          <t>reach the index value of 100 by 2030</t>
         </is>
       </c>
       <c r="L69" s="4" t="inlineStr">
         <is>
-          <t>Erhalt bzw. Wiederaufbau von Wäldern in Entwicklungsländern unter dem REDD+-Regelwerk</t>
+          <t>Artenvielfalt und Landschaftsqualität</t>
         </is>
       </c>
       <c r="M69" s="4" t="inlineStr">
         <is>
-          <t>Preservation or restoration of forests in developing countries under the REDD+ rulebook</t>
+          <t>Biodiversity and landscape quality</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="70">
       <c r="A70" s="4" t="inlineStr">
         <is>
-          <t>Z15_B02_P02_Ib01_I02</t>
+          <t>Z15_B02_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B70" s="4" t="inlineStr">
         <is>
-          <t>Z15_B02_P02_Ib01</t>
+          <t>Z15_B02_P01_Ib01</t>
         </is>
       </c>
       <c r="C70" s="4" t="inlineStr">
         <is>
-          <t>15.3.b</t>
+          <t>15.2</t>
         </is>
       </c>
       <c r="D70" s="4" t="inlineStr">
         <is>
-          <t>b) Internationaler Bodenschutz</t>
+          <t>Flächen mit erhöhtem Stickstoffeintrag</t>
         </is>
       </c>
       <c r="E70" s="4" t="inlineStr">
         <is>
-          <t>b) Combat Desertification</t>
+          <t>Land with elevated inputs of nitrogen</t>
         </is>
       </c>
       <c r="F70" s="4" t="inlineStr">
         <is>
-          <t>Internationaler Bodenschutz (Bruttoentwicklungsausgaben für internationalen Bodenschutz)</t>
+          <t>Eutrophierung der Ökosysteme</t>
         </is>
       </c>
       <c r="G70" s="4" t="inlineStr">
         <is>
-          <t>International soil protection (gross development assistance for international soil protection)</t>
+          <t>Eutrophication of ecosystems</t>
         </is>
       </c>
       <c r="H70" s="4" t="inlineStr">
         <is>
-          <t>Steigerung der Zahlungen bis 2030</t>
+          <t>Verringerung um 35 % bis 2030 gegenüber 2005</t>
         </is>
       </c>
       <c r="I70" s="4" t="inlineStr">
         <is>
-          <t>Increase payments by 2030</t>
+          <t>Reduction by 35 % by 2030 compared to 2005</t>
         </is>
       </c>
       <c r="J70" s="4" t="inlineStr">
         <is>
-          <t>Steigerung der Zahlungen bis 2030</t>
+          <t>Verringerung um 35 % bis 2030</t>
         </is>
       </c>
       <c r="K70" s="4" t="inlineStr">
         <is>
-          <t>increase payments by 2030</t>
+          <t>reduction by 35 % by 2030</t>
         </is>
       </c>
       <c r="L70" s="4" t="inlineStr">
         <is>
-          <t>Deutsche bilaterale Bruttoentwicklungsausgaben zur Umsetzung des Übereinkommens der VN zur Bekämpfung der Wüstenbildung</t>
+          <t>Eutrophierung der Ökosysteme</t>
         </is>
       </c>
       <c r="M70" s="4" t="inlineStr">
         <is>
-          <t>German gross bilateral development expenditure for the implementation of the UN Convention to Combat Desertification</t>
+          <t>Eutrophication of ecosystems</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="71">
       <c r="A71" s="4" t="inlineStr">
         <is>
-          <t>Z16_B01_P01_Ib01_I01</t>
+          <t>Z15_B02_P02_Ib01_I01</t>
         </is>
       </c>
       <c r="B71" s="4" t="inlineStr">
         <is>
-          <t>Z16_B01_P01_Ib01</t>
+          <t>Z15_B02_P02_Ib01</t>
         </is>
       </c>
       <c r="C71" s="4" t="inlineStr">
         <is>
-          <t>16.1</t>
+          <t>15.3.a</t>
         </is>
       </c>
       <c r="D71" s="4" t="inlineStr">
         <is>
-          <t>Anzahl an Straftaten</t>
+          <t>a) Wälder unter REDD+-Regelwerk</t>
         </is>
       </c>
       <c r="E71" s="4" t="inlineStr">
         <is>
-          <t>Number of criminal offences</t>
+          <t>a) Forests under REDD+ rulebook</t>
         </is>
       </c>
       <c r="F71" s="4" t="inlineStr">
         <is>
-          <t>Straftaten</t>
+          <t>REDD+ (ergebnisbasierte Auszahlungen für internationalen Waldschutz)</t>
         </is>
       </c>
       <c r="G71" s="4" t="inlineStr">
         <is>
-          <t>Criminal offences</t>
+          <t>REDD+ (results-based payments for international protection of forests)</t>
         </is>
       </c>
       <c r="H71" s="4" t="inlineStr">
         <is>
-          <t>Rückgang der Zahl der erfassten Straftaten je 100 000 Einwohner/ -innen auf unter 6 500 bis 2030</t>
+          <t>Steigerung der Zahlungen bis 2030</t>
         </is>
       </c>
       <c r="I71" s="4" t="inlineStr">
         <is>
-          <t>Reduce the number of criminal offences re-corded per 100,000 inhabitants to less than 6,500 by 2030</t>
+          <t>Increase payments by 2030</t>
         </is>
       </c>
       <c r="J71" s="4" t="inlineStr">
         <is>
-          <t>Rückgang auf unter 6 500 je 100 000 Einwohner/ -innen bis 2030</t>
+          <t>Steigerung der Zahlungen bis 2030</t>
         </is>
       </c>
       <c r="K71" s="4" t="inlineStr">
         <is>
-          <t>reduce to less than 6,500 per 100,000 inhabitants by 2030</t>
+          <t>increase payments by 2030</t>
         </is>
       </c>
       <c r="L71" s="4" t="inlineStr">
         <is>
-          <t>Straftaten</t>
+          <t>Erhalt bzw. Wiederaufbau von Wäldern in Entwicklungsländern unter dem REDD+-Regelwerk</t>
         </is>
       </c>
       <c r="M71" s="4" t="inlineStr">
         <is>
-          <t>Criminal offences</t>
+          <t>Preservation or restoration of forests in developing countries under the REDD+ rulebook</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="72">
       <c r="A72" s="4" t="inlineStr">
         <is>
-          <t>Z16_B02_P01_Ib01_I01</t>
+          <t>Z15_B02_P02_Ib01_I02</t>
         </is>
       </c>
       <c r="B72" s="4" t="inlineStr">
         <is>
-          <t>Z16_B02_P01_Ib01</t>
+          <t>Z15_B02_P02_Ib01</t>
         </is>
       </c>
       <c r="C72" s="4" t="inlineStr">
         <is>
-          <t>16.2</t>
+          <t>15.3.b</t>
         </is>
       </c>
       <c r="D72" s="4" t="inlineStr">
         <is>
-          <t>Sicherung, Registrierung und Zerstörung von Waffen</t>
+          <t>b) Internationaler Bodenschutz</t>
         </is>
       </c>
       <c r="E72" s="4" t="inlineStr">
         <is>
-          <t>Securing, registration and destruction of weapons</t>
+          <t>b) Combat Desertification</t>
         </is>
       </c>
       <c r="F72" s="4" t="inlineStr">
         <is>
-          <t>Anzahl der in betroffenen Weltregionen durchgeführten Projekte zur Sicherung, Registrierung und Zerstörung von Kleinwaffen und leichten Waffen durch Deutschland</t>
+          <t>Internationaler Bodenschutz (Bruttoentwicklungsausgaben für internationalen Bodenschutz)</t>
         </is>
       </c>
       <c r="G72" s="4" t="inlineStr">
         <is>
-          <t>Number of projects to secure, register and destroy small arms and light weapons carried out by Germany in affected regions of the world</t>
+          <t>International soil protection (gross development assistance for international soil protection)</t>
         </is>
       </c>
       <c r="H72" s="4" t="inlineStr">
         <is>
-          <t>Mindestens 15 Projekte pro Jahr bis 2030</t>
+          <t>Steigerung der Zahlungen bis 2030</t>
         </is>
       </c>
       <c r="I72" s="4" t="inlineStr">
         <is>
-          <t>At least 15 projects per year by 2030</t>
+          <t>Increase payments by 2030</t>
         </is>
       </c>
       <c r="J72" s="4" t="inlineStr">
         <is>
-          <t>mindestens 15 Projekte pro Jahr bis 2030</t>
+          <t>Steigerung der Zahlungen bis 2030</t>
         </is>
       </c>
       <c r="K72" s="4" t="inlineStr">
         <is>
-          <t>at least 15 projects per year by 2030</t>
+          <t>increase payments by 2030</t>
         </is>
       </c>
       <c r="L72" s="4" t="inlineStr">
         <is>
-          <t>Anzahl der in betroffenen Weltregionen durchgeführten Projekte zur Sicherung, Registrierung und Zerstörung von Kleinwaffen und leichten Waffen durch Deutschland</t>
+          <t>Deutsche bilaterale Bruttoentwicklungsausgaben zur Umsetzung des Übereinkommens der VN zur Bekämpfung der Wüstenbildung</t>
         </is>
       </c>
       <c r="M72" s="4" t="inlineStr">
         <is>
-          <t>Number of projects to secure, register and destroy small arms and light weapons carried out by Germany in affected regions of the world</t>
+          <t>German gross bilateral development expenditure for the implementation of the UN Convention to Combat Desertification</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="73">
       <c r="A73" s="4" t="inlineStr">
         <is>
-          <t>Z16_B03_P01_Ib01_I01</t>
+          <t>Z16_B01_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B73" s="4" t="inlineStr">
         <is>
-          <t>Z16_B03_P01_Ib01</t>
+          <t>Z16_B01_P01_Ib01</t>
         </is>
       </c>
       <c r="C73" s="4" t="inlineStr">
         <is>
-          <t>16.3.a</t>
+          <t>16.1</t>
         </is>
       </c>
       <c r="D73" s="4" t="inlineStr">
         <is>
-          <t>a) CPI Deutschland</t>
+          <t>Anzahl an Straftaten</t>
         </is>
       </c>
       <c r="E73" s="4" t="inlineStr">
         <is>
-          <t>a) CPI Germany</t>
+          <t>Number of criminal offences</t>
         </is>
       </c>
       <c r="F73" s="4" t="inlineStr">
         <is>
-          <t>Corruption Perception Index in Deutschland</t>
+          <t>Straftaten</t>
         </is>
       </c>
       <c r="G73" s="4" t="inlineStr">
         <is>
-          <t>Corruption Perceptions Index in Germany</t>
+          <t>Criminal offences</t>
         </is>
       </c>
       <c r="H73" s="4" t="inlineStr">
         <is>
-          <t>Verbesserung gegenüber 2012 bis 2030</t>
+          <t>Rückgang der Zahl der erfassten Straftaten je 100 000 Einwohner/ -innen auf unter 6 500 bis 2030</t>
         </is>
       </c>
       <c r="I73" s="4" t="inlineStr">
         <is>
-          <t>Improvement by 2030, compared to 2012</t>
+          <t>Reduce the number of criminal offences re-corded per 100,000 inhabitants to less than 6,500 by 2030</t>
         </is>
       </c>
       <c r="J73" s="4" t="inlineStr">
         <is>
-          <t>Verbesserung bis 2030</t>
+          <t>Rückgang auf unter 6 500 je 100 000 Einwohner/ -innen bis 2030</t>
         </is>
       </c>
       <c r="K73" s="4" t="inlineStr">
         <is>
-          <t>improvement by 2030</t>
+          <t>reduce to less than 6,500 per 100,000 inhabitants by 2030</t>
         </is>
       </c>
       <c r="L73" s="4" t="inlineStr">
         <is>
-          <t>Corruption Perception Index in Deutschland</t>
+          <t>Straftaten</t>
         </is>
       </c>
       <c r="M73" s="4" t="inlineStr">
         <is>
-          <t>Corruption Perception Index in Germany</t>
+          <t>Criminal offences</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="74">
       <c r="A74" s="4" t="inlineStr">
         <is>
-          <t>Z16_B03_P01_Ib01_I02</t>
+          <t>Z16_B02_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B74" s="4" t="inlineStr">
         <is>
-          <t>Z16_B03_P01_Ib01</t>
+          <t>Z16_B02_P01_Ib01</t>
         </is>
       </c>
       <c r="C74" s="4" t="inlineStr">
         <is>
-          <t>16.3.b</t>
+          <t>16.2</t>
         </is>
       </c>
       <c r="D74" s="4" t="inlineStr">
         <is>
-          <t>b) CPI  Partnerländer</t>
+          <t>Sicherung, Registrierung und Zerstörung von Waffen</t>
         </is>
       </c>
       <c r="E74" s="4" t="inlineStr">
         <is>
-          <t>b) CPI Partner countries</t>
+          <t>Securing, registration and destruction of weapons</t>
         </is>
       </c>
       <c r="F74" s="4" t="inlineStr">
         <is>
-          <t>Corruption Perception Index in den Partnerländern der deutschen Entwicklungszusammenarbeit</t>
+          <t>Anzahl der in betroffenen Weltregionen durchgeführten Projekte zur Sicherung, Registrierung und Zerstörung von Kleinwaffen und leichten Waffen durch Deutschland</t>
         </is>
       </c>
       <c r="G74" s="4" t="inlineStr">
         <is>
-          <t>Corruption Perceptions Index in partner countries for German development cooperation</t>
+          <t>Number of projects to secure, register and destroy small arms and light weapons carried out by Germany in affected regions of the world</t>
         </is>
       </c>
       <c r="H74" s="4" t="inlineStr">
         <is>
-          <t>Verbesserung gegenüber 2012 bis 2030</t>
+          <t>Mindestens 15 Projekte pro Jahr bis 2030</t>
         </is>
       </c>
       <c r="I74" s="4" t="inlineStr">
         <is>
-          <t>Improvement by 2030, compared to 2012</t>
+          <t>At least 15 projects per year by 2030</t>
         </is>
       </c>
       <c r="J74" s="4" t="inlineStr">
         <is>
-          <t>Verbesserung bis 2030</t>
+          <t>mindestens 15 Projekte pro Jahr bis 2030</t>
         </is>
       </c>
       <c r="K74" s="4" t="inlineStr">
         <is>
-          <t>improvement by 2030</t>
+          <t>at least 15 projects per year by 2030</t>
         </is>
       </c>
       <c r="L74" s="4" t="inlineStr">
         <is>
-          <t>Anzahl der Partnerländer deutscher Entwicklungszusammenarbeit, deren Bewertung sich gegenüber 2012 verbessert hat</t>
+          <t>Anzahl der in betroffenen Weltregionen durchgeführten Projekte zur Sicherung, Registrierung und Zerstörung von Kleinwaffen und leichten Waffen durch Deutschland</t>
         </is>
       </c>
       <c r="M74" s="4" t="inlineStr">
         <is>
-          <t>Number of partner countries for German development cooperation with improved CPI scores compared with 2012</t>
+          <t>Number of projects to secure, register and destroy small arms and light weapons carried out by Germany in affected regions of the world</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="75">
       <c r="A75" s="4" t="inlineStr">
         <is>
-          <t>Z17_B01_P01_Ib01_I01</t>
+          <t>Z16_B03_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B75" s="4" t="inlineStr">
         <is>
-          <t>Z17_B01_P01_Ib01</t>
+          <t>Z16_B03_P01_Ib01</t>
         </is>
       </c>
       <c r="C75" s="4" t="inlineStr">
         <is>
-          <t>17.1</t>
+          <t>16.3.a</t>
         </is>
       </c>
       <c r="D75" s="4" t="inlineStr">
         <is>
-          <t>Entwicklungsausgaben</t>
+          <t>a) CPI Deutschland</t>
         </is>
       </c>
       <c r="E75" s="4" t="inlineStr">
         <is>
-          <t>Development assistance</t>
+          <t>a) CPI Germany</t>
         </is>
       </c>
       <c r="F75" s="4" t="inlineStr">
         <is>
-          <t>Anteil öffentlicher Entwicklungsausgaben am Bruttonationaleinkommen</t>
+          <t>Corruption Perception Index in Deutschland</t>
         </is>
       </c>
       <c r="G75" s="4" t="inlineStr">
         <is>
-          <t>Official development assistance as a proportion of gross national income</t>
+          <t>Corruption Perceptions Index in Germany</t>
         </is>
       </c>
       <c r="H75" s="4" t="inlineStr">
         <is>
-          <t>Steigerung des Anteils auf 0,7 % des  Bruttonationaleinkommens bis 2030</t>
+          <t>Verbesserung gegenüber 2012 bis 2030</t>
         </is>
       </c>
       <c r="I75" s="4" t="inlineStr">
         <is>
-          <t>Increase the proportion to 0.7 % of gross national income by 2030</t>
+          <t>Improvement by 2030, compared to 2012</t>
         </is>
       </c>
       <c r="J75" s="4" t="inlineStr">
         <is>
-          <t>Steigerung des Anteils auf 0,7 % des BNE bis 2030</t>
+          <t>Verbesserung bis 2030</t>
         </is>
       </c>
       <c r="K75" s="4" t="inlineStr">
         <is>
-          <t>increase to 0.7 % of GNI by 2030</t>
+          <t>improvement by 2030</t>
         </is>
       </c>
       <c r="L75" s="4" t="inlineStr">
         <is>
-          <t>Anteil öffentlicher Entwicklungsausgaben am Bruttonationaleinkommen</t>
+          <t>Corruption Perception Index in Deutschland</t>
         </is>
       </c>
       <c r="M75" s="4" t="inlineStr">
         <is>
-          <t>Official development assistance as a proportion of gross national income</t>
+          <t>Corruption Perception Index in Germany</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="76">
       <c r="A76" s="4" t="inlineStr">
         <is>
-          <t>Z17_B02_P01_Ib01_I01</t>
+          <t>Z16_B03_P01_Ib01_I02</t>
         </is>
       </c>
       <c r="B76" s="4" t="inlineStr">
         <is>
-          <t>Z17_B02_P01_Ib01</t>
+          <t>Z16_B03_P01_Ib01</t>
         </is>
       </c>
       <c r="C76" s="4" t="inlineStr">
         <is>
-          <t>17.2</t>
+          <t>16.3.b</t>
         </is>
       </c>
       <c r="D76" s="4" t="inlineStr">
         <is>
-          <t>Studierende und Forschende aus Entwicklungslenländern und LDCs</t>
+          <t>b) CPI  Partnerländer</t>
         </is>
       </c>
       <c r="E76" s="4" t="inlineStr">
         <is>
-          <t>Students and researchers from developing countries and LDCs</t>
+          <t>b) CPI Partner countries</t>
         </is>
       </c>
       <c r="F76" s="4" t="inlineStr">
         <is>
-          <t>Anzahl der Studierenden und Forschenden aus Entwicklungsländern sowie aus am wenigsten entwickelten Ländern pro Jahr</t>
+          <t>Corruption Perception Index in den Partnerländern der deutschen Entwicklungszusammenarbeit</t>
         </is>
       </c>
       <c r="G76" s="4" t="inlineStr">
         <is>
-          <t>Number of students and researchers from developing countries and least developed countries per year</t>
+          <t>Corruption Perceptions Index in partner countries for German development cooperation</t>
         </is>
       </c>
       <c r="H76" s="4" t="inlineStr">
         <is>
-          <t>Steigerung der Anzahl um 10 % von 2015 bis 2020, anschließend Verstetigung</t>
+          <t>Verbesserung gegenüber 2012 bis 2030</t>
         </is>
       </c>
       <c r="I76" s="4" t="inlineStr">
         <is>
-          <t>Increase the number by 10 % from 2015 to 2020, then stabilised</t>
+          <t>Improvement by 2030, compared to 2012</t>
         </is>
       </c>
       <c r="J76" s="4" t="inlineStr">
         <is>
-          <t>Steigerung um 10 % von 2015 bis 2020, anschließend Verstetigung</t>
+          <t>Verbesserung bis 2030</t>
         </is>
       </c>
       <c r="K76" s="4" t="inlineStr">
         <is>
-          <t>increase by 10 % from 2015 to 2020, then stabilised</t>
+          <t>improvement by 2030</t>
         </is>
       </c>
       <c r="L76" s="4" t="inlineStr">
         <is>
-          <t>Anzahl der Studierenden und Forschenden aus Entwicklungsländern sowie aus am wenigsten entwickelten Ländern pro Jahr</t>
+          <t>Anzahl der Partnerländer deutscher Entwicklungszusammenarbeit, deren Bewertung sich gegenüber 2012 verbessert hat</t>
         </is>
       </c>
       <c r="M76" s="4" t="inlineStr">
         <is>
-          <t>Number of students and researchers from developing countries and least developed countries per year</t>
+          <t>Number of partner countries for German development cooperation with improved CPI scores compared with 2012</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="77">
       <c r="A77" s="4" t="inlineStr">
         <is>
-          <t>Z17_B03_P01_Ib01_I01</t>
+          <t>Z17_B01_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B77" s="4" t="inlineStr">
         <is>
-          <t>Z17_B03_P01_Ib01</t>
+          <t>Z17_B01_P01_Ib01</t>
         </is>
       </c>
       <c r="C77" s="4" t="inlineStr">
         <is>
-          <t>17.3</t>
+          <t>17.1</t>
         </is>
       </c>
       <c r="D77" s="4" t="inlineStr">
         <is>
-          <t>Einfuhren aus LDCs</t>
+          <t>Entwicklungsausgaben</t>
         </is>
       </c>
       <c r="E77" s="4" t="inlineStr">
         <is>
-          <t>Imports coming from LDCs</t>
+          <t>Development assistance</t>
         </is>
       </c>
       <c r="F77" s="4" t="inlineStr">
         <is>
-          <t>Einfuhren aus am wenigsten entwickelten Ländern</t>
+          <t>Anteil öffentlicher Entwicklungsausgaben am Bruttonationaleinkommen</t>
         </is>
       </c>
       <c r="G77" s="4" t="inlineStr">
         <is>
-          <t>Imports from least developed countries</t>
+          <t>Official development assistance as a proportion of gross national income</t>
         </is>
       </c>
       <c r="H77" s="4" t="inlineStr">
         <is>
-          <t>Steigerung des Anteils um 100 % bis 2030 gegenüber 2014</t>
+          <t>Steigerung des Anteils auf 0,7 % des  Bruttonationaleinkommens bis 2030</t>
         </is>
       </c>
       <c r="I77" s="4" t="inlineStr">
         <is>
-          <t>Increase the proportion by 100 % by 2030, compared to 2014</t>
+          <t>Increase the proportion to 0.7 % of gross national income by 2030</t>
         </is>
       </c>
       <c r="J77" s="4" t="inlineStr">
         <is>
-          <t>Steigerung des Anteils um 100 % bis 2030 gegenüber 2014</t>
+          <t>Steigerung des Anteils auf 0,7 % des BNE bis 2030</t>
         </is>
       </c>
       <c r="K77" s="4" t="inlineStr">
         <is>
-          <t>increase by 100 % by 2030 compared to 2014</t>
+          <t>increase to 0.7 % of GNI by 2030</t>
         </is>
       </c>
       <c r="L77" s="4" t="inlineStr">
         <is>
-          <t>Einfuhren aus am wenigsten entwickelten Ländern</t>
+          <t>Anteil öffentlicher Entwicklungsausgaben am Bruttonationaleinkommen</t>
         </is>
       </c>
       <c r="M77" s="4" t="inlineStr">
         <is>
-          <t>Imports from least developed countries</t>
+          <t>Official development assistance as a proportion of gross national income</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="78">
       <c r="A78" s="4" t="inlineStr">
         <is>
-          <t>Z03_B04_P01_Ib01_I01</t>
+          <t>Z17_B02_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B78" s="4" t="inlineStr">
         <is>
-          <t>Z03_B04_P01_Ib01</t>
+          <t>Z17_B02_P01_Ib01</t>
         </is>
       </c>
       <c r="C78" s="4" t="inlineStr">
         <is>
-          <t>3.4.a</t>
+          <t>17.2</t>
         </is>
       </c>
       <c r="D78" s="4" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Studierende und Forschende aus Entwicklungslenländern und LDCs</t>
         </is>
       </c>
       <c r="E78" s="4" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Students and researchers from developing countries and LDCs</t>
         </is>
       </c>
       <c r="F78" s="4" t="inlineStr">
         <is>
-          <t>Unterschied in der Lebenserwartung zwischen sozio-ökonomisch deprivierten und wohlhabenden Regionen (Frauen)</t>
+          <t>Anzahl der Studierenden und Forschenden aus Entwicklungsländern sowie aus am wenigsten entwickelten Ländern pro Jahr</t>
         </is>
       </c>
       <c r="G78" s="4" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Number of students and researchers from developing countries and least developed countries per year</t>
         </is>
       </c>
       <c r="H78" s="4" t="inlineStr">
         <is>
-          <t>Rückgang des Unterschieds in der mittleren Lebenserwartung von Frauen zwischen deprivierten und wohlhabenden Regionen bei gleichzeitigem Anstieg der Lebenserwartung von Frauen in deprivierten Regionen</t>
+          <t>Steigerung der Anzahl um 10 % von 2015 bis 2020, anschließend Verstetigung</t>
         </is>
       </c>
       <c r="I78" s="4" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Increase the number by 10 % from 2015 to 2020, then stabilised</t>
         </is>
       </c>
       <c r="J78" s="4" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Steigerung um 10 % von 2015 bis 2020, anschließend Verstetigung</t>
         </is>
       </c>
       <c r="K78" s="4" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>increase by 10 % from 2015 to 2020, then stabilised</t>
         </is>
       </c>
       <c r="L78" s="4" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Anzahl der Studierenden und Forschenden aus Entwicklungsländern sowie aus am wenigsten entwickelten Ländern pro Jahr</t>
         </is>
       </c>
       <c r="M78" s="4" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Number of students and researchers from developing countries and least developed countries per year</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="79">
       <c r="A79" s="4" t="inlineStr">
         <is>
-          <t>Z03_B04_P01_Ib01_I02</t>
+          <t>Z17_B03_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B79" s="4" t="inlineStr">
         <is>
-          <t>Z03_B04_P01_Ib01</t>
+          <t>Z17_B03_P01_Ib01</t>
         </is>
       </c>
       <c r="C79" s="4" t="inlineStr">
         <is>
-          <t>3.4.b</t>
+          <t>17.3</t>
         </is>
       </c>
       <c r="D79" s="4" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Einfuhren aus LDCs</t>
         </is>
       </c>
       <c r="E79" s="4" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Imports coming from LDCs</t>
         </is>
       </c>
       <c r="F79" s="4" t="inlineStr">
         <is>
-          <t>Unterschied in der Lebenserwartung zwischen sozio-ökonomisch deprivierten und wohlhabenden Regionen (Männer)</t>
+          <t>Einfuhren aus am wenigsten entwickelten Ländern</t>
         </is>
       </c>
       <c r="G79" s="4" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Imports from least developed countries</t>
         </is>
       </c>
       <c r="H79" s="4" t="inlineStr">
         <is>
-          <t>Rückgang des Unterschieds in der mittleren Lebenserwartung von Männern zwischen deprivierten und wohlhabenden Regionen bei gleichzeitigem Anstieg der Lebenserwartung von Frauen in deprivierten Regionen</t>
+          <t>Steigerung des Anteils um 100 % bis 2030 gegenüber 2014</t>
         </is>
       </c>
       <c r="I79" s="4" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Increase the proportion by 100 % by 2030, compared to 2014</t>
         </is>
       </c>
       <c r="J79" s="4" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Steigerung des Anteils um 100 % bis 2030 gegenüber 2014</t>
         </is>
       </c>
       <c r="K79" s="4" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>increase by 100 % by 2030 compared to 2014</t>
         </is>
       </c>
       <c r="L79" s="4" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Einfuhren aus am wenigsten entwickelten Ländern</t>
         </is>
       </c>
       <c r="M79" s="4" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Imports from least developed countries</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="80">
+      <c r="A80" s="4" t="inlineStr">
+        <is>
+          <t>Z04_B01_P02_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="B80" s="4" t="inlineStr">
+        <is>
+          <t>Z04_B01_P02_Ib01</t>
+        </is>
+      </c>
+      <c r="C80" s="4" t="inlineStr">
+        <is>
+          <t>4.1.c</t>
+        </is>
+      </c>
+      <c r="D80" s="4" t="inlineStr">
+        <is>
+          <t>Schulen mit BNE-Label</t>
+        </is>
+      </c>
+      <c r="E80" s="4" t="inlineStr">
+        <is>
+          <t>XXX</t>
+        </is>
+      </c>
+      <c r="F80" s="4" t="inlineStr">
+        <is>
+          <t>Schulen mit BNE-Label (Bildung für nachhaltige Entwicklung)</t>
+        </is>
+      </c>
+      <c r="G80" s="4" t="inlineStr">
+        <is>
+          <t>XXX</t>
+        </is>
+      </c>
+      <c r="H80" s="4" t="inlineStr">
+        <is>
+          <t>Kontinuierlicher Anstieg</t>
+        </is>
+      </c>
+      <c r="I80" s="4" t="inlineStr">
+        <is>
+          <t>XXX</t>
+        </is>
+      </c>
+      <c r="J80" s="4" t="inlineStr">
+        <is>
+          <t>Kontinuierlicher Anstieg</t>
+        </is>
+      </c>
+      <c r="K80" s="4" t="inlineStr">
+        <is>
+          <t>XXX</t>
+        </is>
+      </c>
+      <c r="L80" s="4" t="inlineStr">
+        <is>
+          <t>Schulen mit BNE-Label</t>
+        </is>
+      </c>
+      <c r="M80" s="4" t="inlineStr">
+        <is>
+          <t>XXX</t>
         </is>
       </c>
     </row>

--- a/Tab_5a_Indikatoren.xlsx
+++ b/Tab_5a_Indikatoren.xlsx
@@ -1734,74 +1734,74 @@
     <row outlineLevel="0" r="20">
       <c r="A20" s="4" t="inlineStr">
         <is>
-          <t>Z04_B02_P01_Ib01_I01</t>
+          <t>Z04_B01_P02_Ib01_I01</t>
         </is>
       </c>
       <c r="B20" s="4" t="inlineStr">
         <is>
-          <t>Z04_B02_P01_Ib01</t>
+          <t>Z04_B01_P02_Ib01</t>
         </is>
       </c>
       <c r="C20" s="4" t="inlineStr">
         <is>
-          <t>4.2.a</t>
+          <t>4.1.c</t>
         </is>
       </c>
       <c r="D20" s="4" t="inlineStr">
         <is>
-          <t>a) 0- bis 2-Jährige</t>
+          <t>Schulen mit BNE-Label</t>
         </is>
       </c>
       <c r="E20" s="4" t="inlineStr">
         <is>
-          <t>a) 0 to 2-year-olds</t>
+          <t>XXX</t>
         </is>
       </c>
       <c r="F20" s="4" t="inlineStr">
         <is>
-          <t>Ganztagsbetreuung für Kinder &lt;br&gt;0- bis 2-Jährige</t>
+          <t>Schulen mit BNE-Label (Bildung für nachhaltige Entwicklung)</t>
         </is>
       </c>
       <c r="G20" s="4" t="inlineStr">
         <is>
-          <t>All-day care provision for 0 to 2-year-old children</t>
+          <t>XXX</t>
         </is>
       </c>
       <c r="H20" s="4" t="inlineStr">
         <is>
-          <t>Anstieg auf 35 % bis 2030</t>
+          <t>Kontinuierlicher Anstieg</t>
         </is>
       </c>
       <c r="I20" s="4" t="inlineStr">
         <is>
-          <t>Increase to 35 % by 2030</t>
+          <t>XXX</t>
         </is>
       </c>
       <c r="J20" s="4" t="inlineStr">
         <is>
-          <t>Anstieg auf 35 % bis 2030</t>
+          <t>Kontinuierlicher Anstieg</t>
         </is>
       </c>
       <c r="K20" s="4" t="inlineStr">
         <is>
-          <t>increase to 35 % by 2030</t>
+          <t>XXX</t>
         </is>
       </c>
       <c r="L20" s="4" t="inlineStr">
         <is>
-          <t>Ganztagsbetreuung für Kinder &lt;br&gt;0- bis 2-Jährige</t>
+          <t>Schulen mit BNE-Label</t>
         </is>
       </c>
       <c r="M20" s="4" t="inlineStr">
         <is>
-          <t>All-day care provision for 0 to 2-year-old children</t>
+          <t>XXX</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="21">
       <c r="A21" s="4" t="inlineStr">
         <is>
-          <t>Z04_B02_P01_Ib01_I02</t>
+          <t>Z04_B02_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B21" s="4" t="inlineStr">
@@ -1811,198 +1811,198 @@
       </c>
       <c r="C21" s="4" t="inlineStr">
         <is>
-          <t>4.2.b</t>
+          <t>4.2.a</t>
         </is>
       </c>
       <c r="D21" s="4" t="inlineStr">
         <is>
-          <t>b) 3- bis 5-Jährige</t>
+          <t>a) 0- bis 2-Jährige</t>
         </is>
       </c>
       <c r="E21" s="4" t="inlineStr">
         <is>
-          <t>b) 3 to 5-year-olds</t>
+          <t>a) 0 to 2-year-olds</t>
         </is>
       </c>
       <c r="F21" s="4" t="inlineStr">
         <is>
-          <t>Ganztagsbetreuung für Kinder &lt;br&gt;3- bis 5-Jährige</t>
+          <t>Ganztagsbetreuung für Kinder &lt;br&gt;0- bis 2-Jährige</t>
         </is>
       </c>
       <c r="G21" s="4" t="inlineStr">
         <is>
-          <t>All-day care provision for 3 to 5-year-old children</t>
+          <t>All-day care provision for 0 to 2-year-old children</t>
         </is>
       </c>
       <c r="H21" s="4" t="inlineStr">
         <is>
-          <t>Anstieg auf 70 % bis 2030</t>
+          <t>Anstieg auf 35 % bis 2030</t>
         </is>
       </c>
       <c r="I21" s="4" t="inlineStr">
         <is>
-          <t>Increase to 70 % by 2030</t>
+          <t>Increase to 35 % by 2030</t>
         </is>
       </c>
       <c r="J21" s="4" t="inlineStr">
         <is>
-          <t>Anstieg auf 70 % bis 2030</t>
+          <t>Anstieg auf 35 % bis 2030</t>
         </is>
       </c>
       <c r="K21" s="4" t="inlineStr">
         <is>
-          <t>increase to 70 % by 2030</t>
+          <t>increase to 35 % by 2030</t>
         </is>
       </c>
       <c r="L21" s="4" t="inlineStr">
         <is>
-          <t>Ganztagsbetreuung für Kinder &lt;br&gt;3- bis 5-Jährige</t>
+          <t>Ganztagsbetreuung für Kinder &lt;br&gt;0- bis 2-Jährige</t>
         </is>
       </c>
       <c r="M21" s="4" t="inlineStr">
         <is>
-          <t>All-day care provision for 3 to 5-year-old children</t>
+          <t>All-day care provision for 0 to 2-year-old children</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="22">
       <c r="A22" s="4" t="inlineStr">
         <is>
-          <t>Z05_B01_P01_Ib01_I01</t>
+          <t>Z04_B02_P01_Ib01_I02</t>
         </is>
       </c>
       <c r="B22" s="4" t="inlineStr">
         <is>
-          <t>Z05_B01_P01_Ib01</t>
+          <t>Z04_B02_P01_Ib01</t>
         </is>
       </c>
       <c r="C22" s="4" t="inlineStr">
         <is>
-          <t>5.1.a</t>
+          <t>4.2.b</t>
         </is>
       </c>
       <c r="D22" s="4" t="inlineStr">
         <is>
-          <t>Gender Pay Gap</t>
+          <t>b) 3- bis 5-Jährige</t>
         </is>
       </c>
       <c r="E22" s="4" t="inlineStr">
         <is>
-          <t>Gender Pay Gap</t>
+          <t>b) 3 to 5-year-olds</t>
         </is>
       </c>
       <c r="F22" s="4" t="inlineStr">
         <is>
-          <t>Verdienstabstand zwischen Frauen und Männern</t>
+          <t>Ganztagsbetreuung für Kinder &lt;br&gt;3- bis 5-Jährige</t>
         </is>
       </c>
       <c r="G22" s="4" t="inlineStr">
         <is>
-          <t>Gender pay gap</t>
+          <t>All-day care provision for 3 to 5-year-old children</t>
         </is>
       </c>
       <c r="H22" s="4" t="inlineStr">
         <is>
-          <t>Verringerung des Abstandes auf 10 % bis 2020, Beibehaltung bis 2030</t>
+          <t>Anstieg auf 70 % bis 2030</t>
         </is>
       </c>
       <c r="I22" s="4" t="inlineStr">
         <is>
-          <t>Reduce the gap to 10 % by 2020, maintained until 2030 subsequently</t>
+          <t>Increase to 70 % by 2030</t>
         </is>
       </c>
       <c r="J22" s="4" t="inlineStr">
         <is>
-          <t>Beibehaltung von maximal 10 % bis 2030</t>
+          <t>Anstieg auf 70 % bis 2030</t>
         </is>
       </c>
       <c r="K22" s="4" t="inlineStr">
         <is>
-          <t>maintaine a maximum of 10 % by 2030</t>
+          <t>increase to 70 % by 2030</t>
         </is>
       </c>
       <c r="L22" s="4" t="inlineStr">
         <is>
-          <t>Verdienstabstand zwischen Frauen und Männern</t>
+          <t>Ganztagsbetreuung für Kinder &lt;br&gt;3- bis 5-Jährige</t>
         </is>
       </c>
       <c r="M22" s="4" t="inlineStr">
         <is>
-          <t>Gender pay gap</t>
+          <t>All-day care provision for 3 to 5-year-old children</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="23">
       <c r="A23" s="4" t="inlineStr">
         <is>
-          <t>Z05_B01_P01_Ib02_I01</t>
+          <t>Z05_B01_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B23" s="4" t="inlineStr">
         <is>
-          <t>Z05_B01_P01_Ib02</t>
+          <t>Z05_B01_P01_Ib01</t>
         </is>
       </c>
       <c r="C23" s="4" t="inlineStr">
         <is>
-          <t>5.1.b</t>
+          <t>5.1.a</t>
         </is>
       </c>
       <c r="D23" s="4" t="inlineStr">
         <is>
-          <t>b) Wirtschaft</t>
+          <t>Gender Pay Gap</t>
         </is>
       </c>
       <c r="E23" s="4" t="inlineStr">
         <is>
-          <t>b) Business</t>
+          <t>Gender Pay Gap</t>
         </is>
       </c>
       <c r="F23" s="4" t="inlineStr">
         <is>
-          <t>Frauen in Führungspositionen in der Wirtschaft</t>
+          <t>Verdienstabstand zwischen Frauen und Männern</t>
         </is>
       </c>
       <c r="G23" s="4" t="inlineStr">
         <is>
-          <t>Women in management positions in business</t>
+          <t>Gender pay gap</t>
         </is>
       </c>
       <c r="H23" s="4" t="inlineStr">
         <is>
-          <t>30 % Frauen in Aufsichtsräten der börsennotierten und paritätisch mitbestimmten Unternehmen bis 2030</t>
+          <t>Verringerung des Abstandes auf 10 % bis 2020, Beibehaltung bis 2030</t>
         </is>
       </c>
       <c r="I23" s="4" t="inlineStr">
         <is>
-          <t>30 % women on supervisory boards of listed and fully co-determined companies by 2030</t>
+          <t>Reduce the gap to 10 % by 2020, maintained until 2030 subsequently</t>
         </is>
       </c>
       <c r="J23" s="4" t="inlineStr">
         <is>
-          <t>30 % Frauen in Aufsichtsräten bis 2030</t>
+          <t>Beibehaltung von maximal 10 % bis 2030</t>
         </is>
       </c>
       <c r="K23" s="4" t="inlineStr">
         <is>
-          <t>30% women on supervisory boards by 2030</t>
+          <t>maintaine a maximum of 10 % by 2030</t>
         </is>
       </c>
       <c r="L23" s="4" t="inlineStr">
         <is>
-          <t>In Aufsichtsräten der börsennotierten und paritätisch mitbestimmten Unternehmen</t>
+          <t>Verdienstabstand zwischen Frauen und Männern</t>
         </is>
       </c>
       <c r="M23" s="4" t="inlineStr">
         <is>
-          <t>On supervisory boards of listed and fully co-determined companies</t>
+          <t>Gender pay gap</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="24">
       <c r="A24" s="4" t="inlineStr">
         <is>
-          <t>Z05_B01_P01_Ib02_I02</t>
+          <t>Z05_B01_P01_Ib02_I01</t>
         </is>
       </c>
       <c r="B24" s="4" t="inlineStr">
@@ -2012,399 +2012,399 @@
       </c>
       <c r="C24" s="4" t="inlineStr">
         <is>
-          <t>5.1.c</t>
+          <t>5.1.b</t>
         </is>
       </c>
       <c r="D24" s="4" t="inlineStr">
         <is>
-          <t>c) Öffentlicher Dienst des Bundes</t>
+          <t>b) Wirtschaft</t>
         </is>
       </c>
       <c r="E24" s="4" t="inlineStr">
         <is>
-          <t>c) Federal civil service</t>
+          <t>b) Business</t>
         </is>
       </c>
       <c r="F24" s="4" t="inlineStr">
         <is>
-          <t>Frauen in Führungspositionen im öffentlichen Dienst des Bundes</t>
+          <t>Frauen in Führungspositionen in der Wirtschaft</t>
         </is>
       </c>
       <c r="G24" s="4" t="inlineStr">
         <is>
-          <t>Women in management positions in the federal civil service</t>
+          <t>Women in management positions in business</t>
         </is>
       </c>
       <c r="H24" s="4" t="inlineStr">
         <is>
-          <t>Gleichberechtigte Teilhabe von Frauen und Männern in Leitungsfunktionen des öffentlichen Dienstes bis 2025</t>
+          <t>30 % Frauen in Aufsichtsräten der börsennotierten und paritätisch mitbestimmten Unternehmen bis 2030</t>
         </is>
       </c>
       <c r="I24" s="4" t="inlineStr">
         <is>
-          <t>Equal-opportunity participation of women and men in civil service management positions by 2025</t>
+          <t>30 % women on supervisory boards of listed and fully co-determined companies by 2030</t>
         </is>
       </c>
       <c r="J24" s="4" t="inlineStr">
         <is>
-          <t>gleichberechtigte Teilhabe bis 2025</t>
+          <t>30 % Frauen in Aufsichtsräten bis 2030</t>
         </is>
       </c>
       <c r="K24" s="4" t="inlineStr">
         <is>
-          <t>equal-opportunity participation by 2025</t>
+          <t>30% women on supervisory boards by 2030</t>
         </is>
       </c>
       <c r="L24" s="4" t="inlineStr">
         <is>
-          <t>Im öffentlichen Dienst des Bundes</t>
+          <t>In Aufsichtsräten der börsennotierten und paritätisch mitbestimmten Unternehmen</t>
         </is>
       </c>
       <c r="M24" s="4" t="inlineStr">
         <is>
-          <t>In management positions in the federal civil service</t>
+          <t>On supervisory boards of listed and fully co-determined companies</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="25">
       <c r="A25" s="4" t="inlineStr">
         <is>
-          <t>Z05_B01_P01_Ib03_I01</t>
+          <t>Z05_B01_P01_Ib02_I02</t>
         </is>
       </c>
       <c r="B25" s="4" t="inlineStr">
         <is>
-          <t>Z05_B01_P01_Ib03</t>
+          <t>Z05_B01_P01_Ib02</t>
         </is>
       </c>
       <c r="C25" s="4" t="inlineStr">
         <is>
-          <t>5.1.d</t>
+          <t>5.1.c</t>
         </is>
       </c>
       <c r="D25" s="4" t="inlineStr">
         <is>
-          <t>Väterbeteiligung beim Elterngeld</t>
+          <t>c) Öffentlicher Dienst des Bundes</t>
         </is>
       </c>
       <c r="E25" s="4" t="inlineStr">
         <is>
-          <t>Fathers receiving parental allowance</t>
+          <t>c) Federal civil service</t>
         </is>
       </c>
       <c r="F25" s="4" t="inlineStr">
         <is>
-          <t>Väterbeteiligung beim Elterngeld</t>
+          <t>Frauen in Führungspositionen im öffentlichen Dienst des Bundes</t>
         </is>
       </c>
       <c r="G25" s="4" t="inlineStr">
         <is>
-          <t>Proportion of fathers receiving parental allowance</t>
+          <t>Women in management positions in the federal civil service</t>
         </is>
       </c>
       <c r="H25" s="4" t="inlineStr">
         <is>
-          <t>65 % bis 2030</t>
+          <t>Gleichberechtigte Teilhabe von Frauen und Männern in Leitungsfunktionen des öffentlichen Dienstes bis 2025</t>
         </is>
       </c>
       <c r="I25" s="4" t="inlineStr">
         <is>
-          <t>65 % by 2030</t>
+          <t>Equal-opportunity participation of women and men in civil service management positions by 2025</t>
         </is>
       </c>
       <c r="J25" s="4" t="inlineStr">
         <is>
-          <t>65 % bis 2030</t>
+          <t>gleichberechtigte Teilhabe bis 2025</t>
         </is>
       </c>
       <c r="K25" s="4" t="inlineStr">
         <is>
-          <t>65 % by 2030</t>
+          <t>equal-opportunity participation by 2025</t>
         </is>
       </c>
       <c r="L25" s="4" t="inlineStr">
         <is>
-          <t>Väterbeteiligung beim Elterngeld</t>
+          <t>Im öffentlichen Dienst des Bundes</t>
         </is>
       </c>
       <c r="M25" s="4" t="inlineStr">
         <is>
-          <t>Proportion of fathers receiving parental allowance</t>
+          <t>In management positions in the federal civil service</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="26">
       <c r="A26" s="4" t="inlineStr">
         <is>
-          <t>Z05_B01_P02_Ib01_I01</t>
+          <t>Z05_B01_P01_Ib03_I01</t>
         </is>
       </c>
       <c r="B26" s="4" t="inlineStr">
         <is>
-          <t>Z05_B01_P02_Ib01</t>
+          <t>Z05_B01_P01_Ib03</t>
         </is>
       </c>
       <c r="C26" s="4" t="inlineStr">
         <is>
-          <t>5.1.e</t>
+          <t>5.1.d</t>
         </is>
       </c>
       <c r="D26" s="4" t="inlineStr">
         <is>
-          <t>Berufliche Qualifizierung von Frauen und Mädchen durch Entwicklungszusammenarbeit</t>
+          <t>Väterbeteiligung beim Elterngeld</t>
         </is>
       </c>
       <c r="E26" s="4" t="inlineStr">
         <is>
-          <t>Vocational qualifications of women and girls through development coopreation</t>
+          <t>Fathers receiving parental allowance</t>
         </is>
       </c>
       <c r="F26" s="4" t="inlineStr">
         <is>
-          <t>Berufliche Qualifizierung von Frauen und Mädchen durch deutsche entwicklungspolitische Zusammenarbeit</t>
+          <t>Väterbeteiligung beim Elterngeld</t>
         </is>
       </c>
       <c r="G26" s="4" t="inlineStr">
         <is>
-          <t>Vocational qualifications of women and girls through German development assistance</t>
+          <t>Proportion of fathers receiving parental allowance</t>
         </is>
       </c>
       <c r="H26" s="4" t="inlineStr">
         <is>
-          <t>Sukzessive Steigerung bis 2030 um ein Drittel verglichen mit Basisjahr 2015</t>
+          <t>65 % bis 2030</t>
         </is>
       </c>
       <c r="I26" s="4" t="inlineStr">
         <is>
-          <t>To be increased gradually by a third by 2030 compared to 2015 as the base year</t>
+          <t>65 % by 2030</t>
         </is>
       </c>
       <c r="J26" s="4" t="inlineStr">
         <is>
-          <t>Steigerung um ein Drittel bis 2030</t>
+          <t>65 % bis 2030</t>
         </is>
       </c>
       <c r="K26" s="4" t="inlineStr">
         <is>
-          <t>to be increased by a third by 2030</t>
+          <t>65 % by 2030</t>
         </is>
       </c>
       <c r="L26" s="4" t="inlineStr">
         <is>
-          <t>Berufliche Qualifizierung von Frauen und Mädchen durch deutsche entwicklungspolitische Zusammenarbeit</t>
+          <t>Väterbeteiligung beim Elterngeld</t>
         </is>
       </c>
       <c r="M26" s="4" t="inlineStr">
         <is>
-          <t>Vocational qualifications of women and girls through German development cooperation</t>
+          <t>Proportion of fathers receiving parental allowance</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="27">
       <c r="A27" s="4" t="inlineStr">
         <is>
-          <t>Z06_B01_P01_Ib01_I01</t>
+          <t>Z05_B01_P02_Ib01_I01</t>
         </is>
       </c>
       <c r="B27" s="4" t="inlineStr">
         <is>
-          <t>Z06_B01_P01_Ib01</t>
+          <t>Z05_B01_P02_Ib01</t>
         </is>
       </c>
       <c r="C27" s="4" t="inlineStr">
         <is>
-          <t>6.1.a</t>
+          <t>5.1.e</t>
         </is>
       </c>
       <c r="D27" s="4" t="inlineStr">
         <is>
-          <t>Phosphor in Fließgewässern</t>
+          <t>Berufliche Qualifizierung von Frauen und Mädchen durch Entwicklungszusammenarbeit</t>
         </is>
       </c>
       <c r="E27" s="4" t="inlineStr">
         <is>
-          <t>Phosphorous in flowing waters</t>
+          <t>Vocational qualifications of women and girls through development coopreation</t>
         </is>
       </c>
       <c r="F27" s="4" t="inlineStr">
         <is>
-          <t>Phosphor in Fließgewässern</t>
+          <t>Berufliche Qualifizierung von Frauen und Mädchen durch deutsche entwicklungspolitische Zusammenarbeit</t>
         </is>
       </c>
       <c r="G27" s="4" t="inlineStr">
         <is>
-          <t>Phosphorous in flowing waters</t>
+          <t>Vocational qualifications of women and girls through German development assistance</t>
         </is>
       </c>
       <c r="H27" s="4" t="inlineStr">
         <is>
-          <t>Einhaltung oder Unterschreitung der gewässertypischen Orientierungswerte an allen Messstellen bis 2030</t>
+          <t>Sukzessive Steigerung bis 2030 um ein Drittel verglichen mit Basisjahr 2015</t>
         </is>
       </c>
       <c r="I27" s="4" t="inlineStr">
         <is>
-          <t>Not exceeding benchmark values for specific types of water bodies at all monitoring points by 2030</t>
+          <t>To be increased gradually by a third by 2030 compared to 2015 as the base year</t>
         </is>
       </c>
       <c r="J27" s="4" t="inlineStr">
         <is>
-          <t>Einhaltung oder Unterschreitung der Orientierungswerte bis 2030</t>
+          <t>Steigerung um ein Drittel bis 2030</t>
         </is>
       </c>
       <c r="K27" s="4" t="inlineStr">
         <is>
-          <t>not exceeding benchmark values by 2030</t>
+          <t>to be increased by a third by 2030</t>
         </is>
       </c>
       <c r="L27" s="4" t="inlineStr">
         <is>
-          <t>Phosphor in Fließgewässern</t>
+          <t>Berufliche Qualifizierung von Frauen und Mädchen durch deutsche entwicklungspolitische Zusammenarbeit</t>
         </is>
       </c>
       <c r="M27" s="4" t="inlineStr">
         <is>
-          <t>Phosphorous in flowing waters</t>
+          <t>Vocational qualifications of women and girls through German development cooperation</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="28">
       <c r="A28" s="4" t="inlineStr">
         <is>
-          <t>Z06_B01_P01_Ib02_I01</t>
+          <t>Z06_B01_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B28" s="4" t="inlineStr">
         <is>
-          <t>Z06_B01_P01_Ib02</t>
+          <t>Z06_B01_P01_Ib01</t>
         </is>
       </c>
       <c r="C28" s="4" t="inlineStr">
         <is>
-          <t>6.1.b</t>
+          <t>6.1.a</t>
         </is>
       </c>
       <c r="D28" s="4" t="inlineStr">
         <is>
-          <t>Nitrat im Grundwasser</t>
+          <t>Phosphor in Fließgewässern</t>
         </is>
       </c>
       <c r="E28" s="4" t="inlineStr">
         <is>
-          <t>Nitrate in groundwater</t>
+          <t>Phosphorous in flowing waters</t>
         </is>
       </c>
       <c r="F28" s="4" t="inlineStr">
         <is>
-          <t>Nitrat im Grundwasser</t>
+          <t>Phosphor in Fließgewässern</t>
         </is>
       </c>
       <c r="G28" s="4" t="inlineStr">
         <is>
-          <t>Nitrate in groundwater</t>
+          <t>Phosphorous in flowing waters</t>
         </is>
       </c>
       <c r="H28" s="4" t="inlineStr">
         <is>
-          <t>Einhaltung des Nitrat Schwellenwertes von 50 Milligramm pro Liter an allen Messstellen bis 2030</t>
+          <t>Einhaltung oder Unterschreitung der gewässertypischen Orientierungswerte an allen Messstellen bis 2030</t>
         </is>
       </c>
       <c r="I28" s="4" t="inlineStr">
         <is>
-          <t>Compliance with the nitrate threshold value of 50 mg/l at all monitoring points by 2030</t>
+          <t>Not exceeding benchmark values for specific types of water bodies at all monitoring points by 2030</t>
         </is>
       </c>
       <c r="J28" s="4" t="inlineStr">
         <is>
-          <t>Einhaltung des Schwellenwertes von 50 mg/l bis 2030</t>
+          <t>Einhaltung oder Unterschreitung der Orientierungswerte bis 2030</t>
         </is>
       </c>
       <c r="K28" s="4" t="inlineStr">
         <is>
-          <t>compliance with the threshold value of 50 mg/l by 2030</t>
+          <t>not exceeding benchmark values by 2030</t>
         </is>
       </c>
       <c r="L28" s="4" t="inlineStr">
         <is>
-          <t>Nitrat im Grundwasser</t>
+          <t>Phosphor in Fließgewässern</t>
         </is>
       </c>
       <c r="M28" s="4" t="inlineStr">
         <is>
-          <t>Nitrate in groundwater</t>
+          <t>Phosphorous in flowing waters</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="29">
       <c r="A29" s="4" t="inlineStr">
         <is>
-          <t>Z06_B02_P01_Ib01_I01</t>
+          <t>Z06_B01_P01_Ib02_I01</t>
         </is>
       </c>
       <c r="B29" s="4" t="inlineStr">
         <is>
-          <t>Z06_B02_P01_Ib01</t>
+          <t>Z06_B01_P01_Ib02</t>
         </is>
       </c>
       <c r="C29" s="4" t="inlineStr">
         <is>
-          <t>6.2.a</t>
+          <t>6.1.b</t>
         </is>
       </c>
       <c r="D29" s="4" t="inlineStr">
         <is>
-          <t>a) Trinkwasserversorgung</t>
+          <t>Nitrat im Grundwasser</t>
         </is>
       </c>
       <c r="E29" s="4" t="inlineStr">
         <is>
-          <t>a) Access to drinking water</t>
+          <t>Nitrate in groundwater</t>
         </is>
       </c>
       <c r="F29" s="4" t="inlineStr">
         <is>
-          <t>Anzahl der Menschen, die einen neuen oder hochwertigeren Zugang zur Trinkwasserversorgung durch deutsche Unterstützung erhalten</t>
+          <t>Nitrat im Grundwasser</t>
         </is>
       </c>
       <c r="G29" s="4" t="inlineStr">
         <is>
-          <t>Number of people gaining first-time or upgraded access to drinking water owing to German support</t>
+          <t>Nitrate in groundwater</t>
         </is>
       </c>
       <c r="H29" s="4" t="inlineStr">
         <is>
-          <t>6 Millionen Menschen pro Jahr bis 2030</t>
+          <t>Einhaltung des Nitrat Schwellenwertes von 50 Milligramm pro Liter an allen Messstellen bis 2030</t>
         </is>
       </c>
       <c r="I29" s="4" t="inlineStr">
         <is>
-          <t>6 million people per year by 2030</t>
+          <t>Compliance with the nitrate threshold value of 50 mg/l at all monitoring points by 2030</t>
         </is>
       </c>
       <c r="J29" s="4" t="inlineStr">
         <is>
-          <t>6 Millionen Menschen pro Jahr bis 2030</t>
+          <t>Einhaltung des Schwellenwertes von 50 mg/l bis 2030</t>
         </is>
       </c>
       <c r="K29" s="4" t="inlineStr">
         <is>
-          <t>6 million people per year by 2030</t>
+          <t>compliance with the threshold value of 50 mg/l by 2030</t>
         </is>
       </c>
       <c r="L29" s="4" t="inlineStr">
         <is>
-          <t>Anzahl der Menschen, die einen neuen oder hochwertigeren Zugang zur Trinkwasserversorgung erhalten haben</t>
+          <t>Nitrat im Grundwasser</t>
         </is>
       </c>
       <c r="M29" s="4" t="inlineStr">
         <is>
-          <t>Number of people gaining first-time or upgraded access to drinking water</t>
+          <t>Nitrate in groundwater</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="30">
       <c r="A30" s="4" t="inlineStr">
         <is>
-          <t>Z06_B02_P01_Ib01_I02</t>
+          <t>Z06_B02_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B30" s="4" t="inlineStr">
@@ -2414,64 +2414,64 @@
       </c>
       <c r="C30" s="4" t="inlineStr">
         <is>
-          <t>6.2.b</t>
+          <t>6.2.a</t>
         </is>
       </c>
       <c r="D30" s="4" t="inlineStr">
         <is>
-          <t>b) Sanitärversorgung</t>
+          <t>a) Trinkwasserversorgung</t>
         </is>
       </c>
       <c r="E30" s="4" t="inlineStr">
         <is>
-          <t>b) Access to sanitation</t>
+          <t>a) Access to drinking water</t>
         </is>
       </c>
       <c r="F30" s="4" t="inlineStr">
         <is>
-          <t>Anzahl der Menschen, die einen neuen oder verbesserten Anschluss zur Sanitärversorgung durch deutsche Unterstützung erhalten</t>
+          <t>Anzahl der Menschen, die einen neuen oder hochwertigeren Zugang zur Trinkwasserversorgung durch deutsche Unterstützung erhalten</t>
         </is>
       </c>
       <c r="G30" s="4" t="inlineStr">
         <is>
-          <t>Number of people gaining first-time or improved access to sanitation owing to German support</t>
+          <t>Number of people gaining first-time or upgraded access to drinking water owing to German support</t>
         </is>
       </c>
       <c r="H30" s="4" t="inlineStr">
         <is>
-          <t>4 Millionen Menschen pro Jahr bis 2030</t>
+          <t>6 Millionen Menschen pro Jahr bis 2030</t>
         </is>
       </c>
       <c r="I30" s="4" t="inlineStr">
         <is>
-          <t>4 million people per year by 2030</t>
+          <t>6 million people per year by 2030</t>
         </is>
       </c>
       <c r="J30" s="4" t="inlineStr">
         <is>
-          <t>4 Millionen Menschen pro Jahr bis 2030</t>
+          <t>6 Millionen Menschen pro Jahr bis 2030</t>
         </is>
       </c>
       <c r="K30" s="4" t="inlineStr">
         <is>
-          <t>4 million people per year by 2030</t>
+          <t>6 million people per year by 2030</t>
         </is>
       </c>
       <c r="L30" s="4" t="inlineStr">
         <is>
-          <t>Anzahl der Menschen, die einen neuen oder verbesserten Anschluss zur Sanitärversorgung erhalten haben</t>
+          <t>Anzahl der Menschen, die einen neuen oder hochwertigeren Zugang zur Trinkwasserversorgung erhalten haben</t>
         </is>
       </c>
       <c r="M30" s="4" t="inlineStr">
         <is>
-          <t>Number of people gaining first-time or improved access to sanitation</t>
+          <t>Number of people gaining first-time or upgraded access to drinking water</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="31">
       <c r="A31" s="4" t="inlineStr">
         <is>
-          <t>Z06_B02_P01_Ib01_I03</t>
+          <t>Z06_B02_P01_Ib01_I02</t>
         </is>
       </c>
       <c r="B31" s="4" t="inlineStr">
@@ -2481,131 +2481,131 @@
       </c>
       <c r="C31" s="4" t="inlineStr">
         <is>
-          <t>6.2</t>
+          <t>6.2.b</t>
         </is>
       </c>
       <c r="D31" s="4" t="inlineStr">
         <is>
-          <t>Trinkwasser- und Sanitärversorgung</t>
+          <t>b) Sanitärversorgung</t>
         </is>
       </c>
       <c r="E31" s="4" t="inlineStr">
         <is>
-          <t>Access to drinking water and sanitation</t>
+          <t>b) Access to sanitation</t>
         </is>
       </c>
       <c r="F31" s="4" t="inlineStr">
         <is>
-          <t>Anzahl der Menschen, die einen neuen oder hochwertigeren Zugang zur Trinkwasserversorgung oder Anschluss zur Sanitärversorgung durch deutsche Unterstützung erhalten</t>
+          <t>Anzahl der Menschen, die einen neuen oder verbesserten Anschluss zur Sanitärversorgung durch deutsche Unterstützung erhalten</t>
         </is>
       </c>
       <c r="G31" s="4" t="inlineStr">
         <is>
-          <t>Number of people gaining first-time or upgraded access to drinking water or sanitation owing to German support</t>
+          <t>Number of people gaining first-time or improved access to sanitation owing to German support</t>
         </is>
       </c>
       <c r="H31" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>4 Millionen Menschen pro Jahr bis 2030</t>
         </is>
       </c>
       <c r="I31" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>4 million people per year by 2030</t>
         </is>
       </c>
       <c r="J31" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>4 Millionen Menschen pro Jahr bis 2030</t>
         </is>
       </c>
       <c r="K31" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>4 million people per year by 2030</t>
         </is>
       </c>
       <c r="L31" s="4" t="inlineStr">
         <is>
-          <t>Anzahl der Menschen, die einen neuen oder hochwertigeren Zugang zur Trinkwasserversorgung oder Anschluss zur Sanitärversorgung erhalten haben</t>
+          <t>Anzahl der Menschen, die einen neuen oder verbesserten Anschluss zur Sanitärversorgung erhalten haben</t>
         </is>
       </c>
       <c r="M31" s="4" t="inlineStr">
         <is>
-          <t>Number of people gaining first-time or upgraded access to drinking water or sanitation</t>
+          <t>Number of people gaining first-time or improved access to sanitation</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="32">
       <c r="A32" s="4" t="inlineStr">
         <is>
-          <t>Z07_B01_P01_Ib01_I01</t>
+          <t>Z06_B02_P01_Ib01_I03</t>
         </is>
       </c>
       <c r="B32" s="4" t="inlineStr">
         <is>
-          <t>Z07_B01_P01_Ib01</t>
+          <t>Z06_B02_P01_Ib01</t>
         </is>
       </c>
       <c r="C32" s="4" t="inlineStr">
         <is>
-          <t>7.1.a</t>
+          <t>6.2</t>
         </is>
       </c>
       <c r="D32" s="4" t="inlineStr">
         <is>
-          <t>a) Endenergieproduktivität</t>
+          <t>Trinkwasser- und Sanitärversorgung</t>
         </is>
       </c>
       <c r="E32" s="4" t="inlineStr">
         <is>
-          <t>a) Final energy productivity</t>
+          <t>Access to drinking water and sanitation</t>
         </is>
       </c>
       <c r="F32" s="4" t="inlineStr">
         <is>
-          <t>Endenergieproduktivität</t>
+          <t>Anzahl der Menschen, die einen neuen oder hochwertigeren Zugang zur Trinkwasserversorgung oder Anschluss zur Sanitärversorgung durch deutsche Unterstützung erhalten</t>
         </is>
       </c>
       <c r="G32" s="4" t="inlineStr">
         <is>
-          <t>Final energy productivity</t>
+          <t>Number of people gaining first-time or upgraded access to drinking water or sanitation owing to German support</t>
         </is>
       </c>
       <c r="H32" s="4" t="inlineStr">
         <is>
-          <t>Steigerung um 2,1 % pro Jahr im Zeitraum von 2008 – 2050</t>
+          <t/>
         </is>
       </c>
       <c r="I32" s="4" t="inlineStr">
         <is>
-          <t>Increase by 2.1 % per year from 2008 to 2050</t>
+          <t/>
         </is>
       </c>
       <c r="J32" s="4" t="inlineStr">
         <is>
-          <t>Steigerung um 2,1 % pro Jahr</t>
+          <t/>
         </is>
       </c>
       <c r="K32" s="4" t="inlineStr">
         <is>
-          <t>increase by 2.1 % per year</t>
+          <t/>
         </is>
       </c>
       <c r="L32" s="4" t="inlineStr">
         <is>
-          <t>Endenergieproduktivität</t>
+          <t>Anzahl der Menschen, die einen neuen oder hochwertigeren Zugang zur Trinkwasserversorgung oder Anschluss zur Sanitärversorgung erhalten haben</t>
         </is>
       </c>
       <c r="M32" s="4" t="inlineStr">
         <is>
-          <t>Final energy productivity</t>
+          <t>Number of people gaining first-time or upgraded access to drinking water or sanitation</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="33">
       <c r="A33" s="4" t="inlineStr">
         <is>
-          <t>Z07_B01_P01_Ib01_I02</t>
+          <t>Z07_B01_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B33" s="4" t="inlineStr">
@@ -2615,332 +2615,332 @@
       </c>
       <c r="C33" s="4" t="inlineStr">
         <is>
-          <t>7.1.b</t>
+          <t>7.1.a</t>
         </is>
       </c>
       <c r="D33" s="4" t="inlineStr">
         <is>
-          <t>b) Primärenergieverbrauch</t>
+          <t>a) Endenergieproduktivität</t>
         </is>
       </c>
       <c r="E33" s="4" t="inlineStr">
         <is>
-          <t>b) Primary energy consumption</t>
+          <t>a) Final energy productivity</t>
         </is>
       </c>
       <c r="F33" s="4" t="inlineStr">
         <is>
-          <t>Primärenergieverbrauch</t>
+          <t>Endenergieproduktivität</t>
         </is>
       </c>
       <c r="G33" s="4" t="inlineStr">
         <is>
-          <t>Primary energy consumption</t>
+          <t>Final energy productivity</t>
         </is>
       </c>
       <c r="H33" s="4" t="inlineStr">
         <is>
-          <t>Senkung um 20 % bis 2020, um 30 % bis 2030 und um 50 % bis 2050 jeweils gegenüber 2008</t>
+          <t>Steigerung um 2,1 % pro Jahr im Zeitraum von 2008 – 2050</t>
         </is>
       </c>
       <c r="I33" s="4" t="inlineStr">
         <is>
-          <t>Reduction by 20 % by 2020, by 30 % by 2030, and by 50 % by 2050, all compared to 2008</t>
+          <t>Increase by 2.1 % per year from 2008 to 2050</t>
         </is>
       </c>
       <c r="J33" s="4" t="inlineStr">
         <is>
-          <t>Senkung um 30 % bis 2030</t>
+          <t>Steigerung um 2,1 % pro Jahr</t>
         </is>
       </c>
       <c r="K33" s="4" t="inlineStr">
         <is>
-          <t>reduction by 30 % by 2030</t>
+          <t>increase by 2.1 % per year</t>
         </is>
       </c>
       <c r="L33" s="4" t="inlineStr">
         <is>
-          <t>Primärenergieverbrauch</t>
+          <t>Endenergieproduktivität</t>
         </is>
       </c>
       <c r="M33" s="4" t="inlineStr">
         <is>
-          <t>Primary energy consumption</t>
+          <t>Final energy productivity</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="34">
       <c r="A34" s="4" t="inlineStr">
         <is>
-          <t>Z07_B02_P01_Ib01_I01</t>
+          <t>Z07_B01_P01_Ib01_I02</t>
         </is>
       </c>
       <c r="B34" s="4" t="inlineStr">
         <is>
-          <t>Z07_B02_P01_Ib01</t>
+          <t>Z07_B01_P01_Ib01</t>
         </is>
       </c>
       <c r="C34" s="4" t="inlineStr">
         <is>
-          <t>7.2.a</t>
+          <t>7.1.b</t>
         </is>
       </c>
       <c r="D34" s="4" t="inlineStr">
         <is>
-          <t>Erneuerbarer Energien</t>
+          <t>b) Primärenergieverbrauch</t>
         </is>
       </c>
       <c r="E34" s="4" t="inlineStr">
         <is>
-          <t>Renewable energies</t>
+          <t>b) Primary energy consumption</t>
         </is>
       </c>
       <c r="F34" s="4" t="inlineStr">
         <is>
-          <t>Anteil erneuerbarer Energien am Brutto-Endenergieverbrauch</t>
+          <t>Primärenergieverbrauch</t>
         </is>
       </c>
       <c r="G34" s="4" t="inlineStr">
         <is>
-          <t>Share of renewable energies in gross final energy consumption</t>
+          <t>Primary energy consumption</t>
         </is>
       </c>
       <c r="H34" s="4" t="inlineStr">
         <is>
-          <t>Anstieg auf 18 % bis 2020, auf 30 % bis 2030, auf 45 % bis 2040 und auf 60 % bis 2050</t>
+          <t>Senkung um 20 % bis 2020, um 30 % bis 2030 und um 50 % bis 2050 jeweils gegenüber 2008</t>
         </is>
       </c>
       <c r="I34" s="4" t="inlineStr">
         <is>
-          <t>Increase to 18 % by 2020 and to 30 % by 2030, to 45 % by 2040 and to 60 % by 2050</t>
+          <t>Reduction by 20 % by 2020, by 30 % by 2030, and by 50 % by 2050, all compared to 2008</t>
         </is>
       </c>
       <c r="J34" s="4" t="inlineStr">
         <is>
-          <t>Anstieg auf 30 % bis 2030</t>
+          <t>Senkung um 30 % bis 2030</t>
         </is>
       </c>
       <c r="K34" s="4" t="inlineStr">
         <is>
-          <t>increase to 30 % by 2030</t>
+          <t>reduction by 30 % by 2030</t>
         </is>
       </c>
       <c r="L34" s="4" t="inlineStr">
         <is>
-          <t>Anteil erneuerbarer Energien am Brutto-Endenergieverbrauch</t>
+          <t>Primärenergieverbrauch</t>
         </is>
       </c>
       <c r="M34" s="4" t="inlineStr">
         <is>
-          <t>Share of renewable energies in gross final energy consumption</t>
+          <t>Primary energy consumption</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="35">
       <c r="A35" s="4" t="inlineStr">
         <is>
-          <t>Z07_B02_P01_Ib02_I01</t>
+          <t>Z07_B02_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B35" s="4" t="inlineStr">
         <is>
-          <t>Z07_B02_P01_Ib02</t>
+          <t>Z07_B02_P01_Ib01</t>
         </is>
       </c>
       <c r="C35" s="4" t="inlineStr">
         <is>
-          <t>7.2.b</t>
+          <t>7.2.a</t>
         </is>
       </c>
       <c r="D35" s="4" t="inlineStr">
         <is>
-          <t>Strom aus erneuerbaren Energiequellen</t>
+          <t>Erneuerbarer Energien</t>
         </is>
       </c>
       <c r="E35" s="4" t="inlineStr">
         <is>
-          <t>Electricity from renewable energy sources</t>
+          <t>Renewable energies</t>
         </is>
       </c>
       <c r="F35" s="4" t="inlineStr">
         <is>
-          <t>Anteil des Stroms aus erneuerbaren Energiequellen am Bruttostromverbrauch</t>
+          <t>Anteil erneuerbarer Energien am Brutto-Endenergieverbrauch</t>
         </is>
       </c>
       <c r="G35" s="4" t="inlineStr">
         <is>
-          <t>Share of electricity from renewable energy sources in gross electricity consumption</t>
+          <t>Share of renewable energies in gross final energy consumption</t>
         </is>
       </c>
       <c r="H35" s="4" t="inlineStr">
         <is>
-          <t>Anstieg auf mindestens 80 % bis 2030</t>
+          <t>Anstieg auf 18 % bis 2020, auf 30 % bis 2030, auf 45 % bis 2040 und auf 60 % bis 2050</t>
         </is>
       </c>
       <c r="I35" s="4" t="inlineStr">
         <is>
-          <t>Increase to at least 80 % by 2030</t>
+          <t>Increase to 18 % by 2020 and to 30 % by 2030, to 45 % by 2040 and to 60 % by 2050</t>
         </is>
       </c>
       <c r="J35" s="4" t="inlineStr">
         <is>
-          <t>Anstieg auf 80 % bis 2030</t>
+          <t>Anstieg auf 30 % bis 2030</t>
         </is>
       </c>
       <c r="K35" s="4" t="inlineStr">
         <is>
-          <t>increase to 80 % by 2030</t>
+          <t>increase to 30 % by 2030</t>
         </is>
       </c>
       <c r="L35" s="4" t="inlineStr">
         <is>
-          <t>Anteil des Stroms aus erneuerbaren Energiequellen am Bruttostromverbrauch</t>
+          <t>Anteil erneuerbarer Energien am Brutto-Endenergieverbrauch</t>
         </is>
       </c>
       <c r="M35" s="4" t="inlineStr">
         <is>
-          <t>Share of electricity from renewable energy sources in gross electricity consumption</t>
+          <t>Share of renewable energies in gross final energy consumption</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="36">
       <c r="A36" s="4" t="inlineStr">
         <is>
-          <t>Z08_B01_P01_Ib01_I01</t>
+          <t>Z07_B02_P01_Ib02_I01</t>
         </is>
       </c>
       <c r="B36" s="4" t="inlineStr">
         <is>
-          <t>Z08_B01_P01_Ib01</t>
+          <t>Z07_B02_P01_Ib02</t>
         </is>
       </c>
       <c r="C36" s="4" t="inlineStr">
         <is>
-          <t>8.1</t>
+          <t>7.2.b</t>
         </is>
       </c>
       <c r="D36" s="4" t="inlineStr">
         <is>
-          <t>Gesamtrohstoffproduktivität</t>
+          <t>Strom aus erneuerbaren Energiequellen</t>
         </is>
       </c>
       <c r="E36" s="4" t="inlineStr">
         <is>
-          <t>Raw material input productivity</t>
+          <t>Electricity from renewable energy sources</t>
         </is>
       </c>
       <c r="F36" s="4" t="inlineStr">
         <is>
-          <t>Gesamtrohstoffproduktivität</t>
+          <t>Anteil des Stroms aus erneuerbaren Energiequellen am Bruttostromverbrauch</t>
         </is>
       </c>
       <c r="G36" s="4" t="inlineStr">
         <is>
-          <t>Raw material input productivity</t>
+          <t>Share of electricity from renewable energy sources in gross electricity consumption</t>
         </is>
       </c>
       <c r="H36" s="4" t="inlineStr">
         <is>
-          <t>Beibehaltung des Trends der Jahre 2000 – 2010 bis 2030</t>
+          <t>Anstieg auf mindestens 80 % bis 2030</t>
         </is>
       </c>
       <c r="I36" s="4" t="inlineStr">
         <is>
-          <t>Trend of the years 2000–2010 to be maintained until 2030</t>
+          <t>Increase to at least 80 % by 2030</t>
         </is>
       </c>
       <c r="J36" s="4" t="inlineStr">
         <is>
-          <t>Beibehaltung des Trends der Jahre 2000 - 2010 bis 2030</t>
+          <t>Anstieg auf 80 % bis 2030</t>
         </is>
       </c>
       <c r="K36" s="4" t="inlineStr">
         <is>
-          <t>trend of the years 2000-2010 to be maintained until 2030</t>
+          <t>increase to 80 % by 2030</t>
         </is>
       </c>
       <c r="L36" s="4" t="inlineStr">
         <is>
-          <t>Gesamtrohstoffproduktivität</t>
+          <t>Anteil des Stroms aus erneuerbaren Energiequellen am Bruttostromverbrauch</t>
         </is>
       </c>
       <c r="M36" s="4" t="inlineStr">
         <is>
-          <t>Raw material input productivity</t>
+          <t>Share of electricity from renewable energy sources in gross electricity consumption</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="37">
       <c r="A37" s="4" t="inlineStr">
         <is>
-          <t>Z08_B02_P01_Ib01_I01</t>
+          <t>Z08_B01_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B37" s="4" t="inlineStr">
         <is>
-          <t>Z08_B02_P01_Ib01</t>
+          <t>Z08_B01_P01_Ib01</t>
         </is>
       </c>
       <c r="C37" s="4" t="inlineStr">
         <is>
-          <t>8.2.a</t>
+          <t>8.1</t>
         </is>
       </c>
       <c r="D37" s="4" t="inlineStr">
         <is>
-          <t>a) Staatsdefizit</t>
+          <t>Gesamtrohstoffproduktivität</t>
         </is>
       </c>
       <c r="E37" s="4" t="inlineStr">
         <is>
-          <t>a) Government deficit</t>
+          <t>Raw material input productivity</t>
         </is>
       </c>
       <c r="F37" s="4" t="inlineStr">
         <is>
-          <t>Staatsdefizit</t>
+          <t>Gesamtrohstoffproduktivität</t>
         </is>
       </c>
       <c r="G37" s="4" t="inlineStr">
         <is>
-          <t>Government deficit</t>
+          <t>Raw material input productivity</t>
         </is>
       </c>
       <c r="H37" s="4" t="inlineStr">
         <is>
-          <t>Jährliches Staatsdefizit kleiner als 3 % des BIP, Beibehaltung bis 2030</t>
+          <t>Beibehaltung des Trends der Jahre 2000 – 2010 bis 2030</t>
         </is>
       </c>
       <c r="I37" s="4" t="inlineStr">
         <is>
-          <t>Annual government deficit less than 3 % of GDP, to be maintained until 2030</t>
+          <t>Trend of the years 2000–2010 to be maintained until 2030</t>
         </is>
       </c>
       <c r="J37" s="4" t="inlineStr">
         <is>
-          <t>unter 3 % des BIP</t>
+          <t>Beibehaltung des Trends der Jahre 2000 - 2010 bis 2030</t>
         </is>
       </c>
       <c r="K37" s="4" t="inlineStr">
         <is>
-          <t>less than 3 % of GDP</t>
+          <t>trend of the years 2000-2010 to be maintained until 2030</t>
         </is>
       </c>
       <c r="L37" s="4" t="inlineStr">
         <is>
-          <t>Staatsdefizit</t>
+          <t>Gesamtrohstoffproduktivität</t>
         </is>
       </c>
       <c r="M37" s="4" t="inlineStr">
         <is>
-          <t>Government deficit</t>
+          <t>Raw material input productivity</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="38">
       <c r="A38" s="4" t="inlineStr">
         <is>
-          <t>Z08_B02_P01_Ib01_I02</t>
+          <t>Z08_B02_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B38" s="4" t="inlineStr">
@@ -2950,332 +2950,332 @@
       </c>
       <c r="C38" s="4" t="inlineStr">
         <is>
-          <t>8.2.b</t>
+          <t>8.2.a</t>
         </is>
       </c>
       <c r="D38" s="4" t="inlineStr">
         <is>
-          <t>b) Strukturelles Defizit</t>
+          <t>a) Staatsdefizit</t>
         </is>
       </c>
       <c r="E38" s="4" t="inlineStr">
         <is>
-          <t>b) Structural deficit</t>
+          <t>a) Government deficit</t>
         </is>
       </c>
       <c r="F38" s="4" t="inlineStr">
         <is>
-          <t>Strukturelles Defizit</t>
+          <t>Staatsdefizit</t>
         </is>
       </c>
       <c r="G38" s="4" t="inlineStr">
         <is>
-          <t>Structural deficit</t>
+          <t>Government deficit</t>
         </is>
       </c>
       <c r="H38" s="4" t="inlineStr">
         <is>
-          <t>Strukturell ausgeglichener Staatshaushalt, gesamtstaatliches strukturelles Defizit von max. 0,5 % des BIP, Beibehaltung bis 2030</t>
+          <t>Jährliches Staatsdefizit kleiner als 3 % des BIP, Beibehaltung bis 2030</t>
         </is>
       </c>
       <c r="I38" s="4" t="inlineStr">
         <is>
-          <t>Structurally balanced government budget, general government structural deficit must not exceed 0.5 % of GDP, to be maintained until 2030</t>
+          <t>Annual government deficit less than 3 % of GDP, to be maintained until 2030</t>
         </is>
       </c>
       <c r="J38" s="4" t="inlineStr">
         <is>
-          <t>unter 0,5 % des BIP</t>
+          <t>unter 3 % des BIP</t>
         </is>
       </c>
       <c r="K38" s="4" t="inlineStr">
         <is>
-          <t>less than 0.5 % of GDP</t>
+          <t>less than 3 % of GDP</t>
         </is>
       </c>
       <c r="L38" s="4" t="inlineStr">
         <is>
-          <t>Strukturelles Defizit</t>
+          <t>Staatsdefizit</t>
         </is>
       </c>
       <c r="M38" s="4" t="inlineStr">
         <is>
-          <t>Structural deficit</t>
+          <t>Government deficit</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="39">
       <c r="A39" s="4" t="inlineStr">
         <is>
-          <t>Z08_B02_P01_Ib02_I01</t>
+          <t>Z08_B02_P01_Ib01_I02</t>
         </is>
       </c>
       <c r="B39" s="4" t="inlineStr">
         <is>
-          <t>Z08_B02_P01_Ib02</t>
+          <t>Z08_B02_P01_Ib01</t>
         </is>
       </c>
       <c r="C39" s="4" t="inlineStr">
         <is>
-          <t>8.2.c</t>
+          <t>8.2.b</t>
         </is>
       </c>
       <c r="D39" s="4" t="inlineStr">
         <is>
-          <t>Schuldenstandsquote</t>
+          <t>b) Strukturelles Defizit</t>
         </is>
       </c>
       <c r="E39" s="4" t="inlineStr">
         <is>
-          <t>Ratio of government debt</t>
+          <t>b) Structural deficit</t>
         </is>
       </c>
       <c r="F39" s="4" t="inlineStr">
         <is>
-          <t>Schuldenstand</t>
+          <t>Strukturelles Defizit</t>
         </is>
       </c>
       <c r="G39" s="4" t="inlineStr">
         <is>
-          <t>Government debt</t>
+          <t>Structural deficit</t>
         </is>
       </c>
       <c r="H39" s="4" t="inlineStr">
         <is>
-          <t>Schuldenstandsquote max. 60 % des BIP, Beibehaltung bis 2030</t>
+          <t>Strukturell ausgeglichener Staatshaushalt, gesamtstaatliches strukturelles Defizit von max. 0,5 % des BIP, Beibehaltung bis 2030</t>
         </is>
       </c>
       <c r="I39" s="4" t="inlineStr">
         <is>
-          <t>Ratio of government debt to GDP must not exceed  60 %, to be maintained until 2030</t>
+          <t>Structurally balanced government budget, general government structural deficit must not exceed 0.5 % of GDP, to be maintained until 2030</t>
         </is>
       </c>
       <c r="J39" s="4" t="inlineStr">
         <is>
-          <t>max. 60 % des BIP</t>
+          <t>unter 0,5 % des BIP</t>
         </is>
       </c>
       <c r="K39" s="4" t="inlineStr">
         <is>
-          <t>max. 60 % of GDP</t>
+          <t>less than 0.5 % of GDP</t>
         </is>
       </c>
       <c r="L39" s="4" t="inlineStr">
         <is>
-          <t>Schuldenstand</t>
+          <t>Strukturelles Defizit</t>
         </is>
       </c>
       <c r="M39" s="4" t="inlineStr">
         <is>
-          <t>Government debt</t>
+          <t>Structural deficit</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="40">
       <c r="A40" s="4" t="inlineStr">
         <is>
-          <t>Z08_B03_P01_Ib01_I01</t>
+          <t>Z08_B02_P01_Ib02_I01</t>
         </is>
       </c>
       <c r="B40" s="4" t="inlineStr">
         <is>
-          <t>Z08_B03_P01_Ib01</t>
+          <t>Z08_B02_P01_Ib02</t>
         </is>
       </c>
       <c r="C40" s="4" t="inlineStr">
         <is>
-          <t>8.3</t>
+          <t>8.2.c</t>
         </is>
       </c>
       <c r="D40" s="4" t="inlineStr">
         <is>
-          <t>Anlageinvestitionen</t>
+          <t>Schuldenstandsquote</t>
         </is>
       </c>
       <c r="E40" s="4" t="inlineStr">
         <is>
-          <t>Gross fixed capital formation</t>
+          <t>Ratio of government debt</t>
         </is>
       </c>
       <c r="F40" s="4" t="inlineStr">
         <is>
-          <t>Verhältnis der Bruttoanlageinvestitionen zum BIP</t>
+          <t>Schuldenstand</t>
         </is>
       </c>
       <c r="G40" s="4" t="inlineStr">
         <is>
-          <t>Gross fixed capital formation in relation to GDP</t>
+          <t>Government debt</t>
         </is>
       </c>
       <c r="H40" s="4" t="inlineStr">
         <is>
-          <t>Angemessene Entwicklung des Anteils, Beibehaltung bis 2030</t>
+          <t>Schuldenstandsquote max. 60 % des BIP, Beibehaltung bis 2030</t>
         </is>
       </c>
       <c r="I40" s="4" t="inlineStr">
         <is>
-          <t>Appropriate development of the ratio, to be maintained until 2030</t>
+          <t>Ratio of government debt to GDP must not exceed  60 %, to be maintained until 2030</t>
         </is>
       </c>
       <c r="J40" s="4" t="inlineStr">
         <is>
-          <t>angemessene Entwicklung bis 2030</t>
+          <t>max. 60 % des BIP</t>
         </is>
       </c>
       <c r="K40" s="4" t="inlineStr">
         <is>
-          <t>appropriate development by 2030</t>
+          <t>max. 60 % of GDP</t>
         </is>
       </c>
       <c r="L40" s="4" t="inlineStr">
         <is>
-          <t>Verhältnis der Bruttoanlageinvestitionen zum BIP</t>
+          <t>Schuldenstand</t>
         </is>
       </c>
       <c r="M40" s="4" t="inlineStr">
         <is>
-          <t>Gross fixed capital formation in relation to GDP</t>
+          <t>Government debt</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="41">
       <c r="A41" s="4" t="inlineStr">
         <is>
-          <t>Z08_B04_P01_Ib01_I01</t>
+          <t>Z08_B03_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B41" s="4" t="inlineStr">
         <is>
-          <t>Z08_B04_P01_Ib01</t>
+          <t>Z08_B03_P01_Ib01</t>
         </is>
       </c>
       <c r="C41" s="4" t="inlineStr">
         <is>
-          <t>8.4</t>
+          <t>8.3</t>
         </is>
       </c>
       <c r="D41" s="4" t="inlineStr">
         <is>
-          <t>Bruttoinlandsprodukt</t>
+          <t>Anlageinvestitionen</t>
         </is>
       </c>
       <c r="E41" s="4" t="inlineStr">
         <is>
-          <t>Gross domestic product</t>
+          <t>Gross fixed capital formation</t>
         </is>
       </c>
       <c r="F41" s="4" t="inlineStr">
         <is>
-          <t>Bruttoinlandsprodukt je Einwohnerin und Einwohner</t>
+          <t>Verhältnis der Bruttoanlageinvestitionen zum BIP</t>
         </is>
       </c>
       <c r="G41" s="4" t="inlineStr">
         <is>
-          <t>Gross domestic product per capita</t>
+          <t>Gross fixed capital formation in relation to GDP</t>
         </is>
       </c>
       <c r="H41" s="4" t="inlineStr">
         <is>
-          <t>Stetiges und angemessenes Wirtschaftswachstum</t>
+          <t>Angemessene Entwicklung des Anteils, Beibehaltung bis 2030</t>
         </is>
       </c>
       <c r="I41" s="4" t="inlineStr">
         <is>
-          <t>Steady and appropriate economic growth</t>
+          <t>Appropriate development of the ratio, to be maintained until 2030</t>
         </is>
       </c>
       <c r="J41" s="4" t="inlineStr">
         <is>
-          <t>stetiges und angemessenes Wirtschaftswachstum</t>
+          <t>angemessene Entwicklung bis 2030</t>
         </is>
       </c>
       <c r="K41" s="4" t="inlineStr">
         <is>
-          <t>steady and appropriate economic growth</t>
+          <t>appropriate development by 2030</t>
         </is>
       </c>
       <c r="L41" s="4" t="inlineStr">
         <is>
-          <t>Bruttoinlandsprodukt je Einwohnerin und Einwohner</t>
+          <t>Verhältnis der Bruttoanlageinvestitionen zum BIP</t>
         </is>
       </c>
       <c r="M41" s="4" t="inlineStr">
         <is>
-          <t>Gross domestic product per capita</t>
+          <t>Gross fixed capital formation in relation to GDP</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="42">
       <c r="A42" s="4" t="inlineStr">
         <is>
-          <t>Z08_B05_P01_Ib01_I01</t>
+          <t>Z08_B04_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B42" s="4" t="inlineStr">
         <is>
-          <t>Z08_B05_P01_Ib01</t>
+          <t>Z08_B04_P01_Ib01</t>
         </is>
       </c>
       <c r="C42" s="4" t="inlineStr">
         <is>
-          <t>8.5.a</t>
+          <t>8.4</t>
         </is>
       </c>
       <c r="D42" s="4" t="inlineStr">
         <is>
-          <t>a) Insgesamt (20-64-Jährige)</t>
+          <t>Bruttoinlandsprodukt</t>
         </is>
       </c>
       <c r="E42" s="4" t="inlineStr">
         <is>
-          <t>a) total (20 to 64-year-olds)</t>
+          <t>Gross domestic product</t>
         </is>
       </c>
       <c r="F42" s="4" t="inlineStr">
         <is>
-          <t>Erwerbstätigenquote (20- bis 64-Jährige)</t>
+          <t>Bruttoinlandsprodukt je Einwohnerin und Einwohner</t>
         </is>
       </c>
       <c r="G42" s="4" t="inlineStr">
         <is>
-          <t>Employment rate (20 to 64-year-olds)</t>
+          <t>Gross domestic product per capita</t>
         </is>
       </c>
       <c r="H42" s="4" t="inlineStr">
         <is>
-          <t>Erhöhung auf 78 % bis 2030</t>
+          <t>Stetiges und angemessenes Wirtschaftswachstum</t>
         </is>
       </c>
       <c r="I42" s="4" t="inlineStr">
         <is>
-          <t>Increase to 78 % by 2030</t>
+          <t>Steady and appropriate economic growth</t>
         </is>
       </c>
       <c r="J42" s="4" t="inlineStr">
         <is>
-          <t>Erhöhung auf 78 % bis 2030</t>
+          <t>stetiges und angemessenes Wirtschaftswachstum</t>
         </is>
       </c>
       <c r="K42" s="4" t="inlineStr">
         <is>
-          <t>increase to 78 % by 2030</t>
+          <t>steady and appropriate economic growth</t>
         </is>
       </c>
       <c r="L42" s="4" t="inlineStr">
         <is>
-          <t>Erwerbstätigenquote insgesamt (20- bis 64-Jährige)</t>
+          <t>Bruttoinlandsprodukt je Einwohnerin und Einwohner</t>
         </is>
       </c>
       <c r="M42" s="4" t="inlineStr">
         <is>
-          <t>Employment rate, total (20 to 64-year-olds)</t>
+          <t>Gross domestic product per capita</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="43">
       <c r="A43" s="4" t="inlineStr">
         <is>
-          <t>Z08_B05_P01_Ib01_I02</t>
+          <t>Z08_B05_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B43" s="4" t="inlineStr">
@@ -3285,697 +3285,697 @@
       </c>
       <c r="C43" s="4" t="inlineStr">
         <is>
-          <t>8.5.b</t>
+          <t>8.5.a</t>
         </is>
       </c>
       <c r="D43" s="4" t="inlineStr">
         <is>
-          <t>b) Ältere (60-64-Jährige)</t>
+          <t>a) Insgesamt (20-64-Jährige)</t>
         </is>
       </c>
       <c r="E43" s="4" t="inlineStr">
         <is>
-          <t>b) older people (60 to 64-year-olds)</t>
+          <t>a) total (20 to 64-year-olds)</t>
         </is>
       </c>
       <c r="F43" s="4" t="inlineStr">
         <is>
-          <t>Erwerbstätigenquote (60- bis 64-Jährige)</t>
+          <t>Erwerbstätigenquote (20- bis 64-Jährige)</t>
         </is>
       </c>
       <c r="G43" s="4" t="inlineStr">
         <is>
-          <t>Employment rate (60 to 64-year-olds)</t>
+          <t>Employment rate (20 to 64-year-olds)</t>
         </is>
       </c>
       <c r="H43" s="4" t="inlineStr">
         <is>
-          <t>Erhöhung auf 60 % bis 2030</t>
+          <t>Erhöhung auf 78 % bis 2030</t>
         </is>
       </c>
       <c r="I43" s="4" t="inlineStr">
         <is>
-          <t>Increase to 60 % by 2030</t>
+          <t>Increase to 78 % by 2030</t>
         </is>
       </c>
       <c r="J43" s="4" t="inlineStr">
         <is>
-          <t>Erhöhung auf 60 % bis 2030</t>
+          <t>Erhöhung auf 78 % bis 2030</t>
         </is>
       </c>
       <c r="K43" s="4" t="inlineStr">
         <is>
-          <t>increase to 60 % by 2030</t>
+          <t>increase to 78 % by 2030</t>
         </is>
       </c>
       <c r="L43" s="4" t="inlineStr">
         <is>
-          <t>Erwerbstätigenquote Ältere (60- bis 64-Jährige)</t>
+          <t>Erwerbstätigenquote insgesamt (20- bis 64-Jährige)</t>
         </is>
       </c>
       <c r="M43" s="4" t="inlineStr">
         <is>
-          <t>Employment rate, older people (60 to 64-year-olds)</t>
+          <t>Employment rate, total (20 to 64-year-olds)</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="44">
       <c r="A44" s="4" t="inlineStr">
         <is>
-          <t>Z08_B06_P01_Ib01_I01</t>
+          <t>Z08_B05_P01_Ib01_I02</t>
         </is>
       </c>
       <c r="B44" s="4" t="inlineStr">
         <is>
-          <t>Z08_B06_P01_Ib01</t>
+          <t>Z08_B05_P01_Ib01</t>
         </is>
       </c>
       <c r="C44" s="4" t="inlineStr">
         <is>
-          <t>8.6</t>
+          <t>8.5.b</t>
         </is>
       </c>
       <c r="D44" s="4" t="inlineStr">
         <is>
-          <t>Mitglieder des Textilbündnisses</t>
+          <t>b) Ältere (60-64-Jährige)</t>
         </is>
       </c>
       <c r="E44" s="4" t="inlineStr">
         <is>
-          <t>Members of the Textile Partnership</t>
+          <t>b) older people (60 to 64-year-olds)</t>
         </is>
       </c>
       <c r="F44" s="4" t="inlineStr">
         <is>
-          <t>Mitglieder des Textilbündnisses</t>
+          <t>Erwerbstätigenquote (60- bis 64-Jährige)</t>
         </is>
       </c>
       <c r="G44" s="4" t="inlineStr">
         <is>
-          <t>Members of the Textile Partnership</t>
+          <t>Employment rate (60 to 64-year-olds)</t>
         </is>
       </c>
       <c r="H44" s="4" t="inlineStr">
         <is>
-          <t>Signifikante Steigerung bis 2030</t>
+          <t>Erhöhung auf 60 % bis 2030</t>
         </is>
       </c>
       <c r="I44" s="4" t="inlineStr">
         <is>
-          <t>Significantly increase by 2030</t>
+          <t>Increase to 60 % by 2030</t>
         </is>
       </c>
       <c r="J44" s="4" t="inlineStr">
         <is>
-          <t>Steigerung der Anzahl bis 2030</t>
+          <t>Erhöhung auf 60 % bis 2030</t>
         </is>
       </c>
       <c r="K44" s="4" t="inlineStr">
         <is>
-          <t>increase number by 2030</t>
+          <t>increase to 60 % by 2030</t>
         </is>
       </c>
       <c r="L44" s="4" t="inlineStr">
         <is>
-          <t>Mitglieder des Textilbündnisses</t>
+          <t>Erwerbstätigenquote Ältere (60- bis 64-Jährige)</t>
         </is>
       </c>
       <c r="M44" s="4" t="inlineStr">
         <is>
-          <t>Members of the Textile Partnership</t>
+          <t>Employment rate, older people (60 to 64-year-olds)</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="45">
       <c r="A45" s="4" t="inlineStr">
         <is>
-          <t>Z09_B01_P01_Ib01_I01</t>
+          <t>Z08_B06_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B45" s="4" t="inlineStr">
         <is>
-          <t>Z09_B01_P01_Ib01</t>
+          <t>Z08_B06_P01_Ib01</t>
         </is>
       </c>
       <c r="C45" s="4" t="inlineStr">
         <is>
-          <t>9.1.a</t>
+          <t>8.6</t>
         </is>
       </c>
       <c r="D45" s="4" t="inlineStr">
         <is>
-          <t>Ausgaben für Forschung und Entwicklung</t>
+          <t>Mitglieder des Textilbündnisses</t>
         </is>
       </c>
       <c r="E45" s="4" t="inlineStr">
         <is>
-          <t>Expenditure on research and development</t>
+          <t>Members of the Textile Partnership</t>
         </is>
       </c>
       <c r="F45" s="4" t="inlineStr">
         <is>
-          <t>Private und öffentliche Ausgaben für Forschung und Entwicklung</t>
+          <t>Mitglieder des Textilbündnisses</t>
         </is>
       </c>
       <c r="G45" s="4" t="inlineStr">
         <is>
-          <t>Private and public expenditure on research and development</t>
+          <t>Members of the Textile Partnership</t>
         </is>
       </c>
       <c r="H45" s="4" t="inlineStr">
         <is>
-          <t>Jährlich mindestens 3,5 % des BIP bis 2025</t>
+          <t>Signifikante Steigerung bis 2030</t>
         </is>
       </c>
       <c r="I45" s="4" t="inlineStr">
         <is>
-          <t>At least 3.5 % of GDP per year by 2025</t>
+          <t>Significantly increase by 2030</t>
         </is>
       </c>
       <c r="J45" s="4" t="inlineStr">
         <is>
-          <t>jährlich mindestens 3,5 % des BIP bis 2025</t>
+          <t>Steigerung der Anzahl bis 2030</t>
         </is>
       </c>
       <c r="K45" s="4" t="inlineStr">
         <is>
-          <t>at least 3.5 % of GDP per year by 2025</t>
+          <t>increase number by 2030</t>
         </is>
       </c>
       <c r="L45" s="4" t="inlineStr">
         <is>
-          <t>Private und öffentliche Ausgaben für Forschung und Entwicklung</t>
+          <t>Mitglieder des Textilbündnisses</t>
         </is>
       </c>
       <c r="M45" s="4" t="inlineStr">
         <is>
-          <t>Private and public expenditure on research and development</t>
+          <t>Members of the Textile Partnership</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="46">
       <c r="A46" s="4" t="inlineStr">
         <is>
-          <t>Z09_B01_P01_Ib02_I01</t>
+          <t>Z09_B01_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B46" s="4" t="inlineStr">
         <is>
-          <t>Z09_B01_P01_Ib02</t>
+          <t>Z09_B01_P01_Ib01</t>
         </is>
       </c>
       <c r="C46" s="4" t="inlineStr">
         <is>
-          <t>9.1.b</t>
+          <t>9.1.a</t>
         </is>
       </c>
       <c r="D46" s="4" t="inlineStr">
         <is>
-          <t>Breitbandverfügbarkeit</t>
+          <t>Ausgaben für Forschung und Entwicklung</t>
         </is>
       </c>
       <c r="E46" s="4" t="inlineStr">
         <is>
-          <t>Broadband availability</t>
+          <t>Expenditure on research and development</t>
         </is>
       </c>
       <c r="F46" s="4" t="inlineStr">
         <is>
-          <t>Breitbandausbau – Anteil der Haushalte mit Zugang zu Gigabit-Breitbandversorgung</t>
+          <t>Private und öffentliche Ausgaben für Forschung und Entwicklung</t>
         </is>
       </c>
       <c r="G46" s="4" t="inlineStr">
         <is>
-          <t>Roll-out of broadband – Share of households with access to gigabit broadband services</t>
+          <t>Private and public expenditure on research and development</t>
         </is>
       </c>
       <c r="H46" s="4" t="inlineStr">
         <is>
-          <t>Flächendeckender Aufbau von Gigabitnetzen bis 2025</t>
+          <t>Jährlich mindestens 3,5 % des BIP bis 2025</t>
         </is>
       </c>
       <c r="I46" s="4" t="inlineStr">
         <is>
-          <t>Universal gigabit network Roll-out by 2025</t>
+          <t>At least 3.5 % of GDP per year by 2025</t>
         </is>
       </c>
       <c r="J46" s="4" t="inlineStr">
         <is>
-          <t>flächendeckender Aufbau bis 2025</t>
+          <t>jährlich mindestens 3,5 % des BIP bis 2025</t>
         </is>
       </c>
       <c r="K46" s="4" t="inlineStr">
         <is>
-          <t>universal Roll-out by 2025</t>
+          <t>at least 3.5 % of GDP per year by 2025</t>
         </is>
       </c>
       <c r="L46" s="4" t="inlineStr">
         <is>
-          <t>Breitbandausbau – Anteil der Haushalte mit Zugang zu Gigabit-Breitbandversorgung</t>
+          <t>Private und öffentliche Ausgaben für Forschung und Entwicklung</t>
         </is>
       </c>
       <c r="M46" s="4" t="inlineStr">
         <is>
-          <t>Roll-out of broadband – Share of households with access to gigabit broadband services</t>
+          <t>Private and public expenditure on research and development</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="47">
       <c r="A47" s="4" t="inlineStr">
         <is>
-          <t>Z10_B01_P01_Ib01_I01</t>
+          <t>Z09_B01_P01_Ib02_I01</t>
         </is>
       </c>
       <c r="B47" s="4" t="inlineStr">
         <is>
-          <t>Z10_B01_P01_Ib01</t>
+          <t>Z09_B01_P01_Ib02</t>
         </is>
       </c>
       <c r="C47" s="4" t="inlineStr">
         <is>
-          <t>10.1</t>
+          <t>9.1.b</t>
         </is>
       </c>
       <c r="D47" s="4" t="inlineStr">
         <is>
-          <t>Abschlussquote</t>
+          <t>Breitbandverfügbarkeit</t>
         </is>
       </c>
       <c r="E47" s="4" t="inlineStr">
         <is>
-          <t>Graduation rate</t>
+          <t>Broadband availability</t>
         </is>
       </c>
       <c r="F47" s="4" t="inlineStr">
         <is>
-          <t>Ausländische Schulabsolventinnen und Schulabsolventen</t>
+          <t>Breitbandausbau – Anteil der Haushalte mit Zugang zu Gigabit-Breitbandversorgung</t>
         </is>
       </c>
       <c r="G47" s="4" t="inlineStr">
         <is>
-          <t>Foreign school graduates</t>
+          <t>Roll-out of broadband – Share of households with access to gigabit broadband services</t>
         </is>
       </c>
       <c r="H47" s="4" t="inlineStr">
         <is>
-          <t>Erhöhung des Anteils der ausländischen Schulabgänger mit mindestens Hauptschulabschluss und Angleichung an die Quote deutscher Schulabgänger bis 2030</t>
+          <t>Flächendeckender Aufbau von Gigabitnetzen bis 2025</t>
         </is>
       </c>
       <c r="I47" s="4" t="inlineStr">
         <is>
-          <t>Increase the proportion of foreign school leavers with a least a secondary general school certificate and bring into line with that of German school leavers by 2030</t>
+          <t>Universal gigabit network Roll-out by 2025</t>
         </is>
       </c>
       <c r="J47" s="4" t="inlineStr">
         <is>
-          <t>Erhöhung bei ausländischen Schulabsolvierenden und Angleichung an die Quote deutscher -absolvierenden bis 2030</t>
+          <t>flächendeckender Aufbau bis 2025</t>
         </is>
       </c>
       <c r="K47" s="4" t="inlineStr">
         <is>
-          <t>increase among foreign school leavers and bring it into line with the rate of German school leavers by 2030</t>
+          <t>universal Roll-out by 2025</t>
         </is>
       </c>
       <c r="L47" s="4" t="inlineStr">
         <is>
-          <t>Ausländische Schulabsolventinnen und Schulabsolventen</t>
+          <t>Breitbandausbau – Anteil der Haushalte mit Zugang zu Gigabit-Breitbandversorgung</t>
         </is>
       </c>
       <c r="M47" s="4" t="inlineStr">
         <is>
-          <t>Foreign school graduates</t>
+          <t>Roll-out of broadband – Share of households with access to gigabit broadband services</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="48">
       <c r="A48" s="4" t="inlineStr">
         <is>
-          <t>Z10_B02_P01_Ib01_I01</t>
+          <t>Z10_B01_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B48" s="4" t="inlineStr">
         <is>
-          <t>Z10_B02_P01_Ib01</t>
+          <t>Z10_B01_P01_Ib01</t>
         </is>
       </c>
       <c r="C48" s="4" t="inlineStr">
         <is>
-          <t>10.2</t>
+          <t>10.1</t>
         </is>
       </c>
       <c r="D48" s="4" t="inlineStr">
         <is>
-          <t>Gini-Koeffizient Einkommen nach Sozialtransfer</t>
+          <t>Abschlussquote</t>
         </is>
       </c>
       <c r="E48" s="4" t="inlineStr">
         <is>
-          <t>Gini coefficient of income after social transfers</t>
+          <t>Graduation rate</t>
         </is>
       </c>
       <c r="F48" s="4" t="inlineStr">
         <is>
-          <t>Gini-Koeffizient des Einkommens nach Sozialtransfers</t>
+          <t>Ausländische Schulabsolventinnen und Schulabsolventen</t>
         </is>
       </c>
       <c r="G48" s="4" t="inlineStr">
         <is>
-          <t>Gini coefficient of income after social transfers</t>
+          <t>Foreign school graduates</t>
         </is>
       </c>
       <c r="H48" s="4" t="inlineStr">
         <is>
-          <t>Gini-Koeffizient Einkommen nach Sozialtransfer bis 2030 unterhalb des EU-27-Wertes</t>
+          <t>Erhöhung des Anteils der ausländischen Schulabgänger mit mindestens Hauptschulabschluss und Angleichung an die Quote deutscher Schulabgänger bis 2030</t>
         </is>
       </c>
       <c r="I48" s="4" t="inlineStr">
         <is>
-          <t>Gini coefficient of income after social transfers to be below the EU-27 figure by 2030</t>
+          <t>Increase the proportion of foreign school leavers with a least a secondary general school certificate and bring into line with that of German school leavers by 2030</t>
         </is>
       </c>
       <c r="J48" s="4" t="inlineStr">
         <is>
-          <t>bis 2030 unterhalb des EU-27-Wertes</t>
+          <t>Erhöhung bei ausländischen Schulabsolvierenden und Angleichung an die Quote deutscher -absolvierenden bis 2030</t>
         </is>
       </c>
       <c r="K48" s="4" t="inlineStr">
         <is>
-          <t>to be below the EU-27 figure by 2030</t>
+          <t>increase among foreign school leavers and bring it into line with the rate of German school leavers by 2030</t>
         </is>
       </c>
       <c r="L48" s="4" t="inlineStr">
         <is>
-          <t>Gini-Koeffizient des Einkommens nach Sozialtransfers</t>
+          <t>Ausländische Schulabsolventinnen und Schulabsolventen</t>
         </is>
       </c>
       <c r="M48" s="4" t="inlineStr">
         <is>
-          <t>Gini coefficient of income after social transfers</t>
+          <t>Foreign school graduates</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="49">
       <c r="A49" s="4" t="inlineStr">
         <is>
-          <t>Z11_B01_P01_Ib01_I01</t>
+          <t>Z10_B02_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B49" s="4" t="inlineStr">
         <is>
-          <t>Z11_B01_P01_Ib01</t>
+          <t>Z10_B02_P01_Ib01</t>
         </is>
       </c>
       <c r="C49" s="4" t="inlineStr">
         <is>
-          <t>11.1.a</t>
+          <t>10.2</t>
         </is>
       </c>
       <c r="D49" s="4" t="inlineStr">
         <is>
-          <t>Anstieg der Siedlungs- und Verkehrsfläche</t>
+          <t>Gini-Koeffizient Einkommen nach Sozialtransfer</t>
         </is>
       </c>
       <c r="E49" s="4" t="inlineStr">
         <is>
-          <t>Expansion of settlement and transport area</t>
+          <t>Gini coefficient of income after social transfers</t>
         </is>
       </c>
       <c r="F49" s="4" t="inlineStr">
         <is>
-          <t>Anstieg der Siedlungs- und Verkehrsfläche</t>
+          <t>Gini-Koeffizient des Einkommens nach Sozialtransfers</t>
         </is>
       </c>
       <c r="G49" s="4" t="inlineStr">
         <is>
-          <t>Expansion of settlement and transport area</t>
+          <t>Gini coefficient of income after social transfers</t>
         </is>
       </c>
       <c r="H49" s="4" t="inlineStr">
         <is>
-          <t>Senkung auf durchschnittlich unter 30 ha pro Tag bis 2030</t>
+          <t>Gini-Koeffizient Einkommen nach Sozialtransfer bis 2030 unterhalb des EU-27-Wertes</t>
         </is>
       </c>
       <c r="I49" s="4" t="inlineStr">
         <is>
-          <t>Reduction to under 30 ha on average per day by 2030</t>
+          <t>Gini coefficient of income after social transfers to be below the EU-27 figure by 2030</t>
         </is>
       </c>
       <c r="J49" s="4" t="inlineStr">
         <is>
-          <t>Senkung auf unter 30 ha pro Tag bis 2030</t>
+          <t>bis 2030 unterhalb des EU-27-Wertes</t>
         </is>
       </c>
       <c r="K49" s="4" t="inlineStr">
         <is>
-          <t>reduction to under 30 ha per day by 2030</t>
+          <t>to be below the EU-27 figure by 2030</t>
         </is>
       </c>
       <c r="L49" s="4" t="inlineStr">
         <is>
-          <t>Anstieg der Siedlungs- und Verkehrsfläche</t>
+          <t>Gini-Koeffizient des Einkommens nach Sozialtransfers</t>
         </is>
       </c>
       <c r="M49" s="4" t="inlineStr">
         <is>
-          <t>Expansion of settlement and transport area</t>
+          <t>Gini coefficient of income after social transfers</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="50">
       <c r="A50" s="4" t="inlineStr">
         <is>
-          <t>Z11_B01_P01_Ib02_I01</t>
+          <t>Z11_B01_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B50" s="4" t="inlineStr">
         <is>
-          <t>Z11_B01_P01_Ib02</t>
+          <t>Z11_B01_P01_Ib01</t>
         </is>
       </c>
       <c r="C50" s="4" t="inlineStr">
         <is>
-          <t>11.1.b</t>
+          <t>11.1.a</t>
         </is>
       </c>
       <c r="D50" s="4" t="inlineStr">
         <is>
-          <t>Freiraumverlust</t>
+          <t>Anstieg der Siedlungs- und Verkehrsfläche</t>
         </is>
       </c>
       <c r="E50" s="4" t="inlineStr">
         <is>
-          <t>Loss of open space area</t>
+          <t>Expansion of settlement and transport area</t>
         </is>
       </c>
       <c r="F50" s="4" t="inlineStr">
         <is>
-          <t>Freiraumverlust</t>
+          <t>Anstieg der Siedlungs- und Verkehrsfläche</t>
         </is>
       </c>
       <c r="G50" s="4" t="inlineStr">
         <is>
-          <t>Loss of open space area</t>
+          <t>Expansion of settlement and transport area</t>
         </is>
       </c>
       <c r="H50" s="4" t="inlineStr">
         <is>
-          <t>Verringerung des einwohnerbezogenen Freiflächenverlustes</t>
+          <t>Senkung auf durchschnittlich unter 30 ha pro Tag bis 2030</t>
         </is>
       </c>
       <c r="I50" s="4" t="inlineStr">
         <is>
-          <t>Reduce the loss of per capita open space area</t>
+          <t>Reduction to under 30 ha on average per day by 2030</t>
         </is>
       </c>
       <c r="J50" s="4" t="inlineStr">
         <is>
-          <t>Verringerung</t>
+          <t>Senkung auf unter 30 ha pro Tag bis 2030</t>
         </is>
       </c>
       <c r="K50" s="4" t="inlineStr">
         <is>
-          <t>reduce the loss</t>
+          <t>reduction to under 30 ha per day by 2030</t>
         </is>
       </c>
       <c r="L50" s="4" t="inlineStr">
         <is>
-          <t>Freiraumverlust</t>
+          <t>Anstieg der Siedlungs- und Verkehrsfläche</t>
         </is>
       </c>
       <c r="M50" s="4" t="inlineStr">
         <is>
-          <t>Loss of open space area</t>
+          <t>Expansion of settlement and transport area</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="51">
       <c r="A51" s="4" t="inlineStr">
         <is>
-          <t>Z11_B01_P01_Ib03_I01</t>
+          <t>Z11_B01_P01_Ib02_I01</t>
         </is>
       </c>
       <c r="B51" s="4" t="inlineStr">
         <is>
-          <t>Z11_B01_P01_Ib03</t>
+          <t>Z11_B01_P01_Ib02</t>
         </is>
       </c>
       <c r="C51" s="4" t="inlineStr">
         <is>
-          <t>11.1.c</t>
+          <t>11.1.b</t>
         </is>
       </c>
       <c r="D51" s="4" t="inlineStr">
         <is>
-          <t>Siedlungsdichte</t>
+          <t>Freiraumverlust</t>
         </is>
       </c>
       <c r="E51" s="4" t="inlineStr">
         <is>
-          <t>Density of settlements</t>
+          <t>Loss of open space area</t>
         </is>
       </c>
       <c r="F51" s="4" t="inlineStr">
         <is>
-          <t>Siedlungsdichte</t>
+          <t>Freiraumverlust</t>
         </is>
       </c>
       <c r="G51" s="4" t="inlineStr">
         <is>
-          <t>Density of settlements</t>
+          <t>Loss of open space area</t>
         </is>
       </c>
       <c r="H51" s="4" t="inlineStr">
         <is>
-          <t>Keine Verringerung der Siedlungsdichte</t>
+          <t>Verringerung des einwohnerbezogenen Freiflächenverlustes</t>
         </is>
       </c>
       <c r="I51" s="4" t="inlineStr">
         <is>
-          <t>No reduction in density of settlements</t>
+          <t>Reduce the loss of per capita open space area</t>
         </is>
       </c>
       <c r="J51" s="4" t="inlineStr">
         <is>
-          <t>keine Verringerung</t>
+          <t>Verringerung</t>
         </is>
       </c>
       <c r="K51" s="4" t="inlineStr">
         <is>
-          <t>no reduction</t>
+          <t>reduce the loss</t>
         </is>
       </c>
       <c r="L51" s="4" t="inlineStr">
         <is>
-          <t>Siedlungsdichte</t>
+          <t>Freiraumverlust</t>
         </is>
       </c>
       <c r="M51" s="4" t="inlineStr">
         <is>
-          <t>Density of settlements</t>
+          <t>Loss of open space area</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="52">
       <c r="A52" s="4" t="inlineStr">
         <is>
-          <t>Z11_B02_P01_Ib01_I01</t>
+          <t>Z11_B01_P01_Ib03_I01</t>
         </is>
       </c>
       <c r="B52" s="4" t="inlineStr">
         <is>
-          <t>Z11_B02_P01_Ib01</t>
+          <t>Z11_B01_P01_Ib03</t>
         </is>
       </c>
       <c r="C52" s="4" t="inlineStr">
         <is>
-          <t>11.2.a</t>
+          <t>11.1.c</t>
         </is>
       </c>
       <c r="D52" s="4" t="inlineStr">
         <is>
-          <t>Endenergieverbrauch im Güterverkehr</t>
+          <t>Siedlungsdichte</t>
         </is>
       </c>
       <c r="E52" s="4" t="inlineStr">
         <is>
-          <t>Energy consumption in goods transport</t>
+          <t>Density of settlements</t>
         </is>
       </c>
       <c r="F52" s="4" t="inlineStr">
         <is>
-          <t>Endenergieverbrauch im Güterverkehr</t>
+          <t>Siedlungsdichte</t>
         </is>
       </c>
       <c r="G52" s="4" t="inlineStr">
         <is>
-          <t>Final energy consumption in goods transport</t>
+          <t>Density of settlements</t>
         </is>
       </c>
       <c r="H52" s="4" t="inlineStr">
         <is>
-          <t>Senkung um 15 bis 20 % bis 2030</t>
+          <t>Keine Verringerung der Siedlungsdichte</t>
         </is>
       </c>
       <c r="I52" s="4" t="inlineStr">
         <is>
-          <t>Reduction by 15–20 % by 2030</t>
+          <t>No reduction in density of settlements</t>
         </is>
       </c>
       <c r="J52" s="4" t="inlineStr">
         <is>
-          <t>Senkung um 15 bis 20 % bis 2030</t>
+          <t>keine Verringerung</t>
         </is>
       </c>
       <c r="K52" s="4" t="inlineStr">
         <is>
-          <t>reduction by 15-20 % by 2030</t>
+          <t>no reduction</t>
         </is>
       </c>
       <c r="L52" s="4" t="inlineStr">
         <is>
-          <t>Endenergieverbrauch im Güterverkehr</t>
+          <t>Siedlungsdichte</t>
         </is>
       </c>
       <c r="M52" s="4" t="inlineStr">
         <is>
-          <t>Final energy consumption in goods transport</t>
+          <t>Density of settlements</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="53">
       <c r="A53" s="4" t="inlineStr">
         <is>
-          <t>Z11_B02_P01_Ib02_I01</t>
+          <t>Z11_B02_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B53" s="4" t="inlineStr">
         <is>
-          <t>Z11_B02_P01_Ib02</t>
+          <t>Z11_B02_P01_Ib01</t>
         </is>
       </c>
       <c r="C53" s="4" t="inlineStr">
         <is>
-          <t>11.2.b</t>
+          <t>11.2.a</t>
         </is>
       </c>
       <c r="D53" s="4" t="inlineStr">
         <is>
-          <t>Endenergieverbrauch im Personenverkehr</t>
+          <t>Endenergieverbrauch im Güterverkehr</t>
         </is>
       </c>
       <c r="E53" s="4" t="inlineStr">
         <is>
-          <t>Energy consumption in passenger transport</t>
+          <t>Energy consumption in goods transport</t>
         </is>
       </c>
       <c r="F53" s="4" t="inlineStr">
         <is>
-          <t>Endenergieverbrauch im Personenverkehr</t>
+          <t>Endenergieverbrauch im Güterverkehr</t>
         </is>
       </c>
       <c r="G53" s="4" t="inlineStr">
         <is>
-          <t>Final energy consumption in passenger transport</t>
+          <t>Final energy consumption in goods transport</t>
         </is>
       </c>
       <c r="H53" s="4" t="inlineStr">
@@ -4000,354 +4000,354 @@
       </c>
       <c r="L53" s="4" t="inlineStr">
         <is>
-          <t>Endenergieverbrauch im Personenverkehr</t>
+          <t>Endenergieverbrauch im Güterverkehr</t>
         </is>
       </c>
       <c r="M53" s="4" t="inlineStr">
         <is>
-          <t>Final energy consumption in passenger transport</t>
+          <t>Final energy consumption in goods transport</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="54">
       <c r="A54" s="4" t="inlineStr">
         <is>
-          <t>Z11_B02_P01_Ib03_I01</t>
+          <t>Z11_B02_P01_Ib02_I01</t>
         </is>
       </c>
       <c r="B54" s="4" t="inlineStr">
         <is>
-          <t>Z11_B02_P01_Ib03</t>
+          <t>Z11_B02_P01_Ib02</t>
         </is>
       </c>
       <c r="C54" s="4" t="inlineStr">
         <is>
-          <t>11.2.c</t>
+          <t>11.2.b</t>
         </is>
       </c>
       <c r="D54" s="4" t="inlineStr">
         <is>
-          <t>Reisezeit mit öffentlichen Verkehrsmitteln</t>
+          <t>Endenergieverbrauch im Personenverkehr</t>
         </is>
       </c>
       <c r="E54" s="4" t="inlineStr">
         <is>
-          <t>Average travel time by public transport</t>
+          <t>Energy consumption in passenger transport</t>
         </is>
       </c>
       <c r="F54" s="4" t="inlineStr">
         <is>
-          <t>Erreichbarkeit von Mittel- und Oberzentren mit öffentlichen Verkehrsmitteln</t>
+          <t>Endenergieverbrauch im Personenverkehr</t>
         </is>
       </c>
       <c r="G54" s="4" t="inlineStr">
         <is>
-          <t>Accessibility of medium-sized and large cities by public transport</t>
+          <t>Final energy consumption in passenger transport</t>
         </is>
       </c>
       <c r="H54" s="4" t="inlineStr">
         <is>
-          <t>Verringerung der durchschnittlichen Reisezeit mit öffentlichen Verkehrsmitteln</t>
+          <t>Senkung um 15 bis 20 % bis 2030</t>
         </is>
       </c>
       <c r="I54" s="4" t="inlineStr">
         <is>
-          <t>Reduction of average travel time by public transport</t>
+          <t>Reduction by 15–20 % by 2030</t>
         </is>
       </c>
       <c r="J54" s="4" t="inlineStr">
         <is>
-          <t>Verringerung</t>
+          <t>Senkung um 15 bis 20 % bis 2030</t>
         </is>
       </c>
       <c r="K54" s="4" t="inlineStr">
         <is>
-          <t>reduction</t>
+          <t>reduction by 15-20 % by 2030</t>
         </is>
       </c>
       <c r="L54" s="4" t="inlineStr">
         <is>
-          <t>Erreichbarkeit von Mittel- und Oberzentren mit öffentlichen Verkehrsmitteln</t>
+          <t>Endenergieverbrauch im Personenverkehr</t>
         </is>
       </c>
       <c r="M54" s="4" t="inlineStr">
         <is>
-          <t>Accessibility of medium-sized and large cities by public transport</t>
+          <t>Final energy consumption in passenger transport</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="55">
       <c r="A55" s="4" t="inlineStr">
         <is>
-          <t>Z11_B03_P01_Ib01_I01</t>
+          <t>Z11_B02_P01_Ib03_I01</t>
         </is>
       </c>
       <c r="B55" s="4" t="inlineStr">
         <is>
-          <t>Z11_B03_P01_Ib01</t>
+          <t>Z11_B02_P01_Ib03</t>
         </is>
       </c>
       <c r="C55" s="4" t="inlineStr">
         <is>
-          <t>11.3</t>
+          <t>11.2.c</t>
         </is>
       </c>
       <c r="D55" s="4" t="inlineStr">
         <is>
-          <t>Durch Wohnkosten überlastete Personen</t>
+          <t>Reisezeit mit öffentlichen Verkehrsmitteln</t>
         </is>
       </c>
       <c r="E55" s="4" t="inlineStr">
         <is>
-          <t>Persons overburdened by housing costs</t>
+          <t>Average travel time by public transport</t>
         </is>
       </c>
       <c r="F55" s="4" t="inlineStr">
         <is>
-          <t>Überlastung durch Wohnkosten</t>
+          <t>Erreichbarkeit von Mittel- und Oberzentren mit öffentlichen Verkehrsmitteln</t>
         </is>
       </c>
       <c r="G55" s="4" t="inlineStr">
         <is>
-          <t>Housing cost overload</t>
+          <t>Accessibility of medium-sized and large cities by public transport</t>
         </is>
       </c>
       <c r="H55" s="4" t="inlineStr">
         <is>
-          <t>Senkung des Anteils der überlasteten Personen an der Bevölkerung auf 13 % bis 2030</t>
+          <t>Verringerung der durchschnittlichen Reisezeit mit öffentlichen Verkehrsmitteln</t>
         </is>
       </c>
       <c r="I55" s="4" t="inlineStr">
         <is>
-          <t>Reduce the proportion of people who are overburdened to 13 % by 2030</t>
+          <t>Reduction of average travel time by public transport</t>
         </is>
       </c>
       <c r="J55" s="4" t="inlineStr">
         <is>
-          <t>Senkung auf 13 % bis 2030</t>
+          <t>Verringerung</t>
         </is>
       </c>
       <c r="K55" s="4" t="inlineStr">
         <is>
-          <t>reduce to 13 % by 2030</t>
+          <t>reduction</t>
         </is>
       </c>
       <c r="L55" s="4" t="inlineStr">
         <is>
-          <t>Überlastung durch Wohnkosten</t>
+          <t>Erreichbarkeit von Mittel- und Oberzentren mit öffentlichen Verkehrsmitteln</t>
         </is>
       </c>
       <c r="M55" s="4" t="inlineStr">
         <is>
-          <t>Housing cost overload</t>
+          <t>Accessibility of medium-sized and large cities by public transport</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="56">
       <c r="A56" s="4" t="inlineStr">
         <is>
-          <t>Z11_B04_P01_Ib01_I01</t>
+          <t>Z11_B03_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B56" s="4" t="inlineStr">
         <is>
-          <t>Z11_B04_P01_Ib01</t>
+          <t>Z11_B03_P01_Ib01</t>
         </is>
       </c>
       <c r="C56" s="4" t="inlineStr">
         <is>
-          <t>11.4</t>
+          <t>11.3</t>
         </is>
       </c>
       <c r="D56" s="4" t="inlineStr">
         <is>
-          <t>Objekte in der Deutschen Digitalen Bibliothek</t>
+          <t>Durch Wohnkosten überlastete Personen</t>
         </is>
       </c>
       <c r="E56" s="4" t="inlineStr">
         <is>
-          <t>Objects in the German Digital Library</t>
+          <t>Persons overburdened by housing costs</t>
         </is>
       </c>
       <c r="F56" s="4" t="inlineStr">
         <is>
-          <t>Zahl der Objekte in der Deutschen Digitalen Bibliothek</t>
+          <t>Überlastung durch Wohnkosten</t>
         </is>
       </c>
       <c r="G56" s="4" t="inlineStr">
         <is>
-          <t>Number of objects in the German Digital Library</t>
+          <t>Housing cost overload</t>
         </is>
       </c>
       <c r="H56" s="4" t="inlineStr">
         <is>
-          <t>Steigerung der Zahl der in der Deutschen Digitalen Bibliothek vernetzten Objekte auf 50 Millionen bis 2030</t>
+          <t>Senkung des Anteils der überlasteten Personen an der Bevölkerung auf 13 % bis 2030</t>
         </is>
       </c>
       <c r="I56" s="4" t="inlineStr">
         <is>
-          <t>Increase in the number of objects in the network of the German Digital Library to 50 million by 2030</t>
+          <t>Reduce the proportion of people who are overburdened to 13 % by 2030</t>
         </is>
       </c>
       <c r="J56" s="4" t="inlineStr">
         <is>
-          <t>Steigerung auf 50 Millionen bis 2030</t>
+          <t>Senkung auf 13 % bis 2030</t>
         </is>
       </c>
       <c r="K56" s="4" t="inlineStr">
         <is>
-          <t>increase to 50 million by 2030</t>
+          <t>reduce to 13 % by 2030</t>
         </is>
       </c>
       <c r="L56" s="4" t="inlineStr">
         <is>
-          <t>Zahl der Objekte in der Deutschen Digitalen Bibliothek</t>
+          <t>Überlastung durch Wohnkosten</t>
         </is>
       </c>
       <c r="M56" s="4" t="inlineStr">
         <is>
-          <t>Number of objects in the German Digital Library</t>
+          <t>Housing cost overload</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="57">
       <c r="A57" s="4" t="inlineStr">
         <is>
-          <t>Z12_B01_P01_Ib01_I01</t>
+          <t>Z11_B04_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B57" s="4" t="inlineStr">
         <is>
-          <t>Z12_B01_P01_Ib01</t>
+          <t>Z11_B04_P01_Ib01</t>
         </is>
       </c>
       <c r="C57" s="4" t="inlineStr">
         <is>
-          <t>12.1.a</t>
+          <t>11.4</t>
         </is>
       </c>
       <c r="D57" s="4" t="inlineStr">
         <is>
-          <t>Produkte mit Umweltzeichen</t>
+          <t>Objekte in der Deutschen Digitalen Bibliothek</t>
         </is>
       </c>
       <c r="E57" s="4" t="inlineStr">
         <is>
-          <t>Products certified by eco-labelling schemes</t>
+          <t>Objects in the German Digital Library</t>
         </is>
       </c>
       <c r="F57" s="4" t="inlineStr">
         <is>
-          <t>Marktanteil von Produkten mit staatlichen Umweltzeichen</t>
+          <t>Zahl der Objekte in der Deutschen Digitalen Bibliothek</t>
         </is>
       </c>
       <c r="G57" s="4" t="inlineStr">
         <is>
-          <t>Market share of products certified by publicly managed eco-labelling schemes</t>
+          <t>Number of objects in the German Digital Library</t>
         </is>
       </c>
       <c r="H57" s="4" t="inlineStr">
         <is>
-          <t>Steigerung des Marktanteils auf 34 % bis 2030</t>
+          <t>Steigerung der Zahl der in der Deutschen Digitalen Bibliothek vernetzten Objekte auf 50 Millionen bis 2030</t>
         </is>
       </c>
       <c r="I57" s="4" t="inlineStr">
         <is>
-          <t>Increase the market share to 34 % by 2030</t>
+          <t>Increase in the number of objects in the network of the German Digital Library to 50 million by 2030</t>
         </is>
       </c>
       <c r="J57" s="4" t="inlineStr">
         <is>
-          <t>Steigerung des Marktanteils auf 34 % bis 2030</t>
+          <t>Steigerung auf 50 Millionen bis 2030</t>
         </is>
       </c>
       <c r="K57" s="4" t="inlineStr">
         <is>
-          <t>increase the market share to 34 % by 2030</t>
+          <t>increase to 50 million by 2030</t>
         </is>
       </c>
       <c r="L57" s="4" t="inlineStr">
         <is>
-          <t>Marktanteil von Produkten mit staatlichen Umweltzeichen</t>
+          <t>Zahl der Objekte in der Deutschen Digitalen Bibliothek</t>
         </is>
       </c>
       <c r="M57" s="4" t="inlineStr">
         <is>
-          <t>Market share of products certified by publicly managed eco-labelling schemes</t>
+          <t>Number of objects in the German Digital Library</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="58">
       <c r="A58" s="4" t="inlineStr">
         <is>
-          <t>Z12_B01_P01_Ib02_I01</t>
+          <t>Z12_B01_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B58" s="4" t="inlineStr">
         <is>
-          <t>Z12_B01_P01_Ib02</t>
+          <t>Z12_B01_P01_Ib01</t>
         </is>
       </c>
       <c r="C58" s="4" t="inlineStr">
         <is>
-          <t>12.1.ba</t>
+          <t>12.1.a</t>
         </is>
       </c>
       <c r="D58" s="4" t="inlineStr">
         <is>
-          <t>ba) Rohstoffeinsatz</t>
+          <t>Produkte mit Umweltzeichen</t>
         </is>
       </c>
       <c r="E58" s="4" t="inlineStr">
         <is>
-          <t>ba) Use of raw materials</t>
+          <t>Products certified by eco-labelling schemes</t>
         </is>
       </c>
       <c r="F58" s="4" t="inlineStr">
         <is>
-          <t>Globale Umweltinanspruchnahme durch den Konsum privater Haushalte - Rohstoffeinsatz</t>
+          <t>Marktanteil von Produkten mit staatlichen Umweltzeichen</t>
         </is>
       </c>
       <c r="G58" s="4" t="inlineStr">
         <is>
-          <t>Global environmental impact by private household consumption – use of raw materials</t>
+          <t>Market share of products certified by publicly managed eco-labelling schemes</t>
         </is>
       </c>
       <c r="H58" s="4" t="inlineStr">
         <is>
-          <t>Kontinuierliche Reduzierung </t>
+          <t>Steigerung des Marktanteils auf 34 % bis 2030</t>
         </is>
       </c>
       <c r="I58" s="4" t="inlineStr">
         <is>
-          <t>Steady reduction</t>
+          <t>Increase the market share to 34 % by 2030</t>
         </is>
       </c>
       <c r="J58" s="4" t="inlineStr">
         <is>
-          <t>kontinuierliche Reduzierung</t>
+          <t>Steigerung des Marktanteils auf 34 % bis 2030</t>
         </is>
       </c>
       <c r="K58" s="4" t="inlineStr">
         <is>
-          <t>steady reduction</t>
+          <t>increase the market share to 34 % by 2030</t>
         </is>
       </c>
       <c r="L58" s="4" t="inlineStr">
         <is>
-          <t>Direkter und indirekter Rohstoffeinsatz</t>
+          <t>Marktanteil von Produkten mit staatlichen Umweltzeichen</t>
         </is>
       </c>
       <c r="M58" s="4" t="inlineStr">
         <is>
-          <t>Direct and indirect use of raw materials</t>
+          <t>Market share of products certified by publicly managed eco-labelling schemes</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="59">
       <c r="A59" s="4" t="inlineStr">
         <is>
-          <t>Z12_B01_P01_Ib02_I02</t>
+          <t>Z12_B01_P01_Ib02_I01</t>
         </is>
       </c>
       <c r="B59" s="4" t="inlineStr">
@@ -4357,27 +4357,27 @@
       </c>
       <c r="C59" s="4" t="inlineStr">
         <is>
-          <t>12.1.bb</t>
+          <t>12.1.ba</t>
         </is>
       </c>
       <c r="D59" s="4" t="inlineStr">
         <is>
-          <t>bb) Energieverbrauch</t>
+          <t>ba) Rohstoffeinsatz</t>
         </is>
       </c>
       <c r="E59" s="4" t="inlineStr">
         <is>
-          <t>bb) Energy consumption</t>
+          <t>ba) Use of raw materials</t>
         </is>
       </c>
       <c r="F59" s="4" t="inlineStr">
         <is>
-          <t>Globale Umweltinanspruchnahme durch den Konsum privater Haushalte - Energieverbrauch</t>
+          <t>Globale Umweltinanspruchnahme durch den Konsum privater Haushalte - Rohstoffeinsatz</t>
         </is>
       </c>
       <c r="G59" s="4" t="inlineStr">
         <is>
-          <t>Global environmental impact by private household consumption – energy consumption</t>
+          <t>Global environmental impact by private household consumption – use of raw materials</t>
         </is>
       </c>
       <c r="H59" s="4" t="inlineStr">
@@ -4402,19 +4402,19 @@
       </c>
       <c r="L59" s="4" t="inlineStr">
         <is>
-          <t>Direkter und indirekter Energieverbrauch</t>
+          <t>Direkter und indirekter Rohstoffeinsatz</t>
         </is>
       </c>
       <c r="M59" s="4" t="inlineStr">
         <is>
-          <t>Direct and indirect energy consumption</t>
+          <t>Direct and indirect use of raw materials</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="60">
       <c r="A60" s="4" t="inlineStr">
         <is>
-          <t>Z12_B01_P01_Ib02_I03</t>
+          <t>Z12_B01_P01_Ib02_I02</t>
         </is>
       </c>
       <c r="B60" s="4" t="inlineStr">
@@ -4424,27 +4424,27 @@
       </c>
       <c r="C60" s="4" t="inlineStr">
         <is>
-          <t>12.1.bc</t>
+          <t>12.1.bb</t>
         </is>
       </c>
       <c r="D60" s="4" t="inlineStr">
         <is>
-          <t>bc) CO2-Emissionen</t>
+          <t>bb) Energieverbrauch</t>
         </is>
       </c>
       <c r="E60" s="4" t="inlineStr">
         <is>
-          <t>bc) CO2 emissions</t>
+          <t>bb) Energy consumption</t>
         </is>
       </c>
       <c r="F60" s="4" t="inlineStr">
         <is>
-          <t>Globale Umweltinanspruchnahme durch den Konsum privater Haushalte - CO2-Emissionen</t>
+          <t>Globale Umweltinanspruchnahme durch den Konsum privater Haushalte - Energieverbrauch</t>
         </is>
       </c>
       <c r="G60" s="4" t="inlineStr">
         <is>
-          <t>Global environmental impact by private household consumption – CO2 emissions</t>
+          <t>Global environmental impact by private household consumption – energy consumption</t>
         </is>
       </c>
       <c r="H60" s="4" t="inlineStr">
@@ -4469,153 +4469,153 @@
       </c>
       <c r="L60" s="4" t="inlineStr">
         <is>
-          <t>Direkte und indirekte CO2-Emissionen</t>
+          <t>Direkter und indirekter Energieverbrauch</t>
         </is>
       </c>
       <c r="M60" s="4" t="inlineStr">
         <is>
-          <t>Direct and indirect CO2 emissions</t>
+          <t>Direct and indirect energy consumption</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="61">
       <c r="A61" s="4" t="inlineStr">
         <is>
-          <t>Z12_B02_P01_Ib01_I01</t>
+          <t>Z12_B01_P01_Ib02_I03</t>
         </is>
       </c>
       <c r="B61" s="4" t="inlineStr">
         <is>
-          <t>Z12_B02_P01_Ib01</t>
+          <t>Z12_B01_P01_Ib02</t>
         </is>
       </c>
       <c r="C61" s="4" t="inlineStr">
         <is>
-          <t>12.2</t>
+          <t>12.1.bc</t>
         </is>
       </c>
       <c r="D61" s="4" t="inlineStr">
         <is>
-          <t>Umweltmanagement EMAS</t>
+          <t>bc) CO2-Emissionen</t>
         </is>
       </c>
       <c r="E61" s="4" t="inlineStr">
         <is>
-          <t>EMAS eco-management</t>
+          <t>bc) CO2 emissions</t>
         </is>
       </c>
       <c r="F61" s="4" t="inlineStr">
         <is>
-          <t>Umweltmanagement EMAS</t>
+          <t>Globale Umweltinanspruchnahme durch den Konsum privater Haushalte - CO2-Emissionen</t>
         </is>
       </c>
       <c r="G61" s="4" t="inlineStr">
         <is>
-          <t>EMAS eco-management</t>
+          <t>Global environmental impact by private household consumption – CO2 emissions</t>
         </is>
       </c>
       <c r="H61" s="4" t="inlineStr">
         <is>
-          <t>5 000 Organisationsstandorte bis 2030</t>
+          <t>Kontinuierliche Reduzierung </t>
         </is>
       </c>
       <c r="I61" s="4" t="inlineStr">
         <is>
-          <t>5,000 locations of organisation by 2030</t>
+          <t>Steady reduction</t>
         </is>
       </c>
       <c r="J61" s="4" t="inlineStr">
         <is>
-          <t>5 000 Organisationsstandorte bis 2030</t>
+          <t>kontinuierliche Reduzierung</t>
         </is>
       </c>
       <c r="K61" s="4" t="inlineStr">
         <is>
-          <t>5,000 locations of organisation by 2030</t>
+          <t>steady reduction</t>
         </is>
       </c>
       <c r="L61" s="4" t="inlineStr">
         <is>
-          <t>Umweltmanagement EMAS</t>
+          <t>Direkte und indirekte CO2-Emissionen</t>
         </is>
       </c>
       <c r="M61" s="4" t="inlineStr">
         <is>
-          <t>EMAS eco-management</t>
+          <t>Direct and indirect CO2 emissions</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="62">
       <c r="A62" s="4" t="inlineStr">
         <is>
-          <t>Z12_B03_P01_Ib01_I01</t>
+          <t>Z12_B02_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B62" s="4" t="inlineStr">
         <is>
-          <t>Z12_B03_P01_Ib01</t>
+          <t>Z12_B02_P01_Ib01</t>
         </is>
       </c>
       <c r="C62" s="4" t="inlineStr">
         <is>
-          <t>12.3.a</t>
+          <t>12.2</t>
         </is>
       </c>
       <c r="D62" s="4" t="inlineStr">
         <is>
-          <t>a) Anteil Papier mit Blauem Engel der Bundesverwaltung</t>
+          <t>Umweltmanagement EMAS</t>
         </is>
       </c>
       <c r="E62" s="4" t="inlineStr">
         <is>
-          <t>a) Share of paper bearing the Blue Angel label of the federal administration</t>
+          <t>EMAS eco-management</t>
         </is>
       </c>
       <c r="F62" s="4" t="inlineStr">
         <is>
-          <t>Anteil des Papiers mit Blauem Engel am Gesamtpapierverbrauch der unmittelbaren Bundesverwaltung</t>
+          <t>Umweltmanagement EMAS</t>
         </is>
       </c>
       <c r="G62" s="4" t="inlineStr">
         <is>
-          <t>Paper bearing the Blue Angel label as a proportion of the total paper consumption of the direct federal administration</t>
+          <t>EMAS eco-management</t>
         </is>
       </c>
       <c r="H62" s="4" t="inlineStr">
         <is>
-          <t>Steigerung des Anteils auf 95 % bis 2020</t>
+          <t>5 000 Organisationsstandorte bis 2030</t>
         </is>
       </c>
       <c r="I62" s="4" t="inlineStr">
         <is>
-          <t>Increase the proportion to 95 % by 2020</t>
+          <t>5,000 locations of organisation by 2030</t>
         </is>
       </c>
       <c r="J62" s="4" t="inlineStr">
         <is>
-          <t>Steigerung auf 95 % bis 2020</t>
+          <t>5 000 Organisationsstandorte bis 2030</t>
         </is>
       </c>
       <c r="K62" s="4" t="inlineStr">
         <is>
-          <t>increase to 95 % by 2020</t>
+          <t>5,000 locations of organisation by 2030</t>
         </is>
       </c>
       <c r="L62" s="4" t="inlineStr">
         <is>
-          <t>Anteil des Papiers mit Blauem Engel am Gesamtpapierverbrauch der unmittelbaren Bundesverwaltung</t>
+          <t>Umweltmanagement EMAS</t>
         </is>
       </c>
       <c r="M62" s="4" t="inlineStr">
         <is>
-          <t>Paper bearing the Blue Angel label as a proportion of the total paper consumption of the direct federal administration</t>
+          <t>EMAS eco-management</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="63">
       <c r="A63" s="4" t="inlineStr">
         <is>
-          <t>Z12_B03_P01_Ib01_I02</t>
+          <t>Z12_B03_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B63" s="4" t="inlineStr">
@@ -4625,265 +4625,265 @@
       </c>
       <c r="C63" s="4" t="inlineStr">
         <is>
-          <t>12.3.b</t>
+          <t>12.3.a</t>
         </is>
       </c>
       <c r="D63" s="4" t="inlineStr">
         <is>
-          <t>b) CO2-Emissionen der Kfz der öffentlichen Hand</t>
+          <t>a) Anteil Papier mit Blauem Engel der Bundesverwaltung</t>
         </is>
       </c>
       <c r="E63" s="4" t="inlineStr">
         <is>
-          <t>b) CO2 emissions of vehicles in the public sector</t>
+          <t>a) Share of paper bearing the Blue Angel label of the federal administration</t>
         </is>
       </c>
       <c r="F63" s="4" t="inlineStr">
         <is>
-          <t>CO2-Emissionen je Fahrleistungen der Kraftfahrzeuge der öffentlichen Hand</t>
+          <t>Anteil des Papiers mit Blauem Engel am Gesamtpapierverbrauch der unmittelbaren Bundesverwaltung</t>
         </is>
       </c>
       <c r="G63" s="4" t="inlineStr">
         <is>
-          <t>CO2 emissions of commercially available vehicles in the public sector</t>
+          <t>Paper bearing the Blue Angel label as a proportion of the total paper consumption of the direct federal administration</t>
         </is>
       </c>
       <c r="H63" s="4" t="inlineStr">
         <is>
-          <t>Signifikante Senkung</t>
+          <t>Steigerung des Anteils auf 95 % bis 2020</t>
         </is>
       </c>
       <c r="I63" s="4" t="inlineStr">
         <is>
-          <t>Significantly reduce</t>
+          <t>Increase the proportion to 95 % by 2020</t>
         </is>
       </c>
       <c r="J63" s="4" t="inlineStr">
         <is>
-          <t>signifikante Senkung</t>
+          <t>Steigerung auf 95 % bis 2020</t>
         </is>
       </c>
       <c r="K63" s="4" t="inlineStr">
         <is>
-          <t>significantly reduce</t>
+          <t>increase to 95 % by 2020</t>
         </is>
       </c>
       <c r="L63" s="4" t="inlineStr">
         <is>
-          <t>CO2-Emissionen je Fahrleistungen der Kraftfahrzeuge der öffentlichen Hand</t>
+          <t>Anteil des Papiers mit Blauem Engel am Gesamtpapierverbrauch der unmittelbaren Bundesverwaltung</t>
         </is>
       </c>
       <c r="M63" s="4" t="inlineStr">
         <is>
-          <t>CO2 emissions of commercially available vehicles in the public sector</t>
+          <t>Paper bearing the Blue Angel label as a proportion of the total paper consumption of the direct federal administration</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="64">
       <c r="A64" s="4" t="inlineStr">
         <is>
-          <t>Z13_B01_P01_Ib01_I01</t>
+          <t>Z12_B03_P01_Ib01_I02</t>
         </is>
       </c>
       <c r="B64" s="4" t="inlineStr">
         <is>
-          <t>Z13_B01_P01_Ib01</t>
+          <t>Z12_B03_P01_Ib01</t>
         </is>
       </c>
       <c r="C64" s="4" t="inlineStr">
         <is>
-          <t>13.1.a</t>
+          <t>12.3.b</t>
         </is>
       </c>
       <c r="D64" s="4" t="inlineStr">
         <is>
-          <t>Treibhausgasemissionen</t>
+          <t>b) CO2-Emissionen der Kfz der öffentlichen Hand</t>
         </is>
       </c>
       <c r="E64" s="4" t="inlineStr">
         <is>
-          <t>Greenhouse gas emissions</t>
+          <t>b) CO2 emissions of vehicles in the public sector</t>
         </is>
       </c>
       <c r="F64" s="4" t="inlineStr">
         <is>
-          <t>Treibhausgasemissionen</t>
+          <t>CO2-Emissionen je Fahrleistungen der Kraftfahrzeuge der öffentlichen Hand</t>
         </is>
       </c>
       <c r="G64" s="4" t="inlineStr">
         <is>
-          <t>Greenhouse gas emissions</t>
+          <t>CO2 emissions of commercially available vehicles in the public sector</t>
         </is>
       </c>
       <c r="H64" s="4" t="inlineStr">
         <is>
-          <t>Minderung um mindestens 65 % bis 2030, um mindestens 88 % bis 2040; Erreichung der Treibhausgasneutralität bis 2045</t>
+          <t>Signifikante Senkung</t>
         </is>
       </c>
       <c r="I64" s="4" t="inlineStr">
         <is>
-          <t>Reduce by at least 65 % by 2030 and by at least 88 % by 2040; greenhouse gas neutrality to be achieved by 2045</t>
+          <t>Significantly reduce</t>
         </is>
       </c>
       <c r="J64" s="4" t="inlineStr">
         <is>
-          <t>Minderung um 65 % bis 2030</t>
+          <t>signifikante Senkung</t>
         </is>
       </c>
       <c r="K64" s="4" t="inlineStr">
         <is>
-          <t>reduce by 65 % by 2030</t>
+          <t>significantly reduce</t>
         </is>
       </c>
       <c r="L64" s="4" t="inlineStr">
         <is>
-          <t>Treibhausgasemissionen</t>
+          <t>CO2-Emissionen je Fahrleistungen der Kraftfahrzeuge der öffentlichen Hand</t>
         </is>
       </c>
       <c r="M64" s="4" t="inlineStr">
         <is>
-          <t>Greenhouse gas emissions</t>
+          <t>CO2 emissions of commercially available vehicles in the public sector</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="65">
       <c r="A65" s="4" t="inlineStr">
         <is>
-          <t>Z13_B01_P02_Ib01_I01</t>
+          <t>Z13_B01_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B65" s="4" t="inlineStr">
         <is>
-          <t>Z13_B01_P02_Ib01</t>
+          <t>Z13_B01_P01_Ib01</t>
         </is>
       </c>
       <c r="C65" s="4" t="inlineStr">
         <is>
-          <t>13.1.b</t>
+          <t>13.1.a</t>
         </is>
       </c>
       <c r="D65" s="4" t="inlineStr">
         <is>
-          <t>Zahlungen zur Klimafinanzierung</t>
+          <t>Treibhausgasemissionen</t>
         </is>
       </c>
       <c r="E65" s="4" t="inlineStr">
         <is>
-          <t>Climate finance payments</t>
+          <t>Greenhouse gas emissions</t>
         </is>
       </c>
       <c r="F65" s="4" t="inlineStr">
         <is>
-          <t>Internationale Klimafinanzierung zur Reduktion von Treibhausgasen und zur Anpassung an den Klimawandel</t>
+          <t>Treibhausgasemissionen</t>
         </is>
       </c>
       <c r="G65" s="4" t="inlineStr">
         <is>
-          <t>International climate finance for the reduction of greenhouse gases and adaptation to climate change</t>
+          <t>Greenhouse gas emissions</t>
         </is>
       </c>
       <c r="H65" s="4" t="inlineStr">
         <is>
-          <t>Erhöhung der internationalen Klimafinanzierung auf mindestens 6 Mrd. Euro bis spätestens 2025.</t>
+          <t>Minderung um mindestens 65 % bis 2030, um mindestens 88 % bis 2040; Erreichung der Treibhausgasneutralität bis 2045</t>
         </is>
       </c>
       <c r="I65" s="4" t="inlineStr">
         <is>
-          <t>Increase international climate finance to at least 6 billion euros by 2025 at the latest</t>
+          <t>Reduce by at least 65 % by 2030 and by at least 88 % by 2040; greenhouse gas neutrality to be achieved by 2045</t>
         </is>
       </c>
       <c r="J65" s="4" t="inlineStr">
         <is>
-          <t>Erhöhung auf 6 Mrd. Euro bis 2025</t>
+          <t>Minderung um 65 % bis 2030</t>
         </is>
       </c>
       <c r="K65" s="4" t="inlineStr">
         <is>
-          <t>increase to 6 bn euro by 2025</t>
+          <t>reduce by 65 % by 2030</t>
         </is>
       </c>
       <c r="L65" s="4" t="inlineStr">
         <is>
-          <t>Internationale Klimafinanzierung zur Reduktion von Treibhausgasen und zur Anpassung an den Klimawandel</t>
+          <t>Treibhausgasemissionen</t>
         </is>
       </c>
       <c r="M65" s="4" t="inlineStr">
         <is>
-          <t>International climate finance for the reduction of greenhouse gases and adaptation to climate change</t>
+          <t>Greenhouse gas emissions</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="66">
       <c r="A66" s="4" t="inlineStr">
         <is>
-          <t>Z14_B01_P01_Ib01_I01</t>
+          <t>Z13_B01_P02_Ib01_I01</t>
         </is>
       </c>
       <c r="B66" s="4" t="inlineStr">
         <is>
-          <t>Z14_B01_P01_Ib01</t>
+          <t>Z13_B01_P02_Ib01</t>
         </is>
       </c>
       <c r="C66" s="4" t="inlineStr">
         <is>
-          <t>14.1.aa</t>
+          <t>13.1.b</t>
         </is>
       </c>
       <c r="D66" s="4" t="inlineStr">
         <is>
-          <t>aa) Ostsee</t>
+          <t>Zahlungen zur Klimafinanzierung</t>
         </is>
       </c>
       <c r="E66" s="4" t="inlineStr">
         <is>
-          <t>aa) Baltic Sea</t>
+          <t>Climate finance payments</t>
         </is>
       </c>
       <c r="F66" s="4" t="inlineStr">
         <is>
-          <t>Stickstoffeintrag über die Zuflüsse in die Ostsee</t>
+          <t>Internationale Klimafinanzierung zur Reduktion von Treibhausgasen und zur Anpassung an den Klimawandel</t>
         </is>
       </c>
       <c r="G66" s="4" t="inlineStr">
         <is>
-          <t>Nitrogen input via the inflows into the Baltic Sea</t>
+          <t>International climate finance for the reduction of greenhouse gases and adaptation to climate change</t>
         </is>
       </c>
       <c r="H66" s="4" t="inlineStr">
         <is>
-          <t>Einhaltung des guten Zustands nach Oberflächengewässerverordnung (Jahresmittelwerte für Gesamtstickstoff bei in die Ostsee mündenden Flüssen sollen 2,6 Milligramm pro Liter nicht überschreiten)</t>
+          <t>Erhöhung der internationalen Klimafinanzierung auf mindestens 6 Mrd. Euro bis spätestens 2025.</t>
         </is>
       </c>
       <c r="I66" s="4" t="inlineStr">
         <is>
-          <t>Adherence to good quality in accordance with the Ordinance on the Protection of Surface Waters (Oberflächengewässerver-ordnung) (annual averages for total nitro-gen in rivers flowing into the Baltic may not exceed 2.6 mg/l)</t>
+          <t>Increase international climate finance to at least 6 billion euros by 2025 at the latest</t>
         </is>
       </c>
       <c r="J66" s="4" t="inlineStr">
         <is>
-          <t>Gesamtstickstoff in Zuflüssen unter 2,6 mg/l</t>
+          <t>Erhöhung auf 6 Mrd. Euro bis 2025</t>
         </is>
       </c>
       <c r="K66" s="4" t="inlineStr">
         <is>
-          <t>total nitrogen in the inflows below 2.6 mg/l</t>
+          <t>increase to 6 bn euro by 2025</t>
         </is>
       </c>
       <c r="L66" s="4" t="inlineStr">
         <is>
-          <t>Stickstoffeintrag über die Zuflüsse in die Ostsee</t>
+          <t>Internationale Klimafinanzierung zur Reduktion von Treibhausgasen und zur Anpassung an den Klimawandel</t>
         </is>
       </c>
       <c r="M66" s="4" t="inlineStr">
         <is>
-          <t>Nitrogen input via the inflows into the Baltic Sea</t>
+          <t>International climate finance for the reduction of greenhouse gases and adaptation to climate change</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="67">
       <c r="A67" s="4" t="inlineStr">
         <is>
-          <t>Z14_B01_P01_Ib01_I02</t>
+          <t>Z14_B01_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B67" s="4" t="inlineStr">
@@ -4893,332 +4893,332 @@
       </c>
       <c r="C67" s="4" t="inlineStr">
         <is>
-          <t>14.1.ab</t>
+          <t>14.1.aa</t>
         </is>
       </c>
       <c r="D67" s="4" t="inlineStr">
         <is>
-          <t>ab) Nordsee</t>
+          <t>aa) Ostsee</t>
         </is>
       </c>
       <c r="E67" s="4" t="inlineStr">
         <is>
-          <t>ab) North Sea</t>
+          <t>aa) Baltic Sea</t>
         </is>
       </c>
       <c r="F67" s="4" t="inlineStr">
         <is>
-          <t>Stickstoffeintrag über die Zuflüsse in die Nordsee</t>
+          <t>Stickstoffeintrag über die Zuflüsse in die Ostsee</t>
         </is>
       </c>
       <c r="G67" s="4" t="inlineStr">
         <is>
-          <t>Nitrogen input via the inflows into the North Sea</t>
+          <t>Nitrogen input via the inflows into the Baltic Sea</t>
         </is>
       </c>
       <c r="H67" s="4" t="inlineStr">
         <is>
-          <t>Einhaltung des guten Zustands nach Oberflächengewässerverordnung (Jahresmittelwerte für Gesamtstickstoff bei in die Nordsee mündenden Flüssen sollen 2,8 Milligramm pro Liter nicht überschreiten)</t>
+          <t>Einhaltung des guten Zustands nach Oberflächengewässerverordnung (Jahresmittelwerte für Gesamtstickstoff bei in die Ostsee mündenden Flüssen sollen 2,6 Milligramm pro Liter nicht überschreiten)</t>
         </is>
       </c>
       <c r="I67" s="4" t="inlineStr">
         <is>
-          <t>Adherence to good quality in accordance with the Ordinance on the Protection of Surface Waters (annual averages for total nitrogen in rivers flowing into the North Sea may not exceed 2.8 mg/l)</t>
+          <t>Adherence to good quality in accordance with the Ordinance on the Protection of Surface Waters (Oberflächengewässerver-ordnung) (annual averages for total nitro-gen in rivers flowing into the Baltic may not exceed 2.6 mg/l)</t>
         </is>
       </c>
       <c r="J67" s="4" t="inlineStr">
         <is>
-          <t>Gesamtstickstoff in Zuflüssen unter 2,8 mg/l</t>
+          <t>Gesamtstickstoff in Zuflüssen unter 2,6 mg/l</t>
         </is>
       </c>
       <c r="K67" s="4" t="inlineStr">
         <is>
-          <t>total nitrogen in the inflows below 2.8 mg/l</t>
+          <t>total nitrogen in the inflows below 2.6 mg/l</t>
         </is>
       </c>
       <c r="L67" s="4" t="inlineStr">
         <is>
-          <t>Stickstoffeintrag über die Zuflüsse in die Nordsee</t>
+          <t>Stickstoffeintrag über die Zuflüsse in die Ostsee</t>
         </is>
       </c>
       <c r="M67" s="4" t="inlineStr">
         <is>
-          <t>Nitrogen input via the inflows into the North Sea</t>
+          <t>Nitrogen input via the inflows into the Baltic Sea</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="68">
       <c r="A68" s="4" t="inlineStr">
         <is>
-          <t>Z14_B01_P01_Ib02_I01</t>
+          <t>Z14_B01_P01_Ib01_I02</t>
         </is>
       </c>
       <c r="B68" s="4" t="inlineStr">
         <is>
-          <t>Z14_B01_P01_Ib02</t>
+          <t>Z14_B01_P01_Ib01</t>
         </is>
       </c>
       <c r="C68" s="4" t="inlineStr">
         <is>
-          <t>14.1.b</t>
+          <t>14.1.ab</t>
         </is>
       </c>
       <c r="D68" s="4" t="inlineStr">
         <is>
-          <t>Bewirtschaftung von Fischbeständen</t>
+          <t>ab) Nordsee</t>
         </is>
       </c>
       <c r="E68" s="4" t="inlineStr">
         <is>
-          <t>Fish stock management</t>
+          <t>ab) North Sea</t>
         </is>
       </c>
       <c r="F68" s="4" t="inlineStr">
         <is>
-          <t>Anteil der nachhaltig befischten Fischbestände in Nord- und Ostsee</t>
+          <t>Stickstoffeintrag über die Zuflüsse in die Nordsee</t>
         </is>
       </c>
       <c r="G68" s="4" t="inlineStr">
         <is>
-          <t>Share of sustainably fished stocks of fish in the North and Baltic Seas</t>
+          <t>Nitrogen input via the inflows into the North Sea</t>
         </is>
       </c>
       <c r="H68" s="4" t="inlineStr">
         <is>
-          <t>Alle wirtschaftlich genutzten Fischbestände sollen nach dem MSY-Ansatz nachhaltig bewirtschaftet werden bis 2020</t>
+          <t>Einhaltung des guten Zustands nach Oberflächengewässerverordnung (Jahresmittelwerte für Gesamtstickstoff bei in die Nordsee mündenden Flüssen sollen 2,8 Milligramm pro Liter nicht überschreiten)</t>
         </is>
       </c>
       <c r="I68" s="4" t="inlineStr">
         <is>
-          <t>All fish stocks used for commercial purpos-es to be sustainably managed in accordance with the Maximum Sustainable Yield (MSY) approach by 2020</t>
+          <t>Adherence to good quality in accordance with the Ordinance on the Protection of Surface Waters (annual averages for total nitrogen in rivers flowing into the North Sea may not exceed 2.8 mg/l)</t>
         </is>
       </c>
       <c r="J68" s="4" t="inlineStr">
         <is>
-          <t>nachhaltige Bewirtschaftung nach dem MSY-Ansatz bis 2020</t>
+          <t>Gesamtstickstoff in Zuflüssen unter 2,8 mg/l</t>
         </is>
       </c>
       <c r="K68" s="4" t="inlineStr">
         <is>
-          <t>sustainable management in accordance with the MSY approachby 2020</t>
+          <t>total nitrogen in the inflows below 2.8 mg/l</t>
         </is>
       </c>
       <c r="L68" s="4" t="inlineStr">
         <is>
-          <t>Anteil der nachhaltig befischten Fischbestände in Nord- und Ostsee</t>
+          <t>Stickstoffeintrag über die Zuflüsse in die Nordsee</t>
         </is>
       </c>
       <c r="M68" s="4" t="inlineStr">
         <is>
-          <t>Share of sustainably fished stocks of fish in the North and Baltic Seas</t>
+          <t>Nitrogen input via the inflows into the North Sea</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="69">
       <c r="A69" s="4" t="inlineStr">
         <is>
-          <t>Z15_B01_P01_Ib01_I01</t>
+          <t>Z14_B01_P01_Ib02_I01</t>
         </is>
       </c>
       <c r="B69" s="4" t="inlineStr">
         <is>
-          <t>Z15_B01_P01_Ib01</t>
+          <t>Z14_B01_P01_Ib02</t>
         </is>
       </c>
       <c r="C69" s="4" t="inlineStr">
         <is>
-          <t>15.1</t>
+          <t>14.1.b</t>
         </is>
       </c>
       <c r="D69" s="4" t="inlineStr">
         <is>
-          <t>Artenvielfalt und Landschaftsqualität</t>
+          <t>Bewirtschaftung von Fischbeständen</t>
         </is>
       </c>
       <c r="E69" s="4" t="inlineStr">
         <is>
-          <t>Biodiversity and landscape quality</t>
+          <t>Fish stock management</t>
         </is>
       </c>
       <c r="F69" s="4" t="inlineStr">
         <is>
-          <t>Artenvielfalt und Landschaftsqualität</t>
+          <t>Anteil der nachhaltig befischten Fischbestände in Nord- und Ostsee</t>
         </is>
       </c>
       <c r="G69" s="4" t="inlineStr">
         <is>
-          <t>Biodiversity and landscape quality</t>
+          <t>Share of sustainably fished stocks of fish in the North and Baltic Seas</t>
         </is>
       </c>
       <c r="H69" s="4" t="inlineStr">
         <is>
-          <t>Erreichen des Indexwertes 100 bis 2030</t>
+          <t>Alle wirtschaftlich genutzten Fischbestände sollen nach dem MSY-Ansatz nachhaltig bewirtschaftet werden bis 2020</t>
         </is>
       </c>
       <c r="I69" s="4" t="inlineStr">
         <is>
-          <t>Reach the index value of 100 by 2030</t>
+          <t>All fish stocks used for commercial purpos-es to be sustainably managed in accordance with the Maximum Sustainable Yield (MSY) approach by 2020</t>
         </is>
       </c>
       <c r="J69" s="4" t="inlineStr">
         <is>
-          <t>Erreichen des Indexwertes 100 bis 2030</t>
+          <t>nachhaltige Bewirtschaftung nach dem MSY-Ansatz bis 2020</t>
         </is>
       </c>
       <c r="K69" s="4" t="inlineStr">
         <is>
-          <t>reach the index value of 100 by 2030</t>
+          <t>sustainable management in accordance with the MSY approachby 2020</t>
         </is>
       </c>
       <c r="L69" s="4" t="inlineStr">
         <is>
-          <t>Artenvielfalt und Landschaftsqualität</t>
+          <t>Anteil der nachhaltig befischten Fischbestände in Nord- und Ostsee</t>
         </is>
       </c>
       <c r="M69" s="4" t="inlineStr">
         <is>
-          <t>Biodiversity and landscape quality</t>
+          <t>Share of sustainably fished stocks of fish in the North and Baltic Seas</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="70">
       <c r="A70" s="4" t="inlineStr">
         <is>
-          <t>Z15_B02_P01_Ib01_I01</t>
+          <t>Z15_B01_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B70" s="4" t="inlineStr">
         <is>
-          <t>Z15_B02_P01_Ib01</t>
+          <t>Z15_B01_P01_Ib01</t>
         </is>
       </c>
       <c r="C70" s="4" t="inlineStr">
         <is>
-          <t>15.2</t>
+          <t>15.1</t>
         </is>
       </c>
       <c r="D70" s="4" t="inlineStr">
         <is>
-          <t>Flächen mit erhöhtem Stickstoffeintrag</t>
+          <t>Artenvielfalt und Landschaftsqualität</t>
         </is>
       </c>
       <c r="E70" s="4" t="inlineStr">
         <is>
-          <t>Land with elevated inputs of nitrogen</t>
+          <t>Biodiversity and landscape quality</t>
         </is>
       </c>
       <c r="F70" s="4" t="inlineStr">
         <is>
-          <t>Eutrophierung der Ökosysteme</t>
+          <t>Artenvielfalt und Landschaftsqualität</t>
         </is>
       </c>
       <c r="G70" s="4" t="inlineStr">
         <is>
-          <t>Eutrophication of ecosystems</t>
+          <t>Biodiversity and landscape quality</t>
         </is>
       </c>
       <c r="H70" s="4" t="inlineStr">
         <is>
-          <t>Verringerung um 35 % bis 2030 gegenüber 2005</t>
+          <t>Erreichen des Indexwertes 100 bis 2030</t>
         </is>
       </c>
       <c r="I70" s="4" t="inlineStr">
         <is>
-          <t>Reduction by 35 % by 2030 compared to 2005</t>
+          <t>Reach the index value of 100 by 2030</t>
         </is>
       </c>
       <c r="J70" s="4" t="inlineStr">
         <is>
-          <t>Verringerung um 35 % bis 2030</t>
+          <t>Erreichen des Indexwertes 100 bis 2030</t>
         </is>
       </c>
       <c r="K70" s="4" t="inlineStr">
         <is>
-          <t>reduction by 35 % by 2030</t>
+          <t>reach the index value of 100 by 2030</t>
         </is>
       </c>
       <c r="L70" s="4" t="inlineStr">
         <is>
-          <t>Eutrophierung der Ökosysteme</t>
+          <t>Artenvielfalt und Landschaftsqualität</t>
         </is>
       </c>
       <c r="M70" s="4" t="inlineStr">
         <is>
-          <t>Eutrophication of ecosystems</t>
+          <t>Biodiversity and landscape quality</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="71">
       <c r="A71" s="4" t="inlineStr">
         <is>
-          <t>Z15_B02_P02_Ib01_I01</t>
+          <t>Z15_B02_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B71" s="4" t="inlineStr">
         <is>
-          <t>Z15_B02_P02_Ib01</t>
+          <t>Z15_B02_P01_Ib01</t>
         </is>
       </c>
       <c r="C71" s="4" t="inlineStr">
         <is>
-          <t>15.3.a</t>
+          <t>15.2</t>
         </is>
       </c>
       <c r="D71" s="4" t="inlineStr">
         <is>
-          <t>a) Wälder unter REDD+-Regelwerk</t>
+          <t>Flächen mit erhöhtem Stickstoffeintrag</t>
         </is>
       </c>
       <c r="E71" s="4" t="inlineStr">
         <is>
-          <t>a) Forests under REDD+ rulebook</t>
+          <t>Land with elevated inputs of nitrogen</t>
         </is>
       </c>
       <c r="F71" s="4" t="inlineStr">
         <is>
-          <t>REDD+ (ergebnisbasierte Auszahlungen für internationalen Waldschutz)</t>
+          <t>Eutrophierung der Ökosysteme</t>
         </is>
       </c>
       <c r="G71" s="4" t="inlineStr">
         <is>
-          <t>REDD+ (results-based payments for international protection of forests)</t>
+          <t>Eutrophication of ecosystems</t>
         </is>
       </c>
       <c r="H71" s="4" t="inlineStr">
         <is>
-          <t>Steigerung der Zahlungen bis 2030</t>
+          <t>Verringerung um 35 % bis 2030 gegenüber 2005</t>
         </is>
       </c>
       <c r="I71" s="4" t="inlineStr">
         <is>
-          <t>Increase payments by 2030</t>
+          <t>Reduction by 35 % by 2030 compared to 2005</t>
         </is>
       </c>
       <c r="J71" s="4" t="inlineStr">
         <is>
-          <t>Steigerung der Zahlungen bis 2030</t>
+          <t>Verringerung um 35 % bis 2030</t>
         </is>
       </c>
       <c r="K71" s="4" t="inlineStr">
         <is>
-          <t>increase payments by 2030</t>
+          <t>reduction by 35 % by 2030</t>
         </is>
       </c>
       <c r="L71" s="4" t="inlineStr">
         <is>
-          <t>Erhalt bzw. Wiederaufbau von Wäldern in Entwicklungsländern unter dem REDD+-Regelwerk</t>
+          <t>Eutrophierung der Ökosysteme</t>
         </is>
       </c>
       <c r="M71" s="4" t="inlineStr">
         <is>
-          <t>Preservation or restoration of forests in developing countries under the REDD+ rulebook</t>
+          <t>Eutrophication of ecosystems</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="72">
       <c r="A72" s="4" t="inlineStr">
         <is>
-          <t>Z15_B02_P02_Ib01_I02</t>
+          <t>Z15_B02_P02_Ib01_I01</t>
         </is>
       </c>
       <c r="B72" s="4" t="inlineStr">
@@ -5228,27 +5228,27 @@
       </c>
       <c r="C72" s="4" t="inlineStr">
         <is>
-          <t>15.3.b</t>
+          <t>15.3.a</t>
         </is>
       </c>
       <c r="D72" s="4" t="inlineStr">
         <is>
-          <t>b) Internationaler Bodenschutz</t>
+          <t>a) Wälder unter REDD+-Regelwerk</t>
         </is>
       </c>
       <c r="E72" s="4" t="inlineStr">
         <is>
-          <t>b) Combat Desertification</t>
+          <t>a) Forests under REDD+ rulebook</t>
         </is>
       </c>
       <c r="F72" s="4" t="inlineStr">
         <is>
-          <t>Internationaler Bodenschutz (Bruttoentwicklungsausgaben für internationalen Bodenschutz)</t>
+          <t>REDD+ (ergebnisbasierte Auszahlungen für internationalen Waldschutz)</t>
         </is>
       </c>
       <c r="G72" s="4" t="inlineStr">
         <is>
-          <t>International soil protection (gross development assistance for international soil protection)</t>
+          <t>REDD+ (results-based payments for international protection of forests)</t>
         </is>
       </c>
       <c r="H72" s="4" t="inlineStr">
@@ -5273,220 +5273,220 @@
       </c>
       <c r="L72" s="4" t="inlineStr">
         <is>
-          <t>Deutsche bilaterale Bruttoentwicklungsausgaben zur Umsetzung des Übereinkommens der VN zur Bekämpfung der Wüstenbildung</t>
+          <t>Erhalt bzw. Wiederaufbau von Wäldern in Entwicklungsländern unter dem REDD+-Regelwerk</t>
         </is>
       </c>
       <c r="M72" s="4" t="inlineStr">
         <is>
-          <t>German gross bilateral development expenditure for the implementation of the UN Convention to Combat Desertification</t>
+          <t>Preservation or restoration of forests in developing countries under the REDD+ rulebook</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="73">
       <c r="A73" s="4" t="inlineStr">
         <is>
-          <t>Z16_B01_P01_Ib01_I01</t>
+          <t>Z15_B02_P02_Ib01_I02</t>
         </is>
       </c>
       <c r="B73" s="4" t="inlineStr">
         <is>
-          <t>Z16_B01_P01_Ib01</t>
+          <t>Z15_B02_P02_Ib01</t>
         </is>
       </c>
       <c r="C73" s="4" t="inlineStr">
         <is>
-          <t>16.1</t>
+          <t>15.3.b</t>
         </is>
       </c>
       <c r="D73" s="4" t="inlineStr">
         <is>
-          <t>Anzahl an Straftaten</t>
+          <t>b) Internationaler Bodenschutz</t>
         </is>
       </c>
       <c r="E73" s="4" t="inlineStr">
         <is>
-          <t>Number of criminal offences</t>
+          <t>b) Combat Desertification</t>
         </is>
       </c>
       <c r="F73" s="4" t="inlineStr">
         <is>
-          <t>Straftaten</t>
+          <t>Internationaler Bodenschutz (Bruttoentwicklungsausgaben für internationalen Bodenschutz)</t>
         </is>
       </c>
       <c r="G73" s="4" t="inlineStr">
         <is>
-          <t>Criminal offences</t>
+          <t>International soil protection (gross development assistance for international soil protection)</t>
         </is>
       </c>
       <c r="H73" s="4" t="inlineStr">
         <is>
-          <t>Rückgang der Zahl der erfassten Straftaten je 100 000 Einwohner/ -innen auf unter 6 500 bis 2030</t>
+          <t>Steigerung der Zahlungen bis 2030</t>
         </is>
       </c>
       <c r="I73" s="4" t="inlineStr">
         <is>
-          <t>Reduce the number of criminal offences re-corded per 100,000 inhabitants to less than 6,500 by 2030</t>
+          <t>Increase payments by 2030</t>
         </is>
       </c>
       <c r="J73" s="4" t="inlineStr">
         <is>
-          <t>Rückgang auf unter 6 500 je 100 000 Einwohner/ -innen bis 2030</t>
+          <t>Steigerung der Zahlungen bis 2030</t>
         </is>
       </c>
       <c r="K73" s="4" t="inlineStr">
         <is>
-          <t>reduce to less than 6,500 per 100,000 inhabitants by 2030</t>
+          <t>increase payments by 2030</t>
         </is>
       </c>
       <c r="L73" s="4" t="inlineStr">
         <is>
-          <t>Straftaten</t>
+          <t>Deutsche bilaterale Bruttoentwicklungsausgaben zur Umsetzung des Übereinkommens der VN zur Bekämpfung der Wüstenbildung</t>
         </is>
       </c>
       <c r="M73" s="4" t="inlineStr">
         <is>
-          <t>Criminal offences</t>
+          <t>German gross bilateral development expenditure for the implementation of the UN Convention to Combat Desertification</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="74">
       <c r="A74" s="4" t="inlineStr">
         <is>
-          <t>Z16_B02_P01_Ib01_I01</t>
+          <t>Z16_B01_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B74" s="4" t="inlineStr">
         <is>
-          <t>Z16_B02_P01_Ib01</t>
+          <t>Z16_B01_P01_Ib01</t>
         </is>
       </c>
       <c r="C74" s="4" t="inlineStr">
         <is>
-          <t>16.2</t>
+          <t>16.1</t>
         </is>
       </c>
       <c r="D74" s="4" t="inlineStr">
         <is>
-          <t>Sicherung, Registrierung und Zerstörung von Waffen</t>
+          <t>Anzahl an Straftaten</t>
         </is>
       </c>
       <c r="E74" s="4" t="inlineStr">
         <is>
-          <t>Securing, registration and destruction of weapons</t>
+          <t>Number of criminal offences</t>
         </is>
       </c>
       <c r="F74" s="4" t="inlineStr">
         <is>
-          <t>Anzahl der in betroffenen Weltregionen durchgeführten Projekte zur Sicherung, Registrierung und Zerstörung von Kleinwaffen und leichten Waffen durch Deutschland</t>
+          <t>Straftaten</t>
         </is>
       </c>
       <c r="G74" s="4" t="inlineStr">
         <is>
-          <t>Number of projects to secure, register and destroy small arms and light weapons carried out by Germany in affected regions of the world</t>
+          <t>Criminal offences</t>
         </is>
       </c>
       <c r="H74" s="4" t="inlineStr">
         <is>
-          <t>Mindestens 15 Projekte pro Jahr bis 2030</t>
+          <t>Rückgang der Zahl der erfassten Straftaten je 100 000 Einwohner/ -innen auf unter 6 500 bis 2030</t>
         </is>
       </c>
       <c r="I74" s="4" t="inlineStr">
         <is>
-          <t>At least 15 projects per year by 2030</t>
+          <t>Reduce the number of criminal offences re-corded per 100,000 inhabitants to less than 6,500 by 2030</t>
         </is>
       </c>
       <c r="J74" s="4" t="inlineStr">
         <is>
-          <t>mindestens 15 Projekte pro Jahr bis 2030</t>
+          <t>Rückgang auf unter 6 500 je 100 000 Einwohner/ -innen bis 2030</t>
         </is>
       </c>
       <c r="K74" s="4" t="inlineStr">
         <is>
-          <t>at least 15 projects per year by 2030</t>
+          <t>reduce to less than 6,500 per 100,000 inhabitants by 2030</t>
         </is>
       </c>
       <c r="L74" s="4" t="inlineStr">
         <is>
-          <t>Anzahl der in betroffenen Weltregionen durchgeführten Projekte zur Sicherung, Registrierung und Zerstörung von Kleinwaffen und leichten Waffen durch Deutschland</t>
+          <t>Straftaten</t>
         </is>
       </c>
       <c r="M74" s="4" t="inlineStr">
         <is>
-          <t>Number of projects to secure, register and destroy small arms and light weapons carried out by Germany in affected regions of the world</t>
+          <t>Criminal offences</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="75">
       <c r="A75" s="4" t="inlineStr">
         <is>
-          <t>Z16_B03_P01_Ib01_I01</t>
+          <t>Z16_B02_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B75" s="4" t="inlineStr">
         <is>
-          <t>Z16_B03_P01_Ib01</t>
+          <t>Z16_B02_P01_Ib01</t>
         </is>
       </c>
       <c r="C75" s="4" t="inlineStr">
         <is>
-          <t>16.3.a</t>
+          <t>16.2</t>
         </is>
       </c>
       <c r="D75" s="4" t="inlineStr">
         <is>
-          <t>a) CPI Deutschland</t>
+          <t>Sicherung, Registrierung und Zerstörung von Waffen</t>
         </is>
       </c>
       <c r="E75" s="4" t="inlineStr">
         <is>
-          <t>a) CPI Germany</t>
+          <t>Securing, registration and destruction of weapons</t>
         </is>
       </c>
       <c r="F75" s="4" t="inlineStr">
         <is>
-          <t>Corruption Perception Index in Deutschland</t>
+          <t>Anzahl der in betroffenen Weltregionen durchgeführten Projekte zur Sicherung, Registrierung und Zerstörung von Kleinwaffen und leichten Waffen durch Deutschland</t>
         </is>
       </c>
       <c r="G75" s="4" t="inlineStr">
         <is>
-          <t>Corruption Perceptions Index in Germany</t>
+          <t>Number of projects to secure, register and destroy small arms and light weapons carried out by Germany in affected regions of the world</t>
         </is>
       </c>
       <c r="H75" s="4" t="inlineStr">
         <is>
-          <t>Verbesserung gegenüber 2012 bis 2030</t>
+          <t>Mindestens 15 Projekte pro Jahr bis 2030</t>
         </is>
       </c>
       <c r="I75" s="4" t="inlineStr">
         <is>
-          <t>Improvement by 2030, compared to 2012</t>
+          <t>At least 15 projects per year by 2030</t>
         </is>
       </c>
       <c r="J75" s="4" t="inlineStr">
         <is>
-          <t>Verbesserung bis 2030</t>
+          <t>mindestens 15 Projekte pro Jahr bis 2030</t>
         </is>
       </c>
       <c r="K75" s="4" t="inlineStr">
         <is>
-          <t>improvement by 2030</t>
+          <t>at least 15 projects per year by 2030</t>
         </is>
       </c>
       <c r="L75" s="4" t="inlineStr">
         <is>
-          <t>Corruption Perception Index in Deutschland</t>
+          <t>Anzahl der in betroffenen Weltregionen durchgeführten Projekte zur Sicherung, Registrierung und Zerstörung von Kleinwaffen und leichten Waffen durch Deutschland</t>
         </is>
       </c>
       <c r="M75" s="4" t="inlineStr">
         <is>
-          <t>Corruption Perception Index in Germany</t>
+          <t>Number of projects to secure, register and destroy small arms and light weapons carried out by Germany in affected regions of the world</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="76">
       <c r="A76" s="4" t="inlineStr">
         <is>
-          <t>Z16_B03_P01_Ib01_I02</t>
+          <t>Z16_B03_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B76" s="4" t="inlineStr">
@@ -5496,27 +5496,27 @@
       </c>
       <c r="C76" s="4" t="inlineStr">
         <is>
-          <t>16.3.b</t>
+          <t>16.3.a</t>
         </is>
       </c>
       <c r="D76" s="4" t="inlineStr">
         <is>
-          <t>b) CPI  Partnerländer</t>
+          <t>a) CPI Deutschland</t>
         </is>
       </c>
       <c r="E76" s="4" t="inlineStr">
         <is>
-          <t>b) CPI Partner countries</t>
+          <t>a) CPI Germany</t>
         </is>
       </c>
       <c r="F76" s="4" t="inlineStr">
         <is>
-          <t>Corruption Perception Index in den Partnerländern der deutschen Entwicklungszusammenarbeit</t>
+          <t>Corruption Perception Index in Deutschland</t>
         </is>
       </c>
       <c r="G76" s="4" t="inlineStr">
         <is>
-          <t>Corruption Perceptions Index in partner countries for German development cooperation</t>
+          <t>Corruption Perceptions Index in Germany</t>
         </is>
       </c>
       <c r="H76" s="4" t="inlineStr">
@@ -5541,280 +5541,280 @@
       </c>
       <c r="L76" s="4" t="inlineStr">
         <is>
-          <t>Anzahl der Partnerländer deutscher Entwicklungszusammenarbeit, deren Bewertung sich gegenüber 2012 verbessert hat</t>
+          <t>Corruption Perception Index in Deutschland</t>
         </is>
       </c>
       <c r="M76" s="4" t="inlineStr">
         <is>
-          <t>Number of partner countries for German development cooperation with improved CPI scores compared with 2012</t>
+          <t>Corruption Perception Index in Germany</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="77">
       <c r="A77" s="4" t="inlineStr">
         <is>
-          <t>Z17_B01_P01_Ib01_I01</t>
+          <t>Z16_B03_P01_Ib01_I02</t>
         </is>
       </c>
       <c r="B77" s="4" t="inlineStr">
         <is>
-          <t>Z17_B01_P01_Ib01</t>
+          <t>Z16_B03_P01_Ib01</t>
         </is>
       </c>
       <c r="C77" s="4" t="inlineStr">
         <is>
-          <t>17.1</t>
+          <t>16.3.b</t>
         </is>
       </c>
       <c r="D77" s="4" t="inlineStr">
         <is>
-          <t>Entwicklungsausgaben</t>
+          <t>b) CPI  Partnerländer</t>
         </is>
       </c>
       <c r="E77" s="4" t="inlineStr">
         <is>
-          <t>Development assistance</t>
+          <t>b) CPI Partner countries</t>
         </is>
       </c>
       <c r="F77" s="4" t="inlineStr">
         <is>
-          <t>Anteil öffentlicher Entwicklungsausgaben am Bruttonationaleinkommen</t>
+          <t>Corruption Perception Index in den Partnerländern der deutschen Entwicklungszusammenarbeit</t>
         </is>
       </c>
       <c r="G77" s="4" t="inlineStr">
         <is>
-          <t>Official development assistance as a proportion of gross national income</t>
+          <t>Corruption Perceptions Index in partner countries for German development cooperation</t>
         </is>
       </c>
       <c r="H77" s="4" t="inlineStr">
         <is>
-          <t>Steigerung des Anteils auf 0,7 % des  Bruttonationaleinkommens bis 2030</t>
+          <t>Verbesserung gegenüber 2012 bis 2030</t>
         </is>
       </c>
       <c r="I77" s="4" t="inlineStr">
         <is>
-          <t>Increase the proportion to 0.7 % of gross national income by 2030</t>
+          <t>Improvement by 2030, compared to 2012</t>
         </is>
       </c>
       <c r="J77" s="4" t="inlineStr">
         <is>
-          <t>Steigerung des Anteils auf 0,7 % des BNE bis 2030</t>
+          <t>Verbesserung bis 2030</t>
         </is>
       </c>
       <c r="K77" s="4" t="inlineStr">
         <is>
-          <t>increase to 0.7 % of GNI by 2030</t>
+          <t>improvement by 2030</t>
         </is>
       </c>
       <c r="L77" s="4" t="inlineStr">
         <is>
-          <t>Anteil öffentlicher Entwicklungsausgaben am Bruttonationaleinkommen</t>
+          <t>Anzahl der Partnerländer deutscher Entwicklungszusammenarbeit, deren Bewertung sich gegenüber 2012 verbessert hat</t>
         </is>
       </c>
       <c r="M77" s="4" t="inlineStr">
         <is>
-          <t>Official development assistance as a proportion of gross national income</t>
+          <t>Number of partner countries for German development cooperation with improved CPI scores compared with 2012</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="78">
       <c r="A78" s="4" t="inlineStr">
         <is>
-          <t>Z17_B02_P01_Ib01_I01</t>
+          <t>Z17_B01_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B78" s="4" t="inlineStr">
         <is>
-          <t>Z17_B02_P01_Ib01</t>
+          <t>Z17_B01_P01_Ib01</t>
         </is>
       </c>
       <c r="C78" s="4" t="inlineStr">
         <is>
-          <t>17.2</t>
+          <t>17.1</t>
         </is>
       </c>
       <c r="D78" s="4" t="inlineStr">
         <is>
-          <t>Studierende und Forschende aus Entwicklungslenländern und LDCs</t>
+          <t>Entwicklungsausgaben</t>
         </is>
       </c>
       <c r="E78" s="4" t="inlineStr">
         <is>
-          <t>Students and researchers from developing countries and LDCs</t>
+          <t>Development assistance</t>
         </is>
       </c>
       <c r="F78" s="4" t="inlineStr">
         <is>
-          <t>Anzahl der Studierenden und Forschenden aus Entwicklungsländern sowie aus am wenigsten entwickelten Ländern pro Jahr</t>
+          <t>Anteil öffentlicher Entwicklungsausgaben am Bruttonationaleinkommen</t>
         </is>
       </c>
       <c r="G78" s="4" t="inlineStr">
         <is>
-          <t>Number of students and researchers from developing countries and least developed countries per year</t>
+          <t>Official development assistance as a proportion of gross national income</t>
         </is>
       </c>
       <c r="H78" s="4" t="inlineStr">
         <is>
-          <t>Steigerung der Anzahl um 10 % von 2015 bis 2020, anschließend Verstetigung</t>
+          <t>Steigerung des Anteils auf 0,7 % des  Bruttonationaleinkommens bis 2030</t>
         </is>
       </c>
       <c r="I78" s="4" t="inlineStr">
         <is>
-          <t>Increase the number by 10 % from 2015 to 2020, then stabilised</t>
+          <t>Increase the proportion to 0.7 % of gross national income by 2030</t>
         </is>
       </c>
       <c r="J78" s="4" t="inlineStr">
         <is>
-          <t>Steigerung um 10 % von 2015 bis 2020, anschließend Verstetigung</t>
+          <t>Steigerung des Anteils auf 0,7 % des BNE bis 2030</t>
         </is>
       </c>
       <c r="K78" s="4" t="inlineStr">
         <is>
-          <t>increase by 10 % from 2015 to 2020, then stabilised</t>
+          <t>increase to 0.7 % of GNI by 2030</t>
         </is>
       </c>
       <c r="L78" s="4" t="inlineStr">
         <is>
-          <t>Anzahl der Studierenden und Forschenden aus Entwicklungsländern sowie aus am wenigsten entwickelten Ländern pro Jahr</t>
+          <t>Anteil öffentlicher Entwicklungsausgaben am Bruttonationaleinkommen</t>
         </is>
       </c>
       <c r="M78" s="4" t="inlineStr">
         <is>
-          <t>Number of students and researchers from developing countries and least developed countries per year</t>
+          <t>Official development assistance as a proportion of gross national income</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="79">
       <c r="A79" s="4" t="inlineStr">
         <is>
-          <t>Z17_B03_P01_Ib01_I01</t>
+          <t>Z17_B02_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B79" s="4" t="inlineStr">
         <is>
-          <t>Z17_B03_P01_Ib01</t>
+          <t>Z17_B02_P01_Ib01</t>
         </is>
       </c>
       <c r="C79" s="4" t="inlineStr">
         <is>
-          <t>17.3</t>
+          <t>17.2</t>
         </is>
       </c>
       <c r="D79" s="4" t="inlineStr">
         <is>
-          <t>Einfuhren aus LDCs</t>
+          <t>Studierende und Forschende aus Entwicklungslenländern und LDCs</t>
         </is>
       </c>
       <c r="E79" s="4" t="inlineStr">
         <is>
-          <t>Imports coming from LDCs</t>
+          <t>Students and researchers from developing countries and LDCs</t>
         </is>
       </c>
       <c r="F79" s="4" t="inlineStr">
         <is>
-          <t>Einfuhren aus am wenigsten entwickelten Ländern</t>
+          <t>Anzahl der Studierenden und Forschenden aus Entwicklungsländern sowie aus am wenigsten entwickelten Ländern pro Jahr</t>
         </is>
       </c>
       <c r="G79" s="4" t="inlineStr">
         <is>
-          <t>Imports from least developed countries</t>
+          <t>Number of students and researchers from developing countries and least developed countries per year</t>
         </is>
       </c>
       <c r="H79" s="4" t="inlineStr">
         <is>
-          <t>Steigerung des Anteils um 100 % bis 2030 gegenüber 2014</t>
+          <t>Steigerung der Anzahl um 10 % von 2015 bis 2020, anschließend Verstetigung</t>
         </is>
       </c>
       <c r="I79" s="4" t="inlineStr">
         <is>
-          <t>Increase the proportion by 100 % by 2030, compared to 2014</t>
+          <t>Increase the number by 10 % from 2015 to 2020, then stabilised</t>
         </is>
       </c>
       <c r="J79" s="4" t="inlineStr">
         <is>
-          <t>Steigerung des Anteils um 100 % bis 2030 gegenüber 2014</t>
+          <t>Steigerung um 10 % von 2015 bis 2020, anschließend Verstetigung</t>
         </is>
       </c>
       <c r="K79" s="4" t="inlineStr">
         <is>
-          <t>increase by 100 % by 2030 compared to 2014</t>
+          <t>increase by 10 % from 2015 to 2020, then stabilised</t>
         </is>
       </c>
       <c r="L79" s="4" t="inlineStr">
         <is>
-          <t>Einfuhren aus am wenigsten entwickelten Ländern</t>
+          <t>Anzahl der Studierenden und Forschenden aus Entwicklungsländern sowie aus am wenigsten entwickelten Ländern pro Jahr</t>
         </is>
       </c>
       <c r="M79" s="4" t="inlineStr">
         <is>
-          <t>Imports from least developed countries</t>
+          <t>Number of students and researchers from developing countries and least developed countries per year</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="80">
       <c r="A80" s="4" t="inlineStr">
         <is>
-          <t>Z04_B01_P02_Ib01_I01</t>
+          <t>Z17_B03_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B80" s="4" t="inlineStr">
         <is>
-          <t>Z04_B01_P02_Ib01</t>
+          <t>Z17_B03_P01_Ib01</t>
         </is>
       </c>
       <c r="C80" s="4" t="inlineStr">
         <is>
-          <t>4.1.c</t>
+          <t>17.3</t>
         </is>
       </c>
       <c r="D80" s="4" t="inlineStr">
         <is>
-          <t>Schulen mit BNE-Label</t>
+          <t>Einfuhren aus LDCs</t>
         </is>
       </c>
       <c r="E80" s="4" t="inlineStr">
         <is>
-          <t>XXX</t>
+          <t>Imports coming from LDCs</t>
         </is>
       </c>
       <c r="F80" s="4" t="inlineStr">
         <is>
-          <t>Schulen mit BNE-Label (Bildung für nachhaltige Entwicklung)</t>
+          <t>Einfuhren aus am wenigsten entwickelten Ländern</t>
         </is>
       </c>
       <c r="G80" s="4" t="inlineStr">
         <is>
-          <t>XXX</t>
+          <t>Imports from least developed countries</t>
         </is>
       </c>
       <c r="H80" s="4" t="inlineStr">
         <is>
-          <t>Kontinuierlicher Anstieg</t>
+          <t>Steigerung des Anteils um 100 % bis 2030 gegenüber 2014</t>
         </is>
       </c>
       <c r="I80" s="4" t="inlineStr">
         <is>
-          <t>XXX</t>
+          <t>Increase the proportion by 100 % by 2030, compared to 2014</t>
         </is>
       </c>
       <c r="J80" s="4" t="inlineStr">
         <is>
-          <t>Kontinuierlicher Anstieg</t>
+          <t>Steigerung des Anteils um 100 % bis 2030 gegenüber 2014</t>
         </is>
       </c>
       <c r="K80" s="4" t="inlineStr">
         <is>
-          <t>XXX</t>
+          <t>increase by 100 % by 2030 compared to 2014</t>
         </is>
       </c>
       <c r="L80" s="4" t="inlineStr">
         <is>
-          <t>Schulen mit BNE-Label</t>
+          <t>Einfuhren aus am wenigsten entwickelten Ländern</t>
         </is>
       </c>
       <c r="M80" s="4" t="inlineStr">
         <is>
-          <t>XXX</t>
+          <t>Imports from least developed countries</t>
         </is>
       </c>
     </row>

--- a/Tab_5a_Indikatoren.xlsx
+++ b/Tab_5a_Indikatoren.xlsx
@@ -1620,7 +1620,7 @@
       </c>
       <c r="E18" s="4" t="inlineStr">
         <is>
-          <t>Early school leaversXXX</t>
+          <t>XXXEarly school leavers</t>
         </is>
       </c>
       <c r="F18" s="4" t="inlineStr">
@@ -1754,7 +1754,7 @@
       </c>
       <c r="E20" s="4" t="inlineStr">
         <is>
-          <t>XXX</t>
+          <t>XXXSchulen mit BNE-Label</t>
         </is>
       </c>
       <c r="F20" s="4" t="inlineStr">

--- a/Tab_5a_Indikatoren.xlsx
+++ b/Tab_5a_Indikatoren.xlsx
@@ -435,7 +435,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M80"/>
+  <dimension ref="A1:M81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -1295,7 +1295,7 @@
       </c>
       <c r="G13" s="4" t="inlineStr">
         <is>
-          <t>Share of the population with excessive exposure to PM10</t>
+          <t>XXXShare of the population with excessive exposure to PM10</t>
         </is>
       </c>
       <c r="H13" s="4" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="I13" s="4" t="inlineStr">
         <is>
-          <t>WHO particulate matter guideline value of 20 micrograms/cubic metre for PM10 to be adhered to as widely as possible by 2030</t>
+          <t>XXXWHO particulate matter guideline value of 20 micrograms/cubic metre for PM10 to be adhered to as widely as possible by 2030</t>
         </is>
       </c>
       <c r="J13" s="4" t="inlineStr">
@@ -1935,141 +1935,141 @@
     <row outlineLevel="0" r="23">
       <c r="A23" s="4" t="inlineStr">
         <is>
-          <t>Z05_B01_P01_Ib01_I01</t>
+          <t>Z04_B03_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B23" s="4" t="inlineStr">
         <is>
-          <t>Z05_B01_P01_Ib01</t>
+          <t>Z04_B03_P01_Ib01</t>
         </is>
       </c>
       <c r="C23" s="4" t="inlineStr">
         <is>
-          <t>5.1.a</t>
+          <t>4.3.a</t>
         </is>
       </c>
       <c r="D23" s="4" t="inlineStr">
         <is>
-          <t>Gender Pay Gap</t>
+          <t>Weiterbildungsbeteiligung</t>
         </is>
       </c>
       <c r="E23" s="4" t="inlineStr">
         <is>
-          <t>Gender Pay Gap</t>
+          <t>XXXWeiterbildungsbeteiligung</t>
         </is>
       </c>
       <c r="F23" s="4" t="inlineStr">
         <is>
-          <t>Verdienstabstand zwischen Frauen und Männern</t>
+          <t>Weiterbildungsbeteiligung</t>
         </is>
       </c>
       <c r="G23" s="4" t="inlineStr">
         <is>
-          <t>Gender pay gap</t>
+          <t>XXXWeiterbildungsbeteiligung</t>
         </is>
       </c>
       <c r="H23" s="4" t="inlineStr">
         <is>
-          <t>Verringerung des Abstandes auf 10 % bis 2020, Beibehaltung bis 2030</t>
+          <t>Steigerung auf 65 Prozent bis 2030</t>
         </is>
       </c>
       <c r="I23" s="4" t="inlineStr">
         <is>
-          <t>Reduce the gap to 10 % by 2020, maintained until 2030 subsequently</t>
+          <t>XXXSteigerung auf 65 Prozent bis 2030</t>
         </is>
       </c>
       <c r="J23" s="4" t="inlineStr">
         <is>
-          <t>Beibehaltung von maximal 10 % bis 2030</t>
+          <t>Steigerung auf 65 Prozent bis 2030</t>
         </is>
       </c>
       <c r="K23" s="4" t="inlineStr">
         <is>
-          <t>maintaine a maximum of 10 % by 2030</t>
+          <t>XXXSteigerung auf 65 Prozent bis 2030</t>
         </is>
       </c>
       <c r="L23" s="4" t="inlineStr">
         <is>
-          <t>Verdienstabstand zwischen Frauen und Männern</t>
+          <t>Weiterbildungsbeteiligung</t>
         </is>
       </c>
       <c r="M23" s="4" t="inlineStr">
         <is>
-          <t>Gender pay gap</t>
+          <t>XXXWeiterbildungsbeteiligung</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="24">
       <c r="A24" s="4" t="inlineStr">
         <is>
-          <t>Z05_B01_P01_Ib02_I01</t>
+          <t>Z05_B01_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B24" s="4" t="inlineStr">
         <is>
-          <t>Z05_B01_P01_Ib02</t>
+          <t>Z05_B01_P01_Ib01</t>
         </is>
       </c>
       <c r="C24" s="4" t="inlineStr">
         <is>
-          <t>5.1.b</t>
+          <t>5.1.a</t>
         </is>
       </c>
       <c r="D24" s="4" t="inlineStr">
         <is>
-          <t>b) Wirtschaft</t>
+          <t>Gender Pay Gap</t>
         </is>
       </c>
       <c r="E24" s="4" t="inlineStr">
         <is>
-          <t>b) Business</t>
+          <t>Gender Pay Gap</t>
         </is>
       </c>
       <c r="F24" s="4" t="inlineStr">
         <is>
-          <t>Frauen in Führungspositionen in der Wirtschaft</t>
+          <t>Verdienstabstand zwischen Frauen und Männern</t>
         </is>
       </c>
       <c r="G24" s="4" t="inlineStr">
         <is>
-          <t>Women in management positions in business</t>
+          <t>Gender pay gap</t>
         </is>
       </c>
       <c r="H24" s="4" t="inlineStr">
         <is>
-          <t>30 % Frauen in Aufsichtsräten der börsennotierten und paritätisch mitbestimmten Unternehmen bis 2030</t>
+          <t>Verringerung des Abstandes auf 10 % bis 2020, Beibehaltung bis 2030</t>
         </is>
       </c>
       <c r="I24" s="4" t="inlineStr">
         <is>
-          <t>30 % women on supervisory boards of listed and fully co-determined companies by 2030</t>
+          <t>Reduce the gap to 10 % by 2020, maintained until 2030 subsequently</t>
         </is>
       </c>
       <c r="J24" s="4" t="inlineStr">
         <is>
-          <t>30 % Frauen in Aufsichtsräten bis 2030</t>
+          <t>Beibehaltung von maximal 10 % bis 2030</t>
         </is>
       </c>
       <c r="K24" s="4" t="inlineStr">
         <is>
-          <t>30% women on supervisory boards by 2030</t>
+          <t>maintaine a maximum of 10 % by 2030</t>
         </is>
       </c>
       <c r="L24" s="4" t="inlineStr">
         <is>
-          <t>In Aufsichtsräten der börsennotierten und paritätisch mitbestimmten Unternehmen</t>
+          <t>Verdienstabstand zwischen Frauen und Männern</t>
         </is>
       </c>
       <c r="M24" s="4" t="inlineStr">
         <is>
-          <t>On supervisory boards of listed and fully co-determined companies</t>
+          <t>Gender pay gap</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="25">
       <c r="A25" s="4" t="inlineStr">
         <is>
-          <t>Z05_B01_P01_Ib02_I02</t>
+          <t>Z05_B01_P01_Ib02_I01</t>
         </is>
       </c>
       <c r="B25" s="4" t="inlineStr">
@@ -2079,399 +2079,399 @@
       </c>
       <c r="C25" s="4" t="inlineStr">
         <is>
-          <t>5.1.c</t>
+          <t>5.1.b</t>
         </is>
       </c>
       <c r="D25" s="4" t="inlineStr">
         <is>
-          <t>c) Öffentlicher Dienst des Bundes</t>
+          <t>b) Wirtschaft</t>
         </is>
       </c>
       <c r="E25" s="4" t="inlineStr">
         <is>
-          <t>c) Federal civil service</t>
+          <t>b) Business</t>
         </is>
       </c>
       <c r="F25" s="4" t="inlineStr">
         <is>
-          <t>Frauen in Führungspositionen im öffentlichen Dienst des Bundes</t>
+          <t>Frauen in Führungspositionen in der Wirtschaft</t>
         </is>
       </c>
       <c r="G25" s="4" t="inlineStr">
         <is>
-          <t>Women in management positions in the federal civil service</t>
+          <t>Women in management positions in business</t>
         </is>
       </c>
       <c r="H25" s="4" t="inlineStr">
         <is>
-          <t>Gleichberechtigte Teilhabe von Frauen und Männern in Leitungsfunktionen des öffentlichen Dienstes bis 2025</t>
+          <t>30 % Frauen in Aufsichtsräten der börsennotierten und paritätisch mitbestimmten Unternehmen bis 2030</t>
         </is>
       </c>
       <c r="I25" s="4" t="inlineStr">
         <is>
-          <t>Equal-opportunity participation of women and men in civil service management positions by 2025</t>
+          <t>30 % women on supervisory boards of listed and fully co-determined companies by 2030</t>
         </is>
       </c>
       <c r="J25" s="4" t="inlineStr">
         <is>
-          <t>gleichberechtigte Teilhabe bis 2025</t>
+          <t>30 % Frauen in Aufsichtsräten bis 2030</t>
         </is>
       </c>
       <c r="K25" s="4" t="inlineStr">
         <is>
-          <t>equal-opportunity participation by 2025</t>
+          <t>30% women on supervisory boards by 2030</t>
         </is>
       </c>
       <c r="L25" s="4" t="inlineStr">
         <is>
-          <t>Im öffentlichen Dienst des Bundes</t>
+          <t>In Aufsichtsräten der börsennotierten und paritätisch mitbestimmten Unternehmen</t>
         </is>
       </c>
       <c r="M25" s="4" t="inlineStr">
         <is>
-          <t>In management positions in the federal civil service</t>
+          <t>On supervisory boards of listed and fully co-determined companies</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="26">
       <c r="A26" s="4" t="inlineStr">
         <is>
-          <t>Z05_B01_P01_Ib03_I01</t>
+          <t>Z05_B01_P01_Ib02_I02</t>
         </is>
       </c>
       <c r="B26" s="4" t="inlineStr">
         <is>
-          <t>Z05_B01_P01_Ib03</t>
+          <t>Z05_B01_P01_Ib02</t>
         </is>
       </c>
       <c r="C26" s="4" t="inlineStr">
         <is>
-          <t>5.1.d</t>
+          <t>5.1.c</t>
         </is>
       </c>
       <c r="D26" s="4" t="inlineStr">
         <is>
-          <t>Väterbeteiligung beim Elterngeld</t>
+          <t>c) Öffentlicher Dienst des Bundes</t>
         </is>
       </c>
       <c r="E26" s="4" t="inlineStr">
         <is>
-          <t>Fathers receiving parental allowance</t>
+          <t>c) Federal civil service</t>
         </is>
       </c>
       <c r="F26" s="4" t="inlineStr">
         <is>
-          <t>Väterbeteiligung beim Elterngeld</t>
+          <t>Frauen in Führungspositionen im öffentlichen Dienst des Bundes</t>
         </is>
       </c>
       <c r="G26" s="4" t="inlineStr">
         <is>
-          <t>Proportion of fathers receiving parental allowance</t>
+          <t>Women in management positions in the federal civil service</t>
         </is>
       </c>
       <c r="H26" s="4" t="inlineStr">
         <is>
-          <t>65 % bis 2030</t>
+          <t>Gleichberechtigte Teilhabe von Frauen und Männern in Leitungsfunktionen des öffentlichen Dienstes bis 2025</t>
         </is>
       </c>
       <c r="I26" s="4" t="inlineStr">
         <is>
-          <t>65 % by 2030</t>
+          <t>Equal-opportunity participation of women and men in civil service management positions by 2025</t>
         </is>
       </c>
       <c r="J26" s="4" t="inlineStr">
         <is>
-          <t>65 % bis 2030</t>
+          <t>gleichberechtigte Teilhabe bis 2025</t>
         </is>
       </c>
       <c r="K26" s="4" t="inlineStr">
         <is>
-          <t>65 % by 2030</t>
+          <t>equal-opportunity participation by 2025</t>
         </is>
       </c>
       <c r="L26" s="4" t="inlineStr">
         <is>
-          <t>Väterbeteiligung beim Elterngeld</t>
+          <t>Im öffentlichen Dienst des Bundes</t>
         </is>
       </c>
       <c r="M26" s="4" t="inlineStr">
         <is>
-          <t>Proportion of fathers receiving parental allowance</t>
+          <t>In management positions in the federal civil service</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="27">
       <c r="A27" s="4" t="inlineStr">
         <is>
-          <t>Z05_B01_P02_Ib01_I01</t>
+          <t>Z05_B01_P01_Ib03_I01</t>
         </is>
       </c>
       <c r="B27" s="4" t="inlineStr">
         <is>
-          <t>Z05_B01_P02_Ib01</t>
+          <t>Z05_B01_P01_Ib03</t>
         </is>
       </c>
       <c r="C27" s="4" t="inlineStr">
         <is>
-          <t>5.1.e</t>
+          <t>5.1.d</t>
         </is>
       </c>
       <c r="D27" s="4" t="inlineStr">
         <is>
-          <t>Berufliche Qualifizierung von Frauen und Mädchen durch Entwicklungszusammenarbeit</t>
+          <t>Väterbeteiligung beim Elterngeld</t>
         </is>
       </c>
       <c r="E27" s="4" t="inlineStr">
         <is>
-          <t>Vocational qualifications of women and girls through development coopreation</t>
+          <t>Fathers receiving parental allowance</t>
         </is>
       </c>
       <c r="F27" s="4" t="inlineStr">
         <is>
-          <t>Berufliche Qualifizierung von Frauen und Mädchen durch deutsche entwicklungspolitische Zusammenarbeit</t>
+          <t>Väterbeteiligung beim Elterngeld</t>
         </is>
       </c>
       <c r="G27" s="4" t="inlineStr">
         <is>
-          <t>Vocational qualifications of women and girls through German development assistance</t>
+          <t>Proportion of fathers receiving parental allowance</t>
         </is>
       </c>
       <c r="H27" s="4" t="inlineStr">
         <is>
-          <t>Sukzessive Steigerung bis 2030 um ein Drittel verglichen mit Basisjahr 2015</t>
+          <t>65 % bis 2030</t>
         </is>
       </c>
       <c r="I27" s="4" t="inlineStr">
         <is>
-          <t>To be increased gradually by a third by 2030 compared to 2015 as the base year</t>
+          <t>65 % by 2030</t>
         </is>
       </c>
       <c r="J27" s="4" t="inlineStr">
         <is>
-          <t>Steigerung um ein Drittel bis 2030</t>
+          <t>65 % bis 2030</t>
         </is>
       </c>
       <c r="K27" s="4" t="inlineStr">
         <is>
-          <t>to be increased by a third by 2030</t>
+          <t>65 % by 2030</t>
         </is>
       </c>
       <c r="L27" s="4" t="inlineStr">
         <is>
-          <t>Berufliche Qualifizierung von Frauen und Mädchen durch deutsche entwicklungspolitische Zusammenarbeit</t>
+          <t>Väterbeteiligung beim Elterngeld</t>
         </is>
       </c>
       <c r="M27" s="4" t="inlineStr">
         <is>
-          <t>Vocational qualifications of women and girls through German development cooperation</t>
+          <t>Proportion of fathers receiving parental allowance</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="28">
       <c r="A28" s="4" t="inlineStr">
         <is>
-          <t>Z06_B01_P01_Ib01_I01</t>
+          <t>Z05_B01_P02_Ib01_I01</t>
         </is>
       </c>
       <c r="B28" s="4" t="inlineStr">
         <is>
-          <t>Z06_B01_P01_Ib01</t>
+          <t>Z05_B01_P02_Ib01</t>
         </is>
       </c>
       <c r="C28" s="4" t="inlineStr">
         <is>
-          <t>6.1.a</t>
+          <t>5.1.e</t>
         </is>
       </c>
       <c r="D28" s="4" t="inlineStr">
         <is>
-          <t>Phosphor in Fließgewässern</t>
+          <t>Berufliche Qualifizierung von Frauen und Mädchen durch Entwicklungszusammenarbeit</t>
         </is>
       </c>
       <c r="E28" s="4" t="inlineStr">
         <is>
-          <t>Phosphorous in flowing waters</t>
+          <t>Vocational qualifications of women and girls through development coopreation</t>
         </is>
       </c>
       <c r="F28" s="4" t="inlineStr">
         <is>
-          <t>Phosphor in Fließgewässern</t>
+          <t>Berufliche Qualifizierung von Frauen und Mädchen durch deutsche entwicklungspolitische Zusammenarbeit</t>
         </is>
       </c>
       <c r="G28" s="4" t="inlineStr">
         <is>
-          <t>Phosphorous in flowing waters</t>
+          <t>Vocational qualifications of women and girls through German development assistance</t>
         </is>
       </c>
       <c r="H28" s="4" t="inlineStr">
         <is>
-          <t>Einhaltung oder Unterschreitung der gewässertypischen Orientierungswerte an allen Messstellen bis 2030</t>
+          <t>Sukzessive Steigerung bis 2030 um ein Drittel verglichen mit Basisjahr 2015</t>
         </is>
       </c>
       <c r="I28" s="4" t="inlineStr">
         <is>
-          <t>Not exceeding benchmark values for specific types of water bodies at all monitoring points by 2030</t>
+          <t>To be increased gradually by a third by 2030 compared to 2015 as the base year</t>
         </is>
       </c>
       <c r="J28" s="4" t="inlineStr">
         <is>
-          <t>Einhaltung oder Unterschreitung der Orientierungswerte bis 2030</t>
+          <t>Steigerung um ein Drittel bis 2030</t>
         </is>
       </c>
       <c r="K28" s="4" t="inlineStr">
         <is>
-          <t>not exceeding benchmark values by 2030</t>
+          <t>to be increased by a third by 2030</t>
         </is>
       </c>
       <c r="L28" s="4" t="inlineStr">
         <is>
-          <t>Phosphor in Fließgewässern</t>
+          <t>Berufliche Qualifizierung von Frauen und Mädchen durch deutsche entwicklungspolitische Zusammenarbeit</t>
         </is>
       </c>
       <c r="M28" s="4" t="inlineStr">
         <is>
-          <t>Phosphorous in flowing waters</t>
+          <t>Vocational qualifications of women and girls through German development cooperation</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="29">
       <c r="A29" s="4" t="inlineStr">
         <is>
-          <t>Z06_B01_P01_Ib02_I01</t>
+          <t>Z06_B01_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B29" s="4" t="inlineStr">
         <is>
-          <t>Z06_B01_P01_Ib02</t>
+          <t>Z06_B01_P01_Ib01</t>
         </is>
       </c>
       <c r="C29" s="4" t="inlineStr">
         <is>
-          <t>6.1.b</t>
+          <t>6.1.a</t>
         </is>
       </c>
       <c r="D29" s="4" t="inlineStr">
         <is>
-          <t>Nitrat im Grundwasser</t>
+          <t>Phosphor in Fließgewässern</t>
         </is>
       </c>
       <c r="E29" s="4" t="inlineStr">
         <is>
-          <t>Nitrate in groundwater</t>
+          <t>Phosphorous in flowing waters</t>
         </is>
       </c>
       <c r="F29" s="4" t="inlineStr">
         <is>
-          <t>Nitrat im Grundwasser</t>
+          <t>Phosphor in Fließgewässern</t>
         </is>
       </c>
       <c r="G29" s="4" t="inlineStr">
         <is>
-          <t>Nitrate in groundwater</t>
+          <t>Phosphorous in flowing waters</t>
         </is>
       </c>
       <c r="H29" s="4" t="inlineStr">
         <is>
-          <t>Einhaltung des Nitrat Schwellenwertes von 50 Milligramm pro Liter an allen Messstellen bis 2030</t>
+          <t>Einhaltung oder Unterschreitung der gewässertypischen Orientierungswerte an allen Messstellen bis 2030</t>
         </is>
       </c>
       <c r="I29" s="4" t="inlineStr">
         <is>
-          <t>Compliance with the nitrate threshold value of 50 mg/l at all monitoring points by 2030</t>
+          <t>Not exceeding benchmark values for specific types of water bodies at all monitoring points by 2030</t>
         </is>
       </c>
       <c r="J29" s="4" t="inlineStr">
         <is>
-          <t>Einhaltung des Schwellenwertes von 50 mg/l bis 2030</t>
+          <t>Einhaltung oder Unterschreitung der Orientierungswerte bis 2030</t>
         </is>
       </c>
       <c r="K29" s="4" t="inlineStr">
         <is>
-          <t>compliance with the threshold value of 50 mg/l by 2030</t>
+          <t>not exceeding benchmark values by 2030</t>
         </is>
       </c>
       <c r="L29" s="4" t="inlineStr">
         <is>
-          <t>Nitrat im Grundwasser</t>
+          <t>Phosphor in Fließgewässern</t>
         </is>
       </c>
       <c r="M29" s="4" t="inlineStr">
         <is>
-          <t>Nitrate in groundwater</t>
+          <t>Phosphorous in flowing waters</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="30">
       <c r="A30" s="4" t="inlineStr">
         <is>
-          <t>Z06_B02_P01_Ib01_I01</t>
+          <t>Z06_B01_P01_Ib02_I01</t>
         </is>
       </c>
       <c r="B30" s="4" t="inlineStr">
         <is>
-          <t>Z06_B02_P01_Ib01</t>
+          <t>Z06_B01_P01_Ib02</t>
         </is>
       </c>
       <c r="C30" s="4" t="inlineStr">
         <is>
-          <t>6.2.a</t>
+          <t>6.1.b</t>
         </is>
       </c>
       <c r="D30" s="4" t="inlineStr">
         <is>
-          <t>a) Trinkwasserversorgung</t>
+          <t>Nitrat im Grundwasser</t>
         </is>
       </c>
       <c r="E30" s="4" t="inlineStr">
         <is>
-          <t>a) Access to drinking water</t>
+          <t>Nitrate in groundwater</t>
         </is>
       </c>
       <c r="F30" s="4" t="inlineStr">
         <is>
-          <t>Anzahl der Menschen, die einen neuen oder hochwertigeren Zugang zur Trinkwasserversorgung durch deutsche Unterstützung erhalten</t>
+          <t>Nitrat im Grundwasser</t>
         </is>
       </c>
       <c r="G30" s="4" t="inlineStr">
         <is>
-          <t>Number of people gaining first-time or upgraded access to drinking water owing to German support</t>
+          <t>Nitrate in groundwater</t>
         </is>
       </c>
       <c r="H30" s="4" t="inlineStr">
         <is>
-          <t>6 Millionen Menschen pro Jahr bis 2030</t>
+          <t>Einhaltung des Nitrat Schwellenwertes von 50 Milligramm pro Liter an allen Messstellen bis 2030</t>
         </is>
       </c>
       <c r="I30" s="4" t="inlineStr">
         <is>
-          <t>6 million people per year by 2030</t>
+          <t>Compliance with the nitrate threshold value of 50 mg/l at all monitoring points by 2030</t>
         </is>
       </c>
       <c r="J30" s="4" t="inlineStr">
         <is>
-          <t>6 Millionen Menschen pro Jahr bis 2030</t>
+          <t>Einhaltung des Schwellenwertes von 50 mg/l bis 2030</t>
         </is>
       </c>
       <c r="K30" s="4" t="inlineStr">
         <is>
-          <t>6 million people per year by 2030</t>
+          <t>compliance with the threshold value of 50 mg/l by 2030</t>
         </is>
       </c>
       <c r="L30" s="4" t="inlineStr">
         <is>
-          <t>Anzahl der Menschen, die einen neuen oder hochwertigeren Zugang zur Trinkwasserversorgung erhalten haben</t>
+          <t>Nitrat im Grundwasser</t>
         </is>
       </c>
       <c r="M30" s="4" t="inlineStr">
         <is>
-          <t>Number of people gaining first-time or upgraded access to drinking water</t>
+          <t>Nitrate in groundwater</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="31">
       <c r="A31" s="4" t="inlineStr">
         <is>
-          <t>Z06_B02_P01_Ib01_I02</t>
+          <t>Z06_B02_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B31" s="4" t="inlineStr">
@@ -2481,64 +2481,64 @@
       </c>
       <c r="C31" s="4" t="inlineStr">
         <is>
-          <t>6.2.b</t>
+          <t>6.2.a</t>
         </is>
       </c>
       <c r="D31" s="4" t="inlineStr">
         <is>
-          <t>b) Sanitärversorgung</t>
+          <t>a) Trinkwasserversorgung</t>
         </is>
       </c>
       <c r="E31" s="4" t="inlineStr">
         <is>
-          <t>b) Access to sanitation</t>
+          <t>a) Access to drinking water</t>
         </is>
       </c>
       <c r="F31" s="4" t="inlineStr">
         <is>
-          <t>Anzahl der Menschen, die einen neuen oder verbesserten Anschluss zur Sanitärversorgung durch deutsche Unterstützung erhalten</t>
+          <t>Anzahl der Menschen, die einen neuen oder hochwertigeren Zugang zur Trinkwasserversorgung durch deutsche Unterstützung erhalten</t>
         </is>
       </c>
       <c r="G31" s="4" t="inlineStr">
         <is>
-          <t>Number of people gaining first-time or improved access to sanitation owing to German support</t>
+          <t>Number of people gaining first-time or upgraded access to drinking water owing to German support</t>
         </is>
       </c>
       <c r="H31" s="4" t="inlineStr">
         <is>
-          <t>4 Millionen Menschen pro Jahr bis 2030</t>
+          <t>6 Millionen Menschen pro Jahr bis 2030</t>
         </is>
       </c>
       <c r="I31" s="4" t="inlineStr">
         <is>
-          <t>4 million people per year by 2030</t>
+          <t>6 million people per year by 2030</t>
         </is>
       </c>
       <c r="J31" s="4" t="inlineStr">
         <is>
-          <t>4 Millionen Menschen pro Jahr bis 2030</t>
+          <t>6 Millionen Menschen pro Jahr bis 2030</t>
         </is>
       </c>
       <c r="K31" s="4" t="inlineStr">
         <is>
-          <t>4 million people per year by 2030</t>
+          <t>6 million people per year by 2030</t>
         </is>
       </c>
       <c r="L31" s="4" t="inlineStr">
         <is>
-          <t>Anzahl der Menschen, die einen neuen oder verbesserten Anschluss zur Sanitärversorgung erhalten haben</t>
+          <t>Anzahl der Menschen, die einen neuen oder hochwertigeren Zugang zur Trinkwasserversorgung erhalten haben</t>
         </is>
       </c>
       <c r="M31" s="4" t="inlineStr">
         <is>
-          <t>Number of people gaining first-time or improved access to sanitation</t>
+          <t>Number of people gaining first-time or upgraded access to drinking water</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="32">
       <c r="A32" s="4" t="inlineStr">
         <is>
-          <t>Z06_B02_P01_Ib01_I03</t>
+          <t>Z06_B02_P01_Ib01_I02</t>
         </is>
       </c>
       <c r="B32" s="4" t="inlineStr">
@@ -2548,131 +2548,131 @@
       </c>
       <c r="C32" s="4" t="inlineStr">
         <is>
-          <t>6.2</t>
+          <t>6.2.b</t>
         </is>
       </c>
       <c r="D32" s="4" t="inlineStr">
         <is>
-          <t>Trinkwasser- und Sanitärversorgung</t>
+          <t>b) Sanitärversorgung</t>
         </is>
       </c>
       <c r="E32" s="4" t="inlineStr">
         <is>
-          <t>Access to drinking water and sanitation</t>
+          <t>b) Access to sanitation</t>
         </is>
       </c>
       <c r="F32" s="4" t="inlineStr">
         <is>
-          <t>Anzahl der Menschen, die einen neuen oder hochwertigeren Zugang zur Trinkwasserversorgung oder Anschluss zur Sanitärversorgung durch deutsche Unterstützung erhalten</t>
+          <t>Anzahl der Menschen, die einen neuen oder verbesserten Anschluss zur Sanitärversorgung durch deutsche Unterstützung erhalten</t>
         </is>
       </c>
       <c r="G32" s="4" t="inlineStr">
         <is>
-          <t>Number of people gaining first-time or upgraded access to drinking water or sanitation owing to German support</t>
+          <t>Number of people gaining first-time or improved access to sanitation owing to German support</t>
         </is>
       </c>
       <c r="H32" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>4 Millionen Menschen pro Jahr bis 2030</t>
         </is>
       </c>
       <c r="I32" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>4 million people per year by 2030</t>
         </is>
       </c>
       <c r="J32" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>4 Millionen Menschen pro Jahr bis 2030</t>
         </is>
       </c>
       <c r="K32" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>4 million people per year by 2030</t>
         </is>
       </c>
       <c r="L32" s="4" t="inlineStr">
         <is>
-          <t>Anzahl der Menschen, die einen neuen oder hochwertigeren Zugang zur Trinkwasserversorgung oder Anschluss zur Sanitärversorgung erhalten haben</t>
+          <t>Anzahl der Menschen, die einen neuen oder verbesserten Anschluss zur Sanitärversorgung erhalten haben</t>
         </is>
       </c>
       <c r="M32" s="4" t="inlineStr">
         <is>
-          <t>Number of people gaining first-time or upgraded access to drinking water or sanitation</t>
+          <t>Number of people gaining first-time or improved access to sanitation</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="33">
       <c r="A33" s="4" t="inlineStr">
         <is>
-          <t>Z07_B01_P01_Ib01_I01</t>
+          <t>Z06_B02_P01_Ib01_I03</t>
         </is>
       </c>
       <c r="B33" s="4" t="inlineStr">
         <is>
-          <t>Z07_B01_P01_Ib01</t>
+          <t>Z06_B02_P01_Ib01</t>
         </is>
       </c>
       <c r="C33" s="4" t="inlineStr">
         <is>
-          <t>7.1.a</t>
+          <t>6.2</t>
         </is>
       </c>
       <c r="D33" s="4" t="inlineStr">
         <is>
-          <t>a) Endenergieproduktivität</t>
+          <t>Trinkwasser- und Sanitärversorgung</t>
         </is>
       </c>
       <c r="E33" s="4" t="inlineStr">
         <is>
-          <t>a) Final energy productivity</t>
+          <t>Access to drinking water and sanitation</t>
         </is>
       </c>
       <c r="F33" s="4" t="inlineStr">
         <is>
-          <t>Endenergieproduktivität</t>
+          <t>Anzahl der Menschen, die einen neuen oder hochwertigeren Zugang zur Trinkwasserversorgung oder Anschluss zur Sanitärversorgung durch deutsche Unterstützung erhalten</t>
         </is>
       </c>
       <c r="G33" s="4" t="inlineStr">
         <is>
-          <t>Final energy productivity</t>
+          <t>Number of people gaining first-time or upgraded access to drinking water or sanitation owing to German support</t>
         </is>
       </c>
       <c r="H33" s="4" t="inlineStr">
         <is>
-          <t>Steigerung um 2,1 % pro Jahr im Zeitraum von 2008 – 2050</t>
+          <t/>
         </is>
       </c>
       <c r="I33" s="4" t="inlineStr">
         <is>
-          <t>Increase by 2.1 % per year from 2008 to 2050</t>
+          <t/>
         </is>
       </c>
       <c r="J33" s="4" t="inlineStr">
         <is>
-          <t>Steigerung um 2,1 % pro Jahr</t>
+          <t/>
         </is>
       </c>
       <c r="K33" s="4" t="inlineStr">
         <is>
-          <t>increase by 2.1 % per year</t>
+          <t/>
         </is>
       </c>
       <c r="L33" s="4" t="inlineStr">
         <is>
-          <t>Endenergieproduktivität</t>
+          <t>Anzahl der Menschen, die einen neuen oder hochwertigeren Zugang zur Trinkwasserversorgung oder Anschluss zur Sanitärversorgung erhalten haben</t>
         </is>
       </c>
       <c r="M33" s="4" t="inlineStr">
         <is>
-          <t>Final energy productivity</t>
+          <t>Number of people gaining first-time or upgraded access to drinking water or sanitation</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="34">
       <c r="A34" s="4" t="inlineStr">
         <is>
-          <t>Z07_B01_P01_Ib01_I02</t>
+          <t>Z07_B01_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B34" s="4" t="inlineStr">
@@ -2682,332 +2682,332 @@
       </c>
       <c r="C34" s="4" t="inlineStr">
         <is>
-          <t>7.1.b</t>
+          <t>7.1.a</t>
         </is>
       </c>
       <c r="D34" s="4" t="inlineStr">
         <is>
-          <t>b) Primärenergieverbrauch</t>
+          <t>a) Endenergieproduktivität</t>
         </is>
       </c>
       <c r="E34" s="4" t="inlineStr">
         <is>
-          <t>b) Primary energy consumption</t>
+          <t>a) Final energy productivity</t>
         </is>
       </c>
       <c r="F34" s="4" t="inlineStr">
         <is>
-          <t>Primärenergieverbrauch</t>
+          <t>Endenergieproduktivität</t>
         </is>
       </c>
       <c r="G34" s="4" t="inlineStr">
         <is>
-          <t>Primary energy consumption</t>
+          <t>Final energy productivity</t>
         </is>
       </c>
       <c r="H34" s="4" t="inlineStr">
         <is>
-          <t>Senkung um 20 % bis 2020, um 30 % bis 2030 und um 50 % bis 2050 jeweils gegenüber 2008</t>
+          <t>Steigerung um 2,1 % pro Jahr im Zeitraum von 2008 – 2050</t>
         </is>
       </c>
       <c r="I34" s="4" t="inlineStr">
         <is>
-          <t>Reduction by 20 % by 2020, by 30 % by 2030, and by 50 % by 2050, all compared to 2008</t>
+          <t>Increase by 2.1 % per year from 2008 to 2050</t>
         </is>
       </c>
       <c r="J34" s="4" t="inlineStr">
         <is>
-          <t>Senkung um 30 % bis 2030</t>
+          <t>Steigerung um 2,1 % pro Jahr</t>
         </is>
       </c>
       <c r="K34" s="4" t="inlineStr">
         <is>
-          <t>reduction by 30 % by 2030</t>
+          <t>increase by 2.1 % per year</t>
         </is>
       </c>
       <c r="L34" s="4" t="inlineStr">
         <is>
-          <t>Primärenergieverbrauch</t>
+          <t>Endenergieproduktivität</t>
         </is>
       </c>
       <c r="M34" s="4" t="inlineStr">
         <is>
-          <t>Primary energy consumption</t>
+          <t>Final energy productivity</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="35">
       <c r="A35" s="4" t="inlineStr">
         <is>
-          <t>Z07_B02_P01_Ib01_I01</t>
+          <t>Z07_B01_P01_Ib01_I02</t>
         </is>
       </c>
       <c r="B35" s="4" t="inlineStr">
         <is>
-          <t>Z07_B02_P01_Ib01</t>
+          <t>Z07_B01_P01_Ib01</t>
         </is>
       </c>
       <c r="C35" s="4" t="inlineStr">
         <is>
-          <t>7.2.a</t>
+          <t>7.1.b</t>
         </is>
       </c>
       <c r="D35" s="4" t="inlineStr">
         <is>
-          <t>Erneuerbarer Energien</t>
+          <t>b) Primärenergieverbrauch</t>
         </is>
       </c>
       <c r="E35" s="4" t="inlineStr">
         <is>
-          <t>Renewable energies</t>
+          <t>b) Primary energy consumption</t>
         </is>
       </c>
       <c r="F35" s="4" t="inlineStr">
         <is>
-          <t>Anteil erneuerbarer Energien am Brutto-Endenergieverbrauch</t>
+          <t>Primärenergieverbrauch</t>
         </is>
       </c>
       <c r="G35" s="4" t="inlineStr">
         <is>
-          <t>Share of renewable energies in gross final energy consumption</t>
+          <t>Primary energy consumption</t>
         </is>
       </c>
       <c r="H35" s="4" t="inlineStr">
         <is>
-          <t>Anstieg auf 18 % bis 2020, auf 30 % bis 2030, auf 45 % bis 2040 und auf 60 % bis 2050</t>
+          <t>Senkung um 20 % bis 2020, um 30 % bis 2030 und um 50 % bis 2050 jeweils gegenüber 2008</t>
         </is>
       </c>
       <c r="I35" s="4" t="inlineStr">
         <is>
-          <t>Increase to 18 % by 2020 and to 30 % by 2030, to 45 % by 2040 and to 60 % by 2050</t>
+          <t>Reduction by 20 % by 2020, by 30 % by 2030, and by 50 % by 2050, all compared to 2008</t>
         </is>
       </c>
       <c r="J35" s="4" t="inlineStr">
         <is>
-          <t>Anstieg auf 30 % bis 2030</t>
+          <t>Senkung um 30 % bis 2030</t>
         </is>
       </c>
       <c r="K35" s="4" t="inlineStr">
         <is>
-          <t>increase to 30 % by 2030</t>
+          <t>reduction by 30 % by 2030</t>
         </is>
       </c>
       <c r="L35" s="4" t="inlineStr">
         <is>
-          <t>Anteil erneuerbarer Energien am Brutto-Endenergieverbrauch</t>
+          <t>Primärenergieverbrauch</t>
         </is>
       </c>
       <c r="M35" s="4" t="inlineStr">
         <is>
-          <t>Share of renewable energies in gross final energy consumption</t>
+          <t>Primary energy consumption</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="36">
       <c r="A36" s="4" t="inlineStr">
         <is>
-          <t>Z07_B02_P01_Ib02_I01</t>
+          <t>Z07_B02_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B36" s="4" t="inlineStr">
         <is>
-          <t>Z07_B02_P01_Ib02</t>
+          <t>Z07_B02_P01_Ib01</t>
         </is>
       </c>
       <c r="C36" s="4" t="inlineStr">
         <is>
-          <t>7.2.b</t>
+          <t>7.2.a</t>
         </is>
       </c>
       <c r="D36" s="4" t="inlineStr">
         <is>
-          <t>Strom aus erneuerbaren Energiequellen</t>
+          <t>Erneuerbarer Energien</t>
         </is>
       </c>
       <c r="E36" s="4" t="inlineStr">
         <is>
-          <t>Electricity from renewable energy sources</t>
+          <t>Renewable energies</t>
         </is>
       </c>
       <c r="F36" s="4" t="inlineStr">
         <is>
-          <t>Anteil des Stroms aus erneuerbaren Energiequellen am Bruttostromverbrauch</t>
+          <t>Anteil erneuerbarer Energien am Brutto-Endenergieverbrauch</t>
         </is>
       </c>
       <c r="G36" s="4" t="inlineStr">
         <is>
-          <t>Share of electricity from renewable energy sources in gross electricity consumption</t>
+          <t>Share of renewable energies in gross final energy consumption</t>
         </is>
       </c>
       <c r="H36" s="4" t="inlineStr">
         <is>
-          <t>Anstieg auf mindestens 80 % bis 2030</t>
+          <t>Anstieg auf 18 % bis 2020, auf 30 % bis 2030, auf 45 % bis 2040 und auf 60 % bis 2050</t>
         </is>
       </c>
       <c r="I36" s="4" t="inlineStr">
         <is>
-          <t>Increase to at least 80 % by 2030</t>
+          <t>Increase to 18 % by 2020 and to 30 % by 2030, to 45 % by 2040 and to 60 % by 2050</t>
         </is>
       </c>
       <c r="J36" s="4" t="inlineStr">
         <is>
-          <t>Anstieg auf 80 % bis 2030</t>
+          <t>Anstieg auf 30 % bis 2030</t>
         </is>
       </c>
       <c r="K36" s="4" t="inlineStr">
         <is>
-          <t>increase to 80 % by 2030</t>
+          <t>increase to 30 % by 2030</t>
         </is>
       </c>
       <c r="L36" s="4" t="inlineStr">
         <is>
-          <t>Anteil des Stroms aus erneuerbaren Energiequellen am Bruttostromverbrauch</t>
+          <t>Anteil erneuerbarer Energien am Brutto-Endenergieverbrauch</t>
         </is>
       </c>
       <c r="M36" s="4" t="inlineStr">
         <is>
-          <t>Share of electricity from renewable energy sources in gross electricity consumption</t>
+          <t>Share of renewable energies in gross final energy consumption</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="37">
       <c r="A37" s="4" t="inlineStr">
         <is>
-          <t>Z08_B01_P01_Ib01_I01</t>
+          <t>Z07_B02_P01_Ib02_I01</t>
         </is>
       </c>
       <c r="B37" s="4" t="inlineStr">
         <is>
-          <t>Z08_B01_P01_Ib01</t>
+          <t>Z07_B02_P01_Ib02</t>
         </is>
       </c>
       <c r="C37" s="4" t="inlineStr">
         <is>
-          <t>8.1</t>
+          <t>7.2.b</t>
         </is>
       </c>
       <c r="D37" s="4" t="inlineStr">
         <is>
-          <t>Gesamtrohstoffproduktivität</t>
+          <t>Strom aus erneuerbaren Energiequellen</t>
         </is>
       </c>
       <c r="E37" s="4" t="inlineStr">
         <is>
-          <t>Raw material input productivity</t>
+          <t>Electricity from renewable energy sources</t>
         </is>
       </c>
       <c r="F37" s="4" t="inlineStr">
         <is>
-          <t>Gesamtrohstoffproduktivität</t>
+          <t>Anteil des Stroms aus erneuerbaren Energiequellen am Bruttostromverbrauch</t>
         </is>
       </c>
       <c r="G37" s="4" t="inlineStr">
         <is>
-          <t>Raw material input productivity</t>
+          <t>Share of electricity from renewable energy sources in gross electricity consumption</t>
         </is>
       </c>
       <c r="H37" s="4" t="inlineStr">
         <is>
-          <t>Beibehaltung des Trends der Jahre 2000 – 2010 bis 2030</t>
+          <t>Anstieg auf mindestens 80 % bis 2030</t>
         </is>
       </c>
       <c r="I37" s="4" t="inlineStr">
         <is>
-          <t>Trend of the years 2000–2010 to be maintained until 2030</t>
+          <t>Increase to at least 80 % by 2030</t>
         </is>
       </c>
       <c r="J37" s="4" t="inlineStr">
         <is>
-          <t>Beibehaltung des Trends der Jahre 2000 - 2010 bis 2030</t>
+          <t>Anstieg auf 80 % bis 2030</t>
         </is>
       </c>
       <c r="K37" s="4" t="inlineStr">
         <is>
-          <t>trend of the years 2000-2010 to be maintained until 2030</t>
+          <t>increase to 80 % by 2030</t>
         </is>
       </c>
       <c r="L37" s="4" t="inlineStr">
         <is>
-          <t>Gesamtrohstoffproduktivität</t>
+          <t>Anteil des Stroms aus erneuerbaren Energiequellen am Bruttostromverbrauch</t>
         </is>
       </c>
       <c r="M37" s="4" t="inlineStr">
         <is>
-          <t>Raw material input productivity</t>
+          <t>Share of electricity from renewable energy sources in gross electricity consumption</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="38">
       <c r="A38" s="4" t="inlineStr">
         <is>
-          <t>Z08_B02_P01_Ib01_I01</t>
+          <t>Z08_B01_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B38" s="4" t="inlineStr">
         <is>
-          <t>Z08_B02_P01_Ib01</t>
+          <t>Z08_B01_P01_Ib01</t>
         </is>
       </c>
       <c r="C38" s="4" t="inlineStr">
         <is>
-          <t>8.2.a</t>
+          <t>8.1</t>
         </is>
       </c>
       <c r="D38" s="4" t="inlineStr">
         <is>
-          <t>a) Staatsdefizit</t>
+          <t>Gesamtrohstoffproduktivität</t>
         </is>
       </c>
       <c r="E38" s="4" t="inlineStr">
         <is>
-          <t>a) Government deficit</t>
+          <t>Raw material input productivity</t>
         </is>
       </c>
       <c r="F38" s="4" t="inlineStr">
         <is>
-          <t>Staatsdefizit</t>
+          <t>Gesamtrohstoffproduktivität</t>
         </is>
       </c>
       <c r="G38" s="4" t="inlineStr">
         <is>
-          <t>Government deficit</t>
+          <t>Raw material input productivity</t>
         </is>
       </c>
       <c r="H38" s="4" t="inlineStr">
         <is>
-          <t>Jährliches Staatsdefizit kleiner als 3 % des BIP, Beibehaltung bis 2030</t>
+          <t>Beibehaltung des Trends der Jahre 2000 – 2010 bis 2030</t>
         </is>
       </c>
       <c r="I38" s="4" t="inlineStr">
         <is>
-          <t>Annual government deficit less than 3 % of GDP, to be maintained until 2030</t>
+          <t>Trend of the years 2000–2010 to be maintained until 2030</t>
         </is>
       </c>
       <c r="J38" s="4" t="inlineStr">
         <is>
-          <t>unter 3 % des BIP</t>
+          <t>Beibehaltung des Trends der Jahre 2000 - 2010 bis 2030</t>
         </is>
       </c>
       <c r="K38" s="4" t="inlineStr">
         <is>
-          <t>less than 3 % of GDP</t>
+          <t>trend of the years 2000-2010 to be maintained until 2030</t>
         </is>
       </c>
       <c r="L38" s="4" t="inlineStr">
         <is>
-          <t>Staatsdefizit</t>
+          <t>Gesamtrohstoffproduktivität</t>
         </is>
       </c>
       <c r="M38" s="4" t="inlineStr">
         <is>
-          <t>Government deficit</t>
+          <t>Raw material input productivity</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="39">
       <c r="A39" s="4" t="inlineStr">
         <is>
-          <t>Z08_B02_P01_Ib01_I02</t>
+          <t>Z08_B02_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B39" s="4" t="inlineStr">
@@ -3017,332 +3017,332 @@
       </c>
       <c r="C39" s="4" t="inlineStr">
         <is>
-          <t>8.2.b</t>
+          <t>8.2.a</t>
         </is>
       </c>
       <c r="D39" s="4" t="inlineStr">
         <is>
-          <t>b) Strukturelles Defizit</t>
+          <t>a) Staatsdefizit</t>
         </is>
       </c>
       <c r="E39" s="4" t="inlineStr">
         <is>
-          <t>b) Structural deficit</t>
+          <t>a) Government deficit</t>
         </is>
       </c>
       <c r="F39" s="4" t="inlineStr">
         <is>
-          <t>Strukturelles Defizit</t>
+          <t>Staatsdefizit</t>
         </is>
       </c>
       <c r="G39" s="4" t="inlineStr">
         <is>
-          <t>Structural deficit</t>
+          <t>Government deficit</t>
         </is>
       </c>
       <c r="H39" s="4" t="inlineStr">
         <is>
-          <t>Strukturell ausgeglichener Staatshaushalt, gesamtstaatliches strukturelles Defizit von max. 0,5 % des BIP, Beibehaltung bis 2030</t>
+          <t>Jährliches Staatsdefizit kleiner als 3 % des BIP, Beibehaltung bis 2030</t>
         </is>
       </c>
       <c r="I39" s="4" t="inlineStr">
         <is>
-          <t>Structurally balanced government budget, general government structural deficit must not exceed 0.5 % of GDP, to be maintained until 2030</t>
+          <t>Annual government deficit less than 3 % of GDP, to be maintained until 2030</t>
         </is>
       </c>
       <c r="J39" s="4" t="inlineStr">
         <is>
-          <t>unter 0,5 % des BIP</t>
+          <t>unter 3 % des BIP</t>
         </is>
       </c>
       <c r="K39" s="4" t="inlineStr">
         <is>
-          <t>less than 0.5 % of GDP</t>
+          <t>less than 3 % of GDP</t>
         </is>
       </c>
       <c r="L39" s="4" t="inlineStr">
         <is>
-          <t>Strukturelles Defizit</t>
+          <t>Staatsdefizit</t>
         </is>
       </c>
       <c r="M39" s="4" t="inlineStr">
         <is>
-          <t>Structural deficit</t>
+          <t>Government deficit</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="40">
       <c r="A40" s="4" t="inlineStr">
         <is>
-          <t>Z08_B02_P01_Ib02_I01</t>
+          <t>Z08_B02_P01_Ib01_I02</t>
         </is>
       </c>
       <c r="B40" s="4" t="inlineStr">
         <is>
-          <t>Z08_B02_P01_Ib02</t>
+          <t>Z08_B02_P01_Ib01</t>
         </is>
       </c>
       <c r="C40" s="4" t="inlineStr">
         <is>
-          <t>8.2.c</t>
+          <t>8.2.b</t>
         </is>
       </c>
       <c r="D40" s="4" t="inlineStr">
         <is>
-          <t>Schuldenstandsquote</t>
+          <t>b) Strukturelles Defizit</t>
         </is>
       </c>
       <c r="E40" s="4" t="inlineStr">
         <is>
-          <t>Ratio of government debt</t>
+          <t>b) Structural deficit</t>
         </is>
       </c>
       <c r="F40" s="4" t="inlineStr">
         <is>
-          <t>Schuldenstand</t>
+          <t>Strukturelles Defizit</t>
         </is>
       </c>
       <c r="G40" s="4" t="inlineStr">
         <is>
-          <t>Government debt</t>
+          <t>Structural deficit</t>
         </is>
       </c>
       <c r="H40" s="4" t="inlineStr">
         <is>
-          <t>Schuldenstandsquote max. 60 % des BIP, Beibehaltung bis 2030</t>
+          <t>Strukturell ausgeglichener Staatshaushalt, gesamtstaatliches strukturelles Defizit von max. 0,5 % des BIP, Beibehaltung bis 2030</t>
         </is>
       </c>
       <c r="I40" s="4" t="inlineStr">
         <is>
-          <t>Ratio of government debt to GDP must not exceed  60 %, to be maintained until 2030</t>
+          <t>Structurally balanced government budget, general government structural deficit must not exceed 0.5 % of GDP, to be maintained until 2030</t>
         </is>
       </c>
       <c r="J40" s="4" t="inlineStr">
         <is>
-          <t>max. 60 % des BIP</t>
+          <t>unter 0,5 % des BIP</t>
         </is>
       </c>
       <c r="K40" s="4" t="inlineStr">
         <is>
-          <t>max. 60 % of GDP</t>
+          <t>less than 0.5 % of GDP</t>
         </is>
       </c>
       <c r="L40" s="4" t="inlineStr">
         <is>
-          <t>Schuldenstand</t>
+          <t>Strukturelles Defizit</t>
         </is>
       </c>
       <c r="M40" s="4" t="inlineStr">
         <is>
-          <t>Government debt</t>
+          <t>Structural deficit</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="41">
       <c r="A41" s="4" t="inlineStr">
         <is>
-          <t>Z08_B03_P01_Ib01_I01</t>
+          <t>Z08_B02_P01_Ib02_I01</t>
         </is>
       </c>
       <c r="B41" s="4" t="inlineStr">
         <is>
-          <t>Z08_B03_P01_Ib01</t>
+          <t>Z08_B02_P01_Ib02</t>
         </is>
       </c>
       <c r="C41" s="4" t="inlineStr">
         <is>
-          <t>8.3</t>
+          <t>8.2.c</t>
         </is>
       </c>
       <c r="D41" s="4" t="inlineStr">
         <is>
-          <t>Anlageinvestitionen</t>
+          <t>Schuldenstandsquote</t>
         </is>
       </c>
       <c r="E41" s="4" t="inlineStr">
         <is>
-          <t>Gross fixed capital formation</t>
+          <t>Ratio of government debt</t>
         </is>
       </c>
       <c r="F41" s="4" t="inlineStr">
         <is>
-          <t>Verhältnis der Bruttoanlageinvestitionen zum BIP</t>
+          <t>Schuldenstand</t>
         </is>
       </c>
       <c r="G41" s="4" t="inlineStr">
         <is>
-          <t>Gross fixed capital formation in relation to GDP</t>
+          <t>Government debt</t>
         </is>
       </c>
       <c r="H41" s="4" t="inlineStr">
         <is>
-          <t>Angemessene Entwicklung des Anteils, Beibehaltung bis 2030</t>
+          <t>Schuldenstandsquote max. 60 % des BIP, Beibehaltung bis 2030</t>
         </is>
       </c>
       <c r="I41" s="4" t="inlineStr">
         <is>
-          <t>Appropriate development of the ratio, to be maintained until 2030</t>
+          <t>Ratio of government debt to GDP must not exceed  60 %, to be maintained until 2030</t>
         </is>
       </c>
       <c r="J41" s="4" t="inlineStr">
         <is>
-          <t>angemessene Entwicklung bis 2030</t>
+          <t>max. 60 % des BIP</t>
         </is>
       </c>
       <c r="K41" s="4" t="inlineStr">
         <is>
-          <t>appropriate development by 2030</t>
+          <t>max. 60 % of GDP</t>
         </is>
       </c>
       <c r="L41" s="4" t="inlineStr">
         <is>
-          <t>Verhältnis der Bruttoanlageinvestitionen zum BIP</t>
+          <t>Schuldenstand</t>
         </is>
       </c>
       <c r="M41" s="4" t="inlineStr">
         <is>
-          <t>Gross fixed capital formation in relation to GDP</t>
+          <t>Government debt</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="42">
       <c r="A42" s="4" t="inlineStr">
         <is>
-          <t>Z08_B04_P01_Ib01_I01</t>
+          <t>Z08_B03_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B42" s="4" t="inlineStr">
         <is>
-          <t>Z08_B04_P01_Ib01</t>
+          <t>Z08_B03_P01_Ib01</t>
         </is>
       </c>
       <c r="C42" s="4" t="inlineStr">
         <is>
-          <t>8.4</t>
+          <t>8.3</t>
         </is>
       </c>
       <c r="D42" s="4" t="inlineStr">
         <is>
-          <t>Bruttoinlandsprodukt</t>
+          <t>Anlageinvestitionen</t>
         </is>
       </c>
       <c r="E42" s="4" t="inlineStr">
         <is>
-          <t>Gross domestic product</t>
+          <t>Gross fixed capital formation</t>
         </is>
       </c>
       <c r="F42" s="4" t="inlineStr">
         <is>
-          <t>Bruttoinlandsprodukt je Einwohnerin und Einwohner</t>
+          <t>Verhältnis der Bruttoanlageinvestitionen zum BIP</t>
         </is>
       </c>
       <c r="G42" s="4" t="inlineStr">
         <is>
-          <t>Gross domestic product per capita</t>
+          <t>Gross fixed capital formation in relation to GDP</t>
         </is>
       </c>
       <c r="H42" s="4" t="inlineStr">
         <is>
-          <t>Stetiges und angemessenes Wirtschaftswachstum</t>
+          <t>Angemessene Entwicklung des Anteils, Beibehaltung bis 2030</t>
         </is>
       </c>
       <c r="I42" s="4" t="inlineStr">
         <is>
-          <t>Steady and appropriate economic growth</t>
+          <t>Appropriate development of the ratio, to be maintained until 2030</t>
         </is>
       </c>
       <c r="J42" s="4" t="inlineStr">
         <is>
-          <t>stetiges und angemessenes Wirtschaftswachstum</t>
+          <t>angemessene Entwicklung bis 2030</t>
         </is>
       </c>
       <c r="K42" s="4" t="inlineStr">
         <is>
-          <t>steady and appropriate economic growth</t>
+          <t>appropriate development by 2030</t>
         </is>
       </c>
       <c r="L42" s="4" t="inlineStr">
         <is>
-          <t>Bruttoinlandsprodukt je Einwohnerin und Einwohner</t>
+          <t>Verhältnis der Bruttoanlageinvestitionen zum BIP</t>
         </is>
       </c>
       <c r="M42" s="4" t="inlineStr">
         <is>
-          <t>Gross domestic product per capita</t>
+          <t>Gross fixed capital formation in relation to GDP</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="43">
       <c r="A43" s="4" t="inlineStr">
         <is>
-          <t>Z08_B05_P01_Ib01_I01</t>
+          <t>Z08_B04_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B43" s="4" t="inlineStr">
         <is>
-          <t>Z08_B05_P01_Ib01</t>
+          <t>Z08_B04_P01_Ib01</t>
         </is>
       </c>
       <c r="C43" s="4" t="inlineStr">
         <is>
-          <t>8.5.a</t>
+          <t>8.4</t>
         </is>
       </c>
       <c r="D43" s="4" t="inlineStr">
         <is>
-          <t>a) Insgesamt (20-64-Jährige)</t>
+          <t>Bruttoinlandsprodukt</t>
         </is>
       </c>
       <c r="E43" s="4" t="inlineStr">
         <is>
-          <t>a) total (20 to 64-year-olds)</t>
+          <t>Gross domestic product</t>
         </is>
       </c>
       <c r="F43" s="4" t="inlineStr">
         <is>
-          <t>Erwerbstätigenquote (20- bis 64-Jährige)</t>
+          <t>Bruttoinlandsprodukt je Einwohnerin und Einwohner</t>
         </is>
       </c>
       <c r="G43" s="4" t="inlineStr">
         <is>
-          <t>Employment rate (20 to 64-year-olds)</t>
+          <t>Gross domestic product per capita</t>
         </is>
       </c>
       <c r="H43" s="4" t="inlineStr">
         <is>
-          <t>Erhöhung auf 78 % bis 2030</t>
+          <t>Stetiges und angemessenes Wirtschaftswachstum</t>
         </is>
       </c>
       <c r="I43" s="4" t="inlineStr">
         <is>
-          <t>Increase to 78 % by 2030</t>
+          <t>Steady and appropriate economic growth</t>
         </is>
       </c>
       <c r="J43" s="4" t="inlineStr">
         <is>
-          <t>Erhöhung auf 78 % bis 2030</t>
+          <t>stetiges und angemessenes Wirtschaftswachstum</t>
         </is>
       </c>
       <c r="K43" s="4" t="inlineStr">
         <is>
-          <t>increase to 78 % by 2030</t>
+          <t>steady and appropriate economic growth</t>
         </is>
       </c>
       <c r="L43" s="4" t="inlineStr">
         <is>
-          <t>Erwerbstätigenquote insgesamt (20- bis 64-Jährige)</t>
+          <t>Bruttoinlandsprodukt je Einwohnerin und Einwohner</t>
         </is>
       </c>
       <c r="M43" s="4" t="inlineStr">
         <is>
-          <t>Employment rate, total (20 to 64-year-olds)</t>
+          <t>Gross domestic product per capita</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="44">
       <c r="A44" s="4" t="inlineStr">
         <is>
-          <t>Z08_B05_P01_Ib01_I02</t>
+          <t>Z08_B05_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B44" s="4" t="inlineStr">
@@ -3352,697 +3352,697 @@
       </c>
       <c r="C44" s="4" t="inlineStr">
         <is>
-          <t>8.5.b</t>
+          <t>8.5.a</t>
         </is>
       </c>
       <c r="D44" s="4" t="inlineStr">
         <is>
-          <t>b) Ältere (60-64-Jährige)</t>
+          <t>a) Insgesamt (20-64-Jährige)</t>
         </is>
       </c>
       <c r="E44" s="4" t="inlineStr">
         <is>
-          <t>b) older people (60 to 64-year-olds)</t>
+          <t>a) total (20 to 64-year-olds)</t>
         </is>
       </c>
       <c r="F44" s="4" t="inlineStr">
         <is>
-          <t>Erwerbstätigenquote (60- bis 64-Jährige)</t>
+          <t>Erwerbstätigenquote (20- bis 64-Jährige)</t>
         </is>
       </c>
       <c r="G44" s="4" t="inlineStr">
         <is>
-          <t>Employment rate (60 to 64-year-olds)</t>
+          <t>Employment rate (20 to 64-year-olds)</t>
         </is>
       </c>
       <c r="H44" s="4" t="inlineStr">
         <is>
-          <t>Erhöhung auf 60 % bis 2030</t>
+          <t>Erhöhung auf 78 % bis 2030</t>
         </is>
       </c>
       <c r="I44" s="4" t="inlineStr">
         <is>
-          <t>Increase to 60 % by 2030</t>
+          <t>Increase to 78 % by 2030</t>
         </is>
       </c>
       <c r="J44" s="4" t="inlineStr">
         <is>
-          <t>Erhöhung auf 60 % bis 2030</t>
+          <t>Erhöhung auf 78 % bis 2030</t>
         </is>
       </c>
       <c r="K44" s="4" t="inlineStr">
         <is>
-          <t>increase to 60 % by 2030</t>
+          <t>increase to 78 % by 2030</t>
         </is>
       </c>
       <c r="L44" s="4" t="inlineStr">
         <is>
-          <t>Erwerbstätigenquote Ältere (60- bis 64-Jährige)</t>
+          <t>Erwerbstätigenquote insgesamt (20- bis 64-Jährige)</t>
         </is>
       </c>
       <c r="M44" s="4" t="inlineStr">
         <is>
-          <t>Employment rate, older people (60 to 64-year-olds)</t>
+          <t>Employment rate, total (20 to 64-year-olds)</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="45">
       <c r="A45" s="4" t="inlineStr">
         <is>
-          <t>Z08_B06_P01_Ib01_I01</t>
+          <t>Z08_B05_P01_Ib01_I02</t>
         </is>
       </c>
       <c r="B45" s="4" t="inlineStr">
         <is>
-          <t>Z08_B06_P01_Ib01</t>
+          <t>Z08_B05_P01_Ib01</t>
         </is>
       </c>
       <c r="C45" s="4" t="inlineStr">
         <is>
-          <t>8.6</t>
+          <t>8.5.b</t>
         </is>
       </c>
       <c r="D45" s="4" t="inlineStr">
         <is>
-          <t>Mitglieder des Textilbündnisses</t>
+          <t>b) Ältere (60-64-Jährige)</t>
         </is>
       </c>
       <c r="E45" s="4" t="inlineStr">
         <is>
-          <t>Members of the Textile Partnership</t>
+          <t>b) older people (60 to 64-year-olds)</t>
         </is>
       </c>
       <c r="F45" s="4" t="inlineStr">
         <is>
-          <t>Mitglieder des Textilbündnisses</t>
+          <t>Erwerbstätigenquote (60- bis 64-Jährige)</t>
         </is>
       </c>
       <c r="G45" s="4" t="inlineStr">
         <is>
-          <t>Members of the Textile Partnership</t>
+          <t>Employment rate (60 to 64-year-olds)</t>
         </is>
       </c>
       <c r="H45" s="4" t="inlineStr">
         <is>
-          <t>Signifikante Steigerung bis 2030</t>
+          <t>Erhöhung auf 60 % bis 2030</t>
         </is>
       </c>
       <c r="I45" s="4" t="inlineStr">
         <is>
-          <t>Significantly increase by 2030</t>
+          <t>Increase to 60 % by 2030</t>
         </is>
       </c>
       <c r="J45" s="4" t="inlineStr">
         <is>
-          <t>Steigerung der Anzahl bis 2030</t>
+          <t>Erhöhung auf 60 % bis 2030</t>
         </is>
       </c>
       <c r="K45" s="4" t="inlineStr">
         <is>
-          <t>increase number by 2030</t>
+          <t>increase to 60 % by 2030</t>
         </is>
       </c>
       <c r="L45" s="4" t="inlineStr">
         <is>
-          <t>Mitglieder des Textilbündnisses</t>
+          <t>Erwerbstätigenquote Ältere (60- bis 64-Jährige)</t>
         </is>
       </c>
       <c r="M45" s="4" t="inlineStr">
         <is>
-          <t>Members of the Textile Partnership</t>
+          <t>Employment rate, older people (60 to 64-year-olds)</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="46">
       <c r="A46" s="4" t="inlineStr">
         <is>
-          <t>Z09_B01_P01_Ib01_I01</t>
+          <t>Z08_B06_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B46" s="4" t="inlineStr">
         <is>
-          <t>Z09_B01_P01_Ib01</t>
+          <t>Z08_B06_P01_Ib01</t>
         </is>
       </c>
       <c r="C46" s="4" t="inlineStr">
         <is>
-          <t>9.1.a</t>
+          <t>8.6</t>
         </is>
       </c>
       <c r="D46" s="4" t="inlineStr">
         <is>
-          <t>Ausgaben für Forschung und Entwicklung</t>
+          <t>Mitglieder des Textilbündnisses</t>
         </is>
       </c>
       <c r="E46" s="4" t="inlineStr">
         <is>
-          <t>Expenditure on research and development</t>
+          <t>Members of the Textile Partnership</t>
         </is>
       </c>
       <c r="F46" s="4" t="inlineStr">
         <is>
-          <t>Private und öffentliche Ausgaben für Forschung und Entwicklung</t>
+          <t>Mitglieder des Textilbündnisses</t>
         </is>
       </c>
       <c r="G46" s="4" t="inlineStr">
         <is>
-          <t>Private and public expenditure on research and development</t>
+          <t>Members of the Textile Partnership</t>
         </is>
       </c>
       <c r="H46" s="4" t="inlineStr">
         <is>
-          <t>Jährlich mindestens 3,5 % des BIP bis 2025</t>
+          <t>Signifikante Steigerung bis 2030</t>
         </is>
       </c>
       <c r="I46" s="4" t="inlineStr">
         <is>
-          <t>At least 3.5 % of GDP per year by 2025</t>
+          <t>Significantly increase by 2030</t>
         </is>
       </c>
       <c r="J46" s="4" t="inlineStr">
         <is>
-          <t>jährlich mindestens 3,5 % des BIP bis 2025</t>
+          <t>Steigerung der Anzahl bis 2030</t>
         </is>
       </c>
       <c r="K46" s="4" t="inlineStr">
         <is>
-          <t>at least 3.5 % of GDP per year by 2025</t>
+          <t>increase number by 2030</t>
         </is>
       </c>
       <c r="L46" s="4" t="inlineStr">
         <is>
-          <t>Private und öffentliche Ausgaben für Forschung und Entwicklung</t>
+          <t>Mitglieder des Textilbündnisses</t>
         </is>
       </c>
       <c r="M46" s="4" t="inlineStr">
         <is>
-          <t>Private and public expenditure on research and development</t>
+          <t>Members of the Textile Partnership</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="47">
       <c r="A47" s="4" t="inlineStr">
         <is>
-          <t>Z09_B01_P01_Ib02_I01</t>
+          <t>Z09_B01_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B47" s="4" t="inlineStr">
         <is>
-          <t>Z09_B01_P01_Ib02</t>
+          <t>Z09_B01_P01_Ib01</t>
         </is>
       </c>
       <c r="C47" s="4" t="inlineStr">
         <is>
-          <t>9.1.b</t>
+          <t>9.1.a</t>
         </is>
       </c>
       <c r="D47" s="4" t="inlineStr">
         <is>
-          <t>Breitbandverfügbarkeit</t>
+          <t>Ausgaben für Forschung und Entwicklung</t>
         </is>
       </c>
       <c r="E47" s="4" t="inlineStr">
         <is>
-          <t>Broadband availability</t>
+          <t>Expenditure on research and development</t>
         </is>
       </c>
       <c r="F47" s="4" t="inlineStr">
         <is>
-          <t>Breitbandausbau – Anteil der Haushalte mit Zugang zu Gigabit-Breitbandversorgung</t>
+          <t>Private und öffentliche Ausgaben für Forschung und Entwicklung</t>
         </is>
       </c>
       <c r="G47" s="4" t="inlineStr">
         <is>
-          <t>Roll-out of broadband – Share of households with access to gigabit broadband services</t>
+          <t>Private and public expenditure on research and development</t>
         </is>
       </c>
       <c r="H47" s="4" t="inlineStr">
         <is>
-          <t>Flächendeckender Aufbau von Gigabitnetzen bis 2025</t>
+          <t>Jährlich mindestens 3,5 % des BIP bis 2025</t>
         </is>
       </c>
       <c r="I47" s="4" t="inlineStr">
         <is>
-          <t>Universal gigabit network Roll-out by 2025</t>
+          <t>At least 3.5 % of GDP per year by 2025</t>
         </is>
       </c>
       <c r="J47" s="4" t="inlineStr">
         <is>
-          <t>flächendeckender Aufbau bis 2025</t>
+          <t>jährlich mindestens 3,5 % des BIP bis 2025</t>
         </is>
       </c>
       <c r="K47" s="4" t="inlineStr">
         <is>
-          <t>universal Roll-out by 2025</t>
+          <t>at least 3.5 % of GDP per year by 2025</t>
         </is>
       </c>
       <c r="L47" s="4" t="inlineStr">
         <is>
-          <t>Breitbandausbau – Anteil der Haushalte mit Zugang zu Gigabit-Breitbandversorgung</t>
+          <t>Private und öffentliche Ausgaben für Forschung und Entwicklung</t>
         </is>
       </c>
       <c r="M47" s="4" t="inlineStr">
         <is>
-          <t>Roll-out of broadband – Share of households with access to gigabit broadband services</t>
+          <t>Private and public expenditure on research and development</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="48">
       <c r="A48" s="4" t="inlineStr">
         <is>
-          <t>Z10_B01_P01_Ib01_I01</t>
+          <t>Z09_B01_P01_Ib02_I01</t>
         </is>
       </c>
       <c r="B48" s="4" t="inlineStr">
         <is>
-          <t>Z10_B01_P01_Ib01</t>
+          <t>Z09_B01_P01_Ib02</t>
         </is>
       </c>
       <c r="C48" s="4" t="inlineStr">
         <is>
-          <t>10.1</t>
+          <t>9.1.b</t>
         </is>
       </c>
       <c r="D48" s="4" t="inlineStr">
         <is>
-          <t>Abschlussquote</t>
+          <t>Breitbandverfügbarkeit</t>
         </is>
       </c>
       <c r="E48" s="4" t="inlineStr">
         <is>
-          <t>Graduation rate</t>
+          <t>Broadband availability</t>
         </is>
       </c>
       <c r="F48" s="4" t="inlineStr">
         <is>
-          <t>Ausländische Schulabsolventinnen und Schulabsolventen</t>
+          <t>Breitbandausbau – Anteil der Haushalte mit Zugang zu Gigabit-Breitbandversorgung</t>
         </is>
       </c>
       <c r="G48" s="4" t="inlineStr">
         <is>
-          <t>Foreign school graduates</t>
+          <t>Roll-out of broadband – Share of households with access to gigabit broadband services</t>
         </is>
       </c>
       <c r="H48" s="4" t="inlineStr">
         <is>
-          <t>Erhöhung des Anteils der ausländischen Schulabgänger mit mindestens Hauptschulabschluss und Angleichung an die Quote deutscher Schulabgänger bis 2030</t>
+          <t>Flächendeckender Aufbau von Gigabitnetzen bis 2025</t>
         </is>
       </c>
       <c r="I48" s="4" t="inlineStr">
         <is>
-          <t>Increase the proportion of foreign school leavers with a least a secondary general school certificate and bring into line with that of German school leavers by 2030</t>
+          <t>Universal gigabit network Roll-out by 2025</t>
         </is>
       </c>
       <c r="J48" s="4" t="inlineStr">
         <is>
-          <t>Erhöhung bei ausländischen Schulabsolvierenden und Angleichung an die Quote deutscher -absolvierenden bis 2030</t>
+          <t>flächendeckender Aufbau bis 2025</t>
         </is>
       </c>
       <c r="K48" s="4" t="inlineStr">
         <is>
-          <t>increase among foreign school leavers and bring it into line with the rate of German school leavers by 2030</t>
+          <t>universal Roll-out by 2025</t>
         </is>
       </c>
       <c r="L48" s="4" t="inlineStr">
         <is>
-          <t>Ausländische Schulabsolventinnen und Schulabsolventen</t>
+          <t>Breitbandausbau – Anteil der Haushalte mit Zugang zu Gigabit-Breitbandversorgung</t>
         </is>
       </c>
       <c r="M48" s="4" t="inlineStr">
         <is>
-          <t>Foreign school graduates</t>
+          <t>Roll-out of broadband – Share of households with access to gigabit broadband services</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="49">
       <c r="A49" s="4" t="inlineStr">
         <is>
-          <t>Z10_B02_P01_Ib01_I01</t>
+          <t>Z10_B01_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B49" s="4" t="inlineStr">
         <is>
-          <t>Z10_B02_P01_Ib01</t>
+          <t>Z10_B01_P01_Ib01</t>
         </is>
       </c>
       <c r="C49" s="4" t="inlineStr">
         <is>
-          <t>10.2</t>
+          <t>10.1</t>
         </is>
       </c>
       <c r="D49" s="4" t="inlineStr">
         <is>
-          <t>Gini-Koeffizient Einkommen nach Sozialtransfer</t>
+          <t>Abschlussquote</t>
         </is>
       </c>
       <c r="E49" s="4" t="inlineStr">
         <is>
-          <t>Gini coefficient of income after social transfers</t>
+          <t>Graduation rate</t>
         </is>
       </c>
       <c r="F49" s="4" t="inlineStr">
         <is>
-          <t>Gini-Koeffizient des Einkommens nach Sozialtransfers</t>
+          <t>Ausländische Schulabsolventinnen und Schulabsolventen</t>
         </is>
       </c>
       <c r="G49" s="4" t="inlineStr">
         <is>
-          <t>Gini coefficient of income after social transfers</t>
+          <t>Foreign school graduates</t>
         </is>
       </c>
       <c r="H49" s="4" t="inlineStr">
         <is>
-          <t>Gini-Koeffizient Einkommen nach Sozialtransfer bis 2030 unterhalb des EU-27-Wertes</t>
+          <t>Erhöhung des Anteils der ausländischen Schulabgänger mit mindestens Hauptschulabschluss und Angleichung an die Quote deutscher Schulabgänger bis 2030</t>
         </is>
       </c>
       <c r="I49" s="4" t="inlineStr">
         <is>
-          <t>Gini coefficient of income after social transfers to be below the EU-27 figure by 2030</t>
+          <t>Increase the proportion of foreign school leavers with a least a secondary general school certificate and bring into line with that of German school leavers by 2030</t>
         </is>
       </c>
       <c r="J49" s="4" t="inlineStr">
         <is>
-          <t>bis 2030 unterhalb des EU-27-Wertes</t>
+          <t>Erhöhung bei ausländischen Schulabsolvierenden und Angleichung an die Quote deutscher -absolvierenden bis 2030</t>
         </is>
       </c>
       <c r="K49" s="4" t="inlineStr">
         <is>
-          <t>to be below the EU-27 figure by 2030</t>
+          <t>increase among foreign school leavers and bring it into line with the rate of German school leavers by 2030</t>
         </is>
       </c>
       <c r="L49" s="4" t="inlineStr">
         <is>
-          <t>Gini-Koeffizient des Einkommens nach Sozialtransfers</t>
+          <t>Ausländische Schulabsolventinnen und Schulabsolventen</t>
         </is>
       </c>
       <c r="M49" s="4" t="inlineStr">
         <is>
-          <t>Gini coefficient of income after social transfers</t>
+          <t>Foreign school graduates</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="50">
       <c r="A50" s="4" t="inlineStr">
         <is>
-          <t>Z11_B01_P01_Ib01_I01</t>
+          <t>Z10_B02_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B50" s="4" t="inlineStr">
         <is>
-          <t>Z11_B01_P01_Ib01</t>
+          <t>Z10_B02_P01_Ib01</t>
         </is>
       </c>
       <c r="C50" s="4" t="inlineStr">
         <is>
-          <t>11.1.a</t>
+          <t>10.2</t>
         </is>
       </c>
       <c r="D50" s="4" t="inlineStr">
         <is>
-          <t>Anstieg der Siedlungs- und Verkehrsfläche</t>
+          <t>Gini-Koeffizient Einkommen nach Sozialtransfer</t>
         </is>
       </c>
       <c r="E50" s="4" t="inlineStr">
         <is>
-          <t>Expansion of settlement and transport area</t>
+          <t>Gini coefficient of income after social transfers</t>
         </is>
       </c>
       <c r="F50" s="4" t="inlineStr">
         <is>
-          <t>Anstieg der Siedlungs- und Verkehrsfläche</t>
+          <t>Gini-Koeffizient des Einkommens nach Sozialtransfers</t>
         </is>
       </c>
       <c r="G50" s="4" t="inlineStr">
         <is>
-          <t>Expansion of settlement and transport area</t>
+          <t>Gini coefficient of income after social transfers</t>
         </is>
       </c>
       <c r="H50" s="4" t="inlineStr">
         <is>
-          <t>Senkung auf durchschnittlich unter 30 ha pro Tag bis 2030</t>
+          <t>Gini-Koeffizient Einkommen nach Sozialtransfer bis 2030 unterhalb des EU-27-Wertes</t>
         </is>
       </c>
       <c r="I50" s="4" t="inlineStr">
         <is>
-          <t>Reduction to under 30 ha on average per day by 2030</t>
+          <t>Gini coefficient of income after social transfers to be below the EU-27 figure by 2030</t>
         </is>
       </c>
       <c r="J50" s="4" t="inlineStr">
         <is>
-          <t>Senkung auf unter 30 ha pro Tag bis 2030</t>
+          <t>bis 2030 unterhalb des EU-27-Wertes</t>
         </is>
       </c>
       <c r="K50" s="4" t="inlineStr">
         <is>
-          <t>reduction to under 30 ha per day by 2030</t>
+          <t>to be below the EU-27 figure by 2030</t>
         </is>
       </c>
       <c r="L50" s="4" t="inlineStr">
         <is>
-          <t>Anstieg der Siedlungs- und Verkehrsfläche</t>
+          <t>Gini-Koeffizient des Einkommens nach Sozialtransfers</t>
         </is>
       </c>
       <c r="M50" s="4" t="inlineStr">
         <is>
-          <t>Expansion of settlement and transport area</t>
+          <t>Gini coefficient of income after social transfers</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="51">
       <c r="A51" s="4" t="inlineStr">
         <is>
-          <t>Z11_B01_P01_Ib02_I01</t>
+          <t>Z11_B01_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B51" s="4" t="inlineStr">
         <is>
-          <t>Z11_B01_P01_Ib02</t>
+          <t>Z11_B01_P01_Ib01</t>
         </is>
       </c>
       <c r="C51" s="4" t="inlineStr">
         <is>
-          <t>11.1.b</t>
+          <t>11.1.a</t>
         </is>
       </c>
       <c r="D51" s="4" t="inlineStr">
         <is>
-          <t>Freiraumverlust</t>
+          <t>Anstieg der Siedlungs- und Verkehrsfläche</t>
         </is>
       </c>
       <c r="E51" s="4" t="inlineStr">
         <is>
-          <t>Loss of open space area</t>
+          <t>Expansion of settlement and transport area</t>
         </is>
       </c>
       <c r="F51" s="4" t="inlineStr">
         <is>
-          <t>Freiraumverlust</t>
+          <t>Anstieg der Siedlungs- und Verkehrsfläche</t>
         </is>
       </c>
       <c r="G51" s="4" t="inlineStr">
         <is>
-          <t>Loss of open space area</t>
+          <t>Expansion of settlement and transport area</t>
         </is>
       </c>
       <c r="H51" s="4" t="inlineStr">
         <is>
-          <t>Verringerung des einwohnerbezogenen Freiflächenverlustes</t>
+          <t>Senkung auf durchschnittlich unter 30 ha pro Tag bis 2030</t>
         </is>
       </c>
       <c r="I51" s="4" t="inlineStr">
         <is>
-          <t>Reduce the loss of per capita open space area</t>
+          <t>Reduction to under 30 ha on average per day by 2030</t>
         </is>
       </c>
       <c r="J51" s="4" t="inlineStr">
         <is>
-          <t>Verringerung</t>
+          <t>Senkung auf unter 30 ha pro Tag bis 2030</t>
         </is>
       </c>
       <c r="K51" s="4" t="inlineStr">
         <is>
-          <t>reduce the loss</t>
+          <t>reduction to under 30 ha per day by 2030</t>
         </is>
       </c>
       <c r="L51" s="4" t="inlineStr">
         <is>
-          <t>Freiraumverlust</t>
+          <t>Anstieg der Siedlungs- und Verkehrsfläche</t>
         </is>
       </c>
       <c r="M51" s="4" t="inlineStr">
         <is>
-          <t>Loss of open space area</t>
+          <t>Expansion of settlement and transport area</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="52">
       <c r="A52" s="4" t="inlineStr">
         <is>
-          <t>Z11_B01_P01_Ib03_I01</t>
+          <t>Z11_B01_P01_Ib02_I01</t>
         </is>
       </c>
       <c r="B52" s="4" t="inlineStr">
         <is>
-          <t>Z11_B01_P01_Ib03</t>
+          <t>Z11_B01_P01_Ib02</t>
         </is>
       </c>
       <c r="C52" s="4" t="inlineStr">
         <is>
-          <t>11.1.c</t>
+          <t>11.1.b</t>
         </is>
       </c>
       <c r="D52" s="4" t="inlineStr">
         <is>
-          <t>Siedlungsdichte</t>
+          <t>Freiraumverlust</t>
         </is>
       </c>
       <c r="E52" s="4" t="inlineStr">
         <is>
-          <t>Density of settlements</t>
+          <t>Loss of open space area</t>
         </is>
       </c>
       <c r="F52" s="4" t="inlineStr">
         <is>
-          <t>Siedlungsdichte</t>
+          <t>Freiraumverlust</t>
         </is>
       </c>
       <c r="G52" s="4" t="inlineStr">
         <is>
-          <t>Density of settlements</t>
+          <t>Loss of open space area</t>
         </is>
       </c>
       <c r="H52" s="4" t="inlineStr">
         <is>
-          <t>Keine Verringerung der Siedlungsdichte</t>
+          <t>Verringerung des einwohnerbezogenen Freiflächenverlustes</t>
         </is>
       </c>
       <c r="I52" s="4" t="inlineStr">
         <is>
-          <t>No reduction in density of settlements</t>
+          <t>Reduce the loss of per capita open space area</t>
         </is>
       </c>
       <c r="J52" s="4" t="inlineStr">
         <is>
-          <t>keine Verringerung</t>
+          <t>Verringerung</t>
         </is>
       </c>
       <c r="K52" s="4" t="inlineStr">
         <is>
-          <t>no reduction</t>
+          <t>reduce the loss</t>
         </is>
       </c>
       <c r="L52" s="4" t="inlineStr">
         <is>
-          <t>Siedlungsdichte</t>
+          <t>Freiraumverlust</t>
         </is>
       </c>
       <c r="M52" s="4" t="inlineStr">
         <is>
-          <t>Density of settlements</t>
+          <t>Loss of open space area</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="53">
       <c r="A53" s="4" t="inlineStr">
         <is>
-          <t>Z11_B02_P01_Ib01_I01</t>
+          <t>Z11_B01_P01_Ib03_I01</t>
         </is>
       </c>
       <c r="B53" s="4" t="inlineStr">
         <is>
-          <t>Z11_B02_P01_Ib01</t>
+          <t>Z11_B01_P01_Ib03</t>
         </is>
       </c>
       <c r="C53" s="4" t="inlineStr">
         <is>
-          <t>11.2.a</t>
+          <t>11.1.c</t>
         </is>
       </c>
       <c r="D53" s="4" t="inlineStr">
         <is>
-          <t>Endenergieverbrauch im Güterverkehr</t>
+          <t>Siedlungsdichte</t>
         </is>
       </c>
       <c r="E53" s="4" t="inlineStr">
         <is>
-          <t>Energy consumption in goods transport</t>
+          <t>Density of settlements</t>
         </is>
       </c>
       <c r="F53" s="4" t="inlineStr">
         <is>
-          <t>Endenergieverbrauch im Güterverkehr</t>
+          <t>Siedlungsdichte</t>
         </is>
       </c>
       <c r="G53" s="4" t="inlineStr">
         <is>
-          <t>Final energy consumption in goods transport</t>
+          <t>Density of settlements</t>
         </is>
       </c>
       <c r="H53" s="4" t="inlineStr">
         <is>
-          <t>Senkung um 15 bis 20 % bis 2030</t>
+          <t>Keine Verringerung der Siedlungsdichte</t>
         </is>
       </c>
       <c r="I53" s="4" t="inlineStr">
         <is>
-          <t>Reduction by 15–20 % by 2030</t>
+          <t>No reduction in density of settlements</t>
         </is>
       </c>
       <c r="J53" s="4" t="inlineStr">
         <is>
-          <t>Senkung um 15 bis 20 % bis 2030</t>
+          <t>keine Verringerung</t>
         </is>
       </c>
       <c r="K53" s="4" t="inlineStr">
         <is>
-          <t>reduction by 15-20 % by 2030</t>
+          <t>no reduction</t>
         </is>
       </c>
       <c r="L53" s="4" t="inlineStr">
         <is>
-          <t>Endenergieverbrauch im Güterverkehr</t>
+          <t>Siedlungsdichte</t>
         </is>
       </c>
       <c r="M53" s="4" t="inlineStr">
         <is>
-          <t>Final energy consumption in goods transport</t>
+          <t>Density of settlements</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="54">
       <c r="A54" s="4" t="inlineStr">
         <is>
-          <t>Z11_B02_P01_Ib02_I01</t>
+          <t>Z11_B02_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B54" s="4" t="inlineStr">
         <is>
-          <t>Z11_B02_P01_Ib02</t>
+          <t>Z11_B02_P01_Ib01</t>
         </is>
       </c>
       <c r="C54" s="4" t="inlineStr">
         <is>
-          <t>11.2.b</t>
+          <t>11.2.a</t>
         </is>
       </c>
       <c r="D54" s="4" t="inlineStr">
         <is>
-          <t>Endenergieverbrauch im Personenverkehr</t>
+          <t>Endenergieverbrauch im Güterverkehr</t>
         </is>
       </c>
       <c r="E54" s="4" t="inlineStr">
         <is>
-          <t>Energy consumption in passenger transport</t>
+          <t>Energy consumption in goods transport</t>
         </is>
       </c>
       <c r="F54" s="4" t="inlineStr">
         <is>
-          <t>Endenergieverbrauch im Personenverkehr</t>
+          <t>Endenergieverbrauch im Güterverkehr</t>
         </is>
       </c>
       <c r="G54" s="4" t="inlineStr">
         <is>
-          <t>Final energy consumption in passenger transport</t>
+          <t>Final energy consumption in goods transport</t>
         </is>
       </c>
       <c r="H54" s="4" t="inlineStr">
@@ -4067,354 +4067,354 @@
       </c>
       <c r="L54" s="4" t="inlineStr">
         <is>
-          <t>Endenergieverbrauch im Personenverkehr</t>
+          <t>Endenergieverbrauch im Güterverkehr</t>
         </is>
       </c>
       <c r="M54" s="4" t="inlineStr">
         <is>
-          <t>Final energy consumption in passenger transport</t>
+          <t>Final energy consumption in goods transport</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="55">
       <c r="A55" s="4" t="inlineStr">
         <is>
-          <t>Z11_B02_P01_Ib03_I01</t>
+          <t>Z11_B02_P01_Ib02_I01</t>
         </is>
       </c>
       <c r="B55" s="4" t="inlineStr">
         <is>
-          <t>Z11_B02_P01_Ib03</t>
+          <t>Z11_B02_P01_Ib02</t>
         </is>
       </c>
       <c r="C55" s="4" t="inlineStr">
         <is>
-          <t>11.2.c</t>
+          <t>11.2.b</t>
         </is>
       </c>
       <c r="D55" s="4" t="inlineStr">
         <is>
-          <t>Reisezeit mit öffentlichen Verkehrsmitteln</t>
+          <t>Endenergieverbrauch im Personenverkehr</t>
         </is>
       </c>
       <c r="E55" s="4" t="inlineStr">
         <is>
-          <t>Average travel time by public transport</t>
+          <t>Energy consumption in passenger transport</t>
         </is>
       </c>
       <c r="F55" s="4" t="inlineStr">
         <is>
-          <t>Erreichbarkeit von Mittel- und Oberzentren mit öffentlichen Verkehrsmitteln</t>
+          <t>Endenergieverbrauch im Personenverkehr</t>
         </is>
       </c>
       <c r="G55" s="4" t="inlineStr">
         <is>
-          <t>Accessibility of medium-sized and large cities by public transport</t>
+          <t>Final energy consumption in passenger transport</t>
         </is>
       </c>
       <c r="H55" s="4" t="inlineStr">
         <is>
-          <t>Verringerung der durchschnittlichen Reisezeit mit öffentlichen Verkehrsmitteln</t>
+          <t>Senkung um 15 bis 20 % bis 2030</t>
         </is>
       </c>
       <c r="I55" s="4" t="inlineStr">
         <is>
-          <t>Reduction of average travel time by public transport</t>
+          <t>Reduction by 15–20 % by 2030</t>
         </is>
       </c>
       <c r="J55" s="4" t="inlineStr">
         <is>
-          <t>Verringerung</t>
+          <t>Senkung um 15 bis 20 % bis 2030</t>
         </is>
       </c>
       <c r="K55" s="4" t="inlineStr">
         <is>
-          <t>reduction</t>
+          <t>reduction by 15-20 % by 2030</t>
         </is>
       </c>
       <c r="L55" s="4" t="inlineStr">
         <is>
-          <t>Erreichbarkeit von Mittel- und Oberzentren mit öffentlichen Verkehrsmitteln</t>
+          <t>Endenergieverbrauch im Personenverkehr</t>
         </is>
       </c>
       <c r="M55" s="4" t="inlineStr">
         <is>
-          <t>Accessibility of medium-sized and large cities by public transport</t>
+          <t>Final energy consumption in passenger transport</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="56">
       <c r="A56" s="4" t="inlineStr">
         <is>
-          <t>Z11_B03_P01_Ib01_I01</t>
+          <t>Z11_B02_P01_Ib03_I01</t>
         </is>
       </c>
       <c r="B56" s="4" t="inlineStr">
         <is>
-          <t>Z11_B03_P01_Ib01</t>
+          <t>Z11_B02_P01_Ib03</t>
         </is>
       </c>
       <c r="C56" s="4" t="inlineStr">
         <is>
-          <t>11.3</t>
+          <t>11.2.c</t>
         </is>
       </c>
       <c r="D56" s="4" t="inlineStr">
         <is>
-          <t>Durch Wohnkosten überlastete Personen</t>
+          <t>Reisezeit mit öffentlichen Verkehrsmitteln</t>
         </is>
       </c>
       <c r="E56" s="4" t="inlineStr">
         <is>
-          <t>Persons overburdened by housing costs</t>
+          <t>Average travel time by public transport</t>
         </is>
       </c>
       <c r="F56" s="4" t="inlineStr">
         <is>
-          <t>Überlastung durch Wohnkosten</t>
+          <t>Erreichbarkeit von Mittel- und Oberzentren mit öffentlichen Verkehrsmitteln</t>
         </is>
       </c>
       <c r="G56" s="4" t="inlineStr">
         <is>
-          <t>Housing cost overload</t>
+          <t>Accessibility of medium-sized and large cities by public transport</t>
         </is>
       </c>
       <c r="H56" s="4" t="inlineStr">
         <is>
-          <t>Senkung des Anteils der überlasteten Personen an der Bevölkerung auf 13 % bis 2030</t>
+          <t>Verringerung der durchschnittlichen Reisezeit mit öffentlichen Verkehrsmitteln</t>
         </is>
       </c>
       <c r="I56" s="4" t="inlineStr">
         <is>
-          <t>Reduce the proportion of people who are overburdened to 13 % by 2030</t>
+          <t>Reduction of average travel time by public transport</t>
         </is>
       </c>
       <c r="J56" s="4" t="inlineStr">
         <is>
-          <t>Senkung auf 13 % bis 2030</t>
+          <t>Verringerung</t>
         </is>
       </c>
       <c r="K56" s="4" t="inlineStr">
         <is>
-          <t>reduce to 13 % by 2030</t>
+          <t>reduction</t>
         </is>
       </c>
       <c r="L56" s="4" t="inlineStr">
         <is>
-          <t>Überlastung durch Wohnkosten</t>
+          <t>Erreichbarkeit von Mittel- und Oberzentren mit öffentlichen Verkehrsmitteln</t>
         </is>
       </c>
       <c r="M56" s="4" t="inlineStr">
         <is>
-          <t>Housing cost overload</t>
+          <t>Accessibility of medium-sized and large cities by public transport</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="57">
       <c r="A57" s="4" t="inlineStr">
         <is>
-          <t>Z11_B04_P01_Ib01_I01</t>
+          <t>Z11_B03_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B57" s="4" t="inlineStr">
         <is>
-          <t>Z11_B04_P01_Ib01</t>
+          <t>Z11_B03_P01_Ib01</t>
         </is>
       </c>
       <c r="C57" s="4" t="inlineStr">
         <is>
-          <t>11.4</t>
+          <t>11.3</t>
         </is>
       </c>
       <c r="D57" s="4" t="inlineStr">
         <is>
-          <t>Objekte in der Deutschen Digitalen Bibliothek</t>
+          <t>Durch Wohnkosten überlastete Personen</t>
         </is>
       </c>
       <c r="E57" s="4" t="inlineStr">
         <is>
-          <t>Objects in the German Digital Library</t>
+          <t>Persons overburdened by housing costs</t>
         </is>
       </c>
       <c r="F57" s="4" t="inlineStr">
         <is>
-          <t>Zahl der Objekte in der Deutschen Digitalen Bibliothek</t>
+          <t>Überlastung durch Wohnkosten</t>
         </is>
       </c>
       <c r="G57" s="4" t="inlineStr">
         <is>
-          <t>Number of objects in the German Digital Library</t>
+          <t>Housing cost overload</t>
         </is>
       </c>
       <c r="H57" s="4" t="inlineStr">
         <is>
-          <t>Steigerung der Zahl der in der Deutschen Digitalen Bibliothek vernetzten Objekte auf 50 Millionen bis 2030</t>
+          <t>Senkung des Anteils der überlasteten Personen an der Bevölkerung auf 13 % bis 2030</t>
         </is>
       </c>
       <c r="I57" s="4" t="inlineStr">
         <is>
-          <t>Increase in the number of objects in the network of the German Digital Library to 50 million by 2030</t>
+          <t>Reduce the proportion of people who are overburdened to 13 % by 2030</t>
         </is>
       </c>
       <c r="J57" s="4" t="inlineStr">
         <is>
-          <t>Steigerung auf 50 Millionen bis 2030</t>
+          <t>Senkung auf 13 % bis 2030</t>
         </is>
       </c>
       <c r="K57" s="4" t="inlineStr">
         <is>
-          <t>increase to 50 million by 2030</t>
+          <t>reduce to 13 % by 2030</t>
         </is>
       </c>
       <c r="L57" s="4" t="inlineStr">
         <is>
-          <t>Zahl der Objekte in der Deutschen Digitalen Bibliothek</t>
+          <t>Überlastung durch Wohnkosten</t>
         </is>
       </c>
       <c r="M57" s="4" t="inlineStr">
         <is>
-          <t>Number of objects in the German Digital Library</t>
+          <t>Housing cost overload</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="58">
       <c r="A58" s="4" t="inlineStr">
         <is>
-          <t>Z12_B01_P01_Ib01_I01</t>
+          <t>Z11_B04_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B58" s="4" t="inlineStr">
         <is>
-          <t>Z12_B01_P01_Ib01</t>
+          <t>Z11_B04_P01_Ib01</t>
         </is>
       </c>
       <c r="C58" s="4" t="inlineStr">
         <is>
-          <t>12.1.a</t>
+          <t>11.4</t>
         </is>
       </c>
       <c r="D58" s="4" t="inlineStr">
         <is>
-          <t>Produkte mit Umweltzeichen</t>
+          <t>Objekte in der Deutschen Digitalen Bibliothek</t>
         </is>
       </c>
       <c r="E58" s="4" t="inlineStr">
         <is>
-          <t>Products certified by eco-labelling schemes</t>
+          <t>Objects in the German Digital Library</t>
         </is>
       </c>
       <c r="F58" s="4" t="inlineStr">
         <is>
-          <t>Marktanteil von Produkten mit staatlichen Umweltzeichen</t>
+          <t>Zahl der Objekte in der Deutschen Digitalen Bibliothek</t>
         </is>
       </c>
       <c r="G58" s="4" t="inlineStr">
         <is>
-          <t>Market share of products certified by publicly managed eco-labelling schemes</t>
+          <t>Number of objects in the German Digital Library</t>
         </is>
       </c>
       <c r="H58" s="4" t="inlineStr">
         <is>
-          <t>Steigerung des Marktanteils auf 34 % bis 2030</t>
+          <t>Steigerung der Zahl der in der Deutschen Digitalen Bibliothek vernetzten Objekte auf 50 Millionen bis 2030</t>
         </is>
       </c>
       <c r="I58" s="4" t="inlineStr">
         <is>
-          <t>Increase the market share to 34 % by 2030</t>
+          <t>Increase in the number of objects in the network of the German Digital Library to 50 million by 2030</t>
         </is>
       </c>
       <c r="J58" s="4" t="inlineStr">
         <is>
-          <t>Steigerung des Marktanteils auf 34 % bis 2030</t>
+          <t>Steigerung auf 50 Millionen bis 2030</t>
         </is>
       </c>
       <c r="K58" s="4" t="inlineStr">
         <is>
-          <t>increase the market share to 34 % by 2030</t>
+          <t>increase to 50 million by 2030</t>
         </is>
       </c>
       <c r="L58" s="4" t="inlineStr">
         <is>
-          <t>Marktanteil von Produkten mit staatlichen Umweltzeichen</t>
+          <t>Zahl der Objekte in der Deutschen Digitalen Bibliothek</t>
         </is>
       </c>
       <c r="M58" s="4" t="inlineStr">
         <is>
-          <t>Market share of products certified by publicly managed eco-labelling schemes</t>
+          <t>Number of objects in the German Digital Library</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="59">
       <c r="A59" s="4" t="inlineStr">
         <is>
-          <t>Z12_B01_P01_Ib02_I01</t>
+          <t>Z12_B01_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B59" s="4" t="inlineStr">
         <is>
-          <t>Z12_B01_P01_Ib02</t>
+          <t>Z12_B01_P01_Ib01</t>
         </is>
       </c>
       <c r="C59" s="4" t="inlineStr">
         <is>
-          <t>12.1.ba</t>
+          <t>12.1.a</t>
         </is>
       </c>
       <c r="D59" s="4" t="inlineStr">
         <is>
-          <t>ba) Rohstoffeinsatz</t>
+          <t>Produkte mit Umweltzeichen</t>
         </is>
       </c>
       <c r="E59" s="4" t="inlineStr">
         <is>
-          <t>ba) Use of raw materials</t>
+          <t>Products certified by eco-labelling schemes</t>
         </is>
       </c>
       <c r="F59" s="4" t="inlineStr">
         <is>
-          <t>Globale Umweltinanspruchnahme durch den Konsum privater Haushalte - Rohstoffeinsatz</t>
+          <t>Marktanteil von Produkten mit staatlichen Umweltzeichen</t>
         </is>
       </c>
       <c r="G59" s="4" t="inlineStr">
         <is>
-          <t>Global environmental impact by private household consumption – use of raw materials</t>
+          <t>Market share of products certified by publicly managed eco-labelling schemes</t>
         </is>
       </c>
       <c r="H59" s="4" t="inlineStr">
         <is>
-          <t>Kontinuierliche Reduzierung </t>
+          <t>Steigerung des Marktanteils auf 34 % bis 2030</t>
         </is>
       </c>
       <c r="I59" s="4" t="inlineStr">
         <is>
-          <t>Steady reduction</t>
+          <t>Increase the market share to 34 % by 2030</t>
         </is>
       </c>
       <c r="J59" s="4" t="inlineStr">
         <is>
-          <t>kontinuierliche Reduzierung</t>
+          <t>Steigerung des Marktanteils auf 34 % bis 2030</t>
         </is>
       </c>
       <c r="K59" s="4" t="inlineStr">
         <is>
-          <t>steady reduction</t>
+          <t>increase the market share to 34 % by 2030</t>
         </is>
       </c>
       <c r="L59" s="4" t="inlineStr">
         <is>
-          <t>Direkter und indirekter Rohstoffeinsatz</t>
+          <t>Marktanteil von Produkten mit staatlichen Umweltzeichen</t>
         </is>
       </c>
       <c r="M59" s="4" t="inlineStr">
         <is>
-          <t>Direct and indirect use of raw materials</t>
+          <t>Market share of products certified by publicly managed eco-labelling schemes</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="60">
       <c r="A60" s="4" t="inlineStr">
         <is>
-          <t>Z12_B01_P01_Ib02_I02</t>
+          <t>Z12_B01_P01_Ib02_I01</t>
         </is>
       </c>
       <c r="B60" s="4" t="inlineStr">
@@ -4424,27 +4424,27 @@
       </c>
       <c r="C60" s="4" t="inlineStr">
         <is>
-          <t>12.1.bb</t>
+          <t>12.1.ba</t>
         </is>
       </c>
       <c r="D60" s="4" t="inlineStr">
         <is>
-          <t>bb) Energieverbrauch</t>
+          <t>ba) Rohstoffeinsatz</t>
         </is>
       </c>
       <c r="E60" s="4" t="inlineStr">
         <is>
-          <t>bb) Energy consumption</t>
+          <t>ba) Use of raw materials</t>
         </is>
       </c>
       <c r="F60" s="4" t="inlineStr">
         <is>
-          <t>Globale Umweltinanspruchnahme durch den Konsum privater Haushalte - Energieverbrauch</t>
+          <t>Globale Umweltinanspruchnahme durch den Konsum privater Haushalte - Rohstoffeinsatz</t>
         </is>
       </c>
       <c r="G60" s="4" t="inlineStr">
         <is>
-          <t>Global environmental impact by private household consumption – energy consumption</t>
+          <t>Global environmental impact by private household consumption – use of raw materials</t>
         </is>
       </c>
       <c r="H60" s="4" t="inlineStr">
@@ -4469,19 +4469,19 @@
       </c>
       <c r="L60" s="4" t="inlineStr">
         <is>
-          <t>Direkter und indirekter Energieverbrauch</t>
+          <t>Direkter und indirekter Rohstoffeinsatz</t>
         </is>
       </c>
       <c r="M60" s="4" t="inlineStr">
         <is>
-          <t>Direct and indirect energy consumption</t>
+          <t>Direct and indirect use of raw materials</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="61">
       <c r="A61" s="4" t="inlineStr">
         <is>
-          <t>Z12_B01_P01_Ib02_I03</t>
+          <t>Z12_B01_P01_Ib02_I02</t>
         </is>
       </c>
       <c r="B61" s="4" t="inlineStr">
@@ -4491,27 +4491,27 @@
       </c>
       <c r="C61" s="4" t="inlineStr">
         <is>
-          <t>12.1.bc</t>
+          <t>12.1.bb</t>
         </is>
       </c>
       <c r="D61" s="4" t="inlineStr">
         <is>
-          <t>bc) CO2-Emissionen</t>
+          <t>bb) Energieverbrauch</t>
         </is>
       </c>
       <c r="E61" s="4" t="inlineStr">
         <is>
-          <t>bc) CO2 emissions</t>
+          <t>bb) Energy consumption</t>
         </is>
       </c>
       <c r="F61" s="4" t="inlineStr">
         <is>
-          <t>Globale Umweltinanspruchnahme durch den Konsum privater Haushalte - CO2-Emissionen</t>
+          <t>Globale Umweltinanspruchnahme durch den Konsum privater Haushalte - Energieverbrauch</t>
         </is>
       </c>
       <c r="G61" s="4" t="inlineStr">
         <is>
-          <t>Global environmental impact by private household consumption – CO2 emissions</t>
+          <t>Global environmental impact by private household consumption – energy consumption</t>
         </is>
       </c>
       <c r="H61" s="4" t="inlineStr">
@@ -4536,153 +4536,153 @@
       </c>
       <c r="L61" s="4" t="inlineStr">
         <is>
-          <t>Direkte und indirekte CO2-Emissionen</t>
+          <t>Direkter und indirekter Energieverbrauch</t>
         </is>
       </c>
       <c r="M61" s="4" t="inlineStr">
         <is>
-          <t>Direct and indirect CO2 emissions</t>
+          <t>Direct and indirect energy consumption</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="62">
       <c r="A62" s="4" t="inlineStr">
         <is>
-          <t>Z12_B02_P01_Ib01_I01</t>
+          <t>Z12_B01_P01_Ib02_I03</t>
         </is>
       </c>
       <c r="B62" s="4" t="inlineStr">
         <is>
-          <t>Z12_B02_P01_Ib01</t>
+          <t>Z12_B01_P01_Ib02</t>
         </is>
       </c>
       <c r="C62" s="4" t="inlineStr">
         <is>
-          <t>12.2</t>
+          <t>12.1.bc</t>
         </is>
       </c>
       <c r="D62" s="4" t="inlineStr">
         <is>
-          <t>Umweltmanagement EMAS</t>
+          <t>bc) CO2-Emissionen</t>
         </is>
       </c>
       <c r="E62" s="4" t="inlineStr">
         <is>
-          <t>EMAS eco-management</t>
+          <t>bc) CO2 emissions</t>
         </is>
       </c>
       <c r="F62" s="4" t="inlineStr">
         <is>
-          <t>Umweltmanagement EMAS</t>
+          <t>Globale Umweltinanspruchnahme durch den Konsum privater Haushalte - CO2-Emissionen</t>
         </is>
       </c>
       <c r="G62" s="4" t="inlineStr">
         <is>
-          <t>EMAS eco-management</t>
+          <t>Global environmental impact by private household consumption – CO2 emissions</t>
         </is>
       </c>
       <c r="H62" s="4" t="inlineStr">
         <is>
-          <t>5 000 Organisationsstandorte bis 2030</t>
+          <t>Kontinuierliche Reduzierung </t>
         </is>
       </c>
       <c r="I62" s="4" t="inlineStr">
         <is>
-          <t>5,000 locations of organisation by 2030</t>
+          <t>Steady reduction</t>
         </is>
       </c>
       <c r="J62" s="4" t="inlineStr">
         <is>
-          <t>5 000 Organisationsstandorte bis 2030</t>
+          <t>kontinuierliche Reduzierung</t>
         </is>
       </c>
       <c r="K62" s="4" t="inlineStr">
         <is>
-          <t>5,000 locations of organisation by 2030</t>
+          <t>steady reduction</t>
         </is>
       </c>
       <c r="L62" s="4" t="inlineStr">
         <is>
-          <t>Umweltmanagement EMAS</t>
+          <t>Direkte und indirekte CO2-Emissionen</t>
         </is>
       </c>
       <c r="M62" s="4" t="inlineStr">
         <is>
-          <t>EMAS eco-management</t>
+          <t>Direct and indirect CO2 emissions</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="63">
       <c r="A63" s="4" t="inlineStr">
         <is>
-          <t>Z12_B03_P01_Ib01_I01</t>
+          <t>Z12_B02_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B63" s="4" t="inlineStr">
         <is>
-          <t>Z12_B03_P01_Ib01</t>
+          <t>Z12_B02_P01_Ib01</t>
         </is>
       </c>
       <c r="C63" s="4" t="inlineStr">
         <is>
-          <t>12.3.a</t>
+          <t>12.2</t>
         </is>
       </c>
       <c r="D63" s="4" t="inlineStr">
         <is>
-          <t>a) Anteil Papier mit Blauem Engel der Bundesverwaltung</t>
+          <t>Umweltmanagement EMAS</t>
         </is>
       </c>
       <c r="E63" s="4" t="inlineStr">
         <is>
-          <t>a) Share of paper bearing the Blue Angel label of the federal administration</t>
+          <t>EMAS eco-management</t>
         </is>
       </c>
       <c r="F63" s="4" t="inlineStr">
         <is>
-          <t>Anteil des Papiers mit Blauem Engel am Gesamtpapierverbrauch der unmittelbaren Bundesverwaltung</t>
+          <t>Umweltmanagement EMAS</t>
         </is>
       </c>
       <c r="G63" s="4" t="inlineStr">
         <is>
-          <t>Paper bearing the Blue Angel label as a proportion of the total paper consumption of the direct federal administration</t>
+          <t>EMAS eco-management</t>
         </is>
       </c>
       <c r="H63" s="4" t="inlineStr">
         <is>
-          <t>Steigerung des Anteils auf 95 % bis 2020</t>
+          <t>5 000 Organisationsstandorte bis 2030</t>
         </is>
       </c>
       <c r="I63" s="4" t="inlineStr">
         <is>
-          <t>Increase the proportion to 95 % by 2020</t>
+          <t>5,000 locations of organisation by 2030</t>
         </is>
       </c>
       <c r="J63" s="4" t="inlineStr">
         <is>
-          <t>Steigerung auf 95 % bis 2020</t>
+          <t>5 000 Organisationsstandorte bis 2030</t>
         </is>
       </c>
       <c r="K63" s="4" t="inlineStr">
         <is>
-          <t>increase to 95 % by 2020</t>
+          <t>5,000 locations of organisation by 2030</t>
         </is>
       </c>
       <c r="L63" s="4" t="inlineStr">
         <is>
-          <t>Anteil des Papiers mit Blauem Engel am Gesamtpapierverbrauch der unmittelbaren Bundesverwaltung</t>
+          <t>Umweltmanagement EMAS</t>
         </is>
       </c>
       <c r="M63" s="4" t="inlineStr">
         <is>
-          <t>Paper bearing the Blue Angel label as a proportion of the total paper consumption of the direct federal administration</t>
+          <t>EMAS eco-management</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="64">
       <c r="A64" s="4" t="inlineStr">
         <is>
-          <t>Z12_B03_P01_Ib01_I02</t>
+          <t>Z12_B03_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B64" s="4" t="inlineStr">
@@ -4692,265 +4692,265 @@
       </c>
       <c r="C64" s="4" t="inlineStr">
         <is>
-          <t>12.3.b</t>
+          <t>12.3.a</t>
         </is>
       </c>
       <c r="D64" s="4" t="inlineStr">
         <is>
-          <t>b) CO2-Emissionen der Kfz der öffentlichen Hand</t>
+          <t>a) Anteil Papier mit Blauem Engel der Bundesverwaltung</t>
         </is>
       </c>
       <c r="E64" s="4" t="inlineStr">
         <is>
-          <t>b) CO2 emissions of vehicles in the public sector</t>
+          <t>a) Share of paper bearing the Blue Angel label of the federal administration</t>
         </is>
       </c>
       <c r="F64" s="4" t="inlineStr">
         <is>
-          <t>CO2-Emissionen je Fahrleistungen der Kraftfahrzeuge der öffentlichen Hand</t>
+          <t>Anteil des Papiers mit Blauem Engel am Gesamtpapierverbrauch der unmittelbaren Bundesverwaltung</t>
         </is>
       </c>
       <c r="G64" s="4" t="inlineStr">
         <is>
-          <t>CO2 emissions of commercially available vehicles in the public sector</t>
+          <t>Paper bearing the Blue Angel label as a proportion of the total paper consumption of the direct federal administration</t>
         </is>
       </c>
       <c r="H64" s="4" t="inlineStr">
         <is>
-          <t>Signifikante Senkung</t>
+          <t>Steigerung des Anteils auf 95 % bis 2020</t>
         </is>
       </c>
       <c r="I64" s="4" t="inlineStr">
         <is>
-          <t>Significantly reduce</t>
+          <t>Increase the proportion to 95 % by 2020</t>
         </is>
       </c>
       <c r="J64" s="4" t="inlineStr">
         <is>
-          <t>signifikante Senkung</t>
+          <t>Steigerung auf 95 % bis 2020</t>
         </is>
       </c>
       <c r="K64" s="4" t="inlineStr">
         <is>
-          <t>significantly reduce</t>
+          <t>increase to 95 % by 2020</t>
         </is>
       </c>
       <c r="L64" s="4" t="inlineStr">
         <is>
-          <t>CO2-Emissionen je Fahrleistungen der Kraftfahrzeuge der öffentlichen Hand</t>
+          <t>Anteil des Papiers mit Blauem Engel am Gesamtpapierverbrauch der unmittelbaren Bundesverwaltung</t>
         </is>
       </c>
       <c r="M64" s="4" t="inlineStr">
         <is>
-          <t>CO2 emissions of commercially available vehicles in the public sector</t>
+          <t>Paper bearing the Blue Angel label as a proportion of the total paper consumption of the direct federal administration</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="65">
       <c r="A65" s="4" t="inlineStr">
         <is>
-          <t>Z13_B01_P01_Ib01_I01</t>
+          <t>Z12_B03_P01_Ib01_I02</t>
         </is>
       </c>
       <c r="B65" s="4" t="inlineStr">
         <is>
-          <t>Z13_B01_P01_Ib01</t>
+          <t>Z12_B03_P01_Ib01</t>
         </is>
       </c>
       <c r="C65" s="4" t="inlineStr">
         <is>
-          <t>13.1.a</t>
+          <t>12.3.b</t>
         </is>
       </c>
       <c r="D65" s="4" t="inlineStr">
         <is>
-          <t>Treibhausgasemissionen</t>
+          <t>b) CO2-Emissionen der Kfz der öffentlichen Hand</t>
         </is>
       </c>
       <c r="E65" s="4" t="inlineStr">
         <is>
-          <t>Greenhouse gas emissions</t>
+          <t>b) CO2 emissions of vehicles in the public sector</t>
         </is>
       </c>
       <c r="F65" s="4" t="inlineStr">
         <is>
-          <t>Treibhausgasemissionen</t>
+          <t>CO2-Emissionen je Fahrleistungen der Kraftfahrzeuge der öffentlichen Hand</t>
         </is>
       </c>
       <c r="G65" s="4" t="inlineStr">
         <is>
-          <t>Greenhouse gas emissions</t>
+          <t>CO2 emissions of commercially available vehicles in the public sector</t>
         </is>
       </c>
       <c r="H65" s="4" t="inlineStr">
         <is>
-          <t>Minderung um mindestens 65 % bis 2030, um mindestens 88 % bis 2040; Erreichung der Treibhausgasneutralität bis 2045</t>
+          <t>Signifikante Senkung</t>
         </is>
       </c>
       <c r="I65" s="4" t="inlineStr">
         <is>
-          <t>Reduce by at least 65 % by 2030 and by at least 88 % by 2040; greenhouse gas neutrality to be achieved by 2045</t>
+          <t>Significantly reduce</t>
         </is>
       </c>
       <c r="J65" s="4" t="inlineStr">
         <is>
-          <t>Minderung um 65 % bis 2030</t>
+          <t>signifikante Senkung</t>
         </is>
       </c>
       <c r="K65" s="4" t="inlineStr">
         <is>
-          <t>reduce by 65 % by 2030</t>
+          <t>significantly reduce</t>
         </is>
       </c>
       <c r="L65" s="4" t="inlineStr">
         <is>
-          <t>Treibhausgasemissionen</t>
+          <t>CO2-Emissionen je Fahrleistungen der Kraftfahrzeuge der öffentlichen Hand</t>
         </is>
       </c>
       <c r="M65" s="4" t="inlineStr">
         <is>
-          <t>Greenhouse gas emissions</t>
+          <t>CO2 emissions of commercially available vehicles in the public sector</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="66">
       <c r="A66" s="4" t="inlineStr">
         <is>
-          <t>Z13_B01_P02_Ib01_I01</t>
+          <t>Z13_B01_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B66" s="4" t="inlineStr">
         <is>
-          <t>Z13_B01_P02_Ib01</t>
+          <t>Z13_B01_P01_Ib01</t>
         </is>
       </c>
       <c r="C66" s="4" t="inlineStr">
         <is>
-          <t>13.1.b</t>
+          <t>13.1.a</t>
         </is>
       </c>
       <c r="D66" s="4" t="inlineStr">
         <is>
-          <t>Zahlungen zur Klimafinanzierung</t>
+          <t>Treibhausgasemissionen</t>
         </is>
       </c>
       <c r="E66" s="4" t="inlineStr">
         <is>
-          <t>Climate finance payments</t>
+          <t>Greenhouse gas emissions</t>
         </is>
       </c>
       <c r="F66" s="4" t="inlineStr">
         <is>
-          <t>Internationale Klimafinanzierung zur Reduktion von Treibhausgasen und zur Anpassung an den Klimawandel</t>
+          <t>Treibhausgasemissionen</t>
         </is>
       </c>
       <c r="G66" s="4" t="inlineStr">
         <is>
-          <t>International climate finance for the reduction of greenhouse gases and adaptation to climate change</t>
+          <t>Greenhouse gas emissions</t>
         </is>
       </c>
       <c r="H66" s="4" t="inlineStr">
         <is>
-          <t>Erhöhung der internationalen Klimafinanzierung auf mindestens 6 Mrd. Euro bis spätestens 2025.</t>
+          <t>Minderung um mindestens 65 % bis 2030, um mindestens 88 % bis 2040; Erreichung der Treibhausgasneutralität bis 2045</t>
         </is>
       </c>
       <c r="I66" s="4" t="inlineStr">
         <is>
-          <t>Increase international climate finance to at least 6 billion euros by 2025 at the latest</t>
+          <t>Reduce by at least 65 % by 2030 and by at least 88 % by 2040; greenhouse gas neutrality to be achieved by 2045</t>
         </is>
       </c>
       <c r="J66" s="4" t="inlineStr">
         <is>
-          <t>Erhöhung auf 6 Mrd. Euro bis 2025</t>
+          <t>Minderung um 65 % bis 2030</t>
         </is>
       </c>
       <c r="K66" s="4" t="inlineStr">
         <is>
-          <t>increase to 6 bn euro by 2025</t>
+          <t>reduce by 65 % by 2030</t>
         </is>
       </c>
       <c r="L66" s="4" t="inlineStr">
         <is>
-          <t>Internationale Klimafinanzierung zur Reduktion von Treibhausgasen und zur Anpassung an den Klimawandel</t>
+          <t>Treibhausgasemissionen</t>
         </is>
       </c>
       <c r="M66" s="4" t="inlineStr">
         <is>
-          <t>International climate finance for the reduction of greenhouse gases and adaptation to climate change</t>
+          <t>Greenhouse gas emissions</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="67">
       <c r="A67" s="4" t="inlineStr">
         <is>
-          <t>Z14_B01_P01_Ib01_I01</t>
+          <t>Z13_B01_P02_Ib01_I01</t>
         </is>
       </c>
       <c r="B67" s="4" t="inlineStr">
         <is>
-          <t>Z14_B01_P01_Ib01</t>
+          <t>Z13_B01_P02_Ib01</t>
         </is>
       </c>
       <c r="C67" s="4" t="inlineStr">
         <is>
-          <t>14.1.aa</t>
+          <t>13.1.b</t>
         </is>
       </c>
       <c r="D67" s="4" t="inlineStr">
         <is>
-          <t>aa) Ostsee</t>
+          <t>Zahlungen zur Klimafinanzierung</t>
         </is>
       </c>
       <c r="E67" s="4" t="inlineStr">
         <is>
-          <t>aa) Baltic Sea</t>
+          <t>Climate finance payments</t>
         </is>
       </c>
       <c r="F67" s="4" t="inlineStr">
         <is>
-          <t>Stickstoffeintrag über die Zuflüsse in die Ostsee</t>
+          <t>Internationale Klimafinanzierung zur Reduktion von Treibhausgasen und zur Anpassung an den Klimawandel</t>
         </is>
       </c>
       <c r="G67" s="4" t="inlineStr">
         <is>
-          <t>Nitrogen input via the inflows into the Baltic Sea</t>
+          <t>International climate finance for the reduction of greenhouse gases and adaptation to climate change</t>
         </is>
       </c>
       <c r="H67" s="4" t="inlineStr">
         <is>
-          <t>Einhaltung des guten Zustands nach Oberflächengewässerverordnung (Jahresmittelwerte für Gesamtstickstoff bei in die Ostsee mündenden Flüssen sollen 2,6 Milligramm pro Liter nicht überschreiten)</t>
+          <t>Erhöhung der internationalen Klimafinanzierung auf mindestens 6 Mrd. Euro bis spätestens 2025.</t>
         </is>
       </c>
       <c r="I67" s="4" t="inlineStr">
         <is>
-          <t>Adherence to good quality in accordance with the Ordinance on the Protection of Surface Waters (Oberflächengewässerver-ordnung) (annual averages for total nitro-gen in rivers flowing into the Baltic may not exceed 2.6 mg/l)</t>
+          <t>Increase international climate finance to at least 6 billion euros by 2025 at the latest</t>
         </is>
       </c>
       <c r="J67" s="4" t="inlineStr">
         <is>
-          <t>Gesamtstickstoff in Zuflüssen unter 2,6 mg/l</t>
+          <t>Erhöhung auf 6 Mrd. Euro bis 2025</t>
         </is>
       </c>
       <c r="K67" s="4" t="inlineStr">
         <is>
-          <t>total nitrogen in the inflows below 2.6 mg/l</t>
+          <t>increase to 6 bn euro by 2025</t>
         </is>
       </c>
       <c r="L67" s="4" t="inlineStr">
         <is>
-          <t>Stickstoffeintrag über die Zuflüsse in die Ostsee</t>
+          <t>Internationale Klimafinanzierung zur Reduktion von Treibhausgasen und zur Anpassung an den Klimawandel</t>
         </is>
       </c>
       <c r="M67" s="4" t="inlineStr">
         <is>
-          <t>Nitrogen input via the inflows into the Baltic Sea</t>
+          <t>International climate finance for the reduction of greenhouse gases and adaptation to climate change</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="68">
       <c r="A68" s="4" t="inlineStr">
         <is>
-          <t>Z14_B01_P01_Ib01_I02</t>
+          <t>Z14_B01_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B68" s="4" t="inlineStr">
@@ -4960,332 +4960,332 @@
       </c>
       <c r="C68" s="4" t="inlineStr">
         <is>
-          <t>14.1.ab</t>
+          <t>14.1.aa</t>
         </is>
       </c>
       <c r="D68" s="4" t="inlineStr">
         <is>
-          <t>ab) Nordsee</t>
+          <t>aa) Ostsee</t>
         </is>
       </c>
       <c r="E68" s="4" t="inlineStr">
         <is>
-          <t>ab) North Sea</t>
+          <t>aa) Baltic Sea</t>
         </is>
       </c>
       <c r="F68" s="4" t="inlineStr">
         <is>
-          <t>Stickstoffeintrag über die Zuflüsse in die Nordsee</t>
+          <t>Stickstoffeintrag über die Zuflüsse in die Ostsee</t>
         </is>
       </c>
       <c r="G68" s="4" t="inlineStr">
         <is>
-          <t>Nitrogen input via the inflows into the North Sea</t>
+          <t>Nitrogen input via the inflows into the Baltic Sea</t>
         </is>
       </c>
       <c r="H68" s="4" t="inlineStr">
         <is>
-          <t>Einhaltung des guten Zustands nach Oberflächengewässerverordnung (Jahresmittelwerte für Gesamtstickstoff bei in die Nordsee mündenden Flüssen sollen 2,8 Milligramm pro Liter nicht überschreiten)</t>
+          <t>Einhaltung des guten Zustands nach Oberflächengewässerverordnung (Jahresmittelwerte für Gesamtstickstoff bei in die Ostsee mündenden Flüssen sollen 2,6 Milligramm pro Liter nicht überschreiten)</t>
         </is>
       </c>
       <c r="I68" s="4" t="inlineStr">
         <is>
-          <t>Adherence to good quality in accordance with the Ordinance on the Protection of Surface Waters (annual averages for total nitrogen in rivers flowing into the North Sea may not exceed 2.8 mg/l)</t>
+          <t>Adherence to good quality in accordance with the Ordinance on the Protection of Surface Waters (Oberflächengewässerver-ordnung) (annual averages for total nitro-gen in rivers flowing into the Baltic may not exceed 2.6 mg/l)</t>
         </is>
       </c>
       <c r="J68" s="4" t="inlineStr">
         <is>
-          <t>Gesamtstickstoff in Zuflüssen unter 2,8 mg/l</t>
+          <t>Gesamtstickstoff in Zuflüssen unter 2,6 mg/l</t>
         </is>
       </c>
       <c r="K68" s="4" t="inlineStr">
         <is>
-          <t>total nitrogen in the inflows below 2.8 mg/l</t>
+          <t>total nitrogen in the inflows below 2.6 mg/l</t>
         </is>
       </c>
       <c r="L68" s="4" t="inlineStr">
         <is>
-          <t>Stickstoffeintrag über die Zuflüsse in die Nordsee</t>
+          <t>Stickstoffeintrag über die Zuflüsse in die Ostsee</t>
         </is>
       </c>
       <c r="M68" s="4" t="inlineStr">
         <is>
-          <t>Nitrogen input via the inflows into the North Sea</t>
+          <t>Nitrogen input via the inflows into the Baltic Sea</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="69">
       <c r="A69" s="4" t="inlineStr">
         <is>
-          <t>Z14_B01_P01_Ib02_I01</t>
+          <t>Z14_B01_P01_Ib01_I02</t>
         </is>
       </c>
       <c r="B69" s="4" t="inlineStr">
         <is>
-          <t>Z14_B01_P01_Ib02</t>
+          <t>Z14_B01_P01_Ib01</t>
         </is>
       </c>
       <c r="C69" s="4" t="inlineStr">
         <is>
-          <t>14.1.b</t>
+          <t>14.1.ab</t>
         </is>
       </c>
       <c r="D69" s="4" t="inlineStr">
         <is>
-          <t>Bewirtschaftung von Fischbeständen</t>
+          <t>ab) Nordsee</t>
         </is>
       </c>
       <c r="E69" s="4" t="inlineStr">
         <is>
-          <t>Fish stock management</t>
+          <t>ab) North Sea</t>
         </is>
       </c>
       <c r="F69" s="4" t="inlineStr">
         <is>
-          <t>Anteil der nachhaltig befischten Fischbestände in Nord- und Ostsee</t>
+          <t>Stickstoffeintrag über die Zuflüsse in die Nordsee</t>
         </is>
       </c>
       <c r="G69" s="4" t="inlineStr">
         <is>
-          <t>Share of sustainably fished stocks of fish in the North and Baltic Seas</t>
+          <t>Nitrogen input via the inflows into the North Sea</t>
         </is>
       </c>
       <c r="H69" s="4" t="inlineStr">
         <is>
-          <t>Alle wirtschaftlich genutzten Fischbestände sollen nach dem MSY-Ansatz nachhaltig bewirtschaftet werden bis 2020</t>
+          <t>Einhaltung des guten Zustands nach Oberflächengewässerverordnung (Jahresmittelwerte für Gesamtstickstoff bei in die Nordsee mündenden Flüssen sollen 2,8 Milligramm pro Liter nicht überschreiten)</t>
         </is>
       </c>
       <c r="I69" s="4" t="inlineStr">
         <is>
-          <t>All fish stocks used for commercial purpos-es to be sustainably managed in accordance with the Maximum Sustainable Yield (MSY) approach by 2020</t>
+          <t>Adherence to good quality in accordance with the Ordinance on the Protection of Surface Waters (annual averages for total nitrogen in rivers flowing into the North Sea may not exceed 2.8 mg/l)</t>
         </is>
       </c>
       <c r="J69" s="4" t="inlineStr">
         <is>
-          <t>nachhaltige Bewirtschaftung nach dem MSY-Ansatz bis 2020</t>
+          <t>Gesamtstickstoff in Zuflüssen unter 2,8 mg/l</t>
         </is>
       </c>
       <c r="K69" s="4" t="inlineStr">
         <is>
-          <t>sustainable management in accordance with the MSY approachby 2020</t>
+          <t>total nitrogen in the inflows below 2.8 mg/l</t>
         </is>
       </c>
       <c r="L69" s="4" t="inlineStr">
         <is>
-          <t>Anteil der nachhaltig befischten Fischbestände in Nord- und Ostsee</t>
+          <t>Stickstoffeintrag über die Zuflüsse in die Nordsee</t>
         </is>
       </c>
       <c r="M69" s="4" t="inlineStr">
         <is>
-          <t>Share of sustainably fished stocks of fish in the North and Baltic Seas</t>
+          <t>Nitrogen input via the inflows into the North Sea</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="70">
       <c r="A70" s="4" t="inlineStr">
         <is>
-          <t>Z15_B01_P01_Ib01_I01</t>
+          <t>Z14_B01_P01_Ib02_I01</t>
         </is>
       </c>
       <c r="B70" s="4" t="inlineStr">
         <is>
-          <t>Z15_B01_P01_Ib01</t>
+          <t>Z14_B01_P01_Ib02</t>
         </is>
       </c>
       <c r="C70" s="4" t="inlineStr">
         <is>
-          <t>15.1</t>
+          <t>14.1.b</t>
         </is>
       </c>
       <c r="D70" s="4" t="inlineStr">
         <is>
-          <t>Artenvielfalt und Landschaftsqualität</t>
+          <t>Bewirtschaftung von Fischbeständen</t>
         </is>
       </c>
       <c r="E70" s="4" t="inlineStr">
         <is>
-          <t>Biodiversity and landscape quality</t>
+          <t>Fish stock management</t>
         </is>
       </c>
       <c r="F70" s="4" t="inlineStr">
         <is>
-          <t>Artenvielfalt und Landschaftsqualität</t>
+          <t>Anteil der nachhaltig befischten Fischbestände in Nord- und Ostsee</t>
         </is>
       </c>
       <c r="G70" s="4" t="inlineStr">
         <is>
-          <t>Biodiversity and landscape quality</t>
+          <t>Share of sustainably fished stocks of fish in the North and Baltic Seas</t>
         </is>
       </c>
       <c r="H70" s="4" t="inlineStr">
         <is>
-          <t>Erreichen des Indexwertes 100 bis 2030</t>
+          <t>Alle wirtschaftlich genutzten Fischbestände sollen nach dem MSY-Ansatz nachhaltig bewirtschaftet werden bis 2020</t>
         </is>
       </c>
       <c r="I70" s="4" t="inlineStr">
         <is>
-          <t>Reach the index value of 100 by 2030</t>
+          <t>All fish stocks used for commercial purpos-es to be sustainably managed in accordance with the Maximum Sustainable Yield (MSY) approach by 2020</t>
         </is>
       </c>
       <c r="J70" s="4" t="inlineStr">
         <is>
-          <t>Erreichen des Indexwertes 100 bis 2030</t>
+          <t>nachhaltige Bewirtschaftung nach dem MSY-Ansatz bis 2020</t>
         </is>
       </c>
       <c r="K70" s="4" t="inlineStr">
         <is>
-          <t>reach the index value of 100 by 2030</t>
+          <t>sustainable management in accordance with the MSY approachby 2020</t>
         </is>
       </c>
       <c r="L70" s="4" t="inlineStr">
         <is>
-          <t>Artenvielfalt und Landschaftsqualität</t>
+          <t>Anteil der nachhaltig befischten Fischbestände in Nord- und Ostsee</t>
         </is>
       </c>
       <c r="M70" s="4" t="inlineStr">
         <is>
-          <t>Biodiversity and landscape quality</t>
+          <t>Share of sustainably fished stocks of fish in the North and Baltic Seas</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="71">
       <c r="A71" s="4" t="inlineStr">
         <is>
-          <t>Z15_B02_P01_Ib01_I01</t>
+          <t>Z15_B01_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B71" s="4" t="inlineStr">
         <is>
-          <t>Z15_B02_P01_Ib01</t>
+          <t>Z15_B01_P01_Ib01</t>
         </is>
       </c>
       <c r="C71" s="4" t="inlineStr">
         <is>
-          <t>15.2</t>
+          <t>15.1</t>
         </is>
       </c>
       <c r="D71" s="4" t="inlineStr">
         <is>
-          <t>Flächen mit erhöhtem Stickstoffeintrag</t>
+          <t>Artenvielfalt und Landschaftsqualität</t>
         </is>
       </c>
       <c r="E71" s="4" t="inlineStr">
         <is>
-          <t>Land with elevated inputs of nitrogen</t>
+          <t>Biodiversity and landscape quality</t>
         </is>
       </c>
       <c r="F71" s="4" t="inlineStr">
         <is>
-          <t>Eutrophierung der Ökosysteme</t>
+          <t>Artenvielfalt und Landschaftsqualität</t>
         </is>
       </c>
       <c r="G71" s="4" t="inlineStr">
         <is>
-          <t>Eutrophication of ecosystems</t>
+          <t>Biodiversity and landscape quality</t>
         </is>
       </c>
       <c r="H71" s="4" t="inlineStr">
         <is>
-          <t>Verringerung um 35 % bis 2030 gegenüber 2005</t>
+          <t>Erreichen des Indexwertes 100 bis 2030</t>
         </is>
       </c>
       <c r="I71" s="4" t="inlineStr">
         <is>
-          <t>Reduction by 35 % by 2030 compared to 2005</t>
+          <t>Reach the index value of 100 by 2030</t>
         </is>
       </c>
       <c r="J71" s="4" t="inlineStr">
         <is>
-          <t>Verringerung um 35 % bis 2030</t>
+          <t>Erreichen des Indexwertes 100 bis 2030</t>
         </is>
       </c>
       <c r="K71" s="4" t="inlineStr">
         <is>
-          <t>reduction by 35 % by 2030</t>
+          <t>reach the index value of 100 by 2030</t>
         </is>
       </c>
       <c r="L71" s="4" t="inlineStr">
         <is>
-          <t>Eutrophierung der Ökosysteme</t>
+          <t>Artenvielfalt und Landschaftsqualität</t>
         </is>
       </c>
       <c r="M71" s="4" t="inlineStr">
         <is>
-          <t>Eutrophication of ecosystems</t>
+          <t>Biodiversity and landscape quality</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="72">
       <c r="A72" s="4" t="inlineStr">
         <is>
-          <t>Z15_B02_P02_Ib01_I01</t>
+          <t>Z15_B02_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B72" s="4" t="inlineStr">
         <is>
-          <t>Z15_B02_P02_Ib01</t>
+          <t>Z15_B02_P01_Ib01</t>
         </is>
       </c>
       <c r="C72" s="4" t="inlineStr">
         <is>
-          <t>15.3.a</t>
+          <t>15.2</t>
         </is>
       </c>
       <c r="D72" s="4" t="inlineStr">
         <is>
-          <t>a) Wälder unter REDD+-Regelwerk</t>
+          <t>Flächen mit erhöhtem Stickstoffeintrag</t>
         </is>
       </c>
       <c r="E72" s="4" t="inlineStr">
         <is>
-          <t>a) Forests under REDD+ rulebook</t>
+          <t>Land with elevated inputs of nitrogen</t>
         </is>
       </c>
       <c r="F72" s="4" t="inlineStr">
         <is>
-          <t>REDD+ (ergebnisbasierte Auszahlungen für internationalen Waldschutz)</t>
+          <t>Eutrophierung der Ökosysteme</t>
         </is>
       </c>
       <c r="G72" s="4" t="inlineStr">
         <is>
-          <t>REDD+ (results-based payments for international protection of forests)</t>
+          <t>Eutrophication of ecosystems</t>
         </is>
       </c>
       <c r="H72" s="4" t="inlineStr">
         <is>
-          <t>Steigerung der Zahlungen bis 2030</t>
+          <t>Verringerung um 35 % bis 2030 gegenüber 2005</t>
         </is>
       </c>
       <c r="I72" s="4" t="inlineStr">
         <is>
-          <t>Increase payments by 2030</t>
+          <t>Reduction by 35 % by 2030 compared to 2005</t>
         </is>
       </c>
       <c r="J72" s="4" t="inlineStr">
         <is>
-          <t>Steigerung der Zahlungen bis 2030</t>
+          <t>Verringerung um 35 % bis 2030</t>
         </is>
       </c>
       <c r="K72" s="4" t="inlineStr">
         <is>
-          <t>increase payments by 2030</t>
+          <t>reduction by 35 % by 2030</t>
         </is>
       </c>
       <c r="L72" s="4" t="inlineStr">
         <is>
-          <t>Erhalt bzw. Wiederaufbau von Wäldern in Entwicklungsländern unter dem REDD+-Regelwerk</t>
+          <t>Eutrophierung der Ökosysteme</t>
         </is>
       </c>
       <c r="M72" s="4" t="inlineStr">
         <is>
-          <t>Preservation or restoration of forests in developing countries under the REDD+ rulebook</t>
+          <t>Eutrophication of ecosystems</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="73">
       <c r="A73" s="4" t="inlineStr">
         <is>
-          <t>Z15_B02_P02_Ib01_I02</t>
+          <t>Z15_B02_P02_Ib01_I01</t>
         </is>
       </c>
       <c r="B73" s="4" t="inlineStr">
@@ -5295,27 +5295,27 @@
       </c>
       <c r="C73" s="4" t="inlineStr">
         <is>
-          <t>15.3.b</t>
+          <t>15.3.a</t>
         </is>
       </c>
       <c r="D73" s="4" t="inlineStr">
         <is>
-          <t>b) Internationaler Bodenschutz</t>
+          <t>a) Wälder unter REDD+-Regelwerk</t>
         </is>
       </c>
       <c r="E73" s="4" t="inlineStr">
         <is>
-          <t>b) Combat Desertification</t>
+          <t>a) Forests under REDD+ rulebook</t>
         </is>
       </c>
       <c r="F73" s="4" t="inlineStr">
         <is>
-          <t>Internationaler Bodenschutz (Bruttoentwicklungsausgaben für internationalen Bodenschutz)</t>
+          <t>REDD+ (ergebnisbasierte Auszahlungen für internationalen Waldschutz)</t>
         </is>
       </c>
       <c r="G73" s="4" t="inlineStr">
         <is>
-          <t>International soil protection (gross development assistance for international soil protection)</t>
+          <t>REDD+ (results-based payments for international protection of forests)</t>
         </is>
       </c>
       <c r="H73" s="4" t="inlineStr">
@@ -5340,220 +5340,220 @@
       </c>
       <c r="L73" s="4" t="inlineStr">
         <is>
-          <t>Deutsche bilaterale Bruttoentwicklungsausgaben zur Umsetzung des Übereinkommens der VN zur Bekämpfung der Wüstenbildung</t>
+          <t>Erhalt bzw. Wiederaufbau von Wäldern in Entwicklungsländern unter dem REDD+-Regelwerk</t>
         </is>
       </c>
       <c r="M73" s="4" t="inlineStr">
         <is>
-          <t>German gross bilateral development expenditure for the implementation of the UN Convention to Combat Desertification</t>
+          <t>Preservation or restoration of forests in developing countries under the REDD+ rulebook</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="74">
       <c r="A74" s="4" t="inlineStr">
         <is>
-          <t>Z16_B01_P01_Ib01_I01</t>
+          <t>Z15_B02_P02_Ib01_I02</t>
         </is>
       </c>
       <c r="B74" s="4" t="inlineStr">
         <is>
-          <t>Z16_B01_P01_Ib01</t>
+          <t>Z15_B02_P02_Ib01</t>
         </is>
       </c>
       <c r="C74" s="4" t="inlineStr">
         <is>
-          <t>16.1</t>
+          <t>15.3.b</t>
         </is>
       </c>
       <c r="D74" s="4" t="inlineStr">
         <is>
-          <t>Anzahl an Straftaten</t>
+          <t>b) Internationaler Bodenschutz</t>
         </is>
       </c>
       <c r="E74" s="4" t="inlineStr">
         <is>
-          <t>Number of criminal offences</t>
+          <t>b) Combat Desertification</t>
         </is>
       </c>
       <c r="F74" s="4" t="inlineStr">
         <is>
-          <t>Straftaten</t>
+          <t>Internationaler Bodenschutz (Bruttoentwicklungsausgaben für internationalen Bodenschutz)</t>
         </is>
       </c>
       <c r="G74" s="4" t="inlineStr">
         <is>
-          <t>Criminal offences</t>
+          <t>International soil protection (gross development assistance for international soil protection)</t>
         </is>
       </c>
       <c r="H74" s="4" t="inlineStr">
         <is>
-          <t>Rückgang der Zahl der erfassten Straftaten je 100 000 Einwohner/ -innen auf unter 6 500 bis 2030</t>
+          <t>Steigerung der Zahlungen bis 2030</t>
         </is>
       </c>
       <c r="I74" s="4" t="inlineStr">
         <is>
-          <t>Reduce the number of criminal offences re-corded per 100,000 inhabitants to less than 6,500 by 2030</t>
+          <t>Increase payments by 2030</t>
         </is>
       </c>
       <c r="J74" s="4" t="inlineStr">
         <is>
-          <t>Rückgang auf unter 6 500 je 100 000 Einwohner/ -innen bis 2030</t>
+          <t>Steigerung der Zahlungen bis 2030</t>
         </is>
       </c>
       <c r="K74" s="4" t="inlineStr">
         <is>
-          <t>reduce to less than 6,500 per 100,000 inhabitants by 2030</t>
+          <t>increase payments by 2030</t>
         </is>
       </c>
       <c r="L74" s="4" t="inlineStr">
         <is>
-          <t>Straftaten</t>
+          <t>Deutsche bilaterale Bruttoentwicklungsausgaben zur Umsetzung des Übereinkommens der VN zur Bekämpfung der Wüstenbildung</t>
         </is>
       </c>
       <c r="M74" s="4" t="inlineStr">
         <is>
-          <t>Criminal offences</t>
+          <t>German gross bilateral development expenditure for the implementation of the UN Convention to Combat Desertification</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="75">
       <c r="A75" s="4" t="inlineStr">
         <is>
-          <t>Z16_B02_P01_Ib01_I01</t>
+          <t>Z16_B01_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B75" s="4" t="inlineStr">
         <is>
-          <t>Z16_B02_P01_Ib01</t>
+          <t>Z16_B01_P01_Ib01</t>
         </is>
       </c>
       <c r="C75" s="4" t="inlineStr">
         <is>
-          <t>16.2</t>
+          <t>16.1</t>
         </is>
       </c>
       <c r="D75" s="4" t="inlineStr">
         <is>
-          <t>Sicherung, Registrierung und Zerstörung von Waffen</t>
+          <t>Anzahl an Straftaten</t>
         </is>
       </c>
       <c r="E75" s="4" t="inlineStr">
         <is>
-          <t>Securing, registration and destruction of weapons</t>
+          <t>Number of criminal offences</t>
         </is>
       </c>
       <c r="F75" s="4" t="inlineStr">
         <is>
-          <t>Anzahl der in betroffenen Weltregionen durchgeführten Projekte zur Sicherung, Registrierung und Zerstörung von Kleinwaffen und leichten Waffen durch Deutschland</t>
+          <t>Straftaten</t>
         </is>
       </c>
       <c r="G75" s="4" t="inlineStr">
         <is>
-          <t>Number of projects to secure, register and destroy small arms and light weapons carried out by Germany in affected regions of the world</t>
+          <t>Criminal offences</t>
         </is>
       </c>
       <c r="H75" s="4" t="inlineStr">
         <is>
-          <t>Mindestens 15 Projekte pro Jahr bis 2030</t>
+          <t>Rückgang der Zahl der erfassten Straftaten je 100 000 Einwohner/ -innen auf unter 6 500 bis 2030</t>
         </is>
       </c>
       <c r="I75" s="4" t="inlineStr">
         <is>
-          <t>At least 15 projects per year by 2030</t>
+          <t>Reduce the number of criminal offences re-corded per 100,000 inhabitants to less than 6,500 by 2030</t>
         </is>
       </c>
       <c r="J75" s="4" t="inlineStr">
         <is>
-          <t>mindestens 15 Projekte pro Jahr bis 2030</t>
+          <t>Rückgang auf unter 6 500 je 100 000 Einwohner/ -innen bis 2030</t>
         </is>
       </c>
       <c r="K75" s="4" t="inlineStr">
         <is>
-          <t>at least 15 projects per year by 2030</t>
+          <t>reduce to less than 6,500 per 100,000 inhabitants by 2030</t>
         </is>
       </c>
       <c r="L75" s="4" t="inlineStr">
         <is>
-          <t>Anzahl der in betroffenen Weltregionen durchgeführten Projekte zur Sicherung, Registrierung und Zerstörung von Kleinwaffen und leichten Waffen durch Deutschland</t>
+          <t>Straftaten</t>
         </is>
       </c>
       <c r="M75" s="4" t="inlineStr">
         <is>
-          <t>Number of projects to secure, register and destroy small arms and light weapons carried out by Germany in affected regions of the world</t>
+          <t>Criminal offences</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="76">
       <c r="A76" s="4" t="inlineStr">
         <is>
-          <t>Z16_B03_P01_Ib01_I01</t>
+          <t>Z16_B02_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B76" s="4" t="inlineStr">
         <is>
-          <t>Z16_B03_P01_Ib01</t>
+          <t>Z16_B02_P01_Ib01</t>
         </is>
       </c>
       <c r="C76" s="4" t="inlineStr">
         <is>
-          <t>16.3.a</t>
+          <t>16.2</t>
         </is>
       </c>
       <c r="D76" s="4" t="inlineStr">
         <is>
-          <t>a) CPI Deutschland</t>
+          <t>Sicherung, Registrierung und Zerstörung von Waffen</t>
         </is>
       </c>
       <c r="E76" s="4" t="inlineStr">
         <is>
-          <t>a) CPI Germany</t>
+          <t>Securing, registration and destruction of weapons</t>
         </is>
       </c>
       <c r="F76" s="4" t="inlineStr">
         <is>
-          <t>Corruption Perception Index in Deutschland</t>
+          <t>Anzahl der in betroffenen Weltregionen durchgeführten Projekte zur Sicherung, Registrierung und Zerstörung von Kleinwaffen und leichten Waffen durch Deutschland</t>
         </is>
       </c>
       <c r="G76" s="4" t="inlineStr">
         <is>
-          <t>Corruption Perceptions Index in Germany</t>
+          <t>Number of projects to secure, register and destroy small arms and light weapons carried out by Germany in affected regions of the world</t>
         </is>
       </c>
       <c r="H76" s="4" t="inlineStr">
         <is>
-          <t>Verbesserung gegenüber 2012 bis 2030</t>
+          <t>Mindestens 15 Projekte pro Jahr bis 2030</t>
         </is>
       </c>
       <c r="I76" s="4" t="inlineStr">
         <is>
-          <t>Improvement by 2030, compared to 2012</t>
+          <t>At least 15 projects per year by 2030</t>
         </is>
       </c>
       <c r="J76" s="4" t="inlineStr">
         <is>
-          <t>Verbesserung bis 2030</t>
+          <t>mindestens 15 Projekte pro Jahr bis 2030</t>
         </is>
       </c>
       <c r="K76" s="4" t="inlineStr">
         <is>
-          <t>improvement by 2030</t>
+          <t>at least 15 projects per year by 2030</t>
         </is>
       </c>
       <c r="L76" s="4" t="inlineStr">
         <is>
-          <t>Corruption Perception Index in Deutschland</t>
+          <t>Anzahl der in betroffenen Weltregionen durchgeführten Projekte zur Sicherung, Registrierung und Zerstörung von Kleinwaffen und leichten Waffen durch Deutschland</t>
         </is>
       </c>
       <c r="M76" s="4" t="inlineStr">
         <is>
-          <t>Corruption Perception Index in Germany</t>
+          <t>Number of projects to secure, register and destroy small arms and light weapons carried out by Germany in affected regions of the world</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="77">
       <c r="A77" s="4" t="inlineStr">
         <is>
-          <t>Z16_B03_P01_Ib01_I02</t>
+          <t>Z16_B03_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B77" s="4" t="inlineStr">
@@ -5563,27 +5563,27 @@
       </c>
       <c r="C77" s="4" t="inlineStr">
         <is>
-          <t>16.3.b</t>
+          <t>16.3.a</t>
         </is>
       </c>
       <c r="D77" s="4" t="inlineStr">
         <is>
-          <t>b) CPI  Partnerländer</t>
+          <t>a) CPI Deutschland</t>
         </is>
       </c>
       <c r="E77" s="4" t="inlineStr">
         <is>
-          <t>b) CPI Partner countries</t>
+          <t>a) CPI Germany</t>
         </is>
       </c>
       <c r="F77" s="4" t="inlineStr">
         <is>
-          <t>Corruption Perception Index in den Partnerländern der deutschen Entwicklungszusammenarbeit</t>
+          <t>Corruption Perception Index in Deutschland</t>
         </is>
       </c>
       <c r="G77" s="4" t="inlineStr">
         <is>
-          <t>Corruption Perceptions Index in partner countries for German development cooperation</t>
+          <t>Corruption Perceptions Index in Germany</t>
         </is>
       </c>
       <c r="H77" s="4" t="inlineStr">
@@ -5608,211 +5608,278 @@
       </c>
       <c r="L77" s="4" t="inlineStr">
         <is>
-          <t>Anzahl der Partnerländer deutscher Entwicklungszusammenarbeit, deren Bewertung sich gegenüber 2012 verbessert hat</t>
+          <t>Corruption Perception Index in Deutschland</t>
         </is>
       </c>
       <c r="M77" s="4" t="inlineStr">
         <is>
-          <t>Number of partner countries for German development cooperation with improved CPI scores compared with 2012</t>
+          <t>Corruption Perception Index in Germany</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="78">
       <c r="A78" s="4" t="inlineStr">
         <is>
-          <t>Z17_B01_P01_Ib01_I01</t>
+          <t>Z16_B03_P01_Ib01_I02</t>
         </is>
       </c>
       <c r="B78" s="4" t="inlineStr">
         <is>
-          <t>Z17_B01_P01_Ib01</t>
+          <t>Z16_B03_P01_Ib01</t>
         </is>
       </c>
       <c r="C78" s="4" t="inlineStr">
         <is>
-          <t>17.1</t>
+          <t>16.3.b</t>
         </is>
       </c>
       <c r="D78" s="4" t="inlineStr">
         <is>
-          <t>Entwicklungsausgaben</t>
+          <t>b) CPI  Partnerländer</t>
         </is>
       </c>
       <c r="E78" s="4" t="inlineStr">
         <is>
-          <t>Development assistance</t>
+          <t>b) CPI Partner countries</t>
         </is>
       </c>
       <c r="F78" s="4" t="inlineStr">
         <is>
-          <t>Anteil öffentlicher Entwicklungsausgaben am Bruttonationaleinkommen</t>
+          <t>Corruption Perception Index in den Partnerländern der deutschen Entwicklungszusammenarbeit</t>
         </is>
       </c>
       <c r="G78" s="4" t="inlineStr">
         <is>
-          <t>Official development assistance as a proportion of gross national income</t>
+          <t>Corruption Perceptions Index in partner countries for German development cooperation</t>
         </is>
       </c>
       <c r="H78" s="4" t="inlineStr">
         <is>
-          <t>Steigerung des Anteils auf 0,7 % des  Bruttonationaleinkommens bis 2030</t>
+          <t>Verbesserung gegenüber 2012 bis 2030</t>
         </is>
       </c>
       <c r="I78" s="4" t="inlineStr">
         <is>
-          <t>Increase the proportion to 0.7 % of gross national income by 2030</t>
+          <t>Improvement by 2030, compared to 2012</t>
         </is>
       </c>
       <c r="J78" s="4" t="inlineStr">
         <is>
-          <t>Steigerung des Anteils auf 0,7 % des BNE bis 2030</t>
+          <t>Verbesserung bis 2030</t>
         </is>
       </c>
       <c r="K78" s="4" t="inlineStr">
         <is>
-          <t>increase to 0.7 % of GNI by 2030</t>
+          <t>improvement by 2030</t>
         </is>
       </c>
       <c r="L78" s="4" t="inlineStr">
         <is>
-          <t>Anteil öffentlicher Entwicklungsausgaben am Bruttonationaleinkommen</t>
+          <t>Anzahl der Partnerländer deutscher Entwicklungszusammenarbeit, deren Bewertung sich gegenüber 2012 verbessert hat</t>
         </is>
       </c>
       <c r="M78" s="4" t="inlineStr">
         <is>
-          <t>Official development assistance as a proportion of gross national income</t>
+          <t>Number of partner countries for German development cooperation with improved CPI scores compared with 2012</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="79">
       <c r="A79" s="4" t="inlineStr">
         <is>
-          <t>Z17_B02_P01_Ib01_I01</t>
+          <t>Z17_B01_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B79" s="4" t="inlineStr">
         <is>
-          <t>Z17_B02_P01_Ib01</t>
+          <t>Z17_B01_P01_Ib01</t>
         </is>
       </c>
       <c r="C79" s="4" t="inlineStr">
         <is>
-          <t>17.2</t>
+          <t>17.1</t>
         </is>
       </c>
       <c r="D79" s="4" t="inlineStr">
         <is>
-          <t>Studierende und Forschende aus Entwicklungslenländern und LDCs</t>
+          <t>Entwicklungsausgaben</t>
         </is>
       </c>
       <c r="E79" s="4" t="inlineStr">
         <is>
-          <t>Students and researchers from developing countries and LDCs</t>
+          <t>Development assistance</t>
         </is>
       </c>
       <c r="F79" s="4" t="inlineStr">
         <is>
-          <t>Anzahl der Studierenden und Forschenden aus Entwicklungsländern sowie aus am wenigsten entwickelten Ländern pro Jahr</t>
+          <t>Anteil öffentlicher Entwicklungsausgaben am Bruttonationaleinkommen</t>
         </is>
       </c>
       <c r="G79" s="4" t="inlineStr">
         <is>
-          <t>Number of students and researchers from developing countries and least developed countries per year</t>
+          <t>Official development assistance as a proportion of gross national income</t>
         </is>
       </c>
       <c r="H79" s="4" t="inlineStr">
         <is>
-          <t>Steigerung der Anzahl um 10 % von 2015 bis 2020, anschließend Verstetigung</t>
+          <t>Steigerung des Anteils auf 0,7 % des  Bruttonationaleinkommens bis 2030</t>
         </is>
       </c>
       <c r="I79" s="4" t="inlineStr">
         <is>
-          <t>Increase the number by 10 % from 2015 to 2020, then stabilised</t>
+          <t>Increase the proportion to 0.7 % of gross national income by 2030</t>
         </is>
       </c>
       <c r="J79" s="4" t="inlineStr">
         <is>
-          <t>Steigerung um 10 % von 2015 bis 2020, anschließend Verstetigung</t>
+          <t>Steigerung des Anteils auf 0,7 % des BNE bis 2030</t>
         </is>
       </c>
       <c r="K79" s="4" t="inlineStr">
         <is>
-          <t>increase by 10 % from 2015 to 2020, then stabilised</t>
+          <t>increase to 0.7 % of GNI by 2030</t>
         </is>
       </c>
       <c r="L79" s="4" t="inlineStr">
         <is>
-          <t>Anzahl der Studierenden und Forschenden aus Entwicklungsländern sowie aus am wenigsten entwickelten Ländern pro Jahr</t>
+          <t>Anteil öffentlicher Entwicklungsausgaben am Bruttonationaleinkommen</t>
         </is>
       </c>
       <c r="M79" s="4" t="inlineStr">
         <is>
-          <t>Number of students and researchers from developing countries and least developed countries per year</t>
+          <t>Official development assistance as a proportion of gross national income</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="80">
       <c r="A80" s="4" t="inlineStr">
         <is>
+          <t>Z17_B02_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="B80" s="4" t="inlineStr">
+        <is>
+          <t>Z17_B02_P01_Ib01</t>
+        </is>
+      </c>
+      <c r="C80" s="4" t="inlineStr">
+        <is>
+          <t>17.2</t>
+        </is>
+      </c>
+      <c r="D80" s="4" t="inlineStr">
+        <is>
+          <t>Studierende und Forschende aus Entwicklungslenländern und LDCs</t>
+        </is>
+      </c>
+      <c r="E80" s="4" t="inlineStr">
+        <is>
+          <t>Students and researchers from developing countries and LDCs</t>
+        </is>
+      </c>
+      <c r="F80" s="4" t="inlineStr">
+        <is>
+          <t>Anzahl der Studierenden und Forschenden aus Entwicklungsländern sowie aus am wenigsten entwickelten Ländern pro Jahr</t>
+        </is>
+      </c>
+      <c r="G80" s="4" t="inlineStr">
+        <is>
+          <t>Number of students and researchers from developing countries and least developed countries per year</t>
+        </is>
+      </c>
+      <c r="H80" s="4" t="inlineStr">
+        <is>
+          <t>Steigerung der Anzahl um 10 % von 2015 bis 2020, anschließend Verstetigung</t>
+        </is>
+      </c>
+      <c r="I80" s="4" t="inlineStr">
+        <is>
+          <t>Increase the number by 10 % from 2015 to 2020, then stabilised</t>
+        </is>
+      </c>
+      <c r="J80" s="4" t="inlineStr">
+        <is>
+          <t>Steigerung um 10 % von 2015 bis 2020, anschließend Verstetigung</t>
+        </is>
+      </c>
+      <c r="K80" s="4" t="inlineStr">
+        <is>
+          <t>increase by 10 % from 2015 to 2020, then stabilised</t>
+        </is>
+      </c>
+      <c r="L80" s="4" t="inlineStr">
+        <is>
+          <t>Anzahl der Studierenden und Forschenden aus Entwicklungsländern sowie aus am wenigsten entwickelten Ländern pro Jahr</t>
+        </is>
+      </c>
+      <c r="M80" s="4" t="inlineStr">
+        <is>
+          <t>Number of students and researchers from developing countries and least developed countries per year</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="81">
+      <c r="A81" s="4" t="inlineStr">
+        <is>
           <t>Z17_B03_P01_Ib01_I01</t>
         </is>
       </c>
-      <c r="B80" s="4" t="inlineStr">
+      <c r="B81" s="4" t="inlineStr">
         <is>
           <t>Z17_B03_P01_Ib01</t>
         </is>
       </c>
-      <c r="C80" s="4" t="inlineStr">
+      <c r="C81" s="4" t="inlineStr">
         <is>
           <t>17.3</t>
         </is>
       </c>
-      <c r="D80" s="4" t="inlineStr">
+      <c r="D81" s="4" t="inlineStr">
         <is>
           <t>Einfuhren aus LDCs</t>
         </is>
       </c>
-      <c r="E80" s="4" t="inlineStr">
+      <c r="E81" s="4" t="inlineStr">
         <is>
           <t>Imports coming from LDCs</t>
         </is>
       </c>
-      <c r="F80" s="4" t="inlineStr">
+      <c r="F81" s="4" t="inlineStr">
         <is>
           <t>Einfuhren aus am wenigsten entwickelten Ländern</t>
         </is>
       </c>
-      <c r="G80" s="4" t="inlineStr">
+      <c r="G81" s="4" t="inlineStr">
         <is>
           <t>Imports from least developed countries</t>
         </is>
       </c>
-      <c r="H80" s="4" t="inlineStr">
+      <c r="H81" s="4" t="inlineStr">
         <is>
           <t>Steigerung des Anteils um 100 % bis 2030 gegenüber 2014</t>
         </is>
       </c>
-      <c r="I80" s="4" t="inlineStr">
+      <c r="I81" s="4" t="inlineStr">
         <is>
           <t>Increase the proportion by 100 % by 2030, compared to 2014</t>
         </is>
       </c>
-      <c r="J80" s="4" t="inlineStr">
+      <c r="J81" s="4" t="inlineStr">
         <is>
           <t>Steigerung des Anteils um 100 % bis 2030 gegenüber 2014</t>
         </is>
       </c>
-      <c r="K80" s="4" t="inlineStr">
+      <c r="K81" s="4" t="inlineStr">
         <is>
           <t>increase by 100 % by 2030 compared to 2014</t>
         </is>
       </c>
-      <c r="L80" s="4" t="inlineStr">
+      <c r="L81" s="4" t="inlineStr">
         <is>
           <t>Einfuhren aus am wenigsten entwickelten Ländern</t>
         </is>
       </c>
-      <c r="M80" s="4" t="inlineStr">
+      <c r="M81" s="4" t="inlineStr">
         <is>
           <t>Imports from least developed countries</t>
         </is>

--- a/Tab_5a_Indikatoren.xlsx
+++ b/Tab_5a_Indikatoren.xlsx
@@ -435,7 +435,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M81"/>
+  <dimension ref="A1:M82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -2002,141 +2002,141 @@
     <row outlineLevel="0" r="24">
       <c r="A24" s="4" t="inlineStr">
         <is>
-          <t>Z05_B01_P01_Ib01_I01</t>
+          <t>Z04_B03_P01_Ib02_I01</t>
         </is>
       </c>
       <c r="B24" s="4" t="inlineStr">
         <is>
-          <t>Z05_B01_P01_Ib01</t>
+          <t>Z04_B03_P01_Ib02</t>
         </is>
       </c>
       <c r="C24" s="4" t="inlineStr">
         <is>
-          <t>5.1.a</t>
+          <t>4.3.b</t>
         </is>
       </c>
       <c r="D24" s="4" t="inlineStr">
         <is>
-          <t>Gender Pay Gap</t>
+          <t>Anteil der 17 bis 18-Jährigen mit (angestrebter) Studienberechtigung</t>
         </is>
       </c>
       <c r="E24" s="4" t="inlineStr">
         <is>
-          <t>Gender Pay Gap</t>
+          <t>XXXAnteil der 17 bis 18-Jährigen mit (angestrebter) Studienberechtigung</t>
         </is>
       </c>
       <c r="F24" s="4" t="inlineStr">
         <is>
-          <t>Verdienstabstand zwischen Frauen und Männern</t>
+          <t>Anteil der 17 bis 18-Jährigen mit (angestrebter) Studienberechtigung</t>
         </is>
       </c>
       <c r="G24" s="4" t="inlineStr">
         <is>
-          <t>Gender pay gap</t>
+          <t>XXXAnteil der 17 bis 18-Jährigen mit (angestrebter) Studienberechtigung</t>
         </is>
       </c>
       <c r="H24" s="4" t="inlineStr">
         <is>
-          <t>Verringerung des Abstandes auf 10 % bis 2020, Beibehaltung bis 2030</t>
+          <t>Differenz zwischen den Gruppen „Keine Risikolage“ und „Mindestens eine Risikolage“ verringern bzw. angleichen</t>
         </is>
       </c>
       <c r="I24" s="4" t="inlineStr">
         <is>
-          <t>Reduce the gap to 10 % by 2020, maintained until 2030 subsequently</t>
+          <t>XXXDifferenz zwischen den Gruppen „Keine Risikolage“ und „Mindestens eine Risikolage“ verringern bzw. angleichen</t>
         </is>
       </c>
       <c r="J24" s="4" t="inlineStr">
         <is>
-          <t>Beibehaltung von maximal 10 % bis 2030</t>
+          <t>Differenz zwischen den Gruppen „Keine Risikolage“ und „Mindestens eine Risikolage“ verringern bzw. angleichen</t>
         </is>
       </c>
       <c r="K24" s="4" t="inlineStr">
         <is>
-          <t>maintaine a maximum of 10 % by 2030</t>
+          <t>XXXDifferenz zwischen den Gruppen „Keine Risikolage“ und „Mindestens eine Risikolage“ verringern bzw. angleichen</t>
         </is>
       </c>
       <c r="L24" s="4" t="inlineStr">
         <is>
-          <t>Verdienstabstand zwischen Frauen und Männern</t>
+          <t>Anteil der 17 bis 18-Jährigen mit (angestrebter) Studienberechtigung</t>
         </is>
       </c>
       <c r="M24" s="4" t="inlineStr">
         <is>
-          <t>Gender pay gap</t>
+          <t>XXXAnteil der 17 bis 18-Jährigen mit (angestrebter) Studienberechtigung</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="25">
       <c r="A25" s="4" t="inlineStr">
         <is>
-          <t>Z05_B01_P01_Ib02_I01</t>
+          <t>Z05_B01_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B25" s="4" t="inlineStr">
         <is>
-          <t>Z05_B01_P01_Ib02</t>
+          <t>Z05_B01_P01_Ib01</t>
         </is>
       </c>
       <c r="C25" s="4" t="inlineStr">
         <is>
-          <t>5.1.b</t>
+          <t>5.1.a</t>
         </is>
       </c>
       <c r="D25" s="4" t="inlineStr">
         <is>
-          <t>b) Wirtschaft</t>
+          <t>Gender Pay Gap</t>
         </is>
       </c>
       <c r="E25" s="4" t="inlineStr">
         <is>
-          <t>b) Business</t>
+          <t>Gender Pay Gap</t>
         </is>
       </c>
       <c r="F25" s="4" t="inlineStr">
         <is>
-          <t>Frauen in Führungspositionen in der Wirtschaft</t>
+          <t>Verdienstabstand zwischen Frauen und Männern</t>
         </is>
       </c>
       <c r="G25" s="4" t="inlineStr">
         <is>
-          <t>Women in management positions in business</t>
+          <t>Gender pay gap</t>
         </is>
       </c>
       <c r="H25" s="4" t="inlineStr">
         <is>
-          <t>30 % Frauen in Aufsichtsräten der börsennotierten und paritätisch mitbestimmten Unternehmen bis 2030</t>
+          <t>Verringerung des Abstandes auf 10 % bis 2020, Beibehaltung bis 2030</t>
         </is>
       </c>
       <c r="I25" s="4" t="inlineStr">
         <is>
-          <t>30 % women on supervisory boards of listed and fully co-determined companies by 2030</t>
+          <t>Reduce the gap to 10 % by 2020, maintained until 2030 subsequently</t>
         </is>
       </c>
       <c r="J25" s="4" t="inlineStr">
         <is>
-          <t>30 % Frauen in Aufsichtsräten bis 2030</t>
+          <t>Beibehaltung von maximal 10 % bis 2030</t>
         </is>
       </c>
       <c r="K25" s="4" t="inlineStr">
         <is>
-          <t>30% women on supervisory boards by 2030</t>
+          <t>maintaine a maximum of 10 % by 2030</t>
         </is>
       </c>
       <c r="L25" s="4" t="inlineStr">
         <is>
-          <t>In Aufsichtsräten der börsennotierten und paritätisch mitbestimmten Unternehmen</t>
+          <t>Verdienstabstand zwischen Frauen und Männern</t>
         </is>
       </c>
       <c r="M25" s="4" t="inlineStr">
         <is>
-          <t>On supervisory boards of listed and fully co-determined companies</t>
+          <t>Gender pay gap</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="26">
       <c r="A26" s="4" t="inlineStr">
         <is>
-          <t>Z05_B01_P01_Ib02_I02</t>
+          <t>Z05_B01_P01_Ib02_I01</t>
         </is>
       </c>
       <c r="B26" s="4" t="inlineStr">
@@ -2146,399 +2146,399 @@
       </c>
       <c r="C26" s="4" t="inlineStr">
         <is>
-          <t>5.1.c</t>
+          <t>5.1.b</t>
         </is>
       </c>
       <c r="D26" s="4" t="inlineStr">
         <is>
-          <t>c) Öffentlicher Dienst des Bundes</t>
+          <t>b) Wirtschaft</t>
         </is>
       </c>
       <c r="E26" s="4" t="inlineStr">
         <is>
-          <t>c) Federal civil service</t>
+          <t>b) Business</t>
         </is>
       </c>
       <c r="F26" s="4" t="inlineStr">
         <is>
-          <t>Frauen in Führungspositionen im öffentlichen Dienst des Bundes</t>
+          <t>Frauen in Führungspositionen in der Wirtschaft</t>
         </is>
       </c>
       <c r="G26" s="4" t="inlineStr">
         <is>
-          <t>Women in management positions in the federal civil service</t>
+          <t>Women in management positions in business</t>
         </is>
       </c>
       <c r="H26" s="4" t="inlineStr">
         <is>
-          <t>Gleichberechtigte Teilhabe von Frauen und Männern in Leitungsfunktionen des öffentlichen Dienstes bis 2025</t>
+          <t>30 % Frauen in Aufsichtsräten der börsennotierten und paritätisch mitbestimmten Unternehmen bis 2030</t>
         </is>
       </c>
       <c r="I26" s="4" t="inlineStr">
         <is>
-          <t>Equal-opportunity participation of women and men in civil service management positions by 2025</t>
+          <t>30 % women on supervisory boards of listed and fully co-determined companies by 2030</t>
         </is>
       </c>
       <c r="J26" s="4" t="inlineStr">
         <is>
-          <t>gleichberechtigte Teilhabe bis 2025</t>
+          <t>30 % Frauen in Aufsichtsräten bis 2030</t>
         </is>
       </c>
       <c r="K26" s="4" t="inlineStr">
         <is>
-          <t>equal-opportunity participation by 2025</t>
+          <t>30% women on supervisory boards by 2030</t>
         </is>
       </c>
       <c r="L26" s="4" t="inlineStr">
         <is>
-          <t>Im öffentlichen Dienst des Bundes</t>
+          <t>In Aufsichtsräten der börsennotierten und paritätisch mitbestimmten Unternehmen</t>
         </is>
       </c>
       <c r="M26" s="4" t="inlineStr">
         <is>
-          <t>In management positions in the federal civil service</t>
+          <t>On supervisory boards of listed and fully co-determined companies</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="27">
       <c r="A27" s="4" t="inlineStr">
         <is>
-          <t>Z05_B01_P01_Ib03_I01</t>
+          <t>Z05_B01_P01_Ib02_I02</t>
         </is>
       </c>
       <c r="B27" s="4" t="inlineStr">
         <is>
-          <t>Z05_B01_P01_Ib03</t>
+          <t>Z05_B01_P01_Ib02</t>
         </is>
       </c>
       <c r="C27" s="4" t="inlineStr">
         <is>
-          <t>5.1.d</t>
+          <t>5.1.c</t>
         </is>
       </c>
       <c r="D27" s="4" t="inlineStr">
         <is>
-          <t>Väterbeteiligung beim Elterngeld</t>
+          <t>c) Öffentlicher Dienst des Bundes</t>
         </is>
       </c>
       <c r="E27" s="4" t="inlineStr">
         <is>
-          <t>Fathers receiving parental allowance</t>
+          <t>c) Federal civil service</t>
         </is>
       </c>
       <c r="F27" s="4" t="inlineStr">
         <is>
-          <t>Väterbeteiligung beim Elterngeld</t>
+          <t>Frauen in Führungspositionen im öffentlichen Dienst des Bundes</t>
         </is>
       </c>
       <c r="G27" s="4" t="inlineStr">
         <is>
-          <t>Proportion of fathers receiving parental allowance</t>
+          <t>Women in management positions in the federal civil service</t>
         </is>
       </c>
       <c r="H27" s="4" t="inlineStr">
         <is>
-          <t>65 % bis 2030</t>
+          <t>Gleichberechtigte Teilhabe von Frauen und Männern in Leitungsfunktionen des öffentlichen Dienstes bis 2025</t>
         </is>
       </c>
       <c r="I27" s="4" t="inlineStr">
         <is>
-          <t>65 % by 2030</t>
+          <t>Equal-opportunity participation of women and men in civil service management positions by 2025</t>
         </is>
       </c>
       <c r="J27" s="4" t="inlineStr">
         <is>
-          <t>65 % bis 2030</t>
+          <t>gleichberechtigte Teilhabe bis 2025</t>
         </is>
       </c>
       <c r="K27" s="4" t="inlineStr">
         <is>
-          <t>65 % by 2030</t>
+          <t>equal-opportunity participation by 2025</t>
         </is>
       </c>
       <c r="L27" s="4" t="inlineStr">
         <is>
-          <t>Väterbeteiligung beim Elterngeld</t>
+          <t>Im öffentlichen Dienst des Bundes</t>
         </is>
       </c>
       <c r="M27" s="4" t="inlineStr">
         <is>
-          <t>Proportion of fathers receiving parental allowance</t>
+          <t>In management positions in the federal civil service</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="28">
       <c r="A28" s="4" t="inlineStr">
         <is>
-          <t>Z05_B01_P02_Ib01_I01</t>
+          <t>Z05_B01_P01_Ib03_I01</t>
         </is>
       </c>
       <c r="B28" s="4" t="inlineStr">
         <is>
-          <t>Z05_B01_P02_Ib01</t>
+          <t>Z05_B01_P01_Ib03</t>
         </is>
       </c>
       <c r="C28" s="4" t="inlineStr">
         <is>
-          <t>5.1.e</t>
+          <t>5.1.d</t>
         </is>
       </c>
       <c r="D28" s="4" t="inlineStr">
         <is>
-          <t>Berufliche Qualifizierung von Frauen und Mädchen durch Entwicklungszusammenarbeit</t>
+          <t>Väterbeteiligung beim Elterngeld</t>
         </is>
       </c>
       <c r="E28" s="4" t="inlineStr">
         <is>
-          <t>Vocational qualifications of women and girls through development coopreation</t>
+          <t>Fathers receiving parental allowance</t>
         </is>
       </c>
       <c r="F28" s="4" t="inlineStr">
         <is>
-          <t>Berufliche Qualifizierung von Frauen und Mädchen durch deutsche entwicklungspolitische Zusammenarbeit</t>
+          <t>Väterbeteiligung beim Elterngeld</t>
         </is>
       </c>
       <c r="G28" s="4" t="inlineStr">
         <is>
-          <t>Vocational qualifications of women and girls through German development assistance</t>
+          <t>Proportion of fathers receiving parental allowance</t>
         </is>
       </c>
       <c r="H28" s="4" t="inlineStr">
         <is>
-          <t>Sukzessive Steigerung bis 2030 um ein Drittel verglichen mit Basisjahr 2015</t>
+          <t>65 % bis 2030</t>
         </is>
       </c>
       <c r="I28" s="4" t="inlineStr">
         <is>
-          <t>To be increased gradually by a third by 2030 compared to 2015 as the base year</t>
+          <t>65 % by 2030</t>
         </is>
       </c>
       <c r="J28" s="4" t="inlineStr">
         <is>
-          <t>Steigerung um ein Drittel bis 2030</t>
+          <t>65 % bis 2030</t>
         </is>
       </c>
       <c r="K28" s="4" t="inlineStr">
         <is>
-          <t>to be increased by a third by 2030</t>
+          <t>65 % by 2030</t>
         </is>
       </c>
       <c r="L28" s="4" t="inlineStr">
         <is>
-          <t>Berufliche Qualifizierung von Frauen und Mädchen durch deutsche entwicklungspolitische Zusammenarbeit</t>
+          <t>Väterbeteiligung beim Elterngeld</t>
         </is>
       </c>
       <c r="M28" s="4" t="inlineStr">
         <is>
-          <t>Vocational qualifications of women and girls through German development cooperation</t>
+          <t>Proportion of fathers receiving parental allowance</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="29">
       <c r="A29" s="4" t="inlineStr">
         <is>
-          <t>Z06_B01_P01_Ib01_I01</t>
+          <t>Z05_B01_P02_Ib01_I01</t>
         </is>
       </c>
       <c r="B29" s="4" t="inlineStr">
         <is>
-          <t>Z06_B01_P01_Ib01</t>
+          <t>Z05_B01_P02_Ib01</t>
         </is>
       </c>
       <c r="C29" s="4" t="inlineStr">
         <is>
-          <t>6.1.a</t>
+          <t>5.1.e</t>
         </is>
       </c>
       <c r="D29" s="4" t="inlineStr">
         <is>
-          <t>Phosphor in Fließgewässern</t>
+          <t>Berufliche Qualifizierung von Frauen und Mädchen durch Entwicklungszusammenarbeit</t>
         </is>
       </c>
       <c r="E29" s="4" t="inlineStr">
         <is>
-          <t>Phosphorous in flowing waters</t>
+          <t>Vocational qualifications of women and girls through development coopreation</t>
         </is>
       </c>
       <c r="F29" s="4" t="inlineStr">
         <is>
-          <t>Phosphor in Fließgewässern</t>
+          <t>Berufliche Qualifizierung von Frauen und Mädchen durch deutsche entwicklungspolitische Zusammenarbeit</t>
         </is>
       </c>
       <c r="G29" s="4" t="inlineStr">
         <is>
-          <t>Phosphorous in flowing waters</t>
+          <t>Vocational qualifications of women and girls through German development assistance</t>
         </is>
       </c>
       <c r="H29" s="4" t="inlineStr">
         <is>
-          <t>Einhaltung oder Unterschreitung der gewässertypischen Orientierungswerte an allen Messstellen bis 2030</t>
+          <t>Sukzessive Steigerung bis 2030 um ein Drittel verglichen mit Basisjahr 2015</t>
         </is>
       </c>
       <c r="I29" s="4" t="inlineStr">
         <is>
-          <t>Not exceeding benchmark values for specific types of water bodies at all monitoring points by 2030</t>
+          <t>To be increased gradually by a third by 2030 compared to 2015 as the base year</t>
         </is>
       </c>
       <c r="J29" s="4" t="inlineStr">
         <is>
-          <t>Einhaltung oder Unterschreitung der Orientierungswerte bis 2030</t>
+          <t>Steigerung um ein Drittel bis 2030</t>
         </is>
       </c>
       <c r="K29" s="4" t="inlineStr">
         <is>
-          <t>not exceeding benchmark values by 2030</t>
+          <t>to be increased by a third by 2030</t>
         </is>
       </c>
       <c r="L29" s="4" t="inlineStr">
         <is>
-          <t>Phosphor in Fließgewässern</t>
+          <t>Berufliche Qualifizierung von Frauen und Mädchen durch deutsche entwicklungspolitische Zusammenarbeit</t>
         </is>
       </c>
       <c r="M29" s="4" t="inlineStr">
         <is>
-          <t>Phosphorous in flowing waters</t>
+          <t>Vocational qualifications of women and girls through German development cooperation</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="30">
       <c r="A30" s="4" t="inlineStr">
         <is>
-          <t>Z06_B01_P01_Ib02_I01</t>
+          <t>Z06_B01_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B30" s="4" t="inlineStr">
         <is>
-          <t>Z06_B01_P01_Ib02</t>
+          <t>Z06_B01_P01_Ib01</t>
         </is>
       </c>
       <c r="C30" s="4" t="inlineStr">
         <is>
-          <t>6.1.b</t>
+          <t>6.1.a</t>
         </is>
       </c>
       <c r="D30" s="4" t="inlineStr">
         <is>
-          <t>Nitrat im Grundwasser</t>
+          <t>Phosphor in Fließgewässern</t>
         </is>
       </c>
       <c r="E30" s="4" t="inlineStr">
         <is>
-          <t>Nitrate in groundwater</t>
+          <t>Phosphorous in flowing waters</t>
         </is>
       </c>
       <c r="F30" s="4" t="inlineStr">
         <is>
-          <t>Nitrat im Grundwasser</t>
+          <t>Phosphor in Fließgewässern</t>
         </is>
       </c>
       <c r="G30" s="4" t="inlineStr">
         <is>
-          <t>Nitrate in groundwater</t>
+          <t>Phosphorous in flowing waters</t>
         </is>
       </c>
       <c r="H30" s="4" t="inlineStr">
         <is>
-          <t>Einhaltung des Nitrat Schwellenwertes von 50 Milligramm pro Liter an allen Messstellen bis 2030</t>
+          <t>Einhaltung oder Unterschreitung der gewässertypischen Orientierungswerte an allen Messstellen bis 2030</t>
         </is>
       </c>
       <c r="I30" s="4" t="inlineStr">
         <is>
-          <t>Compliance with the nitrate threshold value of 50 mg/l at all monitoring points by 2030</t>
+          <t>Not exceeding benchmark values for specific types of water bodies at all monitoring points by 2030</t>
         </is>
       </c>
       <c r="J30" s="4" t="inlineStr">
         <is>
-          <t>Einhaltung des Schwellenwertes von 50 mg/l bis 2030</t>
+          <t>Einhaltung oder Unterschreitung der Orientierungswerte bis 2030</t>
         </is>
       </c>
       <c r="K30" s="4" t="inlineStr">
         <is>
-          <t>compliance with the threshold value of 50 mg/l by 2030</t>
+          <t>not exceeding benchmark values by 2030</t>
         </is>
       </c>
       <c r="L30" s="4" t="inlineStr">
         <is>
-          <t>Nitrat im Grundwasser</t>
+          <t>Phosphor in Fließgewässern</t>
         </is>
       </c>
       <c r="M30" s="4" t="inlineStr">
         <is>
-          <t>Nitrate in groundwater</t>
+          <t>Phosphorous in flowing waters</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="31">
       <c r="A31" s="4" t="inlineStr">
         <is>
-          <t>Z06_B02_P01_Ib01_I01</t>
+          <t>Z06_B01_P01_Ib02_I01</t>
         </is>
       </c>
       <c r="B31" s="4" t="inlineStr">
         <is>
-          <t>Z06_B02_P01_Ib01</t>
+          <t>Z06_B01_P01_Ib02</t>
         </is>
       </c>
       <c r="C31" s="4" t="inlineStr">
         <is>
-          <t>6.2.a</t>
+          <t>6.1.b</t>
         </is>
       </c>
       <c r="D31" s="4" t="inlineStr">
         <is>
-          <t>a) Trinkwasserversorgung</t>
+          <t>Nitrat im Grundwasser</t>
         </is>
       </c>
       <c r="E31" s="4" t="inlineStr">
         <is>
-          <t>a) Access to drinking water</t>
+          <t>Nitrate in groundwater</t>
         </is>
       </c>
       <c r="F31" s="4" t="inlineStr">
         <is>
-          <t>Anzahl der Menschen, die einen neuen oder hochwertigeren Zugang zur Trinkwasserversorgung durch deutsche Unterstützung erhalten</t>
+          <t>Nitrat im Grundwasser</t>
         </is>
       </c>
       <c r="G31" s="4" t="inlineStr">
         <is>
-          <t>Number of people gaining first-time or upgraded access to drinking water owing to German support</t>
+          <t>Nitrate in groundwater</t>
         </is>
       </c>
       <c r="H31" s="4" t="inlineStr">
         <is>
-          <t>6 Millionen Menschen pro Jahr bis 2030</t>
+          <t>Einhaltung des Nitrat Schwellenwertes von 50 Milligramm pro Liter an allen Messstellen bis 2030</t>
         </is>
       </c>
       <c r="I31" s="4" t="inlineStr">
         <is>
-          <t>6 million people per year by 2030</t>
+          <t>Compliance with the nitrate threshold value of 50 mg/l at all monitoring points by 2030</t>
         </is>
       </c>
       <c r="J31" s="4" t="inlineStr">
         <is>
-          <t>6 Millionen Menschen pro Jahr bis 2030</t>
+          <t>Einhaltung des Schwellenwertes von 50 mg/l bis 2030</t>
         </is>
       </c>
       <c r="K31" s="4" t="inlineStr">
         <is>
-          <t>6 million people per year by 2030</t>
+          <t>compliance with the threshold value of 50 mg/l by 2030</t>
         </is>
       </c>
       <c r="L31" s="4" t="inlineStr">
         <is>
-          <t>Anzahl der Menschen, die einen neuen oder hochwertigeren Zugang zur Trinkwasserversorgung erhalten haben</t>
+          <t>Nitrat im Grundwasser</t>
         </is>
       </c>
       <c r="M31" s="4" t="inlineStr">
         <is>
-          <t>Number of people gaining first-time or upgraded access to drinking water</t>
+          <t>Nitrate in groundwater</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="32">
       <c r="A32" s="4" t="inlineStr">
         <is>
-          <t>Z06_B02_P01_Ib01_I02</t>
+          <t>Z06_B02_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B32" s="4" t="inlineStr">
@@ -2548,64 +2548,64 @@
       </c>
       <c r="C32" s="4" t="inlineStr">
         <is>
-          <t>6.2.b</t>
+          <t>6.2.a</t>
         </is>
       </c>
       <c r="D32" s="4" t="inlineStr">
         <is>
-          <t>b) Sanitärversorgung</t>
+          <t>a) Trinkwasserversorgung</t>
         </is>
       </c>
       <c r="E32" s="4" t="inlineStr">
         <is>
-          <t>b) Access to sanitation</t>
+          <t>a) Access to drinking water</t>
         </is>
       </c>
       <c r="F32" s="4" t="inlineStr">
         <is>
-          <t>Anzahl der Menschen, die einen neuen oder verbesserten Anschluss zur Sanitärversorgung durch deutsche Unterstützung erhalten</t>
+          <t>Anzahl der Menschen, die einen neuen oder hochwertigeren Zugang zur Trinkwasserversorgung durch deutsche Unterstützung erhalten</t>
         </is>
       </c>
       <c r="G32" s="4" t="inlineStr">
         <is>
-          <t>Number of people gaining first-time or improved access to sanitation owing to German support</t>
+          <t>Number of people gaining first-time or upgraded access to drinking water owing to German support</t>
         </is>
       </c>
       <c r="H32" s="4" t="inlineStr">
         <is>
-          <t>4 Millionen Menschen pro Jahr bis 2030</t>
+          <t>6 Millionen Menschen pro Jahr bis 2030</t>
         </is>
       </c>
       <c r="I32" s="4" t="inlineStr">
         <is>
-          <t>4 million people per year by 2030</t>
+          <t>6 million people per year by 2030</t>
         </is>
       </c>
       <c r="J32" s="4" t="inlineStr">
         <is>
-          <t>4 Millionen Menschen pro Jahr bis 2030</t>
+          <t>6 Millionen Menschen pro Jahr bis 2030</t>
         </is>
       </c>
       <c r="K32" s="4" t="inlineStr">
         <is>
-          <t>4 million people per year by 2030</t>
+          <t>6 million people per year by 2030</t>
         </is>
       </c>
       <c r="L32" s="4" t="inlineStr">
         <is>
-          <t>Anzahl der Menschen, die einen neuen oder verbesserten Anschluss zur Sanitärversorgung erhalten haben</t>
+          <t>Anzahl der Menschen, die einen neuen oder hochwertigeren Zugang zur Trinkwasserversorgung erhalten haben</t>
         </is>
       </c>
       <c r="M32" s="4" t="inlineStr">
         <is>
-          <t>Number of people gaining first-time or improved access to sanitation</t>
+          <t>Number of people gaining first-time or upgraded access to drinking water</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="33">
       <c r="A33" s="4" t="inlineStr">
         <is>
-          <t>Z06_B02_P01_Ib01_I03</t>
+          <t>Z06_B02_P01_Ib01_I02</t>
         </is>
       </c>
       <c r="B33" s="4" t="inlineStr">
@@ -2615,131 +2615,131 @@
       </c>
       <c r="C33" s="4" t="inlineStr">
         <is>
-          <t>6.2</t>
+          <t>6.2.b</t>
         </is>
       </c>
       <c r="D33" s="4" t="inlineStr">
         <is>
-          <t>Trinkwasser- und Sanitärversorgung</t>
+          <t>b) Sanitärversorgung</t>
         </is>
       </c>
       <c r="E33" s="4" t="inlineStr">
         <is>
-          <t>Access to drinking water and sanitation</t>
+          <t>b) Access to sanitation</t>
         </is>
       </c>
       <c r="F33" s="4" t="inlineStr">
         <is>
-          <t>Anzahl der Menschen, die einen neuen oder hochwertigeren Zugang zur Trinkwasserversorgung oder Anschluss zur Sanitärversorgung durch deutsche Unterstützung erhalten</t>
+          <t>Anzahl der Menschen, die einen neuen oder verbesserten Anschluss zur Sanitärversorgung durch deutsche Unterstützung erhalten</t>
         </is>
       </c>
       <c r="G33" s="4" t="inlineStr">
         <is>
-          <t>Number of people gaining first-time or upgraded access to drinking water or sanitation owing to German support</t>
+          <t>Number of people gaining first-time or improved access to sanitation owing to German support</t>
         </is>
       </c>
       <c r="H33" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>4 Millionen Menschen pro Jahr bis 2030</t>
         </is>
       </c>
       <c r="I33" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>4 million people per year by 2030</t>
         </is>
       </c>
       <c r="J33" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>4 Millionen Menschen pro Jahr bis 2030</t>
         </is>
       </c>
       <c r="K33" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>4 million people per year by 2030</t>
         </is>
       </c>
       <c r="L33" s="4" t="inlineStr">
         <is>
-          <t>Anzahl der Menschen, die einen neuen oder hochwertigeren Zugang zur Trinkwasserversorgung oder Anschluss zur Sanitärversorgung erhalten haben</t>
+          <t>Anzahl der Menschen, die einen neuen oder verbesserten Anschluss zur Sanitärversorgung erhalten haben</t>
         </is>
       </c>
       <c r="M33" s="4" t="inlineStr">
         <is>
-          <t>Number of people gaining first-time or upgraded access to drinking water or sanitation</t>
+          <t>Number of people gaining first-time or improved access to sanitation</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="34">
       <c r="A34" s="4" t="inlineStr">
         <is>
-          <t>Z07_B01_P01_Ib01_I01</t>
+          <t>Z06_B02_P01_Ib01_I03</t>
         </is>
       </c>
       <c r="B34" s="4" t="inlineStr">
         <is>
-          <t>Z07_B01_P01_Ib01</t>
+          <t>Z06_B02_P01_Ib01</t>
         </is>
       </c>
       <c r="C34" s="4" t="inlineStr">
         <is>
-          <t>7.1.a</t>
+          <t>6.2</t>
         </is>
       </c>
       <c r="D34" s="4" t="inlineStr">
         <is>
-          <t>a) Endenergieproduktivität</t>
+          <t>Trinkwasser- und Sanitärversorgung</t>
         </is>
       </c>
       <c r="E34" s="4" t="inlineStr">
         <is>
-          <t>a) Final energy productivity</t>
+          <t>Access to drinking water and sanitation</t>
         </is>
       </c>
       <c r="F34" s="4" t="inlineStr">
         <is>
-          <t>Endenergieproduktivität</t>
+          <t>Anzahl der Menschen, die einen neuen oder hochwertigeren Zugang zur Trinkwasserversorgung oder Anschluss zur Sanitärversorgung durch deutsche Unterstützung erhalten</t>
         </is>
       </c>
       <c r="G34" s="4" t="inlineStr">
         <is>
-          <t>Final energy productivity</t>
+          <t>Number of people gaining first-time or upgraded access to drinking water or sanitation owing to German support</t>
         </is>
       </c>
       <c r="H34" s="4" t="inlineStr">
         <is>
-          <t>Steigerung um 2,1 % pro Jahr im Zeitraum von 2008 – 2050</t>
+          <t/>
         </is>
       </c>
       <c r="I34" s="4" t="inlineStr">
         <is>
-          <t>Increase by 2.1 % per year from 2008 to 2050</t>
+          <t/>
         </is>
       </c>
       <c r="J34" s="4" t="inlineStr">
         <is>
-          <t>Steigerung um 2,1 % pro Jahr</t>
+          <t/>
         </is>
       </c>
       <c r="K34" s="4" t="inlineStr">
         <is>
-          <t>increase by 2.1 % per year</t>
+          <t/>
         </is>
       </c>
       <c r="L34" s="4" t="inlineStr">
         <is>
-          <t>Endenergieproduktivität</t>
+          <t>Anzahl der Menschen, die einen neuen oder hochwertigeren Zugang zur Trinkwasserversorgung oder Anschluss zur Sanitärversorgung erhalten haben</t>
         </is>
       </c>
       <c r="M34" s="4" t="inlineStr">
         <is>
-          <t>Final energy productivity</t>
+          <t>Number of people gaining first-time or upgraded access to drinking water or sanitation</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="35">
       <c r="A35" s="4" t="inlineStr">
         <is>
-          <t>Z07_B01_P01_Ib01_I02</t>
+          <t>Z07_B01_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B35" s="4" t="inlineStr">
@@ -2749,332 +2749,332 @@
       </c>
       <c r="C35" s="4" t="inlineStr">
         <is>
-          <t>7.1.b</t>
+          <t>7.1.a</t>
         </is>
       </c>
       <c r="D35" s="4" t="inlineStr">
         <is>
-          <t>b) Primärenergieverbrauch</t>
+          <t>a) Endenergieproduktivität</t>
         </is>
       </c>
       <c r="E35" s="4" t="inlineStr">
         <is>
-          <t>b) Primary energy consumption</t>
+          <t>a) Final energy productivity</t>
         </is>
       </c>
       <c r="F35" s="4" t="inlineStr">
         <is>
-          <t>Primärenergieverbrauch</t>
+          <t>Endenergieproduktivität</t>
         </is>
       </c>
       <c r="G35" s="4" t="inlineStr">
         <is>
-          <t>Primary energy consumption</t>
+          <t>Final energy productivity</t>
         </is>
       </c>
       <c r="H35" s="4" t="inlineStr">
         <is>
-          <t>Senkung um 20 % bis 2020, um 30 % bis 2030 und um 50 % bis 2050 jeweils gegenüber 2008</t>
+          <t>Steigerung um 2,1 % pro Jahr im Zeitraum von 2008 – 2050</t>
         </is>
       </c>
       <c r="I35" s="4" t="inlineStr">
         <is>
-          <t>Reduction by 20 % by 2020, by 30 % by 2030, and by 50 % by 2050, all compared to 2008</t>
+          <t>Increase by 2.1 % per year from 2008 to 2050</t>
         </is>
       </c>
       <c r="J35" s="4" t="inlineStr">
         <is>
-          <t>Senkung um 30 % bis 2030</t>
+          <t>Steigerung um 2,1 % pro Jahr</t>
         </is>
       </c>
       <c r="K35" s="4" t="inlineStr">
         <is>
-          <t>reduction by 30 % by 2030</t>
+          <t>increase by 2.1 % per year</t>
         </is>
       </c>
       <c r="L35" s="4" t="inlineStr">
         <is>
-          <t>Primärenergieverbrauch</t>
+          <t>Endenergieproduktivität</t>
         </is>
       </c>
       <c r="M35" s="4" t="inlineStr">
         <is>
-          <t>Primary energy consumption</t>
+          <t>Final energy productivity</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="36">
       <c r="A36" s="4" t="inlineStr">
         <is>
-          <t>Z07_B02_P01_Ib01_I01</t>
+          <t>Z07_B01_P01_Ib01_I02</t>
         </is>
       </c>
       <c r="B36" s="4" t="inlineStr">
         <is>
-          <t>Z07_B02_P01_Ib01</t>
+          <t>Z07_B01_P01_Ib01</t>
         </is>
       </c>
       <c r="C36" s="4" t="inlineStr">
         <is>
-          <t>7.2.a</t>
+          <t>7.1.b</t>
         </is>
       </c>
       <c r="D36" s="4" t="inlineStr">
         <is>
-          <t>Erneuerbarer Energien</t>
+          <t>b) Primärenergieverbrauch</t>
         </is>
       </c>
       <c r="E36" s="4" t="inlineStr">
         <is>
-          <t>Renewable energies</t>
+          <t>b) Primary energy consumption</t>
         </is>
       </c>
       <c r="F36" s="4" t="inlineStr">
         <is>
-          <t>Anteil erneuerbarer Energien am Brutto-Endenergieverbrauch</t>
+          <t>Primärenergieverbrauch</t>
         </is>
       </c>
       <c r="G36" s="4" t="inlineStr">
         <is>
-          <t>Share of renewable energies in gross final energy consumption</t>
+          <t>Primary energy consumption</t>
         </is>
       </c>
       <c r="H36" s="4" t="inlineStr">
         <is>
-          <t>Anstieg auf 18 % bis 2020, auf 30 % bis 2030, auf 45 % bis 2040 und auf 60 % bis 2050</t>
+          <t>Senkung um 20 % bis 2020, um 30 % bis 2030 und um 50 % bis 2050 jeweils gegenüber 2008</t>
         </is>
       </c>
       <c r="I36" s="4" t="inlineStr">
         <is>
-          <t>Increase to 18 % by 2020 and to 30 % by 2030, to 45 % by 2040 and to 60 % by 2050</t>
+          <t>Reduction by 20 % by 2020, by 30 % by 2030, and by 50 % by 2050, all compared to 2008</t>
         </is>
       </c>
       <c r="J36" s="4" t="inlineStr">
         <is>
-          <t>Anstieg auf 30 % bis 2030</t>
+          <t>Senkung um 30 % bis 2030</t>
         </is>
       </c>
       <c r="K36" s="4" t="inlineStr">
         <is>
-          <t>increase to 30 % by 2030</t>
+          <t>reduction by 30 % by 2030</t>
         </is>
       </c>
       <c r="L36" s="4" t="inlineStr">
         <is>
-          <t>Anteil erneuerbarer Energien am Brutto-Endenergieverbrauch</t>
+          <t>Primärenergieverbrauch</t>
         </is>
       </c>
       <c r="M36" s="4" t="inlineStr">
         <is>
-          <t>Share of renewable energies in gross final energy consumption</t>
+          <t>Primary energy consumption</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="37">
       <c r="A37" s="4" t="inlineStr">
         <is>
-          <t>Z07_B02_P01_Ib02_I01</t>
+          <t>Z07_B02_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B37" s="4" t="inlineStr">
         <is>
-          <t>Z07_B02_P01_Ib02</t>
+          <t>Z07_B02_P01_Ib01</t>
         </is>
       </c>
       <c r="C37" s="4" t="inlineStr">
         <is>
-          <t>7.2.b</t>
+          <t>7.2.a</t>
         </is>
       </c>
       <c r="D37" s="4" t="inlineStr">
         <is>
-          <t>Strom aus erneuerbaren Energiequellen</t>
+          <t>Erneuerbarer Energien</t>
         </is>
       </c>
       <c r="E37" s="4" t="inlineStr">
         <is>
-          <t>Electricity from renewable energy sources</t>
+          <t>Renewable energies</t>
         </is>
       </c>
       <c r="F37" s="4" t="inlineStr">
         <is>
-          <t>Anteil des Stroms aus erneuerbaren Energiequellen am Bruttostromverbrauch</t>
+          <t>Anteil erneuerbarer Energien am Brutto-Endenergieverbrauch</t>
         </is>
       </c>
       <c r="G37" s="4" t="inlineStr">
         <is>
-          <t>Share of electricity from renewable energy sources in gross electricity consumption</t>
+          <t>Share of renewable energies in gross final energy consumption</t>
         </is>
       </c>
       <c r="H37" s="4" t="inlineStr">
         <is>
-          <t>Anstieg auf mindestens 80 % bis 2030</t>
+          <t>Anstieg auf 18 % bis 2020, auf 30 % bis 2030, auf 45 % bis 2040 und auf 60 % bis 2050</t>
         </is>
       </c>
       <c r="I37" s="4" t="inlineStr">
         <is>
-          <t>Increase to at least 80 % by 2030</t>
+          <t>Increase to 18 % by 2020 and to 30 % by 2030, to 45 % by 2040 and to 60 % by 2050</t>
         </is>
       </c>
       <c r="J37" s="4" t="inlineStr">
         <is>
-          <t>Anstieg auf 80 % bis 2030</t>
+          <t>Anstieg auf 30 % bis 2030</t>
         </is>
       </c>
       <c r="K37" s="4" t="inlineStr">
         <is>
-          <t>increase to 80 % by 2030</t>
+          <t>increase to 30 % by 2030</t>
         </is>
       </c>
       <c r="L37" s="4" t="inlineStr">
         <is>
-          <t>Anteil des Stroms aus erneuerbaren Energiequellen am Bruttostromverbrauch</t>
+          <t>Anteil erneuerbarer Energien am Brutto-Endenergieverbrauch</t>
         </is>
       </c>
       <c r="M37" s="4" t="inlineStr">
         <is>
-          <t>Share of electricity from renewable energy sources in gross electricity consumption</t>
+          <t>Share of renewable energies in gross final energy consumption</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="38">
       <c r="A38" s="4" t="inlineStr">
         <is>
-          <t>Z08_B01_P01_Ib01_I01</t>
+          <t>Z07_B02_P01_Ib02_I01</t>
         </is>
       </c>
       <c r="B38" s="4" t="inlineStr">
         <is>
-          <t>Z08_B01_P01_Ib01</t>
+          <t>Z07_B02_P01_Ib02</t>
         </is>
       </c>
       <c r="C38" s="4" t="inlineStr">
         <is>
-          <t>8.1</t>
+          <t>7.2.b</t>
         </is>
       </c>
       <c r="D38" s="4" t="inlineStr">
         <is>
-          <t>Gesamtrohstoffproduktivität</t>
+          <t>Strom aus erneuerbaren Energiequellen</t>
         </is>
       </c>
       <c r="E38" s="4" t="inlineStr">
         <is>
-          <t>Raw material input productivity</t>
+          <t>Electricity from renewable energy sources</t>
         </is>
       </c>
       <c r="F38" s="4" t="inlineStr">
         <is>
-          <t>Gesamtrohstoffproduktivität</t>
+          <t>Anteil des Stroms aus erneuerbaren Energiequellen am Bruttostromverbrauch</t>
         </is>
       </c>
       <c r="G38" s="4" t="inlineStr">
         <is>
-          <t>Raw material input productivity</t>
+          <t>Share of electricity from renewable energy sources in gross electricity consumption</t>
         </is>
       </c>
       <c r="H38" s="4" t="inlineStr">
         <is>
-          <t>Beibehaltung des Trends der Jahre 2000 – 2010 bis 2030</t>
+          <t>Anstieg auf mindestens 80 % bis 2030</t>
         </is>
       </c>
       <c r="I38" s="4" t="inlineStr">
         <is>
-          <t>Trend of the years 2000–2010 to be maintained until 2030</t>
+          <t>Increase to at least 80 % by 2030</t>
         </is>
       </c>
       <c r="J38" s="4" t="inlineStr">
         <is>
-          <t>Beibehaltung des Trends der Jahre 2000 - 2010 bis 2030</t>
+          <t>Anstieg auf 80 % bis 2030</t>
         </is>
       </c>
       <c r="K38" s="4" t="inlineStr">
         <is>
-          <t>trend of the years 2000-2010 to be maintained until 2030</t>
+          <t>increase to 80 % by 2030</t>
         </is>
       </c>
       <c r="L38" s="4" t="inlineStr">
         <is>
-          <t>Gesamtrohstoffproduktivität</t>
+          <t>Anteil des Stroms aus erneuerbaren Energiequellen am Bruttostromverbrauch</t>
         </is>
       </c>
       <c r="M38" s="4" t="inlineStr">
         <is>
-          <t>Raw material input productivity</t>
+          <t>Share of electricity from renewable energy sources in gross electricity consumption</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="39">
       <c r="A39" s="4" t="inlineStr">
         <is>
-          <t>Z08_B02_P01_Ib01_I01</t>
+          <t>Z08_B01_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B39" s="4" t="inlineStr">
         <is>
-          <t>Z08_B02_P01_Ib01</t>
+          <t>Z08_B01_P01_Ib01</t>
         </is>
       </c>
       <c r="C39" s="4" t="inlineStr">
         <is>
-          <t>8.2.a</t>
+          <t>8.1</t>
         </is>
       </c>
       <c r="D39" s="4" t="inlineStr">
         <is>
-          <t>a) Staatsdefizit</t>
+          <t>Gesamtrohstoffproduktivität</t>
         </is>
       </c>
       <c r="E39" s="4" t="inlineStr">
         <is>
-          <t>a) Government deficit</t>
+          <t>Raw material input productivity</t>
         </is>
       </c>
       <c r="F39" s="4" t="inlineStr">
         <is>
-          <t>Staatsdefizit</t>
+          <t>Gesamtrohstoffproduktivität</t>
         </is>
       </c>
       <c r="G39" s="4" t="inlineStr">
         <is>
-          <t>Government deficit</t>
+          <t>Raw material input productivity</t>
         </is>
       </c>
       <c r="H39" s="4" t="inlineStr">
         <is>
-          <t>Jährliches Staatsdefizit kleiner als 3 % des BIP, Beibehaltung bis 2030</t>
+          <t>Beibehaltung des Trends der Jahre 2000 – 2010 bis 2030</t>
         </is>
       </c>
       <c r="I39" s="4" t="inlineStr">
         <is>
-          <t>Annual government deficit less than 3 % of GDP, to be maintained until 2030</t>
+          <t>Trend of the years 2000–2010 to be maintained until 2030</t>
         </is>
       </c>
       <c r="J39" s="4" t="inlineStr">
         <is>
-          <t>unter 3 % des BIP</t>
+          <t>Beibehaltung des Trends der Jahre 2000 - 2010 bis 2030</t>
         </is>
       </c>
       <c r="K39" s="4" t="inlineStr">
         <is>
-          <t>less than 3 % of GDP</t>
+          <t>trend of the years 2000-2010 to be maintained until 2030</t>
         </is>
       </c>
       <c r="L39" s="4" t="inlineStr">
         <is>
-          <t>Staatsdefizit</t>
+          <t>Gesamtrohstoffproduktivität</t>
         </is>
       </c>
       <c r="M39" s="4" t="inlineStr">
         <is>
-          <t>Government deficit</t>
+          <t>Raw material input productivity</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="40">
       <c r="A40" s="4" t="inlineStr">
         <is>
-          <t>Z08_B02_P01_Ib01_I02</t>
+          <t>Z08_B02_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B40" s="4" t="inlineStr">
@@ -3084,332 +3084,332 @@
       </c>
       <c r="C40" s="4" t="inlineStr">
         <is>
-          <t>8.2.b</t>
+          <t>8.2.a</t>
         </is>
       </c>
       <c r="D40" s="4" t="inlineStr">
         <is>
-          <t>b) Strukturelles Defizit</t>
+          <t>a) Staatsdefizit</t>
         </is>
       </c>
       <c r="E40" s="4" t="inlineStr">
         <is>
-          <t>b) Structural deficit</t>
+          <t>a) Government deficit</t>
         </is>
       </c>
       <c r="F40" s="4" t="inlineStr">
         <is>
-          <t>Strukturelles Defizit</t>
+          <t>Staatsdefizit</t>
         </is>
       </c>
       <c r="G40" s="4" t="inlineStr">
         <is>
-          <t>Structural deficit</t>
+          <t>Government deficit</t>
         </is>
       </c>
       <c r="H40" s="4" t="inlineStr">
         <is>
-          <t>Strukturell ausgeglichener Staatshaushalt, gesamtstaatliches strukturelles Defizit von max. 0,5 % des BIP, Beibehaltung bis 2030</t>
+          <t>Jährliches Staatsdefizit kleiner als 3 % des BIP, Beibehaltung bis 2030</t>
         </is>
       </c>
       <c r="I40" s="4" t="inlineStr">
         <is>
-          <t>Structurally balanced government budget, general government structural deficit must not exceed 0.5 % of GDP, to be maintained until 2030</t>
+          <t>Annual government deficit less than 3 % of GDP, to be maintained until 2030</t>
         </is>
       </c>
       <c r="J40" s="4" t="inlineStr">
         <is>
-          <t>unter 0,5 % des BIP</t>
+          <t>unter 3 % des BIP</t>
         </is>
       </c>
       <c r="K40" s="4" t="inlineStr">
         <is>
-          <t>less than 0.5 % of GDP</t>
+          <t>less than 3 % of GDP</t>
         </is>
       </c>
       <c r="L40" s="4" t="inlineStr">
         <is>
-          <t>Strukturelles Defizit</t>
+          <t>Staatsdefizit</t>
         </is>
       </c>
       <c r="M40" s="4" t="inlineStr">
         <is>
-          <t>Structural deficit</t>
+          <t>Government deficit</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="41">
       <c r="A41" s="4" t="inlineStr">
         <is>
-          <t>Z08_B02_P01_Ib02_I01</t>
+          <t>Z08_B02_P01_Ib01_I02</t>
         </is>
       </c>
       <c r="B41" s="4" t="inlineStr">
         <is>
-          <t>Z08_B02_P01_Ib02</t>
+          <t>Z08_B02_P01_Ib01</t>
         </is>
       </c>
       <c r="C41" s="4" t="inlineStr">
         <is>
-          <t>8.2.c</t>
+          <t>8.2.b</t>
         </is>
       </c>
       <c r="D41" s="4" t="inlineStr">
         <is>
-          <t>Schuldenstandsquote</t>
+          <t>b) Strukturelles Defizit</t>
         </is>
       </c>
       <c r="E41" s="4" t="inlineStr">
         <is>
-          <t>Ratio of government debt</t>
+          <t>b) Structural deficit</t>
         </is>
       </c>
       <c r="F41" s="4" t="inlineStr">
         <is>
-          <t>Schuldenstand</t>
+          <t>Strukturelles Defizit</t>
         </is>
       </c>
       <c r="G41" s="4" t="inlineStr">
         <is>
-          <t>Government debt</t>
+          <t>Structural deficit</t>
         </is>
       </c>
       <c r="H41" s="4" t="inlineStr">
         <is>
-          <t>Schuldenstandsquote max. 60 % des BIP, Beibehaltung bis 2030</t>
+          <t>Strukturell ausgeglichener Staatshaushalt, gesamtstaatliches strukturelles Defizit von max. 0,5 % des BIP, Beibehaltung bis 2030</t>
         </is>
       </c>
       <c r="I41" s="4" t="inlineStr">
         <is>
-          <t>Ratio of government debt to GDP must not exceed  60 %, to be maintained until 2030</t>
+          <t>Structurally balanced government budget, general government structural deficit must not exceed 0.5 % of GDP, to be maintained until 2030</t>
         </is>
       </c>
       <c r="J41" s="4" t="inlineStr">
         <is>
-          <t>max. 60 % des BIP</t>
+          <t>unter 0,5 % des BIP</t>
         </is>
       </c>
       <c r="K41" s="4" t="inlineStr">
         <is>
-          <t>max. 60 % of GDP</t>
+          <t>less than 0.5 % of GDP</t>
         </is>
       </c>
       <c r="L41" s="4" t="inlineStr">
         <is>
-          <t>Schuldenstand</t>
+          <t>Strukturelles Defizit</t>
         </is>
       </c>
       <c r="M41" s="4" t="inlineStr">
         <is>
-          <t>Government debt</t>
+          <t>Structural deficit</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="42">
       <c r="A42" s="4" t="inlineStr">
         <is>
-          <t>Z08_B03_P01_Ib01_I01</t>
+          <t>Z08_B02_P01_Ib02_I01</t>
         </is>
       </c>
       <c r="B42" s="4" t="inlineStr">
         <is>
-          <t>Z08_B03_P01_Ib01</t>
+          <t>Z08_B02_P01_Ib02</t>
         </is>
       </c>
       <c r="C42" s="4" t="inlineStr">
         <is>
-          <t>8.3</t>
+          <t>8.2.c</t>
         </is>
       </c>
       <c r="D42" s="4" t="inlineStr">
         <is>
-          <t>Anlageinvestitionen</t>
+          <t>Schuldenstandsquote</t>
         </is>
       </c>
       <c r="E42" s="4" t="inlineStr">
         <is>
-          <t>Gross fixed capital formation</t>
+          <t>Ratio of government debt</t>
         </is>
       </c>
       <c r="F42" s="4" t="inlineStr">
         <is>
-          <t>Verhältnis der Bruttoanlageinvestitionen zum BIP</t>
+          <t>Schuldenstand</t>
         </is>
       </c>
       <c r="G42" s="4" t="inlineStr">
         <is>
-          <t>Gross fixed capital formation in relation to GDP</t>
+          <t>Government debt</t>
         </is>
       </c>
       <c r="H42" s="4" t="inlineStr">
         <is>
-          <t>Angemessene Entwicklung des Anteils, Beibehaltung bis 2030</t>
+          <t>Schuldenstandsquote max. 60 % des BIP, Beibehaltung bis 2030</t>
         </is>
       </c>
       <c r="I42" s="4" t="inlineStr">
         <is>
-          <t>Appropriate development of the ratio, to be maintained until 2030</t>
+          <t>Ratio of government debt to GDP must not exceed  60 %, to be maintained until 2030</t>
         </is>
       </c>
       <c r="J42" s="4" t="inlineStr">
         <is>
-          <t>angemessene Entwicklung bis 2030</t>
+          <t>max. 60 % des BIP</t>
         </is>
       </c>
       <c r="K42" s="4" t="inlineStr">
         <is>
-          <t>appropriate development by 2030</t>
+          <t>max. 60 % of GDP</t>
         </is>
       </c>
       <c r="L42" s="4" t="inlineStr">
         <is>
-          <t>Verhältnis der Bruttoanlageinvestitionen zum BIP</t>
+          <t>Schuldenstand</t>
         </is>
       </c>
       <c r="M42" s="4" t="inlineStr">
         <is>
-          <t>Gross fixed capital formation in relation to GDP</t>
+          <t>Government debt</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="43">
       <c r="A43" s="4" t="inlineStr">
         <is>
-          <t>Z08_B04_P01_Ib01_I01</t>
+          <t>Z08_B03_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B43" s="4" t="inlineStr">
         <is>
-          <t>Z08_B04_P01_Ib01</t>
+          <t>Z08_B03_P01_Ib01</t>
         </is>
       </c>
       <c r="C43" s="4" t="inlineStr">
         <is>
-          <t>8.4</t>
+          <t>8.3</t>
         </is>
       </c>
       <c r="D43" s="4" t="inlineStr">
         <is>
-          <t>Bruttoinlandsprodukt</t>
+          <t>Anlageinvestitionen</t>
         </is>
       </c>
       <c r="E43" s="4" t="inlineStr">
         <is>
-          <t>Gross domestic product</t>
+          <t>Gross fixed capital formation</t>
         </is>
       </c>
       <c r="F43" s="4" t="inlineStr">
         <is>
-          <t>Bruttoinlandsprodukt je Einwohnerin und Einwohner</t>
+          <t>Verhältnis der Bruttoanlageinvestitionen zum BIP</t>
         </is>
       </c>
       <c r="G43" s="4" t="inlineStr">
         <is>
-          <t>Gross domestic product per capita</t>
+          <t>Gross fixed capital formation in relation to GDP</t>
         </is>
       </c>
       <c r="H43" s="4" t="inlineStr">
         <is>
-          <t>Stetiges und angemessenes Wirtschaftswachstum</t>
+          <t>Angemessene Entwicklung des Anteils, Beibehaltung bis 2030</t>
         </is>
       </c>
       <c r="I43" s="4" t="inlineStr">
         <is>
-          <t>Steady and appropriate economic growth</t>
+          <t>Appropriate development of the ratio, to be maintained until 2030</t>
         </is>
       </c>
       <c r="J43" s="4" t="inlineStr">
         <is>
-          <t>stetiges und angemessenes Wirtschaftswachstum</t>
+          <t>angemessene Entwicklung bis 2030</t>
         </is>
       </c>
       <c r="K43" s="4" t="inlineStr">
         <is>
-          <t>steady and appropriate economic growth</t>
+          <t>appropriate development by 2030</t>
         </is>
       </c>
       <c r="L43" s="4" t="inlineStr">
         <is>
-          <t>Bruttoinlandsprodukt je Einwohnerin und Einwohner</t>
+          <t>Verhältnis der Bruttoanlageinvestitionen zum BIP</t>
         </is>
       </c>
       <c r="M43" s="4" t="inlineStr">
         <is>
-          <t>Gross domestic product per capita</t>
+          <t>Gross fixed capital formation in relation to GDP</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="44">
       <c r="A44" s="4" t="inlineStr">
         <is>
-          <t>Z08_B05_P01_Ib01_I01</t>
+          <t>Z08_B04_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B44" s="4" t="inlineStr">
         <is>
-          <t>Z08_B05_P01_Ib01</t>
+          <t>Z08_B04_P01_Ib01</t>
         </is>
       </c>
       <c r="C44" s="4" t="inlineStr">
         <is>
-          <t>8.5.a</t>
+          <t>8.4</t>
         </is>
       </c>
       <c r="D44" s="4" t="inlineStr">
         <is>
-          <t>a) Insgesamt (20-64-Jährige)</t>
+          <t>Bruttoinlandsprodukt</t>
         </is>
       </c>
       <c r="E44" s="4" t="inlineStr">
         <is>
-          <t>a) total (20 to 64-year-olds)</t>
+          <t>Gross domestic product</t>
         </is>
       </c>
       <c r="F44" s="4" t="inlineStr">
         <is>
-          <t>Erwerbstätigenquote (20- bis 64-Jährige)</t>
+          <t>Bruttoinlandsprodukt je Einwohnerin und Einwohner</t>
         </is>
       </c>
       <c r="G44" s="4" t="inlineStr">
         <is>
-          <t>Employment rate (20 to 64-year-olds)</t>
+          <t>Gross domestic product per capita</t>
         </is>
       </c>
       <c r="H44" s="4" t="inlineStr">
         <is>
-          <t>Erhöhung auf 78 % bis 2030</t>
+          <t>Stetiges und angemessenes Wirtschaftswachstum</t>
         </is>
       </c>
       <c r="I44" s="4" t="inlineStr">
         <is>
-          <t>Increase to 78 % by 2030</t>
+          <t>Steady and appropriate economic growth</t>
         </is>
       </c>
       <c r="J44" s="4" t="inlineStr">
         <is>
-          <t>Erhöhung auf 78 % bis 2030</t>
+          <t>stetiges und angemessenes Wirtschaftswachstum</t>
         </is>
       </c>
       <c r="K44" s="4" t="inlineStr">
         <is>
-          <t>increase to 78 % by 2030</t>
+          <t>steady and appropriate economic growth</t>
         </is>
       </c>
       <c r="L44" s="4" t="inlineStr">
         <is>
-          <t>Erwerbstätigenquote insgesamt (20- bis 64-Jährige)</t>
+          <t>Bruttoinlandsprodukt je Einwohnerin und Einwohner</t>
         </is>
       </c>
       <c r="M44" s="4" t="inlineStr">
         <is>
-          <t>Employment rate, total (20 to 64-year-olds)</t>
+          <t>Gross domestic product per capita</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="45">
       <c r="A45" s="4" t="inlineStr">
         <is>
-          <t>Z08_B05_P01_Ib01_I02</t>
+          <t>Z08_B05_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B45" s="4" t="inlineStr">
@@ -3419,697 +3419,697 @@
       </c>
       <c r="C45" s="4" t="inlineStr">
         <is>
-          <t>8.5.b</t>
+          <t>8.5.a</t>
         </is>
       </c>
       <c r="D45" s="4" t="inlineStr">
         <is>
-          <t>b) Ältere (60-64-Jährige)</t>
+          <t>a) Insgesamt (20-64-Jährige)</t>
         </is>
       </c>
       <c r="E45" s="4" t="inlineStr">
         <is>
-          <t>b) older people (60 to 64-year-olds)</t>
+          <t>a) total (20 to 64-year-olds)</t>
         </is>
       </c>
       <c r="F45" s="4" t="inlineStr">
         <is>
-          <t>Erwerbstätigenquote (60- bis 64-Jährige)</t>
+          <t>Erwerbstätigenquote (20- bis 64-Jährige)</t>
         </is>
       </c>
       <c r="G45" s="4" t="inlineStr">
         <is>
-          <t>Employment rate (60 to 64-year-olds)</t>
+          <t>Employment rate (20 to 64-year-olds)</t>
         </is>
       </c>
       <c r="H45" s="4" t="inlineStr">
         <is>
-          <t>Erhöhung auf 60 % bis 2030</t>
+          <t>Erhöhung auf 78 % bis 2030</t>
         </is>
       </c>
       <c r="I45" s="4" t="inlineStr">
         <is>
-          <t>Increase to 60 % by 2030</t>
+          <t>Increase to 78 % by 2030</t>
         </is>
       </c>
       <c r="J45" s="4" t="inlineStr">
         <is>
-          <t>Erhöhung auf 60 % bis 2030</t>
+          <t>Erhöhung auf 78 % bis 2030</t>
         </is>
       </c>
       <c r="K45" s="4" t="inlineStr">
         <is>
-          <t>increase to 60 % by 2030</t>
+          <t>increase to 78 % by 2030</t>
         </is>
       </c>
       <c r="L45" s="4" t="inlineStr">
         <is>
-          <t>Erwerbstätigenquote Ältere (60- bis 64-Jährige)</t>
+          <t>Erwerbstätigenquote insgesamt (20- bis 64-Jährige)</t>
         </is>
       </c>
       <c r="M45" s="4" t="inlineStr">
         <is>
-          <t>Employment rate, older people (60 to 64-year-olds)</t>
+          <t>Employment rate, total (20 to 64-year-olds)</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="46">
       <c r="A46" s="4" t="inlineStr">
         <is>
-          <t>Z08_B06_P01_Ib01_I01</t>
+          <t>Z08_B05_P01_Ib01_I02</t>
         </is>
       </c>
       <c r="B46" s="4" t="inlineStr">
         <is>
-          <t>Z08_B06_P01_Ib01</t>
+          <t>Z08_B05_P01_Ib01</t>
         </is>
       </c>
       <c r="C46" s="4" t="inlineStr">
         <is>
-          <t>8.6</t>
+          <t>8.5.b</t>
         </is>
       </c>
       <c r="D46" s="4" t="inlineStr">
         <is>
-          <t>Mitglieder des Textilbündnisses</t>
+          <t>b) Ältere (60-64-Jährige)</t>
         </is>
       </c>
       <c r="E46" s="4" t="inlineStr">
         <is>
-          <t>Members of the Textile Partnership</t>
+          <t>b) older people (60 to 64-year-olds)</t>
         </is>
       </c>
       <c r="F46" s="4" t="inlineStr">
         <is>
-          <t>Mitglieder des Textilbündnisses</t>
+          <t>Erwerbstätigenquote (60- bis 64-Jährige)</t>
         </is>
       </c>
       <c r="G46" s="4" t="inlineStr">
         <is>
-          <t>Members of the Textile Partnership</t>
+          <t>Employment rate (60 to 64-year-olds)</t>
         </is>
       </c>
       <c r="H46" s="4" t="inlineStr">
         <is>
-          <t>Signifikante Steigerung bis 2030</t>
+          <t>Erhöhung auf 60 % bis 2030</t>
         </is>
       </c>
       <c r="I46" s="4" t="inlineStr">
         <is>
-          <t>Significantly increase by 2030</t>
+          <t>Increase to 60 % by 2030</t>
         </is>
       </c>
       <c r="J46" s="4" t="inlineStr">
         <is>
-          <t>Steigerung der Anzahl bis 2030</t>
+          <t>Erhöhung auf 60 % bis 2030</t>
         </is>
       </c>
       <c r="K46" s="4" t="inlineStr">
         <is>
-          <t>increase number by 2030</t>
+          <t>increase to 60 % by 2030</t>
         </is>
       </c>
       <c r="L46" s="4" t="inlineStr">
         <is>
-          <t>Mitglieder des Textilbündnisses</t>
+          <t>Erwerbstätigenquote Ältere (60- bis 64-Jährige)</t>
         </is>
       </c>
       <c r="M46" s="4" t="inlineStr">
         <is>
-          <t>Members of the Textile Partnership</t>
+          <t>Employment rate, older people (60 to 64-year-olds)</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="47">
       <c r="A47" s="4" t="inlineStr">
         <is>
-          <t>Z09_B01_P01_Ib01_I01</t>
+          <t>Z08_B06_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B47" s="4" t="inlineStr">
         <is>
-          <t>Z09_B01_P01_Ib01</t>
+          <t>Z08_B06_P01_Ib01</t>
         </is>
       </c>
       <c r="C47" s="4" t="inlineStr">
         <is>
-          <t>9.1.a</t>
+          <t>8.6</t>
         </is>
       </c>
       <c r="D47" s="4" t="inlineStr">
         <is>
-          <t>Ausgaben für Forschung und Entwicklung</t>
+          <t>Mitglieder des Textilbündnisses</t>
         </is>
       </c>
       <c r="E47" s="4" t="inlineStr">
         <is>
-          <t>Expenditure on research and development</t>
+          <t>Members of the Textile Partnership</t>
         </is>
       </c>
       <c r="F47" s="4" t="inlineStr">
         <is>
-          <t>Private und öffentliche Ausgaben für Forschung und Entwicklung</t>
+          <t>Mitglieder des Textilbündnisses</t>
         </is>
       </c>
       <c r="G47" s="4" t="inlineStr">
         <is>
-          <t>Private and public expenditure on research and development</t>
+          <t>Members of the Textile Partnership</t>
         </is>
       </c>
       <c r="H47" s="4" t="inlineStr">
         <is>
-          <t>Jährlich mindestens 3,5 % des BIP bis 2025</t>
+          <t>Signifikante Steigerung bis 2030</t>
         </is>
       </c>
       <c r="I47" s="4" t="inlineStr">
         <is>
-          <t>At least 3.5 % of GDP per year by 2025</t>
+          <t>Significantly increase by 2030</t>
         </is>
       </c>
       <c r="J47" s="4" t="inlineStr">
         <is>
-          <t>jährlich mindestens 3,5 % des BIP bis 2025</t>
+          <t>Steigerung der Anzahl bis 2030</t>
         </is>
       </c>
       <c r="K47" s="4" t="inlineStr">
         <is>
-          <t>at least 3.5 % of GDP per year by 2025</t>
+          <t>increase number by 2030</t>
         </is>
       </c>
       <c r="L47" s="4" t="inlineStr">
         <is>
-          <t>Private und öffentliche Ausgaben für Forschung und Entwicklung</t>
+          <t>Mitglieder des Textilbündnisses</t>
         </is>
       </c>
       <c r="M47" s="4" t="inlineStr">
         <is>
-          <t>Private and public expenditure on research and development</t>
+          <t>Members of the Textile Partnership</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="48">
       <c r="A48" s="4" t="inlineStr">
         <is>
-          <t>Z09_B01_P01_Ib02_I01</t>
+          <t>Z09_B01_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B48" s="4" t="inlineStr">
         <is>
-          <t>Z09_B01_P01_Ib02</t>
+          <t>Z09_B01_P01_Ib01</t>
         </is>
       </c>
       <c r="C48" s="4" t="inlineStr">
         <is>
-          <t>9.1.b</t>
+          <t>9.1.a</t>
         </is>
       </c>
       <c r="D48" s="4" t="inlineStr">
         <is>
-          <t>Breitbandverfügbarkeit</t>
+          <t>Ausgaben für Forschung und Entwicklung</t>
         </is>
       </c>
       <c r="E48" s="4" t="inlineStr">
         <is>
-          <t>Broadband availability</t>
+          <t>Expenditure on research and development</t>
         </is>
       </c>
       <c r="F48" s="4" t="inlineStr">
         <is>
-          <t>Breitbandausbau – Anteil der Haushalte mit Zugang zu Gigabit-Breitbandversorgung</t>
+          <t>Private und öffentliche Ausgaben für Forschung und Entwicklung</t>
         </is>
       </c>
       <c r="G48" s="4" t="inlineStr">
         <is>
-          <t>Roll-out of broadband – Share of households with access to gigabit broadband services</t>
+          <t>Private and public expenditure on research and development</t>
         </is>
       </c>
       <c r="H48" s="4" t="inlineStr">
         <is>
-          <t>Flächendeckender Aufbau von Gigabitnetzen bis 2025</t>
+          <t>Jährlich mindestens 3,5 % des BIP bis 2025</t>
         </is>
       </c>
       <c r="I48" s="4" t="inlineStr">
         <is>
-          <t>Universal gigabit network Roll-out by 2025</t>
+          <t>At least 3.5 % of GDP per year by 2025</t>
         </is>
       </c>
       <c r="J48" s="4" t="inlineStr">
         <is>
-          <t>flächendeckender Aufbau bis 2025</t>
+          <t>jährlich mindestens 3,5 % des BIP bis 2025</t>
         </is>
       </c>
       <c r="K48" s="4" t="inlineStr">
         <is>
-          <t>universal Roll-out by 2025</t>
+          <t>at least 3.5 % of GDP per year by 2025</t>
         </is>
       </c>
       <c r="L48" s="4" t="inlineStr">
         <is>
-          <t>Breitbandausbau – Anteil der Haushalte mit Zugang zu Gigabit-Breitbandversorgung</t>
+          <t>Private und öffentliche Ausgaben für Forschung und Entwicklung</t>
         </is>
       </c>
       <c r="M48" s="4" t="inlineStr">
         <is>
-          <t>Roll-out of broadband – Share of households with access to gigabit broadband services</t>
+          <t>Private and public expenditure on research and development</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="49">
       <c r="A49" s="4" t="inlineStr">
         <is>
-          <t>Z10_B01_P01_Ib01_I01</t>
+          <t>Z09_B01_P01_Ib02_I01</t>
         </is>
       </c>
       <c r="B49" s="4" t="inlineStr">
         <is>
-          <t>Z10_B01_P01_Ib01</t>
+          <t>Z09_B01_P01_Ib02</t>
         </is>
       </c>
       <c r="C49" s="4" t="inlineStr">
         <is>
-          <t>10.1</t>
+          <t>9.1.b</t>
         </is>
       </c>
       <c r="D49" s="4" t="inlineStr">
         <is>
-          <t>Abschlussquote</t>
+          <t>Breitbandverfügbarkeit</t>
         </is>
       </c>
       <c r="E49" s="4" t="inlineStr">
         <is>
-          <t>Graduation rate</t>
+          <t>Broadband availability</t>
         </is>
       </c>
       <c r="F49" s="4" t="inlineStr">
         <is>
-          <t>Ausländische Schulabsolventinnen und Schulabsolventen</t>
+          <t>Breitbandausbau – Anteil der Haushalte mit Zugang zu Gigabit-Breitbandversorgung</t>
         </is>
       </c>
       <c r="G49" s="4" t="inlineStr">
         <is>
-          <t>Foreign school graduates</t>
+          <t>Roll-out of broadband – Share of households with access to gigabit broadband services</t>
         </is>
       </c>
       <c r="H49" s="4" t="inlineStr">
         <is>
-          <t>Erhöhung des Anteils der ausländischen Schulabgänger mit mindestens Hauptschulabschluss und Angleichung an die Quote deutscher Schulabgänger bis 2030</t>
+          <t>Flächendeckender Aufbau von Gigabitnetzen bis 2025</t>
         </is>
       </c>
       <c r="I49" s="4" t="inlineStr">
         <is>
-          <t>Increase the proportion of foreign school leavers with a least a secondary general school certificate and bring into line with that of German school leavers by 2030</t>
+          <t>Universal gigabit network Roll-out by 2025</t>
         </is>
       </c>
       <c r="J49" s="4" t="inlineStr">
         <is>
-          <t>Erhöhung bei ausländischen Schulabsolvierenden und Angleichung an die Quote deutscher -absolvierenden bis 2030</t>
+          <t>flächendeckender Aufbau bis 2025</t>
         </is>
       </c>
       <c r="K49" s="4" t="inlineStr">
         <is>
-          <t>increase among foreign school leavers and bring it into line with the rate of German school leavers by 2030</t>
+          <t>universal Roll-out by 2025</t>
         </is>
       </c>
       <c r="L49" s="4" t="inlineStr">
         <is>
-          <t>Ausländische Schulabsolventinnen und Schulabsolventen</t>
+          <t>Breitbandausbau – Anteil der Haushalte mit Zugang zu Gigabit-Breitbandversorgung</t>
         </is>
       </c>
       <c r="M49" s="4" t="inlineStr">
         <is>
-          <t>Foreign school graduates</t>
+          <t>Roll-out of broadband – Share of households with access to gigabit broadband services</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="50">
       <c r="A50" s="4" t="inlineStr">
         <is>
-          <t>Z10_B02_P01_Ib01_I01</t>
+          <t>Z10_B01_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B50" s="4" t="inlineStr">
         <is>
-          <t>Z10_B02_P01_Ib01</t>
+          <t>Z10_B01_P01_Ib01</t>
         </is>
       </c>
       <c r="C50" s="4" t="inlineStr">
         <is>
-          <t>10.2</t>
+          <t>10.1</t>
         </is>
       </c>
       <c r="D50" s="4" t="inlineStr">
         <is>
-          <t>Gini-Koeffizient Einkommen nach Sozialtransfer</t>
+          <t>Abschlussquote</t>
         </is>
       </c>
       <c r="E50" s="4" t="inlineStr">
         <is>
-          <t>Gini coefficient of income after social transfers</t>
+          <t>Graduation rate</t>
         </is>
       </c>
       <c r="F50" s="4" t="inlineStr">
         <is>
-          <t>Gini-Koeffizient des Einkommens nach Sozialtransfers</t>
+          <t>Ausländische Schulabsolventinnen und Schulabsolventen</t>
         </is>
       </c>
       <c r="G50" s="4" t="inlineStr">
         <is>
-          <t>Gini coefficient of income after social transfers</t>
+          <t>Foreign school graduates</t>
         </is>
       </c>
       <c r="H50" s="4" t="inlineStr">
         <is>
-          <t>Gini-Koeffizient Einkommen nach Sozialtransfer bis 2030 unterhalb des EU-27-Wertes</t>
+          <t>Erhöhung des Anteils der ausländischen Schulabgänger mit mindestens Hauptschulabschluss und Angleichung an die Quote deutscher Schulabgänger bis 2030</t>
         </is>
       </c>
       <c r="I50" s="4" t="inlineStr">
         <is>
-          <t>Gini coefficient of income after social transfers to be below the EU-27 figure by 2030</t>
+          <t>Increase the proportion of foreign school leavers with a least a secondary general school certificate and bring into line with that of German school leavers by 2030</t>
         </is>
       </c>
       <c r="J50" s="4" t="inlineStr">
         <is>
-          <t>bis 2030 unterhalb des EU-27-Wertes</t>
+          <t>Erhöhung bei ausländischen Schulabsolvierenden und Angleichung an die Quote deutscher -absolvierenden bis 2030</t>
         </is>
       </c>
       <c r="K50" s="4" t="inlineStr">
         <is>
-          <t>to be below the EU-27 figure by 2030</t>
+          <t>increase among foreign school leavers and bring it into line with the rate of German school leavers by 2030</t>
         </is>
       </c>
       <c r="L50" s="4" t="inlineStr">
         <is>
-          <t>Gini-Koeffizient des Einkommens nach Sozialtransfers</t>
+          <t>Ausländische Schulabsolventinnen und Schulabsolventen</t>
         </is>
       </c>
       <c r="M50" s="4" t="inlineStr">
         <is>
-          <t>Gini coefficient of income after social transfers</t>
+          <t>Foreign school graduates</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="51">
       <c r="A51" s="4" t="inlineStr">
         <is>
-          <t>Z11_B01_P01_Ib01_I01</t>
+          <t>Z10_B02_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B51" s="4" t="inlineStr">
         <is>
-          <t>Z11_B01_P01_Ib01</t>
+          <t>Z10_B02_P01_Ib01</t>
         </is>
       </c>
       <c r="C51" s="4" t="inlineStr">
         <is>
-          <t>11.1.a</t>
+          <t>10.2</t>
         </is>
       </c>
       <c r="D51" s="4" t="inlineStr">
         <is>
-          <t>Anstieg der Siedlungs- und Verkehrsfläche</t>
+          <t>Gini-Koeffizient Einkommen nach Sozialtransfer</t>
         </is>
       </c>
       <c r="E51" s="4" t="inlineStr">
         <is>
-          <t>Expansion of settlement and transport area</t>
+          <t>Gini coefficient of income after social transfers</t>
         </is>
       </c>
       <c r="F51" s="4" t="inlineStr">
         <is>
-          <t>Anstieg der Siedlungs- und Verkehrsfläche</t>
+          <t>Gini-Koeffizient des Einkommens nach Sozialtransfers</t>
         </is>
       </c>
       <c r="G51" s="4" t="inlineStr">
         <is>
-          <t>Expansion of settlement and transport area</t>
+          <t>Gini coefficient of income after social transfers</t>
         </is>
       </c>
       <c r="H51" s="4" t="inlineStr">
         <is>
-          <t>Senkung auf durchschnittlich unter 30 ha pro Tag bis 2030</t>
+          <t>Gini-Koeffizient Einkommen nach Sozialtransfer bis 2030 unterhalb des EU-27-Wertes</t>
         </is>
       </c>
       <c r="I51" s="4" t="inlineStr">
         <is>
-          <t>Reduction to under 30 ha on average per day by 2030</t>
+          <t>Gini coefficient of income after social transfers to be below the EU-27 figure by 2030</t>
         </is>
       </c>
       <c r="J51" s="4" t="inlineStr">
         <is>
-          <t>Senkung auf unter 30 ha pro Tag bis 2030</t>
+          <t>bis 2030 unterhalb des EU-27-Wertes</t>
         </is>
       </c>
       <c r="K51" s="4" t="inlineStr">
         <is>
-          <t>reduction to under 30 ha per day by 2030</t>
+          <t>to be below the EU-27 figure by 2030</t>
         </is>
       </c>
       <c r="L51" s="4" t="inlineStr">
         <is>
-          <t>Anstieg der Siedlungs- und Verkehrsfläche</t>
+          <t>Gini-Koeffizient des Einkommens nach Sozialtransfers</t>
         </is>
       </c>
       <c r="M51" s="4" t="inlineStr">
         <is>
-          <t>Expansion of settlement and transport area</t>
+          <t>Gini coefficient of income after social transfers</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="52">
       <c r="A52" s="4" t="inlineStr">
         <is>
-          <t>Z11_B01_P01_Ib02_I01</t>
+          <t>Z11_B01_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B52" s="4" t="inlineStr">
         <is>
-          <t>Z11_B01_P01_Ib02</t>
+          <t>Z11_B01_P01_Ib01</t>
         </is>
       </c>
       <c r="C52" s="4" t="inlineStr">
         <is>
-          <t>11.1.b</t>
+          <t>11.1.a</t>
         </is>
       </c>
       <c r="D52" s="4" t="inlineStr">
         <is>
-          <t>Freiraumverlust</t>
+          <t>Anstieg der Siedlungs- und Verkehrsfläche</t>
         </is>
       </c>
       <c r="E52" s="4" t="inlineStr">
         <is>
-          <t>Loss of open space area</t>
+          <t>Expansion of settlement and transport area</t>
         </is>
       </c>
       <c r="F52" s="4" t="inlineStr">
         <is>
-          <t>Freiraumverlust</t>
+          <t>Anstieg der Siedlungs- und Verkehrsfläche</t>
         </is>
       </c>
       <c r="G52" s="4" t="inlineStr">
         <is>
-          <t>Loss of open space area</t>
+          <t>Expansion of settlement and transport area</t>
         </is>
       </c>
       <c r="H52" s="4" t="inlineStr">
         <is>
-          <t>Verringerung des einwohnerbezogenen Freiflächenverlustes</t>
+          <t>Senkung auf durchschnittlich unter 30 ha pro Tag bis 2030</t>
         </is>
       </c>
       <c r="I52" s="4" t="inlineStr">
         <is>
-          <t>Reduce the loss of per capita open space area</t>
+          <t>Reduction to under 30 ha on average per day by 2030</t>
         </is>
       </c>
       <c r="J52" s="4" t="inlineStr">
         <is>
-          <t>Verringerung</t>
+          <t>Senkung auf unter 30 ha pro Tag bis 2030</t>
         </is>
       </c>
       <c r="K52" s="4" t="inlineStr">
         <is>
-          <t>reduce the loss</t>
+          <t>reduction to under 30 ha per day by 2030</t>
         </is>
       </c>
       <c r="L52" s="4" t="inlineStr">
         <is>
-          <t>Freiraumverlust</t>
+          <t>Anstieg der Siedlungs- und Verkehrsfläche</t>
         </is>
       </c>
       <c r="M52" s="4" t="inlineStr">
         <is>
-          <t>Loss of open space area</t>
+          <t>Expansion of settlement and transport area</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="53">
       <c r="A53" s="4" t="inlineStr">
         <is>
-          <t>Z11_B01_P01_Ib03_I01</t>
+          <t>Z11_B01_P01_Ib02_I01</t>
         </is>
       </c>
       <c r="B53" s="4" t="inlineStr">
         <is>
-          <t>Z11_B01_P01_Ib03</t>
+          <t>Z11_B01_P01_Ib02</t>
         </is>
       </c>
       <c r="C53" s="4" t="inlineStr">
         <is>
-          <t>11.1.c</t>
+          <t>11.1.b</t>
         </is>
       </c>
       <c r="D53" s="4" t="inlineStr">
         <is>
-          <t>Siedlungsdichte</t>
+          <t>Freiraumverlust</t>
         </is>
       </c>
       <c r="E53" s="4" t="inlineStr">
         <is>
-          <t>Density of settlements</t>
+          <t>Loss of open space area</t>
         </is>
       </c>
       <c r="F53" s="4" t="inlineStr">
         <is>
-          <t>Siedlungsdichte</t>
+          <t>Freiraumverlust</t>
         </is>
       </c>
       <c r="G53" s="4" t="inlineStr">
         <is>
-          <t>Density of settlements</t>
+          <t>Loss of open space area</t>
         </is>
       </c>
       <c r="H53" s="4" t="inlineStr">
         <is>
-          <t>Keine Verringerung der Siedlungsdichte</t>
+          <t>Verringerung des einwohnerbezogenen Freiflächenverlustes</t>
         </is>
       </c>
       <c r="I53" s="4" t="inlineStr">
         <is>
-          <t>No reduction in density of settlements</t>
+          <t>Reduce the loss of per capita open space area</t>
         </is>
       </c>
       <c r="J53" s="4" t="inlineStr">
         <is>
-          <t>keine Verringerung</t>
+          <t>Verringerung</t>
         </is>
       </c>
       <c r="K53" s="4" t="inlineStr">
         <is>
-          <t>no reduction</t>
+          <t>reduce the loss</t>
         </is>
       </c>
       <c r="L53" s="4" t="inlineStr">
         <is>
-          <t>Siedlungsdichte</t>
+          <t>Freiraumverlust</t>
         </is>
       </c>
       <c r="M53" s="4" t="inlineStr">
         <is>
-          <t>Density of settlements</t>
+          <t>Loss of open space area</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="54">
       <c r="A54" s="4" t="inlineStr">
         <is>
-          <t>Z11_B02_P01_Ib01_I01</t>
+          <t>Z11_B01_P01_Ib03_I01</t>
         </is>
       </c>
       <c r="B54" s="4" t="inlineStr">
         <is>
-          <t>Z11_B02_P01_Ib01</t>
+          <t>Z11_B01_P01_Ib03</t>
         </is>
       </c>
       <c r="C54" s="4" t="inlineStr">
         <is>
-          <t>11.2.a</t>
+          <t>11.1.c</t>
         </is>
       </c>
       <c r="D54" s="4" t="inlineStr">
         <is>
-          <t>Endenergieverbrauch im Güterverkehr</t>
+          <t>Siedlungsdichte</t>
         </is>
       </c>
       <c r="E54" s="4" t="inlineStr">
         <is>
-          <t>Energy consumption in goods transport</t>
+          <t>Density of settlements</t>
         </is>
       </c>
       <c r="F54" s="4" t="inlineStr">
         <is>
-          <t>Endenergieverbrauch im Güterverkehr</t>
+          <t>Siedlungsdichte</t>
         </is>
       </c>
       <c r="G54" s="4" t="inlineStr">
         <is>
-          <t>Final energy consumption in goods transport</t>
+          <t>Density of settlements</t>
         </is>
       </c>
       <c r="H54" s="4" t="inlineStr">
         <is>
-          <t>Senkung um 15 bis 20 % bis 2030</t>
+          <t>Keine Verringerung der Siedlungsdichte</t>
         </is>
       </c>
       <c r="I54" s="4" t="inlineStr">
         <is>
-          <t>Reduction by 15–20 % by 2030</t>
+          <t>No reduction in density of settlements</t>
         </is>
       </c>
       <c r="J54" s="4" t="inlineStr">
         <is>
-          <t>Senkung um 15 bis 20 % bis 2030</t>
+          <t>keine Verringerung</t>
         </is>
       </c>
       <c r="K54" s="4" t="inlineStr">
         <is>
-          <t>reduction by 15-20 % by 2030</t>
+          <t>no reduction</t>
         </is>
       </c>
       <c r="L54" s="4" t="inlineStr">
         <is>
-          <t>Endenergieverbrauch im Güterverkehr</t>
+          <t>Siedlungsdichte</t>
         </is>
       </c>
       <c r="M54" s="4" t="inlineStr">
         <is>
-          <t>Final energy consumption in goods transport</t>
+          <t>Density of settlements</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="55">
       <c r="A55" s="4" t="inlineStr">
         <is>
-          <t>Z11_B02_P01_Ib02_I01</t>
+          <t>Z11_B02_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B55" s="4" t="inlineStr">
         <is>
-          <t>Z11_B02_P01_Ib02</t>
+          <t>Z11_B02_P01_Ib01</t>
         </is>
       </c>
       <c r="C55" s="4" t="inlineStr">
         <is>
-          <t>11.2.b</t>
+          <t>11.2.a</t>
         </is>
       </c>
       <c r="D55" s="4" t="inlineStr">
         <is>
-          <t>Endenergieverbrauch im Personenverkehr</t>
+          <t>Endenergieverbrauch im Güterverkehr</t>
         </is>
       </c>
       <c r="E55" s="4" t="inlineStr">
         <is>
-          <t>Energy consumption in passenger transport</t>
+          <t>Energy consumption in goods transport</t>
         </is>
       </c>
       <c r="F55" s="4" t="inlineStr">
         <is>
-          <t>Endenergieverbrauch im Personenverkehr</t>
+          <t>Endenergieverbrauch im Güterverkehr</t>
         </is>
       </c>
       <c r="G55" s="4" t="inlineStr">
         <is>
-          <t>Final energy consumption in passenger transport</t>
+          <t>Final energy consumption in goods transport</t>
         </is>
       </c>
       <c r="H55" s="4" t="inlineStr">
@@ -4134,354 +4134,354 @@
       </c>
       <c r="L55" s="4" t="inlineStr">
         <is>
-          <t>Endenergieverbrauch im Personenverkehr</t>
+          <t>Endenergieverbrauch im Güterverkehr</t>
         </is>
       </c>
       <c r="M55" s="4" t="inlineStr">
         <is>
-          <t>Final energy consumption in passenger transport</t>
+          <t>Final energy consumption in goods transport</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="56">
       <c r="A56" s="4" t="inlineStr">
         <is>
-          <t>Z11_B02_P01_Ib03_I01</t>
+          <t>Z11_B02_P01_Ib02_I01</t>
         </is>
       </c>
       <c r="B56" s="4" t="inlineStr">
         <is>
-          <t>Z11_B02_P01_Ib03</t>
+          <t>Z11_B02_P01_Ib02</t>
         </is>
       </c>
       <c r="C56" s="4" t="inlineStr">
         <is>
-          <t>11.2.c</t>
+          <t>11.2.b</t>
         </is>
       </c>
       <c r="D56" s="4" t="inlineStr">
         <is>
-          <t>Reisezeit mit öffentlichen Verkehrsmitteln</t>
+          <t>Endenergieverbrauch im Personenverkehr</t>
         </is>
       </c>
       <c r="E56" s="4" t="inlineStr">
         <is>
-          <t>Average travel time by public transport</t>
+          <t>Energy consumption in passenger transport</t>
         </is>
       </c>
       <c r="F56" s="4" t="inlineStr">
         <is>
-          <t>Erreichbarkeit von Mittel- und Oberzentren mit öffentlichen Verkehrsmitteln</t>
+          <t>Endenergieverbrauch im Personenverkehr</t>
         </is>
       </c>
       <c r="G56" s="4" t="inlineStr">
         <is>
-          <t>Accessibility of medium-sized and large cities by public transport</t>
+          <t>Final energy consumption in passenger transport</t>
         </is>
       </c>
       <c r="H56" s="4" t="inlineStr">
         <is>
-          <t>Verringerung der durchschnittlichen Reisezeit mit öffentlichen Verkehrsmitteln</t>
+          <t>Senkung um 15 bis 20 % bis 2030</t>
         </is>
       </c>
       <c r="I56" s="4" t="inlineStr">
         <is>
-          <t>Reduction of average travel time by public transport</t>
+          <t>Reduction by 15–20 % by 2030</t>
         </is>
       </c>
       <c r="J56" s="4" t="inlineStr">
         <is>
-          <t>Verringerung</t>
+          <t>Senkung um 15 bis 20 % bis 2030</t>
         </is>
       </c>
       <c r="K56" s="4" t="inlineStr">
         <is>
-          <t>reduction</t>
+          <t>reduction by 15-20 % by 2030</t>
         </is>
       </c>
       <c r="L56" s="4" t="inlineStr">
         <is>
-          <t>Erreichbarkeit von Mittel- und Oberzentren mit öffentlichen Verkehrsmitteln</t>
+          <t>Endenergieverbrauch im Personenverkehr</t>
         </is>
       </c>
       <c r="M56" s="4" t="inlineStr">
         <is>
-          <t>Accessibility of medium-sized and large cities by public transport</t>
+          <t>Final energy consumption in passenger transport</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="57">
       <c r="A57" s="4" t="inlineStr">
         <is>
-          <t>Z11_B03_P01_Ib01_I01</t>
+          <t>Z11_B02_P01_Ib03_I01</t>
         </is>
       </c>
       <c r="B57" s="4" t="inlineStr">
         <is>
-          <t>Z11_B03_P01_Ib01</t>
+          <t>Z11_B02_P01_Ib03</t>
         </is>
       </c>
       <c r="C57" s="4" t="inlineStr">
         <is>
-          <t>11.3</t>
+          <t>11.2.c</t>
         </is>
       </c>
       <c r="D57" s="4" t="inlineStr">
         <is>
-          <t>Durch Wohnkosten überlastete Personen</t>
+          <t>Reisezeit mit öffentlichen Verkehrsmitteln</t>
         </is>
       </c>
       <c r="E57" s="4" t="inlineStr">
         <is>
-          <t>Persons overburdened by housing costs</t>
+          <t>Average travel time by public transport</t>
         </is>
       </c>
       <c r="F57" s="4" t="inlineStr">
         <is>
-          <t>Überlastung durch Wohnkosten</t>
+          <t>Erreichbarkeit von Mittel- und Oberzentren mit öffentlichen Verkehrsmitteln</t>
         </is>
       </c>
       <c r="G57" s="4" t="inlineStr">
         <is>
-          <t>Housing cost overload</t>
+          <t>Accessibility of medium-sized and large cities by public transport</t>
         </is>
       </c>
       <c r="H57" s="4" t="inlineStr">
         <is>
-          <t>Senkung des Anteils der überlasteten Personen an der Bevölkerung auf 13 % bis 2030</t>
+          <t>Verringerung der durchschnittlichen Reisezeit mit öffentlichen Verkehrsmitteln</t>
         </is>
       </c>
       <c r="I57" s="4" t="inlineStr">
         <is>
-          <t>Reduce the proportion of people who are overburdened to 13 % by 2030</t>
+          <t>Reduction of average travel time by public transport</t>
         </is>
       </c>
       <c r="J57" s="4" t="inlineStr">
         <is>
-          <t>Senkung auf 13 % bis 2030</t>
+          <t>Verringerung</t>
         </is>
       </c>
       <c r="K57" s="4" t="inlineStr">
         <is>
-          <t>reduce to 13 % by 2030</t>
+          <t>reduction</t>
         </is>
       </c>
       <c r="L57" s="4" t="inlineStr">
         <is>
-          <t>Überlastung durch Wohnkosten</t>
+          <t>Erreichbarkeit von Mittel- und Oberzentren mit öffentlichen Verkehrsmitteln</t>
         </is>
       </c>
       <c r="M57" s="4" t="inlineStr">
         <is>
-          <t>Housing cost overload</t>
+          <t>Accessibility of medium-sized and large cities by public transport</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="58">
       <c r="A58" s="4" t="inlineStr">
         <is>
-          <t>Z11_B04_P01_Ib01_I01</t>
+          <t>Z11_B03_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B58" s="4" t="inlineStr">
         <is>
-          <t>Z11_B04_P01_Ib01</t>
+          <t>Z11_B03_P01_Ib01</t>
         </is>
       </c>
       <c r="C58" s="4" t="inlineStr">
         <is>
-          <t>11.4</t>
+          <t>11.3</t>
         </is>
       </c>
       <c r="D58" s="4" t="inlineStr">
         <is>
-          <t>Objekte in der Deutschen Digitalen Bibliothek</t>
+          <t>Durch Wohnkosten überlastete Personen</t>
         </is>
       </c>
       <c r="E58" s="4" t="inlineStr">
         <is>
-          <t>Objects in the German Digital Library</t>
+          <t>Persons overburdened by housing costs</t>
         </is>
       </c>
       <c r="F58" s="4" t="inlineStr">
         <is>
-          <t>Zahl der Objekte in der Deutschen Digitalen Bibliothek</t>
+          <t>Überlastung durch Wohnkosten</t>
         </is>
       </c>
       <c r="G58" s="4" t="inlineStr">
         <is>
-          <t>Number of objects in the German Digital Library</t>
+          <t>Housing cost overload</t>
         </is>
       </c>
       <c r="H58" s="4" t="inlineStr">
         <is>
-          <t>Steigerung der Zahl der in der Deutschen Digitalen Bibliothek vernetzten Objekte auf 50 Millionen bis 2030</t>
+          <t>Senkung des Anteils der überlasteten Personen an der Bevölkerung auf 13 % bis 2030</t>
         </is>
       </c>
       <c r="I58" s="4" t="inlineStr">
         <is>
-          <t>Increase in the number of objects in the network of the German Digital Library to 50 million by 2030</t>
+          <t>Reduce the proportion of people who are overburdened to 13 % by 2030</t>
         </is>
       </c>
       <c r="J58" s="4" t="inlineStr">
         <is>
-          <t>Steigerung auf 50 Millionen bis 2030</t>
+          <t>Senkung auf 13 % bis 2030</t>
         </is>
       </c>
       <c r="K58" s="4" t="inlineStr">
         <is>
-          <t>increase to 50 million by 2030</t>
+          <t>reduce to 13 % by 2030</t>
         </is>
       </c>
       <c r="L58" s="4" t="inlineStr">
         <is>
-          <t>Zahl der Objekte in der Deutschen Digitalen Bibliothek</t>
+          <t>Überlastung durch Wohnkosten</t>
         </is>
       </c>
       <c r="M58" s="4" t="inlineStr">
         <is>
-          <t>Number of objects in the German Digital Library</t>
+          <t>Housing cost overload</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="59">
       <c r="A59" s="4" t="inlineStr">
         <is>
-          <t>Z12_B01_P01_Ib01_I01</t>
+          <t>Z11_B04_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B59" s="4" t="inlineStr">
         <is>
-          <t>Z12_B01_P01_Ib01</t>
+          <t>Z11_B04_P01_Ib01</t>
         </is>
       </c>
       <c r="C59" s="4" t="inlineStr">
         <is>
-          <t>12.1.a</t>
+          <t>11.4</t>
         </is>
       </c>
       <c r="D59" s="4" t="inlineStr">
         <is>
-          <t>Produkte mit Umweltzeichen</t>
+          <t>Objekte in der Deutschen Digitalen Bibliothek</t>
         </is>
       </c>
       <c r="E59" s="4" t="inlineStr">
         <is>
-          <t>Products certified by eco-labelling schemes</t>
+          <t>Objects in the German Digital Library</t>
         </is>
       </c>
       <c r="F59" s="4" t="inlineStr">
         <is>
-          <t>Marktanteil von Produkten mit staatlichen Umweltzeichen</t>
+          <t>Zahl der Objekte in der Deutschen Digitalen Bibliothek</t>
         </is>
       </c>
       <c r="G59" s="4" t="inlineStr">
         <is>
-          <t>Market share of products certified by publicly managed eco-labelling schemes</t>
+          <t>Number of objects in the German Digital Library</t>
         </is>
       </c>
       <c r="H59" s="4" t="inlineStr">
         <is>
-          <t>Steigerung des Marktanteils auf 34 % bis 2030</t>
+          <t>Steigerung der Zahl der in der Deutschen Digitalen Bibliothek vernetzten Objekte auf 50 Millionen bis 2030</t>
         </is>
       </c>
       <c r="I59" s="4" t="inlineStr">
         <is>
-          <t>Increase the market share to 34 % by 2030</t>
+          <t>Increase in the number of objects in the network of the German Digital Library to 50 million by 2030</t>
         </is>
       </c>
       <c r="J59" s="4" t="inlineStr">
         <is>
-          <t>Steigerung des Marktanteils auf 34 % bis 2030</t>
+          <t>Steigerung auf 50 Millionen bis 2030</t>
         </is>
       </c>
       <c r="K59" s="4" t="inlineStr">
         <is>
-          <t>increase the market share to 34 % by 2030</t>
+          <t>increase to 50 million by 2030</t>
         </is>
       </c>
       <c r="L59" s="4" t="inlineStr">
         <is>
-          <t>Marktanteil von Produkten mit staatlichen Umweltzeichen</t>
+          <t>Zahl der Objekte in der Deutschen Digitalen Bibliothek</t>
         </is>
       </c>
       <c r="M59" s="4" t="inlineStr">
         <is>
-          <t>Market share of products certified by publicly managed eco-labelling schemes</t>
+          <t>Number of objects in the German Digital Library</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="60">
       <c r="A60" s="4" t="inlineStr">
         <is>
-          <t>Z12_B01_P01_Ib02_I01</t>
+          <t>Z12_B01_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B60" s="4" t="inlineStr">
         <is>
-          <t>Z12_B01_P01_Ib02</t>
+          <t>Z12_B01_P01_Ib01</t>
         </is>
       </c>
       <c r="C60" s="4" t="inlineStr">
         <is>
-          <t>12.1.ba</t>
+          <t>12.1.a</t>
         </is>
       </c>
       <c r="D60" s="4" t="inlineStr">
         <is>
-          <t>ba) Rohstoffeinsatz</t>
+          <t>Produkte mit Umweltzeichen</t>
         </is>
       </c>
       <c r="E60" s="4" t="inlineStr">
         <is>
-          <t>ba) Use of raw materials</t>
+          <t>Products certified by eco-labelling schemes</t>
         </is>
       </c>
       <c r="F60" s="4" t="inlineStr">
         <is>
-          <t>Globale Umweltinanspruchnahme durch den Konsum privater Haushalte - Rohstoffeinsatz</t>
+          <t>Marktanteil von Produkten mit staatlichen Umweltzeichen</t>
         </is>
       </c>
       <c r="G60" s="4" t="inlineStr">
         <is>
-          <t>Global environmental impact by private household consumption – use of raw materials</t>
+          <t>Market share of products certified by publicly managed eco-labelling schemes</t>
         </is>
       </c>
       <c r="H60" s="4" t="inlineStr">
         <is>
-          <t>Kontinuierliche Reduzierung </t>
+          <t>Steigerung des Marktanteils auf 34 % bis 2030</t>
         </is>
       </c>
       <c r="I60" s="4" t="inlineStr">
         <is>
-          <t>Steady reduction</t>
+          <t>Increase the market share to 34 % by 2030</t>
         </is>
       </c>
       <c r="J60" s="4" t="inlineStr">
         <is>
-          <t>kontinuierliche Reduzierung</t>
+          <t>Steigerung des Marktanteils auf 34 % bis 2030</t>
         </is>
       </c>
       <c r="K60" s="4" t="inlineStr">
         <is>
-          <t>steady reduction</t>
+          <t>increase the market share to 34 % by 2030</t>
         </is>
       </c>
       <c r="L60" s="4" t="inlineStr">
         <is>
-          <t>Direkter und indirekter Rohstoffeinsatz</t>
+          <t>Marktanteil von Produkten mit staatlichen Umweltzeichen</t>
         </is>
       </c>
       <c r="M60" s="4" t="inlineStr">
         <is>
-          <t>Direct and indirect use of raw materials</t>
+          <t>Market share of products certified by publicly managed eco-labelling schemes</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="61">
       <c r="A61" s="4" t="inlineStr">
         <is>
-          <t>Z12_B01_P01_Ib02_I02</t>
+          <t>Z12_B01_P01_Ib02_I01</t>
         </is>
       </c>
       <c r="B61" s="4" t="inlineStr">
@@ -4491,27 +4491,27 @@
       </c>
       <c r="C61" s="4" t="inlineStr">
         <is>
-          <t>12.1.bb</t>
+          <t>12.1.ba</t>
         </is>
       </c>
       <c r="D61" s="4" t="inlineStr">
         <is>
-          <t>bb) Energieverbrauch</t>
+          <t>ba) Rohstoffeinsatz</t>
         </is>
       </c>
       <c r="E61" s="4" t="inlineStr">
         <is>
-          <t>bb) Energy consumption</t>
+          <t>ba) Use of raw materials</t>
         </is>
       </c>
       <c r="F61" s="4" t="inlineStr">
         <is>
-          <t>Globale Umweltinanspruchnahme durch den Konsum privater Haushalte - Energieverbrauch</t>
+          <t>Globale Umweltinanspruchnahme durch den Konsum privater Haushalte - Rohstoffeinsatz</t>
         </is>
       </c>
       <c r="G61" s="4" t="inlineStr">
         <is>
-          <t>Global environmental impact by private household consumption – energy consumption</t>
+          <t>Global environmental impact by private household consumption – use of raw materials</t>
         </is>
       </c>
       <c r="H61" s="4" t="inlineStr">
@@ -4536,19 +4536,19 @@
       </c>
       <c r="L61" s="4" t="inlineStr">
         <is>
-          <t>Direkter und indirekter Energieverbrauch</t>
+          <t>Direkter und indirekter Rohstoffeinsatz</t>
         </is>
       </c>
       <c r="M61" s="4" t="inlineStr">
         <is>
-          <t>Direct and indirect energy consumption</t>
+          <t>Direct and indirect use of raw materials</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="62">
       <c r="A62" s="4" t="inlineStr">
         <is>
-          <t>Z12_B01_P01_Ib02_I03</t>
+          <t>Z12_B01_P01_Ib02_I02</t>
         </is>
       </c>
       <c r="B62" s="4" t="inlineStr">
@@ -4558,27 +4558,27 @@
       </c>
       <c r="C62" s="4" t="inlineStr">
         <is>
-          <t>12.1.bc</t>
+          <t>12.1.bb</t>
         </is>
       </c>
       <c r="D62" s="4" t="inlineStr">
         <is>
-          <t>bc) CO2-Emissionen</t>
+          <t>bb) Energieverbrauch</t>
         </is>
       </c>
       <c r="E62" s="4" t="inlineStr">
         <is>
-          <t>bc) CO2 emissions</t>
+          <t>bb) Energy consumption</t>
         </is>
       </c>
       <c r="F62" s="4" t="inlineStr">
         <is>
-          <t>Globale Umweltinanspruchnahme durch den Konsum privater Haushalte - CO2-Emissionen</t>
+          <t>Globale Umweltinanspruchnahme durch den Konsum privater Haushalte - Energieverbrauch</t>
         </is>
       </c>
       <c r="G62" s="4" t="inlineStr">
         <is>
-          <t>Global environmental impact by private household consumption – CO2 emissions</t>
+          <t>Global environmental impact by private household consumption – energy consumption</t>
         </is>
       </c>
       <c r="H62" s="4" t="inlineStr">
@@ -4603,153 +4603,153 @@
       </c>
       <c r="L62" s="4" t="inlineStr">
         <is>
-          <t>Direkte und indirekte CO2-Emissionen</t>
+          <t>Direkter und indirekter Energieverbrauch</t>
         </is>
       </c>
       <c r="M62" s="4" t="inlineStr">
         <is>
-          <t>Direct and indirect CO2 emissions</t>
+          <t>Direct and indirect energy consumption</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="63">
       <c r="A63" s="4" t="inlineStr">
         <is>
-          <t>Z12_B02_P01_Ib01_I01</t>
+          <t>Z12_B01_P01_Ib02_I03</t>
         </is>
       </c>
       <c r="B63" s="4" t="inlineStr">
         <is>
-          <t>Z12_B02_P01_Ib01</t>
+          <t>Z12_B01_P01_Ib02</t>
         </is>
       </c>
       <c r="C63" s="4" t="inlineStr">
         <is>
-          <t>12.2</t>
+          <t>12.1.bc</t>
         </is>
       </c>
       <c r="D63" s="4" t="inlineStr">
         <is>
-          <t>Umweltmanagement EMAS</t>
+          <t>bc) CO2-Emissionen</t>
         </is>
       </c>
       <c r="E63" s="4" t="inlineStr">
         <is>
-          <t>EMAS eco-management</t>
+          <t>bc) CO2 emissions</t>
         </is>
       </c>
       <c r="F63" s="4" t="inlineStr">
         <is>
-          <t>Umweltmanagement EMAS</t>
+          <t>Globale Umweltinanspruchnahme durch den Konsum privater Haushalte - CO2-Emissionen</t>
         </is>
       </c>
       <c r="G63" s="4" t="inlineStr">
         <is>
-          <t>EMAS eco-management</t>
+          <t>Global environmental impact by private household consumption – CO2 emissions</t>
         </is>
       </c>
       <c r="H63" s="4" t="inlineStr">
         <is>
-          <t>5 000 Organisationsstandorte bis 2030</t>
+          <t>Kontinuierliche Reduzierung </t>
         </is>
       </c>
       <c r="I63" s="4" t="inlineStr">
         <is>
-          <t>5,000 locations of organisation by 2030</t>
+          <t>Steady reduction</t>
         </is>
       </c>
       <c r="J63" s="4" t="inlineStr">
         <is>
-          <t>5 000 Organisationsstandorte bis 2030</t>
+          <t>kontinuierliche Reduzierung</t>
         </is>
       </c>
       <c r="K63" s="4" t="inlineStr">
         <is>
-          <t>5,000 locations of organisation by 2030</t>
+          <t>steady reduction</t>
         </is>
       </c>
       <c r="L63" s="4" t="inlineStr">
         <is>
-          <t>Umweltmanagement EMAS</t>
+          <t>Direkte und indirekte CO2-Emissionen</t>
         </is>
       </c>
       <c r="M63" s="4" t="inlineStr">
         <is>
-          <t>EMAS eco-management</t>
+          <t>Direct and indirect CO2 emissions</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="64">
       <c r="A64" s="4" t="inlineStr">
         <is>
-          <t>Z12_B03_P01_Ib01_I01</t>
+          <t>Z12_B02_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B64" s="4" t="inlineStr">
         <is>
-          <t>Z12_B03_P01_Ib01</t>
+          <t>Z12_B02_P01_Ib01</t>
         </is>
       </c>
       <c r="C64" s="4" t="inlineStr">
         <is>
-          <t>12.3.a</t>
+          <t>12.2</t>
         </is>
       </c>
       <c r="D64" s="4" t="inlineStr">
         <is>
-          <t>a) Anteil Papier mit Blauem Engel der Bundesverwaltung</t>
+          <t>Umweltmanagement EMAS</t>
         </is>
       </c>
       <c r="E64" s="4" t="inlineStr">
         <is>
-          <t>a) Share of paper bearing the Blue Angel label of the federal administration</t>
+          <t>EMAS eco-management</t>
         </is>
       </c>
       <c r="F64" s="4" t="inlineStr">
         <is>
-          <t>Anteil des Papiers mit Blauem Engel am Gesamtpapierverbrauch der unmittelbaren Bundesverwaltung</t>
+          <t>Umweltmanagement EMAS</t>
         </is>
       </c>
       <c r="G64" s="4" t="inlineStr">
         <is>
-          <t>Paper bearing the Blue Angel label as a proportion of the total paper consumption of the direct federal administration</t>
+          <t>EMAS eco-management</t>
         </is>
       </c>
       <c r="H64" s="4" t="inlineStr">
         <is>
-          <t>Steigerung des Anteils auf 95 % bis 2020</t>
+          <t>5 000 Organisationsstandorte bis 2030</t>
         </is>
       </c>
       <c r="I64" s="4" t="inlineStr">
         <is>
-          <t>Increase the proportion to 95 % by 2020</t>
+          <t>5,000 locations of organisation by 2030</t>
         </is>
       </c>
       <c r="J64" s="4" t="inlineStr">
         <is>
-          <t>Steigerung auf 95 % bis 2020</t>
+          <t>5 000 Organisationsstandorte bis 2030</t>
         </is>
       </c>
       <c r="K64" s="4" t="inlineStr">
         <is>
-          <t>increase to 95 % by 2020</t>
+          <t>5,000 locations of organisation by 2030</t>
         </is>
       </c>
       <c r="L64" s="4" t="inlineStr">
         <is>
-          <t>Anteil des Papiers mit Blauem Engel am Gesamtpapierverbrauch der unmittelbaren Bundesverwaltung</t>
+          <t>Umweltmanagement EMAS</t>
         </is>
       </c>
       <c r="M64" s="4" t="inlineStr">
         <is>
-          <t>Paper bearing the Blue Angel label as a proportion of the total paper consumption of the direct federal administration</t>
+          <t>EMAS eco-management</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="65">
       <c r="A65" s="4" t="inlineStr">
         <is>
-          <t>Z12_B03_P01_Ib01_I02</t>
+          <t>Z12_B03_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B65" s="4" t="inlineStr">
@@ -4759,265 +4759,265 @@
       </c>
       <c r="C65" s="4" t="inlineStr">
         <is>
-          <t>12.3.b</t>
+          <t>12.3.a</t>
         </is>
       </c>
       <c r="D65" s="4" t="inlineStr">
         <is>
-          <t>b) CO2-Emissionen der Kfz der öffentlichen Hand</t>
+          <t>a) Anteil Papier mit Blauem Engel der Bundesverwaltung</t>
         </is>
       </c>
       <c r="E65" s="4" t="inlineStr">
         <is>
-          <t>b) CO2 emissions of vehicles in the public sector</t>
+          <t>a) Share of paper bearing the Blue Angel label of the federal administration</t>
         </is>
       </c>
       <c r="F65" s="4" t="inlineStr">
         <is>
-          <t>CO2-Emissionen je Fahrleistungen der Kraftfahrzeuge der öffentlichen Hand</t>
+          <t>Anteil des Papiers mit Blauem Engel am Gesamtpapierverbrauch der unmittelbaren Bundesverwaltung</t>
         </is>
       </c>
       <c r="G65" s="4" t="inlineStr">
         <is>
-          <t>CO2 emissions of commercially available vehicles in the public sector</t>
+          <t>Paper bearing the Blue Angel label as a proportion of the total paper consumption of the direct federal administration</t>
         </is>
       </c>
       <c r="H65" s="4" t="inlineStr">
         <is>
-          <t>Signifikante Senkung</t>
+          <t>Steigerung des Anteils auf 95 % bis 2020</t>
         </is>
       </c>
       <c r="I65" s="4" t="inlineStr">
         <is>
-          <t>Significantly reduce</t>
+          <t>Increase the proportion to 95 % by 2020</t>
         </is>
       </c>
       <c r="J65" s="4" t="inlineStr">
         <is>
-          <t>signifikante Senkung</t>
+          <t>Steigerung auf 95 % bis 2020</t>
         </is>
       </c>
       <c r="K65" s="4" t="inlineStr">
         <is>
-          <t>significantly reduce</t>
+          <t>increase to 95 % by 2020</t>
         </is>
       </c>
       <c r="L65" s="4" t="inlineStr">
         <is>
-          <t>CO2-Emissionen je Fahrleistungen der Kraftfahrzeuge der öffentlichen Hand</t>
+          <t>Anteil des Papiers mit Blauem Engel am Gesamtpapierverbrauch der unmittelbaren Bundesverwaltung</t>
         </is>
       </c>
       <c r="M65" s="4" t="inlineStr">
         <is>
-          <t>CO2 emissions of commercially available vehicles in the public sector</t>
+          <t>Paper bearing the Blue Angel label as a proportion of the total paper consumption of the direct federal administration</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="66">
       <c r="A66" s="4" t="inlineStr">
         <is>
-          <t>Z13_B01_P01_Ib01_I01</t>
+          <t>Z12_B03_P01_Ib01_I02</t>
         </is>
       </c>
       <c r="B66" s="4" t="inlineStr">
         <is>
-          <t>Z13_B01_P01_Ib01</t>
+          <t>Z12_B03_P01_Ib01</t>
         </is>
       </c>
       <c r="C66" s="4" t="inlineStr">
         <is>
-          <t>13.1.a</t>
+          <t>12.3.b</t>
         </is>
       </c>
       <c r="D66" s="4" t="inlineStr">
         <is>
-          <t>Treibhausgasemissionen</t>
+          <t>b) CO2-Emissionen der Kfz der öffentlichen Hand</t>
         </is>
       </c>
       <c r="E66" s="4" t="inlineStr">
         <is>
-          <t>Greenhouse gas emissions</t>
+          <t>b) CO2 emissions of vehicles in the public sector</t>
         </is>
       </c>
       <c r="F66" s="4" t="inlineStr">
         <is>
-          <t>Treibhausgasemissionen</t>
+          <t>CO2-Emissionen je Fahrleistungen der Kraftfahrzeuge der öffentlichen Hand</t>
         </is>
       </c>
       <c r="G66" s="4" t="inlineStr">
         <is>
-          <t>Greenhouse gas emissions</t>
+          <t>CO2 emissions of commercially available vehicles in the public sector</t>
         </is>
       </c>
       <c r="H66" s="4" t="inlineStr">
         <is>
-          <t>Minderung um mindestens 65 % bis 2030, um mindestens 88 % bis 2040; Erreichung der Treibhausgasneutralität bis 2045</t>
+          <t>Signifikante Senkung</t>
         </is>
       </c>
       <c r="I66" s="4" t="inlineStr">
         <is>
-          <t>Reduce by at least 65 % by 2030 and by at least 88 % by 2040; greenhouse gas neutrality to be achieved by 2045</t>
+          <t>Significantly reduce</t>
         </is>
       </c>
       <c r="J66" s="4" t="inlineStr">
         <is>
-          <t>Minderung um 65 % bis 2030</t>
+          <t>signifikante Senkung</t>
         </is>
       </c>
       <c r="K66" s="4" t="inlineStr">
         <is>
-          <t>reduce by 65 % by 2030</t>
+          <t>significantly reduce</t>
         </is>
       </c>
       <c r="L66" s="4" t="inlineStr">
         <is>
-          <t>Treibhausgasemissionen</t>
+          <t>CO2-Emissionen je Fahrleistungen der Kraftfahrzeuge der öffentlichen Hand</t>
         </is>
       </c>
       <c r="M66" s="4" t="inlineStr">
         <is>
-          <t>Greenhouse gas emissions</t>
+          <t>CO2 emissions of commercially available vehicles in the public sector</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="67">
       <c r="A67" s="4" t="inlineStr">
         <is>
-          <t>Z13_B01_P02_Ib01_I01</t>
+          <t>Z13_B01_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B67" s="4" t="inlineStr">
         <is>
-          <t>Z13_B01_P02_Ib01</t>
+          <t>Z13_B01_P01_Ib01</t>
         </is>
       </c>
       <c r="C67" s="4" t="inlineStr">
         <is>
-          <t>13.1.b</t>
+          <t>13.1.a</t>
         </is>
       </c>
       <c r="D67" s="4" t="inlineStr">
         <is>
-          <t>Zahlungen zur Klimafinanzierung</t>
+          <t>Treibhausgasemissionen</t>
         </is>
       </c>
       <c r="E67" s="4" t="inlineStr">
         <is>
-          <t>Climate finance payments</t>
+          <t>Greenhouse gas emissions</t>
         </is>
       </c>
       <c r="F67" s="4" t="inlineStr">
         <is>
-          <t>Internationale Klimafinanzierung zur Reduktion von Treibhausgasen und zur Anpassung an den Klimawandel</t>
+          <t>Treibhausgasemissionen</t>
         </is>
       </c>
       <c r="G67" s="4" t="inlineStr">
         <is>
-          <t>International climate finance for the reduction of greenhouse gases and adaptation to climate change</t>
+          <t>Greenhouse gas emissions</t>
         </is>
       </c>
       <c r="H67" s="4" t="inlineStr">
         <is>
-          <t>Erhöhung der internationalen Klimafinanzierung auf mindestens 6 Mrd. Euro bis spätestens 2025.</t>
+          <t>Minderung um mindestens 65 % bis 2030, um mindestens 88 % bis 2040; Erreichung der Treibhausgasneutralität bis 2045</t>
         </is>
       </c>
       <c r="I67" s="4" t="inlineStr">
         <is>
-          <t>Increase international climate finance to at least 6 billion euros by 2025 at the latest</t>
+          <t>Reduce by at least 65 % by 2030 and by at least 88 % by 2040; greenhouse gas neutrality to be achieved by 2045</t>
         </is>
       </c>
       <c r="J67" s="4" t="inlineStr">
         <is>
-          <t>Erhöhung auf 6 Mrd. Euro bis 2025</t>
+          <t>Minderung um 65 % bis 2030</t>
         </is>
       </c>
       <c r="K67" s="4" t="inlineStr">
         <is>
-          <t>increase to 6 bn euro by 2025</t>
+          <t>reduce by 65 % by 2030</t>
         </is>
       </c>
       <c r="L67" s="4" t="inlineStr">
         <is>
-          <t>Internationale Klimafinanzierung zur Reduktion von Treibhausgasen und zur Anpassung an den Klimawandel</t>
+          <t>Treibhausgasemissionen</t>
         </is>
       </c>
       <c r="M67" s="4" t="inlineStr">
         <is>
-          <t>International climate finance for the reduction of greenhouse gases and adaptation to climate change</t>
+          <t>Greenhouse gas emissions</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="68">
       <c r="A68" s="4" t="inlineStr">
         <is>
-          <t>Z14_B01_P01_Ib01_I01</t>
+          <t>Z13_B01_P02_Ib01_I01</t>
         </is>
       </c>
       <c r="B68" s="4" t="inlineStr">
         <is>
-          <t>Z14_B01_P01_Ib01</t>
+          <t>Z13_B01_P02_Ib01</t>
         </is>
       </c>
       <c r="C68" s="4" t="inlineStr">
         <is>
-          <t>14.1.aa</t>
+          <t>13.1.b</t>
         </is>
       </c>
       <c r="D68" s="4" t="inlineStr">
         <is>
-          <t>aa) Ostsee</t>
+          <t>Zahlungen zur Klimafinanzierung</t>
         </is>
       </c>
       <c r="E68" s="4" t="inlineStr">
         <is>
-          <t>aa) Baltic Sea</t>
+          <t>Climate finance payments</t>
         </is>
       </c>
       <c r="F68" s="4" t="inlineStr">
         <is>
-          <t>Stickstoffeintrag über die Zuflüsse in die Ostsee</t>
+          <t>Internationale Klimafinanzierung zur Reduktion von Treibhausgasen und zur Anpassung an den Klimawandel</t>
         </is>
       </c>
       <c r="G68" s="4" t="inlineStr">
         <is>
-          <t>Nitrogen input via the inflows into the Baltic Sea</t>
+          <t>International climate finance for the reduction of greenhouse gases and adaptation to climate change</t>
         </is>
       </c>
       <c r="H68" s="4" t="inlineStr">
         <is>
-          <t>Einhaltung des guten Zustands nach Oberflächengewässerverordnung (Jahresmittelwerte für Gesamtstickstoff bei in die Ostsee mündenden Flüssen sollen 2,6 Milligramm pro Liter nicht überschreiten)</t>
+          <t>Erhöhung der internationalen Klimafinanzierung auf mindestens 6 Mrd. Euro bis spätestens 2025.</t>
         </is>
       </c>
       <c r="I68" s="4" t="inlineStr">
         <is>
-          <t>Adherence to good quality in accordance with the Ordinance on the Protection of Surface Waters (Oberflächengewässerver-ordnung) (annual averages for total nitro-gen in rivers flowing into the Baltic may not exceed 2.6 mg/l)</t>
+          <t>Increase international climate finance to at least 6 billion euros by 2025 at the latest</t>
         </is>
       </c>
       <c r="J68" s="4" t="inlineStr">
         <is>
-          <t>Gesamtstickstoff in Zuflüssen unter 2,6 mg/l</t>
+          <t>Erhöhung auf 6 Mrd. Euro bis 2025</t>
         </is>
       </c>
       <c r="K68" s="4" t="inlineStr">
         <is>
-          <t>total nitrogen in the inflows below 2.6 mg/l</t>
+          <t>increase to 6 bn euro by 2025</t>
         </is>
       </c>
       <c r="L68" s="4" t="inlineStr">
         <is>
-          <t>Stickstoffeintrag über die Zuflüsse in die Ostsee</t>
+          <t>Internationale Klimafinanzierung zur Reduktion von Treibhausgasen und zur Anpassung an den Klimawandel</t>
         </is>
       </c>
       <c r="M68" s="4" t="inlineStr">
         <is>
-          <t>Nitrogen input via the inflows into the Baltic Sea</t>
+          <t>International climate finance for the reduction of greenhouse gases and adaptation to climate change</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="69">
       <c r="A69" s="4" t="inlineStr">
         <is>
-          <t>Z14_B01_P01_Ib01_I02</t>
+          <t>Z14_B01_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B69" s="4" t="inlineStr">
@@ -5027,332 +5027,332 @@
       </c>
       <c r="C69" s="4" t="inlineStr">
         <is>
-          <t>14.1.ab</t>
+          <t>14.1.aa</t>
         </is>
       </c>
       <c r="D69" s="4" t="inlineStr">
         <is>
-          <t>ab) Nordsee</t>
+          <t>aa) Ostsee</t>
         </is>
       </c>
       <c r="E69" s="4" t="inlineStr">
         <is>
-          <t>ab) North Sea</t>
+          <t>aa) Baltic Sea</t>
         </is>
       </c>
       <c r="F69" s="4" t="inlineStr">
         <is>
-          <t>Stickstoffeintrag über die Zuflüsse in die Nordsee</t>
+          <t>Stickstoffeintrag über die Zuflüsse in die Ostsee</t>
         </is>
       </c>
       <c r="G69" s="4" t="inlineStr">
         <is>
-          <t>Nitrogen input via the inflows into the North Sea</t>
+          <t>Nitrogen input via the inflows into the Baltic Sea</t>
         </is>
       </c>
       <c r="H69" s="4" t="inlineStr">
         <is>
-          <t>Einhaltung des guten Zustands nach Oberflächengewässerverordnung (Jahresmittelwerte für Gesamtstickstoff bei in die Nordsee mündenden Flüssen sollen 2,8 Milligramm pro Liter nicht überschreiten)</t>
+          <t>Einhaltung des guten Zustands nach Oberflächengewässerverordnung (Jahresmittelwerte für Gesamtstickstoff bei in die Ostsee mündenden Flüssen sollen 2,6 Milligramm pro Liter nicht überschreiten)</t>
         </is>
       </c>
       <c r="I69" s="4" t="inlineStr">
         <is>
-          <t>Adherence to good quality in accordance with the Ordinance on the Protection of Surface Waters (annual averages for total nitrogen in rivers flowing into the North Sea may not exceed 2.8 mg/l)</t>
+          <t>Adherence to good quality in accordance with the Ordinance on the Protection of Surface Waters (Oberflächengewässerver-ordnung) (annual averages for total nitro-gen in rivers flowing into the Baltic may not exceed 2.6 mg/l)</t>
         </is>
       </c>
       <c r="J69" s="4" t="inlineStr">
         <is>
-          <t>Gesamtstickstoff in Zuflüssen unter 2,8 mg/l</t>
+          <t>Gesamtstickstoff in Zuflüssen unter 2,6 mg/l</t>
         </is>
       </c>
       <c r="K69" s="4" t="inlineStr">
         <is>
-          <t>total nitrogen in the inflows below 2.8 mg/l</t>
+          <t>total nitrogen in the inflows below 2.6 mg/l</t>
         </is>
       </c>
       <c r="L69" s="4" t="inlineStr">
         <is>
-          <t>Stickstoffeintrag über die Zuflüsse in die Nordsee</t>
+          <t>Stickstoffeintrag über die Zuflüsse in die Ostsee</t>
         </is>
       </c>
       <c r="M69" s="4" t="inlineStr">
         <is>
-          <t>Nitrogen input via the inflows into the North Sea</t>
+          <t>Nitrogen input via the inflows into the Baltic Sea</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="70">
       <c r="A70" s="4" t="inlineStr">
         <is>
-          <t>Z14_B01_P01_Ib02_I01</t>
+          <t>Z14_B01_P01_Ib01_I02</t>
         </is>
       </c>
       <c r="B70" s="4" t="inlineStr">
         <is>
-          <t>Z14_B01_P01_Ib02</t>
+          <t>Z14_B01_P01_Ib01</t>
         </is>
       </c>
       <c r="C70" s="4" t="inlineStr">
         <is>
-          <t>14.1.b</t>
+          <t>14.1.ab</t>
         </is>
       </c>
       <c r="D70" s="4" t="inlineStr">
         <is>
-          <t>Bewirtschaftung von Fischbeständen</t>
+          <t>ab) Nordsee</t>
         </is>
       </c>
       <c r="E70" s="4" t="inlineStr">
         <is>
-          <t>Fish stock management</t>
+          <t>ab) North Sea</t>
         </is>
       </c>
       <c r="F70" s="4" t="inlineStr">
         <is>
-          <t>Anteil der nachhaltig befischten Fischbestände in Nord- und Ostsee</t>
+          <t>Stickstoffeintrag über die Zuflüsse in die Nordsee</t>
         </is>
       </c>
       <c r="G70" s="4" t="inlineStr">
         <is>
-          <t>Share of sustainably fished stocks of fish in the North and Baltic Seas</t>
+          <t>Nitrogen input via the inflows into the North Sea</t>
         </is>
       </c>
       <c r="H70" s="4" t="inlineStr">
         <is>
-          <t>Alle wirtschaftlich genutzten Fischbestände sollen nach dem MSY-Ansatz nachhaltig bewirtschaftet werden bis 2020</t>
+          <t>Einhaltung des guten Zustands nach Oberflächengewässerverordnung (Jahresmittelwerte für Gesamtstickstoff bei in die Nordsee mündenden Flüssen sollen 2,8 Milligramm pro Liter nicht überschreiten)</t>
         </is>
       </c>
       <c r="I70" s="4" t="inlineStr">
         <is>
-          <t>All fish stocks used for commercial purpos-es to be sustainably managed in accordance with the Maximum Sustainable Yield (MSY) approach by 2020</t>
+          <t>Adherence to good quality in accordance with the Ordinance on the Protection of Surface Waters (annual averages for total nitrogen in rivers flowing into the North Sea may not exceed 2.8 mg/l)</t>
         </is>
       </c>
       <c r="J70" s="4" t="inlineStr">
         <is>
-          <t>nachhaltige Bewirtschaftung nach dem MSY-Ansatz bis 2020</t>
+          <t>Gesamtstickstoff in Zuflüssen unter 2,8 mg/l</t>
         </is>
       </c>
       <c r="K70" s="4" t="inlineStr">
         <is>
-          <t>sustainable management in accordance with the MSY approachby 2020</t>
+          <t>total nitrogen in the inflows below 2.8 mg/l</t>
         </is>
       </c>
       <c r="L70" s="4" t="inlineStr">
         <is>
-          <t>Anteil der nachhaltig befischten Fischbestände in Nord- und Ostsee</t>
+          <t>Stickstoffeintrag über die Zuflüsse in die Nordsee</t>
         </is>
       </c>
       <c r="M70" s="4" t="inlineStr">
         <is>
-          <t>Share of sustainably fished stocks of fish in the North and Baltic Seas</t>
+          <t>Nitrogen input via the inflows into the North Sea</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="71">
       <c r="A71" s="4" t="inlineStr">
         <is>
-          <t>Z15_B01_P01_Ib01_I01</t>
+          <t>Z14_B01_P01_Ib02_I01</t>
         </is>
       </c>
       <c r="B71" s="4" t="inlineStr">
         <is>
-          <t>Z15_B01_P01_Ib01</t>
+          <t>Z14_B01_P01_Ib02</t>
         </is>
       </c>
       <c r="C71" s="4" t="inlineStr">
         <is>
-          <t>15.1</t>
+          <t>14.1.b</t>
         </is>
       </c>
       <c r="D71" s="4" t="inlineStr">
         <is>
-          <t>Artenvielfalt und Landschaftsqualität</t>
+          <t>Bewirtschaftung von Fischbeständen</t>
         </is>
       </c>
       <c r="E71" s="4" t="inlineStr">
         <is>
-          <t>Biodiversity and landscape quality</t>
+          <t>Fish stock management</t>
         </is>
       </c>
       <c r="F71" s="4" t="inlineStr">
         <is>
-          <t>Artenvielfalt und Landschaftsqualität</t>
+          <t>Anteil der nachhaltig befischten Fischbestände in Nord- und Ostsee</t>
         </is>
       </c>
       <c r="G71" s="4" t="inlineStr">
         <is>
-          <t>Biodiversity and landscape quality</t>
+          <t>Share of sustainably fished stocks of fish in the North and Baltic Seas</t>
         </is>
       </c>
       <c r="H71" s="4" t="inlineStr">
         <is>
-          <t>Erreichen des Indexwertes 100 bis 2030</t>
+          <t>Alle wirtschaftlich genutzten Fischbestände sollen nach dem MSY-Ansatz nachhaltig bewirtschaftet werden bis 2020</t>
         </is>
       </c>
       <c r="I71" s="4" t="inlineStr">
         <is>
-          <t>Reach the index value of 100 by 2030</t>
+          <t>All fish stocks used for commercial purpos-es to be sustainably managed in accordance with the Maximum Sustainable Yield (MSY) approach by 2020</t>
         </is>
       </c>
       <c r="J71" s="4" t="inlineStr">
         <is>
-          <t>Erreichen des Indexwertes 100 bis 2030</t>
+          <t>nachhaltige Bewirtschaftung nach dem MSY-Ansatz bis 2020</t>
         </is>
       </c>
       <c r="K71" s="4" t="inlineStr">
         <is>
-          <t>reach the index value of 100 by 2030</t>
+          <t>sustainable management in accordance with the MSY approachby 2020</t>
         </is>
       </c>
       <c r="L71" s="4" t="inlineStr">
         <is>
-          <t>Artenvielfalt und Landschaftsqualität</t>
+          <t>Anteil der nachhaltig befischten Fischbestände in Nord- und Ostsee</t>
         </is>
       </c>
       <c r="M71" s="4" t="inlineStr">
         <is>
-          <t>Biodiversity and landscape quality</t>
+          <t>Share of sustainably fished stocks of fish in the North and Baltic Seas</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="72">
       <c r="A72" s="4" t="inlineStr">
         <is>
-          <t>Z15_B02_P01_Ib01_I01</t>
+          <t>Z15_B01_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B72" s="4" t="inlineStr">
         <is>
-          <t>Z15_B02_P01_Ib01</t>
+          <t>Z15_B01_P01_Ib01</t>
         </is>
       </c>
       <c r="C72" s="4" t="inlineStr">
         <is>
-          <t>15.2</t>
+          <t>15.1</t>
         </is>
       </c>
       <c r="D72" s="4" t="inlineStr">
         <is>
-          <t>Flächen mit erhöhtem Stickstoffeintrag</t>
+          <t>Artenvielfalt und Landschaftsqualität</t>
         </is>
       </c>
       <c r="E72" s="4" t="inlineStr">
         <is>
-          <t>Land with elevated inputs of nitrogen</t>
+          <t>Biodiversity and landscape quality</t>
         </is>
       </c>
       <c r="F72" s="4" t="inlineStr">
         <is>
-          <t>Eutrophierung der Ökosysteme</t>
+          <t>Artenvielfalt und Landschaftsqualität</t>
         </is>
       </c>
       <c r="G72" s="4" t="inlineStr">
         <is>
-          <t>Eutrophication of ecosystems</t>
+          <t>Biodiversity and landscape quality</t>
         </is>
       </c>
       <c r="H72" s="4" t="inlineStr">
         <is>
-          <t>Verringerung um 35 % bis 2030 gegenüber 2005</t>
+          <t>Erreichen des Indexwertes 100 bis 2030</t>
         </is>
       </c>
       <c r="I72" s="4" t="inlineStr">
         <is>
-          <t>Reduction by 35 % by 2030 compared to 2005</t>
+          <t>Reach the index value of 100 by 2030</t>
         </is>
       </c>
       <c r="J72" s="4" t="inlineStr">
         <is>
-          <t>Verringerung um 35 % bis 2030</t>
+          <t>Erreichen des Indexwertes 100 bis 2030</t>
         </is>
       </c>
       <c r="K72" s="4" t="inlineStr">
         <is>
-          <t>reduction by 35 % by 2030</t>
+          <t>reach the index value of 100 by 2030</t>
         </is>
       </c>
       <c r="L72" s="4" t="inlineStr">
         <is>
-          <t>Eutrophierung der Ökosysteme</t>
+          <t>Artenvielfalt und Landschaftsqualität</t>
         </is>
       </c>
       <c r="M72" s="4" t="inlineStr">
         <is>
-          <t>Eutrophication of ecosystems</t>
+          <t>Biodiversity and landscape quality</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="73">
       <c r="A73" s="4" t="inlineStr">
         <is>
-          <t>Z15_B02_P02_Ib01_I01</t>
+          <t>Z15_B02_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B73" s="4" t="inlineStr">
         <is>
-          <t>Z15_B02_P02_Ib01</t>
+          <t>Z15_B02_P01_Ib01</t>
         </is>
       </c>
       <c r="C73" s="4" t="inlineStr">
         <is>
-          <t>15.3.a</t>
+          <t>15.2</t>
         </is>
       </c>
       <c r="D73" s="4" t="inlineStr">
         <is>
-          <t>a) Wälder unter REDD+-Regelwerk</t>
+          <t>Flächen mit erhöhtem Stickstoffeintrag</t>
         </is>
       </c>
       <c r="E73" s="4" t="inlineStr">
         <is>
-          <t>a) Forests under REDD+ rulebook</t>
+          <t>Land with elevated inputs of nitrogen</t>
         </is>
       </c>
       <c r="F73" s="4" t="inlineStr">
         <is>
-          <t>REDD+ (ergebnisbasierte Auszahlungen für internationalen Waldschutz)</t>
+          <t>Eutrophierung der Ökosysteme</t>
         </is>
       </c>
       <c r="G73" s="4" t="inlineStr">
         <is>
-          <t>REDD+ (results-based payments for international protection of forests)</t>
+          <t>Eutrophication of ecosystems</t>
         </is>
       </c>
       <c r="H73" s="4" t="inlineStr">
         <is>
-          <t>Steigerung der Zahlungen bis 2030</t>
+          <t>Verringerung um 35 % bis 2030 gegenüber 2005</t>
         </is>
       </c>
       <c r="I73" s="4" t="inlineStr">
         <is>
-          <t>Increase payments by 2030</t>
+          <t>Reduction by 35 % by 2030 compared to 2005</t>
         </is>
       </c>
       <c r="J73" s="4" t="inlineStr">
         <is>
-          <t>Steigerung der Zahlungen bis 2030</t>
+          <t>Verringerung um 35 % bis 2030</t>
         </is>
       </c>
       <c r="K73" s="4" t="inlineStr">
         <is>
-          <t>increase payments by 2030</t>
+          <t>reduction by 35 % by 2030</t>
         </is>
       </c>
       <c r="L73" s="4" t="inlineStr">
         <is>
-          <t>Erhalt bzw. Wiederaufbau von Wäldern in Entwicklungsländern unter dem REDD+-Regelwerk</t>
+          <t>Eutrophierung der Ökosysteme</t>
         </is>
       </c>
       <c r="M73" s="4" t="inlineStr">
         <is>
-          <t>Preservation or restoration of forests in developing countries under the REDD+ rulebook</t>
+          <t>Eutrophication of ecosystems</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="74">
       <c r="A74" s="4" t="inlineStr">
         <is>
-          <t>Z15_B02_P02_Ib01_I02</t>
+          <t>Z15_B02_P02_Ib01_I01</t>
         </is>
       </c>
       <c r="B74" s="4" t="inlineStr">
@@ -5362,27 +5362,27 @@
       </c>
       <c r="C74" s="4" t="inlineStr">
         <is>
-          <t>15.3.b</t>
+          <t>15.3.a</t>
         </is>
       </c>
       <c r="D74" s="4" t="inlineStr">
         <is>
-          <t>b) Internationaler Bodenschutz</t>
+          <t>a) Wälder unter REDD+-Regelwerk</t>
         </is>
       </c>
       <c r="E74" s="4" t="inlineStr">
         <is>
-          <t>b) Combat Desertification</t>
+          <t>a) Forests under REDD+ rulebook</t>
         </is>
       </c>
       <c r="F74" s="4" t="inlineStr">
         <is>
-          <t>Internationaler Bodenschutz (Bruttoentwicklungsausgaben für internationalen Bodenschutz)</t>
+          <t>REDD+ (ergebnisbasierte Auszahlungen für internationalen Waldschutz)</t>
         </is>
       </c>
       <c r="G74" s="4" t="inlineStr">
         <is>
-          <t>International soil protection (gross development assistance for international soil protection)</t>
+          <t>REDD+ (results-based payments for international protection of forests)</t>
         </is>
       </c>
       <c r="H74" s="4" t="inlineStr">
@@ -5407,220 +5407,220 @@
       </c>
       <c r="L74" s="4" t="inlineStr">
         <is>
-          <t>Deutsche bilaterale Bruttoentwicklungsausgaben zur Umsetzung des Übereinkommens der VN zur Bekämpfung der Wüstenbildung</t>
+          <t>Erhalt bzw. Wiederaufbau von Wäldern in Entwicklungsländern unter dem REDD+-Regelwerk</t>
         </is>
       </c>
       <c r="M74" s="4" t="inlineStr">
         <is>
-          <t>German gross bilateral development expenditure for the implementation of the UN Convention to Combat Desertification</t>
+          <t>Preservation or restoration of forests in developing countries under the REDD+ rulebook</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="75">
       <c r="A75" s="4" t="inlineStr">
         <is>
-          <t>Z16_B01_P01_Ib01_I01</t>
+          <t>Z15_B02_P02_Ib01_I02</t>
         </is>
       </c>
       <c r="B75" s="4" t="inlineStr">
         <is>
-          <t>Z16_B01_P01_Ib01</t>
+          <t>Z15_B02_P02_Ib01</t>
         </is>
       </c>
       <c r="C75" s="4" t="inlineStr">
         <is>
-          <t>16.1</t>
+          <t>15.3.b</t>
         </is>
       </c>
       <c r="D75" s="4" t="inlineStr">
         <is>
-          <t>Anzahl an Straftaten</t>
+          <t>b) Internationaler Bodenschutz</t>
         </is>
       </c>
       <c r="E75" s="4" t="inlineStr">
         <is>
-          <t>Number of criminal offences</t>
+          <t>b) Combat Desertification</t>
         </is>
       </c>
       <c r="F75" s="4" t="inlineStr">
         <is>
-          <t>Straftaten</t>
+          <t>Internationaler Bodenschutz (Bruttoentwicklungsausgaben für internationalen Bodenschutz)</t>
         </is>
       </c>
       <c r="G75" s="4" t="inlineStr">
         <is>
-          <t>Criminal offences</t>
+          <t>International soil protection (gross development assistance for international soil protection)</t>
         </is>
       </c>
       <c r="H75" s="4" t="inlineStr">
         <is>
-          <t>Rückgang der Zahl der erfassten Straftaten je 100 000 Einwohner/ -innen auf unter 6 500 bis 2030</t>
+          <t>Steigerung der Zahlungen bis 2030</t>
         </is>
       </c>
       <c r="I75" s="4" t="inlineStr">
         <is>
-          <t>Reduce the number of criminal offences re-corded per 100,000 inhabitants to less than 6,500 by 2030</t>
+          <t>Increase payments by 2030</t>
         </is>
       </c>
       <c r="J75" s="4" t="inlineStr">
         <is>
-          <t>Rückgang auf unter 6 500 je 100 000 Einwohner/ -innen bis 2030</t>
+          <t>Steigerung der Zahlungen bis 2030</t>
         </is>
       </c>
       <c r="K75" s="4" t="inlineStr">
         <is>
-          <t>reduce to less than 6,500 per 100,000 inhabitants by 2030</t>
+          <t>increase payments by 2030</t>
         </is>
       </c>
       <c r="L75" s="4" t="inlineStr">
         <is>
-          <t>Straftaten</t>
+          <t>Deutsche bilaterale Bruttoentwicklungsausgaben zur Umsetzung des Übereinkommens der VN zur Bekämpfung der Wüstenbildung</t>
         </is>
       </c>
       <c r="M75" s="4" t="inlineStr">
         <is>
-          <t>Criminal offences</t>
+          <t>German gross bilateral development expenditure for the implementation of the UN Convention to Combat Desertification</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="76">
       <c r="A76" s="4" t="inlineStr">
         <is>
-          <t>Z16_B02_P01_Ib01_I01</t>
+          <t>Z16_B01_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B76" s="4" t="inlineStr">
         <is>
-          <t>Z16_B02_P01_Ib01</t>
+          <t>Z16_B01_P01_Ib01</t>
         </is>
       </c>
       <c r="C76" s="4" t="inlineStr">
         <is>
-          <t>16.2</t>
+          <t>16.1</t>
         </is>
       </c>
       <c r="D76" s="4" t="inlineStr">
         <is>
-          <t>Sicherung, Registrierung und Zerstörung von Waffen</t>
+          <t>Anzahl an Straftaten</t>
         </is>
       </c>
       <c r="E76" s="4" t="inlineStr">
         <is>
-          <t>Securing, registration and destruction of weapons</t>
+          <t>Number of criminal offences</t>
         </is>
       </c>
       <c r="F76" s="4" t="inlineStr">
         <is>
-          <t>Anzahl der in betroffenen Weltregionen durchgeführten Projekte zur Sicherung, Registrierung und Zerstörung von Kleinwaffen und leichten Waffen durch Deutschland</t>
+          <t>Straftaten</t>
         </is>
       </c>
       <c r="G76" s="4" t="inlineStr">
         <is>
-          <t>Number of projects to secure, register and destroy small arms and light weapons carried out by Germany in affected regions of the world</t>
+          <t>Criminal offences</t>
         </is>
       </c>
       <c r="H76" s="4" t="inlineStr">
         <is>
-          <t>Mindestens 15 Projekte pro Jahr bis 2030</t>
+          <t>Rückgang der Zahl der erfassten Straftaten je 100 000 Einwohner/ -innen auf unter 6 500 bis 2030</t>
         </is>
       </c>
       <c r="I76" s="4" t="inlineStr">
         <is>
-          <t>At least 15 projects per year by 2030</t>
+          <t>Reduce the number of criminal offences re-corded per 100,000 inhabitants to less than 6,500 by 2030</t>
         </is>
       </c>
       <c r="J76" s="4" t="inlineStr">
         <is>
-          <t>mindestens 15 Projekte pro Jahr bis 2030</t>
+          <t>Rückgang auf unter 6 500 je 100 000 Einwohner/ -innen bis 2030</t>
         </is>
       </c>
       <c r="K76" s="4" t="inlineStr">
         <is>
-          <t>at least 15 projects per year by 2030</t>
+          <t>reduce to less than 6,500 per 100,000 inhabitants by 2030</t>
         </is>
       </c>
       <c r="L76" s="4" t="inlineStr">
         <is>
-          <t>Anzahl der in betroffenen Weltregionen durchgeführten Projekte zur Sicherung, Registrierung und Zerstörung von Kleinwaffen und leichten Waffen durch Deutschland</t>
+          <t>Straftaten</t>
         </is>
       </c>
       <c r="M76" s="4" t="inlineStr">
         <is>
-          <t>Number of projects to secure, register and destroy small arms and light weapons carried out by Germany in affected regions of the world</t>
+          <t>Criminal offences</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="77">
       <c r="A77" s="4" t="inlineStr">
         <is>
-          <t>Z16_B03_P01_Ib01_I01</t>
+          <t>Z16_B02_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B77" s="4" t="inlineStr">
         <is>
-          <t>Z16_B03_P01_Ib01</t>
+          <t>Z16_B02_P01_Ib01</t>
         </is>
       </c>
       <c r="C77" s="4" t="inlineStr">
         <is>
-          <t>16.3.a</t>
+          <t>16.2</t>
         </is>
       </c>
       <c r="D77" s="4" t="inlineStr">
         <is>
-          <t>a) CPI Deutschland</t>
+          <t>Sicherung, Registrierung und Zerstörung von Waffen</t>
         </is>
       </c>
       <c r="E77" s="4" t="inlineStr">
         <is>
-          <t>a) CPI Germany</t>
+          <t>Securing, registration and destruction of weapons</t>
         </is>
       </c>
       <c r="F77" s="4" t="inlineStr">
         <is>
-          <t>Corruption Perception Index in Deutschland</t>
+          <t>Anzahl der in betroffenen Weltregionen durchgeführten Projekte zur Sicherung, Registrierung und Zerstörung von Kleinwaffen und leichten Waffen durch Deutschland</t>
         </is>
       </c>
       <c r="G77" s="4" t="inlineStr">
         <is>
-          <t>Corruption Perceptions Index in Germany</t>
+          <t>Number of projects to secure, register and destroy small arms and light weapons carried out by Germany in affected regions of the world</t>
         </is>
       </c>
       <c r="H77" s="4" t="inlineStr">
         <is>
-          <t>Verbesserung gegenüber 2012 bis 2030</t>
+          <t>Mindestens 15 Projekte pro Jahr bis 2030</t>
         </is>
       </c>
       <c r="I77" s="4" t="inlineStr">
         <is>
-          <t>Improvement by 2030, compared to 2012</t>
+          <t>At least 15 projects per year by 2030</t>
         </is>
       </c>
       <c r="J77" s="4" t="inlineStr">
         <is>
-          <t>Verbesserung bis 2030</t>
+          <t>mindestens 15 Projekte pro Jahr bis 2030</t>
         </is>
       </c>
       <c r="K77" s="4" t="inlineStr">
         <is>
-          <t>improvement by 2030</t>
+          <t>at least 15 projects per year by 2030</t>
         </is>
       </c>
       <c r="L77" s="4" t="inlineStr">
         <is>
-          <t>Corruption Perception Index in Deutschland</t>
+          <t>Anzahl der in betroffenen Weltregionen durchgeführten Projekte zur Sicherung, Registrierung und Zerstörung von Kleinwaffen und leichten Waffen durch Deutschland</t>
         </is>
       </c>
       <c r="M77" s="4" t="inlineStr">
         <is>
-          <t>Corruption Perception Index in Germany</t>
+          <t>Number of projects to secure, register and destroy small arms and light weapons carried out by Germany in affected regions of the world</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="78">
       <c r="A78" s="4" t="inlineStr">
         <is>
-          <t>Z16_B03_P01_Ib01_I02</t>
+          <t>Z16_B03_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B78" s="4" t="inlineStr">
@@ -5630,27 +5630,27 @@
       </c>
       <c r="C78" s="4" t="inlineStr">
         <is>
-          <t>16.3.b</t>
+          <t>16.3.a</t>
         </is>
       </c>
       <c r="D78" s="4" t="inlineStr">
         <is>
-          <t>b) CPI  Partnerländer</t>
+          <t>a) CPI Deutschland</t>
         </is>
       </c>
       <c r="E78" s="4" t="inlineStr">
         <is>
-          <t>b) CPI Partner countries</t>
+          <t>a) CPI Germany</t>
         </is>
       </c>
       <c r="F78" s="4" t="inlineStr">
         <is>
-          <t>Corruption Perception Index in den Partnerländern der deutschen Entwicklungszusammenarbeit</t>
+          <t>Corruption Perception Index in Deutschland</t>
         </is>
       </c>
       <c r="G78" s="4" t="inlineStr">
         <is>
-          <t>Corruption Perceptions Index in partner countries for German development cooperation</t>
+          <t>Corruption Perceptions Index in Germany</t>
         </is>
       </c>
       <c r="H78" s="4" t="inlineStr">
@@ -5675,211 +5675,278 @@
       </c>
       <c r="L78" s="4" t="inlineStr">
         <is>
-          <t>Anzahl der Partnerländer deutscher Entwicklungszusammenarbeit, deren Bewertung sich gegenüber 2012 verbessert hat</t>
+          <t>Corruption Perception Index in Deutschland</t>
         </is>
       </c>
       <c r="M78" s="4" t="inlineStr">
         <is>
-          <t>Number of partner countries for German development cooperation with improved CPI scores compared with 2012</t>
+          <t>Corruption Perception Index in Germany</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="79">
       <c r="A79" s="4" t="inlineStr">
         <is>
-          <t>Z17_B01_P01_Ib01_I01</t>
+          <t>Z16_B03_P01_Ib01_I02</t>
         </is>
       </c>
       <c r="B79" s="4" t="inlineStr">
         <is>
-          <t>Z17_B01_P01_Ib01</t>
+          <t>Z16_B03_P01_Ib01</t>
         </is>
       </c>
       <c r="C79" s="4" t="inlineStr">
         <is>
-          <t>17.1</t>
+          <t>16.3.b</t>
         </is>
       </c>
       <c r="D79" s="4" t="inlineStr">
         <is>
-          <t>Entwicklungsausgaben</t>
+          <t>b) CPI  Partnerländer</t>
         </is>
       </c>
       <c r="E79" s="4" t="inlineStr">
         <is>
-          <t>Development assistance</t>
+          <t>b) CPI Partner countries</t>
         </is>
       </c>
       <c r="F79" s="4" t="inlineStr">
         <is>
-          <t>Anteil öffentlicher Entwicklungsausgaben am Bruttonationaleinkommen</t>
+          <t>Corruption Perception Index in den Partnerländern der deutschen Entwicklungszusammenarbeit</t>
         </is>
       </c>
       <c r="G79" s="4" t="inlineStr">
         <is>
-          <t>Official development assistance as a proportion of gross national income</t>
+          <t>Corruption Perceptions Index in partner countries for German development cooperation</t>
         </is>
       </c>
       <c r="H79" s="4" t="inlineStr">
         <is>
-          <t>Steigerung des Anteils auf 0,7 % des  Bruttonationaleinkommens bis 2030</t>
+          <t>Verbesserung gegenüber 2012 bis 2030</t>
         </is>
       </c>
       <c r="I79" s="4" t="inlineStr">
         <is>
-          <t>Increase the proportion to 0.7 % of gross national income by 2030</t>
+          <t>Improvement by 2030, compared to 2012</t>
         </is>
       </c>
       <c r="J79" s="4" t="inlineStr">
         <is>
-          <t>Steigerung des Anteils auf 0,7 % des BNE bis 2030</t>
+          <t>Verbesserung bis 2030</t>
         </is>
       </c>
       <c r="K79" s="4" t="inlineStr">
         <is>
-          <t>increase to 0.7 % of GNI by 2030</t>
+          <t>improvement by 2030</t>
         </is>
       </c>
       <c r="L79" s="4" t="inlineStr">
         <is>
-          <t>Anteil öffentlicher Entwicklungsausgaben am Bruttonationaleinkommen</t>
+          <t>Anzahl der Partnerländer deutscher Entwicklungszusammenarbeit, deren Bewertung sich gegenüber 2012 verbessert hat</t>
         </is>
       </c>
       <c r="M79" s="4" t="inlineStr">
         <is>
-          <t>Official development assistance as a proportion of gross national income</t>
+          <t>Number of partner countries for German development cooperation with improved CPI scores compared with 2012</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="80">
       <c r="A80" s="4" t="inlineStr">
         <is>
-          <t>Z17_B02_P01_Ib01_I01</t>
+          <t>Z17_B01_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B80" s="4" t="inlineStr">
         <is>
-          <t>Z17_B02_P01_Ib01</t>
+          <t>Z17_B01_P01_Ib01</t>
         </is>
       </c>
       <c r="C80" s="4" t="inlineStr">
         <is>
-          <t>17.2</t>
+          <t>17.1</t>
         </is>
       </c>
       <c r="D80" s="4" t="inlineStr">
         <is>
-          <t>Studierende und Forschende aus Entwicklungslenländern und LDCs</t>
+          <t>Entwicklungsausgaben</t>
         </is>
       </c>
       <c r="E80" s="4" t="inlineStr">
         <is>
-          <t>Students and researchers from developing countries and LDCs</t>
+          <t>Development assistance</t>
         </is>
       </c>
       <c r="F80" s="4" t="inlineStr">
         <is>
-          <t>Anzahl der Studierenden und Forschenden aus Entwicklungsländern sowie aus am wenigsten entwickelten Ländern pro Jahr</t>
+          <t>Anteil öffentlicher Entwicklungsausgaben am Bruttonationaleinkommen</t>
         </is>
       </c>
       <c r="G80" s="4" t="inlineStr">
         <is>
-          <t>Number of students and researchers from developing countries and least developed countries per year</t>
+          <t>Official development assistance as a proportion of gross national income</t>
         </is>
       </c>
       <c r="H80" s="4" t="inlineStr">
         <is>
-          <t>Steigerung der Anzahl um 10 % von 2015 bis 2020, anschließend Verstetigung</t>
+          <t>Steigerung des Anteils auf 0,7 % des  Bruttonationaleinkommens bis 2030</t>
         </is>
       </c>
       <c r="I80" s="4" t="inlineStr">
         <is>
-          <t>Increase the number by 10 % from 2015 to 2020, then stabilised</t>
+          <t>Increase the proportion to 0.7 % of gross national income by 2030</t>
         </is>
       </c>
       <c r="J80" s="4" t="inlineStr">
         <is>
-          <t>Steigerung um 10 % von 2015 bis 2020, anschließend Verstetigung</t>
+          <t>Steigerung des Anteils auf 0,7 % des BNE bis 2030</t>
         </is>
       </c>
       <c r="K80" s="4" t="inlineStr">
         <is>
-          <t>increase by 10 % from 2015 to 2020, then stabilised</t>
+          <t>increase to 0.7 % of GNI by 2030</t>
         </is>
       </c>
       <c r="L80" s="4" t="inlineStr">
         <is>
-          <t>Anzahl der Studierenden und Forschenden aus Entwicklungsländern sowie aus am wenigsten entwickelten Ländern pro Jahr</t>
+          <t>Anteil öffentlicher Entwicklungsausgaben am Bruttonationaleinkommen</t>
         </is>
       </c>
       <c r="M80" s="4" t="inlineStr">
         <is>
-          <t>Number of students and researchers from developing countries and least developed countries per year</t>
+          <t>Official development assistance as a proportion of gross national income</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="81">
       <c r="A81" s="4" t="inlineStr">
         <is>
+          <t>Z17_B02_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="B81" s="4" t="inlineStr">
+        <is>
+          <t>Z17_B02_P01_Ib01</t>
+        </is>
+      </c>
+      <c r="C81" s="4" t="inlineStr">
+        <is>
+          <t>17.2</t>
+        </is>
+      </c>
+      <c r="D81" s="4" t="inlineStr">
+        <is>
+          <t>Studierende und Forschende aus Entwicklungslenländern und LDCs</t>
+        </is>
+      </c>
+      <c r="E81" s="4" t="inlineStr">
+        <is>
+          <t>Students and researchers from developing countries and LDCs</t>
+        </is>
+      </c>
+      <c r="F81" s="4" t="inlineStr">
+        <is>
+          <t>Anzahl der Studierenden und Forschenden aus Entwicklungsländern sowie aus am wenigsten entwickelten Ländern pro Jahr</t>
+        </is>
+      </c>
+      <c r="G81" s="4" t="inlineStr">
+        <is>
+          <t>Number of students and researchers from developing countries and least developed countries per year</t>
+        </is>
+      </c>
+      <c r="H81" s="4" t="inlineStr">
+        <is>
+          <t>Steigerung der Anzahl um 10 % von 2015 bis 2020, anschließend Verstetigung</t>
+        </is>
+      </c>
+      <c r="I81" s="4" t="inlineStr">
+        <is>
+          <t>Increase the number by 10 % from 2015 to 2020, then stabilised</t>
+        </is>
+      </c>
+      <c r="J81" s="4" t="inlineStr">
+        <is>
+          <t>Steigerung um 10 % von 2015 bis 2020, anschließend Verstetigung</t>
+        </is>
+      </c>
+      <c r="K81" s="4" t="inlineStr">
+        <is>
+          <t>increase by 10 % from 2015 to 2020, then stabilised</t>
+        </is>
+      </c>
+      <c r="L81" s="4" t="inlineStr">
+        <is>
+          <t>Anzahl der Studierenden und Forschenden aus Entwicklungsländern sowie aus am wenigsten entwickelten Ländern pro Jahr</t>
+        </is>
+      </c>
+      <c r="M81" s="4" t="inlineStr">
+        <is>
+          <t>Number of students and researchers from developing countries and least developed countries per year</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="82">
+      <c r="A82" s="4" t="inlineStr">
+        <is>
           <t>Z17_B03_P01_Ib01_I01</t>
         </is>
       </c>
-      <c r="B81" s="4" t="inlineStr">
+      <c r="B82" s="4" t="inlineStr">
         <is>
           <t>Z17_B03_P01_Ib01</t>
         </is>
       </c>
-      <c r="C81" s="4" t="inlineStr">
+      <c r="C82" s="4" t="inlineStr">
         <is>
           <t>17.3</t>
         </is>
       </c>
-      <c r="D81" s="4" t="inlineStr">
+      <c r="D82" s="4" t="inlineStr">
         <is>
           <t>Einfuhren aus LDCs</t>
         </is>
       </c>
-      <c r="E81" s="4" t="inlineStr">
+      <c r="E82" s="4" t="inlineStr">
         <is>
           <t>Imports coming from LDCs</t>
         </is>
       </c>
-      <c r="F81" s="4" t="inlineStr">
+      <c r="F82" s="4" t="inlineStr">
         <is>
           <t>Einfuhren aus am wenigsten entwickelten Ländern</t>
         </is>
       </c>
-      <c r="G81" s="4" t="inlineStr">
+      <c r="G82" s="4" t="inlineStr">
         <is>
           <t>Imports from least developed countries</t>
         </is>
       </c>
-      <c r="H81" s="4" t="inlineStr">
+      <c r="H82" s="4" t="inlineStr">
         <is>
           <t>Steigerung des Anteils um 100 % bis 2030 gegenüber 2014</t>
         </is>
       </c>
-      <c r="I81" s="4" t="inlineStr">
+      <c r="I82" s="4" t="inlineStr">
         <is>
           <t>Increase the proportion by 100 % by 2030, compared to 2014</t>
         </is>
       </c>
-      <c r="J81" s="4" t="inlineStr">
+      <c r="J82" s="4" t="inlineStr">
         <is>
           <t>Steigerung des Anteils um 100 % bis 2030 gegenüber 2014</t>
         </is>
       </c>
-      <c r="K81" s="4" t="inlineStr">
+      <c r="K82" s="4" t="inlineStr">
         <is>
           <t>increase by 100 % by 2030 compared to 2014</t>
         </is>
       </c>
-      <c r="L81" s="4" t="inlineStr">
+      <c r="L82" s="4" t="inlineStr">
         <is>
           <t>Einfuhren aus am wenigsten entwickelten Ländern</t>
         </is>
       </c>
-      <c r="M81" s="4" t="inlineStr">
+      <c r="M82" s="4" t="inlineStr">
         <is>
           <t>Imports from least developed countries</t>
         </is>

--- a/Tab_5a_Indikatoren.xlsx
+++ b/Tab_5a_Indikatoren.xlsx
@@ -883,7 +883,7 @@
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>XVermeidbare Sterblichkeit</t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr">
@@ -893,7 +893,7 @@
       </c>
       <c r="G7" s="4" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>XDurch Prävention und Behandlung vermeidbare Sterblichkeit</t>
         </is>
       </c>
       <c r="H7" s="4" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="I7" s="4" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>XSenkung auf 200 Todesfälle je 100 000 Einwohnerinnen und Einwohner bis 2030</t>
         </is>
       </c>
       <c r="J7" s="4" t="inlineStr">
@@ -913,7 +913,7 @@
       </c>
       <c r="K7" s="4" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>XSenkung auf 200 Todesfälle je 100 000 Einwohnerinnen und Einwohner bis 2030</t>
         </is>
       </c>
       <c r="L7" s="4" t="inlineStr">
@@ -1419,7 +1419,7 @@
       </c>
       <c r="E15" s="4" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>XXXFortschritte beim Global Health Security Index</t>
         </is>
       </c>
       <c r="F15" s="4" t="inlineStr">
@@ -1429,7 +1429,7 @@
       </c>
       <c r="G15" s="4" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>XAnteil der Länder, die Deutschland bei der XXXPandemieprävention, -vorsorge und -reaktion (PPR) unterstützt und die im Global Health Security Index (GHSI) Fortschritte gemacht haben, an der Anzahl der Länder, die Deutschland im Bereich PPR unterstützt</t>
         </is>
       </c>
       <c r="H15" s="4" t="inlineStr">
@@ -1439,17 +1439,17 @@
       </c>
       <c r="I15" s="4" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>XXX30 Prozent der Länder haben im Jahr 2030 eine Verbesserung des Global Health</t>
         </is>
       </c>
       <c r="J15" s="4" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>30 Prozent der Länder haben im Jahr 2030 eine Verbesserung des Global Health Security Index (GSHI) um mindestens den Wert 3 gegenüber 2019 erzielt</t>
         </is>
       </c>
       <c r="K15" s="4" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>XXX30 Prozent der Länder haben im Jahr 2030 eine Verbesserung des Global Health Security Index (GSHI) um mindestens den Wert 3 gegenüber 2019 erzielt</t>
         </is>
       </c>
       <c r="L15" s="4" t="inlineStr">
@@ -1481,12 +1481,12 @@
       </c>
       <c r="D16" s="4" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Unterschied in der Lebenserwartung zwischen sozio-ökonomisch deprivierten und wohlhabenden Regionen (Frauen)</t>
         </is>
       </c>
       <c r="E16" s="4" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>XXXUnterschied in der Lebenserwartung zwischen sozio-ökonomisch deprivierten und wohlhabenden Regionen (Frauen)</t>
         </is>
       </c>
       <c r="F16" s="4" t="inlineStr">
@@ -1496,7 +1496,7 @@
       </c>
       <c r="G16" s="4" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>XXXUnterschied in der Lebenserwartung zwischen sozio-ökonomisch deprivierten und wohlhabenden Regionen (Frauen)</t>
         </is>
       </c>
       <c r="H16" s="4" t="inlineStr">
@@ -1506,17 +1506,17 @@
       </c>
       <c r="I16" s="4" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>XXXRückgang des Unterschieds in der mittleren Lebenserwartung von Frauen zwischen deprivierten und wohlhabenden Regionen bei gleichzeitigem Anstieg der Lebenserwartung von Frauen in deprivierten Regionen</t>
         </is>
       </c>
       <c r="J16" s="4" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>ückgang des Unterschieds in der mittleren Lebenserwartung von Frauen zwischen deprivierten und wohlhabenden Regionen bei gleichzeitigem Anstieg der Lebenserwartung von Frauen in deprivierten Regionen</t>
         </is>
       </c>
       <c r="K16" s="4" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>XXXückgang des Unterschieds in der mittleren Lebenserwartung von Frauen zwischen deprivierten und wohlhabenden Regionen bei gleichzeitigem Anstieg der Lebenserwartung von Frauen in deprivierten Regionen</t>
         </is>
       </c>
       <c r="L16" s="4" t="inlineStr">
@@ -1548,12 +1548,12 @@
       </c>
       <c r="D17" s="4" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Unterschied in der Lebenserwartung zwischen sozio-ökonomisch deprivierten und wohlhabenden Regionen (Männer)</t>
         </is>
       </c>
       <c r="E17" s="4" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>XXXUnterschied in der Lebenserwartung zwischen sozio-ökonomisch deprivierten und wohlhabenden Regionen (Männer)</t>
         </is>
       </c>
       <c r="F17" s="4" t="inlineStr">
@@ -1563,7 +1563,7 @@
       </c>
       <c r="G17" s="4" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>XXXUnterschied in der Lebenserwartung zwischen sozio-ökonomisch deprivierten und wohlhabenden Regionen (Männer)</t>
         </is>
       </c>
       <c r="H17" s="4" t="inlineStr">
@@ -1573,17 +1573,17 @@
       </c>
       <c r="I17" s="4" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>XXXRückgang des Unterschieds in der mittleren Lebenserwartung von Männern zwischen deprivierten und wohlhabenden Regionen bei gleichzeitigem Anstieg der Lebenserwartung von Frauen in deprivierten Regionen</t>
         </is>
       </c>
       <c r="J17" s="4" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Rückgang des Unterschieds in der mittleren Lebenserwartung von Männern zwischen deprivierten und wohlhabenden Regionen bei gleichzeitigem Anstieg der Lebenserwartung von Frauen in deprivierten Regionen</t>
         </is>
       </c>
       <c r="K17" s="4" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>XXXRückgang des Unterschieds in der mittleren Lebenserwartung von Männern zwischen deprivierten und wohlhabenden Regionen bei gleichzeitigem Anstieg der Lebenserwartung von Frauen in deprivierten Regionen</t>
         </is>
       </c>
       <c r="L17" s="4" t="inlineStr">
@@ -1774,7 +1774,7 @@
       </c>
       <c r="I20" s="4" t="inlineStr">
         <is>
-          <t>XXX</t>
+          <t>XXXKontinuierlicher Anstieg</t>
         </is>
       </c>
       <c r="J20" s="4" t="inlineStr">

--- a/Tab_5a_Indikatoren.xlsx
+++ b/Tab_5a_Indikatoren.xlsx
@@ -435,7 +435,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M82"/>
+  <dimension ref="A1:M84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -923,7 +923,7 @@
       </c>
       <c r="M7" s="4" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>XXXVermeidbare Sterblichkeit</t>
         </is>
       </c>
     </row>
@@ -2104,12 +2104,12 @@
       </c>
       <c r="H25" s="4" t="inlineStr">
         <is>
-          <t>Verringerung des Abstandes auf 10 % bis 2020, Beibehaltung bis 2030</t>
+          <t>Verdienstabstand zwischen Frauen und Männern höchstens 10 Prozent bis 2030</t>
         </is>
       </c>
       <c r="I25" s="4" t="inlineStr">
         <is>
-          <t>Reduce the gap to 10 % by 2020, maintained until 2030 subsequently</t>
+          <t>XXXVerdienstabstand zwischen Frauen und Männern höchstens 10 Prozent bis 2030</t>
         </is>
       </c>
       <c r="J25" s="4" t="inlineStr">
@@ -2171,22 +2171,22 @@
       </c>
       <c r="H26" s="4" t="inlineStr">
         <is>
-          <t>30 % Frauen in Aufsichtsräten der börsennotierten und paritätisch mitbestimmten Unternehmen bis 2030</t>
+          <t>40 % Frauen in Aufsichtsräten der börsennotierten und paritätisch mitbestimmten Unternehmen bis 2030</t>
         </is>
       </c>
       <c r="I26" s="4" t="inlineStr">
         <is>
-          <t>30 % women on supervisory boards of listed and fully co-determined companies by 2030</t>
+          <t>40 % women on supervisory boards of listed and fully co-determined companies by 2030</t>
         </is>
       </c>
       <c r="J26" s="4" t="inlineStr">
         <is>
-          <t>30 % Frauen in Aufsichtsräten bis 2030</t>
+          <t>40 % Frauen in Aufsichtsräten bis 2030</t>
         </is>
       </c>
       <c r="K26" s="4" t="inlineStr">
         <is>
-          <t>30% women on supervisory boards by 2030</t>
+          <t>40% women on supervisory boards by 2030</t>
         </is>
       </c>
       <c r="L26" s="4" t="inlineStr">
@@ -2337,12 +2337,12 @@
     <row outlineLevel="0" r="29">
       <c r="A29" s="4" t="inlineStr">
         <is>
-          <t>Z05_B01_P02_Ib01_I01</t>
+          <t>Z05_B01_P01_Ib04_I01</t>
         </is>
       </c>
       <c r="B29" s="4" t="inlineStr">
         <is>
-          <t>Z05_B01_P02_Ib01</t>
+          <t>Z05_B01_P01_Ib04</t>
         </is>
       </c>
       <c r="C29" s="4" t="inlineStr">
@@ -2352,327 +2352,327 @@
       </c>
       <c r="D29" s="4" t="inlineStr">
         <is>
-          <t>Berufliche Qualifizierung von Frauen und Mädchen durch Entwicklungszusammenarbeit</t>
+          <t>Erwerbsarbeitszeit von Müttern und Vätern</t>
         </is>
       </c>
       <c r="E29" s="4" t="inlineStr">
         <is>
-          <t>Vocational qualifications of women and girls through development coopreation</t>
+          <t>XXXErwerbsarbeitszeit von Müttern und Vätern</t>
         </is>
       </c>
       <c r="F29" s="4" t="inlineStr">
         <is>
-          <t>Berufliche Qualifizierung von Frauen und Mädchen durch deutsche entwicklungspolitische Zusammenarbeit</t>
+          <t>Durchschnittliche wöchentliche Erwerbsarbeitszeit bezogen auf alle Mütter und Väter</t>
         </is>
       </c>
       <c r="G29" s="4" t="inlineStr">
         <is>
-          <t>Vocational qualifications of women and girls through German development assistance</t>
+          <t>XXXDurchschnittliche wöchentliche Erwerbsarbeitszeit bezogen auf alle Mütter und Väter</t>
         </is>
       </c>
       <c r="H29" s="4" t="inlineStr">
         <is>
-          <t>Sukzessive Steigerung bis 2030 um ein Drittel verglichen mit Basisjahr 2015</t>
+          <t>Annäherung der durchschnittlichen wöchentlichen Erwerbsarbeitszeit bezogen auf alle Mütter und Väter</t>
         </is>
       </c>
       <c r="I29" s="4" t="inlineStr">
         <is>
-          <t>To be increased gradually by a third by 2030 compared to 2015 as the base year</t>
+          <t>XXXAnnäherung der durchschnittlichen wöchentlichen Erwerbsarbeitszeit bezogen auf alle Mütter und Väter</t>
         </is>
       </c>
       <c r="J29" s="4" t="inlineStr">
         <is>
-          <t>Steigerung um ein Drittel bis 2030</t>
+          <t>Annäherung der Erwerbsarbeitszeit von Müttern und Vätern</t>
         </is>
       </c>
       <c r="K29" s="4" t="inlineStr">
         <is>
-          <t>to be increased by a third by 2030</t>
+          <t>XXXAnnäherung der Erwerbsarbeitszeit von Müttern und Vätern</t>
         </is>
       </c>
       <c r="L29" s="4" t="inlineStr">
         <is>
-          <t>Berufliche Qualifizierung von Frauen und Mädchen durch deutsche entwicklungspolitische Zusammenarbeit</t>
+          <t>Erwerbsarbeitszeit von Müttern und Vätern</t>
         </is>
       </c>
       <c r="M29" s="4" t="inlineStr">
         <is>
-          <t>Vocational qualifications of women and girls through German development cooperation</t>
+          <t>XXXErwerbsarbeitszeit von Müttern und Vätern</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="30">
       <c r="A30" s="4" t="inlineStr">
         <is>
-          <t>Z06_B01_P01_Ib01_I01</t>
+          <t>Z05_B01_P02_Ib01_I01</t>
         </is>
       </c>
       <c r="B30" s="4" t="inlineStr">
         <is>
-          <t>Z06_B01_P01_Ib01</t>
+          <t>Z05_B01_P02_Ib01</t>
         </is>
       </c>
       <c r="C30" s="4" t="inlineStr">
         <is>
-          <t>6.1.a</t>
+          <t>5.1.f</t>
         </is>
       </c>
       <c r="D30" s="4" t="inlineStr">
         <is>
-          <t>Phosphor in Fließgewässern</t>
+          <t>Berufliche Qualifizierung von Frauen und Mädchen durch Entwicklungszusammenarbeit</t>
         </is>
       </c>
       <c r="E30" s="4" t="inlineStr">
         <is>
-          <t>Phosphorous in flowing waters</t>
+          <t>Vocational qualifications of women and girls through development coopreation</t>
         </is>
       </c>
       <c r="F30" s="4" t="inlineStr">
         <is>
-          <t>Phosphor in Fließgewässern</t>
+          <t>Berufliche Qualifizierung von Frauen und Mädchen durch deutsche entwicklungspolitische Zusammenarbeit</t>
         </is>
       </c>
       <c r="G30" s="4" t="inlineStr">
         <is>
-          <t>Phosphorous in flowing waters</t>
+          <t>Vocational qualifications of women and girls through German development assistance</t>
         </is>
       </c>
       <c r="H30" s="4" t="inlineStr">
         <is>
-          <t>Einhaltung oder Unterschreitung der gewässertypischen Orientierungswerte an allen Messstellen bis 2030</t>
+          <t>Sukzessive Steigerung bis 2030 um ein Drittel verglichen mit Basisjahr 2015</t>
         </is>
       </c>
       <c r="I30" s="4" t="inlineStr">
         <is>
-          <t>Not exceeding benchmark values for specific types of water bodies at all monitoring points by 2030</t>
+          <t>To be increased gradually by a third by 2030 compared to 2015 as the base year</t>
         </is>
       </c>
       <c r="J30" s="4" t="inlineStr">
         <is>
-          <t>Einhaltung oder Unterschreitung der Orientierungswerte bis 2030</t>
+          <t>Steigerung um ein Drittel bis 2030</t>
         </is>
       </c>
       <c r="K30" s="4" t="inlineStr">
         <is>
-          <t>not exceeding benchmark values by 2030</t>
+          <t>to be increased by a third by 2030</t>
         </is>
       </c>
       <c r="L30" s="4" t="inlineStr">
         <is>
-          <t>Phosphor in Fließgewässern</t>
+          <t>Berufliche Qualifizierung von Frauen und Mädchen durch deutsche entwicklungspolitische Zusammenarbeit</t>
         </is>
       </c>
       <c r="M30" s="4" t="inlineStr">
         <is>
-          <t>Phosphorous in flowing waters</t>
+          <t>Vocational qualifications of women and girls through German development cooperation</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="31">
       <c r="A31" s="4" t="inlineStr">
         <is>
-          <t>Z06_B01_P01_Ib02_I01</t>
+          <t>Z05_B01_P03_Ib01_I01</t>
         </is>
       </c>
       <c r="B31" s="4" t="inlineStr">
         <is>
-          <t>Z06_B01_P01_Ib02</t>
+          <t>Z05_B01_P03_Ib01</t>
         </is>
       </c>
       <c r="C31" s="4" t="inlineStr">
         <is>
-          <t>6.1.b</t>
+          <t>5.1.g</t>
         </is>
       </c>
       <c r="D31" s="4" t="inlineStr">
         <is>
-          <t>Nitrat im Grundwasser</t>
+          <t>Geschlechtergleichstellun in der Entwicklungszusammenarbeit</t>
         </is>
       </c>
       <c r="E31" s="4" t="inlineStr">
         <is>
-          <t>Nitrate in groundwater</t>
+          <t>XXXGeschlechtergleichstellun in der Entwicklungszusammenarbeit</t>
         </is>
       </c>
       <c r="F31" s="4" t="inlineStr">
         <is>
-          <t>Nitrat im Grundwasser</t>
+          <t>Anteil der Geschlechtergleichstellung berücksichtigenden Projektmittel in der deutschen Entwicklungszusammenarbeit</t>
         </is>
       </c>
       <c r="G31" s="4" t="inlineStr">
         <is>
-          <t>Nitrate in groundwater</t>
+          <t>XXXAnteil der Geschlechtergleichstellung berücksichtigenden Projektmittel in der deutschen Entwicklungszusammenarbeit</t>
         </is>
       </c>
       <c r="H31" s="4" t="inlineStr">
         <is>
-          <t>Einhaltung des Nitrat Schwellenwertes von 50 Milligramm pro Liter an allen Messstellen bis 2030</t>
+          <t>Anstieg des Anteils der Geschlechtergleichstellung berücksichtigenden Projektmittel in der deutschen Entwicklungszusammenarbeit bis 2030 auf ab dann mindestens 85 Prozent</t>
         </is>
       </c>
       <c r="I31" s="4" t="inlineStr">
         <is>
-          <t>Compliance with the nitrate threshold value of 50 mg/l at all monitoring points by 2030</t>
+          <t>XXXAnstieg des Anteils der Geschlechtergleichstellung berücksichtigenden Projektmittel in der deutschen Entwicklungszusammenarbeit bis 2030 auf ab dann mindestens 85 Prozent</t>
         </is>
       </c>
       <c r="J31" s="4" t="inlineStr">
         <is>
-          <t>Einhaltung des Schwellenwertes von 50 mg/l bis 2030</t>
+          <t>Steigerung auf 85 % bis 2030</t>
         </is>
       </c>
       <c r="K31" s="4" t="inlineStr">
         <is>
-          <t>compliance with the threshold value of 50 mg/l by 2030</t>
+          <t>XXXSteigerung auf 85 % bis 2030</t>
         </is>
       </c>
       <c r="L31" s="4" t="inlineStr">
         <is>
-          <t>Nitrat im Grundwasser</t>
+          <t>Geschlechtergleichstellun in der Entwicklungszusammenarbeit</t>
         </is>
       </c>
       <c r="M31" s="4" t="inlineStr">
         <is>
-          <t>Nitrate in groundwater</t>
+          <t>XXXGeschlechtergleichstellun in der Entwicklungszusammenarbeit</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="32">
       <c r="A32" s="4" t="inlineStr">
         <is>
-          <t>Z06_B02_P01_Ib01_I01</t>
+          <t>Z06_B01_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B32" s="4" t="inlineStr">
         <is>
-          <t>Z06_B02_P01_Ib01</t>
+          <t>Z06_B01_P01_Ib01</t>
         </is>
       </c>
       <c r="C32" s="4" t="inlineStr">
         <is>
-          <t>6.2.a</t>
+          <t>6.1.a</t>
         </is>
       </c>
       <c r="D32" s="4" t="inlineStr">
         <is>
-          <t>a) Trinkwasserversorgung</t>
+          <t>Phosphor in Fließgewässern</t>
         </is>
       </c>
       <c r="E32" s="4" t="inlineStr">
         <is>
-          <t>a) Access to drinking water</t>
+          <t>Phosphorous in flowing waters</t>
         </is>
       </c>
       <c r="F32" s="4" t="inlineStr">
         <is>
-          <t>Anzahl der Menschen, die einen neuen oder hochwertigeren Zugang zur Trinkwasserversorgung durch deutsche Unterstützung erhalten</t>
+          <t>Phosphor in Fließgewässern</t>
         </is>
       </c>
       <c r="G32" s="4" t="inlineStr">
         <is>
-          <t>Number of people gaining first-time or upgraded access to drinking water owing to German support</t>
+          <t>Phosphorous in flowing waters</t>
         </is>
       </c>
       <c r="H32" s="4" t="inlineStr">
         <is>
-          <t>6 Millionen Menschen pro Jahr bis 2030</t>
+          <t>Einhaltung oder Unterschreitung der gewässertypischen Orientierungswerte an allen Messstellen bis 2030</t>
         </is>
       </c>
       <c r="I32" s="4" t="inlineStr">
         <is>
-          <t>6 million people per year by 2030</t>
+          <t>Not exceeding benchmark values for specific types of water bodies at all monitoring points by 2030</t>
         </is>
       </c>
       <c r="J32" s="4" t="inlineStr">
         <is>
-          <t>6 Millionen Menschen pro Jahr bis 2030</t>
+          <t>Einhaltung oder Unterschreitung der Orientierungswerte bis 2030</t>
         </is>
       </c>
       <c r="K32" s="4" t="inlineStr">
         <is>
-          <t>6 million people per year by 2030</t>
+          <t>not exceeding benchmark values by 2030</t>
         </is>
       </c>
       <c r="L32" s="4" t="inlineStr">
         <is>
-          <t>Anzahl der Menschen, die einen neuen oder hochwertigeren Zugang zur Trinkwasserversorgung erhalten haben</t>
+          <t>Phosphor in Fließgewässern</t>
         </is>
       </c>
       <c r="M32" s="4" t="inlineStr">
         <is>
-          <t>Number of people gaining first-time or upgraded access to drinking water</t>
+          <t>Phosphorous in flowing waters</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="33">
       <c r="A33" s="4" t="inlineStr">
         <is>
-          <t>Z06_B02_P01_Ib01_I02</t>
+          <t>Z06_B01_P01_Ib02_I01</t>
         </is>
       </c>
       <c r="B33" s="4" t="inlineStr">
         <is>
-          <t>Z06_B02_P01_Ib01</t>
+          <t>Z06_B01_P01_Ib02</t>
         </is>
       </c>
       <c r="C33" s="4" t="inlineStr">
         <is>
-          <t>6.2.b</t>
+          <t>6.1.b</t>
         </is>
       </c>
       <c r="D33" s="4" t="inlineStr">
         <is>
-          <t>b) Sanitärversorgung</t>
+          <t>Nitrat im Grundwasser</t>
         </is>
       </c>
       <c r="E33" s="4" t="inlineStr">
         <is>
-          <t>b) Access to sanitation</t>
+          <t>Nitrate in groundwater</t>
         </is>
       </c>
       <c r="F33" s="4" t="inlineStr">
         <is>
-          <t>Anzahl der Menschen, die einen neuen oder verbesserten Anschluss zur Sanitärversorgung durch deutsche Unterstützung erhalten</t>
+          <t>Nitrat im Grundwasser</t>
         </is>
       </c>
       <c r="G33" s="4" t="inlineStr">
         <is>
-          <t>Number of people gaining first-time or improved access to sanitation owing to German support</t>
+          <t>Nitrate in groundwater</t>
         </is>
       </c>
       <c r="H33" s="4" t="inlineStr">
         <is>
-          <t>4 Millionen Menschen pro Jahr bis 2030</t>
+          <t>Einhaltung des Nitrat Schwellenwertes von 50 Milligramm pro Liter an allen Messstellen bis 2030</t>
         </is>
       </c>
       <c r="I33" s="4" t="inlineStr">
         <is>
-          <t>4 million people per year by 2030</t>
+          <t>Compliance with the nitrate threshold value of 50 mg/l at all monitoring points by 2030</t>
         </is>
       </c>
       <c r="J33" s="4" t="inlineStr">
         <is>
-          <t>4 Millionen Menschen pro Jahr bis 2030</t>
+          <t>Einhaltung des Schwellenwertes von 50 mg/l bis 2030</t>
         </is>
       </c>
       <c r="K33" s="4" t="inlineStr">
         <is>
-          <t>4 million people per year by 2030</t>
+          <t>compliance with the threshold value of 50 mg/l by 2030</t>
         </is>
       </c>
       <c r="L33" s="4" t="inlineStr">
         <is>
-          <t>Anzahl der Menschen, die einen neuen oder verbesserten Anschluss zur Sanitärversorgung erhalten haben</t>
+          <t>Nitrat im Grundwasser</t>
         </is>
       </c>
       <c r="M33" s="4" t="inlineStr">
         <is>
-          <t>Number of people gaining first-time or improved access to sanitation</t>
+          <t>Nitrate in groundwater</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="34">
       <c r="A34" s="4" t="inlineStr">
         <is>
-          <t>Z06_B02_P01_Ib01_I03</t>
+          <t>Z06_B02_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B34" s="4" t="inlineStr">
@@ -2682,1940 +2682,1940 @@
       </c>
       <c r="C34" s="4" t="inlineStr">
         <is>
-          <t>6.2</t>
+          <t>6.2.a</t>
         </is>
       </c>
       <c r="D34" s="4" t="inlineStr">
         <is>
-          <t>Trinkwasser- und Sanitärversorgung</t>
+          <t>a) Trinkwasserversorgung</t>
         </is>
       </c>
       <c r="E34" s="4" t="inlineStr">
         <is>
-          <t>Access to drinking water and sanitation</t>
+          <t>a) Access to drinking water</t>
         </is>
       </c>
       <c r="F34" s="4" t="inlineStr">
         <is>
-          <t>Anzahl der Menschen, die einen neuen oder hochwertigeren Zugang zur Trinkwasserversorgung oder Anschluss zur Sanitärversorgung durch deutsche Unterstützung erhalten</t>
+          <t>Anzahl der Menschen, die einen neuen oder hochwertigeren Zugang zur Trinkwasserversorgung durch deutsche Unterstützung erhalten</t>
         </is>
       </c>
       <c r="G34" s="4" t="inlineStr">
         <is>
-          <t>Number of people gaining first-time or upgraded access to drinking water or sanitation owing to German support</t>
+          <t>Number of people gaining first-time or upgraded access to drinking water owing to German support</t>
         </is>
       </c>
       <c r="H34" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>6 Millionen Menschen pro Jahr bis 2030</t>
         </is>
       </c>
       <c r="I34" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>6 million people per year by 2030</t>
         </is>
       </c>
       <c r="J34" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>6 Millionen Menschen pro Jahr bis 2030</t>
         </is>
       </c>
       <c r="K34" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>6 million people per year by 2030</t>
         </is>
       </c>
       <c r="L34" s="4" t="inlineStr">
         <is>
-          <t>Anzahl der Menschen, die einen neuen oder hochwertigeren Zugang zur Trinkwasserversorgung oder Anschluss zur Sanitärversorgung erhalten haben</t>
+          <t>Anzahl der Menschen, die einen neuen oder hochwertigeren Zugang zur Trinkwasserversorgung erhalten haben</t>
         </is>
       </c>
       <c r="M34" s="4" t="inlineStr">
         <is>
-          <t>Number of people gaining first-time or upgraded access to drinking water or sanitation</t>
+          <t>Number of people gaining first-time or upgraded access to drinking water</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="35">
       <c r="A35" s="4" t="inlineStr">
         <is>
-          <t>Z07_B01_P01_Ib01_I01</t>
+          <t>Z06_B02_P01_Ib01_I02</t>
         </is>
       </c>
       <c r="B35" s="4" t="inlineStr">
         <is>
-          <t>Z07_B01_P01_Ib01</t>
+          <t>Z06_B02_P01_Ib01</t>
         </is>
       </c>
       <c r="C35" s="4" t="inlineStr">
         <is>
-          <t>7.1.a</t>
+          <t>6.2.b</t>
         </is>
       </c>
       <c r="D35" s="4" t="inlineStr">
         <is>
-          <t>a) Endenergieproduktivität</t>
+          <t>b) Sanitärversorgung</t>
         </is>
       </c>
       <c r="E35" s="4" t="inlineStr">
         <is>
-          <t>a) Final energy productivity</t>
+          <t>b) Access to sanitation</t>
         </is>
       </c>
       <c r="F35" s="4" t="inlineStr">
         <is>
-          <t>Endenergieproduktivität</t>
+          <t>Anzahl der Menschen, die einen neuen oder verbesserten Anschluss zur Sanitärversorgung durch deutsche Unterstützung erhalten</t>
         </is>
       </c>
       <c r="G35" s="4" t="inlineStr">
         <is>
-          <t>Final energy productivity</t>
+          <t>Number of people gaining first-time or improved access to sanitation owing to German support</t>
         </is>
       </c>
       <c r="H35" s="4" t="inlineStr">
         <is>
-          <t>Steigerung um 2,1 % pro Jahr im Zeitraum von 2008 – 2050</t>
+          <t>4 Millionen Menschen pro Jahr bis 2030</t>
         </is>
       </c>
       <c r="I35" s="4" t="inlineStr">
         <is>
-          <t>Increase by 2.1 % per year from 2008 to 2050</t>
+          <t>4 million people per year by 2030</t>
         </is>
       </c>
       <c r="J35" s="4" t="inlineStr">
         <is>
-          <t>Steigerung um 2,1 % pro Jahr</t>
+          <t>4 Millionen Menschen pro Jahr bis 2030</t>
         </is>
       </c>
       <c r="K35" s="4" t="inlineStr">
         <is>
-          <t>increase by 2.1 % per year</t>
+          <t>4 million people per year by 2030</t>
         </is>
       </c>
       <c r="L35" s="4" t="inlineStr">
         <is>
-          <t>Endenergieproduktivität</t>
+          <t>Anzahl der Menschen, die einen neuen oder verbesserten Anschluss zur Sanitärversorgung erhalten haben</t>
         </is>
       </c>
       <c r="M35" s="4" t="inlineStr">
         <is>
-          <t>Final energy productivity</t>
+          <t>Number of people gaining first-time or improved access to sanitation</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="36">
       <c r="A36" s="4" t="inlineStr">
         <is>
-          <t>Z07_B01_P01_Ib01_I02</t>
+          <t>Z06_B02_P01_Ib01_I03</t>
         </is>
       </c>
       <c r="B36" s="4" t="inlineStr">
         <is>
-          <t>Z07_B01_P01_Ib01</t>
+          <t>Z06_B02_P01_Ib01</t>
         </is>
       </c>
       <c r="C36" s="4" t="inlineStr">
         <is>
-          <t>7.1.b</t>
+          <t>6.2</t>
         </is>
       </c>
       <c r="D36" s="4" t="inlineStr">
         <is>
-          <t>b) Primärenergieverbrauch</t>
+          <t>Trinkwasser- und Sanitärversorgung</t>
         </is>
       </c>
       <c r="E36" s="4" t="inlineStr">
         <is>
-          <t>b) Primary energy consumption</t>
+          <t>Access to drinking water and sanitation</t>
         </is>
       </c>
       <c r="F36" s="4" t="inlineStr">
         <is>
-          <t>Primärenergieverbrauch</t>
+          <t>Anzahl der Menschen, die einen neuen oder hochwertigeren Zugang zur Trinkwasserversorgung oder Anschluss zur Sanitärversorgung durch deutsche Unterstützung erhalten</t>
         </is>
       </c>
       <c r="G36" s="4" t="inlineStr">
         <is>
-          <t>Primary energy consumption</t>
+          <t>Number of people gaining first-time or upgraded access to drinking water or sanitation owing to German support</t>
         </is>
       </c>
       <c r="H36" s="4" t="inlineStr">
         <is>
-          <t>Senkung um 20 % bis 2020, um 30 % bis 2030 und um 50 % bis 2050 jeweils gegenüber 2008</t>
+          <t/>
         </is>
       </c>
       <c r="I36" s="4" t="inlineStr">
         <is>
-          <t>Reduction by 20 % by 2020, by 30 % by 2030, and by 50 % by 2050, all compared to 2008</t>
+          <t/>
         </is>
       </c>
       <c r="J36" s="4" t="inlineStr">
         <is>
-          <t>Senkung um 30 % bis 2030</t>
+          <t/>
         </is>
       </c>
       <c r="K36" s="4" t="inlineStr">
         <is>
-          <t>reduction by 30 % by 2030</t>
+          <t/>
         </is>
       </c>
       <c r="L36" s="4" t="inlineStr">
         <is>
-          <t>Primärenergieverbrauch</t>
+          <t>Anzahl der Menschen, die einen neuen oder hochwertigeren Zugang zur Trinkwasserversorgung oder Anschluss zur Sanitärversorgung erhalten haben</t>
         </is>
       </c>
       <c r="M36" s="4" t="inlineStr">
         <is>
-          <t>Primary energy consumption</t>
+          <t>Number of people gaining first-time or upgraded access to drinking water or sanitation</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="37">
       <c r="A37" s="4" t="inlineStr">
         <is>
-          <t>Z07_B02_P01_Ib01_I01</t>
+          <t>Z07_B01_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B37" s="4" t="inlineStr">
         <is>
-          <t>Z07_B02_P01_Ib01</t>
+          <t>Z07_B01_P01_Ib01</t>
         </is>
       </c>
       <c r="C37" s="4" t="inlineStr">
         <is>
-          <t>7.2.a</t>
+          <t>7.1.a</t>
         </is>
       </c>
       <c r="D37" s="4" t="inlineStr">
         <is>
-          <t>Erneuerbarer Energien</t>
+          <t>a) Endenergieproduktivität</t>
         </is>
       </c>
       <c r="E37" s="4" t="inlineStr">
         <is>
-          <t>Renewable energies</t>
+          <t>a) Final energy productivity</t>
         </is>
       </c>
       <c r="F37" s="4" t="inlineStr">
         <is>
-          <t>Anteil erneuerbarer Energien am Brutto-Endenergieverbrauch</t>
+          <t>Endenergieproduktivität</t>
         </is>
       </c>
       <c r="G37" s="4" t="inlineStr">
         <is>
-          <t>Share of renewable energies in gross final energy consumption</t>
+          <t>Final energy productivity</t>
         </is>
       </c>
       <c r="H37" s="4" t="inlineStr">
         <is>
-          <t>Anstieg auf 18 % bis 2020, auf 30 % bis 2030, auf 45 % bis 2040 und auf 60 % bis 2050</t>
+          <t>Steigerung um 2,1 % pro Jahr im Zeitraum von 2008 – 2050</t>
         </is>
       </c>
       <c r="I37" s="4" t="inlineStr">
         <is>
-          <t>Increase to 18 % by 2020 and to 30 % by 2030, to 45 % by 2040 and to 60 % by 2050</t>
+          <t>Increase by 2.1 % per year from 2008 to 2050</t>
         </is>
       </c>
       <c r="J37" s="4" t="inlineStr">
         <is>
-          <t>Anstieg auf 30 % bis 2030</t>
+          <t>Steigerung um 2,1 % pro Jahr</t>
         </is>
       </c>
       <c r="K37" s="4" t="inlineStr">
         <is>
-          <t>increase to 30 % by 2030</t>
+          <t>increase by 2.1 % per year</t>
         </is>
       </c>
       <c r="L37" s="4" t="inlineStr">
         <is>
-          <t>Anteil erneuerbarer Energien am Brutto-Endenergieverbrauch</t>
+          <t>Endenergieproduktivität</t>
         </is>
       </c>
       <c r="M37" s="4" t="inlineStr">
         <is>
-          <t>Share of renewable energies in gross final energy consumption</t>
+          <t>Final energy productivity</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="38">
       <c r="A38" s="4" t="inlineStr">
         <is>
-          <t>Z07_B02_P01_Ib02_I01</t>
+          <t>Z07_B01_P01_Ib01_I02</t>
         </is>
       </c>
       <c r="B38" s="4" t="inlineStr">
         <is>
-          <t>Z07_B02_P01_Ib02</t>
+          <t>Z07_B01_P01_Ib01</t>
         </is>
       </c>
       <c r="C38" s="4" t="inlineStr">
         <is>
-          <t>7.2.b</t>
+          <t>7.1.b</t>
         </is>
       </c>
       <c r="D38" s="4" t="inlineStr">
         <is>
-          <t>Strom aus erneuerbaren Energiequellen</t>
+          <t>b) Primärenergieverbrauch</t>
         </is>
       </c>
       <c r="E38" s="4" t="inlineStr">
         <is>
-          <t>Electricity from renewable energy sources</t>
+          <t>b) Primary energy consumption</t>
         </is>
       </c>
       <c r="F38" s="4" t="inlineStr">
         <is>
-          <t>Anteil des Stroms aus erneuerbaren Energiequellen am Bruttostromverbrauch</t>
+          <t>Primärenergieverbrauch</t>
         </is>
       </c>
       <c r="G38" s="4" t="inlineStr">
         <is>
-          <t>Share of electricity from renewable energy sources in gross electricity consumption</t>
+          <t>Primary energy consumption</t>
         </is>
       </c>
       <c r="H38" s="4" t="inlineStr">
         <is>
-          <t>Anstieg auf mindestens 80 % bis 2030</t>
+          <t>Senkung um 20 % bis 2020, um 30 % bis 2030 und um 50 % bis 2050 jeweils gegenüber 2008</t>
         </is>
       </c>
       <c r="I38" s="4" t="inlineStr">
         <is>
-          <t>Increase to at least 80 % by 2030</t>
+          <t>Reduction by 20 % by 2020, by 30 % by 2030, and by 50 % by 2050, all compared to 2008</t>
         </is>
       </c>
       <c r="J38" s="4" t="inlineStr">
         <is>
-          <t>Anstieg auf 80 % bis 2030</t>
+          <t>Senkung um 30 % bis 2030</t>
         </is>
       </c>
       <c r="K38" s="4" t="inlineStr">
         <is>
-          <t>increase to 80 % by 2030</t>
+          <t>reduction by 30 % by 2030</t>
         </is>
       </c>
       <c r="L38" s="4" t="inlineStr">
         <is>
-          <t>Anteil des Stroms aus erneuerbaren Energiequellen am Bruttostromverbrauch</t>
+          <t>Primärenergieverbrauch</t>
         </is>
       </c>
       <c r="M38" s="4" t="inlineStr">
         <is>
-          <t>Share of electricity from renewable energy sources in gross electricity consumption</t>
+          <t>Primary energy consumption</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="39">
       <c r="A39" s="4" t="inlineStr">
         <is>
-          <t>Z08_B01_P01_Ib01_I01</t>
+          <t>Z07_B02_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B39" s="4" t="inlineStr">
         <is>
-          <t>Z08_B01_P01_Ib01</t>
+          <t>Z07_B02_P01_Ib01</t>
         </is>
       </c>
       <c r="C39" s="4" t="inlineStr">
         <is>
-          <t>8.1</t>
+          <t>7.2.a</t>
         </is>
       </c>
       <c r="D39" s="4" t="inlineStr">
         <is>
-          <t>Gesamtrohstoffproduktivität</t>
+          <t>Erneuerbarer Energien</t>
         </is>
       </c>
       <c r="E39" s="4" t="inlineStr">
         <is>
-          <t>Raw material input productivity</t>
+          <t>Renewable energies</t>
         </is>
       </c>
       <c r="F39" s="4" t="inlineStr">
         <is>
-          <t>Gesamtrohstoffproduktivität</t>
+          <t>Anteil erneuerbarer Energien am Brutto-Endenergieverbrauch</t>
         </is>
       </c>
       <c r="G39" s="4" t="inlineStr">
         <is>
-          <t>Raw material input productivity</t>
+          <t>Share of renewable energies in gross final energy consumption</t>
         </is>
       </c>
       <c r="H39" s="4" t="inlineStr">
         <is>
-          <t>Beibehaltung des Trends der Jahre 2000 – 2010 bis 2030</t>
+          <t>Anstieg auf 18 % bis 2020, auf 30 % bis 2030, auf 45 % bis 2040 und auf 60 % bis 2050</t>
         </is>
       </c>
       <c r="I39" s="4" t="inlineStr">
         <is>
-          <t>Trend of the years 2000–2010 to be maintained until 2030</t>
+          <t>Increase to 18 % by 2020 and to 30 % by 2030, to 45 % by 2040 and to 60 % by 2050</t>
         </is>
       </c>
       <c r="J39" s="4" t="inlineStr">
         <is>
-          <t>Beibehaltung des Trends der Jahre 2000 - 2010 bis 2030</t>
+          <t>Anstieg auf 30 % bis 2030</t>
         </is>
       </c>
       <c r="K39" s="4" t="inlineStr">
         <is>
-          <t>trend of the years 2000-2010 to be maintained until 2030</t>
+          <t>increase to 30 % by 2030</t>
         </is>
       </c>
       <c r="L39" s="4" t="inlineStr">
         <is>
-          <t>Gesamtrohstoffproduktivität</t>
+          <t>Anteil erneuerbarer Energien am Brutto-Endenergieverbrauch</t>
         </is>
       </c>
       <c r="M39" s="4" t="inlineStr">
         <is>
-          <t>Raw material input productivity</t>
+          <t>Share of renewable energies in gross final energy consumption</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="40">
       <c r="A40" s="4" t="inlineStr">
         <is>
-          <t>Z08_B02_P01_Ib01_I01</t>
+          <t>Z07_B02_P01_Ib02_I01</t>
         </is>
       </c>
       <c r="B40" s="4" t="inlineStr">
         <is>
-          <t>Z08_B02_P01_Ib01</t>
+          <t>Z07_B02_P01_Ib02</t>
         </is>
       </c>
       <c r="C40" s="4" t="inlineStr">
         <is>
-          <t>8.2.a</t>
+          <t>7.2.b</t>
         </is>
       </c>
       <c r="D40" s="4" t="inlineStr">
         <is>
-          <t>a) Staatsdefizit</t>
+          <t>Strom aus erneuerbaren Energiequellen</t>
         </is>
       </c>
       <c r="E40" s="4" t="inlineStr">
         <is>
-          <t>a) Government deficit</t>
+          <t>Electricity from renewable energy sources</t>
         </is>
       </c>
       <c r="F40" s="4" t="inlineStr">
         <is>
-          <t>Staatsdefizit</t>
+          <t>Anteil des Stroms aus erneuerbaren Energiequellen am Bruttostromverbrauch</t>
         </is>
       </c>
       <c r="G40" s="4" t="inlineStr">
         <is>
-          <t>Government deficit</t>
+          <t>Share of electricity from renewable energy sources in gross electricity consumption</t>
         </is>
       </c>
       <c r="H40" s="4" t="inlineStr">
         <is>
-          <t>Jährliches Staatsdefizit kleiner als 3 % des BIP, Beibehaltung bis 2030</t>
+          <t>Anstieg auf mindestens 80 % bis 2030</t>
         </is>
       </c>
       <c r="I40" s="4" t="inlineStr">
         <is>
-          <t>Annual government deficit less than 3 % of GDP, to be maintained until 2030</t>
+          <t>Increase to at least 80 % by 2030</t>
         </is>
       </c>
       <c r="J40" s="4" t="inlineStr">
         <is>
-          <t>unter 3 % des BIP</t>
+          <t>Anstieg auf 80 % bis 2030</t>
         </is>
       </c>
       <c r="K40" s="4" t="inlineStr">
         <is>
-          <t>less than 3 % of GDP</t>
+          <t>increase to 80 % by 2030</t>
         </is>
       </c>
       <c r="L40" s="4" t="inlineStr">
         <is>
-          <t>Staatsdefizit</t>
+          <t>Anteil des Stroms aus erneuerbaren Energiequellen am Bruttostromverbrauch</t>
         </is>
       </c>
       <c r="M40" s="4" t="inlineStr">
         <is>
-          <t>Government deficit</t>
+          <t>Share of electricity from renewable energy sources in gross electricity consumption</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="41">
       <c r="A41" s="4" t="inlineStr">
         <is>
-          <t>Z08_B02_P01_Ib01_I02</t>
+          <t>Z08_B01_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B41" s="4" t="inlineStr">
         <is>
-          <t>Z08_B02_P01_Ib01</t>
+          <t>Z08_B01_P01_Ib01</t>
         </is>
       </c>
       <c r="C41" s="4" t="inlineStr">
         <is>
-          <t>8.2.b</t>
+          <t>8.1</t>
         </is>
       </c>
       <c r="D41" s="4" t="inlineStr">
         <is>
-          <t>b) Strukturelles Defizit</t>
+          <t>Gesamtrohstoffproduktivität</t>
         </is>
       </c>
       <c r="E41" s="4" t="inlineStr">
         <is>
-          <t>b) Structural deficit</t>
+          <t>Raw material input productivity</t>
         </is>
       </c>
       <c r="F41" s="4" t="inlineStr">
         <is>
-          <t>Strukturelles Defizit</t>
+          <t>Gesamtrohstoffproduktivität</t>
         </is>
       </c>
       <c r="G41" s="4" t="inlineStr">
         <is>
-          <t>Structural deficit</t>
+          <t>Raw material input productivity</t>
         </is>
       </c>
       <c r="H41" s="4" t="inlineStr">
         <is>
-          <t>Strukturell ausgeglichener Staatshaushalt, gesamtstaatliches strukturelles Defizit von max. 0,5 % des BIP, Beibehaltung bis 2030</t>
+          <t>Beibehaltung des Trends der Jahre 2000 – 2010 bis 2030</t>
         </is>
       </c>
       <c r="I41" s="4" t="inlineStr">
         <is>
-          <t>Structurally balanced government budget, general government structural deficit must not exceed 0.5 % of GDP, to be maintained until 2030</t>
+          <t>Trend of the years 2000–2010 to be maintained until 2030</t>
         </is>
       </c>
       <c r="J41" s="4" t="inlineStr">
         <is>
-          <t>unter 0,5 % des BIP</t>
+          <t>Beibehaltung des Trends der Jahre 2000 - 2010 bis 2030</t>
         </is>
       </c>
       <c r="K41" s="4" t="inlineStr">
         <is>
-          <t>less than 0.5 % of GDP</t>
+          <t>trend of the years 2000-2010 to be maintained until 2030</t>
         </is>
       </c>
       <c r="L41" s="4" t="inlineStr">
         <is>
-          <t>Strukturelles Defizit</t>
+          <t>Gesamtrohstoffproduktivität</t>
         </is>
       </c>
       <c r="M41" s="4" t="inlineStr">
         <is>
-          <t>Structural deficit</t>
+          <t>Raw material input productivity</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="42">
       <c r="A42" s="4" t="inlineStr">
         <is>
-          <t>Z08_B02_P01_Ib02_I01</t>
+          <t>Z08_B02_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B42" s="4" t="inlineStr">
         <is>
-          <t>Z08_B02_P01_Ib02</t>
+          <t>Z08_B02_P01_Ib01</t>
         </is>
       </c>
       <c r="C42" s="4" t="inlineStr">
         <is>
-          <t>8.2.c</t>
+          <t>8.2.a</t>
         </is>
       </c>
       <c r="D42" s="4" t="inlineStr">
         <is>
-          <t>Schuldenstandsquote</t>
+          <t>a) Staatsdefizit</t>
         </is>
       </c>
       <c r="E42" s="4" t="inlineStr">
         <is>
-          <t>Ratio of government debt</t>
+          <t>a) Government deficit</t>
         </is>
       </c>
       <c r="F42" s="4" t="inlineStr">
         <is>
-          <t>Schuldenstand</t>
+          <t>Staatsdefizit</t>
         </is>
       </c>
       <c r="G42" s="4" t="inlineStr">
         <is>
-          <t>Government debt</t>
+          <t>Government deficit</t>
         </is>
       </c>
       <c r="H42" s="4" t="inlineStr">
         <is>
-          <t>Schuldenstandsquote max. 60 % des BIP, Beibehaltung bis 2030</t>
+          <t>Jährliches Staatsdefizit kleiner als 3 % des BIP, Beibehaltung bis 2030</t>
         </is>
       </c>
       <c r="I42" s="4" t="inlineStr">
         <is>
-          <t>Ratio of government debt to GDP must not exceed  60 %, to be maintained until 2030</t>
+          <t>Annual government deficit less than 3 % of GDP, to be maintained until 2030</t>
         </is>
       </c>
       <c r="J42" s="4" t="inlineStr">
         <is>
-          <t>max. 60 % des BIP</t>
+          <t>unter 3 % des BIP</t>
         </is>
       </c>
       <c r="K42" s="4" t="inlineStr">
         <is>
-          <t>max. 60 % of GDP</t>
+          <t>less than 3 % of GDP</t>
         </is>
       </c>
       <c r="L42" s="4" t="inlineStr">
         <is>
-          <t>Schuldenstand</t>
+          <t>Staatsdefizit</t>
         </is>
       </c>
       <c r="M42" s="4" t="inlineStr">
         <is>
-          <t>Government debt</t>
+          <t>Government deficit</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="43">
       <c r="A43" s="4" t="inlineStr">
         <is>
-          <t>Z08_B03_P01_Ib01_I01</t>
+          <t>Z08_B02_P01_Ib01_I02</t>
         </is>
       </c>
       <c r="B43" s="4" t="inlineStr">
         <is>
-          <t>Z08_B03_P01_Ib01</t>
+          <t>Z08_B02_P01_Ib01</t>
         </is>
       </c>
       <c r="C43" s="4" t="inlineStr">
         <is>
-          <t>8.3</t>
+          <t>8.2.b</t>
         </is>
       </c>
       <c r="D43" s="4" t="inlineStr">
         <is>
-          <t>Anlageinvestitionen</t>
+          <t>b) Strukturelles Defizit</t>
         </is>
       </c>
       <c r="E43" s="4" t="inlineStr">
         <is>
-          <t>Gross fixed capital formation</t>
+          <t>b) Structural deficit</t>
         </is>
       </c>
       <c r="F43" s="4" t="inlineStr">
         <is>
-          <t>Verhältnis der Bruttoanlageinvestitionen zum BIP</t>
+          <t>Strukturelles Defizit</t>
         </is>
       </c>
       <c r="G43" s="4" t="inlineStr">
         <is>
-          <t>Gross fixed capital formation in relation to GDP</t>
+          <t>Structural deficit</t>
         </is>
       </c>
       <c r="H43" s="4" t="inlineStr">
         <is>
-          <t>Angemessene Entwicklung des Anteils, Beibehaltung bis 2030</t>
+          <t>Strukturell ausgeglichener Staatshaushalt, gesamtstaatliches strukturelles Defizit von max. 0,5 % des BIP, Beibehaltung bis 2030</t>
         </is>
       </c>
       <c r="I43" s="4" t="inlineStr">
         <is>
-          <t>Appropriate development of the ratio, to be maintained until 2030</t>
+          <t>Structurally balanced government budget, general government structural deficit must not exceed 0.5 % of GDP, to be maintained until 2030</t>
         </is>
       </c>
       <c r="J43" s="4" t="inlineStr">
         <is>
-          <t>angemessene Entwicklung bis 2030</t>
+          <t>unter 0,5 % des BIP</t>
         </is>
       </c>
       <c r="K43" s="4" t="inlineStr">
         <is>
-          <t>appropriate development by 2030</t>
+          <t>less than 0.5 % of GDP</t>
         </is>
       </c>
       <c r="L43" s="4" t="inlineStr">
         <is>
-          <t>Verhältnis der Bruttoanlageinvestitionen zum BIP</t>
+          <t>Strukturelles Defizit</t>
         </is>
       </c>
       <c r="M43" s="4" t="inlineStr">
         <is>
-          <t>Gross fixed capital formation in relation to GDP</t>
+          <t>Structural deficit</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="44">
       <c r="A44" s="4" t="inlineStr">
         <is>
-          <t>Z08_B04_P01_Ib01_I01</t>
+          <t>Z08_B02_P01_Ib02_I01</t>
         </is>
       </c>
       <c r="B44" s="4" t="inlineStr">
         <is>
-          <t>Z08_B04_P01_Ib01</t>
+          <t>Z08_B02_P01_Ib02</t>
         </is>
       </c>
       <c r="C44" s="4" t="inlineStr">
         <is>
-          <t>8.4</t>
+          <t>8.2.c</t>
         </is>
       </c>
       <c r="D44" s="4" t="inlineStr">
         <is>
-          <t>Bruttoinlandsprodukt</t>
+          <t>Schuldenstandsquote</t>
         </is>
       </c>
       <c r="E44" s="4" t="inlineStr">
         <is>
-          <t>Gross domestic product</t>
+          <t>Ratio of government debt</t>
         </is>
       </c>
       <c r="F44" s="4" t="inlineStr">
         <is>
-          <t>Bruttoinlandsprodukt je Einwohnerin und Einwohner</t>
+          <t>Schuldenstand</t>
         </is>
       </c>
       <c r="G44" s="4" t="inlineStr">
         <is>
-          <t>Gross domestic product per capita</t>
+          <t>Government debt</t>
         </is>
       </c>
       <c r="H44" s="4" t="inlineStr">
         <is>
-          <t>Stetiges und angemessenes Wirtschaftswachstum</t>
+          <t>Schuldenstandsquote max. 60 % des BIP, Beibehaltung bis 2030</t>
         </is>
       </c>
       <c r="I44" s="4" t="inlineStr">
         <is>
-          <t>Steady and appropriate economic growth</t>
+          <t>Ratio of government debt to GDP must not exceed  60 %, to be maintained until 2030</t>
         </is>
       </c>
       <c r="J44" s="4" t="inlineStr">
         <is>
-          <t>stetiges und angemessenes Wirtschaftswachstum</t>
+          <t>max. 60 % des BIP</t>
         </is>
       </c>
       <c r="K44" s="4" t="inlineStr">
         <is>
-          <t>steady and appropriate economic growth</t>
+          <t>max. 60 % of GDP</t>
         </is>
       </c>
       <c r="L44" s="4" t="inlineStr">
         <is>
-          <t>Bruttoinlandsprodukt je Einwohnerin und Einwohner</t>
+          <t>Schuldenstand</t>
         </is>
       </c>
       <c r="M44" s="4" t="inlineStr">
         <is>
-          <t>Gross domestic product per capita</t>
+          <t>Government debt</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="45">
       <c r="A45" s="4" t="inlineStr">
         <is>
-          <t>Z08_B05_P01_Ib01_I01</t>
+          <t>Z08_B03_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B45" s="4" t="inlineStr">
         <is>
-          <t>Z08_B05_P01_Ib01</t>
+          <t>Z08_B03_P01_Ib01</t>
         </is>
       </c>
       <c r="C45" s="4" t="inlineStr">
         <is>
-          <t>8.5.a</t>
+          <t>8.3</t>
         </is>
       </c>
       <c r="D45" s="4" t="inlineStr">
         <is>
-          <t>a) Insgesamt (20-64-Jährige)</t>
+          <t>Anlageinvestitionen</t>
         </is>
       </c>
       <c r="E45" s="4" t="inlineStr">
         <is>
-          <t>a) total (20 to 64-year-olds)</t>
+          <t>Gross fixed capital formation</t>
         </is>
       </c>
       <c r="F45" s="4" t="inlineStr">
         <is>
-          <t>Erwerbstätigenquote (20- bis 64-Jährige)</t>
+          <t>Verhältnis der Bruttoanlageinvestitionen zum BIP</t>
         </is>
       </c>
       <c r="G45" s="4" t="inlineStr">
         <is>
-          <t>Employment rate (20 to 64-year-olds)</t>
+          <t>Gross fixed capital formation in relation to GDP</t>
         </is>
       </c>
       <c r="H45" s="4" t="inlineStr">
         <is>
-          <t>Erhöhung auf 78 % bis 2030</t>
+          <t>Angemessene Entwicklung des Anteils, Beibehaltung bis 2030</t>
         </is>
       </c>
       <c r="I45" s="4" t="inlineStr">
         <is>
-          <t>Increase to 78 % by 2030</t>
+          <t>Appropriate development of the ratio, to be maintained until 2030</t>
         </is>
       </c>
       <c r="J45" s="4" t="inlineStr">
         <is>
-          <t>Erhöhung auf 78 % bis 2030</t>
+          <t>angemessene Entwicklung bis 2030</t>
         </is>
       </c>
       <c r="K45" s="4" t="inlineStr">
         <is>
-          <t>increase to 78 % by 2030</t>
+          <t>appropriate development by 2030</t>
         </is>
       </c>
       <c r="L45" s="4" t="inlineStr">
         <is>
-          <t>Erwerbstätigenquote insgesamt (20- bis 64-Jährige)</t>
+          <t>Verhältnis der Bruttoanlageinvestitionen zum BIP</t>
         </is>
       </c>
       <c r="M45" s="4" t="inlineStr">
         <is>
-          <t>Employment rate, total (20 to 64-year-olds)</t>
+          <t>Gross fixed capital formation in relation to GDP</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="46">
       <c r="A46" s="4" t="inlineStr">
         <is>
-          <t>Z08_B05_P01_Ib01_I02</t>
+          <t>Z08_B04_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B46" s="4" t="inlineStr">
         <is>
-          <t>Z08_B05_P01_Ib01</t>
+          <t>Z08_B04_P01_Ib01</t>
         </is>
       </c>
       <c r="C46" s="4" t="inlineStr">
         <is>
-          <t>8.5.b</t>
+          <t>8.4</t>
         </is>
       </c>
       <c r="D46" s="4" t="inlineStr">
         <is>
-          <t>b) Ältere (60-64-Jährige)</t>
+          <t>Bruttoinlandsprodukt</t>
         </is>
       </c>
       <c r="E46" s="4" t="inlineStr">
         <is>
-          <t>b) older people (60 to 64-year-olds)</t>
+          <t>Gross domestic product</t>
         </is>
       </c>
       <c r="F46" s="4" t="inlineStr">
         <is>
-          <t>Erwerbstätigenquote (60- bis 64-Jährige)</t>
+          <t>Bruttoinlandsprodukt je Einwohnerin und Einwohner</t>
         </is>
       </c>
       <c r="G46" s="4" t="inlineStr">
         <is>
-          <t>Employment rate (60 to 64-year-olds)</t>
+          <t>Gross domestic product per capita</t>
         </is>
       </c>
       <c r="H46" s="4" t="inlineStr">
         <is>
-          <t>Erhöhung auf 60 % bis 2030</t>
+          <t>Stetiges und angemessenes Wirtschaftswachstum</t>
         </is>
       </c>
       <c r="I46" s="4" t="inlineStr">
         <is>
-          <t>Increase to 60 % by 2030</t>
+          <t>Steady and appropriate economic growth</t>
         </is>
       </c>
       <c r="J46" s="4" t="inlineStr">
         <is>
-          <t>Erhöhung auf 60 % bis 2030</t>
+          <t>stetiges und angemessenes Wirtschaftswachstum</t>
         </is>
       </c>
       <c r="K46" s="4" t="inlineStr">
         <is>
-          <t>increase to 60 % by 2030</t>
+          <t>steady and appropriate economic growth</t>
         </is>
       </c>
       <c r="L46" s="4" t="inlineStr">
         <is>
-          <t>Erwerbstätigenquote Ältere (60- bis 64-Jährige)</t>
+          <t>Bruttoinlandsprodukt je Einwohnerin und Einwohner</t>
         </is>
       </c>
       <c r="M46" s="4" t="inlineStr">
         <is>
-          <t>Employment rate, older people (60 to 64-year-olds)</t>
+          <t>Gross domestic product per capita</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="47">
       <c r="A47" s="4" t="inlineStr">
         <is>
-          <t>Z08_B06_P01_Ib01_I01</t>
+          <t>Z08_B05_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B47" s="4" t="inlineStr">
         <is>
-          <t>Z08_B06_P01_Ib01</t>
+          <t>Z08_B05_P01_Ib01</t>
         </is>
       </c>
       <c r="C47" s="4" t="inlineStr">
         <is>
-          <t>8.6</t>
+          <t>8.5.a</t>
         </is>
       </c>
       <c r="D47" s="4" t="inlineStr">
         <is>
-          <t>Mitglieder des Textilbündnisses</t>
+          <t>a) Insgesamt (20-64-Jährige)</t>
         </is>
       </c>
       <c r="E47" s="4" t="inlineStr">
         <is>
-          <t>Members of the Textile Partnership</t>
+          <t>a) total (20 to 64-year-olds)</t>
         </is>
       </c>
       <c r="F47" s="4" t="inlineStr">
         <is>
-          <t>Mitglieder des Textilbündnisses</t>
+          <t>Erwerbstätigenquote (20- bis 64-Jährige)</t>
         </is>
       </c>
       <c r="G47" s="4" t="inlineStr">
         <is>
-          <t>Members of the Textile Partnership</t>
+          <t>Employment rate (20 to 64-year-olds)</t>
         </is>
       </c>
       <c r="H47" s="4" t="inlineStr">
         <is>
-          <t>Signifikante Steigerung bis 2030</t>
+          <t>Erhöhung auf 78 % bis 2030</t>
         </is>
       </c>
       <c r="I47" s="4" t="inlineStr">
         <is>
-          <t>Significantly increase by 2030</t>
+          <t>Increase to 78 % by 2030</t>
         </is>
       </c>
       <c r="J47" s="4" t="inlineStr">
         <is>
-          <t>Steigerung der Anzahl bis 2030</t>
+          <t>Erhöhung auf 78 % bis 2030</t>
         </is>
       </c>
       <c r="K47" s="4" t="inlineStr">
         <is>
-          <t>increase number by 2030</t>
+          <t>increase to 78 % by 2030</t>
         </is>
       </c>
       <c r="L47" s="4" t="inlineStr">
         <is>
-          <t>Mitglieder des Textilbündnisses</t>
+          <t>Erwerbstätigenquote insgesamt (20- bis 64-Jährige)</t>
         </is>
       </c>
       <c r="M47" s="4" t="inlineStr">
         <is>
-          <t>Members of the Textile Partnership</t>
+          <t>Employment rate, total (20 to 64-year-olds)</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="48">
       <c r="A48" s="4" t="inlineStr">
         <is>
-          <t>Z09_B01_P01_Ib01_I01</t>
+          <t>Z08_B05_P01_Ib01_I02</t>
         </is>
       </c>
       <c r="B48" s="4" t="inlineStr">
         <is>
-          <t>Z09_B01_P01_Ib01</t>
+          <t>Z08_B05_P01_Ib01</t>
         </is>
       </c>
       <c r="C48" s="4" t="inlineStr">
         <is>
-          <t>9.1.a</t>
+          <t>8.5.b</t>
         </is>
       </c>
       <c r="D48" s="4" t="inlineStr">
         <is>
-          <t>Ausgaben für Forschung und Entwicklung</t>
+          <t>b) Ältere (60-64-Jährige)</t>
         </is>
       </c>
       <c r="E48" s="4" t="inlineStr">
         <is>
-          <t>Expenditure on research and development</t>
+          <t>b) older people (60 to 64-year-olds)</t>
         </is>
       </c>
       <c r="F48" s="4" t="inlineStr">
         <is>
-          <t>Private und öffentliche Ausgaben für Forschung und Entwicklung</t>
+          <t>Erwerbstätigenquote (60- bis 64-Jährige)</t>
         </is>
       </c>
       <c r="G48" s="4" t="inlineStr">
         <is>
-          <t>Private and public expenditure on research and development</t>
+          <t>Employment rate (60 to 64-year-olds)</t>
         </is>
       </c>
       <c r="H48" s="4" t="inlineStr">
         <is>
-          <t>Jährlich mindestens 3,5 % des BIP bis 2025</t>
+          <t>Erhöhung auf 60 % bis 2030</t>
         </is>
       </c>
       <c r="I48" s="4" t="inlineStr">
         <is>
-          <t>At least 3.5 % of GDP per year by 2025</t>
+          <t>Increase to 60 % by 2030</t>
         </is>
       </c>
       <c r="J48" s="4" t="inlineStr">
         <is>
-          <t>jährlich mindestens 3,5 % des BIP bis 2025</t>
+          <t>Erhöhung auf 60 % bis 2030</t>
         </is>
       </c>
       <c r="K48" s="4" t="inlineStr">
         <is>
-          <t>at least 3.5 % of GDP per year by 2025</t>
+          <t>increase to 60 % by 2030</t>
         </is>
       </c>
       <c r="L48" s="4" t="inlineStr">
         <is>
-          <t>Private und öffentliche Ausgaben für Forschung und Entwicklung</t>
+          <t>Erwerbstätigenquote Ältere (60- bis 64-Jährige)</t>
         </is>
       </c>
       <c r="M48" s="4" t="inlineStr">
         <is>
-          <t>Private and public expenditure on research and development</t>
+          <t>Employment rate, older people (60 to 64-year-olds)</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="49">
       <c r="A49" s="4" t="inlineStr">
         <is>
-          <t>Z09_B01_P01_Ib02_I01</t>
+          <t>Z08_B06_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B49" s="4" t="inlineStr">
         <is>
-          <t>Z09_B01_P01_Ib02</t>
+          <t>Z08_B06_P01_Ib01</t>
         </is>
       </c>
       <c r="C49" s="4" t="inlineStr">
         <is>
-          <t>9.1.b</t>
+          <t>8.6</t>
         </is>
       </c>
       <c r="D49" s="4" t="inlineStr">
         <is>
-          <t>Breitbandverfügbarkeit</t>
+          <t>Mitglieder des Textilbündnisses</t>
         </is>
       </c>
       <c r="E49" s="4" t="inlineStr">
         <is>
-          <t>Broadband availability</t>
+          <t>Members of the Textile Partnership</t>
         </is>
       </c>
       <c r="F49" s="4" t="inlineStr">
         <is>
-          <t>Breitbandausbau – Anteil der Haushalte mit Zugang zu Gigabit-Breitbandversorgung</t>
+          <t>Mitglieder des Textilbündnisses</t>
         </is>
       </c>
       <c r="G49" s="4" t="inlineStr">
         <is>
-          <t>Roll-out of broadband – Share of households with access to gigabit broadband services</t>
+          <t>Members of the Textile Partnership</t>
         </is>
       </c>
       <c r="H49" s="4" t="inlineStr">
         <is>
-          <t>Flächendeckender Aufbau von Gigabitnetzen bis 2025</t>
+          <t>Signifikante Steigerung bis 2030</t>
         </is>
       </c>
       <c r="I49" s="4" t="inlineStr">
         <is>
-          <t>Universal gigabit network Roll-out by 2025</t>
+          <t>Significantly increase by 2030</t>
         </is>
       </c>
       <c r="J49" s="4" t="inlineStr">
         <is>
-          <t>flächendeckender Aufbau bis 2025</t>
+          <t>Steigerung der Anzahl bis 2030</t>
         </is>
       </c>
       <c r="K49" s="4" t="inlineStr">
         <is>
-          <t>universal Roll-out by 2025</t>
+          <t>increase number by 2030</t>
         </is>
       </c>
       <c r="L49" s="4" t="inlineStr">
         <is>
-          <t>Breitbandausbau – Anteil der Haushalte mit Zugang zu Gigabit-Breitbandversorgung</t>
+          <t>Mitglieder des Textilbündnisses</t>
         </is>
       </c>
       <c r="M49" s="4" t="inlineStr">
         <is>
-          <t>Roll-out of broadband – Share of households with access to gigabit broadband services</t>
+          <t>Members of the Textile Partnership</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="50">
       <c r="A50" s="4" t="inlineStr">
         <is>
-          <t>Z10_B01_P01_Ib01_I01</t>
+          <t>Z09_B01_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B50" s="4" t="inlineStr">
         <is>
-          <t>Z10_B01_P01_Ib01</t>
+          <t>Z09_B01_P01_Ib01</t>
         </is>
       </c>
       <c r="C50" s="4" t="inlineStr">
         <is>
-          <t>10.1</t>
+          <t>9.1.a</t>
         </is>
       </c>
       <c r="D50" s="4" t="inlineStr">
         <is>
-          <t>Abschlussquote</t>
+          <t>Ausgaben für Forschung und Entwicklung</t>
         </is>
       </c>
       <c r="E50" s="4" t="inlineStr">
         <is>
-          <t>Graduation rate</t>
+          <t>Expenditure on research and development</t>
         </is>
       </c>
       <c r="F50" s="4" t="inlineStr">
         <is>
-          <t>Ausländische Schulabsolventinnen und Schulabsolventen</t>
+          <t>Private und öffentliche Ausgaben für Forschung und Entwicklung</t>
         </is>
       </c>
       <c r="G50" s="4" t="inlineStr">
         <is>
-          <t>Foreign school graduates</t>
+          <t>Private and public expenditure on research and development</t>
         </is>
       </c>
       <c r="H50" s="4" t="inlineStr">
         <is>
-          <t>Erhöhung des Anteils der ausländischen Schulabgänger mit mindestens Hauptschulabschluss und Angleichung an die Quote deutscher Schulabgänger bis 2030</t>
+          <t>Jährlich mindestens 3,5 % des BIP bis 2025</t>
         </is>
       </c>
       <c r="I50" s="4" t="inlineStr">
         <is>
-          <t>Increase the proportion of foreign school leavers with a least a secondary general school certificate and bring into line with that of German school leavers by 2030</t>
+          <t>At least 3.5 % of GDP per year by 2025</t>
         </is>
       </c>
       <c r="J50" s="4" t="inlineStr">
         <is>
-          <t>Erhöhung bei ausländischen Schulabsolvierenden und Angleichung an die Quote deutscher -absolvierenden bis 2030</t>
+          <t>jährlich mindestens 3,5 % des BIP bis 2025</t>
         </is>
       </c>
       <c r="K50" s="4" t="inlineStr">
         <is>
-          <t>increase among foreign school leavers and bring it into line with the rate of German school leavers by 2030</t>
+          <t>at least 3.5 % of GDP per year by 2025</t>
         </is>
       </c>
       <c r="L50" s="4" t="inlineStr">
         <is>
-          <t>Ausländische Schulabsolventinnen und Schulabsolventen</t>
+          <t>Private und öffentliche Ausgaben für Forschung und Entwicklung</t>
         </is>
       </c>
       <c r="M50" s="4" t="inlineStr">
         <is>
-          <t>Foreign school graduates</t>
+          <t>Private and public expenditure on research and development</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="51">
       <c r="A51" s="4" t="inlineStr">
         <is>
-          <t>Z10_B02_P01_Ib01_I01</t>
+          <t>Z09_B01_P01_Ib02_I01</t>
         </is>
       </c>
       <c r="B51" s="4" t="inlineStr">
         <is>
-          <t>Z10_B02_P01_Ib01</t>
+          <t>Z09_B01_P01_Ib02</t>
         </is>
       </c>
       <c r="C51" s="4" t="inlineStr">
         <is>
-          <t>10.2</t>
+          <t>9.1.b</t>
         </is>
       </c>
       <c r="D51" s="4" t="inlineStr">
         <is>
-          <t>Gini-Koeffizient Einkommen nach Sozialtransfer</t>
+          <t>Breitbandverfügbarkeit</t>
         </is>
       </c>
       <c r="E51" s="4" t="inlineStr">
         <is>
-          <t>Gini coefficient of income after social transfers</t>
+          <t>Broadband availability</t>
         </is>
       </c>
       <c r="F51" s="4" t="inlineStr">
         <is>
-          <t>Gini-Koeffizient des Einkommens nach Sozialtransfers</t>
+          <t>Breitbandausbau – Anteil der Haushalte mit Zugang zu Gigabit-Breitbandversorgung</t>
         </is>
       </c>
       <c r="G51" s="4" t="inlineStr">
         <is>
-          <t>Gini coefficient of income after social transfers</t>
+          <t>Roll-out of broadband – Share of households with access to gigabit broadband services</t>
         </is>
       </c>
       <c r="H51" s="4" t="inlineStr">
         <is>
-          <t>Gini-Koeffizient Einkommen nach Sozialtransfer bis 2030 unterhalb des EU-27-Wertes</t>
+          <t>Flächendeckender Aufbau von Gigabitnetzen bis 2025</t>
         </is>
       </c>
       <c r="I51" s="4" t="inlineStr">
         <is>
-          <t>Gini coefficient of income after social transfers to be below the EU-27 figure by 2030</t>
+          <t>Universal gigabit network Roll-out by 2025</t>
         </is>
       </c>
       <c r="J51" s="4" t="inlineStr">
         <is>
-          <t>bis 2030 unterhalb des EU-27-Wertes</t>
+          <t>flächendeckender Aufbau bis 2025</t>
         </is>
       </c>
       <c r="K51" s="4" t="inlineStr">
         <is>
-          <t>to be below the EU-27 figure by 2030</t>
+          <t>universal Roll-out by 2025</t>
         </is>
       </c>
       <c r="L51" s="4" t="inlineStr">
         <is>
-          <t>Gini-Koeffizient des Einkommens nach Sozialtransfers</t>
+          <t>Breitbandausbau – Anteil der Haushalte mit Zugang zu Gigabit-Breitbandversorgung</t>
         </is>
       </c>
       <c r="M51" s="4" t="inlineStr">
         <is>
-          <t>Gini coefficient of income after social transfers</t>
+          <t>Roll-out of broadband – Share of households with access to gigabit broadband services</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="52">
       <c r="A52" s="4" t="inlineStr">
         <is>
-          <t>Z11_B01_P01_Ib01_I01</t>
+          <t>Z10_B01_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B52" s="4" t="inlineStr">
         <is>
-          <t>Z11_B01_P01_Ib01</t>
+          <t>Z10_B01_P01_Ib01</t>
         </is>
       </c>
       <c r="C52" s="4" t="inlineStr">
         <is>
-          <t>11.1.a</t>
+          <t>10.1</t>
         </is>
       </c>
       <c r="D52" s="4" t="inlineStr">
         <is>
-          <t>Anstieg der Siedlungs- und Verkehrsfläche</t>
+          <t>Abschlussquote</t>
         </is>
       </c>
       <c r="E52" s="4" t="inlineStr">
         <is>
-          <t>Expansion of settlement and transport area</t>
+          <t>Graduation rate</t>
         </is>
       </c>
       <c r="F52" s="4" t="inlineStr">
         <is>
-          <t>Anstieg der Siedlungs- und Verkehrsfläche</t>
+          <t>Ausländische Schulabsolventinnen und Schulabsolventen</t>
         </is>
       </c>
       <c r="G52" s="4" t="inlineStr">
         <is>
-          <t>Expansion of settlement and transport area</t>
+          <t>Foreign school graduates</t>
         </is>
       </c>
       <c r="H52" s="4" t="inlineStr">
         <is>
-          <t>Senkung auf durchschnittlich unter 30 ha pro Tag bis 2030</t>
+          <t>Erhöhung des Anteils der ausländischen Schulabgänger mit mindestens Hauptschulabschluss und Angleichung an die Quote deutscher Schulabgänger bis 2030</t>
         </is>
       </c>
       <c r="I52" s="4" t="inlineStr">
         <is>
-          <t>Reduction to under 30 ha on average per day by 2030</t>
+          <t>Increase the proportion of foreign school leavers with a least a secondary general school certificate and bring into line with that of German school leavers by 2030</t>
         </is>
       </c>
       <c r="J52" s="4" t="inlineStr">
         <is>
-          <t>Senkung auf unter 30 ha pro Tag bis 2030</t>
+          <t>Erhöhung bei ausländischen Schulabsolvierenden und Angleichung an die Quote deutscher -absolvierenden bis 2030</t>
         </is>
       </c>
       <c r="K52" s="4" t="inlineStr">
         <is>
-          <t>reduction to under 30 ha per day by 2030</t>
+          <t>increase among foreign school leavers and bring it into line with the rate of German school leavers by 2030</t>
         </is>
       </c>
       <c r="L52" s="4" t="inlineStr">
         <is>
-          <t>Anstieg der Siedlungs- und Verkehrsfläche</t>
+          <t>Ausländische Schulabsolventinnen und Schulabsolventen</t>
         </is>
       </c>
       <c r="M52" s="4" t="inlineStr">
         <is>
-          <t>Expansion of settlement and transport area</t>
+          <t>Foreign school graduates</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="53">
       <c r="A53" s="4" t="inlineStr">
         <is>
-          <t>Z11_B01_P01_Ib02_I01</t>
+          <t>Z10_B02_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B53" s="4" t="inlineStr">
         <is>
-          <t>Z11_B01_P01_Ib02</t>
+          <t>Z10_B02_P01_Ib01</t>
         </is>
       </c>
       <c r="C53" s="4" t="inlineStr">
         <is>
-          <t>11.1.b</t>
+          <t>10.2</t>
         </is>
       </c>
       <c r="D53" s="4" t="inlineStr">
         <is>
-          <t>Freiraumverlust</t>
+          <t>Gini-Koeffizient Einkommen nach Sozialtransfer</t>
         </is>
       </c>
       <c r="E53" s="4" t="inlineStr">
         <is>
-          <t>Loss of open space area</t>
+          <t>Gini coefficient of income after social transfers</t>
         </is>
       </c>
       <c r="F53" s="4" t="inlineStr">
         <is>
-          <t>Freiraumverlust</t>
+          <t>Gini-Koeffizient des Einkommens nach Sozialtransfers</t>
         </is>
       </c>
       <c r="G53" s="4" t="inlineStr">
         <is>
-          <t>Loss of open space area</t>
+          <t>Gini coefficient of income after social transfers</t>
         </is>
       </c>
       <c r="H53" s="4" t="inlineStr">
         <is>
-          <t>Verringerung des einwohnerbezogenen Freiflächenverlustes</t>
+          <t>Gini-Koeffizient Einkommen nach Sozialtransfer bis 2030 unterhalb des EU-27-Wertes</t>
         </is>
       </c>
       <c r="I53" s="4" t="inlineStr">
         <is>
-          <t>Reduce the loss of per capita open space area</t>
+          <t>Gini coefficient of income after social transfers to be below the EU-27 figure by 2030</t>
         </is>
       </c>
       <c r="J53" s="4" t="inlineStr">
         <is>
-          <t>Verringerung</t>
+          <t>bis 2030 unterhalb des EU-27-Wertes</t>
         </is>
       </c>
       <c r="K53" s="4" t="inlineStr">
         <is>
-          <t>reduce the loss</t>
+          <t>to be below the EU-27 figure by 2030</t>
         </is>
       </c>
       <c r="L53" s="4" t="inlineStr">
         <is>
-          <t>Freiraumverlust</t>
+          <t>Gini-Koeffizient des Einkommens nach Sozialtransfers</t>
         </is>
       </c>
       <c r="M53" s="4" t="inlineStr">
         <is>
-          <t>Loss of open space area</t>
+          <t>Gini coefficient of income after social transfers</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="54">
       <c r="A54" s="4" t="inlineStr">
         <is>
-          <t>Z11_B01_P01_Ib03_I01</t>
+          <t>Z11_B01_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B54" s="4" t="inlineStr">
         <is>
-          <t>Z11_B01_P01_Ib03</t>
+          <t>Z11_B01_P01_Ib01</t>
         </is>
       </c>
       <c r="C54" s="4" t="inlineStr">
         <is>
-          <t>11.1.c</t>
+          <t>11.1.a</t>
         </is>
       </c>
       <c r="D54" s="4" t="inlineStr">
         <is>
-          <t>Siedlungsdichte</t>
+          <t>Anstieg der Siedlungs- und Verkehrsfläche</t>
         </is>
       </c>
       <c r="E54" s="4" t="inlineStr">
         <is>
-          <t>Density of settlements</t>
+          <t>Expansion of settlement and transport area</t>
         </is>
       </c>
       <c r="F54" s="4" t="inlineStr">
         <is>
-          <t>Siedlungsdichte</t>
+          <t>Anstieg der Siedlungs- und Verkehrsfläche</t>
         </is>
       </c>
       <c r="G54" s="4" t="inlineStr">
         <is>
-          <t>Density of settlements</t>
+          <t>Expansion of settlement and transport area</t>
         </is>
       </c>
       <c r="H54" s="4" t="inlineStr">
         <is>
-          <t>Keine Verringerung der Siedlungsdichte</t>
+          <t>Senkung auf durchschnittlich unter 30 ha pro Tag bis 2030</t>
         </is>
       </c>
       <c r="I54" s="4" t="inlineStr">
         <is>
-          <t>No reduction in density of settlements</t>
+          <t>Reduction to under 30 ha on average per day by 2030</t>
         </is>
       </c>
       <c r="J54" s="4" t="inlineStr">
         <is>
-          <t>keine Verringerung</t>
+          <t>Senkung auf unter 30 ha pro Tag bis 2030</t>
         </is>
       </c>
       <c r="K54" s="4" t="inlineStr">
         <is>
-          <t>no reduction</t>
+          <t>reduction to under 30 ha per day by 2030</t>
         </is>
       </c>
       <c r="L54" s="4" t="inlineStr">
         <is>
-          <t>Siedlungsdichte</t>
+          <t>Anstieg der Siedlungs- und Verkehrsfläche</t>
         </is>
       </c>
       <c r="M54" s="4" t="inlineStr">
         <is>
-          <t>Density of settlements</t>
+          <t>Expansion of settlement and transport area</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="55">
       <c r="A55" s="4" t="inlineStr">
         <is>
-          <t>Z11_B02_P01_Ib01_I01</t>
+          <t>Z11_B01_P01_Ib02_I01</t>
         </is>
       </c>
       <c r="B55" s="4" t="inlineStr">
         <is>
-          <t>Z11_B02_P01_Ib01</t>
+          <t>Z11_B01_P01_Ib02</t>
         </is>
       </c>
       <c r="C55" s="4" t="inlineStr">
         <is>
-          <t>11.2.a</t>
+          <t>11.1.b</t>
         </is>
       </c>
       <c r="D55" s="4" t="inlineStr">
         <is>
-          <t>Endenergieverbrauch im Güterverkehr</t>
+          <t>Freiraumverlust</t>
         </is>
       </c>
       <c r="E55" s="4" t="inlineStr">
         <is>
-          <t>Energy consumption in goods transport</t>
+          <t>Loss of open space area</t>
         </is>
       </c>
       <c r="F55" s="4" t="inlineStr">
         <is>
-          <t>Endenergieverbrauch im Güterverkehr</t>
+          <t>Freiraumverlust</t>
         </is>
       </c>
       <c r="G55" s="4" t="inlineStr">
         <is>
-          <t>Final energy consumption in goods transport</t>
+          <t>Loss of open space area</t>
         </is>
       </c>
       <c r="H55" s="4" t="inlineStr">
         <is>
-          <t>Senkung um 15 bis 20 % bis 2030</t>
+          <t>Verringerung des einwohnerbezogenen Freiflächenverlustes</t>
         </is>
       </c>
       <c r="I55" s="4" t="inlineStr">
         <is>
-          <t>Reduction by 15–20 % by 2030</t>
+          <t>Reduce the loss of per capita open space area</t>
         </is>
       </c>
       <c r="J55" s="4" t="inlineStr">
         <is>
-          <t>Senkung um 15 bis 20 % bis 2030</t>
+          <t>Verringerung</t>
         </is>
       </c>
       <c r="K55" s="4" t="inlineStr">
         <is>
-          <t>reduction by 15-20 % by 2030</t>
+          <t>reduce the loss</t>
         </is>
       </c>
       <c r="L55" s="4" t="inlineStr">
         <is>
-          <t>Endenergieverbrauch im Güterverkehr</t>
+          <t>Freiraumverlust</t>
         </is>
       </c>
       <c r="M55" s="4" t="inlineStr">
         <is>
-          <t>Final energy consumption in goods transport</t>
+          <t>Loss of open space area</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="56">
       <c r="A56" s="4" t="inlineStr">
         <is>
-          <t>Z11_B02_P01_Ib02_I01</t>
+          <t>Z11_B01_P01_Ib03_I01</t>
         </is>
       </c>
       <c r="B56" s="4" t="inlineStr">
         <is>
-          <t>Z11_B02_P01_Ib02</t>
+          <t>Z11_B01_P01_Ib03</t>
         </is>
       </c>
       <c r="C56" s="4" t="inlineStr">
         <is>
-          <t>11.2.b</t>
+          <t>11.1.c</t>
         </is>
       </c>
       <c r="D56" s="4" t="inlineStr">
         <is>
-          <t>Endenergieverbrauch im Personenverkehr</t>
+          <t>Siedlungsdichte</t>
         </is>
       </c>
       <c r="E56" s="4" t="inlineStr">
         <is>
-          <t>Energy consumption in passenger transport</t>
+          <t>Density of settlements</t>
         </is>
       </c>
       <c r="F56" s="4" t="inlineStr">
         <is>
-          <t>Endenergieverbrauch im Personenverkehr</t>
+          <t>Siedlungsdichte</t>
         </is>
       </c>
       <c r="G56" s="4" t="inlineStr">
         <is>
-          <t>Final energy consumption in passenger transport</t>
+          <t>Density of settlements</t>
         </is>
       </c>
       <c r="H56" s="4" t="inlineStr">
         <is>
-          <t>Senkung um 15 bis 20 % bis 2030</t>
+          <t>Keine Verringerung der Siedlungsdichte</t>
         </is>
       </c>
       <c r="I56" s="4" t="inlineStr">
         <is>
-          <t>Reduction by 15–20 % by 2030</t>
+          <t>No reduction in density of settlements</t>
         </is>
       </c>
       <c r="J56" s="4" t="inlineStr">
         <is>
-          <t>Senkung um 15 bis 20 % bis 2030</t>
+          <t>keine Verringerung</t>
         </is>
       </c>
       <c r="K56" s="4" t="inlineStr">
         <is>
-          <t>reduction by 15-20 % by 2030</t>
+          <t>no reduction</t>
         </is>
       </c>
       <c r="L56" s="4" t="inlineStr">
         <is>
-          <t>Endenergieverbrauch im Personenverkehr</t>
+          <t>Siedlungsdichte</t>
         </is>
       </c>
       <c r="M56" s="4" t="inlineStr">
         <is>
-          <t>Final energy consumption in passenger transport</t>
+          <t>Density of settlements</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="57">
       <c r="A57" s="4" t="inlineStr">
         <is>
-          <t>Z11_B02_P01_Ib03_I01</t>
+          <t>Z11_B02_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B57" s="4" t="inlineStr">
         <is>
-          <t>Z11_B02_P01_Ib03</t>
+          <t>Z11_B02_P01_Ib01</t>
         </is>
       </c>
       <c r="C57" s="4" t="inlineStr">
         <is>
-          <t>11.2.c</t>
+          <t>11.2.a</t>
         </is>
       </c>
       <c r="D57" s="4" t="inlineStr">
         <is>
-          <t>Reisezeit mit öffentlichen Verkehrsmitteln</t>
+          <t>Endenergieverbrauch im Güterverkehr</t>
         </is>
       </c>
       <c r="E57" s="4" t="inlineStr">
         <is>
-          <t>Average travel time by public transport</t>
+          <t>Energy consumption in goods transport</t>
         </is>
       </c>
       <c r="F57" s="4" t="inlineStr">
         <is>
-          <t>Erreichbarkeit von Mittel- und Oberzentren mit öffentlichen Verkehrsmitteln</t>
+          <t>Endenergieverbrauch im Güterverkehr</t>
         </is>
       </c>
       <c r="G57" s="4" t="inlineStr">
         <is>
-          <t>Accessibility of medium-sized and large cities by public transport</t>
+          <t>Final energy consumption in goods transport</t>
         </is>
       </c>
       <c r="H57" s="4" t="inlineStr">
         <is>
-          <t>Verringerung der durchschnittlichen Reisezeit mit öffentlichen Verkehrsmitteln</t>
+          <t>Senkung um 15 bis 20 % bis 2030</t>
         </is>
       </c>
       <c r="I57" s="4" t="inlineStr">
         <is>
-          <t>Reduction of average travel time by public transport</t>
+          <t>Reduction by 15–20 % by 2030</t>
         </is>
       </c>
       <c r="J57" s="4" t="inlineStr">
         <is>
-          <t>Verringerung</t>
+          <t>Senkung um 15 bis 20 % bis 2030</t>
         </is>
       </c>
       <c r="K57" s="4" t="inlineStr">
         <is>
-          <t>reduction</t>
+          <t>reduction by 15-20 % by 2030</t>
         </is>
       </c>
       <c r="L57" s="4" t="inlineStr">
         <is>
-          <t>Erreichbarkeit von Mittel- und Oberzentren mit öffentlichen Verkehrsmitteln</t>
+          <t>Endenergieverbrauch im Güterverkehr</t>
         </is>
       </c>
       <c r="M57" s="4" t="inlineStr">
         <is>
-          <t>Accessibility of medium-sized and large cities by public transport</t>
+          <t>Final energy consumption in goods transport</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="58">
       <c r="A58" s="4" t="inlineStr">
         <is>
-          <t>Z11_B03_P01_Ib01_I01</t>
+          <t>Z11_B02_P01_Ib02_I01</t>
         </is>
       </c>
       <c r="B58" s="4" t="inlineStr">
         <is>
-          <t>Z11_B03_P01_Ib01</t>
+          <t>Z11_B02_P01_Ib02</t>
         </is>
       </c>
       <c r="C58" s="4" t="inlineStr">
         <is>
-          <t>11.3</t>
+          <t>11.2.b</t>
         </is>
       </c>
       <c r="D58" s="4" t="inlineStr">
         <is>
-          <t>Durch Wohnkosten überlastete Personen</t>
+          <t>Endenergieverbrauch im Personenverkehr</t>
         </is>
       </c>
       <c r="E58" s="4" t="inlineStr">
         <is>
-          <t>Persons overburdened by housing costs</t>
+          <t>Energy consumption in passenger transport</t>
         </is>
       </c>
       <c r="F58" s="4" t="inlineStr">
         <is>
-          <t>Überlastung durch Wohnkosten</t>
+          <t>Endenergieverbrauch im Personenverkehr</t>
         </is>
       </c>
       <c r="G58" s="4" t="inlineStr">
         <is>
-          <t>Housing cost overload</t>
+          <t>Final energy consumption in passenger transport</t>
         </is>
       </c>
       <c r="H58" s="4" t="inlineStr">
         <is>
-          <t>Senkung des Anteils der überlasteten Personen an der Bevölkerung auf 13 % bis 2030</t>
+          <t>Senkung um 15 bis 20 % bis 2030</t>
         </is>
       </c>
       <c r="I58" s="4" t="inlineStr">
         <is>
-          <t>Reduce the proportion of people who are overburdened to 13 % by 2030</t>
+          <t>Reduction by 15–20 % by 2030</t>
         </is>
       </c>
       <c r="J58" s="4" t="inlineStr">
         <is>
-          <t>Senkung auf 13 % bis 2030</t>
+          <t>Senkung um 15 bis 20 % bis 2030</t>
         </is>
       </c>
       <c r="K58" s="4" t="inlineStr">
         <is>
-          <t>reduce to 13 % by 2030</t>
+          <t>reduction by 15-20 % by 2030</t>
         </is>
       </c>
       <c r="L58" s="4" t="inlineStr">
         <is>
-          <t>Überlastung durch Wohnkosten</t>
+          <t>Endenergieverbrauch im Personenverkehr</t>
         </is>
       </c>
       <c r="M58" s="4" t="inlineStr">
         <is>
-          <t>Housing cost overload</t>
+          <t>Final energy consumption in passenger transport</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="59">
       <c r="A59" s="4" t="inlineStr">
         <is>
-          <t>Z11_B04_P01_Ib01_I01</t>
+          <t>Z11_B02_P01_Ib03_I01</t>
         </is>
       </c>
       <c r="B59" s="4" t="inlineStr">
         <is>
-          <t>Z11_B04_P01_Ib01</t>
+          <t>Z11_B02_P01_Ib03</t>
         </is>
       </c>
       <c r="C59" s="4" t="inlineStr">
         <is>
-          <t>11.4</t>
+          <t>11.2.c</t>
         </is>
       </c>
       <c r="D59" s="4" t="inlineStr">
         <is>
-          <t>Objekte in der Deutschen Digitalen Bibliothek</t>
+          <t>Reisezeit mit öffentlichen Verkehrsmitteln</t>
         </is>
       </c>
       <c r="E59" s="4" t="inlineStr">
         <is>
-          <t>Objects in the German Digital Library</t>
+          <t>Average travel time by public transport</t>
         </is>
       </c>
       <c r="F59" s="4" t="inlineStr">
         <is>
-          <t>Zahl der Objekte in der Deutschen Digitalen Bibliothek</t>
+          <t>Erreichbarkeit von Mittel- und Oberzentren mit öffentlichen Verkehrsmitteln</t>
         </is>
       </c>
       <c r="G59" s="4" t="inlineStr">
         <is>
-          <t>Number of objects in the German Digital Library</t>
+          <t>Accessibility of medium-sized and large cities by public transport</t>
         </is>
       </c>
       <c r="H59" s="4" t="inlineStr">
         <is>
-          <t>Steigerung der Zahl der in der Deutschen Digitalen Bibliothek vernetzten Objekte auf 50 Millionen bis 2030</t>
+          <t>Verringerung der durchschnittlichen Reisezeit mit öffentlichen Verkehrsmitteln</t>
         </is>
       </c>
       <c r="I59" s="4" t="inlineStr">
         <is>
-          <t>Increase in the number of objects in the network of the German Digital Library to 50 million by 2030</t>
+          <t>Reduction of average travel time by public transport</t>
         </is>
       </c>
       <c r="J59" s="4" t="inlineStr">
         <is>
-          <t>Steigerung auf 50 Millionen bis 2030</t>
+          <t>Verringerung</t>
         </is>
       </c>
       <c r="K59" s="4" t="inlineStr">
         <is>
-          <t>increase to 50 million by 2030</t>
+          <t>reduction</t>
         </is>
       </c>
       <c r="L59" s="4" t="inlineStr">
         <is>
-          <t>Zahl der Objekte in der Deutschen Digitalen Bibliothek</t>
+          <t>Erreichbarkeit von Mittel- und Oberzentren mit öffentlichen Verkehrsmitteln</t>
         </is>
       </c>
       <c r="M59" s="4" t="inlineStr">
         <is>
-          <t>Number of objects in the German Digital Library</t>
+          <t>Accessibility of medium-sized and large cities by public transport</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="60">
       <c r="A60" s="4" t="inlineStr">
         <is>
-          <t>Z12_B01_P01_Ib01_I01</t>
+          <t>Z11_B03_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B60" s="4" t="inlineStr">
         <is>
-          <t>Z12_B01_P01_Ib01</t>
+          <t>Z11_B03_P01_Ib01</t>
         </is>
       </c>
       <c r="C60" s="4" t="inlineStr">
         <is>
-          <t>12.1.a</t>
+          <t>11.3</t>
         </is>
       </c>
       <c r="D60" s="4" t="inlineStr">
         <is>
-          <t>Produkte mit Umweltzeichen</t>
+          <t>Durch Wohnkosten überlastete Personen</t>
         </is>
       </c>
       <c r="E60" s="4" t="inlineStr">
         <is>
-          <t>Products certified by eco-labelling schemes</t>
+          <t>Persons overburdened by housing costs</t>
         </is>
       </c>
       <c r="F60" s="4" t="inlineStr">
         <is>
-          <t>Marktanteil von Produkten mit staatlichen Umweltzeichen</t>
+          <t>Überlastung durch Wohnkosten</t>
         </is>
       </c>
       <c r="G60" s="4" t="inlineStr">
         <is>
-          <t>Market share of products certified by publicly managed eco-labelling schemes</t>
+          <t>Housing cost overload</t>
         </is>
       </c>
       <c r="H60" s="4" t="inlineStr">
         <is>
-          <t>Steigerung des Marktanteils auf 34 % bis 2030</t>
+          <t>Senkung des Anteils der überlasteten Personen an der Bevölkerung auf 13 % bis 2030</t>
         </is>
       </c>
       <c r="I60" s="4" t="inlineStr">
         <is>
-          <t>Increase the market share to 34 % by 2030</t>
+          <t>Reduce the proportion of people who are overburdened to 13 % by 2030</t>
         </is>
       </c>
       <c r="J60" s="4" t="inlineStr">
         <is>
-          <t>Steigerung des Marktanteils auf 34 % bis 2030</t>
+          <t>Senkung auf 13 % bis 2030</t>
         </is>
       </c>
       <c r="K60" s="4" t="inlineStr">
         <is>
-          <t>increase the market share to 34 % by 2030</t>
+          <t>reduce to 13 % by 2030</t>
         </is>
       </c>
       <c r="L60" s="4" t="inlineStr">
         <is>
-          <t>Marktanteil von Produkten mit staatlichen Umweltzeichen</t>
+          <t>Überlastung durch Wohnkosten</t>
         </is>
       </c>
       <c r="M60" s="4" t="inlineStr">
         <is>
-          <t>Market share of products certified by publicly managed eco-labelling schemes</t>
+          <t>Housing cost overload</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="61">
       <c r="A61" s="4" t="inlineStr">
         <is>
-          <t>Z12_B01_P01_Ib02_I01</t>
+          <t>Z11_B04_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B61" s="4" t="inlineStr">
         <is>
-          <t>Z12_B01_P01_Ib02</t>
+          <t>Z11_B04_P01_Ib01</t>
         </is>
       </c>
       <c r="C61" s="4" t="inlineStr">
         <is>
-          <t>12.1.ba</t>
+          <t>11.4</t>
         </is>
       </c>
       <c r="D61" s="4" t="inlineStr">
         <is>
-          <t>ba) Rohstoffeinsatz</t>
+          <t>Objekte in der Deutschen Digitalen Bibliothek</t>
         </is>
       </c>
       <c r="E61" s="4" t="inlineStr">
         <is>
-          <t>ba) Use of raw materials</t>
+          <t>Objects in the German Digital Library</t>
         </is>
       </c>
       <c r="F61" s="4" t="inlineStr">
         <is>
-          <t>Globale Umweltinanspruchnahme durch den Konsum privater Haushalte - Rohstoffeinsatz</t>
+          <t>Zahl der Objekte in der Deutschen Digitalen Bibliothek</t>
         </is>
       </c>
       <c r="G61" s="4" t="inlineStr">
         <is>
-          <t>Global environmental impact by private household consumption – use of raw materials</t>
+          <t>Number of objects in the German Digital Library</t>
         </is>
       </c>
       <c r="H61" s="4" t="inlineStr">
         <is>
-          <t>Kontinuierliche Reduzierung </t>
+          <t>Steigerung der Zahl der in der Deutschen Digitalen Bibliothek vernetzten Objekte auf 50 Millionen bis 2030</t>
         </is>
       </c>
       <c r="I61" s="4" t="inlineStr">
         <is>
-          <t>Steady reduction</t>
+          <t>Increase in the number of objects in the network of the German Digital Library to 50 million by 2030</t>
         </is>
       </c>
       <c r="J61" s="4" t="inlineStr">
         <is>
-          <t>kontinuierliche Reduzierung</t>
+          <t>Steigerung auf 50 Millionen bis 2030</t>
         </is>
       </c>
       <c r="K61" s="4" t="inlineStr">
         <is>
-          <t>steady reduction</t>
+          <t>increase to 50 million by 2030</t>
         </is>
       </c>
       <c r="L61" s="4" t="inlineStr">
         <is>
-          <t>Direkter und indirekter Rohstoffeinsatz</t>
+          <t>Zahl der Objekte in der Deutschen Digitalen Bibliothek</t>
         </is>
       </c>
       <c r="M61" s="4" t="inlineStr">
         <is>
-          <t>Direct and indirect use of raw materials</t>
+          <t>Number of objects in the German Digital Library</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="62">
       <c r="A62" s="4" t="inlineStr">
         <is>
-          <t>Z12_B01_P01_Ib02_I02</t>
+          <t>Z12_B01_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B62" s="4" t="inlineStr">
         <is>
-          <t>Z12_B01_P01_Ib02</t>
+          <t>Z12_B01_P01_Ib01</t>
         </is>
       </c>
       <c r="C62" s="4" t="inlineStr">
         <is>
-          <t>12.1.bb</t>
+          <t>12.1.a</t>
         </is>
       </c>
       <c r="D62" s="4" t="inlineStr">
         <is>
-          <t>bb) Energieverbrauch</t>
+          <t>Produkte mit Umweltzeichen</t>
         </is>
       </c>
       <c r="E62" s="4" t="inlineStr">
         <is>
-          <t>bb) Energy consumption</t>
+          <t>Products certified by eco-labelling schemes</t>
         </is>
       </c>
       <c r="F62" s="4" t="inlineStr">
         <is>
-          <t>Globale Umweltinanspruchnahme durch den Konsum privater Haushalte - Energieverbrauch</t>
+          <t>Marktanteil von Produkten mit staatlichen Umweltzeichen</t>
         </is>
       </c>
       <c r="G62" s="4" t="inlineStr">
         <is>
-          <t>Global environmental impact by private household consumption – energy consumption</t>
+          <t>Market share of products certified by publicly managed eco-labelling schemes</t>
         </is>
       </c>
       <c r="H62" s="4" t="inlineStr">
         <is>
-          <t>Kontinuierliche Reduzierung </t>
+          <t>Steigerung des Marktanteils auf 34 % bis 2030</t>
         </is>
       </c>
       <c r="I62" s="4" t="inlineStr">
         <is>
-          <t>Steady reduction</t>
+          <t>Increase the market share to 34 % by 2030</t>
         </is>
       </c>
       <c r="J62" s="4" t="inlineStr">
         <is>
-          <t>kontinuierliche Reduzierung</t>
+          <t>Steigerung des Marktanteils auf 34 % bis 2030</t>
         </is>
       </c>
       <c r="K62" s="4" t="inlineStr">
         <is>
-          <t>steady reduction</t>
+          <t>increase the market share to 34 % by 2030</t>
         </is>
       </c>
       <c r="L62" s="4" t="inlineStr">
         <is>
-          <t>Direkter und indirekter Energieverbrauch</t>
+          <t>Marktanteil von Produkten mit staatlichen Umweltzeichen</t>
         </is>
       </c>
       <c r="M62" s="4" t="inlineStr">
         <is>
-          <t>Direct and indirect energy consumption</t>
+          <t>Market share of products certified by publicly managed eco-labelling schemes</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="63">
       <c r="A63" s="4" t="inlineStr">
         <is>
-          <t>Z12_B01_P01_Ib02_I03</t>
+          <t>Z12_B01_P01_Ib02_I01</t>
         </is>
       </c>
       <c r="B63" s="4" t="inlineStr">
@@ -4625,27 +4625,27 @@
       </c>
       <c r="C63" s="4" t="inlineStr">
         <is>
-          <t>12.1.bc</t>
+          <t>12.1.ba</t>
         </is>
       </c>
       <c r="D63" s="4" t="inlineStr">
         <is>
-          <t>bc) CO2-Emissionen</t>
+          <t>ba) Rohstoffeinsatz</t>
         </is>
       </c>
       <c r="E63" s="4" t="inlineStr">
         <is>
-          <t>bc) CO2 emissions</t>
+          <t>ba) Use of raw materials</t>
         </is>
       </c>
       <c r="F63" s="4" t="inlineStr">
         <is>
-          <t>Globale Umweltinanspruchnahme durch den Konsum privater Haushalte - CO2-Emissionen</t>
+          <t>Globale Umweltinanspruchnahme durch den Konsum privater Haushalte - Rohstoffeinsatz</t>
         </is>
       </c>
       <c r="G63" s="4" t="inlineStr">
         <is>
-          <t>Global environmental impact by private household consumption – CO2 emissions</t>
+          <t>Global environmental impact by private household consumption – use of raw materials</t>
         </is>
       </c>
       <c r="H63" s="4" t="inlineStr">
@@ -4670,1283 +4670,1417 @@
       </c>
       <c r="L63" s="4" t="inlineStr">
         <is>
-          <t>Direkte und indirekte CO2-Emissionen</t>
+          <t>Direkter und indirekter Rohstoffeinsatz</t>
         </is>
       </c>
       <c r="M63" s="4" t="inlineStr">
         <is>
-          <t>Direct and indirect CO2 emissions</t>
+          <t>Direct and indirect use of raw materials</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="64">
       <c r="A64" s="4" t="inlineStr">
         <is>
-          <t>Z12_B02_P01_Ib01_I01</t>
+          <t>Z12_B01_P01_Ib02_I02</t>
         </is>
       </c>
       <c r="B64" s="4" t="inlineStr">
         <is>
-          <t>Z12_B02_P01_Ib01</t>
+          <t>Z12_B01_P01_Ib02</t>
         </is>
       </c>
       <c r="C64" s="4" t="inlineStr">
         <is>
-          <t>12.2</t>
+          <t>12.1.bb</t>
         </is>
       </c>
       <c r="D64" s="4" t="inlineStr">
         <is>
-          <t>Umweltmanagement EMAS</t>
+          <t>bb) Energieverbrauch</t>
         </is>
       </c>
       <c r="E64" s="4" t="inlineStr">
         <is>
-          <t>EMAS eco-management</t>
+          <t>bb) Energy consumption</t>
         </is>
       </c>
       <c r="F64" s="4" t="inlineStr">
         <is>
-          <t>Umweltmanagement EMAS</t>
+          <t>Globale Umweltinanspruchnahme durch den Konsum privater Haushalte - Energieverbrauch</t>
         </is>
       </c>
       <c r="G64" s="4" t="inlineStr">
         <is>
-          <t>EMAS eco-management</t>
+          <t>Global environmental impact by private household consumption – energy consumption</t>
         </is>
       </c>
       <c r="H64" s="4" t="inlineStr">
         <is>
-          <t>5 000 Organisationsstandorte bis 2030</t>
+          <t>Kontinuierliche Reduzierung </t>
         </is>
       </c>
       <c r="I64" s="4" t="inlineStr">
         <is>
-          <t>5,000 locations of organisation by 2030</t>
+          <t>Steady reduction</t>
         </is>
       </c>
       <c r="J64" s="4" t="inlineStr">
         <is>
-          <t>5 000 Organisationsstandorte bis 2030</t>
+          <t>kontinuierliche Reduzierung</t>
         </is>
       </c>
       <c r="K64" s="4" t="inlineStr">
         <is>
-          <t>5,000 locations of organisation by 2030</t>
+          <t>steady reduction</t>
         </is>
       </c>
       <c r="L64" s="4" t="inlineStr">
         <is>
-          <t>Umweltmanagement EMAS</t>
+          <t>Direkter und indirekter Energieverbrauch</t>
         </is>
       </c>
       <c r="M64" s="4" t="inlineStr">
         <is>
-          <t>EMAS eco-management</t>
+          <t>Direct and indirect energy consumption</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="65">
       <c r="A65" s="4" t="inlineStr">
         <is>
-          <t>Z12_B03_P01_Ib01_I01</t>
+          <t>Z12_B01_P01_Ib02_I03</t>
         </is>
       </c>
       <c r="B65" s="4" t="inlineStr">
         <is>
-          <t>Z12_B03_P01_Ib01</t>
+          <t>Z12_B01_P01_Ib02</t>
         </is>
       </c>
       <c r="C65" s="4" t="inlineStr">
         <is>
-          <t>12.3.a</t>
+          <t>12.1.bc</t>
         </is>
       </c>
       <c r="D65" s="4" t="inlineStr">
         <is>
-          <t>a) Anteil Papier mit Blauem Engel der Bundesverwaltung</t>
+          <t>bc) CO2-Emissionen</t>
         </is>
       </c>
       <c r="E65" s="4" t="inlineStr">
         <is>
-          <t>a) Share of paper bearing the Blue Angel label of the federal administration</t>
+          <t>bc) CO2 emissions</t>
         </is>
       </c>
       <c r="F65" s="4" t="inlineStr">
         <is>
-          <t>Anteil des Papiers mit Blauem Engel am Gesamtpapierverbrauch der unmittelbaren Bundesverwaltung</t>
+          <t>Globale Umweltinanspruchnahme durch den Konsum privater Haushalte - CO2-Emissionen</t>
         </is>
       </c>
       <c r="G65" s="4" t="inlineStr">
         <is>
-          <t>Paper bearing the Blue Angel label as a proportion of the total paper consumption of the direct federal administration</t>
+          <t>Global environmental impact by private household consumption – CO2 emissions</t>
         </is>
       </c>
       <c r="H65" s="4" t="inlineStr">
         <is>
-          <t>Steigerung des Anteils auf 95 % bis 2020</t>
+          <t>Kontinuierliche Reduzierung </t>
         </is>
       </c>
       <c r="I65" s="4" t="inlineStr">
         <is>
-          <t>Increase the proportion to 95 % by 2020</t>
+          <t>Steady reduction</t>
         </is>
       </c>
       <c r="J65" s="4" t="inlineStr">
         <is>
-          <t>Steigerung auf 95 % bis 2020</t>
+          <t>kontinuierliche Reduzierung</t>
         </is>
       </c>
       <c r="K65" s="4" t="inlineStr">
         <is>
-          <t>increase to 95 % by 2020</t>
+          <t>steady reduction</t>
         </is>
       </c>
       <c r="L65" s="4" t="inlineStr">
         <is>
-          <t>Anteil des Papiers mit Blauem Engel am Gesamtpapierverbrauch der unmittelbaren Bundesverwaltung</t>
+          <t>Direkte und indirekte CO2-Emissionen</t>
         </is>
       </c>
       <c r="M65" s="4" t="inlineStr">
         <is>
-          <t>Paper bearing the Blue Angel label as a proportion of the total paper consumption of the direct federal administration</t>
+          <t>Direct and indirect CO2 emissions</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="66">
       <c r="A66" s="4" t="inlineStr">
         <is>
-          <t>Z12_B03_P01_Ib01_I02</t>
+          <t>Z12_B02_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B66" s="4" t="inlineStr">
         <is>
-          <t>Z12_B03_P01_Ib01</t>
+          <t>Z12_B02_P01_Ib01</t>
         </is>
       </c>
       <c r="C66" s="4" t="inlineStr">
         <is>
-          <t>12.3.b</t>
+          <t>12.2</t>
         </is>
       </c>
       <c r="D66" s="4" t="inlineStr">
         <is>
-          <t>b) CO2-Emissionen der Kfz der öffentlichen Hand</t>
+          <t>Umweltmanagement EMAS</t>
         </is>
       </c>
       <c r="E66" s="4" t="inlineStr">
         <is>
-          <t>b) CO2 emissions of vehicles in the public sector</t>
+          <t>EMAS eco-management</t>
         </is>
       </c>
       <c r="F66" s="4" t="inlineStr">
         <is>
-          <t>CO2-Emissionen je Fahrleistungen der Kraftfahrzeuge der öffentlichen Hand</t>
+          <t>Umweltmanagement EMAS</t>
         </is>
       </c>
       <c r="G66" s="4" t="inlineStr">
         <is>
-          <t>CO2 emissions of commercially available vehicles in the public sector</t>
+          <t>EMAS eco-management</t>
         </is>
       </c>
       <c r="H66" s="4" t="inlineStr">
         <is>
-          <t>Signifikante Senkung</t>
+          <t>5 000 Organisationsstandorte bis 2030</t>
         </is>
       </c>
       <c r="I66" s="4" t="inlineStr">
         <is>
-          <t>Significantly reduce</t>
+          <t>5,000 locations of organisation by 2030</t>
         </is>
       </c>
       <c r="J66" s="4" t="inlineStr">
         <is>
-          <t>signifikante Senkung</t>
+          <t>5 000 Organisationsstandorte bis 2030</t>
         </is>
       </c>
       <c r="K66" s="4" t="inlineStr">
         <is>
-          <t>significantly reduce</t>
+          <t>5,000 locations of organisation by 2030</t>
         </is>
       </c>
       <c r="L66" s="4" t="inlineStr">
         <is>
-          <t>CO2-Emissionen je Fahrleistungen der Kraftfahrzeuge der öffentlichen Hand</t>
+          <t>Umweltmanagement EMAS</t>
         </is>
       </c>
       <c r="M66" s="4" t="inlineStr">
         <is>
-          <t>CO2 emissions of commercially available vehicles in the public sector</t>
+          <t>EMAS eco-management</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="67">
       <c r="A67" s="4" t="inlineStr">
         <is>
-          <t>Z13_B01_P01_Ib01_I01</t>
+          <t>Z12_B03_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B67" s="4" t="inlineStr">
         <is>
-          <t>Z13_B01_P01_Ib01</t>
+          <t>Z12_B03_P01_Ib01</t>
         </is>
       </c>
       <c r="C67" s="4" t="inlineStr">
         <is>
-          <t>13.1.a</t>
+          <t>12.3.a</t>
         </is>
       </c>
       <c r="D67" s="4" t="inlineStr">
         <is>
-          <t>Treibhausgasemissionen</t>
+          <t>a) Anteil Papier mit Blauem Engel der Bundesverwaltung</t>
         </is>
       </c>
       <c r="E67" s="4" t="inlineStr">
         <is>
-          <t>Greenhouse gas emissions</t>
+          <t>a) Share of paper bearing the Blue Angel label of the federal administration</t>
         </is>
       </c>
       <c r="F67" s="4" t="inlineStr">
         <is>
-          <t>Treibhausgasemissionen</t>
+          <t>Anteil des Papiers mit Blauem Engel am Gesamtpapierverbrauch der unmittelbaren Bundesverwaltung</t>
         </is>
       </c>
       <c r="G67" s="4" t="inlineStr">
         <is>
-          <t>Greenhouse gas emissions</t>
+          <t>Paper bearing the Blue Angel label as a proportion of the total paper consumption of the direct federal administration</t>
         </is>
       </c>
       <c r="H67" s="4" t="inlineStr">
         <is>
-          <t>Minderung um mindestens 65 % bis 2030, um mindestens 88 % bis 2040; Erreichung der Treibhausgasneutralität bis 2045</t>
+          <t>Steigerung des Anteils auf 95 % bis 2020</t>
         </is>
       </c>
       <c r="I67" s="4" t="inlineStr">
         <is>
-          <t>Reduce by at least 65 % by 2030 and by at least 88 % by 2040; greenhouse gas neutrality to be achieved by 2045</t>
+          <t>Increase the proportion to 95 % by 2020</t>
         </is>
       </c>
       <c r="J67" s="4" t="inlineStr">
         <is>
-          <t>Minderung um 65 % bis 2030</t>
+          <t>Steigerung auf 95 % bis 2020</t>
         </is>
       </c>
       <c r="K67" s="4" t="inlineStr">
         <is>
-          <t>reduce by 65 % by 2030</t>
+          <t>increase to 95 % by 2020</t>
         </is>
       </c>
       <c r="L67" s="4" t="inlineStr">
         <is>
-          <t>Treibhausgasemissionen</t>
+          <t>Anteil des Papiers mit Blauem Engel am Gesamtpapierverbrauch der unmittelbaren Bundesverwaltung</t>
         </is>
       </c>
       <c r="M67" s="4" t="inlineStr">
         <is>
-          <t>Greenhouse gas emissions</t>
+          <t>Paper bearing the Blue Angel label as a proportion of the total paper consumption of the direct federal administration</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="68">
       <c r="A68" s="4" t="inlineStr">
         <is>
-          <t>Z13_B01_P02_Ib01_I01</t>
+          <t>Z12_B03_P01_Ib01_I02</t>
         </is>
       </c>
       <c r="B68" s="4" t="inlineStr">
         <is>
-          <t>Z13_B01_P02_Ib01</t>
+          <t>Z12_B03_P01_Ib01</t>
         </is>
       </c>
       <c r="C68" s="4" t="inlineStr">
         <is>
-          <t>13.1.b</t>
+          <t>12.3.b</t>
         </is>
       </c>
       <c r="D68" s="4" t="inlineStr">
         <is>
-          <t>Zahlungen zur Klimafinanzierung</t>
+          <t>b) CO2-Emissionen der Kfz der öffentlichen Hand</t>
         </is>
       </c>
       <c r="E68" s="4" t="inlineStr">
         <is>
-          <t>Climate finance payments</t>
+          <t>b) CO2 emissions of vehicles in the public sector</t>
         </is>
       </c>
       <c r="F68" s="4" t="inlineStr">
         <is>
-          <t>Internationale Klimafinanzierung zur Reduktion von Treibhausgasen und zur Anpassung an den Klimawandel</t>
+          <t>CO2-Emissionen je Fahrleistungen der Kraftfahrzeuge der öffentlichen Hand</t>
         </is>
       </c>
       <c r="G68" s="4" t="inlineStr">
         <is>
-          <t>International climate finance for the reduction of greenhouse gases and adaptation to climate change</t>
+          <t>CO2 emissions of commercially available vehicles in the public sector</t>
         </is>
       </c>
       <c r="H68" s="4" t="inlineStr">
         <is>
-          <t>Erhöhung der internationalen Klimafinanzierung auf mindestens 6 Mrd. Euro bis spätestens 2025.</t>
+          <t>Signifikante Senkung</t>
         </is>
       </c>
       <c r="I68" s="4" t="inlineStr">
         <is>
-          <t>Increase international climate finance to at least 6 billion euros by 2025 at the latest</t>
+          <t>Significantly reduce</t>
         </is>
       </c>
       <c r="J68" s="4" t="inlineStr">
         <is>
-          <t>Erhöhung auf 6 Mrd. Euro bis 2025</t>
+          <t>signifikante Senkung</t>
         </is>
       </c>
       <c r="K68" s="4" t="inlineStr">
         <is>
-          <t>increase to 6 bn euro by 2025</t>
+          <t>significantly reduce</t>
         </is>
       </c>
       <c r="L68" s="4" t="inlineStr">
         <is>
-          <t>Internationale Klimafinanzierung zur Reduktion von Treibhausgasen und zur Anpassung an den Klimawandel</t>
+          <t>CO2-Emissionen je Fahrleistungen der Kraftfahrzeuge der öffentlichen Hand</t>
         </is>
       </c>
       <c r="M68" s="4" t="inlineStr">
         <is>
-          <t>International climate finance for the reduction of greenhouse gases and adaptation to climate change</t>
+          <t>CO2 emissions of commercially available vehicles in the public sector</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="69">
       <c r="A69" s="4" t="inlineStr">
         <is>
-          <t>Z14_B01_P01_Ib01_I01</t>
+          <t>Z13_B01_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B69" s="4" t="inlineStr">
         <is>
-          <t>Z14_B01_P01_Ib01</t>
+          <t>Z13_B01_P01_Ib01</t>
         </is>
       </c>
       <c r="C69" s="4" t="inlineStr">
         <is>
-          <t>14.1.aa</t>
+          <t>13.1.a</t>
         </is>
       </c>
       <c r="D69" s="4" t="inlineStr">
         <is>
-          <t>aa) Ostsee</t>
+          <t>Treibhausgasemissionen</t>
         </is>
       </c>
       <c r="E69" s="4" t="inlineStr">
         <is>
-          <t>aa) Baltic Sea</t>
+          <t>Greenhouse gas emissions</t>
         </is>
       </c>
       <c r="F69" s="4" t="inlineStr">
         <is>
-          <t>Stickstoffeintrag über die Zuflüsse in die Ostsee</t>
+          <t>Treibhausgasemissionen</t>
         </is>
       </c>
       <c r="G69" s="4" t="inlineStr">
         <is>
-          <t>Nitrogen input via the inflows into the Baltic Sea</t>
+          <t>Greenhouse gas emissions</t>
         </is>
       </c>
       <c r="H69" s="4" t="inlineStr">
         <is>
-          <t>Einhaltung des guten Zustands nach Oberflächengewässerverordnung (Jahresmittelwerte für Gesamtstickstoff bei in die Ostsee mündenden Flüssen sollen 2,6 Milligramm pro Liter nicht überschreiten)</t>
+          <t>Minderung um mindestens 65 % bis 2030, um mindestens 88 % bis 2040; Erreichung der Treibhausgasneutralität bis 2045</t>
         </is>
       </c>
       <c r="I69" s="4" t="inlineStr">
         <is>
-          <t>Adherence to good quality in accordance with the Ordinance on the Protection of Surface Waters (Oberflächengewässerver-ordnung) (annual averages for total nitro-gen in rivers flowing into the Baltic may not exceed 2.6 mg/l)</t>
+          <t>Reduce by at least 65 % by 2030 and by at least 88 % by 2040; greenhouse gas neutrality to be achieved by 2045</t>
         </is>
       </c>
       <c r="J69" s="4" t="inlineStr">
         <is>
-          <t>Gesamtstickstoff in Zuflüssen unter 2,6 mg/l</t>
+          <t>Minderung um 65 % bis 2030</t>
         </is>
       </c>
       <c r="K69" s="4" t="inlineStr">
         <is>
-          <t>total nitrogen in the inflows below 2.6 mg/l</t>
+          <t>reduce by 65 % by 2030</t>
         </is>
       </c>
       <c r="L69" s="4" t="inlineStr">
         <is>
-          <t>Stickstoffeintrag über die Zuflüsse in die Ostsee</t>
+          <t>Treibhausgasemissionen</t>
         </is>
       </c>
       <c r="M69" s="4" t="inlineStr">
         <is>
-          <t>Nitrogen input via the inflows into the Baltic Sea</t>
+          <t>Greenhouse gas emissions</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="70">
       <c r="A70" s="4" t="inlineStr">
         <is>
-          <t>Z14_B01_P01_Ib01_I02</t>
+          <t>Z13_B01_P02_Ib01_I01</t>
         </is>
       </c>
       <c r="B70" s="4" t="inlineStr">
         <is>
-          <t>Z14_B01_P01_Ib01</t>
+          <t>Z13_B01_P02_Ib01</t>
         </is>
       </c>
       <c r="C70" s="4" t="inlineStr">
         <is>
-          <t>14.1.ab</t>
+          <t>13.1.b</t>
         </is>
       </c>
       <c r="D70" s="4" t="inlineStr">
         <is>
-          <t>ab) Nordsee</t>
+          <t>Zahlungen zur Klimafinanzierung</t>
         </is>
       </c>
       <c r="E70" s="4" t="inlineStr">
         <is>
-          <t>ab) North Sea</t>
+          <t>Climate finance payments</t>
         </is>
       </c>
       <c r="F70" s="4" t="inlineStr">
         <is>
-          <t>Stickstoffeintrag über die Zuflüsse in die Nordsee</t>
+          <t>Internationale Klimafinanzierung zur Reduktion von Treibhausgasen und zur Anpassung an den Klimawandel</t>
         </is>
       </c>
       <c r="G70" s="4" t="inlineStr">
         <is>
-          <t>Nitrogen input via the inflows into the North Sea</t>
+          <t>International climate finance for the reduction of greenhouse gases and adaptation to climate change</t>
         </is>
       </c>
       <c r="H70" s="4" t="inlineStr">
         <is>
-          <t>Einhaltung des guten Zustands nach Oberflächengewässerverordnung (Jahresmittelwerte für Gesamtstickstoff bei in die Nordsee mündenden Flüssen sollen 2,8 Milligramm pro Liter nicht überschreiten)</t>
+          <t>Erhöhung der internationalen Klimafinanzierung auf mindestens 6 Mrd. Euro bis spätestens 2025.</t>
         </is>
       </c>
       <c r="I70" s="4" t="inlineStr">
         <is>
-          <t>Adherence to good quality in accordance with the Ordinance on the Protection of Surface Waters (annual averages for total nitrogen in rivers flowing into the North Sea may not exceed 2.8 mg/l)</t>
+          <t>Increase international climate finance to at least 6 billion euros by 2025 at the latest</t>
         </is>
       </c>
       <c r="J70" s="4" t="inlineStr">
         <is>
-          <t>Gesamtstickstoff in Zuflüssen unter 2,8 mg/l</t>
+          <t>Erhöhung auf 6 Mrd. Euro bis 2025</t>
         </is>
       </c>
       <c r="K70" s="4" t="inlineStr">
         <is>
-          <t>total nitrogen in the inflows below 2.8 mg/l</t>
+          <t>increase to 6 bn euro by 2025</t>
         </is>
       </c>
       <c r="L70" s="4" t="inlineStr">
         <is>
-          <t>Stickstoffeintrag über die Zuflüsse in die Nordsee</t>
+          <t>Internationale Klimafinanzierung zur Reduktion von Treibhausgasen und zur Anpassung an den Klimawandel</t>
         </is>
       </c>
       <c r="M70" s="4" t="inlineStr">
         <is>
-          <t>Nitrogen input via the inflows into the North Sea</t>
+          <t>International climate finance for the reduction of greenhouse gases and adaptation to climate change</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="71">
       <c r="A71" s="4" t="inlineStr">
         <is>
-          <t>Z14_B01_P01_Ib02_I01</t>
+          <t>Z14_B01_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B71" s="4" t="inlineStr">
         <is>
-          <t>Z14_B01_P01_Ib02</t>
+          <t>Z14_B01_P01_Ib01</t>
         </is>
       </c>
       <c r="C71" s="4" t="inlineStr">
         <is>
-          <t>14.1.b</t>
+          <t>14.1.aa</t>
         </is>
       </c>
       <c r="D71" s="4" t="inlineStr">
         <is>
-          <t>Bewirtschaftung von Fischbeständen</t>
+          <t>aa) Ostsee</t>
         </is>
       </c>
       <c r="E71" s="4" t="inlineStr">
         <is>
-          <t>Fish stock management</t>
+          <t>aa) Baltic Sea</t>
         </is>
       </c>
       <c r="F71" s="4" t="inlineStr">
         <is>
-          <t>Anteil der nachhaltig befischten Fischbestände in Nord- und Ostsee</t>
+          <t>Stickstoffeintrag über die Zuflüsse in die Ostsee</t>
         </is>
       </c>
       <c r="G71" s="4" t="inlineStr">
         <is>
-          <t>Share of sustainably fished stocks of fish in the North and Baltic Seas</t>
+          <t>Nitrogen input via the inflows into the Baltic Sea</t>
         </is>
       </c>
       <c r="H71" s="4" t="inlineStr">
         <is>
-          <t>Alle wirtschaftlich genutzten Fischbestände sollen nach dem MSY-Ansatz nachhaltig bewirtschaftet werden bis 2020</t>
+          <t>Einhaltung des guten Zustands nach Oberflächengewässerverordnung (Jahresmittelwerte für Gesamtstickstoff bei in die Ostsee mündenden Flüssen sollen 2,6 Milligramm pro Liter nicht überschreiten)</t>
         </is>
       </c>
       <c r="I71" s="4" t="inlineStr">
         <is>
-          <t>All fish stocks used for commercial purpos-es to be sustainably managed in accordance with the Maximum Sustainable Yield (MSY) approach by 2020</t>
+          <t>Adherence to good quality in accordance with the Ordinance on the Protection of Surface Waters (Oberflächengewässerver-ordnung) (annual averages for total nitro-gen in rivers flowing into the Baltic may not exceed 2.6 mg/l)</t>
         </is>
       </c>
       <c r="J71" s="4" t="inlineStr">
         <is>
-          <t>nachhaltige Bewirtschaftung nach dem MSY-Ansatz bis 2020</t>
+          <t>Gesamtstickstoff in Zuflüssen unter 2,6 mg/l</t>
         </is>
       </c>
       <c r="K71" s="4" t="inlineStr">
         <is>
-          <t>sustainable management in accordance with the MSY approachby 2020</t>
+          <t>total nitrogen in the inflows below 2.6 mg/l</t>
         </is>
       </c>
       <c r="L71" s="4" t="inlineStr">
         <is>
-          <t>Anteil der nachhaltig befischten Fischbestände in Nord- und Ostsee</t>
+          <t>Stickstoffeintrag über die Zuflüsse in die Ostsee</t>
         </is>
       </c>
       <c r="M71" s="4" t="inlineStr">
         <is>
-          <t>Share of sustainably fished stocks of fish in the North and Baltic Seas</t>
+          <t>Nitrogen input via the inflows into the Baltic Sea</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="72">
       <c r="A72" s="4" t="inlineStr">
         <is>
-          <t>Z15_B01_P01_Ib01_I01</t>
+          <t>Z14_B01_P01_Ib01_I02</t>
         </is>
       </c>
       <c r="B72" s="4" t="inlineStr">
         <is>
-          <t>Z15_B01_P01_Ib01</t>
+          <t>Z14_B01_P01_Ib01</t>
         </is>
       </c>
       <c r="C72" s="4" t="inlineStr">
         <is>
-          <t>15.1</t>
+          <t>14.1.ab</t>
         </is>
       </c>
       <c r="D72" s="4" t="inlineStr">
         <is>
-          <t>Artenvielfalt und Landschaftsqualität</t>
+          <t>ab) Nordsee</t>
         </is>
       </c>
       <c r="E72" s="4" t="inlineStr">
         <is>
-          <t>Biodiversity and landscape quality</t>
+          <t>ab) North Sea</t>
         </is>
       </c>
       <c r="F72" s="4" t="inlineStr">
         <is>
-          <t>Artenvielfalt und Landschaftsqualität</t>
+          <t>Stickstoffeintrag über die Zuflüsse in die Nordsee</t>
         </is>
       </c>
       <c r="G72" s="4" t="inlineStr">
         <is>
-          <t>Biodiversity and landscape quality</t>
+          <t>Nitrogen input via the inflows into the North Sea</t>
         </is>
       </c>
       <c r="H72" s="4" t="inlineStr">
         <is>
-          <t>Erreichen des Indexwertes 100 bis 2030</t>
+          <t>Einhaltung des guten Zustands nach Oberflächengewässerverordnung (Jahresmittelwerte für Gesamtstickstoff bei in die Nordsee mündenden Flüssen sollen 2,8 Milligramm pro Liter nicht überschreiten)</t>
         </is>
       </c>
       <c r="I72" s="4" t="inlineStr">
         <is>
-          <t>Reach the index value of 100 by 2030</t>
+          <t>Adherence to good quality in accordance with the Ordinance on the Protection of Surface Waters (annual averages for total nitrogen in rivers flowing into the North Sea may not exceed 2.8 mg/l)</t>
         </is>
       </c>
       <c r="J72" s="4" t="inlineStr">
         <is>
-          <t>Erreichen des Indexwertes 100 bis 2030</t>
+          <t>Gesamtstickstoff in Zuflüssen unter 2,8 mg/l</t>
         </is>
       </c>
       <c r="K72" s="4" t="inlineStr">
         <is>
-          <t>reach the index value of 100 by 2030</t>
+          <t>total nitrogen in the inflows below 2.8 mg/l</t>
         </is>
       </c>
       <c r="L72" s="4" t="inlineStr">
         <is>
-          <t>Artenvielfalt und Landschaftsqualität</t>
+          <t>Stickstoffeintrag über die Zuflüsse in die Nordsee</t>
         </is>
       </c>
       <c r="M72" s="4" t="inlineStr">
         <is>
-          <t>Biodiversity and landscape quality</t>
+          <t>Nitrogen input via the inflows into the North Sea</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="73">
       <c r="A73" s="4" t="inlineStr">
         <is>
-          <t>Z15_B02_P01_Ib01_I01</t>
+          <t>Z14_B01_P01_Ib02_I01</t>
         </is>
       </c>
       <c r="B73" s="4" t="inlineStr">
         <is>
-          <t>Z15_B02_P01_Ib01</t>
+          <t>Z14_B01_P01_Ib02</t>
         </is>
       </c>
       <c r="C73" s="4" t="inlineStr">
         <is>
-          <t>15.2</t>
+          <t>14.1.b</t>
         </is>
       </c>
       <c r="D73" s="4" t="inlineStr">
         <is>
-          <t>Flächen mit erhöhtem Stickstoffeintrag</t>
+          <t>Bewirtschaftung von Fischbeständen</t>
         </is>
       </c>
       <c r="E73" s="4" t="inlineStr">
         <is>
-          <t>Land with elevated inputs of nitrogen</t>
+          <t>Fish stock management</t>
         </is>
       </c>
       <c r="F73" s="4" t="inlineStr">
         <is>
-          <t>Eutrophierung der Ökosysteme</t>
+          <t>Anteil der nachhaltig befischten Fischbestände in Nord- und Ostsee</t>
         </is>
       </c>
       <c r="G73" s="4" t="inlineStr">
         <is>
-          <t>Eutrophication of ecosystems</t>
+          <t>Share of sustainably fished stocks of fish in the North and Baltic Seas</t>
         </is>
       </c>
       <c r="H73" s="4" t="inlineStr">
         <is>
-          <t>Verringerung um 35 % bis 2030 gegenüber 2005</t>
+          <t>Alle wirtschaftlich genutzten Fischbestände sollen nach dem MSY-Ansatz nachhaltig bewirtschaftet werden bis 2020</t>
         </is>
       </c>
       <c r="I73" s="4" t="inlineStr">
         <is>
-          <t>Reduction by 35 % by 2030 compared to 2005</t>
+          <t>All fish stocks used for commercial purpos-es to be sustainably managed in accordance with the Maximum Sustainable Yield (MSY) approach by 2020</t>
         </is>
       </c>
       <c r="J73" s="4" t="inlineStr">
         <is>
-          <t>Verringerung um 35 % bis 2030</t>
+          <t>nachhaltige Bewirtschaftung nach dem MSY-Ansatz bis 2020</t>
         </is>
       </c>
       <c r="K73" s="4" t="inlineStr">
         <is>
-          <t>reduction by 35 % by 2030</t>
+          <t>sustainable management in accordance with the MSY approachby 2020</t>
         </is>
       </c>
       <c r="L73" s="4" t="inlineStr">
         <is>
-          <t>Eutrophierung der Ökosysteme</t>
+          <t>Anteil der nachhaltig befischten Fischbestände in Nord- und Ostsee</t>
         </is>
       </c>
       <c r="M73" s="4" t="inlineStr">
         <is>
-          <t>Eutrophication of ecosystems</t>
+          <t>Share of sustainably fished stocks of fish in the North and Baltic Seas</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="74">
       <c r="A74" s="4" t="inlineStr">
         <is>
-          <t>Z15_B02_P02_Ib01_I01</t>
+          <t>Z15_B01_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B74" s="4" t="inlineStr">
         <is>
-          <t>Z15_B02_P02_Ib01</t>
+          <t>Z15_B01_P01_Ib01</t>
         </is>
       </c>
       <c r="C74" s="4" t="inlineStr">
         <is>
-          <t>15.3.a</t>
+          <t>15.1</t>
         </is>
       </c>
       <c r="D74" s="4" t="inlineStr">
         <is>
-          <t>a) Wälder unter REDD+-Regelwerk</t>
+          <t>Artenvielfalt und Landschaftsqualität</t>
         </is>
       </c>
       <c r="E74" s="4" t="inlineStr">
         <is>
-          <t>a) Forests under REDD+ rulebook</t>
+          <t>Biodiversity and landscape quality</t>
         </is>
       </c>
       <c r="F74" s="4" t="inlineStr">
         <is>
-          <t>REDD+ (ergebnisbasierte Auszahlungen für internationalen Waldschutz)</t>
+          <t>Artenvielfalt und Landschaftsqualität</t>
         </is>
       </c>
       <c r="G74" s="4" t="inlineStr">
         <is>
-          <t>REDD+ (results-based payments for international protection of forests)</t>
+          <t>Biodiversity and landscape quality</t>
         </is>
       </c>
       <c r="H74" s="4" t="inlineStr">
         <is>
-          <t>Steigerung der Zahlungen bis 2030</t>
+          <t>Erreichen des Indexwertes 100 bis 2030</t>
         </is>
       </c>
       <c r="I74" s="4" t="inlineStr">
         <is>
-          <t>Increase payments by 2030</t>
+          <t>Reach the index value of 100 by 2030</t>
         </is>
       </c>
       <c r="J74" s="4" t="inlineStr">
         <is>
-          <t>Steigerung der Zahlungen bis 2030</t>
+          <t>Erreichen des Indexwertes 100 bis 2030</t>
         </is>
       </c>
       <c r="K74" s="4" t="inlineStr">
         <is>
-          <t>increase payments by 2030</t>
+          <t>reach the index value of 100 by 2030</t>
         </is>
       </c>
       <c r="L74" s="4" t="inlineStr">
         <is>
-          <t>Erhalt bzw. Wiederaufbau von Wäldern in Entwicklungsländern unter dem REDD+-Regelwerk</t>
+          <t>Artenvielfalt und Landschaftsqualität</t>
         </is>
       </c>
       <c r="M74" s="4" t="inlineStr">
         <is>
-          <t>Preservation or restoration of forests in developing countries under the REDD+ rulebook</t>
+          <t>Biodiversity and landscape quality</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="75">
       <c r="A75" s="4" t="inlineStr">
         <is>
-          <t>Z15_B02_P02_Ib01_I02</t>
+          <t>Z15_B02_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B75" s="4" t="inlineStr">
         <is>
-          <t>Z15_B02_P02_Ib01</t>
+          <t>Z15_B02_P01_Ib01</t>
         </is>
       </c>
       <c r="C75" s="4" t="inlineStr">
         <is>
-          <t>15.3.b</t>
+          <t>15.2</t>
         </is>
       </c>
       <c r="D75" s="4" t="inlineStr">
         <is>
-          <t>b) Internationaler Bodenschutz</t>
+          <t>Flächen mit erhöhtem Stickstoffeintrag</t>
         </is>
       </c>
       <c r="E75" s="4" t="inlineStr">
         <is>
-          <t>b) Combat Desertification</t>
+          <t>Land with elevated inputs of nitrogen</t>
         </is>
       </c>
       <c r="F75" s="4" t="inlineStr">
         <is>
-          <t>Internationaler Bodenschutz (Bruttoentwicklungsausgaben für internationalen Bodenschutz)</t>
+          <t>Eutrophierung der Ökosysteme</t>
         </is>
       </c>
       <c r="G75" s="4" t="inlineStr">
         <is>
-          <t>International soil protection (gross development assistance for international soil protection)</t>
+          <t>Eutrophication of ecosystems</t>
         </is>
       </c>
       <c r="H75" s="4" t="inlineStr">
         <is>
-          <t>Steigerung der Zahlungen bis 2030</t>
+          <t>Verringerung um 35 % bis 2030 gegenüber 2005</t>
         </is>
       </c>
       <c r="I75" s="4" t="inlineStr">
         <is>
-          <t>Increase payments by 2030</t>
+          <t>Reduction by 35 % by 2030 compared to 2005</t>
         </is>
       </c>
       <c r="J75" s="4" t="inlineStr">
         <is>
-          <t>Steigerung der Zahlungen bis 2030</t>
+          <t>Verringerung um 35 % bis 2030</t>
         </is>
       </c>
       <c r="K75" s="4" t="inlineStr">
         <is>
-          <t>increase payments by 2030</t>
+          <t>reduction by 35 % by 2030</t>
         </is>
       </c>
       <c r="L75" s="4" t="inlineStr">
         <is>
-          <t>Deutsche bilaterale Bruttoentwicklungsausgaben zur Umsetzung des Übereinkommens der VN zur Bekämpfung der Wüstenbildung</t>
+          <t>Eutrophierung der Ökosysteme</t>
         </is>
       </c>
       <c r="M75" s="4" t="inlineStr">
         <is>
-          <t>German gross bilateral development expenditure for the implementation of the UN Convention to Combat Desertification</t>
+          <t>Eutrophication of ecosystems</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="76">
       <c r="A76" s="4" t="inlineStr">
         <is>
-          <t>Z16_B01_P01_Ib01_I01</t>
+          <t>Z15_B02_P02_Ib01_I01</t>
         </is>
       </c>
       <c r="B76" s="4" t="inlineStr">
         <is>
-          <t>Z16_B01_P01_Ib01</t>
+          <t>Z15_B02_P02_Ib01</t>
         </is>
       </c>
       <c r="C76" s="4" t="inlineStr">
         <is>
-          <t>16.1</t>
+          <t>15.3.a</t>
         </is>
       </c>
       <c r="D76" s="4" t="inlineStr">
         <is>
-          <t>Anzahl an Straftaten</t>
+          <t>a) Wälder unter REDD+-Regelwerk</t>
         </is>
       </c>
       <c r="E76" s="4" t="inlineStr">
         <is>
-          <t>Number of criminal offences</t>
+          <t>a) Forests under REDD+ rulebook</t>
         </is>
       </c>
       <c r="F76" s="4" t="inlineStr">
         <is>
-          <t>Straftaten</t>
+          <t>REDD+ (ergebnisbasierte Auszahlungen für internationalen Waldschutz)</t>
         </is>
       </c>
       <c r="G76" s="4" t="inlineStr">
         <is>
-          <t>Criminal offences</t>
+          <t>REDD+ (results-based payments for international protection of forests)</t>
         </is>
       </c>
       <c r="H76" s="4" t="inlineStr">
         <is>
-          <t>Rückgang der Zahl der erfassten Straftaten je 100 000 Einwohner/ -innen auf unter 6 500 bis 2030</t>
+          <t>Steigerung der Zahlungen bis 2030</t>
         </is>
       </c>
       <c r="I76" s="4" t="inlineStr">
         <is>
-          <t>Reduce the number of criminal offences re-corded per 100,000 inhabitants to less than 6,500 by 2030</t>
+          <t>Increase payments by 2030</t>
         </is>
       </c>
       <c r="J76" s="4" t="inlineStr">
         <is>
-          <t>Rückgang auf unter 6 500 je 100 000 Einwohner/ -innen bis 2030</t>
+          <t>Steigerung der Zahlungen bis 2030</t>
         </is>
       </c>
       <c r="K76" s="4" t="inlineStr">
         <is>
-          <t>reduce to less than 6,500 per 100,000 inhabitants by 2030</t>
+          <t>increase payments by 2030</t>
         </is>
       </c>
       <c r="L76" s="4" t="inlineStr">
         <is>
-          <t>Straftaten</t>
+          <t>Erhalt bzw. Wiederaufbau von Wäldern in Entwicklungsländern unter dem REDD+-Regelwerk</t>
         </is>
       </c>
       <c r="M76" s="4" t="inlineStr">
         <is>
-          <t>Criminal offences</t>
+          <t>Preservation or restoration of forests in developing countries under the REDD+ rulebook</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="77">
       <c r="A77" s="4" t="inlineStr">
         <is>
-          <t>Z16_B02_P01_Ib01_I01</t>
+          <t>Z15_B02_P02_Ib01_I02</t>
         </is>
       </c>
       <c r="B77" s="4" t="inlineStr">
         <is>
-          <t>Z16_B02_P01_Ib01</t>
+          <t>Z15_B02_P02_Ib01</t>
         </is>
       </c>
       <c r="C77" s="4" t="inlineStr">
         <is>
-          <t>16.2</t>
+          <t>15.3.b</t>
         </is>
       </c>
       <c r="D77" s="4" t="inlineStr">
         <is>
-          <t>Sicherung, Registrierung und Zerstörung von Waffen</t>
+          <t>b) Internationaler Bodenschutz</t>
         </is>
       </c>
       <c r="E77" s="4" t="inlineStr">
         <is>
-          <t>Securing, registration and destruction of weapons</t>
+          <t>b) Combat Desertification</t>
         </is>
       </c>
       <c r="F77" s="4" t="inlineStr">
         <is>
-          <t>Anzahl der in betroffenen Weltregionen durchgeführten Projekte zur Sicherung, Registrierung und Zerstörung von Kleinwaffen und leichten Waffen durch Deutschland</t>
+          <t>Internationaler Bodenschutz (Bruttoentwicklungsausgaben für internationalen Bodenschutz)</t>
         </is>
       </c>
       <c r="G77" s="4" t="inlineStr">
         <is>
-          <t>Number of projects to secure, register and destroy small arms and light weapons carried out by Germany in affected regions of the world</t>
+          <t>International soil protection (gross development assistance for international soil protection)</t>
         </is>
       </c>
       <c r="H77" s="4" t="inlineStr">
         <is>
-          <t>Mindestens 15 Projekte pro Jahr bis 2030</t>
+          <t>Steigerung der Zahlungen bis 2030</t>
         </is>
       </c>
       <c r="I77" s="4" t="inlineStr">
         <is>
-          <t>At least 15 projects per year by 2030</t>
+          <t>Increase payments by 2030</t>
         </is>
       </c>
       <c r="J77" s="4" t="inlineStr">
         <is>
-          <t>mindestens 15 Projekte pro Jahr bis 2030</t>
+          <t>Steigerung der Zahlungen bis 2030</t>
         </is>
       </c>
       <c r="K77" s="4" t="inlineStr">
         <is>
-          <t>at least 15 projects per year by 2030</t>
+          <t>increase payments by 2030</t>
         </is>
       </c>
       <c r="L77" s="4" t="inlineStr">
         <is>
-          <t>Anzahl der in betroffenen Weltregionen durchgeführten Projekte zur Sicherung, Registrierung und Zerstörung von Kleinwaffen und leichten Waffen durch Deutschland</t>
+          <t>Deutsche bilaterale Bruttoentwicklungsausgaben zur Umsetzung des Übereinkommens der VN zur Bekämpfung der Wüstenbildung</t>
         </is>
       </c>
       <c r="M77" s="4" t="inlineStr">
         <is>
-          <t>Number of projects to secure, register and destroy small arms and light weapons carried out by Germany in affected regions of the world</t>
+          <t>German gross bilateral development expenditure for the implementation of the UN Convention to Combat Desertification</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="78">
       <c r="A78" s="4" t="inlineStr">
         <is>
-          <t>Z16_B03_P01_Ib01_I01</t>
+          <t>Z16_B01_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B78" s="4" t="inlineStr">
         <is>
-          <t>Z16_B03_P01_Ib01</t>
+          <t>Z16_B01_P01_Ib01</t>
         </is>
       </c>
       <c r="C78" s="4" t="inlineStr">
         <is>
-          <t>16.3.a</t>
+          <t>16.1</t>
         </is>
       </c>
       <c r="D78" s="4" t="inlineStr">
         <is>
-          <t>a) CPI Deutschland</t>
+          <t>Anzahl an Straftaten</t>
         </is>
       </c>
       <c r="E78" s="4" t="inlineStr">
         <is>
-          <t>a) CPI Germany</t>
+          <t>Number of criminal offences</t>
         </is>
       </c>
       <c r="F78" s="4" t="inlineStr">
         <is>
-          <t>Corruption Perception Index in Deutschland</t>
+          <t>Straftaten</t>
         </is>
       </c>
       <c r="G78" s="4" t="inlineStr">
         <is>
-          <t>Corruption Perceptions Index in Germany</t>
+          <t>Criminal offences</t>
         </is>
       </c>
       <c r="H78" s="4" t="inlineStr">
         <is>
-          <t>Verbesserung gegenüber 2012 bis 2030</t>
+          <t>Rückgang der Zahl der erfassten Straftaten je 100 000 Einwohner/ -innen auf unter 6 500 bis 2030</t>
         </is>
       </c>
       <c r="I78" s="4" t="inlineStr">
         <is>
-          <t>Improvement by 2030, compared to 2012</t>
+          <t>Reduce the number of criminal offences re-corded per 100,000 inhabitants to less than 6,500 by 2030</t>
         </is>
       </c>
       <c r="J78" s="4" t="inlineStr">
         <is>
-          <t>Verbesserung bis 2030</t>
+          <t>Rückgang auf unter 6 500 je 100 000 Einwohner/ -innen bis 2030</t>
         </is>
       </c>
       <c r="K78" s="4" t="inlineStr">
         <is>
-          <t>improvement by 2030</t>
+          <t>reduce to less than 6,500 per 100,000 inhabitants by 2030</t>
         </is>
       </c>
       <c r="L78" s="4" t="inlineStr">
         <is>
-          <t>Corruption Perception Index in Deutschland</t>
+          <t>Straftaten</t>
         </is>
       </c>
       <c r="M78" s="4" t="inlineStr">
         <is>
-          <t>Corruption Perception Index in Germany</t>
+          <t>Criminal offences</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="79">
       <c r="A79" s="4" t="inlineStr">
         <is>
-          <t>Z16_B03_P01_Ib01_I02</t>
+          <t>Z16_B02_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B79" s="4" t="inlineStr">
         <is>
-          <t>Z16_B03_P01_Ib01</t>
+          <t>Z16_B02_P01_Ib01</t>
         </is>
       </c>
       <c r="C79" s="4" t="inlineStr">
         <is>
-          <t>16.3.b</t>
+          <t>16.2</t>
         </is>
       </c>
       <c r="D79" s="4" t="inlineStr">
         <is>
-          <t>b) CPI  Partnerländer</t>
+          <t>Sicherung, Registrierung und Zerstörung von Waffen</t>
         </is>
       </c>
       <c r="E79" s="4" t="inlineStr">
         <is>
-          <t>b) CPI Partner countries</t>
+          <t>Securing, registration and destruction of weapons</t>
         </is>
       </c>
       <c r="F79" s="4" t="inlineStr">
         <is>
-          <t>Corruption Perception Index in den Partnerländern der deutschen Entwicklungszusammenarbeit</t>
+          <t>Anzahl der in betroffenen Weltregionen durchgeführten Projekte zur Sicherung, Registrierung und Zerstörung von Kleinwaffen und leichten Waffen durch Deutschland</t>
         </is>
       </c>
       <c r="G79" s="4" t="inlineStr">
         <is>
-          <t>Corruption Perceptions Index in partner countries for German development cooperation</t>
+          <t>Number of projects to secure, register and destroy small arms and light weapons carried out by Germany in affected regions of the world</t>
         </is>
       </c>
       <c r="H79" s="4" t="inlineStr">
         <is>
-          <t>Verbesserung gegenüber 2012 bis 2030</t>
+          <t>Mindestens 15 Projekte pro Jahr bis 2030</t>
         </is>
       </c>
       <c r="I79" s="4" t="inlineStr">
         <is>
-          <t>Improvement by 2030, compared to 2012</t>
+          <t>At least 15 projects per year by 2030</t>
         </is>
       </c>
       <c r="J79" s="4" t="inlineStr">
         <is>
-          <t>Verbesserung bis 2030</t>
+          <t>mindestens 15 Projekte pro Jahr bis 2030</t>
         </is>
       </c>
       <c r="K79" s="4" t="inlineStr">
         <is>
-          <t>improvement by 2030</t>
+          <t>at least 15 projects per year by 2030</t>
         </is>
       </c>
       <c r="L79" s="4" t="inlineStr">
         <is>
-          <t>Anzahl der Partnerländer deutscher Entwicklungszusammenarbeit, deren Bewertung sich gegenüber 2012 verbessert hat</t>
+          <t>Anzahl der in betroffenen Weltregionen durchgeführten Projekte zur Sicherung, Registrierung und Zerstörung von Kleinwaffen und leichten Waffen durch Deutschland</t>
         </is>
       </c>
       <c r="M79" s="4" t="inlineStr">
         <is>
-          <t>Number of partner countries for German development cooperation with improved CPI scores compared with 2012</t>
+          <t>Number of projects to secure, register and destroy small arms and light weapons carried out by Germany in affected regions of the world</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="80">
       <c r="A80" s="4" t="inlineStr">
         <is>
-          <t>Z17_B01_P01_Ib01_I01</t>
+          <t>Z16_B03_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B80" s="4" t="inlineStr">
         <is>
-          <t>Z17_B01_P01_Ib01</t>
+          <t>Z16_B03_P01_Ib01</t>
         </is>
       </c>
       <c r="C80" s="4" t="inlineStr">
         <is>
-          <t>17.1</t>
+          <t>16.3.a</t>
         </is>
       </c>
       <c r="D80" s="4" t="inlineStr">
         <is>
-          <t>Entwicklungsausgaben</t>
+          <t>a) CPI Deutschland</t>
         </is>
       </c>
       <c r="E80" s="4" t="inlineStr">
         <is>
-          <t>Development assistance</t>
+          <t>a) CPI Germany</t>
         </is>
       </c>
       <c r="F80" s="4" t="inlineStr">
         <is>
-          <t>Anteil öffentlicher Entwicklungsausgaben am Bruttonationaleinkommen</t>
+          <t>Corruption Perception Index in Deutschland</t>
         </is>
       </c>
       <c r="G80" s="4" t="inlineStr">
         <is>
-          <t>Official development assistance as a proportion of gross national income</t>
+          <t>Corruption Perceptions Index in Germany</t>
         </is>
       </c>
       <c r="H80" s="4" t="inlineStr">
         <is>
-          <t>Steigerung des Anteils auf 0,7 % des  Bruttonationaleinkommens bis 2030</t>
+          <t>Verbesserung gegenüber 2012 bis 2030</t>
         </is>
       </c>
       <c r="I80" s="4" t="inlineStr">
         <is>
-          <t>Increase the proportion to 0.7 % of gross national income by 2030</t>
+          <t>Improvement by 2030, compared to 2012</t>
         </is>
       </c>
       <c r="J80" s="4" t="inlineStr">
         <is>
-          <t>Steigerung des Anteils auf 0,7 % des BNE bis 2030</t>
+          <t>Verbesserung bis 2030</t>
         </is>
       </c>
       <c r="K80" s="4" t="inlineStr">
         <is>
-          <t>increase to 0.7 % of GNI by 2030</t>
+          <t>improvement by 2030</t>
         </is>
       </c>
       <c r="L80" s="4" t="inlineStr">
         <is>
-          <t>Anteil öffentlicher Entwicklungsausgaben am Bruttonationaleinkommen</t>
+          <t>Corruption Perception Index in Deutschland</t>
         </is>
       </c>
       <c r="M80" s="4" t="inlineStr">
         <is>
-          <t>Official development assistance as a proportion of gross national income</t>
+          <t>Corruption Perception Index in Germany</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="81">
       <c r="A81" s="4" t="inlineStr">
         <is>
-          <t>Z17_B02_P01_Ib01_I01</t>
+          <t>Z16_B03_P01_Ib01_I02</t>
         </is>
       </c>
       <c r="B81" s="4" t="inlineStr">
         <is>
-          <t>Z17_B02_P01_Ib01</t>
+          <t>Z16_B03_P01_Ib01</t>
         </is>
       </c>
       <c r="C81" s="4" t="inlineStr">
         <is>
-          <t>17.2</t>
+          <t>16.3.b</t>
         </is>
       </c>
       <c r="D81" s="4" t="inlineStr">
         <is>
-          <t>Studierende und Forschende aus Entwicklungslenländern und LDCs</t>
+          <t>b) CPI  Partnerländer</t>
         </is>
       </c>
       <c r="E81" s="4" t="inlineStr">
         <is>
-          <t>Students and researchers from developing countries and LDCs</t>
+          <t>b) CPI Partner countries</t>
         </is>
       </c>
       <c r="F81" s="4" t="inlineStr">
         <is>
-          <t>Anzahl der Studierenden und Forschenden aus Entwicklungsländern sowie aus am wenigsten entwickelten Ländern pro Jahr</t>
+          <t>Corruption Perception Index in den Partnerländern der deutschen Entwicklungszusammenarbeit</t>
         </is>
       </c>
       <c r="G81" s="4" t="inlineStr">
         <is>
-          <t>Number of students and researchers from developing countries and least developed countries per year</t>
+          <t>Corruption Perceptions Index in partner countries for German development cooperation</t>
         </is>
       </c>
       <c r="H81" s="4" t="inlineStr">
         <is>
-          <t>Steigerung der Anzahl um 10 % von 2015 bis 2020, anschließend Verstetigung</t>
+          <t>Verbesserung gegenüber 2012 bis 2030</t>
         </is>
       </c>
       <c r="I81" s="4" t="inlineStr">
         <is>
-          <t>Increase the number by 10 % from 2015 to 2020, then stabilised</t>
+          <t>Improvement by 2030, compared to 2012</t>
         </is>
       </c>
       <c r="J81" s="4" t="inlineStr">
         <is>
-          <t>Steigerung um 10 % von 2015 bis 2020, anschließend Verstetigung</t>
+          <t>Verbesserung bis 2030</t>
         </is>
       </c>
       <c r="K81" s="4" t="inlineStr">
         <is>
-          <t>increase by 10 % from 2015 to 2020, then stabilised</t>
+          <t>improvement by 2030</t>
         </is>
       </c>
       <c r="L81" s="4" t="inlineStr">
         <is>
-          <t>Anzahl der Studierenden und Forschenden aus Entwicklungsländern sowie aus am wenigsten entwickelten Ländern pro Jahr</t>
+          <t>Anzahl der Partnerländer deutscher Entwicklungszusammenarbeit, deren Bewertung sich gegenüber 2012 verbessert hat</t>
         </is>
       </c>
       <c r="M81" s="4" t="inlineStr">
         <is>
-          <t>Number of students and researchers from developing countries and least developed countries per year</t>
+          <t>Number of partner countries for German development cooperation with improved CPI scores compared with 2012</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="82">
       <c r="A82" s="4" t="inlineStr">
         <is>
+          <t>Z17_B01_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="B82" s="4" t="inlineStr">
+        <is>
+          <t>Z17_B01_P01_Ib01</t>
+        </is>
+      </c>
+      <c r="C82" s="4" t="inlineStr">
+        <is>
+          <t>17.1</t>
+        </is>
+      </c>
+      <c r="D82" s="4" t="inlineStr">
+        <is>
+          <t>Entwicklungsausgaben</t>
+        </is>
+      </c>
+      <c r="E82" s="4" t="inlineStr">
+        <is>
+          <t>Development assistance</t>
+        </is>
+      </c>
+      <c r="F82" s="4" t="inlineStr">
+        <is>
+          <t>Anteil öffentlicher Entwicklungsausgaben am Bruttonationaleinkommen</t>
+        </is>
+      </c>
+      <c r="G82" s="4" t="inlineStr">
+        <is>
+          <t>Official development assistance as a proportion of gross national income</t>
+        </is>
+      </c>
+      <c r="H82" s="4" t="inlineStr">
+        <is>
+          <t>Steigerung des Anteils auf 0,7 % des  Bruttonationaleinkommens bis 2030</t>
+        </is>
+      </c>
+      <c r="I82" s="4" t="inlineStr">
+        <is>
+          <t>Increase the proportion to 0.7 % of gross national income by 2030</t>
+        </is>
+      </c>
+      <c r="J82" s="4" t="inlineStr">
+        <is>
+          <t>Steigerung des Anteils auf 0,7 % des BNE bis 2030</t>
+        </is>
+      </c>
+      <c r="K82" s="4" t="inlineStr">
+        <is>
+          <t>increase to 0.7 % of GNI by 2030</t>
+        </is>
+      </c>
+      <c r="L82" s="4" t="inlineStr">
+        <is>
+          <t>Anteil öffentlicher Entwicklungsausgaben am Bruttonationaleinkommen</t>
+        </is>
+      </c>
+      <c r="M82" s="4" t="inlineStr">
+        <is>
+          <t>Official development assistance as a proportion of gross national income</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="83">
+      <c r="A83" s="4" t="inlineStr">
+        <is>
+          <t>Z17_B02_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="B83" s="4" t="inlineStr">
+        <is>
+          <t>Z17_B02_P01_Ib01</t>
+        </is>
+      </c>
+      <c r="C83" s="4" t="inlineStr">
+        <is>
+          <t>17.2</t>
+        </is>
+      </c>
+      <c r="D83" s="4" t="inlineStr">
+        <is>
+          <t>Studierende und Forschende aus Entwicklungslenländern und LDCs</t>
+        </is>
+      </c>
+      <c r="E83" s="4" t="inlineStr">
+        <is>
+          <t>Students and researchers from developing countries and LDCs</t>
+        </is>
+      </c>
+      <c r="F83" s="4" t="inlineStr">
+        <is>
+          <t>Anzahl der Studierenden und Forschenden aus Entwicklungsländern sowie aus am wenigsten entwickelten Ländern pro Jahr</t>
+        </is>
+      </c>
+      <c r="G83" s="4" t="inlineStr">
+        <is>
+          <t>Number of students and researchers from developing countries and least developed countries per year</t>
+        </is>
+      </c>
+      <c r="H83" s="4" t="inlineStr">
+        <is>
+          <t>Steigerung der Anzahl um 10 % von 2015 bis 2020, anschließend Verstetigung</t>
+        </is>
+      </c>
+      <c r="I83" s="4" t="inlineStr">
+        <is>
+          <t>Increase the number by 10 % from 2015 to 2020, then stabilised</t>
+        </is>
+      </c>
+      <c r="J83" s="4" t="inlineStr">
+        <is>
+          <t>Steigerung um 10 % von 2015 bis 2020, anschließend Verstetigung</t>
+        </is>
+      </c>
+      <c r="K83" s="4" t="inlineStr">
+        <is>
+          <t>increase by 10 % from 2015 to 2020, then stabilised</t>
+        </is>
+      </c>
+      <c r="L83" s="4" t="inlineStr">
+        <is>
+          <t>Anzahl der Studierenden und Forschenden aus Entwicklungsländern sowie aus am wenigsten entwickelten Ländern pro Jahr</t>
+        </is>
+      </c>
+      <c r="M83" s="4" t="inlineStr">
+        <is>
+          <t>Number of students and researchers from developing countries and least developed countries per year</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="84">
+      <c r="A84" s="4" t="inlineStr">
+        <is>
           <t>Z17_B03_P01_Ib01_I01</t>
         </is>
       </c>
-      <c r="B82" s="4" t="inlineStr">
+      <c r="B84" s="4" t="inlineStr">
         <is>
           <t>Z17_B03_P01_Ib01</t>
         </is>
       </c>
-      <c r="C82" s="4" t="inlineStr">
+      <c r="C84" s="4" t="inlineStr">
         <is>
           <t>17.3</t>
         </is>
       </c>
-      <c r="D82" s="4" t="inlineStr">
+      <c r="D84" s="4" t="inlineStr">
         <is>
           <t>Einfuhren aus LDCs</t>
         </is>
       </c>
-      <c r="E82" s="4" t="inlineStr">
+      <c r="E84" s="4" t="inlineStr">
         <is>
           <t>Imports coming from LDCs</t>
         </is>
       </c>
-      <c r="F82" s="4" t="inlineStr">
+      <c r="F84" s="4" t="inlineStr">
         <is>
           <t>Einfuhren aus am wenigsten entwickelten Ländern</t>
         </is>
       </c>
-      <c r="G82" s="4" t="inlineStr">
+      <c r="G84" s="4" t="inlineStr">
         <is>
           <t>Imports from least developed countries</t>
         </is>
       </c>
-      <c r="H82" s="4" t="inlineStr">
+      <c r="H84" s="4" t="inlineStr">
         <is>
           <t>Steigerung des Anteils um 100 % bis 2030 gegenüber 2014</t>
         </is>
       </c>
-      <c r="I82" s="4" t="inlineStr">
+      <c r="I84" s="4" t="inlineStr">
         <is>
           <t>Increase the proportion by 100 % by 2030, compared to 2014</t>
         </is>
       </c>
-      <c r="J82" s="4" t="inlineStr">
+      <c r="J84" s="4" t="inlineStr">
         <is>
           <t>Steigerung des Anteils um 100 % bis 2030 gegenüber 2014</t>
         </is>
       </c>
-      <c r="K82" s="4" t="inlineStr">
+      <c r="K84" s="4" t="inlineStr">
         <is>
           <t>increase by 100 % by 2030 compared to 2014</t>
         </is>
       </c>
-      <c r="L82" s="4" t="inlineStr">
+      <c r="L84" s="4" t="inlineStr">
         <is>
           <t>Einfuhren aus am wenigsten entwickelten Ländern</t>
         </is>
       </c>
-      <c r="M82" s="4" t="inlineStr">
+      <c r="M84" s="4" t="inlineStr">
         <is>
           <t>Imports from least developed countries</t>
         </is>

--- a/Tab_5a_Indikatoren.xlsx
+++ b/Tab_5a_Indikatoren.xlsx
@@ -435,7 +435,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M84"/>
+  <dimension ref="A1:M85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -2640,7 +2640,7 @@
       </c>
       <c r="H33" s="4" t="inlineStr">
         <is>
-          <t>Einhaltung des Nitrat Schwellenwertes von 50 Milligramm pro Liter an allen Messstellen bis 2030</t>
+          <t>Einhaltung oder Unterschreitung des Nitrat-Schwellenwertes von 50 Milligramm pro Liter an allen Messstellen bis 2030</t>
         </is>
       </c>
       <c r="I33" s="4" t="inlineStr">
@@ -2650,7 +2650,7 @@
       </c>
       <c r="J33" s="4" t="inlineStr">
         <is>
-          <t>Einhaltung des Schwellenwertes von 50 mg/l bis 2030</t>
+          <t>Einhaltung oder Unterschreitung des Schwellenwertes von 50 mg/l bis 2030</t>
         </is>
       </c>
       <c r="K33" s="4" t="inlineStr">
@@ -2908,22 +2908,22 @@
       </c>
       <c r="H37" s="4" t="inlineStr">
         <is>
-          <t>Steigerung um 2,1 % pro Jahr im Zeitraum von 2008 – 2050</t>
+          <t>Deutliche Steigerung</t>
         </is>
       </c>
       <c r="I37" s="4" t="inlineStr">
         <is>
-          <t>Increase by 2.1 % per year from 2008 to 2050</t>
+          <t>XXXDeutliche Steigerung</t>
         </is>
       </c>
       <c r="J37" s="4" t="inlineStr">
         <is>
-          <t>Steigerung um 2,1 % pro Jahr</t>
+          <t>Deutliche Steigerung</t>
         </is>
       </c>
       <c r="K37" s="4" t="inlineStr">
         <is>
-          <t>increase by 2.1 % per year</t>
+          <t>XXXDeutliche Steigerung</t>
         </is>
       </c>
       <c r="L37" s="4" t="inlineStr">
@@ -2975,22 +2975,22 @@
       </c>
       <c r="H38" s="4" t="inlineStr">
         <is>
-          <t>Senkung um 20 % bis 2020, um 30 % bis 2030 und um 50 % bis 2050 jeweils gegenüber 2008</t>
+          <t>Senkung um mindestens 39,3 Prozent bis 2030 im Vergleich zu 2008</t>
         </is>
       </c>
       <c r="I38" s="4" t="inlineStr">
         <is>
-          <t>Reduction by 20 % by 2020, by 30 % by 2030, and by 50 % by 2050, all compared to 2008</t>
+          <t>XXXSenkung um mindestens 39,3 Prozent bis 2030 im Vergleich zu 2008</t>
         </is>
       </c>
       <c r="J38" s="4" t="inlineStr">
         <is>
-          <t>Senkung um 30 % bis 2030</t>
+          <t>Senkung um 39,4 % bis 2030</t>
         </is>
       </c>
       <c r="K38" s="4" t="inlineStr">
         <is>
-          <t>reduction by 30 % by 2030</t>
+          <t>reduction by 39.4 % by 2030</t>
         </is>
       </c>
       <c r="L38" s="4" t="inlineStr">
@@ -3042,22 +3042,22 @@
       </c>
       <c r="H39" s="4" t="inlineStr">
         <is>
-          <t>Anstieg auf 18 % bis 2020, auf 30 % bis 2030, auf 45 % bis 2040 und auf 60 % bis 2050</t>
+          <t>Anstieg auf 41 Prozent bis 2030, auf 45 Prozent bis 2040 und auf 60 Prozent bis 2050</t>
         </is>
       </c>
       <c r="I39" s="4" t="inlineStr">
         <is>
-          <t>Increase to 18 % by 2020 and to 30 % by 2030, to 45 % by 2040 and to 60 % by 2050</t>
+          <t>Increase to 41 % by 2030, to 45 % by 2040 and to 60 % by 2050</t>
         </is>
       </c>
       <c r="J39" s="4" t="inlineStr">
         <is>
-          <t>Anstieg auf 30 % bis 2030</t>
+          <t>Anstieg auf 41 % bis 2030</t>
         </is>
       </c>
       <c r="K39" s="4" t="inlineStr">
         <is>
-          <t>increase to 30 % by 2030</t>
+          <t>increase to 41 % by 2030</t>
         </is>
       </c>
       <c r="L39" s="4" t="inlineStr">
@@ -3109,12 +3109,12 @@
       </c>
       <c r="H40" s="4" t="inlineStr">
         <is>
-          <t>Anstieg auf mindestens 80 % bis 2030</t>
+          <t>Anstieg auf 80 % bis 2030</t>
         </is>
       </c>
       <c r="I40" s="4" t="inlineStr">
         <is>
-          <t>Increase to at least 80 % by 2030</t>
+          <t>Increase to 80 % by 2030</t>
         </is>
       </c>
       <c r="J40" s="4" t="inlineStr">
@@ -3243,12 +3243,12 @@
       </c>
       <c r="H42" s="4" t="inlineStr">
         <is>
-          <t>Jährliches Staatsdefizit kleiner als 3 % des BIP, Beibehaltung bis 2030</t>
+          <t>Jährliches Staatsdefizit kleiner als 3 % des Bruttoinlandsprodukts (BIP), Beibehaltung bis 2030</t>
         </is>
       </c>
       <c r="I42" s="4" t="inlineStr">
         <is>
-          <t>Annual government deficit less than 3 % of GDP, to be maintained until 2030</t>
+          <t>Annual government deficit less than 3 % of Gross domestic product (GDP), to be maintained until 2030</t>
         </is>
       </c>
       <c r="J42" s="4" t="inlineStr">
@@ -3310,12 +3310,12 @@
       </c>
       <c r="H43" s="4" t="inlineStr">
         <is>
-          <t>Strukturell ausgeglichener Staatshaushalt, gesamtstaatliches strukturelles Defizit von max. 0,5 % des BIP, Beibehaltung bis 2030</t>
+          <t>Strukturell ausgeglichener Staatshaushalt, gesamtstaatliches strukturelles Defizit von max. 0,5 % des Bruttoinlandsprodukts (BIP), Beibehaltung bis 2030</t>
         </is>
       </c>
       <c r="I43" s="4" t="inlineStr">
         <is>
-          <t>Structurally balanced government budget, general government structural deficit must not exceed 0.5 % of GDP, to be maintained until 2030</t>
+          <t>Structurally balanced government budget, general government structural deficit must not exceed 0.5 % of Gross domestic product (GDP), to be maintained until 2030</t>
         </is>
       </c>
       <c r="J43" s="4" t="inlineStr">
@@ -3377,12 +3377,12 @@
       </c>
       <c r="H44" s="4" t="inlineStr">
         <is>
-          <t>Schuldenstandsquote max. 60 % des BIP, Beibehaltung bis 2030</t>
+          <t>Schuldenstandsquote max. 60 % des Bruttoinlandsprodukts (BIP), Beibehaltung bis 2030</t>
         </is>
       </c>
       <c r="I44" s="4" t="inlineStr">
         <is>
-          <t>Ratio of government debt to GDP must not exceed  60 %, to be maintained until 2030</t>
+          <t>Ratio of government debt to Gross domestic product (GDP) must not exceed  60 %, to be maintained until 2030</t>
         </is>
       </c>
       <c r="J44" s="4" t="inlineStr">
@@ -3434,12 +3434,12 @@
       </c>
       <c r="F45" s="4" t="inlineStr">
         <is>
-          <t>Verhältnis der Bruttoanlageinvestitionen zum BIP</t>
+          <t>Verhältnis der Bruttoanlageinvestitionen zum Bruttoinlandsprodukt (BIP)</t>
         </is>
       </c>
       <c r="G45" s="4" t="inlineStr">
         <is>
-          <t>Gross fixed capital formation in relation to GDP</t>
+          <t>Gross fixed capital formation in relation to Gross domestic product (GDP)</t>
         </is>
       </c>
       <c r="H45" s="4" t="inlineStr">
@@ -3511,7 +3511,7 @@
       </c>
       <c r="H46" s="4" t="inlineStr">
         <is>
-          <t>Stetiges und angemessenes Wirtschaftswachstum</t>
+          <t>Stetiges und angemessenes Wirtschaftswachstum bis 2030</t>
         </is>
       </c>
       <c r="I46" s="4" t="inlineStr">
@@ -3578,22 +3578,22 @@
       </c>
       <c r="H47" s="4" t="inlineStr">
         <is>
-          <t>Erhöhung auf 78 % bis 2030</t>
+          <t>Erhöhung auf 83 % bis 2030</t>
         </is>
       </c>
       <c r="I47" s="4" t="inlineStr">
         <is>
-          <t>Increase to 78 % by 2030</t>
+          <t>Increase to 83 % by 2030</t>
         </is>
       </c>
       <c r="J47" s="4" t="inlineStr">
         <is>
-          <t>Erhöhung auf 78 % bis 2030</t>
+          <t>Erhöhung auf 83 % bis 2030</t>
         </is>
       </c>
       <c r="K47" s="4" t="inlineStr">
         <is>
-          <t>increase to 78 % by 2030</t>
+          <t>increase to 83 % by 2030</t>
         </is>
       </c>
       <c r="L47" s="4" t="inlineStr">
@@ -3645,22 +3645,22 @@
       </c>
       <c r="H48" s="4" t="inlineStr">
         <is>
-          <t>Erhöhung auf 60 % bis 2030</t>
+          <t>Erhöhung auf 77 % bis 2030</t>
         </is>
       </c>
       <c r="I48" s="4" t="inlineStr">
         <is>
-          <t>Increase to 60 % by 2030</t>
+          <t>Increase to 77 % by 2030</t>
         </is>
       </c>
       <c r="J48" s="4" t="inlineStr">
         <is>
-          <t>Erhöhung auf 60 % bis 2030</t>
+          <t>Erhöhung auf 77 % bis 2030</t>
         </is>
       </c>
       <c r="K48" s="4" t="inlineStr">
         <is>
-          <t>increase to 60 % by 2030</t>
+          <t>increase to 77 % by 2030</t>
         </is>
       </c>
       <c r="L48" s="4" t="inlineStr">
@@ -3677,640 +3677,640 @@
     <row outlineLevel="0" r="49">
       <c r="A49" s="4" t="inlineStr">
         <is>
-          <t>Z08_B06_P01_Ib01_I01</t>
+          <t>Z08_B05_P02_Ib01_I01</t>
         </is>
       </c>
       <c r="B49" s="4" t="inlineStr">
         <is>
-          <t>Z08_B06_P01_Ib01</t>
+          <t>Z08_B05_P02_Ib01</t>
         </is>
       </c>
       <c r="C49" s="4" t="inlineStr">
         <is>
-          <t>8.6</t>
+          <t>8.5.c</t>
         </is>
       </c>
       <c r="D49" s="4" t="inlineStr">
         <is>
-          <t>Mitglieder des Textilbündnisses</t>
+          <t>Tarifgebundene Beschäftigungsverhältnisse</t>
         </is>
       </c>
       <c r="E49" s="4" t="inlineStr">
         <is>
-          <t>Members of the Textile Partnership</t>
+          <t>XXXTarifgebundene Beschäftigungsverhältnisse</t>
         </is>
       </c>
       <c r="F49" s="4" t="inlineStr">
         <is>
-          <t>Mitglieder des Textilbündnisses</t>
+          <t>Tarifgebundene Beschäftigungsverhältnisse</t>
         </is>
       </c>
       <c r="G49" s="4" t="inlineStr">
         <is>
-          <t>Members of the Textile Partnership</t>
+          <t>XXXTarifgebundene Beschäftigungsverhältnisse</t>
         </is>
       </c>
       <c r="H49" s="4" t="inlineStr">
         <is>
-          <t>Signifikante Steigerung bis 2030</t>
+          <t>Anteil der tarifgebundenen Beschäftigungsverhältnisse bis 2030 erhöhen</t>
         </is>
       </c>
       <c r="I49" s="4" t="inlineStr">
         <is>
-          <t>Significantly increase by 2030</t>
+          <t>XXXAnteil der tarifgebundenen Beschäftigungsverhältnisse bis 2030 erhöhen</t>
         </is>
       </c>
       <c r="J49" s="4" t="inlineStr">
         <is>
-          <t>Steigerung der Anzahl bis 2030</t>
+          <t>Steigerung</t>
         </is>
       </c>
       <c r="K49" s="4" t="inlineStr">
         <is>
-          <t>increase number by 2030</t>
+          <t>Increase</t>
         </is>
       </c>
       <c r="L49" s="4" t="inlineStr">
         <is>
-          <t>Mitglieder des Textilbündnisses</t>
+          <t>Tarifgebundene Beschäftigungsverhältnisse</t>
         </is>
       </c>
       <c r="M49" s="4" t="inlineStr">
         <is>
-          <t>Members of the Textile Partnership</t>
+          <t>XXXTarifgebundene Beschäftigungsverhältnisse</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="50">
       <c r="A50" s="4" t="inlineStr">
         <is>
-          <t>Z09_B01_P01_Ib01_I01</t>
+          <t>Z08_B06_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B50" s="4" t="inlineStr">
         <is>
-          <t>Z09_B01_P01_Ib01</t>
+          <t>Z08_B06_P01_Ib01</t>
         </is>
       </c>
       <c r="C50" s="4" t="inlineStr">
         <is>
-          <t>9.1.a</t>
+          <t>8.6</t>
         </is>
       </c>
       <c r="D50" s="4" t="inlineStr">
         <is>
-          <t>Ausgaben für Forschung und Entwicklung</t>
+          <t>Freiwillige Nachhaltigkeitsberichterstattung von Unternehmen</t>
         </is>
       </c>
       <c r="E50" s="4" t="inlineStr">
         <is>
-          <t>Expenditure on research and development</t>
+          <t>XXXFreiwillige Nachhaltigkeitsberichterstattung von Unternehmen</t>
         </is>
       </c>
       <c r="F50" s="4" t="inlineStr">
         <is>
-          <t>Private und öffentliche Ausgaben für Forschung und Entwicklung</t>
+          <t>Freiwillige Nachhaltigkeitsberichterstattung von Unternehmen nach dem Deutschen Nachhaltigkeitskodex (DNK)</t>
         </is>
       </c>
       <c r="G50" s="4" t="inlineStr">
         <is>
-          <t>Private and public expenditure on research and development</t>
+          <t>XXXFreiwillige Nachhaltigkeitsberichterstattung von Unternehmen nach dem Deutschen Nachhaltigkeitskodex (DNK)</t>
         </is>
       </c>
       <c r="H50" s="4" t="inlineStr">
         <is>
-          <t>Jährlich mindestens 3,5 % des BIP bis 2025</t>
+          <t>Bis zum Jahr 2030 wird die Anzahl der freiwilligen Nachhaltigkeitsberichte gemäß Deutschem Nachhaltigkeitskodex (DNK) deutlich steigen</t>
         </is>
       </c>
       <c r="I50" s="4" t="inlineStr">
         <is>
-          <t>At least 3.5 % of GDP per year by 2025</t>
+          <t>XXXBis zum Jahr 2030 wird die Anzahl der freiwilligen Nachhaltigkeitsberichte gemäß Deutschem Nachhaltigkeitskodex (DNK) deutlich steigen</t>
         </is>
       </c>
       <c r="J50" s="4" t="inlineStr">
         <is>
-          <t>jährlich mindestens 3,5 % des BIP bis 2025</t>
+          <t>Steigerung</t>
         </is>
       </c>
       <c r="K50" s="4" t="inlineStr">
         <is>
-          <t>at least 3.5 % of GDP per year by 2025</t>
+          <t>Increase</t>
         </is>
       </c>
       <c r="L50" s="4" t="inlineStr">
         <is>
-          <t>Private und öffentliche Ausgaben für Forschung und Entwicklung</t>
+          <t>Freiwillige Nachhaltigkeitsberichterstattung von Unternehmen</t>
         </is>
       </c>
       <c r="M50" s="4" t="inlineStr">
         <is>
-          <t>Private and public expenditure on research and development</t>
+          <t>XXXFreiwillige Nachhaltigkeitsberichterstattung von Unternehmen</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="51">
       <c r="A51" s="4" t="inlineStr">
         <is>
-          <t>Z09_B01_P01_Ib02_I01</t>
+          <t>Z09_B01_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B51" s="4" t="inlineStr">
         <is>
-          <t>Z09_B01_P01_Ib02</t>
+          <t>Z09_B01_P01_Ib01</t>
         </is>
       </c>
       <c r="C51" s="4" t="inlineStr">
         <is>
-          <t>9.1.b</t>
+          <t>9.1.a</t>
         </is>
       </c>
       <c r="D51" s="4" t="inlineStr">
         <is>
-          <t>Breitbandverfügbarkeit</t>
+          <t>Ausgaben für Forschung und Entwicklung</t>
         </is>
       </c>
       <c r="E51" s="4" t="inlineStr">
         <is>
-          <t>Broadband availability</t>
+          <t>Expenditure on research and development</t>
         </is>
       </c>
       <c r="F51" s="4" t="inlineStr">
         <is>
-          <t>Breitbandausbau – Anteil der Haushalte mit Zugang zu Gigabit-Breitbandversorgung</t>
+          <t>Private und öffentliche Ausgaben für Forschung und Entwicklung</t>
         </is>
       </c>
       <c r="G51" s="4" t="inlineStr">
         <is>
-          <t>Roll-out of broadband – Share of households with access to gigabit broadband services</t>
+          <t>Private and public expenditure on research and development</t>
         </is>
       </c>
       <c r="H51" s="4" t="inlineStr">
         <is>
-          <t>Flächendeckender Aufbau von Gigabitnetzen bis 2025</t>
+          <t>Jährlich mindestens 3,5 % des BIP bis 2025</t>
         </is>
       </c>
       <c r="I51" s="4" t="inlineStr">
         <is>
-          <t>Universal gigabit network Roll-out by 2025</t>
+          <t>At least 3.5 % of GDP per year by 2025</t>
         </is>
       </c>
       <c r="J51" s="4" t="inlineStr">
         <is>
-          <t>flächendeckender Aufbau bis 2025</t>
+          <t>jährlich mindestens 3,5 % des BIP bis 2025</t>
         </is>
       </c>
       <c r="K51" s="4" t="inlineStr">
         <is>
-          <t>universal Roll-out by 2025</t>
+          <t>at least 3.5 % of GDP per year by 2025</t>
         </is>
       </c>
       <c r="L51" s="4" t="inlineStr">
         <is>
-          <t>Breitbandausbau – Anteil der Haushalte mit Zugang zu Gigabit-Breitbandversorgung</t>
+          <t>Private und öffentliche Ausgaben für Forschung und Entwicklung</t>
         </is>
       </c>
       <c r="M51" s="4" t="inlineStr">
         <is>
-          <t>Roll-out of broadband – Share of households with access to gigabit broadband services</t>
+          <t>Private and public expenditure on research and development</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="52">
       <c r="A52" s="4" t="inlineStr">
         <is>
-          <t>Z10_B01_P01_Ib01_I01</t>
+          <t>Z09_B01_P01_Ib02_I01</t>
         </is>
       </c>
       <c r="B52" s="4" t="inlineStr">
         <is>
-          <t>Z10_B01_P01_Ib01</t>
+          <t>Z09_B01_P01_Ib02</t>
         </is>
       </c>
       <c r="C52" s="4" t="inlineStr">
         <is>
-          <t>10.1</t>
+          <t>9.1.b</t>
         </is>
       </c>
       <c r="D52" s="4" t="inlineStr">
         <is>
-          <t>Abschlussquote</t>
+          <t>Breitbandverfügbarkeit</t>
         </is>
       </c>
       <c r="E52" s="4" t="inlineStr">
         <is>
-          <t>Graduation rate</t>
+          <t>Broadband availability</t>
         </is>
       </c>
       <c r="F52" s="4" t="inlineStr">
         <is>
-          <t>Ausländische Schulabsolventinnen und Schulabsolventen</t>
+          <t>Breitbandausbau – Anteil der Haushalte mit Zugang zu Gigabit-Breitbandversorgung</t>
         </is>
       </c>
       <c r="G52" s="4" t="inlineStr">
         <is>
-          <t>Foreign school graduates</t>
+          <t>Roll-out of broadband – Share of households with access to gigabit broadband services</t>
         </is>
       </c>
       <c r="H52" s="4" t="inlineStr">
         <is>
-          <t>Erhöhung des Anteils der ausländischen Schulabgänger mit mindestens Hauptschulabschluss und Angleichung an die Quote deutscher Schulabgänger bis 2030</t>
+          <t>Flächendeckender Aufbau von Gigabitnetzen bis 2025</t>
         </is>
       </c>
       <c r="I52" s="4" t="inlineStr">
         <is>
-          <t>Increase the proportion of foreign school leavers with a least a secondary general school certificate and bring into line with that of German school leavers by 2030</t>
+          <t>Universal gigabit network Roll-out by 2025</t>
         </is>
       </c>
       <c r="J52" s="4" t="inlineStr">
         <is>
-          <t>Erhöhung bei ausländischen Schulabsolvierenden und Angleichung an die Quote deutscher -absolvierenden bis 2030</t>
+          <t>flächendeckender Aufbau bis 2025</t>
         </is>
       </c>
       <c r="K52" s="4" t="inlineStr">
         <is>
-          <t>increase among foreign school leavers and bring it into line with the rate of German school leavers by 2030</t>
+          <t>universal Roll-out by 2025</t>
         </is>
       </c>
       <c r="L52" s="4" t="inlineStr">
         <is>
-          <t>Ausländische Schulabsolventinnen und Schulabsolventen</t>
+          <t>Breitbandausbau – Anteil der Haushalte mit Zugang zu Gigabit-Breitbandversorgung</t>
         </is>
       </c>
       <c r="M52" s="4" t="inlineStr">
         <is>
-          <t>Foreign school graduates</t>
+          <t>Roll-out of broadband – Share of households with access to gigabit broadband services</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="53">
       <c r="A53" s="4" t="inlineStr">
         <is>
-          <t>Z10_B02_P01_Ib01_I01</t>
+          <t>Z10_B01_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B53" s="4" t="inlineStr">
         <is>
-          <t>Z10_B02_P01_Ib01</t>
+          <t>Z10_B01_P01_Ib01</t>
         </is>
       </c>
       <c r="C53" s="4" t="inlineStr">
         <is>
-          <t>10.2</t>
+          <t>10.1</t>
         </is>
       </c>
       <c r="D53" s="4" t="inlineStr">
         <is>
-          <t>Gini-Koeffizient Einkommen nach Sozialtransfer</t>
+          <t>Abschlussquote</t>
         </is>
       </c>
       <c r="E53" s="4" t="inlineStr">
         <is>
-          <t>Gini coefficient of income after social transfers</t>
+          <t>Graduation rate</t>
         </is>
       </c>
       <c r="F53" s="4" t="inlineStr">
         <is>
-          <t>Gini-Koeffizient des Einkommens nach Sozialtransfers</t>
+          <t>Ausländische Schulabsolventinnen und Schulabsolventen</t>
         </is>
       </c>
       <c r="G53" s="4" t="inlineStr">
         <is>
-          <t>Gini coefficient of income after social transfers</t>
+          <t>Foreign school graduates</t>
         </is>
       </c>
       <c r="H53" s="4" t="inlineStr">
         <is>
-          <t>Gini-Koeffizient Einkommen nach Sozialtransfer bis 2030 unterhalb des EU-27-Wertes</t>
+          <t>Erhöhung des Anteils der ausländischen Schulabgänger mit mindestens Hauptschulabschluss und Angleichung an die Quote deutscher Schulabgänger bis 2030</t>
         </is>
       </c>
       <c r="I53" s="4" t="inlineStr">
         <is>
-          <t>Gini coefficient of income after social transfers to be below the EU-27 figure by 2030</t>
+          <t>Increase the proportion of foreign school leavers with a least a secondary general school certificate and bring into line with that of German school leavers by 2030</t>
         </is>
       </c>
       <c r="J53" s="4" t="inlineStr">
         <is>
-          <t>bis 2030 unterhalb des EU-27-Wertes</t>
+          <t>Erhöhung bei ausländischen Schulabsolvierenden und Angleichung an die Quote deutscher -absolvierenden bis 2030</t>
         </is>
       </c>
       <c r="K53" s="4" t="inlineStr">
         <is>
-          <t>to be below the EU-27 figure by 2030</t>
+          <t>increase among foreign school leavers and bring it into line with the rate of German school leavers by 2030</t>
         </is>
       </c>
       <c r="L53" s="4" t="inlineStr">
         <is>
-          <t>Gini-Koeffizient des Einkommens nach Sozialtransfers</t>
+          <t>Ausländische Schulabsolventinnen und Schulabsolventen</t>
         </is>
       </c>
       <c r="M53" s="4" t="inlineStr">
         <is>
-          <t>Gini coefficient of income after social transfers</t>
+          <t>Foreign school graduates</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="54">
       <c r="A54" s="4" t="inlineStr">
         <is>
-          <t>Z11_B01_P01_Ib01_I01</t>
+          <t>Z10_B02_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B54" s="4" t="inlineStr">
         <is>
-          <t>Z11_B01_P01_Ib01</t>
+          <t>Z10_B02_P01_Ib01</t>
         </is>
       </c>
       <c r="C54" s="4" t="inlineStr">
         <is>
-          <t>11.1.a</t>
+          <t>10.2</t>
         </is>
       </c>
       <c r="D54" s="4" t="inlineStr">
         <is>
-          <t>Anstieg der Siedlungs- und Verkehrsfläche</t>
+          <t>Gini-Koeffizient Einkommen nach Sozialtransfer</t>
         </is>
       </c>
       <c r="E54" s="4" t="inlineStr">
         <is>
-          <t>Expansion of settlement and transport area</t>
+          <t>Gini coefficient of income after social transfers</t>
         </is>
       </c>
       <c r="F54" s="4" t="inlineStr">
         <is>
-          <t>Anstieg der Siedlungs- und Verkehrsfläche</t>
+          <t>Gini-Koeffizient des Einkommens nach Sozialtransfers</t>
         </is>
       </c>
       <c r="G54" s="4" t="inlineStr">
         <is>
-          <t>Expansion of settlement and transport area</t>
+          <t>Gini coefficient of income after social transfers</t>
         </is>
       </c>
       <c r="H54" s="4" t="inlineStr">
         <is>
-          <t>Senkung auf durchschnittlich unter 30 ha pro Tag bis 2030</t>
+          <t>Gini-Koeffizient Einkommen nach Sozialtransfer bis 2030 unterhalb des EU-27-Wertes</t>
         </is>
       </c>
       <c r="I54" s="4" t="inlineStr">
         <is>
-          <t>Reduction to under 30 ha on average per day by 2030</t>
+          <t>Gini coefficient of income after social transfers to be below the EU-27 figure by 2030</t>
         </is>
       </c>
       <c r="J54" s="4" t="inlineStr">
         <is>
-          <t>Senkung auf unter 30 ha pro Tag bis 2030</t>
+          <t>bis 2030 unterhalb des EU-27-Wertes</t>
         </is>
       </c>
       <c r="K54" s="4" t="inlineStr">
         <is>
-          <t>reduction to under 30 ha per day by 2030</t>
+          <t>to be below the EU-27 figure by 2030</t>
         </is>
       </c>
       <c r="L54" s="4" t="inlineStr">
         <is>
-          <t>Anstieg der Siedlungs- und Verkehrsfläche</t>
+          <t>Gini-Koeffizient des Einkommens nach Sozialtransfers</t>
         </is>
       </c>
       <c r="M54" s="4" t="inlineStr">
         <is>
-          <t>Expansion of settlement and transport area</t>
+          <t>Gini coefficient of income after social transfers</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="55">
       <c r="A55" s="4" t="inlineStr">
         <is>
-          <t>Z11_B01_P01_Ib02_I01</t>
+          <t>Z11_B01_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B55" s="4" t="inlineStr">
         <is>
-          <t>Z11_B01_P01_Ib02</t>
+          <t>Z11_B01_P01_Ib01</t>
         </is>
       </c>
       <c r="C55" s="4" t="inlineStr">
         <is>
-          <t>11.1.b</t>
+          <t>11.1.a</t>
         </is>
       </c>
       <c r="D55" s="4" t="inlineStr">
         <is>
-          <t>Freiraumverlust</t>
+          <t>Anstieg der Siedlungs- und Verkehrsfläche</t>
         </is>
       </c>
       <c r="E55" s="4" t="inlineStr">
         <is>
-          <t>Loss of open space area</t>
+          <t>Expansion of settlement and transport area</t>
         </is>
       </c>
       <c r="F55" s="4" t="inlineStr">
         <is>
-          <t>Freiraumverlust</t>
+          <t>Anstieg der Siedlungs- und Verkehrsfläche</t>
         </is>
       </c>
       <c r="G55" s="4" t="inlineStr">
         <is>
-          <t>Loss of open space area</t>
+          <t>Expansion of settlement and transport area</t>
         </is>
       </c>
       <c r="H55" s="4" t="inlineStr">
         <is>
-          <t>Verringerung des einwohnerbezogenen Freiflächenverlustes</t>
+          <t>Senkung auf durchschnittlich unter 30 ha pro Tag bis 2030</t>
         </is>
       </c>
       <c r="I55" s="4" t="inlineStr">
         <is>
-          <t>Reduce the loss of per capita open space area</t>
+          <t>Reduction to under 30 ha on average per day by 2030</t>
         </is>
       </c>
       <c r="J55" s="4" t="inlineStr">
         <is>
-          <t>Verringerung</t>
+          <t>Senkung auf unter 30 ha pro Tag bis 2030</t>
         </is>
       </c>
       <c r="K55" s="4" t="inlineStr">
         <is>
-          <t>reduce the loss</t>
+          <t>reduction to under 30 ha per day by 2030</t>
         </is>
       </c>
       <c r="L55" s="4" t="inlineStr">
         <is>
-          <t>Freiraumverlust</t>
+          <t>Anstieg der Siedlungs- und Verkehrsfläche</t>
         </is>
       </c>
       <c r="M55" s="4" t="inlineStr">
         <is>
-          <t>Loss of open space area</t>
+          <t>Expansion of settlement and transport area</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="56">
       <c r="A56" s="4" t="inlineStr">
         <is>
-          <t>Z11_B01_P01_Ib03_I01</t>
+          <t>Z11_B01_P01_Ib02_I01</t>
         </is>
       </c>
       <c r="B56" s="4" t="inlineStr">
         <is>
-          <t>Z11_B01_P01_Ib03</t>
+          <t>Z11_B01_P01_Ib02</t>
         </is>
       </c>
       <c r="C56" s="4" t="inlineStr">
         <is>
-          <t>11.1.c</t>
+          <t>11.1.b</t>
         </is>
       </c>
       <c r="D56" s="4" t="inlineStr">
         <is>
-          <t>Siedlungsdichte</t>
+          <t>Freiraumverlust</t>
         </is>
       </c>
       <c r="E56" s="4" t="inlineStr">
         <is>
-          <t>Density of settlements</t>
+          <t>Loss of open space area</t>
         </is>
       </c>
       <c r="F56" s="4" t="inlineStr">
         <is>
-          <t>Siedlungsdichte</t>
+          <t>Freiraumverlust</t>
         </is>
       </c>
       <c r="G56" s="4" t="inlineStr">
         <is>
-          <t>Density of settlements</t>
+          <t>Loss of open space area</t>
         </is>
       </c>
       <c r="H56" s="4" t="inlineStr">
         <is>
-          <t>Keine Verringerung der Siedlungsdichte</t>
+          <t>Verringerung des einwohnerbezogenen Freiflächenverlustes</t>
         </is>
       </c>
       <c r="I56" s="4" t="inlineStr">
         <is>
-          <t>No reduction in density of settlements</t>
+          <t>Reduce the loss of per capita open space area</t>
         </is>
       </c>
       <c r="J56" s="4" t="inlineStr">
         <is>
-          <t>keine Verringerung</t>
+          <t>Verringerung</t>
         </is>
       </c>
       <c r="K56" s="4" t="inlineStr">
         <is>
-          <t>no reduction</t>
+          <t>reduce the loss</t>
         </is>
       </c>
       <c r="L56" s="4" t="inlineStr">
         <is>
-          <t>Siedlungsdichte</t>
+          <t>Freiraumverlust</t>
         </is>
       </c>
       <c r="M56" s="4" t="inlineStr">
         <is>
-          <t>Density of settlements</t>
+          <t>Loss of open space area</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="57">
       <c r="A57" s="4" t="inlineStr">
         <is>
-          <t>Z11_B02_P01_Ib01_I01</t>
+          <t>Z11_B01_P01_Ib03_I01</t>
         </is>
       </c>
       <c r="B57" s="4" t="inlineStr">
         <is>
-          <t>Z11_B02_P01_Ib01</t>
+          <t>Z11_B01_P01_Ib03</t>
         </is>
       </c>
       <c r="C57" s="4" t="inlineStr">
         <is>
-          <t>11.2.a</t>
+          <t>11.1.c</t>
         </is>
       </c>
       <c r="D57" s="4" t="inlineStr">
         <is>
-          <t>Endenergieverbrauch im Güterverkehr</t>
+          <t>Siedlungsdichte</t>
         </is>
       </c>
       <c r="E57" s="4" t="inlineStr">
         <is>
-          <t>Energy consumption in goods transport</t>
+          <t>Density of settlements</t>
         </is>
       </c>
       <c r="F57" s="4" t="inlineStr">
         <is>
-          <t>Endenergieverbrauch im Güterverkehr</t>
+          <t>Siedlungsdichte</t>
         </is>
       </c>
       <c r="G57" s="4" t="inlineStr">
         <is>
-          <t>Final energy consumption in goods transport</t>
+          <t>Density of settlements</t>
         </is>
       </c>
       <c r="H57" s="4" t="inlineStr">
         <is>
-          <t>Senkung um 15 bis 20 % bis 2030</t>
+          <t>Keine Verringerung der Siedlungsdichte</t>
         </is>
       </c>
       <c r="I57" s="4" t="inlineStr">
         <is>
-          <t>Reduction by 15–20 % by 2030</t>
+          <t>No reduction in density of settlements</t>
         </is>
       </c>
       <c r="J57" s="4" t="inlineStr">
         <is>
-          <t>Senkung um 15 bis 20 % bis 2030</t>
+          <t>keine Verringerung</t>
         </is>
       </c>
       <c r="K57" s="4" t="inlineStr">
         <is>
-          <t>reduction by 15-20 % by 2030</t>
+          <t>no reduction</t>
         </is>
       </c>
       <c r="L57" s="4" t="inlineStr">
         <is>
-          <t>Endenergieverbrauch im Güterverkehr</t>
+          <t>Siedlungsdichte</t>
         </is>
       </c>
       <c r="M57" s="4" t="inlineStr">
         <is>
-          <t>Final energy consumption in goods transport</t>
+          <t>Density of settlements</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="58">
       <c r="A58" s="4" t="inlineStr">
         <is>
-          <t>Z11_B02_P01_Ib02_I01</t>
+          <t>Z11_B02_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B58" s="4" t="inlineStr">
         <is>
-          <t>Z11_B02_P01_Ib02</t>
+          <t>Z11_B02_P01_Ib01</t>
         </is>
       </c>
       <c r="C58" s="4" t="inlineStr">
         <is>
-          <t>11.2.b</t>
+          <t>11.2.a</t>
         </is>
       </c>
       <c r="D58" s="4" t="inlineStr">
         <is>
-          <t>Endenergieverbrauch im Personenverkehr</t>
+          <t>Endenergieverbrauch im Güterverkehr</t>
         </is>
       </c>
       <c r="E58" s="4" t="inlineStr">
         <is>
-          <t>Energy consumption in passenger transport</t>
+          <t>Energy consumption in goods transport</t>
         </is>
       </c>
       <c r="F58" s="4" t="inlineStr">
         <is>
-          <t>Endenergieverbrauch im Personenverkehr</t>
+          <t>Endenergieverbrauch im Güterverkehr</t>
         </is>
       </c>
       <c r="G58" s="4" t="inlineStr">
         <is>
-          <t>Final energy consumption in passenger transport</t>
+          <t>Final energy consumption in goods transport</t>
         </is>
       </c>
       <c r="H58" s="4" t="inlineStr">
@@ -4335,354 +4335,354 @@
       </c>
       <c r="L58" s="4" t="inlineStr">
         <is>
-          <t>Endenergieverbrauch im Personenverkehr</t>
+          <t>Endenergieverbrauch im Güterverkehr</t>
         </is>
       </c>
       <c r="M58" s="4" t="inlineStr">
         <is>
-          <t>Final energy consumption in passenger transport</t>
+          <t>Final energy consumption in goods transport</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="59">
       <c r="A59" s="4" t="inlineStr">
         <is>
-          <t>Z11_B02_P01_Ib03_I01</t>
+          <t>Z11_B02_P01_Ib02_I01</t>
         </is>
       </c>
       <c r="B59" s="4" t="inlineStr">
         <is>
-          <t>Z11_B02_P01_Ib03</t>
+          <t>Z11_B02_P01_Ib02</t>
         </is>
       </c>
       <c r="C59" s="4" t="inlineStr">
         <is>
-          <t>11.2.c</t>
+          <t>11.2.b</t>
         </is>
       </c>
       <c r="D59" s="4" t="inlineStr">
         <is>
-          <t>Reisezeit mit öffentlichen Verkehrsmitteln</t>
+          <t>Endenergieverbrauch im Personenverkehr</t>
         </is>
       </c>
       <c r="E59" s="4" t="inlineStr">
         <is>
-          <t>Average travel time by public transport</t>
+          <t>Energy consumption in passenger transport</t>
         </is>
       </c>
       <c r="F59" s="4" t="inlineStr">
         <is>
-          <t>Erreichbarkeit von Mittel- und Oberzentren mit öffentlichen Verkehrsmitteln</t>
+          <t>Endenergieverbrauch im Personenverkehr</t>
         </is>
       </c>
       <c r="G59" s="4" t="inlineStr">
         <is>
-          <t>Accessibility of medium-sized and large cities by public transport</t>
+          <t>Final energy consumption in passenger transport</t>
         </is>
       </c>
       <c r="H59" s="4" t="inlineStr">
         <is>
-          <t>Verringerung der durchschnittlichen Reisezeit mit öffentlichen Verkehrsmitteln</t>
+          <t>Senkung um 15 bis 20 % bis 2030</t>
         </is>
       </c>
       <c r="I59" s="4" t="inlineStr">
         <is>
-          <t>Reduction of average travel time by public transport</t>
+          <t>Reduction by 15–20 % by 2030</t>
         </is>
       </c>
       <c r="J59" s="4" t="inlineStr">
         <is>
-          <t>Verringerung</t>
+          <t>Senkung um 15 bis 20 % bis 2030</t>
         </is>
       </c>
       <c r="K59" s="4" t="inlineStr">
         <is>
-          <t>reduction</t>
+          <t>reduction by 15-20 % by 2030</t>
         </is>
       </c>
       <c r="L59" s="4" t="inlineStr">
         <is>
-          <t>Erreichbarkeit von Mittel- und Oberzentren mit öffentlichen Verkehrsmitteln</t>
+          <t>Endenergieverbrauch im Personenverkehr</t>
         </is>
       </c>
       <c r="M59" s="4" t="inlineStr">
         <is>
-          <t>Accessibility of medium-sized and large cities by public transport</t>
+          <t>Final energy consumption in passenger transport</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="60">
       <c r="A60" s="4" t="inlineStr">
         <is>
-          <t>Z11_B03_P01_Ib01_I01</t>
+          <t>Z11_B02_P01_Ib03_I01</t>
         </is>
       </c>
       <c r="B60" s="4" t="inlineStr">
         <is>
-          <t>Z11_B03_P01_Ib01</t>
+          <t>Z11_B02_P01_Ib03</t>
         </is>
       </c>
       <c r="C60" s="4" t="inlineStr">
         <is>
-          <t>11.3</t>
+          <t>11.2.c</t>
         </is>
       </c>
       <c r="D60" s="4" t="inlineStr">
         <is>
-          <t>Durch Wohnkosten überlastete Personen</t>
+          <t>Reisezeit mit öffentlichen Verkehrsmitteln</t>
         </is>
       </c>
       <c r="E60" s="4" t="inlineStr">
         <is>
-          <t>Persons overburdened by housing costs</t>
+          <t>Average travel time by public transport</t>
         </is>
       </c>
       <c r="F60" s="4" t="inlineStr">
         <is>
-          <t>Überlastung durch Wohnkosten</t>
+          <t>Erreichbarkeit von Mittel- und Oberzentren mit öffentlichen Verkehrsmitteln</t>
         </is>
       </c>
       <c r="G60" s="4" t="inlineStr">
         <is>
-          <t>Housing cost overload</t>
+          <t>Accessibility of medium-sized and large cities by public transport</t>
         </is>
       </c>
       <c r="H60" s="4" t="inlineStr">
         <is>
-          <t>Senkung des Anteils der überlasteten Personen an der Bevölkerung auf 13 % bis 2030</t>
+          <t>Verringerung der durchschnittlichen Reisezeit mit öffentlichen Verkehrsmitteln</t>
         </is>
       </c>
       <c r="I60" s="4" t="inlineStr">
         <is>
-          <t>Reduce the proportion of people who are overburdened to 13 % by 2030</t>
+          <t>Reduction of average travel time by public transport</t>
         </is>
       </c>
       <c r="J60" s="4" t="inlineStr">
         <is>
-          <t>Senkung auf 13 % bis 2030</t>
+          <t>Verringerung</t>
         </is>
       </c>
       <c r="K60" s="4" t="inlineStr">
         <is>
-          <t>reduce to 13 % by 2030</t>
+          <t>reduction</t>
         </is>
       </c>
       <c r="L60" s="4" t="inlineStr">
         <is>
-          <t>Überlastung durch Wohnkosten</t>
+          <t>Erreichbarkeit von Mittel- und Oberzentren mit öffentlichen Verkehrsmitteln</t>
         </is>
       </c>
       <c r="M60" s="4" t="inlineStr">
         <is>
-          <t>Housing cost overload</t>
+          <t>Accessibility of medium-sized and large cities by public transport</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="61">
       <c r="A61" s="4" t="inlineStr">
         <is>
-          <t>Z11_B04_P01_Ib01_I01</t>
+          <t>Z11_B03_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B61" s="4" t="inlineStr">
         <is>
-          <t>Z11_B04_P01_Ib01</t>
+          <t>Z11_B03_P01_Ib01</t>
         </is>
       </c>
       <c r="C61" s="4" t="inlineStr">
         <is>
-          <t>11.4</t>
+          <t>11.3</t>
         </is>
       </c>
       <c r="D61" s="4" t="inlineStr">
         <is>
-          <t>Objekte in der Deutschen Digitalen Bibliothek</t>
+          <t>Durch Wohnkosten überlastete Personen</t>
         </is>
       </c>
       <c r="E61" s="4" t="inlineStr">
         <is>
-          <t>Objects in the German Digital Library</t>
+          <t>Persons overburdened by housing costs</t>
         </is>
       </c>
       <c r="F61" s="4" t="inlineStr">
         <is>
-          <t>Zahl der Objekte in der Deutschen Digitalen Bibliothek</t>
+          <t>Überlastung durch Wohnkosten</t>
         </is>
       </c>
       <c r="G61" s="4" t="inlineStr">
         <is>
-          <t>Number of objects in the German Digital Library</t>
+          <t>Housing cost overload</t>
         </is>
       </c>
       <c r="H61" s="4" t="inlineStr">
         <is>
-          <t>Steigerung der Zahl der in der Deutschen Digitalen Bibliothek vernetzten Objekte auf 50 Millionen bis 2030</t>
+          <t>Senkung des Anteils der überlasteten Personen an der Bevölkerung auf 13 % bis 2030</t>
         </is>
       </c>
       <c r="I61" s="4" t="inlineStr">
         <is>
-          <t>Increase in the number of objects in the network of the German Digital Library to 50 million by 2030</t>
+          <t>Reduce the proportion of people who are overburdened to 13 % by 2030</t>
         </is>
       </c>
       <c r="J61" s="4" t="inlineStr">
         <is>
-          <t>Steigerung auf 50 Millionen bis 2030</t>
+          <t>Senkung auf 13 % bis 2030</t>
         </is>
       </c>
       <c r="K61" s="4" t="inlineStr">
         <is>
-          <t>increase to 50 million by 2030</t>
+          <t>reduce to 13 % by 2030</t>
         </is>
       </c>
       <c r="L61" s="4" t="inlineStr">
         <is>
-          <t>Zahl der Objekte in der Deutschen Digitalen Bibliothek</t>
+          <t>Überlastung durch Wohnkosten</t>
         </is>
       </c>
       <c r="M61" s="4" t="inlineStr">
         <is>
-          <t>Number of objects in the German Digital Library</t>
+          <t>Housing cost overload</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="62">
       <c r="A62" s="4" t="inlineStr">
         <is>
-          <t>Z12_B01_P01_Ib01_I01</t>
+          <t>Z11_B04_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B62" s="4" t="inlineStr">
         <is>
-          <t>Z12_B01_P01_Ib01</t>
+          <t>Z11_B04_P01_Ib01</t>
         </is>
       </c>
       <c r="C62" s="4" t="inlineStr">
         <is>
-          <t>12.1.a</t>
+          <t>11.4</t>
         </is>
       </c>
       <c r="D62" s="4" t="inlineStr">
         <is>
-          <t>Produkte mit Umweltzeichen</t>
+          <t>Objekte in der Deutschen Digitalen Bibliothek</t>
         </is>
       </c>
       <c r="E62" s="4" t="inlineStr">
         <is>
-          <t>Products certified by eco-labelling schemes</t>
+          <t>Objects in the German Digital Library</t>
         </is>
       </c>
       <c r="F62" s="4" t="inlineStr">
         <is>
-          <t>Marktanteil von Produkten mit staatlichen Umweltzeichen</t>
+          <t>Zahl der Objekte in der Deutschen Digitalen Bibliothek</t>
         </is>
       </c>
       <c r="G62" s="4" t="inlineStr">
         <is>
-          <t>Market share of products certified by publicly managed eco-labelling schemes</t>
+          <t>Number of objects in the German Digital Library</t>
         </is>
       </c>
       <c r="H62" s="4" t="inlineStr">
         <is>
-          <t>Steigerung des Marktanteils auf 34 % bis 2030</t>
+          <t>Steigerung der Zahl der in der Deutschen Digitalen Bibliothek vernetzten Objekte auf 50 Millionen bis 2030</t>
         </is>
       </c>
       <c r="I62" s="4" t="inlineStr">
         <is>
-          <t>Increase the market share to 34 % by 2030</t>
+          <t>Increase in the number of objects in the network of the German Digital Library to 50 million by 2030</t>
         </is>
       </c>
       <c r="J62" s="4" t="inlineStr">
         <is>
-          <t>Steigerung des Marktanteils auf 34 % bis 2030</t>
+          <t>Steigerung auf 50 Millionen bis 2030</t>
         </is>
       </c>
       <c r="K62" s="4" t="inlineStr">
         <is>
-          <t>increase the market share to 34 % by 2030</t>
+          <t>increase to 50 million by 2030</t>
         </is>
       </c>
       <c r="L62" s="4" t="inlineStr">
         <is>
-          <t>Marktanteil von Produkten mit staatlichen Umweltzeichen</t>
+          <t>Zahl der Objekte in der Deutschen Digitalen Bibliothek</t>
         </is>
       </c>
       <c r="M62" s="4" t="inlineStr">
         <is>
-          <t>Market share of products certified by publicly managed eco-labelling schemes</t>
+          <t>Number of objects in the German Digital Library</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="63">
       <c r="A63" s="4" t="inlineStr">
         <is>
-          <t>Z12_B01_P01_Ib02_I01</t>
+          <t>Z12_B01_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B63" s="4" t="inlineStr">
         <is>
-          <t>Z12_B01_P01_Ib02</t>
+          <t>Z12_B01_P01_Ib01</t>
         </is>
       </c>
       <c r="C63" s="4" t="inlineStr">
         <is>
-          <t>12.1.ba</t>
+          <t>12.1.a</t>
         </is>
       </c>
       <c r="D63" s="4" t="inlineStr">
         <is>
-          <t>ba) Rohstoffeinsatz</t>
+          <t>Produkte mit Umweltzeichen</t>
         </is>
       </c>
       <c r="E63" s="4" t="inlineStr">
         <is>
-          <t>ba) Use of raw materials</t>
+          <t>Products certified by eco-labelling schemes</t>
         </is>
       </c>
       <c r="F63" s="4" t="inlineStr">
         <is>
-          <t>Globale Umweltinanspruchnahme durch den Konsum privater Haushalte - Rohstoffeinsatz</t>
+          <t>Marktanteil von Produkten mit staatlichen Umweltzeichen</t>
         </is>
       </c>
       <c r="G63" s="4" t="inlineStr">
         <is>
-          <t>Global environmental impact by private household consumption – use of raw materials</t>
+          <t>Market share of products certified by publicly managed eco-labelling schemes</t>
         </is>
       </c>
       <c r="H63" s="4" t="inlineStr">
         <is>
-          <t>Kontinuierliche Reduzierung </t>
+          <t>Steigerung des Marktanteils auf 34 % bis 2030</t>
         </is>
       </c>
       <c r="I63" s="4" t="inlineStr">
         <is>
-          <t>Steady reduction</t>
+          <t>Increase the market share to 34 % by 2030</t>
         </is>
       </c>
       <c r="J63" s="4" t="inlineStr">
         <is>
-          <t>kontinuierliche Reduzierung</t>
+          <t>Steigerung des Marktanteils auf 34 % bis 2030</t>
         </is>
       </c>
       <c r="K63" s="4" t="inlineStr">
         <is>
-          <t>steady reduction</t>
+          <t>increase the market share to 34 % by 2030</t>
         </is>
       </c>
       <c r="L63" s="4" t="inlineStr">
         <is>
-          <t>Direkter und indirekter Rohstoffeinsatz</t>
+          <t>Marktanteil von Produkten mit staatlichen Umweltzeichen</t>
         </is>
       </c>
       <c r="M63" s="4" t="inlineStr">
         <is>
-          <t>Direct and indirect use of raw materials</t>
+          <t>Market share of products certified by publicly managed eco-labelling schemes</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="64">
       <c r="A64" s="4" t="inlineStr">
         <is>
-          <t>Z12_B01_P01_Ib02_I02</t>
+          <t>Z12_B01_P01_Ib02_I01</t>
         </is>
       </c>
       <c r="B64" s="4" t="inlineStr">
@@ -4692,27 +4692,27 @@
       </c>
       <c r="C64" s="4" t="inlineStr">
         <is>
-          <t>12.1.bb</t>
+          <t>12.1.ba</t>
         </is>
       </c>
       <c r="D64" s="4" t="inlineStr">
         <is>
-          <t>bb) Energieverbrauch</t>
+          <t>ba) Rohstoffeinsatz</t>
         </is>
       </c>
       <c r="E64" s="4" t="inlineStr">
         <is>
-          <t>bb) Energy consumption</t>
+          <t>ba) Use of raw materials</t>
         </is>
       </c>
       <c r="F64" s="4" t="inlineStr">
         <is>
-          <t>Globale Umweltinanspruchnahme durch den Konsum privater Haushalte - Energieverbrauch</t>
+          <t>Globale Umweltinanspruchnahme durch den Konsum privater Haushalte - Rohstoffeinsatz</t>
         </is>
       </c>
       <c r="G64" s="4" t="inlineStr">
         <is>
-          <t>Global environmental impact by private household consumption – energy consumption</t>
+          <t>Global environmental impact by private household consumption – use of raw materials</t>
         </is>
       </c>
       <c r="H64" s="4" t="inlineStr">
@@ -4737,19 +4737,19 @@
       </c>
       <c r="L64" s="4" t="inlineStr">
         <is>
-          <t>Direkter und indirekter Energieverbrauch</t>
+          <t>Direkter und indirekter Rohstoffeinsatz</t>
         </is>
       </c>
       <c r="M64" s="4" t="inlineStr">
         <is>
-          <t>Direct and indirect energy consumption</t>
+          <t>Direct and indirect use of raw materials</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="65">
       <c r="A65" s="4" t="inlineStr">
         <is>
-          <t>Z12_B01_P01_Ib02_I03</t>
+          <t>Z12_B01_P01_Ib02_I02</t>
         </is>
       </c>
       <c r="B65" s="4" t="inlineStr">
@@ -4759,27 +4759,27 @@
       </c>
       <c r="C65" s="4" t="inlineStr">
         <is>
-          <t>12.1.bc</t>
+          <t>12.1.bb</t>
         </is>
       </c>
       <c r="D65" s="4" t="inlineStr">
         <is>
-          <t>bc) CO2-Emissionen</t>
+          <t>bb) Energieverbrauch</t>
         </is>
       </c>
       <c r="E65" s="4" t="inlineStr">
         <is>
-          <t>bc) CO2 emissions</t>
+          <t>bb) Energy consumption</t>
         </is>
       </c>
       <c r="F65" s="4" t="inlineStr">
         <is>
-          <t>Globale Umweltinanspruchnahme durch den Konsum privater Haushalte - CO2-Emissionen</t>
+          <t>Globale Umweltinanspruchnahme durch den Konsum privater Haushalte - Energieverbrauch</t>
         </is>
       </c>
       <c r="G65" s="4" t="inlineStr">
         <is>
-          <t>Global environmental impact by private household consumption – CO2 emissions</t>
+          <t>Global environmental impact by private household consumption – energy consumption</t>
         </is>
       </c>
       <c r="H65" s="4" t="inlineStr">
@@ -4804,153 +4804,153 @@
       </c>
       <c r="L65" s="4" t="inlineStr">
         <is>
-          <t>Direkte und indirekte CO2-Emissionen</t>
+          <t>Direkter und indirekter Energieverbrauch</t>
         </is>
       </c>
       <c r="M65" s="4" t="inlineStr">
         <is>
-          <t>Direct and indirect CO2 emissions</t>
+          <t>Direct and indirect energy consumption</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="66">
       <c r="A66" s="4" t="inlineStr">
         <is>
-          <t>Z12_B02_P01_Ib01_I01</t>
+          <t>Z12_B01_P01_Ib02_I03</t>
         </is>
       </c>
       <c r="B66" s="4" t="inlineStr">
         <is>
-          <t>Z12_B02_P01_Ib01</t>
+          <t>Z12_B01_P01_Ib02</t>
         </is>
       </c>
       <c r="C66" s="4" t="inlineStr">
         <is>
-          <t>12.2</t>
+          <t>12.1.bc</t>
         </is>
       </c>
       <c r="D66" s="4" t="inlineStr">
         <is>
-          <t>Umweltmanagement EMAS</t>
+          <t>bc) CO2-Emissionen</t>
         </is>
       </c>
       <c r="E66" s="4" t="inlineStr">
         <is>
-          <t>EMAS eco-management</t>
+          <t>bc) CO2 emissions</t>
         </is>
       </c>
       <c r="F66" s="4" t="inlineStr">
         <is>
-          <t>Umweltmanagement EMAS</t>
+          <t>Globale Umweltinanspruchnahme durch den Konsum privater Haushalte - CO2-Emissionen</t>
         </is>
       </c>
       <c r="G66" s="4" t="inlineStr">
         <is>
-          <t>EMAS eco-management</t>
+          <t>Global environmental impact by private household consumption – CO2 emissions</t>
         </is>
       </c>
       <c r="H66" s="4" t="inlineStr">
         <is>
-          <t>5 000 Organisationsstandorte bis 2030</t>
+          <t>Kontinuierliche Reduzierung </t>
         </is>
       </c>
       <c r="I66" s="4" t="inlineStr">
         <is>
-          <t>5,000 locations of organisation by 2030</t>
+          <t>Steady reduction</t>
         </is>
       </c>
       <c r="J66" s="4" t="inlineStr">
         <is>
-          <t>5 000 Organisationsstandorte bis 2030</t>
+          <t>kontinuierliche Reduzierung</t>
         </is>
       </c>
       <c r="K66" s="4" t="inlineStr">
         <is>
-          <t>5,000 locations of organisation by 2030</t>
+          <t>steady reduction</t>
         </is>
       </c>
       <c r="L66" s="4" t="inlineStr">
         <is>
-          <t>Umweltmanagement EMAS</t>
+          <t>Direkte und indirekte CO2-Emissionen</t>
         </is>
       </c>
       <c r="M66" s="4" t="inlineStr">
         <is>
-          <t>EMAS eco-management</t>
+          <t>Direct and indirect CO2 emissions</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="67">
       <c r="A67" s="4" t="inlineStr">
         <is>
-          <t>Z12_B03_P01_Ib01_I01</t>
+          <t>Z12_B02_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B67" s="4" t="inlineStr">
         <is>
-          <t>Z12_B03_P01_Ib01</t>
+          <t>Z12_B02_P01_Ib01</t>
         </is>
       </c>
       <c r="C67" s="4" t="inlineStr">
         <is>
-          <t>12.3.a</t>
+          <t>12.2</t>
         </is>
       </c>
       <c r="D67" s="4" t="inlineStr">
         <is>
-          <t>a) Anteil Papier mit Blauem Engel der Bundesverwaltung</t>
+          <t>Umweltmanagement EMAS</t>
         </is>
       </c>
       <c r="E67" s="4" t="inlineStr">
         <is>
-          <t>a) Share of paper bearing the Blue Angel label of the federal administration</t>
+          <t>EMAS eco-management</t>
         </is>
       </c>
       <c r="F67" s="4" t="inlineStr">
         <is>
-          <t>Anteil des Papiers mit Blauem Engel am Gesamtpapierverbrauch der unmittelbaren Bundesverwaltung</t>
+          <t>Umweltmanagement EMAS</t>
         </is>
       </c>
       <c r="G67" s="4" t="inlineStr">
         <is>
-          <t>Paper bearing the Blue Angel label as a proportion of the total paper consumption of the direct federal administration</t>
+          <t>EMAS eco-management</t>
         </is>
       </c>
       <c r="H67" s="4" t="inlineStr">
         <is>
-          <t>Steigerung des Anteils auf 95 % bis 2020</t>
+          <t>5 000 Organisationsstandorte bis 2030</t>
         </is>
       </c>
       <c r="I67" s="4" t="inlineStr">
         <is>
-          <t>Increase the proportion to 95 % by 2020</t>
+          <t>5,000 locations of organisation by 2030</t>
         </is>
       </c>
       <c r="J67" s="4" t="inlineStr">
         <is>
-          <t>Steigerung auf 95 % bis 2020</t>
+          <t>5 000 Organisationsstandorte bis 2030</t>
         </is>
       </c>
       <c r="K67" s="4" t="inlineStr">
         <is>
-          <t>increase to 95 % by 2020</t>
+          <t>5,000 locations of organisation by 2030</t>
         </is>
       </c>
       <c r="L67" s="4" t="inlineStr">
         <is>
-          <t>Anteil des Papiers mit Blauem Engel am Gesamtpapierverbrauch der unmittelbaren Bundesverwaltung</t>
+          <t>Umweltmanagement EMAS</t>
         </is>
       </c>
       <c r="M67" s="4" t="inlineStr">
         <is>
-          <t>Paper bearing the Blue Angel label as a proportion of the total paper consumption of the direct federal administration</t>
+          <t>EMAS eco-management</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="68">
       <c r="A68" s="4" t="inlineStr">
         <is>
-          <t>Z12_B03_P01_Ib01_I02</t>
+          <t>Z12_B03_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B68" s="4" t="inlineStr">
@@ -4960,265 +4960,265 @@
       </c>
       <c r="C68" s="4" t="inlineStr">
         <is>
-          <t>12.3.b</t>
+          <t>12.3.a</t>
         </is>
       </c>
       <c r="D68" s="4" t="inlineStr">
         <is>
-          <t>b) CO2-Emissionen der Kfz der öffentlichen Hand</t>
+          <t>a) Anteil Papier mit Blauem Engel der Bundesverwaltung</t>
         </is>
       </c>
       <c r="E68" s="4" t="inlineStr">
         <is>
-          <t>b) CO2 emissions of vehicles in the public sector</t>
+          <t>a) Share of paper bearing the Blue Angel label of the federal administration</t>
         </is>
       </c>
       <c r="F68" s="4" t="inlineStr">
         <is>
-          <t>CO2-Emissionen je Fahrleistungen der Kraftfahrzeuge der öffentlichen Hand</t>
+          <t>Anteil des Papiers mit Blauem Engel am Gesamtpapierverbrauch der unmittelbaren Bundesverwaltung</t>
         </is>
       </c>
       <c r="G68" s="4" t="inlineStr">
         <is>
-          <t>CO2 emissions of commercially available vehicles in the public sector</t>
+          <t>Paper bearing the Blue Angel label as a proportion of the total paper consumption of the direct federal administration</t>
         </is>
       </c>
       <c r="H68" s="4" t="inlineStr">
         <is>
-          <t>Signifikante Senkung</t>
+          <t>Steigerung des Anteils auf 95 % bis 2020</t>
         </is>
       </c>
       <c r="I68" s="4" t="inlineStr">
         <is>
-          <t>Significantly reduce</t>
+          <t>Increase the proportion to 95 % by 2020</t>
         </is>
       </c>
       <c r="J68" s="4" t="inlineStr">
         <is>
-          <t>signifikante Senkung</t>
+          <t>Steigerung auf 95 % bis 2020</t>
         </is>
       </c>
       <c r="K68" s="4" t="inlineStr">
         <is>
-          <t>significantly reduce</t>
+          <t>increase to 95 % by 2020</t>
         </is>
       </c>
       <c r="L68" s="4" t="inlineStr">
         <is>
-          <t>CO2-Emissionen je Fahrleistungen der Kraftfahrzeuge der öffentlichen Hand</t>
+          <t>Anteil des Papiers mit Blauem Engel am Gesamtpapierverbrauch der unmittelbaren Bundesverwaltung</t>
         </is>
       </c>
       <c r="M68" s="4" t="inlineStr">
         <is>
-          <t>CO2 emissions of commercially available vehicles in the public sector</t>
+          <t>Paper bearing the Blue Angel label as a proportion of the total paper consumption of the direct federal administration</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="69">
       <c r="A69" s="4" t="inlineStr">
         <is>
-          <t>Z13_B01_P01_Ib01_I01</t>
+          <t>Z12_B03_P01_Ib01_I02</t>
         </is>
       </c>
       <c r="B69" s="4" t="inlineStr">
         <is>
-          <t>Z13_B01_P01_Ib01</t>
+          <t>Z12_B03_P01_Ib01</t>
         </is>
       </c>
       <c r="C69" s="4" t="inlineStr">
         <is>
-          <t>13.1.a</t>
+          <t>12.3.b</t>
         </is>
       </c>
       <c r="D69" s="4" t="inlineStr">
         <is>
-          <t>Treibhausgasemissionen</t>
+          <t>b) CO2-Emissionen der Kfz der öffentlichen Hand</t>
         </is>
       </c>
       <c r="E69" s="4" t="inlineStr">
         <is>
-          <t>Greenhouse gas emissions</t>
+          <t>b) CO2 emissions of vehicles in the public sector</t>
         </is>
       </c>
       <c r="F69" s="4" t="inlineStr">
         <is>
-          <t>Treibhausgasemissionen</t>
+          <t>CO2-Emissionen je Fahrleistungen der Kraftfahrzeuge der öffentlichen Hand</t>
         </is>
       </c>
       <c r="G69" s="4" t="inlineStr">
         <is>
-          <t>Greenhouse gas emissions</t>
+          <t>CO2 emissions of commercially available vehicles in the public sector</t>
         </is>
       </c>
       <c r="H69" s="4" t="inlineStr">
         <is>
-          <t>Minderung um mindestens 65 % bis 2030, um mindestens 88 % bis 2040; Erreichung der Treibhausgasneutralität bis 2045</t>
+          <t>Signifikante Senkung</t>
         </is>
       </c>
       <c r="I69" s="4" t="inlineStr">
         <is>
-          <t>Reduce by at least 65 % by 2030 and by at least 88 % by 2040; greenhouse gas neutrality to be achieved by 2045</t>
+          <t>Significantly reduce</t>
         </is>
       </c>
       <c r="J69" s="4" t="inlineStr">
         <is>
-          <t>Minderung um 65 % bis 2030</t>
+          <t>signifikante Senkung</t>
         </is>
       </c>
       <c r="K69" s="4" t="inlineStr">
         <is>
-          <t>reduce by 65 % by 2030</t>
+          <t>significantly reduce</t>
         </is>
       </c>
       <c r="L69" s="4" t="inlineStr">
         <is>
-          <t>Treibhausgasemissionen</t>
+          <t>CO2-Emissionen je Fahrleistungen der Kraftfahrzeuge der öffentlichen Hand</t>
         </is>
       </c>
       <c r="M69" s="4" t="inlineStr">
         <is>
-          <t>Greenhouse gas emissions</t>
+          <t>CO2 emissions of commercially available vehicles in the public sector</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="70">
       <c r="A70" s="4" t="inlineStr">
         <is>
-          <t>Z13_B01_P02_Ib01_I01</t>
+          <t>Z13_B01_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B70" s="4" t="inlineStr">
         <is>
-          <t>Z13_B01_P02_Ib01</t>
+          <t>Z13_B01_P01_Ib01</t>
         </is>
       </c>
       <c r="C70" s="4" t="inlineStr">
         <is>
-          <t>13.1.b</t>
+          <t>13.1.a</t>
         </is>
       </c>
       <c r="D70" s="4" t="inlineStr">
         <is>
-          <t>Zahlungen zur Klimafinanzierung</t>
+          <t>Treibhausgasemissionen</t>
         </is>
       </c>
       <c r="E70" s="4" t="inlineStr">
         <is>
-          <t>Climate finance payments</t>
+          <t>Greenhouse gas emissions</t>
         </is>
       </c>
       <c r="F70" s="4" t="inlineStr">
         <is>
-          <t>Internationale Klimafinanzierung zur Reduktion von Treibhausgasen und zur Anpassung an den Klimawandel</t>
+          <t>Treibhausgasemissionen</t>
         </is>
       </c>
       <c r="G70" s="4" t="inlineStr">
         <is>
-          <t>International climate finance for the reduction of greenhouse gases and adaptation to climate change</t>
+          <t>Greenhouse gas emissions</t>
         </is>
       </c>
       <c r="H70" s="4" t="inlineStr">
         <is>
-          <t>Erhöhung der internationalen Klimafinanzierung auf mindestens 6 Mrd. Euro bis spätestens 2025.</t>
+          <t>Minderung um mindestens 65 % bis 2030, um mindestens 88 % bis 2040; Erreichung der Treibhausgasneutralität bis 2045</t>
         </is>
       </c>
       <c r="I70" s="4" t="inlineStr">
         <is>
-          <t>Increase international climate finance to at least 6 billion euros by 2025 at the latest</t>
+          <t>Reduce by at least 65 % by 2030 and by at least 88 % by 2040; greenhouse gas neutrality to be achieved by 2045</t>
         </is>
       </c>
       <c r="J70" s="4" t="inlineStr">
         <is>
-          <t>Erhöhung auf 6 Mrd. Euro bis 2025</t>
+          <t>Minderung um 65 % bis 2030</t>
         </is>
       </c>
       <c r="K70" s="4" t="inlineStr">
         <is>
-          <t>increase to 6 bn euro by 2025</t>
+          <t>reduce by 65 % by 2030</t>
         </is>
       </c>
       <c r="L70" s="4" t="inlineStr">
         <is>
-          <t>Internationale Klimafinanzierung zur Reduktion von Treibhausgasen und zur Anpassung an den Klimawandel</t>
+          <t>Treibhausgasemissionen</t>
         </is>
       </c>
       <c r="M70" s="4" t="inlineStr">
         <is>
-          <t>International climate finance for the reduction of greenhouse gases and adaptation to climate change</t>
+          <t>Greenhouse gas emissions</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="71">
       <c r="A71" s="4" t="inlineStr">
         <is>
-          <t>Z14_B01_P01_Ib01_I01</t>
+          <t>Z13_B01_P02_Ib01_I01</t>
         </is>
       </c>
       <c r="B71" s="4" t="inlineStr">
         <is>
-          <t>Z14_B01_P01_Ib01</t>
+          <t>Z13_B01_P02_Ib01</t>
         </is>
       </c>
       <c r="C71" s="4" t="inlineStr">
         <is>
-          <t>14.1.aa</t>
+          <t>13.1.b</t>
         </is>
       </c>
       <c r="D71" s="4" t="inlineStr">
         <is>
-          <t>aa) Ostsee</t>
+          <t>Zahlungen zur Klimafinanzierung</t>
         </is>
       </c>
       <c r="E71" s="4" t="inlineStr">
         <is>
-          <t>aa) Baltic Sea</t>
+          <t>Climate finance payments</t>
         </is>
       </c>
       <c r="F71" s="4" t="inlineStr">
         <is>
-          <t>Stickstoffeintrag über die Zuflüsse in die Ostsee</t>
+          <t>Internationale Klimafinanzierung zur Reduktion von Treibhausgasen und zur Anpassung an den Klimawandel</t>
         </is>
       </c>
       <c r="G71" s="4" t="inlineStr">
         <is>
-          <t>Nitrogen input via the inflows into the Baltic Sea</t>
+          <t>International climate finance for the reduction of greenhouse gases and adaptation to climate change</t>
         </is>
       </c>
       <c r="H71" s="4" t="inlineStr">
         <is>
-          <t>Einhaltung des guten Zustands nach Oberflächengewässerverordnung (Jahresmittelwerte für Gesamtstickstoff bei in die Ostsee mündenden Flüssen sollen 2,6 Milligramm pro Liter nicht überschreiten)</t>
+          <t>Erhöhung der internationalen Klimafinanzierung auf mindestens 6 Mrd. Euro bis spätestens 2025.</t>
         </is>
       </c>
       <c r="I71" s="4" t="inlineStr">
         <is>
-          <t>Adherence to good quality in accordance with the Ordinance on the Protection of Surface Waters (Oberflächengewässerver-ordnung) (annual averages for total nitro-gen in rivers flowing into the Baltic may not exceed 2.6 mg/l)</t>
+          <t>Increase international climate finance to at least 6 billion euros by 2025 at the latest</t>
         </is>
       </c>
       <c r="J71" s="4" t="inlineStr">
         <is>
-          <t>Gesamtstickstoff in Zuflüssen unter 2,6 mg/l</t>
+          <t>Erhöhung auf 6 Mrd. Euro bis 2025</t>
         </is>
       </c>
       <c r="K71" s="4" t="inlineStr">
         <is>
-          <t>total nitrogen in the inflows below 2.6 mg/l</t>
+          <t>increase to 6 bn euro by 2025</t>
         </is>
       </c>
       <c r="L71" s="4" t="inlineStr">
         <is>
-          <t>Stickstoffeintrag über die Zuflüsse in die Ostsee</t>
+          <t>Internationale Klimafinanzierung zur Reduktion von Treibhausgasen und zur Anpassung an den Klimawandel</t>
         </is>
       </c>
       <c r="M71" s="4" t="inlineStr">
         <is>
-          <t>Nitrogen input via the inflows into the Baltic Sea</t>
+          <t>International climate finance for the reduction of greenhouse gases and adaptation to climate change</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="72">
       <c r="A72" s="4" t="inlineStr">
         <is>
-          <t>Z14_B01_P01_Ib01_I02</t>
+          <t>Z14_B01_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B72" s="4" t="inlineStr">
@@ -5228,332 +5228,332 @@
       </c>
       <c r="C72" s="4" t="inlineStr">
         <is>
-          <t>14.1.ab</t>
+          <t>14.1.aa</t>
         </is>
       </c>
       <c r="D72" s="4" t="inlineStr">
         <is>
-          <t>ab) Nordsee</t>
+          <t>aa) Ostsee</t>
         </is>
       </c>
       <c r="E72" s="4" t="inlineStr">
         <is>
-          <t>ab) North Sea</t>
+          <t>aa) Baltic Sea</t>
         </is>
       </c>
       <c r="F72" s="4" t="inlineStr">
         <is>
-          <t>Stickstoffeintrag über die Zuflüsse in die Nordsee</t>
+          <t>Stickstoffeintrag über die Zuflüsse in die Ostsee</t>
         </is>
       </c>
       <c r="G72" s="4" t="inlineStr">
         <is>
-          <t>Nitrogen input via the inflows into the North Sea</t>
+          <t>Nitrogen input via the inflows into the Baltic Sea</t>
         </is>
       </c>
       <c r="H72" s="4" t="inlineStr">
         <is>
-          <t>Einhaltung des guten Zustands nach Oberflächengewässerverordnung (Jahresmittelwerte für Gesamtstickstoff bei in die Nordsee mündenden Flüssen sollen 2,8 Milligramm pro Liter nicht überschreiten)</t>
+          <t>Einhaltung des guten Zustands nach Oberflächengewässerverordnung (Jahresmittelwerte für Gesamtstickstoff bei in die Ostsee mündenden Flüssen sollen 2,6 Milligramm pro Liter nicht überschreiten)</t>
         </is>
       </c>
       <c r="I72" s="4" t="inlineStr">
         <is>
-          <t>Adherence to good quality in accordance with the Ordinance on the Protection of Surface Waters (annual averages for total nitrogen in rivers flowing into the North Sea may not exceed 2.8 mg/l)</t>
+          <t>Adherence to good quality in accordance with the Ordinance on the Protection of Surface Waters (Oberflächengewässerver-ordnung) (annual averages for total nitro-gen in rivers flowing into the Baltic may not exceed 2.6 mg/l)</t>
         </is>
       </c>
       <c r="J72" s="4" t="inlineStr">
         <is>
-          <t>Gesamtstickstoff in Zuflüssen unter 2,8 mg/l</t>
+          <t>Gesamtstickstoff in Zuflüssen unter 2,6 mg/l</t>
         </is>
       </c>
       <c r="K72" s="4" t="inlineStr">
         <is>
-          <t>total nitrogen in the inflows below 2.8 mg/l</t>
+          <t>total nitrogen in the inflows below 2.6 mg/l</t>
         </is>
       </c>
       <c r="L72" s="4" t="inlineStr">
         <is>
-          <t>Stickstoffeintrag über die Zuflüsse in die Nordsee</t>
+          <t>Stickstoffeintrag über die Zuflüsse in die Ostsee</t>
         </is>
       </c>
       <c r="M72" s="4" t="inlineStr">
         <is>
-          <t>Nitrogen input via the inflows into the North Sea</t>
+          <t>Nitrogen input via the inflows into the Baltic Sea</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="73">
       <c r="A73" s="4" t="inlineStr">
         <is>
-          <t>Z14_B01_P01_Ib02_I01</t>
+          <t>Z14_B01_P01_Ib01_I02</t>
         </is>
       </c>
       <c r="B73" s="4" t="inlineStr">
         <is>
-          <t>Z14_B01_P01_Ib02</t>
+          <t>Z14_B01_P01_Ib01</t>
         </is>
       </c>
       <c r="C73" s="4" t="inlineStr">
         <is>
-          <t>14.1.b</t>
+          <t>14.1.ab</t>
         </is>
       </c>
       <c r="D73" s="4" t="inlineStr">
         <is>
-          <t>Bewirtschaftung von Fischbeständen</t>
+          <t>ab) Nordsee</t>
         </is>
       </c>
       <c r="E73" s="4" t="inlineStr">
         <is>
-          <t>Fish stock management</t>
+          <t>ab) North Sea</t>
         </is>
       </c>
       <c r="F73" s="4" t="inlineStr">
         <is>
-          <t>Anteil der nachhaltig befischten Fischbestände in Nord- und Ostsee</t>
+          <t>Stickstoffeintrag über die Zuflüsse in die Nordsee</t>
         </is>
       </c>
       <c r="G73" s="4" t="inlineStr">
         <is>
-          <t>Share of sustainably fished stocks of fish in the North and Baltic Seas</t>
+          <t>Nitrogen input via the inflows into the North Sea</t>
         </is>
       </c>
       <c r="H73" s="4" t="inlineStr">
         <is>
-          <t>Alle wirtschaftlich genutzten Fischbestände sollen nach dem MSY-Ansatz nachhaltig bewirtschaftet werden bis 2020</t>
+          <t>Einhaltung des guten Zustands nach Oberflächengewässerverordnung (Jahresmittelwerte für Gesamtstickstoff bei in die Nordsee mündenden Flüssen sollen 2,8 Milligramm pro Liter nicht überschreiten)</t>
         </is>
       </c>
       <c r="I73" s="4" t="inlineStr">
         <is>
-          <t>All fish stocks used for commercial purpos-es to be sustainably managed in accordance with the Maximum Sustainable Yield (MSY) approach by 2020</t>
+          <t>Adherence to good quality in accordance with the Ordinance on the Protection of Surface Waters (annual averages for total nitrogen in rivers flowing into the North Sea may not exceed 2.8 mg/l)</t>
         </is>
       </c>
       <c r="J73" s="4" t="inlineStr">
         <is>
-          <t>nachhaltige Bewirtschaftung nach dem MSY-Ansatz bis 2020</t>
+          <t>Gesamtstickstoff in Zuflüssen unter 2,8 mg/l</t>
         </is>
       </c>
       <c r="K73" s="4" t="inlineStr">
         <is>
-          <t>sustainable management in accordance with the MSY approachby 2020</t>
+          <t>total nitrogen in the inflows below 2.8 mg/l</t>
         </is>
       </c>
       <c r="L73" s="4" t="inlineStr">
         <is>
-          <t>Anteil der nachhaltig befischten Fischbestände in Nord- und Ostsee</t>
+          <t>Stickstoffeintrag über die Zuflüsse in die Nordsee</t>
         </is>
       </c>
       <c r="M73" s="4" t="inlineStr">
         <is>
-          <t>Share of sustainably fished stocks of fish in the North and Baltic Seas</t>
+          <t>Nitrogen input via the inflows into the North Sea</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="74">
       <c r="A74" s="4" t="inlineStr">
         <is>
-          <t>Z15_B01_P01_Ib01_I01</t>
+          <t>Z14_B01_P01_Ib02_I01</t>
         </is>
       </c>
       <c r="B74" s="4" t="inlineStr">
         <is>
-          <t>Z15_B01_P01_Ib01</t>
+          <t>Z14_B01_P01_Ib02</t>
         </is>
       </c>
       <c r="C74" s="4" t="inlineStr">
         <is>
-          <t>15.1</t>
+          <t>14.1.b</t>
         </is>
       </c>
       <c r="D74" s="4" t="inlineStr">
         <is>
-          <t>Artenvielfalt und Landschaftsqualität</t>
+          <t>Bewirtschaftung von Fischbeständen</t>
         </is>
       </c>
       <c r="E74" s="4" t="inlineStr">
         <is>
-          <t>Biodiversity and landscape quality</t>
+          <t>Fish stock management</t>
         </is>
       </c>
       <c r="F74" s="4" t="inlineStr">
         <is>
-          <t>Artenvielfalt und Landschaftsqualität</t>
+          <t>Anteil der nachhaltig befischten Fischbestände in Nord- und Ostsee</t>
         </is>
       </c>
       <c r="G74" s="4" t="inlineStr">
         <is>
-          <t>Biodiversity and landscape quality</t>
+          <t>Share of sustainably fished stocks of fish in the North and Baltic Seas</t>
         </is>
       </c>
       <c r="H74" s="4" t="inlineStr">
         <is>
-          <t>Erreichen des Indexwertes 100 bis 2030</t>
+          <t>Alle wirtschaftlich genutzten Fischbestände sollen nach dem MSY-Ansatz nachhaltig bewirtschaftet werden bis 2020</t>
         </is>
       </c>
       <c r="I74" s="4" t="inlineStr">
         <is>
-          <t>Reach the index value of 100 by 2030</t>
+          <t>All fish stocks used for commercial purpos-es to be sustainably managed in accordance with the Maximum Sustainable Yield (MSY) approach by 2020</t>
         </is>
       </c>
       <c r="J74" s="4" t="inlineStr">
         <is>
-          <t>Erreichen des Indexwertes 100 bis 2030</t>
+          <t>nachhaltige Bewirtschaftung nach dem MSY-Ansatz bis 2020</t>
         </is>
       </c>
       <c r="K74" s="4" t="inlineStr">
         <is>
-          <t>reach the index value of 100 by 2030</t>
+          <t>sustainable management in accordance with the MSY approachby 2020</t>
         </is>
       </c>
       <c r="L74" s="4" t="inlineStr">
         <is>
-          <t>Artenvielfalt und Landschaftsqualität</t>
+          <t>Anteil der nachhaltig befischten Fischbestände in Nord- und Ostsee</t>
         </is>
       </c>
       <c r="M74" s="4" t="inlineStr">
         <is>
-          <t>Biodiversity and landscape quality</t>
+          <t>Share of sustainably fished stocks of fish in the North and Baltic Seas</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="75">
       <c r="A75" s="4" t="inlineStr">
         <is>
-          <t>Z15_B02_P01_Ib01_I01</t>
+          <t>Z15_B01_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B75" s="4" t="inlineStr">
         <is>
-          <t>Z15_B02_P01_Ib01</t>
+          <t>Z15_B01_P01_Ib01</t>
         </is>
       </c>
       <c r="C75" s="4" t="inlineStr">
         <is>
-          <t>15.2</t>
+          <t>15.1</t>
         </is>
       </c>
       <c r="D75" s="4" t="inlineStr">
         <is>
-          <t>Flächen mit erhöhtem Stickstoffeintrag</t>
+          <t>Artenvielfalt und Landschaftsqualität</t>
         </is>
       </c>
       <c r="E75" s="4" t="inlineStr">
         <is>
-          <t>Land with elevated inputs of nitrogen</t>
+          <t>Biodiversity and landscape quality</t>
         </is>
       </c>
       <c r="F75" s="4" t="inlineStr">
         <is>
-          <t>Eutrophierung der Ökosysteme</t>
+          <t>Artenvielfalt und Landschaftsqualität</t>
         </is>
       </c>
       <c r="G75" s="4" t="inlineStr">
         <is>
-          <t>Eutrophication of ecosystems</t>
+          <t>Biodiversity and landscape quality</t>
         </is>
       </c>
       <c r="H75" s="4" t="inlineStr">
         <is>
-          <t>Verringerung um 35 % bis 2030 gegenüber 2005</t>
+          <t>Erreichen des Indexwertes 100 bis 2030</t>
         </is>
       </c>
       <c r="I75" s="4" t="inlineStr">
         <is>
-          <t>Reduction by 35 % by 2030 compared to 2005</t>
+          <t>Reach the index value of 100 by 2030</t>
         </is>
       </c>
       <c r="J75" s="4" t="inlineStr">
         <is>
-          <t>Verringerung um 35 % bis 2030</t>
+          <t>Erreichen des Indexwertes 100 bis 2030</t>
         </is>
       </c>
       <c r="K75" s="4" t="inlineStr">
         <is>
-          <t>reduction by 35 % by 2030</t>
+          <t>reach the index value of 100 by 2030</t>
         </is>
       </c>
       <c r="L75" s="4" t="inlineStr">
         <is>
-          <t>Eutrophierung der Ökosysteme</t>
+          <t>Artenvielfalt und Landschaftsqualität</t>
         </is>
       </c>
       <c r="M75" s="4" t="inlineStr">
         <is>
-          <t>Eutrophication of ecosystems</t>
+          <t>Biodiversity and landscape quality</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="76">
       <c r="A76" s="4" t="inlineStr">
         <is>
-          <t>Z15_B02_P02_Ib01_I01</t>
+          <t>Z15_B02_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B76" s="4" t="inlineStr">
         <is>
-          <t>Z15_B02_P02_Ib01</t>
+          <t>Z15_B02_P01_Ib01</t>
         </is>
       </c>
       <c r="C76" s="4" t="inlineStr">
         <is>
-          <t>15.3.a</t>
+          <t>15.2</t>
         </is>
       </c>
       <c r="D76" s="4" t="inlineStr">
         <is>
-          <t>a) Wälder unter REDD+-Regelwerk</t>
+          <t>Flächen mit erhöhtem Stickstoffeintrag</t>
         </is>
       </c>
       <c r="E76" s="4" t="inlineStr">
         <is>
-          <t>a) Forests under REDD+ rulebook</t>
+          <t>Land with elevated inputs of nitrogen</t>
         </is>
       </c>
       <c r="F76" s="4" t="inlineStr">
         <is>
-          <t>REDD+ (ergebnisbasierte Auszahlungen für internationalen Waldschutz)</t>
+          <t>Eutrophierung der Ökosysteme</t>
         </is>
       </c>
       <c r="G76" s="4" t="inlineStr">
         <is>
-          <t>REDD+ (results-based payments for international protection of forests)</t>
+          <t>Eutrophication of ecosystems</t>
         </is>
       </c>
       <c r="H76" s="4" t="inlineStr">
         <is>
-          <t>Steigerung der Zahlungen bis 2030</t>
+          <t>Verringerung um 35 % bis 2030 gegenüber 2005</t>
         </is>
       </c>
       <c r="I76" s="4" t="inlineStr">
         <is>
-          <t>Increase payments by 2030</t>
+          <t>Reduction by 35 % by 2030 compared to 2005</t>
         </is>
       </c>
       <c r="J76" s="4" t="inlineStr">
         <is>
-          <t>Steigerung der Zahlungen bis 2030</t>
+          <t>Verringerung um 35 % bis 2030</t>
         </is>
       </c>
       <c r="K76" s="4" t="inlineStr">
         <is>
-          <t>increase payments by 2030</t>
+          <t>reduction by 35 % by 2030</t>
         </is>
       </c>
       <c r="L76" s="4" t="inlineStr">
         <is>
-          <t>Erhalt bzw. Wiederaufbau von Wäldern in Entwicklungsländern unter dem REDD+-Regelwerk</t>
+          <t>Eutrophierung der Ökosysteme</t>
         </is>
       </c>
       <c r="M76" s="4" t="inlineStr">
         <is>
-          <t>Preservation or restoration of forests in developing countries under the REDD+ rulebook</t>
+          <t>Eutrophication of ecosystems</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="77">
       <c r="A77" s="4" t="inlineStr">
         <is>
-          <t>Z15_B02_P02_Ib01_I02</t>
+          <t>Z15_B02_P02_Ib01_I01</t>
         </is>
       </c>
       <c r="B77" s="4" t="inlineStr">
@@ -5563,27 +5563,27 @@
       </c>
       <c r="C77" s="4" t="inlineStr">
         <is>
-          <t>15.3.b</t>
+          <t>15.3.a</t>
         </is>
       </c>
       <c r="D77" s="4" t="inlineStr">
         <is>
-          <t>b) Internationaler Bodenschutz</t>
+          <t>a) Wälder unter REDD+-Regelwerk</t>
         </is>
       </c>
       <c r="E77" s="4" t="inlineStr">
         <is>
-          <t>b) Combat Desertification</t>
+          <t>a) Forests under REDD+ rulebook</t>
         </is>
       </c>
       <c r="F77" s="4" t="inlineStr">
         <is>
-          <t>Internationaler Bodenschutz (Bruttoentwicklungsausgaben für internationalen Bodenschutz)</t>
+          <t>REDD+ (ergebnisbasierte Auszahlungen für internationalen Waldschutz)</t>
         </is>
       </c>
       <c r="G77" s="4" t="inlineStr">
         <is>
-          <t>International soil protection (gross development assistance for international soil protection)</t>
+          <t>REDD+ (results-based payments for international protection of forests)</t>
         </is>
       </c>
       <c r="H77" s="4" t="inlineStr">
@@ -5608,220 +5608,220 @@
       </c>
       <c r="L77" s="4" t="inlineStr">
         <is>
-          <t>Deutsche bilaterale Bruttoentwicklungsausgaben zur Umsetzung des Übereinkommens der VN zur Bekämpfung der Wüstenbildung</t>
+          <t>Erhalt bzw. Wiederaufbau von Wäldern in Entwicklungsländern unter dem REDD+-Regelwerk</t>
         </is>
       </c>
       <c r="M77" s="4" t="inlineStr">
         <is>
-          <t>German gross bilateral development expenditure for the implementation of the UN Convention to Combat Desertification</t>
+          <t>Preservation or restoration of forests in developing countries under the REDD+ rulebook</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="78">
       <c r="A78" s="4" t="inlineStr">
         <is>
-          <t>Z16_B01_P01_Ib01_I01</t>
+          <t>Z15_B02_P02_Ib01_I02</t>
         </is>
       </c>
       <c r="B78" s="4" t="inlineStr">
         <is>
-          <t>Z16_B01_P01_Ib01</t>
+          <t>Z15_B02_P02_Ib01</t>
         </is>
       </c>
       <c r="C78" s="4" t="inlineStr">
         <is>
-          <t>16.1</t>
+          <t>15.3.b</t>
         </is>
       </c>
       <c r="D78" s="4" t="inlineStr">
         <is>
-          <t>Anzahl an Straftaten</t>
+          <t>b) Internationaler Bodenschutz</t>
         </is>
       </c>
       <c r="E78" s="4" t="inlineStr">
         <is>
-          <t>Number of criminal offences</t>
+          <t>b) Combat Desertification</t>
         </is>
       </c>
       <c r="F78" s="4" t="inlineStr">
         <is>
-          <t>Straftaten</t>
+          <t>Internationaler Bodenschutz (Bruttoentwicklungsausgaben für internationalen Bodenschutz)</t>
         </is>
       </c>
       <c r="G78" s="4" t="inlineStr">
         <is>
-          <t>Criminal offences</t>
+          <t>International soil protection (gross development assistance for international soil protection)</t>
         </is>
       </c>
       <c r="H78" s="4" t="inlineStr">
         <is>
-          <t>Rückgang der Zahl der erfassten Straftaten je 100 000 Einwohner/ -innen auf unter 6 500 bis 2030</t>
+          <t>Steigerung der Zahlungen bis 2030</t>
         </is>
       </c>
       <c r="I78" s="4" t="inlineStr">
         <is>
-          <t>Reduce the number of criminal offences re-corded per 100,000 inhabitants to less than 6,500 by 2030</t>
+          <t>Increase payments by 2030</t>
         </is>
       </c>
       <c r="J78" s="4" t="inlineStr">
         <is>
-          <t>Rückgang auf unter 6 500 je 100 000 Einwohner/ -innen bis 2030</t>
+          <t>Steigerung der Zahlungen bis 2030</t>
         </is>
       </c>
       <c r="K78" s="4" t="inlineStr">
         <is>
-          <t>reduce to less than 6,500 per 100,000 inhabitants by 2030</t>
+          <t>increase payments by 2030</t>
         </is>
       </c>
       <c r="L78" s="4" t="inlineStr">
         <is>
-          <t>Straftaten</t>
+          <t>Deutsche bilaterale Bruttoentwicklungsausgaben zur Umsetzung des Übereinkommens der VN zur Bekämpfung der Wüstenbildung</t>
         </is>
       </c>
       <c r="M78" s="4" t="inlineStr">
         <is>
-          <t>Criminal offences</t>
+          <t>German gross bilateral development expenditure for the implementation of the UN Convention to Combat Desertification</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="79">
       <c r="A79" s="4" t="inlineStr">
         <is>
-          <t>Z16_B02_P01_Ib01_I01</t>
+          <t>Z16_B01_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B79" s="4" t="inlineStr">
         <is>
-          <t>Z16_B02_P01_Ib01</t>
+          <t>Z16_B01_P01_Ib01</t>
         </is>
       </c>
       <c r="C79" s="4" t="inlineStr">
         <is>
-          <t>16.2</t>
+          <t>16.1</t>
         </is>
       </c>
       <c r="D79" s="4" t="inlineStr">
         <is>
-          <t>Sicherung, Registrierung und Zerstörung von Waffen</t>
+          <t>Anzahl an Straftaten</t>
         </is>
       </c>
       <c r="E79" s="4" t="inlineStr">
         <is>
-          <t>Securing, registration and destruction of weapons</t>
+          <t>Number of criminal offences</t>
         </is>
       </c>
       <c r="F79" s="4" t="inlineStr">
         <is>
-          <t>Anzahl der in betroffenen Weltregionen durchgeführten Projekte zur Sicherung, Registrierung und Zerstörung von Kleinwaffen und leichten Waffen durch Deutschland</t>
+          <t>Straftaten</t>
         </is>
       </c>
       <c r="G79" s="4" t="inlineStr">
         <is>
-          <t>Number of projects to secure, register and destroy small arms and light weapons carried out by Germany in affected regions of the world</t>
+          <t>Criminal offences</t>
         </is>
       </c>
       <c r="H79" s="4" t="inlineStr">
         <is>
-          <t>Mindestens 15 Projekte pro Jahr bis 2030</t>
+          <t>Rückgang der Zahl der erfassten Straftaten je 100 000 Einwohner/ -innen auf unter 6 500 bis 2030</t>
         </is>
       </c>
       <c r="I79" s="4" t="inlineStr">
         <is>
-          <t>At least 15 projects per year by 2030</t>
+          <t>Reduce the number of criminal offences re-corded per 100,000 inhabitants to less than 6,500 by 2030</t>
         </is>
       </c>
       <c r="J79" s="4" t="inlineStr">
         <is>
-          <t>mindestens 15 Projekte pro Jahr bis 2030</t>
+          <t>Rückgang auf unter 6 500 je 100 000 Einwohner/ -innen bis 2030</t>
         </is>
       </c>
       <c r="K79" s="4" t="inlineStr">
         <is>
-          <t>at least 15 projects per year by 2030</t>
+          <t>reduce to less than 6,500 per 100,000 inhabitants by 2030</t>
         </is>
       </c>
       <c r="L79" s="4" t="inlineStr">
         <is>
-          <t>Anzahl der in betroffenen Weltregionen durchgeführten Projekte zur Sicherung, Registrierung und Zerstörung von Kleinwaffen und leichten Waffen durch Deutschland</t>
+          <t>Straftaten</t>
         </is>
       </c>
       <c r="M79" s="4" t="inlineStr">
         <is>
-          <t>Number of projects to secure, register and destroy small arms and light weapons carried out by Germany in affected regions of the world</t>
+          <t>Criminal offences</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="80">
       <c r="A80" s="4" t="inlineStr">
         <is>
-          <t>Z16_B03_P01_Ib01_I01</t>
+          <t>Z16_B02_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B80" s="4" t="inlineStr">
         <is>
-          <t>Z16_B03_P01_Ib01</t>
+          <t>Z16_B02_P01_Ib01</t>
         </is>
       </c>
       <c r="C80" s="4" t="inlineStr">
         <is>
-          <t>16.3.a</t>
+          <t>16.2</t>
         </is>
       </c>
       <c r="D80" s="4" t="inlineStr">
         <is>
-          <t>a) CPI Deutschland</t>
+          <t>Sicherung, Registrierung und Zerstörung von Waffen</t>
         </is>
       </c>
       <c r="E80" s="4" t="inlineStr">
         <is>
-          <t>a) CPI Germany</t>
+          <t>Securing, registration and destruction of weapons</t>
         </is>
       </c>
       <c r="F80" s="4" t="inlineStr">
         <is>
-          <t>Corruption Perception Index in Deutschland</t>
+          <t>Anzahl der in betroffenen Weltregionen durchgeführten Projekte zur Sicherung, Registrierung und Zerstörung von Kleinwaffen und leichten Waffen durch Deutschland</t>
         </is>
       </c>
       <c r="G80" s="4" t="inlineStr">
         <is>
-          <t>Corruption Perceptions Index in Germany</t>
+          <t>Number of projects to secure, register and destroy small arms and light weapons carried out by Germany in affected regions of the world</t>
         </is>
       </c>
       <c r="H80" s="4" t="inlineStr">
         <is>
-          <t>Verbesserung gegenüber 2012 bis 2030</t>
+          <t>Mindestens 15 Projekte pro Jahr bis 2030</t>
         </is>
       </c>
       <c r="I80" s="4" t="inlineStr">
         <is>
-          <t>Improvement by 2030, compared to 2012</t>
+          <t>At least 15 projects per year by 2030</t>
         </is>
       </c>
       <c r="J80" s="4" t="inlineStr">
         <is>
-          <t>Verbesserung bis 2030</t>
+          <t>mindestens 15 Projekte pro Jahr bis 2030</t>
         </is>
       </c>
       <c r="K80" s="4" t="inlineStr">
         <is>
-          <t>improvement by 2030</t>
+          <t>at least 15 projects per year by 2030</t>
         </is>
       </c>
       <c r="L80" s="4" t="inlineStr">
         <is>
-          <t>Corruption Perception Index in Deutschland</t>
+          <t>Anzahl der in betroffenen Weltregionen durchgeführten Projekte zur Sicherung, Registrierung und Zerstörung von Kleinwaffen und leichten Waffen durch Deutschland</t>
         </is>
       </c>
       <c r="M80" s="4" t="inlineStr">
         <is>
-          <t>Corruption Perception Index in Germany</t>
+          <t>Number of projects to secure, register and destroy small arms and light weapons carried out by Germany in affected regions of the world</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="81">
       <c r="A81" s="4" t="inlineStr">
         <is>
-          <t>Z16_B03_P01_Ib01_I02</t>
+          <t>Z16_B03_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B81" s="4" t="inlineStr">
@@ -5831,27 +5831,27 @@
       </c>
       <c r="C81" s="4" t="inlineStr">
         <is>
-          <t>16.3.b</t>
+          <t>16.3.a</t>
         </is>
       </c>
       <c r="D81" s="4" t="inlineStr">
         <is>
-          <t>b) CPI  Partnerländer</t>
+          <t>a) CPI Deutschland</t>
         </is>
       </c>
       <c r="E81" s="4" t="inlineStr">
         <is>
-          <t>b) CPI Partner countries</t>
+          <t>a) CPI Germany</t>
         </is>
       </c>
       <c r="F81" s="4" t="inlineStr">
         <is>
-          <t>Corruption Perception Index in den Partnerländern der deutschen Entwicklungszusammenarbeit</t>
+          <t>Corruption Perception Index in Deutschland</t>
         </is>
       </c>
       <c r="G81" s="4" t="inlineStr">
         <is>
-          <t>Corruption Perceptions Index in partner countries for German development cooperation</t>
+          <t>Corruption Perceptions Index in Germany</t>
         </is>
       </c>
       <c r="H81" s="4" t="inlineStr">
@@ -5876,211 +5876,278 @@
       </c>
       <c r="L81" s="4" t="inlineStr">
         <is>
-          <t>Anzahl der Partnerländer deutscher Entwicklungszusammenarbeit, deren Bewertung sich gegenüber 2012 verbessert hat</t>
+          <t>Corruption Perception Index in Deutschland</t>
         </is>
       </c>
       <c r="M81" s="4" t="inlineStr">
         <is>
-          <t>Number of partner countries for German development cooperation with improved CPI scores compared with 2012</t>
+          <t>Corruption Perception Index in Germany</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="82">
       <c r="A82" s="4" t="inlineStr">
         <is>
-          <t>Z17_B01_P01_Ib01_I01</t>
+          <t>Z16_B03_P01_Ib01_I02</t>
         </is>
       </c>
       <c r="B82" s="4" t="inlineStr">
         <is>
-          <t>Z17_B01_P01_Ib01</t>
+          <t>Z16_B03_P01_Ib01</t>
         </is>
       </c>
       <c r="C82" s="4" t="inlineStr">
         <is>
-          <t>17.1</t>
+          <t>16.3.b</t>
         </is>
       </c>
       <c r="D82" s="4" t="inlineStr">
         <is>
-          <t>Entwicklungsausgaben</t>
+          <t>b) CPI  Partnerländer</t>
         </is>
       </c>
       <c r="E82" s="4" t="inlineStr">
         <is>
-          <t>Development assistance</t>
+          <t>b) CPI Partner countries</t>
         </is>
       </c>
       <c r="F82" s="4" t="inlineStr">
         <is>
-          <t>Anteil öffentlicher Entwicklungsausgaben am Bruttonationaleinkommen</t>
+          <t>Corruption Perception Index in den Partnerländern der deutschen Entwicklungszusammenarbeit</t>
         </is>
       </c>
       <c r="G82" s="4" t="inlineStr">
         <is>
-          <t>Official development assistance as a proportion of gross national income</t>
+          <t>Corruption Perceptions Index in partner countries for German development cooperation</t>
         </is>
       </c>
       <c r="H82" s="4" t="inlineStr">
         <is>
-          <t>Steigerung des Anteils auf 0,7 % des  Bruttonationaleinkommens bis 2030</t>
+          <t>Verbesserung gegenüber 2012 bis 2030</t>
         </is>
       </c>
       <c r="I82" s="4" t="inlineStr">
         <is>
-          <t>Increase the proportion to 0.7 % of gross national income by 2030</t>
+          <t>Improvement by 2030, compared to 2012</t>
         </is>
       </c>
       <c r="J82" s="4" t="inlineStr">
         <is>
-          <t>Steigerung des Anteils auf 0,7 % des BNE bis 2030</t>
+          <t>Verbesserung bis 2030</t>
         </is>
       </c>
       <c r="K82" s="4" t="inlineStr">
         <is>
-          <t>increase to 0.7 % of GNI by 2030</t>
+          <t>improvement by 2030</t>
         </is>
       </c>
       <c r="L82" s="4" t="inlineStr">
         <is>
-          <t>Anteil öffentlicher Entwicklungsausgaben am Bruttonationaleinkommen</t>
+          <t>Anzahl der Partnerländer deutscher Entwicklungszusammenarbeit, deren Bewertung sich gegenüber 2012 verbessert hat</t>
         </is>
       </c>
       <c r="M82" s="4" t="inlineStr">
         <is>
-          <t>Official development assistance as a proportion of gross national income</t>
+          <t>Number of partner countries for German development cooperation with improved CPI scores compared with 2012</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="83">
       <c r="A83" s="4" t="inlineStr">
         <is>
-          <t>Z17_B02_P01_Ib01_I01</t>
+          <t>Z17_B01_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B83" s="4" t="inlineStr">
         <is>
-          <t>Z17_B02_P01_Ib01</t>
+          <t>Z17_B01_P01_Ib01</t>
         </is>
       </c>
       <c r="C83" s="4" t="inlineStr">
         <is>
-          <t>17.2</t>
+          <t>17.1</t>
         </is>
       </c>
       <c r="D83" s="4" t="inlineStr">
         <is>
-          <t>Studierende und Forschende aus Entwicklungslenländern und LDCs</t>
+          <t>Entwicklungsausgaben</t>
         </is>
       </c>
       <c r="E83" s="4" t="inlineStr">
         <is>
-          <t>Students and researchers from developing countries and LDCs</t>
+          <t>Development assistance</t>
         </is>
       </c>
       <c r="F83" s="4" t="inlineStr">
         <is>
-          <t>Anzahl der Studierenden und Forschenden aus Entwicklungsländern sowie aus am wenigsten entwickelten Ländern pro Jahr</t>
+          <t>Anteil öffentlicher Entwicklungsausgaben am Bruttonationaleinkommen</t>
         </is>
       </c>
       <c r="G83" s="4" t="inlineStr">
         <is>
-          <t>Number of students and researchers from developing countries and least developed countries per year</t>
+          <t>Official development assistance as a proportion of gross national income</t>
         </is>
       </c>
       <c r="H83" s="4" t="inlineStr">
         <is>
-          <t>Steigerung der Anzahl um 10 % von 2015 bis 2020, anschließend Verstetigung</t>
+          <t>Steigerung des Anteils auf 0,7 % des  Bruttonationaleinkommens bis 2030</t>
         </is>
       </c>
       <c r="I83" s="4" t="inlineStr">
         <is>
-          <t>Increase the number by 10 % from 2015 to 2020, then stabilised</t>
+          <t>Increase the proportion to 0.7 % of gross national income by 2030</t>
         </is>
       </c>
       <c r="J83" s="4" t="inlineStr">
         <is>
-          <t>Steigerung um 10 % von 2015 bis 2020, anschließend Verstetigung</t>
+          <t>Steigerung des Anteils auf 0,7 % des BNE bis 2030</t>
         </is>
       </c>
       <c r="K83" s="4" t="inlineStr">
         <is>
-          <t>increase by 10 % from 2015 to 2020, then stabilised</t>
+          <t>increase to 0.7 % of GNI by 2030</t>
         </is>
       </c>
       <c r="L83" s="4" t="inlineStr">
         <is>
-          <t>Anzahl der Studierenden und Forschenden aus Entwicklungsländern sowie aus am wenigsten entwickelten Ländern pro Jahr</t>
+          <t>Anteil öffentlicher Entwicklungsausgaben am Bruttonationaleinkommen</t>
         </is>
       </c>
       <c r="M83" s="4" t="inlineStr">
         <is>
-          <t>Number of students and researchers from developing countries and least developed countries per year</t>
+          <t>Official development assistance as a proportion of gross national income</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="84">
       <c r="A84" s="4" t="inlineStr">
         <is>
+          <t>Z17_B02_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="B84" s="4" t="inlineStr">
+        <is>
+          <t>Z17_B02_P01_Ib01</t>
+        </is>
+      </c>
+      <c r="C84" s="4" t="inlineStr">
+        <is>
+          <t>17.2</t>
+        </is>
+      </c>
+      <c r="D84" s="4" t="inlineStr">
+        <is>
+          <t>Studierende und Forschende aus Entwicklungslenländern und LDCs</t>
+        </is>
+      </c>
+      <c r="E84" s="4" t="inlineStr">
+        <is>
+          <t>Students and researchers from developing countries and LDCs</t>
+        </is>
+      </c>
+      <c r="F84" s="4" t="inlineStr">
+        <is>
+          <t>Anzahl der Studierenden und Forschenden aus Entwicklungsländern sowie aus am wenigsten entwickelten Ländern pro Jahr</t>
+        </is>
+      </c>
+      <c r="G84" s="4" t="inlineStr">
+        <is>
+          <t>Number of students and researchers from developing countries and least developed countries per year</t>
+        </is>
+      </c>
+      <c r="H84" s="4" t="inlineStr">
+        <is>
+          <t>Steigerung der Anzahl um 10 % von 2015 bis 2020, anschließend Verstetigung</t>
+        </is>
+      </c>
+      <c r="I84" s="4" t="inlineStr">
+        <is>
+          <t>Increase the number by 10 % from 2015 to 2020, then stabilised</t>
+        </is>
+      </c>
+      <c r="J84" s="4" t="inlineStr">
+        <is>
+          <t>Steigerung um 10 % von 2015 bis 2020, anschließend Verstetigung</t>
+        </is>
+      </c>
+      <c r="K84" s="4" t="inlineStr">
+        <is>
+          <t>increase by 10 % from 2015 to 2020, then stabilised</t>
+        </is>
+      </c>
+      <c r="L84" s="4" t="inlineStr">
+        <is>
+          <t>Anzahl der Studierenden und Forschenden aus Entwicklungsländern sowie aus am wenigsten entwickelten Ländern pro Jahr</t>
+        </is>
+      </c>
+      <c r="M84" s="4" t="inlineStr">
+        <is>
+          <t>Number of students and researchers from developing countries and least developed countries per year</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="85">
+      <c r="A85" s="4" t="inlineStr">
+        <is>
           <t>Z17_B03_P01_Ib01_I01</t>
         </is>
       </c>
-      <c r="B84" s="4" t="inlineStr">
+      <c r="B85" s="4" t="inlineStr">
         <is>
           <t>Z17_B03_P01_Ib01</t>
         </is>
       </c>
-      <c r="C84" s="4" t="inlineStr">
+      <c r="C85" s="4" t="inlineStr">
         <is>
           <t>17.3</t>
         </is>
       </c>
-      <c r="D84" s="4" t="inlineStr">
+      <c r="D85" s="4" t="inlineStr">
         <is>
           <t>Einfuhren aus LDCs</t>
         </is>
       </c>
-      <c r="E84" s="4" t="inlineStr">
+      <c r="E85" s="4" t="inlineStr">
         <is>
           <t>Imports coming from LDCs</t>
         </is>
       </c>
-      <c r="F84" s="4" t="inlineStr">
+      <c r="F85" s="4" t="inlineStr">
         <is>
           <t>Einfuhren aus am wenigsten entwickelten Ländern</t>
         </is>
       </c>
-      <c r="G84" s="4" t="inlineStr">
+      <c r="G85" s="4" t="inlineStr">
         <is>
           <t>Imports from least developed countries</t>
         </is>
       </c>
-      <c r="H84" s="4" t="inlineStr">
+      <c r="H85" s="4" t="inlineStr">
         <is>
           <t>Steigerung des Anteils um 100 % bis 2030 gegenüber 2014</t>
         </is>
       </c>
-      <c r="I84" s="4" t="inlineStr">
+      <c r="I85" s="4" t="inlineStr">
         <is>
           <t>Increase the proportion by 100 % by 2030, compared to 2014</t>
         </is>
       </c>
-      <c r="J84" s="4" t="inlineStr">
+      <c r="J85" s="4" t="inlineStr">
         <is>
           <t>Steigerung des Anteils um 100 % bis 2030 gegenüber 2014</t>
         </is>
       </c>
-      <c r="K84" s="4" t="inlineStr">
+      <c r="K85" s="4" t="inlineStr">
         <is>
           <t>increase by 100 % by 2030 compared to 2014</t>
         </is>
       </c>
-      <c r="L84" s="4" t="inlineStr">
+      <c r="L85" s="4" t="inlineStr">
         <is>
           <t>Einfuhren aus am wenigsten entwickelten Ländern</t>
         </is>
       </c>
-      <c r="M84" s="4" t="inlineStr">
+      <c r="M85" s="4" t="inlineStr">
         <is>
           <t>Imports from least developed countries</t>
         </is>

--- a/Tab_5a_Indikatoren.xlsx
+++ b/Tab_5a_Indikatoren.xlsx
@@ -435,7 +435,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M85"/>
+  <dimension ref="A1:M82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -1342,4812 +1342,4611 @@
       </c>
       <c r="C14" s="4" t="inlineStr">
         <is>
-          <t>3.3.a</t>
+          <t>3.3</t>
         </is>
       </c>
       <c r="D14" s="4" t="inlineStr">
         <is>
-          <t>Pandemieprävention und -reaktion</t>
+          <t>Fortschritte beim Global Health Security Index</t>
         </is>
       </c>
       <c r="E14" s="4" t="inlineStr">
         <is>
-          <t>Pandemic prevention and response</t>
+          <t>XXXFortschritte beim Global Health Security Index</t>
         </is>
       </c>
       <c r="F14" s="4" t="inlineStr">
         <is>
-          <t>Beitrag Deutschlands zur globalen Pandemieprävention und -reaktion</t>
+          <t>Anteil der Länder, die Deutschland bei der Pandemieprävention, -vorsorge und -reaktion (PPR) unterstützt und die im Global Health Security Index (GHSI) Fortschritte gemacht haben, an der Anzahl der Länder, die Deutschland im Bereich PPR unterstützt</t>
         </is>
       </c>
       <c r="G14" s="4" t="inlineStr">
         <is>
-          <t>Germany’s contribution to global pandemic prevention and response</t>
+          <t>XAnteil der Länder, die Deutschland bei der XXXPandemieprävention, -vorsorge und -reaktion (PPR) unterstützt und die im Global Health Security Index (GHSI) Fortschritte gemacht haben, an der Anzahl der Länder, die Deutschland im Bereich PPR unterstützt</t>
         </is>
       </c>
       <c r="H14" s="4" t="inlineStr">
         <is>
-          <t>Steigerung der Ausgaben bis 2030</t>
+          <t>30 Prozent der Länder haben im Jahr 2030 eine Verbesserung des Global Health Security Index (GSHI) um mindestens den Wert 3 gegenüber 2019 erzielt</t>
         </is>
       </c>
       <c r="I14" s="4" t="inlineStr">
         <is>
-          <t>Expenditure to be increased by 2030</t>
+          <t>XXX30 Prozent der Länder haben im Jahr 2030 eine Verbesserung des Global Health</t>
         </is>
       </c>
       <c r="J14" s="4" t="inlineStr">
         <is>
-          <t>Steigerung der Ausgaben bis 2030</t>
+          <t>30 Prozent der Länder haben im Jahr 2030 eine Verbesserung des Global Health Security Index (GSHI) um mindestens den Wert 3 gegenüber 2019 erzielt</t>
         </is>
       </c>
       <c r="K14" s="4" t="inlineStr">
         <is>
-          <t>expenditure to be increased by 2030</t>
+          <t>XXX30 Prozent der Länder haben im Jahr 2030 eine Verbesserung des Global Health Security Index (GSHI) um mindestens den Wert 3 gegenüber 2019 erzielt</t>
         </is>
       </c>
       <c r="L14" s="4" t="inlineStr">
         <is>
-          <t>Beitrag Deutschlands zur globalen Pandemieprävention und -reaktion</t>
+          <t>X</t>
         </is>
       </c>
       <c r="M14" s="4" t="inlineStr">
         <is>
-          <t>Germany’s contribution to global pandemic prevention and response</t>
+          <t>X</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="15">
       <c r="A15" s="4" t="inlineStr">
         <is>
-          <t>Z03_B03_P01_Ib02_I01</t>
+          <t>Z04_B01_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B15" s="4" t="inlineStr">
         <is>
-          <t>Z03_B03_P01_Ib02</t>
+          <t>Z04_B01_P01_Ib01</t>
         </is>
       </c>
       <c r="C15" s="4" t="inlineStr">
         <is>
-          <t>3.3.b</t>
+          <t>4.1.a</t>
         </is>
       </c>
       <c r="D15" s="4" t="inlineStr">
         <is>
-          <t>Fortschritte beim Global Health Security Index</t>
+          <t>Frühe Schul- und Ausbildungsabgängerinnen und -abgänger</t>
         </is>
       </c>
       <c r="E15" s="4" t="inlineStr">
         <is>
-          <t>XXXFortschritte beim Global Health Security Index</t>
+          <t>XXXEarly school leavers</t>
         </is>
       </c>
       <c r="F15" s="4" t="inlineStr">
         <is>
-          <t>Anteil der Länder, die Deutschland bei der Pandemieprävention, -vorsorge und -reaktion (PPR) unterstützt und die im Global Health Security Index (GHSI) Fortschritte gemacht haben, an der Anzahl der Länder, die Deutschland im Bereich PPR unterstützt</t>
+          <t>Frühe Schul- und Ausbildungsabgängerinnen und -abgänger</t>
         </is>
       </c>
       <c r="G15" s="4" t="inlineStr">
         <is>
-          <t>XAnteil der Länder, die Deutschland bei der XXXPandemieprävention, -vorsorge und -reaktion (PPR) unterstützt und die im Global Health Security Index (GHSI) Fortschritte gemacht haben, an der Anzahl der Länder, die Deutschland im Bereich PPR unterstützt</t>
+          <t>Early school leaversXXX</t>
         </is>
       </c>
       <c r="H15" s="4" t="inlineStr">
         <is>
-          <t>30 Prozent der Länder haben im Jahr 2030 eine Verbesserung des Global Health Security Index (GSHI) um mindestens den Wert 3 gegenüber 2019 erzielt</t>
+          <t>Verringerung des Anteils auf 9,5 % bis 2030</t>
         </is>
       </c>
       <c r="I15" s="4" t="inlineStr">
         <is>
-          <t>XXX30 Prozent der Länder haben im Jahr 2030 eine Verbesserung des Global Health</t>
+          <t>Reduce the proportion to 9.5 % by 2030</t>
         </is>
       </c>
       <c r="J15" s="4" t="inlineStr">
         <is>
-          <t>30 Prozent der Länder haben im Jahr 2030 eine Verbesserung des Global Health Security Index (GSHI) um mindestens den Wert 3 gegenüber 2019 erzielt</t>
+          <t>Verringerung des Anteils auf 9,5 % bis 2030</t>
         </is>
       </c>
       <c r="K15" s="4" t="inlineStr">
         <is>
-          <t>XXX30 Prozent der Länder haben im Jahr 2030 eine Verbesserung des Global Health Security Index (GSHI) um mindestens den Wert 3 gegenüber 2019 erzielt</t>
+          <t>reduce the proportion to 9.5 % by 2030</t>
         </is>
       </c>
       <c r="L15" s="4" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Frühe Schul- und Ausbildungsabgängerinnen und -abgänger</t>
         </is>
       </c>
       <c r="M15" s="4" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Early school leaversXXX</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="16">
       <c r="A16" s="4" t="inlineStr">
         <is>
-          <t>Z03_B04_P01_Ib01_I01</t>
+          <t>Z04_B01_P01_Ib02_I01</t>
         </is>
       </c>
       <c r="B16" s="4" t="inlineStr">
         <is>
-          <t>Z03_B04_P01_Ib01</t>
+          <t>Z04_B01_P01_Ib02</t>
         </is>
       </c>
       <c r="C16" s="4" t="inlineStr">
         <is>
-          <t>3.4.a</t>
+          <t>4.1.b</t>
         </is>
       </c>
       <c r="D16" s="4" t="inlineStr">
         <is>
-          <t>Unterschied in der Lebenserwartung zwischen sozio-ökonomisch deprivierten und wohlhabenden Regionen (Frauen)</t>
+          <t>Berufliche Qualifizierung</t>
         </is>
       </c>
       <c r="E16" s="4" t="inlineStr">
         <is>
-          <t>XXXUnterschied in der Lebenserwartung zwischen sozio-ökonomisch deprivierten und wohlhabenden Regionen (Frauen)</t>
+          <t>Vocational qualification</t>
         </is>
       </c>
       <c r="F16" s="4" t="inlineStr">
         <is>
-          <t>Unterschied in der Lebenserwartung zwischen sozio-ökonomisch deprivierten und wohlhabenden Regionen (Frauen)</t>
+          <t>Akademisch Qualifizierte und beruflich Höherqualifizierte (30- bis 34-Jährige mit tertiärem oder post-sekundarem nichttertiärem Abschluss)</t>
         </is>
       </c>
       <c r="G16" s="4" t="inlineStr">
         <is>
-          <t>XXXUnterschied in der Lebenserwartung zwischen sozio-ökonomisch deprivierten und wohlhabenden Regionen (Frauen)</t>
+          <t>Persons with an academic or higher vocational qualification (30 to 34-year-olds with a tertiary or post-secondary non-tertiary level of education)</t>
         </is>
       </c>
       <c r="H16" s="4" t="inlineStr">
         <is>
-          <t>Rückgang des Unterschieds in der mittleren Lebenserwartung von Frauen zwischen deprivierten und wohlhabenden Regionen bei gleichzeitigem Anstieg der Lebenserwartung von Frauen in deprivierten Regionen</t>
+          <t>Steigerung des Anteils auf 55 % bis 2030</t>
         </is>
       </c>
       <c r="I16" s="4" t="inlineStr">
         <is>
-          <t>XXXRückgang des Unterschieds in der mittleren Lebenserwartung von Frauen zwischen deprivierten und wohlhabenden Regionen bei gleichzeitigem Anstieg der Lebenserwartung von Frauen in deprivierten Regionen</t>
+          <t>Increase the proportion to 55 % by 2030</t>
         </is>
       </c>
       <c r="J16" s="4" t="inlineStr">
         <is>
-          <t>ückgang des Unterschieds in der mittleren Lebenserwartung von Frauen zwischen deprivierten und wohlhabenden Regionen bei gleichzeitigem Anstieg der Lebenserwartung von Frauen in deprivierten Regionen</t>
+          <t>Steigerung des Anteils auf 55 % bis 2030</t>
         </is>
       </c>
       <c r="K16" s="4" t="inlineStr">
         <is>
-          <t>XXXückgang des Unterschieds in der mittleren Lebenserwartung von Frauen zwischen deprivierten und wohlhabenden Regionen bei gleichzeitigem Anstieg der Lebenserwartung von Frauen in deprivierten Regionen</t>
+          <t>increase the proportion to 55 % by 2030</t>
         </is>
       </c>
       <c r="L16" s="4" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Akademisch Qualifizierte und beruflich Höherqualifizierte (30- bis 34-Jährige mit tertiärem oder post-sekundarem nichttertiärem Abschluss)</t>
         </is>
       </c>
       <c r="M16" s="4" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Persons with an academic or higher vocational qualification (30 to 34-year-olds with a tertiary or post-secondary non-tertiary level of education)</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="17">
       <c r="A17" s="4" t="inlineStr">
         <is>
-          <t>Z03_B04_P01_Ib01_I02</t>
+          <t>Z04_B01_P02_Ib01_I01</t>
         </is>
       </c>
       <c r="B17" s="4" t="inlineStr">
         <is>
-          <t>Z03_B04_P01_Ib01</t>
+          <t>Z04_B01_P02_Ib01</t>
         </is>
       </c>
       <c r="C17" s="4" t="inlineStr">
         <is>
-          <t>3.4.b</t>
+          <t>4.1.c</t>
         </is>
       </c>
       <c r="D17" s="4" t="inlineStr">
         <is>
-          <t>Unterschied in der Lebenserwartung zwischen sozio-ökonomisch deprivierten und wohlhabenden Regionen (Männer)</t>
+          <t>Schulen mit BNE-Label</t>
         </is>
       </c>
       <c r="E17" s="4" t="inlineStr">
         <is>
-          <t>XXXUnterschied in der Lebenserwartung zwischen sozio-ökonomisch deprivierten und wohlhabenden Regionen (Männer)</t>
+          <t>XXXSchulen mit BNE-Label</t>
         </is>
       </c>
       <c r="F17" s="4" t="inlineStr">
         <is>
-          <t>Unterschied in der Lebenserwartung zwischen sozio-ökonomisch deprivierten und wohlhabenden Regionen (Männer)</t>
+          <t>Schulen mit BNE-Label (Bildung für nachhaltige Entwicklung)</t>
         </is>
       </c>
       <c r="G17" s="4" t="inlineStr">
         <is>
-          <t>XXXUnterschied in der Lebenserwartung zwischen sozio-ökonomisch deprivierten und wohlhabenden Regionen (Männer)</t>
+          <t>XXX</t>
         </is>
       </c>
       <c r="H17" s="4" t="inlineStr">
         <is>
-          <t>Rückgang des Unterschieds in der mittleren Lebenserwartung von Männern zwischen deprivierten und wohlhabenden Regionen bei gleichzeitigem Anstieg der Lebenserwartung von Frauen in deprivierten Regionen</t>
+          <t>Kontinuierlicher Anstieg</t>
         </is>
       </c>
       <c r="I17" s="4" t="inlineStr">
         <is>
-          <t>XXXRückgang des Unterschieds in der mittleren Lebenserwartung von Männern zwischen deprivierten und wohlhabenden Regionen bei gleichzeitigem Anstieg der Lebenserwartung von Frauen in deprivierten Regionen</t>
+          <t>XXXKontinuierlicher Anstieg</t>
         </is>
       </c>
       <c r="J17" s="4" t="inlineStr">
         <is>
-          <t>Rückgang des Unterschieds in der mittleren Lebenserwartung von Männern zwischen deprivierten und wohlhabenden Regionen bei gleichzeitigem Anstieg der Lebenserwartung von Frauen in deprivierten Regionen</t>
+          <t>Kontinuierlicher Anstieg</t>
         </is>
       </c>
       <c r="K17" s="4" t="inlineStr">
         <is>
-          <t>XXXRückgang des Unterschieds in der mittleren Lebenserwartung von Männern zwischen deprivierten und wohlhabenden Regionen bei gleichzeitigem Anstieg der Lebenserwartung von Frauen in deprivierten Regionen</t>
+          <t>XXX</t>
         </is>
       </c>
       <c r="L17" s="4" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Schulen mit BNE-Label</t>
         </is>
       </c>
       <c r="M17" s="4" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>XXX</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="18">
       <c r="A18" s="4" t="inlineStr">
         <is>
-          <t>Z04_B01_P01_Ib01_I01</t>
+          <t>Z04_B02_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B18" s="4" t="inlineStr">
         <is>
-          <t>Z04_B01_P01_Ib01</t>
+          <t>Z04_B02_P01_Ib01</t>
         </is>
       </c>
       <c r="C18" s="4" t="inlineStr">
         <is>
-          <t>4.1.a</t>
+          <t>4.2.a</t>
         </is>
       </c>
       <c r="D18" s="4" t="inlineStr">
         <is>
-          <t>Frühe Schul- und Ausbildungsabgängerinnen und -abgänger</t>
+          <t>a) 0- bis 2-Jährige</t>
         </is>
       </c>
       <c r="E18" s="4" t="inlineStr">
         <is>
-          <t>XXXEarly school leavers</t>
+          <t>a) 0 to 2-year-olds</t>
         </is>
       </c>
       <c r="F18" s="4" t="inlineStr">
         <is>
-          <t>Frühe Schul- und Ausbildungsabgängerinnen und -abgänger</t>
+          <t>Ganztagsbetreuung für Kinder &lt;br&gt;0- bis 2-Jährige</t>
         </is>
       </c>
       <c r="G18" s="4" t="inlineStr">
         <is>
-          <t>Early school leaversXXX</t>
+          <t>All-day care provision for 0 to 2-year-old children</t>
         </is>
       </c>
       <c r="H18" s="4" t="inlineStr">
         <is>
-          <t>Verringerung des Anteils auf 9,5 % bis 2030</t>
+          <t>Anstieg auf 35 % bis 2030</t>
         </is>
       </c>
       <c r="I18" s="4" t="inlineStr">
         <is>
-          <t>Reduce the proportion to 9.5 % by 2030</t>
+          <t>Increase to 35 % by 2030</t>
         </is>
       </c>
       <c r="J18" s="4" t="inlineStr">
         <is>
-          <t>Verringerung des Anteils auf 9,5 % bis 2030</t>
+          <t>Anstieg auf 35 % bis 2030</t>
         </is>
       </c>
       <c r="K18" s="4" t="inlineStr">
         <is>
-          <t>reduce the proportion to 9.5 % by 2030</t>
+          <t>increase to 35 % by 2030</t>
         </is>
       </c>
       <c r="L18" s="4" t="inlineStr">
         <is>
-          <t>Frühe Schul- und Ausbildungsabgängerinnen und -abgänger</t>
+          <t>Ganztagsbetreuung für Kinder &lt;br&gt;0- bis 2-Jährige</t>
         </is>
       </c>
       <c r="M18" s="4" t="inlineStr">
         <is>
-          <t>Early school leaversXXX</t>
+          <t>All-day care provision for 0 to 2-year-old children</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="19">
       <c r="A19" s="4" t="inlineStr">
         <is>
-          <t>Z04_B01_P01_Ib02_I01</t>
+          <t>Z04_B02_P01_Ib01_I02</t>
         </is>
       </c>
       <c r="B19" s="4" t="inlineStr">
         <is>
-          <t>Z04_B01_P01_Ib02</t>
+          <t>Z04_B02_P01_Ib01</t>
         </is>
       </c>
       <c r="C19" s="4" t="inlineStr">
         <is>
-          <t>4.1.b</t>
+          <t>4.2.b</t>
         </is>
       </c>
       <c r="D19" s="4" t="inlineStr">
         <is>
-          <t>Berufliche Qualifizierung</t>
+          <t>b) 3- bis 5-Jährige</t>
         </is>
       </c>
       <c r="E19" s="4" t="inlineStr">
         <is>
-          <t>Vocational qualification</t>
+          <t>b) 3 to 5-year-olds</t>
         </is>
       </c>
       <c r="F19" s="4" t="inlineStr">
         <is>
-          <t>Akademisch Qualifizierte und beruflich Höherqualifizierte (30- bis 34-Jährige mit tertiärem oder post-sekundarem nichttertiärem Abschluss)</t>
+          <t>Ganztagsbetreuung für Kinder &lt;br&gt;3- bis 5-Jährige</t>
         </is>
       </c>
       <c r="G19" s="4" t="inlineStr">
         <is>
-          <t>Persons with an academic or higher vocational qualification (30 to 34-year-olds with a tertiary or post-secondary non-tertiary level of education)</t>
+          <t>All-day care provision for 3 to 5-year-old children</t>
         </is>
       </c>
       <c r="H19" s="4" t="inlineStr">
         <is>
-          <t>Steigerung des Anteils auf 55 % bis 2030</t>
+          <t>Anstieg auf 70 % bis 2030</t>
         </is>
       </c>
       <c r="I19" s="4" t="inlineStr">
         <is>
-          <t>Increase the proportion to 55 % by 2030</t>
+          <t>Increase to 70 % by 2030</t>
         </is>
       </c>
       <c r="J19" s="4" t="inlineStr">
         <is>
-          <t>Steigerung des Anteils auf 55 % bis 2030</t>
+          <t>Anstieg auf 70 % bis 2030</t>
         </is>
       </c>
       <c r="K19" s="4" t="inlineStr">
         <is>
-          <t>increase the proportion to 55 % by 2030</t>
+          <t>increase to 70 % by 2030</t>
         </is>
       </c>
       <c r="L19" s="4" t="inlineStr">
         <is>
-          <t>Akademisch Qualifizierte und beruflich Höherqualifizierte (30- bis 34-Jährige mit tertiärem oder post-sekundarem nichttertiärem Abschluss)</t>
+          <t>Ganztagsbetreuung für Kinder &lt;br&gt;3- bis 5-Jährige</t>
         </is>
       </c>
       <c r="M19" s="4" t="inlineStr">
         <is>
-          <t>Persons with an academic or higher vocational qualification (30 to 34-year-olds with a tertiary or post-secondary non-tertiary level of education)</t>
+          <t>All-day care provision for 3 to 5-year-old children</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="20">
       <c r="A20" s="4" t="inlineStr">
         <is>
-          <t>Z04_B01_P02_Ib01_I01</t>
+          <t>Z04_B03_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B20" s="4" t="inlineStr">
         <is>
-          <t>Z04_B01_P02_Ib01</t>
+          <t>Z04_B03_P01_Ib01</t>
         </is>
       </c>
       <c r="C20" s="4" t="inlineStr">
         <is>
-          <t>4.1.c</t>
+          <t>4.3.a</t>
         </is>
       </c>
       <c r="D20" s="4" t="inlineStr">
         <is>
-          <t>Schulen mit BNE-Label</t>
+          <t>Weiterbildungsbeteiligung</t>
         </is>
       </c>
       <c r="E20" s="4" t="inlineStr">
         <is>
-          <t>XXXSchulen mit BNE-Label</t>
+          <t>XXXWeiterbildungsbeteiligung</t>
         </is>
       </c>
       <c r="F20" s="4" t="inlineStr">
         <is>
-          <t>Schulen mit BNE-Label (Bildung für nachhaltige Entwicklung)</t>
+          <t>Weiterbildungsbeteiligung</t>
         </is>
       </c>
       <c r="G20" s="4" t="inlineStr">
         <is>
-          <t>XXX</t>
+          <t>XXXWeiterbildungsbeteiligung</t>
         </is>
       </c>
       <c r="H20" s="4" t="inlineStr">
         <is>
-          <t>Kontinuierlicher Anstieg</t>
+          <t>Steigerung auf 65 Prozent bis 2030</t>
         </is>
       </c>
       <c r="I20" s="4" t="inlineStr">
         <is>
-          <t>XXXKontinuierlicher Anstieg</t>
+          <t>XXXSteigerung auf 65 Prozent bis 2030</t>
         </is>
       </c>
       <c r="J20" s="4" t="inlineStr">
         <is>
-          <t>Kontinuierlicher Anstieg</t>
+          <t>Steigerung auf 65 Prozent bis 2030</t>
         </is>
       </c>
       <c r="K20" s="4" t="inlineStr">
         <is>
-          <t>XXX</t>
+          <t>XXXSteigerung auf 65 Prozent bis 2030</t>
         </is>
       </c>
       <c r="L20" s="4" t="inlineStr">
         <is>
-          <t>Schulen mit BNE-Label</t>
+          <t>Weiterbildungsbeteiligung</t>
         </is>
       </c>
       <c r="M20" s="4" t="inlineStr">
         <is>
-          <t>XXX</t>
+          <t>XXXWeiterbildungsbeteiligung</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="21">
       <c r="A21" s="4" t="inlineStr">
         <is>
-          <t>Z04_B02_P01_Ib01_I01</t>
+          <t>Z04_B03_P01_Ib02_I01</t>
         </is>
       </c>
       <c r="B21" s="4" t="inlineStr">
         <is>
-          <t>Z04_B02_P01_Ib01</t>
+          <t>Z04_B03_P01_Ib02</t>
         </is>
       </c>
       <c r="C21" s="4" t="inlineStr">
         <is>
-          <t>4.2.a</t>
+          <t>4.3.b</t>
         </is>
       </c>
       <c r="D21" s="4" t="inlineStr">
         <is>
-          <t>a) 0- bis 2-Jährige</t>
+          <t>Anteil der 17 bis 18-Jährigen mit (angestrebter) Studienberechtigung</t>
         </is>
       </c>
       <c r="E21" s="4" t="inlineStr">
         <is>
-          <t>a) 0 to 2-year-olds</t>
+          <t>XXXAnteil der 17 bis 18-Jährigen mit (angestrebter) Studienberechtigung</t>
         </is>
       </c>
       <c r="F21" s="4" t="inlineStr">
         <is>
-          <t>Ganztagsbetreuung für Kinder &lt;br&gt;0- bis 2-Jährige</t>
+          <t>Anteil der 17 bis 18-Jährigen mit (angestrebter) Studienberechtigung</t>
         </is>
       </c>
       <c r="G21" s="4" t="inlineStr">
         <is>
-          <t>All-day care provision for 0 to 2-year-old children</t>
+          <t>XXXAnteil der 17 bis 18-Jährigen mit (angestrebter) Studienberechtigung</t>
         </is>
       </c>
       <c r="H21" s="4" t="inlineStr">
         <is>
-          <t>Anstieg auf 35 % bis 2030</t>
+          <t>Differenz zwischen den Gruppen „Keine Risikolage“ und „Mindestens eine Risikolage“ verringern bzw. angleichen</t>
         </is>
       </c>
       <c r="I21" s="4" t="inlineStr">
         <is>
-          <t>Increase to 35 % by 2030</t>
+          <t>XXXDifferenz zwischen den Gruppen „Keine Risikolage“ und „Mindestens eine Risikolage“ verringern bzw. angleichen</t>
         </is>
       </c>
       <c r="J21" s="4" t="inlineStr">
         <is>
-          <t>Anstieg auf 35 % bis 2030</t>
+          <t>Differenz zwischen den Gruppen „Keine Risikolage“ und „Mindestens eine Risikolage“ verringern bzw. angleichen</t>
         </is>
       </c>
       <c r="K21" s="4" t="inlineStr">
         <is>
-          <t>increase to 35 % by 2030</t>
+          <t>XXXDifferenz zwischen den Gruppen „Keine Risikolage“ und „Mindestens eine Risikolage“ verringern bzw. angleichen</t>
         </is>
       </c>
       <c r="L21" s="4" t="inlineStr">
         <is>
-          <t>Ganztagsbetreuung für Kinder &lt;br&gt;0- bis 2-Jährige</t>
+          <t>Anteil der 17 bis 18-Jährigen mit (angestrebter) Studienberechtigung</t>
         </is>
       </c>
       <c r="M21" s="4" t="inlineStr">
         <is>
-          <t>All-day care provision for 0 to 2-year-old children</t>
+          <t>XXXAnteil der 17 bis 18-Jährigen mit (angestrebter) Studienberechtigung</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="22">
       <c r="A22" s="4" t="inlineStr">
         <is>
-          <t>Z04_B02_P01_Ib01_I02</t>
+          <t>Z05_B01_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B22" s="4" t="inlineStr">
         <is>
-          <t>Z04_B02_P01_Ib01</t>
+          <t>Z05_B01_P01_Ib01</t>
         </is>
       </c>
       <c r="C22" s="4" t="inlineStr">
         <is>
-          <t>4.2.b</t>
+          <t>5.1.a</t>
         </is>
       </c>
       <c r="D22" s="4" t="inlineStr">
         <is>
-          <t>b) 3- bis 5-Jährige</t>
+          <t>Gender Pay Gap</t>
         </is>
       </c>
       <c r="E22" s="4" t="inlineStr">
         <is>
-          <t>b) 3 to 5-year-olds</t>
+          <t>Gender Pay Gap</t>
         </is>
       </c>
       <c r="F22" s="4" t="inlineStr">
         <is>
-          <t>Ganztagsbetreuung für Kinder &lt;br&gt;3- bis 5-Jährige</t>
+          <t>Verdienstabstand zwischen Frauen und Männern</t>
         </is>
       </c>
       <c r="G22" s="4" t="inlineStr">
         <is>
-          <t>All-day care provision for 3 to 5-year-old children</t>
+          <t>Gender pay gap</t>
         </is>
       </c>
       <c r="H22" s="4" t="inlineStr">
         <is>
-          <t>Anstieg auf 70 % bis 2030</t>
+          <t>Verdienstabstand zwischen Frauen und Männern höchstens 10 Prozent bis 2030</t>
         </is>
       </c>
       <c r="I22" s="4" t="inlineStr">
         <is>
-          <t>Increase to 70 % by 2030</t>
+          <t>XXXVerdienstabstand zwischen Frauen und Männern höchstens 10 Prozent bis 2030</t>
         </is>
       </c>
       <c r="J22" s="4" t="inlineStr">
         <is>
-          <t>Anstieg auf 70 % bis 2030</t>
+          <t>Beibehaltung von maximal 10 % bis 2030</t>
         </is>
       </c>
       <c r="K22" s="4" t="inlineStr">
         <is>
-          <t>increase to 70 % by 2030</t>
+          <t>maintaine a maximum of 10 % by 2030</t>
         </is>
       </c>
       <c r="L22" s="4" t="inlineStr">
         <is>
-          <t>Ganztagsbetreuung für Kinder &lt;br&gt;3- bis 5-Jährige</t>
+          <t>Verdienstabstand zwischen Frauen und Männern</t>
         </is>
       </c>
       <c r="M22" s="4" t="inlineStr">
         <is>
-          <t>All-day care provision for 3 to 5-year-old children</t>
+          <t>Gender pay gap</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="23">
       <c r="A23" s="4" t="inlineStr">
         <is>
-          <t>Z04_B03_P01_Ib01_I01</t>
+          <t>Z05_B01_P01_Ib02_I01</t>
         </is>
       </c>
       <c r="B23" s="4" t="inlineStr">
         <is>
-          <t>Z04_B03_P01_Ib01</t>
+          <t>Z05_B01_P01_Ib02</t>
         </is>
       </c>
       <c r="C23" s="4" t="inlineStr">
         <is>
-          <t>4.3.a</t>
+          <t>5.1.b</t>
         </is>
       </c>
       <c r="D23" s="4" t="inlineStr">
         <is>
-          <t>Weiterbildungsbeteiligung</t>
+          <t>b) Wirtschaft</t>
         </is>
       </c>
       <c r="E23" s="4" t="inlineStr">
         <is>
-          <t>XXXWeiterbildungsbeteiligung</t>
+          <t>b) Business</t>
         </is>
       </c>
       <c r="F23" s="4" t="inlineStr">
         <is>
-          <t>Weiterbildungsbeteiligung</t>
+          <t>Frauen in Führungspositionen in der Wirtschaft</t>
         </is>
       </c>
       <c r="G23" s="4" t="inlineStr">
         <is>
-          <t>XXXWeiterbildungsbeteiligung</t>
+          <t>Women in management positions in business</t>
         </is>
       </c>
       <c r="H23" s="4" t="inlineStr">
         <is>
-          <t>Steigerung auf 65 Prozent bis 2030</t>
+          <t>40 % Frauen in Aufsichtsräten der börsennotierten und paritätisch mitbestimmten Unternehmen bis 2030</t>
         </is>
       </c>
       <c r="I23" s="4" t="inlineStr">
         <is>
-          <t>XXXSteigerung auf 65 Prozent bis 2030</t>
+          <t>40 % women on supervisory boards of listed and fully co-determined companies by 2030</t>
         </is>
       </c>
       <c r="J23" s="4" t="inlineStr">
         <is>
-          <t>Steigerung auf 65 Prozent bis 2030</t>
+          <t>40 % Frauen in Aufsichtsräten bis 2030</t>
         </is>
       </c>
       <c r="K23" s="4" t="inlineStr">
         <is>
-          <t>XXXSteigerung auf 65 Prozent bis 2030</t>
+          <t>40% women on supervisory boards by 2030</t>
         </is>
       </c>
       <c r="L23" s="4" t="inlineStr">
         <is>
-          <t>Weiterbildungsbeteiligung</t>
+          <t>In Aufsichtsräten der börsennotierten und paritätisch mitbestimmten Unternehmen</t>
         </is>
       </c>
       <c r="M23" s="4" t="inlineStr">
         <is>
-          <t>XXXWeiterbildungsbeteiligung</t>
+          <t>On supervisory boards of listed and fully co-determined companies</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="24">
       <c r="A24" s="4" t="inlineStr">
         <is>
-          <t>Z04_B03_P01_Ib02_I01</t>
+          <t>Z05_B01_P01_Ib02_I02</t>
         </is>
       </c>
       <c r="B24" s="4" t="inlineStr">
         <is>
-          <t>Z04_B03_P01_Ib02</t>
+          <t>Z05_B01_P01_Ib02</t>
         </is>
       </c>
       <c r="C24" s="4" t="inlineStr">
         <is>
-          <t>4.3.b</t>
+          <t>5.1.c</t>
         </is>
       </c>
       <c r="D24" s="4" t="inlineStr">
         <is>
-          <t>Anteil der 17 bis 18-Jährigen mit (angestrebter) Studienberechtigung</t>
+          <t>c) Öffentlicher Dienst des Bundes</t>
         </is>
       </c>
       <c r="E24" s="4" t="inlineStr">
         <is>
-          <t>XXXAnteil der 17 bis 18-Jährigen mit (angestrebter) Studienberechtigung</t>
+          <t>c) Federal civil service</t>
         </is>
       </c>
       <c r="F24" s="4" t="inlineStr">
         <is>
-          <t>Anteil der 17 bis 18-Jährigen mit (angestrebter) Studienberechtigung</t>
+          <t>Frauen in Führungspositionen im öffentlichen Dienst des Bundes</t>
         </is>
       </c>
       <c r="G24" s="4" t="inlineStr">
         <is>
-          <t>XXXAnteil der 17 bis 18-Jährigen mit (angestrebter) Studienberechtigung</t>
+          <t>Women in management positions in the federal civil service</t>
         </is>
       </c>
       <c r="H24" s="4" t="inlineStr">
         <is>
-          <t>Differenz zwischen den Gruppen „Keine Risikolage“ und „Mindestens eine Risikolage“ verringern bzw. angleichen</t>
+          <t>Gleichberechtigte Teilhabe von Frauen und Männern in Leitungsfunktionen des öffentlichen Dienstes bis 2025</t>
         </is>
       </c>
       <c r="I24" s="4" t="inlineStr">
         <is>
-          <t>XXXDifferenz zwischen den Gruppen „Keine Risikolage“ und „Mindestens eine Risikolage“ verringern bzw. angleichen</t>
+          <t>Equal-opportunity participation of women and men in civil service management positions by 2025</t>
         </is>
       </c>
       <c r="J24" s="4" t="inlineStr">
         <is>
-          <t>Differenz zwischen den Gruppen „Keine Risikolage“ und „Mindestens eine Risikolage“ verringern bzw. angleichen</t>
+          <t>gleichberechtigte Teilhabe bis 2025</t>
         </is>
       </c>
       <c r="K24" s="4" t="inlineStr">
         <is>
-          <t>XXXDifferenz zwischen den Gruppen „Keine Risikolage“ und „Mindestens eine Risikolage“ verringern bzw. angleichen</t>
+          <t>equal-opportunity participation by 2025</t>
         </is>
       </c>
       <c r="L24" s="4" t="inlineStr">
         <is>
-          <t>Anteil der 17 bis 18-Jährigen mit (angestrebter) Studienberechtigung</t>
+          <t>Im öffentlichen Dienst des Bundes</t>
         </is>
       </c>
       <c r="M24" s="4" t="inlineStr">
         <is>
-          <t>XXXAnteil der 17 bis 18-Jährigen mit (angestrebter) Studienberechtigung</t>
+          <t>In management positions in the federal civil service</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="25">
       <c r="A25" s="4" t="inlineStr">
         <is>
-          <t>Z05_B01_P01_Ib01_I01</t>
+          <t>Z05_B01_P01_Ib03_I01</t>
         </is>
       </c>
       <c r="B25" s="4" t="inlineStr">
         <is>
-          <t>Z05_B01_P01_Ib01</t>
+          <t>Z05_B01_P01_Ib03</t>
         </is>
       </c>
       <c r="C25" s="4" t="inlineStr">
         <is>
-          <t>5.1.a</t>
+          <t>5.1.d</t>
         </is>
       </c>
       <c r="D25" s="4" t="inlineStr">
         <is>
-          <t>Gender Pay Gap</t>
+          <t>Väterbeteiligung beim Elterngeld</t>
         </is>
       </c>
       <c r="E25" s="4" t="inlineStr">
         <is>
-          <t>Gender Pay Gap</t>
+          <t>Fathers receiving parental allowance</t>
         </is>
       </c>
       <c r="F25" s="4" t="inlineStr">
         <is>
-          <t>Verdienstabstand zwischen Frauen und Männern</t>
+          <t>Väterbeteiligung beim Elterngeld</t>
         </is>
       </c>
       <c r="G25" s="4" t="inlineStr">
         <is>
-          <t>Gender pay gap</t>
+          <t>Proportion of fathers receiving parental allowance</t>
         </is>
       </c>
       <c r="H25" s="4" t="inlineStr">
         <is>
-          <t>Verdienstabstand zwischen Frauen und Männern höchstens 10 Prozent bis 2030</t>
+          <t>65 % bis 2030</t>
         </is>
       </c>
       <c r="I25" s="4" t="inlineStr">
         <is>
-          <t>XXXVerdienstabstand zwischen Frauen und Männern höchstens 10 Prozent bis 2030</t>
+          <t>65 % by 2030</t>
         </is>
       </c>
       <c r="J25" s="4" t="inlineStr">
         <is>
-          <t>Beibehaltung von maximal 10 % bis 2030</t>
+          <t>65 % bis 2030</t>
         </is>
       </c>
       <c r="K25" s="4" t="inlineStr">
         <is>
-          <t>maintaine a maximum of 10 % by 2030</t>
+          <t>65 % by 2030</t>
         </is>
       </c>
       <c r="L25" s="4" t="inlineStr">
         <is>
-          <t>Verdienstabstand zwischen Frauen und Männern</t>
+          <t>Väterbeteiligung beim Elterngeld</t>
         </is>
       </c>
       <c r="M25" s="4" t="inlineStr">
         <is>
-          <t>Gender pay gap</t>
+          <t>Proportion of fathers receiving parental allowance</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="26">
       <c r="A26" s="4" t="inlineStr">
         <is>
-          <t>Z05_B01_P01_Ib02_I01</t>
+          <t>Z05_B01_P01_Ib04_I01</t>
         </is>
       </c>
       <c r="B26" s="4" t="inlineStr">
         <is>
-          <t>Z05_B01_P01_Ib02</t>
+          <t>Z05_B01_P01_Ib04</t>
         </is>
       </c>
       <c r="C26" s="4" t="inlineStr">
         <is>
-          <t>5.1.b</t>
+          <t>5.1.e</t>
         </is>
       </c>
       <c r="D26" s="4" t="inlineStr">
         <is>
-          <t>b) Wirtschaft</t>
+          <t>Erwerbsarbeitszeit von Müttern und Vätern</t>
         </is>
       </c>
       <c r="E26" s="4" t="inlineStr">
         <is>
-          <t>b) Business</t>
+          <t>XXXErwerbsarbeitszeit von Müttern und Vätern</t>
         </is>
       </c>
       <c r="F26" s="4" t="inlineStr">
         <is>
-          <t>Frauen in Führungspositionen in der Wirtschaft</t>
+          <t>Durchschnittliche wöchentliche Erwerbsarbeitszeit bezogen auf alle Mütter und Väter</t>
         </is>
       </c>
       <c r="G26" s="4" t="inlineStr">
         <is>
-          <t>Women in management positions in business</t>
+          <t>XXXDurchschnittliche wöchentliche Erwerbsarbeitszeit bezogen auf alle Mütter und Väter</t>
         </is>
       </c>
       <c r="H26" s="4" t="inlineStr">
         <is>
-          <t>40 % Frauen in Aufsichtsräten der börsennotierten und paritätisch mitbestimmten Unternehmen bis 2030</t>
+          <t>Annäherung der durchschnittlichen wöchentlichen Erwerbsarbeitszeit bezogen auf alle Mütter und Väter</t>
         </is>
       </c>
       <c r="I26" s="4" t="inlineStr">
         <is>
-          <t>40 % women on supervisory boards of listed and fully co-determined companies by 2030</t>
+          <t>XXXAnnäherung der durchschnittlichen wöchentlichen Erwerbsarbeitszeit bezogen auf alle Mütter und Väter</t>
         </is>
       </c>
       <c r="J26" s="4" t="inlineStr">
         <is>
-          <t>40 % Frauen in Aufsichtsräten bis 2030</t>
+          <t>Annäherung der Erwerbsarbeitszeit von Müttern und Vätern</t>
         </is>
       </c>
       <c r="K26" s="4" t="inlineStr">
         <is>
-          <t>40% women on supervisory boards by 2030</t>
+          <t>XXXAnnäherung der Erwerbsarbeitszeit von Müttern und Vätern</t>
         </is>
       </c>
       <c r="L26" s="4" t="inlineStr">
         <is>
-          <t>In Aufsichtsräten der börsennotierten und paritätisch mitbestimmten Unternehmen</t>
+          <t>Erwerbsarbeitszeit von Müttern und Vätern</t>
         </is>
       </c>
       <c r="M26" s="4" t="inlineStr">
         <is>
-          <t>On supervisory boards of listed and fully co-determined companies</t>
+          <t>XXXErwerbsarbeitszeit von Müttern und Vätern</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="27">
       <c r="A27" s="4" t="inlineStr">
         <is>
-          <t>Z05_B01_P01_Ib02_I02</t>
+          <t>Z05_B01_P02_Ib01_I01</t>
         </is>
       </c>
       <c r="B27" s="4" t="inlineStr">
         <is>
-          <t>Z05_B01_P01_Ib02</t>
+          <t>Z05_B01_P02_Ib01</t>
         </is>
       </c>
       <c r="C27" s="4" t="inlineStr">
         <is>
-          <t>5.1.c</t>
+          <t>5.1.f</t>
         </is>
       </c>
       <c r="D27" s="4" t="inlineStr">
         <is>
-          <t>c) Öffentlicher Dienst des Bundes</t>
+          <t>Berufliche Qualifizierung von Frauen und Mädchen durch Entwicklungszusammenarbeit</t>
         </is>
       </c>
       <c r="E27" s="4" t="inlineStr">
         <is>
-          <t>c) Federal civil service</t>
+          <t>Vocational qualifications of women and girls through development coopreation</t>
         </is>
       </c>
       <c r="F27" s="4" t="inlineStr">
         <is>
-          <t>Frauen in Führungspositionen im öffentlichen Dienst des Bundes</t>
+          <t>Berufliche Qualifizierung von Frauen und Mädchen durch deutsche entwicklungspolitische Zusammenarbeit</t>
         </is>
       </c>
       <c r="G27" s="4" t="inlineStr">
         <is>
-          <t>Women in management positions in the federal civil service</t>
+          <t>Vocational qualifications of women and girls through German development assistance</t>
         </is>
       </c>
       <c r="H27" s="4" t="inlineStr">
         <is>
-          <t>Gleichberechtigte Teilhabe von Frauen und Männern in Leitungsfunktionen des öffentlichen Dienstes bis 2025</t>
+          <t>Sukzessive Steigerung bis 2030 um ein Drittel verglichen mit Basisjahr 2015</t>
         </is>
       </c>
       <c r="I27" s="4" t="inlineStr">
         <is>
-          <t>Equal-opportunity participation of women and men in civil service management positions by 2025</t>
+          <t>To be increased gradually by a third by 2030 compared to 2015 as the base year</t>
         </is>
       </c>
       <c r="J27" s="4" t="inlineStr">
         <is>
-          <t>gleichberechtigte Teilhabe bis 2025</t>
+          <t>Steigerung um ein Drittel bis 2030</t>
         </is>
       </c>
       <c r="K27" s="4" t="inlineStr">
         <is>
-          <t>equal-opportunity participation by 2025</t>
+          <t>to be increased by a third by 2030</t>
         </is>
       </c>
       <c r="L27" s="4" t="inlineStr">
         <is>
-          <t>Im öffentlichen Dienst des Bundes</t>
+          <t>Berufliche Qualifizierung von Frauen und Mädchen durch deutsche entwicklungspolitische Zusammenarbeit</t>
         </is>
       </c>
       <c r="M27" s="4" t="inlineStr">
         <is>
-          <t>In management positions in the federal civil service</t>
+          <t>Vocational qualifications of women and girls through German development cooperation</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="28">
       <c r="A28" s="4" t="inlineStr">
         <is>
-          <t>Z05_B01_P01_Ib03_I01</t>
+          <t>Z05_B01_P03_Ib01_I01</t>
         </is>
       </c>
       <c r="B28" s="4" t="inlineStr">
         <is>
-          <t>Z05_B01_P01_Ib03</t>
+          <t>Z05_B01_P03_Ib01</t>
         </is>
       </c>
       <c r="C28" s="4" t="inlineStr">
         <is>
-          <t>5.1.d</t>
+          <t>5.1.g</t>
         </is>
       </c>
       <c r="D28" s="4" t="inlineStr">
         <is>
-          <t>Väterbeteiligung beim Elterngeld</t>
+          <t>Geschlechtergleichstellun in der Entwicklungszusammenarbeit</t>
         </is>
       </c>
       <c r="E28" s="4" t="inlineStr">
         <is>
-          <t>Fathers receiving parental allowance</t>
+          <t>XXXGeschlechtergleichstellun in der Entwicklungszusammenarbeit</t>
         </is>
       </c>
       <c r="F28" s="4" t="inlineStr">
         <is>
-          <t>Väterbeteiligung beim Elterngeld</t>
+          <t>Anteil der Geschlechtergleichstellung berücksichtigenden Projektmittel in der deutschen Entwicklungszusammenarbeit</t>
         </is>
       </c>
       <c r="G28" s="4" t="inlineStr">
         <is>
-          <t>Proportion of fathers receiving parental allowance</t>
+          <t>XXXAnteil der Geschlechtergleichstellung berücksichtigenden Projektmittel in der deutschen Entwicklungszusammenarbeit</t>
         </is>
       </c>
       <c r="H28" s="4" t="inlineStr">
         <is>
-          <t>65 % bis 2030</t>
+          <t>Anstieg des Anteils der Geschlechtergleichstellung berücksichtigenden Projektmittel in der deutschen Entwicklungszusammenarbeit bis 2030 auf ab dann mindestens 85 Prozent</t>
         </is>
       </c>
       <c r="I28" s="4" t="inlineStr">
         <is>
-          <t>65 % by 2030</t>
+          <t>XXXAnstieg des Anteils der Geschlechtergleichstellung berücksichtigenden Projektmittel in der deutschen Entwicklungszusammenarbeit bis 2030 auf ab dann mindestens 85 Prozent</t>
         </is>
       </c>
       <c r="J28" s="4" t="inlineStr">
         <is>
-          <t>65 % bis 2030</t>
+          <t>Steigerung auf 85 % bis 2030</t>
         </is>
       </c>
       <c r="K28" s="4" t="inlineStr">
         <is>
-          <t>65 % by 2030</t>
+          <t>XXXSteigerung auf 85 % bis 2030</t>
         </is>
       </c>
       <c r="L28" s="4" t="inlineStr">
         <is>
-          <t>Väterbeteiligung beim Elterngeld</t>
+          <t>Geschlechtergleichstellun in der Entwicklungszusammenarbeit</t>
         </is>
       </c>
       <c r="M28" s="4" t="inlineStr">
         <is>
-          <t>Proportion of fathers receiving parental allowance</t>
+          <t>XXXGeschlechtergleichstellun in der Entwicklungszusammenarbeit</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="29">
       <c r="A29" s="4" t="inlineStr">
         <is>
-          <t>Z05_B01_P01_Ib04_I01</t>
+          <t>Z06_B01_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B29" s="4" t="inlineStr">
         <is>
-          <t>Z05_B01_P01_Ib04</t>
+          <t>Z06_B01_P01_Ib01</t>
         </is>
       </c>
       <c r="C29" s="4" t="inlineStr">
         <is>
-          <t>5.1.e</t>
+          <t>6.1.a</t>
         </is>
       </c>
       <c r="D29" s="4" t="inlineStr">
         <is>
-          <t>Erwerbsarbeitszeit von Müttern und Vätern</t>
+          <t>Phosphor in Fließgewässern</t>
         </is>
       </c>
       <c r="E29" s="4" t="inlineStr">
         <is>
-          <t>XXXErwerbsarbeitszeit von Müttern und Vätern</t>
+          <t>Phosphorous in flowing waters</t>
         </is>
       </c>
       <c r="F29" s="4" t="inlineStr">
         <is>
-          <t>Durchschnittliche wöchentliche Erwerbsarbeitszeit bezogen auf alle Mütter und Väter</t>
+          <t>Phosphor in Fließgewässern</t>
         </is>
       </c>
       <c r="G29" s="4" t="inlineStr">
         <is>
-          <t>XXXDurchschnittliche wöchentliche Erwerbsarbeitszeit bezogen auf alle Mütter und Väter</t>
+          <t>Phosphorous in flowing waters</t>
         </is>
       </c>
       <c r="H29" s="4" t="inlineStr">
         <is>
-          <t>Annäherung der durchschnittlichen wöchentlichen Erwerbsarbeitszeit bezogen auf alle Mütter und Väter</t>
+          <t>Einhaltung oder Unterschreitung der gewässertypischen Orientierungswerte an allen Messstellen bis 2030</t>
         </is>
       </c>
       <c r="I29" s="4" t="inlineStr">
         <is>
-          <t>XXXAnnäherung der durchschnittlichen wöchentlichen Erwerbsarbeitszeit bezogen auf alle Mütter und Väter</t>
+          <t>Not exceeding benchmark values for specific types of water bodies at all monitoring points by 2030</t>
         </is>
       </c>
       <c r="J29" s="4" t="inlineStr">
         <is>
-          <t>Annäherung der Erwerbsarbeitszeit von Müttern und Vätern</t>
+          <t>Einhaltung oder Unterschreitung der Orientierungswerte bis 2030</t>
         </is>
       </c>
       <c r="K29" s="4" t="inlineStr">
         <is>
-          <t>XXXAnnäherung der Erwerbsarbeitszeit von Müttern und Vätern</t>
+          <t>not exceeding benchmark values by 2030</t>
         </is>
       </c>
       <c r="L29" s="4" t="inlineStr">
         <is>
-          <t>Erwerbsarbeitszeit von Müttern und Vätern</t>
+          <t>Phosphor in Fließgewässern</t>
         </is>
       </c>
       <c r="M29" s="4" t="inlineStr">
         <is>
-          <t>XXXErwerbsarbeitszeit von Müttern und Vätern</t>
+          <t>Phosphorous in flowing waters</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="30">
       <c r="A30" s="4" t="inlineStr">
         <is>
-          <t>Z05_B01_P02_Ib01_I01</t>
+          <t>Z06_B01_P01_Ib02_I01</t>
         </is>
       </c>
       <c r="B30" s="4" t="inlineStr">
         <is>
-          <t>Z05_B01_P02_Ib01</t>
+          <t>Z06_B01_P01_Ib02</t>
         </is>
       </c>
       <c r="C30" s="4" t="inlineStr">
         <is>
-          <t>5.1.f</t>
+          <t>6.1.b</t>
         </is>
       </c>
       <c r="D30" s="4" t="inlineStr">
         <is>
-          <t>Berufliche Qualifizierung von Frauen und Mädchen durch Entwicklungszusammenarbeit</t>
+          <t>Nitrat im Grundwasser</t>
         </is>
       </c>
       <c r="E30" s="4" t="inlineStr">
         <is>
-          <t>Vocational qualifications of women and girls through development coopreation</t>
+          <t>Nitrate in groundwater</t>
         </is>
       </c>
       <c r="F30" s="4" t="inlineStr">
         <is>
-          <t>Berufliche Qualifizierung von Frauen und Mädchen durch deutsche entwicklungspolitische Zusammenarbeit</t>
+          <t>Nitrat im Grundwasser</t>
         </is>
       </c>
       <c r="G30" s="4" t="inlineStr">
         <is>
-          <t>Vocational qualifications of women and girls through German development assistance</t>
+          <t>Nitrate in groundwater</t>
         </is>
       </c>
       <c r="H30" s="4" t="inlineStr">
         <is>
-          <t>Sukzessive Steigerung bis 2030 um ein Drittel verglichen mit Basisjahr 2015</t>
+          <t>Einhaltung oder Unterschreitung des Nitrat-Schwellenwertes von 50 Milligramm pro Liter an allen Messstellen bis 2030</t>
         </is>
       </c>
       <c r="I30" s="4" t="inlineStr">
         <is>
-          <t>To be increased gradually by a third by 2030 compared to 2015 as the base year</t>
+          <t>Compliance with the nitrate threshold value of 50 mg/l at all monitoring points by 2030</t>
         </is>
       </c>
       <c r="J30" s="4" t="inlineStr">
         <is>
-          <t>Steigerung um ein Drittel bis 2030</t>
+          <t>Einhaltung oder Unterschreitung des Schwellenwertes von 50 mg/l bis 2030</t>
         </is>
       </c>
       <c r="K30" s="4" t="inlineStr">
         <is>
-          <t>to be increased by a third by 2030</t>
+          <t>compliance with the threshold value of 50 mg/l by 2030</t>
         </is>
       </c>
       <c r="L30" s="4" t="inlineStr">
         <is>
-          <t>Berufliche Qualifizierung von Frauen und Mädchen durch deutsche entwicklungspolitische Zusammenarbeit</t>
+          <t>Nitrat im Grundwasser</t>
         </is>
       </c>
       <c r="M30" s="4" t="inlineStr">
         <is>
-          <t>Vocational qualifications of women and girls through German development cooperation</t>
+          <t>Nitrate in groundwater</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="31">
       <c r="A31" s="4" t="inlineStr">
         <is>
-          <t>Z05_B01_P03_Ib01_I01</t>
+          <t>Z06_B02_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B31" s="4" t="inlineStr">
         <is>
-          <t>Z05_B01_P03_Ib01</t>
+          <t>Z06_B02_P01_Ib01</t>
         </is>
       </c>
       <c r="C31" s="4" t="inlineStr">
         <is>
-          <t>5.1.g</t>
+          <t>6.2.a</t>
         </is>
       </c>
       <c r="D31" s="4" t="inlineStr">
         <is>
-          <t>Geschlechtergleichstellun in der Entwicklungszusammenarbeit</t>
+          <t>a) Trinkwasserversorgung</t>
         </is>
       </c>
       <c r="E31" s="4" t="inlineStr">
         <is>
-          <t>XXXGeschlechtergleichstellun in der Entwicklungszusammenarbeit</t>
+          <t>a) Access to drinking water</t>
         </is>
       </c>
       <c r="F31" s="4" t="inlineStr">
         <is>
-          <t>Anteil der Geschlechtergleichstellung berücksichtigenden Projektmittel in der deutschen Entwicklungszusammenarbeit</t>
+          <t>Anzahl der Menschen, die einen neuen oder hochwertigeren Zugang zur Trinkwasserversorgung durch deutsche Unterstützung erhalten</t>
         </is>
       </c>
       <c r="G31" s="4" t="inlineStr">
         <is>
-          <t>XXXAnteil der Geschlechtergleichstellung berücksichtigenden Projektmittel in der deutschen Entwicklungszusammenarbeit</t>
+          <t>Number of people gaining first-time or upgraded access to drinking water owing to German support</t>
         </is>
       </c>
       <c r="H31" s="4" t="inlineStr">
         <is>
-          <t>Anstieg des Anteils der Geschlechtergleichstellung berücksichtigenden Projektmittel in der deutschen Entwicklungszusammenarbeit bis 2030 auf ab dann mindestens 85 Prozent</t>
+          <t>6 Millionen Menschen pro Jahr bis 2030</t>
         </is>
       </c>
       <c r="I31" s="4" t="inlineStr">
         <is>
-          <t>XXXAnstieg des Anteils der Geschlechtergleichstellung berücksichtigenden Projektmittel in der deutschen Entwicklungszusammenarbeit bis 2030 auf ab dann mindestens 85 Prozent</t>
+          <t>6 million people per year by 2030</t>
         </is>
       </c>
       <c r="J31" s="4" t="inlineStr">
         <is>
-          <t>Steigerung auf 85 % bis 2030</t>
+          <t>6 Millionen Menschen pro Jahr bis 2030</t>
         </is>
       </c>
       <c r="K31" s="4" t="inlineStr">
         <is>
-          <t>XXXSteigerung auf 85 % bis 2030</t>
+          <t>6 million people per year by 2030</t>
         </is>
       </c>
       <c r="L31" s="4" t="inlineStr">
         <is>
-          <t>Geschlechtergleichstellun in der Entwicklungszusammenarbeit</t>
+          <t>Anzahl der Menschen, die einen neuen oder hochwertigeren Zugang zur Trinkwasserversorgung erhalten haben</t>
         </is>
       </c>
       <c r="M31" s="4" t="inlineStr">
         <is>
-          <t>XXXGeschlechtergleichstellun in der Entwicklungszusammenarbeit</t>
+          <t>Number of people gaining first-time or upgraded access to drinking water</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="32">
       <c r="A32" s="4" t="inlineStr">
         <is>
-          <t>Z06_B01_P01_Ib01_I01</t>
+          <t>Z06_B02_P01_Ib01_I02</t>
         </is>
       </c>
       <c r="B32" s="4" t="inlineStr">
         <is>
-          <t>Z06_B01_P01_Ib01</t>
+          <t>Z06_B02_P01_Ib01</t>
         </is>
       </c>
       <c r="C32" s="4" t="inlineStr">
         <is>
-          <t>6.1.a</t>
+          <t>6.2.b</t>
         </is>
       </c>
       <c r="D32" s="4" t="inlineStr">
         <is>
-          <t>Phosphor in Fließgewässern</t>
+          <t>b) Sanitärversorgung</t>
         </is>
       </c>
       <c r="E32" s="4" t="inlineStr">
         <is>
-          <t>Phosphorous in flowing waters</t>
+          <t>b) Access to sanitation</t>
         </is>
       </c>
       <c r="F32" s="4" t="inlineStr">
         <is>
-          <t>Phosphor in Fließgewässern</t>
+          <t>Anzahl der Menschen, die einen neuen oder verbesserten Anschluss zur Sanitärversorgung durch deutsche Unterstützung erhalten</t>
         </is>
       </c>
       <c r="G32" s="4" t="inlineStr">
         <is>
-          <t>Phosphorous in flowing waters</t>
+          <t>Number of people gaining first-time or improved access to sanitation owing to German support</t>
         </is>
       </c>
       <c r="H32" s="4" t="inlineStr">
         <is>
-          <t>Einhaltung oder Unterschreitung der gewässertypischen Orientierungswerte an allen Messstellen bis 2030</t>
+          <t>4 Millionen Menschen pro Jahr bis 2030</t>
         </is>
       </c>
       <c r="I32" s="4" t="inlineStr">
         <is>
-          <t>Not exceeding benchmark values for specific types of water bodies at all monitoring points by 2030</t>
+          <t>4 million people per year by 2030</t>
         </is>
       </c>
       <c r="J32" s="4" t="inlineStr">
         <is>
-          <t>Einhaltung oder Unterschreitung der Orientierungswerte bis 2030</t>
+          <t>4 Millionen Menschen pro Jahr bis 2030</t>
         </is>
       </c>
       <c r="K32" s="4" t="inlineStr">
         <is>
-          <t>not exceeding benchmark values by 2030</t>
+          <t>4 million people per year by 2030</t>
         </is>
       </c>
       <c r="L32" s="4" t="inlineStr">
         <is>
-          <t>Phosphor in Fließgewässern</t>
+          <t>Anzahl der Menschen, die einen neuen oder verbesserten Anschluss zur Sanitärversorgung erhalten haben</t>
         </is>
       </c>
       <c r="M32" s="4" t="inlineStr">
         <is>
-          <t>Phosphorous in flowing waters</t>
+          <t>Number of people gaining first-time or improved access to sanitation</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="33">
       <c r="A33" s="4" t="inlineStr">
         <is>
-          <t>Z06_B01_P01_Ib02_I01</t>
+          <t>Z06_B02_P01_Ib01_I03</t>
         </is>
       </c>
       <c r="B33" s="4" t="inlineStr">
         <is>
-          <t>Z06_B01_P01_Ib02</t>
+          <t>Z06_B02_P01_Ib01</t>
         </is>
       </c>
       <c r="C33" s="4" t="inlineStr">
         <is>
-          <t>6.1.b</t>
+          <t>6.2</t>
         </is>
       </c>
       <c r="D33" s="4" t="inlineStr">
         <is>
-          <t>Nitrat im Grundwasser</t>
+          <t>Trinkwasser- und Sanitärversorgung</t>
         </is>
       </c>
       <c r="E33" s="4" t="inlineStr">
         <is>
-          <t>Nitrate in groundwater</t>
+          <t>Access to drinking water and sanitation</t>
         </is>
       </c>
       <c r="F33" s="4" t="inlineStr">
         <is>
-          <t>Nitrat im Grundwasser</t>
+          <t>Anzahl der Menschen, die einen neuen oder hochwertigeren Zugang zur Trinkwasserversorgung oder Anschluss zur Sanitärversorgung durch deutsche Unterstützung erhalten</t>
         </is>
       </c>
       <c r="G33" s="4" t="inlineStr">
         <is>
-          <t>Nitrate in groundwater</t>
+          <t>Number of people gaining first-time or upgraded access to drinking water or sanitation owing to German support</t>
         </is>
       </c>
       <c r="H33" s="4" t="inlineStr">
         <is>
-          <t>Einhaltung oder Unterschreitung des Nitrat-Schwellenwertes von 50 Milligramm pro Liter an allen Messstellen bis 2030</t>
+          <t/>
         </is>
       </c>
       <c r="I33" s="4" t="inlineStr">
         <is>
-          <t>Compliance with the nitrate threshold value of 50 mg/l at all monitoring points by 2030</t>
+          <t/>
         </is>
       </c>
       <c r="J33" s="4" t="inlineStr">
         <is>
-          <t>Einhaltung oder Unterschreitung des Schwellenwertes von 50 mg/l bis 2030</t>
+          <t/>
         </is>
       </c>
       <c r="K33" s="4" t="inlineStr">
         <is>
-          <t>compliance with the threshold value of 50 mg/l by 2030</t>
+          <t/>
         </is>
       </c>
       <c r="L33" s="4" t="inlineStr">
         <is>
-          <t>Nitrat im Grundwasser</t>
+          <t>Anzahl der Menschen, die einen neuen oder hochwertigeren Zugang zur Trinkwasserversorgung oder Anschluss zur Sanitärversorgung erhalten haben</t>
         </is>
       </c>
       <c r="M33" s="4" t="inlineStr">
         <is>
-          <t>Nitrate in groundwater</t>
+          <t>Number of people gaining first-time or upgraded access to drinking water or sanitation</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="34">
       <c r="A34" s="4" t="inlineStr">
         <is>
-          <t>Z06_B02_P01_Ib01_I01</t>
+          <t>Z07_B01_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B34" s="4" t="inlineStr">
         <is>
-          <t>Z06_B02_P01_Ib01</t>
+          <t>Z07_B01_P01_Ib01</t>
         </is>
       </c>
       <c r="C34" s="4" t="inlineStr">
         <is>
-          <t>6.2.a</t>
+          <t>7.1.a</t>
         </is>
       </c>
       <c r="D34" s="4" t="inlineStr">
         <is>
-          <t>a) Trinkwasserversorgung</t>
+          <t>a) Endenergieproduktivität</t>
         </is>
       </c>
       <c r="E34" s="4" t="inlineStr">
         <is>
-          <t>a) Access to drinking water</t>
+          <t>a) Final energy productivity</t>
         </is>
       </c>
       <c r="F34" s="4" t="inlineStr">
         <is>
-          <t>Anzahl der Menschen, die einen neuen oder hochwertigeren Zugang zur Trinkwasserversorgung durch deutsche Unterstützung erhalten</t>
+          <t>Endenergieproduktivität</t>
         </is>
       </c>
       <c r="G34" s="4" t="inlineStr">
         <is>
-          <t>Number of people gaining first-time or upgraded access to drinking water owing to German support</t>
+          <t>Final energy productivity</t>
         </is>
       </c>
       <c r="H34" s="4" t="inlineStr">
         <is>
-          <t>6 Millionen Menschen pro Jahr bis 2030</t>
+          <t>Deutliche Steigerung</t>
         </is>
       </c>
       <c r="I34" s="4" t="inlineStr">
         <is>
-          <t>6 million people per year by 2030</t>
+          <t>XXXDeutliche Steigerung</t>
         </is>
       </c>
       <c r="J34" s="4" t="inlineStr">
         <is>
-          <t>6 Millionen Menschen pro Jahr bis 2030</t>
+          <t>Deutliche Steigerung</t>
         </is>
       </c>
       <c r="K34" s="4" t="inlineStr">
         <is>
-          <t>6 million people per year by 2030</t>
+          <t>XXXDeutliche Steigerung</t>
         </is>
       </c>
       <c r="L34" s="4" t="inlineStr">
         <is>
-          <t>Anzahl der Menschen, die einen neuen oder hochwertigeren Zugang zur Trinkwasserversorgung erhalten haben</t>
+          <t>Endenergieproduktivität</t>
         </is>
       </c>
       <c r="M34" s="4" t="inlineStr">
         <is>
-          <t>Number of people gaining first-time or upgraded access to drinking water</t>
+          <t>Final energy productivity</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="35">
       <c r="A35" s="4" t="inlineStr">
         <is>
-          <t>Z06_B02_P01_Ib01_I02</t>
+          <t>Z07_B01_P01_Ib01_I02</t>
         </is>
       </c>
       <c r="B35" s="4" t="inlineStr">
         <is>
-          <t>Z06_B02_P01_Ib01</t>
+          <t>Z07_B01_P01_Ib01</t>
         </is>
       </c>
       <c r="C35" s="4" t="inlineStr">
         <is>
-          <t>6.2.b</t>
+          <t>7.1.b</t>
         </is>
       </c>
       <c r="D35" s="4" t="inlineStr">
         <is>
-          <t>b) Sanitärversorgung</t>
+          <t>b) Primärenergieverbrauch</t>
         </is>
       </c>
       <c r="E35" s="4" t="inlineStr">
         <is>
-          <t>b) Access to sanitation</t>
+          <t>b) Primary energy consumption</t>
         </is>
       </c>
       <c r="F35" s="4" t="inlineStr">
         <is>
-          <t>Anzahl der Menschen, die einen neuen oder verbesserten Anschluss zur Sanitärversorgung durch deutsche Unterstützung erhalten</t>
+          <t>Primärenergieverbrauch</t>
         </is>
       </c>
       <c r="G35" s="4" t="inlineStr">
         <is>
-          <t>Number of people gaining first-time or improved access to sanitation owing to German support</t>
+          <t>Primary energy consumption</t>
         </is>
       </c>
       <c r="H35" s="4" t="inlineStr">
         <is>
-          <t>4 Millionen Menschen pro Jahr bis 2030</t>
+          <t>Senkung um mindestens 39,3 Prozent bis 2030 im Vergleich zu 2008</t>
         </is>
       </c>
       <c r="I35" s="4" t="inlineStr">
         <is>
-          <t>4 million people per year by 2030</t>
+          <t>XXXSenkung um mindestens 39,3 Prozent bis 2030 im Vergleich zu 2008</t>
         </is>
       </c>
       <c r="J35" s="4" t="inlineStr">
         <is>
-          <t>4 Millionen Menschen pro Jahr bis 2030</t>
+          <t>Senkung um 39,4 % bis 2030</t>
         </is>
       </c>
       <c r="K35" s="4" t="inlineStr">
         <is>
-          <t>4 million people per year by 2030</t>
+          <t>reduction by 39.4 % by 2030</t>
         </is>
       </c>
       <c r="L35" s="4" t="inlineStr">
         <is>
-          <t>Anzahl der Menschen, die einen neuen oder verbesserten Anschluss zur Sanitärversorgung erhalten haben</t>
+          <t>Primärenergieverbrauch</t>
         </is>
       </c>
       <c r="M35" s="4" t="inlineStr">
         <is>
-          <t>Number of people gaining first-time or improved access to sanitation</t>
+          <t>Primary energy consumption</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="36">
       <c r="A36" s="4" t="inlineStr">
         <is>
-          <t>Z06_B02_P01_Ib01_I03</t>
+          <t>Z07_B02_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B36" s="4" t="inlineStr">
         <is>
-          <t>Z06_B02_P01_Ib01</t>
+          <t>Z07_B02_P01_Ib01</t>
         </is>
       </c>
       <c r="C36" s="4" t="inlineStr">
         <is>
-          <t>6.2</t>
+          <t>7.2.a</t>
         </is>
       </c>
       <c r="D36" s="4" t="inlineStr">
         <is>
-          <t>Trinkwasser- und Sanitärversorgung</t>
+          <t>Erneuerbarer Energien</t>
         </is>
       </c>
       <c r="E36" s="4" t="inlineStr">
         <is>
-          <t>Access to drinking water and sanitation</t>
+          <t>Renewable energies</t>
         </is>
       </c>
       <c r="F36" s="4" t="inlineStr">
         <is>
-          <t>Anzahl der Menschen, die einen neuen oder hochwertigeren Zugang zur Trinkwasserversorgung oder Anschluss zur Sanitärversorgung durch deutsche Unterstützung erhalten</t>
+          <t>Anteil erneuerbarer Energien am Brutto-Endenergieverbrauch</t>
         </is>
       </c>
       <c r="G36" s="4" t="inlineStr">
         <is>
-          <t>Number of people gaining first-time or upgraded access to drinking water or sanitation owing to German support</t>
+          <t>Share of renewable energies in gross final energy consumption</t>
         </is>
       </c>
       <c r="H36" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Anstieg auf 41 Prozent bis 2030, auf 45 Prozent bis 2040 und auf 60 Prozent bis 2050</t>
         </is>
       </c>
       <c r="I36" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Increase to 41 % by 2030, to 45 % by 2040 and to 60 % by 2050</t>
         </is>
       </c>
       <c r="J36" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>Anstieg auf 41 % bis 2030</t>
         </is>
       </c>
       <c r="K36" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>increase to 41 % by 2030</t>
         </is>
       </c>
       <c r="L36" s="4" t="inlineStr">
         <is>
-          <t>Anzahl der Menschen, die einen neuen oder hochwertigeren Zugang zur Trinkwasserversorgung oder Anschluss zur Sanitärversorgung erhalten haben</t>
+          <t>Anteil erneuerbarer Energien am Brutto-Endenergieverbrauch</t>
         </is>
       </c>
       <c r="M36" s="4" t="inlineStr">
         <is>
-          <t>Number of people gaining first-time or upgraded access to drinking water or sanitation</t>
+          <t>Share of renewable energies in gross final energy consumption</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="37">
       <c r="A37" s="4" t="inlineStr">
         <is>
-          <t>Z07_B01_P01_Ib01_I01</t>
+          <t>Z07_B02_P01_Ib02_I01</t>
         </is>
       </c>
       <c r="B37" s="4" t="inlineStr">
         <is>
-          <t>Z07_B01_P01_Ib01</t>
+          <t>Z07_B02_P01_Ib02</t>
         </is>
       </c>
       <c r="C37" s="4" t="inlineStr">
         <is>
-          <t>7.1.a</t>
+          <t>7.2.b</t>
         </is>
       </c>
       <c r="D37" s="4" t="inlineStr">
         <is>
-          <t>a) Endenergieproduktivität</t>
+          <t>Strom aus erneuerbaren Energiequellen</t>
         </is>
       </c>
       <c r="E37" s="4" t="inlineStr">
         <is>
-          <t>a) Final energy productivity</t>
+          <t>Electricity from renewable energy sources</t>
         </is>
       </c>
       <c r="F37" s="4" t="inlineStr">
         <is>
-          <t>Endenergieproduktivität</t>
+          <t>Anteil des Stroms aus erneuerbaren Energiequellen am Bruttostromverbrauch</t>
         </is>
       </c>
       <c r="G37" s="4" t="inlineStr">
         <is>
-          <t>Final energy productivity</t>
+          <t>Share of electricity from renewable energy sources in gross electricity consumption</t>
         </is>
       </c>
       <c r="H37" s="4" t="inlineStr">
         <is>
-          <t>Deutliche Steigerung</t>
+          <t>Anstieg auf 80 % bis 2030</t>
         </is>
       </c>
       <c r="I37" s="4" t="inlineStr">
         <is>
-          <t>XXXDeutliche Steigerung</t>
+          <t>Increase to 80 % by 2030</t>
         </is>
       </c>
       <c r="J37" s="4" t="inlineStr">
         <is>
-          <t>Deutliche Steigerung</t>
+          <t>Anstieg auf 80 % bis 2030</t>
         </is>
       </c>
       <c r="K37" s="4" t="inlineStr">
         <is>
-          <t>XXXDeutliche Steigerung</t>
+          <t>increase to 80 % by 2030</t>
         </is>
       </c>
       <c r="L37" s="4" t="inlineStr">
         <is>
-          <t>Endenergieproduktivität</t>
+          <t>Anteil des Stroms aus erneuerbaren Energiequellen am Bruttostromverbrauch</t>
         </is>
       </c>
       <c r="M37" s="4" t="inlineStr">
         <is>
-          <t>Final energy productivity</t>
+          <t>Share of electricity from renewable energy sources in gross electricity consumption</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="38">
       <c r="A38" s="4" t="inlineStr">
         <is>
-          <t>Z07_B01_P01_Ib01_I02</t>
+          <t>Z08_B01_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B38" s="4" t="inlineStr">
         <is>
-          <t>Z07_B01_P01_Ib01</t>
+          <t>Z08_B01_P01_Ib01</t>
         </is>
       </c>
       <c r="C38" s="4" t="inlineStr">
         <is>
-          <t>7.1.b</t>
+          <t>8.1</t>
         </is>
       </c>
       <c r="D38" s="4" t="inlineStr">
         <is>
-          <t>b) Primärenergieverbrauch</t>
+          <t>Gesamtrohstoffproduktivität</t>
         </is>
       </c>
       <c r="E38" s="4" t="inlineStr">
         <is>
-          <t>b) Primary energy consumption</t>
+          <t>Raw material input productivity</t>
         </is>
       </c>
       <c r="F38" s="4" t="inlineStr">
         <is>
-          <t>Primärenergieverbrauch</t>
+          <t>Gesamtrohstoffproduktivität</t>
         </is>
       </c>
       <c r="G38" s="4" t="inlineStr">
         <is>
-          <t>Primary energy consumption</t>
+          <t>Raw material input productivity</t>
         </is>
       </c>
       <c r="H38" s="4" t="inlineStr">
         <is>
-          <t>Senkung um mindestens 39,3 Prozent bis 2030 im Vergleich zu 2008</t>
+          <t>Beibehaltung des Trends der Jahre 2000 – 2010 bis 2030</t>
         </is>
       </c>
       <c r="I38" s="4" t="inlineStr">
         <is>
-          <t>XXXSenkung um mindestens 39,3 Prozent bis 2030 im Vergleich zu 2008</t>
+          <t>Trend of the years 2000–2010 to be maintained until 2030</t>
         </is>
       </c>
       <c r="J38" s="4" t="inlineStr">
         <is>
-          <t>Senkung um 39,4 % bis 2030</t>
+          <t>Beibehaltung des Trends der Jahre 2000 - 2010 bis 2030</t>
         </is>
       </c>
       <c r="K38" s="4" t="inlineStr">
         <is>
-          <t>reduction by 39.4 % by 2030</t>
+          <t>trend of the years 2000-2010 to be maintained until 2030</t>
         </is>
       </c>
       <c r="L38" s="4" t="inlineStr">
         <is>
-          <t>Primärenergieverbrauch</t>
+          <t>Gesamtrohstoffproduktivität</t>
         </is>
       </c>
       <c r="M38" s="4" t="inlineStr">
         <is>
-          <t>Primary energy consumption</t>
+          <t>Raw material input productivity</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="39">
       <c r="A39" s="4" t="inlineStr">
         <is>
-          <t>Z07_B02_P01_Ib01_I01</t>
+          <t>Z08_B02_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B39" s="4" t="inlineStr">
         <is>
-          <t>Z07_B02_P01_Ib01</t>
+          <t>Z08_B02_P01_Ib01</t>
         </is>
       </c>
       <c r="C39" s="4" t="inlineStr">
         <is>
-          <t>7.2.a</t>
+          <t>8.2.a</t>
         </is>
       </c>
       <c r="D39" s="4" t="inlineStr">
         <is>
-          <t>Erneuerbarer Energien</t>
+          <t>a) Staatsdefizit</t>
         </is>
       </c>
       <c r="E39" s="4" t="inlineStr">
         <is>
-          <t>Renewable energies</t>
+          <t>a) Government deficit</t>
         </is>
       </c>
       <c r="F39" s="4" t="inlineStr">
         <is>
-          <t>Anteil erneuerbarer Energien am Brutto-Endenergieverbrauch</t>
+          <t>Staatsdefizit</t>
         </is>
       </c>
       <c r="G39" s="4" t="inlineStr">
         <is>
-          <t>Share of renewable energies in gross final energy consumption</t>
+          <t>Government deficit</t>
         </is>
       </c>
       <c r="H39" s="4" t="inlineStr">
         <is>
-          <t>Anstieg auf 41 Prozent bis 2030, auf 45 Prozent bis 2040 und auf 60 Prozent bis 2050</t>
+          <t>Jährliches Staatsdefizit kleiner als 3 % des Bruttoinlandsprodukts (BIP), Beibehaltung bis 2030</t>
         </is>
       </c>
       <c r="I39" s="4" t="inlineStr">
         <is>
-          <t>Increase to 41 % by 2030, to 45 % by 2040 and to 60 % by 2050</t>
+          <t>Annual government deficit less than 3 % of Gross domestic product (GDP), to be maintained until 2030</t>
         </is>
       </c>
       <c r="J39" s="4" t="inlineStr">
         <is>
-          <t>Anstieg auf 41 % bis 2030</t>
+          <t>unter 3 % des BIP</t>
         </is>
       </c>
       <c r="K39" s="4" t="inlineStr">
         <is>
-          <t>increase to 41 % by 2030</t>
+          <t>less than 3 % of GDP</t>
         </is>
       </c>
       <c r="L39" s="4" t="inlineStr">
         <is>
-          <t>Anteil erneuerbarer Energien am Brutto-Endenergieverbrauch</t>
+          <t>Staatsdefizit</t>
         </is>
       </c>
       <c r="M39" s="4" t="inlineStr">
         <is>
-          <t>Share of renewable energies in gross final energy consumption</t>
+          <t>Government deficit</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="40">
       <c r="A40" s="4" t="inlineStr">
         <is>
-          <t>Z07_B02_P01_Ib02_I01</t>
+          <t>Z08_B02_P01_Ib01_I02</t>
         </is>
       </c>
       <c r="B40" s="4" t="inlineStr">
         <is>
-          <t>Z07_B02_P01_Ib02</t>
+          <t>Z08_B02_P01_Ib01</t>
         </is>
       </c>
       <c r="C40" s="4" t="inlineStr">
         <is>
-          <t>7.2.b</t>
+          <t>8.2.b</t>
         </is>
       </c>
       <c r="D40" s="4" t="inlineStr">
         <is>
-          <t>Strom aus erneuerbaren Energiequellen</t>
+          <t>b) Strukturelles Defizit</t>
         </is>
       </c>
       <c r="E40" s="4" t="inlineStr">
         <is>
-          <t>Electricity from renewable energy sources</t>
+          <t>b) Structural deficit</t>
         </is>
       </c>
       <c r="F40" s="4" t="inlineStr">
         <is>
-          <t>Anteil des Stroms aus erneuerbaren Energiequellen am Bruttostromverbrauch</t>
+          <t>Strukturelles Defizit</t>
         </is>
       </c>
       <c r="G40" s="4" t="inlineStr">
         <is>
-          <t>Share of electricity from renewable energy sources in gross electricity consumption</t>
+          <t>Structural deficit</t>
         </is>
       </c>
       <c r="H40" s="4" t="inlineStr">
         <is>
-          <t>Anstieg auf 80 % bis 2030</t>
+          <t>Strukturell ausgeglichener Staatshaushalt, gesamtstaatliches strukturelles Defizit von max. 0,5 % des Bruttoinlandsprodukts (BIP), Beibehaltung bis 2030</t>
         </is>
       </c>
       <c r="I40" s="4" t="inlineStr">
         <is>
-          <t>Increase to 80 % by 2030</t>
+          <t>Structurally balanced government budget, general government structural deficit must not exceed 0.5 % of Gross domestic product (GDP), to be maintained until 2030</t>
         </is>
       </c>
       <c r="J40" s="4" t="inlineStr">
         <is>
-          <t>Anstieg auf 80 % bis 2030</t>
+          <t>unter 0,5 % des BIP</t>
         </is>
       </c>
       <c r="K40" s="4" t="inlineStr">
         <is>
-          <t>increase to 80 % by 2030</t>
+          <t>less than 0.5 % of GDP</t>
         </is>
       </c>
       <c r="L40" s="4" t="inlineStr">
         <is>
-          <t>Anteil des Stroms aus erneuerbaren Energiequellen am Bruttostromverbrauch</t>
+          <t>Strukturelles Defizit</t>
         </is>
       </c>
       <c r="M40" s="4" t="inlineStr">
         <is>
-          <t>Share of electricity from renewable energy sources in gross electricity consumption</t>
+          <t>Structural deficit</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="41">
       <c r="A41" s="4" t="inlineStr">
         <is>
-          <t>Z08_B01_P01_Ib01_I01</t>
+          <t>Z08_B02_P01_Ib02_I01</t>
         </is>
       </c>
       <c r="B41" s="4" t="inlineStr">
         <is>
-          <t>Z08_B01_P01_Ib01</t>
+          <t>Z08_B02_P01_Ib02</t>
         </is>
       </c>
       <c r="C41" s="4" t="inlineStr">
         <is>
-          <t>8.1</t>
+          <t>8.2.c</t>
         </is>
       </c>
       <c r="D41" s="4" t="inlineStr">
         <is>
-          <t>Gesamtrohstoffproduktivität</t>
+          <t>Schuldenstandsquote</t>
         </is>
       </c>
       <c r="E41" s="4" t="inlineStr">
         <is>
-          <t>Raw material input productivity</t>
+          <t>Ratio of government debt</t>
         </is>
       </c>
       <c r="F41" s="4" t="inlineStr">
         <is>
-          <t>Gesamtrohstoffproduktivität</t>
+          <t>Schuldenstand</t>
         </is>
       </c>
       <c r="G41" s="4" t="inlineStr">
         <is>
-          <t>Raw material input productivity</t>
+          <t>Government debt</t>
         </is>
       </c>
       <c r="H41" s="4" t="inlineStr">
         <is>
-          <t>Beibehaltung des Trends der Jahre 2000 – 2010 bis 2030</t>
+          <t>Schuldenstandsquote max. 60 % des Bruttoinlandsprodukts (BIP), Beibehaltung bis 2030</t>
         </is>
       </c>
       <c r="I41" s="4" t="inlineStr">
         <is>
-          <t>Trend of the years 2000–2010 to be maintained until 2030</t>
+          <t>Ratio of government debt to Gross domestic product (GDP) must not exceed  60 %, to be maintained until 2030</t>
         </is>
       </c>
       <c r="J41" s="4" t="inlineStr">
         <is>
-          <t>Beibehaltung des Trends der Jahre 2000 - 2010 bis 2030</t>
+          <t>max. 60 % des BIP</t>
         </is>
       </c>
       <c r="K41" s="4" t="inlineStr">
         <is>
-          <t>trend of the years 2000-2010 to be maintained until 2030</t>
+          <t>max. 60 % of GDP</t>
         </is>
       </c>
       <c r="L41" s="4" t="inlineStr">
         <is>
-          <t>Gesamtrohstoffproduktivität</t>
+          <t>Schuldenstand</t>
         </is>
       </c>
       <c r="M41" s="4" t="inlineStr">
         <is>
-          <t>Raw material input productivity</t>
+          <t>Government debt</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="42">
       <c r="A42" s="4" t="inlineStr">
         <is>
-          <t>Z08_B02_P01_Ib01_I01</t>
+          <t>Z08_B03_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B42" s="4" t="inlineStr">
         <is>
-          <t>Z08_B02_P01_Ib01</t>
+          <t>Z08_B03_P01_Ib01</t>
         </is>
       </c>
       <c r="C42" s="4" t="inlineStr">
         <is>
-          <t>8.2.a</t>
+          <t>8.3</t>
         </is>
       </c>
       <c r="D42" s="4" t="inlineStr">
         <is>
-          <t>a) Staatsdefizit</t>
+          <t>Anlageinvestitionen</t>
         </is>
       </c>
       <c r="E42" s="4" t="inlineStr">
         <is>
-          <t>a) Government deficit</t>
+          <t>Gross fixed capital formation</t>
         </is>
       </c>
       <c r="F42" s="4" t="inlineStr">
         <is>
-          <t>Staatsdefizit</t>
+          <t>Verhältnis der Bruttoanlageinvestitionen zum Bruttoinlandsprodukt (BIP)</t>
         </is>
       </c>
       <c r="G42" s="4" t="inlineStr">
         <is>
-          <t>Government deficit</t>
+          <t>Gross fixed capital formation in relation to Gross domestic product (GDP)</t>
         </is>
       </c>
       <c r="H42" s="4" t="inlineStr">
         <is>
-          <t>Jährliches Staatsdefizit kleiner als 3 % des Bruttoinlandsprodukts (BIP), Beibehaltung bis 2030</t>
+          <t>Angemessene Entwicklung des Anteils, Beibehaltung bis 2030</t>
         </is>
       </c>
       <c r="I42" s="4" t="inlineStr">
         <is>
-          <t>Annual government deficit less than 3 % of Gross domestic product (GDP), to be maintained until 2030</t>
+          <t>Appropriate development of the ratio, to be maintained until 2030</t>
         </is>
       </c>
       <c r="J42" s="4" t="inlineStr">
         <is>
-          <t>unter 3 % des BIP</t>
+          <t>angemessene Entwicklung bis 2030</t>
         </is>
       </c>
       <c r="K42" s="4" t="inlineStr">
         <is>
-          <t>less than 3 % of GDP</t>
+          <t>appropriate development by 2030</t>
         </is>
       </c>
       <c r="L42" s="4" t="inlineStr">
         <is>
-          <t>Staatsdefizit</t>
+          <t>Verhältnis der Bruttoanlageinvestitionen zum BIP</t>
         </is>
       </c>
       <c r="M42" s="4" t="inlineStr">
         <is>
-          <t>Government deficit</t>
+          <t>Gross fixed capital formation in relation to GDP</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="43">
       <c r="A43" s="4" t="inlineStr">
         <is>
-          <t>Z08_B02_P01_Ib01_I02</t>
+          <t>Z08_B04_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B43" s="4" t="inlineStr">
         <is>
-          <t>Z08_B02_P01_Ib01</t>
+          <t>Z08_B04_P01_Ib01</t>
         </is>
       </c>
       <c r="C43" s="4" t="inlineStr">
         <is>
-          <t>8.2.b</t>
+          <t>8.4</t>
         </is>
       </c>
       <c r="D43" s="4" t="inlineStr">
         <is>
-          <t>b) Strukturelles Defizit</t>
+          <t>Bruttoinlandsprodukt</t>
         </is>
       </c>
       <c r="E43" s="4" t="inlineStr">
         <is>
-          <t>b) Structural deficit</t>
+          <t>Gross domestic product</t>
         </is>
       </c>
       <c r="F43" s="4" t="inlineStr">
         <is>
-          <t>Strukturelles Defizit</t>
+          <t>Bruttoinlandsprodukt je Einwohnerin und Einwohner</t>
         </is>
       </c>
       <c r="G43" s="4" t="inlineStr">
         <is>
-          <t>Structural deficit</t>
+          <t>Gross domestic product per capita</t>
         </is>
       </c>
       <c r="H43" s="4" t="inlineStr">
         <is>
-          <t>Strukturell ausgeglichener Staatshaushalt, gesamtstaatliches strukturelles Defizit von max. 0,5 % des Bruttoinlandsprodukts (BIP), Beibehaltung bis 2030</t>
+          <t>Stetiges und angemessenes Wirtschaftswachstum bis 2030</t>
         </is>
       </c>
       <c r="I43" s="4" t="inlineStr">
         <is>
-          <t>Structurally balanced government budget, general government structural deficit must not exceed 0.5 % of Gross domestic product (GDP), to be maintained until 2030</t>
+          <t>Steady and appropriate economic growth</t>
         </is>
       </c>
       <c r="J43" s="4" t="inlineStr">
         <is>
-          <t>unter 0,5 % des BIP</t>
+          <t>stetiges und angemessenes Wirtschaftswachstum</t>
         </is>
       </c>
       <c r="K43" s="4" t="inlineStr">
         <is>
-          <t>less than 0.5 % of GDP</t>
+          <t>steady and appropriate economic growth</t>
         </is>
       </c>
       <c r="L43" s="4" t="inlineStr">
         <is>
-          <t>Strukturelles Defizit</t>
+          <t>Bruttoinlandsprodukt je Einwohnerin und Einwohner</t>
         </is>
       </c>
       <c r="M43" s="4" t="inlineStr">
         <is>
-          <t>Structural deficit</t>
+          <t>Gross domestic product per capita</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="44">
       <c r="A44" s="4" t="inlineStr">
         <is>
-          <t>Z08_B02_P01_Ib02_I01</t>
+          <t>Z08_B05_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B44" s="4" t="inlineStr">
         <is>
-          <t>Z08_B02_P01_Ib02</t>
+          <t>Z08_B05_P01_Ib01</t>
         </is>
       </c>
       <c r="C44" s="4" t="inlineStr">
         <is>
-          <t>8.2.c</t>
+          <t>8.5.a</t>
         </is>
       </c>
       <c r="D44" s="4" t="inlineStr">
         <is>
-          <t>Schuldenstandsquote</t>
+          <t>a) Insgesamt (20-64-Jährige)</t>
         </is>
       </c>
       <c r="E44" s="4" t="inlineStr">
         <is>
-          <t>Ratio of government debt</t>
+          <t>a) total (20 to 64-year-olds)</t>
         </is>
       </c>
       <c r="F44" s="4" t="inlineStr">
         <is>
-          <t>Schuldenstand</t>
+          <t>Erwerbstätigenquote (20- bis 64-Jährige)</t>
         </is>
       </c>
       <c r="G44" s="4" t="inlineStr">
         <is>
-          <t>Government debt</t>
+          <t>Employment rate (20 to 64-year-olds)</t>
         </is>
       </c>
       <c r="H44" s="4" t="inlineStr">
         <is>
-          <t>Schuldenstandsquote max. 60 % des Bruttoinlandsprodukts (BIP), Beibehaltung bis 2030</t>
+          <t>Erhöhung auf 83 % bis 2030</t>
         </is>
       </c>
       <c r="I44" s="4" t="inlineStr">
         <is>
-          <t>Ratio of government debt to Gross domestic product (GDP) must not exceed  60 %, to be maintained until 2030</t>
+          <t>Increase to 83 % by 2030</t>
         </is>
       </c>
       <c r="J44" s="4" t="inlineStr">
         <is>
-          <t>max. 60 % des BIP</t>
+          <t>Erhöhung auf 83 % bis 2030</t>
         </is>
       </c>
       <c r="K44" s="4" t="inlineStr">
         <is>
-          <t>max. 60 % of GDP</t>
+          <t>increase to 83 % by 2030</t>
         </is>
       </c>
       <c r="L44" s="4" t="inlineStr">
         <is>
-          <t>Schuldenstand</t>
+          <t>Erwerbstätigenquote insgesamt (20- bis 64-Jährige)</t>
         </is>
       </c>
       <c r="M44" s="4" t="inlineStr">
         <is>
-          <t>Government debt</t>
+          <t>Employment rate, total (20 to 64-year-olds)</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="45">
       <c r="A45" s="4" t="inlineStr">
         <is>
-          <t>Z08_B03_P01_Ib01_I01</t>
+          <t>Z08_B05_P01_Ib01_I02</t>
         </is>
       </c>
       <c r="B45" s="4" t="inlineStr">
         <is>
-          <t>Z08_B03_P01_Ib01</t>
+          <t>Z08_B05_P01_Ib01</t>
         </is>
       </c>
       <c r="C45" s="4" t="inlineStr">
         <is>
-          <t>8.3</t>
+          <t>8.5.b</t>
         </is>
       </c>
       <c r="D45" s="4" t="inlineStr">
         <is>
-          <t>Anlageinvestitionen</t>
+          <t>b) Ältere (60-64-Jährige)</t>
         </is>
       </c>
       <c r="E45" s="4" t="inlineStr">
         <is>
-          <t>Gross fixed capital formation</t>
+          <t>b) older people (60 to 64-year-olds)</t>
         </is>
       </c>
       <c r="F45" s="4" t="inlineStr">
         <is>
-          <t>Verhältnis der Bruttoanlageinvestitionen zum Bruttoinlandsprodukt (BIP)</t>
+          <t>Erwerbstätigenquote (55- bis 64-Jährige)</t>
         </is>
       </c>
       <c r="G45" s="4" t="inlineStr">
         <is>
-          <t>Gross fixed capital formation in relation to Gross domestic product (GDP)</t>
+          <t>Employment rate (60 to 64-year-olds)</t>
         </is>
       </c>
       <c r="H45" s="4" t="inlineStr">
         <is>
-          <t>Angemessene Entwicklung des Anteils, Beibehaltung bis 2030</t>
+          <t>Erhöhung auf 77 % bis 2030</t>
         </is>
       </c>
       <c r="I45" s="4" t="inlineStr">
         <is>
-          <t>Appropriate development of the ratio, to be maintained until 2030</t>
+          <t>Increase to 77 % by 2030</t>
         </is>
       </c>
       <c r="J45" s="4" t="inlineStr">
         <is>
-          <t>angemessene Entwicklung bis 2030</t>
+          <t>Erhöhung auf 77 % bis 2030</t>
         </is>
       </c>
       <c r="K45" s="4" t="inlineStr">
         <is>
-          <t>appropriate development by 2030</t>
+          <t>increase to 77 % by 2030</t>
         </is>
       </c>
       <c r="L45" s="4" t="inlineStr">
         <is>
-          <t>Verhältnis der Bruttoanlageinvestitionen zum BIP</t>
+          <t>Erwerbstätigenquote Ältere (60- bis 64-Jährige)</t>
         </is>
       </c>
       <c r="M45" s="4" t="inlineStr">
         <is>
-          <t>Gross fixed capital formation in relation to GDP</t>
+          <t>Employment rate, older people (60 to 64-year-olds)</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="46">
       <c r="A46" s="4" t="inlineStr">
         <is>
-          <t>Z08_B04_P01_Ib01_I01</t>
+          <t>Z08_B05_P02_Ib01_I01</t>
         </is>
       </c>
       <c r="B46" s="4" t="inlineStr">
         <is>
-          <t>Z08_B04_P01_Ib01</t>
+          <t>Z08_B05_P02_Ib01</t>
         </is>
       </c>
       <c r="C46" s="4" t="inlineStr">
         <is>
-          <t>8.4</t>
+          <t>8.5.c</t>
         </is>
       </c>
       <c r="D46" s="4" t="inlineStr">
         <is>
-          <t>Bruttoinlandsprodukt</t>
+          <t>Tarifgebundene Beschäftigungsverhältnisse</t>
         </is>
       </c>
       <c r="E46" s="4" t="inlineStr">
         <is>
-          <t>Gross domestic product</t>
+          <t>XXXTarifgebundene Beschäftigungsverhältnisse</t>
         </is>
       </c>
       <c r="F46" s="4" t="inlineStr">
         <is>
-          <t>Bruttoinlandsprodukt je Einwohnerin und Einwohner</t>
+          <t>Tarifgebundene Beschäftigungsverhältnisse</t>
         </is>
       </c>
       <c r="G46" s="4" t="inlineStr">
         <is>
-          <t>Gross domestic product per capita</t>
+          <t>XXXTarifgebundene Beschäftigungsverhältnisse</t>
         </is>
       </c>
       <c r="H46" s="4" t="inlineStr">
         <is>
-          <t>Stetiges und angemessenes Wirtschaftswachstum bis 2030</t>
+          <t>Anteil der tarifgebundenen Beschäftigungsverhältnisse bis 2030 erhöhen</t>
         </is>
       </c>
       <c r="I46" s="4" t="inlineStr">
         <is>
-          <t>Steady and appropriate economic growth</t>
+          <t>XXXAnteil der tarifgebundenen Beschäftigungsverhältnisse bis 2030 erhöhen</t>
         </is>
       </c>
       <c r="J46" s="4" t="inlineStr">
         <is>
-          <t>stetiges und angemessenes Wirtschaftswachstum</t>
+          <t>Steigerung</t>
         </is>
       </c>
       <c r="K46" s="4" t="inlineStr">
         <is>
-          <t>steady and appropriate economic growth</t>
+          <t>Increase</t>
         </is>
       </c>
       <c r="L46" s="4" t="inlineStr">
         <is>
-          <t>Bruttoinlandsprodukt je Einwohnerin und Einwohner</t>
+          <t>Tarifgebundene Beschäftigungsverhältnisse</t>
         </is>
       </c>
       <c r="M46" s="4" t="inlineStr">
         <is>
-          <t>Gross domestic product per capita</t>
+          <t>XXXTarifgebundene Beschäftigungsverhältnisse</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="47">
       <c r="A47" s="4" t="inlineStr">
         <is>
-          <t>Z08_B05_P01_Ib01_I01</t>
+          <t>Z08_B06_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B47" s="4" t="inlineStr">
         <is>
-          <t>Z08_B05_P01_Ib01</t>
+          <t>Z08_B06_P01_Ib01</t>
         </is>
       </c>
       <c r="C47" s="4" t="inlineStr">
         <is>
-          <t>8.5.a</t>
+          <t>8.6</t>
         </is>
       </c>
       <c r="D47" s="4" t="inlineStr">
         <is>
-          <t>a) Insgesamt (20-64-Jährige)</t>
+          <t>Freiwillige Nachhaltigkeitsberichterstattung von Unternehmen</t>
         </is>
       </c>
       <c r="E47" s="4" t="inlineStr">
         <is>
-          <t>a) total (20 to 64-year-olds)</t>
+          <t>XXXFreiwillige Nachhaltigkeitsberichterstattung von Unternehmen</t>
         </is>
       </c>
       <c r="F47" s="4" t="inlineStr">
         <is>
-          <t>Erwerbstätigenquote (20- bis 64-Jährige)</t>
+          <t>Freiwillige Nachhaltigkeitsberichterstattung von Unternehmen nach dem Deutschen Nachhaltigkeitskodex (DNK)</t>
         </is>
       </c>
       <c r="G47" s="4" t="inlineStr">
         <is>
-          <t>Employment rate (20 to 64-year-olds)</t>
+          <t>XXXFreiwillige Nachhaltigkeitsberichterstattung von Unternehmen nach dem Deutschen Nachhaltigkeitskodex (DNK)</t>
         </is>
       </c>
       <c r="H47" s="4" t="inlineStr">
         <is>
-          <t>Erhöhung auf 83 % bis 2030</t>
+          <t>Bis zum Jahr 2030 wird die Anzahl der freiwilligen Nachhaltigkeitsberichte gemäß Deutschem Nachhaltigkeitskodex (DNK) deutlich steigen</t>
         </is>
       </c>
       <c r="I47" s="4" t="inlineStr">
         <is>
-          <t>Increase to 83 % by 2030</t>
+          <t>XXXBis zum Jahr 2030 wird die Anzahl der freiwilligen Nachhaltigkeitsberichte gemäß Deutschem Nachhaltigkeitskodex (DNK) deutlich steigen</t>
         </is>
       </c>
       <c r="J47" s="4" t="inlineStr">
         <is>
-          <t>Erhöhung auf 83 % bis 2030</t>
+          <t>Steigerung</t>
         </is>
       </c>
       <c r="K47" s="4" t="inlineStr">
         <is>
-          <t>increase to 83 % by 2030</t>
+          <t>Increase</t>
         </is>
       </c>
       <c r="L47" s="4" t="inlineStr">
         <is>
-          <t>Erwerbstätigenquote insgesamt (20- bis 64-Jährige)</t>
+          <t>Freiwillige Nachhaltigkeitsberichterstattung von Unternehmen</t>
         </is>
       </c>
       <c r="M47" s="4" t="inlineStr">
         <is>
-          <t>Employment rate, total (20 to 64-year-olds)</t>
+          <t>XXXFreiwillige Nachhaltigkeitsberichterstattung von Unternehmen</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="48">
       <c r="A48" s="4" t="inlineStr">
         <is>
-          <t>Z08_B05_P01_Ib01_I02</t>
+          <t>Z09_B01_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B48" s="4" t="inlineStr">
         <is>
-          <t>Z08_B05_P01_Ib01</t>
+          <t>Z09_B01_P01_Ib01</t>
         </is>
       </c>
       <c r="C48" s="4" t="inlineStr">
         <is>
-          <t>8.5.b</t>
+          <t>9.1.a</t>
         </is>
       </c>
       <c r="D48" s="4" t="inlineStr">
         <is>
-          <t>b) Ältere (60-64-Jährige)</t>
+          <t>Ausgaben für Forschung und Entwicklung</t>
         </is>
       </c>
       <c r="E48" s="4" t="inlineStr">
         <is>
-          <t>b) older people (60 to 64-year-olds)</t>
+          <t>Expenditure on research and development</t>
         </is>
       </c>
       <c r="F48" s="4" t="inlineStr">
         <is>
-          <t>Erwerbstätigenquote (60- bis 64-Jährige)</t>
+          <t>Private und öffentliche Ausgaben für Forschung und Entwicklung</t>
         </is>
       </c>
       <c r="G48" s="4" t="inlineStr">
         <is>
-          <t>Employment rate (60 to 64-year-olds)</t>
+          <t>Private and public expenditure on research and development</t>
         </is>
       </c>
       <c r="H48" s="4" t="inlineStr">
         <is>
-          <t>Erhöhung auf 77 % bis 2030</t>
+          <t>Jährlich mindestens 3,5 % des BIP bis 2025</t>
         </is>
       </c>
       <c r="I48" s="4" t="inlineStr">
         <is>
-          <t>Increase to 77 % by 2030</t>
+          <t>At least 3.5 % of GDP per year by 2025</t>
         </is>
       </c>
       <c r="J48" s="4" t="inlineStr">
         <is>
-          <t>Erhöhung auf 77 % bis 2030</t>
+          <t>jährlich mindestens 3,5 % des BIP bis 2025</t>
         </is>
       </c>
       <c r="K48" s="4" t="inlineStr">
         <is>
-          <t>increase to 77 % by 2030</t>
+          <t>at least 3.5 % of GDP per year by 2025</t>
         </is>
       </c>
       <c r="L48" s="4" t="inlineStr">
         <is>
-          <t>Erwerbstätigenquote Ältere (60- bis 64-Jährige)</t>
+          <t>Private und öffentliche Ausgaben für Forschung und Entwicklung</t>
         </is>
       </c>
       <c r="M48" s="4" t="inlineStr">
         <is>
-          <t>Employment rate, older people (60 to 64-year-olds)</t>
+          <t>Private and public expenditure on research and development</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="49">
       <c r="A49" s="4" t="inlineStr">
         <is>
-          <t>Z08_B05_P02_Ib01_I01</t>
+          <t>Z09_B01_P01_Ib02_I01</t>
         </is>
       </c>
       <c r="B49" s="4" t="inlineStr">
         <is>
-          <t>Z08_B05_P02_Ib01</t>
+          <t>Z09_B01_P01_Ib02</t>
         </is>
       </c>
       <c r="C49" s="4" t="inlineStr">
         <is>
-          <t>8.5.c</t>
+          <t>9.1.b</t>
         </is>
       </c>
       <c r="D49" s="4" t="inlineStr">
         <is>
-          <t>Tarifgebundene Beschäftigungsverhältnisse</t>
+          <t>Breitbandverfügbarkeit</t>
         </is>
       </c>
       <c r="E49" s="4" t="inlineStr">
         <is>
-          <t>XXXTarifgebundene Beschäftigungsverhältnisse</t>
+          <t>Broadband availability</t>
         </is>
       </c>
       <c r="F49" s="4" t="inlineStr">
         <is>
-          <t>Tarifgebundene Beschäftigungsverhältnisse</t>
+          <t>Breitbandausbau – Anteil der Haushalte mit Zugang zu Gigabit-Breitbandversorgung</t>
         </is>
       </c>
       <c r="G49" s="4" t="inlineStr">
         <is>
-          <t>XXXTarifgebundene Beschäftigungsverhältnisse</t>
+          <t>Roll-out of broadband – Share of households with access to gigabit broadband services</t>
         </is>
       </c>
       <c r="H49" s="4" t="inlineStr">
         <is>
-          <t>Anteil der tarifgebundenen Beschäftigungsverhältnisse bis 2030 erhöhen</t>
+          <t>Flächendeckender Aufbau von Gigabitnetzen bis 2025</t>
         </is>
       </c>
       <c r="I49" s="4" t="inlineStr">
         <is>
-          <t>XXXAnteil der tarifgebundenen Beschäftigungsverhältnisse bis 2030 erhöhen</t>
+          <t>Universal gigabit network Roll-out by 2025</t>
         </is>
       </c>
       <c r="J49" s="4" t="inlineStr">
         <is>
-          <t>Steigerung</t>
+          <t>flächendeckender Aufbau bis 2025</t>
         </is>
       </c>
       <c r="K49" s="4" t="inlineStr">
         <is>
-          <t>Increase</t>
+          <t>universal Roll-out by 2025</t>
         </is>
       </c>
       <c r="L49" s="4" t="inlineStr">
         <is>
-          <t>Tarifgebundene Beschäftigungsverhältnisse</t>
+          <t>Breitbandausbau – Anteil der Haushalte mit Zugang zu Gigabit-Breitbandversorgung</t>
         </is>
       </c>
       <c r="M49" s="4" t="inlineStr">
         <is>
-          <t>XXXTarifgebundene Beschäftigungsverhältnisse</t>
+          <t>Roll-out of broadband – Share of households with access to gigabit broadband services</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="50">
       <c r="A50" s="4" t="inlineStr">
         <is>
-          <t>Z08_B06_P01_Ib01_I01</t>
+          <t>Z10_B01_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="B50" s="4" t="inlineStr">
         <is>
-          <t>Z08_B06_P01_Ib01</t>
+          <t>Z10_B01_P01_Ib01</t>
         </is>
       </c>
       <c r="C50" s="4" t="inlineStr">
         <is>
-          <t>8.6</t>
+          <t>10.1</t>
         </is>
       </c>
       <c r="D50" s="4" t="inlineStr">
         <is>
-          <t>Freiwillige Nachhaltigkeitsberichterstattung von Unternehmen</t>
+          <t>Abschlussquote</t>
         </is>
       </c>
       <c r="E50" s="4" t="inlineStr">
         <is>
-          <t>XXXFreiwillige Nachhaltigkeitsberichterstattung von Unternehmen</t>
+          <t>Graduation rate</t>
         </is>
       </c>
       <c r="F50" s="4" t="inlineStr">
         <is>
-          <t>Freiwillige Nachhaltigkeitsberichterstattung von Unternehmen nach dem Deutschen Nachhaltigkeitskodex (DNK)</t>
+          <t>Ausländische Schulabsolventinnen und Schulabsolventen</t>
         </is>
       </c>
       <c r="G50" s="4" t="inlineStr">
         <is>
-          <t>XXXFreiwillige Nachhaltigkeitsberichterstattung von Unternehmen nach dem Deutschen Nachhaltigkeitskodex (DNK)</t>
+          <t>Foreign school graduates</t>
         </is>
       </c>
       <c r="H50" s="4" t="inlineStr">
         <is>
-          <t>Bis zum Jahr 2030 wird die Anzahl der freiwilligen Nachhaltigkeitsberichte gemäß Deutschem Nachhaltigkeitskodex (DNK) deutlich steigen</t>
+          <t>Erhöhung des Anteils der ausländischen Schulabgänger mit mindestens Hauptschulabschluss und Angleichung an die Quote deutscher Schulabgänger bis 2030</t>
         </is>
       </c>
       <c r="I50" s="4